--- a/General/Curriculum (Personalized).xlsx
+++ b/General/Curriculum (Personalized).xlsx
@@ -30,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="900" uniqueCount="601">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="902" uniqueCount="605">
   <si>
     <t>Week</t>
   </si>
@@ -4046,9 +4046,6 @@
     <t>document.write(sayHello);</t>
   </si>
   <si>
-    <t>Booleans</t>
-  </si>
-  <si>
     <t>These are useful when you need a data type that can only have one of two values, such as Yes/No, On/Off, True/False.</t>
   </si>
   <si>
@@ -4077,7 +4074,694 @@
   </si>
   <si>
     <r>
-      <t>As strings must be written within quotes, quotes inside the </t>
+      <t>var</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> sayHello = 'Hello world! </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>\'</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>I am a JavaScript programmer.</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>\'</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> ';</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>If you begin a </t>
+    </r>
+    <r>
+      <rPr>
+        <u/>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>string</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t> with a single quote, then you should also end it with a single quote. The same rule applies to double quotes. Otherwise, JavaScript will become confused.</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>In JavaScript Boolean, you can have one of two values, either </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>true </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>or </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>false</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>. </t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>var</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> isHoliday = false;</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>The Boolean value of 0 (zero), </t>
+    </r>
+    <r>
+      <rPr>
+        <u/>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>null</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>, </t>
+    </r>
+    <r>
+      <rPr>
+        <u/>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>undefined</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>, empty </t>
+    </r>
+    <r>
+      <rPr>
+        <u/>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>string</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t> is </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>false</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>.</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>Everything with a "real" value is </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>true</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>.</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>var</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> x = 10 + 5;</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>var</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> x = 10;</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>var</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> y = x + 5 + 22 + 45 + 6548;</t>
+    </r>
+  </si>
+  <si>
+    <t>Increment &amp; Decrement</t>
+  </si>
+  <si>
+    <t>Some examples:</t>
+  </si>
+  <si>
+    <t>As in school mathematics, you can change the order of the arithmetic operations by using parentheses.</t>
+  </si>
+  <si>
+    <r>
+      <t>Example: </t>
+    </r>
+    <r>
+      <rPr>
+        <u/>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>var</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t> x = (100 + 50) * 3;</t>
+    </r>
+  </si>
+  <si>
+    <t>Assignment Operators</t>
+  </si>
+  <si>
+    <t>Assignment operators assign values to JavaScript variables.</t>
+  </si>
+  <si>
+    <t>Comparison Operators</t>
+  </si>
+  <si>
+    <r>
+      <t>Comparison operators are used in logical statements to determine equality or difference between variables or values. They return </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>true</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t> or </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>false</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>. </t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>The </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>equal to (==)</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t> operator checks whether the operands' values are equal.</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>var</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> num = 10;</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">// num == 8 will return </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>false</t>
+    </r>
+  </si>
+  <si>
+    <t>When using operators, be sure that the arguments are of the same data type; numbers should be compared with numbers, strings with strings, and so on.</t>
+  </si>
+  <si>
+    <t>Logical Operators</t>
+  </si>
+  <si>
+    <r>
+      <t>The table below explains the logical operators (</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>AND</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>, </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>OR</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>, </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>NOT</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>).</t>
+    </r>
+  </si>
+  <si>
+    <t>Conditional (Ternary) Operator</t>
+  </si>
+  <si>
+    <t>For example:</t>
+  </si>
+  <si>
+    <t>Logical operators allow you to connect as many expressions as you wish.</t>
+  </si>
+  <si>
+    <r>
+      <t>In the following example, we have connected two Boolean expressions with the </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>AND </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>operator.</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>For this expression to be </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>true</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>, both conditions must be </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>true</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>.</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>- The first condition determines whether 4 is greater than 2, which is </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>true</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>. </t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>- The second condition determines whether 10 is less than 15, which is also </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>true</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>. </t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>Based on these results, the whole expression is found to be </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>true</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>.</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>Another JavaScript conditional operator assigns a value to a </t>
     </r>
     <r>
       <rPr>
@@ -4087,7 +4771,7 @@
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
-      <t>string</t>
+      <t>variable</t>
     </r>
     <r>
       <rPr>
@@ -4097,28 +4781,12 @@
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
-      <t> must be handled. The </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>backslash (\) escape character</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t> turns special characters into </t>
+      <t>, based on some condition.</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>If the </t>
     </r>
     <r>
       <rPr>
@@ -4128,7 +4796,7 @@
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
-      <t>string</t>
+      <t>variable</t>
     </r>
     <r>
       <rPr>
@@ -4138,69 +4806,28 @@
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
-      <t> characters.</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t>var</t>
-    </r>
-    <r>
-      <rPr>
+      <t> </t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
         <sz val="11"/>
         <color rgb="FF000000"/>
         <rFont val="Calibri"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
-      <t xml:space="preserve"> sayHello = 'Hello world! </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
+      <t>age </t>
+    </r>
+    <r>
+      <rPr>
         <sz val="11"/>
         <color rgb="FF000000"/>
         <rFont val="Calibri"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
-      <t>\'</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>I am a JavaScript programmer.</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>\'</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> ';</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t>The escape character (\) can also be used to insert other special characters into a </t>
+      <t>is a value below 18, the value of the </t>
     </r>
     <r>
       <rPr>
@@ -4210,7 +4837,7 @@
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
-      <t>string</t>
+      <t>variable</t>
     </r>
     <r>
       <rPr>
@@ -4220,12 +4847,119 @@
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
-      <t>.</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t>These special characters can be added to a text </t>
+      <t> </t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>isAdult </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>will be "Too young". Otherwise the value of </t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>isAdult </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>will be "Old enough".</t>
+    </r>
+  </si>
+  <si>
+    <t>String Operators</t>
+  </si>
+  <si>
+    <t>Concatenation can be used to build strings by joining together multiple strings, or by joining strings with other types: </t>
+  </si>
+  <si>
+    <t>document.write(mystring1 + mystring2);</t>
+  </si>
+  <si>
+    <r>
+      <t>The most useful operator for strings is </t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>concatenation</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>, represented by the + sign. </t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>var</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> mystring1 = "I am learning ";</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>var</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> mystring2 = "JavaScript with SoloLearn.";</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>The above example declares and initializes two </t>
     </r>
     <r>
       <rPr>
@@ -4245,1010 +4979,6 @@
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
-      <t> using the backslash sign.</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t>If you begin a </t>
-    </r>
-    <r>
-      <rPr>
-        <u/>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>string</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t> with a single quote, then you should also end it with a single quote. The same rule applies to double quotes. Otherwise, JavaScript will become confused.</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t>In JavaScript Boolean, you can have one of two values, either </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>true </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>or </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>false</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>. </t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t>Example:</t>
-    </r>
-    <r>
-      <rPr>
-        <u/>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>var</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> isActive = true;</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t>var</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> isHoliday = false;</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t>The Boolean value of 0 (zero), </t>
-    </r>
-    <r>
-      <rPr>
-        <u/>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>null</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>, </t>
-    </r>
-    <r>
-      <rPr>
-        <u/>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>undefined</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>, empty </t>
-    </r>
-    <r>
-      <rPr>
-        <u/>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>string</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t> is </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>false</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>.</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t>Everything with a "real" value is </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>true</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>.</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t>var</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> x = 10 + 5;</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t>var</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> x = 10;</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t>var</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> y = x + 5 + 22 + 45 + 6548;</t>
-    </r>
-  </si>
-  <si>
-    <t>Increment &amp; Decrement</t>
-  </si>
-  <si>
-    <t>Increment ++</t>
-  </si>
-  <si>
-    <t>The increment operator increments the numeric value of its operand by one. If placed before the operand, it returns the incremented value. If placed after the operand, it returns the original value and then increments the operand.</t>
-  </si>
-  <si>
-    <t>Decrement --</t>
-  </si>
-  <si>
-    <t>The decrement operator decrements the numeric value of its operand by one. If placed before the operand, it returns the decremented value. If placed after the operand, it returns the original value and then decrements the operand. </t>
-  </si>
-  <si>
-    <t>Some examples:</t>
-  </si>
-  <si>
-    <t>As in school mathematics, you can change the order of the arithmetic operations by using parentheses.</t>
-  </si>
-  <si>
-    <r>
-      <t>Example: </t>
-    </r>
-    <r>
-      <rPr>
-        <u/>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>var</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t> x = (100 + 50) * 3;</t>
-    </r>
-  </si>
-  <si>
-    <t>Assignment Operators</t>
-  </si>
-  <si>
-    <t>Assignment operators assign values to JavaScript variables.</t>
-  </si>
-  <si>
-    <t>Comparison Operators</t>
-  </si>
-  <si>
-    <r>
-      <t>Comparison operators are used in logical statements to determine equality or difference between variables or values. They return </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>true</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t> or </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>false</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>. </t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t>The </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>equal to (==)</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t> operator checks whether the operands' values are equal.</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t>var</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> num = 10;</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">// num == 8 will return </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>false</t>
-    </r>
-  </si>
-  <si>
-    <t>The table below explains the comparison operators.</t>
-  </si>
-  <si>
-    <t>When using operators, be sure that the arguments are of the same data type; numbers should be compared with numbers, strings with strings, and so on.</t>
-  </si>
-  <si>
-    <t>Logical Operators</t>
-  </si>
-  <si>
-    <r>
-      <t>Logical </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>Operators, also known as </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>Boolean </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>Operators, evaluate the expression and return </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>true </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>or </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>false</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>.</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t>The table below explains the logical operators (</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>AND</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>, </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>OR</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>, </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>NOT</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>).</t>
-    </r>
-  </si>
-  <si>
-    <t>(4 &gt; 2) &amp;&amp; (10 &lt; 15)Try It Yourself</t>
-  </si>
-  <si>
-    <t>Conditional (Ternary) Operator</t>
-  </si>
-  <si>
-    <t>For example:</t>
-  </si>
-  <si>
-    <t>var isAdult = (age &lt; 18) ? "Too young": "Old enough";Try It Yourself</t>
-  </si>
-  <si>
-    <t>Logical operators allow you to connect as many expressions as you wish.</t>
-  </si>
-  <si>
-    <r>
-      <t>In the following example, we have connected two Boolean expressions with the </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>AND </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>operator.</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t>For this expression to be </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>true</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>, both conditions must be </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>true</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>.</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t>- The first condition determines whether 4 is greater than 2, which is </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>true</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>. </t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t>- The second condition determines whether 10 is less than 15, which is also </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>true</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>. </t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t>Based on these results, the whole expression is found to be </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>true</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>.</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t>Another JavaScript conditional operator assigns a value to a </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF36ABCB"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>variable</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>, based on some condition.</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t>Syntax:</t>
-    </r>
-    <r>
-      <rPr>
-        <u/>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>variable</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> = (condition) ? value1: value2 </t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t>If the </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF36ABCB"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>variable</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t> </t>
-    </r>
-    <r>
-      <rPr>
-        <i/>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>age </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>is a value below 18, the value of the </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF36ABCB"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>variable</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t> </t>
-    </r>
-    <r>
-      <rPr>
-        <i/>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>isAdult </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>will be "Too young". Otherwise the value of </t>
-    </r>
-    <r>
-      <rPr>
-        <i/>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>isAdult </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>will be "Old enough".</t>
-    </r>
-  </si>
-  <si>
-    <t>String Operators</t>
-  </si>
-  <si>
-    <t>Concatenation can be used to build strings by joining together multiple strings, or by joining strings with other types: </t>
-  </si>
-  <si>
-    <t>document.write(mystring1 + mystring2);</t>
-  </si>
-  <si>
-    <r>
-      <t>The most useful operator for strings is </t>
-    </r>
-    <r>
-      <rPr>
-        <i/>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>concatenation</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>, represented by the + sign. </t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t>var</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> mystring1 = "I am learning ";</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t>var</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> mystring2 = "JavaScript with SoloLearn.";</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t>The above example declares and initializes two </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF36ABCB"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>string</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
       <t> variables, and then concatenates them.</t>
     </r>
   </si>
@@ -5293,8 +5023,148 @@
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
-      <t xml:space="preserve"> Organize this stuff (from SoloLearn.</t>
-    </r>
+      <t xml:space="preserve"> Organize this stuff (from SoloLearn.)</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Note:</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> Whenever you create a webpage, the main page should be titled: index.html</t>
+    </r>
+  </si>
+  <si>
+    <t>https://developer.mozilla.org/en-US/docs/Web</t>
+  </si>
+  <si>
+    <t>Must be written within quotes.</t>
+  </si>
+  <si>
+    <t>Quotes inside the string must be handled. The backslash (\) escape character turns special characters into string characters.</t>
+  </si>
+  <si>
+    <r>
+      <t>Example:</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <u/>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>var</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> isActive = true;</t>
+    </r>
+  </si>
+  <si>
+    <t>{after each iteration, we're going console.log i, which is going to change throuh each iteration, because we're adding 1 to it.</t>
+  </si>
+  <si>
+    <t>These things will print out in the console, not on the page itself. It'll stop at numbers before 10 unless we say i&lt;=10 in the condition}</t>
+  </si>
+  <si>
+    <t>The Increment Operator (Increment ++)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">The Decrement Operator (Decrement --) </t>
+  </si>
+  <si>
+    <t>The numeric value of its operand by one.</t>
+  </si>
+  <si>
+    <t>If placed before the operand, it returns the incremented value.</t>
+  </si>
+  <si>
+    <t>If placed after the operand, it returns the original value and then increments the operand.</t>
+  </si>
+  <si>
+    <t>If placed before the operand, it returns the decremented value.</t>
+  </si>
+  <si>
+    <t>If placed after the operand, it returns the original value and then decrements the operand. </t>
+  </si>
+  <si>
+    <t>Decrements the numeric value of its operand by one.</t>
+  </si>
+  <si>
+    <t>(4 &gt; 2) &amp;&amp; (10 &lt; 15)</t>
+  </si>
+  <si>
+    <r>
+      <t>Syntax:</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <u/>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>variable</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> = (condition) ? value1: value2 </t>
+    </r>
+  </si>
+  <si>
+    <t>var isAdult = (age &lt; 18) ? "Too young": "Old enough";</t>
   </si>
 </sst>
 </file>
@@ -5305,7 +5175,7 @@
     <numFmt numFmtId="6" formatCode="&quot;$&quot;#,##0_);[Red]\(&quot;$&quot;#,##0\)"/>
     <numFmt numFmtId="164" formatCode="m/d"/>
   </numFmts>
-  <fonts count="51">
+  <fonts count="50">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -5623,12 +5493,6 @@
       <color rgb="FFCC66CC"/>
       <name val="Courier New"/>
       <family val="3"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="17"/>
-      <color rgb="FF000000"/>
-      <name val="Roboto"/>
     </font>
   </fonts>
   <fills count="10">
@@ -6480,7 +6344,7 @@
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="28" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="273">
+  <cellXfs count="270">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -6864,286 +6728,6 @@
     <xf numFmtId="0" fontId="36" fillId="8" borderId="0" xfId="2" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="35" xfId="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="5" borderId="35" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="5" borderId="38" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="33" xfId="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="35" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="38" xfId="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="5" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="4" borderId="60" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="4" borderId="61" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="33" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="35" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="38" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="33" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="6" xfId="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="33" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="35" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="5" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="5" borderId="34" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="5" borderId="36" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="5" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="5" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="5" borderId="37" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="23" xfId="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="37" xfId="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="34" xfId="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="36" xfId="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="37" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="5" borderId="23" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="5" borderId="37" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="31" xfId="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="32" xfId="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="32" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="23" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="37" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="5" borderId="31" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="5" borderId="32" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="32" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="23" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="5" borderId="32" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="5" borderId="1" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="32" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="23" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="5" xfId="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="32" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="4" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="4" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="4" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="5" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="31" fillId="8" borderId="52" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="34" fillId="0" borderId="55" xfId="2" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="34" fillId="0" borderId="57" xfId="2" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="32" fillId="9" borderId="53" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="28" fillId="0" borderId="0" xfId="2" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="32" fillId="8" borderId="0" xfId="2" applyFont="1" applyFill="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="32" fillId="9" borderId="0" xfId="2" applyFont="1" applyFill="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="34" fillId="0" borderId="58" xfId="2" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="32" fillId="0" borderId="0" xfId="2" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="32" fillId="8" borderId="53" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="31" fillId="0" borderId="52" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="32" fillId="0" borderId="53" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="31" fillId="0" borderId="52" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="42" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="43" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="44" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="24" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="26" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="25" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1"/>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="37" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -7173,10 +6757,6 @@
     <xf numFmtId="0" fontId="44" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" indent="1"/>
     </xf>
-    <xf numFmtId="0" fontId="50" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
@@ -7186,10 +6766,287 @@
     <xf numFmtId="0" fontId="19" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="5" borderId="34" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="23" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="5" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="5" borderId="23" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="5" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="32" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="34" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="5" borderId="31" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="32" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="5" borderId="32" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="5" borderId="32" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="32" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="23" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="23" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="31" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="5" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="32" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="23" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="5" borderId="1" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="37" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="35" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="38" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="37" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="35" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="36" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="5" borderId="36" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="5" borderId="37" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="5" borderId="37" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="37" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="35" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="38" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="32" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="33" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="33" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="5" borderId="35" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="5" borderId="38" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="5" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="5" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="5" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="60" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="61" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="33" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="6" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="33" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="35" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="31" fillId="0" borderId="52" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="34" fillId="0" borderId="55" xfId="2" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="34" fillId="0" borderId="57" xfId="2" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="32" fillId="0" borderId="53" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="0" xfId="2" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="32" fillId="9" borderId="0" xfId="2" applyFont="1" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="32" fillId="0" borderId="0" xfId="2" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="34" fillId="0" borderId="58" xfId="2" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="31" fillId="8" borderId="52" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="32" fillId="9" borderId="53" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="31" fillId="0" borderId="52" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="32" fillId="8" borderId="53" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="32" fillId="8" borderId="0" xfId="2" applyFont="1" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="24" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="26" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="25" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="42" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="43" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="44" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="41" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="3">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -7468,13 +7325,13 @@
     <xdr:from>
       <xdr:col>0</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>88</xdr:row>
+      <xdr:row>129</xdr:row>
       <xdr:rowOff>85725</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>9</xdr:col>
       <xdr:colOff>517139</xdr:colOff>
-      <xdr:row>105</xdr:row>
+      <xdr:row>146</xdr:row>
       <xdr:rowOff>171450</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -7522,19 +7379,19 @@
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
       <xdr:col>0</xdr:col>
-      <xdr:colOff>9526</xdr:colOff>
-      <xdr:row>291</xdr:row>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>164</xdr:row>
       <xdr:rowOff>9525</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>6</xdr:col>
-      <xdr:colOff>511550</xdr:colOff>
-      <xdr:row>304</xdr:row>
-      <xdr:rowOff>19050</xdr:rowOff>
+      <xdr:colOff>354393</xdr:colOff>
+      <xdr:row>175</xdr:row>
+      <xdr:rowOff>57150</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="9" name="Picture 8" descr="https://api.sololearn.com/DownloadFile?id=2786"/>
+        <xdr:cNvPr id="11" name="Picture 10" descr="https://api.sololearn.com/DownloadFile?id=2745"/>
         <xdr:cNvPicPr>
           <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
         </xdr:cNvPicPr>
@@ -7554,62 +7411,7 @@
       </xdr:blipFill>
       <xdr:spPr bwMode="auto">
         <a:xfrm>
-          <a:off x="9526" y="57388125"/>
-          <a:ext cx="4159624" cy="2486025"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:noFill/>
-        <a:extLst>
-          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
-            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
-              <a:solidFill>
-                <a:srgbClr val="FFFFFF"/>
-              </a:solidFill>
-            </a14:hiddenFill>
-          </a:ext>
-        </a:extLst>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor editAs="oneCell">
-    <xdr:from>
-      <xdr:col>0</xdr:col>
-      <xdr:colOff>9525</xdr:colOff>
-      <xdr:row>344</xdr:row>
-      <xdr:rowOff>161925</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>6</xdr:col>
-      <xdr:colOff>363918</xdr:colOff>
-      <xdr:row>356</xdr:row>
-      <xdr:rowOff>19050</xdr:rowOff>
-    </xdr:to>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="11" name="Picture 10" descr="https://api.sololearn.com/DownloadFile?id=2745"/>
-        <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
-        </xdr:cNvPicPr>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId3">
-          <a:extLst>
-            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
-              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
-            </a:ext>
-          </a:extLst>
-        </a:blip>
-        <a:srcRect/>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </xdr:blipFill>
-      <xdr:spPr bwMode="auto">
-        <a:xfrm>
-          <a:off x="9525" y="66779775"/>
+          <a:off x="0" y="28032075"/>
           <a:ext cx="4011993" cy="2143125"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -7633,13 +7435,13 @@
     <xdr:from>
       <xdr:col>0</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>372</xdr:row>
+      <xdr:row>194</xdr:row>
       <xdr:rowOff>9526</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>7</xdr:col>
       <xdr:colOff>19050</xdr:colOff>
-      <xdr:row>384</xdr:row>
+      <xdr:row>206</xdr:row>
       <xdr:rowOff>4782</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -7650,7 +7452,7 @@
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId4">
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId3">
           <a:extLst>
             <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
               <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
@@ -7664,7 +7466,7 @@
       </xdr:blipFill>
       <xdr:spPr bwMode="auto">
         <a:xfrm>
-          <a:off x="0" y="70932676"/>
+          <a:off x="0" y="70551676"/>
           <a:ext cx="4286250" cy="2281256"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -7688,13 +7490,13 @@
     <xdr:from>
       <xdr:col>0</xdr:col>
       <xdr:colOff>9525</xdr:colOff>
-      <xdr:row>388</xdr:row>
+      <xdr:row>210</xdr:row>
       <xdr:rowOff>1</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>7</xdr:col>
       <xdr:colOff>9525</xdr:colOff>
-      <xdr:row>400</xdr:row>
+      <xdr:row>222</xdr:row>
       <xdr:rowOff>51793</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -7705,7 +7507,7 @@
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId5">
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId4">
           <a:extLst>
             <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
               <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
@@ -7743,13 +7545,13 @@
     <xdr:from>
       <xdr:col>0</xdr:col>
       <xdr:colOff>9525</xdr:colOff>
-      <xdr:row>416</xdr:row>
+      <xdr:row>233</xdr:row>
       <xdr:rowOff>9526</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>6</xdr:col>
       <xdr:colOff>7448</xdr:colOff>
-      <xdr:row>427</xdr:row>
+      <xdr:row>244</xdr:row>
       <xdr:rowOff>9526</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -7760,7 +7562,7 @@
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId6">
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId5">
           <a:extLst>
             <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
               <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
@@ -7798,18 +7600,73 @@
     <xdr:from>
       <xdr:col>0</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>433</xdr:row>
+      <xdr:row>256</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>7</xdr:col>
       <xdr:colOff>28707</xdr:colOff>
-      <xdr:row>440</xdr:row>
+      <xdr:row>263</xdr:row>
       <xdr:rowOff>180975</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
         <xdr:cNvPr id="17" name="Picture 16" descr="https://api.sololearn.com/DownloadFile?id=2749"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId6">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:srcRect/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="0" y="82867500"/>
+          <a:ext cx="4295907" cy="1514475"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:extLst>
+          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:solidFill>
+                <a:srgbClr val="FFFFFF"/>
+              </a:solidFill>
+            </a14:hiddenFill>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>106</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>502024</xdr:colOff>
+      <xdr:row>119</xdr:row>
+      <xdr:rowOff>9525</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="10" name="Picture 9" descr="https://api.sololearn.com/DownloadFile?id=2786"/>
         <xdr:cNvPicPr>
           <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
         </xdr:cNvPicPr>
@@ -7829,8 +7686,8 @@
       </xdr:blipFill>
       <xdr:spPr bwMode="auto">
         <a:xfrm>
-          <a:off x="0" y="82867500"/>
-          <a:ext cx="4295907" cy="1514475"/>
+          <a:off x="0" y="16954500"/>
+          <a:ext cx="4159624" cy="2486025"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -8117,8 +7974,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:M64"/>
   <sheetViews>
-    <sheetView topLeftCell="D1" workbookViewId="0">
-      <selection activeCell="D10" sqref="D10"/>
+    <sheetView topLeftCell="A43" workbookViewId="0">
+      <selection activeCell="E9" sqref="E9:E10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -8153,21 +8010,21 @@
       <c r="H1" s="35" t="s">
         <v>193</v>
       </c>
-      <c r="I1" s="224" t="s">
+      <c r="I1" s="181" t="s">
         <v>7</v>
       </c>
-      <c r="J1" s="225"/>
-      <c r="K1" s="226"/>
-      <c r="L1" s="154" t="s">
+      <c r="J1" s="182"/>
+      <c r="K1" s="183"/>
+      <c r="L1" s="244" t="s">
         <v>8</v>
       </c>
-      <c r="M1" s="155"/>
+      <c r="M1" s="245"/>
     </row>
     <row r="2" spans="1:13" ht="15.75" customHeight="1">
-      <c r="A2" s="208">
+      <c r="A2" s="172">
         <v>1</v>
       </c>
-      <c r="B2" s="202" t="s">
+      <c r="B2" s="174" t="s">
         <v>9</v>
       </c>
       <c r="C2" s="8" t="s">
@@ -8176,145 +8033,145 @@
       <c r="D2" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="E2" s="177" t="s">
+      <c r="E2" s="217" t="s">
         <v>12</v>
       </c>
-      <c r="F2" s="192"/>
-      <c r="G2" s="178"/>
-      <c r="H2" s="178"/>
-      <c r="I2" s="178" t="s">
+      <c r="F2" s="219"/>
+      <c r="G2" s="189"/>
+      <c r="H2" s="189"/>
+      <c r="I2" s="189" t="s">
         <v>10</v>
       </c>
-      <c r="J2" s="178" t="s">
+      <c r="J2" s="189" t="s">
         <v>14</v>
       </c>
-      <c r="K2" s="178" t="s">
+      <c r="K2" s="189" t="s">
         <v>15</v>
       </c>
-      <c r="L2" s="150" t="s">
+      <c r="L2" s="238" t="s">
         <v>16</v>
       </c>
-      <c r="M2" s="150" t="s">
+      <c r="M2" s="238" t="s">
         <v>343</v>
       </c>
     </row>
     <row r="3" spans="1:13" ht="15.75" customHeight="1">
-      <c r="A3" s="195"/>
-      <c r="B3" s="203"/>
+      <c r="A3" s="171"/>
+      <c r="B3" s="175"/>
       <c r="C3" s="32" t="s">
         <v>17</v>
       </c>
       <c r="D3" s="4" t="s">
         <v>18</v>
       </c>
-      <c r="E3" s="172"/>
-      <c r="F3" s="181"/>
-      <c r="G3" s="169"/>
-      <c r="H3" s="169"/>
-      <c r="I3" s="169"/>
-      <c r="J3" s="169"/>
-      <c r="K3" s="169"/>
-      <c r="L3" s="147"/>
-      <c r="M3" s="147"/>
+      <c r="E3" s="191"/>
+      <c r="F3" s="216"/>
+      <c r="G3" s="185"/>
+      <c r="H3" s="185"/>
+      <c r="I3" s="185"/>
+      <c r="J3" s="185"/>
+      <c r="K3" s="185"/>
+      <c r="L3" s="224"/>
+      <c r="M3" s="224"/>
     </row>
     <row r="4" spans="1:13" ht="15.75" customHeight="1">
-      <c r="A4" s="195"/>
-      <c r="B4" s="203"/>
+      <c r="A4" s="171"/>
+      <c r="B4" s="175"/>
       <c r="C4" s="32" t="s">
         <v>19</v>
       </c>
       <c r="D4" s="4" t="s">
         <v>20</v>
       </c>
-      <c r="E4" s="172"/>
-      <c r="F4" s="181"/>
-      <c r="G4" s="169"/>
-      <c r="H4" s="169"/>
-      <c r="I4" s="169"/>
-      <c r="J4" s="169"/>
-      <c r="K4" s="169"/>
-      <c r="L4" s="147"/>
-      <c r="M4" s="147"/>
+      <c r="E4" s="191"/>
+      <c r="F4" s="216"/>
+      <c r="G4" s="185"/>
+      <c r="H4" s="185"/>
+      <c r="I4" s="185"/>
+      <c r="J4" s="185"/>
+      <c r="K4" s="185"/>
+      <c r="L4" s="224"/>
+      <c r="M4" s="224"/>
     </row>
     <row r="5" spans="1:13" ht="15.75" customHeight="1">
-      <c r="A5" s="195"/>
-      <c r="B5" s="203"/>
+      <c r="A5" s="171"/>
+      <c r="B5" s="175"/>
       <c r="C5" s="32" t="s">
         <v>21</v>
       </c>
       <c r="D5" s="4"/>
-      <c r="E5" s="172"/>
-      <c r="F5" s="181"/>
-      <c r="G5" s="169"/>
-      <c r="H5" s="169"/>
-      <c r="I5" s="169"/>
-      <c r="J5" s="169"/>
-      <c r="K5" s="169"/>
-      <c r="L5" s="147"/>
-      <c r="M5" s="147"/>
+      <c r="E5" s="191"/>
+      <c r="F5" s="216"/>
+      <c r="G5" s="185"/>
+      <c r="H5" s="185"/>
+      <c r="I5" s="185"/>
+      <c r="J5" s="185"/>
+      <c r="K5" s="185"/>
+      <c r="L5" s="224"/>
+      <c r="M5" s="224"/>
     </row>
     <row r="6" spans="1:13" ht="15.75" customHeight="1">
-      <c r="A6" s="195"/>
-      <c r="B6" s="203"/>
+      <c r="A6" s="171"/>
+      <c r="B6" s="175"/>
       <c r="C6" s="32" t="s">
         <v>14</v>
       </c>
       <c r="D6" s="4" t="s">
         <v>22</v>
       </c>
-      <c r="E6" s="172"/>
-      <c r="F6" s="181"/>
-      <c r="G6" s="169"/>
-      <c r="H6" s="169"/>
-      <c r="I6" s="169"/>
-      <c r="J6" s="169"/>
-      <c r="K6" s="169"/>
-      <c r="L6" s="147"/>
-      <c r="M6" s="147"/>
+      <c r="E6" s="191"/>
+      <c r="F6" s="216"/>
+      <c r="G6" s="185"/>
+      <c r="H6" s="185"/>
+      <c r="I6" s="185"/>
+      <c r="J6" s="185"/>
+      <c r="K6" s="185"/>
+      <c r="L6" s="224"/>
+      <c r="M6" s="224"/>
     </row>
     <row r="7" spans="1:13" ht="15.75" customHeight="1">
-      <c r="A7" s="195"/>
-      <c r="B7" s="203"/>
+      <c r="A7" s="171"/>
+      <c r="B7" s="175"/>
       <c r="C7" s="32" t="s">
         <v>15</v>
       </c>
       <c r="D7" s="4" t="s">
         <v>20</v>
       </c>
-      <c r="E7" s="172"/>
-      <c r="F7" s="181"/>
-      <c r="G7" s="169"/>
-      <c r="H7" s="169"/>
-      <c r="I7" s="169"/>
-      <c r="J7" s="169"/>
-      <c r="K7" s="169"/>
-      <c r="L7" s="147"/>
-      <c r="M7" s="147"/>
+      <c r="E7" s="191"/>
+      <c r="F7" s="216"/>
+      <c r="G7" s="185"/>
+      <c r="H7" s="185"/>
+      <c r="I7" s="185"/>
+      <c r="J7" s="185"/>
+      <c r="K7" s="185"/>
+      <c r="L7" s="224"/>
+      <c r="M7" s="224"/>
     </row>
     <row r="8" spans="1:13" ht="15.75" customHeight="1" thickBot="1">
-      <c r="A8" s="196"/>
-      <c r="B8" s="204"/>
+      <c r="A8" s="173"/>
+      <c r="B8" s="176"/>
       <c r="C8" s="9" t="s">
         <v>23</v>
       </c>
       <c r="D8" s="5" t="s">
         <v>24</v>
       </c>
-      <c r="E8" s="191"/>
-      <c r="F8" s="193"/>
-      <c r="G8" s="194"/>
-      <c r="H8" s="194"/>
-      <c r="I8" s="194"/>
-      <c r="J8" s="194"/>
-      <c r="K8" s="194"/>
-      <c r="L8" s="160"/>
-      <c r="M8" s="160"/>
+      <c r="E8" s="218"/>
+      <c r="F8" s="220"/>
+      <c r="G8" s="190"/>
+      <c r="H8" s="190"/>
+      <c r="I8" s="190"/>
+      <c r="J8" s="190"/>
+      <c r="K8" s="190"/>
+      <c r="L8" s="247"/>
+      <c r="M8" s="247"/>
     </row>
     <row r="9" spans="1:13" ht="15.75" customHeight="1">
-      <c r="A9" s="223">
+      <c r="A9" s="178">
         <v>2</v>
       </c>
-      <c r="B9" s="202" t="s">
+      <c r="B9" s="174" t="s">
         <v>25</v>
       </c>
       <c r="C9" s="10" t="s">
@@ -8323,864 +8180,864 @@
       <c r="D9" s="3" t="s">
         <v>288</v>
       </c>
-      <c r="E9" s="183"/>
-      <c r="F9" s="185" t="s">
+      <c r="E9" s="209"/>
+      <c r="F9" s="210" t="s">
         <v>192</v>
       </c>
-      <c r="G9" s="187" t="s">
+      <c r="G9" s="212" t="s">
         <v>13</v>
       </c>
-      <c r="H9" s="184"/>
-      <c r="I9" s="189" t="s">
+      <c r="H9" s="213"/>
+      <c r="I9" s="214" t="s">
         <v>184</v>
       </c>
-      <c r="J9" s="185" t="s">
+      <c r="J9" s="210" t="s">
         <v>194</v>
       </c>
-      <c r="K9" s="185" t="s">
+      <c r="K9" s="210" t="s">
         <v>195</v>
       </c>
-      <c r="L9" s="187" t="s">
+      <c r="L9" s="212" t="s">
         <v>344</v>
       </c>
-      <c r="M9" s="161"/>
+      <c r="M9" s="248"/>
     </row>
     <row r="10" spans="1:13" ht="15.75" customHeight="1">
-      <c r="A10" s="219"/>
-      <c r="B10" s="203"/>
+      <c r="A10" s="179"/>
+      <c r="B10" s="175"/>
       <c r="C10" s="11" t="s">
         <v>26</v>
       </c>
       <c r="D10" s="4"/>
-      <c r="E10" s="164"/>
-      <c r="F10" s="171"/>
-      <c r="G10" s="175"/>
-      <c r="H10" s="167"/>
-      <c r="I10" s="190"/>
-      <c r="J10" s="171"/>
-      <c r="K10" s="171"/>
-      <c r="L10" s="188"/>
-      <c r="M10" s="162"/>
+      <c r="E10" s="184"/>
+      <c r="F10" s="211"/>
+      <c r="G10" s="187"/>
+      <c r="H10" s="188"/>
+      <c r="I10" s="215"/>
+      <c r="J10" s="211"/>
+      <c r="K10" s="211"/>
+      <c r="L10" s="222"/>
+      <c r="M10" s="249"/>
     </row>
     <row r="11" spans="1:13" ht="15.75" customHeight="1" thickBot="1">
-      <c r="A11" s="216">
+      <c r="A11" s="203">
         <v>3</v>
       </c>
-      <c r="B11" s="203"/>
+      <c r="B11" s="175"/>
       <c r="C11" s="11" t="s">
         <v>265</v>
       </c>
       <c r="D11" s="4"/>
-      <c r="E11" s="172"/>
-      <c r="F11" s="181"/>
-      <c r="G11" s="169"/>
-      <c r="H11" s="169" t="s">
+      <c r="E11" s="191"/>
+      <c r="F11" s="216"/>
+      <c r="G11" s="185"/>
+      <c r="H11" s="185" t="s">
         <v>198</v>
       </c>
-      <c r="I11" s="169" t="s">
+      <c r="I11" s="185" t="s">
         <v>196</v>
       </c>
-      <c r="J11" s="169"/>
-      <c r="K11" s="169"/>
-      <c r="L11" s="186" t="s">
+      <c r="J11" s="185"/>
+      <c r="K11" s="185"/>
+      <c r="L11" s="221" t="s">
         <v>345</v>
       </c>
-      <c r="M11" s="147"/>
+      <c r="M11" s="224"/>
     </row>
     <row r="12" spans="1:13" ht="15.75" customHeight="1">
-      <c r="A12" s="217"/>
-      <c r="B12" s="203"/>
+      <c r="A12" s="204"/>
+      <c r="B12" s="175"/>
       <c r="C12" s="11" t="s">
         <v>28</v>
       </c>
       <c r="D12" s="10"/>
-      <c r="E12" s="172"/>
-      <c r="F12" s="181"/>
-      <c r="G12" s="169"/>
-      <c r="H12" s="169"/>
-      <c r="I12" s="169"/>
-      <c r="J12" s="169"/>
-      <c r="K12" s="169"/>
-      <c r="L12" s="186"/>
-      <c r="M12" s="147"/>
+      <c r="E12" s="191"/>
+      <c r="F12" s="216"/>
+      <c r="G12" s="185"/>
+      <c r="H12" s="185"/>
+      <c r="I12" s="185"/>
+      <c r="J12" s="185"/>
+      <c r="K12" s="185"/>
+      <c r="L12" s="221"/>
+      <c r="M12" s="224"/>
     </row>
     <row r="13" spans="1:13" ht="15.75" customHeight="1">
-      <c r="A13" s="218">
+      <c r="A13" s="205">
         <v>4</v>
       </c>
-      <c r="B13" s="203"/>
+      <c r="B13" s="175"/>
       <c r="C13" s="11" t="s">
         <v>29</v>
       </c>
       <c r="D13" s="11"/>
-      <c r="E13" s="164"/>
-      <c r="F13" s="227" t="s">
+      <c r="E13" s="184"/>
+      <c r="F13" s="186" t="s">
         <v>36</v>
       </c>
-      <c r="G13" s="175" t="s">
+      <c r="G13" s="187" t="s">
         <v>33</v>
       </c>
-      <c r="H13" s="167"/>
-      <c r="I13" s="175" t="s">
+      <c r="H13" s="188"/>
+      <c r="I13" s="187" t="s">
         <v>346</v>
       </c>
-      <c r="J13" s="167"/>
-      <c r="K13" s="167"/>
-      <c r="L13" s="148"/>
-      <c r="M13" s="148"/>
+      <c r="J13" s="188"/>
+      <c r="K13" s="188"/>
+      <c r="L13" s="239"/>
+      <c r="M13" s="239"/>
     </row>
     <row r="14" spans="1:13" ht="15.75" customHeight="1">
-      <c r="A14" s="219"/>
-      <c r="B14" s="203"/>
+      <c r="A14" s="179"/>
+      <c r="B14" s="175"/>
       <c r="C14" s="32" t="s">
         <v>30</v>
       </c>
       <c r="D14" s="4"/>
-      <c r="E14" s="164"/>
-      <c r="F14" s="227"/>
-      <c r="G14" s="175"/>
-      <c r="H14" s="167"/>
-      <c r="I14" s="175"/>
-      <c r="J14" s="167"/>
-      <c r="K14" s="167"/>
-      <c r="L14" s="148"/>
-      <c r="M14" s="148"/>
+      <c r="E14" s="184"/>
+      <c r="F14" s="186"/>
+      <c r="G14" s="187"/>
+      <c r="H14" s="188"/>
+      <c r="I14" s="187"/>
+      <c r="J14" s="188"/>
+      <c r="K14" s="188"/>
+      <c r="L14" s="239"/>
+      <c r="M14" s="239"/>
     </row>
     <row r="15" spans="1:13" ht="15.75" customHeight="1">
-      <c r="A15" s="216">
+      <c r="A15" s="203">
         <v>5</v>
       </c>
-      <c r="B15" s="203"/>
-      <c r="C15" s="221" t="s">
+      <c r="B15" s="175"/>
+      <c r="C15" s="207" t="s">
         <v>31</v>
       </c>
       <c r="D15" s="4"/>
-      <c r="E15" s="172" t="s">
+      <c r="E15" s="191" t="s">
         <v>27</v>
       </c>
-      <c r="F15" s="181"/>
-      <c r="G15" s="169"/>
-      <c r="H15" s="169"/>
-      <c r="I15" s="169"/>
-      <c r="J15" s="169"/>
-      <c r="K15" s="169"/>
-      <c r="L15" s="147"/>
-      <c r="M15" s="147"/>
+      <c r="F15" s="216"/>
+      <c r="G15" s="185"/>
+      <c r="H15" s="185"/>
+      <c r="I15" s="185"/>
+      <c r="J15" s="185"/>
+      <c r="K15" s="185"/>
+      <c r="L15" s="224"/>
+      <c r="M15" s="224"/>
     </row>
     <row r="16" spans="1:13" ht="15.75" customHeight="1" thickBot="1">
-      <c r="A16" s="220"/>
-      <c r="B16" s="209"/>
-      <c r="C16" s="222"/>
+      <c r="A16" s="206"/>
+      <c r="B16" s="177"/>
+      <c r="C16" s="208"/>
       <c r="D16" s="5"/>
-      <c r="E16" s="173"/>
-      <c r="F16" s="182"/>
-      <c r="G16" s="170"/>
-      <c r="H16" s="170"/>
-      <c r="I16" s="170"/>
-      <c r="J16" s="170"/>
-      <c r="K16" s="170"/>
-      <c r="L16" s="152"/>
-      <c r="M16" s="152"/>
+      <c r="E16" s="229"/>
+      <c r="F16" s="226"/>
+      <c r="G16" s="223"/>
+      <c r="H16" s="223"/>
+      <c r="I16" s="223"/>
+      <c r="J16" s="223"/>
+      <c r="K16" s="223"/>
+      <c r="L16" s="225"/>
+      <c r="M16" s="225"/>
     </row>
     <row r="17" spans="1:13" ht="15.75" customHeight="1">
-      <c r="A17" s="205">
+      <c r="A17" s="169">
         <v>6</v>
       </c>
-      <c r="B17" s="202" t="s">
+      <c r="B17" s="174" t="s">
         <v>34</v>
       </c>
       <c r="C17" s="10" t="s">
         <v>35</v>
       </c>
       <c r="D17" s="3"/>
-      <c r="E17" s="183"/>
-      <c r="F17" s="184"/>
-      <c r="G17" s="184"/>
-      <c r="H17" s="185" t="s">
+      <c r="E17" s="209"/>
+      <c r="F17" s="213"/>
+      <c r="G17" s="213"/>
+      <c r="H17" s="210" t="s">
         <v>27</v>
       </c>
-      <c r="I17" s="185"/>
-      <c r="J17" s="185"/>
-      <c r="K17" s="185"/>
-      <c r="L17" s="156"/>
-      <c r="M17" s="156"/>
+      <c r="I17" s="210"/>
+      <c r="J17" s="210"/>
+      <c r="K17" s="210"/>
+      <c r="L17" s="246"/>
+      <c r="M17" s="246"/>
     </row>
     <row r="18" spans="1:13" ht="15.75" customHeight="1">
-      <c r="A18" s="206"/>
-      <c r="B18" s="203"/>
+      <c r="A18" s="170"/>
+      <c r="B18" s="175"/>
       <c r="C18" s="11" t="s">
         <v>37</v>
       </c>
       <c r="D18" s="4"/>
-      <c r="E18" s="164"/>
-      <c r="F18" s="167"/>
-      <c r="G18" s="167"/>
-      <c r="H18" s="171"/>
-      <c r="I18" s="171"/>
-      <c r="J18" s="171"/>
-      <c r="K18" s="171"/>
-      <c r="L18" s="151"/>
-      <c r="M18" s="151"/>
+      <c r="E18" s="184"/>
+      <c r="F18" s="188"/>
+      <c r="G18" s="188"/>
+      <c r="H18" s="211"/>
+      <c r="I18" s="211"/>
+      <c r="J18" s="211"/>
+      <c r="K18" s="211"/>
+      <c r="L18" s="234"/>
+      <c r="M18" s="234"/>
     </row>
     <row r="19" spans="1:13" ht="15.75" customHeight="1">
-      <c r="A19" s="206"/>
-      <c r="B19" s="203"/>
+      <c r="A19" s="170"/>
+      <c r="B19" s="175"/>
       <c r="C19" s="11" t="s">
         <v>38</v>
       </c>
       <c r="D19" s="4"/>
-      <c r="E19" s="164"/>
-      <c r="F19" s="167"/>
-      <c r="G19" s="167"/>
-      <c r="H19" s="171"/>
-      <c r="I19" s="171"/>
-      <c r="J19" s="171"/>
-      <c r="K19" s="171"/>
-      <c r="L19" s="151"/>
-      <c r="M19" s="151"/>
+      <c r="E19" s="184"/>
+      <c r="F19" s="188"/>
+      <c r="G19" s="188"/>
+      <c r="H19" s="211"/>
+      <c r="I19" s="211"/>
+      <c r="J19" s="211"/>
+      <c r="K19" s="211"/>
+      <c r="L19" s="234"/>
+      <c r="M19" s="234"/>
     </row>
     <row r="20" spans="1:13" ht="15.75" customHeight="1">
-      <c r="A20" s="195">
+      <c r="A20" s="171">
         <v>7</v>
       </c>
-      <c r="B20" s="203"/>
+      <c r="B20" s="175"/>
       <c r="C20" s="11" t="s">
         <v>39</v>
       </c>
       <c r="D20" s="4"/>
-      <c r="E20" s="172" t="s">
+      <c r="E20" s="191" t="s">
         <v>32</v>
       </c>
-      <c r="F20" s="180" t="s">
+      <c r="F20" s="227" t="s">
         <v>44</v>
       </c>
-      <c r="G20" s="180"/>
-      <c r="H20" s="180"/>
-      <c r="I20" s="180"/>
-      <c r="J20" s="180"/>
-      <c r="K20" s="180"/>
-      <c r="L20" s="157"/>
-      <c r="M20" s="157"/>
+      <c r="G20" s="227"/>
+      <c r="H20" s="227"/>
+      <c r="I20" s="227"/>
+      <c r="J20" s="227"/>
+      <c r="K20" s="227"/>
+      <c r="L20" s="228"/>
+      <c r="M20" s="228"/>
     </row>
     <row r="21" spans="1:13" ht="15.75" customHeight="1">
-      <c r="A21" s="195"/>
-      <c r="B21" s="203"/>
+      <c r="A21" s="171"/>
+      <c r="B21" s="175"/>
       <c r="C21" s="11" t="s">
         <v>41</v>
       </c>
       <c r="D21" s="4"/>
-      <c r="E21" s="172"/>
-      <c r="F21" s="180"/>
-      <c r="G21" s="180"/>
-      <c r="H21" s="180"/>
-      <c r="I21" s="180"/>
-      <c r="J21" s="180"/>
-      <c r="K21" s="180"/>
-      <c r="L21" s="157"/>
-      <c r="M21" s="157"/>
+      <c r="E21" s="191"/>
+      <c r="F21" s="227"/>
+      <c r="G21" s="227"/>
+      <c r="H21" s="227"/>
+      <c r="I21" s="227"/>
+      <c r="J21" s="227"/>
+      <c r="K21" s="227"/>
+      <c r="L21" s="228"/>
+      <c r="M21" s="228"/>
     </row>
     <row r="22" spans="1:13" ht="15.75" customHeight="1">
-      <c r="A22" s="195"/>
-      <c r="B22" s="203"/>
+      <c r="A22" s="171"/>
+      <c r="B22" s="175"/>
       <c r="C22" s="32" t="s">
         <v>42</v>
       </c>
       <c r="D22" s="4"/>
-      <c r="E22" s="172"/>
-      <c r="F22" s="180"/>
-      <c r="G22" s="180"/>
-      <c r="H22" s="180"/>
-      <c r="I22" s="180"/>
-      <c r="J22" s="180"/>
-      <c r="K22" s="180"/>
-      <c r="L22" s="157"/>
-      <c r="M22" s="157"/>
+      <c r="E22" s="191"/>
+      <c r="F22" s="227"/>
+      <c r="G22" s="227"/>
+      <c r="H22" s="227"/>
+      <c r="I22" s="227"/>
+      <c r="J22" s="227"/>
+      <c r="K22" s="227"/>
+      <c r="L22" s="228"/>
+      <c r="M22" s="228"/>
     </row>
     <row r="23" spans="1:13" ht="15.75" customHeight="1">
-      <c r="A23" s="206">
+      <c r="A23" s="170">
         <v>8</v>
       </c>
-      <c r="B23" s="203"/>
+      <c r="B23" s="175"/>
       <c r="C23" s="32" t="s">
         <v>43</v>
       </c>
       <c r="D23" s="4"/>
-      <c r="E23" s="164"/>
-      <c r="F23" s="167"/>
-      <c r="G23" s="175" t="s">
+      <c r="E23" s="184"/>
+      <c r="F23" s="188"/>
+      <c r="G23" s="187" t="s">
         <v>50</v>
       </c>
-      <c r="H23" s="171" t="s">
+      <c r="H23" s="211" t="s">
         <v>32</v>
       </c>
-      <c r="I23" s="171"/>
-      <c r="J23" s="171"/>
-      <c r="K23" s="171"/>
-      <c r="L23" s="151"/>
-      <c r="M23" s="151"/>
+      <c r="I23" s="211"/>
+      <c r="J23" s="211"/>
+      <c r="K23" s="211"/>
+      <c r="L23" s="234"/>
+      <c r="M23" s="234"/>
     </row>
     <row r="24" spans="1:13" ht="15.75" customHeight="1">
-      <c r="A24" s="206"/>
-      <c r="B24" s="203"/>
+      <c r="A24" s="170"/>
+      <c r="B24" s="175"/>
       <c r="C24" s="32" t="s">
         <v>45</v>
       </c>
       <c r="D24" s="4"/>
-      <c r="E24" s="164"/>
-      <c r="F24" s="167"/>
-      <c r="G24" s="175"/>
-      <c r="H24" s="171"/>
-      <c r="I24" s="171"/>
-      <c r="J24" s="171"/>
-      <c r="K24" s="171"/>
-      <c r="L24" s="151"/>
-      <c r="M24" s="151"/>
+      <c r="E24" s="184"/>
+      <c r="F24" s="188"/>
+      <c r="G24" s="187"/>
+      <c r="H24" s="211"/>
+      <c r="I24" s="211"/>
+      <c r="J24" s="211"/>
+      <c r="K24" s="211"/>
+      <c r="L24" s="234"/>
+      <c r="M24" s="234"/>
     </row>
     <row r="25" spans="1:13" ht="15.75" customHeight="1" thickBot="1">
-      <c r="A25" s="212"/>
-      <c r="B25" s="209"/>
+      <c r="A25" s="180"/>
+      <c r="B25" s="177"/>
       <c r="C25" s="33" t="s">
         <v>46</v>
       </c>
       <c r="D25" s="5"/>
-      <c r="E25" s="165"/>
-      <c r="F25" s="168"/>
-      <c r="G25" s="176"/>
-      <c r="H25" s="174"/>
-      <c r="I25" s="174"/>
-      <c r="J25" s="174"/>
-      <c r="K25" s="174"/>
-      <c r="L25" s="158"/>
-      <c r="M25" s="158"/>
+      <c r="E25" s="230"/>
+      <c r="F25" s="231"/>
+      <c r="G25" s="232"/>
+      <c r="H25" s="233"/>
+      <c r="I25" s="233"/>
+      <c r="J25" s="233"/>
+      <c r="K25" s="233"/>
+      <c r="L25" s="235"/>
+      <c r="M25" s="235"/>
     </row>
     <row r="26" spans="1:13" ht="15.75" customHeight="1">
-      <c r="A26" s="210">
+      <c r="A26" s="198">
         <v>9</v>
       </c>
-      <c r="B26" s="202" t="s">
+      <c r="B26" s="174" t="s">
         <v>47</v>
       </c>
       <c r="C26" s="12" t="s">
         <v>48</v>
       </c>
       <c r="D26" s="3"/>
-      <c r="E26" s="177" t="s">
+      <c r="E26" s="217" t="s">
         <v>40</v>
       </c>
-      <c r="F26" s="179" t="s">
+      <c r="F26" s="236" t="s">
         <v>53</v>
       </c>
-      <c r="G26" s="179"/>
-      <c r="H26" s="179"/>
-      <c r="I26" s="179"/>
-      <c r="J26" s="179"/>
-      <c r="K26" s="179"/>
-      <c r="L26" s="159"/>
-      <c r="M26" s="159"/>
+      <c r="G26" s="236"/>
+      <c r="H26" s="236"/>
+      <c r="I26" s="236"/>
+      <c r="J26" s="236"/>
+      <c r="K26" s="236"/>
+      <c r="L26" s="237"/>
+      <c r="M26" s="237"/>
     </row>
     <row r="27" spans="1:13" ht="15.75" customHeight="1">
-      <c r="A27" s="211"/>
-      <c r="B27" s="203"/>
+      <c r="A27" s="199"/>
+      <c r="B27" s="175"/>
       <c r="C27" s="13" t="s">
         <v>51</v>
       </c>
       <c r="D27" s="4"/>
-      <c r="E27" s="172"/>
-      <c r="F27" s="180"/>
-      <c r="G27" s="180"/>
-      <c r="H27" s="180"/>
-      <c r="I27" s="180"/>
-      <c r="J27" s="180"/>
-      <c r="K27" s="180"/>
-      <c r="L27" s="157"/>
-      <c r="M27" s="157"/>
+      <c r="E27" s="191"/>
+      <c r="F27" s="227"/>
+      <c r="G27" s="227"/>
+      <c r="H27" s="227"/>
+      <c r="I27" s="227"/>
+      <c r="J27" s="227"/>
+      <c r="K27" s="227"/>
+      <c r="L27" s="228"/>
+      <c r="M27" s="228"/>
     </row>
     <row r="28" spans="1:13" ht="15.75" customHeight="1">
-      <c r="A28" s="212">
+      <c r="A28" s="180">
         <v>10</v>
       </c>
-      <c r="B28" s="203"/>
+      <c r="B28" s="175"/>
       <c r="C28" s="13" t="s">
         <v>52</v>
       </c>
       <c r="D28" s="4"/>
-      <c r="E28" s="164"/>
-      <c r="F28" s="171" t="s">
+      <c r="E28" s="184"/>
+      <c r="F28" s="211" t="s">
         <v>59</v>
       </c>
-      <c r="G28" s="171"/>
-      <c r="H28" s="171" t="s">
+      <c r="G28" s="211"/>
+      <c r="H28" s="211" t="s">
         <v>40</v>
       </c>
-      <c r="I28" s="171"/>
-      <c r="J28" s="171"/>
-      <c r="K28" s="171"/>
-      <c r="L28" s="151"/>
-      <c r="M28" s="151"/>
+      <c r="I28" s="211"/>
+      <c r="J28" s="211"/>
+      <c r="K28" s="211"/>
+      <c r="L28" s="234"/>
+      <c r="M28" s="234"/>
     </row>
     <row r="29" spans="1:13" ht="15.75" customHeight="1">
-      <c r="A29" s="213"/>
-      <c r="B29" s="203"/>
+      <c r="A29" s="200"/>
+      <c r="B29" s="175"/>
       <c r="C29" s="13" t="s">
         <v>54</v>
       </c>
       <c r="D29" s="4"/>
-      <c r="E29" s="164"/>
-      <c r="F29" s="171"/>
-      <c r="G29" s="171"/>
-      <c r="H29" s="171"/>
-      <c r="I29" s="171"/>
-      <c r="J29" s="171"/>
-      <c r="K29" s="171"/>
-      <c r="L29" s="151"/>
-      <c r="M29" s="151"/>
+      <c r="E29" s="184"/>
+      <c r="F29" s="211"/>
+      <c r="G29" s="211"/>
+      <c r="H29" s="211"/>
+      <c r="I29" s="211"/>
+      <c r="J29" s="211"/>
+      <c r="K29" s="211"/>
+      <c r="L29" s="234"/>
+      <c r="M29" s="234"/>
     </row>
     <row r="30" spans="1:13" ht="15.75" customHeight="1">
-      <c r="A30" s="214">
+      <c r="A30" s="201">
         <v>11</v>
       </c>
-      <c r="B30" s="203"/>
+      <c r="B30" s="175"/>
       <c r="C30" s="13" t="s">
         <v>55</v>
       </c>
       <c r="D30" s="4"/>
-      <c r="E30" s="172" t="s">
+      <c r="E30" s="191" t="s">
         <v>49</v>
       </c>
-      <c r="F30" s="169"/>
-      <c r="G30" s="169"/>
-      <c r="H30" s="169"/>
-      <c r="I30" s="169"/>
-      <c r="J30" s="169"/>
-      <c r="K30" s="169"/>
-      <c r="L30" s="147"/>
-      <c r="M30" s="147"/>
+      <c r="F30" s="185"/>
+      <c r="G30" s="185"/>
+      <c r="H30" s="185"/>
+      <c r="I30" s="185"/>
+      <c r="J30" s="185"/>
+      <c r="K30" s="185"/>
+      <c r="L30" s="224"/>
+      <c r="M30" s="224"/>
     </row>
     <row r="31" spans="1:13" ht="15.75" customHeight="1">
-      <c r="A31" s="211"/>
-      <c r="B31" s="203"/>
+      <c r="A31" s="199"/>
+      <c r="B31" s="175"/>
       <c r="C31" s="14" t="s">
         <v>57</v>
       </c>
       <c r="D31" s="4"/>
-      <c r="E31" s="172"/>
-      <c r="F31" s="169"/>
-      <c r="G31" s="169"/>
-      <c r="H31" s="169"/>
-      <c r="I31" s="169"/>
-      <c r="J31" s="169"/>
-      <c r="K31" s="169"/>
-      <c r="L31" s="147"/>
-      <c r="M31" s="147"/>
+      <c r="E31" s="191"/>
+      <c r="F31" s="185"/>
+      <c r="G31" s="185"/>
+      <c r="H31" s="185"/>
+      <c r="I31" s="185"/>
+      <c r="J31" s="185"/>
+      <c r="K31" s="185"/>
+      <c r="L31" s="224"/>
+      <c r="M31" s="224"/>
     </row>
     <row r="32" spans="1:13" ht="15.75" customHeight="1">
-      <c r="A32" s="212">
+      <c r="A32" s="180">
         <v>12</v>
       </c>
-      <c r="B32" s="203"/>
+      <c r="B32" s="175"/>
       <c r="C32" s="14" t="s">
         <v>58</v>
       </c>
       <c r="D32" s="4"/>
-      <c r="E32" s="164"/>
-      <c r="F32" s="171" t="s">
+      <c r="E32" s="184"/>
+      <c r="F32" s="211" t="s">
         <v>67</v>
       </c>
-      <c r="G32" s="175" t="s">
+      <c r="G32" s="187" t="s">
         <v>64</v>
       </c>
-      <c r="H32" s="171" t="s">
+      <c r="H32" s="211" t="s">
         <v>49</v>
       </c>
-      <c r="I32" s="171"/>
-      <c r="J32" s="171"/>
-      <c r="K32" s="171"/>
-      <c r="L32" s="151"/>
-      <c r="M32" s="151"/>
+      <c r="I32" s="211"/>
+      <c r="J32" s="211"/>
+      <c r="K32" s="211"/>
+      <c r="L32" s="234"/>
+      <c r="M32" s="234"/>
     </row>
     <row r="33" spans="1:13" ht="15.75" customHeight="1" thickBot="1">
-      <c r="A33" s="215"/>
-      <c r="B33" s="209"/>
+      <c r="A33" s="202"/>
+      <c r="B33" s="177"/>
       <c r="C33" s="15" t="s">
         <v>60</v>
       </c>
       <c r="D33" s="5"/>
-      <c r="E33" s="165"/>
-      <c r="F33" s="174"/>
-      <c r="G33" s="176"/>
-      <c r="H33" s="174"/>
-      <c r="I33" s="174"/>
-      <c r="J33" s="174"/>
-      <c r="K33" s="174"/>
-      <c r="L33" s="158"/>
-      <c r="M33" s="158"/>
+      <c r="E33" s="230"/>
+      <c r="F33" s="233"/>
+      <c r="G33" s="232"/>
+      <c r="H33" s="233"/>
+      <c r="I33" s="233"/>
+      <c r="J33" s="233"/>
+      <c r="K33" s="233"/>
+      <c r="L33" s="235"/>
+      <c r="M33" s="235"/>
     </row>
     <row r="34" spans="1:13" ht="15.75" customHeight="1">
-      <c r="A34" s="208">
+      <c r="A34" s="172">
         <v>13</v>
       </c>
-      <c r="B34" s="202" t="s">
+      <c r="B34" s="174" t="s">
         <v>61</v>
       </c>
       <c r="C34" s="16" t="s">
         <v>62</v>
       </c>
       <c r="D34" s="3"/>
-      <c r="E34" s="177" t="s">
+      <c r="E34" s="217" t="s">
         <v>56</v>
       </c>
-      <c r="F34" s="178"/>
-      <c r="G34" s="178"/>
-      <c r="H34" s="178"/>
-      <c r="I34" s="178"/>
-      <c r="J34" s="178"/>
-      <c r="K34" s="178"/>
-      <c r="L34" s="150"/>
-      <c r="M34" s="150"/>
+      <c r="F34" s="189"/>
+      <c r="G34" s="189"/>
+      <c r="H34" s="189"/>
+      <c r="I34" s="189"/>
+      <c r="J34" s="189"/>
+      <c r="K34" s="189"/>
+      <c r="L34" s="238"/>
+      <c r="M34" s="238"/>
     </row>
     <row r="35" spans="1:13" ht="15.75" customHeight="1">
-      <c r="A35" s="195"/>
-      <c r="B35" s="203"/>
+      <c r="A35" s="171"/>
+      <c r="B35" s="175"/>
       <c r="C35" s="17" t="s">
         <v>65</v>
       </c>
       <c r="D35" s="4"/>
-      <c r="E35" s="172"/>
-      <c r="F35" s="169"/>
-      <c r="G35" s="169"/>
-      <c r="H35" s="169"/>
-      <c r="I35" s="169"/>
-      <c r="J35" s="169"/>
-      <c r="K35" s="169"/>
-      <c r="L35" s="147"/>
-      <c r="M35" s="147"/>
+      <c r="E35" s="191"/>
+      <c r="F35" s="185"/>
+      <c r="G35" s="185"/>
+      <c r="H35" s="185"/>
+      <c r="I35" s="185"/>
+      <c r="J35" s="185"/>
+      <c r="K35" s="185"/>
+      <c r="L35" s="224"/>
+      <c r="M35" s="224"/>
     </row>
     <row r="36" spans="1:13" ht="15.75" customHeight="1">
-      <c r="A36" s="206">
+      <c r="A36" s="170">
         <v>14</v>
       </c>
-      <c r="B36" s="203"/>
+      <c r="B36" s="175"/>
       <c r="C36" s="17" t="s">
         <v>66</v>
       </c>
       <c r="D36" s="4"/>
-      <c r="E36" s="164"/>
-      <c r="F36" s="167" t="s">
+      <c r="E36" s="184"/>
+      <c r="F36" s="188" t="s">
         <v>73</v>
       </c>
-      <c r="G36" s="167"/>
-      <c r="H36" s="167" t="s">
+      <c r="G36" s="188"/>
+      <c r="H36" s="188" t="s">
         <v>56</v>
       </c>
-      <c r="I36" s="167"/>
-      <c r="J36" s="167"/>
-      <c r="K36" s="167"/>
-      <c r="L36" s="148"/>
-      <c r="M36" s="148"/>
+      <c r="I36" s="188"/>
+      <c r="J36" s="188"/>
+      <c r="K36" s="188"/>
+      <c r="L36" s="239"/>
+      <c r="M36" s="239"/>
     </row>
     <row r="37" spans="1:13" ht="15.75" customHeight="1">
-      <c r="A37" s="206"/>
-      <c r="B37" s="203"/>
+      <c r="A37" s="170"/>
+      <c r="B37" s="175"/>
       <c r="C37" s="17" t="s">
         <v>68</v>
       </c>
       <c r="D37" s="4"/>
-      <c r="E37" s="164"/>
-      <c r="F37" s="167"/>
-      <c r="G37" s="167"/>
-      <c r="H37" s="167"/>
-      <c r="I37" s="167"/>
-      <c r="J37" s="167"/>
-      <c r="K37" s="167"/>
-      <c r="L37" s="148"/>
-      <c r="M37" s="148"/>
+      <c r="E37" s="184"/>
+      <c r="F37" s="188"/>
+      <c r="G37" s="188"/>
+      <c r="H37" s="188"/>
+      <c r="I37" s="188"/>
+      <c r="J37" s="188"/>
+      <c r="K37" s="188"/>
+      <c r="L37" s="239"/>
+      <c r="M37" s="239"/>
     </row>
     <row r="38" spans="1:13" ht="15.75" customHeight="1">
-      <c r="A38" s="195">
+      <c r="A38" s="171">
         <v>15</v>
       </c>
-      <c r="B38" s="203"/>
+      <c r="B38" s="175"/>
       <c r="C38" s="17" t="s">
         <v>69</v>
       </c>
       <c r="D38" s="4"/>
-      <c r="E38" s="172" t="s">
+      <c r="E38" s="191" t="s">
         <v>63</v>
       </c>
-      <c r="F38" s="169"/>
-      <c r="G38" s="169"/>
-      <c r="H38" s="169"/>
-      <c r="I38" s="169"/>
-      <c r="J38" s="169"/>
-      <c r="K38" s="169"/>
-      <c r="L38" s="147"/>
-      <c r="M38" s="147"/>
+      <c r="F38" s="185"/>
+      <c r="G38" s="185"/>
+      <c r="H38" s="185"/>
+      <c r="I38" s="185"/>
+      <c r="J38" s="185"/>
+      <c r="K38" s="185"/>
+      <c r="L38" s="224"/>
+      <c r="M38" s="224"/>
     </row>
     <row r="39" spans="1:13" ht="15.75" customHeight="1">
-      <c r="A39" s="195"/>
-      <c r="B39" s="203"/>
+      <c r="A39" s="171"/>
+      <c r="B39" s="175"/>
       <c r="C39" s="32" t="s">
         <v>71</v>
       </c>
       <c r="D39" s="4"/>
-      <c r="E39" s="172"/>
-      <c r="F39" s="169"/>
-      <c r="G39" s="169"/>
-      <c r="H39" s="169"/>
-      <c r="I39" s="169"/>
-      <c r="J39" s="169"/>
-      <c r="K39" s="169"/>
-      <c r="L39" s="147"/>
-      <c r="M39" s="147"/>
+      <c r="E39" s="191"/>
+      <c r="F39" s="185"/>
+      <c r="G39" s="185"/>
+      <c r="H39" s="185"/>
+      <c r="I39" s="185"/>
+      <c r="J39" s="185"/>
+      <c r="K39" s="185"/>
+      <c r="L39" s="224"/>
+      <c r="M39" s="224"/>
     </row>
     <row r="40" spans="1:13" ht="15.75" customHeight="1">
-      <c r="A40" s="206">
+      <c r="A40" s="170">
         <v>16</v>
       </c>
-      <c r="B40" s="203"/>
+      <c r="B40" s="175"/>
       <c r="C40" s="32" t="s">
         <v>72</v>
       </c>
       <c r="D40" s="4"/>
-      <c r="E40" s="164"/>
-      <c r="F40" s="171" t="s">
+      <c r="E40" s="184"/>
+      <c r="F40" s="211" t="s">
         <v>82</v>
       </c>
-      <c r="G40" s="175" t="s">
+      <c r="G40" s="187" t="s">
         <v>79</v>
       </c>
-      <c r="H40" s="167" t="s">
+      <c r="H40" s="188" t="s">
         <v>63</v>
       </c>
-      <c r="I40" s="167"/>
-      <c r="J40" s="167"/>
-      <c r="K40" s="167"/>
-      <c r="L40" s="148"/>
-      <c r="M40" s="148"/>
+      <c r="I40" s="188"/>
+      <c r="J40" s="188"/>
+      <c r="K40" s="188"/>
+      <c r="L40" s="239"/>
+      <c r="M40" s="239"/>
     </row>
     <row r="41" spans="1:13" ht="15.75" customHeight="1">
-      <c r="A41" s="206"/>
-      <c r="B41" s="203"/>
+      <c r="A41" s="170"/>
+      <c r="B41" s="175"/>
       <c r="C41" s="32" t="s">
         <v>74</v>
       </c>
       <c r="D41" s="4"/>
-      <c r="E41" s="164"/>
-      <c r="F41" s="171"/>
-      <c r="G41" s="175"/>
-      <c r="H41" s="167"/>
-      <c r="I41" s="167"/>
-      <c r="J41" s="167"/>
-      <c r="K41" s="167"/>
-      <c r="L41" s="148"/>
-      <c r="M41" s="148"/>
+      <c r="E41" s="184"/>
+      <c r="F41" s="211"/>
+      <c r="G41" s="187"/>
+      <c r="H41" s="188"/>
+      <c r="I41" s="188"/>
+      <c r="J41" s="188"/>
+      <c r="K41" s="188"/>
+      <c r="L41" s="239"/>
+      <c r="M41" s="239"/>
     </row>
     <row r="42" spans="1:13" ht="15.75" customHeight="1" thickBot="1">
-      <c r="A42" s="207"/>
-      <c r="B42" s="204"/>
+      <c r="A42" s="197"/>
+      <c r="B42" s="176"/>
       <c r="C42" s="9" t="s">
         <v>75</v>
       </c>
       <c r="D42" s="5"/>
-      <c r="E42" s="165"/>
-      <c r="F42" s="174"/>
-      <c r="G42" s="176"/>
-      <c r="H42" s="168"/>
-      <c r="I42" s="168"/>
-      <c r="J42" s="168"/>
-      <c r="K42" s="168"/>
-      <c r="L42" s="149"/>
-      <c r="M42" s="149"/>
+      <c r="E42" s="230"/>
+      <c r="F42" s="233"/>
+      <c r="G42" s="232"/>
+      <c r="H42" s="231"/>
+      <c r="I42" s="231"/>
+      <c r="J42" s="231"/>
+      <c r="K42" s="231"/>
+      <c r="L42" s="240"/>
+      <c r="M42" s="240"/>
     </row>
     <row r="43" spans="1:13" ht="15.75" customHeight="1">
-      <c r="A43" s="208">
+      <c r="A43" s="172">
         <v>17</v>
       </c>
-      <c r="B43" s="197" t="s">
+      <c r="B43" s="192" t="s">
         <v>76</v>
       </c>
       <c r="C43" s="10" t="s">
         <v>77</v>
       </c>
       <c r="D43" s="3"/>
-      <c r="E43" s="177" t="s">
+      <c r="E43" s="217" t="s">
         <v>70</v>
       </c>
-      <c r="F43" s="178"/>
-      <c r="G43" s="178"/>
-      <c r="H43" s="178"/>
-      <c r="I43" s="178"/>
-      <c r="J43" s="178"/>
-      <c r="K43" s="178"/>
-      <c r="L43" s="150"/>
-      <c r="M43" s="150"/>
+      <c r="F43" s="189"/>
+      <c r="G43" s="189"/>
+      <c r="H43" s="189"/>
+      <c r="I43" s="189"/>
+      <c r="J43" s="189"/>
+      <c r="K43" s="189"/>
+      <c r="L43" s="238"/>
+      <c r="M43" s="238"/>
     </row>
     <row r="44" spans="1:13" ht="15.75" customHeight="1">
-      <c r="A44" s="195"/>
-      <c r="B44" s="198"/>
+      <c r="A44" s="171"/>
+      <c r="B44" s="193"/>
       <c r="C44" s="11" t="s">
         <v>80</v>
       </c>
       <c r="D44" s="4"/>
-      <c r="E44" s="172"/>
-      <c r="F44" s="169"/>
-      <c r="G44" s="169"/>
-      <c r="H44" s="169"/>
-      <c r="I44" s="169"/>
-      <c r="J44" s="169"/>
-      <c r="K44" s="169"/>
-      <c r="L44" s="147"/>
-      <c r="M44" s="147"/>
+      <c r="E44" s="191"/>
+      <c r="F44" s="185"/>
+      <c r="G44" s="185"/>
+      <c r="H44" s="185"/>
+      <c r="I44" s="185"/>
+      <c r="J44" s="185"/>
+      <c r="K44" s="185"/>
+      <c r="L44" s="224"/>
+      <c r="M44" s="224"/>
     </row>
     <row r="45" spans="1:13" ht="15.75" customHeight="1">
-      <c r="A45" s="206">
+      <c r="A45" s="170">
         <v>18</v>
       </c>
-      <c r="B45" s="198"/>
+      <c r="B45" s="193"/>
       <c r="C45" s="11" t="s">
         <v>81</v>
       </c>
       <c r="D45" s="4"/>
-      <c r="E45" s="164"/>
-      <c r="F45" s="171" t="s">
+      <c r="E45" s="184"/>
+      <c r="F45" s="211" t="s">
         <v>197</v>
       </c>
-      <c r="G45" s="167"/>
-      <c r="H45" s="171" t="s">
+      <c r="G45" s="188"/>
+      <c r="H45" s="211" t="s">
         <v>70</v>
       </c>
-      <c r="I45" s="171"/>
-      <c r="J45" s="171"/>
-      <c r="K45" s="171"/>
-      <c r="L45" s="151"/>
-      <c r="M45" s="151"/>
+      <c r="I45" s="211"/>
+      <c r="J45" s="211"/>
+      <c r="K45" s="211"/>
+      <c r="L45" s="234"/>
+      <c r="M45" s="234"/>
     </row>
     <row r="46" spans="1:13" ht="15.75" customHeight="1">
-      <c r="A46" s="206"/>
-      <c r="B46" s="198"/>
+      <c r="A46" s="170"/>
+      <c r="B46" s="193"/>
       <c r="C46" s="11" t="s">
         <v>83</v>
       </c>
       <c r="D46" s="4"/>
-      <c r="E46" s="164"/>
-      <c r="F46" s="171"/>
-      <c r="G46" s="167"/>
-      <c r="H46" s="171"/>
-      <c r="I46" s="171"/>
-      <c r="J46" s="171"/>
-      <c r="K46" s="171"/>
-      <c r="L46" s="151"/>
-      <c r="M46" s="151"/>
+      <c r="E46" s="184"/>
+      <c r="F46" s="211"/>
+      <c r="G46" s="188"/>
+      <c r="H46" s="211"/>
+      <c r="I46" s="211"/>
+      <c r="J46" s="211"/>
+      <c r="K46" s="211"/>
+      <c r="L46" s="234"/>
+      <c r="M46" s="234"/>
     </row>
     <row r="47" spans="1:13" ht="15.75" customHeight="1">
-      <c r="A47" s="195">
+      <c r="A47" s="171">
         <v>19</v>
       </c>
-      <c r="B47" s="198"/>
-      <c r="C47" s="200" t="s">
+      <c r="B47" s="193"/>
+      <c r="C47" s="195" t="s">
         <v>84</v>
       </c>
       <c r="D47" s="4"/>
-      <c r="E47" s="172" t="s">
+      <c r="E47" s="191" t="s">
         <v>78</v>
       </c>
-      <c r="F47" s="169"/>
-      <c r="G47" s="169"/>
-      <c r="H47" s="169"/>
-      <c r="I47" s="169"/>
-      <c r="J47" s="169"/>
-      <c r="K47" s="169"/>
-      <c r="L47" s="147"/>
-      <c r="M47" s="147"/>
+      <c r="F47" s="185"/>
+      <c r="G47" s="185"/>
+      <c r="H47" s="185"/>
+      <c r="I47" s="185"/>
+      <c r="J47" s="185"/>
+      <c r="K47" s="185"/>
+      <c r="L47" s="224"/>
+      <c r="M47" s="224"/>
     </row>
     <row r="48" spans="1:13" ht="15.75" customHeight="1" thickBot="1">
-      <c r="A48" s="196"/>
-      <c r="B48" s="199"/>
-      <c r="C48" s="201"/>
+      <c r="A48" s="173"/>
+      <c r="B48" s="194"/>
+      <c r="C48" s="196"/>
       <c r="D48" s="5"/>
-      <c r="E48" s="173"/>
-      <c r="F48" s="170"/>
-      <c r="G48" s="170"/>
-      <c r="H48" s="170"/>
-      <c r="I48" s="170"/>
-      <c r="J48" s="170"/>
-      <c r="K48" s="170"/>
-      <c r="L48" s="152"/>
-      <c r="M48" s="152"/>
+      <c r="E48" s="229"/>
+      <c r="F48" s="223"/>
+      <c r="G48" s="223"/>
+      <c r="H48" s="223"/>
+      <c r="I48" s="223"/>
+      <c r="J48" s="223"/>
+      <c r="K48" s="223"/>
+      <c r="L48" s="225"/>
+      <c r="M48" s="225"/>
     </row>
     <row r="49" spans="1:13" ht="15.75" customHeight="1">
-      <c r="A49" s="205">
+      <c r="A49" s="169">
         <v>20</v>
       </c>
-      <c r="B49" s="202" t="s">
+      <c r="B49" s="174" t="s">
         <v>85</v>
       </c>
       <c r="C49" s="10" t="s">
         <v>86</v>
       </c>
       <c r="D49" s="6"/>
-      <c r="E49" s="163"/>
-      <c r="F49" s="166"/>
-      <c r="G49" s="166"/>
-      <c r="H49" s="166" t="s">
+      <c r="E49" s="241"/>
+      <c r="F49" s="242"/>
+      <c r="G49" s="242"/>
+      <c r="H49" s="242" t="s">
         <v>78</v>
       </c>
-      <c r="I49" s="166"/>
-      <c r="J49" s="166"/>
-      <c r="K49" s="166"/>
-      <c r="L49" s="153"/>
-      <c r="M49" s="153"/>
+      <c r="I49" s="242"/>
+      <c r="J49" s="242"/>
+      <c r="K49" s="242"/>
+      <c r="L49" s="243"/>
+      <c r="M49" s="243"/>
     </row>
     <row r="50" spans="1:13" ht="15.75" customHeight="1">
-      <c r="A50" s="206"/>
-      <c r="B50" s="203"/>
+      <c r="A50" s="170"/>
+      <c r="B50" s="175"/>
       <c r="C50" s="11" t="s">
         <v>87</v>
       </c>
       <c r="D50" s="4"/>
-      <c r="E50" s="164"/>
-      <c r="F50" s="167"/>
-      <c r="G50" s="167"/>
-      <c r="H50" s="167"/>
-      <c r="I50" s="167"/>
-      <c r="J50" s="167"/>
-      <c r="K50" s="167"/>
-      <c r="L50" s="148"/>
-      <c r="M50" s="148"/>
+      <c r="E50" s="184"/>
+      <c r="F50" s="188"/>
+      <c r="G50" s="188"/>
+      <c r="H50" s="188"/>
+      <c r="I50" s="188"/>
+      <c r="J50" s="188"/>
+      <c r="K50" s="188"/>
+      <c r="L50" s="239"/>
+      <c r="M50" s="239"/>
     </row>
     <row r="51" spans="1:13" ht="15.75" customHeight="1">
-      <c r="A51" s="206"/>
-      <c r="B51" s="203"/>
+      <c r="A51" s="170"/>
+      <c r="B51" s="175"/>
       <c r="C51" s="11" t="s">
         <v>88</v>
       </c>
       <c r="D51" s="4"/>
-      <c r="E51" s="164"/>
-      <c r="F51" s="167"/>
-      <c r="G51" s="167"/>
-      <c r="H51" s="167"/>
-      <c r="I51" s="167"/>
-      <c r="J51" s="167"/>
-      <c r="K51" s="167"/>
-      <c r="L51" s="148"/>
-      <c r="M51" s="148"/>
+      <c r="E51" s="184"/>
+      <c r="F51" s="188"/>
+      <c r="G51" s="188"/>
+      <c r="H51" s="188"/>
+      <c r="I51" s="188"/>
+      <c r="J51" s="188"/>
+      <c r="K51" s="188"/>
+      <c r="L51" s="239"/>
+      <c r="M51" s="239"/>
     </row>
     <row r="52" spans="1:13" ht="15.75" customHeight="1" thickBot="1">
-      <c r="A52" s="207"/>
-      <c r="B52" s="204"/>
+      <c r="A52" s="197"/>
+      <c r="B52" s="176"/>
       <c r="C52" s="18" t="s">
         <v>89</v>
       </c>
       <c r="D52" s="5"/>
-      <c r="E52" s="165"/>
-      <c r="F52" s="168"/>
-      <c r="G52" s="168"/>
-      <c r="H52" s="168"/>
-      <c r="I52" s="168"/>
-      <c r="J52" s="168"/>
-      <c r="K52" s="168"/>
-      <c r="L52" s="149"/>
-      <c r="M52" s="149"/>
+      <c r="E52" s="230"/>
+      <c r="F52" s="231"/>
+      <c r="G52" s="231"/>
+      <c r="H52" s="231"/>
+      <c r="I52" s="231"/>
+      <c r="J52" s="231"/>
+      <c r="K52" s="231"/>
+      <c r="L52" s="240"/>
+      <c r="M52" s="240"/>
     </row>
     <row r="55" spans="1:13" ht="15.75" thickBot="1"/>
     <row r="56" spans="1:13" ht="15.75" thickBot="1">
@@ -9251,129 +9108,70 @@
     </row>
   </sheetData>
   <mergeCells count="211">
-    <mergeCell ref="A17:A19"/>
-    <mergeCell ref="A20:A22"/>
-    <mergeCell ref="A2:A8"/>
-    <mergeCell ref="B2:B8"/>
-    <mergeCell ref="B9:B16"/>
-    <mergeCell ref="A9:A10"/>
-    <mergeCell ref="A23:A25"/>
-    <mergeCell ref="B17:B25"/>
-    <mergeCell ref="I1:K1"/>
-    <mergeCell ref="E13:E14"/>
-    <mergeCell ref="H11:H12"/>
-    <mergeCell ref="F13:F14"/>
-    <mergeCell ref="G13:G14"/>
-    <mergeCell ref="H13:H14"/>
-    <mergeCell ref="I13:I14"/>
-    <mergeCell ref="J13:J14"/>
-    <mergeCell ref="K13:K14"/>
-    <mergeCell ref="J2:J8"/>
-    <mergeCell ref="K2:K8"/>
-    <mergeCell ref="E11:E12"/>
-    <mergeCell ref="A47:A48"/>
-    <mergeCell ref="B43:B48"/>
-    <mergeCell ref="C47:C48"/>
-    <mergeCell ref="B49:B52"/>
-    <mergeCell ref="A49:A52"/>
-    <mergeCell ref="A34:A35"/>
-    <mergeCell ref="A36:A37"/>
-    <mergeCell ref="A38:A39"/>
-    <mergeCell ref="A40:A42"/>
-    <mergeCell ref="B34:B42"/>
-    <mergeCell ref="A43:A44"/>
-    <mergeCell ref="B26:B33"/>
-    <mergeCell ref="A26:A27"/>
-    <mergeCell ref="A28:A29"/>
-    <mergeCell ref="A30:A31"/>
-    <mergeCell ref="A32:A33"/>
-    <mergeCell ref="A11:A12"/>
-    <mergeCell ref="A13:A14"/>
-    <mergeCell ref="A15:A16"/>
-    <mergeCell ref="A45:A46"/>
-    <mergeCell ref="C15:C16"/>
-    <mergeCell ref="E9:E10"/>
-    <mergeCell ref="F9:F10"/>
-    <mergeCell ref="G9:G10"/>
-    <mergeCell ref="H9:H10"/>
-    <mergeCell ref="I9:I10"/>
-    <mergeCell ref="F11:F12"/>
-    <mergeCell ref="G11:G12"/>
-    <mergeCell ref="E2:E8"/>
-    <mergeCell ref="F2:F8"/>
-    <mergeCell ref="G2:G8"/>
-    <mergeCell ref="H2:H8"/>
-    <mergeCell ref="I2:I8"/>
-    <mergeCell ref="I11:I12"/>
-    <mergeCell ref="J11:J12"/>
-    <mergeCell ref="K11:K12"/>
-    <mergeCell ref="L11:L12"/>
-    <mergeCell ref="J9:J10"/>
-    <mergeCell ref="K9:K10"/>
-    <mergeCell ref="L9:L10"/>
-    <mergeCell ref="K15:K16"/>
-    <mergeCell ref="L15:L16"/>
-    <mergeCell ref="F15:F16"/>
-    <mergeCell ref="G15:G16"/>
-    <mergeCell ref="H15:H16"/>
-    <mergeCell ref="I15:I16"/>
-    <mergeCell ref="J15:J16"/>
-    <mergeCell ref="K20:K22"/>
-    <mergeCell ref="L20:L22"/>
-    <mergeCell ref="E20:E22"/>
-    <mergeCell ref="E15:E16"/>
-    <mergeCell ref="E17:E19"/>
-    <mergeCell ref="F17:F19"/>
-    <mergeCell ref="G17:G19"/>
-    <mergeCell ref="H17:H19"/>
-    <mergeCell ref="I17:I19"/>
-    <mergeCell ref="J17:J19"/>
-    <mergeCell ref="K17:K19"/>
-    <mergeCell ref="E23:E25"/>
-    <mergeCell ref="F23:F25"/>
-    <mergeCell ref="G23:G25"/>
-    <mergeCell ref="H23:H25"/>
-    <mergeCell ref="I23:I25"/>
-    <mergeCell ref="J23:J25"/>
-    <mergeCell ref="K23:K25"/>
-    <mergeCell ref="L23:L25"/>
-    <mergeCell ref="H20:H22"/>
-    <mergeCell ref="F20:F22"/>
-    <mergeCell ref="G20:G22"/>
-    <mergeCell ref="I20:I22"/>
-    <mergeCell ref="J20:J22"/>
-    <mergeCell ref="F26:F27"/>
-    <mergeCell ref="G26:G27"/>
-    <mergeCell ref="H26:H27"/>
-    <mergeCell ref="I26:I27"/>
-    <mergeCell ref="J26:J27"/>
-    <mergeCell ref="E26:E27"/>
-    <mergeCell ref="K30:K31"/>
-    <mergeCell ref="L30:L31"/>
-    <mergeCell ref="K26:K27"/>
-    <mergeCell ref="L26:L27"/>
-    <mergeCell ref="E28:E29"/>
-    <mergeCell ref="F28:F29"/>
-    <mergeCell ref="G28:G29"/>
-    <mergeCell ref="H28:H29"/>
-    <mergeCell ref="I28:I29"/>
-    <mergeCell ref="J28:J29"/>
-    <mergeCell ref="K28:K29"/>
-    <mergeCell ref="L28:L29"/>
-    <mergeCell ref="E32:E33"/>
-    <mergeCell ref="F32:F33"/>
-    <mergeCell ref="G32:G33"/>
-    <mergeCell ref="H32:H33"/>
-    <mergeCell ref="I32:I33"/>
-    <mergeCell ref="J32:J33"/>
-    <mergeCell ref="K32:K33"/>
-    <mergeCell ref="L32:L33"/>
-    <mergeCell ref="F30:F31"/>
-    <mergeCell ref="G30:G31"/>
-    <mergeCell ref="H30:H31"/>
-    <mergeCell ref="I30:I31"/>
-    <mergeCell ref="J30:J31"/>
-    <mergeCell ref="E30:E31"/>
+    <mergeCell ref="M38:M39"/>
+    <mergeCell ref="M40:M42"/>
+    <mergeCell ref="M43:M44"/>
+    <mergeCell ref="M45:M46"/>
+    <mergeCell ref="M47:M48"/>
+    <mergeCell ref="M49:M52"/>
+    <mergeCell ref="L1:M1"/>
+    <mergeCell ref="M17:M19"/>
+    <mergeCell ref="M20:M22"/>
+    <mergeCell ref="M23:M25"/>
+    <mergeCell ref="M26:M27"/>
+    <mergeCell ref="M28:M29"/>
+    <mergeCell ref="M30:M31"/>
+    <mergeCell ref="M32:M33"/>
+    <mergeCell ref="M34:M35"/>
+    <mergeCell ref="M36:M37"/>
+    <mergeCell ref="M2:M8"/>
+    <mergeCell ref="M9:M10"/>
+    <mergeCell ref="M11:M12"/>
+    <mergeCell ref="M13:M14"/>
+    <mergeCell ref="M15:M16"/>
+    <mergeCell ref="L17:L19"/>
+    <mergeCell ref="L13:L14"/>
+    <mergeCell ref="L2:L8"/>
+    <mergeCell ref="E49:E52"/>
+    <mergeCell ref="F49:F52"/>
+    <mergeCell ref="G49:G52"/>
+    <mergeCell ref="H49:H52"/>
+    <mergeCell ref="I49:I52"/>
+    <mergeCell ref="J49:J52"/>
+    <mergeCell ref="K49:K52"/>
+    <mergeCell ref="L49:L52"/>
+    <mergeCell ref="F47:F48"/>
+    <mergeCell ref="G47:G48"/>
+    <mergeCell ref="H47:H48"/>
+    <mergeCell ref="I47:I48"/>
+    <mergeCell ref="J47:J48"/>
+    <mergeCell ref="E45:E46"/>
+    <mergeCell ref="F45:F46"/>
+    <mergeCell ref="G45:G46"/>
+    <mergeCell ref="H45:H46"/>
+    <mergeCell ref="I45:I46"/>
+    <mergeCell ref="J45:J46"/>
+    <mergeCell ref="K45:K46"/>
+    <mergeCell ref="L45:L46"/>
+    <mergeCell ref="E47:E48"/>
+    <mergeCell ref="K47:K48"/>
+    <mergeCell ref="L47:L48"/>
+    <mergeCell ref="E40:E42"/>
+    <mergeCell ref="F40:F42"/>
+    <mergeCell ref="G40:G42"/>
+    <mergeCell ref="H40:H42"/>
+    <mergeCell ref="I40:I42"/>
+    <mergeCell ref="J40:J42"/>
+    <mergeCell ref="K40:K42"/>
+    <mergeCell ref="L40:L42"/>
+    <mergeCell ref="E43:E44"/>
+    <mergeCell ref="K43:K44"/>
+    <mergeCell ref="L43:L44"/>
+    <mergeCell ref="F43:F44"/>
+    <mergeCell ref="G43:G44"/>
+    <mergeCell ref="H43:H44"/>
+    <mergeCell ref="I43:I44"/>
+    <mergeCell ref="J43:J44"/>
     <mergeCell ref="E38:E39"/>
     <mergeCell ref="F34:F35"/>
     <mergeCell ref="G34:G35"/>
@@ -9398,70 +9196,129 @@
     <mergeCell ref="J36:J37"/>
     <mergeCell ref="K36:K37"/>
     <mergeCell ref="L36:L37"/>
-    <mergeCell ref="E40:E42"/>
-    <mergeCell ref="F40:F42"/>
-    <mergeCell ref="G40:G42"/>
-    <mergeCell ref="H40:H42"/>
-    <mergeCell ref="I40:I42"/>
-    <mergeCell ref="J40:J42"/>
-    <mergeCell ref="K40:K42"/>
-    <mergeCell ref="L40:L42"/>
-    <mergeCell ref="E43:E44"/>
-    <mergeCell ref="K43:K44"/>
-    <mergeCell ref="L43:L44"/>
-    <mergeCell ref="F43:F44"/>
-    <mergeCell ref="G43:G44"/>
-    <mergeCell ref="H43:H44"/>
-    <mergeCell ref="I43:I44"/>
-    <mergeCell ref="J43:J44"/>
-    <mergeCell ref="E45:E46"/>
-    <mergeCell ref="F45:F46"/>
-    <mergeCell ref="G45:G46"/>
-    <mergeCell ref="H45:H46"/>
-    <mergeCell ref="I45:I46"/>
-    <mergeCell ref="J45:J46"/>
-    <mergeCell ref="K45:K46"/>
-    <mergeCell ref="L45:L46"/>
-    <mergeCell ref="E47:E48"/>
-    <mergeCell ref="K47:K48"/>
-    <mergeCell ref="L47:L48"/>
-    <mergeCell ref="E49:E52"/>
-    <mergeCell ref="F49:F52"/>
-    <mergeCell ref="G49:G52"/>
-    <mergeCell ref="H49:H52"/>
-    <mergeCell ref="I49:I52"/>
-    <mergeCell ref="J49:J52"/>
-    <mergeCell ref="K49:K52"/>
-    <mergeCell ref="L49:L52"/>
-    <mergeCell ref="F47:F48"/>
-    <mergeCell ref="G47:G48"/>
-    <mergeCell ref="H47:H48"/>
-    <mergeCell ref="I47:I48"/>
-    <mergeCell ref="J47:J48"/>
-    <mergeCell ref="M38:M39"/>
-    <mergeCell ref="M40:M42"/>
-    <mergeCell ref="M43:M44"/>
-    <mergeCell ref="M45:M46"/>
-    <mergeCell ref="M47:M48"/>
-    <mergeCell ref="M49:M52"/>
-    <mergeCell ref="L1:M1"/>
-    <mergeCell ref="M17:M19"/>
-    <mergeCell ref="M20:M22"/>
-    <mergeCell ref="M23:M25"/>
-    <mergeCell ref="M26:M27"/>
-    <mergeCell ref="M28:M29"/>
-    <mergeCell ref="M30:M31"/>
-    <mergeCell ref="M32:M33"/>
-    <mergeCell ref="M34:M35"/>
-    <mergeCell ref="M36:M37"/>
-    <mergeCell ref="M2:M8"/>
-    <mergeCell ref="M9:M10"/>
-    <mergeCell ref="M11:M12"/>
-    <mergeCell ref="M13:M14"/>
-    <mergeCell ref="M15:M16"/>
-    <mergeCell ref="L17:L19"/>
-    <mergeCell ref="L13:L14"/>
-    <mergeCell ref="L2:L8"/>
+    <mergeCell ref="E32:E33"/>
+    <mergeCell ref="F32:F33"/>
+    <mergeCell ref="G32:G33"/>
+    <mergeCell ref="H32:H33"/>
+    <mergeCell ref="I32:I33"/>
+    <mergeCell ref="J32:J33"/>
+    <mergeCell ref="K32:K33"/>
+    <mergeCell ref="L32:L33"/>
+    <mergeCell ref="F30:F31"/>
+    <mergeCell ref="G30:G31"/>
+    <mergeCell ref="H30:H31"/>
+    <mergeCell ref="I30:I31"/>
+    <mergeCell ref="J30:J31"/>
+    <mergeCell ref="E30:E31"/>
+    <mergeCell ref="F26:F27"/>
+    <mergeCell ref="G26:G27"/>
+    <mergeCell ref="H26:H27"/>
+    <mergeCell ref="I26:I27"/>
+    <mergeCell ref="J26:J27"/>
+    <mergeCell ref="E26:E27"/>
+    <mergeCell ref="K30:K31"/>
+    <mergeCell ref="L30:L31"/>
+    <mergeCell ref="K26:K27"/>
+    <mergeCell ref="L26:L27"/>
+    <mergeCell ref="E28:E29"/>
+    <mergeCell ref="F28:F29"/>
+    <mergeCell ref="G28:G29"/>
+    <mergeCell ref="H28:H29"/>
+    <mergeCell ref="I28:I29"/>
+    <mergeCell ref="J28:J29"/>
+    <mergeCell ref="K28:K29"/>
+    <mergeCell ref="L28:L29"/>
+    <mergeCell ref="E23:E25"/>
+    <mergeCell ref="F23:F25"/>
+    <mergeCell ref="G23:G25"/>
+    <mergeCell ref="H23:H25"/>
+    <mergeCell ref="I23:I25"/>
+    <mergeCell ref="J23:J25"/>
+    <mergeCell ref="K23:K25"/>
+    <mergeCell ref="L23:L25"/>
+    <mergeCell ref="H20:H22"/>
+    <mergeCell ref="F20:F22"/>
+    <mergeCell ref="G20:G22"/>
+    <mergeCell ref="I20:I22"/>
+    <mergeCell ref="J20:J22"/>
+    <mergeCell ref="K20:K22"/>
+    <mergeCell ref="L20:L22"/>
+    <mergeCell ref="E20:E22"/>
+    <mergeCell ref="E15:E16"/>
+    <mergeCell ref="E17:E19"/>
+    <mergeCell ref="F17:F19"/>
+    <mergeCell ref="G17:G19"/>
+    <mergeCell ref="H17:H19"/>
+    <mergeCell ref="I17:I19"/>
+    <mergeCell ref="J17:J19"/>
+    <mergeCell ref="K17:K19"/>
+    <mergeCell ref="J11:J12"/>
+    <mergeCell ref="K11:K12"/>
+    <mergeCell ref="L11:L12"/>
+    <mergeCell ref="J9:J10"/>
+    <mergeCell ref="K9:K10"/>
+    <mergeCell ref="L9:L10"/>
+    <mergeCell ref="K15:K16"/>
+    <mergeCell ref="L15:L16"/>
+    <mergeCell ref="F15:F16"/>
+    <mergeCell ref="G15:G16"/>
+    <mergeCell ref="H15:H16"/>
+    <mergeCell ref="I15:I16"/>
+    <mergeCell ref="J15:J16"/>
+    <mergeCell ref="H9:H10"/>
+    <mergeCell ref="I9:I10"/>
+    <mergeCell ref="F11:F12"/>
+    <mergeCell ref="G11:G12"/>
+    <mergeCell ref="E2:E8"/>
+    <mergeCell ref="F2:F8"/>
+    <mergeCell ref="G2:G8"/>
+    <mergeCell ref="H2:H8"/>
+    <mergeCell ref="I2:I8"/>
+    <mergeCell ref="I11:I12"/>
+    <mergeCell ref="B26:B33"/>
+    <mergeCell ref="A26:A27"/>
+    <mergeCell ref="A28:A29"/>
+    <mergeCell ref="A30:A31"/>
+    <mergeCell ref="A32:A33"/>
+    <mergeCell ref="A11:A12"/>
+    <mergeCell ref="A13:A14"/>
+    <mergeCell ref="A15:A16"/>
+    <mergeCell ref="A45:A46"/>
+    <mergeCell ref="A47:A48"/>
+    <mergeCell ref="B43:B48"/>
+    <mergeCell ref="C47:C48"/>
+    <mergeCell ref="B49:B52"/>
+    <mergeCell ref="A49:A52"/>
+    <mergeCell ref="A34:A35"/>
+    <mergeCell ref="A36:A37"/>
+    <mergeCell ref="A38:A39"/>
+    <mergeCell ref="A40:A42"/>
+    <mergeCell ref="B34:B42"/>
+    <mergeCell ref="A43:A44"/>
+    <mergeCell ref="A17:A19"/>
+    <mergeCell ref="A20:A22"/>
+    <mergeCell ref="A2:A8"/>
+    <mergeCell ref="B2:B8"/>
+    <mergeCell ref="B9:B16"/>
+    <mergeCell ref="A9:A10"/>
+    <mergeCell ref="A23:A25"/>
+    <mergeCell ref="B17:B25"/>
+    <mergeCell ref="I1:K1"/>
+    <mergeCell ref="E13:E14"/>
+    <mergeCell ref="H11:H12"/>
+    <mergeCell ref="F13:F14"/>
+    <mergeCell ref="G13:G14"/>
+    <mergeCell ref="H13:H14"/>
+    <mergeCell ref="I13:I14"/>
+    <mergeCell ref="J13:J14"/>
+    <mergeCell ref="K13:K14"/>
+    <mergeCell ref="J2:J8"/>
+    <mergeCell ref="K2:K8"/>
+    <mergeCell ref="E11:E12"/>
+    <mergeCell ref="C15:C16"/>
+    <mergeCell ref="E9:E10"/>
+    <mergeCell ref="F9:F10"/>
+    <mergeCell ref="G9:G10"/>
   </mergeCells>
   <hyperlinks>
     <hyperlink ref="E2" r:id="rId1" display="https://drive.google.com/open?id=1RYgFxmL-dmZYtjF2ca5a0yQUWnMVjo3mVexJabJL1c4"/>
@@ -9502,8 +9359,8 @@
   </sheetPr>
   <dimension ref="A1:H1000"/>
   <sheetViews>
-    <sheetView topLeftCell="A64" workbookViewId="0">
-      <selection activeCell="E12" sqref="E12:E16"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E16" sqref="E16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15" customHeight="1"/>
@@ -9544,10 +9401,10 @@
       </c>
     </row>
     <row r="2" spans="1:8" ht="15.75">
-      <c r="A2" s="228" t="s">
+      <c r="A2" s="258" t="s">
         <v>309</v>
       </c>
-      <c r="B2" s="231">
+      <c r="B2" s="259">
         <v>1</v>
       </c>
       <c r="C2" s="104">
@@ -9564,8 +9421,8 @@
       <c r="H2" s="108"/>
     </row>
     <row r="3" spans="1:8" ht="15.75">
-      <c r="A3" s="229"/>
-      <c r="B3" s="232"/>
+      <c r="A3" s="251"/>
+      <c r="B3" s="254"/>
       <c r="C3" s="109">
         <v>43193</v>
       </c>
@@ -9580,8 +9437,8 @@
       <c r="H3" s="112"/>
     </row>
     <row r="4" spans="1:8" ht="15.75">
-      <c r="A4" s="229"/>
-      <c r="B4" s="232"/>
+      <c r="A4" s="251"/>
+      <c r="B4" s="254"/>
       <c r="C4" s="109">
         <v>43194</v>
       </c>
@@ -9596,8 +9453,8 @@
       <c r="H4" s="112"/>
     </row>
     <row r="5" spans="1:8" ht="15.75">
-      <c r="A5" s="229"/>
-      <c r="B5" s="232"/>
+      <c r="A5" s="251"/>
+      <c r="B5" s="254"/>
       <c r="C5" s="109">
         <v>43195</v>
       </c>
@@ -9612,8 +9469,8 @@
       <c r="H5" s="112"/>
     </row>
     <row r="6" spans="1:8" ht="16.5" thickBot="1">
-      <c r="A6" s="230"/>
-      <c r="B6" s="235"/>
+      <c r="A6" s="252"/>
+      <c r="B6" s="257"/>
       <c r="C6" s="113">
         <v>43196</v>
       </c>
@@ -9630,10 +9487,10 @@
       <c r="H6" s="116"/>
     </row>
     <row r="7" spans="1:8" ht="15.75">
-      <c r="A7" s="240" t="s">
+      <c r="A7" s="260" t="s">
         <v>184</v>
       </c>
-      <c r="B7" s="239">
+      <c r="B7" s="253">
         <v>2</v>
       </c>
       <c r="C7" s="117">
@@ -9650,8 +9507,8 @@
       <c r="H7" s="121"/>
     </row>
     <row r="8" spans="1:8" ht="15.75">
-      <c r="A8" s="229"/>
-      <c r="B8" s="232"/>
+      <c r="A8" s="251"/>
+      <c r="B8" s="254"/>
       <c r="C8" s="122">
         <v>43200</v>
       </c>
@@ -9666,8 +9523,8 @@
       <c r="H8" s="126"/>
     </row>
     <row r="9" spans="1:8" ht="15.75">
-      <c r="A9" s="229"/>
-      <c r="B9" s="232"/>
+      <c r="A9" s="251"/>
+      <c r="B9" s="254"/>
       <c r="C9" s="122">
         <v>43201</v>
       </c>
@@ -9682,8 +9539,8 @@
       <c r="H9" s="126"/>
     </row>
     <row r="10" spans="1:8" ht="15.75" customHeight="1">
-      <c r="A10" s="229"/>
-      <c r="B10" s="232"/>
+      <c r="A10" s="251"/>
+      <c r="B10" s="254"/>
       <c r="C10" s="122">
         <v>43202</v>
       </c>
@@ -9698,8 +9555,8 @@
       <c r="H10" s="126"/>
     </row>
     <row r="11" spans="1:8" ht="15.75">
-      <c r="A11" s="229"/>
-      <c r="B11" s="232"/>
+      <c r="A11" s="251"/>
+      <c r="B11" s="254"/>
       <c r="C11" s="122">
         <v>43203</v>
       </c>
@@ -9716,8 +9573,8 @@
       </c>
     </row>
     <row r="12" spans="1:8" ht="15.75">
-      <c r="A12" s="229"/>
-      <c r="B12" s="234">
+      <c r="A12" s="251"/>
+      <c r="B12" s="255">
         <v>3</v>
       </c>
       <c r="C12" s="109">
@@ -9734,8 +9591,8 @@
       <c r="H12" s="112"/>
     </row>
     <row r="13" spans="1:8" ht="15.75">
-      <c r="A13" s="229"/>
-      <c r="B13" s="232"/>
+      <c r="A13" s="251"/>
+      <c r="B13" s="254"/>
       <c r="C13" s="109">
         <v>43207</v>
       </c>
@@ -9750,8 +9607,8 @@
       <c r="H13" s="112"/>
     </row>
     <row r="14" spans="1:8" ht="15.75">
-      <c r="A14" s="229"/>
-      <c r="B14" s="232"/>
+      <c r="A14" s="251"/>
+      <c r="B14" s="254"/>
       <c r="C14" s="109">
         <v>43208</v>
       </c>
@@ -9766,8 +9623,8 @@
       <c r="H14" s="112"/>
     </row>
     <row r="15" spans="1:8" ht="15.75">
-      <c r="A15" s="229"/>
-      <c r="B15" s="232"/>
+      <c r="A15" s="251"/>
+      <c r="B15" s="254"/>
       <c r="C15" s="109">
         <v>43209</v>
       </c>
@@ -9782,8 +9639,8 @@
       <c r="H15" s="112"/>
     </row>
     <row r="16" spans="1:8" ht="15.75">
-      <c r="A16" s="229"/>
-      <c r="B16" s="232"/>
+      <c r="A16" s="251"/>
+      <c r="B16" s="254"/>
       <c r="C16" s="109">
         <v>43210</v>
       </c>
@@ -9800,8 +9657,8 @@
       <c r="H16" s="112"/>
     </row>
     <row r="17" spans="1:8" ht="15.75">
-      <c r="A17" s="229"/>
-      <c r="B17" s="236">
+      <c r="A17" s="251"/>
+      <c r="B17" s="256">
         <v>4</v>
       </c>
       <c r="C17" s="122">
@@ -9818,8 +9675,8 @@
       <c r="H17" s="126"/>
     </row>
     <row r="18" spans="1:8" ht="15.75">
-      <c r="A18" s="229"/>
-      <c r="B18" s="232"/>
+      <c r="A18" s="251"/>
+      <c r="B18" s="254"/>
       <c r="C18" s="122">
         <v>43214</v>
       </c>
@@ -9834,8 +9691,8 @@
       <c r="H18" s="126"/>
     </row>
     <row r="19" spans="1:8" ht="15.75">
-      <c r="A19" s="229"/>
-      <c r="B19" s="232"/>
+      <c r="A19" s="251"/>
+      <c r="B19" s="254"/>
       <c r="C19" s="122">
         <v>43215</v>
       </c>
@@ -9850,8 +9707,8 @@
       <c r="H19" s="126"/>
     </row>
     <row r="20" spans="1:8" ht="15.75">
-      <c r="A20" s="229"/>
-      <c r="B20" s="232"/>
+      <c r="A20" s="251"/>
+      <c r="B20" s="254"/>
       <c r="C20" s="122">
         <v>43216</v>
       </c>
@@ -9866,8 +9723,8 @@
       <c r="H20" s="126"/>
     </row>
     <row r="21" spans="1:8" ht="15.75">
-      <c r="A21" s="229"/>
-      <c r="B21" s="232"/>
+      <c r="A21" s="251"/>
+      <c r="B21" s="254"/>
       <c r="C21" s="122">
         <v>43217</v>
       </c>
@@ -9882,8 +9739,8 @@
       <c r="H21" s="126"/>
     </row>
     <row r="22" spans="1:8" ht="15.75">
-      <c r="A22" s="229"/>
-      <c r="B22" s="234">
+      <c r="A22" s="251"/>
+      <c r="B22" s="255">
         <v>5</v>
       </c>
       <c r="C22" s="109">
@@ -9900,8 +9757,8 @@
       <c r="H22" s="112"/>
     </row>
     <row r="23" spans="1:8" ht="15.75">
-      <c r="A23" s="229"/>
-      <c r="B23" s="232"/>
+      <c r="A23" s="251"/>
+      <c r="B23" s="254"/>
       <c r="C23" s="109">
         <v>43221</v>
       </c>
@@ -9916,8 +9773,8 @@
       <c r="H23" s="112"/>
     </row>
     <row r="24" spans="1:8" ht="15.75">
-      <c r="A24" s="229"/>
-      <c r="B24" s="232"/>
+      <c r="A24" s="251"/>
+      <c r="B24" s="254"/>
       <c r="C24" s="109">
         <v>43222</v>
       </c>
@@ -9932,8 +9789,8 @@
       <c r="H24" s="112"/>
     </row>
     <row r="25" spans="1:8" ht="15.75">
-      <c r="A25" s="229"/>
-      <c r="B25" s="232"/>
+      <c r="A25" s="251"/>
+      <c r="B25" s="254"/>
       <c r="C25" s="109">
         <v>43223</v>
       </c>
@@ -9948,8 +9805,8 @@
       <c r="H25" s="112"/>
     </row>
     <row r="26" spans="1:8" ht="16.5" thickBot="1">
-      <c r="A26" s="230"/>
-      <c r="B26" s="235"/>
+      <c r="A26" s="252"/>
+      <c r="B26" s="257"/>
       <c r="C26" s="113">
         <v>43224</v>
       </c>
@@ -9966,10 +9823,10 @@
       </c>
     </row>
     <row r="27" spans="1:8" ht="15.75">
-      <c r="A27" s="228" t="s">
+      <c r="A27" s="258" t="s">
         <v>34</v>
       </c>
-      <c r="B27" s="237">
+      <c r="B27" s="261">
         <v>6</v>
       </c>
       <c r="C27" s="129">
@@ -9988,8 +9845,8 @@
       <c r="H27" s="131"/>
     </row>
     <row r="28" spans="1:8" ht="15.75">
-      <c r="A28" s="229"/>
-      <c r="B28" s="232"/>
+      <c r="A28" s="251"/>
+      <c r="B28" s="254"/>
       <c r="C28" s="132">
         <v>43228</v>
       </c>
@@ -10004,8 +9861,8 @@
       <c r="H28" s="134"/>
     </row>
     <row r="29" spans="1:8" ht="15.75">
-      <c r="A29" s="229"/>
-      <c r="B29" s="232"/>
+      <c r="A29" s="251"/>
+      <c r="B29" s="254"/>
       <c r="C29" s="132">
         <v>43229</v>
       </c>
@@ -10020,8 +9877,8 @@
       <c r="H29" s="134"/>
     </row>
     <row r="30" spans="1:8" ht="15.75">
-      <c r="A30" s="229"/>
-      <c r="B30" s="232"/>
+      <c r="A30" s="251"/>
+      <c r="B30" s="254"/>
       <c r="C30" s="132">
         <v>43230</v>
       </c>
@@ -10036,8 +9893,8 @@
       <c r="H30" s="134"/>
     </row>
     <row r="31" spans="1:8" ht="15.75">
-      <c r="A31" s="229"/>
-      <c r="B31" s="232"/>
+      <c r="A31" s="251"/>
+      <c r="B31" s="254"/>
       <c r="C31" s="132">
         <v>43231</v>
       </c>
@@ -10052,8 +9909,8 @@
       <c r="H31" s="134"/>
     </row>
     <row r="32" spans="1:8" ht="15.75">
-      <c r="A32" s="229"/>
-      <c r="B32" s="234">
+      <c r="A32" s="251"/>
+      <c r="B32" s="255">
         <v>7</v>
       </c>
       <c r="C32" s="109">
@@ -10070,8 +9927,8 @@
       <c r="H32" s="112"/>
     </row>
     <row r="33" spans="1:8" ht="15.75">
-      <c r="A33" s="229"/>
-      <c r="B33" s="232"/>
+      <c r="A33" s="251"/>
+      <c r="B33" s="254"/>
       <c r="C33" s="109">
         <v>43235</v>
       </c>
@@ -10086,8 +9943,8 @@
       <c r="H33" s="112"/>
     </row>
     <row r="34" spans="1:8" ht="15.75">
-      <c r="A34" s="229"/>
-      <c r="B34" s="232"/>
+      <c r="A34" s="251"/>
+      <c r="B34" s="254"/>
       <c r="C34" s="109">
         <v>43236</v>
       </c>
@@ -10102,8 +9959,8 @@
       <c r="H34" s="112"/>
     </row>
     <row r="35" spans="1:8" ht="15.75">
-      <c r="A35" s="229"/>
-      <c r="B35" s="232"/>
+      <c r="A35" s="251"/>
+      <c r="B35" s="254"/>
       <c r="C35" s="109">
         <v>43237</v>
       </c>
@@ -10118,8 +9975,8 @@
       <c r="H35" s="112"/>
     </row>
     <row r="36" spans="1:8" ht="15.75">
-      <c r="A36" s="229"/>
-      <c r="B36" s="232"/>
+      <c r="A36" s="251"/>
+      <c r="B36" s="254"/>
       <c r="C36" s="109">
         <v>43238</v>
       </c>
@@ -10136,8 +9993,8 @@
       <c r="H36" s="112"/>
     </row>
     <row r="37" spans="1:8" ht="15.75">
-      <c r="A37" s="229"/>
-      <c r="B37" s="233">
+      <c r="A37" s="251"/>
+      <c r="B37" s="262">
         <v>8</v>
       </c>
       <c r="C37" s="132">
@@ -10156,8 +10013,8 @@
       <c r="H37" s="126"/>
     </row>
     <row r="38" spans="1:8" ht="15.75">
-      <c r="A38" s="229"/>
-      <c r="B38" s="232"/>
+      <c r="A38" s="251"/>
+      <c r="B38" s="254"/>
       <c r="C38" s="132">
         <v>43242</v>
       </c>
@@ -10172,8 +10029,8 @@
       <c r="H38" s="126"/>
     </row>
     <row r="39" spans="1:8" ht="15.75">
-      <c r="A39" s="229"/>
-      <c r="B39" s="232"/>
+      <c r="A39" s="251"/>
+      <c r="B39" s="254"/>
       <c r="C39" s="132">
         <v>43243</v>
       </c>
@@ -10188,8 +10045,8 @@
       <c r="H39" s="126"/>
     </row>
     <row r="40" spans="1:8" ht="15.75">
-      <c r="A40" s="229"/>
-      <c r="B40" s="232"/>
+      <c r="A40" s="251"/>
+      <c r="B40" s="254"/>
       <c r="C40" s="132">
         <v>43244</v>
       </c>
@@ -10204,8 +10061,8 @@
       <c r="H40" s="126"/>
     </row>
     <row r="41" spans="1:8" ht="15.75">
-      <c r="A41" s="229"/>
-      <c r="B41" s="232"/>
+      <c r="A41" s="251"/>
+      <c r="B41" s="254"/>
       <c r="C41" s="132">
         <v>43245</v>
       </c>
@@ -10222,8 +10079,8 @@
       </c>
     </row>
     <row r="42" spans="1:8" ht="15.75">
-      <c r="A42" s="229"/>
-      <c r="B42" s="234">
+      <c r="A42" s="251"/>
+      <c r="B42" s="255">
         <v>9</v>
       </c>
       <c r="C42" s="109">
@@ -10240,8 +10097,8 @@
       <c r="H42" s="112"/>
     </row>
     <row r="43" spans="1:8" ht="15.75">
-      <c r="A43" s="229"/>
-      <c r="B43" s="232"/>
+      <c r="A43" s="251"/>
+      <c r="B43" s="254"/>
       <c r="C43" s="109">
         <v>43249</v>
       </c>
@@ -10256,8 +10113,8 @@
       <c r="H43" s="112"/>
     </row>
     <row r="44" spans="1:8" ht="15.75">
-      <c r="A44" s="229"/>
-      <c r="B44" s="232"/>
+      <c r="A44" s="251"/>
+      <c r="B44" s="254"/>
       <c r="C44" s="109">
         <v>43250</v>
       </c>
@@ -10272,8 +10129,8 @@
       <c r="H44" s="112"/>
     </row>
     <row r="45" spans="1:8" ht="15.75">
-      <c r="A45" s="229"/>
-      <c r="B45" s="232"/>
+      <c r="A45" s="251"/>
+      <c r="B45" s="254"/>
       <c r="C45" s="109">
         <v>43251</v>
       </c>
@@ -10288,8 +10145,8 @@
       <c r="H45" s="112"/>
     </row>
     <row r="46" spans="1:8" ht="16.5" thickBot="1">
-      <c r="A46" s="230"/>
-      <c r="B46" s="235"/>
+      <c r="A46" s="252"/>
+      <c r="B46" s="257"/>
       <c r="C46" s="113">
         <v>43252</v>
       </c>
@@ -10306,10 +10163,10 @@
       <c r="H46" s="116"/>
     </row>
     <row r="47" spans="1:8" ht="15.75">
-      <c r="A47" s="238" t="s">
+      <c r="A47" s="250" t="s">
         <v>47</v>
       </c>
-      <c r="B47" s="239">
+      <c r="B47" s="253">
         <v>10</v>
       </c>
       <c r="C47" s="117">
@@ -10328,8 +10185,8 @@
       <c r="H47" s="121"/>
     </row>
     <row r="48" spans="1:8" ht="15.75">
-      <c r="A48" s="229"/>
-      <c r="B48" s="232"/>
+      <c r="A48" s="251"/>
+      <c r="B48" s="254"/>
       <c r="C48" s="122">
         <v>43256</v>
       </c>
@@ -10344,8 +10201,8 @@
       <c r="H48" s="126"/>
     </row>
     <row r="49" spans="1:8" ht="15.75">
-      <c r="A49" s="229"/>
-      <c r="B49" s="232"/>
+      <c r="A49" s="251"/>
+      <c r="B49" s="254"/>
       <c r="C49" s="122">
         <v>43257</v>
       </c>
@@ -10360,8 +10217,8 @@
       <c r="H49" s="126"/>
     </row>
     <row r="50" spans="1:8" ht="15.75">
-      <c r="A50" s="229"/>
-      <c r="B50" s="232"/>
+      <c r="A50" s="251"/>
+      <c r="B50" s="254"/>
       <c r="C50" s="122">
         <v>43258</v>
       </c>
@@ -10376,8 +10233,8 @@
       <c r="H50" s="126"/>
     </row>
     <row r="51" spans="1:8" ht="15.75">
-      <c r="A51" s="229"/>
-      <c r="B51" s="232"/>
+      <c r="A51" s="251"/>
+      <c r="B51" s="254"/>
       <c r="C51" s="122">
         <v>43259</v>
       </c>
@@ -10394,8 +10251,8 @@
       </c>
     </row>
     <row r="52" spans="1:8" ht="15.75">
-      <c r="A52" s="229"/>
-      <c r="B52" s="234">
+      <c r="A52" s="251"/>
+      <c r="B52" s="255">
         <v>11</v>
       </c>
       <c r="C52" s="109">
@@ -10414,8 +10271,8 @@
       <c r="H52" s="112"/>
     </row>
     <row r="53" spans="1:8" ht="15.75">
-      <c r="A53" s="229"/>
-      <c r="B53" s="232"/>
+      <c r="A53" s="251"/>
+      <c r="B53" s="254"/>
       <c r="C53" s="109">
         <v>43263</v>
       </c>
@@ -10430,8 +10287,8 @@
       <c r="H53" s="112"/>
     </row>
     <row r="54" spans="1:8" ht="15.75">
-      <c r="A54" s="229"/>
-      <c r="B54" s="232"/>
+      <c r="A54" s="251"/>
+      <c r="B54" s="254"/>
       <c r="C54" s="109">
         <v>43264</v>
       </c>
@@ -10446,8 +10303,8 @@
       <c r="H54" s="112"/>
     </row>
     <row r="55" spans="1:8" ht="15.75">
-      <c r="A55" s="229"/>
-      <c r="B55" s="232"/>
+      <c r="A55" s="251"/>
+      <c r="B55" s="254"/>
       <c r="C55" s="109">
         <v>43265</v>
       </c>
@@ -10462,8 +10319,8 @@
       <c r="H55" s="112"/>
     </row>
     <row r="56" spans="1:8" ht="15.75">
-      <c r="A56" s="229"/>
-      <c r="B56" s="232"/>
+      <c r="A56" s="251"/>
+      <c r="B56" s="254"/>
       <c r="C56" s="109">
         <v>43266</v>
       </c>
@@ -10480,8 +10337,8 @@
       <c r="H56" s="112"/>
     </row>
     <row r="57" spans="1:8" ht="15.75">
-      <c r="A57" s="229"/>
-      <c r="B57" s="236">
+      <c r="A57" s="251"/>
+      <c r="B57" s="256">
         <v>12</v>
       </c>
       <c r="C57" s="122">
@@ -10498,8 +10355,8 @@
       <c r="H57" s="126"/>
     </row>
     <row r="58" spans="1:8" ht="15.75">
-      <c r="A58" s="229"/>
-      <c r="B58" s="232"/>
+      <c r="A58" s="251"/>
+      <c r="B58" s="254"/>
       <c r="C58" s="122">
         <v>43270</v>
       </c>
@@ -10514,8 +10371,8 @@
       <c r="H58" s="126"/>
     </row>
     <row r="59" spans="1:8" ht="15.75">
-      <c r="A59" s="229"/>
-      <c r="B59" s="232"/>
+      <c r="A59" s="251"/>
+      <c r="B59" s="254"/>
       <c r="C59" s="122">
         <v>43271</v>
       </c>
@@ -10530,8 +10387,8 @@
       <c r="H59" s="126"/>
     </row>
     <row r="60" spans="1:8" ht="15.75">
-      <c r="A60" s="229"/>
-      <c r="B60" s="232"/>
+      <c r="A60" s="251"/>
+      <c r="B60" s="254"/>
       <c r="C60" s="122">
         <v>43272</v>
       </c>
@@ -10546,8 +10403,8 @@
       <c r="H60" s="126"/>
     </row>
     <row r="61" spans="1:8" ht="16.5" thickBot="1">
-      <c r="A61" s="230"/>
-      <c r="B61" s="235"/>
+      <c r="A61" s="252"/>
+      <c r="B61" s="257"/>
       <c r="C61" s="136">
         <v>43273</v>
       </c>
@@ -10564,10 +10421,10 @@
       <c r="H61" s="140"/>
     </row>
     <row r="62" spans="1:8" ht="15.75">
-      <c r="A62" s="228" t="s">
+      <c r="A62" s="258" t="s">
         <v>61</v>
       </c>
-      <c r="B62" s="231">
+      <c r="B62" s="259">
         <v>13</v>
       </c>
       <c r="C62" s="104">
@@ -10586,8 +10443,8 @@
       <c r="H62" s="108"/>
     </row>
     <row r="63" spans="1:8" ht="15.75">
-      <c r="A63" s="229"/>
-      <c r="B63" s="232"/>
+      <c r="A63" s="251"/>
+      <c r="B63" s="254"/>
       <c r="C63" s="109">
         <v>43277</v>
       </c>
@@ -10602,8 +10459,8 @@
       <c r="H63" s="112"/>
     </row>
     <row r="64" spans="1:8" ht="15.75">
-      <c r="A64" s="229"/>
-      <c r="B64" s="232"/>
+      <c r="A64" s="251"/>
+      <c r="B64" s="254"/>
       <c r="C64" s="109">
         <v>43278</v>
       </c>
@@ -10618,8 +10475,8 @@
       <c r="H64" s="112"/>
     </row>
     <row r="65" spans="1:8" ht="15.75">
-      <c r="A65" s="229"/>
-      <c r="B65" s="232"/>
+      <c r="A65" s="251"/>
+      <c r="B65" s="254"/>
       <c r="C65" s="109">
         <v>43279</v>
       </c>
@@ -10634,8 +10491,8 @@
       <c r="H65" s="112"/>
     </row>
     <row r="66" spans="1:8" ht="15.75">
-      <c r="A66" s="229"/>
-      <c r="B66" s="232"/>
+      <c r="A66" s="251"/>
+      <c r="B66" s="254"/>
       <c r="C66" s="109">
         <v>43280</v>
       </c>
@@ -10652,8 +10509,8 @@
       </c>
     </row>
     <row r="67" spans="1:8" ht="15.75">
-      <c r="A67" s="229"/>
-      <c r="B67" s="233">
+      <c r="A67" s="251"/>
+      <c r="B67" s="262">
         <v>14</v>
       </c>
       <c r="C67" s="132">
@@ -10670,8 +10527,8 @@
       <c r="H67" s="134"/>
     </row>
     <row r="68" spans="1:8" ht="15.75">
-      <c r="A68" s="229"/>
-      <c r="B68" s="232"/>
+      <c r="A68" s="251"/>
+      <c r="B68" s="254"/>
       <c r="C68" s="132">
         <v>43284</v>
       </c>
@@ -10686,8 +10543,8 @@
       <c r="H68" s="134"/>
     </row>
     <row r="69" spans="1:8" ht="15.75">
-      <c r="A69" s="229"/>
-      <c r="B69" s="232"/>
+      <c r="A69" s="251"/>
+      <c r="B69" s="254"/>
       <c r="C69" s="132">
         <v>43285</v>
       </c>
@@ -10702,8 +10559,8 @@
       <c r="H69" s="134"/>
     </row>
     <row r="70" spans="1:8" ht="15.75">
-      <c r="A70" s="229"/>
-      <c r="B70" s="232"/>
+      <c r="A70" s="251"/>
+      <c r="B70" s="254"/>
       <c r="C70" s="132">
         <v>43286</v>
       </c>
@@ -10718,8 +10575,8 @@
       <c r="H70" s="134"/>
     </row>
     <row r="71" spans="1:8" ht="15.75">
-      <c r="A71" s="229"/>
-      <c r="B71" s="232"/>
+      <c r="A71" s="251"/>
+      <c r="B71" s="254"/>
       <c r="C71" s="132">
         <v>43287</v>
       </c>
@@ -10736,8 +10593,8 @@
       <c r="H71" s="134"/>
     </row>
     <row r="72" spans="1:8" ht="15.75">
-      <c r="A72" s="229"/>
-      <c r="B72" s="234">
+      <c r="A72" s="251"/>
+      <c r="B72" s="255">
         <v>15</v>
       </c>
       <c r="C72" s="109">
@@ -10756,8 +10613,8 @@
       <c r="H72" s="112"/>
     </row>
     <row r="73" spans="1:8" ht="15.75">
-      <c r="A73" s="229"/>
-      <c r="B73" s="232"/>
+      <c r="A73" s="251"/>
+      <c r="B73" s="254"/>
       <c r="C73" s="109">
         <v>43291</v>
       </c>
@@ -10772,8 +10629,8 @@
       <c r="H73" s="112"/>
     </row>
     <row r="74" spans="1:8" ht="15.75">
-      <c r="A74" s="229"/>
-      <c r="B74" s="232"/>
+      <c r="A74" s="251"/>
+      <c r="B74" s="254"/>
       <c r="C74" s="109">
         <v>43292</v>
       </c>
@@ -10788,8 +10645,8 @@
       <c r="H74" s="112"/>
     </row>
     <row r="75" spans="1:8" ht="15.75">
-      <c r="A75" s="229"/>
-      <c r="B75" s="232"/>
+      <c r="A75" s="251"/>
+      <c r="B75" s="254"/>
       <c r="C75" s="109">
         <v>43293</v>
       </c>
@@ -10804,8 +10661,8 @@
       <c r="H75" s="112"/>
     </row>
     <row r="76" spans="1:8" ht="15.75">
-      <c r="A76" s="229"/>
-      <c r="B76" s="232"/>
+      <c r="A76" s="251"/>
+      <c r="B76" s="254"/>
       <c r="C76" s="109">
         <v>43294</v>
       </c>
@@ -10822,8 +10679,8 @@
       </c>
     </row>
     <row r="77" spans="1:8" ht="15.75">
-      <c r="A77" s="229"/>
-      <c r="B77" s="233">
+      <c r="A77" s="251"/>
+      <c r="B77" s="262">
         <v>16</v>
       </c>
       <c r="C77" s="132">
@@ -10840,8 +10697,8 @@
       <c r="H77" s="134"/>
     </row>
     <row r="78" spans="1:8" ht="15.75">
-      <c r="A78" s="229"/>
-      <c r="B78" s="232"/>
+      <c r="A78" s="251"/>
+      <c r="B78" s="254"/>
       <c r="C78" s="132">
         <v>43298</v>
       </c>
@@ -10856,8 +10713,8 @@
       <c r="H78" s="134"/>
     </row>
     <row r="79" spans="1:8" ht="15.75">
-      <c r="A79" s="229"/>
-      <c r="B79" s="232"/>
+      <c r="A79" s="251"/>
+      <c r="B79" s="254"/>
       <c r="C79" s="132">
         <v>43299</v>
       </c>
@@ -10872,8 +10729,8 @@
       <c r="H79" s="134"/>
     </row>
     <row r="80" spans="1:8" ht="15.75">
-      <c r="A80" s="229"/>
-      <c r="B80" s="232"/>
+      <c r="A80" s="251"/>
+      <c r="B80" s="254"/>
       <c r="C80" s="132">
         <v>43300</v>
       </c>
@@ -10888,8 +10745,8 @@
       <c r="H80" s="134"/>
     </row>
     <row r="81" spans="1:8" ht="16.5" thickBot="1">
-      <c r="A81" s="230"/>
-      <c r="B81" s="235"/>
+      <c r="A81" s="252"/>
+      <c r="B81" s="257"/>
       <c r="C81" s="142">
         <v>43301</v>
       </c>
@@ -10906,10 +10763,10 @@
       <c r="H81" s="144"/>
     </row>
     <row r="82" spans="1:8" ht="15.75">
-      <c r="A82" s="228" t="s">
+      <c r="A82" s="258" t="s">
         <v>76</v>
       </c>
-      <c r="B82" s="231">
+      <c r="B82" s="259">
         <v>17</v>
       </c>
       <c r="C82" s="104">
@@ -10928,8 +10785,8 @@
       <c r="H82" s="108"/>
     </row>
     <row r="83" spans="1:8" ht="15.75">
-      <c r="A83" s="229"/>
-      <c r="B83" s="232"/>
+      <c r="A83" s="251"/>
+      <c r="B83" s="254"/>
       <c r="C83" s="109">
         <v>43305</v>
       </c>
@@ -10944,8 +10801,8 @@
       <c r="H83" s="112"/>
     </row>
     <row r="84" spans="1:8" ht="15.75">
-      <c r="A84" s="229"/>
-      <c r="B84" s="232"/>
+      <c r="A84" s="251"/>
+      <c r="B84" s="254"/>
       <c r="C84" s="109">
         <v>43306</v>
       </c>
@@ -10960,8 +10817,8 @@
       <c r="H84" s="112"/>
     </row>
     <row r="85" spans="1:8" ht="15.75">
-      <c r="A85" s="229"/>
-      <c r="B85" s="232"/>
+      <c r="A85" s="251"/>
+      <c r="B85" s="254"/>
       <c r="C85" s="109">
         <v>43307</v>
       </c>
@@ -10976,8 +10833,8 @@
       <c r="H85" s="112"/>
     </row>
     <row r="86" spans="1:8" ht="15.75">
-      <c r="A86" s="229"/>
-      <c r="B86" s="232"/>
+      <c r="A86" s="251"/>
+      <c r="B86" s="254"/>
       <c r="C86" s="109">
         <v>43308</v>
       </c>
@@ -10994,8 +10851,8 @@
       </c>
     </row>
     <row r="87" spans="1:8" ht="15.75">
-      <c r="A87" s="229"/>
-      <c r="B87" s="236">
+      <c r="A87" s="251"/>
+      <c r="B87" s="256">
         <v>18</v>
       </c>
       <c r="C87" s="122">
@@ -11012,8 +10869,8 @@
       <c r="H87" s="126"/>
     </row>
     <row r="88" spans="1:8" ht="15.75">
-      <c r="A88" s="229"/>
-      <c r="B88" s="232"/>
+      <c r="A88" s="251"/>
+      <c r="B88" s="254"/>
       <c r="C88" s="122">
         <v>43312</v>
       </c>
@@ -11028,8 +10885,8 @@
       <c r="H88" s="126"/>
     </row>
     <row r="89" spans="1:8" ht="15.75">
-      <c r="A89" s="229"/>
-      <c r="B89" s="232"/>
+      <c r="A89" s="251"/>
+      <c r="B89" s="254"/>
       <c r="C89" s="122">
         <v>43313</v>
       </c>
@@ -11044,8 +10901,8 @@
       <c r="H89" s="126"/>
     </row>
     <row r="90" spans="1:8" ht="15.75">
-      <c r="A90" s="229"/>
-      <c r="B90" s="232"/>
+      <c r="A90" s="251"/>
+      <c r="B90" s="254"/>
       <c r="C90" s="122">
         <v>43314</v>
       </c>
@@ -11060,8 +10917,8 @@
       <c r="H90" s="126"/>
     </row>
     <row r="91" spans="1:8" ht="15.75">
-      <c r="A91" s="229"/>
-      <c r="B91" s="232"/>
+      <c r="A91" s="251"/>
+      <c r="B91" s="254"/>
       <c r="C91" s="122">
         <v>43315</v>
       </c>
@@ -11078,8 +10935,8 @@
       <c r="H91" s="126"/>
     </row>
     <row r="92" spans="1:8" ht="15.75">
-      <c r="A92" s="229"/>
-      <c r="B92" s="234">
+      <c r="A92" s="251"/>
+      <c r="B92" s="255">
         <v>19</v>
       </c>
       <c r="C92" s="109">
@@ -11098,8 +10955,8 @@
       <c r="H92" s="112"/>
     </row>
     <row r="93" spans="1:8" ht="15.75">
-      <c r="A93" s="229"/>
-      <c r="B93" s="232"/>
+      <c r="A93" s="251"/>
+      <c r="B93" s="254"/>
       <c r="C93" s="109">
         <v>43319</v>
       </c>
@@ -11114,8 +10971,8 @@
       <c r="H93" s="112"/>
     </row>
     <row r="94" spans="1:8" ht="15.75">
-      <c r="A94" s="229"/>
-      <c r="B94" s="232"/>
+      <c r="A94" s="251"/>
+      <c r="B94" s="254"/>
       <c r="C94" s="109">
         <v>43320</v>
       </c>
@@ -11130,8 +10987,8 @@
       <c r="H94" s="112"/>
     </row>
     <row r="95" spans="1:8" ht="15.75">
-      <c r="A95" s="229"/>
-      <c r="B95" s="232"/>
+      <c r="A95" s="251"/>
+      <c r="B95" s="254"/>
       <c r="C95" s="109">
         <v>43321</v>
       </c>
@@ -11146,8 +11003,8 @@
       <c r="H95" s="112"/>
     </row>
     <row r="96" spans="1:8" ht="15.75">
-      <c r="A96" s="229"/>
-      <c r="B96" s="232"/>
+      <c r="A96" s="251"/>
+      <c r="B96" s="254"/>
       <c r="C96" s="109">
         <v>43322</v>
       </c>
@@ -11164,8 +11021,8 @@
       </c>
     </row>
     <row r="97" spans="1:8" ht="15.75">
-      <c r="A97" s="229"/>
-      <c r="B97" s="236">
+      <c r="A97" s="251"/>
+      <c r="B97" s="256">
         <v>20</v>
       </c>
       <c r="C97" s="122">
@@ -11182,8 +11039,8 @@
       <c r="H97" s="126"/>
     </row>
     <row r="98" spans="1:8" ht="15.75">
-      <c r="A98" s="229"/>
-      <c r="B98" s="232"/>
+      <c r="A98" s="251"/>
+      <c r="B98" s="254"/>
       <c r="C98" s="122">
         <v>43326</v>
       </c>
@@ -11198,8 +11055,8 @@
       <c r="H98" s="126"/>
     </row>
     <row r="99" spans="1:8" ht="15.75">
-      <c r="A99" s="229"/>
-      <c r="B99" s="232"/>
+      <c r="A99" s="251"/>
+      <c r="B99" s="254"/>
       <c r="C99" s="122">
         <v>43327</v>
       </c>
@@ -11214,8 +11071,8 @@
       <c r="H99" s="126"/>
     </row>
     <row r="100" spans="1:8" ht="15.75">
-      <c r="A100" s="229"/>
-      <c r="B100" s="232"/>
+      <c r="A100" s="251"/>
+      <c r="B100" s="254"/>
       <c r="C100" s="122">
         <v>43328</v>
       </c>
@@ -11230,8 +11087,8 @@
       <c r="H100" s="126"/>
     </row>
     <row r="101" spans="1:8" ht="16.5" thickBot="1">
-      <c r="A101" s="230"/>
-      <c r="B101" s="235"/>
+      <c r="A101" s="252"/>
+      <c r="B101" s="257"/>
       <c r="C101" s="136">
         <v>43329</v>
       </c>
@@ -17542,6 +17399,16 @@
     </row>
   </sheetData>
   <mergeCells count="26">
+    <mergeCell ref="A62:A81"/>
+    <mergeCell ref="B62:B66"/>
+    <mergeCell ref="B67:B71"/>
+    <mergeCell ref="B72:B76"/>
+    <mergeCell ref="B77:B81"/>
+    <mergeCell ref="A82:A101"/>
+    <mergeCell ref="B82:B86"/>
+    <mergeCell ref="B87:B91"/>
+    <mergeCell ref="B92:B96"/>
+    <mergeCell ref="B97:B101"/>
     <mergeCell ref="A47:A61"/>
     <mergeCell ref="B47:B51"/>
     <mergeCell ref="B52:B56"/>
@@ -17558,16 +17425,6 @@
     <mergeCell ref="B32:B36"/>
     <mergeCell ref="B37:B41"/>
     <mergeCell ref="B42:B46"/>
-    <mergeCell ref="A82:A101"/>
-    <mergeCell ref="B82:B86"/>
-    <mergeCell ref="B87:B91"/>
-    <mergeCell ref="B92:B96"/>
-    <mergeCell ref="B97:B101"/>
-    <mergeCell ref="A62:A81"/>
-    <mergeCell ref="B62:B66"/>
-    <mergeCell ref="B67:B71"/>
-    <mergeCell ref="B72:B76"/>
-    <mergeCell ref="B77:B81"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -17578,7 +17435,7 @@
   <dimension ref="A1:D31"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="G27" sqref="G27"/>
+      <selection activeCell="F1" sqref="F1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -17951,7 +17808,7 @@
   <dimension ref="A1:J19"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="Q11" sqref="Q11"/>
+      <selection activeCell="J6" sqref="J6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -17982,6 +17839,11 @@
         <v>261</v>
       </c>
     </row>
+    <row r="5" spans="1:10">
+      <c r="J5" t="s">
+        <v>587</v>
+      </c>
+    </row>
     <row r="7" spans="1:10">
       <c r="A7" s="23" t="s">
         <v>170</v>
@@ -17993,11 +17855,11 @@
       </c>
     </row>
     <row r="13" spans="1:10">
-      <c r="C13" s="244" t="s">
+      <c r="C13" s="263" t="s">
         <v>168</v>
       </c>
-      <c r="D13" s="245"/>
-      <c r="E13" s="246"/>
+      <c r="D13" s="264"/>
+      <c r="E13" s="265"/>
     </row>
     <row r="14" spans="1:10">
       <c r="C14" t="s">
@@ -18013,16 +17875,16 @@
       </c>
     </row>
     <row r="16" spans="1:10">
-      <c r="A16" s="244" t="s">
+      <c r="A16" s="263" t="s">
         <v>171</v>
       </c>
-      <c r="B16" s="245"/>
-      <c r="C16" s="246"/>
-      <c r="E16" s="244" t="s">
+      <c r="B16" s="264"/>
+      <c r="C16" s="265"/>
+      <c r="E16" s="263" t="s">
         <v>167</v>
       </c>
-      <c r="F16" s="245"/>
-      <c r="G16" s="246"/>
+      <c r="F16" s="264"/>
+      <c r="G16" s="265"/>
     </row>
     <row r="18" spans="2:5">
       <c r="B18" t="s">
@@ -18033,11 +17895,11 @@
       </c>
     </row>
     <row r="19" spans="2:5">
-      <c r="C19" s="244" t="s">
+      <c r="C19" s="263" t="s">
         <v>166</v>
       </c>
-      <c r="D19" s="245"/>
-      <c r="E19" s="246"/>
+      <c r="D19" s="264"/>
+      <c r="E19" s="265"/>
     </row>
   </sheetData>
   <mergeCells count="4">
@@ -18055,8 +17917,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:X197"/>
   <sheetViews>
-    <sheetView topLeftCell="A178" workbookViewId="0">
-      <selection activeCell="J115" sqref="J115"/>
+    <sheetView topLeftCell="A166" workbookViewId="0">
+      <selection activeCell="D162" sqref="D162"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -18075,201 +17937,201 @@
       </c>
     </row>
     <row r="4" spans="1:14">
-      <c r="G4" s="250"/>
-      <c r="H4" s="250"/>
-      <c r="I4" s="250"/>
-      <c r="J4" s="250"/>
-      <c r="K4" s="250"/>
-      <c r="L4" s="250"/>
-      <c r="M4" s="250"/>
-      <c r="N4" s="250"/>
+      <c r="G4" s="150"/>
+      <c r="H4" s="150"/>
+      <c r="I4" s="150"/>
+      <c r="J4" s="150"/>
+      <c r="K4" s="150"/>
+      <c r="L4" s="150"/>
+      <c r="M4" s="150"/>
+      <c r="N4" s="150"/>
     </row>
     <row r="5" spans="1:14">
       <c r="A5" s="22" t="s">
         <v>96</v>
       </c>
-      <c r="G5" s="250"/>
-      <c r="H5" s="250"/>
-      <c r="I5" s="250"/>
-      <c r="J5" s="250"/>
-      <c r="K5" s="250"/>
-      <c r="L5" s="250"/>
-      <c r="M5" s="250"/>
-      <c r="N5" s="250"/>
+      <c r="G5" s="150"/>
+      <c r="H5" s="150"/>
+      <c r="I5" s="150"/>
+      <c r="J5" s="150"/>
+      <c r="K5" s="150"/>
+      <c r="L5" s="150"/>
+      <c r="M5" s="150"/>
+      <c r="N5" s="150"/>
     </row>
     <row r="6" spans="1:14">
       <c r="A6" s="24" t="s">
         <v>100</v>
       </c>
-      <c r="G6" s="250"/>
-      <c r="H6" s="250"/>
-      <c r="I6" s="250"/>
-      <c r="J6" s="250"/>
-      <c r="K6" s="250"/>
-      <c r="L6" s="250"/>
-      <c r="M6" s="250"/>
-      <c r="N6" s="250"/>
+      <c r="G6" s="150"/>
+      <c r="H6" s="150"/>
+      <c r="I6" s="150"/>
+      <c r="J6" s="150"/>
+      <c r="K6" s="150"/>
+      <c r="L6" s="150"/>
+      <c r="M6" s="150"/>
+      <c r="N6" s="150"/>
     </row>
     <row r="7" spans="1:14">
       <c r="A7" s="28" t="s">
         <v>104</v>
       </c>
-      <c r="G7" s="250"/>
-      <c r="H7" s="250"/>
-      <c r="I7" s="250"/>
-      <c r="J7" s="250"/>
-      <c r="K7" s="250"/>
-      <c r="L7" s="250"/>
-      <c r="M7" s="250"/>
-      <c r="N7" s="250"/>
+      <c r="G7" s="150"/>
+      <c r="H7" s="150"/>
+      <c r="I7" s="150"/>
+      <c r="J7" s="150"/>
+      <c r="K7" s="150"/>
+      <c r="L7" s="150"/>
+      <c r="M7" s="150"/>
+      <c r="N7" s="150"/>
     </row>
     <row r="8" spans="1:14">
-      <c r="G8" s="250"/>
-      <c r="H8" s="250"/>
-      <c r="I8" s="250"/>
-      <c r="J8" s="250"/>
-      <c r="K8" s="250"/>
-      <c r="L8" s="250"/>
-      <c r="M8" s="250"/>
-      <c r="N8" s="250"/>
+      <c r="G8" s="150"/>
+      <c r="H8" s="150"/>
+      <c r="I8" s="150"/>
+      <c r="J8" s="150"/>
+      <c r="K8" s="150"/>
+      <c r="L8" s="150"/>
+      <c r="M8" s="150"/>
+      <c r="N8" s="150"/>
     </row>
     <row r="9" spans="1:14">
       <c r="A9" s="28" t="s">
         <v>477</v>
       </c>
-      <c r="G9" s="250"/>
-      <c r="H9" s="250"/>
-      <c r="I9" s="250"/>
-      <c r="J9" s="250"/>
-      <c r="K9" s="250"/>
-      <c r="L9" s="250"/>
-      <c r="M9" s="250"/>
-      <c r="N9" s="250"/>
+      <c r="G9" s="150"/>
+      <c r="H9" s="150"/>
+      <c r="I9" s="150"/>
+      <c r="J9" s="150"/>
+      <c r="K9" s="150"/>
+      <c r="L9" s="150"/>
+      <c r="M9" s="150"/>
+      <c r="N9" s="150"/>
     </row>
     <row r="10" spans="1:14">
       <c r="A10" s="28"/>
-      <c r="G10" s="250"/>
-      <c r="H10" s="250"/>
-      <c r="I10" s="250"/>
-      <c r="J10" s="250"/>
-      <c r="K10" s="250"/>
-      <c r="L10" s="250"/>
-      <c r="M10" s="250"/>
-      <c r="N10" s="250"/>
+      <c r="G10" s="150"/>
+      <c r="H10" s="150"/>
+      <c r="I10" s="150"/>
+      <c r="J10" s="150"/>
+      <c r="K10" s="150"/>
+      <c r="L10" s="150"/>
+      <c r="M10" s="150"/>
+      <c r="N10" s="150"/>
     </row>
     <row r="11" spans="1:14">
       <c r="A11" s="24" t="s">
         <v>108</v>
       </c>
-      <c r="G11" s="250"/>
-      <c r="H11" s="250"/>
-      <c r="I11" s="250"/>
-      <c r="J11" s="250"/>
-      <c r="K11" s="250"/>
-      <c r="L11" s="250"/>
-      <c r="M11" s="250"/>
-      <c r="N11" s="250"/>
+      <c r="G11" s="150"/>
+      <c r="H11" s="150"/>
+      <c r="I11" s="150"/>
+      <c r="J11" s="150"/>
+      <c r="K11" s="150"/>
+      <c r="L11" s="150"/>
+      <c r="M11" s="150"/>
+      <c r="N11" s="150"/>
     </row>
     <row r="12" spans="1:14">
       <c r="A12" s="28" t="s">
         <v>111</v>
       </c>
-      <c r="G12" s="250"/>
-      <c r="H12" s="250"/>
-      <c r="I12" s="250"/>
-      <c r="J12" s="250"/>
-      <c r="K12" s="250"/>
-      <c r="L12" s="250"/>
-      <c r="M12" s="250"/>
-      <c r="N12" s="250"/>
+      <c r="G12" s="150"/>
+      <c r="H12" s="150"/>
+      <c r="I12" s="150"/>
+      <c r="J12" s="150"/>
+      <c r="K12" s="150"/>
+      <c r="L12" s="150"/>
+      <c r="M12" s="150"/>
+      <c r="N12" s="150"/>
     </row>
     <row r="13" spans="1:14">
-      <c r="G13" s="250"/>
-      <c r="H13" s="250"/>
-      <c r="I13" s="250"/>
-      <c r="J13" s="250"/>
-      <c r="K13" s="250"/>
-      <c r="L13" s="250"/>
-      <c r="M13" s="250"/>
-      <c r="N13" s="250"/>
+      <c r="G13" s="150"/>
+      <c r="H13" s="150"/>
+      <c r="I13" s="150"/>
+      <c r="J13" s="150"/>
+      <c r="K13" s="150"/>
+      <c r="L13" s="150"/>
+      <c r="M13" s="150"/>
+      <c r="N13" s="150"/>
     </row>
     <row r="14" spans="1:14">
       <c r="A14" s="23" t="s">
         <v>94</v>
       </c>
-      <c r="G14" s="250"/>
-      <c r="H14" s="250"/>
-      <c r="I14" s="250"/>
-      <c r="J14" s="250"/>
-      <c r="K14" s="250"/>
-      <c r="L14" s="250"/>
-      <c r="M14" s="250"/>
-      <c r="N14" s="250"/>
+      <c r="G14" s="150"/>
+      <c r="H14" s="150"/>
+      <c r="I14" s="150"/>
+      <c r="J14" s="150"/>
+      <c r="K14" s="150"/>
+      <c r="L14" s="150"/>
+      <c r="M14" s="150"/>
+      <c r="N14" s="150"/>
     </row>
     <row r="15" spans="1:14">
       <c r="A15" s="19" t="s">
         <v>97</v>
       </c>
-      <c r="G15" s="250"/>
-      <c r="H15" s="250"/>
-      <c r="I15" s="250"/>
-      <c r="J15" s="250"/>
-      <c r="K15" s="250"/>
-      <c r="L15" s="250"/>
-      <c r="M15" s="250"/>
-      <c r="N15" s="250"/>
+      <c r="G15" s="150"/>
+      <c r="H15" s="150"/>
+      <c r="I15" s="150"/>
+      <c r="J15" s="150"/>
+      <c r="K15" s="150"/>
+      <c r="L15" s="150"/>
+      <c r="M15" s="150"/>
+      <c r="N15" s="150"/>
     </row>
     <row r="16" spans="1:14">
       <c r="A16" s="19" t="s">
         <v>101</v>
       </c>
-      <c r="G16" s="250"/>
-      <c r="H16" s="250"/>
-      <c r="I16" s="250"/>
-      <c r="J16" s="250"/>
-      <c r="K16" s="250"/>
-      <c r="L16" s="250"/>
-      <c r="M16" s="250"/>
-      <c r="N16" s="250"/>
+      <c r="G16" s="150"/>
+      <c r="H16" s="150"/>
+      <c r="I16" s="150"/>
+      <c r="J16" s="150"/>
+      <c r="K16" s="150"/>
+      <c r="L16" s="150"/>
+      <c r="M16" s="150"/>
+      <c r="N16" s="150"/>
     </row>
     <row r="17" spans="1:24">
       <c r="A17" s="19" t="s">
         <v>105</v>
       </c>
-      <c r="G17" s="250"/>
-      <c r="H17" s="250"/>
-      <c r="I17" s="250"/>
-      <c r="J17" s="250"/>
-      <c r="K17" s="250"/>
-      <c r="L17" s="250"/>
-      <c r="M17" s="250"/>
-      <c r="N17" s="250"/>
+      <c r="G17" s="150"/>
+      <c r="H17" s="150"/>
+      <c r="I17" s="150"/>
+      <c r="J17" s="150"/>
+      <c r="K17" s="150"/>
+      <c r="L17" s="150"/>
+      <c r="M17" s="150"/>
+      <c r="N17" s="150"/>
     </row>
     <row r="18" spans="1:24">
       <c r="A18" s="20" t="s">
         <v>106</v>
       </c>
-      <c r="G18" s="250"/>
-      <c r="H18" s="250"/>
-      <c r="I18" s="250"/>
-      <c r="J18" s="250"/>
-      <c r="K18" s="250"/>
-      <c r="L18" s="250"/>
-      <c r="M18" s="250"/>
-      <c r="N18" s="250"/>
+      <c r="G18" s="150"/>
+      <c r="H18" s="150"/>
+      <c r="I18" s="150"/>
+      <c r="J18" s="150"/>
+      <c r="K18" s="150"/>
+      <c r="L18" s="150"/>
+      <c r="M18" s="150"/>
+      <c r="N18" s="150"/>
     </row>
     <row r="19" spans="1:24">
       <c r="A19" s="19" t="s">
         <v>107</v>
       </c>
-      <c r="G19" s="250"/>
-      <c r="H19" s="250"/>
-      <c r="I19" s="250"/>
-      <c r="J19" s="250"/>
-      <c r="K19" s="250"/>
-      <c r="L19" s="250"/>
-      <c r="M19" s="250"/>
-      <c r="N19" s="250"/>
+      <c r="G19" s="150"/>
+      <c r="H19" s="150"/>
+      <c r="I19" s="150"/>
+      <c r="J19" s="150"/>
+      <c r="K19" s="150"/>
+      <c r="L19" s="150"/>
+      <c r="M19" s="150"/>
+      <c r="N19" s="150"/>
     </row>
     <row r="20" spans="1:24">
       <c r="A20" s="21" t="s">
@@ -18329,12 +18191,12 @@
       <c r="X32" s="28"/>
     </row>
     <row r="33" spans="1:1">
-      <c r="A33" s="249" t="s">
+      <c r="A33" s="149" t="s">
         <v>473</v>
       </c>
     </row>
     <row r="34" spans="1:1">
-      <c r="A34" s="251" t="s">
+      <c r="A34" s="151" t="s">
         <v>486</v>
       </c>
     </row>
@@ -18397,7 +18259,7 @@
       </c>
     </row>
     <row r="48" spans="1:1">
-      <c r="A48" s="248" t="s">
+      <c r="A48" s="148" t="s">
         <v>464</v>
       </c>
     </row>
@@ -18494,7 +18356,7 @@
         <v>474</v>
       </c>
     </row>
-    <row r="72" spans="1:1" ht="15.75">
+    <row r="72" spans="1:1">
       <c r="A72" t="s">
         <v>487</v>
       </c>
@@ -18579,17 +18441,17 @@
         <v>474</v>
       </c>
     </row>
-    <row r="91" spans="1:1" ht="15.75">
+    <row r="91" spans="1:1">
       <c r="A91" t="s">
         <v>504</v>
       </c>
     </row>
-    <row r="92" spans="1:1" ht="15.75">
+    <row r="92" spans="1:1">
       <c r="A92" t="s">
         <v>505</v>
       </c>
     </row>
-    <row r="93" spans="1:1" ht="15.75">
+    <row r="93" spans="1:1">
       <c r="A93" t="s">
         <v>506</v>
       </c>
@@ -18705,26 +18567,26 @@
       </c>
     </row>
     <row r="129" spans="1:2">
-      <c r="A129" s="252" t="s">
+      <c r="A129" s="152" t="s">
         <v>488</v>
       </c>
-      <c r="B129" s="252" t="s">
+      <c r="B129" s="152" t="s">
         <v>489</v>
       </c>
     </row>
     <row r="130" spans="1:2">
-      <c r="A130" s="253" t="s">
+      <c r="A130" s="153" t="s">
         <v>490</v>
       </c>
-      <c r="B130" s="254">
+      <c r="B130" s="154">
         <v>100</v>
       </c>
     </row>
     <row r="131" spans="1:2">
-      <c r="A131" s="253" t="s">
+      <c r="A131" s="153" t="s">
         <v>491</v>
       </c>
-      <c r="B131" s="254">
+      <c r="B131" s="154">
         <v>80</v>
       </c>
     </row>
@@ -18834,19 +18696,19 @@
         <v>165</v>
       </c>
     </row>
-    <row r="161" spans="1:1">
-      <c r="A161" t="s">
+    <row r="162" spans="1:1">
+      <c r="A162" s="25" t="s">
+        <v>468</v>
+      </c>
+    </row>
+    <row r="163" spans="1:1">
+      <c r="A163" s="20" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="164" spans="1:1">
+      <c r="A164" t="s">
         <v>467</v>
-      </c>
-    </row>
-    <row r="163" spans="1:1">
-      <c r="A163" s="25" t="s">
-        <v>468</v>
-      </c>
-    </row>
-    <row r="164" spans="1:1">
-      <c r="A164" s="20" t="s">
-        <v>93</v>
       </c>
     </row>
     <row r="165" spans="1:1">
@@ -18978,10 +18840,10 @@
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:V486"/>
+  <dimension ref="A1:V480"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A260" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="A281" sqref="A281"/>
+    <sheetView tabSelected="1" topLeftCell="A64" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="A98" sqref="A98"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -19101,7 +18963,7 @@
       </c>
     </row>
     <row r="21" spans="1:1">
-      <c r="A21" s="255" t="s">
+      <c r="A21" s="155" t="s">
         <v>212</v>
       </c>
     </row>
@@ -19111,7 +18973,7 @@
       </c>
     </row>
     <row r="23" spans="1:1">
-      <c r="A23" s="255" t="s">
+      <c r="A23" s="155" t="s">
         <v>213</v>
       </c>
     </row>
@@ -19126,7 +18988,7 @@
       </c>
     </row>
     <row r="27" spans="1:1">
-      <c r="A27" s="255" t="s">
+      <c r="A27" s="155" t="s">
         <v>215</v>
       </c>
     </row>
@@ -19136,7 +18998,7 @@
       </c>
     </row>
     <row r="29" spans="1:1">
-      <c r="A29" s="255" t="s">
+      <c r="A29" s="155" t="s">
         <v>219</v>
       </c>
     </row>
@@ -19246,7 +19108,7 @@
       </c>
     </row>
     <row r="54" spans="1:1">
-      <c r="A54" s="259" t="s">
+      <c r="A54" s="159" t="s">
         <v>238</v>
       </c>
     </row>
@@ -19281,37 +19143,37 @@
       </c>
     </row>
     <row r="61" spans="1:1">
-      <c r="A61" s="256" t="s">
+      <c r="A61" s="156" t="s">
         <v>509</v>
       </c>
     </row>
     <row r="62" spans="1:1">
-      <c r="A62" s="256" t="s">
+      <c r="A62" s="156" t="s">
         <v>514</v>
       </c>
     </row>
     <row r="63" spans="1:1">
-      <c r="A63" s="257" t="s">
+      <c r="A63" s="157" t="s">
         <v>507</v>
       </c>
     </row>
     <row r="64" spans="1:1">
-      <c r="A64" s="260" t="s">
+      <c r="A64" s="160" t="s">
         <v>515</v>
       </c>
     </row>
     <row r="65" spans="1:2">
-      <c r="A65" s="256" t="s">
+      <c r="A65" s="156" t="s">
         <v>508</v>
       </c>
     </row>
     <row r="67" spans="1:2">
-      <c r="A67" s="256" t="s">
+      <c r="A67" s="156" t="s">
         <v>513</v>
       </c>
     </row>
     <row r="68" spans="1:2">
-      <c r="B68" s="255" t="s">
+      <c r="B68" s="155" t="s">
         <v>400</v>
       </c>
     </row>
@@ -19321,7 +19183,7 @@
       </c>
     </row>
     <row r="71" spans="1:2">
-      <c r="B71" s="255" t="s">
+      <c r="B71" s="155" t="s">
         <v>401</v>
       </c>
     </row>
@@ -19331,7 +19193,7 @@
       </c>
     </row>
     <row r="74" spans="1:2">
-      <c r="B74" s="255" t="s">
+      <c r="B74" s="155" t="s">
         <v>402</v>
       </c>
     </row>
@@ -19341,7 +19203,7 @@
       </c>
     </row>
     <row r="76" spans="1:2">
-      <c r="A76" s="255" t="s">
+      <c r="A76" s="155" t="s">
         <v>507</v>
       </c>
     </row>
@@ -19366,1526 +19228,1466 @@
       </c>
     </row>
     <row r="82" spans="1:1">
-      <c r="A82" s="22" t="s">
+      <c r="A82" s="42"/>
+    </row>
+    <row r="83" spans="1:1">
+      <c r="A83" s="22" t="s">
+        <v>529</v>
+      </c>
+    </row>
+    <row r="84" spans="1:1">
+      <c r="A84" s="163" t="s">
+        <v>522</v>
+      </c>
+    </row>
+    <row r="85" spans="1:1">
+      <c r="A85" t="s">
+        <v>523</v>
+      </c>
+    </row>
+    <row r="86" spans="1:1">
+      <c r="A86" t="s">
+        <v>524</v>
+      </c>
+    </row>
+    <row r="87" spans="1:1">
+      <c r="A87" t="s">
+        <v>521</v>
+      </c>
+    </row>
+    <row r="88" spans="1:1">
+      <c r="A88" t="s">
+        <v>525</v>
+      </c>
+    </row>
+    <row r="89" spans="1:1">
+      <c r="A89" t="s">
+        <v>531</v>
+      </c>
+    </row>
+    <row r="91" spans="1:1">
+      <c r="A91" s="155" t="s">
+        <v>526</v>
+      </c>
+    </row>
+    <row r="92" spans="1:1">
+      <c r="A92" t="s">
+        <v>527</v>
+      </c>
+    </row>
+    <row r="93" spans="1:1">
+      <c r="A93" t="s">
+        <v>528</v>
+      </c>
+    </row>
+    <row r="95" spans="1:1">
+      <c r="A95" t="s">
+        <v>530</v>
+      </c>
+    </row>
+    <row r="96" spans="1:1">
+      <c r="A96" t="s">
+        <v>519</v>
+      </c>
+    </row>
+    <row r="97" spans="1:1">
+      <c r="A97" t="s">
+        <v>520</v>
+      </c>
+    </row>
+    <row r="99" spans="1:1">
+      <c r="A99" s="22" t="s">
+        <v>533</v>
+      </c>
+    </row>
+    <row r="100" spans="1:1">
+      <c r="A100" s="43" t="s">
+        <v>589</v>
+      </c>
+    </row>
+    <row r="101" spans="1:1">
+      <c r="A101" s="26" t="s">
+        <v>590</v>
+      </c>
+    </row>
+    <row r="102" spans="1:1">
+      <c r="A102" s="166" t="s">
+        <v>545</v>
+      </c>
+    </row>
+    <row r="103" spans="1:1">
+      <c r="A103" s="155" t="s">
+        <v>507</v>
+      </c>
+    </row>
+    <row r="104" spans="1:1">
+      <c r="A104" s="165" t="s">
+        <v>544</v>
+      </c>
+    </row>
+    <row r="105" spans="1:1">
+      <c r="A105" s="166" t="s">
+        <v>534</v>
+      </c>
+    </row>
+    <row r="106" spans="1:1">
+      <c r="A106" s="166"/>
+    </row>
+    <row r="107" spans="1:1">
+      <c r="A107" s="166"/>
+    </row>
+    <row r="108" spans="1:1">
+      <c r="A108" s="166"/>
+    </row>
+    <row r="109" spans="1:1">
+      <c r="A109" s="166"/>
+    </row>
+    <row r="110" spans="1:1">
+      <c r="A110" s="166"/>
+    </row>
+    <row r="111" spans="1:1">
+      <c r="A111" s="166"/>
+    </row>
+    <row r="112" spans="1:1">
+      <c r="A112" s="166"/>
+    </row>
+    <row r="113" spans="1:1">
+      <c r="A113" s="166"/>
+    </row>
+    <row r="114" spans="1:1">
+      <c r="A114" s="166"/>
+    </row>
+    <row r="115" spans="1:1">
+      <c r="A115" s="166"/>
+    </row>
+    <row r="116" spans="1:1">
+      <c r="A116" s="166"/>
+    </row>
+    <row r="117" spans="1:1">
+      <c r="A117" s="166"/>
+    </row>
+    <row r="118" spans="1:1">
+      <c r="A118" s="166"/>
+    </row>
+    <row r="119" spans="1:1">
+      <c r="A119" s="166"/>
+    </row>
+    <row r="120" spans="1:1">
+      <c r="A120" s="166"/>
+    </row>
+    <row r="121" spans="1:1">
+      <c r="A121" s="166"/>
+    </row>
+    <row r="122" spans="1:1">
+      <c r="A122" s="166"/>
+    </row>
+    <row r="123" spans="1:1">
+      <c r="A123" s="22" t="s">
         <v>231</v>
       </c>
     </row>
-    <row r="83" spans="1:1" ht="15.75">
-      <c r="A83" t="s">
+    <row r="124" spans="1:1" ht="15.75">
+      <c r="A124" t="s">
         <v>232</v>
       </c>
     </row>
-    <row r="84" spans="1:1" ht="15.75">
-      <c r="A84" t="s">
+    <row r="125" spans="1:1" ht="15.75">
+      <c r="A125" t="s">
         <v>233</v>
       </c>
     </row>
-    <row r="85" spans="1:1">
-      <c r="A85" s="26" t="s">
+    <row r="126" spans="1:1">
+      <c r="A126" s="26" t="s">
         <v>234</v>
       </c>
     </row>
-    <row r="86" spans="1:1">
-      <c r="A86" s="26" t="s">
+    <row r="127" spans="1:1">
+      <c r="A127" s="26" t="s">
         <v>235</v>
       </c>
     </row>
-    <row r="88" spans="1:1">
-      <c r="A88" s="261" t="s">
+    <row r="129" spans="1:1">
+      <c r="A129" s="161" t="s">
         <v>516</v>
       </c>
     </row>
-    <row r="89" spans="1:1">
-      <c r="A89" s="46"/>
-    </row>
-    <row r="90" spans="1:1">
-      <c r="A90" s="46"/>
-    </row>
-    <row r="109" spans="1:1">
-      <c r="A109" s="22" t="s">
-        <v>529</v>
-      </c>
-    </row>
-    <row r="110" spans="1:1">
-      <c r="A110" s="263" t="s">
-        <v>522</v>
-      </c>
-    </row>
-    <row r="111" spans="1:1">
-      <c r="A111" t="s">
-        <v>523</v>
-      </c>
-    </row>
-    <row r="112" spans="1:1">
-      <c r="A112" t="s">
-        <v>524</v>
-      </c>
-    </row>
-    <row r="113" spans="1:2">
-      <c r="A113" t="s">
-        <v>521</v>
-      </c>
-    </row>
-    <row r="114" spans="1:2">
-      <c r="A114" t="s">
-        <v>525</v>
-      </c>
-    </row>
-    <row r="115" spans="1:2">
-      <c r="A115" t="s">
-        <v>531</v>
-      </c>
-    </row>
-    <row r="117" spans="1:2">
-      <c r="A117" s="255" t="s">
-        <v>526</v>
-      </c>
-    </row>
-    <row r="118" spans="1:2">
-      <c r="A118" t="s">
-        <v>527</v>
-      </c>
-    </row>
-    <row r="119" spans="1:2">
-      <c r="A119" t="s">
-        <v>528</v>
-      </c>
-    </row>
-    <row r="121" spans="1:2">
-      <c r="A121" t="s">
-        <v>530</v>
-      </c>
-    </row>
-    <row r="122" spans="1:2">
-      <c r="A122" t="s">
-        <v>519</v>
-      </c>
-    </row>
-    <row r="123" spans="1:2">
-      <c r="A123" t="s">
-        <v>520</v>
-      </c>
-    </row>
-    <row r="125" spans="1:2">
-      <c r="A125" s="22" t="s">
+    <row r="130" spans="1:1">
+      <c r="A130" s="46"/>
+    </row>
+    <row r="131" spans="1:1">
+      <c r="A131" s="46"/>
+    </row>
+    <row r="150" spans="1:1">
+      <c r="A150" s="26"/>
+    </row>
+    <row r="151" spans="1:1">
+      <c r="A151" s="45" t="s">
+        <v>536</v>
+      </c>
+    </row>
+    <row r="152" spans="1:1">
+      <c r="A152" s="43" t="s">
+        <v>537</v>
+      </c>
+    </row>
+    <row r="153" spans="1:1">
+      <c r="A153" s="43"/>
+    </row>
+    <row r="154" spans="1:1">
+      <c r="A154" s="43" t="s">
+        <v>538</v>
+      </c>
+    </row>
+    <row r="155" spans="1:1">
+      <c r="A155" s="44" t="s">
+        <v>550</v>
+      </c>
+    </row>
+    <row r="156" spans="1:1">
+      <c r="A156" s="46" t="s">
+        <v>539</v>
+      </c>
+    </row>
+    <row r="157" spans="1:1">
+      <c r="A157" s="164" t="s">
+        <v>543</v>
+      </c>
+    </row>
+    <row r="159" spans="1:1">
+      <c r="A159" t="s">
+        <v>540</v>
+      </c>
+    </row>
+    <row r="160" spans="1:1">
+      <c r="A160" t="s">
+        <v>551</v>
+      </c>
+    </row>
+    <row r="161" spans="1:1">
+      <c r="A161" t="s">
+        <v>552</v>
+      </c>
+    </row>
+    <row r="162" spans="1:1">
+      <c r="A162" t="s">
+        <v>541</v>
+      </c>
+    </row>
+    <row r="163" spans="1:1">
+      <c r="A163" t="s">
+        <v>542</v>
+      </c>
+    </row>
+    <row r="179" spans="1:1">
+      <c r="A179" s="22" t="s">
+        <v>553</v>
+      </c>
+    </row>
+    <row r="180" spans="1:1">
+      <c r="A180" s="158" t="s">
+        <v>594</v>
+      </c>
+    </row>
+    <row r="181" spans="1:1">
+      <c r="A181" s="43" t="s">
+        <v>596</v>
+      </c>
+    </row>
+    <row r="182" spans="1:1">
+      <c r="A182" s="43" t="s">
+        <v>597</v>
+      </c>
+    </row>
+    <row r="183" spans="1:1">
+      <c r="A183" s="43" t="s">
+        <v>598</v>
+      </c>
+    </row>
+    <row r="184" spans="1:1">
+      <c r="A184" s="43"/>
+    </row>
+    <row r="185" spans="1:1">
+      <c r="A185" s="158" t="s">
+        <v>595</v>
+      </c>
+    </row>
+    <row r="186" spans="1:1">
+      <c r="A186" s="43" t="s">
+        <v>601</v>
+      </c>
+    </row>
+    <row r="187" spans="1:1">
+      <c r="A187" s="43" t="s">
+        <v>599</v>
+      </c>
+    </row>
+    <row r="188" spans="1:1">
+      <c r="A188" s="43" t="s">
+        <v>600</v>
+      </c>
+    </row>
+    <row r="189" spans="1:1">
+      <c r="A189" s="158"/>
+    </row>
+    <row r="190" spans="1:1">
+      <c r="A190" s="158" t="s">
+        <v>554</v>
+      </c>
+    </row>
+    <row r="191" spans="1:1">
+      <c r="A191" s="158"/>
+    </row>
+    <row r="192" spans="1:1">
+      <c r="A192" s="43" t="s">
+        <v>555</v>
+      </c>
+    </row>
+    <row r="193" spans="1:1">
+      <c r="A193" s="43" t="s">
+        <v>556</v>
+      </c>
+    </row>
+    <row r="194" spans="1:1">
+      <c r="A194" s="26"/>
+    </row>
+    <row r="195" spans="1:1">
+      <c r="A195" s="26"/>
+    </row>
+    <row r="196" spans="1:1">
+      <c r="A196" s="26"/>
+    </row>
+    <row r="197" spans="1:1">
+      <c r="A197" s="26"/>
+    </row>
+    <row r="198" spans="1:1">
+      <c r="A198" s="26"/>
+    </row>
+    <row r="199" spans="1:1">
+      <c r="A199" s="26"/>
+    </row>
+    <row r="200" spans="1:1">
+      <c r="A200" s="26"/>
+    </row>
+    <row r="201" spans="1:1">
+      <c r="A201" s="26"/>
+    </row>
+    <row r="202" spans="1:1">
+      <c r="A202" s="26"/>
+    </row>
+    <row r="203" spans="1:1">
+      <c r="A203" s="26"/>
+    </row>
+    <row r="204" spans="1:1">
+      <c r="A204" s="26"/>
+    </row>
+    <row r="205" spans="1:1">
+      <c r="A205" s="26"/>
+    </row>
+    <row r="206" spans="1:1">
+      <c r="A206" s="26"/>
+    </row>
+    <row r="207" spans="1:1">
+      <c r="A207" s="26"/>
+    </row>
+    <row r="208" spans="1:1">
+      <c r="A208" s="26"/>
+    </row>
+    <row r="209" spans="1:1">
+      <c r="A209" s="158" t="s">
+        <v>557</v>
+      </c>
+    </row>
+    <row r="210" spans="1:1">
+      <c r="A210" s="43" t="s">
+        <v>558</v>
+      </c>
+    </row>
+    <row r="211" spans="1:1">
+      <c r="A211" s="26"/>
+    </row>
+    <row r="212" spans="1:1">
+      <c r="A212" s="26"/>
+    </row>
+    <row r="213" spans="1:1">
+      <c r="A213" s="26"/>
+    </row>
+    <row r="214" spans="1:1">
+      <c r="A214" s="26"/>
+    </row>
+    <row r="215" spans="1:1">
+      <c r="A215" s="26"/>
+    </row>
+    <row r="216" spans="1:1">
+      <c r="A216" s="26"/>
+    </row>
+    <row r="217" spans="1:1">
+      <c r="A217" s="26"/>
+    </row>
+    <row r="218" spans="1:1">
+      <c r="A218" s="26"/>
+    </row>
+    <row r="219" spans="1:1">
+      <c r="A219" s="26"/>
+    </row>
+    <row r="220" spans="1:1">
+      <c r="A220" s="26"/>
+    </row>
+    <row r="221" spans="1:1">
+      <c r="A221" s="26"/>
+    </row>
+    <row r="222" spans="1:1">
+      <c r="A222" s="26"/>
+    </row>
+    <row r="223" spans="1:1">
+      <c r="A223" s="26"/>
+    </row>
+    <row r="224" spans="1:1">
+      <c r="A224" s="26"/>
+    </row>
+    <row r="225" spans="1:1">
+      <c r="A225" s="45" t="s">
+        <v>559</v>
+      </c>
+    </row>
+    <row r="226" spans="1:1">
+      <c r="A226" s="43" t="s">
+        <v>560</v>
+      </c>
+    </row>
+    <row r="227" spans="1:1">
+      <c r="A227" s="42"/>
+    </row>
+    <row r="228" spans="1:1">
+      <c r="A228" s="43" t="s">
+        <v>561</v>
+      </c>
+    </row>
+    <row r="229" spans="1:1">
+      <c r="A229" s="44" t="s">
+        <v>562</v>
+      </c>
+    </row>
+    <row r="230" spans="1:1">
+      <c r="A230" s="168" t="s">
+        <v>563</v>
+      </c>
+    </row>
+    <row r="231" spans="1:1">
+      <c r="A231" s="26"/>
+    </row>
+    <row r="232" spans="1:1">
+      <c r="A232" s="43" t="s">
+        <v>564</v>
+      </c>
+    </row>
+    <row r="233" spans="1:1">
+      <c r="A233" s="43"/>
+    </row>
+    <row r="234" spans="1:1">
+      <c r="A234" s="26"/>
+    </row>
+    <row r="235" spans="1:1">
+      <c r="A235" s="26"/>
+    </row>
+    <row r="236" spans="1:1">
+      <c r="A236" s="26"/>
+    </row>
+    <row r="237" spans="1:1">
+      <c r="A237" s="26"/>
+    </row>
+    <row r="238" spans="1:1">
+      <c r="A238" s="26"/>
+    </row>
+    <row r="239" spans="1:1">
+      <c r="A239" s="26"/>
+    </row>
+    <row r="240" spans="1:1">
+      <c r="A240" s="26"/>
+    </row>
+    <row r="241" spans="1:1">
+      <c r="A241" s="26"/>
+    </row>
+    <row r="242" spans="1:1">
+      <c r="A242" s="26"/>
+    </row>
+    <row r="243" spans="1:1">
+      <c r="A243" s="26"/>
+    </row>
+    <row r="244" spans="1:1">
+      <c r="A244" s="26"/>
+    </row>
+    <row r="245" spans="1:1">
+      <c r="A245" s="26"/>
+    </row>
+    <row r="246" spans="1:1">
+      <c r="A246" s="26"/>
+    </row>
+    <row r="247" spans="1:1">
+      <c r="A247" s="45" t="s">
+        <v>565</v>
+      </c>
+    </row>
+    <row r="248" spans="1:1">
+      <c r="A248" s="43" t="s">
+        <v>546</v>
+      </c>
+    </row>
+    <row r="249" spans="1:1">
+      <c r="A249" s="43" t="s">
+        <v>535</v>
+      </c>
+    </row>
+    <row r="250" spans="1:1">
+      <c r="A250" s="43" t="s">
+        <v>548</v>
+      </c>
+    </row>
+    <row r="251" spans="1:1">
+      <c r="A251" s="43" t="s">
+        <v>549</v>
+      </c>
+    </row>
+    <row r="252" spans="1:1">
+      <c r="A252" s="42"/>
+    </row>
+    <row r="253" spans="1:1">
+      <c r="A253" s="158" t="s">
+        <v>591</v>
+      </c>
+    </row>
+    <row r="254" spans="1:1">
+      <c r="A254" s="167" t="s">
+        <v>547</v>
+      </c>
+    </row>
+    <row r="255" spans="1:1">
+      <c r="A255" s="43"/>
+    </row>
+    <row r="256" spans="1:1">
+      <c r="A256" s="43" t="s">
+        <v>566</v>
+      </c>
+    </row>
+    <row r="257" spans="1:7">
+      <c r="A257" s="26"/>
+    </row>
+    <row r="258" spans="1:7">
+      <c r="A258" s="26"/>
+    </row>
+    <row r="259" spans="1:7">
+      <c r="A259" s="26"/>
+    </row>
+    <row r="260" spans="1:7">
+      <c r="A260" s="26"/>
+    </row>
+    <row r="261" spans="1:7">
+      <c r="A261" s="26"/>
+    </row>
+    <row r="262" spans="1:7">
+      <c r="A262" s="26"/>
+    </row>
+    <row r="263" spans="1:7">
+      <c r="A263" s="26"/>
+    </row>
+    <row r="264" spans="1:7">
+      <c r="A264" s="26"/>
+    </row>
+    <row r="265" spans="1:7">
+      <c r="A265" s="26"/>
+    </row>
+    <row r="266" spans="1:7" ht="15.75" thickBot="1">
+      <c r="A266" s="26"/>
+    </row>
+    <row r="267" spans="1:7" ht="15.75" thickBot="1">
+      <c r="A267" s="266" t="s">
+        <v>245</v>
+      </c>
+      <c r="B267" s="267"/>
+      <c r="C267" s="268"/>
+      <c r="E267" s="266" t="s">
+        <v>251</v>
+      </c>
+      <c r="F267" s="267"/>
+      <c r="G267" s="268"/>
+    </row>
+    <row r="268" spans="1:7" ht="15.75" thickBot="1">
+      <c r="A268" s="48" t="s">
+        <v>246</v>
+      </c>
+      <c r="B268" s="49" t="s">
+        <v>247</v>
+      </c>
+      <c r="C268" s="50" t="s">
+        <v>248</v>
+      </c>
+      <c r="E268" s="48" t="s">
+        <v>246</v>
+      </c>
+      <c r="F268" s="49" t="s">
+        <v>247</v>
+      </c>
+      <c r="G268" s="50" t="s">
+        <v>248</v>
+      </c>
+    </row>
+    <row r="269" spans="1:7">
+      <c r="A269" s="51" t="s">
+        <v>249</v>
+      </c>
+      <c r="B269" s="52" t="s">
+        <v>249</v>
+      </c>
+      <c r="C269" s="53" t="s">
+        <v>249</v>
+      </c>
+      <c r="E269" s="51" t="s">
+        <v>249</v>
+      </c>
+      <c r="F269" s="52" t="s">
+        <v>249</v>
+      </c>
+      <c r="G269" s="53" t="s">
+        <v>249</v>
+      </c>
+    </row>
+    <row r="270" spans="1:7">
+      <c r="A270" s="54" t="s">
+        <v>249</v>
+      </c>
+      <c r="B270" s="47" t="s">
+        <v>250</v>
+      </c>
+      <c r="C270" s="55" t="s">
+        <v>250</v>
+      </c>
+      <c r="E270" s="54" t="s">
+        <v>249</v>
+      </c>
+      <c r="F270" s="47" t="s">
+        <v>250</v>
+      </c>
+      <c r="G270" s="55" t="s">
+        <v>249</v>
+      </c>
+    </row>
+    <row r="271" spans="1:7">
+      <c r="A271" s="54" t="s">
+        <v>250</v>
+      </c>
+      <c r="B271" s="47" t="s">
+        <v>249</v>
+      </c>
+      <c r="C271" s="55" t="s">
+        <v>250</v>
+      </c>
+      <c r="E271" s="54" t="s">
+        <v>250</v>
+      </c>
+      <c r="F271" s="47" t="s">
+        <v>249</v>
+      </c>
+      <c r="G271" s="55" t="s">
+        <v>249</v>
+      </c>
+    </row>
+    <row r="272" spans="1:7" ht="15.75" thickBot="1">
+      <c r="A272" s="56" t="s">
+        <v>250</v>
+      </c>
+      <c r="B272" s="57" t="s">
+        <v>250</v>
+      </c>
+      <c r="C272" s="58" t="s">
+        <v>250</v>
+      </c>
+      <c r="E272" s="56" t="s">
+        <v>250</v>
+      </c>
+      <c r="F272" s="57" t="s">
+        <v>250</v>
+      </c>
+      <c r="G272" s="58" t="s">
+        <v>250</v>
+      </c>
+    </row>
+    <row r="273" spans="1:2">
+      <c r="A273" s="26"/>
+    </row>
+    <row r="274" spans="1:2">
+      <c r="A274" s="26"/>
+    </row>
+    <row r="275" spans="1:2">
+      <c r="A275" s="43" t="s">
+        <v>570</v>
+      </c>
+    </row>
+    <row r="276" spans="1:2">
+      <c r="A276" s="43"/>
+    </row>
+    <row r="277" spans="1:2">
+      <c r="A277" s="269" t="s">
+        <v>507</v>
+      </c>
+    </row>
+    <row r="278" spans="1:2">
+      <c r="A278" s="42" t="s">
+        <v>602</v>
+      </c>
+    </row>
+    <row r="279" spans="1:2">
+      <c r="A279" s="42"/>
+    </row>
+    <row r="280" spans="1:2">
+      <c r="A280" s="43" t="s">
+        <v>571</v>
+      </c>
+    </row>
+    <row r="281" spans="1:2">
+      <c r="A281" s="43" t="s">
+        <v>572</v>
+      </c>
+    </row>
+    <row r="282" spans="1:2">
+      <c r="A282" s="43" t="s">
+        <v>573</v>
+      </c>
+    </row>
+    <row r="283" spans="1:2">
+      <c r="A283" s="43" t="s">
+        <v>574</v>
+      </c>
+    </row>
+    <row r="285" spans="1:2">
+      <c r="A285" s="22" t="s">
         <v>403</v>
       </c>
     </row>
-    <row r="126" spans="1:2">
-      <c r="B126" t="s">
+    <row r="286" spans="1:2">
+      <c r="B286" t="s">
         <v>404</v>
       </c>
     </row>
-    <row r="127" spans="1:2">
-      <c r="B127" t="s">
+    <row r="287" spans="1:2">
+      <c r="B287" t="s">
         <v>405</v>
       </c>
     </row>
-    <row r="128" spans="1:2">
-      <c r="B128" t="s">
+    <row r="288" spans="1:2">
+      <c r="B288" t="s">
         <v>406</v>
       </c>
     </row>
-    <row r="129" spans="1:2">
-      <c r="B129" t="s">
+    <row r="289" spans="1:2">
+      <c r="B289" t="s">
         <v>407</v>
       </c>
     </row>
-    <row r="131" spans="1:2">
-      <c r="B131" t="s">
+    <row r="291" spans="1:2">
+      <c r="B291" t="s">
         <v>411</v>
       </c>
     </row>
-    <row r="132" spans="1:2">
-      <c r="B132" t="s">
+    <row r="292" spans="1:2">
+      <c r="B292" t="s">
         <v>405</v>
       </c>
     </row>
-    <row r="133" spans="1:2">
-      <c r="B133" t="s">
+    <row r="293" spans="1:2">
+      <c r="B293" t="s">
         <v>406</v>
       </c>
     </row>
-    <row r="134" spans="1:2">
-      <c r="B134" t="s">
+    <row r="294" spans="1:2">
+      <c r="B294" t="s">
         <v>417</v>
       </c>
     </row>
-    <row r="136" spans="1:2">
-      <c r="B136" t="s">
+    <row r="296" spans="1:2">
+      <c r="B296" t="s">
         <v>408</v>
       </c>
     </row>
-    <row r="137" spans="1:2">
-      <c r="B137" t="s">
+    <row r="297" spans="1:2">
+      <c r="B297" t="s">
         <v>409</v>
       </c>
     </row>
-    <row r="138" spans="1:2">
-      <c r="B138" t="s">
+    <row r="298" spans="1:2">
+      <c r="B298" t="s">
         <v>410</v>
       </c>
     </row>
-    <row r="139" spans="1:2">
-      <c r="B139" t="s">
+    <row r="299" spans="1:2">
+      <c r="B299" t="s">
         <v>407</v>
       </c>
     </row>
-    <row r="141" spans="1:2">
-      <c r="A141" s="22" t="s">
+    <row r="301" spans="1:2">
+      <c r="A301" s="22" t="s">
         <v>348</v>
       </c>
     </row>
-    <row r="142" spans="1:2">
-      <c r="A142" s="26" t="s">
+    <row r="302" spans="1:2">
+      <c r="A302" s="26" t="s">
         <v>517</v>
       </c>
     </row>
-    <row r="143" spans="1:2">
-      <c r="B143" t="s">
+    <row r="303" spans="1:2">
+      <c r="B303" t="s">
         <v>412</v>
       </c>
     </row>
-    <row r="144" spans="1:2">
-      <c r="B144" t="s">
+    <row r="304" spans="1:2">
+      <c r="B304" t="s">
         <v>413</v>
       </c>
     </row>
-    <row r="146" spans="1:2">
-      <c r="B146" s="255" t="s">
+    <row r="306" spans="1:2">
+      <c r="B306" s="155" t="s">
         <v>423</v>
       </c>
     </row>
-    <row r="147" spans="1:2">
-      <c r="B147" s="247" t="s">
+    <row r="307" spans="1:2">
+      <c r="B307" s="147" t="s">
         <v>422</v>
       </c>
     </row>
-    <row r="148" spans="1:2">
-      <c r="A148" s="247"/>
-    </row>
-    <row r="149" spans="1:2">
-      <c r="A149" s="247"/>
-      <c r="B149" s="255" t="s">
+    <row r="308" spans="1:2">
+      <c r="A308" s="147"/>
+    </row>
+    <row r="309" spans="1:2">
+      <c r="A309" s="147"/>
+      <c r="B309" s="155" t="s">
         <v>424</v>
       </c>
     </row>
-    <row r="150" spans="1:2">
-      <c r="A150" s="247"/>
-      <c r="B150" t="s">
+    <row r="310" spans="1:2">
+      <c r="A310" s="147"/>
+      <c r="B310" t="s">
         <v>425</v>
       </c>
     </row>
-    <row r="151" spans="1:2">
-      <c r="A151" s="247"/>
-    </row>
-    <row r="152" spans="1:2">
-      <c r="A152" s="247"/>
-      <c r="B152" s="255" t="s">
+    <row r="311" spans="1:2">
+      <c r="A311" s="147"/>
+    </row>
+    <row r="312" spans="1:2">
+      <c r="A312" s="147"/>
+      <c r="B312" s="155" t="s">
         <v>416</v>
       </c>
     </row>
-    <row r="153" spans="1:2">
-      <c r="B153" t="s">
+    <row r="313" spans="1:2">
+      <c r="B313" t="s">
         <v>415</v>
       </c>
     </row>
-    <row r="154" spans="1:2">
-      <c r="B154" t="s">
+    <row r="314" spans="1:2">
+      <c r="B314" t="s">
         <v>351</v>
       </c>
     </row>
-    <row r="155" spans="1:2">
-      <c r="B155" t="s">
+    <row r="315" spans="1:2">
+      <c r="B315" t="s">
         <v>414</v>
       </c>
     </row>
-    <row r="157" spans="1:2">
-      <c r="B157" s="255" t="s">
+    <row r="317" spans="1:2">
+      <c r="B317" s="155" t="s">
         <v>350</v>
       </c>
     </row>
-    <row r="158" spans="1:2">
-      <c r="B158" t="s">
+    <row r="318" spans="1:2">
+      <c r="B318" t="s">
         <v>352</v>
       </c>
     </row>
-    <row r="159" spans="1:2">
-      <c r="B159" t="s">
+    <row r="319" spans="1:2">
+      <c r="B319" t="s">
         <v>414</v>
       </c>
     </row>
-    <row r="162" spans="1:2">
-      <c r="B162" t="s">
+    <row r="322" spans="1:2">
+      <c r="B322" t="s">
         <v>353</v>
       </c>
     </row>
-    <row r="163" spans="1:2">
-      <c r="B163" t="s">
+    <row r="323" spans="1:2">
+      <c r="B323" t="s">
         <v>354</v>
       </c>
     </row>
-    <row r="164" spans="1:2">
-      <c r="B164" t="s">
+    <row r="324" spans="1:2">
+      <c r="B324" t="s">
         <v>426</v>
       </c>
     </row>
-    <row r="165" spans="1:2">
-      <c r="B165" t="s">
+    <row r="325" spans="1:2">
+      <c r="B325" t="s">
         <v>427</v>
       </c>
     </row>
-    <row r="166" spans="1:2">
-      <c r="B166" t="s">
+    <row r="326" spans="1:2">
+      <c r="B326" t="s">
         <v>428</v>
       </c>
     </row>
-    <row r="167" spans="1:2">
-      <c r="B167" t="s">
+    <row r="327" spans="1:2">
+      <c r="B327" t="s">
         <v>429</v>
       </c>
     </row>
-    <row r="171" spans="1:2">
-      <c r="A171" s="22" t="s">
+    <row r="331" spans="1:2">
+      <c r="A331" s="22" t="s">
         <v>431</v>
       </c>
     </row>
-    <row r="172" spans="1:2">
-      <c r="A172" s="255" t="s">
+    <row r="332" spans="1:2">
+      <c r="A332" s="155" t="s">
         <v>430</v>
       </c>
     </row>
-    <row r="173" spans="1:2">
-      <c r="B173" t="s">
+    <row r="333" spans="1:2">
+      <c r="B333" t="s">
         <v>432</v>
       </c>
     </row>
-    <row r="174" spans="1:2">
-      <c r="B174" t="s">
+    <row r="334" spans="1:2">
+      <c r="B334" t="s">
         <v>433</v>
       </c>
     </row>
-    <row r="175" spans="1:2">
-      <c r="B175" t="s">
+    <row r="335" spans="1:2">
+      <c r="B335" t="s">
+        <v>592</v>
+      </c>
+    </row>
+    <row r="336" spans="1:2">
+      <c r="B336" t="s">
+        <v>593</v>
+      </c>
+    </row>
+    <row r="338" spans="1:3">
+      <c r="B338" t="s">
+        <v>355</v>
+      </c>
+    </row>
+    <row r="339" spans="1:3">
+      <c r="C339" t="s">
+        <v>357</v>
+      </c>
+    </row>
+    <row r="340" spans="1:3">
+      <c r="B340" t="s">
+        <v>356</v>
+      </c>
+    </row>
+    <row r="342" spans="1:3">
+      <c r="A342" s="155" t="s">
+        <v>435</v>
+      </c>
+    </row>
+    <row r="343" spans="1:3">
+      <c r="B343" t="s">
+        <v>436</v>
+      </c>
+    </row>
+    <row r="344" spans="1:3">
+      <c r="B344" t="s">
         <v>434</v>
       </c>
     </row>
-    <row r="176" spans="1:2">
-      <c r="B176" t="s">
-        <v>355</v>
-      </c>
-    </row>
-    <row r="177" spans="1:3">
-      <c r="C177" t="s">
+    <row r="345" spans="1:3">
+      <c r="B345" t="s">
+        <v>437</v>
+      </c>
+    </row>
+    <row r="346" spans="1:3">
+      <c r="B346" t="s">
+        <v>358</v>
+      </c>
+    </row>
+    <row r="347" spans="1:3">
+      <c r="C347" t="s">
+        <v>438</v>
+      </c>
+    </row>
+    <row r="348" spans="1:3">
+      <c r="C348" t="s">
         <v>357</v>
       </c>
     </row>
-    <row r="178" spans="1:3">
-      <c r="B178" t="s">
-        <v>356</v>
-      </c>
-    </row>
-    <row r="180" spans="1:3">
-      <c r="A180" s="255" t="s">
-        <v>435</v>
-      </c>
-    </row>
-    <row r="181" spans="1:3">
-      <c r="B181" t="s">
-        <v>436</v>
-      </c>
-    </row>
-    <row r="182" spans="1:3">
-      <c r="B182" t="s">
-        <v>434</v>
-      </c>
-    </row>
-    <row r="183" spans="1:3">
-      <c r="B183" t="s">
-        <v>437</v>
-      </c>
-    </row>
-    <row r="184" spans="1:3">
-      <c r="B184" t="s">
-        <v>358</v>
-      </c>
-    </row>
-    <row r="185" spans="1:3">
-      <c r="C185" t="s">
-        <v>438</v>
-      </c>
-    </row>
-    <row r="186" spans="1:3">
-      <c r="C186" t="s">
-        <v>357</v>
-      </c>
-    </row>
-    <row r="187" spans="1:3">
-      <c r="C187" t="s">
+    <row r="349" spans="1:3">
+      <c r="C349" t="s">
         <v>359</v>
       </c>
     </row>
-    <row r="188" spans="1:3">
-      <c r="B188" t="s">
+    <row r="350" spans="1:3">
+      <c r="B350" t="s">
         <v>360</v>
       </c>
     </row>
-    <row r="190" spans="1:3">
-      <c r="A190" s="255" t="s">
+    <row r="352" spans="1:3">
+      <c r="A352" s="155" t="s">
         <v>439</v>
       </c>
     </row>
-    <row r="191" spans="1:3">
-      <c r="A191" t="s">
+    <row r="353" spans="1:3">
+      <c r="A353" t="s">
         <v>440</v>
       </c>
     </row>
-    <row r="192" spans="1:3">
-      <c r="B192" t="s">
+    <row r="354" spans="1:3">
+      <c r="B354" t="s">
         <v>361</v>
       </c>
     </row>
-    <row r="193" spans="1:3">
-      <c r="B193" t="s">
+    <row r="355" spans="1:3">
+      <c r="B355" t="s">
         <v>443</v>
       </c>
     </row>
-    <row r="194" spans="1:3">
-      <c r="C194" t="s">
+    <row r="356" spans="1:3">
+      <c r="C356" t="s">
         <v>445</v>
       </c>
     </row>
-    <row r="195" spans="1:3">
-      <c r="B195" t="s">
+    <row r="357" spans="1:3">
+      <c r="B357" t="s">
         <v>444</v>
       </c>
     </row>
-    <row r="197" spans="1:3">
-      <c r="B197" t="s">
+    <row r="359" spans="1:3">
+      <c r="B359" t="s">
         <v>446</v>
       </c>
     </row>
-    <row r="198" spans="1:3">
-      <c r="B198" t="s">
+    <row r="360" spans="1:3">
+      <c r="B360" t="s">
         <v>361</v>
       </c>
     </row>
-    <row r="199" spans="1:3">
-      <c r="B199" t="s">
+    <row r="361" spans="1:3">
+      <c r="B361" t="s">
         <v>441</v>
       </c>
     </row>
-    <row r="200" spans="1:3">
-      <c r="C200" t="s">
+    <row r="362" spans="1:3">
+      <c r="C362" t="s">
         <v>442</v>
       </c>
     </row>
-    <row r="202" spans="1:3">
-      <c r="B202" t="s">
+    <row r="364" spans="1:3">
+      <c r="B364" t="s">
         <v>447</v>
       </c>
     </row>
-    <row r="203" spans="1:3">
-      <c r="B203" t="s">
+    <row r="365" spans="1:3">
+      <c r="B365" t="s">
         <v>361</v>
       </c>
     </row>
-    <row r="204" spans="1:3">
-      <c r="B204" t="s">
+    <row r="366" spans="1:3">
+      <c r="B366" t="s">
         <v>448</v>
       </c>
     </row>
-    <row r="205" spans="1:3">
-      <c r="B205" t="s">
+    <row r="367" spans="1:3">
+      <c r="B367" t="s">
         <v>441</v>
       </c>
     </row>
-    <row r="206" spans="1:3">
-      <c r="C206" t="s">
+    <row r="368" spans="1:3">
+      <c r="C368" t="s">
         <v>442</v>
       </c>
     </row>
-    <row r="208" spans="1:3">
-      <c r="A208" s="22" t="s">
+    <row r="370" spans="1:2">
+      <c r="A370" s="22" t="s">
         <v>320</v>
       </c>
     </row>
-    <row r="209" spans="1:2">
-      <c r="A209" t="s">
+    <row r="371" spans="1:2">
+      <c r="A371" t="s">
         <v>449</v>
       </c>
     </row>
-    <row r="212" spans="1:2">
-      <c r="A212" t="s">
+    <row r="374" spans="1:2">
+      <c r="A374" t="s">
         <v>450</v>
       </c>
     </row>
-    <row r="213" spans="1:2">
-      <c r="A213" t="s">
+    <row r="375" spans="1:2">
+      <c r="A375" t="s">
         <v>362</v>
       </c>
     </row>
-    <row r="214" spans="1:2">
-      <c r="B214" t="s">
+    <row r="376" spans="1:2">
+      <c r="B376" t="s">
         <v>363</v>
       </c>
     </row>
-    <row r="215" spans="1:2">
-      <c r="A215" t="s">
+    <row r="377" spans="1:2">
+      <c r="A377" t="s">
         <v>360</v>
       </c>
     </row>
-    <row r="216" spans="1:2">
-      <c r="A216" t="s">
+    <row r="378" spans="1:2">
+      <c r="A378" t="s">
         <v>364</v>
       </c>
     </row>
-    <row r="218" spans="1:2">
-      <c r="A218" t="s">
+    <row r="380" spans="1:2">
+      <c r="A380" t="s">
         <v>365</v>
       </c>
     </row>
-    <row r="219" spans="1:2">
-      <c r="A219" t="s">
+    <row r="381" spans="1:2">
+      <c r="A381" t="s">
         <v>366</v>
       </c>
     </row>
-    <row r="220" spans="1:2">
-      <c r="A220" t="s">
+    <row r="382" spans="1:2">
+      <c r="A382" t="s">
         <v>367</v>
       </c>
     </row>
-    <row r="221" spans="1:2">
-      <c r="B221" t="s">
+    <row r="383" spans="1:2">
+      <c r="B383" t="s">
         <v>368</v>
       </c>
     </row>
-    <row r="222" spans="1:2">
-      <c r="A222" t="s">
+    <row r="384" spans="1:2">
+      <c r="A384" t="s">
         <v>360</v>
       </c>
-      <c r="B222" t="s">
+      <c r="B384" t="s">
         <v>369</v>
       </c>
     </row>
-    <row r="223" spans="1:2">
-      <c r="B223" t="s">
+    <row r="385" spans="1:2">
+      <c r="B385" t="s">
         <v>370</v>
       </c>
     </row>
-    <row r="224" spans="1:2">
-      <c r="A224" t="s">
+    <row r="386" spans="1:2">
+      <c r="A386" t="s">
         <v>360</v>
       </c>
     </row>
-    <row r="228" spans="1:2">
-      <c r="A228" t="s">
+    <row r="390" spans="1:2">
+      <c r="A390" t="s">
         <v>371</v>
       </c>
     </row>
-    <row r="229" spans="1:2">
-      <c r="A229" t="s">
+    <row r="391" spans="1:2">
+      <c r="A391" t="s">
         <v>372</v>
       </c>
     </row>
-    <row r="230" spans="1:2">
-      <c r="B230" t="s">
+    <row r="392" spans="1:2">
+      <c r="B392" t="s">
         <v>373</v>
       </c>
     </row>
-    <row r="231" spans="1:2">
-      <c r="B231" t="s">
+    <row r="393" spans="1:2">
+      <c r="B393" t="s">
         <v>374</v>
       </c>
     </row>
-    <row r="232" spans="1:2">
-      <c r="B232" t="s">
+    <row r="394" spans="1:2">
+      <c r="B394" t="s">
         <v>375</v>
       </c>
     </row>
-    <row r="233" spans="1:2">
-      <c r="B233" t="s">
+    <row r="395" spans="1:2">
+      <c r="B395" t="s">
         <v>376</v>
       </c>
     </row>
-    <row r="234" spans="1:2">
-      <c r="B234" t="s">
+    <row r="396" spans="1:2">
+      <c r="B396" t="s">
         <v>377</v>
       </c>
     </row>
-    <row r="235" spans="1:2">
-      <c r="B235" t="s">
+    <row r="397" spans="1:2">
+      <c r="B397" t="s">
         <v>375</v>
       </c>
     </row>
-    <row r="236" spans="1:2">
-      <c r="B236" t="s">
+    <row r="398" spans="1:2">
+      <c r="B398" t="s">
         <v>378</v>
       </c>
     </row>
-    <row r="237" spans="1:2">
-      <c r="B237" t="s">
+    <row r="399" spans="1:2">
+      <c r="B399" t="s">
         <v>379</v>
       </c>
     </row>
-    <row r="238" spans="1:2">
-      <c r="B238" t="s">
+    <row r="400" spans="1:2">
+      <c r="B400" t="s">
         <v>375</v>
       </c>
     </row>
-    <row r="239" spans="1:2">
-      <c r="B239" t="s">
+    <row r="401" spans="1:3">
+      <c r="B401" t="s">
         <v>380</v>
       </c>
     </row>
-    <row r="240" spans="1:2">
-      <c r="B240" t="s">
+    <row r="402" spans="1:3">
+      <c r="B402" t="s">
         <v>381</v>
       </c>
     </row>
-    <row r="241" spans="1:3">
-      <c r="B241" t="s">
+    <row r="403" spans="1:3">
+      <c r="B403" t="s">
         <v>375</v>
       </c>
     </row>
-    <row r="242" spans="1:3">
-      <c r="A242" t="s">
+    <row r="404" spans="1:3">
+      <c r="A404" t="s">
         <v>360</v>
       </c>
     </row>
-    <row r="246" spans="1:3">
-      <c r="A246" t="s">
+    <row r="408" spans="1:3">
+      <c r="A408" t="s">
         <v>382</v>
       </c>
     </row>
-    <row r="247" spans="1:3">
-      <c r="B247" t="s">
+    <row r="409" spans="1:3">
+      <c r="B409" t="s">
         <v>383</v>
       </c>
     </row>
-    <row r="248" spans="1:3">
-      <c r="B248" t="s">
+    <row r="410" spans="1:3">
+      <c r="B410" t="s">
         <v>384</v>
       </c>
     </row>
-    <row r="249" spans="1:3">
-      <c r="B249" t="s">
+    <row r="411" spans="1:3">
+      <c r="B411" t="s">
         <v>385</v>
       </c>
     </row>
-    <row r="250" spans="1:3">
-      <c r="B250" t="s">
+    <row r="412" spans="1:3">
+      <c r="B412" t="s">
         <v>386</v>
       </c>
     </row>
-    <row r="251" spans="1:3">
-      <c r="B251" t="s">
+    <row r="413" spans="1:3">
+      <c r="B413" t="s">
         <v>387</v>
       </c>
     </row>
-    <row r="252" spans="1:3">
-      <c r="C252" t="s">
+    <row r="414" spans="1:3">
+      <c r="C414" t="s">
         <v>388</v>
       </c>
     </row>
-    <row r="253" spans="1:3">
-      <c r="C253" t="s">
+    <row r="415" spans="1:3">
+      <c r="C415" t="s">
         <v>389</v>
       </c>
     </row>
-    <row r="254" spans="1:3">
-      <c r="C254" t="s">
+    <row r="416" spans="1:3">
+      <c r="C416" t="s">
         <v>390</v>
       </c>
     </row>
-    <row r="255" spans="1:3">
-      <c r="A255" t="s">
+    <row r="417" spans="1:2">
+      <c r="A417" t="s">
         <v>360</v>
       </c>
     </row>
-    <row r="257" spans="1:2">
-      <c r="A257" t="s">
+    <row r="419" spans="1:2">
+      <c r="A419" t="s">
         <v>391</v>
       </c>
     </row>
-    <row r="260" spans="1:2">
-      <c r="A260" s="22" t="s">
+    <row r="422" spans="1:2">
+      <c r="A422" s="22" t="s">
         <v>344</v>
       </c>
     </row>
-    <row r="261" spans="1:2">
-      <c r="A261" t="s">
+    <row r="423" spans="1:2">
+      <c r="A423" t="s">
         <v>392</v>
       </c>
     </row>
-    <row r="262" spans="1:2">
-      <c r="A262" t="s">
+    <row r="424" spans="1:2">
+      <c r="A424" t="s">
         <v>394</v>
       </c>
     </row>
-    <row r="263" spans="1:2">
-      <c r="A263" t="s">
+    <row r="425" spans="1:2">
+      <c r="A425" t="s">
         <v>396</v>
       </c>
     </row>
-    <row r="264" spans="1:2">
-      <c r="A264" t="s">
+    <row r="426" spans="1:2">
+      <c r="A426" t="s">
         <v>393</v>
       </c>
     </row>
-    <row r="266" spans="1:2">
-      <c r="A266" t="s">
+    <row r="428" spans="1:2">
+      <c r="A428" t="s">
         <v>395</v>
       </c>
     </row>
-    <row r="267" spans="1:2">
-      <c r="A267" t="s">
+    <row r="429" spans="1:2">
+      <c r="A429" t="s">
         <v>397</v>
       </c>
     </row>
-    <row r="268" spans="1:2">
-      <c r="B268" t="s">
+    <row r="430" spans="1:2">
+      <c r="B430" t="s">
         <v>398</v>
       </c>
     </row>
-    <row r="269" spans="1:2">
-      <c r="A269" t="s">
+    <row r="431" spans="1:2">
+      <c r="A431" t="s">
         <v>360</v>
       </c>
     </row>
-    <row r="270" spans="1:2">
-      <c r="A270" t="s">
+    <row r="432" spans="1:2">
+      <c r="A432" t="s">
         <v>399</v>
       </c>
     </row>
-    <row r="275" spans="1:1">
-      <c r="A275" s="22" t="s">
-        <v>599</v>
-      </c>
-    </row>
-    <row r="280" spans="1:1">
-      <c r="A280" s="22" t="s">
-        <v>600</v>
-      </c>
-    </row>
-    <row r="281" spans="1:1">
-      <c r="A281" s="22" t="s">
-        <v>533</v>
-      </c>
-    </row>
-    <row r="282" spans="1:1">
-      <c r="A282" s="43" t="s">
-        <v>545</v>
-      </c>
-    </row>
-    <row r="283" spans="1:1">
-      <c r="A283" s="26" t="s">
-        <v>507</v>
-      </c>
-    </row>
-    <row r="284" spans="1:1">
-      <c r="A284" s="267" t="s">
-        <v>546</v>
-      </c>
-    </row>
-    <row r="285" spans="1:1">
-      <c r="A285" s="268" t="s">
-        <v>534</v>
-      </c>
-    </row>
-    <row r="286" spans="1:1">
-      <c r="A286" s="26"/>
-    </row>
-    <row r="287" spans="1:1">
-      <c r="A287" s="268" t="s">
-        <v>547</v>
-      </c>
-    </row>
-    <row r="288" spans="1:1">
-      <c r="A288" s="268" t="s">
-        <v>548</v>
-      </c>
-    </row>
-    <row r="289" spans="1:1">
-      <c r="A289" s="268"/>
-    </row>
-    <row r="290" spans="1:1">
-      <c r="A290" s="268" t="s">
-        <v>549</v>
-      </c>
-    </row>
-    <row r="291" spans="1:1">
-      <c r="A291" s="26"/>
-    </row>
-    <row r="292" spans="1:1">
-      <c r="A292" s="26"/>
-    </row>
-    <row r="293" spans="1:1">
-      <c r="A293" s="26"/>
-    </row>
-    <row r="294" spans="1:1">
-      <c r="A294" s="26"/>
-    </row>
-    <row r="295" spans="1:1">
-      <c r="A295" s="26"/>
-    </row>
-    <row r="296" spans="1:1">
-      <c r="A296" s="26"/>
-    </row>
-    <row r="297" spans="1:1">
-      <c r="A297" s="26"/>
-    </row>
-    <row r="298" spans="1:1">
-      <c r="A298" s="26"/>
-    </row>
-    <row r="299" spans="1:1">
-      <c r="A299" s="26"/>
-    </row>
-    <row r="300" spans="1:1">
-      <c r="A300" s="26"/>
-    </row>
-    <row r="301" spans="1:1">
-      <c r="A301" s="26"/>
-    </row>
-    <row r="302" spans="1:1">
-      <c r="A302" s="26"/>
-    </row>
-    <row r="303" spans="1:1">
-      <c r="A303" s="26"/>
-    </row>
-    <row r="304" spans="1:1">
-      <c r="A304" s="26"/>
-    </row>
-    <row r="305" spans="1:7">
-      <c r="A305" s="26"/>
-    </row>
-    <row r="306" spans="1:7">
-      <c r="A306" s="26"/>
-    </row>
-    <row r="307" spans="1:7">
-      <c r="A307" s="26"/>
-    </row>
-    <row r="308" spans="1:7">
-      <c r="A308" s="26"/>
-    </row>
-    <row r="309" spans="1:7">
-      <c r="A309" s="45" t="s">
-        <v>535</v>
-      </c>
-    </row>
-    <row r="310" spans="1:7">
-      <c r="A310" s="42"/>
-    </row>
-    <row r="311" spans="1:7">
-      <c r="A311" s="42"/>
-    </row>
-    <row r="312" spans="1:7">
-      <c r="A312" s="43" t="s">
-        <v>550</v>
-      </c>
-    </row>
-    <row r="313" spans="1:7">
-      <c r="A313" s="43" t="s">
-        <v>536</v>
-      </c>
-    </row>
-    <row r="314" spans="1:7">
-      <c r="A314" s="42"/>
-    </row>
-    <row r="315" spans="1:7">
-      <c r="A315" s="258" t="s">
-        <v>551</v>
-      </c>
-    </row>
-    <row r="316" spans="1:7">
-      <c r="A316" s="269" t="s">
-        <v>552</v>
-      </c>
-    </row>
-    <row r="317" spans="1:7">
-      <c r="A317" s="43" t="s">
-        <v>553</v>
-      </c>
-    </row>
-    <row r="318" spans="1:7">
-      <c r="A318" s="43" t="s">
-        <v>554</v>
-      </c>
-    </row>
-    <row r="319" spans="1:7" ht="15.75" thickBot="1">
-      <c r="A319" s="26"/>
-    </row>
-    <row r="320" spans="1:7" ht="15.75" thickBot="1">
-      <c r="A320" s="241" t="s">
-        <v>245</v>
-      </c>
-      <c r="B320" s="242"/>
-      <c r="C320" s="243"/>
-      <c r="E320" s="241" t="s">
-        <v>251</v>
-      </c>
-      <c r="F320" s="242"/>
-      <c r="G320" s="243"/>
-    </row>
-    <row r="321" spans="1:7" ht="15.75" thickBot="1">
-      <c r="A321" s="48" t="s">
-        <v>246</v>
-      </c>
-      <c r="B321" s="49" t="s">
-        <v>247</v>
-      </c>
-      <c r="C321" s="50" t="s">
-        <v>248</v>
-      </c>
-      <c r="E321" s="48" t="s">
-        <v>246</v>
-      </c>
-      <c r="F321" s="49" t="s">
-        <v>247</v>
-      </c>
-      <c r="G321" s="50" t="s">
-        <v>248</v>
-      </c>
-    </row>
-    <row r="322" spans="1:7">
-      <c r="A322" s="51" t="s">
-        <v>249</v>
-      </c>
-      <c r="B322" s="52" t="s">
-        <v>249</v>
-      </c>
-      <c r="C322" s="53" t="s">
-        <v>249</v>
-      </c>
-      <c r="E322" s="51" t="s">
-        <v>249</v>
-      </c>
-      <c r="F322" s="52" t="s">
-        <v>249</v>
-      </c>
-      <c r="G322" s="53" t="s">
-        <v>249</v>
-      </c>
-    </row>
-    <row r="323" spans="1:7">
-      <c r="A323" s="54" t="s">
-        <v>249</v>
-      </c>
-      <c r="B323" s="47" t="s">
-        <v>250</v>
-      </c>
-      <c r="C323" s="55" t="s">
-        <v>250</v>
-      </c>
-      <c r="E323" s="54" t="s">
-        <v>249</v>
-      </c>
-      <c r="F323" s="47" t="s">
-        <v>250</v>
-      </c>
-      <c r="G323" s="55" t="s">
-        <v>249</v>
-      </c>
-    </row>
-    <row r="324" spans="1:7">
-      <c r="A324" s="54" t="s">
-        <v>250</v>
-      </c>
-      <c r="B324" s="47" t="s">
-        <v>249</v>
-      </c>
-      <c r="C324" s="55" t="s">
-        <v>250</v>
-      </c>
-      <c r="E324" s="54" t="s">
-        <v>250</v>
-      </c>
-      <c r="F324" s="47" t="s">
-        <v>249</v>
-      </c>
-      <c r="G324" s="55" t="s">
-        <v>249</v>
-      </c>
-    </row>
-    <row r="325" spans="1:7" ht="15.75" thickBot="1">
-      <c r="A325" s="56" t="s">
-        <v>250</v>
-      </c>
-      <c r="B325" s="57" t="s">
-        <v>250</v>
-      </c>
-      <c r="C325" s="58" t="s">
-        <v>250</v>
-      </c>
-      <c r="E325" s="56" t="s">
-        <v>250</v>
-      </c>
-      <c r="F325" s="57" t="s">
-        <v>250</v>
-      </c>
-      <c r="G325" s="58" t="s">
-        <v>250</v>
-      </c>
-    </row>
-    <row r="326" spans="1:7">
-      <c r="A326" s="262"/>
-      <c r="B326" s="262"/>
-      <c r="C326" s="262"/>
-      <c r="E326" s="262"/>
-      <c r="F326" s="262"/>
-      <c r="G326" s="262"/>
-    </row>
-    <row r="327" spans="1:7">
-      <c r="A327" s="26"/>
-    </row>
-    <row r="328" spans="1:7">
-      <c r="A328" s="26"/>
-    </row>
-    <row r="329" spans="1:7">
-      <c r="A329" s="45" t="s">
-        <v>537</v>
-      </c>
-    </row>
-    <row r="330" spans="1:7">
-      <c r="A330" s="43"/>
-    </row>
-    <row r="331" spans="1:7">
-      <c r="A331" s="43"/>
-    </row>
-    <row r="332" spans="1:7">
-      <c r="A332" s="43" t="s">
-        <v>538</v>
-      </c>
-    </row>
-    <row r="333" spans="1:7">
-      <c r="A333" s="43"/>
-    </row>
-    <row r="334" spans="1:7">
-      <c r="A334" s="43" t="s">
-        <v>539</v>
-      </c>
-    </row>
-    <row r="335" spans="1:7">
-      <c r="A335" s="44" t="s">
-        <v>555</v>
-      </c>
-    </row>
-    <row r="336" spans="1:7">
-      <c r="A336" s="46" t="s">
-        <v>540</v>
-      </c>
-    </row>
-    <row r="337" spans="1:1">
-      <c r="A337" s="266" t="s">
-        <v>544</v>
-      </c>
-    </row>
-    <row r="338" spans="1:1">
-      <c r="A338" s="42"/>
-    </row>
-    <row r="339" spans="1:1">
-      <c r="A339" s="43" t="s">
-        <v>541</v>
-      </c>
-    </row>
-    <row r="340" spans="1:1">
-      <c r="A340" s="44" t="s">
-        <v>556</v>
-      </c>
-    </row>
-    <row r="341" spans="1:1">
-      <c r="A341" s="44" t="s">
-        <v>557</v>
-      </c>
-    </row>
-    <row r="342" spans="1:1">
-      <c r="A342" s="46" t="s">
-        <v>542</v>
-      </c>
-    </row>
-    <row r="343" spans="1:1">
-      <c r="A343" s="266"/>
-    </row>
-    <row r="344" spans="1:1">
-      <c r="A344" s="270" t="s">
-        <v>543</v>
-      </c>
-    </row>
-    <row r="345" spans="1:1">
-      <c r="A345" s="26"/>
-    </row>
-    <row r="346" spans="1:1">
-      <c r="A346" s="26"/>
-    </row>
-    <row r="347" spans="1:1">
-      <c r="A347" s="26"/>
-    </row>
-    <row r="348" spans="1:1">
-      <c r="A348" s="26"/>
-    </row>
-    <row r="349" spans="1:1">
-      <c r="A349" s="26"/>
-    </row>
-    <row r="350" spans="1:1">
-      <c r="A350" s="26"/>
-    </row>
-    <row r="351" spans="1:1">
-      <c r="A351" s="26"/>
-    </row>
-    <row r="352" spans="1:1">
-      <c r="A352" s="26"/>
-    </row>
-    <row r="353" spans="1:1">
-      <c r="A353" s="26"/>
-    </row>
-    <row r="354" spans="1:1">
-      <c r="A354" s="26"/>
-    </row>
-    <row r="355" spans="1:1">
-      <c r="A355" s="26"/>
-    </row>
-    <row r="356" spans="1:1">
-      <c r="A356" s="26"/>
-    </row>
-    <row r="357" spans="1:1">
-      <c r="A357" s="26"/>
-    </row>
-    <row r="358" spans="1:1">
-      <c r="A358" s="26"/>
-    </row>
-    <row r="359" spans="1:1">
-      <c r="A359" s="26"/>
-    </row>
-    <row r="360" spans="1:1">
-      <c r="A360" s="45" t="s">
-        <v>558</v>
-      </c>
-    </row>
-    <row r="361" spans="1:1">
-      <c r="A361" s="42"/>
-    </row>
-    <row r="362" spans="1:1">
-      <c r="A362" s="42"/>
-    </row>
-    <row r="363" spans="1:1">
-      <c r="A363" s="271" t="s">
-        <v>559</v>
-      </c>
-    </row>
-    <row r="364" spans="1:1">
-      <c r="A364" s="43" t="s">
-        <v>560</v>
-      </c>
-    </row>
-    <row r="365" spans="1:1">
-      <c r="A365" s="271" t="s">
-        <v>561</v>
-      </c>
-    </row>
-    <row r="366" spans="1:1">
-      <c r="A366" s="43" t="s">
-        <v>562</v>
-      </c>
-    </row>
-    <row r="367" spans="1:1">
-      <c r="A367" s="258"/>
-    </row>
-    <row r="368" spans="1:1">
-      <c r="A368" s="258" t="s">
-        <v>563</v>
-      </c>
-    </row>
-    <row r="369" spans="1:1">
-      <c r="A369" s="258"/>
-    </row>
-    <row r="370" spans="1:1">
-      <c r="A370" s="43" t="s">
-        <v>564</v>
-      </c>
-    </row>
-    <row r="371" spans="1:1">
-      <c r="A371" s="43" t="s">
-        <v>565</v>
-      </c>
-    </row>
-    <row r="372" spans="1:1">
-      <c r="A372" s="26"/>
-    </row>
-    <row r="373" spans="1:1">
-      <c r="A373" s="26"/>
-    </row>
-    <row r="374" spans="1:1">
-      <c r="A374" s="26"/>
-    </row>
-    <row r="375" spans="1:1">
-      <c r="A375" s="26"/>
-    </row>
-    <row r="376" spans="1:1">
-      <c r="A376" s="26"/>
-    </row>
-    <row r="377" spans="1:1">
-      <c r="A377" s="26"/>
-    </row>
-    <row r="378" spans="1:1">
-      <c r="A378" s="26"/>
-    </row>
-    <row r="379" spans="1:1">
-      <c r="A379" s="26"/>
-    </row>
-    <row r="380" spans="1:1">
-      <c r="A380" s="26"/>
-    </row>
-    <row r="381" spans="1:1">
-      <c r="A381" s="26"/>
-    </row>
-    <row r="382" spans="1:1">
-      <c r="A382" s="26"/>
-    </row>
-    <row r="383" spans="1:1">
-      <c r="A383" s="26"/>
-    </row>
-    <row r="384" spans="1:1">
-      <c r="A384" s="26"/>
-    </row>
-    <row r="385" spans="1:1">
-      <c r="A385" s="26"/>
-    </row>
-    <row r="386" spans="1:1">
-      <c r="A386" s="26"/>
-    </row>
-    <row r="387" spans="1:1" ht="21.75">
-      <c r="A387" s="264" t="s">
-        <v>566</v>
-      </c>
-    </row>
-    <row r="388" spans="1:1" ht="15.75">
-      <c r="A388" s="265" t="s">
+    <row r="437" spans="1:7">
+      <c r="A437" s="22" t="s">
+        <v>585</v>
+      </c>
+    </row>
+    <row r="442" spans="1:7">
+      <c r="A442" s="22" t="s">
+        <v>586</v>
+      </c>
+    </row>
+    <row r="443" spans="1:7">
+      <c r="A443" s="162"/>
+      <c r="B443" s="162"/>
+      <c r="C443" s="162"/>
+      <c r="E443" s="162"/>
+      <c r="F443" s="162"/>
+      <c r="G443" s="162"/>
+    </row>
+    <row r="444" spans="1:7">
+      <c r="A444" s="26"/>
+    </row>
+    <row r="447" spans="1:7">
+      <c r="A447" s="45" t="s">
         <v>567</v>
       </c>
     </row>
-    <row r="389" spans="1:1">
-      <c r="A389" s="26"/>
-    </row>
-    <row r="390" spans="1:1">
-      <c r="A390" s="26"/>
-    </row>
-    <row r="391" spans="1:1">
-      <c r="A391" s="26"/>
-    </row>
-    <row r="392" spans="1:1">
-      <c r="A392" s="26"/>
-    </row>
-    <row r="393" spans="1:1">
-      <c r="A393" s="26"/>
-    </row>
-    <row r="394" spans="1:1">
-      <c r="A394" s="26"/>
-    </row>
-    <row r="395" spans="1:1">
-      <c r="A395" s="26"/>
-    </row>
-    <row r="396" spans="1:1">
-      <c r="A396" s="26"/>
-    </row>
-    <row r="397" spans="1:1">
-      <c r="A397" s="26"/>
-    </row>
-    <row r="398" spans="1:1">
-      <c r="A398" s="26"/>
-    </row>
-    <row r="399" spans="1:1">
-      <c r="A399" s="26"/>
-    </row>
-    <row r="400" spans="1:1">
-      <c r="A400" s="26"/>
-    </row>
-    <row r="401" spans="1:1">
-      <c r="A401" s="26"/>
-    </row>
-    <row r="402" spans="1:1">
-      <c r="A402" s="26"/>
-    </row>
-    <row r="403" spans="1:1">
-      <c r="A403" s="45" t="s">
+    <row r="448" spans="1:7">
+      <c r="A448" s="43" t="s">
+        <v>575</v>
+      </c>
+    </row>
+    <row r="449" spans="1:1">
+      <c r="A449" s="158" t="s">
+        <v>603</v>
+      </c>
+    </row>
+    <row r="450" spans="1:1">
+      <c r="A450" s="158"/>
+    </row>
+    <row r="451" spans="1:1">
+      <c r="A451" s="158" t="s">
         <v>568</v>
-      </c>
-    </row>
-    <row r="404" spans="1:1">
-      <c r="A404" s="43" t="s">
-        <v>569</v>
-      </c>
-    </row>
-    <row r="405" spans="1:1">
-      <c r="A405" s="42"/>
-    </row>
-    <row r="406" spans="1:1">
-      <c r="A406" s="43" t="s">
-        <v>570</v>
-      </c>
-    </row>
-    <row r="407" spans="1:1">
-      <c r="A407" s="44" t="s">
-        <v>571</v>
-      </c>
-    </row>
-    <row r="408" spans="1:1">
-      <c r="A408" s="270" t="s">
-        <v>572</v>
-      </c>
-    </row>
-    <row r="409" spans="1:1">
-      <c r="A409" s="26"/>
-    </row>
-    <row r="410" spans="1:1">
-      <c r="A410" s="26"/>
-    </row>
-    <row r="411" spans="1:1">
-      <c r="A411" s="26"/>
-    </row>
-    <row r="412" spans="1:1" ht="21.75">
-      <c r="A412" s="264" t="s">
-        <v>568</v>
-      </c>
-    </row>
-    <row r="413" spans="1:1" ht="15.75">
-      <c r="A413" s="265" t="s">
-        <v>573</v>
-      </c>
-    </row>
-    <row r="414" spans="1:1" ht="15.75">
-      <c r="A414" s="265"/>
-    </row>
-    <row r="415" spans="1:1" ht="15.75">
-      <c r="A415" s="265" t="s">
-        <v>574</v>
-      </c>
-    </row>
-    <row r="416" spans="1:1">
-      <c r="A416" s="26"/>
-    </row>
-    <row r="417" spans="1:1">
-      <c r="A417" s="26"/>
-    </row>
-    <row r="418" spans="1:1">
-      <c r="A418" s="26"/>
-    </row>
-    <row r="419" spans="1:1">
-      <c r="A419" s="26"/>
-    </row>
-    <row r="420" spans="1:1">
-      <c r="A420" s="26"/>
-    </row>
-    <row r="421" spans="1:1">
-      <c r="A421" s="26"/>
-    </row>
-    <row r="422" spans="1:1">
-      <c r="A422" s="26"/>
-    </row>
-    <row r="423" spans="1:1">
-      <c r="A423" s="26"/>
-    </row>
-    <row r="424" spans="1:1">
-      <c r="A424" s="26"/>
-    </row>
-    <row r="425" spans="1:1">
-      <c r="A425" s="26"/>
-    </row>
-    <row r="426" spans="1:1">
-      <c r="A426" s="26"/>
-    </row>
-    <row r="427" spans="1:1">
-      <c r="A427" s="26"/>
-    </row>
-    <row r="428" spans="1:1">
-      <c r="A428" s="26"/>
-    </row>
-    <row r="429" spans="1:1">
-      <c r="A429" s="26"/>
-    </row>
-    <row r="430" spans="1:1">
-      <c r="A430" s="45" t="s">
-        <v>575</v>
-      </c>
-    </row>
-    <row r="431" spans="1:1">
-      <c r="A431" s="258" t="s">
-        <v>576</v>
-      </c>
-    </row>
-    <row r="432" spans="1:1">
-      <c r="A432" s="43"/>
-    </row>
-    <row r="433" spans="1:1">
-      <c r="A433" s="43" t="s">
-        <v>577</v>
-      </c>
-    </row>
-    <row r="434" spans="1:1">
-      <c r="A434" s="26"/>
-    </row>
-    <row r="435" spans="1:1">
-      <c r="A435" s="26"/>
-    </row>
-    <row r="436" spans="1:1">
-      <c r="A436" s="26"/>
-    </row>
-    <row r="437" spans="1:1">
-      <c r="A437" s="26"/>
-    </row>
-    <row r="438" spans="1:1">
-      <c r="A438" s="26"/>
-    </row>
-    <row r="439" spans="1:1">
-      <c r="A439" s="26"/>
-    </row>
-    <row r="440" spans="1:1">
-      <c r="A440" s="26"/>
-    </row>
-    <row r="441" spans="1:1">
-      <c r="A441" s="26"/>
-    </row>
-    <row r="442" spans="1:1">
-      <c r="A442" s="26"/>
-    </row>
-    <row r="443" spans="1:1">
-      <c r="A443" s="26"/>
-    </row>
-    <row r="444" spans="1:1">
-      <c r="A444" s="26"/>
-    </row>
-    <row r="445" spans="1:1">
-      <c r="A445" s="45" t="s">
-        <v>575</v>
-      </c>
-    </row>
-    <row r="446" spans="1:1">
-      <c r="A446" s="43" t="s">
-        <v>583</v>
-      </c>
-    </row>
-    <row r="447" spans="1:1">
-      <c r="A447" s="272" t="s">
-        <v>578</v>
-      </c>
-    </row>
-    <row r="448" spans="1:1">
-      <c r="A448" s="42"/>
-    </row>
-    <row r="449" spans="1:1">
-      <c r="A449" s="43" t="s">
-        <v>584</v>
-      </c>
-    </row>
-    <row r="450" spans="1:1">
-      <c r="A450" s="43" t="s">
-        <v>585</v>
-      </c>
-    </row>
-    <row r="451" spans="1:1">
-      <c r="A451" s="43" t="s">
-        <v>586</v>
       </c>
     </row>
     <row r="452" spans="1:1">
       <c r="A452" s="43" t="s">
-        <v>587</v>
+        <v>604</v>
       </c>
     </row>
     <row r="453" spans="1:1">
       <c r="A453" s="42"/>
     </row>
     <row r="454" spans="1:1">
-      <c r="A454" s="45" t="s">
-        <v>579</v>
+      <c r="A454" s="43" t="s">
+        <v>576</v>
       </c>
     </row>
     <row r="455" spans="1:1">
       <c r="A455" s="43" t="s">
-        <v>588</v>
+        <v>569</v>
       </c>
     </row>
     <row r="456" spans="1:1">
-      <c r="A456" s="258" t="s">
-        <v>589</v>
-      </c>
+      <c r="A456" s="26"/>
     </row>
     <row r="457" spans="1:1">
-      <c r="A457" s="258" t="s">
+      <c r="A457" s="26"/>
+    </row>
+    <row r="458" spans="1:1">
+      <c r="A458" s="45" t="s">
+        <v>577</v>
+      </c>
+    </row>
+    <row r="459" spans="1:1">
+      <c r="A459" s="43" t="s">
         <v>580</v>
       </c>
-    </row>
-    <row r="458" spans="1:1">
-      <c r="A458" s="272" t="s">
-        <v>581</v>
-      </c>
-    </row>
-    <row r="459" spans="1:1">
-      <c r="A459" s="42"/>
     </row>
     <row r="460" spans="1:1">
       <c r="A460" s="43" t="s">
-        <v>590</v>
+        <v>578</v>
       </c>
     </row>
     <row r="461" spans="1:1">
-      <c r="A461" s="43" t="s">
+      <c r="A461" s="43"/>
+    </row>
+    <row r="462" spans="1:1">
+      <c r="A462" s="44" t="s">
+        <v>581</v>
+      </c>
+    </row>
+    <row r="463" spans="1:1">
+      <c r="A463" s="44" t="s">
         <v>582</v>
       </c>
     </row>
-    <row r="462" spans="1:1">
-      <c r="A462" s="26"/>
-    </row>
-    <row r="463" spans="1:1">
-      <c r="A463" s="26"/>
-    </row>
     <row r="464" spans="1:1">
-      <c r="A464" s="45" t="s">
-        <v>591</v>
+      <c r="A464" s="168" t="s">
+        <v>579</v>
       </c>
     </row>
     <row r="465" spans="1:1">
-      <c r="A465" s="43" t="s">
-        <v>594</v>
-      </c>
+      <c r="A465" s="26"/>
     </row>
     <row r="466" spans="1:1">
-      <c r="A466" s="43" t="s">
-        <v>592</v>
+      <c r="A466" s="166" t="s">
+        <v>583</v>
       </c>
     </row>
     <row r="467" spans="1:1">
-      <c r="A467" s="43"/>
+      <c r="A467" s="26"/>
     </row>
     <row r="468" spans="1:1">
-      <c r="A468" s="44" t="s">
-        <v>595</v>
+      <c r="A468" s="166" t="s">
+        <v>584</v>
       </c>
     </row>
     <row r="469" spans="1:1">
-      <c r="A469" s="44" t="s">
-        <v>596</v>
-      </c>
+      <c r="A469" s="26"/>
     </row>
     <row r="470" spans="1:1">
-      <c r="A470" s="270" t="s">
-        <v>593</v>
-      </c>
+      <c r="A470" s="26"/>
     </row>
     <row r="471" spans="1:1">
       <c r="A471" s="26"/>
     </row>
     <row r="472" spans="1:1">
-      <c r="A472" s="268" t="s">
-        <v>597</v>
-      </c>
+      <c r="A472" s="26"/>
     </row>
     <row r="473" spans="1:1">
       <c r="A473" s="26"/>
     </row>
     <row r="474" spans="1:1">
-      <c r="A474" s="268" t="s">
-        <v>598</v>
-      </c>
+      <c r="A474" s="26"/>
     </row>
     <row r="475" spans="1:1">
       <c r="A475" s="26"/>
@@ -20905,45 +20707,26 @@
     <row r="480" spans="1:1">
       <c r="A480" s="26"/>
     </row>
-    <row r="481" spans="1:1">
-      <c r="A481" s="26"/>
-    </row>
-    <row r="482" spans="1:1">
-      <c r="A482" s="26"/>
-    </row>
-    <row r="483" spans="1:1">
-      <c r="A483" s="26"/>
-    </row>
-    <row r="484" spans="1:1">
-      <c r="A484" s="26"/>
-    </row>
-    <row r="485" spans="1:1">
-      <c r="A485" s="26"/>
-    </row>
-    <row r="486" spans="1:1">
-      <c r="A486" s="26"/>
-    </row>
   </sheetData>
   <mergeCells count="2">
-    <mergeCell ref="E320:G320"/>
-    <mergeCell ref="A320:C320"/>
+    <mergeCell ref="E267:G267"/>
+    <mergeCell ref="A267:C267"/>
   </mergeCells>
   <hyperlinks>
-    <hyperlink ref="A447" r:id="rId1" location="js" display="https://code.sololearn.com/657/ - js"/>
-    <hyperlink ref="A458" r:id="rId2" location="js" display="https://code.sololearn.com/658/ - js"/>
+    <hyperlink ref="A452" r:id="rId1" location="js" display="https://code.sololearn.com/658/ - js"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId3"/>
-  <drawing r:id="rId4"/>
+  <pageSetup orientation="portrait" r:id="rId2"/>
+  <drawing r:id="rId3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C9"/>
+  <dimension ref="A1:C10"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A10" sqref="A10"/>
+      <selection activeCell="A14" sqref="A14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -21002,6 +20785,11 @@
         <v>304</v>
       </c>
     </row>
+    <row r="10" spans="1:3">
+      <c r="A10" t="s">
+        <v>588</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/General/Curriculum (Personalized).xlsx
+++ b/General/Curriculum (Personalized).xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="11835" activeTab="5"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="11835"/>
   </bookViews>
   <sheets>
     <sheet name="Curriculum" sheetId="1" r:id="rId1"/>
@@ -19,6 +19,7 @@
     <sheet name="HTML" sheetId="2" r:id="rId5"/>
     <sheet name="JavaScript" sheetId="3" r:id="rId6"/>
     <sheet name="Resources" sheetId="6" r:id="rId7"/>
+    <sheet name="Questions" sheetId="8" r:id="rId8"/>
   </sheets>
   <calcPr calcId="152511"/>
   <extLst>
@@ -30,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="902" uniqueCount="605">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="910" uniqueCount="613">
   <si>
     <t>Week</t>
   </si>
@@ -5013,21 +5014,6 @@
   </si>
   <si>
     <r>
-      <t>Note:</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> Organize this stuff (from SoloLearn.)</t>
-    </r>
-  </si>
-  <si>
-    <r>
       <rPr>
         <b/>
         <sz val="11"/>
@@ -5165,6 +5151,53 @@
   </si>
   <si>
     <t>var isAdult = (age &lt; 18) ? "Too young": "Old enough";</t>
+  </si>
+  <si>
+    <t>Put JavaScript tag at the bottom of the content in the Body section, because the browswer reads from top to bottom. So, we're essentially giving the browser the information/content that we're working with, then telling it what to do with it by putting the &lt;script&gt; at the end.</t>
+  </si>
+  <si>
+    <t>https://www.lynda.com/CSS-tutorials/Type-class-id-selectors/569190/601581-4.html</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Just know what you want to do and learn/know where to look for it, and where to strategically place it into the document.</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Remember</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>, no one can remember all of the thousands of elements, tags, commands, etc. that exist.</t>
+    </r>
+  </si>
+  <si>
+    <t>Methods and functions are the same thing.</t>
+  </si>
+  <si>
+    <t>Why does "i" have to go outside of the while loop?</t>
+  </si>
+  <si>
+    <t>It would create an infinite loop if you put it inside of the while loop.</t>
+  </si>
+  <si>
+    <t>Does it matter wheather you put the &lt;meta&gt; above or below the Title in HTML?</t>
+  </si>
+  <si>
+    <t>No, it doesn't matter.</t>
   </si>
 </sst>
 </file>
@@ -6766,136 +6799,170 @@
     <xf numFmtId="0" fontId="19" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="41" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="5" borderId="34" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="23" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="5" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="5" borderId="23" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="5" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="32" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="34" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="5" borderId="31" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="32" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="5" borderId="32" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="31" xfId="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="5" xfId="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="32" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="23" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="4" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="4" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="4" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="5" borderId="34" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="23" xfId="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="5" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="5" borderId="23" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="5" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="32" xfId="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="34" xfId="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="5" borderId="31" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="23" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="5" borderId="1" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="32" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="37" xfId="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="35" xfId="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="5" borderId="32" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="38" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="37" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="5" borderId="32" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -6907,64 +6974,31 @@
     <xf numFmtId="0" fontId="7" fillId="2" borderId="23" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="23" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="36" xfId="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="31" xfId="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="5" borderId="36" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="5" xfId="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="5" borderId="37" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="32" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="5" borderId="37" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="37" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="23" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="5" borderId="1" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="35" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="37" xfId="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="35" xfId="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="38" xfId="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="37" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="38" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="14" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="14" fillId="0" borderId="35" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="36" xfId="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="5" borderId="36" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="5" borderId="37" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="5" borderId="37" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="37" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="35" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="38" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="14" fillId="0" borderId="32" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -7046,7 +7080,6 @@
     <xf numFmtId="0" fontId="8" fillId="0" borderId="44" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="41" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="3">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -7325,13 +7358,13 @@
     <xdr:from>
       <xdr:col>0</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>129</xdr:row>
+      <xdr:row>147</xdr:row>
       <xdr:rowOff>85725</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>9</xdr:col>
       <xdr:colOff>517139</xdr:colOff>
-      <xdr:row>146</xdr:row>
+      <xdr:row>164</xdr:row>
       <xdr:rowOff>171450</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -7380,13 +7413,13 @@
     <xdr:from>
       <xdr:col>0</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>164</xdr:row>
+      <xdr:row>182</xdr:row>
       <xdr:rowOff>9525</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>6</xdr:col>
       <xdr:colOff>354393</xdr:colOff>
-      <xdr:row>175</xdr:row>
+      <xdr:row>193</xdr:row>
       <xdr:rowOff>57150</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -7435,13 +7468,13 @@
     <xdr:from>
       <xdr:col>0</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>194</xdr:row>
+      <xdr:row>211</xdr:row>
       <xdr:rowOff>9526</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>7</xdr:col>
       <xdr:colOff>19050</xdr:colOff>
-      <xdr:row>206</xdr:row>
+      <xdr:row>223</xdr:row>
       <xdr:rowOff>4782</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -7490,13 +7523,13 @@
     <xdr:from>
       <xdr:col>0</xdr:col>
       <xdr:colOff>9525</xdr:colOff>
-      <xdr:row>210</xdr:row>
+      <xdr:row>227</xdr:row>
       <xdr:rowOff>1</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>7</xdr:col>
       <xdr:colOff>9525</xdr:colOff>
-      <xdr:row>222</xdr:row>
+      <xdr:row>239</xdr:row>
       <xdr:rowOff>51793</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -7545,13 +7578,13 @@
     <xdr:from>
       <xdr:col>0</xdr:col>
       <xdr:colOff>9525</xdr:colOff>
-      <xdr:row>233</xdr:row>
+      <xdr:row>250</xdr:row>
       <xdr:rowOff>9526</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>6</xdr:col>
       <xdr:colOff>7448</xdr:colOff>
-      <xdr:row>244</xdr:row>
+      <xdr:row>261</xdr:row>
       <xdr:rowOff>9526</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -7600,13 +7633,13 @@
     <xdr:from>
       <xdr:col>0</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>256</xdr:row>
+      <xdr:row>273</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>7</xdr:col>
       <xdr:colOff>28707</xdr:colOff>
-      <xdr:row>263</xdr:row>
+      <xdr:row>280</xdr:row>
       <xdr:rowOff>180975</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -7655,13 +7688,13 @@
     <xdr:from>
       <xdr:col>0</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>106</xdr:row>
+      <xdr:row>112</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>6</xdr:col>
       <xdr:colOff>502024</xdr:colOff>
-      <xdr:row>119</xdr:row>
+      <xdr:row>125</xdr:row>
       <xdr:rowOff>9525</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -7974,8 +8007,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:M64"/>
   <sheetViews>
-    <sheetView topLeftCell="A43" workbookViewId="0">
-      <selection activeCell="E9" sqref="E9:E10"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="H11" sqref="H11:H12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -8010,21 +8043,21 @@
       <c r="H1" s="35" t="s">
         <v>193</v>
       </c>
-      <c r="I1" s="181" t="s">
+      <c r="I1" s="170" t="s">
         <v>7</v>
       </c>
-      <c r="J1" s="182"/>
-      <c r="K1" s="183"/>
-      <c r="L1" s="244" t="s">
+      <c r="J1" s="171"/>
+      <c r="K1" s="172"/>
+      <c r="L1" s="245" t="s">
         <v>8</v>
       </c>
-      <c r="M1" s="245"/>
+      <c r="M1" s="246"/>
     </row>
     <row r="2" spans="1:13" ht="15.75" customHeight="1">
-      <c r="A2" s="172">
+      <c r="A2" s="198">
         <v>1</v>
       </c>
-      <c r="B2" s="174" t="s">
+      <c r="B2" s="193" t="s">
         <v>9</v>
       </c>
       <c r="C2" s="8" t="s">
@@ -8033,145 +8066,145 @@
       <c r="D2" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="E2" s="217" t="s">
+      <c r="E2" s="199" t="s">
         <v>12</v>
       </c>
-      <c r="F2" s="219"/>
-      <c r="G2" s="189"/>
-      <c r="H2" s="189"/>
-      <c r="I2" s="189" t="s">
+      <c r="F2" s="201"/>
+      <c r="G2" s="178"/>
+      <c r="H2" s="178"/>
+      <c r="I2" s="178" t="s">
         <v>10</v>
       </c>
-      <c r="J2" s="189" t="s">
+      <c r="J2" s="178" t="s">
         <v>14</v>
       </c>
-      <c r="K2" s="189" t="s">
+      <c r="K2" s="178" t="s">
         <v>15</v>
       </c>
-      <c r="L2" s="238" t="s">
+      <c r="L2" s="239" t="s">
         <v>16</v>
       </c>
-      <c r="M2" s="238" t="s">
+      <c r="M2" s="239" t="s">
         <v>343</v>
       </c>
     </row>
     <row r="3" spans="1:13" ht="15.75" customHeight="1">
-      <c r="A3" s="171"/>
-      <c r="B3" s="175"/>
+      <c r="A3" s="186"/>
+      <c r="B3" s="194"/>
       <c r="C3" s="32" t="s">
         <v>17</v>
       </c>
       <c r="D3" s="4" t="s">
         <v>18</v>
       </c>
-      <c r="E3" s="191"/>
-      <c r="F3" s="216"/>
-      <c r="G3" s="185"/>
-      <c r="H3" s="185"/>
-      <c r="I3" s="185"/>
-      <c r="J3" s="185"/>
-      <c r="K3" s="185"/>
-      <c r="L3" s="224"/>
-      <c r="M3" s="224"/>
+      <c r="E3" s="180"/>
+      <c r="F3" s="202"/>
+      <c r="G3" s="174"/>
+      <c r="H3" s="174"/>
+      <c r="I3" s="174"/>
+      <c r="J3" s="174"/>
+      <c r="K3" s="174"/>
+      <c r="L3" s="222"/>
+      <c r="M3" s="222"/>
     </row>
     <row r="4" spans="1:13" ht="15.75" customHeight="1">
-      <c r="A4" s="171"/>
-      <c r="B4" s="175"/>
+      <c r="A4" s="186"/>
+      <c r="B4" s="194"/>
       <c r="C4" s="32" t="s">
         <v>19</v>
       </c>
       <c r="D4" s="4" t="s">
         <v>20</v>
       </c>
-      <c r="E4" s="191"/>
-      <c r="F4" s="216"/>
-      <c r="G4" s="185"/>
-      <c r="H4" s="185"/>
-      <c r="I4" s="185"/>
-      <c r="J4" s="185"/>
-      <c r="K4" s="185"/>
-      <c r="L4" s="224"/>
-      <c r="M4" s="224"/>
+      <c r="E4" s="180"/>
+      <c r="F4" s="202"/>
+      <c r="G4" s="174"/>
+      <c r="H4" s="174"/>
+      <c r="I4" s="174"/>
+      <c r="J4" s="174"/>
+      <c r="K4" s="174"/>
+      <c r="L4" s="222"/>
+      <c r="M4" s="222"/>
     </row>
     <row r="5" spans="1:13" ht="15.75" customHeight="1">
-      <c r="A5" s="171"/>
-      <c r="B5" s="175"/>
+      <c r="A5" s="186"/>
+      <c r="B5" s="194"/>
       <c r="C5" s="32" t="s">
         <v>21</v>
       </c>
       <c r="D5" s="4"/>
-      <c r="E5" s="191"/>
-      <c r="F5" s="216"/>
-      <c r="G5" s="185"/>
-      <c r="H5" s="185"/>
-      <c r="I5" s="185"/>
-      <c r="J5" s="185"/>
-      <c r="K5" s="185"/>
-      <c r="L5" s="224"/>
-      <c r="M5" s="224"/>
+      <c r="E5" s="180"/>
+      <c r="F5" s="202"/>
+      <c r="G5" s="174"/>
+      <c r="H5" s="174"/>
+      <c r="I5" s="174"/>
+      <c r="J5" s="174"/>
+      <c r="K5" s="174"/>
+      <c r="L5" s="222"/>
+      <c r="M5" s="222"/>
     </row>
     <row r="6" spans="1:13" ht="15.75" customHeight="1">
-      <c r="A6" s="171"/>
-      <c r="B6" s="175"/>
+      <c r="A6" s="186"/>
+      <c r="B6" s="194"/>
       <c r="C6" s="32" t="s">
         <v>14</v>
       </c>
       <c r="D6" s="4" t="s">
         <v>22</v>
       </c>
-      <c r="E6" s="191"/>
-      <c r="F6" s="216"/>
-      <c r="G6" s="185"/>
-      <c r="H6" s="185"/>
-      <c r="I6" s="185"/>
-      <c r="J6" s="185"/>
-      <c r="K6" s="185"/>
-      <c r="L6" s="224"/>
-      <c r="M6" s="224"/>
+      <c r="E6" s="180"/>
+      <c r="F6" s="202"/>
+      <c r="G6" s="174"/>
+      <c r="H6" s="174"/>
+      <c r="I6" s="174"/>
+      <c r="J6" s="174"/>
+      <c r="K6" s="174"/>
+      <c r="L6" s="222"/>
+      <c r="M6" s="222"/>
     </row>
     <row r="7" spans="1:13" ht="15.75" customHeight="1">
-      <c r="A7" s="171"/>
-      <c r="B7" s="175"/>
+      <c r="A7" s="186"/>
+      <c r="B7" s="194"/>
       <c r="C7" s="32" t="s">
         <v>15</v>
       </c>
       <c r="D7" s="4" t="s">
         <v>20</v>
       </c>
-      <c r="E7" s="191"/>
-      <c r="F7" s="216"/>
-      <c r="G7" s="185"/>
-      <c r="H7" s="185"/>
-      <c r="I7" s="185"/>
-      <c r="J7" s="185"/>
-      <c r="K7" s="185"/>
-      <c r="L7" s="224"/>
-      <c r="M7" s="224"/>
+      <c r="E7" s="180"/>
+      <c r="F7" s="202"/>
+      <c r="G7" s="174"/>
+      <c r="H7" s="174"/>
+      <c r="I7" s="174"/>
+      <c r="J7" s="174"/>
+      <c r="K7" s="174"/>
+      <c r="L7" s="222"/>
+      <c r="M7" s="222"/>
     </row>
     <row r="8" spans="1:13" ht="15.75" customHeight="1" thickBot="1">
-      <c r="A8" s="173"/>
-      <c r="B8" s="176"/>
+      <c r="A8" s="187"/>
+      <c r="B8" s="195"/>
       <c r="C8" s="9" t="s">
         <v>23</v>
       </c>
       <c r="D8" s="5" t="s">
         <v>24</v>
       </c>
-      <c r="E8" s="218"/>
-      <c r="F8" s="220"/>
-      <c r="G8" s="190"/>
-      <c r="H8" s="190"/>
-      <c r="I8" s="190"/>
-      <c r="J8" s="190"/>
-      <c r="K8" s="190"/>
-      <c r="L8" s="247"/>
-      <c r="M8" s="247"/>
+      <c r="E8" s="200"/>
+      <c r="F8" s="203"/>
+      <c r="G8" s="179"/>
+      <c r="H8" s="179"/>
+      <c r="I8" s="179"/>
+      <c r="J8" s="179"/>
+      <c r="K8" s="179"/>
+      <c r="L8" s="248"/>
+      <c r="M8" s="248"/>
     </row>
     <row r="9" spans="1:13" ht="15.75" customHeight="1">
-      <c r="A9" s="178">
+      <c r="A9" s="216">
         <v>2</v>
       </c>
-      <c r="B9" s="174" t="s">
+      <c r="B9" s="193" t="s">
         <v>25</v>
       </c>
       <c r="C9" s="10" t="s">
@@ -8180,864 +8213,864 @@
       <c r="D9" s="3" t="s">
         <v>288</v>
       </c>
-      <c r="E9" s="209"/>
-      <c r="F9" s="210" t="s">
+      <c r="E9" s="181"/>
+      <c r="F9" s="182" t="s">
         <v>192</v>
       </c>
-      <c r="G9" s="212" t="s">
+      <c r="G9" s="184" t="s">
         <v>13</v>
       </c>
-      <c r="H9" s="213"/>
-      <c r="I9" s="214" t="s">
+      <c r="H9" s="225"/>
+      <c r="I9" s="226" t="s">
         <v>184</v>
       </c>
-      <c r="J9" s="210" t="s">
+      <c r="J9" s="182" t="s">
         <v>194</v>
       </c>
-      <c r="K9" s="210" t="s">
+      <c r="K9" s="182" t="s">
         <v>195</v>
       </c>
-      <c r="L9" s="212" t="s">
+      <c r="L9" s="184" t="s">
         <v>344</v>
       </c>
-      <c r="M9" s="248"/>
+      <c r="M9" s="249"/>
     </row>
     <row r="10" spans="1:13" ht="15.75" customHeight="1">
-      <c r="A10" s="179"/>
-      <c r="B10" s="175"/>
+      <c r="A10" s="214"/>
+      <c r="B10" s="194"/>
       <c r="C10" s="11" t="s">
         <v>26</v>
       </c>
       <c r="D10" s="4"/>
-      <c r="E10" s="184"/>
-      <c r="F10" s="211"/>
-      <c r="G10" s="187"/>
-      <c r="H10" s="188"/>
-      <c r="I10" s="215"/>
-      <c r="J10" s="211"/>
-      <c r="K10" s="211"/>
-      <c r="L10" s="222"/>
-      <c r="M10" s="249"/>
+      <c r="E10" s="173"/>
+      <c r="F10" s="183"/>
+      <c r="G10" s="176"/>
+      <c r="H10" s="177"/>
+      <c r="I10" s="227"/>
+      <c r="J10" s="183"/>
+      <c r="K10" s="183"/>
+      <c r="L10" s="220"/>
+      <c r="M10" s="250"/>
     </row>
     <row r="11" spans="1:13" ht="15.75" customHeight="1" thickBot="1">
-      <c r="A11" s="203">
+      <c r="A11" s="211">
         <v>3</v>
       </c>
-      <c r="B11" s="175"/>
+      <c r="B11" s="194"/>
       <c r="C11" s="11" t="s">
         <v>265</v>
       </c>
       <c r="D11" s="4"/>
-      <c r="E11" s="191"/>
-      <c r="F11" s="216"/>
-      <c r="G11" s="185"/>
-      <c r="H11" s="185" t="s">
+      <c r="E11" s="180"/>
+      <c r="F11" s="202"/>
+      <c r="G11" s="174"/>
+      <c r="H11" s="174" t="s">
         <v>198</v>
       </c>
-      <c r="I11" s="185" t="s">
+      <c r="I11" s="174" t="s">
         <v>196</v>
       </c>
-      <c r="J11" s="185"/>
-      <c r="K11" s="185"/>
-      <c r="L11" s="221" t="s">
+      <c r="J11" s="174"/>
+      <c r="K11" s="174"/>
+      <c r="L11" s="219" t="s">
         <v>345</v>
       </c>
-      <c r="M11" s="224"/>
+      <c r="M11" s="222"/>
     </row>
     <row r="12" spans="1:13" ht="15.75" customHeight="1">
-      <c r="A12" s="204"/>
-      <c r="B12" s="175"/>
+      <c r="A12" s="212"/>
+      <c r="B12" s="194"/>
       <c r="C12" s="11" t="s">
         <v>28</v>
       </c>
       <c r="D12" s="10"/>
-      <c r="E12" s="191"/>
-      <c r="F12" s="216"/>
-      <c r="G12" s="185"/>
-      <c r="H12" s="185"/>
-      <c r="I12" s="185"/>
-      <c r="J12" s="185"/>
-      <c r="K12" s="185"/>
-      <c r="L12" s="221"/>
-      <c r="M12" s="224"/>
+      <c r="E12" s="180"/>
+      <c r="F12" s="202"/>
+      <c r="G12" s="174"/>
+      <c r="H12" s="174"/>
+      <c r="I12" s="174"/>
+      <c r="J12" s="174"/>
+      <c r="K12" s="174"/>
+      <c r="L12" s="219"/>
+      <c r="M12" s="222"/>
     </row>
     <row r="13" spans="1:13" ht="15.75" customHeight="1">
-      <c r="A13" s="205">
+      <c r="A13" s="213">
         <v>4</v>
       </c>
-      <c r="B13" s="175"/>
+      <c r="B13" s="194"/>
       <c r="C13" s="11" t="s">
         <v>29</v>
       </c>
       <c r="D13" s="11"/>
-      <c r="E13" s="184"/>
-      <c r="F13" s="186" t="s">
+      <c r="E13" s="173"/>
+      <c r="F13" s="175" t="s">
         <v>36</v>
       </c>
-      <c r="G13" s="187" t="s">
+      <c r="G13" s="176" t="s">
         <v>33</v>
       </c>
-      <c r="H13" s="188"/>
-      <c r="I13" s="187" t="s">
+      <c r="H13" s="177"/>
+      <c r="I13" s="176" t="s">
         <v>346</v>
       </c>
-      <c r="J13" s="188"/>
-      <c r="K13" s="188"/>
-      <c r="L13" s="239"/>
-      <c r="M13" s="239"/>
+      <c r="J13" s="177"/>
+      <c r="K13" s="177"/>
+      <c r="L13" s="240"/>
+      <c r="M13" s="240"/>
     </row>
     <row r="14" spans="1:13" ht="15.75" customHeight="1">
-      <c r="A14" s="179"/>
-      <c r="B14" s="175"/>
+      <c r="A14" s="214"/>
+      <c r="B14" s="194"/>
       <c r="C14" s="32" t="s">
         <v>30</v>
       </c>
       <c r="D14" s="4"/>
-      <c r="E14" s="184"/>
-      <c r="F14" s="186"/>
-      <c r="G14" s="187"/>
-      <c r="H14" s="188"/>
-      <c r="I14" s="187"/>
-      <c r="J14" s="188"/>
-      <c r="K14" s="188"/>
-      <c r="L14" s="239"/>
-      <c r="M14" s="239"/>
+      <c r="E14" s="173"/>
+      <c r="F14" s="175"/>
+      <c r="G14" s="176"/>
+      <c r="H14" s="177"/>
+      <c r="I14" s="176"/>
+      <c r="J14" s="177"/>
+      <c r="K14" s="177"/>
+      <c r="L14" s="240"/>
+      <c r="M14" s="240"/>
     </row>
     <row r="15" spans="1:13" ht="15.75" customHeight="1">
-      <c r="A15" s="203">
+      <c r="A15" s="211">
         <v>5</v>
       </c>
-      <c r="B15" s="175"/>
-      <c r="C15" s="207" t="s">
+      <c r="B15" s="194"/>
+      <c r="C15" s="217" t="s">
         <v>31</v>
       </c>
       <c r="D15" s="4"/>
-      <c r="E15" s="191" t="s">
+      <c r="E15" s="180" t="s">
         <v>27</v>
       </c>
-      <c r="F15" s="216"/>
-      <c r="G15" s="185"/>
-      <c r="H15" s="185"/>
-      <c r="I15" s="185"/>
-      <c r="J15" s="185"/>
-      <c r="K15" s="185"/>
-      <c r="L15" s="224"/>
-      <c r="M15" s="224"/>
+      <c r="F15" s="202"/>
+      <c r="G15" s="174"/>
+      <c r="H15" s="174"/>
+      <c r="I15" s="174"/>
+      <c r="J15" s="174"/>
+      <c r="K15" s="174"/>
+      <c r="L15" s="222"/>
+      <c r="M15" s="222"/>
     </row>
     <row r="16" spans="1:13" ht="15.75" customHeight="1" thickBot="1">
-      <c r="A16" s="206"/>
-      <c r="B16" s="177"/>
-      <c r="C16" s="208"/>
+      <c r="A16" s="215"/>
+      <c r="B16" s="204"/>
+      <c r="C16" s="218"/>
       <c r="D16" s="5"/>
-      <c r="E16" s="229"/>
-      <c r="F16" s="226"/>
-      <c r="G16" s="223"/>
-      <c r="H16" s="223"/>
-      <c r="I16" s="223"/>
-      <c r="J16" s="223"/>
-      <c r="K16" s="223"/>
-      <c r="L16" s="225"/>
-      <c r="M16" s="225"/>
+      <c r="E16" s="228"/>
+      <c r="F16" s="224"/>
+      <c r="G16" s="221"/>
+      <c r="H16" s="221"/>
+      <c r="I16" s="221"/>
+      <c r="J16" s="221"/>
+      <c r="K16" s="221"/>
+      <c r="L16" s="223"/>
+      <c r="M16" s="223"/>
     </row>
     <row r="17" spans="1:13" ht="15.75" customHeight="1">
-      <c r="A17" s="169">
+      <c r="A17" s="196">
         <v>6</v>
       </c>
-      <c r="B17" s="174" t="s">
+      <c r="B17" s="193" t="s">
         <v>34</v>
       </c>
       <c r="C17" s="10" t="s">
         <v>35</v>
       </c>
       <c r="D17" s="3"/>
-      <c r="E17" s="209"/>
-      <c r="F17" s="213"/>
-      <c r="G17" s="213"/>
-      <c r="H17" s="210" t="s">
+      <c r="E17" s="181"/>
+      <c r="F17" s="225"/>
+      <c r="G17" s="225"/>
+      <c r="H17" s="182" t="s">
         <v>27</v>
       </c>
-      <c r="I17" s="210"/>
-      <c r="J17" s="210"/>
-      <c r="K17" s="210"/>
-      <c r="L17" s="246"/>
-      <c r="M17" s="246"/>
+      <c r="I17" s="182"/>
+      <c r="J17" s="182"/>
+      <c r="K17" s="182"/>
+      <c r="L17" s="247"/>
+      <c r="M17" s="247"/>
     </row>
     <row r="18" spans="1:13" ht="15.75" customHeight="1">
-      <c r="A18" s="170"/>
-      <c r="B18" s="175"/>
+      <c r="A18" s="185"/>
+      <c r="B18" s="194"/>
       <c r="C18" s="11" t="s">
         <v>37</v>
       </c>
       <c r="D18" s="4"/>
-      <c r="E18" s="184"/>
-      <c r="F18" s="188"/>
-      <c r="G18" s="188"/>
-      <c r="H18" s="211"/>
-      <c r="I18" s="211"/>
-      <c r="J18" s="211"/>
-      <c r="K18" s="211"/>
-      <c r="L18" s="234"/>
-      <c r="M18" s="234"/>
+      <c r="E18" s="173"/>
+      <c r="F18" s="177"/>
+      <c r="G18" s="177"/>
+      <c r="H18" s="183"/>
+      <c r="I18" s="183"/>
+      <c r="J18" s="183"/>
+      <c r="K18" s="183"/>
+      <c r="L18" s="233"/>
+      <c r="M18" s="233"/>
     </row>
     <row r="19" spans="1:13" ht="15.75" customHeight="1">
-      <c r="A19" s="170"/>
-      <c r="B19" s="175"/>
+      <c r="A19" s="185"/>
+      <c r="B19" s="194"/>
       <c r="C19" s="11" t="s">
         <v>38</v>
       </c>
       <c r="D19" s="4"/>
-      <c r="E19" s="184"/>
-      <c r="F19" s="188"/>
-      <c r="G19" s="188"/>
-      <c r="H19" s="211"/>
-      <c r="I19" s="211"/>
-      <c r="J19" s="211"/>
-      <c r="K19" s="211"/>
-      <c r="L19" s="234"/>
-      <c r="M19" s="234"/>
+      <c r="E19" s="173"/>
+      <c r="F19" s="177"/>
+      <c r="G19" s="177"/>
+      <c r="H19" s="183"/>
+      <c r="I19" s="183"/>
+      <c r="J19" s="183"/>
+      <c r="K19" s="183"/>
+      <c r="L19" s="233"/>
+      <c r="M19" s="233"/>
     </row>
     <row r="20" spans="1:13" ht="15.75" customHeight="1">
-      <c r="A20" s="171">
+      <c r="A20" s="186">
         <v>7</v>
       </c>
-      <c r="B20" s="175"/>
+      <c r="B20" s="194"/>
       <c r="C20" s="11" t="s">
         <v>39</v>
       </c>
       <c r="D20" s="4"/>
-      <c r="E20" s="191" t="s">
+      <c r="E20" s="180" t="s">
         <v>32</v>
       </c>
-      <c r="F20" s="227" t="s">
+      <c r="F20" s="235" t="s">
         <v>44</v>
       </c>
-      <c r="G20" s="227"/>
-      <c r="H20" s="227"/>
-      <c r="I20" s="227"/>
-      <c r="J20" s="227"/>
-      <c r="K20" s="227"/>
-      <c r="L20" s="228"/>
-      <c r="M20" s="228"/>
+      <c r="G20" s="235"/>
+      <c r="H20" s="235"/>
+      <c r="I20" s="235"/>
+      <c r="J20" s="235"/>
+      <c r="K20" s="235"/>
+      <c r="L20" s="236"/>
+      <c r="M20" s="236"/>
     </row>
     <row r="21" spans="1:13" ht="15.75" customHeight="1">
-      <c r="A21" s="171"/>
-      <c r="B21" s="175"/>
+      <c r="A21" s="186"/>
+      <c r="B21" s="194"/>
       <c r="C21" s="11" t="s">
         <v>41</v>
       </c>
       <c r="D21" s="4"/>
-      <c r="E21" s="191"/>
-      <c r="F21" s="227"/>
-      <c r="G21" s="227"/>
-      <c r="H21" s="227"/>
-      <c r="I21" s="227"/>
-      <c r="J21" s="227"/>
-      <c r="K21" s="227"/>
-      <c r="L21" s="228"/>
-      <c r="M21" s="228"/>
+      <c r="E21" s="180"/>
+      <c r="F21" s="235"/>
+      <c r="G21" s="235"/>
+      <c r="H21" s="235"/>
+      <c r="I21" s="235"/>
+      <c r="J21" s="235"/>
+      <c r="K21" s="235"/>
+      <c r="L21" s="236"/>
+      <c r="M21" s="236"/>
     </row>
     <row r="22" spans="1:13" ht="15.75" customHeight="1">
-      <c r="A22" s="171"/>
-      <c r="B22" s="175"/>
+      <c r="A22" s="186"/>
+      <c r="B22" s="194"/>
       <c r="C22" s="32" t="s">
         <v>42</v>
       </c>
       <c r="D22" s="4"/>
-      <c r="E22" s="191"/>
-      <c r="F22" s="227"/>
-      <c r="G22" s="227"/>
-      <c r="H22" s="227"/>
-      <c r="I22" s="227"/>
-      <c r="J22" s="227"/>
-      <c r="K22" s="227"/>
-      <c r="L22" s="228"/>
-      <c r="M22" s="228"/>
+      <c r="E22" s="180"/>
+      <c r="F22" s="235"/>
+      <c r="G22" s="235"/>
+      <c r="H22" s="235"/>
+      <c r="I22" s="235"/>
+      <c r="J22" s="235"/>
+      <c r="K22" s="235"/>
+      <c r="L22" s="236"/>
+      <c r="M22" s="236"/>
     </row>
     <row r="23" spans="1:13" ht="15.75" customHeight="1">
-      <c r="A23" s="170">
+      <c r="A23" s="185">
         <v>8</v>
       </c>
-      <c r="B23" s="175"/>
+      <c r="B23" s="194"/>
       <c r="C23" s="32" t="s">
         <v>43</v>
       </c>
       <c r="D23" s="4"/>
-      <c r="E23" s="184"/>
-      <c r="F23" s="188"/>
-      <c r="G23" s="187" t="s">
+      <c r="E23" s="173"/>
+      <c r="F23" s="177"/>
+      <c r="G23" s="176" t="s">
         <v>50</v>
       </c>
-      <c r="H23" s="211" t="s">
+      <c r="H23" s="183" t="s">
         <v>32</v>
       </c>
-      <c r="I23" s="211"/>
-      <c r="J23" s="211"/>
-      <c r="K23" s="211"/>
-      <c r="L23" s="234"/>
-      <c r="M23" s="234"/>
+      <c r="I23" s="183"/>
+      <c r="J23" s="183"/>
+      <c r="K23" s="183"/>
+      <c r="L23" s="233"/>
+      <c r="M23" s="233"/>
     </row>
     <row r="24" spans="1:13" ht="15.75" customHeight="1">
-      <c r="A24" s="170"/>
-      <c r="B24" s="175"/>
+      <c r="A24" s="185"/>
+      <c r="B24" s="194"/>
       <c r="C24" s="32" t="s">
         <v>45</v>
       </c>
       <c r="D24" s="4"/>
-      <c r="E24" s="184"/>
-      <c r="F24" s="188"/>
-      <c r="G24" s="187"/>
-      <c r="H24" s="211"/>
-      <c r="I24" s="211"/>
-      <c r="J24" s="211"/>
-      <c r="K24" s="211"/>
-      <c r="L24" s="234"/>
-      <c r="M24" s="234"/>
+      <c r="E24" s="173"/>
+      <c r="F24" s="177"/>
+      <c r="G24" s="176"/>
+      <c r="H24" s="183"/>
+      <c r="I24" s="183"/>
+      <c r="J24" s="183"/>
+      <c r="K24" s="183"/>
+      <c r="L24" s="233"/>
+      <c r="M24" s="233"/>
     </row>
     <row r="25" spans="1:13" ht="15.75" customHeight="1" thickBot="1">
-      <c r="A25" s="180"/>
-      <c r="B25" s="177"/>
+      <c r="A25" s="207"/>
+      <c r="B25" s="204"/>
       <c r="C25" s="33" t="s">
         <v>46</v>
       </c>
       <c r="D25" s="5"/>
-      <c r="E25" s="230"/>
-      <c r="F25" s="231"/>
-      <c r="G25" s="232"/>
-      <c r="H25" s="233"/>
-      <c r="I25" s="233"/>
-      <c r="J25" s="233"/>
-      <c r="K25" s="233"/>
-      <c r="L25" s="235"/>
-      <c r="M25" s="235"/>
+      <c r="E25" s="229"/>
+      <c r="F25" s="230"/>
+      <c r="G25" s="231"/>
+      <c r="H25" s="232"/>
+      <c r="I25" s="232"/>
+      <c r="J25" s="232"/>
+      <c r="K25" s="232"/>
+      <c r="L25" s="234"/>
+      <c r="M25" s="234"/>
     </row>
     <row r="26" spans="1:13" ht="15.75" customHeight="1">
-      <c r="A26" s="198">
+      <c r="A26" s="205">
         <v>9</v>
       </c>
-      <c r="B26" s="174" t="s">
+      <c r="B26" s="193" t="s">
         <v>47</v>
       </c>
       <c r="C26" s="12" t="s">
         <v>48</v>
       </c>
       <c r="D26" s="3"/>
-      <c r="E26" s="217" t="s">
+      <c r="E26" s="199" t="s">
         <v>40</v>
       </c>
-      <c r="F26" s="236" t="s">
+      <c r="F26" s="237" t="s">
         <v>53</v>
       </c>
-      <c r="G26" s="236"/>
-      <c r="H26" s="236"/>
-      <c r="I26" s="236"/>
-      <c r="J26" s="236"/>
-      <c r="K26" s="236"/>
-      <c r="L26" s="237"/>
-      <c r="M26" s="237"/>
+      <c r="G26" s="237"/>
+      <c r="H26" s="237"/>
+      <c r="I26" s="237"/>
+      <c r="J26" s="237"/>
+      <c r="K26" s="237"/>
+      <c r="L26" s="238"/>
+      <c r="M26" s="238"/>
     </row>
     <row r="27" spans="1:13" ht="15.75" customHeight="1">
-      <c r="A27" s="199"/>
-      <c r="B27" s="175"/>
+      <c r="A27" s="206"/>
+      <c r="B27" s="194"/>
       <c r="C27" s="13" t="s">
         <v>51</v>
       </c>
       <c r="D27" s="4"/>
-      <c r="E27" s="191"/>
-      <c r="F27" s="227"/>
-      <c r="G27" s="227"/>
-      <c r="H27" s="227"/>
-      <c r="I27" s="227"/>
-      <c r="J27" s="227"/>
-      <c r="K27" s="227"/>
-      <c r="L27" s="228"/>
-      <c r="M27" s="228"/>
+      <c r="E27" s="180"/>
+      <c r="F27" s="235"/>
+      <c r="G27" s="235"/>
+      <c r="H27" s="235"/>
+      <c r="I27" s="235"/>
+      <c r="J27" s="235"/>
+      <c r="K27" s="235"/>
+      <c r="L27" s="236"/>
+      <c r="M27" s="236"/>
     </row>
     <row r="28" spans="1:13" ht="15.75" customHeight="1">
-      <c r="A28" s="180">
+      <c r="A28" s="207">
         <v>10</v>
       </c>
-      <c r="B28" s="175"/>
+      <c r="B28" s="194"/>
       <c r="C28" s="13" t="s">
         <v>52</v>
       </c>
       <c r="D28" s="4"/>
-      <c r="E28" s="184"/>
-      <c r="F28" s="211" t="s">
+      <c r="E28" s="173"/>
+      <c r="F28" s="183" t="s">
         <v>59</v>
       </c>
-      <c r="G28" s="211"/>
-      <c r="H28" s="211" t="s">
+      <c r="G28" s="183"/>
+      <c r="H28" s="183" t="s">
         <v>40</v>
       </c>
-      <c r="I28" s="211"/>
-      <c r="J28" s="211"/>
-      <c r="K28" s="211"/>
-      <c r="L28" s="234"/>
-      <c r="M28" s="234"/>
+      <c r="I28" s="183"/>
+      <c r="J28" s="183"/>
+      <c r="K28" s="183"/>
+      <c r="L28" s="233"/>
+      <c r="M28" s="233"/>
     </row>
     <row r="29" spans="1:13" ht="15.75" customHeight="1">
-      <c r="A29" s="200"/>
-      <c r="B29" s="175"/>
+      <c r="A29" s="208"/>
+      <c r="B29" s="194"/>
       <c r="C29" s="13" t="s">
         <v>54</v>
       </c>
       <c r="D29" s="4"/>
-      <c r="E29" s="184"/>
-      <c r="F29" s="211"/>
-      <c r="G29" s="211"/>
-      <c r="H29" s="211"/>
-      <c r="I29" s="211"/>
-      <c r="J29" s="211"/>
-      <c r="K29" s="211"/>
-      <c r="L29" s="234"/>
-      <c r="M29" s="234"/>
+      <c r="E29" s="173"/>
+      <c r="F29" s="183"/>
+      <c r="G29" s="183"/>
+      <c r="H29" s="183"/>
+      <c r="I29" s="183"/>
+      <c r="J29" s="183"/>
+      <c r="K29" s="183"/>
+      <c r="L29" s="233"/>
+      <c r="M29" s="233"/>
     </row>
     <row r="30" spans="1:13" ht="15.75" customHeight="1">
-      <c r="A30" s="201">
+      <c r="A30" s="209">
         <v>11</v>
       </c>
-      <c r="B30" s="175"/>
+      <c r="B30" s="194"/>
       <c r="C30" s="13" t="s">
         <v>55</v>
       </c>
       <c r="D30" s="4"/>
-      <c r="E30" s="191" t="s">
+      <c r="E30" s="180" t="s">
         <v>49</v>
       </c>
-      <c r="F30" s="185"/>
-      <c r="G30" s="185"/>
-      <c r="H30" s="185"/>
-      <c r="I30" s="185"/>
-      <c r="J30" s="185"/>
-      <c r="K30" s="185"/>
-      <c r="L30" s="224"/>
-      <c r="M30" s="224"/>
+      <c r="F30" s="174"/>
+      <c r="G30" s="174"/>
+      <c r="H30" s="174"/>
+      <c r="I30" s="174"/>
+      <c r="J30" s="174"/>
+      <c r="K30" s="174"/>
+      <c r="L30" s="222"/>
+      <c r="M30" s="222"/>
     </row>
     <row r="31" spans="1:13" ht="15.75" customHeight="1">
-      <c r="A31" s="199"/>
-      <c r="B31" s="175"/>
+      <c r="A31" s="206"/>
+      <c r="B31" s="194"/>
       <c r="C31" s="14" t="s">
         <v>57</v>
       </c>
       <c r="D31" s="4"/>
-      <c r="E31" s="191"/>
-      <c r="F31" s="185"/>
-      <c r="G31" s="185"/>
-      <c r="H31" s="185"/>
-      <c r="I31" s="185"/>
-      <c r="J31" s="185"/>
-      <c r="K31" s="185"/>
-      <c r="L31" s="224"/>
-      <c r="M31" s="224"/>
+      <c r="E31" s="180"/>
+      <c r="F31" s="174"/>
+      <c r="G31" s="174"/>
+      <c r="H31" s="174"/>
+      <c r="I31" s="174"/>
+      <c r="J31" s="174"/>
+      <c r="K31" s="174"/>
+      <c r="L31" s="222"/>
+      <c r="M31" s="222"/>
     </row>
     <row r="32" spans="1:13" ht="15.75" customHeight="1">
-      <c r="A32" s="180">
+      <c r="A32" s="207">
         <v>12</v>
       </c>
-      <c r="B32" s="175"/>
+      <c r="B32" s="194"/>
       <c r="C32" s="14" t="s">
         <v>58</v>
       </c>
       <c r="D32" s="4"/>
-      <c r="E32" s="184"/>
-      <c r="F32" s="211" t="s">
+      <c r="E32" s="173"/>
+      <c r="F32" s="183" t="s">
         <v>67</v>
       </c>
-      <c r="G32" s="187" t="s">
+      <c r="G32" s="176" t="s">
         <v>64</v>
       </c>
-      <c r="H32" s="211" t="s">
+      <c r="H32" s="183" t="s">
         <v>49</v>
       </c>
-      <c r="I32" s="211"/>
-      <c r="J32" s="211"/>
-      <c r="K32" s="211"/>
-      <c r="L32" s="234"/>
-      <c r="M32" s="234"/>
+      <c r="I32" s="183"/>
+      <c r="J32" s="183"/>
+      <c r="K32" s="183"/>
+      <c r="L32" s="233"/>
+      <c r="M32" s="233"/>
     </row>
     <row r="33" spans="1:13" ht="15.75" customHeight="1" thickBot="1">
-      <c r="A33" s="202"/>
-      <c r="B33" s="177"/>
+      <c r="A33" s="210"/>
+      <c r="B33" s="204"/>
       <c r="C33" s="15" t="s">
         <v>60</v>
       </c>
       <c r="D33" s="5"/>
-      <c r="E33" s="230"/>
-      <c r="F33" s="233"/>
-      <c r="G33" s="232"/>
-      <c r="H33" s="233"/>
-      <c r="I33" s="233"/>
-      <c r="J33" s="233"/>
-      <c r="K33" s="233"/>
-      <c r="L33" s="235"/>
-      <c r="M33" s="235"/>
+      <c r="E33" s="229"/>
+      <c r="F33" s="232"/>
+      <c r="G33" s="231"/>
+      <c r="H33" s="232"/>
+      <c r="I33" s="232"/>
+      <c r="J33" s="232"/>
+      <c r="K33" s="232"/>
+      <c r="L33" s="234"/>
+      <c r="M33" s="234"/>
     </row>
     <row r="34" spans="1:13" ht="15.75" customHeight="1">
-      <c r="A34" s="172">
+      <c r="A34" s="198">
         <v>13</v>
       </c>
-      <c r="B34" s="174" t="s">
+      <c r="B34" s="193" t="s">
         <v>61</v>
       </c>
       <c r="C34" s="16" t="s">
         <v>62</v>
       </c>
       <c r="D34" s="3"/>
-      <c r="E34" s="217" t="s">
+      <c r="E34" s="199" t="s">
         <v>56</v>
       </c>
-      <c r="F34" s="189"/>
-      <c r="G34" s="189"/>
-      <c r="H34" s="189"/>
-      <c r="I34" s="189"/>
-      <c r="J34" s="189"/>
-      <c r="K34" s="189"/>
-      <c r="L34" s="238"/>
-      <c r="M34" s="238"/>
+      <c r="F34" s="178"/>
+      <c r="G34" s="178"/>
+      <c r="H34" s="178"/>
+      <c r="I34" s="178"/>
+      <c r="J34" s="178"/>
+      <c r="K34" s="178"/>
+      <c r="L34" s="239"/>
+      <c r="M34" s="239"/>
     </row>
     <row r="35" spans="1:13" ht="15.75" customHeight="1">
-      <c r="A35" s="171"/>
-      <c r="B35" s="175"/>
+      <c r="A35" s="186"/>
+      <c r="B35" s="194"/>
       <c r="C35" s="17" t="s">
         <v>65</v>
       </c>
       <c r="D35" s="4"/>
-      <c r="E35" s="191"/>
-      <c r="F35" s="185"/>
-      <c r="G35" s="185"/>
-      <c r="H35" s="185"/>
-      <c r="I35" s="185"/>
-      <c r="J35" s="185"/>
-      <c r="K35" s="185"/>
-      <c r="L35" s="224"/>
-      <c r="M35" s="224"/>
+      <c r="E35" s="180"/>
+      <c r="F35" s="174"/>
+      <c r="G35" s="174"/>
+      <c r="H35" s="174"/>
+      <c r="I35" s="174"/>
+      <c r="J35" s="174"/>
+      <c r="K35" s="174"/>
+      <c r="L35" s="222"/>
+      <c r="M35" s="222"/>
     </row>
     <row r="36" spans="1:13" ht="15.75" customHeight="1">
-      <c r="A36" s="170">
+      <c r="A36" s="185">
         <v>14</v>
       </c>
-      <c r="B36" s="175"/>
+      <c r="B36" s="194"/>
       <c r="C36" s="17" t="s">
         <v>66</v>
       </c>
       <c r="D36" s="4"/>
-      <c r="E36" s="184"/>
-      <c r="F36" s="188" t="s">
+      <c r="E36" s="173"/>
+      <c r="F36" s="177" t="s">
         <v>73</v>
       </c>
-      <c r="G36" s="188"/>
-      <c r="H36" s="188" t="s">
+      <c r="G36" s="177"/>
+      <c r="H36" s="177" t="s">
         <v>56</v>
       </c>
-      <c r="I36" s="188"/>
-      <c r="J36" s="188"/>
-      <c r="K36" s="188"/>
-      <c r="L36" s="239"/>
-      <c r="M36" s="239"/>
+      <c r="I36" s="177"/>
+      <c r="J36" s="177"/>
+      <c r="K36" s="177"/>
+      <c r="L36" s="240"/>
+      <c r="M36" s="240"/>
     </row>
     <row r="37" spans="1:13" ht="15.75" customHeight="1">
-      <c r="A37" s="170"/>
-      <c r="B37" s="175"/>
+      <c r="A37" s="185"/>
+      <c r="B37" s="194"/>
       <c r="C37" s="17" t="s">
         <v>68</v>
       </c>
       <c r="D37" s="4"/>
-      <c r="E37" s="184"/>
-      <c r="F37" s="188"/>
-      <c r="G37" s="188"/>
-      <c r="H37" s="188"/>
-      <c r="I37" s="188"/>
-      <c r="J37" s="188"/>
-      <c r="K37" s="188"/>
-      <c r="L37" s="239"/>
-      <c r="M37" s="239"/>
+      <c r="E37" s="173"/>
+      <c r="F37" s="177"/>
+      <c r="G37" s="177"/>
+      <c r="H37" s="177"/>
+      <c r="I37" s="177"/>
+      <c r="J37" s="177"/>
+      <c r="K37" s="177"/>
+      <c r="L37" s="240"/>
+      <c r="M37" s="240"/>
     </row>
     <row r="38" spans="1:13" ht="15.75" customHeight="1">
-      <c r="A38" s="171">
+      <c r="A38" s="186">
         <v>15</v>
       </c>
-      <c r="B38" s="175"/>
+      <c r="B38" s="194"/>
       <c r="C38" s="17" t="s">
         <v>69</v>
       </c>
       <c r="D38" s="4"/>
-      <c r="E38" s="191" t="s">
+      <c r="E38" s="180" t="s">
         <v>63</v>
       </c>
-      <c r="F38" s="185"/>
-      <c r="G38" s="185"/>
-      <c r="H38" s="185"/>
-      <c r="I38" s="185"/>
-      <c r="J38" s="185"/>
-      <c r="K38" s="185"/>
-      <c r="L38" s="224"/>
-      <c r="M38" s="224"/>
+      <c r="F38" s="174"/>
+      <c r="G38" s="174"/>
+      <c r="H38" s="174"/>
+      <c r="I38" s="174"/>
+      <c r="J38" s="174"/>
+      <c r="K38" s="174"/>
+      <c r="L38" s="222"/>
+      <c r="M38" s="222"/>
     </row>
     <row r="39" spans="1:13" ht="15.75" customHeight="1">
-      <c r="A39" s="171"/>
-      <c r="B39" s="175"/>
+      <c r="A39" s="186"/>
+      <c r="B39" s="194"/>
       <c r="C39" s="32" t="s">
         <v>71</v>
       </c>
       <c r="D39" s="4"/>
-      <c r="E39" s="191"/>
-      <c r="F39" s="185"/>
-      <c r="G39" s="185"/>
-      <c r="H39" s="185"/>
-      <c r="I39" s="185"/>
-      <c r="J39" s="185"/>
-      <c r="K39" s="185"/>
-      <c r="L39" s="224"/>
-      <c r="M39" s="224"/>
+      <c r="E39" s="180"/>
+      <c r="F39" s="174"/>
+      <c r="G39" s="174"/>
+      <c r="H39" s="174"/>
+      <c r="I39" s="174"/>
+      <c r="J39" s="174"/>
+      <c r="K39" s="174"/>
+      <c r="L39" s="222"/>
+      <c r="M39" s="222"/>
     </row>
     <row r="40" spans="1:13" ht="15.75" customHeight="1">
-      <c r="A40" s="170">
+      <c r="A40" s="185">
         <v>16</v>
       </c>
-      <c r="B40" s="175"/>
+      <c r="B40" s="194"/>
       <c r="C40" s="32" t="s">
         <v>72</v>
       </c>
       <c r="D40" s="4"/>
-      <c r="E40" s="184"/>
-      <c r="F40" s="211" t="s">
+      <c r="E40" s="173"/>
+      <c r="F40" s="183" t="s">
         <v>82</v>
       </c>
-      <c r="G40" s="187" t="s">
+      <c r="G40" s="176" t="s">
         <v>79</v>
       </c>
-      <c r="H40" s="188" t="s">
+      <c r="H40" s="177" t="s">
         <v>63</v>
       </c>
-      <c r="I40" s="188"/>
-      <c r="J40" s="188"/>
-      <c r="K40" s="188"/>
-      <c r="L40" s="239"/>
-      <c r="M40" s="239"/>
+      <c r="I40" s="177"/>
+      <c r="J40" s="177"/>
+      <c r="K40" s="177"/>
+      <c r="L40" s="240"/>
+      <c r="M40" s="240"/>
     </row>
     <row r="41" spans="1:13" ht="15.75" customHeight="1">
-      <c r="A41" s="170"/>
-      <c r="B41" s="175"/>
+      <c r="A41" s="185"/>
+      <c r="B41" s="194"/>
       <c r="C41" s="32" t="s">
         <v>74</v>
       </c>
       <c r="D41" s="4"/>
-      <c r="E41" s="184"/>
-      <c r="F41" s="211"/>
-      <c r="G41" s="187"/>
-      <c r="H41" s="188"/>
-      <c r="I41" s="188"/>
-      <c r="J41" s="188"/>
-      <c r="K41" s="188"/>
-      <c r="L41" s="239"/>
-      <c r="M41" s="239"/>
+      <c r="E41" s="173"/>
+      <c r="F41" s="183"/>
+      <c r="G41" s="176"/>
+      <c r="H41" s="177"/>
+      <c r="I41" s="177"/>
+      <c r="J41" s="177"/>
+      <c r="K41" s="177"/>
+      <c r="L41" s="240"/>
+      <c r="M41" s="240"/>
     </row>
     <row r="42" spans="1:13" ht="15.75" customHeight="1" thickBot="1">
       <c r="A42" s="197"/>
-      <c r="B42" s="176"/>
+      <c r="B42" s="195"/>
       <c r="C42" s="9" t="s">
         <v>75</v>
       </c>
       <c r="D42" s="5"/>
-      <c r="E42" s="230"/>
-      <c r="F42" s="233"/>
-      <c r="G42" s="232"/>
-      <c r="H42" s="231"/>
-      <c r="I42" s="231"/>
-      <c r="J42" s="231"/>
-      <c r="K42" s="231"/>
-      <c r="L42" s="240"/>
-      <c r="M42" s="240"/>
+      <c r="E42" s="229"/>
+      <c r="F42" s="232"/>
+      <c r="G42" s="231"/>
+      <c r="H42" s="230"/>
+      <c r="I42" s="230"/>
+      <c r="J42" s="230"/>
+      <c r="K42" s="230"/>
+      <c r="L42" s="241"/>
+      <c r="M42" s="241"/>
     </row>
     <row r="43" spans="1:13" ht="15.75" customHeight="1">
-      <c r="A43" s="172">
+      <c r="A43" s="198">
         <v>17</v>
       </c>
-      <c r="B43" s="192" t="s">
+      <c r="B43" s="188" t="s">
         <v>76</v>
       </c>
       <c r="C43" s="10" t="s">
         <v>77</v>
       </c>
       <c r="D43" s="3"/>
-      <c r="E43" s="217" t="s">
+      <c r="E43" s="199" t="s">
         <v>70</v>
       </c>
-      <c r="F43" s="189"/>
-      <c r="G43" s="189"/>
-      <c r="H43" s="189"/>
-      <c r="I43" s="189"/>
-      <c r="J43" s="189"/>
-      <c r="K43" s="189"/>
-      <c r="L43" s="238"/>
-      <c r="M43" s="238"/>
+      <c r="F43" s="178"/>
+      <c r="G43" s="178"/>
+      <c r="H43" s="178"/>
+      <c r="I43" s="178"/>
+      <c r="J43" s="178"/>
+      <c r="K43" s="178"/>
+      <c r="L43" s="239"/>
+      <c r="M43" s="239"/>
     </row>
     <row r="44" spans="1:13" ht="15.75" customHeight="1">
-      <c r="A44" s="171"/>
-      <c r="B44" s="193"/>
+      <c r="A44" s="186"/>
+      <c r="B44" s="189"/>
       <c r="C44" s="11" t="s">
         <v>80</v>
       </c>
       <c r="D44" s="4"/>
-      <c r="E44" s="191"/>
-      <c r="F44" s="185"/>
-      <c r="G44" s="185"/>
-      <c r="H44" s="185"/>
-      <c r="I44" s="185"/>
-      <c r="J44" s="185"/>
-      <c r="K44" s="185"/>
-      <c r="L44" s="224"/>
-      <c r="M44" s="224"/>
+      <c r="E44" s="180"/>
+      <c r="F44" s="174"/>
+      <c r="G44" s="174"/>
+      <c r="H44" s="174"/>
+      <c r="I44" s="174"/>
+      <c r="J44" s="174"/>
+      <c r="K44" s="174"/>
+      <c r="L44" s="222"/>
+      <c r="M44" s="222"/>
     </row>
     <row r="45" spans="1:13" ht="15.75" customHeight="1">
-      <c r="A45" s="170">
+      <c r="A45" s="185">
         <v>18</v>
       </c>
-      <c r="B45" s="193"/>
+      <c r="B45" s="189"/>
       <c r="C45" s="11" t="s">
         <v>81</v>
       </c>
       <c r="D45" s="4"/>
-      <c r="E45" s="184"/>
-      <c r="F45" s="211" t="s">
+      <c r="E45" s="173"/>
+      <c r="F45" s="183" t="s">
         <v>197</v>
       </c>
-      <c r="G45" s="188"/>
-      <c r="H45" s="211" t="s">
+      <c r="G45" s="177"/>
+      <c r="H45" s="183" t="s">
         <v>70</v>
       </c>
-      <c r="I45" s="211"/>
-      <c r="J45" s="211"/>
-      <c r="K45" s="211"/>
-      <c r="L45" s="234"/>
-      <c r="M45" s="234"/>
+      <c r="I45" s="183"/>
+      <c r="J45" s="183"/>
+      <c r="K45" s="183"/>
+      <c r="L45" s="233"/>
+      <c r="M45" s="233"/>
     </row>
     <row r="46" spans="1:13" ht="15.75" customHeight="1">
-      <c r="A46" s="170"/>
-      <c r="B46" s="193"/>
+      <c r="A46" s="185"/>
+      <c r="B46" s="189"/>
       <c r="C46" s="11" t="s">
         <v>83</v>
       </c>
       <c r="D46" s="4"/>
-      <c r="E46" s="184"/>
-      <c r="F46" s="211"/>
-      <c r="G46" s="188"/>
-      <c r="H46" s="211"/>
-      <c r="I46" s="211"/>
-      <c r="J46" s="211"/>
-      <c r="K46" s="211"/>
-      <c r="L46" s="234"/>
-      <c r="M46" s="234"/>
+      <c r="E46" s="173"/>
+      <c r="F46" s="183"/>
+      <c r="G46" s="177"/>
+      <c r="H46" s="183"/>
+      <c r="I46" s="183"/>
+      <c r="J46" s="183"/>
+      <c r="K46" s="183"/>
+      <c r="L46" s="233"/>
+      <c r="M46" s="233"/>
     </row>
     <row r="47" spans="1:13" ht="15.75" customHeight="1">
-      <c r="A47" s="171">
+      <c r="A47" s="186">
         <v>19</v>
       </c>
-      <c r="B47" s="193"/>
-      <c r="C47" s="195" t="s">
+      <c r="B47" s="189"/>
+      <c r="C47" s="191" t="s">
         <v>84</v>
       </c>
       <c r="D47" s="4"/>
-      <c r="E47" s="191" t="s">
+      <c r="E47" s="180" t="s">
         <v>78</v>
       </c>
-      <c r="F47" s="185"/>
-      <c r="G47" s="185"/>
-      <c r="H47" s="185"/>
-      <c r="I47" s="185"/>
-      <c r="J47" s="185"/>
-      <c r="K47" s="185"/>
-      <c r="L47" s="224"/>
-      <c r="M47" s="224"/>
+      <c r="F47" s="174"/>
+      <c r="G47" s="174"/>
+      <c r="H47" s="174"/>
+      <c r="I47" s="174"/>
+      <c r="J47" s="174"/>
+      <c r="K47" s="174"/>
+      <c r="L47" s="222"/>
+      <c r="M47" s="222"/>
     </row>
     <row r="48" spans="1:13" ht="15.75" customHeight="1" thickBot="1">
-      <c r="A48" s="173"/>
-      <c r="B48" s="194"/>
-      <c r="C48" s="196"/>
+      <c r="A48" s="187"/>
+      <c r="B48" s="190"/>
+      <c r="C48" s="192"/>
       <c r="D48" s="5"/>
-      <c r="E48" s="229"/>
-      <c r="F48" s="223"/>
-      <c r="G48" s="223"/>
-      <c r="H48" s="223"/>
-      <c r="I48" s="223"/>
-      <c r="J48" s="223"/>
-      <c r="K48" s="223"/>
-      <c r="L48" s="225"/>
-      <c r="M48" s="225"/>
+      <c r="E48" s="228"/>
+      <c r="F48" s="221"/>
+      <c r="G48" s="221"/>
+      <c r="H48" s="221"/>
+      <c r="I48" s="221"/>
+      <c r="J48" s="221"/>
+      <c r="K48" s="221"/>
+      <c r="L48" s="223"/>
+      <c r="M48" s="223"/>
     </row>
     <row r="49" spans="1:13" ht="15.75" customHeight="1">
-      <c r="A49" s="169">
+      <c r="A49" s="196">
         <v>20</v>
       </c>
-      <c r="B49" s="174" t="s">
+      <c r="B49" s="193" t="s">
         <v>85</v>
       </c>
       <c r="C49" s="10" t="s">
         <v>86</v>
       </c>
       <c r="D49" s="6"/>
-      <c r="E49" s="241"/>
-      <c r="F49" s="242"/>
-      <c r="G49" s="242"/>
-      <c r="H49" s="242" t="s">
+      <c r="E49" s="242"/>
+      <c r="F49" s="243"/>
+      <c r="G49" s="243"/>
+      <c r="H49" s="243" t="s">
         <v>78</v>
       </c>
-      <c r="I49" s="242"/>
-      <c r="J49" s="242"/>
-      <c r="K49" s="242"/>
-      <c r="L49" s="243"/>
-      <c r="M49" s="243"/>
+      <c r="I49" s="243"/>
+      <c r="J49" s="243"/>
+      <c r="K49" s="243"/>
+      <c r="L49" s="244"/>
+      <c r="M49" s="244"/>
     </row>
     <row r="50" spans="1:13" ht="15.75" customHeight="1">
-      <c r="A50" s="170"/>
-      <c r="B50" s="175"/>
+      <c r="A50" s="185"/>
+      <c r="B50" s="194"/>
       <c r="C50" s="11" t="s">
         <v>87</v>
       </c>
       <c r="D50" s="4"/>
-      <c r="E50" s="184"/>
-      <c r="F50" s="188"/>
-      <c r="G50" s="188"/>
-      <c r="H50" s="188"/>
-      <c r="I50" s="188"/>
-      <c r="J50" s="188"/>
-      <c r="K50" s="188"/>
-      <c r="L50" s="239"/>
-      <c r="M50" s="239"/>
+      <c r="E50" s="173"/>
+      <c r="F50" s="177"/>
+      <c r="G50" s="177"/>
+      <c r="H50" s="177"/>
+      <c r="I50" s="177"/>
+      <c r="J50" s="177"/>
+      <c r="K50" s="177"/>
+      <c r="L50" s="240"/>
+      <c r="M50" s="240"/>
     </row>
     <row r="51" spans="1:13" ht="15.75" customHeight="1">
-      <c r="A51" s="170"/>
-      <c r="B51" s="175"/>
+      <c r="A51" s="185"/>
+      <c r="B51" s="194"/>
       <c r="C51" s="11" t="s">
         <v>88</v>
       </c>
       <c r="D51" s="4"/>
-      <c r="E51" s="184"/>
-      <c r="F51" s="188"/>
-      <c r="G51" s="188"/>
-      <c r="H51" s="188"/>
-      <c r="I51" s="188"/>
-      <c r="J51" s="188"/>
-      <c r="K51" s="188"/>
-      <c r="L51" s="239"/>
-      <c r="M51" s="239"/>
+      <c r="E51" s="173"/>
+      <c r="F51" s="177"/>
+      <c r="G51" s="177"/>
+      <c r="H51" s="177"/>
+      <c r="I51" s="177"/>
+      <c r="J51" s="177"/>
+      <c r="K51" s="177"/>
+      <c r="L51" s="240"/>
+      <c r="M51" s="240"/>
     </row>
     <row r="52" spans="1:13" ht="15.75" customHeight="1" thickBot="1">
       <c r="A52" s="197"/>
-      <c r="B52" s="176"/>
+      <c r="B52" s="195"/>
       <c r="C52" s="18" t="s">
         <v>89</v>
       </c>
       <c r="D52" s="5"/>
-      <c r="E52" s="230"/>
-      <c r="F52" s="231"/>
-      <c r="G52" s="231"/>
-      <c r="H52" s="231"/>
-      <c r="I52" s="231"/>
-      <c r="J52" s="231"/>
-      <c r="K52" s="231"/>
-      <c r="L52" s="240"/>
-      <c r="M52" s="240"/>
+      <c r="E52" s="229"/>
+      <c r="F52" s="230"/>
+      <c r="G52" s="230"/>
+      <c r="H52" s="230"/>
+      <c r="I52" s="230"/>
+      <c r="J52" s="230"/>
+      <c r="K52" s="230"/>
+      <c r="L52" s="241"/>
+      <c r="M52" s="241"/>
     </row>
     <row r="55" spans="1:13" ht="15.75" thickBot="1"/>
     <row r="56" spans="1:13" ht="15.75" thickBot="1">
@@ -9228,13 +9261,6 @@
     <mergeCell ref="J28:J29"/>
     <mergeCell ref="K28:K29"/>
     <mergeCell ref="L28:L29"/>
-    <mergeCell ref="E23:E25"/>
-    <mergeCell ref="F23:F25"/>
-    <mergeCell ref="G23:G25"/>
-    <mergeCell ref="H23:H25"/>
-    <mergeCell ref="I23:I25"/>
-    <mergeCell ref="J23:J25"/>
-    <mergeCell ref="K23:K25"/>
     <mergeCell ref="L23:L25"/>
     <mergeCell ref="H20:H22"/>
     <mergeCell ref="F20:F22"/>
@@ -9244,8 +9270,6 @@
     <mergeCell ref="K20:K22"/>
     <mergeCell ref="L20:L22"/>
     <mergeCell ref="E20:E22"/>
-    <mergeCell ref="E15:E16"/>
-    <mergeCell ref="E17:E19"/>
     <mergeCell ref="F17:F19"/>
     <mergeCell ref="G17:G19"/>
     <mergeCell ref="H17:H19"/>
@@ -9254,6 +9278,20 @@
     <mergeCell ref="K17:K19"/>
     <mergeCell ref="J11:J12"/>
     <mergeCell ref="K11:K12"/>
+    <mergeCell ref="E23:E25"/>
+    <mergeCell ref="F23:F25"/>
+    <mergeCell ref="G23:G25"/>
+    <mergeCell ref="H23:H25"/>
+    <mergeCell ref="I23:I25"/>
+    <mergeCell ref="J23:J25"/>
+    <mergeCell ref="K23:K25"/>
+    <mergeCell ref="A2:A8"/>
+    <mergeCell ref="B2:B8"/>
+    <mergeCell ref="B9:B16"/>
+    <mergeCell ref="A9:A10"/>
+    <mergeCell ref="A23:A25"/>
+    <mergeCell ref="B17:B25"/>
+    <mergeCell ref="C15:C16"/>
     <mergeCell ref="L11:L12"/>
     <mergeCell ref="J9:J10"/>
     <mergeCell ref="K9:K10"/>
@@ -9269,12 +9307,8 @@
     <mergeCell ref="I9:I10"/>
     <mergeCell ref="F11:F12"/>
     <mergeCell ref="G11:G12"/>
-    <mergeCell ref="E2:E8"/>
-    <mergeCell ref="F2:F8"/>
-    <mergeCell ref="G2:G8"/>
-    <mergeCell ref="H2:H8"/>
-    <mergeCell ref="I2:I8"/>
-    <mergeCell ref="I11:I12"/>
+    <mergeCell ref="E15:E16"/>
+    <mergeCell ref="E17:E19"/>
     <mergeCell ref="B26:B33"/>
     <mergeCell ref="A26:A27"/>
     <mergeCell ref="A28:A29"/>
@@ -9283,6 +9317,8 @@
     <mergeCell ref="A11:A12"/>
     <mergeCell ref="A13:A14"/>
     <mergeCell ref="A15:A16"/>
+    <mergeCell ref="A17:A19"/>
+    <mergeCell ref="A20:A22"/>
     <mergeCell ref="A45:A46"/>
     <mergeCell ref="A47:A48"/>
     <mergeCell ref="B43:B48"/>
@@ -9295,14 +9331,6 @@
     <mergeCell ref="A40:A42"/>
     <mergeCell ref="B34:B42"/>
     <mergeCell ref="A43:A44"/>
-    <mergeCell ref="A17:A19"/>
-    <mergeCell ref="A20:A22"/>
-    <mergeCell ref="A2:A8"/>
-    <mergeCell ref="B2:B8"/>
-    <mergeCell ref="B9:B16"/>
-    <mergeCell ref="A9:A10"/>
-    <mergeCell ref="A23:A25"/>
-    <mergeCell ref="B17:B25"/>
     <mergeCell ref="I1:K1"/>
     <mergeCell ref="E13:E14"/>
     <mergeCell ref="H11:H12"/>
@@ -9315,10 +9343,15 @@
     <mergeCell ref="J2:J8"/>
     <mergeCell ref="K2:K8"/>
     <mergeCell ref="E11:E12"/>
-    <mergeCell ref="C15:C16"/>
     <mergeCell ref="E9:E10"/>
     <mergeCell ref="F9:F10"/>
     <mergeCell ref="G9:G10"/>
+    <mergeCell ref="E2:E8"/>
+    <mergeCell ref="F2:F8"/>
+    <mergeCell ref="G2:G8"/>
+    <mergeCell ref="H2:H8"/>
+    <mergeCell ref="I2:I8"/>
+    <mergeCell ref="I11:I12"/>
   </mergeCells>
   <hyperlinks>
     <hyperlink ref="E2" r:id="rId1" display="https://drive.google.com/open?id=1RYgFxmL-dmZYtjF2ca5a0yQUWnMVjo3mVexJabJL1c4"/>
@@ -9360,7 +9393,7 @@
   <dimension ref="A1:H1000"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E16" sqref="E16"/>
+      <selection activeCell="C26" sqref="A26:XFD26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15" customHeight="1"/>
@@ -9401,10 +9434,10 @@
       </c>
     </row>
     <row r="2" spans="1:8" ht="15.75">
-      <c r="A2" s="258" t="s">
+      <c r="A2" s="259" t="s">
         <v>309</v>
       </c>
-      <c r="B2" s="259">
+      <c r="B2" s="260">
         <v>1</v>
       </c>
       <c r="C2" s="104">
@@ -9421,8 +9454,8 @@
       <c r="H2" s="108"/>
     </row>
     <row r="3" spans="1:8" ht="15.75">
-      <c r="A3" s="251"/>
-      <c r="B3" s="254"/>
+      <c r="A3" s="252"/>
+      <c r="B3" s="255"/>
       <c r="C3" s="109">
         <v>43193</v>
       </c>
@@ -9437,8 +9470,8 @@
       <c r="H3" s="112"/>
     </row>
     <row r="4" spans="1:8" ht="15.75">
-      <c r="A4" s="251"/>
-      <c r="B4" s="254"/>
+      <c r="A4" s="252"/>
+      <c r="B4" s="255"/>
       <c r="C4" s="109">
         <v>43194</v>
       </c>
@@ -9453,8 +9486,8 @@
       <c r="H4" s="112"/>
     </row>
     <row r="5" spans="1:8" ht="15.75">
-      <c r="A5" s="251"/>
-      <c r="B5" s="254"/>
+      <c r="A5" s="252"/>
+      <c r="B5" s="255"/>
       <c r="C5" s="109">
         <v>43195</v>
       </c>
@@ -9469,8 +9502,8 @@
       <c r="H5" s="112"/>
     </row>
     <row r="6" spans="1:8" ht="16.5" thickBot="1">
-      <c r="A6" s="252"/>
-      <c r="B6" s="257"/>
+      <c r="A6" s="253"/>
+      <c r="B6" s="258"/>
       <c r="C6" s="113">
         <v>43196</v>
       </c>
@@ -9487,10 +9520,10 @@
       <c r="H6" s="116"/>
     </row>
     <row r="7" spans="1:8" ht="15.75">
-      <c r="A7" s="260" t="s">
+      <c r="A7" s="261" t="s">
         <v>184</v>
       </c>
-      <c r="B7" s="253">
+      <c r="B7" s="254">
         <v>2</v>
       </c>
       <c r="C7" s="117">
@@ -9507,8 +9540,8 @@
       <c r="H7" s="121"/>
     </row>
     <row r="8" spans="1:8" ht="15.75">
-      <c r="A8" s="251"/>
-      <c r="B8" s="254"/>
+      <c r="A8" s="252"/>
+      <c r="B8" s="255"/>
       <c r="C8" s="122">
         <v>43200</v>
       </c>
@@ -9523,8 +9556,8 @@
       <c r="H8" s="126"/>
     </row>
     <row r="9" spans="1:8" ht="15.75">
-      <c r="A9" s="251"/>
-      <c r="B9" s="254"/>
+      <c r="A9" s="252"/>
+      <c r="B9" s="255"/>
       <c r="C9" s="122">
         <v>43201</v>
       </c>
@@ -9539,8 +9572,8 @@
       <c r="H9" s="126"/>
     </row>
     <row r="10" spans="1:8" ht="15.75" customHeight="1">
-      <c r="A10" s="251"/>
-      <c r="B10" s="254"/>
+      <c r="A10" s="252"/>
+      <c r="B10" s="255"/>
       <c r="C10" s="122">
         <v>43202</v>
       </c>
@@ -9555,8 +9588,8 @@
       <c r="H10" s="126"/>
     </row>
     <row r="11" spans="1:8" ht="15.75">
-      <c r="A11" s="251"/>
-      <c r="B11" s="254"/>
+      <c r="A11" s="252"/>
+      <c r="B11" s="255"/>
       <c r="C11" s="122">
         <v>43203</v>
       </c>
@@ -9573,8 +9606,8 @@
       </c>
     </row>
     <row r="12" spans="1:8" ht="15.75">
-      <c r="A12" s="251"/>
-      <c r="B12" s="255">
+      <c r="A12" s="252"/>
+      <c r="B12" s="256">
         <v>3</v>
       </c>
       <c r="C12" s="109">
@@ -9591,8 +9624,8 @@
       <c r="H12" s="112"/>
     </row>
     <row r="13" spans="1:8" ht="15.75">
-      <c r="A13" s="251"/>
-      <c r="B13" s="254"/>
+      <c r="A13" s="252"/>
+      <c r="B13" s="255"/>
       <c r="C13" s="109">
         <v>43207</v>
       </c>
@@ -9607,8 +9640,8 @@
       <c r="H13" s="112"/>
     </row>
     <row r="14" spans="1:8" ht="15.75">
-      <c r="A14" s="251"/>
-      <c r="B14" s="254"/>
+      <c r="A14" s="252"/>
+      <c r="B14" s="255"/>
       <c r="C14" s="109">
         <v>43208</v>
       </c>
@@ -9623,8 +9656,8 @@
       <c r="H14" s="112"/>
     </row>
     <row r="15" spans="1:8" ht="15.75">
-      <c r="A15" s="251"/>
-      <c r="B15" s="254"/>
+      <c r="A15" s="252"/>
+      <c r="B15" s="255"/>
       <c r="C15" s="109">
         <v>43209</v>
       </c>
@@ -9639,8 +9672,8 @@
       <c r="H15" s="112"/>
     </row>
     <row r="16" spans="1:8" ht="15.75">
-      <c r="A16" s="251"/>
-      <c r="B16" s="254"/>
+      <c r="A16" s="252"/>
+      <c r="B16" s="255"/>
       <c r="C16" s="109">
         <v>43210</v>
       </c>
@@ -9657,8 +9690,8 @@
       <c r="H16" s="112"/>
     </row>
     <row r="17" spans="1:8" ht="15.75">
-      <c r="A17" s="251"/>
-      <c r="B17" s="256">
+      <c r="A17" s="252"/>
+      <c r="B17" s="257">
         <v>4</v>
       </c>
       <c r="C17" s="122">
@@ -9675,8 +9708,8 @@
       <c r="H17" s="126"/>
     </row>
     <row r="18" spans="1:8" ht="15.75">
-      <c r="A18" s="251"/>
-      <c r="B18" s="254"/>
+      <c r="A18" s="252"/>
+      <c r="B18" s="255"/>
       <c r="C18" s="122">
         <v>43214</v>
       </c>
@@ -9691,8 +9724,8 @@
       <c r="H18" s="126"/>
     </row>
     <row r="19" spans="1:8" ht="15.75">
-      <c r="A19" s="251"/>
-      <c r="B19" s="254"/>
+      <c r="A19" s="252"/>
+      <c r="B19" s="255"/>
       <c r="C19" s="122">
         <v>43215</v>
       </c>
@@ -9707,8 +9740,8 @@
       <c r="H19" s="126"/>
     </row>
     <row r="20" spans="1:8" ht="15.75">
-      <c r="A20" s="251"/>
-      <c r="B20" s="254"/>
+      <c r="A20" s="252"/>
+      <c r="B20" s="255"/>
       <c r="C20" s="122">
         <v>43216</v>
       </c>
@@ -9723,8 +9756,8 @@
       <c r="H20" s="126"/>
     </row>
     <row r="21" spans="1:8" ht="15.75">
-      <c r="A21" s="251"/>
-      <c r="B21" s="254"/>
+      <c r="A21" s="252"/>
+      <c r="B21" s="255"/>
       <c r="C21" s="122">
         <v>43217</v>
       </c>
@@ -9739,8 +9772,8 @@
       <c r="H21" s="126"/>
     </row>
     <row r="22" spans="1:8" ht="15.75">
-      <c r="A22" s="251"/>
-      <c r="B22" s="255">
+      <c r="A22" s="252"/>
+      <c r="B22" s="256">
         <v>5</v>
       </c>
       <c r="C22" s="109">
@@ -9757,8 +9790,8 @@
       <c r="H22" s="112"/>
     </row>
     <row r="23" spans="1:8" ht="15.75">
-      <c r="A23" s="251"/>
-      <c r="B23" s="254"/>
+      <c r="A23" s="252"/>
+      <c r="B23" s="255"/>
       <c r="C23" s="109">
         <v>43221</v>
       </c>
@@ -9773,8 +9806,8 @@
       <c r="H23" s="112"/>
     </row>
     <row r="24" spans="1:8" ht="15.75">
-      <c r="A24" s="251"/>
-      <c r="B24" s="254"/>
+      <c r="A24" s="252"/>
+      <c r="B24" s="255"/>
       <c r="C24" s="109">
         <v>43222</v>
       </c>
@@ -9789,8 +9822,8 @@
       <c r="H24" s="112"/>
     </row>
     <row r="25" spans="1:8" ht="15.75">
-      <c r="A25" s="251"/>
-      <c r="B25" s="254"/>
+      <c r="A25" s="252"/>
+      <c r="B25" s="255"/>
       <c r="C25" s="109">
         <v>43223</v>
       </c>
@@ -9805,8 +9838,8 @@
       <c r="H25" s="112"/>
     </row>
     <row r="26" spans="1:8" ht="16.5" thickBot="1">
-      <c r="A26" s="252"/>
-      <c r="B26" s="257"/>
+      <c r="A26" s="253"/>
+      <c r="B26" s="258"/>
       <c r="C26" s="113">
         <v>43224</v>
       </c>
@@ -9823,10 +9856,10 @@
       </c>
     </row>
     <row r="27" spans="1:8" ht="15.75">
-      <c r="A27" s="258" t="s">
+      <c r="A27" s="259" t="s">
         <v>34</v>
       </c>
-      <c r="B27" s="261">
+      <c r="B27" s="262">
         <v>6</v>
       </c>
       <c r="C27" s="129">
@@ -9845,8 +9878,8 @@
       <c r="H27" s="131"/>
     </row>
     <row r="28" spans="1:8" ht="15.75">
-      <c r="A28" s="251"/>
-      <c r="B28" s="254"/>
+      <c r="A28" s="252"/>
+      <c r="B28" s="255"/>
       <c r="C28" s="132">
         <v>43228</v>
       </c>
@@ -9861,8 +9894,8 @@
       <c r="H28" s="134"/>
     </row>
     <row r="29" spans="1:8" ht="15.75">
-      <c r="A29" s="251"/>
-      <c r="B29" s="254"/>
+      <c r="A29" s="252"/>
+      <c r="B29" s="255"/>
       <c r="C29" s="132">
         <v>43229</v>
       </c>
@@ -9877,8 +9910,8 @@
       <c r="H29" s="134"/>
     </row>
     <row r="30" spans="1:8" ht="15.75">
-      <c r="A30" s="251"/>
-      <c r="B30" s="254"/>
+      <c r="A30" s="252"/>
+      <c r="B30" s="255"/>
       <c r="C30" s="132">
         <v>43230</v>
       </c>
@@ -9893,8 +9926,8 @@
       <c r="H30" s="134"/>
     </row>
     <row r="31" spans="1:8" ht="15.75">
-      <c r="A31" s="251"/>
-      <c r="B31" s="254"/>
+      <c r="A31" s="252"/>
+      <c r="B31" s="255"/>
       <c r="C31" s="132">
         <v>43231</v>
       </c>
@@ -9909,8 +9942,8 @@
       <c r="H31" s="134"/>
     </row>
     <row r="32" spans="1:8" ht="15.75">
-      <c r="A32" s="251"/>
-      <c r="B32" s="255">
+      <c r="A32" s="252"/>
+      <c r="B32" s="256">
         <v>7</v>
       </c>
       <c r="C32" s="109">
@@ -9927,8 +9960,8 @@
       <c r="H32" s="112"/>
     </row>
     <row r="33" spans="1:8" ht="15.75">
-      <c r="A33" s="251"/>
-      <c r="B33" s="254"/>
+      <c r="A33" s="252"/>
+      <c r="B33" s="255"/>
       <c r="C33" s="109">
         <v>43235</v>
       </c>
@@ -9943,8 +9976,8 @@
       <c r="H33" s="112"/>
     </row>
     <row r="34" spans="1:8" ht="15.75">
-      <c r="A34" s="251"/>
-      <c r="B34" s="254"/>
+      <c r="A34" s="252"/>
+      <c r="B34" s="255"/>
       <c r="C34" s="109">
         <v>43236</v>
       </c>
@@ -9959,8 +9992,8 @@
       <c r="H34" s="112"/>
     </row>
     <row r="35" spans="1:8" ht="15.75">
-      <c r="A35" s="251"/>
-      <c r="B35" s="254"/>
+      <c r="A35" s="252"/>
+      <c r="B35" s="255"/>
       <c r="C35" s="109">
         <v>43237</v>
       </c>
@@ -9975,8 +10008,8 @@
       <c r="H35" s="112"/>
     </row>
     <row r="36" spans="1:8" ht="15.75">
-      <c r="A36" s="251"/>
-      <c r="B36" s="254"/>
+      <c r="A36" s="252"/>
+      <c r="B36" s="255"/>
       <c r="C36" s="109">
         <v>43238</v>
       </c>
@@ -9993,8 +10026,8 @@
       <c r="H36" s="112"/>
     </row>
     <row r="37" spans="1:8" ht="15.75">
-      <c r="A37" s="251"/>
-      <c r="B37" s="262">
+      <c r="A37" s="252"/>
+      <c r="B37" s="263">
         <v>8</v>
       </c>
       <c r="C37" s="132">
@@ -10013,8 +10046,8 @@
       <c r="H37" s="126"/>
     </row>
     <row r="38" spans="1:8" ht="15.75">
-      <c r="A38" s="251"/>
-      <c r="B38" s="254"/>
+      <c r="A38" s="252"/>
+      <c r="B38" s="255"/>
       <c r="C38" s="132">
         <v>43242</v>
       </c>
@@ -10029,8 +10062,8 @@
       <c r="H38" s="126"/>
     </row>
     <row r="39" spans="1:8" ht="15.75">
-      <c r="A39" s="251"/>
-      <c r="B39" s="254"/>
+      <c r="A39" s="252"/>
+      <c r="B39" s="255"/>
       <c r="C39" s="132">
         <v>43243</v>
       </c>
@@ -10045,8 +10078,8 @@
       <c r="H39" s="126"/>
     </row>
     <row r="40" spans="1:8" ht="15.75">
-      <c r="A40" s="251"/>
-      <c r="B40" s="254"/>
+      <c r="A40" s="252"/>
+      <c r="B40" s="255"/>
       <c r="C40" s="132">
         <v>43244</v>
       </c>
@@ -10061,8 +10094,8 @@
       <c r="H40" s="126"/>
     </row>
     <row r="41" spans="1:8" ht="15.75">
-      <c r="A41" s="251"/>
-      <c r="B41" s="254"/>
+      <c r="A41" s="252"/>
+      <c r="B41" s="255"/>
       <c r="C41" s="132">
         <v>43245</v>
       </c>
@@ -10079,8 +10112,8 @@
       </c>
     </row>
     <row r="42" spans="1:8" ht="15.75">
-      <c r="A42" s="251"/>
-      <c r="B42" s="255">
+      <c r="A42" s="252"/>
+      <c r="B42" s="256">
         <v>9</v>
       </c>
       <c r="C42" s="109">
@@ -10097,8 +10130,8 @@
       <c r="H42" s="112"/>
     </row>
     <row r="43" spans="1:8" ht="15.75">
-      <c r="A43" s="251"/>
-      <c r="B43" s="254"/>
+      <c r="A43" s="252"/>
+      <c r="B43" s="255"/>
       <c r="C43" s="109">
         <v>43249</v>
       </c>
@@ -10113,8 +10146,8 @@
       <c r="H43" s="112"/>
     </row>
     <row r="44" spans="1:8" ht="15.75">
-      <c r="A44" s="251"/>
-      <c r="B44" s="254"/>
+      <c r="A44" s="252"/>
+      <c r="B44" s="255"/>
       <c r="C44" s="109">
         <v>43250</v>
       </c>
@@ -10129,8 +10162,8 @@
       <c r="H44" s="112"/>
     </row>
     <row r="45" spans="1:8" ht="15.75">
-      <c r="A45" s="251"/>
-      <c r="B45" s="254"/>
+      <c r="A45" s="252"/>
+      <c r="B45" s="255"/>
       <c r="C45" s="109">
         <v>43251</v>
       </c>
@@ -10145,8 +10178,8 @@
       <c r="H45" s="112"/>
     </row>
     <row r="46" spans="1:8" ht="16.5" thickBot="1">
-      <c r="A46" s="252"/>
-      <c r="B46" s="257"/>
+      <c r="A46" s="253"/>
+      <c r="B46" s="258"/>
       <c r="C46" s="113">
         <v>43252</v>
       </c>
@@ -10163,10 +10196,10 @@
       <c r="H46" s="116"/>
     </row>
     <row r="47" spans="1:8" ht="15.75">
-      <c r="A47" s="250" t="s">
+      <c r="A47" s="251" t="s">
         <v>47</v>
       </c>
-      <c r="B47" s="253">
+      <c r="B47" s="254">
         <v>10</v>
       </c>
       <c r="C47" s="117">
@@ -10185,8 +10218,8 @@
       <c r="H47" s="121"/>
     </row>
     <row r="48" spans="1:8" ht="15.75">
-      <c r="A48" s="251"/>
-      <c r="B48" s="254"/>
+      <c r="A48" s="252"/>
+      <c r="B48" s="255"/>
       <c r="C48" s="122">
         <v>43256</v>
       </c>
@@ -10201,8 +10234,8 @@
       <c r="H48" s="126"/>
     </row>
     <row r="49" spans="1:8" ht="15.75">
-      <c r="A49" s="251"/>
-      <c r="B49" s="254"/>
+      <c r="A49" s="252"/>
+      <c r="B49" s="255"/>
       <c r="C49" s="122">
         <v>43257</v>
       </c>
@@ -10217,8 +10250,8 @@
       <c r="H49" s="126"/>
     </row>
     <row r="50" spans="1:8" ht="15.75">
-      <c r="A50" s="251"/>
-      <c r="B50" s="254"/>
+      <c r="A50" s="252"/>
+      <c r="B50" s="255"/>
       <c r="C50" s="122">
         <v>43258</v>
       </c>
@@ -10233,8 +10266,8 @@
       <c r="H50" s="126"/>
     </row>
     <row r="51" spans="1:8" ht="15.75">
-      <c r="A51" s="251"/>
-      <c r="B51" s="254"/>
+      <c r="A51" s="252"/>
+      <c r="B51" s="255"/>
       <c r="C51" s="122">
         <v>43259</v>
       </c>
@@ -10251,8 +10284,8 @@
       </c>
     </row>
     <row r="52" spans="1:8" ht="15.75">
-      <c r="A52" s="251"/>
-      <c r="B52" s="255">
+      <c r="A52" s="252"/>
+      <c r="B52" s="256">
         <v>11</v>
       </c>
       <c r="C52" s="109">
@@ -10271,8 +10304,8 @@
       <c r="H52" s="112"/>
     </row>
     <row r="53" spans="1:8" ht="15.75">
-      <c r="A53" s="251"/>
-      <c r="B53" s="254"/>
+      <c r="A53" s="252"/>
+      <c r="B53" s="255"/>
       <c r="C53" s="109">
         <v>43263</v>
       </c>
@@ -10287,8 +10320,8 @@
       <c r="H53" s="112"/>
     </row>
     <row r="54" spans="1:8" ht="15.75">
-      <c r="A54" s="251"/>
-      <c r="B54" s="254"/>
+      <c r="A54" s="252"/>
+      <c r="B54" s="255"/>
       <c r="C54" s="109">
         <v>43264</v>
       </c>
@@ -10303,8 +10336,8 @@
       <c r="H54" s="112"/>
     </row>
     <row r="55" spans="1:8" ht="15.75">
-      <c r="A55" s="251"/>
-      <c r="B55" s="254"/>
+      <c r="A55" s="252"/>
+      <c r="B55" s="255"/>
       <c r="C55" s="109">
         <v>43265</v>
       </c>
@@ -10319,8 +10352,8 @@
       <c r="H55" s="112"/>
     </row>
     <row r="56" spans="1:8" ht="15.75">
-      <c r="A56" s="251"/>
-      <c r="B56" s="254"/>
+      <c r="A56" s="252"/>
+      <c r="B56" s="255"/>
       <c r="C56" s="109">
         <v>43266</v>
       </c>
@@ -10337,8 +10370,8 @@
       <c r="H56" s="112"/>
     </row>
     <row r="57" spans="1:8" ht="15.75">
-      <c r="A57" s="251"/>
-      <c r="B57" s="256">
+      <c r="A57" s="252"/>
+      <c r="B57" s="257">
         <v>12</v>
       </c>
       <c r="C57" s="122">
@@ -10355,8 +10388,8 @@
       <c r="H57" s="126"/>
     </row>
     <row r="58" spans="1:8" ht="15.75">
-      <c r="A58" s="251"/>
-      <c r="B58" s="254"/>
+      <c r="A58" s="252"/>
+      <c r="B58" s="255"/>
       <c r="C58" s="122">
         <v>43270</v>
       </c>
@@ -10371,8 +10404,8 @@
       <c r="H58" s="126"/>
     </row>
     <row r="59" spans="1:8" ht="15.75">
-      <c r="A59" s="251"/>
-      <c r="B59" s="254"/>
+      <c r="A59" s="252"/>
+      <c r="B59" s="255"/>
       <c r="C59" s="122">
         <v>43271</v>
       </c>
@@ -10387,8 +10420,8 @@
       <c r="H59" s="126"/>
     </row>
     <row r="60" spans="1:8" ht="15.75">
-      <c r="A60" s="251"/>
-      <c r="B60" s="254"/>
+      <c r="A60" s="252"/>
+      <c r="B60" s="255"/>
       <c r="C60" s="122">
         <v>43272</v>
       </c>
@@ -10403,8 +10436,8 @@
       <c r="H60" s="126"/>
     </row>
     <row r="61" spans="1:8" ht="16.5" thickBot="1">
-      <c r="A61" s="252"/>
-      <c r="B61" s="257"/>
+      <c r="A61" s="253"/>
+      <c r="B61" s="258"/>
       <c r="C61" s="136">
         <v>43273</v>
       </c>
@@ -10421,10 +10454,10 @@
       <c r="H61" s="140"/>
     </row>
     <row r="62" spans="1:8" ht="15.75">
-      <c r="A62" s="258" t="s">
+      <c r="A62" s="259" t="s">
         <v>61</v>
       </c>
-      <c r="B62" s="259">
+      <c r="B62" s="260">
         <v>13</v>
       </c>
       <c r="C62" s="104">
@@ -10443,8 +10476,8 @@
       <c r="H62" s="108"/>
     </row>
     <row r="63" spans="1:8" ht="15.75">
-      <c r="A63" s="251"/>
-      <c r="B63" s="254"/>
+      <c r="A63" s="252"/>
+      <c r="B63" s="255"/>
       <c r="C63" s="109">
         <v>43277</v>
       </c>
@@ -10459,8 +10492,8 @@
       <c r="H63" s="112"/>
     </row>
     <row r="64" spans="1:8" ht="15.75">
-      <c r="A64" s="251"/>
-      <c r="B64" s="254"/>
+      <c r="A64" s="252"/>
+      <c r="B64" s="255"/>
       <c r="C64" s="109">
         <v>43278</v>
       </c>
@@ -10475,8 +10508,8 @@
       <c r="H64" s="112"/>
     </row>
     <row r="65" spans="1:8" ht="15.75">
-      <c r="A65" s="251"/>
-      <c r="B65" s="254"/>
+      <c r="A65" s="252"/>
+      <c r="B65" s="255"/>
       <c r="C65" s="109">
         <v>43279</v>
       </c>
@@ -10491,8 +10524,8 @@
       <c r="H65" s="112"/>
     </row>
     <row r="66" spans="1:8" ht="15.75">
-      <c r="A66" s="251"/>
-      <c r="B66" s="254"/>
+      <c r="A66" s="252"/>
+      <c r="B66" s="255"/>
       <c r="C66" s="109">
         <v>43280</v>
       </c>
@@ -10509,8 +10542,8 @@
       </c>
     </row>
     <row r="67" spans="1:8" ht="15.75">
-      <c r="A67" s="251"/>
-      <c r="B67" s="262">
+      <c r="A67" s="252"/>
+      <c r="B67" s="263">
         <v>14</v>
       </c>
       <c r="C67" s="132">
@@ -10527,8 +10560,8 @@
       <c r="H67" s="134"/>
     </row>
     <row r="68" spans="1:8" ht="15.75">
-      <c r="A68" s="251"/>
-      <c r="B68" s="254"/>
+      <c r="A68" s="252"/>
+      <c r="B68" s="255"/>
       <c r="C68" s="132">
         <v>43284</v>
       </c>
@@ -10543,8 +10576,8 @@
       <c r="H68" s="134"/>
     </row>
     <row r="69" spans="1:8" ht="15.75">
-      <c r="A69" s="251"/>
-      <c r="B69" s="254"/>
+      <c r="A69" s="252"/>
+      <c r="B69" s="255"/>
       <c r="C69" s="132">
         <v>43285</v>
       </c>
@@ -10559,8 +10592,8 @@
       <c r="H69" s="134"/>
     </row>
     <row r="70" spans="1:8" ht="15.75">
-      <c r="A70" s="251"/>
-      <c r="B70" s="254"/>
+      <c r="A70" s="252"/>
+      <c r="B70" s="255"/>
       <c r="C70" s="132">
         <v>43286</v>
       </c>
@@ -10575,8 +10608,8 @@
       <c r="H70" s="134"/>
     </row>
     <row r="71" spans="1:8" ht="15.75">
-      <c r="A71" s="251"/>
-      <c r="B71" s="254"/>
+      <c r="A71" s="252"/>
+      <c r="B71" s="255"/>
       <c r="C71" s="132">
         <v>43287</v>
       </c>
@@ -10593,8 +10626,8 @@
       <c r="H71" s="134"/>
     </row>
     <row r="72" spans="1:8" ht="15.75">
-      <c r="A72" s="251"/>
-      <c r="B72" s="255">
+      <c r="A72" s="252"/>
+      <c r="B72" s="256">
         <v>15</v>
       </c>
       <c r="C72" s="109">
@@ -10613,8 +10646,8 @@
       <c r="H72" s="112"/>
     </row>
     <row r="73" spans="1:8" ht="15.75">
-      <c r="A73" s="251"/>
-      <c r="B73" s="254"/>
+      <c r="A73" s="252"/>
+      <c r="B73" s="255"/>
       <c r="C73" s="109">
         <v>43291</v>
       </c>
@@ -10629,8 +10662,8 @@
       <c r="H73" s="112"/>
     </row>
     <row r="74" spans="1:8" ht="15.75">
-      <c r="A74" s="251"/>
-      <c r="B74" s="254"/>
+      <c r="A74" s="252"/>
+      <c r="B74" s="255"/>
       <c r="C74" s="109">
         <v>43292</v>
       </c>
@@ -10645,8 +10678,8 @@
       <c r="H74" s="112"/>
     </row>
     <row r="75" spans="1:8" ht="15.75">
-      <c r="A75" s="251"/>
-      <c r="B75" s="254"/>
+      <c r="A75" s="252"/>
+      <c r="B75" s="255"/>
       <c r="C75" s="109">
         <v>43293</v>
       </c>
@@ -10661,8 +10694,8 @@
       <c r="H75" s="112"/>
     </row>
     <row r="76" spans="1:8" ht="15.75">
-      <c r="A76" s="251"/>
-      <c r="B76" s="254"/>
+      <c r="A76" s="252"/>
+      <c r="B76" s="255"/>
       <c r="C76" s="109">
         <v>43294</v>
       </c>
@@ -10679,8 +10712,8 @@
       </c>
     </row>
     <row r="77" spans="1:8" ht="15.75">
-      <c r="A77" s="251"/>
-      <c r="B77" s="262">
+      <c r="A77" s="252"/>
+      <c r="B77" s="263">
         <v>16</v>
       </c>
       <c r="C77" s="132">
@@ -10697,8 +10730,8 @@
       <c r="H77" s="134"/>
     </row>
     <row r="78" spans="1:8" ht="15.75">
-      <c r="A78" s="251"/>
-      <c r="B78" s="254"/>
+      <c r="A78" s="252"/>
+      <c r="B78" s="255"/>
       <c r="C78" s="132">
         <v>43298</v>
       </c>
@@ -10713,8 +10746,8 @@
       <c r="H78" s="134"/>
     </row>
     <row r="79" spans="1:8" ht="15.75">
-      <c r="A79" s="251"/>
-      <c r="B79" s="254"/>
+      <c r="A79" s="252"/>
+      <c r="B79" s="255"/>
       <c r="C79" s="132">
         <v>43299</v>
       </c>
@@ -10729,8 +10762,8 @@
       <c r="H79" s="134"/>
     </row>
     <row r="80" spans="1:8" ht="15.75">
-      <c r="A80" s="251"/>
-      <c r="B80" s="254"/>
+      <c r="A80" s="252"/>
+      <c r="B80" s="255"/>
       <c r="C80" s="132">
         <v>43300</v>
       </c>
@@ -10745,8 +10778,8 @@
       <c r="H80" s="134"/>
     </row>
     <row r="81" spans="1:8" ht="16.5" thickBot="1">
-      <c r="A81" s="252"/>
-      <c r="B81" s="257"/>
+      <c r="A81" s="253"/>
+      <c r="B81" s="258"/>
       <c r="C81" s="142">
         <v>43301</v>
       </c>
@@ -10763,10 +10796,10 @@
       <c r="H81" s="144"/>
     </row>
     <row r="82" spans="1:8" ht="15.75">
-      <c r="A82" s="258" t="s">
+      <c r="A82" s="259" t="s">
         <v>76</v>
       </c>
-      <c r="B82" s="259">
+      <c r="B82" s="260">
         <v>17</v>
       </c>
       <c r="C82" s="104">
@@ -10785,8 +10818,8 @@
       <c r="H82" s="108"/>
     </row>
     <row r="83" spans="1:8" ht="15.75">
-      <c r="A83" s="251"/>
-      <c r="B83" s="254"/>
+      <c r="A83" s="252"/>
+      <c r="B83" s="255"/>
       <c r="C83" s="109">
         <v>43305</v>
       </c>
@@ -10801,8 +10834,8 @@
       <c r="H83" s="112"/>
     </row>
     <row r="84" spans="1:8" ht="15.75">
-      <c r="A84" s="251"/>
-      <c r="B84" s="254"/>
+      <c r="A84" s="252"/>
+      <c r="B84" s="255"/>
       <c r="C84" s="109">
         <v>43306</v>
       </c>
@@ -10817,8 +10850,8 @@
       <c r="H84" s="112"/>
     </row>
     <row r="85" spans="1:8" ht="15.75">
-      <c r="A85" s="251"/>
-      <c r="B85" s="254"/>
+      <c r="A85" s="252"/>
+      <c r="B85" s="255"/>
       <c r="C85" s="109">
         <v>43307</v>
       </c>
@@ -10833,8 +10866,8 @@
       <c r="H85" s="112"/>
     </row>
     <row r="86" spans="1:8" ht="15.75">
-      <c r="A86" s="251"/>
-      <c r="B86" s="254"/>
+      <c r="A86" s="252"/>
+      <c r="B86" s="255"/>
       <c r="C86" s="109">
         <v>43308</v>
       </c>
@@ -10851,8 +10884,8 @@
       </c>
     </row>
     <row r="87" spans="1:8" ht="15.75">
-      <c r="A87" s="251"/>
-      <c r="B87" s="256">
+      <c r="A87" s="252"/>
+      <c r="B87" s="257">
         <v>18</v>
       </c>
       <c r="C87" s="122">
@@ -10869,8 +10902,8 @@
       <c r="H87" s="126"/>
     </row>
     <row r="88" spans="1:8" ht="15.75">
-      <c r="A88" s="251"/>
-      <c r="B88" s="254"/>
+      <c r="A88" s="252"/>
+      <c r="B88" s="255"/>
       <c r="C88" s="122">
         <v>43312</v>
       </c>
@@ -10885,8 +10918,8 @@
       <c r="H88" s="126"/>
     </row>
     <row r="89" spans="1:8" ht="15.75">
-      <c r="A89" s="251"/>
-      <c r="B89" s="254"/>
+      <c r="A89" s="252"/>
+      <c r="B89" s="255"/>
       <c r="C89" s="122">
         <v>43313</v>
       </c>
@@ -10901,8 +10934,8 @@
       <c r="H89" s="126"/>
     </row>
     <row r="90" spans="1:8" ht="15.75">
-      <c r="A90" s="251"/>
-      <c r="B90" s="254"/>
+      <c r="A90" s="252"/>
+      <c r="B90" s="255"/>
       <c r="C90" s="122">
         <v>43314</v>
       </c>
@@ -10917,8 +10950,8 @@
       <c r="H90" s="126"/>
     </row>
     <row r="91" spans="1:8" ht="15.75">
-      <c r="A91" s="251"/>
-      <c r="B91" s="254"/>
+      <c r="A91" s="252"/>
+      <c r="B91" s="255"/>
       <c r="C91" s="122">
         <v>43315</v>
       </c>
@@ -10935,8 +10968,8 @@
       <c r="H91" s="126"/>
     </row>
     <row r="92" spans="1:8" ht="15.75">
-      <c r="A92" s="251"/>
-      <c r="B92" s="255">
+      <c r="A92" s="252"/>
+      <c r="B92" s="256">
         <v>19</v>
       </c>
       <c r="C92" s="109">
@@ -10955,8 +10988,8 @@
       <c r="H92" s="112"/>
     </row>
     <row r="93" spans="1:8" ht="15.75">
-      <c r="A93" s="251"/>
-      <c r="B93" s="254"/>
+      <c r="A93" s="252"/>
+      <c r="B93" s="255"/>
       <c r="C93" s="109">
         <v>43319</v>
       </c>
@@ -10971,8 +11004,8 @@
       <c r="H93" s="112"/>
     </row>
     <row r="94" spans="1:8" ht="15.75">
-      <c r="A94" s="251"/>
-      <c r="B94" s="254"/>
+      <c r="A94" s="252"/>
+      <c r="B94" s="255"/>
       <c r="C94" s="109">
         <v>43320</v>
       </c>
@@ -10987,8 +11020,8 @@
       <c r="H94" s="112"/>
     </row>
     <row r="95" spans="1:8" ht="15.75">
-      <c r="A95" s="251"/>
-      <c r="B95" s="254"/>
+      <c r="A95" s="252"/>
+      <c r="B95" s="255"/>
       <c r="C95" s="109">
         <v>43321</v>
       </c>
@@ -11003,8 +11036,8 @@
       <c r="H95" s="112"/>
     </row>
     <row r="96" spans="1:8" ht="15.75">
-      <c r="A96" s="251"/>
-      <c r="B96" s="254"/>
+      <c r="A96" s="252"/>
+      <c r="B96" s="255"/>
       <c r="C96" s="109">
         <v>43322</v>
       </c>
@@ -11021,8 +11054,8 @@
       </c>
     </row>
     <row r="97" spans="1:8" ht="15.75">
-      <c r="A97" s="251"/>
-      <c r="B97" s="256">
+      <c r="A97" s="252"/>
+      <c r="B97" s="257">
         <v>20</v>
       </c>
       <c r="C97" s="122">
@@ -11039,8 +11072,8 @@
       <c r="H97" s="126"/>
     </row>
     <row r="98" spans="1:8" ht="15.75">
-      <c r="A98" s="251"/>
-      <c r="B98" s="254"/>
+      <c r="A98" s="252"/>
+      <c r="B98" s="255"/>
       <c r="C98" s="122">
         <v>43326</v>
       </c>
@@ -11055,8 +11088,8 @@
       <c r="H98" s="126"/>
     </row>
     <row r="99" spans="1:8" ht="15.75">
-      <c r="A99" s="251"/>
-      <c r="B99" s="254"/>
+      <c r="A99" s="252"/>
+      <c r="B99" s="255"/>
       <c r="C99" s="122">
         <v>43327</v>
       </c>
@@ -11071,8 +11104,8 @@
       <c r="H99" s="126"/>
     </row>
     <row r="100" spans="1:8" ht="15.75">
-      <c r="A100" s="251"/>
-      <c r="B100" s="254"/>
+      <c r="A100" s="252"/>
+      <c r="B100" s="255"/>
       <c r="C100" s="122">
         <v>43328</v>
       </c>
@@ -11087,8 +11120,8 @@
       <c r="H100" s="126"/>
     </row>
     <row r="101" spans="1:8" ht="16.5" thickBot="1">
-      <c r="A101" s="252"/>
-      <c r="B101" s="257"/>
+      <c r="A101" s="253"/>
+      <c r="B101" s="258"/>
       <c r="C101" s="136">
         <v>43329</v>
       </c>
@@ -17805,10 +17838,10 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:J19"/>
+  <dimension ref="A1:J26"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="J6" sqref="J6"/>
+      <selection activeCell="G29" sqref="G29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -17841,7 +17874,7 @@
     </row>
     <row r="5" spans="1:10">
       <c r="J5" t="s">
-        <v>587</v>
+        <v>586</v>
       </c>
     </row>
     <row r="7" spans="1:10">
@@ -17855,11 +17888,11 @@
       </c>
     </row>
     <row r="13" spans="1:10">
-      <c r="C13" s="263" t="s">
+      <c r="C13" s="264" t="s">
         <v>168</v>
       </c>
-      <c r="D13" s="264"/>
-      <c r="E13" s="265"/>
+      <c r="D13" s="265"/>
+      <c r="E13" s="266"/>
     </row>
     <row r="14" spans="1:10">
       <c r="C14" t="s">
@@ -17875,18 +17908,18 @@
       </c>
     </row>
     <row r="16" spans="1:10">
-      <c r="A16" s="263" t="s">
+      <c r="A16" s="264" t="s">
         <v>171</v>
       </c>
-      <c r="B16" s="264"/>
-      <c r="C16" s="265"/>
-      <c r="E16" s="263" t="s">
+      <c r="B16" s="265"/>
+      <c r="C16" s="266"/>
+      <c r="E16" s="264" t="s">
         <v>167</v>
       </c>
-      <c r="F16" s="264"/>
-      <c r="G16" s="265"/>
-    </row>
-    <row r="18" spans="2:5">
+      <c r="F16" s="265"/>
+      <c r="G16" s="266"/>
+    </row>
+    <row r="18" spans="1:5">
       <c r="B18" t="s">
         <v>182</v>
       </c>
@@ -17894,12 +17927,22 @@
         <v>183</v>
       </c>
     </row>
-    <row r="19" spans="2:5">
-      <c r="C19" s="263" t="s">
+    <row r="19" spans="1:5">
+      <c r="C19" s="264" t="s">
         <v>166</v>
       </c>
-      <c r="D19" s="264"/>
-      <c r="E19" s="265"/>
+      <c r="D19" s="265"/>
+      <c r="E19" s="266"/>
+    </row>
+    <row r="25" spans="1:5">
+      <c r="A25" t="s">
+        <v>607</v>
+      </c>
+    </row>
+    <row r="26" spans="1:5">
+      <c r="A26" t="s">
+        <v>606</v>
+      </c>
     </row>
   </sheetData>
   <mergeCells count="4">
@@ -17909,7 +17952,8 @@
     <mergeCell ref="E16:G16"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <drawing r:id="rId1"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+  <drawing r:id="rId2"/>
 </worksheet>
 </file>
 
@@ -18840,10 +18884,10 @@
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:V480"/>
+  <dimension ref="A1:V481"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A64" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="A98" sqref="A98"/>
+    <sheetView topLeftCell="A445" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="A472" sqref="A472"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -18947,406 +18991,408 @@
         <v>225</v>
       </c>
     </row>
-    <row r="17" spans="1:1">
+    <row r="17" spans="1:7">
       <c r="A17" t="s">
         <v>226</v>
       </c>
     </row>
-    <row r="19" spans="1:1">
+    <row r="19" spans="1:7">
       <c r="A19" s="22" t="s">
         <v>512</v>
       </c>
     </row>
-    <row r="20" spans="1:1">
+    <row r="20" spans="1:7">
       <c r="A20" t="s">
         <v>510</v>
       </c>
     </row>
-    <row r="21" spans="1:1">
+    <row r="21" spans="1:7">
       <c r="A21" s="155" t="s">
         <v>212</v>
       </c>
     </row>
-    <row r="22" spans="1:1">
+    <row r="22" spans="1:7">
       <c r="A22" t="s">
         <v>211</v>
       </c>
     </row>
-    <row r="23" spans="1:1">
-      <c r="A23" s="155" t="s">
+    <row r="23" spans="1:7">
+      <c r="A23" t="s">
+        <v>604</v>
+      </c>
+      <c r="B23" s="162"/>
+      <c r="C23" s="162"/>
+      <c r="E23" s="162"/>
+      <c r="F23" s="162"/>
+      <c r="G23" s="162"/>
+    </row>
+    <row r="24" spans="1:7">
+      <c r="B24" s="162"/>
+      <c r="C24" s="162"/>
+      <c r="E24" s="162"/>
+      <c r="F24" s="162"/>
+      <c r="G24" s="162"/>
+    </row>
+    <row r="25" spans="1:7">
+      <c r="A25" s="155" t="s">
         <v>213</v>
       </c>
     </row>
-    <row r="24" spans="1:1">
-      <c r="A24" t="s">
+    <row r="26" spans="1:7">
+      <c r="A26" t="s">
         <v>214</v>
       </c>
     </row>
-    <row r="26" spans="1:1">
-      <c r="A26" t="s">
+    <row r="28" spans="1:7">
+      <c r="A28" t="s">
         <v>511</v>
       </c>
     </row>
-    <row r="27" spans="1:1">
-      <c r="A27" s="155" t="s">
+    <row r="29" spans="1:7">
+      <c r="A29" s="155" t="s">
         <v>215</v>
       </c>
     </row>
-    <row r="28" spans="1:1">
-      <c r="A28" t="s">
+    <row r="30" spans="1:7">
+      <c r="A30" t="s">
         <v>216</v>
       </c>
     </row>
-    <row r="29" spans="1:1">
-      <c r="A29" s="155" t="s">
+    <row r="32" spans="1:7">
+      <c r="A32" s="155" t="s">
         <v>219</v>
       </c>
     </row>
-    <row r="30" spans="1:1">
-      <c r="A30" t="s">
+    <row r="33" spans="1:2">
+      <c r="A33" t="s">
         <v>217</v>
       </c>
     </row>
-    <row r="31" spans="1:1">
-      <c r="A31" s="24" t="s">
+    <row r="34" spans="1:2">
+      <c r="A34" s="24" t="s">
         <v>218</v>
       </c>
     </row>
-    <row r="32" spans="1:1">
-      <c r="A32" s="24"/>
-    </row>
-    <row r="34" spans="1:2">
-      <c r="A34" s="23" t="s">
+    <row r="35" spans="1:2">
+      <c r="A35" s="24"/>
+    </row>
+    <row r="37" spans="1:2">
+      <c r="A37" s="23" t="s">
         <v>184</v>
-      </c>
-    </row>
-    <row r="35" spans="1:2">
-      <c r="A35" t="s">
-        <v>185</v>
-      </c>
-      <c r="B35" t="s">
-        <v>532</v>
-      </c>
-    </row>
-    <row r="36" spans="1:2">
-      <c r="B36" t="s">
-        <v>186</v>
-      </c>
-    </row>
-    <row r="37" spans="1:2">
-      <c r="A37" t="s">
-        <v>187</v>
       </c>
     </row>
     <row r="38" spans="1:2">
       <c r="A38" t="s">
-        <v>188</v>
+        <v>185</v>
+      </c>
+      <c r="B38" t="s">
+        <v>532</v>
       </c>
     </row>
     <row r="39" spans="1:2">
-      <c r="A39" t="s">
-        <v>190</v>
+      <c r="B39" t="s">
+        <v>186</v>
       </c>
     </row>
     <row r="40" spans="1:2">
       <c r="A40" t="s">
+        <v>187</v>
+      </c>
+    </row>
+    <row r="41" spans="1:2">
+      <c r="A41" t="s">
+        <v>188</v>
+      </c>
+    </row>
+    <row r="42" spans="1:2">
+      <c r="A42" t="s">
+        <v>190</v>
+      </c>
+    </row>
+    <row r="43" spans="1:2">
+      <c r="A43" t="s">
         <v>191</v>
       </c>
     </row>
-    <row r="41" spans="1:2">
-      <c r="A41" s="26" t="s">
+    <row r="44" spans="1:2">
+      <c r="A44" s="26" t="s">
         <v>518</v>
       </c>
     </row>
-    <row r="42" spans="1:2">
-      <c r="A42" s="26"/>
-    </row>
-    <row r="44" spans="1:2">
-      <c r="A44" s="22" t="s">
+    <row r="45" spans="1:2">
+      <c r="A45" s="26"/>
+    </row>
+    <row r="47" spans="1:2">
+      <c r="A47" s="22" t="s">
         <v>220</v>
-      </c>
-    </row>
-    <row r="45" spans="1:2">
-      <c r="A45" t="s">
-        <v>221</v>
-      </c>
-    </row>
-    <row r="46" spans="1:2">
-      <c r="A46" t="s">
-        <v>222</v>
-      </c>
-    </row>
-    <row r="47" spans="1:2">
-      <c r="A47" t="s">
-        <v>227</v>
-      </c>
-      <c r="B47" t="s">
-        <v>228</v>
       </c>
     </row>
     <row r="48" spans="1:2">
       <c r="A48" t="s">
+        <v>221</v>
+      </c>
+    </row>
+    <row r="49" spans="1:2">
+      <c r="A49" t="s">
+        <v>222</v>
+      </c>
+    </row>
+    <row r="50" spans="1:2">
+      <c r="A50" t="s">
+        <v>227</v>
+      </c>
+      <c r="B50" t="s">
+        <v>228</v>
+      </c>
+    </row>
+    <row r="51" spans="1:2">
+      <c r="A51" t="s">
         <v>229</v>
       </c>
-      <c r="B48" t="s">
+      <c r="B51" t="s">
         <v>230</v>
       </c>
     </row>
-    <row r="50" spans="1:1">
-      <c r="A50" s="22" t="s">
+    <row r="53" spans="1:2">
+      <c r="A53" s="22" t="s">
         <v>264</v>
       </c>
     </row>
-    <row r="51" spans="1:1">
-      <c r="A51" t="s">
+    <row r="54" spans="1:2">
+      <c r="A54" t="s">
         <v>262</v>
       </c>
     </row>
-    <row r="52" spans="1:1">
-      <c r="A52" t="s">
+    <row r="55" spans="1:2">
+      <c r="A55" t="s">
         <v>263</v>
       </c>
     </row>
-    <row r="54" spans="1:1">
-      <c r="A54" s="159" t="s">
+    <row r="57" spans="1:2">
+      <c r="A57" s="159" t="s">
         <v>238</v>
       </c>
     </row>
-    <row r="55" spans="1:1">
-      <c r="A55" t="s">
+    <row r="58" spans="1:2">
+      <c r="A58" t="s">
         <v>418</v>
       </c>
     </row>
-    <row r="56" spans="1:1">
-      <c r="A56" s="43" t="s">
+    <row r="59" spans="1:2">
+      <c r="A59" s="43" t="s">
         <v>240</v>
       </c>
     </row>
-    <row r="57" spans="1:1">
-      <c r="A57" s="43" t="s">
+    <row r="60" spans="1:2">
+      <c r="A60" s="43" t="s">
         <v>241</v>
       </c>
     </row>
-    <row r="58" spans="1:1">
-      <c r="A58" s="43" t="s">
+    <row r="61" spans="1:2">
+      <c r="A61" s="43" t="s">
         <v>242</v>
       </c>
     </row>
-    <row r="59" spans="1:1">
-      <c r="A59" s="43" t="s">
+    <row r="62" spans="1:2">
+      <c r="A62" s="43" t="s">
         <v>243</v>
       </c>
     </row>
-    <row r="60" spans="1:1">
-      <c r="A60" s="46" t="s">
+    <row r="63" spans="1:2">
+      <c r="A63" s="46" t="s">
         <v>244</v>
       </c>
     </row>
-    <row r="61" spans="1:1">
-      <c r="A61" s="156" t="s">
+    <row r="64" spans="1:2">
+      <c r="A64" s="156" t="s">
         <v>509</v>
-      </c>
-    </row>
-    <row r="62" spans="1:1">
-      <c r="A62" s="156" t="s">
-        <v>514</v>
-      </c>
-    </row>
-    <row r="63" spans="1:1">
-      <c r="A63" s="157" t="s">
-        <v>507</v>
-      </c>
-    </row>
-    <row r="64" spans="1:1">
-      <c r="A64" s="160" t="s">
-        <v>515</v>
       </c>
     </row>
     <row r="65" spans="1:2">
       <c r="A65" s="156" t="s">
+        <v>514</v>
+      </c>
+    </row>
+    <row r="66" spans="1:2">
+      <c r="A66" s="156"/>
+    </row>
+    <row r="67" spans="1:2">
+      <c r="A67" s="157" t="s">
+        <v>507</v>
+      </c>
+    </row>
+    <row r="68" spans="1:2">
+      <c r="A68" s="160" t="s">
+        <v>515</v>
+      </c>
+    </row>
+    <row r="69" spans="1:2">
+      <c r="A69" s="156" t="s">
         <v>508</v>
       </c>
     </row>
-    <row r="67" spans="1:2">
-      <c r="A67" s="156" t="s">
+    <row r="71" spans="1:2">
+      <c r="A71" s="156" t="s">
         <v>513</v>
       </c>
     </row>
-    <row r="68" spans="1:2">
-      <c r="B68" s="155" t="s">
+    <row r="72" spans="1:2">
+      <c r="B72" s="155" t="s">
         <v>400</v>
       </c>
     </row>
-    <row r="69" spans="1:2">
-      <c r="B69" t="s">
+    <row r="73" spans="1:2">
+      <c r="B73" t="s">
         <v>419</v>
       </c>
     </row>
-    <row r="71" spans="1:2">
-      <c r="B71" s="155" t="s">
+    <row r="75" spans="1:2">
+      <c r="B75" s="155" t="s">
         <v>401</v>
       </c>
     </row>
-    <row r="72" spans="1:2">
-      <c r="B72" t="s">
+    <row r="76" spans="1:2">
+      <c r="B76" t="s">
         <v>420</v>
       </c>
     </row>
-    <row r="74" spans="1:2">
-      <c r="B74" s="155" t="s">
+    <row r="78" spans="1:2">
+      <c r="B78" s="155" t="s">
         <v>402</v>
       </c>
     </row>
-    <row r="75" spans="1:2">
-      <c r="B75" t="s">
+    <row r="79" spans="1:2">
+      <c r="B79" t="s">
         <v>421</v>
       </c>
     </row>
-    <row r="76" spans="1:2">
-      <c r="A76" s="155" t="s">
+    <row r="81" spans="1:1">
+      <c r="A81" s="155" t="s">
         <v>507</v>
       </c>
     </row>
-    <row r="77" spans="1:2">
-      <c r="A77" s="43" t="s">
+    <row r="82" spans="1:1">
+      <c r="A82" s="43" t="s">
         <v>236</v>
       </c>
     </row>
-    <row r="78" spans="1:2">
-      <c r="A78" s="44" t="s">
+    <row r="83" spans="1:1">
+      <c r="A83" s="44" t="s">
         <v>239</v>
       </c>
     </row>
-    <row r="79" spans="1:2">
-      <c r="A79" s="42" t="s">
+    <row r="84" spans="1:1">
+      <c r="A84" s="42" t="s">
         <v>347</v>
       </c>
     </row>
-    <row r="80" spans="1:2">
-      <c r="A80" s="43" t="s">
+    <row r="85" spans="1:1">
+      <c r="A85" s="43" t="s">
         <v>237</v>
       </c>
     </row>
-    <row r="82" spans="1:1">
-      <c r="A82" s="42"/>
-    </row>
-    <row r="83" spans="1:1">
-      <c r="A83" s="22" t="s">
+    <row r="87" spans="1:1">
+      <c r="A87" s="155" t="s">
         <v>529</v>
       </c>
     </row>
-    <row r="84" spans="1:1">
-      <c r="A84" s="163" t="s">
+    <row r="88" spans="1:1">
+      <c r="A88" s="163" t="s">
         <v>522</v>
-      </c>
-    </row>
-    <row r="85" spans="1:1">
-      <c r="A85" t="s">
-        <v>523</v>
-      </c>
-    </row>
-    <row r="86" spans="1:1">
-      <c r="A86" t="s">
-        <v>524</v>
-      </c>
-    </row>
-    <row r="87" spans="1:1">
-      <c r="A87" t="s">
-        <v>521</v>
-      </c>
-    </row>
-    <row r="88" spans="1:1">
-      <c r="A88" t="s">
-        <v>525</v>
       </c>
     </row>
     <row r="89" spans="1:1">
       <c r="A89" t="s">
-        <v>531</v>
+        <v>523</v>
+      </c>
+    </row>
+    <row r="90" spans="1:1">
+      <c r="A90" t="s">
+        <v>524</v>
       </c>
     </row>
     <row r="91" spans="1:1">
-      <c r="A91" s="155" t="s">
-        <v>526</v>
+      <c r="A91" t="s">
+        <v>521</v>
       </c>
     </row>
     <row r="92" spans="1:1">
       <c r="A92" t="s">
-        <v>527</v>
+        <v>525</v>
       </c>
     </row>
     <row r="93" spans="1:1">
       <c r="A93" t="s">
-        <v>528</v>
+        <v>531</v>
       </c>
     </row>
     <row r="95" spans="1:1">
-      <c r="A95" t="s">
-        <v>530</v>
+      <c r="A95" s="155" t="s">
+        <v>526</v>
       </c>
     </row>
     <row r="96" spans="1:1">
       <c r="A96" t="s">
-        <v>519</v>
+        <v>527</v>
       </c>
     </row>
     <row r="97" spans="1:1">
       <c r="A97" t="s">
+        <v>528</v>
+      </c>
+    </row>
+    <row r="99" spans="1:1">
+      <c r="A99" t="s">
+        <v>530</v>
+      </c>
+    </row>
+    <row r="100" spans="1:1">
+      <c r="A100" t="s">
+        <v>519</v>
+      </c>
+    </row>
+    <row r="101" spans="1:1">
+      <c r="A101" t="s">
         <v>520</v>
       </c>
     </row>
-    <row r="99" spans="1:1">
-      <c r="A99" s="22" t="s">
+    <row r="104" spans="1:1">
+      <c r="A104" s="22" t="s">
         <v>533</v>
       </c>
     </row>
-    <row r="100" spans="1:1">
-      <c r="A100" s="43" t="s">
+    <row r="105" spans="1:1">
+      <c r="A105" s="43" t="s">
+        <v>588</v>
+      </c>
+    </row>
+    <row r="106" spans="1:1">
+      <c r="A106" s="26" t="s">
         <v>589</v>
       </c>
     </row>
-    <row r="101" spans="1:1">
-      <c r="A101" s="26" t="s">
-        <v>590</v>
-      </c>
-    </row>
-    <row r="102" spans="1:1">
-      <c r="A102" s="166" t="s">
+    <row r="107" spans="1:1">
+      <c r="A107" s="166" t="s">
         <v>545</v>
       </c>
-    </row>
-    <row r="103" spans="1:1">
-      <c r="A103" s="155" t="s">
-        <v>507</v>
-      </c>
-    </row>
-    <row r="104" spans="1:1">
-      <c r="A104" s="165" t="s">
-        <v>544</v>
-      </c>
-    </row>
-    <row r="105" spans="1:1">
-      <c r="A105" s="166" t="s">
-        <v>534</v>
-      </c>
-    </row>
-    <row r="106" spans="1:1">
-      <c r="A106" s="166"/>
-    </row>
-    <row r="107" spans="1:1">
-      <c r="A107" s="166"/>
     </row>
     <row r="108" spans="1:1">
       <c r="A108" s="166"/>
     </row>
     <row r="109" spans="1:1">
-      <c r="A109" s="166"/>
+      <c r="A109" s="155" t="s">
+        <v>507</v>
+      </c>
     </row>
     <row r="110" spans="1:1">
-      <c r="A110" s="166"/>
+      <c r="A110" s="165" t="s">
+        <v>544</v>
+      </c>
     </row>
     <row r="111" spans="1:1">
-      <c r="A111" s="166"/>
+      <c r="A111" s="166" t="s">
+        <v>534</v>
+      </c>
     </row>
     <row r="112" spans="1:1">
       <c r="A112" s="166"/>
@@ -19382,224 +19428,236 @@
       <c r="A122" s="166"/>
     </row>
     <row r="123" spans="1:1">
-      <c r="A123" s="22" t="s">
+      <c r="A123" s="166"/>
+    </row>
+    <row r="124" spans="1:1">
+      <c r="A124" s="166"/>
+    </row>
+    <row r="125" spans="1:1">
+      <c r="A125" s="166"/>
+    </row>
+    <row r="126" spans="1:1">
+      <c r="A126" s="166"/>
+    </row>
+    <row r="127" spans="1:1">
+      <c r="A127" s="166"/>
+    </row>
+    <row r="128" spans="1:1">
+      <c r="A128" s="45" t="s">
+        <v>577</v>
+      </c>
+    </row>
+    <row r="129" spans="1:1">
+      <c r="A129" s="43" t="s">
+        <v>580</v>
+      </c>
+    </row>
+    <row r="130" spans="1:1">
+      <c r="A130" s="43" t="s">
+        <v>578</v>
+      </c>
+    </row>
+    <row r="131" spans="1:1">
+      <c r="A131" s="43"/>
+    </row>
+    <row r="132" spans="1:1">
+      <c r="A132" s="44" t="s">
+        <v>581</v>
+      </c>
+    </row>
+    <row r="133" spans="1:1">
+      <c r="A133" s="44" t="s">
+        <v>582</v>
+      </c>
+    </row>
+    <row r="134" spans="1:1">
+      <c r="A134" s="168" t="s">
+        <v>579</v>
+      </c>
+    </row>
+    <row r="135" spans="1:1">
+      <c r="A135" s="26"/>
+    </row>
+    <row r="136" spans="1:1">
+      <c r="A136" s="166" t="s">
+        <v>583</v>
+      </c>
+    </row>
+    <row r="137" spans="1:1">
+      <c r="A137" s="26"/>
+    </row>
+    <row r="138" spans="1:1">
+      <c r="A138" s="166" t="s">
+        <v>584</v>
+      </c>
+    </row>
+    <row r="139" spans="1:1">
+      <c r="A139" s="26"/>
+    </row>
+    <row r="140" spans="1:1">
+      <c r="A140" s="26"/>
+    </row>
+    <row r="141" spans="1:1">
+      <c r="A141" s="22" t="s">
         <v>231</v>
       </c>
     </row>
-    <row r="124" spans="1:1" ht="15.75">
-      <c r="A124" t="s">
+    <row r="142" spans="1:1" ht="15.75">
+      <c r="A142" t="s">
         <v>232</v>
       </c>
     </row>
-    <row r="125" spans="1:1" ht="15.75">
-      <c r="A125" t="s">
+    <row r="143" spans="1:1" ht="15.75">
+      <c r="A143" t="s">
         <v>233</v>
       </c>
     </row>
-    <row r="126" spans="1:1">
-      <c r="A126" s="26" t="s">
+    <row r="144" spans="1:1">
+      <c r="A144" s="26" t="s">
         <v>234</v>
       </c>
     </row>
-    <row r="127" spans="1:1">
-      <c r="A127" s="26" t="s">
+    <row r="145" spans="1:1">
+      <c r="A145" s="26" t="s">
         <v>235</v>
       </c>
     </row>
-    <row r="129" spans="1:1">
-      <c r="A129" s="161" t="s">
+    <row r="147" spans="1:1">
+      <c r="A147" s="161" t="s">
         <v>516</v>
       </c>
     </row>
-    <row r="130" spans="1:1">
-      <c r="A130" s="46"/>
-    </row>
-    <row r="131" spans="1:1">
-      <c r="A131" s="46"/>
-    </row>
-    <row r="150" spans="1:1">
-      <c r="A150" s="26"/>
-    </row>
-    <row r="151" spans="1:1">
-      <c r="A151" s="45" t="s">
+    <row r="148" spans="1:1">
+      <c r="A148" s="46"/>
+    </row>
+    <row r="149" spans="1:1">
+      <c r="A149" s="46"/>
+    </row>
+    <row r="168" spans="1:1">
+      <c r="A168" s="26"/>
+    </row>
+    <row r="169" spans="1:1">
+      <c r="A169" s="45" t="s">
         <v>536</v>
       </c>
     </row>
-    <row r="152" spans="1:1">
-      <c r="A152" s="43" t="s">
+    <row r="170" spans="1:1">
+      <c r="A170" s="43" t="s">
         <v>537</v>
       </c>
     </row>
-    <row r="153" spans="1:1">
-      <c r="A153" s="43"/>
-    </row>
-    <row r="154" spans="1:1">
-      <c r="A154" s="43" t="s">
+    <row r="171" spans="1:1">
+      <c r="A171" s="43"/>
+    </row>
+    <row r="172" spans="1:1">
+      <c r="A172" s="43" t="s">
         <v>538</v>
       </c>
     </row>
-    <row r="155" spans="1:1">
-      <c r="A155" s="44" t="s">
+    <row r="173" spans="1:1">
+      <c r="A173" s="44" t="s">
         <v>550</v>
       </c>
     </row>
-    <row r="156" spans="1:1">
-      <c r="A156" s="46" t="s">
+    <row r="174" spans="1:1">
+      <c r="A174" s="46" t="s">
         <v>539</v>
       </c>
     </row>
-    <row r="157" spans="1:1">
-      <c r="A157" s="164" t="s">
+    <row r="175" spans="1:1">
+      <c r="A175" s="164" t="s">
         <v>543</v>
       </c>
     </row>
-    <row r="159" spans="1:1">
-      <c r="A159" t="s">
+    <row r="177" spans="1:1">
+      <c r="A177" t="s">
         <v>540</v>
       </c>
     </row>
-    <row r="160" spans="1:1">
-      <c r="A160" t="s">
+    <row r="178" spans="1:1">
+      <c r="A178" t="s">
         <v>551</v>
       </c>
     </row>
-    <row r="161" spans="1:1">
-      <c r="A161" t="s">
+    <row r="179" spans="1:1">
+      <c r="A179" t="s">
         <v>552</v>
       </c>
     </row>
-    <row r="162" spans="1:1">
-      <c r="A162" t="s">
+    <row r="180" spans="1:1">
+      <c r="A180" t="s">
         <v>541</v>
       </c>
     </row>
-    <row r="163" spans="1:1">
-      <c r="A163" t="s">
+    <row r="181" spans="1:1">
+      <c r="A181" t="s">
         <v>542</v>
       </c>
     </row>
-    <row r="179" spans="1:1">
-      <c r="A179" s="22" t="s">
+    <row r="197" spans="1:1">
+      <c r="A197" s="22" t="s">
         <v>553</v>
       </c>
     </row>
-    <row r="180" spans="1:1">
-      <c r="A180" s="158" t="s">
+    <row r="198" spans="1:1">
+      <c r="A198" s="158" t="s">
+        <v>593</v>
+      </c>
+    </row>
+    <row r="199" spans="1:1">
+      <c r="A199" s="43" t="s">
+        <v>595</v>
+      </c>
+    </row>
+    <row r="200" spans="1:1">
+      <c r="A200" s="43" t="s">
+        <v>596</v>
+      </c>
+    </row>
+    <row r="201" spans="1:1">
+      <c r="A201" s="43" t="s">
+        <v>597</v>
+      </c>
+    </row>
+    <row r="202" spans="1:1">
+      <c r="A202" s="43"/>
+    </row>
+    <row r="203" spans="1:1">
+      <c r="A203" s="158" t="s">
         <v>594</v>
       </c>
     </row>
-    <row r="181" spans="1:1">
-      <c r="A181" s="43" t="s">
-        <v>596</v>
-      </c>
-    </row>
-    <row r="182" spans="1:1">
-      <c r="A182" s="43" t="s">
-        <v>597</v>
-      </c>
-    </row>
-    <row r="183" spans="1:1">
-      <c r="A183" s="43" t="s">
+    <row r="204" spans="1:1">
+      <c r="A204" s="43" t="s">
+        <v>600</v>
+      </c>
+    </row>
+    <row r="205" spans="1:1">
+      <c r="A205" s="43" t="s">
         <v>598</v>
       </c>
     </row>
-    <row r="184" spans="1:1">
-      <c r="A184" s="43"/>
-    </row>
-    <row r="185" spans="1:1">
-      <c r="A185" s="158" t="s">
-        <v>595</v>
-      </c>
-    </row>
-    <row r="186" spans="1:1">
-      <c r="A186" s="43" t="s">
-        <v>601</v>
-      </c>
-    </row>
-    <row r="187" spans="1:1">
-      <c r="A187" s="43" t="s">
+    <row r="206" spans="1:1">
+      <c r="A206" s="43" t="s">
         <v>599</v>
       </c>
     </row>
-    <row r="188" spans="1:1">
-      <c r="A188" s="43" t="s">
-        <v>600</v>
-      </c>
-    </row>
-    <row r="189" spans="1:1">
-      <c r="A189" s="158"/>
-    </row>
-    <row r="190" spans="1:1">
-      <c r="A190" s="158" t="s">
+    <row r="207" spans="1:1">
+      <c r="A207" s="158"/>
+    </row>
+    <row r="208" spans="1:1">
+      <c r="A208" s="158" t="s">
         <v>554</v>
       </c>
     </row>
-    <row r="191" spans="1:1">
-      <c r="A191" s="158"/>
-    </row>
-    <row r="192" spans="1:1">
-      <c r="A192" s="43" t="s">
+    <row r="209" spans="1:1">
+      <c r="A209" s="43" t="s">
         <v>555</v>
-      </c>
-    </row>
-    <row r="193" spans="1:1">
-      <c r="A193" s="43" t="s">
-        <v>556</v>
-      </c>
-    </row>
-    <row r="194" spans="1:1">
-      <c r="A194" s="26"/>
-    </row>
-    <row r="195" spans="1:1">
-      <c r="A195" s="26"/>
-    </row>
-    <row r="196" spans="1:1">
-      <c r="A196" s="26"/>
-    </row>
-    <row r="197" spans="1:1">
-      <c r="A197" s="26"/>
-    </row>
-    <row r="198" spans="1:1">
-      <c r="A198" s="26"/>
-    </row>
-    <row r="199" spans="1:1">
-      <c r="A199" s="26"/>
-    </row>
-    <row r="200" spans="1:1">
-      <c r="A200" s="26"/>
-    </row>
-    <row r="201" spans="1:1">
-      <c r="A201" s="26"/>
-    </row>
-    <row r="202" spans="1:1">
-      <c r="A202" s="26"/>
-    </row>
-    <row r="203" spans="1:1">
-      <c r="A203" s="26"/>
-    </row>
-    <row r="204" spans="1:1">
-      <c r="A204" s="26"/>
-    </row>
-    <row r="205" spans="1:1">
-      <c r="A205" s="26"/>
-    </row>
-    <row r="206" spans="1:1">
-      <c r="A206" s="26"/>
-    </row>
-    <row r="207" spans="1:1">
-      <c r="A207" s="26"/>
-    </row>
-    <row r="208" spans="1:1">
-      <c r="A208" s="26"/>
-    </row>
-    <row r="209" spans="1:1">
-      <c r="A209" s="158" t="s">
-        <v>557</v>
       </c>
     </row>
     <row r="210" spans="1:1">
       <c r="A210" s="43" t="s">
-        <v>558</v>
+        <v>556</v>
       </c>
     </row>
     <row r="211" spans="1:1">
@@ -19645,43 +19703,35 @@
       <c r="A224" s="26"/>
     </row>
     <row r="225" spans="1:1">
-      <c r="A225" s="45" t="s">
-        <v>559</v>
-      </c>
+      <c r="A225" s="26"/>
     </row>
     <row r="226" spans="1:1">
-      <c r="A226" s="43" t="s">
-        <v>560</v>
+      <c r="A226" s="158" t="s">
+        <v>557</v>
       </c>
     </row>
     <row r="227" spans="1:1">
-      <c r="A227" s="42"/>
+      <c r="A227" s="43" t="s">
+        <v>558</v>
+      </c>
     </row>
     <row r="228" spans="1:1">
-      <c r="A228" s="43" t="s">
-        <v>561</v>
-      </c>
+      <c r="A228" s="26"/>
     </row>
     <row r="229" spans="1:1">
-      <c r="A229" s="44" t="s">
-        <v>562</v>
-      </c>
+      <c r="A229" s="26"/>
     </row>
     <row r="230" spans="1:1">
-      <c r="A230" s="168" t="s">
-        <v>563</v>
-      </c>
+      <c r="A230" s="26"/>
     </row>
     <row r="231" spans="1:1">
       <c r="A231" s="26"/>
     </row>
     <row r="232" spans="1:1">
-      <c r="A232" s="43" t="s">
-        <v>564</v>
-      </c>
+      <c r="A232" s="26"/>
     </row>
     <row r="233" spans="1:1">
-      <c r="A233" s="43"/>
+      <c r="A233" s="26"/>
     </row>
     <row r="234" spans="1:1">
       <c r="A234" s="26"/>
@@ -19708,977 +19758,971 @@
       <c r="A241" s="26"/>
     </row>
     <row r="242" spans="1:1">
-      <c r="A242" s="26"/>
+      <c r="A242" s="45" t="s">
+        <v>559</v>
+      </c>
     </row>
     <row r="243" spans="1:1">
-      <c r="A243" s="26"/>
+      <c r="A243" s="43" t="s">
+        <v>560</v>
+      </c>
     </row>
     <row r="244" spans="1:1">
-      <c r="A244" s="26"/>
+      <c r="A244" s="42"/>
     </row>
     <row r="245" spans="1:1">
-      <c r="A245" s="26"/>
+      <c r="A245" s="43" t="s">
+        <v>561</v>
+      </c>
     </row>
     <row r="246" spans="1:1">
-      <c r="A246" s="26"/>
+      <c r="A246" s="44" t="s">
+        <v>562</v>
+      </c>
     </row>
     <row r="247" spans="1:1">
-      <c r="A247" s="45" t="s">
-        <v>565</v>
+      <c r="A247" s="168" t="s">
+        <v>563</v>
       </c>
     </row>
     <row r="248" spans="1:1">
-      <c r="A248" s="43" t="s">
-        <v>546</v>
-      </c>
+      <c r="A248" s="26"/>
     </row>
     <row r="249" spans="1:1">
       <c r="A249" s="43" t="s">
+        <v>564</v>
+      </c>
+    </row>
+    <row r="250" spans="1:1">
+      <c r="A250" s="43"/>
+    </row>
+    <row r="251" spans="1:1">
+      <c r="A251" s="26"/>
+    </row>
+    <row r="252" spans="1:1">
+      <c r="A252" s="26"/>
+    </row>
+    <row r="253" spans="1:1">
+      <c r="A253" s="26"/>
+    </row>
+    <row r="254" spans="1:1">
+      <c r="A254" s="26"/>
+    </row>
+    <row r="255" spans="1:1">
+      <c r="A255" s="26"/>
+    </row>
+    <row r="256" spans="1:1">
+      <c r="A256" s="26"/>
+    </row>
+    <row r="257" spans="1:1">
+      <c r="A257" s="26"/>
+    </row>
+    <row r="258" spans="1:1">
+      <c r="A258" s="26"/>
+    </row>
+    <row r="259" spans="1:1">
+      <c r="A259" s="26"/>
+    </row>
+    <row r="260" spans="1:1">
+      <c r="A260" s="26"/>
+    </row>
+    <row r="261" spans="1:1">
+      <c r="A261" s="26"/>
+    </row>
+    <row r="262" spans="1:1">
+      <c r="A262" s="26"/>
+    </row>
+    <row r="263" spans="1:1">
+      <c r="A263" s="26"/>
+    </row>
+    <row r="264" spans="1:1">
+      <c r="A264" s="45" t="s">
+        <v>565</v>
+      </c>
+    </row>
+    <row r="265" spans="1:1">
+      <c r="A265" s="43" t="s">
+        <v>546</v>
+      </c>
+    </row>
+    <row r="266" spans="1:1">
+      <c r="A266" s="43" t="s">
         <v>535</v>
       </c>
     </row>
-    <row r="250" spans="1:1">
-      <c r="A250" s="43" t="s">
+    <row r="267" spans="1:1">
+      <c r="A267" s="43" t="s">
         <v>548</v>
       </c>
     </row>
-    <row r="251" spans="1:1">
-      <c r="A251" s="43" t="s">
+    <row r="268" spans="1:1">
+      <c r="A268" s="43" t="s">
         <v>549</v>
       </c>
     </row>
-    <row r="252" spans="1:1">
-      <c r="A252" s="42"/>
-    </row>
-    <row r="253" spans="1:1">
-      <c r="A253" s="158" t="s">
-        <v>591</v>
-      </c>
-    </row>
-    <row r="254" spans="1:1">
-      <c r="A254" s="167" t="s">
+    <row r="269" spans="1:1">
+      <c r="A269" s="42"/>
+    </row>
+    <row r="270" spans="1:1">
+      <c r="A270" s="158" t="s">
+        <v>590</v>
+      </c>
+    </row>
+    <row r="271" spans="1:1">
+      <c r="A271" s="167" t="s">
         <v>547</v>
       </c>
     </row>
-    <row r="255" spans="1:1">
-      <c r="A255" s="43"/>
-    </row>
-    <row r="256" spans="1:1">
-      <c r="A256" s="43" t="s">
+    <row r="272" spans="1:1">
+      <c r="A272" s="43"/>
+    </row>
+    <row r="273" spans="1:7">
+      <c r="A273" s="43" t="s">
         <v>566</v>
       </c>
     </row>
-    <row r="257" spans="1:7">
-      <c r="A257" s="26"/>
-    </row>
-    <row r="258" spans="1:7">
-      <c r="A258" s="26"/>
-    </row>
-    <row r="259" spans="1:7">
-      <c r="A259" s="26"/>
-    </row>
-    <row r="260" spans="1:7">
-      <c r="A260" s="26"/>
-    </row>
-    <row r="261" spans="1:7">
-      <c r="A261" s="26"/>
-    </row>
-    <row r="262" spans="1:7">
-      <c r="A262" s="26"/>
-    </row>
-    <row r="263" spans="1:7">
-      <c r="A263" s="26"/>
-    </row>
-    <row r="264" spans="1:7">
-      <c r="A264" s="26"/>
-    </row>
-    <row r="265" spans="1:7">
-      <c r="A265" s="26"/>
-    </row>
-    <row r="266" spans="1:7" ht="15.75" thickBot="1">
-      <c r="A266" s="26"/>
-    </row>
-    <row r="267" spans="1:7" ht="15.75" thickBot="1">
-      <c r="A267" s="266" t="s">
+    <row r="274" spans="1:7">
+      <c r="A274" s="26"/>
+    </row>
+    <row r="275" spans="1:7">
+      <c r="A275" s="26"/>
+    </row>
+    <row r="276" spans="1:7">
+      <c r="A276" s="26"/>
+    </row>
+    <row r="277" spans="1:7">
+      <c r="A277" s="26"/>
+    </row>
+    <row r="278" spans="1:7">
+      <c r="A278" s="26"/>
+    </row>
+    <row r="279" spans="1:7">
+      <c r="A279" s="26"/>
+    </row>
+    <row r="280" spans="1:7">
+      <c r="A280" s="26"/>
+    </row>
+    <row r="281" spans="1:7">
+      <c r="A281" s="26"/>
+    </row>
+    <row r="282" spans="1:7">
+      <c r="A282" s="26"/>
+    </row>
+    <row r="283" spans="1:7" ht="15.75" thickBot="1">
+      <c r="A283" s="26"/>
+    </row>
+    <row r="284" spans="1:7" ht="15.75" thickBot="1">
+      <c r="A284" s="267" t="s">
         <v>245</v>
       </c>
-      <c r="B267" s="267"/>
-      <c r="C267" s="268"/>
-      <c r="E267" s="266" t="s">
+      <c r="B284" s="268"/>
+      <c r="C284" s="269"/>
+      <c r="E284" s="267" t="s">
         <v>251</v>
       </c>
-      <c r="F267" s="267"/>
-      <c r="G267" s="268"/>
-    </row>
-    <row r="268" spans="1:7" ht="15.75" thickBot="1">
-      <c r="A268" s="48" t="s">
+      <c r="F284" s="268"/>
+      <c r="G284" s="269"/>
+    </row>
+    <row r="285" spans="1:7" ht="15.75" thickBot="1">
+      <c r="A285" s="48" t="s">
         <v>246</v>
       </c>
-      <c r="B268" s="49" t="s">
+      <c r="B285" s="49" t="s">
         <v>247</v>
       </c>
-      <c r="C268" s="50" t="s">
+      <c r="C285" s="50" t="s">
         <v>248</v>
       </c>
-      <c r="E268" s="48" t="s">
+      <c r="E285" s="48" t="s">
         <v>246</v>
       </c>
-      <c r="F268" s="49" t="s">
+      <c r="F285" s="49" t="s">
         <v>247</v>
       </c>
-      <c r="G268" s="50" t="s">
+      <c r="G285" s="50" t="s">
         <v>248</v>
       </c>
     </row>
-    <row r="269" spans="1:7">
-      <c r="A269" s="51" t="s">
+    <row r="286" spans="1:7">
+      <c r="A286" s="51" t="s">
         <v>249</v>
       </c>
-      <c r="B269" s="52" t="s">
+      <c r="B286" s="52" t="s">
         <v>249</v>
       </c>
-      <c r="C269" s="53" t="s">
+      <c r="C286" s="53" t="s">
         <v>249</v>
       </c>
-      <c r="E269" s="51" t="s">
+      <c r="E286" s="51" t="s">
         <v>249</v>
       </c>
-      <c r="F269" s="52" t="s">
+      <c r="F286" s="52" t="s">
         <v>249</v>
       </c>
-      <c r="G269" s="53" t="s">
+      <c r="G286" s="53" t="s">
         <v>249</v>
       </c>
     </row>
-    <row r="270" spans="1:7">
-      <c r="A270" s="54" t="s">
+    <row r="287" spans="1:7">
+      <c r="A287" s="54" t="s">
         <v>249</v>
       </c>
-      <c r="B270" s="47" t="s">
+      <c r="B287" s="47" t="s">
         <v>250</v>
       </c>
-      <c r="C270" s="55" t="s">
+      <c r="C287" s="55" t="s">
         <v>250</v>
       </c>
-      <c r="E270" s="54" t="s">
+      <c r="E287" s="54" t="s">
         <v>249</v>
       </c>
-      <c r="F270" s="47" t="s">
+      <c r="F287" s="47" t="s">
         <v>250</v>
       </c>
-      <c r="G270" s="55" t="s">
+      <c r="G287" s="55" t="s">
         <v>249</v>
       </c>
     </row>
-    <row r="271" spans="1:7">
-      <c r="A271" s="54" t="s">
+    <row r="288" spans="1:7">
+      <c r="A288" s="54" t="s">
         <v>250</v>
       </c>
-      <c r="B271" s="47" t="s">
+      <c r="B288" s="47" t="s">
         <v>249</v>
       </c>
-      <c r="C271" s="55" t="s">
+      <c r="C288" s="55" t="s">
         <v>250</v>
       </c>
-      <c r="E271" s="54" t="s">
+      <c r="E288" s="54" t="s">
         <v>250</v>
       </c>
-      <c r="F271" s="47" t="s">
+      <c r="F288" s="47" t="s">
         <v>249</v>
       </c>
-      <c r="G271" s="55" t="s">
+      <c r="G288" s="55" t="s">
         <v>249</v>
       </c>
     </row>
-    <row r="272" spans="1:7" ht="15.75" thickBot="1">
-      <c r="A272" s="56" t="s">
+    <row r="289" spans="1:7" ht="15.75" thickBot="1">
+      <c r="A289" s="56" t="s">
         <v>250</v>
       </c>
-      <c r="B272" s="57" t="s">
+      <c r="B289" s="57" t="s">
         <v>250</v>
       </c>
-      <c r="C272" s="58" t="s">
+      <c r="C289" s="58" t="s">
         <v>250</v>
       </c>
-      <c r="E272" s="56" t="s">
+      <c r="E289" s="56" t="s">
         <v>250</v>
       </c>
-      <c r="F272" s="57" t="s">
+      <c r="F289" s="57" t="s">
         <v>250</v>
       </c>
-      <c r="G272" s="58" t="s">
+      <c r="G289" s="58" t="s">
         <v>250</v>
       </c>
     </row>
-    <row r="273" spans="1:2">
-      <c r="A273" s="26"/>
-    </row>
-    <row r="274" spans="1:2">
-      <c r="A274" s="26"/>
-    </row>
-    <row r="275" spans="1:2">
-      <c r="A275" s="43" t="s">
+    <row r="290" spans="1:7">
+      <c r="A290" s="26"/>
+    </row>
+    <row r="291" spans="1:7">
+      <c r="A291" s="26"/>
+    </row>
+    <row r="292" spans="1:7">
+      <c r="A292" s="43" t="s">
         <v>570</v>
       </c>
     </row>
-    <row r="276" spans="1:2">
-      <c r="A276" s="43"/>
-    </row>
-    <row r="277" spans="1:2">
-      <c r="A277" s="269" t="s">
+    <row r="293" spans="1:7">
+      <c r="A293" s="43"/>
+    </row>
+    <row r="294" spans="1:7">
+      <c r="A294" s="169" t="s">
         <v>507</v>
       </c>
     </row>
-    <row r="278" spans="1:2">
-      <c r="A278" s="42" t="s">
+    <row r="295" spans="1:7">
+      <c r="A295" s="42" t="s">
+        <v>601</v>
+      </c>
+    </row>
+    <row r="296" spans="1:7">
+      <c r="A296" s="42"/>
+    </row>
+    <row r="297" spans="1:7">
+      <c r="A297" s="43" t="s">
+        <v>571</v>
+      </c>
+    </row>
+    <row r="298" spans="1:7">
+      <c r="A298" s="43" t="s">
+        <v>572</v>
+      </c>
+    </row>
+    <row r="299" spans="1:7">
+      <c r="A299" s="43" t="s">
+        <v>573</v>
+      </c>
+    </row>
+    <row r="300" spans="1:7">
+      <c r="A300" s="43" t="s">
+        <v>574</v>
+      </c>
+    </row>
+    <row r="303" spans="1:7">
+      <c r="A303" s="45" t="s">
+        <v>567</v>
+      </c>
+    </row>
+    <row r="304" spans="1:7">
+      <c r="A304" s="43" t="s">
+        <v>575</v>
+      </c>
+    </row>
+    <row r="305" spans="1:2">
+      <c r="A305" s="158" t="s">
         <v>602</v>
       </c>
     </row>
-    <row r="279" spans="1:2">
-      <c r="A279" s="42"/>
-    </row>
-    <row r="280" spans="1:2">
-      <c r="A280" s="43" t="s">
-        <v>571</v>
-      </c>
-    </row>
-    <row r="281" spans="1:2">
-      <c r="A281" s="43" t="s">
-        <v>572</v>
-      </c>
-    </row>
-    <row r="282" spans="1:2">
-      <c r="A282" s="43" t="s">
-        <v>573</v>
-      </c>
-    </row>
-    <row r="283" spans="1:2">
-      <c r="A283" s="43" t="s">
-        <v>574</v>
-      </c>
-    </row>
-    <row r="285" spans="1:2">
-      <c r="A285" s="22" t="s">
+    <row r="306" spans="1:2">
+      <c r="A306" s="158"/>
+    </row>
+    <row r="307" spans="1:2">
+      <c r="A307" s="158" t="s">
+        <v>568</v>
+      </c>
+    </row>
+    <row r="308" spans="1:2">
+      <c r="A308" s="43" t="s">
+        <v>603</v>
+      </c>
+    </row>
+    <row r="309" spans="1:2">
+      <c r="A309" s="42"/>
+    </row>
+    <row r="310" spans="1:2">
+      <c r="A310" s="43" t="s">
+        <v>576</v>
+      </c>
+    </row>
+    <row r="311" spans="1:2">
+      <c r="A311" s="43" t="s">
+        <v>569</v>
+      </c>
+    </row>
+    <row r="312" spans="1:2">
+      <c r="A312" s="26"/>
+    </row>
+    <row r="313" spans="1:2">
+      <c r="A313" s="22" t="s">
         <v>403</v>
-      </c>
-    </row>
-    <row r="286" spans="1:2">
-      <c r="B286" t="s">
-        <v>404</v>
-      </c>
-    </row>
-    <row r="287" spans="1:2">
-      <c r="B287" t="s">
-        <v>405</v>
-      </c>
-    </row>
-    <row r="288" spans="1:2">
-      <c r="B288" t="s">
-        <v>406</v>
-      </c>
-    </row>
-    <row r="289" spans="1:2">
-      <c r="B289" t="s">
-        <v>407</v>
-      </c>
-    </row>
-    <row r="291" spans="1:2">
-      <c r="B291" t="s">
-        <v>411</v>
-      </c>
-    </row>
-    <row r="292" spans="1:2">
-      <c r="B292" t="s">
-        <v>405</v>
-      </c>
-    </row>
-    <row r="293" spans="1:2">
-      <c r="B293" t="s">
-        <v>406</v>
-      </c>
-    </row>
-    <row r="294" spans="1:2">
-      <c r="B294" t="s">
-        <v>417</v>
-      </c>
-    </row>
-    <row r="296" spans="1:2">
-      <c r="B296" t="s">
-        <v>408</v>
-      </c>
-    </row>
-    <row r="297" spans="1:2">
-      <c r="B297" t="s">
-        <v>409</v>
-      </c>
-    </row>
-    <row r="298" spans="1:2">
-      <c r="B298" t="s">
-        <v>410</v>
-      </c>
-    </row>
-    <row r="299" spans="1:2">
-      <c r="B299" t="s">
-        <v>407</v>
-      </c>
-    </row>
-    <row r="301" spans="1:2">
-      <c r="A301" s="22" t="s">
-        <v>348</v>
-      </c>
-    </row>
-    <row r="302" spans="1:2">
-      <c r="A302" s="26" t="s">
-        <v>517</v>
-      </c>
-    </row>
-    <row r="303" spans="1:2">
-      <c r="B303" t="s">
-        <v>412</v>
-      </c>
-    </row>
-    <row r="304" spans="1:2">
-      <c r="B304" t="s">
-        <v>413</v>
-      </c>
-    </row>
-    <row r="306" spans="1:2">
-      <c r="B306" s="155" t="s">
-        <v>423</v>
-      </c>
-    </row>
-    <row r="307" spans="1:2">
-      <c r="B307" s="147" t="s">
-        <v>422</v>
-      </c>
-    </row>
-    <row r="308" spans="1:2">
-      <c r="A308" s="147"/>
-    </row>
-    <row r="309" spans="1:2">
-      <c r="A309" s="147"/>
-      <c r="B309" s="155" t="s">
-        <v>424</v>
-      </c>
-    </row>
-    <row r="310" spans="1:2">
-      <c r="A310" s="147"/>
-      <c r="B310" t="s">
-        <v>425</v>
-      </c>
-    </row>
-    <row r="311" spans="1:2">
-      <c r="A311" s="147"/>
-    </row>
-    <row r="312" spans="1:2">
-      <c r="A312" s="147"/>
-      <c r="B312" s="155" t="s">
-        <v>416</v>
-      </c>
-    </row>
-    <row r="313" spans="1:2">
-      <c r="B313" t="s">
-        <v>415</v>
       </c>
     </row>
     <row r="314" spans="1:2">
       <c r="B314" t="s">
-        <v>351</v>
+        <v>404</v>
       </c>
     </row>
     <row r="315" spans="1:2">
       <c r="B315" t="s">
-        <v>414</v>
+        <v>405</v>
+      </c>
+    </row>
+    <row r="316" spans="1:2">
+      <c r="B316" t="s">
+        <v>406</v>
       </c>
     </row>
     <row r="317" spans="1:2">
-      <c r="B317" s="155" t="s">
-        <v>350</v>
-      </c>
-    </row>
-    <row r="318" spans="1:2">
-      <c r="B318" t="s">
-        <v>352</v>
+      <c r="B317" t="s">
+        <v>407</v>
       </c>
     </row>
     <row r="319" spans="1:2">
       <c r="B319" t="s">
-        <v>414</v>
+        <v>411</v>
+      </c>
+    </row>
+    <row r="320" spans="1:2">
+      <c r="B320" t="s">
+        <v>405</v>
+      </c>
+    </row>
+    <row r="321" spans="1:2">
+      <c r="B321" t="s">
+        <v>406</v>
       </c>
     </row>
     <row r="322" spans="1:2">
       <c r="B322" t="s">
-        <v>353</v>
-      </c>
-    </row>
-    <row r="323" spans="1:2">
-      <c r="B323" t="s">
-        <v>354</v>
+        <v>417</v>
       </c>
     </row>
     <row r="324" spans="1:2">
       <c r="B324" t="s">
-        <v>426</v>
+        <v>408</v>
       </c>
     </row>
     <row r="325" spans="1:2">
       <c r="B325" t="s">
-        <v>427</v>
+        <v>409</v>
       </c>
     </row>
     <row r="326" spans="1:2">
       <c r="B326" t="s">
-        <v>428</v>
+        <v>410</v>
       </c>
     </row>
     <row r="327" spans="1:2">
       <c r="B327" t="s">
-        <v>429</v>
+        <v>407</v>
+      </c>
+    </row>
+    <row r="329" spans="1:2">
+      <c r="A329" s="22" t="s">
+        <v>348</v>
+      </c>
+    </row>
+    <row r="330" spans="1:2">
+      <c r="A330" s="26" t="s">
+        <v>517</v>
       </c>
     </row>
     <row r="331" spans="1:2">
-      <c r="A331" s="22" t="s">
-        <v>431</v>
+      <c r="B331" t="s">
+        <v>412</v>
       </c>
     </row>
     <row r="332" spans="1:2">
-      <c r="A332" s="155" t="s">
-        <v>430</v>
-      </c>
-    </row>
-    <row r="333" spans="1:2">
-      <c r="B333" t="s">
-        <v>432</v>
+      <c r="B332" t="s">
+        <v>413</v>
       </c>
     </row>
     <row r="334" spans="1:2">
-      <c r="B334" t="s">
-        <v>433</v>
+      <c r="B334" s="155" t="s">
+        <v>423</v>
       </c>
     </row>
     <row r="335" spans="1:2">
-      <c r="B335" t="s">
-        <v>592</v>
+      <c r="B335" s="147" t="s">
+        <v>422</v>
       </c>
     </row>
     <row r="336" spans="1:2">
-      <c r="B336" t="s">
-        <v>593</v>
-      </c>
-    </row>
-    <row r="338" spans="1:3">
+      <c r="A336" s="147"/>
+    </row>
+    <row r="337" spans="1:2">
+      <c r="A337" s="147"/>
+      <c r="B337" s="155" t="s">
+        <v>424</v>
+      </c>
+    </row>
+    <row r="338" spans="1:2">
+      <c r="A338" s="147"/>
       <c r="B338" t="s">
-        <v>355</v>
-      </c>
-    </row>
-    <row r="339" spans="1:3">
-      <c r="C339" t="s">
-        <v>357</v>
-      </c>
-    </row>
-    <row r="340" spans="1:3">
-      <c r="B340" t="s">
-        <v>356</v>
-      </c>
-    </row>
-    <row r="342" spans="1:3">
-      <c r="A342" s="155" t="s">
-        <v>435</v>
-      </c>
-    </row>
-    <row r="343" spans="1:3">
+        <v>425</v>
+      </c>
+    </row>
+    <row r="339" spans="1:2">
+      <c r="A339" s="147"/>
+    </row>
+    <row r="340" spans="1:2">
+      <c r="A340" s="147"/>
+      <c r="B340" s="155" t="s">
+        <v>416</v>
+      </c>
+    </row>
+    <row r="341" spans="1:2">
+      <c r="B341" t="s">
+        <v>415</v>
+      </c>
+    </row>
+    <row r="342" spans="1:2">
+      <c r="B342" t="s">
+        <v>351</v>
+      </c>
+    </row>
+    <row r="343" spans="1:2">
       <c r="B343" t="s">
-        <v>436</v>
-      </c>
-    </row>
-    <row r="344" spans="1:3">
-      <c r="B344" t="s">
-        <v>434</v>
-      </c>
-    </row>
-    <row r="345" spans="1:3">
-      <c r="B345" t="s">
-        <v>437</v>
-      </c>
-    </row>
-    <row r="346" spans="1:3">
+        <v>414</v>
+      </c>
+    </row>
+    <row r="345" spans="1:2">
+      <c r="B345" s="155" t="s">
+        <v>350</v>
+      </c>
+    </row>
+    <row r="346" spans="1:2">
       <c r="B346" t="s">
-        <v>358</v>
-      </c>
-    </row>
-    <row r="347" spans="1:3">
-      <c r="C347" t="s">
-        <v>438</v>
-      </c>
-    </row>
-    <row r="348" spans="1:3">
-      <c r="C348" t="s">
-        <v>357</v>
-      </c>
-    </row>
-    <row r="349" spans="1:3">
-      <c r="C349" t="s">
-        <v>359</v>
-      </c>
-    </row>
-    <row r="350" spans="1:3">
+        <v>352</v>
+      </c>
+    </row>
+    <row r="347" spans="1:2">
+      <c r="B347" t="s">
+        <v>414</v>
+      </c>
+    </row>
+    <row r="350" spans="1:2">
       <c r="B350" t="s">
-        <v>360</v>
-      </c>
-    </row>
-    <row r="352" spans="1:3">
-      <c r="A352" s="155" t="s">
-        <v>439</v>
+        <v>353</v>
+      </c>
+    </row>
+    <row r="351" spans="1:2">
+      <c r="B351" t="s">
+        <v>354</v>
+      </c>
+    </row>
+    <row r="352" spans="1:2">
+      <c r="B352" t="s">
+        <v>426</v>
       </c>
     </row>
     <row r="353" spans="1:3">
-      <c r="A353" t="s">
-        <v>440</v>
+      <c r="B353" t="s">
+        <v>427</v>
       </c>
     </row>
     <row r="354" spans="1:3">
       <c r="B354" t="s">
-        <v>361</v>
+        <v>428</v>
       </c>
     </row>
     <row r="355" spans="1:3">
       <c r="B355" t="s">
-        <v>443</v>
-      </c>
-    </row>
-    <row r="356" spans="1:3">
-      <c r="C356" t="s">
-        <v>445</v>
-      </c>
-    </row>
-    <row r="357" spans="1:3">
-      <c r="B357" t="s">
-        <v>444</v>
+        <v>429</v>
       </c>
     </row>
     <row r="359" spans="1:3">
-      <c r="B359" t="s">
-        <v>446</v>
+      <c r="A359" s="22" t="s">
+        <v>431</v>
       </c>
     </row>
     <row r="360" spans="1:3">
-      <c r="B360" t="s">
-        <v>361</v>
+      <c r="A360" s="155" t="s">
+        <v>430</v>
       </c>
     </row>
     <row r="361" spans="1:3">
       <c r="B361" t="s">
-        <v>441</v>
+        <v>432</v>
       </c>
     </row>
     <row r="362" spans="1:3">
-      <c r="C362" t="s">
-        <v>442</v>
+      <c r="B362" t="s">
+        <v>433</v>
+      </c>
+    </row>
+    <row r="363" spans="1:3">
+      <c r="B363" t="s">
+        <v>591</v>
       </c>
     </row>
     <row r="364" spans="1:3">
       <c r="B364" t="s">
-        <v>447</v>
-      </c>
-    </row>
-    <row r="365" spans="1:3">
-      <c r="B365" t="s">
-        <v>361</v>
+        <v>592</v>
       </c>
     </row>
     <row r="366" spans="1:3">
       <c r="B366" t="s">
+        <v>355</v>
+      </c>
+    </row>
+    <row r="367" spans="1:3">
+      <c r="C367" t="s">
+        <v>357</v>
+      </c>
+    </row>
+    <row r="368" spans="1:3">
+      <c r="B368" t="s">
+        <v>356</v>
+      </c>
+    </row>
+    <row r="370" spans="1:3">
+      <c r="A370" s="155" t="s">
+        <v>435</v>
+      </c>
+    </row>
+    <row r="371" spans="1:3">
+      <c r="B371" t="s">
+        <v>436</v>
+      </c>
+    </row>
+    <row r="372" spans="1:3">
+      <c r="B372" t="s">
+        <v>434</v>
+      </c>
+    </row>
+    <row r="373" spans="1:3">
+      <c r="B373" t="s">
+        <v>437</v>
+      </c>
+    </row>
+    <row r="374" spans="1:3">
+      <c r="B374" t="s">
+        <v>358</v>
+      </c>
+    </row>
+    <row r="375" spans="1:3">
+      <c r="C375" t="s">
+        <v>438</v>
+      </c>
+    </row>
+    <row r="376" spans="1:3">
+      <c r="C376" t="s">
+        <v>357</v>
+      </c>
+    </row>
+    <row r="377" spans="1:3">
+      <c r="C377" t="s">
+        <v>359</v>
+      </c>
+    </row>
+    <row r="378" spans="1:3">
+      <c r="B378" t="s">
+        <v>360</v>
+      </c>
+    </row>
+    <row r="380" spans="1:3">
+      <c r="A380" s="155" t="s">
+        <v>439</v>
+      </c>
+    </row>
+    <row r="381" spans="1:3">
+      <c r="A381" t="s">
+        <v>440</v>
+      </c>
+    </row>
+    <row r="382" spans="1:3">
+      <c r="B382" t="s">
+        <v>361</v>
+      </c>
+    </row>
+    <row r="383" spans="1:3">
+      <c r="B383" t="s">
+        <v>443</v>
+      </c>
+    </row>
+    <row r="384" spans="1:3">
+      <c r="C384" t="s">
+        <v>445</v>
+      </c>
+    </row>
+    <row r="385" spans="1:3">
+      <c r="B385" t="s">
+        <v>444</v>
+      </c>
+    </row>
+    <row r="387" spans="1:3">
+      <c r="B387" t="s">
+        <v>446</v>
+      </c>
+    </row>
+    <row r="388" spans="1:3">
+      <c r="B388" t="s">
+        <v>361</v>
+      </c>
+    </row>
+    <row r="389" spans="1:3">
+      <c r="B389" t="s">
+        <v>441</v>
+      </c>
+    </row>
+    <row r="390" spans="1:3">
+      <c r="C390" t="s">
+        <v>442</v>
+      </c>
+    </row>
+    <row r="392" spans="1:3">
+      <c r="B392" t="s">
+        <v>447</v>
+      </c>
+    </row>
+    <row r="393" spans="1:3">
+      <c r="B393" t="s">
+        <v>361</v>
+      </c>
+    </row>
+    <row r="394" spans="1:3">
+      <c r="B394" t="s">
         <v>448</v>
       </c>
     </row>
-    <row r="367" spans="1:3">
-      <c r="B367" t="s">
+    <row r="395" spans="1:3">
+      <c r="B395" t="s">
         <v>441</v>
       </c>
     </row>
-    <row r="368" spans="1:3">
-      <c r="C368" t="s">
+    <row r="396" spans="1:3">
+      <c r="C396" t="s">
         <v>442</v>
       </c>
     </row>
-    <row r="370" spans="1:2">
-      <c r="A370" s="22" t="s">
+    <row r="398" spans="1:3">
+      <c r="A398" s="22" t="s">
         <v>320</v>
       </c>
     </row>
-    <row r="371" spans="1:2">
-      <c r="A371" t="s">
+    <row r="399" spans="1:3">
+      <c r="A399" t="s">
         <v>449</v>
       </c>
     </row>
-    <row r="374" spans="1:2">
-      <c r="A374" t="s">
+    <row r="402" spans="1:2">
+      <c r="A402" t="s">
         <v>450</v>
       </c>
     </row>
-    <row r="375" spans="1:2">
-      <c r="A375" t="s">
+    <row r="403" spans="1:2">
+      <c r="A403" t="s">
         <v>362</v>
       </c>
     </row>
-    <row r="376" spans="1:2">
-      <c r="B376" t="s">
+    <row r="404" spans="1:2">
+      <c r="B404" t="s">
         <v>363</v>
       </c>
     </row>
-    <row r="377" spans="1:2">
-      <c r="A377" t="s">
+    <row r="405" spans="1:2">
+      <c r="A405" t="s">
         <v>360</v>
       </c>
     </row>
-    <row r="378" spans="1:2">
-      <c r="A378" t="s">
+    <row r="406" spans="1:2">
+      <c r="A406" t="s">
         <v>364</v>
       </c>
     </row>
-    <row r="380" spans="1:2">
-      <c r="A380" t="s">
+    <row r="408" spans="1:2">
+      <c r="A408" t="s">
         <v>365</v>
       </c>
     </row>
-    <row r="381" spans="1:2">
-      <c r="A381" t="s">
+    <row r="409" spans="1:2">
+      <c r="A409" t="s">
         <v>366</v>
       </c>
     </row>
-    <row r="382" spans="1:2">
-      <c r="A382" t="s">
+    <row r="410" spans="1:2">
+      <c r="A410" t="s">
         <v>367</v>
       </c>
     </row>
-    <row r="383" spans="1:2">
-      <c r="B383" t="s">
+    <row r="411" spans="1:2">
+      <c r="B411" t="s">
         <v>368</v>
       </c>
     </row>
-    <row r="384" spans="1:2">
-      <c r="A384" t="s">
+    <row r="412" spans="1:2">
+      <c r="A412" t="s">
         <v>360</v>
       </c>
-      <c r="B384" t="s">
+      <c r="B412" t="s">
         <v>369</v>
       </c>
     </row>
-    <row r="385" spans="1:2">
-      <c r="B385" t="s">
+    <row r="413" spans="1:2">
+      <c r="B413" t="s">
         <v>370</v>
       </c>
     </row>
-    <row r="386" spans="1:2">
-      <c r="A386" t="s">
+    <row r="414" spans="1:2">
+      <c r="A414" t="s">
         <v>360</v>
       </c>
     </row>
-    <row r="390" spans="1:2">
-      <c r="A390" t="s">
+    <row r="418" spans="1:2">
+      <c r="A418" t="s">
         <v>371</v>
-      </c>
-    </row>
-    <row r="391" spans="1:2">
-      <c r="A391" t="s">
-        <v>372</v>
-      </c>
-    </row>
-    <row r="392" spans="1:2">
-      <c r="B392" t="s">
-        <v>373</v>
-      </c>
-    </row>
-    <row r="393" spans="1:2">
-      <c r="B393" t="s">
-        <v>374</v>
-      </c>
-    </row>
-    <row r="394" spans="1:2">
-      <c r="B394" t="s">
-        <v>375</v>
-      </c>
-    </row>
-    <row r="395" spans="1:2">
-      <c r="B395" t="s">
-        <v>376</v>
-      </c>
-    </row>
-    <row r="396" spans="1:2">
-      <c r="B396" t="s">
-        <v>377</v>
-      </c>
-    </row>
-    <row r="397" spans="1:2">
-      <c r="B397" t="s">
-        <v>375</v>
-      </c>
-    </row>
-    <row r="398" spans="1:2">
-      <c r="B398" t="s">
-        <v>378</v>
-      </c>
-    </row>
-    <row r="399" spans="1:2">
-      <c r="B399" t="s">
-        <v>379</v>
-      </c>
-    </row>
-    <row r="400" spans="1:2">
-      <c r="B400" t="s">
-        <v>375</v>
-      </c>
-    </row>
-    <row r="401" spans="1:3">
-      <c r="B401" t="s">
-        <v>380</v>
-      </c>
-    </row>
-    <row r="402" spans="1:3">
-      <c r="B402" t="s">
-        <v>381</v>
-      </c>
-    </row>
-    <row r="403" spans="1:3">
-      <c r="B403" t="s">
-        <v>375</v>
-      </c>
-    </row>
-    <row r="404" spans="1:3">
-      <c r="A404" t="s">
-        <v>360</v>
-      </c>
-    </row>
-    <row r="408" spans="1:3">
-      <c r="A408" t="s">
-        <v>382</v>
-      </c>
-    </row>
-    <row r="409" spans="1:3">
-      <c r="B409" t="s">
-        <v>383</v>
-      </c>
-    </row>
-    <row r="410" spans="1:3">
-      <c r="B410" t="s">
-        <v>384</v>
-      </c>
-    </row>
-    <row r="411" spans="1:3">
-      <c r="B411" t="s">
-        <v>385</v>
-      </c>
-    </row>
-    <row r="412" spans="1:3">
-      <c r="B412" t="s">
-        <v>386</v>
-      </c>
-    </row>
-    <row r="413" spans="1:3">
-      <c r="B413" t="s">
-        <v>387</v>
-      </c>
-    </row>
-    <row r="414" spans="1:3">
-      <c r="C414" t="s">
-        <v>388</v>
-      </c>
-    </row>
-    <row r="415" spans="1:3">
-      <c r="C415" t="s">
-        <v>389</v>
-      </c>
-    </row>
-    <row r="416" spans="1:3">
-      <c r="C416" t="s">
-        <v>390</v>
-      </c>
-    </row>
-    <row r="417" spans="1:2">
-      <c r="A417" t="s">
-        <v>360</v>
       </c>
     </row>
     <row r="419" spans="1:2">
       <c r="A419" t="s">
-        <v>391</v>
+        <v>372</v>
+      </c>
+    </row>
+    <row r="420" spans="1:2">
+      <c r="B420" t="s">
+        <v>373</v>
+      </c>
+    </row>
+    <row r="421" spans="1:2">
+      <c r="B421" t="s">
+        <v>374</v>
       </c>
     </row>
     <row r="422" spans="1:2">
-      <c r="A422" s="22" t="s">
-        <v>344</v>
+      <c r="B422" t="s">
+        <v>375</v>
       </c>
     </row>
     <row r="423" spans="1:2">
-      <c r="A423" t="s">
-        <v>392</v>
+      <c r="B423" t="s">
+        <v>376</v>
       </c>
     </row>
     <row r="424" spans="1:2">
-      <c r="A424" t="s">
-        <v>394</v>
+      <c r="B424" t="s">
+        <v>377</v>
       </c>
     </row>
     <row r="425" spans="1:2">
-      <c r="A425" t="s">
-        <v>396</v>
+      <c r="B425" t="s">
+        <v>375</v>
       </c>
     </row>
     <row r="426" spans="1:2">
-      <c r="A426" t="s">
-        <v>393</v>
+      <c r="B426" t="s">
+        <v>378</v>
+      </c>
+    </row>
+    <row r="427" spans="1:2">
+      <c r="B427" t="s">
+        <v>379</v>
       </c>
     </row>
     <row r="428" spans="1:2">
-      <c r="A428" t="s">
-        <v>395</v>
+      <c r="B428" t="s">
+        <v>375</v>
       </c>
     </row>
     <row r="429" spans="1:2">
-      <c r="A429" t="s">
-        <v>397</v>
+      <c r="B429" t="s">
+        <v>380</v>
       </c>
     </row>
     <row r="430" spans="1:2">
       <c r="B430" t="s">
-        <v>398</v>
+        <v>381</v>
       </c>
     </row>
     <row r="431" spans="1:2">
-      <c r="A431" t="s">
-        <v>360</v>
+      <c r="B431" t="s">
+        <v>375</v>
       </c>
     </row>
     <row r="432" spans="1:2">
       <c r="A432" t="s">
+        <v>360</v>
+      </c>
+    </row>
+    <row r="435" spans="1:3">
+      <c r="A435" t="s">
+        <v>382</v>
+      </c>
+    </row>
+    <row r="436" spans="1:3">
+      <c r="B436" t="s">
+        <v>383</v>
+      </c>
+    </row>
+    <row r="437" spans="1:3">
+      <c r="B437" t="s">
+        <v>384</v>
+      </c>
+    </row>
+    <row r="438" spans="1:3">
+      <c r="B438" t="s">
+        <v>385</v>
+      </c>
+    </row>
+    <row r="439" spans="1:3">
+      <c r="B439" t="s">
+        <v>386</v>
+      </c>
+    </row>
+    <row r="440" spans="1:3">
+      <c r="B440" t="s">
+        <v>387</v>
+      </c>
+    </row>
+    <row r="441" spans="1:3">
+      <c r="C441" t="s">
+        <v>388</v>
+      </c>
+    </row>
+    <row r="442" spans="1:3">
+      <c r="C442" t="s">
+        <v>389</v>
+      </c>
+    </row>
+    <row r="443" spans="1:3">
+      <c r="C443" t="s">
+        <v>390</v>
+      </c>
+    </row>
+    <row r="444" spans="1:3">
+      <c r="A444" t="s">
+        <v>360</v>
+      </c>
+    </row>
+    <row r="446" spans="1:3">
+      <c r="A446" t="s">
+        <v>391</v>
+      </c>
+    </row>
+    <row r="449" spans="1:2">
+      <c r="A449" s="22" t="s">
+        <v>344</v>
+      </c>
+    </row>
+    <row r="450" spans="1:2">
+      <c r="A450" t="s">
+        <v>392</v>
+      </c>
+    </row>
+    <row r="451" spans="1:2">
+      <c r="A451" t="s">
+        <v>394</v>
+      </c>
+    </row>
+    <row r="452" spans="1:2">
+      <c r="A452" t="s">
+        <v>396</v>
+      </c>
+    </row>
+    <row r="453" spans="1:2">
+      <c r="A453" t="s">
+        <v>393</v>
+      </c>
+    </row>
+    <row r="455" spans="1:2">
+      <c r="A455" t="s">
+        <v>395</v>
+      </c>
+    </row>
+    <row r="456" spans="1:2">
+      <c r="A456" t="s">
+        <v>397</v>
+      </c>
+    </row>
+    <row r="457" spans="1:2">
+      <c r="B457" t="s">
+        <v>398</v>
+      </c>
+    </row>
+    <row r="458" spans="1:2">
+      <c r="A458" t="s">
+        <v>360</v>
+      </c>
+    </row>
+    <row r="459" spans="1:2">
+      <c r="A459" t="s">
         <v>399</v>
       </c>
     </row>
-    <row r="437" spans="1:7">
-      <c r="A437" s="22" t="s">
+    <row r="464" spans="1:2">
+      <c r="A464" s="22" t="s">
         <v>585</v>
-      </c>
-    </row>
-    <row r="442" spans="1:7">
-      <c r="A442" s="22" t="s">
-        <v>586</v>
-      </c>
-    </row>
-    <row r="443" spans="1:7">
-      <c r="A443" s="162"/>
-      <c r="B443" s="162"/>
-      <c r="C443" s="162"/>
-      <c r="E443" s="162"/>
-      <c r="F443" s="162"/>
-      <c r="G443" s="162"/>
-    </row>
-    <row r="444" spans="1:7">
-      <c r="A444" s="26"/>
-    </row>
-    <row r="447" spans="1:7">
-      <c r="A447" s="45" t="s">
-        <v>567</v>
-      </c>
-    </row>
-    <row r="448" spans="1:7">
-      <c r="A448" s="43" t="s">
-        <v>575</v>
-      </c>
-    </row>
-    <row r="449" spans="1:1">
-      <c r="A449" s="158" t="s">
-        <v>603</v>
-      </c>
-    </row>
-    <row r="450" spans="1:1">
-      <c r="A450" s="158"/>
-    </row>
-    <row r="451" spans="1:1">
-      <c r="A451" s="158" t="s">
-        <v>568</v>
-      </c>
-    </row>
-    <row r="452" spans="1:1">
-      <c r="A452" s="43" t="s">
-        <v>604</v>
-      </c>
-    </row>
-    <row r="453" spans="1:1">
-      <c r="A453" s="42"/>
-    </row>
-    <row r="454" spans="1:1">
-      <c r="A454" s="43" t="s">
-        <v>576</v>
-      </c>
-    </row>
-    <row r="455" spans="1:1">
-      <c r="A455" s="43" t="s">
-        <v>569</v>
-      </c>
-    </row>
-    <row r="456" spans="1:1">
-      <c r="A456" s="26"/>
-    </row>
-    <row r="457" spans="1:1">
-      <c r="A457" s="26"/>
-    </row>
-    <row r="458" spans="1:1">
-      <c r="A458" s="45" t="s">
-        <v>577</v>
-      </c>
-    </row>
-    <row r="459" spans="1:1">
-      <c r="A459" s="43" t="s">
-        <v>580</v>
-      </c>
-    </row>
-    <row r="460" spans="1:1">
-      <c r="A460" s="43" t="s">
-        <v>578</v>
-      </c>
-    </row>
-    <row r="461" spans="1:1">
-      <c r="A461" s="43"/>
-    </row>
-    <row r="462" spans="1:1">
-      <c r="A462" s="44" t="s">
-        <v>581</v>
-      </c>
-    </row>
-    <row r="463" spans="1:1">
-      <c r="A463" s="44" t="s">
-        <v>582</v>
-      </c>
-    </row>
-    <row r="464" spans="1:1">
-      <c r="A464" s="168" t="s">
-        <v>579</v>
-      </c>
-    </row>
-    <row r="465" spans="1:1">
-      <c r="A465" s="26"/>
-    </row>
-    <row r="466" spans="1:1">
-      <c r="A466" s="166" t="s">
-        <v>583</v>
-      </c>
-    </row>
-    <row r="467" spans="1:1">
-      <c r="A467" s="26"/>
-    </row>
-    <row r="468" spans="1:1">
-      <c r="A468" s="166" t="s">
-        <v>584</v>
       </c>
     </row>
     <row r="469" spans="1:1">
       <c r="A469" s="26"/>
     </row>
-    <row r="470" spans="1:1">
-      <c r="A470" s="26"/>
-    </row>
     <row r="471" spans="1:1">
-      <c r="A471" s="26"/>
+      <c r="A471" s="26" t="s">
+        <v>608</v>
+      </c>
     </row>
     <row r="472" spans="1:1">
       <c r="A472" s="26"/>
@@ -20707,13 +20751,16 @@
     <row r="480" spans="1:1">
       <c r="A480" s="26"/>
     </row>
+    <row r="481" spans="1:1">
+      <c r="A481" s="26"/>
+    </row>
   </sheetData>
   <mergeCells count="2">
-    <mergeCell ref="E267:G267"/>
-    <mergeCell ref="A267:C267"/>
+    <mergeCell ref="E284:G284"/>
+    <mergeCell ref="A284:C284"/>
   </mergeCells>
   <hyperlinks>
-    <hyperlink ref="A452" r:id="rId1" location="js" display="https://code.sololearn.com/658/ - js"/>
+    <hyperlink ref="A308" r:id="rId1" location="js" display="https://code.sololearn.com/658/ - js"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId2"/>
@@ -20723,10 +20770,10 @@
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C10"/>
+  <dimension ref="A1:C11"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A14" sqref="A14"/>
+      <selection activeCell="A11" sqref="A11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -20787,7 +20834,47 @@
     </row>
     <row r="10" spans="1:3">
       <c r="A10" t="s">
-        <v>588</v>
+        <v>587</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3">
+      <c r="A11" t="s">
+        <v>605</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:A4"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A5" sqref="A5"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1" spans="1:1">
+      <c r="A1" s="22" t="s">
+        <v>609</v>
+      </c>
+    </row>
+    <row r="2" spans="1:1">
+      <c r="A2" t="s">
+        <v>610</v>
+      </c>
+    </row>
+    <row r="3" spans="1:1">
+      <c r="A3" s="22" t="s">
+        <v>611</v>
+      </c>
+    </row>
+    <row r="4" spans="1:1">
+      <c r="A4" t="s">
+        <v>612</v>
       </c>
     </row>
   </sheetData>

--- a/General/Curriculum (Personalized).xlsx
+++ b/General/Curriculum (Personalized).xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="11835"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="11835" activeTab="6"/>
   </bookViews>
   <sheets>
     <sheet name="Curriculum" sheetId="1" r:id="rId1"/>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="910" uniqueCount="613">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="912" uniqueCount="615">
   <si>
     <t>Week</t>
   </si>
@@ -5198,6 +5198,12 @@
   </si>
   <si>
     <t>No, it doesn't matter.</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/channel/UC9NVYFh1gs3AShriwWX7NNQ/videos</t>
+  </si>
+  <si>
+    <t>Jobs: https://skillcrush.com/2015/07/14/job-sites-to-find-your-first-developer-job/</t>
   </si>
 </sst>
 </file>
@@ -6845,6 +6851,21 @@
     <xf numFmtId="0" fontId="7" fillId="5" borderId="32" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="31" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="5" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="32" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="23" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -6885,21 +6906,6 @@
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="31" xfId="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="5" xfId="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="32" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="23" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -8007,7 +8013,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:M64"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="H11" sqref="H11:H12"/>
     </sheetView>
   </sheetViews>
@@ -8054,10 +8060,10 @@
       <c r="M1" s="246"/>
     </row>
     <row r="2" spans="1:13" ht="15.75" customHeight="1">
-      <c r="A2" s="198">
+      <c r="A2" s="203">
         <v>1</v>
       </c>
-      <c r="B2" s="193" t="s">
+      <c r="B2" s="198" t="s">
         <v>9</v>
       </c>
       <c r="C2" s="8" t="s">
@@ -8066,10 +8072,10 @@
       <c r="D2" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="E2" s="199" t="s">
+      <c r="E2" s="185" t="s">
         <v>12</v>
       </c>
-      <c r="F2" s="201"/>
+      <c r="F2" s="187"/>
       <c r="G2" s="178"/>
       <c r="H2" s="178"/>
       <c r="I2" s="178" t="s">
@@ -8089,8 +8095,8 @@
       </c>
     </row>
     <row r="3" spans="1:13" ht="15.75" customHeight="1">
-      <c r="A3" s="186"/>
-      <c r="B3" s="194"/>
+      <c r="A3" s="191"/>
+      <c r="B3" s="199"/>
       <c r="C3" s="32" t="s">
         <v>17</v>
       </c>
@@ -8098,7 +8104,7 @@
         <v>18</v>
       </c>
       <c r="E3" s="180"/>
-      <c r="F3" s="202"/>
+      <c r="F3" s="188"/>
       <c r="G3" s="174"/>
       <c r="H3" s="174"/>
       <c r="I3" s="174"/>
@@ -8108,8 +8114,8 @@
       <c r="M3" s="222"/>
     </row>
     <row r="4" spans="1:13" ht="15.75" customHeight="1">
-      <c r="A4" s="186"/>
-      <c r="B4" s="194"/>
+      <c r="A4" s="191"/>
+      <c r="B4" s="199"/>
       <c r="C4" s="32" t="s">
         <v>19</v>
       </c>
@@ -8117,7 +8123,7 @@
         <v>20</v>
       </c>
       <c r="E4" s="180"/>
-      <c r="F4" s="202"/>
+      <c r="F4" s="188"/>
       <c r="G4" s="174"/>
       <c r="H4" s="174"/>
       <c r="I4" s="174"/>
@@ -8127,14 +8133,14 @@
       <c r="M4" s="222"/>
     </row>
     <row r="5" spans="1:13" ht="15.75" customHeight="1">
-      <c r="A5" s="186"/>
-      <c r="B5" s="194"/>
+      <c r="A5" s="191"/>
+      <c r="B5" s="199"/>
       <c r="C5" s="32" t="s">
         <v>21</v>
       </c>
       <c r="D5" s="4"/>
       <c r="E5" s="180"/>
-      <c r="F5" s="202"/>
+      <c r="F5" s="188"/>
       <c r="G5" s="174"/>
       <c r="H5" s="174"/>
       <c r="I5" s="174"/>
@@ -8144,8 +8150,8 @@
       <c r="M5" s="222"/>
     </row>
     <row r="6" spans="1:13" ht="15.75" customHeight="1">
-      <c r="A6" s="186"/>
-      <c r="B6" s="194"/>
+      <c r="A6" s="191"/>
+      <c r="B6" s="199"/>
       <c r="C6" s="32" t="s">
         <v>14</v>
       </c>
@@ -8153,7 +8159,7 @@
         <v>22</v>
       </c>
       <c r="E6" s="180"/>
-      <c r="F6" s="202"/>
+      <c r="F6" s="188"/>
       <c r="G6" s="174"/>
       <c r="H6" s="174"/>
       <c r="I6" s="174"/>
@@ -8163,8 +8169,8 @@
       <c r="M6" s="222"/>
     </row>
     <row r="7" spans="1:13" ht="15.75" customHeight="1">
-      <c r="A7" s="186"/>
-      <c r="B7" s="194"/>
+      <c r="A7" s="191"/>
+      <c r="B7" s="199"/>
       <c r="C7" s="32" t="s">
         <v>15</v>
       </c>
@@ -8172,7 +8178,7 @@
         <v>20</v>
       </c>
       <c r="E7" s="180"/>
-      <c r="F7" s="202"/>
+      <c r="F7" s="188"/>
       <c r="G7" s="174"/>
       <c r="H7" s="174"/>
       <c r="I7" s="174"/>
@@ -8182,16 +8188,16 @@
       <c r="M7" s="222"/>
     </row>
     <row r="8" spans="1:13" ht="15.75" customHeight="1" thickBot="1">
-      <c r="A8" s="187"/>
-      <c r="B8" s="195"/>
+      <c r="A8" s="192"/>
+      <c r="B8" s="200"/>
       <c r="C8" s="9" t="s">
         <v>23</v>
       </c>
       <c r="D8" s="5" t="s">
         <v>24</v>
       </c>
-      <c r="E8" s="200"/>
-      <c r="F8" s="203"/>
+      <c r="E8" s="186"/>
+      <c r="F8" s="189"/>
       <c r="G8" s="179"/>
       <c r="H8" s="179"/>
       <c r="I8" s="179"/>
@@ -8204,7 +8210,7 @@
       <c r="A9" s="216">
         <v>2</v>
       </c>
-      <c r="B9" s="193" t="s">
+      <c r="B9" s="198" t="s">
         <v>25</v>
       </c>
       <c r="C9" s="10" t="s">
@@ -8237,7 +8243,7 @@
     </row>
     <row r="10" spans="1:13" ht="15.75" customHeight="1">
       <c r="A10" s="214"/>
-      <c r="B10" s="194"/>
+      <c r="B10" s="199"/>
       <c r="C10" s="11" t="s">
         <v>26</v>
       </c>
@@ -8256,13 +8262,13 @@
       <c r="A11" s="211">
         <v>3</v>
       </c>
-      <c r="B11" s="194"/>
+      <c r="B11" s="199"/>
       <c r="C11" s="11" t="s">
         <v>265</v>
       </c>
       <c r="D11" s="4"/>
       <c r="E11" s="180"/>
-      <c r="F11" s="202"/>
+      <c r="F11" s="188"/>
       <c r="G11" s="174"/>
       <c r="H11" s="174" t="s">
         <v>198</v>
@@ -8279,13 +8285,13 @@
     </row>
     <row r="12" spans="1:13" ht="15.75" customHeight="1">
       <c r="A12" s="212"/>
-      <c r="B12" s="194"/>
+      <c r="B12" s="199"/>
       <c r="C12" s="11" t="s">
         <v>28</v>
       </c>
       <c r="D12" s="10"/>
       <c r="E12" s="180"/>
-      <c r="F12" s="202"/>
+      <c r="F12" s="188"/>
       <c r="G12" s="174"/>
       <c r="H12" s="174"/>
       <c r="I12" s="174"/>
@@ -8298,7 +8304,7 @@
       <c r="A13" s="213">
         <v>4</v>
       </c>
-      <c r="B13" s="194"/>
+      <c r="B13" s="199"/>
       <c r="C13" s="11" t="s">
         <v>29</v>
       </c>
@@ -8321,7 +8327,7 @@
     </row>
     <row r="14" spans="1:13" ht="15.75" customHeight="1">
       <c r="A14" s="214"/>
-      <c r="B14" s="194"/>
+      <c r="B14" s="199"/>
       <c r="C14" s="32" t="s">
         <v>30</v>
       </c>
@@ -8340,7 +8346,7 @@
       <c r="A15" s="211">
         <v>5</v>
       </c>
-      <c r="B15" s="194"/>
+      <c r="B15" s="199"/>
       <c r="C15" s="217" t="s">
         <v>31</v>
       </c>
@@ -8348,7 +8354,7 @@
       <c r="E15" s="180" t="s">
         <v>27</v>
       </c>
-      <c r="F15" s="202"/>
+      <c r="F15" s="188"/>
       <c r="G15" s="174"/>
       <c r="H15" s="174"/>
       <c r="I15" s="174"/>
@@ -8373,10 +8379,10 @@
       <c r="M16" s="223"/>
     </row>
     <row r="17" spans="1:13" ht="15.75" customHeight="1">
-      <c r="A17" s="196">
+      <c r="A17" s="201">
         <v>6</v>
       </c>
-      <c r="B17" s="193" t="s">
+      <c r="B17" s="198" t="s">
         <v>34</v>
       </c>
       <c r="C17" s="10" t="s">
@@ -8396,8 +8402,8 @@
       <c r="M17" s="247"/>
     </row>
     <row r="18" spans="1:13" ht="15.75" customHeight="1">
-      <c r="A18" s="185"/>
-      <c r="B18" s="194"/>
+      <c r="A18" s="190"/>
+      <c r="B18" s="199"/>
       <c r="C18" s="11" t="s">
         <v>37</v>
       </c>
@@ -8413,8 +8419,8 @@
       <c r="M18" s="233"/>
     </row>
     <row r="19" spans="1:13" ht="15.75" customHeight="1">
-      <c r="A19" s="185"/>
-      <c r="B19" s="194"/>
+      <c r="A19" s="190"/>
+      <c r="B19" s="199"/>
       <c r="C19" s="11" t="s">
         <v>38</v>
       </c>
@@ -8430,10 +8436,10 @@
       <c r="M19" s="233"/>
     </row>
     <row r="20" spans="1:13" ht="15.75" customHeight="1">
-      <c r="A20" s="186">
+      <c r="A20" s="191">
         <v>7</v>
       </c>
-      <c r="B20" s="194"/>
+      <c r="B20" s="199"/>
       <c r="C20" s="11" t="s">
         <v>39</v>
       </c>
@@ -8453,8 +8459,8 @@
       <c r="M20" s="236"/>
     </row>
     <row r="21" spans="1:13" ht="15.75" customHeight="1">
-      <c r="A21" s="186"/>
-      <c r="B21" s="194"/>
+      <c r="A21" s="191"/>
+      <c r="B21" s="199"/>
       <c r="C21" s="11" t="s">
         <v>41</v>
       </c>
@@ -8470,8 +8476,8 @@
       <c r="M21" s="236"/>
     </row>
     <row r="22" spans="1:13" ht="15.75" customHeight="1">
-      <c r="A22" s="186"/>
-      <c r="B22" s="194"/>
+      <c r="A22" s="191"/>
+      <c r="B22" s="199"/>
       <c r="C22" s="32" t="s">
         <v>42</v>
       </c>
@@ -8487,10 +8493,10 @@
       <c r="M22" s="236"/>
     </row>
     <row r="23" spans="1:13" ht="15.75" customHeight="1">
-      <c r="A23" s="185">
+      <c r="A23" s="190">
         <v>8</v>
       </c>
-      <c r="B23" s="194"/>
+      <c r="B23" s="199"/>
       <c r="C23" s="32" t="s">
         <v>43</v>
       </c>
@@ -8510,8 +8516,8 @@
       <c r="M23" s="233"/>
     </row>
     <row r="24" spans="1:13" ht="15.75" customHeight="1">
-      <c r="A24" s="185"/>
-      <c r="B24" s="194"/>
+      <c r="A24" s="190"/>
+      <c r="B24" s="199"/>
       <c r="C24" s="32" t="s">
         <v>45</v>
       </c>
@@ -8547,14 +8553,14 @@
       <c r="A26" s="205">
         <v>9</v>
       </c>
-      <c r="B26" s="193" t="s">
+      <c r="B26" s="198" t="s">
         <v>47</v>
       </c>
       <c r="C26" s="12" t="s">
         <v>48</v>
       </c>
       <c r="D26" s="3"/>
-      <c r="E26" s="199" t="s">
+      <c r="E26" s="185" t="s">
         <v>40</v>
       </c>
       <c r="F26" s="237" t="s">
@@ -8570,7 +8576,7 @@
     </row>
     <row r="27" spans="1:13" ht="15.75" customHeight="1">
       <c r="A27" s="206"/>
-      <c r="B27" s="194"/>
+      <c r="B27" s="199"/>
       <c r="C27" s="13" t="s">
         <v>51</v>
       </c>
@@ -8589,7 +8595,7 @@
       <c r="A28" s="207">
         <v>10</v>
       </c>
-      <c r="B28" s="194"/>
+      <c r="B28" s="199"/>
       <c r="C28" s="13" t="s">
         <v>52</v>
       </c>
@@ -8610,7 +8616,7 @@
     </row>
     <row r="29" spans="1:13" ht="15.75" customHeight="1">
       <c r="A29" s="208"/>
-      <c r="B29" s="194"/>
+      <c r="B29" s="199"/>
       <c r="C29" s="13" t="s">
         <v>54</v>
       </c>
@@ -8629,7 +8635,7 @@
       <c r="A30" s="209">
         <v>11</v>
       </c>
-      <c r="B30" s="194"/>
+      <c r="B30" s="199"/>
       <c r="C30" s="13" t="s">
         <v>55</v>
       </c>
@@ -8648,7 +8654,7 @@
     </row>
     <row r="31" spans="1:13" ht="15.75" customHeight="1">
       <c r="A31" s="206"/>
-      <c r="B31" s="194"/>
+      <c r="B31" s="199"/>
       <c r="C31" s="14" t="s">
         <v>57</v>
       </c>
@@ -8667,7 +8673,7 @@
       <c r="A32" s="207">
         <v>12</v>
       </c>
-      <c r="B32" s="194"/>
+      <c r="B32" s="199"/>
       <c r="C32" s="14" t="s">
         <v>58</v>
       </c>
@@ -8706,17 +8712,17 @@
       <c r="M33" s="234"/>
     </row>
     <row r="34" spans="1:13" ht="15.75" customHeight="1">
-      <c r="A34" s="198">
+      <c r="A34" s="203">
         <v>13</v>
       </c>
-      <c r="B34" s="193" t="s">
+      <c r="B34" s="198" t="s">
         <v>61</v>
       </c>
       <c r="C34" s="16" t="s">
         <v>62</v>
       </c>
       <c r="D34" s="3"/>
-      <c r="E34" s="199" t="s">
+      <c r="E34" s="185" t="s">
         <v>56</v>
       </c>
       <c r="F34" s="178"/>
@@ -8729,8 +8735,8 @@
       <c r="M34" s="239"/>
     </row>
     <row r="35" spans="1:13" ht="15.75" customHeight="1">
-      <c r="A35" s="186"/>
-      <c r="B35" s="194"/>
+      <c r="A35" s="191"/>
+      <c r="B35" s="199"/>
       <c r="C35" s="17" t="s">
         <v>65</v>
       </c>
@@ -8746,10 +8752,10 @@
       <c r="M35" s="222"/>
     </row>
     <row r="36" spans="1:13" ht="15.75" customHeight="1">
-      <c r="A36" s="185">
+      <c r="A36" s="190">
         <v>14</v>
       </c>
-      <c r="B36" s="194"/>
+      <c r="B36" s="199"/>
       <c r="C36" s="17" t="s">
         <v>66</v>
       </c>
@@ -8769,8 +8775,8 @@
       <c r="M36" s="240"/>
     </row>
     <row r="37" spans="1:13" ht="15.75" customHeight="1">
-      <c r="A37" s="185"/>
-      <c r="B37" s="194"/>
+      <c r="A37" s="190"/>
+      <c r="B37" s="199"/>
       <c r="C37" s="17" t="s">
         <v>68</v>
       </c>
@@ -8786,10 +8792,10 @@
       <c r="M37" s="240"/>
     </row>
     <row r="38" spans="1:13" ht="15.75" customHeight="1">
-      <c r="A38" s="186">
+      <c r="A38" s="191">
         <v>15</v>
       </c>
-      <c r="B38" s="194"/>
+      <c r="B38" s="199"/>
       <c r="C38" s="17" t="s">
         <v>69</v>
       </c>
@@ -8807,8 +8813,8 @@
       <c r="M38" s="222"/>
     </row>
     <row r="39" spans="1:13" ht="15.75" customHeight="1">
-      <c r="A39" s="186"/>
-      <c r="B39" s="194"/>
+      <c r="A39" s="191"/>
+      <c r="B39" s="199"/>
       <c r="C39" s="32" t="s">
         <v>71</v>
       </c>
@@ -8824,10 +8830,10 @@
       <c r="M39" s="222"/>
     </row>
     <row r="40" spans="1:13" ht="15.75" customHeight="1">
-      <c r="A40" s="185">
+      <c r="A40" s="190">
         <v>16</v>
       </c>
-      <c r="B40" s="194"/>
+      <c r="B40" s="199"/>
       <c r="C40" s="32" t="s">
         <v>72</v>
       </c>
@@ -8849,8 +8855,8 @@
       <c r="M40" s="240"/>
     </row>
     <row r="41" spans="1:13" ht="15.75" customHeight="1">
-      <c r="A41" s="185"/>
-      <c r="B41" s="194"/>
+      <c r="A41" s="190"/>
+      <c r="B41" s="199"/>
       <c r="C41" s="32" t="s">
         <v>74</v>
       </c>
@@ -8866,8 +8872,8 @@
       <c r="M41" s="240"/>
     </row>
     <row r="42" spans="1:13" ht="15.75" customHeight="1" thickBot="1">
-      <c r="A42" s="197"/>
-      <c r="B42" s="195"/>
+      <c r="A42" s="202"/>
+      <c r="B42" s="200"/>
       <c r="C42" s="9" t="s">
         <v>75</v>
       </c>
@@ -8883,17 +8889,17 @@
       <c r="M42" s="241"/>
     </row>
     <row r="43" spans="1:13" ht="15.75" customHeight="1">
-      <c r="A43" s="198">
+      <c r="A43" s="203">
         <v>17</v>
       </c>
-      <c r="B43" s="188" t="s">
+      <c r="B43" s="193" t="s">
         <v>76</v>
       </c>
       <c r="C43" s="10" t="s">
         <v>77</v>
       </c>
       <c r="D43" s="3"/>
-      <c r="E43" s="199" t="s">
+      <c r="E43" s="185" t="s">
         <v>70</v>
       </c>
       <c r="F43" s="178"/>
@@ -8906,8 +8912,8 @@
       <c r="M43" s="239"/>
     </row>
     <row r="44" spans="1:13" ht="15.75" customHeight="1">
-      <c r="A44" s="186"/>
-      <c r="B44" s="189"/>
+      <c r="A44" s="191"/>
+      <c r="B44" s="194"/>
       <c r="C44" s="11" t="s">
         <v>80</v>
       </c>
@@ -8923,10 +8929,10 @@
       <c r="M44" s="222"/>
     </row>
     <row r="45" spans="1:13" ht="15.75" customHeight="1">
-      <c r="A45" s="185">
+      <c r="A45" s="190">
         <v>18</v>
       </c>
-      <c r="B45" s="189"/>
+      <c r="B45" s="194"/>
       <c r="C45" s="11" t="s">
         <v>81</v>
       </c>
@@ -8946,8 +8952,8 @@
       <c r="M45" s="233"/>
     </row>
     <row r="46" spans="1:13" ht="15.75" customHeight="1">
-      <c r="A46" s="185"/>
-      <c r="B46" s="189"/>
+      <c r="A46" s="190"/>
+      <c r="B46" s="194"/>
       <c r="C46" s="11" t="s">
         <v>83</v>
       </c>
@@ -8963,11 +8969,11 @@
       <c r="M46" s="233"/>
     </row>
     <row r="47" spans="1:13" ht="15.75" customHeight="1">
-      <c r="A47" s="186">
+      <c r="A47" s="191">
         <v>19</v>
       </c>
-      <c r="B47" s="189"/>
-      <c r="C47" s="191" t="s">
+      <c r="B47" s="194"/>
+      <c r="C47" s="196" t="s">
         <v>84</v>
       </c>
       <c r="D47" s="4"/>
@@ -8984,9 +8990,9 @@
       <c r="M47" s="222"/>
     </row>
     <row r="48" spans="1:13" ht="15.75" customHeight="1" thickBot="1">
-      <c r="A48" s="187"/>
-      <c r="B48" s="190"/>
-      <c r="C48" s="192"/>
+      <c r="A48" s="192"/>
+      <c r="B48" s="195"/>
+      <c r="C48" s="197"/>
       <c r="D48" s="5"/>
       <c r="E48" s="228"/>
       <c r="F48" s="221"/>
@@ -8999,10 +9005,10 @@
       <c r="M48" s="223"/>
     </row>
     <row r="49" spans="1:13" ht="15.75" customHeight="1">
-      <c r="A49" s="196">
+      <c r="A49" s="201">
         <v>20</v>
       </c>
-      <c r="B49" s="193" t="s">
+      <c r="B49" s="198" t="s">
         <v>85</v>
       </c>
       <c r="C49" s="10" t="s">
@@ -9022,8 +9028,8 @@
       <c r="M49" s="244"/>
     </row>
     <row r="50" spans="1:13" ht="15.75" customHeight="1">
-      <c r="A50" s="185"/>
-      <c r="B50" s="194"/>
+      <c r="A50" s="190"/>
+      <c r="B50" s="199"/>
       <c r="C50" s="11" t="s">
         <v>87</v>
       </c>
@@ -9039,8 +9045,8 @@
       <c r="M50" s="240"/>
     </row>
     <row r="51" spans="1:13" ht="15.75" customHeight="1">
-      <c r="A51" s="185"/>
-      <c r="B51" s="194"/>
+      <c r="A51" s="190"/>
+      <c r="B51" s="199"/>
       <c r="C51" s="11" t="s">
         <v>88</v>
       </c>
@@ -9056,8 +9062,8 @@
       <c r="M51" s="240"/>
     </row>
     <row r="52" spans="1:13" ht="15.75" customHeight="1" thickBot="1">
-      <c r="A52" s="197"/>
-      <c r="B52" s="195"/>
+      <c r="A52" s="202"/>
+      <c r="B52" s="200"/>
       <c r="C52" s="18" t="s">
         <v>89</v>
       </c>
@@ -17468,7 +17474,7 @@
   <dimension ref="A1:D31"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="F1" sqref="F1"/>
+      <selection activeCell="J14" sqref="J14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -17492,44 +17498,44 @@
     </row>
     <row r="2" spans="1:4" ht="16.5" thickBot="1">
       <c r="A2" s="74" t="s">
-        <v>202</v>
-      </c>
-      <c r="B2" s="90">
-        <v>43329</v>
-      </c>
+        <v>203</v>
+      </c>
+      <c r="B2" s="96"/>
       <c r="C2" s="66">
-        <v>0.05</v>
-      </c>
-      <c r="D2" s="67"/>
-    </row>
-    <row r="3" spans="1:4" ht="16.5" thickBot="1">
-      <c r="A3" s="74" t="s">
-        <v>203</v>
-      </c>
-      <c r="B3" s="96"/>
-      <c r="C3" s="66">
         <v>0.36</v>
       </c>
-      <c r="D3" s="97"/>
+      <c r="D2" s="97"/>
+    </row>
+    <row r="3" spans="1:4" ht="15.75">
+      <c r="A3" s="93" t="s">
+        <v>269</v>
+      </c>
+      <c r="B3" s="94">
+        <v>43210</v>
+      </c>
+      <c r="C3" s="95">
+        <v>0.04</v>
+      </c>
+      <c r="D3" s="76"/>
     </row>
     <row r="4" spans="1:4" ht="15.75">
-      <c r="A4" s="93" t="s">
-        <v>269</v>
-      </c>
-      <c r="B4" s="94">
-        <v>43210</v>
-      </c>
-      <c r="C4" s="95">
+      <c r="A4" s="68" t="s">
+        <v>270</v>
+      </c>
+      <c r="B4" s="84">
+        <v>43231</v>
+      </c>
+      <c r="C4" s="73">
         <v>0.04</v>
       </c>
-      <c r="D4" s="76"/>
+      <c r="D4" s="69"/>
     </row>
     <row r="5" spans="1:4" ht="15.75">
       <c r="A5" s="68" t="s">
-        <v>270</v>
+        <v>271</v>
       </c>
       <c r="B5" s="84">
-        <v>43231</v>
+        <v>43245</v>
       </c>
       <c r="C5" s="73">
         <v>0.04</v>
@@ -17538,10 +17544,10 @@
     </row>
     <row r="6" spans="1:4" ht="15.75">
       <c r="A6" s="68" t="s">
-        <v>271</v>
+        <v>272</v>
       </c>
       <c r="B6" s="84">
-        <v>43245</v>
+        <v>43259</v>
       </c>
       <c r="C6" s="73">
         <v>0.04</v>
@@ -17550,10 +17556,10 @@
     </row>
     <row r="7" spans="1:4" ht="15.75">
       <c r="A7" s="68" t="s">
-        <v>272</v>
+        <v>273</v>
       </c>
       <c r="B7" s="84">
-        <v>43259</v>
+        <v>43273</v>
       </c>
       <c r="C7" s="73">
         <v>0.04</v>
@@ -17562,10 +17568,10 @@
     </row>
     <row r="8" spans="1:4" ht="15.75">
       <c r="A8" s="68" t="s">
-        <v>273</v>
+        <v>274</v>
       </c>
       <c r="B8" s="84">
-        <v>43273</v>
+        <v>43287</v>
       </c>
       <c r="C8" s="73">
         <v>0.04</v>
@@ -17574,10 +17580,10 @@
     </row>
     <row r="9" spans="1:4" ht="15.75">
       <c r="A9" s="68" t="s">
-        <v>274</v>
+        <v>275</v>
       </c>
       <c r="B9" s="84">
-        <v>43287</v>
+        <v>43301</v>
       </c>
       <c r="C9" s="73">
         <v>0.04</v>
@@ -17586,70 +17592,70 @@
     </row>
     <row r="10" spans="1:4" ht="15.75">
       <c r="A10" s="68" t="s">
-        <v>275</v>
+        <v>276</v>
       </c>
       <c r="B10" s="84">
-        <v>43301</v>
+        <v>43315</v>
       </c>
       <c r="C10" s="73">
         <v>0.04</v>
       </c>
       <c r="D10" s="69"/>
     </row>
-    <row r="11" spans="1:4" ht="15.75">
-      <c r="A11" s="68" t="s">
-        <v>276</v>
-      </c>
-      <c r="B11" s="84">
-        <v>43315</v>
+    <row r="11" spans="1:4" ht="16.5" thickBot="1">
+      <c r="A11" s="70" t="s">
+        <v>277</v>
+      </c>
+      <c r="B11" s="86">
+        <v>43329</v>
       </c>
       <c r="C11" s="73">
         <v>0.04</v>
       </c>
-      <c r="D11" s="69"/>
+      <c r="D11" s="72"/>
     </row>
     <row r="12" spans="1:4" ht="16.5" thickBot="1">
-      <c r="A12" s="70" t="s">
-        <v>277</v>
-      </c>
-      <c r="B12" s="86">
-        <v>43329</v>
-      </c>
-      <c r="C12" s="73">
+      <c r="A12" s="74" t="s">
+        <v>205</v>
+      </c>
+      <c r="B12" s="96"/>
+      <c r="C12" s="66">
+        <v>0.32</v>
+      </c>
+      <c r="D12" s="97"/>
+    </row>
+    <row r="13" spans="1:4" ht="15.75">
+      <c r="A13" s="93" t="s">
+        <v>278</v>
+      </c>
+      <c r="B13" s="94">
+        <v>43203</v>
+      </c>
+      <c r="C13" s="95">
         <v>0.04</v>
       </c>
-      <c r="D12" s="72"/>
-    </row>
-    <row r="13" spans="1:4" ht="16.5" thickBot="1">
-      <c r="A13" s="74" t="s">
-        <v>205</v>
-      </c>
-      <c r="B13" s="96"/>
-      <c r="C13" s="66">
-        <v>0.32</v>
-      </c>
-      <c r="D13" s="97"/>
+      <c r="D13" s="76">
+        <v>0.95</v>
+      </c>
     </row>
     <row r="14" spans="1:4" ht="15.75">
-      <c r="A14" s="93" t="s">
-        <v>278</v>
-      </c>
-      <c r="B14" s="94">
-        <v>43203</v>
-      </c>
-      <c r="C14" s="95">
+      <c r="A14" s="68" t="s">
+        <v>279</v>
+      </c>
+      <c r="B14" s="84">
+        <v>43217</v>
+      </c>
+      <c r="C14" s="73">
         <v>0.04</v>
       </c>
-      <c r="D14" s="76">
-        <v>0.95</v>
-      </c>
+      <c r="D14" s="69"/>
     </row>
     <row r="15" spans="1:4" ht="15.75">
       <c r="A15" s="68" t="s">
-        <v>279</v>
+        <v>280</v>
       </c>
       <c r="B15" s="84">
-        <v>43217</v>
+        <v>43238</v>
       </c>
       <c r="C15" s="73">
         <v>0.04</v>
@@ -17658,10 +17664,10 @@
     </row>
     <row r="16" spans="1:4" ht="15.75">
       <c r="A16" s="68" t="s">
-        <v>280</v>
+        <v>281</v>
       </c>
       <c r="B16" s="84">
-        <v>43238</v>
+        <v>43252</v>
       </c>
       <c r="C16" s="73">
         <v>0.04</v>
@@ -17670,10 +17676,10 @@
     </row>
     <row r="17" spans="1:4" ht="15.75">
       <c r="A17" s="68" t="s">
-        <v>281</v>
+        <v>282</v>
       </c>
       <c r="B17" s="84">
-        <v>43252</v>
+        <v>43266</v>
       </c>
       <c r="C17" s="73">
         <v>0.04</v>
@@ -17682,10 +17688,10 @@
     </row>
     <row r="18" spans="1:4" ht="15.75">
       <c r="A18" s="68" t="s">
-        <v>282</v>
+        <v>283</v>
       </c>
       <c r="B18" s="84">
-        <v>43266</v>
+        <v>43280</v>
       </c>
       <c r="C18" s="73">
         <v>0.04</v>
@@ -17694,89 +17700,91 @@
     </row>
     <row r="19" spans="1:4" ht="15.75">
       <c r="A19" s="68" t="s">
-        <v>283</v>
+        <v>284</v>
       </c>
       <c r="B19" s="84">
-        <v>43280</v>
+        <v>43294</v>
       </c>
       <c r="C19" s="73">
         <v>0.04</v>
       </c>
       <c r="D19" s="69"/>
     </row>
-    <row r="20" spans="1:4" ht="15.75">
-      <c r="A20" s="68" t="s">
-        <v>284</v>
-      </c>
-      <c r="B20" s="84">
-        <v>43294</v>
-      </c>
-      <c r="C20" s="73">
+    <row r="20" spans="1:4" ht="16.5" thickBot="1">
+      <c r="A20" s="87" t="s">
+        <v>285</v>
+      </c>
+      <c r="B20" s="86">
+        <v>43308</v>
+      </c>
+      <c r="C20" s="88">
         <v>0.04</v>
       </c>
-      <c r="D20" s="69"/>
+      <c r="D20" s="89"/>
     </row>
     <row r="21" spans="1:4" ht="16.5" thickBot="1">
-      <c r="A21" s="87" t="s">
-        <v>285</v>
-      </c>
-      <c r="B21" s="86">
-        <v>43308</v>
-      </c>
-      <c r="C21" s="88">
-        <v>0.04</v>
-      </c>
-      <c r="D21" s="89"/>
-    </row>
-    <row r="22" spans="1:4" ht="16.5" thickBot="1">
-      <c r="A22" s="74" t="s">
+      <c r="A21" s="74" t="s">
         <v>206</v>
       </c>
-      <c r="B22" s="96"/>
-      <c r="C22" s="66">
+      <c r="B21" s="90">
+        <v>43327</v>
+      </c>
+      <c r="C21" s="66">
         <v>0.3</v>
       </c>
-      <c r="D22" s="67"/>
+      <c r="D21" s="67"/>
+    </row>
+    <row r="22" spans="1:4" ht="15.75">
+      <c r="A22" s="93" t="s">
+        <v>299</v>
+      </c>
+      <c r="B22" s="98">
+        <v>43217</v>
+      </c>
+      <c r="C22" s="62"/>
+      <c r="D22" s="76"/>
     </row>
     <row r="23" spans="1:4" ht="15.75">
-      <c r="A23" s="93" t="s">
-        <v>299</v>
-      </c>
-      <c r="B23" s="98">
-        <v>43217</v>
-      </c>
-      <c r="C23" s="62"/>
-      <c r="D23" s="76"/>
+      <c r="A23" s="68" t="s">
+        <v>300</v>
+      </c>
+      <c r="B23" s="85">
+        <v>43245</v>
+      </c>
+      <c r="C23" s="61"/>
+      <c r="D23" s="69"/>
     </row>
     <row r="24" spans="1:4" ht="15.75">
       <c r="A24" s="68" t="s">
-        <v>300</v>
+        <v>301</v>
       </c>
       <c r="B24" s="85">
-        <v>43245</v>
+        <v>43273</v>
       </c>
       <c r="C24" s="61"/>
       <c r="D24" s="69"/>
     </row>
-    <row r="25" spans="1:4" ht="15.75">
-      <c r="A25" s="68" t="s">
-        <v>301</v>
-      </c>
-      <c r="B25" s="85">
-        <v>43273</v>
-      </c>
-      <c r="C25" s="61"/>
-      <c r="D25" s="69"/>
+    <row r="25" spans="1:4" ht="16.5" thickBot="1">
+      <c r="A25" s="70" t="s">
+        <v>302</v>
+      </c>
+      <c r="B25" s="92">
+        <v>43301</v>
+      </c>
+      <c r="C25" s="71"/>
+      <c r="D25" s="72"/>
     </row>
     <row r="26" spans="1:4" ht="16.5" thickBot="1">
-      <c r="A26" s="70" t="s">
-        <v>302</v>
-      </c>
-      <c r="B26" s="92">
-        <v>43301</v>
-      </c>
-      <c r="C26" s="71"/>
-      <c r="D26" s="72"/>
+      <c r="A26" s="74" t="s">
+        <v>202</v>
+      </c>
+      <c r="B26" s="90">
+        <v>43327</v>
+      </c>
+      <c r="C26" s="66">
+        <v>0.05</v>
+      </c>
+      <c r="D26" s="67"/>
     </row>
     <row r="27" spans="1:4" ht="16.5" thickBot="1">
       <c r="A27" s="74" t="s">
@@ -20770,10 +20778,10 @@
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C11"/>
+  <dimension ref="A1:C13"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A11" sqref="A11"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A14" sqref="A14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -20840,6 +20848,16 @@
     <row r="11" spans="1:3">
       <c r="A11" t="s">
         <v>605</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3">
+      <c r="A12" t="s">
+        <v>613</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3">
+      <c r="A13" t="s">
+        <v>614</v>
       </c>
     </row>
   </sheetData>

--- a/General/Curriculum (Personalized).xlsx
+++ b/General/Curriculum (Personalized).xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="11835"/>
+    <workbookView minimized="1" xWindow="0" yWindow="0" windowWidth="28800" windowHeight="11835" activeTab="5"/>
   </bookViews>
   <sheets>
     <sheet name="Curriculum" sheetId="1" r:id="rId1"/>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="910" uniqueCount="613">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="921" uniqueCount="621">
   <si>
     <t>Week</t>
   </si>
@@ -5198,6 +5198,50 @@
   </si>
   <si>
     <t>No, it doesn't matter.</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/channel/UC9NVYFh1gs3AShriwWX7NNQ/videos</t>
+  </si>
+  <si>
+    <t>Jobs: https://skillcrush.com/2015/07/14/job-sites-to-find-your-first-developer-job/</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>For Loops:</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> https://www.youtube.com/watch?v=BxFi7vVZx4s</t>
+    </r>
+  </si>
+  <si>
+    <t>1) Initializer or Starter or Starting Point</t>
+  </si>
+  <si>
+    <t>2) Condition for when your loop should end</t>
+  </si>
+  <si>
+    <t>3) Increment or decrement, continues up or down</t>
+  </si>
+  <si>
+    <t>A For Loop Includes Three Statements:</t>
+  </si>
+  <si>
+    <t>for (var i=0; i&lt;=num; i++){</t>
   </si>
 </sst>
 </file>
@@ -6800,6 +6844,225 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="41" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="35" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="5" borderId="35" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="5" borderId="38" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="33" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="35" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="38" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="5" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="60" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="61" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="33" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="35" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="38" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="33" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="6" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="33" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="35" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="5" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="5" borderId="34" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="5" borderId="36" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="5" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="5" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="5" borderId="37" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="23" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="37" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="34" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="36" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="37" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="5" borderId="23" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="5" borderId="37" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="31" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="32" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="32" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="5" borderId="32" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="32" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="23" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="5" borderId="32" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="5" borderId="1" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="23" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="37" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="32" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="23" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="5" borderId="31" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="5" fillId="4" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
@@ -6809,259 +7072,40 @@
     <xf numFmtId="0" fontId="5" fillId="4" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="5" borderId="34" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="23" xfId="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="14" fillId="5" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="5" borderId="23" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="5" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="32" xfId="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="34" xfId="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="5" borderId="31" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="32" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="5" borderId="32" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="31" xfId="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="5" xfId="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="15" fillId="0" borderId="32" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="23" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="15" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="31" fillId="8" borderId="52" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="23" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="5" borderId="1" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="37" xfId="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="35" xfId="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="38" xfId="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="37" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="5" borderId="32" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="32" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="23" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="36" xfId="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="5" borderId="36" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="5" borderId="37" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="5" borderId="37" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="37" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="35" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="38" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="35" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="32" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="33" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="33" xfId="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="5" borderId="35" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="5" borderId="38" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="5" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="5" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="5" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="4" borderId="60" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="4" borderId="61" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="33" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="6" xfId="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="33" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="35" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
+    <xf numFmtId="0" fontId="34" fillId="0" borderId="55" xfId="2" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="34" fillId="0" borderId="57" xfId="2" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="32" fillId="9" borderId="53" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="0" xfId="2" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="32" fillId="8" borderId="0" xfId="2" applyFont="1" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="32" fillId="9" borderId="0" xfId="2" applyFont="1" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="34" fillId="0" borderId="58" xfId="2" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="32" fillId="0" borderId="0" xfId="2" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="31" fillId="0" borderId="52" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="34" fillId="0" borderId="55" xfId="2" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="34" fillId="0" borderId="57" xfId="2" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="32" fillId="0" borderId="53" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="28" fillId="0" borderId="0" xfId="2" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="32" fillId="9" borderId="0" xfId="2" applyFont="1" applyFill="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="32" fillId="0" borderId="0" xfId="2" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="34" fillId="0" borderId="58" xfId="2" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="31" fillId="8" borderId="52" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="32" fillId="9" borderId="53" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="31" fillId="0" borderId="52" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="32" fillId="8" borderId="53" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="32" fillId="8" borderId="0" xfId="2" applyFont="1" applyFill="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="24" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -8007,7 +8051,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:M64"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="H11" sqref="H11:H12"/>
     </sheetView>
   </sheetViews>
@@ -8043,21 +8087,21 @@
       <c r="H1" s="35" t="s">
         <v>193</v>
       </c>
-      <c r="I1" s="170" t="s">
+      <c r="I1" s="243" t="s">
         <v>7</v>
       </c>
-      <c r="J1" s="171"/>
-      <c r="K1" s="172"/>
-      <c r="L1" s="245" t="s">
+      <c r="J1" s="244"/>
+      <c r="K1" s="245"/>
+      <c r="L1" s="177" t="s">
         <v>8</v>
       </c>
-      <c r="M1" s="246"/>
+      <c r="M1" s="178"/>
     </row>
     <row r="2" spans="1:13" ht="15.75" customHeight="1">
-      <c r="A2" s="198">
+      <c r="A2" s="206">
         <v>1</v>
       </c>
-      <c r="B2" s="193" t="s">
+      <c r="B2" s="209" t="s">
         <v>9</v>
       </c>
       <c r="C2" s="8" t="s">
@@ -8066,145 +8110,145 @@
       <c r="D2" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="E2" s="199" t="s">
+      <c r="E2" s="200" t="s">
         <v>12</v>
       </c>
-      <c r="F2" s="201"/>
-      <c r="G2" s="178"/>
-      <c r="H2" s="178"/>
-      <c r="I2" s="178" t="s">
+      <c r="F2" s="249"/>
+      <c r="G2" s="201"/>
+      <c r="H2" s="201"/>
+      <c r="I2" s="201" t="s">
         <v>10</v>
       </c>
-      <c r="J2" s="178" t="s">
+      <c r="J2" s="201" t="s">
         <v>14</v>
       </c>
-      <c r="K2" s="178" t="s">
+      <c r="K2" s="201" t="s">
         <v>15</v>
       </c>
-      <c r="L2" s="239" t="s">
+      <c r="L2" s="173" t="s">
         <v>16</v>
       </c>
-      <c r="M2" s="239" t="s">
+      <c r="M2" s="173" t="s">
         <v>343</v>
       </c>
     </row>
     <row r="3" spans="1:13" ht="15.75" customHeight="1">
-      <c r="A3" s="186"/>
-      <c r="B3" s="194"/>
+      <c r="A3" s="207"/>
+      <c r="B3" s="210"/>
       <c r="C3" s="32" t="s">
         <v>17</v>
       </c>
       <c r="D3" s="4" t="s">
         <v>18</v>
       </c>
-      <c r="E3" s="180"/>
-      <c r="F3" s="202"/>
-      <c r="G3" s="174"/>
-      <c r="H3" s="174"/>
-      <c r="I3" s="174"/>
-      <c r="J3" s="174"/>
-      <c r="K3" s="174"/>
-      <c r="L3" s="222"/>
-      <c r="M3" s="222"/>
+      <c r="E3" s="195"/>
+      <c r="F3" s="222"/>
+      <c r="G3" s="192"/>
+      <c r="H3" s="192"/>
+      <c r="I3" s="192"/>
+      <c r="J3" s="192"/>
+      <c r="K3" s="192"/>
+      <c r="L3" s="170"/>
+      <c r="M3" s="170"/>
     </row>
     <row r="4" spans="1:13" ht="15.75" customHeight="1">
-      <c r="A4" s="186"/>
-      <c r="B4" s="194"/>
+      <c r="A4" s="207"/>
+      <c r="B4" s="210"/>
       <c r="C4" s="32" t="s">
         <v>19</v>
       </c>
       <c r="D4" s="4" t="s">
         <v>20</v>
       </c>
-      <c r="E4" s="180"/>
-      <c r="F4" s="202"/>
-      <c r="G4" s="174"/>
-      <c r="H4" s="174"/>
-      <c r="I4" s="174"/>
-      <c r="J4" s="174"/>
-      <c r="K4" s="174"/>
-      <c r="L4" s="222"/>
-      <c r="M4" s="222"/>
+      <c r="E4" s="195"/>
+      <c r="F4" s="222"/>
+      <c r="G4" s="192"/>
+      <c r="H4" s="192"/>
+      <c r="I4" s="192"/>
+      <c r="J4" s="192"/>
+      <c r="K4" s="192"/>
+      <c r="L4" s="170"/>
+      <c r="M4" s="170"/>
     </row>
     <row r="5" spans="1:13" ht="15.75" customHeight="1">
-      <c r="A5" s="186"/>
-      <c r="B5" s="194"/>
+      <c r="A5" s="207"/>
+      <c r="B5" s="210"/>
       <c r="C5" s="32" t="s">
         <v>21</v>
       </c>
       <c r="D5" s="4"/>
-      <c r="E5" s="180"/>
-      <c r="F5" s="202"/>
-      <c r="G5" s="174"/>
-      <c r="H5" s="174"/>
-      <c r="I5" s="174"/>
-      <c r="J5" s="174"/>
-      <c r="K5" s="174"/>
-      <c r="L5" s="222"/>
-      <c r="M5" s="222"/>
+      <c r="E5" s="195"/>
+      <c r="F5" s="222"/>
+      <c r="G5" s="192"/>
+      <c r="H5" s="192"/>
+      <c r="I5" s="192"/>
+      <c r="J5" s="192"/>
+      <c r="K5" s="192"/>
+      <c r="L5" s="170"/>
+      <c r="M5" s="170"/>
     </row>
     <row r="6" spans="1:13" ht="15.75" customHeight="1">
-      <c r="A6" s="186"/>
-      <c r="B6" s="194"/>
+      <c r="A6" s="207"/>
+      <c r="B6" s="210"/>
       <c r="C6" s="32" t="s">
         <v>14</v>
       </c>
       <c r="D6" s="4" t="s">
         <v>22</v>
       </c>
-      <c r="E6" s="180"/>
-      <c r="F6" s="202"/>
-      <c r="G6" s="174"/>
-      <c r="H6" s="174"/>
-      <c r="I6" s="174"/>
-      <c r="J6" s="174"/>
-      <c r="K6" s="174"/>
-      <c r="L6" s="222"/>
-      <c r="M6" s="222"/>
+      <c r="E6" s="195"/>
+      <c r="F6" s="222"/>
+      <c r="G6" s="192"/>
+      <c r="H6" s="192"/>
+      <c r="I6" s="192"/>
+      <c r="J6" s="192"/>
+      <c r="K6" s="192"/>
+      <c r="L6" s="170"/>
+      <c r="M6" s="170"/>
     </row>
     <row r="7" spans="1:13" ht="15.75" customHeight="1">
-      <c r="A7" s="186"/>
-      <c r="B7" s="194"/>
+      <c r="A7" s="207"/>
+      <c r="B7" s="210"/>
       <c r="C7" s="32" t="s">
         <v>15</v>
       </c>
       <c r="D7" s="4" t="s">
         <v>20</v>
       </c>
-      <c r="E7" s="180"/>
-      <c r="F7" s="202"/>
-      <c r="G7" s="174"/>
-      <c r="H7" s="174"/>
-      <c r="I7" s="174"/>
-      <c r="J7" s="174"/>
-      <c r="K7" s="174"/>
-      <c r="L7" s="222"/>
-      <c r="M7" s="222"/>
+      <c r="E7" s="195"/>
+      <c r="F7" s="222"/>
+      <c r="G7" s="192"/>
+      <c r="H7" s="192"/>
+      <c r="I7" s="192"/>
+      <c r="J7" s="192"/>
+      <c r="K7" s="192"/>
+      <c r="L7" s="170"/>
+      <c r="M7" s="170"/>
     </row>
     <row r="8" spans="1:13" ht="15.75" customHeight="1" thickBot="1">
-      <c r="A8" s="187"/>
-      <c r="B8" s="195"/>
+      <c r="A8" s="208"/>
+      <c r="B8" s="211"/>
       <c r="C8" s="9" t="s">
         <v>23</v>
       </c>
       <c r="D8" s="5" t="s">
         <v>24</v>
       </c>
-      <c r="E8" s="200"/>
-      <c r="F8" s="203"/>
-      <c r="G8" s="179"/>
-      <c r="H8" s="179"/>
-      <c r="I8" s="179"/>
-      <c r="J8" s="179"/>
-      <c r="K8" s="179"/>
-      <c r="L8" s="248"/>
-      <c r="M8" s="248"/>
+      <c r="E8" s="248"/>
+      <c r="F8" s="250"/>
+      <c r="G8" s="247"/>
+      <c r="H8" s="247"/>
+      <c r="I8" s="247"/>
+      <c r="J8" s="247"/>
+      <c r="K8" s="247"/>
+      <c r="L8" s="183"/>
+      <c r="M8" s="183"/>
     </row>
     <row r="9" spans="1:13" ht="15.75" customHeight="1">
-      <c r="A9" s="216">
+      <c r="A9" s="213">
         <v>2</v>
       </c>
-      <c r="B9" s="193" t="s">
+      <c r="B9" s="209" t="s">
         <v>25</v>
       </c>
       <c r="C9" s="10" t="s">
@@ -8213,864 +8257,864 @@
       <c r="D9" s="3" t="s">
         <v>288</v>
       </c>
-      <c r="E9" s="181"/>
-      <c r="F9" s="182" t="s">
+      <c r="E9" s="226"/>
+      <c r="F9" s="205" t="s">
         <v>192</v>
       </c>
-      <c r="G9" s="184" t="s">
+      <c r="G9" s="220" t="s">
         <v>13</v>
       </c>
-      <c r="H9" s="225"/>
-      <c r="I9" s="226" t="s">
+      <c r="H9" s="204"/>
+      <c r="I9" s="224" t="s">
         <v>184</v>
       </c>
-      <c r="J9" s="182" t="s">
+      <c r="J9" s="205" t="s">
         <v>194</v>
       </c>
-      <c r="K9" s="182" t="s">
+      <c r="K9" s="205" t="s">
         <v>195</v>
       </c>
-      <c r="L9" s="184" t="s">
+      <c r="L9" s="220" t="s">
         <v>344</v>
       </c>
-      <c r="M9" s="249"/>
+      <c r="M9" s="184"/>
     </row>
     <row r="10" spans="1:13" ht="15.75" customHeight="1">
       <c r="A10" s="214"/>
-      <c r="B10" s="194"/>
+      <c r="B10" s="210"/>
       <c r="C10" s="11" t="s">
         <v>26</v>
       </c>
       <c r="D10" s="4"/>
-      <c r="E10" s="173"/>
-      <c r="F10" s="183"/>
-      <c r="G10" s="176"/>
-      <c r="H10" s="177"/>
-      <c r="I10" s="227"/>
-      <c r="J10" s="183"/>
-      <c r="K10" s="183"/>
-      <c r="L10" s="220"/>
-      <c r="M10" s="250"/>
+      <c r="E10" s="187"/>
+      <c r="F10" s="194"/>
+      <c r="G10" s="198"/>
+      <c r="H10" s="190"/>
+      <c r="I10" s="225"/>
+      <c r="J10" s="194"/>
+      <c r="K10" s="194"/>
+      <c r="L10" s="221"/>
+      <c r="M10" s="185"/>
     </row>
     <row r="11" spans="1:13" ht="15.75" customHeight="1" thickBot="1">
-      <c r="A11" s="211">
+      <c r="A11" s="232">
         <v>3</v>
       </c>
-      <c r="B11" s="194"/>
+      <c r="B11" s="210"/>
       <c r="C11" s="11" t="s">
         <v>265</v>
       </c>
       <c r="D11" s="4"/>
-      <c r="E11" s="180"/>
-      <c r="F11" s="202"/>
-      <c r="G11" s="174"/>
-      <c r="H11" s="174" t="s">
+      <c r="E11" s="195"/>
+      <c r="F11" s="222"/>
+      <c r="G11" s="192"/>
+      <c r="H11" s="192" t="s">
         <v>198</v>
       </c>
-      <c r="I11" s="174" t="s">
+      <c r="I11" s="192" t="s">
         <v>196</v>
       </c>
-      <c r="J11" s="174"/>
-      <c r="K11" s="174"/>
+      <c r="J11" s="192"/>
+      <c r="K11" s="192"/>
       <c r="L11" s="219" t="s">
         <v>345</v>
       </c>
-      <c r="M11" s="222"/>
+      <c r="M11" s="170"/>
     </row>
     <row r="12" spans="1:13" ht="15.75" customHeight="1">
-      <c r="A12" s="212"/>
-      <c r="B12" s="194"/>
+      <c r="A12" s="233"/>
+      <c r="B12" s="210"/>
       <c r="C12" s="11" t="s">
         <v>28</v>
       </c>
       <c r="D12" s="10"/>
-      <c r="E12" s="180"/>
-      <c r="F12" s="202"/>
-      <c r="G12" s="174"/>
-      <c r="H12" s="174"/>
-      <c r="I12" s="174"/>
-      <c r="J12" s="174"/>
-      <c r="K12" s="174"/>
+      <c r="E12" s="195"/>
+      <c r="F12" s="222"/>
+      <c r="G12" s="192"/>
+      <c r="H12" s="192"/>
+      <c r="I12" s="192"/>
+      <c r="J12" s="192"/>
+      <c r="K12" s="192"/>
       <c r="L12" s="219"/>
-      <c r="M12" s="222"/>
+      <c r="M12" s="170"/>
     </row>
     <row r="13" spans="1:13" ht="15.75" customHeight="1">
-      <c r="A13" s="213">
+      <c r="A13" s="234">
         <v>4</v>
       </c>
-      <c r="B13" s="194"/>
+      <c r="B13" s="210"/>
       <c r="C13" s="11" t="s">
         <v>29</v>
       </c>
       <c r="D13" s="11"/>
-      <c r="E13" s="173"/>
-      <c r="F13" s="175" t="s">
+      <c r="E13" s="187"/>
+      <c r="F13" s="246" t="s">
         <v>36</v>
       </c>
-      <c r="G13" s="176" t="s">
+      <c r="G13" s="198" t="s">
         <v>33</v>
       </c>
-      <c r="H13" s="177"/>
-      <c r="I13" s="176" t="s">
+      <c r="H13" s="190"/>
+      <c r="I13" s="198" t="s">
         <v>346</v>
       </c>
-      <c r="J13" s="177"/>
-      <c r="K13" s="177"/>
-      <c r="L13" s="240"/>
-      <c r="M13" s="240"/>
+      <c r="J13" s="190"/>
+      <c r="K13" s="190"/>
+      <c r="L13" s="171"/>
+      <c r="M13" s="171"/>
     </row>
     <row r="14" spans="1:13" ht="15.75" customHeight="1">
       <c r="A14" s="214"/>
-      <c r="B14" s="194"/>
+      <c r="B14" s="210"/>
       <c r="C14" s="32" t="s">
         <v>30</v>
       </c>
       <c r="D14" s="4"/>
-      <c r="E14" s="173"/>
-      <c r="F14" s="175"/>
-      <c r="G14" s="176"/>
-      <c r="H14" s="177"/>
-      <c r="I14" s="176"/>
-      <c r="J14" s="177"/>
-      <c r="K14" s="177"/>
-      <c r="L14" s="240"/>
-      <c r="M14" s="240"/>
+      <c r="E14" s="187"/>
+      <c r="F14" s="246"/>
+      <c r="G14" s="198"/>
+      <c r="H14" s="190"/>
+      <c r="I14" s="198"/>
+      <c r="J14" s="190"/>
+      <c r="K14" s="190"/>
+      <c r="L14" s="171"/>
+      <c r="M14" s="171"/>
     </row>
     <row r="15" spans="1:13" ht="15.75" customHeight="1">
-      <c r="A15" s="211">
+      <c r="A15" s="232">
         <v>5</v>
       </c>
-      <c r="B15" s="194"/>
+      <c r="B15" s="210"/>
       <c r="C15" s="217" t="s">
         <v>31</v>
       </c>
       <c r="D15" s="4"/>
-      <c r="E15" s="180" t="s">
+      <c r="E15" s="195" t="s">
         <v>27</v>
       </c>
-      <c r="F15" s="202"/>
-      <c r="G15" s="174"/>
-      <c r="H15" s="174"/>
-      <c r="I15" s="174"/>
-      <c r="J15" s="174"/>
-      <c r="K15" s="174"/>
-      <c r="L15" s="222"/>
-      <c r="M15" s="222"/>
+      <c r="F15" s="222"/>
+      <c r="G15" s="192"/>
+      <c r="H15" s="192"/>
+      <c r="I15" s="192"/>
+      <c r="J15" s="192"/>
+      <c r="K15" s="192"/>
+      <c r="L15" s="170"/>
+      <c r="M15" s="170"/>
     </row>
     <row r="16" spans="1:13" ht="15.75" customHeight="1" thickBot="1">
-      <c r="A16" s="215"/>
-      <c r="B16" s="204"/>
+      <c r="A16" s="235"/>
+      <c r="B16" s="212"/>
       <c r="C16" s="218"/>
       <c r="D16" s="5"/>
-      <c r="E16" s="228"/>
-      <c r="F16" s="224"/>
-      <c r="G16" s="221"/>
-      <c r="H16" s="221"/>
-      <c r="I16" s="221"/>
-      <c r="J16" s="221"/>
-      <c r="K16" s="221"/>
-      <c r="L16" s="223"/>
-      <c r="M16" s="223"/>
+      <c r="E16" s="196"/>
+      <c r="F16" s="223"/>
+      <c r="G16" s="193"/>
+      <c r="H16" s="193"/>
+      <c r="I16" s="193"/>
+      <c r="J16" s="193"/>
+      <c r="K16" s="193"/>
+      <c r="L16" s="175"/>
+      <c r="M16" s="175"/>
     </row>
     <row r="17" spans="1:13" ht="15.75" customHeight="1">
-      <c r="A17" s="196">
+      <c r="A17" s="236">
         <v>6</v>
       </c>
-      <c r="B17" s="193" t="s">
+      <c r="B17" s="209" t="s">
         <v>34</v>
       </c>
       <c r="C17" s="10" t="s">
         <v>35</v>
       </c>
       <c r="D17" s="3"/>
-      <c r="E17" s="181"/>
-      <c r="F17" s="225"/>
-      <c r="G17" s="225"/>
-      <c r="H17" s="182" t="s">
+      <c r="E17" s="226"/>
+      <c r="F17" s="204"/>
+      <c r="G17" s="204"/>
+      <c r="H17" s="205" t="s">
         <v>27</v>
       </c>
-      <c r="I17" s="182"/>
-      <c r="J17" s="182"/>
-      <c r="K17" s="182"/>
-      <c r="L17" s="247"/>
-      <c r="M17" s="247"/>
+      <c r="I17" s="205"/>
+      <c r="J17" s="205"/>
+      <c r="K17" s="205"/>
+      <c r="L17" s="179"/>
+      <c r="M17" s="179"/>
     </row>
     <row r="18" spans="1:13" ht="15.75" customHeight="1">
-      <c r="A18" s="185"/>
-      <c r="B18" s="194"/>
+      <c r="A18" s="215"/>
+      <c r="B18" s="210"/>
       <c r="C18" s="11" t="s">
         <v>37</v>
       </c>
       <c r="D18" s="4"/>
-      <c r="E18" s="173"/>
-      <c r="F18" s="177"/>
-      <c r="G18" s="177"/>
-      <c r="H18" s="183"/>
-      <c r="I18" s="183"/>
-      <c r="J18" s="183"/>
-      <c r="K18" s="183"/>
-      <c r="L18" s="233"/>
-      <c r="M18" s="233"/>
+      <c r="E18" s="187"/>
+      <c r="F18" s="190"/>
+      <c r="G18" s="190"/>
+      <c r="H18" s="194"/>
+      <c r="I18" s="194"/>
+      <c r="J18" s="194"/>
+      <c r="K18" s="194"/>
+      <c r="L18" s="174"/>
+      <c r="M18" s="174"/>
     </row>
     <row r="19" spans="1:13" ht="15.75" customHeight="1">
-      <c r="A19" s="185"/>
-      <c r="B19" s="194"/>
+      <c r="A19" s="215"/>
+      <c r="B19" s="210"/>
       <c r="C19" s="11" t="s">
         <v>38</v>
       </c>
       <c r="D19" s="4"/>
-      <c r="E19" s="173"/>
-      <c r="F19" s="177"/>
-      <c r="G19" s="177"/>
-      <c r="H19" s="183"/>
-      <c r="I19" s="183"/>
-      <c r="J19" s="183"/>
-      <c r="K19" s="183"/>
-      <c r="L19" s="233"/>
-      <c r="M19" s="233"/>
+      <c r="E19" s="187"/>
+      <c r="F19" s="190"/>
+      <c r="G19" s="190"/>
+      <c r="H19" s="194"/>
+      <c r="I19" s="194"/>
+      <c r="J19" s="194"/>
+      <c r="K19" s="194"/>
+      <c r="L19" s="174"/>
+      <c r="M19" s="174"/>
     </row>
     <row r="20" spans="1:13" ht="15.75" customHeight="1">
-      <c r="A20" s="186">
+      <c r="A20" s="207">
         <v>7</v>
       </c>
-      <c r="B20" s="194"/>
+      <c r="B20" s="210"/>
       <c r="C20" s="11" t="s">
         <v>39</v>
       </c>
       <c r="D20" s="4"/>
-      <c r="E20" s="180" t="s">
+      <c r="E20" s="195" t="s">
         <v>32</v>
       </c>
-      <c r="F20" s="235" t="s">
+      <c r="F20" s="203" t="s">
         <v>44</v>
       </c>
-      <c r="G20" s="235"/>
-      <c r="H20" s="235"/>
-      <c r="I20" s="235"/>
-      <c r="J20" s="235"/>
-      <c r="K20" s="235"/>
-      <c r="L20" s="236"/>
-      <c r="M20" s="236"/>
+      <c r="G20" s="203"/>
+      <c r="H20" s="203"/>
+      <c r="I20" s="203"/>
+      <c r="J20" s="203"/>
+      <c r="K20" s="203"/>
+      <c r="L20" s="180"/>
+      <c r="M20" s="180"/>
     </row>
     <row r="21" spans="1:13" ht="15.75" customHeight="1">
-      <c r="A21" s="186"/>
-      <c r="B21" s="194"/>
+      <c r="A21" s="207"/>
+      <c r="B21" s="210"/>
       <c r="C21" s="11" t="s">
         <v>41</v>
       </c>
       <c r="D21" s="4"/>
-      <c r="E21" s="180"/>
-      <c r="F21" s="235"/>
-      <c r="G21" s="235"/>
-      <c r="H21" s="235"/>
-      <c r="I21" s="235"/>
-      <c r="J21" s="235"/>
-      <c r="K21" s="235"/>
-      <c r="L21" s="236"/>
-      <c r="M21" s="236"/>
+      <c r="E21" s="195"/>
+      <c r="F21" s="203"/>
+      <c r="G21" s="203"/>
+      <c r="H21" s="203"/>
+      <c r="I21" s="203"/>
+      <c r="J21" s="203"/>
+      <c r="K21" s="203"/>
+      <c r="L21" s="180"/>
+      <c r="M21" s="180"/>
     </row>
     <row r="22" spans="1:13" ht="15.75" customHeight="1">
-      <c r="A22" s="186"/>
-      <c r="B22" s="194"/>
+      <c r="A22" s="207"/>
+      <c r="B22" s="210"/>
       <c r="C22" s="32" t="s">
         <v>42</v>
       </c>
       <c r="D22" s="4"/>
-      <c r="E22" s="180"/>
-      <c r="F22" s="235"/>
-      <c r="G22" s="235"/>
-      <c r="H22" s="235"/>
-      <c r="I22" s="235"/>
-      <c r="J22" s="235"/>
-      <c r="K22" s="235"/>
-      <c r="L22" s="236"/>
-      <c r="M22" s="236"/>
+      <c r="E22" s="195"/>
+      <c r="F22" s="203"/>
+      <c r="G22" s="203"/>
+      <c r="H22" s="203"/>
+      <c r="I22" s="203"/>
+      <c r="J22" s="203"/>
+      <c r="K22" s="203"/>
+      <c r="L22" s="180"/>
+      <c r="M22" s="180"/>
     </row>
     <row r="23" spans="1:13" ht="15.75" customHeight="1">
-      <c r="A23" s="185">
+      <c r="A23" s="215">
         <v>8</v>
       </c>
-      <c r="B23" s="194"/>
+      <c r="B23" s="210"/>
       <c r="C23" s="32" t="s">
         <v>43</v>
       </c>
       <c r="D23" s="4"/>
-      <c r="E23" s="173"/>
-      <c r="F23" s="177"/>
-      <c r="G23" s="176" t="s">
+      <c r="E23" s="187"/>
+      <c r="F23" s="190"/>
+      <c r="G23" s="198" t="s">
         <v>50</v>
       </c>
-      <c r="H23" s="183" t="s">
+      <c r="H23" s="194" t="s">
         <v>32</v>
       </c>
-      <c r="I23" s="183"/>
-      <c r="J23" s="183"/>
-      <c r="K23" s="183"/>
-      <c r="L23" s="233"/>
-      <c r="M23" s="233"/>
+      <c r="I23" s="194"/>
+      <c r="J23" s="194"/>
+      <c r="K23" s="194"/>
+      <c r="L23" s="174"/>
+      <c r="M23" s="174"/>
     </row>
     <row r="24" spans="1:13" ht="15.75" customHeight="1">
-      <c r="A24" s="185"/>
-      <c r="B24" s="194"/>
+      <c r="A24" s="215"/>
+      <c r="B24" s="210"/>
       <c r="C24" s="32" t="s">
         <v>45</v>
       </c>
       <c r="D24" s="4"/>
-      <c r="E24" s="173"/>
-      <c r="F24" s="177"/>
-      <c r="G24" s="176"/>
-      <c r="H24" s="183"/>
-      <c r="I24" s="183"/>
-      <c r="J24" s="183"/>
-      <c r="K24" s="183"/>
-      <c r="L24" s="233"/>
-      <c r="M24" s="233"/>
+      <c r="E24" s="187"/>
+      <c r="F24" s="190"/>
+      <c r="G24" s="198"/>
+      <c r="H24" s="194"/>
+      <c r="I24" s="194"/>
+      <c r="J24" s="194"/>
+      <c r="K24" s="194"/>
+      <c r="L24" s="174"/>
+      <c r="M24" s="174"/>
     </row>
     <row r="25" spans="1:13" ht="15.75" customHeight="1" thickBot="1">
-      <c r="A25" s="207"/>
-      <c r="B25" s="204"/>
+      <c r="A25" s="216"/>
+      <c r="B25" s="212"/>
       <c r="C25" s="33" t="s">
         <v>46</v>
       </c>
       <c r="D25" s="5"/>
-      <c r="E25" s="229"/>
-      <c r="F25" s="230"/>
-      <c r="G25" s="231"/>
-      <c r="H25" s="232"/>
-      <c r="I25" s="232"/>
-      <c r="J25" s="232"/>
-      <c r="K25" s="232"/>
-      <c r="L25" s="234"/>
-      <c r="M25" s="234"/>
+      <c r="E25" s="188"/>
+      <c r="F25" s="191"/>
+      <c r="G25" s="199"/>
+      <c r="H25" s="197"/>
+      <c r="I25" s="197"/>
+      <c r="J25" s="197"/>
+      <c r="K25" s="197"/>
+      <c r="L25" s="181"/>
+      <c r="M25" s="181"/>
     </row>
     <row r="26" spans="1:13" ht="15.75" customHeight="1">
-      <c r="A26" s="205">
+      <c r="A26" s="227">
         <v>9</v>
       </c>
-      <c r="B26" s="193" t="s">
+      <c r="B26" s="209" t="s">
         <v>47</v>
       </c>
       <c r="C26" s="12" t="s">
         <v>48</v>
       </c>
       <c r="D26" s="3"/>
-      <c r="E26" s="199" t="s">
+      <c r="E26" s="200" t="s">
         <v>40</v>
       </c>
-      <c r="F26" s="237" t="s">
+      <c r="F26" s="202" t="s">
         <v>53</v>
       </c>
-      <c r="G26" s="237"/>
-      <c r="H26" s="237"/>
-      <c r="I26" s="237"/>
-      <c r="J26" s="237"/>
-      <c r="K26" s="237"/>
-      <c r="L26" s="238"/>
-      <c r="M26" s="238"/>
+      <c r="G26" s="202"/>
+      <c r="H26" s="202"/>
+      <c r="I26" s="202"/>
+      <c r="J26" s="202"/>
+      <c r="K26" s="202"/>
+      <c r="L26" s="182"/>
+      <c r="M26" s="182"/>
     </row>
     <row r="27" spans="1:13" ht="15.75" customHeight="1">
-      <c r="A27" s="206"/>
-      <c r="B27" s="194"/>
+      <c r="A27" s="228"/>
+      <c r="B27" s="210"/>
       <c r="C27" s="13" t="s">
         <v>51</v>
       </c>
       <c r="D27" s="4"/>
-      <c r="E27" s="180"/>
-      <c r="F27" s="235"/>
-      <c r="G27" s="235"/>
-      <c r="H27" s="235"/>
-      <c r="I27" s="235"/>
-      <c r="J27" s="235"/>
-      <c r="K27" s="235"/>
-      <c r="L27" s="236"/>
-      <c r="M27" s="236"/>
+      <c r="E27" s="195"/>
+      <c r="F27" s="203"/>
+      <c r="G27" s="203"/>
+      <c r="H27" s="203"/>
+      <c r="I27" s="203"/>
+      <c r="J27" s="203"/>
+      <c r="K27" s="203"/>
+      <c r="L27" s="180"/>
+      <c r="M27" s="180"/>
     </row>
     <row r="28" spans="1:13" ht="15.75" customHeight="1">
-      <c r="A28" s="207">
+      <c r="A28" s="216">
         <v>10</v>
       </c>
-      <c r="B28" s="194"/>
+      <c r="B28" s="210"/>
       <c r="C28" s="13" t="s">
         <v>52</v>
       </c>
       <c r="D28" s="4"/>
-      <c r="E28" s="173"/>
-      <c r="F28" s="183" t="s">
+      <c r="E28" s="187"/>
+      <c r="F28" s="194" t="s">
         <v>59</v>
       </c>
-      <c r="G28" s="183"/>
-      <c r="H28" s="183" t="s">
+      <c r="G28" s="194"/>
+      <c r="H28" s="194" t="s">
         <v>40</v>
       </c>
-      <c r="I28" s="183"/>
-      <c r="J28" s="183"/>
-      <c r="K28" s="183"/>
-      <c r="L28" s="233"/>
-      <c r="M28" s="233"/>
+      <c r="I28" s="194"/>
+      <c r="J28" s="194"/>
+      <c r="K28" s="194"/>
+      <c r="L28" s="174"/>
+      <c r="M28" s="174"/>
     </row>
     <row r="29" spans="1:13" ht="15.75" customHeight="1">
-      <c r="A29" s="208"/>
-      <c r="B29" s="194"/>
+      <c r="A29" s="229"/>
+      <c r="B29" s="210"/>
       <c r="C29" s="13" t="s">
         <v>54</v>
       </c>
       <c r="D29" s="4"/>
-      <c r="E29" s="173"/>
-      <c r="F29" s="183"/>
-      <c r="G29" s="183"/>
-      <c r="H29" s="183"/>
-      <c r="I29" s="183"/>
-      <c r="J29" s="183"/>
-      <c r="K29" s="183"/>
-      <c r="L29" s="233"/>
-      <c r="M29" s="233"/>
+      <c r="E29" s="187"/>
+      <c r="F29" s="194"/>
+      <c r="G29" s="194"/>
+      <c r="H29" s="194"/>
+      <c r="I29" s="194"/>
+      <c r="J29" s="194"/>
+      <c r="K29" s="194"/>
+      <c r="L29" s="174"/>
+      <c r="M29" s="174"/>
     </row>
     <row r="30" spans="1:13" ht="15.75" customHeight="1">
-      <c r="A30" s="209">
+      <c r="A30" s="230">
         <v>11</v>
       </c>
-      <c r="B30" s="194"/>
+      <c r="B30" s="210"/>
       <c r="C30" s="13" t="s">
         <v>55</v>
       </c>
       <c r="D30" s="4"/>
-      <c r="E30" s="180" t="s">
+      <c r="E30" s="195" t="s">
         <v>49</v>
       </c>
-      <c r="F30" s="174"/>
-      <c r="G30" s="174"/>
-      <c r="H30" s="174"/>
-      <c r="I30" s="174"/>
-      <c r="J30" s="174"/>
-      <c r="K30" s="174"/>
-      <c r="L30" s="222"/>
-      <c r="M30" s="222"/>
+      <c r="F30" s="192"/>
+      <c r="G30" s="192"/>
+      <c r="H30" s="192"/>
+      <c r="I30" s="192"/>
+      <c r="J30" s="192"/>
+      <c r="K30" s="192"/>
+      <c r="L30" s="170"/>
+      <c r="M30" s="170"/>
     </row>
     <row r="31" spans="1:13" ht="15.75" customHeight="1">
-      <c r="A31" s="206"/>
-      <c r="B31" s="194"/>
+      <c r="A31" s="228"/>
+      <c r="B31" s="210"/>
       <c r="C31" s="14" t="s">
         <v>57</v>
       </c>
       <c r="D31" s="4"/>
-      <c r="E31" s="180"/>
-      <c r="F31" s="174"/>
-      <c r="G31" s="174"/>
-      <c r="H31" s="174"/>
-      <c r="I31" s="174"/>
-      <c r="J31" s="174"/>
-      <c r="K31" s="174"/>
-      <c r="L31" s="222"/>
-      <c r="M31" s="222"/>
+      <c r="E31" s="195"/>
+      <c r="F31" s="192"/>
+      <c r="G31" s="192"/>
+      <c r="H31" s="192"/>
+      <c r="I31" s="192"/>
+      <c r="J31" s="192"/>
+      <c r="K31" s="192"/>
+      <c r="L31" s="170"/>
+      <c r="M31" s="170"/>
     </row>
     <row r="32" spans="1:13" ht="15.75" customHeight="1">
-      <c r="A32" s="207">
+      <c r="A32" s="216">
         <v>12</v>
       </c>
-      <c r="B32" s="194"/>
+      <c r="B32" s="210"/>
       <c r="C32" s="14" t="s">
         <v>58</v>
       </c>
       <c r="D32" s="4"/>
-      <c r="E32" s="173"/>
-      <c r="F32" s="183" t="s">
+      <c r="E32" s="187"/>
+      <c r="F32" s="194" t="s">
         <v>67</v>
       </c>
-      <c r="G32" s="176" t="s">
+      <c r="G32" s="198" t="s">
         <v>64</v>
       </c>
-      <c r="H32" s="183" t="s">
+      <c r="H32" s="194" t="s">
         <v>49</v>
       </c>
-      <c r="I32" s="183"/>
-      <c r="J32" s="183"/>
-      <c r="K32" s="183"/>
-      <c r="L32" s="233"/>
-      <c r="M32" s="233"/>
+      <c r="I32" s="194"/>
+      <c r="J32" s="194"/>
+      <c r="K32" s="194"/>
+      <c r="L32" s="174"/>
+      <c r="M32" s="174"/>
     </row>
     <row r="33" spans="1:13" ht="15.75" customHeight="1" thickBot="1">
-      <c r="A33" s="210"/>
-      <c r="B33" s="204"/>
+      <c r="A33" s="231"/>
+      <c r="B33" s="212"/>
       <c r="C33" s="15" t="s">
         <v>60</v>
       </c>
       <c r="D33" s="5"/>
-      <c r="E33" s="229"/>
-      <c r="F33" s="232"/>
-      <c r="G33" s="231"/>
-      <c r="H33" s="232"/>
-      <c r="I33" s="232"/>
-      <c r="J33" s="232"/>
-      <c r="K33" s="232"/>
-      <c r="L33" s="234"/>
-      <c r="M33" s="234"/>
+      <c r="E33" s="188"/>
+      <c r="F33" s="197"/>
+      <c r="G33" s="199"/>
+      <c r="H33" s="197"/>
+      <c r="I33" s="197"/>
+      <c r="J33" s="197"/>
+      <c r="K33" s="197"/>
+      <c r="L33" s="181"/>
+      <c r="M33" s="181"/>
     </row>
     <row r="34" spans="1:13" ht="15.75" customHeight="1">
-      <c r="A34" s="198">
+      <c r="A34" s="206">
         <v>13</v>
       </c>
-      <c r="B34" s="193" t="s">
+      <c r="B34" s="209" t="s">
         <v>61</v>
       </c>
       <c r="C34" s="16" t="s">
         <v>62</v>
       </c>
       <c r="D34" s="3"/>
-      <c r="E34" s="199" t="s">
+      <c r="E34" s="200" t="s">
         <v>56</v>
       </c>
-      <c r="F34" s="178"/>
-      <c r="G34" s="178"/>
-      <c r="H34" s="178"/>
-      <c r="I34" s="178"/>
-      <c r="J34" s="178"/>
-      <c r="K34" s="178"/>
-      <c r="L34" s="239"/>
-      <c r="M34" s="239"/>
+      <c r="F34" s="201"/>
+      <c r="G34" s="201"/>
+      <c r="H34" s="201"/>
+      <c r="I34" s="201"/>
+      <c r="J34" s="201"/>
+      <c r="K34" s="201"/>
+      <c r="L34" s="173"/>
+      <c r="M34" s="173"/>
     </row>
     <row r="35" spans="1:13" ht="15.75" customHeight="1">
-      <c r="A35" s="186"/>
-      <c r="B35" s="194"/>
+      <c r="A35" s="207"/>
+      <c r="B35" s="210"/>
       <c r="C35" s="17" t="s">
         <v>65</v>
       </c>
       <c r="D35" s="4"/>
-      <c r="E35" s="180"/>
-      <c r="F35" s="174"/>
-      <c r="G35" s="174"/>
-      <c r="H35" s="174"/>
-      <c r="I35" s="174"/>
-      <c r="J35" s="174"/>
-      <c r="K35" s="174"/>
-      <c r="L35" s="222"/>
-      <c r="M35" s="222"/>
+      <c r="E35" s="195"/>
+      <c r="F35" s="192"/>
+      <c r="G35" s="192"/>
+      <c r="H35" s="192"/>
+      <c r="I35" s="192"/>
+      <c r="J35" s="192"/>
+      <c r="K35" s="192"/>
+      <c r="L35" s="170"/>
+      <c r="M35" s="170"/>
     </row>
     <row r="36" spans="1:13" ht="15.75" customHeight="1">
-      <c r="A36" s="185">
+      <c r="A36" s="215">
         <v>14</v>
       </c>
-      <c r="B36" s="194"/>
+      <c r="B36" s="210"/>
       <c r="C36" s="17" t="s">
         <v>66</v>
       </c>
       <c r="D36" s="4"/>
-      <c r="E36" s="173"/>
-      <c r="F36" s="177" t="s">
+      <c r="E36" s="187"/>
+      <c r="F36" s="190" t="s">
         <v>73</v>
       </c>
-      <c r="G36" s="177"/>
-      <c r="H36" s="177" t="s">
+      <c r="G36" s="190"/>
+      <c r="H36" s="190" t="s">
         <v>56</v>
       </c>
-      <c r="I36" s="177"/>
-      <c r="J36" s="177"/>
-      <c r="K36" s="177"/>
-      <c r="L36" s="240"/>
-      <c r="M36" s="240"/>
+      <c r="I36" s="190"/>
+      <c r="J36" s="190"/>
+      <c r="K36" s="190"/>
+      <c r="L36" s="171"/>
+      <c r="M36" s="171"/>
     </row>
     <row r="37" spans="1:13" ht="15.75" customHeight="1">
-      <c r="A37" s="185"/>
-      <c r="B37" s="194"/>
+      <c r="A37" s="215"/>
+      <c r="B37" s="210"/>
       <c r="C37" s="17" t="s">
         <v>68</v>
       </c>
       <c r="D37" s="4"/>
-      <c r="E37" s="173"/>
-      <c r="F37" s="177"/>
-      <c r="G37" s="177"/>
-      <c r="H37" s="177"/>
-      <c r="I37" s="177"/>
-      <c r="J37" s="177"/>
-      <c r="K37" s="177"/>
-      <c r="L37" s="240"/>
-      <c r="M37" s="240"/>
+      <c r="E37" s="187"/>
+      <c r="F37" s="190"/>
+      <c r="G37" s="190"/>
+      <c r="H37" s="190"/>
+      <c r="I37" s="190"/>
+      <c r="J37" s="190"/>
+      <c r="K37" s="190"/>
+      <c r="L37" s="171"/>
+      <c r="M37" s="171"/>
     </row>
     <row r="38" spans="1:13" ht="15.75" customHeight="1">
-      <c r="A38" s="186">
+      <c r="A38" s="207">
         <v>15</v>
       </c>
-      <c r="B38" s="194"/>
+      <c r="B38" s="210"/>
       <c r="C38" s="17" t="s">
         <v>69</v>
       </c>
       <c r="D38" s="4"/>
-      <c r="E38" s="180" t="s">
+      <c r="E38" s="195" t="s">
         <v>63</v>
       </c>
-      <c r="F38" s="174"/>
-      <c r="G38" s="174"/>
-      <c r="H38" s="174"/>
-      <c r="I38" s="174"/>
-      <c r="J38" s="174"/>
-      <c r="K38" s="174"/>
-      <c r="L38" s="222"/>
-      <c r="M38" s="222"/>
+      <c r="F38" s="192"/>
+      <c r="G38" s="192"/>
+      <c r="H38" s="192"/>
+      <c r="I38" s="192"/>
+      <c r="J38" s="192"/>
+      <c r="K38" s="192"/>
+      <c r="L38" s="170"/>
+      <c r="M38" s="170"/>
     </row>
     <row r="39" spans="1:13" ht="15.75" customHeight="1">
-      <c r="A39" s="186"/>
-      <c r="B39" s="194"/>
+      <c r="A39" s="207"/>
+      <c r="B39" s="210"/>
       <c r="C39" s="32" t="s">
         <v>71</v>
       </c>
       <c r="D39" s="4"/>
-      <c r="E39" s="180"/>
-      <c r="F39" s="174"/>
-      <c r="G39" s="174"/>
-      <c r="H39" s="174"/>
-      <c r="I39" s="174"/>
-      <c r="J39" s="174"/>
-      <c r="K39" s="174"/>
-      <c r="L39" s="222"/>
-      <c r="M39" s="222"/>
+      <c r="E39" s="195"/>
+      <c r="F39" s="192"/>
+      <c r="G39" s="192"/>
+      <c r="H39" s="192"/>
+      <c r="I39" s="192"/>
+      <c r="J39" s="192"/>
+      <c r="K39" s="192"/>
+      <c r="L39" s="170"/>
+      <c r="M39" s="170"/>
     </row>
     <row r="40" spans="1:13" ht="15.75" customHeight="1">
-      <c r="A40" s="185">
+      <c r="A40" s="215">
         <v>16</v>
       </c>
-      <c r="B40" s="194"/>
+      <c r="B40" s="210"/>
       <c r="C40" s="32" t="s">
         <v>72</v>
       </c>
       <c r="D40" s="4"/>
-      <c r="E40" s="173"/>
-      <c r="F40" s="183" t="s">
+      <c r="E40" s="187"/>
+      <c r="F40" s="194" t="s">
         <v>82</v>
       </c>
-      <c r="G40" s="176" t="s">
+      <c r="G40" s="198" t="s">
         <v>79</v>
       </c>
-      <c r="H40" s="177" t="s">
+      <c r="H40" s="190" t="s">
         <v>63</v>
       </c>
-      <c r="I40" s="177"/>
-      <c r="J40" s="177"/>
-      <c r="K40" s="177"/>
-      <c r="L40" s="240"/>
-      <c r="M40" s="240"/>
+      <c r="I40" s="190"/>
+      <c r="J40" s="190"/>
+      <c r="K40" s="190"/>
+      <c r="L40" s="171"/>
+      <c r="M40" s="171"/>
     </row>
     <row r="41" spans="1:13" ht="15.75" customHeight="1">
-      <c r="A41" s="185"/>
-      <c r="B41" s="194"/>
+      <c r="A41" s="215"/>
+      <c r="B41" s="210"/>
       <c r="C41" s="32" t="s">
         <v>74</v>
       </c>
       <c r="D41" s="4"/>
-      <c r="E41" s="173"/>
-      <c r="F41" s="183"/>
-      <c r="G41" s="176"/>
-      <c r="H41" s="177"/>
-      <c r="I41" s="177"/>
-      <c r="J41" s="177"/>
-      <c r="K41" s="177"/>
-      <c r="L41" s="240"/>
-      <c r="M41" s="240"/>
+      <c r="E41" s="187"/>
+      <c r="F41" s="194"/>
+      <c r="G41" s="198"/>
+      <c r="H41" s="190"/>
+      <c r="I41" s="190"/>
+      <c r="J41" s="190"/>
+      <c r="K41" s="190"/>
+      <c r="L41" s="171"/>
+      <c r="M41" s="171"/>
     </row>
     <row r="42" spans="1:13" ht="15.75" customHeight="1" thickBot="1">
-      <c r="A42" s="197"/>
-      <c r="B42" s="195"/>
+      <c r="A42" s="242"/>
+      <c r="B42" s="211"/>
       <c r="C42" s="9" t="s">
         <v>75</v>
       </c>
       <c r="D42" s="5"/>
-      <c r="E42" s="229"/>
-      <c r="F42" s="232"/>
-      <c r="G42" s="231"/>
-      <c r="H42" s="230"/>
-      <c r="I42" s="230"/>
-      <c r="J42" s="230"/>
-      <c r="K42" s="230"/>
-      <c r="L42" s="241"/>
-      <c r="M42" s="241"/>
+      <c r="E42" s="188"/>
+      <c r="F42" s="197"/>
+      <c r="G42" s="199"/>
+      <c r="H42" s="191"/>
+      <c r="I42" s="191"/>
+      <c r="J42" s="191"/>
+      <c r="K42" s="191"/>
+      <c r="L42" s="172"/>
+      <c r="M42" s="172"/>
     </row>
     <row r="43" spans="1:13" ht="15.75" customHeight="1">
-      <c r="A43" s="198">
+      <c r="A43" s="206">
         <v>17</v>
       </c>
-      <c r="B43" s="188" t="s">
+      <c r="B43" s="237" t="s">
         <v>76</v>
       </c>
       <c r="C43" s="10" t="s">
         <v>77</v>
       </c>
       <c r="D43" s="3"/>
-      <c r="E43" s="199" t="s">
+      <c r="E43" s="200" t="s">
         <v>70</v>
       </c>
-      <c r="F43" s="178"/>
-      <c r="G43" s="178"/>
-      <c r="H43" s="178"/>
-      <c r="I43" s="178"/>
-      <c r="J43" s="178"/>
-      <c r="K43" s="178"/>
-      <c r="L43" s="239"/>
-      <c r="M43" s="239"/>
+      <c r="F43" s="201"/>
+      <c r="G43" s="201"/>
+      <c r="H43" s="201"/>
+      <c r="I43" s="201"/>
+      <c r="J43" s="201"/>
+      <c r="K43" s="201"/>
+      <c r="L43" s="173"/>
+      <c r="M43" s="173"/>
     </row>
     <row r="44" spans="1:13" ht="15.75" customHeight="1">
-      <c r="A44" s="186"/>
-      <c r="B44" s="189"/>
+      <c r="A44" s="207"/>
+      <c r="B44" s="238"/>
       <c r="C44" s="11" t="s">
         <v>80</v>
       </c>
       <c r="D44" s="4"/>
-      <c r="E44" s="180"/>
-      <c r="F44" s="174"/>
-      <c r="G44" s="174"/>
-      <c r="H44" s="174"/>
-      <c r="I44" s="174"/>
-      <c r="J44" s="174"/>
-      <c r="K44" s="174"/>
-      <c r="L44" s="222"/>
-      <c r="M44" s="222"/>
+      <c r="E44" s="195"/>
+      <c r="F44" s="192"/>
+      <c r="G44" s="192"/>
+      <c r="H44" s="192"/>
+      <c r="I44" s="192"/>
+      <c r="J44" s="192"/>
+      <c r="K44" s="192"/>
+      <c r="L44" s="170"/>
+      <c r="M44" s="170"/>
     </row>
     <row r="45" spans="1:13" ht="15.75" customHeight="1">
-      <c r="A45" s="185">
+      <c r="A45" s="215">
         <v>18</v>
       </c>
-      <c r="B45" s="189"/>
+      <c r="B45" s="238"/>
       <c r="C45" s="11" t="s">
         <v>81</v>
       </c>
       <c r="D45" s="4"/>
-      <c r="E45" s="173"/>
-      <c r="F45" s="183" t="s">
+      <c r="E45" s="187"/>
+      <c r="F45" s="194" t="s">
         <v>197</v>
       </c>
-      <c r="G45" s="177"/>
-      <c r="H45" s="183" t="s">
+      <c r="G45" s="190"/>
+      <c r="H45" s="194" t="s">
         <v>70</v>
       </c>
-      <c r="I45" s="183"/>
-      <c r="J45" s="183"/>
-      <c r="K45" s="183"/>
-      <c r="L45" s="233"/>
-      <c r="M45" s="233"/>
+      <c r="I45" s="194"/>
+      <c r="J45" s="194"/>
+      <c r="K45" s="194"/>
+      <c r="L45" s="174"/>
+      <c r="M45" s="174"/>
     </row>
     <row r="46" spans="1:13" ht="15.75" customHeight="1">
-      <c r="A46" s="185"/>
-      <c r="B46" s="189"/>
+      <c r="A46" s="215"/>
+      <c r="B46" s="238"/>
       <c r="C46" s="11" t="s">
         <v>83</v>
       </c>
       <c r="D46" s="4"/>
-      <c r="E46" s="173"/>
-      <c r="F46" s="183"/>
-      <c r="G46" s="177"/>
-      <c r="H46" s="183"/>
-      <c r="I46" s="183"/>
-      <c r="J46" s="183"/>
-      <c r="K46" s="183"/>
-      <c r="L46" s="233"/>
-      <c r="M46" s="233"/>
+      <c r="E46" s="187"/>
+      <c r="F46" s="194"/>
+      <c r="G46" s="190"/>
+      <c r="H46" s="194"/>
+      <c r="I46" s="194"/>
+      <c r="J46" s="194"/>
+      <c r="K46" s="194"/>
+      <c r="L46" s="174"/>
+      <c r="M46" s="174"/>
     </row>
     <row r="47" spans="1:13" ht="15.75" customHeight="1">
-      <c r="A47" s="186">
+      <c r="A47" s="207">
         <v>19</v>
       </c>
-      <c r="B47" s="189"/>
-      <c r="C47" s="191" t="s">
+      <c r="B47" s="238"/>
+      <c r="C47" s="240" t="s">
         <v>84</v>
       </c>
       <c r="D47" s="4"/>
-      <c r="E47" s="180" t="s">
+      <c r="E47" s="195" t="s">
         <v>78</v>
       </c>
-      <c r="F47" s="174"/>
-      <c r="G47" s="174"/>
-      <c r="H47" s="174"/>
-      <c r="I47" s="174"/>
-      <c r="J47" s="174"/>
-      <c r="K47" s="174"/>
-      <c r="L47" s="222"/>
-      <c r="M47" s="222"/>
+      <c r="F47" s="192"/>
+      <c r="G47" s="192"/>
+      <c r="H47" s="192"/>
+      <c r="I47" s="192"/>
+      <c r="J47" s="192"/>
+      <c r="K47" s="192"/>
+      <c r="L47" s="170"/>
+      <c r="M47" s="170"/>
     </row>
     <row r="48" spans="1:13" ht="15.75" customHeight="1" thickBot="1">
-      <c r="A48" s="187"/>
-      <c r="B48" s="190"/>
-      <c r="C48" s="192"/>
+      <c r="A48" s="208"/>
+      <c r="B48" s="239"/>
+      <c r="C48" s="241"/>
       <c r="D48" s="5"/>
-      <c r="E48" s="228"/>
-      <c r="F48" s="221"/>
-      <c r="G48" s="221"/>
-      <c r="H48" s="221"/>
-      <c r="I48" s="221"/>
-      <c r="J48" s="221"/>
-      <c r="K48" s="221"/>
-      <c r="L48" s="223"/>
-      <c r="M48" s="223"/>
+      <c r="E48" s="196"/>
+      <c r="F48" s="193"/>
+      <c r="G48" s="193"/>
+      <c r="H48" s="193"/>
+      <c r="I48" s="193"/>
+      <c r="J48" s="193"/>
+      <c r="K48" s="193"/>
+      <c r="L48" s="175"/>
+      <c r="M48" s="175"/>
     </row>
     <row r="49" spans="1:13" ht="15.75" customHeight="1">
-      <c r="A49" s="196">
+      <c r="A49" s="236">
         <v>20</v>
       </c>
-      <c r="B49" s="193" t="s">
+      <c r="B49" s="209" t="s">
         <v>85</v>
       </c>
       <c r="C49" s="10" t="s">
         <v>86</v>
       </c>
       <c r="D49" s="6"/>
-      <c r="E49" s="242"/>
-      <c r="F49" s="243"/>
-      <c r="G49" s="243"/>
-      <c r="H49" s="243" t="s">
+      <c r="E49" s="186"/>
+      <c r="F49" s="189"/>
+      <c r="G49" s="189"/>
+      <c r="H49" s="189" t="s">
         <v>78</v>
       </c>
-      <c r="I49" s="243"/>
-      <c r="J49" s="243"/>
-      <c r="K49" s="243"/>
-      <c r="L49" s="244"/>
-      <c r="M49" s="244"/>
+      <c r="I49" s="189"/>
+      <c r="J49" s="189"/>
+      <c r="K49" s="189"/>
+      <c r="L49" s="176"/>
+      <c r="M49" s="176"/>
     </row>
     <row r="50" spans="1:13" ht="15.75" customHeight="1">
-      <c r="A50" s="185"/>
-      <c r="B50" s="194"/>
+      <c r="A50" s="215"/>
+      <c r="B50" s="210"/>
       <c r="C50" s="11" t="s">
         <v>87</v>
       </c>
       <c r="D50" s="4"/>
-      <c r="E50" s="173"/>
-      <c r="F50" s="177"/>
-      <c r="G50" s="177"/>
-      <c r="H50" s="177"/>
-      <c r="I50" s="177"/>
-      <c r="J50" s="177"/>
-      <c r="K50" s="177"/>
-      <c r="L50" s="240"/>
-      <c r="M50" s="240"/>
+      <c r="E50" s="187"/>
+      <c r="F50" s="190"/>
+      <c r="G50" s="190"/>
+      <c r="H50" s="190"/>
+      <c r="I50" s="190"/>
+      <c r="J50" s="190"/>
+      <c r="K50" s="190"/>
+      <c r="L50" s="171"/>
+      <c r="M50" s="171"/>
     </row>
     <row r="51" spans="1:13" ht="15.75" customHeight="1">
-      <c r="A51" s="185"/>
-      <c r="B51" s="194"/>
+      <c r="A51" s="215"/>
+      <c r="B51" s="210"/>
       <c r="C51" s="11" t="s">
         <v>88</v>
       </c>
       <c r="D51" s="4"/>
-      <c r="E51" s="173"/>
-      <c r="F51" s="177"/>
-      <c r="G51" s="177"/>
-      <c r="H51" s="177"/>
-      <c r="I51" s="177"/>
-      <c r="J51" s="177"/>
-      <c r="K51" s="177"/>
-      <c r="L51" s="240"/>
-      <c r="M51" s="240"/>
+      <c r="E51" s="187"/>
+      <c r="F51" s="190"/>
+      <c r="G51" s="190"/>
+      <c r="H51" s="190"/>
+      <c r="I51" s="190"/>
+      <c r="J51" s="190"/>
+      <c r="K51" s="190"/>
+      <c r="L51" s="171"/>
+      <c r="M51" s="171"/>
     </row>
     <row r="52" spans="1:13" ht="15.75" customHeight="1" thickBot="1">
-      <c r="A52" s="197"/>
-      <c r="B52" s="195"/>
+      <c r="A52" s="242"/>
+      <c r="B52" s="211"/>
       <c r="C52" s="18" t="s">
         <v>89</v>
       </c>
       <c r="D52" s="5"/>
-      <c r="E52" s="229"/>
-      <c r="F52" s="230"/>
-      <c r="G52" s="230"/>
-      <c r="H52" s="230"/>
-      <c r="I52" s="230"/>
-      <c r="J52" s="230"/>
-      <c r="K52" s="230"/>
-      <c r="L52" s="241"/>
-      <c r="M52" s="241"/>
+      <c r="E52" s="188"/>
+      <c r="F52" s="191"/>
+      <c r="G52" s="191"/>
+      <c r="H52" s="191"/>
+      <c r="I52" s="191"/>
+      <c r="J52" s="191"/>
+      <c r="K52" s="191"/>
+      <c r="L52" s="172"/>
+      <c r="M52" s="172"/>
     </row>
     <row r="55" spans="1:13" ht="15.75" thickBot="1"/>
     <row r="56" spans="1:13" ht="15.75" thickBot="1">
@@ -9141,6 +9185,193 @@
     </row>
   </sheetData>
   <mergeCells count="211">
+    <mergeCell ref="I1:K1"/>
+    <mergeCell ref="E13:E14"/>
+    <mergeCell ref="H11:H12"/>
+    <mergeCell ref="F13:F14"/>
+    <mergeCell ref="G13:G14"/>
+    <mergeCell ref="H13:H14"/>
+    <mergeCell ref="I13:I14"/>
+    <mergeCell ref="J13:J14"/>
+    <mergeCell ref="K13:K14"/>
+    <mergeCell ref="J2:J8"/>
+    <mergeCell ref="K2:K8"/>
+    <mergeCell ref="E11:E12"/>
+    <mergeCell ref="E9:E10"/>
+    <mergeCell ref="F9:F10"/>
+    <mergeCell ref="G9:G10"/>
+    <mergeCell ref="E2:E8"/>
+    <mergeCell ref="F2:F8"/>
+    <mergeCell ref="G2:G8"/>
+    <mergeCell ref="H2:H8"/>
+    <mergeCell ref="I2:I8"/>
+    <mergeCell ref="I11:I12"/>
+    <mergeCell ref="A45:A46"/>
+    <mergeCell ref="A47:A48"/>
+    <mergeCell ref="B43:B48"/>
+    <mergeCell ref="C47:C48"/>
+    <mergeCell ref="B49:B52"/>
+    <mergeCell ref="A49:A52"/>
+    <mergeCell ref="A34:A35"/>
+    <mergeCell ref="A36:A37"/>
+    <mergeCell ref="A38:A39"/>
+    <mergeCell ref="A40:A42"/>
+    <mergeCell ref="B34:B42"/>
+    <mergeCell ref="A43:A44"/>
+    <mergeCell ref="B26:B33"/>
+    <mergeCell ref="A26:A27"/>
+    <mergeCell ref="A28:A29"/>
+    <mergeCell ref="A30:A31"/>
+    <mergeCell ref="A32:A33"/>
+    <mergeCell ref="A11:A12"/>
+    <mergeCell ref="A13:A14"/>
+    <mergeCell ref="A15:A16"/>
+    <mergeCell ref="A17:A19"/>
+    <mergeCell ref="A20:A22"/>
+    <mergeCell ref="A2:A8"/>
+    <mergeCell ref="B2:B8"/>
+    <mergeCell ref="B9:B16"/>
+    <mergeCell ref="A9:A10"/>
+    <mergeCell ref="A23:A25"/>
+    <mergeCell ref="B17:B25"/>
+    <mergeCell ref="C15:C16"/>
+    <mergeCell ref="L11:L12"/>
+    <mergeCell ref="J9:J10"/>
+    <mergeCell ref="K9:K10"/>
+    <mergeCell ref="L9:L10"/>
+    <mergeCell ref="K15:K16"/>
+    <mergeCell ref="L15:L16"/>
+    <mergeCell ref="F15:F16"/>
+    <mergeCell ref="G15:G16"/>
+    <mergeCell ref="H15:H16"/>
+    <mergeCell ref="I15:I16"/>
+    <mergeCell ref="J15:J16"/>
+    <mergeCell ref="H9:H10"/>
+    <mergeCell ref="I9:I10"/>
+    <mergeCell ref="F11:F12"/>
+    <mergeCell ref="G11:G12"/>
+    <mergeCell ref="E15:E16"/>
+    <mergeCell ref="E17:E19"/>
+    <mergeCell ref="F17:F19"/>
+    <mergeCell ref="G17:G19"/>
+    <mergeCell ref="H17:H19"/>
+    <mergeCell ref="I17:I19"/>
+    <mergeCell ref="J17:J19"/>
+    <mergeCell ref="K17:K19"/>
+    <mergeCell ref="J11:J12"/>
+    <mergeCell ref="K11:K12"/>
+    <mergeCell ref="E23:E25"/>
+    <mergeCell ref="F23:F25"/>
+    <mergeCell ref="G23:G25"/>
+    <mergeCell ref="H23:H25"/>
+    <mergeCell ref="I23:I25"/>
+    <mergeCell ref="J23:J25"/>
+    <mergeCell ref="K23:K25"/>
+    <mergeCell ref="L23:L25"/>
+    <mergeCell ref="H20:H22"/>
+    <mergeCell ref="F20:F22"/>
+    <mergeCell ref="G20:G22"/>
+    <mergeCell ref="I20:I22"/>
+    <mergeCell ref="J20:J22"/>
+    <mergeCell ref="K20:K22"/>
+    <mergeCell ref="L20:L22"/>
+    <mergeCell ref="E20:E22"/>
+    <mergeCell ref="F26:F27"/>
+    <mergeCell ref="G26:G27"/>
+    <mergeCell ref="H26:H27"/>
+    <mergeCell ref="I26:I27"/>
+    <mergeCell ref="J26:J27"/>
+    <mergeCell ref="E26:E27"/>
+    <mergeCell ref="K30:K31"/>
+    <mergeCell ref="L30:L31"/>
+    <mergeCell ref="K26:K27"/>
+    <mergeCell ref="L26:L27"/>
+    <mergeCell ref="E28:E29"/>
+    <mergeCell ref="F28:F29"/>
+    <mergeCell ref="G28:G29"/>
+    <mergeCell ref="H28:H29"/>
+    <mergeCell ref="I28:I29"/>
+    <mergeCell ref="J28:J29"/>
+    <mergeCell ref="K28:K29"/>
+    <mergeCell ref="L28:L29"/>
+    <mergeCell ref="E32:E33"/>
+    <mergeCell ref="F32:F33"/>
+    <mergeCell ref="G32:G33"/>
+    <mergeCell ref="H32:H33"/>
+    <mergeCell ref="I32:I33"/>
+    <mergeCell ref="J32:J33"/>
+    <mergeCell ref="K32:K33"/>
+    <mergeCell ref="L32:L33"/>
+    <mergeCell ref="F30:F31"/>
+    <mergeCell ref="G30:G31"/>
+    <mergeCell ref="H30:H31"/>
+    <mergeCell ref="I30:I31"/>
+    <mergeCell ref="J30:J31"/>
+    <mergeCell ref="E30:E31"/>
+    <mergeCell ref="E38:E39"/>
+    <mergeCell ref="F34:F35"/>
+    <mergeCell ref="G34:G35"/>
+    <mergeCell ref="H34:H35"/>
+    <mergeCell ref="I34:I35"/>
+    <mergeCell ref="J34:J35"/>
+    <mergeCell ref="E34:E35"/>
+    <mergeCell ref="K38:K39"/>
+    <mergeCell ref="L38:L39"/>
+    <mergeCell ref="F38:F39"/>
+    <mergeCell ref="G38:G39"/>
+    <mergeCell ref="H38:H39"/>
+    <mergeCell ref="I38:I39"/>
+    <mergeCell ref="J38:J39"/>
+    <mergeCell ref="K34:K35"/>
+    <mergeCell ref="L34:L35"/>
+    <mergeCell ref="E36:E37"/>
+    <mergeCell ref="F36:F37"/>
+    <mergeCell ref="G36:G37"/>
+    <mergeCell ref="H36:H37"/>
+    <mergeCell ref="I36:I37"/>
+    <mergeCell ref="J36:J37"/>
+    <mergeCell ref="K36:K37"/>
+    <mergeCell ref="L36:L37"/>
+    <mergeCell ref="E40:E42"/>
+    <mergeCell ref="F40:F42"/>
+    <mergeCell ref="G40:G42"/>
+    <mergeCell ref="H40:H42"/>
+    <mergeCell ref="I40:I42"/>
+    <mergeCell ref="J40:J42"/>
+    <mergeCell ref="K40:K42"/>
+    <mergeCell ref="L40:L42"/>
+    <mergeCell ref="E43:E44"/>
+    <mergeCell ref="K43:K44"/>
+    <mergeCell ref="L43:L44"/>
+    <mergeCell ref="F43:F44"/>
+    <mergeCell ref="G43:G44"/>
+    <mergeCell ref="H43:H44"/>
+    <mergeCell ref="I43:I44"/>
+    <mergeCell ref="J43:J44"/>
+    <mergeCell ref="E45:E46"/>
+    <mergeCell ref="F45:F46"/>
+    <mergeCell ref="G45:G46"/>
+    <mergeCell ref="H45:H46"/>
+    <mergeCell ref="I45:I46"/>
+    <mergeCell ref="J45:J46"/>
+    <mergeCell ref="K45:K46"/>
+    <mergeCell ref="L45:L46"/>
+    <mergeCell ref="E47:E48"/>
+    <mergeCell ref="K47:K48"/>
+    <mergeCell ref="L47:L48"/>
+    <mergeCell ref="E49:E52"/>
+    <mergeCell ref="F49:F52"/>
+    <mergeCell ref="G49:G52"/>
+    <mergeCell ref="H49:H52"/>
+    <mergeCell ref="I49:I52"/>
+    <mergeCell ref="J49:J52"/>
+    <mergeCell ref="K49:K52"/>
+    <mergeCell ref="L49:L52"/>
+    <mergeCell ref="F47:F48"/>
+    <mergeCell ref="G47:G48"/>
+    <mergeCell ref="H47:H48"/>
+    <mergeCell ref="I47:I48"/>
+    <mergeCell ref="J47:J48"/>
     <mergeCell ref="M38:M39"/>
     <mergeCell ref="M40:M42"/>
     <mergeCell ref="M43:M44"/>
@@ -9165,193 +9396,6 @@
     <mergeCell ref="L17:L19"/>
     <mergeCell ref="L13:L14"/>
     <mergeCell ref="L2:L8"/>
-    <mergeCell ref="E49:E52"/>
-    <mergeCell ref="F49:F52"/>
-    <mergeCell ref="G49:G52"/>
-    <mergeCell ref="H49:H52"/>
-    <mergeCell ref="I49:I52"/>
-    <mergeCell ref="J49:J52"/>
-    <mergeCell ref="K49:K52"/>
-    <mergeCell ref="L49:L52"/>
-    <mergeCell ref="F47:F48"/>
-    <mergeCell ref="G47:G48"/>
-    <mergeCell ref="H47:H48"/>
-    <mergeCell ref="I47:I48"/>
-    <mergeCell ref="J47:J48"/>
-    <mergeCell ref="E45:E46"/>
-    <mergeCell ref="F45:F46"/>
-    <mergeCell ref="G45:G46"/>
-    <mergeCell ref="H45:H46"/>
-    <mergeCell ref="I45:I46"/>
-    <mergeCell ref="J45:J46"/>
-    <mergeCell ref="K45:K46"/>
-    <mergeCell ref="L45:L46"/>
-    <mergeCell ref="E47:E48"/>
-    <mergeCell ref="K47:K48"/>
-    <mergeCell ref="L47:L48"/>
-    <mergeCell ref="E40:E42"/>
-    <mergeCell ref="F40:F42"/>
-    <mergeCell ref="G40:G42"/>
-    <mergeCell ref="H40:H42"/>
-    <mergeCell ref="I40:I42"/>
-    <mergeCell ref="J40:J42"/>
-    <mergeCell ref="K40:K42"/>
-    <mergeCell ref="L40:L42"/>
-    <mergeCell ref="E43:E44"/>
-    <mergeCell ref="K43:K44"/>
-    <mergeCell ref="L43:L44"/>
-    <mergeCell ref="F43:F44"/>
-    <mergeCell ref="G43:G44"/>
-    <mergeCell ref="H43:H44"/>
-    <mergeCell ref="I43:I44"/>
-    <mergeCell ref="J43:J44"/>
-    <mergeCell ref="E38:E39"/>
-    <mergeCell ref="F34:F35"/>
-    <mergeCell ref="G34:G35"/>
-    <mergeCell ref="H34:H35"/>
-    <mergeCell ref="I34:I35"/>
-    <mergeCell ref="J34:J35"/>
-    <mergeCell ref="E34:E35"/>
-    <mergeCell ref="K38:K39"/>
-    <mergeCell ref="L38:L39"/>
-    <mergeCell ref="F38:F39"/>
-    <mergeCell ref="G38:G39"/>
-    <mergeCell ref="H38:H39"/>
-    <mergeCell ref="I38:I39"/>
-    <mergeCell ref="J38:J39"/>
-    <mergeCell ref="K34:K35"/>
-    <mergeCell ref="L34:L35"/>
-    <mergeCell ref="E36:E37"/>
-    <mergeCell ref="F36:F37"/>
-    <mergeCell ref="G36:G37"/>
-    <mergeCell ref="H36:H37"/>
-    <mergeCell ref="I36:I37"/>
-    <mergeCell ref="J36:J37"/>
-    <mergeCell ref="K36:K37"/>
-    <mergeCell ref="L36:L37"/>
-    <mergeCell ref="E32:E33"/>
-    <mergeCell ref="F32:F33"/>
-    <mergeCell ref="G32:G33"/>
-    <mergeCell ref="H32:H33"/>
-    <mergeCell ref="I32:I33"/>
-    <mergeCell ref="J32:J33"/>
-    <mergeCell ref="K32:K33"/>
-    <mergeCell ref="L32:L33"/>
-    <mergeCell ref="F30:F31"/>
-    <mergeCell ref="G30:G31"/>
-    <mergeCell ref="H30:H31"/>
-    <mergeCell ref="I30:I31"/>
-    <mergeCell ref="J30:J31"/>
-    <mergeCell ref="E30:E31"/>
-    <mergeCell ref="F26:F27"/>
-    <mergeCell ref="G26:G27"/>
-    <mergeCell ref="H26:H27"/>
-    <mergeCell ref="I26:I27"/>
-    <mergeCell ref="J26:J27"/>
-    <mergeCell ref="E26:E27"/>
-    <mergeCell ref="K30:K31"/>
-    <mergeCell ref="L30:L31"/>
-    <mergeCell ref="K26:K27"/>
-    <mergeCell ref="L26:L27"/>
-    <mergeCell ref="E28:E29"/>
-    <mergeCell ref="F28:F29"/>
-    <mergeCell ref="G28:G29"/>
-    <mergeCell ref="H28:H29"/>
-    <mergeCell ref="I28:I29"/>
-    <mergeCell ref="J28:J29"/>
-    <mergeCell ref="K28:K29"/>
-    <mergeCell ref="L28:L29"/>
-    <mergeCell ref="L23:L25"/>
-    <mergeCell ref="H20:H22"/>
-    <mergeCell ref="F20:F22"/>
-    <mergeCell ref="G20:G22"/>
-    <mergeCell ref="I20:I22"/>
-    <mergeCell ref="J20:J22"/>
-    <mergeCell ref="K20:K22"/>
-    <mergeCell ref="L20:L22"/>
-    <mergeCell ref="E20:E22"/>
-    <mergeCell ref="F17:F19"/>
-    <mergeCell ref="G17:G19"/>
-    <mergeCell ref="H17:H19"/>
-    <mergeCell ref="I17:I19"/>
-    <mergeCell ref="J17:J19"/>
-    <mergeCell ref="K17:K19"/>
-    <mergeCell ref="J11:J12"/>
-    <mergeCell ref="K11:K12"/>
-    <mergeCell ref="E23:E25"/>
-    <mergeCell ref="F23:F25"/>
-    <mergeCell ref="G23:G25"/>
-    <mergeCell ref="H23:H25"/>
-    <mergeCell ref="I23:I25"/>
-    <mergeCell ref="J23:J25"/>
-    <mergeCell ref="K23:K25"/>
-    <mergeCell ref="A2:A8"/>
-    <mergeCell ref="B2:B8"/>
-    <mergeCell ref="B9:B16"/>
-    <mergeCell ref="A9:A10"/>
-    <mergeCell ref="A23:A25"/>
-    <mergeCell ref="B17:B25"/>
-    <mergeCell ref="C15:C16"/>
-    <mergeCell ref="L11:L12"/>
-    <mergeCell ref="J9:J10"/>
-    <mergeCell ref="K9:K10"/>
-    <mergeCell ref="L9:L10"/>
-    <mergeCell ref="K15:K16"/>
-    <mergeCell ref="L15:L16"/>
-    <mergeCell ref="F15:F16"/>
-    <mergeCell ref="G15:G16"/>
-    <mergeCell ref="H15:H16"/>
-    <mergeCell ref="I15:I16"/>
-    <mergeCell ref="J15:J16"/>
-    <mergeCell ref="H9:H10"/>
-    <mergeCell ref="I9:I10"/>
-    <mergeCell ref="F11:F12"/>
-    <mergeCell ref="G11:G12"/>
-    <mergeCell ref="E15:E16"/>
-    <mergeCell ref="E17:E19"/>
-    <mergeCell ref="B26:B33"/>
-    <mergeCell ref="A26:A27"/>
-    <mergeCell ref="A28:A29"/>
-    <mergeCell ref="A30:A31"/>
-    <mergeCell ref="A32:A33"/>
-    <mergeCell ref="A11:A12"/>
-    <mergeCell ref="A13:A14"/>
-    <mergeCell ref="A15:A16"/>
-    <mergeCell ref="A17:A19"/>
-    <mergeCell ref="A20:A22"/>
-    <mergeCell ref="A45:A46"/>
-    <mergeCell ref="A47:A48"/>
-    <mergeCell ref="B43:B48"/>
-    <mergeCell ref="C47:C48"/>
-    <mergeCell ref="B49:B52"/>
-    <mergeCell ref="A49:A52"/>
-    <mergeCell ref="A34:A35"/>
-    <mergeCell ref="A36:A37"/>
-    <mergeCell ref="A38:A39"/>
-    <mergeCell ref="A40:A42"/>
-    <mergeCell ref="B34:B42"/>
-    <mergeCell ref="A43:A44"/>
-    <mergeCell ref="I1:K1"/>
-    <mergeCell ref="E13:E14"/>
-    <mergeCell ref="H11:H12"/>
-    <mergeCell ref="F13:F14"/>
-    <mergeCell ref="G13:G14"/>
-    <mergeCell ref="H13:H14"/>
-    <mergeCell ref="I13:I14"/>
-    <mergeCell ref="J13:J14"/>
-    <mergeCell ref="K13:K14"/>
-    <mergeCell ref="J2:J8"/>
-    <mergeCell ref="K2:K8"/>
-    <mergeCell ref="E11:E12"/>
-    <mergeCell ref="E9:E10"/>
-    <mergeCell ref="F9:F10"/>
-    <mergeCell ref="G9:G10"/>
-    <mergeCell ref="E2:E8"/>
-    <mergeCell ref="F2:F8"/>
-    <mergeCell ref="G2:G8"/>
-    <mergeCell ref="H2:H8"/>
-    <mergeCell ref="I2:I8"/>
-    <mergeCell ref="I11:I12"/>
   </mergeCells>
   <hyperlinks>
     <hyperlink ref="E2" r:id="rId1" display="https://drive.google.com/open?id=1RYgFxmL-dmZYtjF2ca5a0yQUWnMVjo3mVexJabJL1c4"/>
@@ -9434,10 +9478,10 @@
       </c>
     </row>
     <row r="2" spans="1:8" ht="15.75">
-      <c r="A2" s="259" t="s">
+      <c r="A2" s="251" t="s">
         <v>309</v>
       </c>
-      <c r="B2" s="260">
+      <c r="B2" s="254">
         <v>1</v>
       </c>
       <c r="C2" s="104">
@@ -9520,10 +9564,10 @@
       <c r="H6" s="116"/>
     </row>
     <row r="7" spans="1:8" ht="15.75">
-      <c r="A7" s="261" t="s">
+      <c r="A7" s="262" t="s">
         <v>184</v>
       </c>
-      <c r="B7" s="254">
+      <c r="B7" s="261">
         <v>2</v>
       </c>
       <c r="C7" s="117">
@@ -9607,7 +9651,7 @@
     </row>
     <row r="12" spans="1:8" ht="15.75">
       <c r="A12" s="252"/>
-      <c r="B12" s="256">
+      <c r="B12" s="257">
         <v>3</v>
       </c>
       <c r="C12" s="109">
@@ -9691,7 +9735,7 @@
     </row>
     <row r="17" spans="1:8" ht="15.75">
       <c r="A17" s="252"/>
-      <c r="B17" s="257">
+      <c r="B17" s="259">
         <v>4</v>
       </c>
       <c r="C17" s="122">
@@ -9773,7 +9817,7 @@
     </row>
     <row r="22" spans="1:8" ht="15.75">
       <c r="A22" s="252"/>
-      <c r="B22" s="256">
+      <c r="B22" s="257">
         <v>5</v>
       </c>
       <c r="C22" s="109">
@@ -9856,10 +9900,10 @@
       </c>
     </row>
     <row r="27" spans="1:8" ht="15.75">
-      <c r="A27" s="259" t="s">
+      <c r="A27" s="251" t="s">
         <v>34</v>
       </c>
-      <c r="B27" s="262">
+      <c r="B27" s="263">
         <v>6</v>
       </c>
       <c r="C27" s="129">
@@ -9943,7 +9987,7 @@
     </row>
     <row r="32" spans="1:8" ht="15.75">
       <c r="A32" s="252"/>
-      <c r="B32" s="256">
+      <c r="B32" s="257">
         <v>7</v>
       </c>
       <c r="C32" s="109">
@@ -10027,7 +10071,7 @@
     </row>
     <row r="37" spans="1:8" ht="15.75">
       <c r="A37" s="252"/>
-      <c r="B37" s="263">
+      <c r="B37" s="256">
         <v>8</v>
       </c>
       <c r="C37" s="132">
@@ -10113,7 +10157,7 @@
     </row>
     <row r="42" spans="1:8" ht="15.75">
       <c r="A42" s="252"/>
-      <c r="B42" s="256">
+      <c r="B42" s="257">
         <v>9</v>
       </c>
       <c r="C42" s="109">
@@ -10196,10 +10240,10 @@
       <c r="H46" s="116"/>
     </row>
     <row r="47" spans="1:8" ht="15.75">
-      <c r="A47" s="251" t="s">
+      <c r="A47" s="260" t="s">
         <v>47</v>
       </c>
-      <c r="B47" s="254">
+      <c r="B47" s="261">
         <v>10</v>
       </c>
       <c r="C47" s="117">
@@ -10285,7 +10329,7 @@
     </row>
     <row r="52" spans="1:8" ht="15.75">
       <c r="A52" s="252"/>
-      <c r="B52" s="256">
+      <c r="B52" s="257">
         <v>11</v>
       </c>
       <c r="C52" s="109">
@@ -10371,7 +10415,7 @@
     </row>
     <row r="57" spans="1:8" ht="15.75">
       <c r="A57" s="252"/>
-      <c r="B57" s="257">
+      <c r="B57" s="259">
         <v>12</v>
       </c>
       <c r="C57" s="122">
@@ -10454,10 +10498,10 @@
       <c r="H61" s="140"/>
     </row>
     <row r="62" spans="1:8" ht="15.75">
-      <c r="A62" s="259" t="s">
+      <c r="A62" s="251" t="s">
         <v>61</v>
       </c>
-      <c r="B62" s="260">
+      <c r="B62" s="254">
         <v>13</v>
       </c>
       <c r="C62" s="104">
@@ -10543,7 +10587,7 @@
     </row>
     <row r="67" spans="1:8" ht="15.75">
       <c r="A67" s="252"/>
-      <c r="B67" s="263">
+      <c r="B67" s="256">
         <v>14</v>
       </c>
       <c r="C67" s="132">
@@ -10627,7 +10671,7 @@
     </row>
     <row r="72" spans="1:8" ht="15.75">
       <c r="A72" s="252"/>
-      <c r="B72" s="256">
+      <c r="B72" s="257">
         <v>15</v>
       </c>
       <c r="C72" s="109">
@@ -10713,7 +10757,7 @@
     </row>
     <row r="77" spans="1:8" ht="15.75">
       <c r="A77" s="252"/>
-      <c r="B77" s="263">
+      <c r="B77" s="256">
         <v>16</v>
       </c>
       <c r="C77" s="132">
@@ -10796,10 +10840,10 @@
       <c r="H81" s="144"/>
     </row>
     <row r="82" spans="1:8" ht="15.75">
-      <c r="A82" s="259" t="s">
+      <c r="A82" s="251" t="s">
         <v>76</v>
       </c>
-      <c r="B82" s="260">
+      <c r="B82" s="254">
         <v>17</v>
       </c>
       <c r="C82" s="104">
@@ -10885,7 +10929,7 @@
     </row>
     <row r="87" spans="1:8" ht="15.75">
       <c r="A87" s="252"/>
-      <c r="B87" s="257">
+      <c r="B87" s="259">
         <v>18</v>
       </c>
       <c r="C87" s="122">
@@ -10969,7 +11013,7 @@
     </row>
     <row r="92" spans="1:8" ht="15.75">
       <c r="A92" s="252"/>
-      <c r="B92" s="256">
+      <c r="B92" s="257">
         <v>19</v>
       </c>
       <c r="C92" s="109">
@@ -11055,7 +11099,7 @@
     </row>
     <row r="97" spans="1:8" ht="15.75">
       <c r="A97" s="252"/>
-      <c r="B97" s="257">
+      <c r="B97" s="259">
         <v>20</v>
       </c>
       <c r="C97" s="122">
@@ -17432,16 +17476,6 @@
     </row>
   </sheetData>
   <mergeCells count="26">
-    <mergeCell ref="A62:A81"/>
-    <mergeCell ref="B62:B66"/>
-    <mergeCell ref="B67:B71"/>
-    <mergeCell ref="B72:B76"/>
-    <mergeCell ref="B77:B81"/>
-    <mergeCell ref="A82:A101"/>
-    <mergeCell ref="B82:B86"/>
-    <mergeCell ref="B87:B91"/>
-    <mergeCell ref="B92:B96"/>
-    <mergeCell ref="B97:B101"/>
     <mergeCell ref="A47:A61"/>
     <mergeCell ref="B47:B51"/>
     <mergeCell ref="B52:B56"/>
@@ -17458,6 +17492,16 @@
     <mergeCell ref="B32:B36"/>
     <mergeCell ref="B37:B41"/>
     <mergeCell ref="B42:B46"/>
+    <mergeCell ref="A82:A101"/>
+    <mergeCell ref="B82:B86"/>
+    <mergeCell ref="B87:B91"/>
+    <mergeCell ref="B92:B96"/>
+    <mergeCell ref="B97:B101"/>
+    <mergeCell ref="A62:A81"/>
+    <mergeCell ref="B62:B66"/>
+    <mergeCell ref="B67:B71"/>
+    <mergeCell ref="B72:B76"/>
+    <mergeCell ref="B77:B81"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -17468,7 +17512,7 @@
   <dimension ref="A1:D31"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="F1" sqref="F1"/>
+      <selection activeCell="J14" sqref="J14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -17492,44 +17536,44 @@
     </row>
     <row r="2" spans="1:4" ht="16.5" thickBot="1">
       <c r="A2" s="74" t="s">
-        <v>202</v>
-      </c>
-      <c r="B2" s="90">
-        <v>43329</v>
-      </c>
+        <v>203</v>
+      </c>
+      <c r="B2" s="96"/>
       <c r="C2" s="66">
-        <v>0.05</v>
-      </c>
-      <c r="D2" s="67"/>
-    </row>
-    <row r="3" spans="1:4" ht="16.5" thickBot="1">
-      <c r="A3" s="74" t="s">
-        <v>203</v>
-      </c>
-      <c r="B3" s="96"/>
-      <c r="C3" s="66">
         <v>0.36</v>
       </c>
-      <c r="D3" s="97"/>
+      <c r="D2" s="97"/>
+    </row>
+    <row r="3" spans="1:4" ht="15.75">
+      <c r="A3" s="93" t="s">
+        <v>269</v>
+      </c>
+      <c r="B3" s="94">
+        <v>43210</v>
+      </c>
+      <c r="C3" s="95">
+        <v>0.04</v>
+      </c>
+      <c r="D3" s="76"/>
     </row>
     <row r="4" spans="1:4" ht="15.75">
-      <c r="A4" s="93" t="s">
-        <v>269</v>
-      </c>
-      <c r="B4" s="94">
-        <v>43210</v>
-      </c>
-      <c r="C4" s="95">
+      <c r="A4" s="68" t="s">
+        <v>270</v>
+      </c>
+      <c r="B4" s="84">
+        <v>43231</v>
+      </c>
+      <c r="C4" s="73">
         <v>0.04</v>
       </c>
-      <c r="D4" s="76"/>
+      <c r="D4" s="69"/>
     </row>
     <row r="5" spans="1:4" ht="15.75">
       <c r="A5" s="68" t="s">
-        <v>270</v>
+        <v>271</v>
       </c>
       <c r="B5" s="84">
-        <v>43231</v>
+        <v>43245</v>
       </c>
       <c r="C5" s="73">
         <v>0.04</v>
@@ -17538,10 +17582,10 @@
     </row>
     <row r="6" spans="1:4" ht="15.75">
       <c r="A6" s="68" t="s">
-        <v>271</v>
+        <v>272</v>
       </c>
       <c r="B6" s="84">
-        <v>43245</v>
+        <v>43259</v>
       </c>
       <c r="C6" s="73">
         <v>0.04</v>
@@ -17550,10 +17594,10 @@
     </row>
     <row r="7" spans="1:4" ht="15.75">
       <c r="A7" s="68" t="s">
-        <v>272</v>
+        <v>273</v>
       </c>
       <c r="B7" s="84">
-        <v>43259</v>
+        <v>43273</v>
       </c>
       <c r="C7" s="73">
         <v>0.04</v>
@@ -17562,10 +17606,10 @@
     </row>
     <row r="8" spans="1:4" ht="15.75">
       <c r="A8" s="68" t="s">
-        <v>273</v>
+        <v>274</v>
       </c>
       <c r="B8" s="84">
-        <v>43273</v>
+        <v>43287</v>
       </c>
       <c r="C8" s="73">
         <v>0.04</v>
@@ -17574,10 +17618,10 @@
     </row>
     <row r="9" spans="1:4" ht="15.75">
       <c r="A9" s="68" t="s">
-        <v>274</v>
+        <v>275</v>
       </c>
       <c r="B9" s="84">
-        <v>43287</v>
+        <v>43301</v>
       </c>
       <c r="C9" s="73">
         <v>0.04</v>
@@ -17586,70 +17630,70 @@
     </row>
     <row r="10" spans="1:4" ht="15.75">
       <c r="A10" s="68" t="s">
-        <v>275</v>
+        <v>276</v>
       </c>
       <c r="B10" s="84">
-        <v>43301</v>
+        <v>43315</v>
       </c>
       <c r="C10" s="73">
         <v>0.04</v>
       </c>
       <c r="D10" s="69"/>
     </row>
-    <row r="11" spans="1:4" ht="15.75">
-      <c r="A11" s="68" t="s">
-        <v>276</v>
-      </c>
-      <c r="B11" s="84">
-        <v>43315</v>
+    <row r="11" spans="1:4" ht="16.5" thickBot="1">
+      <c r="A11" s="70" t="s">
+        <v>277</v>
+      </c>
+      <c r="B11" s="86">
+        <v>43329</v>
       </c>
       <c r="C11" s="73">
         <v>0.04</v>
       </c>
-      <c r="D11" s="69"/>
+      <c r="D11" s="72"/>
     </row>
     <row r="12" spans="1:4" ht="16.5" thickBot="1">
-      <c r="A12" s="70" t="s">
-        <v>277</v>
-      </c>
-      <c r="B12" s="86">
-        <v>43329</v>
-      </c>
-      <c r="C12" s="73">
+      <c r="A12" s="74" t="s">
+        <v>205</v>
+      </c>
+      <c r="B12" s="96"/>
+      <c r="C12" s="66">
+        <v>0.32</v>
+      </c>
+      <c r="D12" s="97"/>
+    </row>
+    <row r="13" spans="1:4" ht="15.75">
+      <c r="A13" s="93" t="s">
+        <v>278</v>
+      </c>
+      <c r="B13" s="94">
+        <v>43203</v>
+      </c>
+      <c r="C13" s="95">
         <v>0.04</v>
       </c>
-      <c r="D12" s="72"/>
-    </row>
-    <row r="13" spans="1:4" ht="16.5" thickBot="1">
-      <c r="A13" s="74" t="s">
-        <v>205</v>
-      </c>
-      <c r="B13" s="96"/>
-      <c r="C13" s="66">
-        <v>0.32</v>
-      </c>
-      <c r="D13" s="97"/>
+      <c r="D13" s="76">
+        <v>0.95</v>
+      </c>
     </row>
     <row r="14" spans="1:4" ht="15.75">
-      <c r="A14" s="93" t="s">
-        <v>278</v>
-      </c>
-      <c r="B14" s="94">
-        <v>43203</v>
-      </c>
-      <c r="C14" s="95">
+      <c r="A14" s="68" t="s">
+        <v>279</v>
+      </c>
+      <c r="B14" s="84">
+        <v>43217</v>
+      </c>
+      <c r="C14" s="73">
         <v>0.04</v>
       </c>
-      <c r="D14" s="76">
-        <v>0.95</v>
-      </c>
+      <c r="D14" s="69"/>
     </row>
     <row r="15" spans="1:4" ht="15.75">
       <c r="A15" s="68" t="s">
-        <v>279</v>
+        <v>280</v>
       </c>
       <c r="B15" s="84">
-        <v>43217</v>
+        <v>43238</v>
       </c>
       <c r="C15" s="73">
         <v>0.04</v>
@@ -17658,10 +17702,10 @@
     </row>
     <row r="16" spans="1:4" ht="15.75">
       <c r="A16" s="68" t="s">
-        <v>280</v>
+        <v>281</v>
       </c>
       <c r="B16" s="84">
-        <v>43238</v>
+        <v>43252</v>
       </c>
       <c r="C16" s="73">
         <v>0.04</v>
@@ -17670,10 +17714,10 @@
     </row>
     <row r="17" spans="1:4" ht="15.75">
       <c r="A17" s="68" t="s">
-        <v>281</v>
+        <v>282</v>
       </c>
       <c r="B17" s="84">
-        <v>43252</v>
+        <v>43266</v>
       </c>
       <c r="C17" s="73">
         <v>0.04</v>
@@ -17682,10 +17726,10 @@
     </row>
     <row r="18" spans="1:4" ht="15.75">
       <c r="A18" s="68" t="s">
-        <v>282</v>
+        <v>283</v>
       </c>
       <c r="B18" s="84">
-        <v>43266</v>
+        <v>43280</v>
       </c>
       <c r="C18" s="73">
         <v>0.04</v>
@@ -17694,89 +17738,91 @@
     </row>
     <row r="19" spans="1:4" ht="15.75">
       <c r="A19" s="68" t="s">
-        <v>283</v>
+        <v>284</v>
       </c>
       <c r="B19" s="84">
-        <v>43280</v>
+        <v>43294</v>
       </c>
       <c r="C19" s="73">
         <v>0.04</v>
       </c>
       <c r="D19" s="69"/>
     </row>
-    <row r="20" spans="1:4" ht="15.75">
-      <c r="A20" s="68" t="s">
-        <v>284</v>
-      </c>
-      <c r="B20" s="84">
-        <v>43294</v>
-      </c>
-      <c r="C20" s="73">
+    <row r="20" spans="1:4" ht="16.5" thickBot="1">
+      <c r="A20" s="87" t="s">
+        <v>285</v>
+      </c>
+      <c r="B20" s="86">
+        <v>43308</v>
+      </c>
+      <c r="C20" s="88">
         <v>0.04</v>
       </c>
-      <c r="D20" s="69"/>
+      <c r="D20" s="89"/>
     </row>
     <row r="21" spans="1:4" ht="16.5" thickBot="1">
-      <c r="A21" s="87" t="s">
-        <v>285</v>
-      </c>
-      <c r="B21" s="86">
-        <v>43308</v>
-      </c>
-      <c r="C21" s="88">
-        <v>0.04</v>
-      </c>
-      <c r="D21" s="89"/>
-    </row>
-    <row r="22" spans="1:4" ht="16.5" thickBot="1">
-      <c r="A22" s="74" t="s">
+      <c r="A21" s="74" t="s">
         <v>206</v>
       </c>
-      <c r="B22" s="96"/>
-      <c r="C22" s="66">
+      <c r="B21" s="90">
+        <v>43327</v>
+      </c>
+      <c r="C21" s="66">
         <v>0.3</v>
       </c>
-      <c r="D22" s="67"/>
+      <c r="D21" s="67"/>
+    </row>
+    <row r="22" spans="1:4" ht="15.75">
+      <c r="A22" s="93" t="s">
+        <v>299</v>
+      </c>
+      <c r="B22" s="98">
+        <v>43217</v>
+      </c>
+      <c r="C22" s="62"/>
+      <c r="D22" s="76"/>
     </row>
     <row r="23" spans="1:4" ht="15.75">
-      <c r="A23" s="93" t="s">
-        <v>299</v>
-      </c>
-      <c r="B23" s="98">
-        <v>43217</v>
-      </c>
-      <c r="C23" s="62"/>
-      <c r="D23" s="76"/>
+      <c r="A23" s="68" t="s">
+        <v>300</v>
+      </c>
+      <c r="B23" s="85">
+        <v>43245</v>
+      </c>
+      <c r="C23" s="61"/>
+      <c r="D23" s="69"/>
     </row>
     <row r="24" spans="1:4" ht="15.75">
       <c r="A24" s="68" t="s">
-        <v>300</v>
+        <v>301</v>
       </c>
       <c r="B24" s="85">
-        <v>43245</v>
+        <v>43273</v>
       </c>
       <c r="C24" s="61"/>
       <c r="D24" s="69"/>
     </row>
-    <row r="25" spans="1:4" ht="15.75">
-      <c r="A25" s="68" t="s">
-        <v>301</v>
-      </c>
-      <c r="B25" s="85">
-        <v>43273</v>
-      </c>
-      <c r="C25" s="61"/>
-      <c r="D25" s="69"/>
+    <row r="25" spans="1:4" ht="16.5" thickBot="1">
+      <c r="A25" s="70" t="s">
+        <v>302</v>
+      </c>
+      <c r="B25" s="92">
+        <v>43301</v>
+      </c>
+      <c r="C25" s="71"/>
+      <c r="D25" s="72"/>
     </row>
     <row r="26" spans="1:4" ht="16.5" thickBot="1">
-      <c r="A26" s="70" t="s">
-        <v>302</v>
-      </c>
-      <c r="B26" s="92">
-        <v>43301</v>
-      </c>
-      <c r="C26" s="71"/>
-      <c r="D26" s="72"/>
+      <c r="A26" s="74" t="s">
+        <v>202</v>
+      </c>
+      <c r="B26" s="90">
+        <v>43327</v>
+      </c>
+      <c r="C26" s="66">
+        <v>0.05</v>
+      </c>
+      <c r="D26" s="67"/>
     </row>
     <row r="27" spans="1:4" ht="16.5" thickBot="1">
       <c r="A27" s="74" t="s">
@@ -18884,10 +18930,10 @@
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:V481"/>
+  <dimension ref="A1:V487"/>
   <sheetViews>
-    <sheetView topLeftCell="A445" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="A472" sqref="A472"/>
+    <sheetView tabSelected="1" topLeftCell="A466" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="A489" sqref="A489"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -20743,16 +20789,49 @@
       <c r="A477" s="26"/>
     </row>
     <row r="478" spans="1:1">
-      <c r="A478" s="26"/>
+      <c r="A478" s="26" t="s">
+        <v>615</v>
+      </c>
     </row>
     <row r="479" spans="1:1">
-      <c r="A479" s="26"/>
+      <c r="A479" s="26" t="s">
+        <v>619</v>
+      </c>
     </row>
     <row r="480" spans="1:1">
-      <c r="A480" s="26"/>
+      <c r="A480" s="26" t="s">
+        <v>616</v>
+      </c>
     </row>
     <row r="481" spans="1:1">
-      <c r="A481" s="26"/>
+      <c r="A481" s="26" t="s">
+        <v>617</v>
+      </c>
+    </row>
+    <row r="482" spans="1:1">
+      <c r="A482" s="26" t="s">
+        <v>618</v>
+      </c>
+    </row>
+    <row r="484" spans="1:1">
+      <c r="A484" s="155" t="s">
+        <v>507</v>
+      </c>
+    </row>
+    <row r="485" spans="1:1">
+      <c r="A485" t="s">
+        <v>620</v>
+      </c>
+    </row>
+    <row r="486" spans="1:1">
+      <c r="A486" t="s">
+        <v>357</v>
+      </c>
+    </row>
+    <row r="487" spans="1:1">
+      <c r="A487" t="s">
+        <v>360</v>
+      </c>
     </row>
   </sheetData>
   <mergeCells count="2">
@@ -20770,10 +20849,10 @@
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C11"/>
+  <dimension ref="A1:C13"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A11" sqref="A11"/>
+      <selection activeCell="A14" sqref="A14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -20840,6 +20919,16 @@
     <row r="11" spans="1:3">
       <c r="A11" t="s">
         <v>605</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3">
+      <c r="A12" t="s">
+        <v>613</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3">
+      <c r="A13" t="s">
+        <v>614</v>
       </c>
     </row>
   </sheetData>

--- a/General/Curriculum (Personalized).xlsx
+++ b/General/Curriculum (Personalized).xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="11835" activeTab="6"/>
+    <workbookView minimized="1" xWindow="0" yWindow="0" windowWidth="28800" windowHeight="11835" activeTab="5"/>
   </bookViews>
   <sheets>
     <sheet name="Curriculum" sheetId="1" r:id="rId1"/>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="912" uniqueCount="615">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="921" uniqueCount="621">
   <si>
     <t>Week</t>
   </si>
@@ -5204,6 +5204,44 @@
   </si>
   <si>
     <t>Jobs: https://skillcrush.com/2015/07/14/job-sites-to-find-your-first-developer-job/</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>For Loops:</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> https://www.youtube.com/watch?v=BxFi7vVZx4s</t>
+    </r>
+  </si>
+  <si>
+    <t>1) Initializer or Starter or Starting Point</t>
+  </si>
+  <si>
+    <t>2) Condition for when your loop should end</t>
+  </si>
+  <si>
+    <t>3) Increment or decrement, continues up or down</t>
+  </si>
+  <si>
+    <t>A For Loop Includes Three Statements:</t>
+  </si>
+  <si>
+    <t>for (var i=0; i&lt;=num; i++){</t>
   </si>
 </sst>
 </file>
@@ -6806,6 +6844,225 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="41" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="35" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="5" borderId="35" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="5" borderId="38" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="33" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="35" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="38" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="5" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="60" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="61" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="33" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="35" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="38" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="33" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="6" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="33" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="35" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="5" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="5" borderId="34" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="5" borderId="36" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="5" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="5" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="5" borderId="37" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="23" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="37" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="34" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="36" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="37" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="5" borderId="23" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="5" borderId="37" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="31" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="32" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="32" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="5" borderId="32" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="32" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="23" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="5" borderId="32" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="5" borderId="1" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="23" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="37" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="32" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="23" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="5" borderId="31" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="5" fillId="4" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
@@ -6815,259 +7072,40 @@
     <xf numFmtId="0" fontId="5" fillId="4" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="5" borderId="34" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="23" xfId="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="14" fillId="5" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="5" borderId="23" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="5" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="32" xfId="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="34" xfId="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="5" borderId="31" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="32" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="5" borderId="32" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="31" xfId="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="5" xfId="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="15" fillId="0" borderId="32" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="23" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="15" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="31" fillId="8" borderId="52" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="23" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="5" borderId="1" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="37" xfId="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="35" xfId="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="38" xfId="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="37" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="5" borderId="32" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="32" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="23" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="36" xfId="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="5" borderId="36" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="5" borderId="37" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="5" borderId="37" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="37" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="35" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="38" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="35" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="32" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="33" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="33" xfId="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="5" borderId="35" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="5" borderId="38" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="5" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="5" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="5" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="4" borderId="60" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="4" borderId="61" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="33" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="6" xfId="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="33" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="35" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
+    <xf numFmtId="0" fontId="34" fillId="0" borderId="55" xfId="2" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="34" fillId="0" borderId="57" xfId="2" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="32" fillId="9" borderId="53" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="0" xfId="2" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="32" fillId="8" borderId="0" xfId="2" applyFont="1" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="32" fillId="9" borderId="0" xfId="2" applyFont="1" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="34" fillId="0" borderId="58" xfId="2" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="32" fillId="0" borderId="0" xfId="2" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="31" fillId="0" borderId="52" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="34" fillId="0" borderId="55" xfId="2" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="34" fillId="0" borderId="57" xfId="2" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="32" fillId="0" borderId="53" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="28" fillId="0" borderId="0" xfId="2" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="32" fillId="9" borderId="0" xfId="2" applyFont="1" applyFill="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="32" fillId="0" borderId="0" xfId="2" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="34" fillId="0" borderId="58" xfId="2" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="31" fillId="8" borderId="52" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="32" fillId="9" borderId="53" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="31" fillId="0" borderId="52" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="32" fillId="8" borderId="53" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="32" fillId="8" borderId="0" xfId="2" applyFont="1" applyFill="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="24" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -8049,21 +8087,21 @@
       <c r="H1" s="35" t="s">
         <v>193</v>
       </c>
-      <c r="I1" s="170" t="s">
+      <c r="I1" s="243" t="s">
         <v>7</v>
       </c>
-      <c r="J1" s="171"/>
-      <c r="K1" s="172"/>
-      <c r="L1" s="245" t="s">
+      <c r="J1" s="244"/>
+      <c r="K1" s="245"/>
+      <c r="L1" s="177" t="s">
         <v>8</v>
       </c>
-      <c r="M1" s="246"/>
+      <c r="M1" s="178"/>
     </row>
     <row r="2" spans="1:13" ht="15.75" customHeight="1">
-      <c r="A2" s="203">
+      <c r="A2" s="206">
         <v>1</v>
       </c>
-      <c r="B2" s="198" t="s">
+      <c r="B2" s="209" t="s">
         <v>9</v>
       </c>
       <c r="C2" s="8" t="s">
@@ -8072,145 +8110,145 @@
       <c r="D2" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="E2" s="185" t="s">
+      <c r="E2" s="200" t="s">
         <v>12</v>
       </c>
-      <c r="F2" s="187"/>
-      <c r="G2" s="178"/>
-      <c r="H2" s="178"/>
-      <c r="I2" s="178" t="s">
+      <c r="F2" s="249"/>
+      <c r="G2" s="201"/>
+      <c r="H2" s="201"/>
+      <c r="I2" s="201" t="s">
         <v>10</v>
       </c>
-      <c r="J2" s="178" t="s">
+      <c r="J2" s="201" t="s">
         <v>14</v>
       </c>
-      <c r="K2" s="178" t="s">
+      <c r="K2" s="201" t="s">
         <v>15</v>
       </c>
-      <c r="L2" s="239" t="s">
+      <c r="L2" s="173" t="s">
         <v>16</v>
       </c>
-      <c r="M2" s="239" t="s">
+      <c r="M2" s="173" t="s">
         <v>343</v>
       </c>
     </row>
     <row r="3" spans="1:13" ht="15.75" customHeight="1">
-      <c r="A3" s="191"/>
-      <c r="B3" s="199"/>
+      <c r="A3" s="207"/>
+      <c r="B3" s="210"/>
       <c r="C3" s="32" t="s">
         <v>17</v>
       </c>
       <c r="D3" s="4" t="s">
         <v>18</v>
       </c>
-      <c r="E3" s="180"/>
-      <c r="F3" s="188"/>
-      <c r="G3" s="174"/>
-      <c r="H3" s="174"/>
-      <c r="I3" s="174"/>
-      <c r="J3" s="174"/>
-      <c r="K3" s="174"/>
-      <c r="L3" s="222"/>
-      <c r="M3" s="222"/>
+      <c r="E3" s="195"/>
+      <c r="F3" s="222"/>
+      <c r="G3" s="192"/>
+      <c r="H3" s="192"/>
+      <c r="I3" s="192"/>
+      <c r="J3" s="192"/>
+      <c r="K3" s="192"/>
+      <c r="L3" s="170"/>
+      <c r="M3" s="170"/>
     </row>
     <row r="4" spans="1:13" ht="15.75" customHeight="1">
-      <c r="A4" s="191"/>
-      <c r="B4" s="199"/>
+      <c r="A4" s="207"/>
+      <c r="B4" s="210"/>
       <c r="C4" s="32" t="s">
         <v>19</v>
       </c>
       <c r="D4" s="4" t="s">
         <v>20</v>
       </c>
-      <c r="E4" s="180"/>
-      <c r="F4" s="188"/>
-      <c r="G4" s="174"/>
-      <c r="H4" s="174"/>
-      <c r="I4" s="174"/>
-      <c r="J4" s="174"/>
-      <c r="K4" s="174"/>
-      <c r="L4" s="222"/>
-      <c r="M4" s="222"/>
+      <c r="E4" s="195"/>
+      <c r="F4" s="222"/>
+      <c r="G4" s="192"/>
+      <c r="H4" s="192"/>
+      <c r="I4" s="192"/>
+      <c r="J4" s="192"/>
+      <c r="K4" s="192"/>
+      <c r="L4" s="170"/>
+      <c r="M4" s="170"/>
     </row>
     <row r="5" spans="1:13" ht="15.75" customHeight="1">
-      <c r="A5" s="191"/>
-      <c r="B5" s="199"/>
+      <c r="A5" s="207"/>
+      <c r="B5" s="210"/>
       <c r="C5" s="32" t="s">
         <v>21</v>
       </c>
       <c r="D5" s="4"/>
-      <c r="E5" s="180"/>
-      <c r="F5" s="188"/>
-      <c r="G5" s="174"/>
-      <c r="H5" s="174"/>
-      <c r="I5" s="174"/>
-      <c r="J5" s="174"/>
-      <c r="K5" s="174"/>
-      <c r="L5" s="222"/>
-      <c r="M5" s="222"/>
+      <c r="E5" s="195"/>
+      <c r="F5" s="222"/>
+      <c r="G5" s="192"/>
+      <c r="H5" s="192"/>
+      <c r="I5" s="192"/>
+      <c r="J5" s="192"/>
+      <c r="K5" s="192"/>
+      <c r="L5" s="170"/>
+      <c r="M5" s="170"/>
     </row>
     <row r="6" spans="1:13" ht="15.75" customHeight="1">
-      <c r="A6" s="191"/>
-      <c r="B6" s="199"/>
+      <c r="A6" s="207"/>
+      <c r="B6" s="210"/>
       <c r="C6" s="32" t="s">
         <v>14</v>
       </c>
       <c r="D6" s="4" t="s">
         <v>22</v>
       </c>
-      <c r="E6" s="180"/>
-      <c r="F6" s="188"/>
-      <c r="G6" s="174"/>
-      <c r="H6" s="174"/>
-      <c r="I6" s="174"/>
-      <c r="J6" s="174"/>
-      <c r="K6" s="174"/>
-      <c r="L6" s="222"/>
-      <c r="M6" s="222"/>
+      <c r="E6" s="195"/>
+      <c r="F6" s="222"/>
+      <c r="G6" s="192"/>
+      <c r="H6" s="192"/>
+      <c r="I6" s="192"/>
+      <c r="J6" s="192"/>
+      <c r="K6" s="192"/>
+      <c r="L6" s="170"/>
+      <c r="M6" s="170"/>
     </row>
     <row r="7" spans="1:13" ht="15.75" customHeight="1">
-      <c r="A7" s="191"/>
-      <c r="B7" s="199"/>
+      <c r="A7" s="207"/>
+      <c r="B7" s="210"/>
       <c r="C7" s="32" t="s">
         <v>15</v>
       </c>
       <c r="D7" s="4" t="s">
         <v>20</v>
       </c>
-      <c r="E7" s="180"/>
-      <c r="F7" s="188"/>
-      <c r="G7" s="174"/>
-      <c r="H7" s="174"/>
-      <c r="I7" s="174"/>
-      <c r="J7" s="174"/>
-      <c r="K7" s="174"/>
-      <c r="L7" s="222"/>
-      <c r="M7" s="222"/>
+      <c r="E7" s="195"/>
+      <c r="F7" s="222"/>
+      <c r="G7" s="192"/>
+      <c r="H7" s="192"/>
+      <c r="I7" s="192"/>
+      <c r="J7" s="192"/>
+      <c r="K7" s="192"/>
+      <c r="L7" s="170"/>
+      <c r="M7" s="170"/>
     </row>
     <row r="8" spans="1:13" ht="15.75" customHeight="1" thickBot="1">
-      <c r="A8" s="192"/>
-      <c r="B8" s="200"/>
+      <c r="A8" s="208"/>
+      <c r="B8" s="211"/>
       <c r="C8" s="9" t="s">
         <v>23</v>
       </c>
       <c r="D8" s="5" t="s">
         <v>24</v>
       </c>
-      <c r="E8" s="186"/>
-      <c r="F8" s="189"/>
-      <c r="G8" s="179"/>
-      <c r="H8" s="179"/>
-      <c r="I8" s="179"/>
-      <c r="J8" s="179"/>
-      <c r="K8" s="179"/>
-      <c r="L8" s="248"/>
-      <c r="M8" s="248"/>
+      <c r="E8" s="248"/>
+      <c r="F8" s="250"/>
+      <c r="G8" s="247"/>
+      <c r="H8" s="247"/>
+      <c r="I8" s="247"/>
+      <c r="J8" s="247"/>
+      <c r="K8" s="247"/>
+      <c r="L8" s="183"/>
+      <c r="M8" s="183"/>
     </row>
     <row r="9" spans="1:13" ht="15.75" customHeight="1">
-      <c r="A9" s="216">
+      <c r="A9" s="213">
         <v>2</v>
       </c>
-      <c r="B9" s="198" t="s">
+      <c r="B9" s="209" t="s">
         <v>25</v>
       </c>
       <c r="C9" s="10" t="s">
@@ -8219,864 +8257,864 @@
       <c r="D9" s="3" t="s">
         <v>288</v>
       </c>
-      <c r="E9" s="181"/>
-      <c r="F9" s="182" t="s">
+      <c r="E9" s="226"/>
+      <c r="F9" s="205" t="s">
         <v>192</v>
       </c>
-      <c r="G9" s="184" t="s">
+      <c r="G9" s="220" t="s">
         <v>13</v>
       </c>
-      <c r="H9" s="225"/>
-      <c r="I9" s="226" t="s">
+      <c r="H9" s="204"/>
+      <c r="I9" s="224" t="s">
         <v>184</v>
       </c>
-      <c r="J9" s="182" t="s">
+      <c r="J9" s="205" t="s">
         <v>194</v>
       </c>
-      <c r="K9" s="182" t="s">
+      <c r="K9" s="205" t="s">
         <v>195</v>
       </c>
-      <c r="L9" s="184" t="s">
+      <c r="L9" s="220" t="s">
         <v>344</v>
       </c>
-      <c r="M9" s="249"/>
+      <c r="M9" s="184"/>
     </row>
     <row r="10" spans="1:13" ht="15.75" customHeight="1">
       <c r="A10" s="214"/>
-      <c r="B10" s="199"/>
+      <c r="B10" s="210"/>
       <c r="C10" s="11" t="s">
         <v>26</v>
       </c>
       <c r="D10" s="4"/>
-      <c r="E10" s="173"/>
-      <c r="F10" s="183"/>
-      <c r="G10" s="176"/>
-      <c r="H10" s="177"/>
-      <c r="I10" s="227"/>
-      <c r="J10" s="183"/>
-      <c r="K10" s="183"/>
-      <c r="L10" s="220"/>
-      <c r="M10" s="250"/>
+      <c r="E10" s="187"/>
+      <c r="F10" s="194"/>
+      <c r="G10" s="198"/>
+      <c r="H10" s="190"/>
+      <c r="I10" s="225"/>
+      <c r="J10" s="194"/>
+      <c r="K10" s="194"/>
+      <c r="L10" s="221"/>
+      <c r="M10" s="185"/>
     </row>
     <row r="11" spans="1:13" ht="15.75" customHeight="1" thickBot="1">
-      <c r="A11" s="211">
+      <c r="A11" s="232">
         <v>3</v>
       </c>
-      <c r="B11" s="199"/>
+      <c r="B11" s="210"/>
       <c r="C11" s="11" t="s">
         <v>265</v>
       </c>
       <c r="D11" s="4"/>
-      <c r="E11" s="180"/>
-      <c r="F11" s="188"/>
-      <c r="G11" s="174"/>
-      <c r="H11" s="174" t="s">
+      <c r="E11" s="195"/>
+      <c r="F11" s="222"/>
+      <c r="G11" s="192"/>
+      <c r="H11" s="192" t="s">
         <v>198</v>
       </c>
-      <c r="I11" s="174" t="s">
+      <c r="I11" s="192" t="s">
         <v>196</v>
       </c>
-      <c r="J11" s="174"/>
-      <c r="K11" s="174"/>
+      <c r="J11" s="192"/>
+      <c r="K11" s="192"/>
       <c r="L11" s="219" t="s">
         <v>345</v>
       </c>
-      <c r="M11" s="222"/>
+      <c r="M11" s="170"/>
     </row>
     <row r="12" spans="1:13" ht="15.75" customHeight="1">
-      <c r="A12" s="212"/>
-      <c r="B12" s="199"/>
+      <c r="A12" s="233"/>
+      <c r="B12" s="210"/>
       <c r="C12" s="11" t="s">
         <v>28</v>
       </c>
       <c r="D12" s="10"/>
-      <c r="E12" s="180"/>
-      <c r="F12" s="188"/>
-      <c r="G12" s="174"/>
-      <c r="H12" s="174"/>
-      <c r="I12" s="174"/>
-      <c r="J12" s="174"/>
-      <c r="K12" s="174"/>
+      <c r="E12" s="195"/>
+      <c r="F12" s="222"/>
+      <c r="G12" s="192"/>
+      <c r="H12" s="192"/>
+      <c r="I12" s="192"/>
+      <c r="J12" s="192"/>
+      <c r="K12" s="192"/>
       <c r="L12" s="219"/>
-      <c r="M12" s="222"/>
+      <c r="M12" s="170"/>
     </row>
     <row r="13" spans="1:13" ht="15.75" customHeight="1">
-      <c r="A13" s="213">
+      <c r="A13" s="234">
         <v>4</v>
       </c>
-      <c r="B13" s="199"/>
+      <c r="B13" s="210"/>
       <c r="C13" s="11" t="s">
         <v>29</v>
       </c>
       <c r="D13" s="11"/>
-      <c r="E13" s="173"/>
-      <c r="F13" s="175" t="s">
+      <c r="E13" s="187"/>
+      <c r="F13" s="246" t="s">
         <v>36</v>
       </c>
-      <c r="G13" s="176" t="s">
+      <c r="G13" s="198" t="s">
         <v>33</v>
       </c>
-      <c r="H13" s="177"/>
-      <c r="I13" s="176" t="s">
+      <c r="H13" s="190"/>
+      <c r="I13" s="198" t="s">
         <v>346</v>
       </c>
-      <c r="J13" s="177"/>
-      <c r="K13" s="177"/>
-      <c r="L13" s="240"/>
-      <c r="M13" s="240"/>
+      <c r="J13" s="190"/>
+      <c r="K13" s="190"/>
+      <c r="L13" s="171"/>
+      <c r="M13" s="171"/>
     </row>
     <row r="14" spans="1:13" ht="15.75" customHeight="1">
       <c r="A14" s="214"/>
-      <c r="B14" s="199"/>
+      <c r="B14" s="210"/>
       <c r="C14" s="32" t="s">
         <v>30</v>
       </c>
       <c r="D14" s="4"/>
-      <c r="E14" s="173"/>
-      <c r="F14" s="175"/>
-      <c r="G14" s="176"/>
-      <c r="H14" s="177"/>
-      <c r="I14" s="176"/>
-      <c r="J14" s="177"/>
-      <c r="K14" s="177"/>
-      <c r="L14" s="240"/>
-      <c r="M14" s="240"/>
+      <c r="E14" s="187"/>
+      <c r="F14" s="246"/>
+      <c r="G14" s="198"/>
+      <c r="H14" s="190"/>
+      <c r="I14" s="198"/>
+      <c r="J14" s="190"/>
+      <c r="K14" s="190"/>
+      <c r="L14" s="171"/>
+      <c r="M14" s="171"/>
     </row>
     <row r="15" spans="1:13" ht="15.75" customHeight="1">
-      <c r="A15" s="211">
+      <c r="A15" s="232">
         <v>5</v>
       </c>
-      <c r="B15" s="199"/>
+      <c r="B15" s="210"/>
       <c r="C15" s="217" t="s">
         <v>31</v>
       </c>
       <c r="D15" s="4"/>
-      <c r="E15" s="180" t="s">
+      <c r="E15" s="195" t="s">
         <v>27</v>
       </c>
-      <c r="F15" s="188"/>
-      <c r="G15" s="174"/>
-      <c r="H15" s="174"/>
-      <c r="I15" s="174"/>
-      <c r="J15" s="174"/>
-      <c r="K15" s="174"/>
-      <c r="L15" s="222"/>
-      <c r="M15" s="222"/>
+      <c r="F15" s="222"/>
+      <c r="G15" s="192"/>
+      <c r="H15" s="192"/>
+      <c r="I15" s="192"/>
+      <c r="J15" s="192"/>
+      <c r="K15" s="192"/>
+      <c r="L15" s="170"/>
+      <c r="M15" s="170"/>
     </row>
     <row r="16" spans="1:13" ht="15.75" customHeight="1" thickBot="1">
-      <c r="A16" s="215"/>
-      <c r="B16" s="204"/>
+      <c r="A16" s="235"/>
+      <c r="B16" s="212"/>
       <c r="C16" s="218"/>
       <c r="D16" s="5"/>
-      <c r="E16" s="228"/>
-      <c r="F16" s="224"/>
-      <c r="G16" s="221"/>
-      <c r="H16" s="221"/>
-      <c r="I16" s="221"/>
-      <c r="J16" s="221"/>
-      <c r="K16" s="221"/>
-      <c r="L16" s="223"/>
-      <c r="M16" s="223"/>
+      <c r="E16" s="196"/>
+      <c r="F16" s="223"/>
+      <c r="G16" s="193"/>
+      <c r="H16" s="193"/>
+      <c r="I16" s="193"/>
+      <c r="J16" s="193"/>
+      <c r="K16" s="193"/>
+      <c r="L16" s="175"/>
+      <c r="M16" s="175"/>
     </row>
     <row r="17" spans="1:13" ht="15.75" customHeight="1">
-      <c r="A17" s="201">
+      <c r="A17" s="236">
         <v>6</v>
       </c>
-      <c r="B17" s="198" t="s">
+      <c r="B17" s="209" t="s">
         <v>34</v>
       </c>
       <c r="C17" s="10" t="s">
         <v>35</v>
       </c>
       <c r="D17" s="3"/>
-      <c r="E17" s="181"/>
-      <c r="F17" s="225"/>
-      <c r="G17" s="225"/>
-      <c r="H17" s="182" t="s">
+      <c r="E17" s="226"/>
+      <c r="F17" s="204"/>
+      <c r="G17" s="204"/>
+      <c r="H17" s="205" t="s">
         <v>27</v>
       </c>
-      <c r="I17" s="182"/>
-      <c r="J17" s="182"/>
-      <c r="K17" s="182"/>
-      <c r="L17" s="247"/>
-      <c r="M17" s="247"/>
+      <c r="I17" s="205"/>
+      <c r="J17" s="205"/>
+      <c r="K17" s="205"/>
+      <c r="L17" s="179"/>
+      <c r="M17" s="179"/>
     </row>
     <row r="18" spans="1:13" ht="15.75" customHeight="1">
-      <c r="A18" s="190"/>
-      <c r="B18" s="199"/>
+      <c r="A18" s="215"/>
+      <c r="B18" s="210"/>
       <c r="C18" s="11" t="s">
         <v>37</v>
       </c>
       <c r="D18" s="4"/>
-      <c r="E18" s="173"/>
-      <c r="F18" s="177"/>
-      <c r="G18" s="177"/>
-      <c r="H18" s="183"/>
-      <c r="I18" s="183"/>
-      <c r="J18" s="183"/>
-      <c r="K18" s="183"/>
-      <c r="L18" s="233"/>
-      <c r="M18" s="233"/>
+      <c r="E18" s="187"/>
+      <c r="F18" s="190"/>
+      <c r="G18" s="190"/>
+      <c r="H18" s="194"/>
+      <c r="I18" s="194"/>
+      <c r="J18" s="194"/>
+      <c r="K18" s="194"/>
+      <c r="L18" s="174"/>
+      <c r="M18" s="174"/>
     </row>
     <row r="19" spans="1:13" ht="15.75" customHeight="1">
-      <c r="A19" s="190"/>
-      <c r="B19" s="199"/>
+      <c r="A19" s="215"/>
+      <c r="B19" s="210"/>
       <c r="C19" s="11" t="s">
         <v>38</v>
       </c>
       <c r="D19" s="4"/>
-      <c r="E19" s="173"/>
-      <c r="F19" s="177"/>
-      <c r="G19" s="177"/>
-      <c r="H19" s="183"/>
-      <c r="I19" s="183"/>
-      <c r="J19" s="183"/>
-      <c r="K19" s="183"/>
-      <c r="L19" s="233"/>
-      <c r="M19" s="233"/>
+      <c r="E19" s="187"/>
+      <c r="F19" s="190"/>
+      <c r="G19" s="190"/>
+      <c r="H19" s="194"/>
+      <c r="I19" s="194"/>
+      <c r="J19" s="194"/>
+      <c r="K19" s="194"/>
+      <c r="L19" s="174"/>
+      <c r="M19" s="174"/>
     </row>
     <row r="20" spans="1:13" ht="15.75" customHeight="1">
-      <c r="A20" s="191">
+      <c r="A20" s="207">
         <v>7</v>
       </c>
-      <c r="B20" s="199"/>
+      <c r="B20" s="210"/>
       <c r="C20" s="11" t="s">
         <v>39</v>
       </c>
       <c r="D20" s="4"/>
-      <c r="E20" s="180" t="s">
+      <c r="E20" s="195" t="s">
         <v>32</v>
       </c>
-      <c r="F20" s="235" t="s">
+      <c r="F20" s="203" t="s">
         <v>44</v>
       </c>
-      <c r="G20" s="235"/>
-      <c r="H20" s="235"/>
-      <c r="I20" s="235"/>
-      <c r="J20" s="235"/>
-      <c r="K20" s="235"/>
-      <c r="L20" s="236"/>
-      <c r="M20" s="236"/>
+      <c r="G20" s="203"/>
+      <c r="H20" s="203"/>
+      <c r="I20" s="203"/>
+      <c r="J20" s="203"/>
+      <c r="K20" s="203"/>
+      <c r="L20" s="180"/>
+      <c r="M20" s="180"/>
     </row>
     <row r="21" spans="1:13" ht="15.75" customHeight="1">
-      <c r="A21" s="191"/>
-      <c r="B21" s="199"/>
+      <c r="A21" s="207"/>
+      <c r="B21" s="210"/>
       <c r="C21" s="11" t="s">
         <v>41</v>
       </c>
       <c r="D21" s="4"/>
-      <c r="E21" s="180"/>
-      <c r="F21" s="235"/>
-      <c r="G21" s="235"/>
-      <c r="H21" s="235"/>
-      <c r="I21" s="235"/>
-      <c r="J21" s="235"/>
-      <c r="K21" s="235"/>
-      <c r="L21" s="236"/>
-      <c r="M21" s="236"/>
+      <c r="E21" s="195"/>
+      <c r="F21" s="203"/>
+      <c r="G21" s="203"/>
+      <c r="H21" s="203"/>
+      <c r="I21" s="203"/>
+      <c r="J21" s="203"/>
+      <c r="K21" s="203"/>
+      <c r="L21" s="180"/>
+      <c r="M21" s="180"/>
     </row>
     <row r="22" spans="1:13" ht="15.75" customHeight="1">
-      <c r="A22" s="191"/>
-      <c r="B22" s="199"/>
+      <c r="A22" s="207"/>
+      <c r="B22" s="210"/>
       <c r="C22" s="32" t="s">
         <v>42</v>
       </c>
       <c r="D22" s="4"/>
-      <c r="E22" s="180"/>
-      <c r="F22" s="235"/>
-      <c r="G22" s="235"/>
-      <c r="H22" s="235"/>
-      <c r="I22" s="235"/>
-      <c r="J22" s="235"/>
-      <c r="K22" s="235"/>
-      <c r="L22" s="236"/>
-      <c r="M22" s="236"/>
+      <c r="E22" s="195"/>
+      <c r="F22" s="203"/>
+      <c r="G22" s="203"/>
+      <c r="H22" s="203"/>
+      <c r="I22" s="203"/>
+      <c r="J22" s="203"/>
+      <c r="K22" s="203"/>
+      <c r="L22" s="180"/>
+      <c r="M22" s="180"/>
     </row>
     <row r="23" spans="1:13" ht="15.75" customHeight="1">
-      <c r="A23" s="190">
+      <c r="A23" s="215">
         <v>8</v>
       </c>
-      <c r="B23" s="199"/>
+      <c r="B23" s="210"/>
       <c r="C23" s="32" t="s">
         <v>43</v>
       </c>
       <c r="D23" s="4"/>
-      <c r="E23" s="173"/>
-      <c r="F23" s="177"/>
-      <c r="G23" s="176" t="s">
+      <c r="E23" s="187"/>
+      <c r="F23" s="190"/>
+      <c r="G23" s="198" t="s">
         <v>50</v>
       </c>
-      <c r="H23" s="183" t="s">
+      <c r="H23" s="194" t="s">
         <v>32</v>
       </c>
-      <c r="I23" s="183"/>
-      <c r="J23" s="183"/>
-      <c r="K23" s="183"/>
-      <c r="L23" s="233"/>
-      <c r="M23" s="233"/>
+      <c r="I23" s="194"/>
+      <c r="J23" s="194"/>
+      <c r="K23" s="194"/>
+      <c r="L23" s="174"/>
+      <c r="M23" s="174"/>
     </row>
     <row r="24" spans="1:13" ht="15.75" customHeight="1">
-      <c r="A24" s="190"/>
-      <c r="B24" s="199"/>
+      <c r="A24" s="215"/>
+      <c r="B24" s="210"/>
       <c r="C24" s="32" t="s">
         <v>45</v>
       </c>
       <c r="D24" s="4"/>
-      <c r="E24" s="173"/>
-      <c r="F24" s="177"/>
-      <c r="G24" s="176"/>
-      <c r="H24" s="183"/>
-      <c r="I24" s="183"/>
-      <c r="J24" s="183"/>
-      <c r="K24" s="183"/>
-      <c r="L24" s="233"/>
-      <c r="M24" s="233"/>
+      <c r="E24" s="187"/>
+      <c r="F24" s="190"/>
+      <c r="G24" s="198"/>
+      <c r="H24" s="194"/>
+      <c r="I24" s="194"/>
+      <c r="J24" s="194"/>
+      <c r="K24" s="194"/>
+      <c r="L24" s="174"/>
+      <c r="M24" s="174"/>
     </row>
     <row r="25" spans="1:13" ht="15.75" customHeight="1" thickBot="1">
-      <c r="A25" s="207"/>
-      <c r="B25" s="204"/>
+      <c r="A25" s="216"/>
+      <c r="B25" s="212"/>
       <c r="C25" s="33" t="s">
         <v>46</v>
       </c>
       <c r="D25" s="5"/>
-      <c r="E25" s="229"/>
-      <c r="F25" s="230"/>
-      <c r="G25" s="231"/>
-      <c r="H25" s="232"/>
-      <c r="I25" s="232"/>
-      <c r="J25" s="232"/>
-      <c r="K25" s="232"/>
-      <c r="L25" s="234"/>
-      <c r="M25" s="234"/>
+      <c r="E25" s="188"/>
+      <c r="F25" s="191"/>
+      <c r="G25" s="199"/>
+      <c r="H25" s="197"/>
+      <c r="I25" s="197"/>
+      <c r="J25" s="197"/>
+      <c r="K25" s="197"/>
+      <c r="L25" s="181"/>
+      <c r="M25" s="181"/>
     </row>
     <row r="26" spans="1:13" ht="15.75" customHeight="1">
-      <c r="A26" s="205">
+      <c r="A26" s="227">
         <v>9</v>
       </c>
-      <c r="B26" s="198" t="s">
+      <c r="B26" s="209" t="s">
         <v>47</v>
       </c>
       <c r="C26" s="12" t="s">
         <v>48</v>
       </c>
       <c r="D26" s="3"/>
-      <c r="E26" s="185" t="s">
+      <c r="E26" s="200" t="s">
         <v>40</v>
       </c>
-      <c r="F26" s="237" t="s">
+      <c r="F26" s="202" t="s">
         <v>53</v>
       </c>
-      <c r="G26" s="237"/>
-      <c r="H26" s="237"/>
-      <c r="I26" s="237"/>
-      <c r="J26" s="237"/>
-      <c r="K26" s="237"/>
-      <c r="L26" s="238"/>
-      <c r="M26" s="238"/>
+      <c r="G26" s="202"/>
+      <c r="H26" s="202"/>
+      <c r="I26" s="202"/>
+      <c r="J26" s="202"/>
+      <c r="K26" s="202"/>
+      <c r="L26" s="182"/>
+      <c r="M26" s="182"/>
     </row>
     <row r="27" spans="1:13" ht="15.75" customHeight="1">
-      <c r="A27" s="206"/>
-      <c r="B27" s="199"/>
+      <c r="A27" s="228"/>
+      <c r="B27" s="210"/>
       <c r="C27" s="13" t="s">
         <v>51</v>
       </c>
       <c r="D27" s="4"/>
-      <c r="E27" s="180"/>
-      <c r="F27" s="235"/>
-      <c r="G27" s="235"/>
-      <c r="H27" s="235"/>
-      <c r="I27" s="235"/>
-      <c r="J27" s="235"/>
-      <c r="K27" s="235"/>
-      <c r="L27" s="236"/>
-      <c r="M27" s="236"/>
+      <c r="E27" s="195"/>
+      <c r="F27" s="203"/>
+      <c r="G27" s="203"/>
+      <c r="H27" s="203"/>
+      <c r="I27" s="203"/>
+      <c r="J27" s="203"/>
+      <c r="K27" s="203"/>
+      <c r="L27" s="180"/>
+      <c r="M27" s="180"/>
     </row>
     <row r="28" spans="1:13" ht="15.75" customHeight="1">
-      <c r="A28" s="207">
+      <c r="A28" s="216">
         <v>10</v>
       </c>
-      <c r="B28" s="199"/>
+      <c r="B28" s="210"/>
       <c r="C28" s="13" t="s">
         <v>52</v>
       </c>
       <c r="D28" s="4"/>
-      <c r="E28" s="173"/>
-      <c r="F28" s="183" t="s">
+      <c r="E28" s="187"/>
+      <c r="F28" s="194" t="s">
         <v>59</v>
       </c>
-      <c r="G28" s="183"/>
-      <c r="H28" s="183" t="s">
+      <c r="G28" s="194"/>
+      <c r="H28" s="194" t="s">
         <v>40</v>
       </c>
-      <c r="I28" s="183"/>
-      <c r="J28" s="183"/>
-      <c r="K28" s="183"/>
-      <c r="L28" s="233"/>
-      <c r="M28" s="233"/>
+      <c r="I28" s="194"/>
+      <c r="J28" s="194"/>
+      <c r="K28" s="194"/>
+      <c r="L28" s="174"/>
+      <c r="M28" s="174"/>
     </row>
     <row r="29" spans="1:13" ht="15.75" customHeight="1">
-      <c r="A29" s="208"/>
-      <c r="B29" s="199"/>
+      <c r="A29" s="229"/>
+      <c r="B29" s="210"/>
       <c r="C29" s="13" t="s">
         <v>54</v>
       </c>
       <c r="D29" s="4"/>
-      <c r="E29" s="173"/>
-      <c r="F29" s="183"/>
-      <c r="G29" s="183"/>
-      <c r="H29" s="183"/>
-      <c r="I29" s="183"/>
-      <c r="J29" s="183"/>
-      <c r="K29" s="183"/>
-      <c r="L29" s="233"/>
-      <c r="M29" s="233"/>
+      <c r="E29" s="187"/>
+      <c r="F29" s="194"/>
+      <c r="G29" s="194"/>
+      <c r="H29" s="194"/>
+      <c r="I29" s="194"/>
+      <c r="J29" s="194"/>
+      <c r="K29" s="194"/>
+      <c r="L29" s="174"/>
+      <c r="M29" s="174"/>
     </row>
     <row r="30" spans="1:13" ht="15.75" customHeight="1">
-      <c r="A30" s="209">
+      <c r="A30" s="230">
         <v>11</v>
       </c>
-      <c r="B30" s="199"/>
+      <c r="B30" s="210"/>
       <c r="C30" s="13" t="s">
         <v>55</v>
       </c>
       <c r="D30" s="4"/>
-      <c r="E30" s="180" t="s">
+      <c r="E30" s="195" t="s">
         <v>49</v>
       </c>
-      <c r="F30" s="174"/>
-      <c r="G30" s="174"/>
-      <c r="H30" s="174"/>
-      <c r="I30" s="174"/>
-      <c r="J30" s="174"/>
-      <c r="K30" s="174"/>
-      <c r="L30" s="222"/>
-      <c r="M30" s="222"/>
+      <c r="F30" s="192"/>
+      <c r="G30" s="192"/>
+      <c r="H30" s="192"/>
+      <c r="I30" s="192"/>
+      <c r="J30" s="192"/>
+      <c r="K30" s="192"/>
+      <c r="L30" s="170"/>
+      <c r="M30" s="170"/>
     </row>
     <row r="31" spans="1:13" ht="15.75" customHeight="1">
-      <c r="A31" s="206"/>
-      <c r="B31" s="199"/>
+      <c r="A31" s="228"/>
+      <c r="B31" s="210"/>
       <c r="C31" s="14" t="s">
         <v>57</v>
       </c>
       <c r="D31" s="4"/>
-      <c r="E31" s="180"/>
-      <c r="F31" s="174"/>
-      <c r="G31" s="174"/>
-      <c r="H31" s="174"/>
-      <c r="I31" s="174"/>
-      <c r="J31" s="174"/>
-      <c r="K31" s="174"/>
-      <c r="L31" s="222"/>
-      <c r="M31" s="222"/>
+      <c r="E31" s="195"/>
+      <c r="F31" s="192"/>
+      <c r="G31" s="192"/>
+      <c r="H31" s="192"/>
+      <c r="I31" s="192"/>
+      <c r="J31" s="192"/>
+      <c r="K31" s="192"/>
+      <c r="L31" s="170"/>
+      <c r="M31" s="170"/>
     </row>
     <row r="32" spans="1:13" ht="15.75" customHeight="1">
-      <c r="A32" s="207">
+      <c r="A32" s="216">
         <v>12</v>
       </c>
-      <c r="B32" s="199"/>
+      <c r="B32" s="210"/>
       <c r="C32" s="14" t="s">
         <v>58</v>
       </c>
       <c r="D32" s="4"/>
-      <c r="E32" s="173"/>
-      <c r="F32" s="183" t="s">
+      <c r="E32" s="187"/>
+      <c r="F32" s="194" t="s">
         <v>67</v>
       </c>
-      <c r="G32" s="176" t="s">
+      <c r="G32" s="198" t="s">
         <v>64</v>
       </c>
-      <c r="H32" s="183" t="s">
+      <c r="H32" s="194" t="s">
         <v>49</v>
       </c>
-      <c r="I32" s="183"/>
-      <c r="J32" s="183"/>
-      <c r="K32" s="183"/>
-      <c r="L32" s="233"/>
-      <c r="M32" s="233"/>
+      <c r="I32" s="194"/>
+      <c r="J32" s="194"/>
+      <c r="K32" s="194"/>
+      <c r="L32" s="174"/>
+      <c r="M32" s="174"/>
     </row>
     <row r="33" spans="1:13" ht="15.75" customHeight="1" thickBot="1">
-      <c r="A33" s="210"/>
-      <c r="B33" s="204"/>
+      <c r="A33" s="231"/>
+      <c r="B33" s="212"/>
       <c r="C33" s="15" t="s">
         <v>60</v>
       </c>
       <c r="D33" s="5"/>
-      <c r="E33" s="229"/>
-      <c r="F33" s="232"/>
-      <c r="G33" s="231"/>
-      <c r="H33" s="232"/>
-      <c r="I33" s="232"/>
-      <c r="J33" s="232"/>
-      <c r="K33" s="232"/>
-      <c r="L33" s="234"/>
-      <c r="M33" s="234"/>
+      <c r="E33" s="188"/>
+      <c r="F33" s="197"/>
+      <c r="G33" s="199"/>
+      <c r="H33" s="197"/>
+      <c r="I33" s="197"/>
+      <c r="J33" s="197"/>
+      <c r="K33" s="197"/>
+      <c r="L33" s="181"/>
+      <c r="M33" s="181"/>
     </row>
     <row r="34" spans="1:13" ht="15.75" customHeight="1">
-      <c r="A34" s="203">
+      <c r="A34" s="206">
         <v>13</v>
       </c>
-      <c r="B34" s="198" t="s">
+      <c r="B34" s="209" t="s">
         <v>61</v>
       </c>
       <c r="C34" s="16" t="s">
         <v>62</v>
       </c>
       <c r="D34" s="3"/>
-      <c r="E34" s="185" t="s">
+      <c r="E34" s="200" t="s">
         <v>56</v>
       </c>
-      <c r="F34" s="178"/>
-      <c r="G34" s="178"/>
-      <c r="H34" s="178"/>
-      <c r="I34" s="178"/>
-      <c r="J34" s="178"/>
-      <c r="K34" s="178"/>
-      <c r="L34" s="239"/>
-      <c r="M34" s="239"/>
+      <c r="F34" s="201"/>
+      <c r="G34" s="201"/>
+      <c r="H34" s="201"/>
+      <c r="I34" s="201"/>
+      <c r="J34" s="201"/>
+      <c r="K34" s="201"/>
+      <c r="L34" s="173"/>
+      <c r="M34" s="173"/>
     </row>
     <row r="35" spans="1:13" ht="15.75" customHeight="1">
-      <c r="A35" s="191"/>
-      <c r="B35" s="199"/>
+      <c r="A35" s="207"/>
+      <c r="B35" s="210"/>
       <c r="C35" s="17" t="s">
         <v>65</v>
       </c>
       <c r="D35" s="4"/>
-      <c r="E35" s="180"/>
-      <c r="F35" s="174"/>
-      <c r="G35" s="174"/>
-      <c r="H35" s="174"/>
-      <c r="I35" s="174"/>
-      <c r="J35" s="174"/>
-      <c r="K35" s="174"/>
-      <c r="L35" s="222"/>
-      <c r="M35" s="222"/>
+      <c r="E35" s="195"/>
+      <c r="F35" s="192"/>
+      <c r="G35" s="192"/>
+      <c r="H35" s="192"/>
+      <c r="I35" s="192"/>
+      <c r="J35" s="192"/>
+      <c r="K35" s="192"/>
+      <c r="L35" s="170"/>
+      <c r="M35" s="170"/>
     </row>
     <row r="36" spans="1:13" ht="15.75" customHeight="1">
-      <c r="A36" s="190">
+      <c r="A36" s="215">
         <v>14</v>
       </c>
-      <c r="B36" s="199"/>
+      <c r="B36" s="210"/>
       <c r="C36" s="17" t="s">
         <v>66</v>
       </c>
       <c r="D36" s="4"/>
-      <c r="E36" s="173"/>
-      <c r="F36" s="177" t="s">
+      <c r="E36" s="187"/>
+      <c r="F36" s="190" t="s">
         <v>73</v>
       </c>
-      <c r="G36" s="177"/>
-      <c r="H36" s="177" t="s">
+      <c r="G36" s="190"/>
+      <c r="H36" s="190" t="s">
         <v>56</v>
       </c>
-      <c r="I36" s="177"/>
-      <c r="J36" s="177"/>
-      <c r="K36" s="177"/>
-      <c r="L36" s="240"/>
-      <c r="M36" s="240"/>
+      <c r="I36" s="190"/>
+      <c r="J36" s="190"/>
+      <c r="K36" s="190"/>
+      <c r="L36" s="171"/>
+      <c r="M36" s="171"/>
     </row>
     <row r="37" spans="1:13" ht="15.75" customHeight="1">
-      <c r="A37" s="190"/>
-      <c r="B37" s="199"/>
+      <c r="A37" s="215"/>
+      <c r="B37" s="210"/>
       <c r="C37" s="17" t="s">
         <v>68</v>
       </c>
       <c r="D37" s="4"/>
-      <c r="E37" s="173"/>
-      <c r="F37" s="177"/>
-      <c r="G37" s="177"/>
-      <c r="H37" s="177"/>
-      <c r="I37" s="177"/>
-      <c r="J37" s="177"/>
-      <c r="K37" s="177"/>
-      <c r="L37" s="240"/>
-      <c r="M37" s="240"/>
+      <c r="E37" s="187"/>
+      <c r="F37" s="190"/>
+      <c r="G37" s="190"/>
+      <c r="H37" s="190"/>
+      <c r="I37" s="190"/>
+      <c r="J37" s="190"/>
+      <c r="K37" s="190"/>
+      <c r="L37" s="171"/>
+      <c r="M37" s="171"/>
     </row>
     <row r="38" spans="1:13" ht="15.75" customHeight="1">
-      <c r="A38" s="191">
+      <c r="A38" s="207">
         <v>15</v>
       </c>
-      <c r="B38" s="199"/>
+      <c r="B38" s="210"/>
       <c r="C38" s="17" t="s">
         <v>69</v>
       </c>
       <c r="D38" s="4"/>
-      <c r="E38" s="180" t="s">
+      <c r="E38" s="195" t="s">
         <v>63</v>
       </c>
-      <c r="F38" s="174"/>
-      <c r="G38" s="174"/>
-      <c r="H38" s="174"/>
-      <c r="I38" s="174"/>
-      <c r="J38" s="174"/>
-      <c r="K38" s="174"/>
-      <c r="L38" s="222"/>
-      <c r="M38" s="222"/>
+      <c r="F38" s="192"/>
+      <c r="G38" s="192"/>
+      <c r="H38" s="192"/>
+      <c r="I38" s="192"/>
+      <c r="J38" s="192"/>
+      <c r="K38" s="192"/>
+      <c r="L38" s="170"/>
+      <c r="M38" s="170"/>
     </row>
     <row r="39" spans="1:13" ht="15.75" customHeight="1">
-      <c r="A39" s="191"/>
-      <c r="B39" s="199"/>
+      <c r="A39" s="207"/>
+      <c r="B39" s="210"/>
       <c r="C39" s="32" t="s">
         <v>71</v>
       </c>
       <c r="D39" s="4"/>
-      <c r="E39" s="180"/>
-      <c r="F39" s="174"/>
-      <c r="G39" s="174"/>
-      <c r="H39" s="174"/>
-      <c r="I39" s="174"/>
-      <c r="J39" s="174"/>
-      <c r="K39" s="174"/>
-      <c r="L39" s="222"/>
-      <c r="M39" s="222"/>
+      <c r="E39" s="195"/>
+      <c r="F39" s="192"/>
+      <c r="G39" s="192"/>
+      <c r="H39" s="192"/>
+      <c r="I39" s="192"/>
+      <c r="J39" s="192"/>
+      <c r="K39" s="192"/>
+      <c r="L39" s="170"/>
+      <c r="M39" s="170"/>
     </row>
     <row r="40" spans="1:13" ht="15.75" customHeight="1">
-      <c r="A40" s="190">
+      <c r="A40" s="215">
         <v>16</v>
       </c>
-      <c r="B40" s="199"/>
+      <c r="B40" s="210"/>
       <c r="C40" s="32" t="s">
         <v>72</v>
       </c>
       <c r="D40" s="4"/>
-      <c r="E40" s="173"/>
-      <c r="F40" s="183" t="s">
+      <c r="E40" s="187"/>
+      <c r="F40" s="194" t="s">
         <v>82</v>
       </c>
-      <c r="G40" s="176" t="s">
+      <c r="G40" s="198" t="s">
         <v>79</v>
       </c>
-      <c r="H40" s="177" t="s">
+      <c r="H40" s="190" t="s">
         <v>63</v>
       </c>
-      <c r="I40" s="177"/>
-      <c r="J40" s="177"/>
-      <c r="K40" s="177"/>
-      <c r="L40" s="240"/>
-      <c r="M40" s="240"/>
+      <c r="I40" s="190"/>
+      <c r="J40" s="190"/>
+      <c r="K40" s="190"/>
+      <c r="L40" s="171"/>
+      <c r="M40" s="171"/>
     </row>
     <row r="41" spans="1:13" ht="15.75" customHeight="1">
-      <c r="A41" s="190"/>
-      <c r="B41" s="199"/>
+      <c r="A41" s="215"/>
+      <c r="B41" s="210"/>
       <c r="C41" s="32" t="s">
         <v>74</v>
       </c>
       <c r="D41" s="4"/>
-      <c r="E41" s="173"/>
-      <c r="F41" s="183"/>
-      <c r="G41" s="176"/>
-      <c r="H41" s="177"/>
-      <c r="I41" s="177"/>
-      <c r="J41" s="177"/>
-      <c r="K41" s="177"/>
-      <c r="L41" s="240"/>
-      <c r="M41" s="240"/>
+      <c r="E41" s="187"/>
+      <c r="F41" s="194"/>
+      <c r="G41" s="198"/>
+      <c r="H41" s="190"/>
+      <c r="I41" s="190"/>
+      <c r="J41" s="190"/>
+      <c r="K41" s="190"/>
+      <c r="L41" s="171"/>
+      <c r="M41" s="171"/>
     </row>
     <row r="42" spans="1:13" ht="15.75" customHeight="1" thickBot="1">
-      <c r="A42" s="202"/>
-      <c r="B42" s="200"/>
+      <c r="A42" s="242"/>
+      <c r="B42" s="211"/>
       <c r="C42" s="9" t="s">
         <v>75</v>
       </c>
       <c r="D42" s="5"/>
-      <c r="E42" s="229"/>
-      <c r="F42" s="232"/>
-      <c r="G42" s="231"/>
-      <c r="H42" s="230"/>
-      <c r="I42" s="230"/>
-      <c r="J42" s="230"/>
-      <c r="K42" s="230"/>
-      <c r="L42" s="241"/>
-      <c r="M42" s="241"/>
+      <c r="E42" s="188"/>
+      <c r="F42" s="197"/>
+      <c r="G42" s="199"/>
+      <c r="H42" s="191"/>
+      <c r="I42" s="191"/>
+      <c r="J42" s="191"/>
+      <c r="K42" s="191"/>
+      <c r="L42" s="172"/>
+      <c r="M42" s="172"/>
     </row>
     <row r="43" spans="1:13" ht="15.75" customHeight="1">
-      <c r="A43" s="203">
+      <c r="A43" s="206">
         <v>17</v>
       </c>
-      <c r="B43" s="193" t="s">
+      <c r="B43" s="237" t="s">
         <v>76</v>
       </c>
       <c r="C43" s="10" t="s">
         <v>77</v>
       </c>
       <c r="D43" s="3"/>
-      <c r="E43" s="185" t="s">
+      <c r="E43" s="200" t="s">
         <v>70</v>
       </c>
-      <c r="F43" s="178"/>
-      <c r="G43" s="178"/>
-      <c r="H43" s="178"/>
-      <c r="I43" s="178"/>
-      <c r="J43" s="178"/>
-      <c r="K43" s="178"/>
-      <c r="L43" s="239"/>
-      <c r="M43" s="239"/>
+      <c r="F43" s="201"/>
+      <c r="G43" s="201"/>
+      <c r="H43" s="201"/>
+      <c r="I43" s="201"/>
+      <c r="J43" s="201"/>
+      <c r="K43" s="201"/>
+      <c r="L43" s="173"/>
+      <c r="M43" s="173"/>
     </row>
     <row r="44" spans="1:13" ht="15.75" customHeight="1">
-      <c r="A44" s="191"/>
-      <c r="B44" s="194"/>
+      <c r="A44" s="207"/>
+      <c r="B44" s="238"/>
       <c r="C44" s="11" t="s">
         <v>80</v>
       </c>
       <c r="D44" s="4"/>
-      <c r="E44" s="180"/>
-      <c r="F44" s="174"/>
-      <c r="G44" s="174"/>
-      <c r="H44" s="174"/>
-      <c r="I44" s="174"/>
-      <c r="J44" s="174"/>
-      <c r="K44" s="174"/>
-      <c r="L44" s="222"/>
-      <c r="M44" s="222"/>
+      <c r="E44" s="195"/>
+      <c r="F44" s="192"/>
+      <c r="G44" s="192"/>
+      <c r="H44" s="192"/>
+      <c r="I44" s="192"/>
+      <c r="J44" s="192"/>
+      <c r="K44" s="192"/>
+      <c r="L44" s="170"/>
+      <c r="M44" s="170"/>
     </row>
     <row r="45" spans="1:13" ht="15.75" customHeight="1">
-      <c r="A45" s="190">
+      <c r="A45" s="215">
         <v>18</v>
       </c>
-      <c r="B45" s="194"/>
+      <c r="B45" s="238"/>
       <c r="C45" s="11" t="s">
         <v>81</v>
       </c>
       <c r="D45" s="4"/>
-      <c r="E45" s="173"/>
-      <c r="F45" s="183" t="s">
+      <c r="E45" s="187"/>
+      <c r="F45" s="194" t="s">
         <v>197</v>
       </c>
-      <c r="G45" s="177"/>
-      <c r="H45" s="183" t="s">
+      <c r="G45" s="190"/>
+      <c r="H45" s="194" t="s">
         <v>70</v>
       </c>
-      <c r="I45" s="183"/>
-      <c r="J45" s="183"/>
-      <c r="K45" s="183"/>
-      <c r="L45" s="233"/>
-      <c r="M45" s="233"/>
+      <c r="I45" s="194"/>
+      <c r="J45" s="194"/>
+      <c r="K45" s="194"/>
+      <c r="L45" s="174"/>
+      <c r="M45" s="174"/>
     </row>
     <row r="46" spans="1:13" ht="15.75" customHeight="1">
-      <c r="A46" s="190"/>
-      <c r="B46" s="194"/>
+      <c r="A46" s="215"/>
+      <c r="B46" s="238"/>
       <c r="C46" s="11" t="s">
         <v>83</v>
       </c>
       <c r="D46" s="4"/>
-      <c r="E46" s="173"/>
-      <c r="F46" s="183"/>
-      <c r="G46" s="177"/>
-      <c r="H46" s="183"/>
-      <c r="I46" s="183"/>
-      <c r="J46" s="183"/>
-      <c r="K46" s="183"/>
-      <c r="L46" s="233"/>
-      <c r="M46" s="233"/>
+      <c r="E46" s="187"/>
+      <c r="F46" s="194"/>
+      <c r="G46" s="190"/>
+      <c r="H46" s="194"/>
+      <c r="I46" s="194"/>
+      <c r="J46" s="194"/>
+      <c r="K46" s="194"/>
+      <c r="L46" s="174"/>
+      <c r="M46" s="174"/>
     </row>
     <row r="47" spans="1:13" ht="15.75" customHeight="1">
-      <c r="A47" s="191">
+      <c r="A47" s="207">
         <v>19</v>
       </c>
-      <c r="B47" s="194"/>
-      <c r="C47" s="196" t="s">
+      <c r="B47" s="238"/>
+      <c r="C47" s="240" t="s">
         <v>84</v>
       </c>
       <c r="D47" s="4"/>
-      <c r="E47" s="180" t="s">
+      <c r="E47" s="195" t="s">
         <v>78</v>
       </c>
-      <c r="F47" s="174"/>
-      <c r="G47" s="174"/>
-      <c r="H47" s="174"/>
-      <c r="I47" s="174"/>
-      <c r="J47" s="174"/>
-      <c r="K47" s="174"/>
-      <c r="L47" s="222"/>
-      <c r="M47" s="222"/>
+      <c r="F47" s="192"/>
+      <c r="G47" s="192"/>
+      <c r="H47" s="192"/>
+      <c r="I47" s="192"/>
+      <c r="J47" s="192"/>
+      <c r="K47" s="192"/>
+      <c r="L47" s="170"/>
+      <c r="M47" s="170"/>
     </row>
     <row r="48" spans="1:13" ht="15.75" customHeight="1" thickBot="1">
-      <c r="A48" s="192"/>
-      <c r="B48" s="195"/>
-      <c r="C48" s="197"/>
+      <c r="A48" s="208"/>
+      <c r="B48" s="239"/>
+      <c r="C48" s="241"/>
       <c r="D48" s="5"/>
-      <c r="E48" s="228"/>
-      <c r="F48" s="221"/>
-      <c r="G48" s="221"/>
-      <c r="H48" s="221"/>
-      <c r="I48" s="221"/>
-      <c r="J48" s="221"/>
-      <c r="K48" s="221"/>
-      <c r="L48" s="223"/>
-      <c r="M48" s="223"/>
+      <c r="E48" s="196"/>
+      <c r="F48" s="193"/>
+      <c r="G48" s="193"/>
+      <c r="H48" s="193"/>
+      <c r="I48" s="193"/>
+      <c r="J48" s="193"/>
+      <c r="K48" s="193"/>
+      <c r="L48" s="175"/>
+      <c r="M48" s="175"/>
     </row>
     <row r="49" spans="1:13" ht="15.75" customHeight="1">
-      <c r="A49" s="201">
+      <c r="A49" s="236">
         <v>20</v>
       </c>
-      <c r="B49" s="198" t="s">
+      <c r="B49" s="209" t="s">
         <v>85</v>
       </c>
       <c r="C49" s="10" t="s">
         <v>86</v>
       </c>
       <c r="D49" s="6"/>
-      <c r="E49" s="242"/>
-      <c r="F49" s="243"/>
-      <c r="G49" s="243"/>
-      <c r="H49" s="243" t="s">
+      <c r="E49" s="186"/>
+      <c r="F49" s="189"/>
+      <c r="G49" s="189"/>
+      <c r="H49" s="189" t="s">
         <v>78</v>
       </c>
-      <c r="I49" s="243"/>
-      <c r="J49" s="243"/>
-      <c r="K49" s="243"/>
-      <c r="L49" s="244"/>
-      <c r="M49" s="244"/>
+      <c r="I49" s="189"/>
+      <c r="J49" s="189"/>
+      <c r="K49" s="189"/>
+      <c r="L49" s="176"/>
+      <c r="M49" s="176"/>
     </row>
     <row r="50" spans="1:13" ht="15.75" customHeight="1">
-      <c r="A50" s="190"/>
-      <c r="B50" s="199"/>
+      <c r="A50" s="215"/>
+      <c r="B50" s="210"/>
       <c r="C50" s="11" t="s">
         <v>87</v>
       </c>
       <c r="D50" s="4"/>
-      <c r="E50" s="173"/>
-      <c r="F50" s="177"/>
-      <c r="G50" s="177"/>
-      <c r="H50" s="177"/>
-      <c r="I50" s="177"/>
-      <c r="J50" s="177"/>
-      <c r="K50" s="177"/>
-      <c r="L50" s="240"/>
-      <c r="M50" s="240"/>
+      <c r="E50" s="187"/>
+      <c r="F50" s="190"/>
+      <c r="G50" s="190"/>
+      <c r="H50" s="190"/>
+      <c r="I50" s="190"/>
+      <c r="J50" s="190"/>
+      <c r="K50" s="190"/>
+      <c r="L50" s="171"/>
+      <c r="M50" s="171"/>
     </row>
     <row r="51" spans="1:13" ht="15.75" customHeight="1">
-      <c r="A51" s="190"/>
-      <c r="B51" s="199"/>
+      <c r="A51" s="215"/>
+      <c r="B51" s="210"/>
       <c r="C51" s="11" t="s">
         <v>88</v>
       </c>
       <c r="D51" s="4"/>
-      <c r="E51" s="173"/>
-      <c r="F51" s="177"/>
-      <c r="G51" s="177"/>
-      <c r="H51" s="177"/>
-      <c r="I51" s="177"/>
-      <c r="J51" s="177"/>
-      <c r="K51" s="177"/>
-      <c r="L51" s="240"/>
-      <c r="M51" s="240"/>
+      <c r="E51" s="187"/>
+      <c r="F51" s="190"/>
+      <c r="G51" s="190"/>
+      <c r="H51" s="190"/>
+      <c r="I51" s="190"/>
+      <c r="J51" s="190"/>
+      <c r="K51" s="190"/>
+      <c r="L51" s="171"/>
+      <c r="M51" s="171"/>
     </row>
     <row r="52" spans="1:13" ht="15.75" customHeight="1" thickBot="1">
-      <c r="A52" s="202"/>
-      <c r="B52" s="200"/>
+      <c r="A52" s="242"/>
+      <c r="B52" s="211"/>
       <c r="C52" s="18" t="s">
         <v>89</v>
       </c>
       <c r="D52" s="5"/>
-      <c r="E52" s="229"/>
-      <c r="F52" s="230"/>
-      <c r="G52" s="230"/>
-      <c r="H52" s="230"/>
-      <c r="I52" s="230"/>
-      <c r="J52" s="230"/>
-      <c r="K52" s="230"/>
-      <c r="L52" s="241"/>
-      <c r="M52" s="241"/>
+      <c r="E52" s="188"/>
+      <c r="F52" s="191"/>
+      <c r="G52" s="191"/>
+      <c r="H52" s="191"/>
+      <c r="I52" s="191"/>
+      <c r="J52" s="191"/>
+      <c r="K52" s="191"/>
+      <c r="L52" s="172"/>
+      <c r="M52" s="172"/>
     </row>
     <row r="55" spans="1:13" ht="15.75" thickBot="1"/>
     <row r="56" spans="1:13" ht="15.75" thickBot="1">
@@ -9147,6 +9185,193 @@
     </row>
   </sheetData>
   <mergeCells count="211">
+    <mergeCell ref="I1:K1"/>
+    <mergeCell ref="E13:E14"/>
+    <mergeCell ref="H11:H12"/>
+    <mergeCell ref="F13:F14"/>
+    <mergeCell ref="G13:G14"/>
+    <mergeCell ref="H13:H14"/>
+    <mergeCell ref="I13:I14"/>
+    <mergeCell ref="J13:J14"/>
+    <mergeCell ref="K13:K14"/>
+    <mergeCell ref="J2:J8"/>
+    <mergeCell ref="K2:K8"/>
+    <mergeCell ref="E11:E12"/>
+    <mergeCell ref="E9:E10"/>
+    <mergeCell ref="F9:F10"/>
+    <mergeCell ref="G9:G10"/>
+    <mergeCell ref="E2:E8"/>
+    <mergeCell ref="F2:F8"/>
+    <mergeCell ref="G2:G8"/>
+    <mergeCell ref="H2:H8"/>
+    <mergeCell ref="I2:I8"/>
+    <mergeCell ref="I11:I12"/>
+    <mergeCell ref="A45:A46"/>
+    <mergeCell ref="A47:A48"/>
+    <mergeCell ref="B43:B48"/>
+    <mergeCell ref="C47:C48"/>
+    <mergeCell ref="B49:B52"/>
+    <mergeCell ref="A49:A52"/>
+    <mergeCell ref="A34:A35"/>
+    <mergeCell ref="A36:A37"/>
+    <mergeCell ref="A38:A39"/>
+    <mergeCell ref="A40:A42"/>
+    <mergeCell ref="B34:B42"/>
+    <mergeCell ref="A43:A44"/>
+    <mergeCell ref="B26:B33"/>
+    <mergeCell ref="A26:A27"/>
+    <mergeCell ref="A28:A29"/>
+    <mergeCell ref="A30:A31"/>
+    <mergeCell ref="A32:A33"/>
+    <mergeCell ref="A11:A12"/>
+    <mergeCell ref="A13:A14"/>
+    <mergeCell ref="A15:A16"/>
+    <mergeCell ref="A17:A19"/>
+    <mergeCell ref="A20:A22"/>
+    <mergeCell ref="A2:A8"/>
+    <mergeCell ref="B2:B8"/>
+    <mergeCell ref="B9:B16"/>
+    <mergeCell ref="A9:A10"/>
+    <mergeCell ref="A23:A25"/>
+    <mergeCell ref="B17:B25"/>
+    <mergeCell ref="C15:C16"/>
+    <mergeCell ref="L11:L12"/>
+    <mergeCell ref="J9:J10"/>
+    <mergeCell ref="K9:K10"/>
+    <mergeCell ref="L9:L10"/>
+    <mergeCell ref="K15:K16"/>
+    <mergeCell ref="L15:L16"/>
+    <mergeCell ref="F15:F16"/>
+    <mergeCell ref="G15:G16"/>
+    <mergeCell ref="H15:H16"/>
+    <mergeCell ref="I15:I16"/>
+    <mergeCell ref="J15:J16"/>
+    <mergeCell ref="H9:H10"/>
+    <mergeCell ref="I9:I10"/>
+    <mergeCell ref="F11:F12"/>
+    <mergeCell ref="G11:G12"/>
+    <mergeCell ref="E15:E16"/>
+    <mergeCell ref="E17:E19"/>
+    <mergeCell ref="F17:F19"/>
+    <mergeCell ref="G17:G19"/>
+    <mergeCell ref="H17:H19"/>
+    <mergeCell ref="I17:I19"/>
+    <mergeCell ref="J17:J19"/>
+    <mergeCell ref="K17:K19"/>
+    <mergeCell ref="J11:J12"/>
+    <mergeCell ref="K11:K12"/>
+    <mergeCell ref="E23:E25"/>
+    <mergeCell ref="F23:F25"/>
+    <mergeCell ref="G23:G25"/>
+    <mergeCell ref="H23:H25"/>
+    <mergeCell ref="I23:I25"/>
+    <mergeCell ref="J23:J25"/>
+    <mergeCell ref="K23:K25"/>
+    <mergeCell ref="L23:L25"/>
+    <mergeCell ref="H20:H22"/>
+    <mergeCell ref="F20:F22"/>
+    <mergeCell ref="G20:G22"/>
+    <mergeCell ref="I20:I22"/>
+    <mergeCell ref="J20:J22"/>
+    <mergeCell ref="K20:K22"/>
+    <mergeCell ref="L20:L22"/>
+    <mergeCell ref="E20:E22"/>
+    <mergeCell ref="F26:F27"/>
+    <mergeCell ref="G26:G27"/>
+    <mergeCell ref="H26:H27"/>
+    <mergeCell ref="I26:I27"/>
+    <mergeCell ref="J26:J27"/>
+    <mergeCell ref="E26:E27"/>
+    <mergeCell ref="K30:K31"/>
+    <mergeCell ref="L30:L31"/>
+    <mergeCell ref="K26:K27"/>
+    <mergeCell ref="L26:L27"/>
+    <mergeCell ref="E28:E29"/>
+    <mergeCell ref="F28:F29"/>
+    <mergeCell ref="G28:G29"/>
+    <mergeCell ref="H28:H29"/>
+    <mergeCell ref="I28:I29"/>
+    <mergeCell ref="J28:J29"/>
+    <mergeCell ref="K28:K29"/>
+    <mergeCell ref="L28:L29"/>
+    <mergeCell ref="E32:E33"/>
+    <mergeCell ref="F32:F33"/>
+    <mergeCell ref="G32:G33"/>
+    <mergeCell ref="H32:H33"/>
+    <mergeCell ref="I32:I33"/>
+    <mergeCell ref="J32:J33"/>
+    <mergeCell ref="K32:K33"/>
+    <mergeCell ref="L32:L33"/>
+    <mergeCell ref="F30:F31"/>
+    <mergeCell ref="G30:G31"/>
+    <mergeCell ref="H30:H31"/>
+    <mergeCell ref="I30:I31"/>
+    <mergeCell ref="J30:J31"/>
+    <mergeCell ref="E30:E31"/>
+    <mergeCell ref="E38:E39"/>
+    <mergeCell ref="F34:F35"/>
+    <mergeCell ref="G34:G35"/>
+    <mergeCell ref="H34:H35"/>
+    <mergeCell ref="I34:I35"/>
+    <mergeCell ref="J34:J35"/>
+    <mergeCell ref="E34:E35"/>
+    <mergeCell ref="K38:K39"/>
+    <mergeCell ref="L38:L39"/>
+    <mergeCell ref="F38:F39"/>
+    <mergeCell ref="G38:G39"/>
+    <mergeCell ref="H38:H39"/>
+    <mergeCell ref="I38:I39"/>
+    <mergeCell ref="J38:J39"/>
+    <mergeCell ref="K34:K35"/>
+    <mergeCell ref="L34:L35"/>
+    <mergeCell ref="E36:E37"/>
+    <mergeCell ref="F36:F37"/>
+    <mergeCell ref="G36:G37"/>
+    <mergeCell ref="H36:H37"/>
+    <mergeCell ref="I36:I37"/>
+    <mergeCell ref="J36:J37"/>
+    <mergeCell ref="K36:K37"/>
+    <mergeCell ref="L36:L37"/>
+    <mergeCell ref="E40:E42"/>
+    <mergeCell ref="F40:F42"/>
+    <mergeCell ref="G40:G42"/>
+    <mergeCell ref="H40:H42"/>
+    <mergeCell ref="I40:I42"/>
+    <mergeCell ref="J40:J42"/>
+    <mergeCell ref="K40:K42"/>
+    <mergeCell ref="L40:L42"/>
+    <mergeCell ref="E43:E44"/>
+    <mergeCell ref="K43:K44"/>
+    <mergeCell ref="L43:L44"/>
+    <mergeCell ref="F43:F44"/>
+    <mergeCell ref="G43:G44"/>
+    <mergeCell ref="H43:H44"/>
+    <mergeCell ref="I43:I44"/>
+    <mergeCell ref="J43:J44"/>
+    <mergeCell ref="E45:E46"/>
+    <mergeCell ref="F45:F46"/>
+    <mergeCell ref="G45:G46"/>
+    <mergeCell ref="H45:H46"/>
+    <mergeCell ref="I45:I46"/>
+    <mergeCell ref="J45:J46"/>
+    <mergeCell ref="K45:K46"/>
+    <mergeCell ref="L45:L46"/>
+    <mergeCell ref="E47:E48"/>
+    <mergeCell ref="K47:K48"/>
+    <mergeCell ref="L47:L48"/>
+    <mergeCell ref="E49:E52"/>
+    <mergeCell ref="F49:F52"/>
+    <mergeCell ref="G49:G52"/>
+    <mergeCell ref="H49:H52"/>
+    <mergeCell ref="I49:I52"/>
+    <mergeCell ref="J49:J52"/>
+    <mergeCell ref="K49:K52"/>
+    <mergeCell ref="L49:L52"/>
+    <mergeCell ref="F47:F48"/>
+    <mergeCell ref="G47:G48"/>
+    <mergeCell ref="H47:H48"/>
+    <mergeCell ref="I47:I48"/>
+    <mergeCell ref="J47:J48"/>
     <mergeCell ref="M38:M39"/>
     <mergeCell ref="M40:M42"/>
     <mergeCell ref="M43:M44"/>
@@ -9171,193 +9396,6 @@
     <mergeCell ref="L17:L19"/>
     <mergeCell ref="L13:L14"/>
     <mergeCell ref="L2:L8"/>
-    <mergeCell ref="E49:E52"/>
-    <mergeCell ref="F49:F52"/>
-    <mergeCell ref="G49:G52"/>
-    <mergeCell ref="H49:H52"/>
-    <mergeCell ref="I49:I52"/>
-    <mergeCell ref="J49:J52"/>
-    <mergeCell ref="K49:K52"/>
-    <mergeCell ref="L49:L52"/>
-    <mergeCell ref="F47:F48"/>
-    <mergeCell ref="G47:G48"/>
-    <mergeCell ref="H47:H48"/>
-    <mergeCell ref="I47:I48"/>
-    <mergeCell ref="J47:J48"/>
-    <mergeCell ref="E45:E46"/>
-    <mergeCell ref="F45:F46"/>
-    <mergeCell ref="G45:G46"/>
-    <mergeCell ref="H45:H46"/>
-    <mergeCell ref="I45:I46"/>
-    <mergeCell ref="J45:J46"/>
-    <mergeCell ref="K45:K46"/>
-    <mergeCell ref="L45:L46"/>
-    <mergeCell ref="E47:E48"/>
-    <mergeCell ref="K47:K48"/>
-    <mergeCell ref="L47:L48"/>
-    <mergeCell ref="E40:E42"/>
-    <mergeCell ref="F40:F42"/>
-    <mergeCell ref="G40:G42"/>
-    <mergeCell ref="H40:H42"/>
-    <mergeCell ref="I40:I42"/>
-    <mergeCell ref="J40:J42"/>
-    <mergeCell ref="K40:K42"/>
-    <mergeCell ref="L40:L42"/>
-    <mergeCell ref="E43:E44"/>
-    <mergeCell ref="K43:K44"/>
-    <mergeCell ref="L43:L44"/>
-    <mergeCell ref="F43:F44"/>
-    <mergeCell ref="G43:G44"/>
-    <mergeCell ref="H43:H44"/>
-    <mergeCell ref="I43:I44"/>
-    <mergeCell ref="J43:J44"/>
-    <mergeCell ref="E38:E39"/>
-    <mergeCell ref="F34:F35"/>
-    <mergeCell ref="G34:G35"/>
-    <mergeCell ref="H34:H35"/>
-    <mergeCell ref="I34:I35"/>
-    <mergeCell ref="J34:J35"/>
-    <mergeCell ref="E34:E35"/>
-    <mergeCell ref="K38:K39"/>
-    <mergeCell ref="L38:L39"/>
-    <mergeCell ref="F38:F39"/>
-    <mergeCell ref="G38:G39"/>
-    <mergeCell ref="H38:H39"/>
-    <mergeCell ref="I38:I39"/>
-    <mergeCell ref="J38:J39"/>
-    <mergeCell ref="K34:K35"/>
-    <mergeCell ref="L34:L35"/>
-    <mergeCell ref="E36:E37"/>
-    <mergeCell ref="F36:F37"/>
-    <mergeCell ref="G36:G37"/>
-    <mergeCell ref="H36:H37"/>
-    <mergeCell ref="I36:I37"/>
-    <mergeCell ref="J36:J37"/>
-    <mergeCell ref="K36:K37"/>
-    <mergeCell ref="L36:L37"/>
-    <mergeCell ref="E32:E33"/>
-    <mergeCell ref="F32:F33"/>
-    <mergeCell ref="G32:G33"/>
-    <mergeCell ref="H32:H33"/>
-    <mergeCell ref="I32:I33"/>
-    <mergeCell ref="J32:J33"/>
-    <mergeCell ref="K32:K33"/>
-    <mergeCell ref="L32:L33"/>
-    <mergeCell ref="F30:F31"/>
-    <mergeCell ref="G30:G31"/>
-    <mergeCell ref="H30:H31"/>
-    <mergeCell ref="I30:I31"/>
-    <mergeCell ref="J30:J31"/>
-    <mergeCell ref="E30:E31"/>
-    <mergeCell ref="F26:F27"/>
-    <mergeCell ref="G26:G27"/>
-    <mergeCell ref="H26:H27"/>
-    <mergeCell ref="I26:I27"/>
-    <mergeCell ref="J26:J27"/>
-    <mergeCell ref="E26:E27"/>
-    <mergeCell ref="K30:K31"/>
-    <mergeCell ref="L30:L31"/>
-    <mergeCell ref="K26:K27"/>
-    <mergeCell ref="L26:L27"/>
-    <mergeCell ref="E28:E29"/>
-    <mergeCell ref="F28:F29"/>
-    <mergeCell ref="G28:G29"/>
-    <mergeCell ref="H28:H29"/>
-    <mergeCell ref="I28:I29"/>
-    <mergeCell ref="J28:J29"/>
-    <mergeCell ref="K28:K29"/>
-    <mergeCell ref="L28:L29"/>
-    <mergeCell ref="L23:L25"/>
-    <mergeCell ref="H20:H22"/>
-    <mergeCell ref="F20:F22"/>
-    <mergeCell ref="G20:G22"/>
-    <mergeCell ref="I20:I22"/>
-    <mergeCell ref="J20:J22"/>
-    <mergeCell ref="K20:K22"/>
-    <mergeCell ref="L20:L22"/>
-    <mergeCell ref="E20:E22"/>
-    <mergeCell ref="F17:F19"/>
-    <mergeCell ref="G17:G19"/>
-    <mergeCell ref="H17:H19"/>
-    <mergeCell ref="I17:I19"/>
-    <mergeCell ref="J17:J19"/>
-    <mergeCell ref="K17:K19"/>
-    <mergeCell ref="J11:J12"/>
-    <mergeCell ref="K11:K12"/>
-    <mergeCell ref="E23:E25"/>
-    <mergeCell ref="F23:F25"/>
-    <mergeCell ref="G23:G25"/>
-    <mergeCell ref="H23:H25"/>
-    <mergeCell ref="I23:I25"/>
-    <mergeCell ref="J23:J25"/>
-    <mergeCell ref="K23:K25"/>
-    <mergeCell ref="A2:A8"/>
-    <mergeCell ref="B2:B8"/>
-    <mergeCell ref="B9:B16"/>
-    <mergeCell ref="A9:A10"/>
-    <mergeCell ref="A23:A25"/>
-    <mergeCell ref="B17:B25"/>
-    <mergeCell ref="C15:C16"/>
-    <mergeCell ref="L11:L12"/>
-    <mergeCell ref="J9:J10"/>
-    <mergeCell ref="K9:K10"/>
-    <mergeCell ref="L9:L10"/>
-    <mergeCell ref="K15:K16"/>
-    <mergeCell ref="L15:L16"/>
-    <mergeCell ref="F15:F16"/>
-    <mergeCell ref="G15:G16"/>
-    <mergeCell ref="H15:H16"/>
-    <mergeCell ref="I15:I16"/>
-    <mergeCell ref="J15:J16"/>
-    <mergeCell ref="H9:H10"/>
-    <mergeCell ref="I9:I10"/>
-    <mergeCell ref="F11:F12"/>
-    <mergeCell ref="G11:G12"/>
-    <mergeCell ref="E15:E16"/>
-    <mergeCell ref="E17:E19"/>
-    <mergeCell ref="B26:B33"/>
-    <mergeCell ref="A26:A27"/>
-    <mergeCell ref="A28:A29"/>
-    <mergeCell ref="A30:A31"/>
-    <mergeCell ref="A32:A33"/>
-    <mergeCell ref="A11:A12"/>
-    <mergeCell ref="A13:A14"/>
-    <mergeCell ref="A15:A16"/>
-    <mergeCell ref="A17:A19"/>
-    <mergeCell ref="A20:A22"/>
-    <mergeCell ref="A45:A46"/>
-    <mergeCell ref="A47:A48"/>
-    <mergeCell ref="B43:B48"/>
-    <mergeCell ref="C47:C48"/>
-    <mergeCell ref="B49:B52"/>
-    <mergeCell ref="A49:A52"/>
-    <mergeCell ref="A34:A35"/>
-    <mergeCell ref="A36:A37"/>
-    <mergeCell ref="A38:A39"/>
-    <mergeCell ref="A40:A42"/>
-    <mergeCell ref="B34:B42"/>
-    <mergeCell ref="A43:A44"/>
-    <mergeCell ref="I1:K1"/>
-    <mergeCell ref="E13:E14"/>
-    <mergeCell ref="H11:H12"/>
-    <mergeCell ref="F13:F14"/>
-    <mergeCell ref="G13:G14"/>
-    <mergeCell ref="H13:H14"/>
-    <mergeCell ref="I13:I14"/>
-    <mergeCell ref="J13:J14"/>
-    <mergeCell ref="K13:K14"/>
-    <mergeCell ref="J2:J8"/>
-    <mergeCell ref="K2:K8"/>
-    <mergeCell ref="E11:E12"/>
-    <mergeCell ref="E9:E10"/>
-    <mergeCell ref="F9:F10"/>
-    <mergeCell ref="G9:G10"/>
-    <mergeCell ref="E2:E8"/>
-    <mergeCell ref="F2:F8"/>
-    <mergeCell ref="G2:G8"/>
-    <mergeCell ref="H2:H8"/>
-    <mergeCell ref="I2:I8"/>
-    <mergeCell ref="I11:I12"/>
   </mergeCells>
   <hyperlinks>
     <hyperlink ref="E2" r:id="rId1" display="https://drive.google.com/open?id=1RYgFxmL-dmZYtjF2ca5a0yQUWnMVjo3mVexJabJL1c4"/>
@@ -9440,10 +9478,10 @@
       </c>
     </row>
     <row r="2" spans="1:8" ht="15.75">
-      <c r="A2" s="259" t="s">
+      <c r="A2" s="251" t="s">
         <v>309</v>
       </c>
-      <c r="B2" s="260">
+      <c r="B2" s="254">
         <v>1</v>
       </c>
       <c r="C2" s="104">
@@ -9526,10 +9564,10 @@
       <c r="H6" s="116"/>
     </row>
     <row r="7" spans="1:8" ht="15.75">
-      <c r="A7" s="261" t="s">
+      <c r="A7" s="262" t="s">
         <v>184</v>
       </c>
-      <c r="B7" s="254">
+      <c r="B7" s="261">
         <v>2</v>
       </c>
       <c r="C7" s="117">
@@ -9613,7 +9651,7 @@
     </row>
     <row r="12" spans="1:8" ht="15.75">
       <c r="A12" s="252"/>
-      <c r="B12" s="256">
+      <c r="B12" s="257">
         <v>3</v>
       </c>
       <c r="C12" s="109">
@@ -9697,7 +9735,7 @@
     </row>
     <row r="17" spans="1:8" ht="15.75">
       <c r="A17" s="252"/>
-      <c r="B17" s="257">
+      <c r="B17" s="259">
         <v>4</v>
       </c>
       <c r="C17" s="122">
@@ -9779,7 +9817,7 @@
     </row>
     <row r="22" spans="1:8" ht="15.75">
       <c r="A22" s="252"/>
-      <c r="B22" s="256">
+      <c r="B22" s="257">
         <v>5</v>
       </c>
       <c r="C22" s="109">
@@ -9862,10 +9900,10 @@
       </c>
     </row>
     <row r="27" spans="1:8" ht="15.75">
-      <c r="A27" s="259" t="s">
+      <c r="A27" s="251" t="s">
         <v>34</v>
       </c>
-      <c r="B27" s="262">
+      <c r="B27" s="263">
         <v>6</v>
       </c>
       <c r="C27" s="129">
@@ -9949,7 +9987,7 @@
     </row>
     <row r="32" spans="1:8" ht="15.75">
       <c r="A32" s="252"/>
-      <c r="B32" s="256">
+      <c r="B32" s="257">
         <v>7</v>
       </c>
       <c r="C32" s="109">
@@ -10033,7 +10071,7 @@
     </row>
     <row r="37" spans="1:8" ht="15.75">
       <c r="A37" s="252"/>
-      <c r="B37" s="263">
+      <c r="B37" s="256">
         <v>8</v>
       </c>
       <c r="C37" s="132">
@@ -10119,7 +10157,7 @@
     </row>
     <row r="42" spans="1:8" ht="15.75">
       <c r="A42" s="252"/>
-      <c r="B42" s="256">
+      <c r="B42" s="257">
         <v>9</v>
       </c>
       <c r="C42" s="109">
@@ -10202,10 +10240,10 @@
       <c r="H46" s="116"/>
     </row>
     <row r="47" spans="1:8" ht="15.75">
-      <c r="A47" s="251" t="s">
+      <c r="A47" s="260" t="s">
         <v>47</v>
       </c>
-      <c r="B47" s="254">
+      <c r="B47" s="261">
         <v>10</v>
       </c>
       <c r="C47" s="117">
@@ -10291,7 +10329,7 @@
     </row>
     <row r="52" spans="1:8" ht="15.75">
       <c r="A52" s="252"/>
-      <c r="B52" s="256">
+      <c r="B52" s="257">
         <v>11</v>
       </c>
       <c r="C52" s="109">
@@ -10377,7 +10415,7 @@
     </row>
     <row r="57" spans="1:8" ht="15.75">
       <c r="A57" s="252"/>
-      <c r="B57" s="257">
+      <c r="B57" s="259">
         <v>12</v>
       </c>
       <c r="C57" s="122">
@@ -10460,10 +10498,10 @@
       <c r="H61" s="140"/>
     </row>
     <row r="62" spans="1:8" ht="15.75">
-      <c r="A62" s="259" t="s">
+      <c r="A62" s="251" t="s">
         <v>61</v>
       </c>
-      <c r="B62" s="260">
+      <c r="B62" s="254">
         <v>13</v>
       </c>
       <c r="C62" s="104">
@@ -10549,7 +10587,7 @@
     </row>
     <row r="67" spans="1:8" ht="15.75">
       <c r="A67" s="252"/>
-      <c r="B67" s="263">
+      <c r="B67" s="256">
         <v>14</v>
       </c>
       <c r="C67" s="132">
@@ -10633,7 +10671,7 @@
     </row>
     <row r="72" spans="1:8" ht="15.75">
       <c r="A72" s="252"/>
-      <c r="B72" s="256">
+      <c r="B72" s="257">
         <v>15</v>
       </c>
       <c r="C72" s="109">
@@ -10719,7 +10757,7 @@
     </row>
     <row r="77" spans="1:8" ht="15.75">
       <c r="A77" s="252"/>
-      <c r="B77" s="263">
+      <c r="B77" s="256">
         <v>16</v>
       </c>
       <c r="C77" s="132">
@@ -10802,10 +10840,10 @@
       <c r="H81" s="144"/>
     </row>
     <row r="82" spans="1:8" ht="15.75">
-      <c r="A82" s="259" t="s">
+      <c r="A82" s="251" t="s">
         <v>76</v>
       </c>
-      <c r="B82" s="260">
+      <c r="B82" s="254">
         <v>17</v>
       </c>
       <c r="C82" s="104">
@@ -10891,7 +10929,7 @@
     </row>
     <row r="87" spans="1:8" ht="15.75">
       <c r="A87" s="252"/>
-      <c r="B87" s="257">
+      <c r="B87" s="259">
         <v>18</v>
       </c>
       <c r="C87" s="122">
@@ -10975,7 +11013,7 @@
     </row>
     <row r="92" spans="1:8" ht="15.75">
       <c r="A92" s="252"/>
-      <c r="B92" s="256">
+      <c r="B92" s="257">
         <v>19</v>
       </c>
       <c r="C92" s="109">
@@ -11061,7 +11099,7 @@
     </row>
     <row r="97" spans="1:8" ht="15.75">
       <c r="A97" s="252"/>
-      <c r="B97" s="257">
+      <c r="B97" s="259">
         <v>20</v>
       </c>
       <c r="C97" s="122">
@@ -17438,16 +17476,6 @@
     </row>
   </sheetData>
   <mergeCells count="26">
-    <mergeCell ref="A62:A81"/>
-    <mergeCell ref="B62:B66"/>
-    <mergeCell ref="B67:B71"/>
-    <mergeCell ref="B72:B76"/>
-    <mergeCell ref="B77:B81"/>
-    <mergeCell ref="A82:A101"/>
-    <mergeCell ref="B82:B86"/>
-    <mergeCell ref="B87:B91"/>
-    <mergeCell ref="B92:B96"/>
-    <mergeCell ref="B97:B101"/>
     <mergeCell ref="A47:A61"/>
     <mergeCell ref="B47:B51"/>
     <mergeCell ref="B52:B56"/>
@@ -17464,6 +17492,16 @@
     <mergeCell ref="B32:B36"/>
     <mergeCell ref="B37:B41"/>
     <mergeCell ref="B42:B46"/>
+    <mergeCell ref="A82:A101"/>
+    <mergeCell ref="B82:B86"/>
+    <mergeCell ref="B87:B91"/>
+    <mergeCell ref="B92:B96"/>
+    <mergeCell ref="B97:B101"/>
+    <mergeCell ref="A62:A81"/>
+    <mergeCell ref="B62:B66"/>
+    <mergeCell ref="B67:B71"/>
+    <mergeCell ref="B72:B76"/>
+    <mergeCell ref="B77:B81"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -18892,10 +18930,10 @@
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:V481"/>
+  <dimension ref="A1:V487"/>
   <sheetViews>
-    <sheetView topLeftCell="A445" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="A472" sqref="A472"/>
+    <sheetView tabSelected="1" topLeftCell="A466" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="A489" sqref="A489"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -20751,16 +20789,49 @@
       <c r="A477" s="26"/>
     </row>
     <row r="478" spans="1:1">
-      <c r="A478" s="26"/>
+      <c r="A478" s="26" t="s">
+        <v>615</v>
+      </c>
     </row>
     <row r="479" spans="1:1">
-      <c r="A479" s="26"/>
+      <c r="A479" s="26" t="s">
+        <v>619</v>
+      </c>
     </row>
     <row r="480" spans="1:1">
-      <c r="A480" s="26"/>
+      <c r="A480" s="26" t="s">
+        <v>616</v>
+      </c>
     </row>
     <row r="481" spans="1:1">
-      <c r="A481" s="26"/>
+      <c r="A481" s="26" t="s">
+        <v>617</v>
+      </c>
+    </row>
+    <row r="482" spans="1:1">
+      <c r="A482" s="26" t="s">
+        <v>618</v>
+      </c>
+    </row>
+    <row r="484" spans="1:1">
+      <c r="A484" s="155" t="s">
+        <v>507</v>
+      </c>
+    </row>
+    <row r="485" spans="1:1">
+      <c r="A485" t="s">
+        <v>620</v>
+      </c>
+    </row>
+    <row r="486" spans="1:1">
+      <c r="A486" t="s">
+        <v>357</v>
+      </c>
+    </row>
+    <row r="487" spans="1:1">
+      <c r="A487" t="s">
+        <v>360</v>
+      </c>
     </row>
   </sheetData>
   <mergeCells count="2">
@@ -20780,7 +20851,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:C13"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="A14" sqref="A14"/>
     </sheetView>
   </sheetViews>

--- a/General/Curriculum (Personalized).xlsx
+++ b/General/Curriculum (Personalized).xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="11835"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="11835" firstSheet="5" activeTab="7"/>
   </bookViews>
   <sheets>
     <sheet name="Curriculum" sheetId="1" r:id="rId1"/>
@@ -32,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1378" uniqueCount="960">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1380" uniqueCount="962">
   <si>
     <t>Week</t>
   </si>
@@ -9894,6 +9894,12 @@
   </si>
   <si>
     <t>FreeCodeCamp</t>
+  </si>
+  <si>
+    <t>https://github.com/WomenWhoCode/guidelines-resources/blob/master/learn_to_program.md#javascript</t>
+  </si>
+  <si>
+    <t>https://github.com/EbookFoundation/free-programming-books/blob/master/free-programming-interactive-tutorials-en.md#javascript</t>
   </si>
 </sst>
 </file>
@@ -11685,67 +11691,115 @@
     <xf numFmtId="0" fontId="0" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="5" fillId="4" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="35" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="5" borderId="35" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="5" borderId="38" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="33" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="35" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="38" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="5" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="52" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="4" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="53" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="4" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="33" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="35" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="38" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="33" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="6" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="33" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="35" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="5" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="5" borderId="34" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="5" borderId="36" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="5" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="5" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="5" borderId="37" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="23" xfId="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="5" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="37" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="34" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="36" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="37" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="5" borderId="23" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="5" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="5" borderId="37" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="31" xfId="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="32" xfId="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="32" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="34" xfId="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="5" borderId="31" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="5" borderId="32" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="5" borderId="32" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="5" borderId="32" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="31" xfId="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="5" xfId="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="32" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="23" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -11753,21 +11807,6 @@
     </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -11778,25 +11817,55 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="23" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="5" borderId="32" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="5" borderId="1" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="23" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="37" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="32" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="23" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="5" borderId="31" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -11817,116 +11886,71 @@
     <xf numFmtId="0" fontId="1" fillId="3" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="23" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="5" borderId="1" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="37" xfId="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="5" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="35" xfId="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="38" xfId="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="5" xfId="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="37" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="32" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="5" borderId="32" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="32" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="35" fillId="0" borderId="63" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="23" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="35" fillId="0" borderId="55" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="36" xfId="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="35" fillId="0" borderId="56" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="5" borderId="36" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="64" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="5" borderId="37" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="57" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="5" borderId="37" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="37" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="35" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="38" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="35" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="32" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="33" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="33" xfId="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="5" borderId="35" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="5" borderId="38" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="5" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="5" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="5" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="4" borderId="52" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="4" borderId="53" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="33" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="6" xfId="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="33" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="35" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="58" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="14" fillId="5" borderId="64" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center" wrapText="1"/>
@@ -11934,7 +11958,28 @@
     <xf numFmtId="0" fontId="14" fillId="5" borderId="57" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="14" fillId="5" borderId="62" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="14" fillId="5" borderId="58" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="35" fillId="2" borderId="63" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="35" fillId="2" borderId="55" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="35" fillId="2" borderId="56" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="62" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="5" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="14" fillId="2" borderId="64" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -11946,55 +11991,16 @@
     <xf numFmtId="0" fontId="14" fillId="2" borderId="62" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="5" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="14" fillId="2" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="35" fillId="2" borderId="63" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="35" fillId="2" borderId="55" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="35" fillId="2" borderId="56" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="57" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="62" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="5" borderId="62" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="14" fillId="2" borderId="58" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="35" fillId="0" borderId="65" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="35" fillId="0" borderId="66" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="35" fillId="0" borderId="55" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="35" fillId="0" borderId="56" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="2" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="2" borderId="58" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="64" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="58" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="35" fillId="0" borderId="63" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="24" xfId="0" applyBorder="1" applyAlignment="1">
@@ -12997,7 +13003,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:M64"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="D17" sqref="D17"/>
     </sheetView>
   </sheetViews>
@@ -13033,21 +13039,21 @@
       <c r="H1" s="35" t="s">
         <v>193</v>
       </c>
-      <c r="I1" s="186" t="s">
+      <c r="I1" s="259" t="s">
         <v>7</v>
       </c>
-      <c r="J1" s="187"/>
-      <c r="K1" s="188"/>
-      <c r="L1" s="261" t="s">
+      <c r="J1" s="260"/>
+      <c r="K1" s="261"/>
+      <c r="L1" s="193" t="s">
         <v>8</v>
       </c>
-      <c r="M1" s="262"/>
+      <c r="M1" s="194"/>
     </row>
     <row r="2" spans="1:13" ht="15.75" customHeight="1">
-      <c r="A2" s="219">
+      <c r="A2" s="222">
         <v>1</v>
       </c>
-      <c r="B2" s="214" t="s">
+      <c r="B2" s="225" t="s">
         <v>9</v>
       </c>
       <c r="C2" s="8" t="s">
@@ -13056,145 +13062,145 @@
       <c r="D2" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="E2" s="201" t="s">
+      <c r="E2" s="216" t="s">
         <v>12</v>
       </c>
-      <c r="F2" s="203"/>
-      <c r="G2" s="194"/>
-      <c r="H2" s="194"/>
-      <c r="I2" s="194" t="s">
+      <c r="F2" s="265"/>
+      <c r="G2" s="217"/>
+      <c r="H2" s="217"/>
+      <c r="I2" s="217" t="s">
         <v>10</v>
       </c>
-      <c r="J2" s="194" t="s">
+      <c r="J2" s="217" t="s">
         <v>14</v>
       </c>
-      <c r="K2" s="194" t="s">
+      <c r="K2" s="217" t="s">
         <v>15</v>
       </c>
-      <c r="L2" s="255" t="s">
+      <c r="L2" s="189" t="s">
         <v>16</v>
       </c>
-      <c r="M2" s="255" t="s">
+      <c r="M2" s="189" t="s">
         <v>328</v>
       </c>
     </row>
     <row r="3" spans="1:13" ht="15.75" customHeight="1">
-      <c r="A3" s="207"/>
-      <c r="B3" s="215"/>
+      <c r="A3" s="223"/>
+      <c r="B3" s="226"/>
       <c r="C3" s="32" t="s">
         <v>17</v>
       </c>
       <c r="D3" s="4" t="s">
         <v>18</v>
       </c>
-      <c r="E3" s="196"/>
-      <c r="F3" s="204"/>
-      <c r="G3" s="190"/>
-      <c r="H3" s="190"/>
-      <c r="I3" s="190"/>
-      <c r="J3" s="190"/>
-      <c r="K3" s="190"/>
-      <c r="L3" s="238"/>
-      <c r="M3" s="238"/>
+      <c r="E3" s="211"/>
+      <c r="F3" s="238"/>
+      <c r="G3" s="208"/>
+      <c r="H3" s="208"/>
+      <c r="I3" s="208"/>
+      <c r="J3" s="208"/>
+      <c r="K3" s="208"/>
+      <c r="L3" s="186"/>
+      <c r="M3" s="186"/>
     </row>
     <row r="4" spans="1:13" ht="15.75" customHeight="1">
-      <c r="A4" s="207"/>
-      <c r="B4" s="215"/>
+      <c r="A4" s="223"/>
+      <c r="B4" s="226"/>
       <c r="C4" s="32" t="s">
         <v>19</v>
       </c>
       <c r="D4" s="4" t="s">
         <v>20</v>
       </c>
-      <c r="E4" s="196"/>
-      <c r="F4" s="204"/>
-      <c r="G4" s="190"/>
-      <c r="H4" s="190"/>
-      <c r="I4" s="190"/>
-      <c r="J4" s="190"/>
-      <c r="K4" s="190"/>
-      <c r="L4" s="238"/>
-      <c r="M4" s="238"/>
+      <c r="E4" s="211"/>
+      <c r="F4" s="238"/>
+      <c r="G4" s="208"/>
+      <c r="H4" s="208"/>
+      <c r="I4" s="208"/>
+      <c r="J4" s="208"/>
+      <c r="K4" s="208"/>
+      <c r="L4" s="186"/>
+      <c r="M4" s="186"/>
     </row>
     <row r="5" spans="1:13" ht="15.75" customHeight="1">
-      <c r="A5" s="207"/>
-      <c r="B5" s="215"/>
+      <c r="A5" s="223"/>
+      <c r="B5" s="226"/>
       <c r="C5" s="32" t="s">
         <v>21</v>
       </c>
       <c r="D5" s="4"/>
-      <c r="E5" s="196"/>
-      <c r="F5" s="204"/>
-      <c r="G5" s="190"/>
-      <c r="H5" s="190"/>
-      <c r="I5" s="190"/>
-      <c r="J5" s="190"/>
-      <c r="K5" s="190"/>
-      <c r="L5" s="238"/>
-      <c r="M5" s="238"/>
+      <c r="E5" s="211"/>
+      <c r="F5" s="238"/>
+      <c r="G5" s="208"/>
+      <c r="H5" s="208"/>
+      <c r="I5" s="208"/>
+      <c r="J5" s="208"/>
+      <c r="K5" s="208"/>
+      <c r="L5" s="186"/>
+      <c r="M5" s="186"/>
     </row>
     <row r="6" spans="1:13" ht="15.75" customHeight="1">
-      <c r="A6" s="207"/>
-      <c r="B6" s="215"/>
+      <c r="A6" s="223"/>
+      <c r="B6" s="226"/>
       <c r="C6" s="32" t="s">
         <v>14</v>
       </c>
       <c r="D6" s="4" t="s">
         <v>22</v>
       </c>
-      <c r="E6" s="196"/>
-      <c r="F6" s="204"/>
-      <c r="G6" s="190"/>
-      <c r="H6" s="190"/>
-      <c r="I6" s="190"/>
-      <c r="J6" s="190"/>
-      <c r="K6" s="190"/>
-      <c r="L6" s="238"/>
-      <c r="M6" s="238"/>
+      <c r="E6" s="211"/>
+      <c r="F6" s="238"/>
+      <c r="G6" s="208"/>
+      <c r="H6" s="208"/>
+      <c r="I6" s="208"/>
+      <c r="J6" s="208"/>
+      <c r="K6" s="208"/>
+      <c r="L6" s="186"/>
+      <c r="M6" s="186"/>
     </row>
     <row r="7" spans="1:13" ht="15.75" customHeight="1">
-      <c r="A7" s="207"/>
-      <c r="B7" s="215"/>
+      <c r="A7" s="223"/>
+      <c r="B7" s="226"/>
       <c r="C7" s="32" t="s">
         <v>15</v>
       </c>
       <c r="D7" s="4" t="s">
         <v>20</v>
       </c>
-      <c r="E7" s="196"/>
-      <c r="F7" s="204"/>
-      <c r="G7" s="190"/>
-      <c r="H7" s="190"/>
-      <c r="I7" s="190"/>
-      <c r="J7" s="190"/>
-      <c r="K7" s="190"/>
-      <c r="L7" s="238"/>
-      <c r="M7" s="238"/>
+      <c r="E7" s="211"/>
+      <c r="F7" s="238"/>
+      <c r="G7" s="208"/>
+      <c r="H7" s="208"/>
+      <c r="I7" s="208"/>
+      <c r="J7" s="208"/>
+      <c r="K7" s="208"/>
+      <c r="L7" s="186"/>
+      <c r="M7" s="186"/>
     </row>
     <row r="8" spans="1:13" ht="15.75" customHeight="1" thickBot="1">
-      <c r="A8" s="208"/>
-      <c r="B8" s="216"/>
+      <c r="A8" s="224"/>
+      <c r="B8" s="227"/>
       <c r="C8" s="9" t="s">
         <v>23</v>
       </c>
       <c r="D8" s="5" t="s">
         <v>24</v>
       </c>
-      <c r="E8" s="202"/>
-      <c r="F8" s="205"/>
-      <c r="G8" s="195"/>
-      <c r="H8" s="195"/>
-      <c r="I8" s="195"/>
-      <c r="J8" s="195"/>
-      <c r="K8" s="195"/>
-      <c r="L8" s="264"/>
-      <c r="M8" s="264"/>
+      <c r="E8" s="264"/>
+      <c r="F8" s="266"/>
+      <c r="G8" s="263"/>
+      <c r="H8" s="263"/>
+      <c r="I8" s="263"/>
+      <c r="J8" s="263"/>
+      <c r="K8" s="263"/>
+      <c r="L8" s="199"/>
+      <c r="M8" s="199"/>
     </row>
     <row r="9" spans="1:13" ht="15.75" customHeight="1">
-      <c r="A9" s="232">
+      <c r="A9" s="229">
         <v>2</v>
       </c>
-      <c r="B9" s="214" t="s">
+      <c r="B9" s="225" t="s">
         <v>25</v>
       </c>
       <c r="C9" s="10" t="s">
@@ -13203,864 +13209,864 @@
       <c r="D9" s="3" t="s">
         <v>286</v>
       </c>
-      <c r="E9" s="197"/>
-      <c r="F9" s="198" t="s">
+      <c r="E9" s="242"/>
+      <c r="F9" s="221" t="s">
         <v>192</v>
       </c>
-      <c r="G9" s="200" t="s">
+      <c r="G9" s="236" t="s">
         <v>13</v>
       </c>
-      <c r="H9" s="241"/>
-      <c r="I9" s="242" t="s">
+      <c r="H9" s="220"/>
+      <c r="I9" s="240" t="s">
         <v>184</v>
       </c>
-      <c r="J9" s="198" t="s">
+      <c r="J9" s="221" t="s">
         <v>194</v>
       </c>
-      <c r="K9" s="198" t="s">
+      <c r="K9" s="221" t="s">
         <v>195</v>
       </c>
-      <c r="L9" s="200" t="s">
+      <c r="L9" s="236" t="s">
         <v>329</v>
       </c>
-      <c r="M9" s="265"/>
+      <c r="M9" s="200"/>
     </row>
     <row r="10" spans="1:13" ht="15.75" customHeight="1">
       <c r="A10" s="230"/>
-      <c r="B10" s="215"/>
+      <c r="B10" s="226"/>
       <c r="C10" s="11" t="s">
         <v>26</v>
       </c>
       <c r="D10" s="4"/>
-      <c r="E10" s="189"/>
-      <c r="F10" s="199"/>
-      <c r="G10" s="192"/>
-      <c r="H10" s="193"/>
-      <c r="I10" s="243"/>
-      <c r="J10" s="199"/>
-      <c r="K10" s="199"/>
-      <c r="L10" s="236"/>
-      <c r="M10" s="266"/>
+      <c r="E10" s="203"/>
+      <c r="F10" s="210"/>
+      <c r="G10" s="214"/>
+      <c r="H10" s="206"/>
+      <c r="I10" s="241"/>
+      <c r="J10" s="210"/>
+      <c r="K10" s="210"/>
+      <c r="L10" s="237"/>
+      <c r="M10" s="201"/>
     </row>
     <row r="11" spans="1:13" ht="15.75" customHeight="1" thickBot="1">
-      <c r="A11" s="227">
+      <c r="A11" s="248">
         <v>3</v>
       </c>
-      <c r="B11" s="215"/>
+      <c r="B11" s="226"/>
       <c r="C11" s="11" t="s">
         <v>263</v>
       </c>
       <c r="D11" s="4"/>
-      <c r="E11" s="196"/>
-      <c r="F11" s="204"/>
-      <c r="G11" s="190"/>
-      <c r="H11" s="190" t="s">
+      <c r="E11" s="211"/>
+      <c r="F11" s="238"/>
+      <c r="G11" s="208"/>
+      <c r="H11" s="208" t="s">
         <v>198</v>
       </c>
-      <c r="I11" s="190" t="s">
+      <c r="I11" s="208" t="s">
         <v>196</v>
       </c>
-      <c r="J11" s="190"/>
-      <c r="K11" s="190"/>
+      <c r="J11" s="208"/>
+      <c r="K11" s="208"/>
       <c r="L11" s="235" t="s">
         <v>330</v>
       </c>
-      <c r="M11" s="238"/>
+      <c r="M11" s="186"/>
     </row>
     <row r="12" spans="1:13" ht="15.75" customHeight="1">
-      <c r="A12" s="228"/>
-      <c r="B12" s="215"/>
+      <c r="A12" s="249"/>
+      <c r="B12" s="226"/>
       <c r="C12" s="11" t="s">
         <v>28</v>
       </c>
       <c r="D12" s="10"/>
-      <c r="E12" s="196"/>
-      <c r="F12" s="204"/>
-      <c r="G12" s="190"/>
-      <c r="H12" s="190"/>
-      <c r="I12" s="190"/>
-      <c r="J12" s="190"/>
-      <c r="K12" s="190"/>
+      <c r="E12" s="211"/>
+      <c r="F12" s="238"/>
+      <c r="G12" s="208"/>
+      <c r="H12" s="208"/>
+      <c r="I12" s="208"/>
+      <c r="J12" s="208"/>
+      <c r="K12" s="208"/>
       <c r="L12" s="235"/>
-      <c r="M12" s="238"/>
+      <c r="M12" s="186"/>
     </row>
     <row r="13" spans="1:13" ht="15.75" customHeight="1">
-      <c r="A13" s="229">
+      <c r="A13" s="250">
         <v>4</v>
       </c>
-      <c r="B13" s="215"/>
+      <c r="B13" s="226"/>
       <c r="C13" s="11" t="s">
         <v>29</v>
       </c>
       <c r="D13" s="11"/>
-      <c r="E13" s="189"/>
-      <c r="F13" s="191" t="s">
+      <c r="E13" s="203"/>
+      <c r="F13" s="262" t="s">
         <v>36</v>
       </c>
-      <c r="G13" s="192" t="s">
+      <c r="G13" s="214" t="s">
         <v>33</v>
       </c>
-      <c r="H13" s="193"/>
-      <c r="I13" s="192" t="s">
+      <c r="H13" s="206"/>
+      <c r="I13" s="214" t="s">
         <v>331</v>
       </c>
-      <c r="J13" s="193"/>
-      <c r="K13" s="193"/>
-      <c r="L13" s="256"/>
-      <c r="M13" s="256"/>
+      <c r="J13" s="206"/>
+      <c r="K13" s="206"/>
+      <c r="L13" s="187"/>
+      <c r="M13" s="187"/>
     </row>
     <row r="14" spans="1:13" ht="15.75" customHeight="1">
       <c r="A14" s="230"/>
-      <c r="B14" s="215"/>
+      <c r="B14" s="226"/>
       <c r="C14" s="32" t="s">
         <v>30</v>
       </c>
       <c r="D14" s="4"/>
-      <c r="E14" s="189"/>
-      <c r="F14" s="191"/>
-      <c r="G14" s="192"/>
-      <c r="H14" s="193"/>
-      <c r="I14" s="192"/>
-      <c r="J14" s="193"/>
-      <c r="K14" s="193"/>
-      <c r="L14" s="256"/>
-      <c r="M14" s="256"/>
+      <c r="E14" s="203"/>
+      <c r="F14" s="262"/>
+      <c r="G14" s="214"/>
+      <c r="H14" s="206"/>
+      <c r="I14" s="214"/>
+      <c r="J14" s="206"/>
+      <c r="K14" s="206"/>
+      <c r="L14" s="187"/>
+      <c r="M14" s="187"/>
     </row>
     <row r="15" spans="1:13" ht="15.75" customHeight="1">
-      <c r="A15" s="227">
+      <c r="A15" s="248">
         <v>5</v>
       </c>
-      <c r="B15" s="215"/>
+      <c r="B15" s="226"/>
       <c r="C15" s="233" t="s">
         <v>31</v>
       </c>
       <c r="D15" s="4"/>
-      <c r="E15" s="196" t="s">
+      <c r="E15" s="211" t="s">
         <v>27</v>
       </c>
-      <c r="F15" s="204"/>
-      <c r="G15" s="190"/>
-      <c r="H15" s="190"/>
-      <c r="I15" s="190"/>
-      <c r="J15" s="190"/>
-      <c r="K15" s="190"/>
-      <c r="L15" s="238"/>
-      <c r="M15" s="238"/>
+      <c r="F15" s="238"/>
+      <c r="G15" s="208"/>
+      <c r="H15" s="208"/>
+      <c r="I15" s="208"/>
+      <c r="J15" s="208"/>
+      <c r="K15" s="208"/>
+      <c r="L15" s="186"/>
+      <c r="M15" s="186"/>
     </row>
     <row r="16" spans="1:13" ht="15.75" customHeight="1" thickBot="1">
-      <c r="A16" s="231"/>
-      <c r="B16" s="220"/>
+      <c r="A16" s="251"/>
+      <c r="B16" s="228"/>
       <c r="C16" s="234"/>
       <c r="D16" s="5"/>
-      <c r="E16" s="244"/>
-      <c r="F16" s="240"/>
-      <c r="G16" s="237"/>
-      <c r="H16" s="237"/>
-      <c r="I16" s="237"/>
-      <c r="J16" s="237"/>
-      <c r="K16" s="237"/>
-      <c r="L16" s="239"/>
-      <c r="M16" s="239"/>
+      <c r="E16" s="212"/>
+      <c r="F16" s="239"/>
+      <c r="G16" s="209"/>
+      <c r="H16" s="209"/>
+      <c r="I16" s="209"/>
+      <c r="J16" s="209"/>
+      <c r="K16" s="209"/>
+      <c r="L16" s="191"/>
+      <c r="M16" s="191"/>
     </row>
     <row r="17" spans="1:13" ht="15.75" customHeight="1">
-      <c r="A17" s="217">
+      <c r="A17" s="252">
         <v>6</v>
       </c>
-      <c r="B17" s="214" t="s">
+      <c r="B17" s="225" t="s">
         <v>34</v>
       </c>
       <c r="C17" s="10" t="s">
         <v>35</v>
       </c>
       <c r="D17" s="3"/>
-      <c r="E17" s="197"/>
-      <c r="F17" s="241"/>
-      <c r="G17" s="241"/>
-      <c r="H17" s="198" t="s">
+      <c r="E17" s="242"/>
+      <c r="F17" s="220"/>
+      <c r="G17" s="220"/>
+      <c r="H17" s="221" t="s">
         <v>27</v>
       </c>
-      <c r="I17" s="198"/>
-      <c r="J17" s="198"/>
-      <c r="K17" s="198"/>
-      <c r="L17" s="263"/>
-      <c r="M17" s="263"/>
+      <c r="I17" s="221"/>
+      <c r="J17" s="221"/>
+      <c r="K17" s="221"/>
+      <c r="L17" s="195"/>
+      <c r="M17" s="195"/>
     </row>
     <row r="18" spans="1:13" ht="15.75" customHeight="1">
-      <c r="A18" s="206"/>
-      <c r="B18" s="215"/>
+      <c r="A18" s="231"/>
+      <c r="B18" s="226"/>
       <c r="C18" s="11" t="s">
         <v>37</v>
       </c>
       <c r="D18" s="4"/>
-      <c r="E18" s="189"/>
-      <c r="F18" s="193"/>
-      <c r="G18" s="193"/>
-      <c r="H18" s="199"/>
-      <c r="I18" s="199"/>
-      <c r="J18" s="199"/>
-      <c r="K18" s="199"/>
-      <c r="L18" s="249"/>
-      <c r="M18" s="249"/>
+      <c r="E18" s="203"/>
+      <c r="F18" s="206"/>
+      <c r="G18" s="206"/>
+      <c r="H18" s="210"/>
+      <c r="I18" s="210"/>
+      <c r="J18" s="210"/>
+      <c r="K18" s="210"/>
+      <c r="L18" s="190"/>
+      <c r="M18" s="190"/>
     </row>
     <row r="19" spans="1:13" ht="15.75" customHeight="1">
-      <c r="A19" s="206"/>
-      <c r="B19" s="215"/>
+      <c r="A19" s="231"/>
+      <c r="B19" s="226"/>
       <c r="C19" s="11" t="s">
         <v>38</v>
       </c>
       <c r="D19" s="4"/>
-      <c r="E19" s="189"/>
-      <c r="F19" s="193"/>
-      <c r="G19" s="193"/>
-      <c r="H19" s="199"/>
-      <c r="I19" s="199"/>
-      <c r="J19" s="199"/>
-      <c r="K19" s="199"/>
-      <c r="L19" s="249"/>
-      <c r="M19" s="249"/>
+      <c r="E19" s="203"/>
+      <c r="F19" s="206"/>
+      <c r="G19" s="206"/>
+      <c r="H19" s="210"/>
+      <c r="I19" s="210"/>
+      <c r="J19" s="210"/>
+      <c r="K19" s="210"/>
+      <c r="L19" s="190"/>
+      <c r="M19" s="190"/>
     </row>
     <row r="20" spans="1:13" ht="15.75" customHeight="1">
-      <c r="A20" s="207">
+      <c r="A20" s="223">
         <v>7</v>
       </c>
-      <c r="B20" s="215"/>
+      <c r="B20" s="226"/>
       <c r="C20" s="11" t="s">
         <v>39</v>
       </c>
       <c r="D20" s="4"/>
-      <c r="E20" s="196" t="s">
+      <c r="E20" s="211" t="s">
         <v>32</v>
       </c>
-      <c r="F20" s="251" t="s">
+      <c r="F20" s="219" t="s">
         <v>44</v>
       </c>
-      <c r="G20" s="251"/>
-      <c r="H20" s="251"/>
-      <c r="I20" s="251"/>
-      <c r="J20" s="251"/>
-      <c r="K20" s="251"/>
-      <c r="L20" s="252"/>
-      <c r="M20" s="252"/>
+      <c r="G20" s="219"/>
+      <c r="H20" s="219"/>
+      <c r="I20" s="219"/>
+      <c r="J20" s="219"/>
+      <c r="K20" s="219"/>
+      <c r="L20" s="196"/>
+      <c r="M20" s="196"/>
     </row>
     <row r="21" spans="1:13" ht="15.75" customHeight="1">
-      <c r="A21" s="207"/>
-      <c r="B21" s="215"/>
+      <c r="A21" s="223"/>
+      <c r="B21" s="226"/>
       <c r="C21" s="11" t="s">
         <v>41</v>
       </c>
       <c r="D21" s="4"/>
-      <c r="E21" s="196"/>
-      <c r="F21" s="251"/>
-      <c r="G21" s="251"/>
-      <c r="H21" s="251"/>
-      <c r="I21" s="251"/>
-      <c r="J21" s="251"/>
-      <c r="K21" s="251"/>
-      <c r="L21" s="252"/>
-      <c r="M21" s="252"/>
+      <c r="E21" s="211"/>
+      <c r="F21" s="219"/>
+      <c r="G21" s="219"/>
+      <c r="H21" s="219"/>
+      <c r="I21" s="219"/>
+      <c r="J21" s="219"/>
+      <c r="K21" s="219"/>
+      <c r="L21" s="196"/>
+      <c r="M21" s="196"/>
     </row>
     <row r="22" spans="1:13" ht="15.75" customHeight="1">
-      <c r="A22" s="207"/>
-      <c r="B22" s="215"/>
+      <c r="A22" s="223"/>
+      <c r="B22" s="226"/>
       <c r="C22" s="32" t="s">
         <v>42</v>
       </c>
       <c r="D22" s="4"/>
-      <c r="E22" s="196"/>
-      <c r="F22" s="251"/>
-      <c r="G22" s="251"/>
-      <c r="H22" s="251"/>
-      <c r="I22" s="251"/>
-      <c r="J22" s="251"/>
-      <c r="K22" s="251"/>
-      <c r="L22" s="252"/>
-      <c r="M22" s="252"/>
+      <c r="E22" s="211"/>
+      <c r="F22" s="219"/>
+      <c r="G22" s="219"/>
+      <c r="H22" s="219"/>
+      <c r="I22" s="219"/>
+      <c r="J22" s="219"/>
+      <c r="K22" s="219"/>
+      <c r="L22" s="196"/>
+      <c r="M22" s="196"/>
     </row>
     <row r="23" spans="1:13" ht="15.75" customHeight="1">
-      <c r="A23" s="206">
+      <c r="A23" s="231">
         <v>8</v>
       </c>
-      <c r="B23" s="215"/>
+      <c r="B23" s="226"/>
       <c r="C23" s="32" t="s">
         <v>43</v>
       </c>
       <c r="D23" s="4"/>
-      <c r="E23" s="189"/>
-      <c r="F23" s="193"/>
-      <c r="G23" s="192" t="s">
+      <c r="E23" s="203"/>
+      <c r="F23" s="206"/>
+      <c r="G23" s="214" t="s">
         <v>50</v>
       </c>
-      <c r="H23" s="199" t="s">
+      <c r="H23" s="210" t="s">
         <v>32</v>
       </c>
-      <c r="I23" s="199"/>
-      <c r="J23" s="199"/>
-      <c r="K23" s="199"/>
-      <c r="L23" s="249"/>
-      <c r="M23" s="249"/>
+      <c r="I23" s="210"/>
+      <c r="J23" s="210"/>
+      <c r="K23" s="210"/>
+      <c r="L23" s="190"/>
+      <c r="M23" s="190"/>
     </row>
     <row r="24" spans="1:13" ht="15.75" customHeight="1">
-      <c r="A24" s="206"/>
-      <c r="B24" s="215"/>
+      <c r="A24" s="231"/>
+      <c r="B24" s="226"/>
       <c r="C24" s="32" t="s">
         <v>45</v>
       </c>
       <c r="D24" s="4"/>
-      <c r="E24" s="189"/>
-      <c r="F24" s="193"/>
-      <c r="G24" s="192"/>
-      <c r="H24" s="199"/>
-      <c r="I24" s="199"/>
-      <c r="J24" s="199"/>
-      <c r="K24" s="199"/>
-      <c r="L24" s="249"/>
-      <c r="M24" s="249"/>
+      <c r="E24" s="203"/>
+      <c r="F24" s="206"/>
+      <c r="G24" s="214"/>
+      <c r="H24" s="210"/>
+      <c r="I24" s="210"/>
+      <c r="J24" s="210"/>
+      <c r="K24" s="210"/>
+      <c r="L24" s="190"/>
+      <c r="M24" s="190"/>
     </row>
     <row r="25" spans="1:13" ht="15.75" customHeight="1" thickBot="1">
-      <c r="A25" s="223"/>
-      <c r="B25" s="220"/>
+      <c r="A25" s="232"/>
+      <c r="B25" s="228"/>
       <c r="C25" s="33" t="s">
         <v>46</v>
       </c>
       <c r="D25" s="5"/>
-      <c r="E25" s="245"/>
-      <c r="F25" s="246"/>
-      <c r="G25" s="247"/>
-      <c r="H25" s="248"/>
-      <c r="I25" s="248"/>
-      <c r="J25" s="248"/>
-      <c r="K25" s="248"/>
-      <c r="L25" s="250"/>
-      <c r="M25" s="250"/>
+      <c r="E25" s="204"/>
+      <c r="F25" s="207"/>
+      <c r="G25" s="215"/>
+      <c r="H25" s="213"/>
+      <c r="I25" s="213"/>
+      <c r="J25" s="213"/>
+      <c r="K25" s="213"/>
+      <c r="L25" s="197"/>
+      <c r="M25" s="197"/>
     </row>
     <row r="26" spans="1:13" ht="15.75" customHeight="1">
-      <c r="A26" s="221">
+      <c r="A26" s="243">
         <v>9</v>
       </c>
-      <c r="B26" s="214" t="s">
+      <c r="B26" s="225" t="s">
         <v>47</v>
       </c>
       <c r="C26" s="12" t="s">
         <v>48</v>
       </c>
       <c r="D26" s="3"/>
-      <c r="E26" s="201" t="s">
+      <c r="E26" s="216" t="s">
         <v>40</v>
       </c>
-      <c r="F26" s="253" t="s">
+      <c r="F26" s="218" t="s">
         <v>53</v>
       </c>
-      <c r="G26" s="253"/>
-      <c r="H26" s="253"/>
-      <c r="I26" s="253"/>
-      <c r="J26" s="253"/>
-      <c r="K26" s="253"/>
-      <c r="L26" s="254"/>
-      <c r="M26" s="254"/>
+      <c r="G26" s="218"/>
+      <c r="H26" s="218"/>
+      <c r="I26" s="218"/>
+      <c r="J26" s="218"/>
+      <c r="K26" s="218"/>
+      <c r="L26" s="198"/>
+      <c r="M26" s="198"/>
     </row>
     <row r="27" spans="1:13" ht="15.75" customHeight="1">
-      <c r="A27" s="222"/>
-      <c r="B27" s="215"/>
+      <c r="A27" s="244"/>
+      <c r="B27" s="226"/>
       <c r="C27" s="13" t="s">
         <v>51</v>
       </c>
       <c r="D27" s="4"/>
-      <c r="E27" s="196"/>
-      <c r="F27" s="251"/>
-      <c r="G27" s="251"/>
-      <c r="H27" s="251"/>
-      <c r="I27" s="251"/>
-      <c r="J27" s="251"/>
-      <c r="K27" s="251"/>
-      <c r="L27" s="252"/>
-      <c r="M27" s="252"/>
+      <c r="E27" s="211"/>
+      <c r="F27" s="219"/>
+      <c r="G27" s="219"/>
+      <c r="H27" s="219"/>
+      <c r="I27" s="219"/>
+      <c r="J27" s="219"/>
+      <c r="K27" s="219"/>
+      <c r="L27" s="196"/>
+      <c r="M27" s="196"/>
     </row>
     <row r="28" spans="1:13" ht="15.75" customHeight="1">
-      <c r="A28" s="223">
+      <c r="A28" s="232">
         <v>10</v>
       </c>
-      <c r="B28" s="215"/>
+      <c r="B28" s="226"/>
       <c r="C28" s="13" t="s">
         <v>52</v>
       </c>
       <c r="D28" s="4"/>
-      <c r="E28" s="189"/>
-      <c r="F28" s="199" t="s">
+      <c r="E28" s="203"/>
+      <c r="F28" s="210" t="s">
         <v>59</v>
       </c>
-      <c r="G28" s="199"/>
-      <c r="H28" s="199" t="s">
+      <c r="G28" s="210"/>
+      <c r="H28" s="210" t="s">
         <v>40</v>
       </c>
-      <c r="I28" s="199"/>
-      <c r="J28" s="199"/>
-      <c r="K28" s="199"/>
-      <c r="L28" s="249"/>
-      <c r="M28" s="249"/>
+      <c r="I28" s="210"/>
+      <c r="J28" s="210"/>
+      <c r="K28" s="210"/>
+      <c r="L28" s="190"/>
+      <c r="M28" s="190"/>
     </row>
     <row r="29" spans="1:13" ht="15.75" customHeight="1">
-      <c r="A29" s="224"/>
-      <c r="B29" s="215"/>
+      <c r="A29" s="245"/>
+      <c r="B29" s="226"/>
       <c r="C29" s="13" t="s">
         <v>54</v>
       </c>
       <c r="D29" s="4"/>
-      <c r="E29" s="189"/>
-      <c r="F29" s="199"/>
-      <c r="G29" s="199"/>
-      <c r="H29" s="199"/>
-      <c r="I29" s="199"/>
-      <c r="J29" s="199"/>
-      <c r="K29" s="199"/>
-      <c r="L29" s="249"/>
-      <c r="M29" s="249"/>
+      <c r="E29" s="203"/>
+      <c r="F29" s="210"/>
+      <c r="G29" s="210"/>
+      <c r="H29" s="210"/>
+      <c r="I29" s="210"/>
+      <c r="J29" s="210"/>
+      <c r="K29" s="210"/>
+      <c r="L29" s="190"/>
+      <c r="M29" s="190"/>
     </row>
     <row r="30" spans="1:13" ht="15.75" customHeight="1">
-      <c r="A30" s="225">
+      <c r="A30" s="246">
         <v>11</v>
       </c>
-      <c r="B30" s="215"/>
+      <c r="B30" s="226"/>
       <c r="C30" s="13" t="s">
         <v>55</v>
       </c>
       <c r="D30" s="4"/>
-      <c r="E30" s="196" t="s">
+      <c r="E30" s="211" t="s">
         <v>49</v>
       </c>
-      <c r="F30" s="190"/>
-      <c r="G30" s="190"/>
-      <c r="H30" s="190"/>
-      <c r="I30" s="190"/>
-      <c r="J30" s="190"/>
-      <c r="K30" s="190"/>
-      <c r="L30" s="238"/>
-      <c r="M30" s="238"/>
+      <c r="F30" s="208"/>
+      <c r="G30" s="208"/>
+      <c r="H30" s="208"/>
+      <c r="I30" s="208"/>
+      <c r="J30" s="208"/>
+      <c r="K30" s="208"/>
+      <c r="L30" s="186"/>
+      <c r="M30" s="186"/>
     </row>
     <row r="31" spans="1:13" ht="15.75" customHeight="1">
-      <c r="A31" s="222"/>
-      <c r="B31" s="215"/>
+      <c r="A31" s="244"/>
+      <c r="B31" s="226"/>
       <c r="C31" s="14" t="s">
         <v>57</v>
       </c>
       <c r="D31" s="4"/>
-      <c r="E31" s="196"/>
-      <c r="F31" s="190"/>
-      <c r="G31" s="190"/>
-      <c r="H31" s="190"/>
-      <c r="I31" s="190"/>
-      <c r="J31" s="190"/>
-      <c r="K31" s="190"/>
-      <c r="L31" s="238"/>
-      <c r="M31" s="238"/>
+      <c r="E31" s="211"/>
+      <c r="F31" s="208"/>
+      <c r="G31" s="208"/>
+      <c r="H31" s="208"/>
+      <c r="I31" s="208"/>
+      <c r="J31" s="208"/>
+      <c r="K31" s="208"/>
+      <c r="L31" s="186"/>
+      <c r="M31" s="186"/>
     </row>
     <row r="32" spans="1:13" ht="15.75" customHeight="1">
-      <c r="A32" s="223">
+      <c r="A32" s="232">
         <v>12</v>
       </c>
-      <c r="B32" s="215"/>
+      <c r="B32" s="226"/>
       <c r="C32" s="14" t="s">
         <v>58</v>
       </c>
       <c r="D32" s="4"/>
-      <c r="E32" s="189"/>
-      <c r="F32" s="199" t="s">
+      <c r="E32" s="203"/>
+      <c r="F32" s="210" t="s">
         <v>67</v>
       </c>
-      <c r="G32" s="192" t="s">
+      <c r="G32" s="214" t="s">
         <v>64</v>
       </c>
-      <c r="H32" s="199" t="s">
+      <c r="H32" s="210" t="s">
         <v>49</v>
       </c>
-      <c r="I32" s="199"/>
-      <c r="J32" s="199"/>
-      <c r="K32" s="199"/>
-      <c r="L32" s="249"/>
-      <c r="M32" s="249"/>
+      <c r="I32" s="210"/>
+      <c r="J32" s="210"/>
+      <c r="K32" s="210"/>
+      <c r="L32" s="190"/>
+      <c r="M32" s="190"/>
     </row>
     <row r="33" spans="1:13" ht="15.75" customHeight="1" thickBot="1">
-      <c r="A33" s="226"/>
-      <c r="B33" s="220"/>
+      <c r="A33" s="247"/>
+      <c r="B33" s="228"/>
       <c r="C33" s="15" t="s">
         <v>60</v>
       </c>
       <c r="D33" s="5"/>
-      <c r="E33" s="245"/>
-      <c r="F33" s="248"/>
-      <c r="G33" s="247"/>
-      <c r="H33" s="248"/>
-      <c r="I33" s="248"/>
-      <c r="J33" s="248"/>
-      <c r="K33" s="248"/>
-      <c r="L33" s="250"/>
-      <c r="M33" s="250"/>
+      <c r="E33" s="204"/>
+      <c r="F33" s="213"/>
+      <c r="G33" s="215"/>
+      <c r="H33" s="213"/>
+      <c r="I33" s="213"/>
+      <c r="J33" s="213"/>
+      <c r="K33" s="213"/>
+      <c r="L33" s="197"/>
+      <c r="M33" s="197"/>
     </row>
     <row r="34" spans="1:13" ht="15.75" customHeight="1">
-      <c r="A34" s="219">
+      <c r="A34" s="222">
         <v>13</v>
       </c>
-      <c r="B34" s="214" t="s">
+      <c r="B34" s="225" t="s">
         <v>61</v>
       </c>
       <c r="C34" s="16" t="s">
         <v>62</v>
       </c>
       <c r="D34" s="3"/>
-      <c r="E34" s="201" t="s">
+      <c r="E34" s="216" t="s">
         <v>56</v>
       </c>
-      <c r="F34" s="194"/>
-      <c r="G34" s="194"/>
-      <c r="H34" s="194"/>
-      <c r="I34" s="194"/>
-      <c r="J34" s="194"/>
-      <c r="K34" s="194"/>
-      <c r="L34" s="255"/>
-      <c r="M34" s="255"/>
+      <c r="F34" s="217"/>
+      <c r="G34" s="217"/>
+      <c r="H34" s="217"/>
+      <c r="I34" s="217"/>
+      <c r="J34" s="217"/>
+      <c r="K34" s="217"/>
+      <c r="L34" s="189"/>
+      <c r="M34" s="189"/>
     </row>
     <row r="35" spans="1:13" ht="15.75" customHeight="1">
-      <c r="A35" s="207"/>
-      <c r="B35" s="215"/>
+      <c r="A35" s="223"/>
+      <c r="B35" s="226"/>
       <c r="C35" s="17" t="s">
         <v>65</v>
       </c>
       <c r="D35" s="4"/>
-      <c r="E35" s="196"/>
-      <c r="F35" s="190"/>
-      <c r="G35" s="190"/>
-      <c r="H35" s="190"/>
-      <c r="I35" s="190"/>
-      <c r="J35" s="190"/>
-      <c r="K35" s="190"/>
-      <c r="L35" s="238"/>
-      <c r="M35" s="238"/>
+      <c r="E35" s="211"/>
+      <c r="F35" s="208"/>
+      <c r="G35" s="208"/>
+      <c r="H35" s="208"/>
+      <c r="I35" s="208"/>
+      <c r="J35" s="208"/>
+      <c r="K35" s="208"/>
+      <c r="L35" s="186"/>
+      <c r="M35" s="186"/>
     </row>
     <row r="36" spans="1:13" ht="15.75" customHeight="1">
-      <c r="A36" s="206">
+      <c r="A36" s="231">
         <v>14</v>
       </c>
-      <c r="B36" s="215"/>
+      <c r="B36" s="226"/>
       <c r="C36" s="17" t="s">
         <v>66</v>
       </c>
       <c r="D36" s="4"/>
-      <c r="E36" s="189"/>
-      <c r="F36" s="193" t="s">
+      <c r="E36" s="203"/>
+      <c r="F36" s="206" t="s">
         <v>73</v>
       </c>
-      <c r="G36" s="193"/>
-      <c r="H36" s="193" t="s">
+      <c r="G36" s="206"/>
+      <c r="H36" s="206" t="s">
         <v>56</v>
       </c>
-      <c r="I36" s="193"/>
-      <c r="J36" s="193"/>
-      <c r="K36" s="193"/>
-      <c r="L36" s="256"/>
-      <c r="M36" s="256"/>
+      <c r="I36" s="206"/>
+      <c r="J36" s="206"/>
+      <c r="K36" s="206"/>
+      <c r="L36" s="187"/>
+      <c r="M36" s="187"/>
     </row>
     <row r="37" spans="1:13" ht="15.75" customHeight="1">
-      <c r="A37" s="206"/>
-      <c r="B37" s="215"/>
+      <c r="A37" s="231"/>
+      <c r="B37" s="226"/>
       <c r="C37" s="17" t="s">
         <v>68</v>
       </c>
       <c r="D37" s="4"/>
-      <c r="E37" s="189"/>
-      <c r="F37" s="193"/>
-      <c r="G37" s="193"/>
-      <c r="H37" s="193"/>
-      <c r="I37" s="193"/>
-      <c r="J37" s="193"/>
-      <c r="K37" s="193"/>
-      <c r="L37" s="256"/>
-      <c r="M37" s="256"/>
+      <c r="E37" s="203"/>
+      <c r="F37" s="206"/>
+      <c r="G37" s="206"/>
+      <c r="H37" s="206"/>
+      <c r="I37" s="206"/>
+      <c r="J37" s="206"/>
+      <c r="K37" s="206"/>
+      <c r="L37" s="187"/>
+      <c r="M37" s="187"/>
     </row>
     <row r="38" spans="1:13" ht="15.75" customHeight="1">
-      <c r="A38" s="207">
+      <c r="A38" s="223">
         <v>15</v>
       </c>
-      <c r="B38" s="215"/>
+      <c r="B38" s="226"/>
       <c r="C38" s="17" t="s">
         <v>69</v>
       </c>
       <c r="D38" s="4"/>
-      <c r="E38" s="196" t="s">
+      <c r="E38" s="211" t="s">
         <v>63</v>
       </c>
-      <c r="F38" s="190"/>
-      <c r="G38" s="190"/>
-      <c r="H38" s="190"/>
-      <c r="I38" s="190"/>
-      <c r="J38" s="190"/>
-      <c r="K38" s="190"/>
-      <c r="L38" s="238"/>
-      <c r="M38" s="238"/>
+      <c r="F38" s="208"/>
+      <c r="G38" s="208"/>
+      <c r="H38" s="208"/>
+      <c r="I38" s="208"/>
+      <c r="J38" s="208"/>
+      <c r="K38" s="208"/>
+      <c r="L38" s="186"/>
+      <c r="M38" s="186"/>
     </row>
     <row r="39" spans="1:13" ht="15.75" customHeight="1">
-      <c r="A39" s="207"/>
-      <c r="B39" s="215"/>
+      <c r="A39" s="223"/>
+      <c r="B39" s="226"/>
       <c r="C39" s="32" t="s">
         <v>71</v>
       </c>
       <c r="D39" s="4"/>
-      <c r="E39" s="196"/>
-      <c r="F39" s="190"/>
-      <c r="G39" s="190"/>
-      <c r="H39" s="190"/>
-      <c r="I39" s="190"/>
-      <c r="J39" s="190"/>
-      <c r="K39" s="190"/>
-      <c r="L39" s="238"/>
-      <c r="M39" s="238"/>
+      <c r="E39" s="211"/>
+      <c r="F39" s="208"/>
+      <c r="G39" s="208"/>
+      <c r="H39" s="208"/>
+      <c r="I39" s="208"/>
+      <c r="J39" s="208"/>
+      <c r="K39" s="208"/>
+      <c r="L39" s="186"/>
+      <c r="M39" s="186"/>
     </row>
     <row r="40" spans="1:13" ht="15.75" customHeight="1">
-      <c r="A40" s="206">
+      <c r="A40" s="231">
         <v>16</v>
       </c>
-      <c r="B40" s="215"/>
+      <c r="B40" s="226"/>
       <c r="C40" s="32" t="s">
         <v>72</v>
       </c>
       <c r="D40" s="4"/>
-      <c r="E40" s="189"/>
-      <c r="F40" s="199" t="s">
+      <c r="E40" s="203"/>
+      <c r="F40" s="210" t="s">
         <v>82</v>
       </c>
-      <c r="G40" s="192" t="s">
+      <c r="G40" s="214" t="s">
         <v>79</v>
       </c>
-      <c r="H40" s="193" t="s">
+      <c r="H40" s="206" t="s">
         <v>63</v>
       </c>
-      <c r="I40" s="193"/>
-      <c r="J40" s="193"/>
-      <c r="K40" s="193"/>
-      <c r="L40" s="256"/>
-      <c r="M40" s="256"/>
+      <c r="I40" s="206"/>
+      <c r="J40" s="206"/>
+      <c r="K40" s="206"/>
+      <c r="L40" s="187"/>
+      <c r="M40" s="187"/>
     </row>
     <row r="41" spans="1:13" ht="15.75" customHeight="1">
-      <c r="A41" s="206"/>
-      <c r="B41" s="215"/>
+      <c r="A41" s="231"/>
+      <c r="B41" s="226"/>
       <c r="C41" s="32" t="s">
         <v>74</v>
       </c>
       <c r="D41" s="4"/>
-      <c r="E41" s="189"/>
-      <c r="F41" s="199"/>
-      <c r="G41" s="192"/>
-      <c r="H41" s="193"/>
-      <c r="I41" s="193"/>
-      <c r="J41" s="193"/>
-      <c r="K41" s="193"/>
-      <c r="L41" s="256"/>
-      <c r="M41" s="256"/>
+      <c r="E41" s="203"/>
+      <c r="F41" s="210"/>
+      <c r="G41" s="214"/>
+      <c r="H41" s="206"/>
+      <c r="I41" s="206"/>
+      <c r="J41" s="206"/>
+      <c r="K41" s="206"/>
+      <c r="L41" s="187"/>
+      <c r="M41" s="187"/>
     </row>
     <row r="42" spans="1:13" ht="15.75" customHeight="1" thickBot="1">
-      <c r="A42" s="218"/>
-      <c r="B42" s="216"/>
+      <c r="A42" s="258"/>
+      <c r="B42" s="227"/>
       <c r="C42" s="9" t="s">
         <v>75</v>
       </c>
       <c r="D42" s="5"/>
-      <c r="E42" s="245"/>
-      <c r="F42" s="248"/>
-      <c r="G42" s="247"/>
-      <c r="H42" s="246"/>
-      <c r="I42" s="246"/>
-      <c r="J42" s="246"/>
-      <c r="K42" s="246"/>
-      <c r="L42" s="257"/>
-      <c r="M42" s="257"/>
+      <c r="E42" s="204"/>
+      <c r="F42" s="213"/>
+      <c r="G42" s="215"/>
+      <c r="H42" s="207"/>
+      <c r="I42" s="207"/>
+      <c r="J42" s="207"/>
+      <c r="K42" s="207"/>
+      <c r="L42" s="188"/>
+      <c r="M42" s="188"/>
     </row>
     <row r="43" spans="1:13" ht="15.75" customHeight="1">
-      <c r="A43" s="219">
+      <c r="A43" s="222">
         <v>17</v>
       </c>
-      <c r="B43" s="209" t="s">
+      <c r="B43" s="253" t="s">
         <v>76</v>
       </c>
       <c r="C43" s="10" t="s">
         <v>77</v>
       </c>
       <c r="D43" s="3"/>
-      <c r="E43" s="201" t="s">
+      <c r="E43" s="216" t="s">
         <v>70</v>
       </c>
-      <c r="F43" s="194"/>
-      <c r="G43" s="194"/>
-      <c r="H43" s="194"/>
-      <c r="I43" s="194"/>
-      <c r="J43" s="194"/>
-      <c r="K43" s="194"/>
-      <c r="L43" s="255"/>
-      <c r="M43" s="255"/>
+      <c r="F43" s="217"/>
+      <c r="G43" s="217"/>
+      <c r="H43" s="217"/>
+      <c r="I43" s="217"/>
+      <c r="J43" s="217"/>
+      <c r="K43" s="217"/>
+      <c r="L43" s="189"/>
+      <c r="M43" s="189"/>
     </row>
     <row r="44" spans="1:13" ht="15.75" customHeight="1">
-      <c r="A44" s="207"/>
-      <c r="B44" s="210"/>
+      <c r="A44" s="223"/>
+      <c r="B44" s="254"/>
       <c r="C44" s="11" t="s">
         <v>80</v>
       </c>
       <c r="D44" s="4"/>
-      <c r="E44" s="196"/>
-      <c r="F44" s="190"/>
-      <c r="G44" s="190"/>
-      <c r="H44" s="190"/>
-      <c r="I44" s="190"/>
-      <c r="J44" s="190"/>
-      <c r="K44" s="190"/>
-      <c r="L44" s="238"/>
-      <c r="M44" s="238"/>
+      <c r="E44" s="211"/>
+      <c r="F44" s="208"/>
+      <c r="G44" s="208"/>
+      <c r="H44" s="208"/>
+      <c r="I44" s="208"/>
+      <c r="J44" s="208"/>
+      <c r="K44" s="208"/>
+      <c r="L44" s="186"/>
+      <c r="M44" s="186"/>
     </row>
     <row r="45" spans="1:13" ht="15.75" customHeight="1">
-      <c r="A45" s="206">
+      <c r="A45" s="231">
         <v>18</v>
       </c>
-      <c r="B45" s="210"/>
+      <c r="B45" s="254"/>
       <c r="C45" s="11" t="s">
         <v>81</v>
       </c>
       <c r="D45" s="4"/>
-      <c r="E45" s="189"/>
-      <c r="F45" s="199" t="s">
+      <c r="E45" s="203"/>
+      <c r="F45" s="210" t="s">
         <v>197</v>
       </c>
-      <c r="G45" s="193"/>
-      <c r="H45" s="199" t="s">
+      <c r="G45" s="206"/>
+      <c r="H45" s="210" t="s">
         <v>70</v>
       </c>
-      <c r="I45" s="199"/>
-      <c r="J45" s="199"/>
-      <c r="K45" s="199"/>
-      <c r="L45" s="249"/>
-      <c r="M45" s="249"/>
+      <c r="I45" s="210"/>
+      <c r="J45" s="210"/>
+      <c r="K45" s="210"/>
+      <c r="L45" s="190"/>
+      <c r="M45" s="190"/>
     </row>
     <row r="46" spans="1:13" ht="15.75" customHeight="1">
-      <c r="A46" s="206"/>
-      <c r="B46" s="210"/>
+      <c r="A46" s="231"/>
+      <c r="B46" s="254"/>
       <c r="C46" s="11" t="s">
         <v>83</v>
       </c>
       <c r="D46" s="4"/>
-      <c r="E46" s="189"/>
-      <c r="F46" s="199"/>
-      <c r="G46" s="193"/>
-      <c r="H46" s="199"/>
-      <c r="I46" s="199"/>
-      <c r="J46" s="199"/>
-      <c r="K46" s="199"/>
-      <c r="L46" s="249"/>
-      <c r="M46" s="249"/>
+      <c r="E46" s="203"/>
+      <c r="F46" s="210"/>
+      <c r="G46" s="206"/>
+      <c r="H46" s="210"/>
+      <c r="I46" s="210"/>
+      <c r="J46" s="210"/>
+      <c r="K46" s="210"/>
+      <c r="L46" s="190"/>
+      <c r="M46" s="190"/>
     </row>
     <row r="47" spans="1:13" ht="15.75" customHeight="1">
-      <c r="A47" s="207">
+      <c r="A47" s="223">
         <v>19</v>
       </c>
-      <c r="B47" s="210"/>
-      <c r="C47" s="212" t="s">
+      <c r="B47" s="254"/>
+      <c r="C47" s="256" t="s">
         <v>84</v>
       </c>
       <c r="D47" s="4"/>
-      <c r="E47" s="196" t="s">
+      <c r="E47" s="211" t="s">
         <v>78</v>
       </c>
-      <c r="F47" s="190"/>
-      <c r="G47" s="190"/>
-      <c r="H47" s="190"/>
-      <c r="I47" s="190"/>
-      <c r="J47" s="190"/>
-      <c r="K47" s="190"/>
-      <c r="L47" s="238"/>
-      <c r="M47" s="238"/>
+      <c r="F47" s="208"/>
+      <c r="G47" s="208"/>
+      <c r="H47" s="208"/>
+      <c r="I47" s="208"/>
+      <c r="J47" s="208"/>
+      <c r="K47" s="208"/>
+      <c r="L47" s="186"/>
+      <c r="M47" s="186"/>
     </row>
     <row r="48" spans="1:13" ht="15.75" customHeight="1" thickBot="1">
-      <c r="A48" s="208"/>
-      <c r="B48" s="211"/>
-      <c r="C48" s="213"/>
+      <c r="A48" s="224"/>
+      <c r="B48" s="255"/>
+      <c r="C48" s="257"/>
       <c r="D48" s="5"/>
-      <c r="E48" s="244"/>
-      <c r="F48" s="237"/>
-      <c r="G48" s="237"/>
-      <c r="H48" s="237"/>
-      <c r="I48" s="237"/>
-      <c r="J48" s="237"/>
-      <c r="K48" s="237"/>
-      <c r="L48" s="239"/>
-      <c r="M48" s="239"/>
+      <c r="E48" s="212"/>
+      <c r="F48" s="209"/>
+      <c r="G48" s="209"/>
+      <c r="H48" s="209"/>
+      <c r="I48" s="209"/>
+      <c r="J48" s="209"/>
+      <c r="K48" s="209"/>
+      <c r="L48" s="191"/>
+      <c r="M48" s="191"/>
     </row>
     <row r="49" spans="1:13" ht="15.75" customHeight="1">
-      <c r="A49" s="217">
+      <c r="A49" s="252">
         <v>20</v>
       </c>
-      <c r="B49" s="214" t="s">
+      <c r="B49" s="225" t="s">
         <v>85</v>
       </c>
       <c r="C49" s="10" t="s">
         <v>86</v>
       </c>
       <c r="D49" s="6"/>
-      <c r="E49" s="258"/>
-      <c r="F49" s="259"/>
-      <c r="G49" s="259"/>
-      <c r="H49" s="259" t="s">
+      <c r="E49" s="202"/>
+      <c r="F49" s="205"/>
+      <c r="G49" s="205"/>
+      <c r="H49" s="205" t="s">
         <v>78</v>
       </c>
-      <c r="I49" s="259"/>
-      <c r="J49" s="259"/>
-      <c r="K49" s="259"/>
-      <c r="L49" s="260"/>
-      <c r="M49" s="260"/>
+      <c r="I49" s="205"/>
+      <c r="J49" s="205"/>
+      <c r="K49" s="205"/>
+      <c r="L49" s="192"/>
+      <c r="M49" s="192"/>
     </row>
     <row r="50" spans="1:13" ht="15.75" customHeight="1">
-      <c r="A50" s="206"/>
-      <c r="B50" s="215"/>
+      <c r="A50" s="231"/>
+      <c r="B50" s="226"/>
       <c r="C50" s="11" t="s">
         <v>87</v>
       </c>
       <c r="D50" s="4"/>
-      <c r="E50" s="189"/>
-      <c r="F50" s="193"/>
-      <c r="G50" s="193"/>
-      <c r="H50" s="193"/>
-      <c r="I50" s="193"/>
-      <c r="J50" s="193"/>
-      <c r="K50" s="193"/>
-      <c r="L50" s="256"/>
-      <c r="M50" s="256"/>
+      <c r="E50" s="203"/>
+      <c r="F50" s="206"/>
+      <c r="G50" s="206"/>
+      <c r="H50" s="206"/>
+      <c r="I50" s="206"/>
+      <c r="J50" s="206"/>
+      <c r="K50" s="206"/>
+      <c r="L50" s="187"/>
+      <c r="M50" s="187"/>
     </row>
     <row r="51" spans="1:13" ht="15.75" customHeight="1">
-      <c r="A51" s="206"/>
-      <c r="B51" s="215"/>
+      <c r="A51" s="231"/>
+      <c r="B51" s="226"/>
       <c r="C51" s="11" t="s">
         <v>88</v>
       </c>
       <c r="D51" s="4"/>
-      <c r="E51" s="189"/>
-      <c r="F51" s="193"/>
-      <c r="G51" s="193"/>
-      <c r="H51" s="193"/>
-      <c r="I51" s="193"/>
-      <c r="J51" s="193"/>
-      <c r="K51" s="193"/>
-      <c r="L51" s="256"/>
-      <c r="M51" s="256"/>
+      <c r="E51" s="203"/>
+      <c r="F51" s="206"/>
+      <c r="G51" s="206"/>
+      <c r="H51" s="206"/>
+      <c r="I51" s="206"/>
+      <c r="J51" s="206"/>
+      <c r="K51" s="206"/>
+      <c r="L51" s="187"/>
+      <c r="M51" s="187"/>
     </row>
     <row r="52" spans="1:13" ht="15.75" customHeight="1" thickBot="1">
-      <c r="A52" s="218"/>
-      <c r="B52" s="216"/>
+      <c r="A52" s="258"/>
+      <c r="B52" s="227"/>
       <c r="C52" s="18" t="s">
         <v>89</v>
       </c>
       <c r="D52" s="5"/>
-      <c r="E52" s="245"/>
-      <c r="F52" s="246"/>
-      <c r="G52" s="246"/>
-      <c r="H52" s="246"/>
-      <c r="I52" s="246"/>
-      <c r="J52" s="246"/>
-      <c r="K52" s="246"/>
-      <c r="L52" s="257"/>
-      <c r="M52" s="257"/>
+      <c r="E52" s="204"/>
+      <c r="F52" s="207"/>
+      <c r="G52" s="207"/>
+      <c r="H52" s="207"/>
+      <c r="I52" s="207"/>
+      <c r="J52" s="207"/>
+      <c r="K52" s="207"/>
+      <c r="L52" s="188"/>
+      <c r="M52" s="188"/>
     </row>
     <row r="55" spans="1:13" ht="15.75" thickBot="1"/>
     <row r="56" spans="1:13" ht="15.75" thickBot="1">
@@ -14131,6 +14137,193 @@
     </row>
   </sheetData>
   <mergeCells count="211">
+    <mergeCell ref="I1:K1"/>
+    <mergeCell ref="E13:E14"/>
+    <mergeCell ref="H11:H12"/>
+    <mergeCell ref="F13:F14"/>
+    <mergeCell ref="G13:G14"/>
+    <mergeCell ref="H13:H14"/>
+    <mergeCell ref="I13:I14"/>
+    <mergeCell ref="J13:J14"/>
+    <mergeCell ref="K13:K14"/>
+    <mergeCell ref="J2:J8"/>
+    <mergeCell ref="K2:K8"/>
+    <mergeCell ref="E11:E12"/>
+    <mergeCell ref="E9:E10"/>
+    <mergeCell ref="F9:F10"/>
+    <mergeCell ref="G9:G10"/>
+    <mergeCell ref="E2:E8"/>
+    <mergeCell ref="F2:F8"/>
+    <mergeCell ref="G2:G8"/>
+    <mergeCell ref="H2:H8"/>
+    <mergeCell ref="I2:I8"/>
+    <mergeCell ref="I11:I12"/>
+    <mergeCell ref="A45:A46"/>
+    <mergeCell ref="A47:A48"/>
+    <mergeCell ref="B43:B48"/>
+    <mergeCell ref="C47:C48"/>
+    <mergeCell ref="B49:B52"/>
+    <mergeCell ref="A49:A52"/>
+    <mergeCell ref="A34:A35"/>
+    <mergeCell ref="A36:A37"/>
+    <mergeCell ref="A38:A39"/>
+    <mergeCell ref="A40:A42"/>
+    <mergeCell ref="B34:B42"/>
+    <mergeCell ref="A43:A44"/>
+    <mergeCell ref="B26:B33"/>
+    <mergeCell ref="A26:A27"/>
+    <mergeCell ref="A28:A29"/>
+    <mergeCell ref="A30:A31"/>
+    <mergeCell ref="A32:A33"/>
+    <mergeCell ref="A11:A12"/>
+    <mergeCell ref="A13:A14"/>
+    <mergeCell ref="A15:A16"/>
+    <mergeCell ref="A17:A19"/>
+    <mergeCell ref="A20:A22"/>
+    <mergeCell ref="A2:A8"/>
+    <mergeCell ref="B2:B8"/>
+    <mergeCell ref="B9:B16"/>
+    <mergeCell ref="A9:A10"/>
+    <mergeCell ref="A23:A25"/>
+    <mergeCell ref="B17:B25"/>
+    <mergeCell ref="C15:C16"/>
+    <mergeCell ref="L11:L12"/>
+    <mergeCell ref="J9:J10"/>
+    <mergeCell ref="K9:K10"/>
+    <mergeCell ref="L9:L10"/>
+    <mergeCell ref="K15:K16"/>
+    <mergeCell ref="L15:L16"/>
+    <mergeCell ref="F15:F16"/>
+    <mergeCell ref="G15:G16"/>
+    <mergeCell ref="H15:H16"/>
+    <mergeCell ref="I15:I16"/>
+    <mergeCell ref="J15:J16"/>
+    <mergeCell ref="H9:H10"/>
+    <mergeCell ref="I9:I10"/>
+    <mergeCell ref="F11:F12"/>
+    <mergeCell ref="G11:G12"/>
+    <mergeCell ref="E15:E16"/>
+    <mergeCell ref="E17:E19"/>
+    <mergeCell ref="F17:F19"/>
+    <mergeCell ref="G17:G19"/>
+    <mergeCell ref="H17:H19"/>
+    <mergeCell ref="I17:I19"/>
+    <mergeCell ref="J17:J19"/>
+    <mergeCell ref="K17:K19"/>
+    <mergeCell ref="J11:J12"/>
+    <mergeCell ref="K11:K12"/>
+    <mergeCell ref="E23:E25"/>
+    <mergeCell ref="F23:F25"/>
+    <mergeCell ref="G23:G25"/>
+    <mergeCell ref="H23:H25"/>
+    <mergeCell ref="I23:I25"/>
+    <mergeCell ref="J23:J25"/>
+    <mergeCell ref="K23:K25"/>
+    <mergeCell ref="L23:L25"/>
+    <mergeCell ref="H20:H22"/>
+    <mergeCell ref="F20:F22"/>
+    <mergeCell ref="G20:G22"/>
+    <mergeCell ref="I20:I22"/>
+    <mergeCell ref="J20:J22"/>
+    <mergeCell ref="K20:K22"/>
+    <mergeCell ref="L20:L22"/>
+    <mergeCell ref="E20:E22"/>
+    <mergeCell ref="F26:F27"/>
+    <mergeCell ref="G26:G27"/>
+    <mergeCell ref="H26:H27"/>
+    <mergeCell ref="I26:I27"/>
+    <mergeCell ref="J26:J27"/>
+    <mergeCell ref="E26:E27"/>
+    <mergeCell ref="K30:K31"/>
+    <mergeCell ref="L30:L31"/>
+    <mergeCell ref="K26:K27"/>
+    <mergeCell ref="L26:L27"/>
+    <mergeCell ref="E28:E29"/>
+    <mergeCell ref="F28:F29"/>
+    <mergeCell ref="G28:G29"/>
+    <mergeCell ref="H28:H29"/>
+    <mergeCell ref="I28:I29"/>
+    <mergeCell ref="J28:J29"/>
+    <mergeCell ref="K28:K29"/>
+    <mergeCell ref="L28:L29"/>
+    <mergeCell ref="E32:E33"/>
+    <mergeCell ref="F32:F33"/>
+    <mergeCell ref="G32:G33"/>
+    <mergeCell ref="H32:H33"/>
+    <mergeCell ref="I32:I33"/>
+    <mergeCell ref="J32:J33"/>
+    <mergeCell ref="K32:K33"/>
+    <mergeCell ref="L32:L33"/>
+    <mergeCell ref="F30:F31"/>
+    <mergeCell ref="G30:G31"/>
+    <mergeCell ref="H30:H31"/>
+    <mergeCell ref="I30:I31"/>
+    <mergeCell ref="J30:J31"/>
+    <mergeCell ref="E30:E31"/>
+    <mergeCell ref="E38:E39"/>
+    <mergeCell ref="F34:F35"/>
+    <mergeCell ref="G34:G35"/>
+    <mergeCell ref="H34:H35"/>
+    <mergeCell ref="I34:I35"/>
+    <mergeCell ref="J34:J35"/>
+    <mergeCell ref="E34:E35"/>
+    <mergeCell ref="K38:K39"/>
+    <mergeCell ref="L38:L39"/>
+    <mergeCell ref="F38:F39"/>
+    <mergeCell ref="G38:G39"/>
+    <mergeCell ref="H38:H39"/>
+    <mergeCell ref="I38:I39"/>
+    <mergeCell ref="J38:J39"/>
+    <mergeCell ref="K34:K35"/>
+    <mergeCell ref="L34:L35"/>
+    <mergeCell ref="E36:E37"/>
+    <mergeCell ref="F36:F37"/>
+    <mergeCell ref="G36:G37"/>
+    <mergeCell ref="H36:H37"/>
+    <mergeCell ref="I36:I37"/>
+    <mergeCell ref="J36:J37"/>
+    <mergeCell ref="K36:K37"/>
+    <mergeCell ref="L36:L37"/>
+    <mergeCell ref="E40:E42"/>
+    <mergeCell ref="F40:F42"/>
+    <mergeCell ref="G40:G42"/>
+    <mergeCell ref="H40:H42"/>
+    <mergeCell ref="I40:I42"/>
+    <mergeCell ref="J40:J42"/>
+    <mergeCell ref="K40:K42"/>
+    <mergeCell ref="L40:L42"/>
+    <mergeCell ref="E43:E44"/>
+    <mergeCell ref="K43:K44"/>
+    <mergeCell ref="L43:L44"/>
+    <mergeCell ref="F43:F44"/>
+    <mergeCell ref="G43:G44"/>
+    <mergeCell ref="H43:H44"/>
+    <mergeCell ref="I43:I44"/>
+    <mergeCell ref="J43:J44"/>
+    <mergeCell ref="E45:E46"/>
+    <mergeCell ref="F45:F46"/>
+    <mergeCell ref="G45:G46"/>
+    <mergeCell ref="H45:H46"/>
+    <mergeCell ref="I45:I46"/>
+    <mergeCell ref="J45:J46"/>
+    <mergeCell ref="K45:K46"/>
+    <mergeCell ref="L45:L46"/>
+    <mergeCell ref="E47:E48"/>
+    <mergeCell ref="K47:K48"/>
+    <mergeCell ref="L47:L48"/>
+    <mergeCell ref="E49:E52"/>
+    <mergeCell ref="F49:F52"/>
+    <mergeCell ref="G49:G52"/>
+    <mergeCell ref="H49:H52"/>
+    <mergeCell ref="I49:I52"/>
+    <mergeCell ref="J49:J52"/>
+    <mergeCell ref="K49:K52"/>
+    <mergeCell ref="L49:L52"/>
+    <mergeCell ref="F47:F48"/>
+    <mergeCell ref="G47:G48"/>
+    <mergeCell ref="H47:H48"/>
+    <mergeCell ref="I47:I48"/>
+    <mergeCell ref="J47:J48"/>
     <mergeCell ref="M38:M39"/>
     <mergeCell ref="M40:M42"/>
     <mergeCell ref="M43:M44"/>
@@ -14155,193 +14348,6 @@
     <mergeCell ref="L17:L19"/>
     <mergeCell ref="L13:L14"/>
     <mergeCell ref="L2:L8"/>
-    <mergeCell ref="E49:E52"/>
-    <mergeCell ref="F49:F52"/>
-    <mergeCell ref="G49:G52"/>
-    <mergeCell ref="H49:H52"/>
-    <mergeCell ref="I49:I52"/>
-    <mergeCell ref="J49:J52"/>
-    <mergeCell ref="K49:K52"/>
-    <mergeCell ref="L49:L52"/>
-    <mergeCell ref="F47:F48"/>
-    <mergeCell ref="G47:G48"/>
-    <mergeCell ref="H47:H48"/>
-    <mergeCell ref="I47:I48"/>
-    <mergeCell ref="J47:J48"/>
-    <mergeCell ref="E45:E46"/>
-    <mergeCell ref="F45:F46"/>
-    <mergeCell ref="G45:G46"/>
-    <mergeCell ref="H45:H46"/>
-    <mergeCell ref="I45:I46"/>
-    <mergeCell ref="J45:J46"/>
-    <mergeCell ref="K45:K46"/>
-    <mergeCell ref="L45:L46"/>
-    <mergeCell ref="E47:E48"/>
-    <mergeCell ref="K47:K48"/>
-    <mergeCell ref="L47:L48"/>
-    <mergeCell ref="E40:E42"/>
-    <mergeCell ref="F40:F42"/>
-    <mergeCell ref="G40:G42"/>
-    <mergeCell ref="H40:H42"/>
-    <mergeCell ref="I40:I42"/>
-    <mergeCell ref="J40:J42"/>
-    <mergeCell ref="K40:K42"/>
-    <mergeCell ref="L40:L42"/>
-    <mergeCell ref="E43:E44"/>
-    <mergeCell ref="K43:K44"/>
-    <mergeCell ref="L43:L44"/>
-    <mergeCell ref="F43:F44"/>
-    <mergeCell ref="G43:G44"/>
-    <mergeCell ref="H43:H44"/>
-    <mergeCell ref="I43:I44"/>
-    <mergeCell ref="J43:J44"/>
-    <mergeCell ref="E38:E39"/>
-    <mergeCell ref="F34:F35"/>
-    <mergeCell ref="G34:G35"/>
-    <mergeCell ref="H34:H35"/>
-    <mergeCell ref="I34:I35"/>
-    <mergeCell ref="J34:J35"/>
-    <mergeCell ref="E34:E35"/>
-    <mergeCell ref="K38:K39"/>
-    <mergeCell ref="L38:L39"/>
-    <mergeCell ref="F38:F39"/>
-    <mergeCell ref="G38:G39"/>
-    <mergeCell ref="H38:H39"/>
-    <mergeCell ref="I38:I39"/>
-    <mergeCell ref="J38:J39"/>
-    <mergeCell ref="K34:K35"/>
-    <mergeCell ref="L34:L35"/>
-    <mergeCell ref="E36:E37"/>
-    <mergeCell ref="F36:F37"/>
-    <mergeCell ref="G36:G37"/>
-    <mergeCell ref="H36:H37"/>
-    <mergeCell ref="I36:I37"/>
-    <mergeCell ref="J36:J37"/>
-    <mergeCell ref="K36:K37"/>
-    <mergeCell ref="L36:L37"/>
-    <mergeCell ref="E32:E33"/>
-    <mergeCell ref="F32:F33"/>
-    <mergeCell ref="G32:G33"/>
-    <mergeCell ref="H32:H33"/>
-    <mergeCell ref="I32:I33"/>
-    <mergeCell ref="J32:J33"/>
-    <mergeCell ref="K32:K33"/>
-    <mergeCell ref="L32:L33"/>
-    <mergeCell ref="F30:F31"/>
-    <mergeCell ref="G30:G31"/>
-    <mergeCell ref="H30:H31"/>
-    <mergeCell ref="I30:I31"/>
-    <mergeCell ref="J30:J31"/>
-    <mergeCell ref="E30:E31"/>
-    <mergeCell ref="F26:F27"/>
-    <mergeCell ref="G26:G27"/>
-    <mergeCell ref="H26:H27"/>
-    <mergeCell ref="I26:I27"/>
-    <mergeCell ref="J26:J27"/>
-    <mergeCell ref="E26:E27"/>
-    <mergeCell ref="K30:K31"/>
-    <mergeCell ref="L30:L31"/>
-    <mergeCell ref="K26:K27"/>
-    <mergeCell ref="L26:L27"/>
-    <mergeCell ref="E28:E29"/>
-    <mergeCell ref="F28:F29"/>
-    <mergeCell ref="G28:G29"/>
-    <mergeCell ref="H28:H29"/>
-    <mergeCell ref="I28:I29"/>
-    <mergeCell ref="J28:J29"/>
-    <mergeCell ref="K28:K29"/>
-    <mergeCell ref="L28:L29"/>
-    <mergeCell ref="L23:L25"/>
-    <mergeCell ref="H20:H22"/>
-    <mergeCell ref="F20:F22"/>
-    <mergeCell ref="G20:G22"/>
-    <mergeCell ref="I20:I22"/>
-    <mergeCell ref="J20:J22"/>
-    <mergeCell ref="K20:K22"/>
-    <mergeCell ref="L20:L22"/>
-    <mergeCell ref="E20:E22"/>
-    <mergeCell ref="F17:F19"/>
-    <mergeCell ref="G17:G19"/>
-    <mergeCell ref="H17:H19"/>
-    <mergeCell ref="I17:I19"/>
-    <mergeCell ref="J17:J19"/>
-    <mergeCell ref="K17:K19"/>
-    <mergeCell ref="J11:J12"/>
-    <mergeCell ref="K11:K12"/>
-    <mergeCell ref="E23:E25"/>
-    <mergeCell ref="F23:F25"/>
-    <mergeCell ref="G23:G25"/>
-    <mergeCell ref="H23:H25"/>
-    <mergeCell ref="I23:I25"/>
-    <mergeCell ref="J23:J25"/>
-    <mergeCell ref="K23:K25"/>
-    <mergeCell ref="A2:A8"/>
-    <mergeCell ref="B2:B8"/>
-    <mergeCell ref="B9:B16"/>
-    <mergeCell ref="A9:A10"/>
-    <mergeCell ref="A23:A25"/>
-    <mergeCell ref="B17:B25"/>
-    <mergeCell ref="C15:C16"/>
-    <mergeCell ref="L11:L12"/>
-    <mergeCell ref="J9:J10"/>
-    <mergeCell ref="K9:K10"/>
-    <mergeCell ref="L9:L10"/>
-    <mergeCell ref="K15:K16"/>
-    <mergeCell ref="L15:L16"/>
-    <mergeCell ref="F15:F16"/>
-    <mergeCell ref="G15:G16"/>
-    <mergeCell ref="H15:H16"/>
-    <mergeCell ref="I15:I16"/>
-    <mergeCell ref="J15:J16"/>
-    <mergeCell ref="H9:H10"/>
-    <mergeCell ref="I9:I10"/>
-    <mergeCell ref="F11:F12"/>
-    <mergeCell ref="G11:G12"/>
-    <mergeCell ref="E15:E16"/>
-    <mergeCell ref="E17:E19"/>
-    <mergeCell ref="B26:B33"/>
-    <mergeCell ref="A26:A27"/>
-    <mergeCell ref="A28:A29"/>
-    <mergeCell ref="A30:A31"/>
-    <mergeCell ref="A32:A33"/>
-    <mergeCell ref="A11:A12"/>
-    <mergeCell ref="A13:A14"/>
-    <mergeCell ref="A15:A16"/>
-    <mergeCell ref="A17:A19"/>
-    <mergeCell ref="A20:A22"/>
-    <mergeCell ref="A45:A46"/>
-    <mergeCell ref="A47:A48"/>
-    <mergeCell ref="B43:B48"/>
-    <mergeCell ref="C47:C48"/>
-    <mergeCell ref="B49:B52"/>
-    <mergeCell ref="A49:A52"/>
-    <mergeCell ref="A34:A35"/>
-    <mergeCell ref="A36:A37"/>
-    <mergeCell ref="A38:A39"/>
-    <mergeCell ref="A40:A42"/>
-    <mergeCell ref="B34:B42"/>
-    <mergeCell ref="A43:A44"/>
-    <mergeCell ref="I1:K1"/>
-    <mergeCell ref="E13:E14"/>
-    <mergeCell ref="H11:H12"/>
-    <mergeCell ref="F13:F14"/>
-    <mergeCell ref="G13:G14"/>
-    <mergeCell ref="H13:H14"/>
-    <mergeCell ref="I13:I14"/>
-    <mergeCell ref="J13:J14"/>
-    <mergeCell ref="K13:K14"/>
-    <mergeCell ref="J2:J8"/>
-    <mergeCell ref="K2:K8"/>
-    <mergeCell ref="E11:E12"/>
-    <mergeCell ref="E9:E10"/>
-    <mergeCell ref="F9:F10"/>
-    <mergeCell ref="G9:G10"/>
-    <mergeCell ref="E2:E8"/>
-    <mergeCell ref="F2:F8"/>
-    <mergeCell ref="G2:G8"/>
-    <mergeCell ref="H2:H8"/>
-    <mergeCell ref="I2:I8"/>
-    <mergeCell ref="I11:I12"/>
   </mergeCells>
   <hyperlinks>
     <hyperlink ref="E2" r:id="rId1" display="https://drive.google.com/open?id=1RYgFxmL-dmZYtjF2ca5a0yQUWnMVjo3mVexJabJL1c4"/>
@@ -14427,10 +14433,10 @@
       </c>
     </row>
     <row r="2" spans="1:9" ht="15.75" customHeight="1" thickTop="1" thickBot="1">
-      <c r="A2" s="274" t="s">
+      <c r="A2" s="278" t="s">
         <v>306</v>
       </c>
-      <c r="B2" s="267">
+      <c r="B2" s="273">
         <v>1</v>
       </c>
       <c r="C2" s="110">
@@ -14450,8 +14456,8 @@
       </c>
     </row>
     <row r="3" spans="1:9" ht="16.5" thickBot="1">
-      <c r="A3" s="275"/>
-      <c r="B3" s="268"/>
+      <c r="A3" s="279"/>
+      <c r="B3" s="274"/>
       <c r="C3" s="110">
         <v>43193</v>
       </c>
@@ -14467,8 +14473,8 @@
       <c r="I3" s="115"/>
     </row>
     <row r="4" spans="1:9" ht="16.5" thickBot="1">
-      <c r="A4" s="275"/>
-      <c r="B4" s="268"/>
+      <c r="A4" s="279"/>
+      <c r="B4" s="274"/>
       <c r="C4" s="110">
         <v>43194</v>
       </c>
@@ -14484,8 +14490,8 @@
       <c r="I4" s="115"/>
     </row>
     <row r="5" spans="1:9" ht="16.5" thickBot="1">
-      <c r="A5" s="275"/>
-      <c r="B5" s="268"/>
+      <c r="A5" s="279"/>
+      <c r="B5" s="274"/>
       <c r="C5" s="110">
         <v>43195</v>
       </c>
@@ -14503,8 +14509,8 @@
       <c r="I5" s="115"/>
     </row>
     <row r="6" spans="1:9" ht="16.5" thickBot="1">
-      <c r="A6" s="276"/>
-      <c r="B6" s="269"/>
+      <c r="A6" s="280"/>
+      <c r="B6" s="277"/>
       <c r="C6" s="117">
         <v>43196</v>
       </c>
@@ -14520,10 +14526,10 @@
       <c r="I6" s="121"/>
     </row>
     <row r="7" spans="1:9" ht="17.25" thickTop="1" thickBot="1">
-      <c r="A7" s="281" t="s">
+      <c r="A7" s="288" t="s">
         <v>184</v>
       </c>
-      <c r="B7" s="277">
+      <c r="B7" s="276">
         <v>2</v>
       </c>
       <c r="C7" s="143">
@@ -14541,8 +14547,8 @@
       <c r="I7" s="126"/>
     </row>
     <row r="8" spans="1:9" ht="16.5" thickBot="1">
-      <c r="A8" s="282"/>
-      <c r="B8" s="278"/>
+      <c r="A8" s="289"/>
+      <c r="B8" s="271"/>
       <c r="C8" s="143">
         <v>43200</v>
       </c>
@@ -14558,8 +14564,8 @@
       <c r="I8" s="126"/>
     </row>
     <row r="9" spans="1:9" ht="16.5" thickBot="1">
-      <c r="A9" s="282"/>
-      <c r="B9" s="278"/>
+      <c r="A9" s="289"/>
+      <c r="B9" s="271"/>
       <c r="C9" s="143">
         <v>43201</v>
       </c>
@@ -14575,8 +14581,8 @@
       <c r="I9" s="126"/>
     </row>
     <row r="10" spans="1:9" ht="15.75" customHeight="1" thickBot="1">
-      <c r="A10" s="282"/>
-      <c r="B10" s="278"/>
+      <c r="A10" s="289"/>
+      <c r="B10" s="271"/>
       <c r="C10" s="143">
         <v>43202</v>
       </c>
@@ -14592,8 +14598,8 @@
       <c r="I10" s="126"/>
     </row>
     <row r="11" spans="1:9" ht="16.5" thickBot="1">
-      <c r="A11" s="282"/>
-      <c r="B11" s="279"/>
+      <c r="A11" s="289"/>
+      <c r="B11" s="281"/>
       <c r="C11" s="143">
         <v>43203</v>
       </c>
@@ -14611,8 +14617,8 @@
       <c r="I11" s="126"/>
     </row>
     <row r="12" spans="1:9" ht="16.5" thickBot="1">
-      <c r="A12" s="283"/>
-      <c r="B12" s="273">
+      <c r="A12" s="268"/>
+      <c r="B12" s="282">
         <v>3</v>
       </c>
       <c r="C12" s="110">
@@ -14630,8 +14636,8 @@
       <c r="I12" s="115"/>
     </row>
     <row r="13" spans="1:9" ht="16.5" thickBot="1">
-      <c r="A13" s="283"/>
-      <c r="B13" s="268"/>
+      <c r="A13" s="268"/>
+      <c r="B13" s="274"/>
       <c r="C13" s="110">
         <v>43207</v>
       </c>
@@ -14647,8 +14653,8 @@
       <c r="I13" s="115"/>
     </row>
     <row r="14" spans="1:9" ht="16.5" thickBot="1">
-      <c r="A14" s="283"/>
-      <c r="B14" s="268"/>
+      <c r="A14" s="268"/>
+      <c r="B14" s="274"/>
       <c r="C14" s="110">
         <v>43208</v>
       </c>
@@ -14664,8 +14670,8 @@
       <c r="I14" s="115"/>
     </row>
     <row r="15" spans="1:9" ht="16.5" thickBot="1">
-      <c r="A15" s="283"/>
-      <c r="B15" s="268"/>
+      <c r="A15" s="268"/>
+      <c r="B15" s="274"/>
       <c r="C15" s="110">
         <v>43209</v>
       </c>
@@ -14681,8 +14687,8 @@
       <c r="I15" s="115"/>
     </row>
     <row r="16" spans="1:9" ht="16.5" thickBot="1">
-      <c r="A16" s="283"/>
-      <c r="B16" s="280"/>
+      <c r="A16" s="268"/>
+      <c r="B16" s="275"/>
       <c r="C16" s="110">
         <v>43210</v>
       </c>
@@ -14698,8 +14704,8 @@
       <c r="I16" s="115"/>
     </row>
     <row r="17" spans="1:9" ht="16.5" thickBot="1">
-      <c r="A17" s="283"/>
-      <c r="B17" s="277">
+      <c r="A17" s="268"/>
+      <c r="B17" s="276">
         <v>4</v>
       </c>
       <c r="C17" s="122">
@@ -14721,8 +14727,8 @@
       <c r="I17" s="126"/>
     </row>
     <row r="18" spans="1:9" ht="16.5" thickBot="1">
-      <c r="A18" s="283"/>
-      <c r="B18" s="278"/>
+      <c r="A18" s="268"/>
+      <c r="B18" s="271"/>
       <c r="C18" s="122">
         <v>43214</v>
       </c>
@@ -14738,8 +14744,8 @@
       <c r="I18" s="126"/>
     </row>
     <row r="19" spans="1:9" ht="16.5" thickBot="1">
-      <c r="A19" s="283"/>
-      <c r="B19" s="278"/>
+      <c r="A19" s="268"/>
+      <c r="B19" s="271"/>
       <c r="C19" s="122">
         <v>43215</v>
       </c>
@@ -14755,8 +14761,8 @@
       <c r="I19" s="126"/>
     </row>
     <row r="20" spans="1:9" ht="16.5" thickBot="1">
-      <c r="A20" s="283"/>
-      <c r="B20" s="278"/>
+      <c r="A20" s="268"/>
+      <c r="B20" s="271"/>
       <c r="C20" s="122">
         <v>43216</v>
       </c>
@@ -14772,8 +14778,8 @@
       <c r="I20" s="126"/>
     </row>
     <row r="21" spans="1:9" ht="16.5" thickBot="1">
-      <c r="A21" s="283"/>
-      <c r="B21" s="279"/>
+      <c r="A21" s="268"/>
+      <c r="B21" s="281"/>
       <c r="C21" s="122">
         <v>43217</v>
       </c>
@@ -14791,8 +14797,8 @@
       <c r="I21" s="126"/>
     </row>
     <row r="22" spans="1:9" ht="16.5" thickBot="1">
-      <c r="A22" s="283"/>
-      <c r="B22" s="273">
+      <c r="A22" s="268"/>
+      <c r="B22" s="282">
         <v>5</v>
       </c>
       <c r="C22" s="110">
@@ -14810,8 +14816,8 @@
       <c r="I22" s="115"/>
     </row>
     <row r="23" spans="1:9" ht="16.5" thickBot="1">
-      <c r="A23" s="283"/>
-      <c r="B23" s="268"/>
+      <c r="A23" s="268"/>
+      <c r="B23" s="274"/>
       <c r="C23" s="110">
         <v>43221</v>
       </c>
@@ -14827,8 +14833,8 @@
       <c r="I23" s="115"/>
     </row>
     <row r="24" spans="1:9" ht="16.5" thickBot="1">
-      <c r="A24" s="283"/>
-      <c r="B24" s="268"/>
+      <c r="A24" s="268"/>
+      <c r="B24" s="274"/>
       <c r="C24" s="110">
         <v>43222</v>
       </c>
@@ -14844,8 +14850,8 @@
       <c r="I24" s="115"/>
     </row>
     <row r="25" spans="1:9" ht="16.5" thickBot="1">
-      <c r="A25" s="283"/>
-      <c r="B25" s="268"/>
+      <c r="A25" s="268"/>
+      <c r="B25" s="274"/>
       <c r="C25" s="110">
         <v>43223</v>
       </c>
@@ -14861,8 +14867,8 @@
       <c r="I25" s="115"/>
     </row>
     <row r="26" spans="1:9" ht="16.5" thickBot="1">
-      <c r="A26" s="283"/>
-      <c r="B26" s="280"/>
+      <c r="A26" s="268"/>
+      <c r="B26" s="275"/>
       <c r="C26" s="110">
         <v>43224</v>
       </c>
@@ -14878,8 +14884,8 @@
       <c r="I26" s="115"/>
     </row>
     <row r="27" spans="1:9" ht="15.75" customHeight="1" thickBot="1">
-      <c r="A27" s="283"/>
-      <c r="B27" s="285">
+      <c r="A27" s="268"/>
+      <c r="B27" s="286">
         <v>6</v>
       </c>
       <c r="C27" s="130">
@@ -14901,8 +14907,8 @@
       <c r="I27" s="126"/>
     </row>
     <row r="28" spans="1:9" ht="16.5" thickBot="1">
-      <c r="A28" s="283"/>
-      <c r="B28" s="271"/>
+      <c r="A28" s="268"/>
+      <c r="B28" s="284"/>
       <c r="C28" s="130">
         <v>43228</v>
       </c>
@@ -14918,8 +14924,8 @@
       <c r="I28" s="126"/>
     </row>
     <row r="29" spans="1:9" ht="16.5" thickBot="1">
-      <c r="A29" s="283"/>
-      <c r="B29" s="271"/>
+      <c r="A29" s="268"/>
+      <c r="B29" s="284"/>
       <c r="C29" s="130">
         <v>43229</v>
       </c>
@@ -14935,8 +14941,8 @@
       <c r="I29" s="126"/>
     </row>
     <row r="30" spans="1:9" ht="16.5" thickBot="1">
-      <c r="A30" s="283"/>
-      <c r="B30" s="271"/>
+      <c r="A30" s="268"/>
+      <c r="B30" s="284"/>
       <c r="C30" s="130">
         <v>43230</v>
       </c>
@@ -14952,8 +14958,8 @@
       <c r="I30" s="126"/>
     </row>
     <row r="31" spans="1:9" ht="27" thickBot="1">
-      <c r="A31" s="284"/>
-      <c r="B31" s="286"/>
+      <c r="A31" s="269"/>
+      <c r="B31" s="287"/>
       <c r="C31" s="134">
         <v>43231</v>
       </c>
@@ -14971,10 +14977,10 @@
       <c r="I31" s="138"/>
     </row>
     <row r="32" spans="1:9" ht="17.25" thickTop="1" thickBot="1">
-      <c r="A32" s="274" t="s">
+      <c r="A32" s="278" t="s">
         <v>34</v>
       </c>
-      <c r="B32" s="267">
+      <c r="B32" s="273">
         <v>7</v>
       </c>
       <c r="C32" s="110">
@@ -14992,8 +14998,8 @@
       <c r="I32" s="115"/>
     </row>
     <row r="33" spans="1:9" ht="16.5" thickBot="1">
-      <c r="A33" s="275"/>
-      <c r="B33" s="268"/>
+      <c r="A33" s="279"/>
+      <c r="B33" s="274"/>
       <c r="C33" s="110">
         <v>43235</v>
       </c>
@@ -15009,8 +15015,8 @@
       <c r="I33" s="115"/>
     </row>
     <row r="34" spans="1:9" ht="16.5" thickBot="1">
-      <c r="A34" s="275"/>
-      <c r="B34" s="268"/>
+      <c r="A34" s="279"/>
+      <c r="B34" s="274"/>
       <c r="C34" s="110">
         <v>43236</v>
       </c>
@@ -15026,8 +15032,8 @@
       <c r="I34" s="115"/>
     </row>
     <row r="35" spans="1:9" ht="16.5" thickBot="1">
-      <c r="A35" s="275"/>
-      <c r="B35" s="268"/>
+      <c r="A35" s="279"/>
+      <c r="B35" s="274"/>
       <c r="C35" s="110">
         <v>43237</v>
       </c>
@@ -15043,8 +15049,8 @@
       <c r="I35" s="115"/>
     </row>
     <row r="36" spans="1:9" ht="16.5" thickBot="1">
-      <c r="A36" s="275"/>
-      <c r="B36" s="269"/>
+      <c r="A36" s="279"/>
+      <c r="B36" s="277"/>
       <c r="C36" s="110">
         <v>43238</v>
       </c>
@@ -15060,8 +15066,8 @@
       <c r="I36" s="115"/>
     </row>
     <row r="37" spans="1:9" ht="17.25" thickTop="1" thickBot="1">
-      <c r="A37" s="275"/>
-      <c r="B37" s="270">
+      <c r="A37" s="279"/>
+      <c r="B37" s="283">
         <v>8</v>
       </c>
       <c r="C37" s="130">
@@ -15083,8 +15089,8 @@
       <c r="I37" s="126"/>
     </row>
     <row r="38" spans="1:9" ht="16.5" thickBot="1">
-      <c r="A38" s="275"/>
-      <c r="B38" s="271"/>
+      <c r="A38" s="279"/>
+      <c r="B38" s="284"/>
       <c r="C38" s="130">
         <v>43242</v>
       </c>
@@ -15100,8 +15106,8 @@
       <c r="I38" s="126"/>
     </row>
     <row r="39" spans="1:9" ht="16.5" thickBot="1">
-      <c r="A39" s="275"/>
-      <c r="B39" s="271"/>
+      <c r="A39" s="279"/>
+      <c r="B39" s="284"/>
       <c r="C39" s="130">
         <v>43243</v>
       </c>
@@ -15117,8 +15123,8 @@
       <c r="I39" s="126"/>
     </row>
     <row r="40" spans="1:9" ht="16.5" thickBot="1">
-      <c r="A40" s="275"/>
-      <c r="B40" s="271"/>
+      <c r="A40" s="279"/>
+      <c r="B40" s="284"/>
       <c r="C40" s="130">
         <v>43244</v>
       </c>
@@ -15134,8 +15140,8 @@
       <c r="I40" s="126"/>
     </row>
     <row r="41" spans="1:9" ht="27" thickBot="1">
-      <c r="A41" s="275"/>
-      <c r="B41" s="272"/>
+      <c r="A41" s="279"/>
+      <c r="B41" s="285"/>
       <c r="C41" s="130">
         <v>43245</v>
       </c>
@@ -15153,8 +15159,8 @@
       <c r="I41" s="126"/>
     </row>
     <row r="42" spans="1:9" ht="16.5" thickBot="1">
-      <c r="A42" s="275"/>
-      <c r="B42" s="273">
+      <c r="A42" s="279"/>
+      <c r="B42" s="282">
         <v>9</v>
       </c>
       <c r="C42" s="110">
@@ -15172,8 +15178,8 @@
       <c r="I42" s="115"/>
     </row>
     <row r="43" spans="1:9" ht="16.5" thickBot="1">
-      <c r="A43" s="275"/>
-      <c r="B43" s="268"/>
+      <c r="A43" s="279"/>
+      <c r="B43" s="274"/>
       <c r="C43" s="110">
         <v>43249</v>
       </c>
@@ -15189,8 +15195,8 @@
       <c r="I43" s="115"/>
     </row>
     <row r="44" spans="1:9" ht="16.5" thickBot="1">
-      <c r="A44" s="275"/>
-      <c r="B44" s="268"/>
+      <c r="A44" s="279"/>
+      <c r="B44" s="274"/>
       <c r="C44" s="110">
         <v>43250</v>
       </c>
@@ -15206,8 +15212,8 @@
       <c r="I44" s="115"/>
     </row>
     <row r="45" spans="1:9" ht="16.5" thickBot="1">
-      <c r="A45" s="275"/>
-      <c r="B45" s="268"/>
+      <c r="A45" s="279"/>
+      <c r="B45" s="274"/>
       <c r="C45" s="110">
         <v>43251</v>
       </c>
@@ -15223,8 +15229,8 @@
       <c r="I45" s="115"/>
     </row>
     <row r="46" spans="1:9" ht="16.5" thickBot="1">
-      <c r="A46" s="276"/>
-      <c r="B46" s="269"/>
+      <c r="A46" s="280"/>
+      <c r="B46" s="277"/>
       <c r="C46" s="117">
         <v>43252</v>
       </c>
@@ -15240,10 +15246,10 @@
       <c r="I46" s="121"/>
     </row>
     <row r="47" spans="1:9" ht="15.75" customHeight="1" thickTop="1" thickBot="1">
-      <c r="A47" s="289" t="s">
+      <c r="A47" s="267" t="s">
         <v>47</v>
       </c>
-      <c r="B47" s="287">
+      <c r="B47" s="270">
         <v>10</v>
       </c>
       <c r="C47" s="122">
@@ -15265,8 +15271,8 @@
       <c r="I47" s="126"/>
     </row>
     <row r="48" spans="1:9" ht="16.5" thickBot="1">
-      <c r="A48" s="283"/>
-      <c r="B48" s="278"/>
+      <c r="A48" s="268"/>
+      <c r="B48" s="271"/>
       <c r="C48" s="122">
         <v>43256</v>
       </c>
@@ -15282,8 +15288,8 @@
       <c r="I48" s="126"/>
     </row>
     <row r="49" spans="1:9" ht="16.5" thickBot="1">
-      <c r="A49" s="283"/>
-      <c r="B49" s="278"/>
+      <c r="A49" s="268"/>
+      <c r="B49" s="271"/>
       <c r="C49" s="122">
         <v>43257</v>
       </c>
@@ -15299,8 +15305,8 @@
       <c r="I49" s="126"/>
     </row>
     <row r="50" spans="1:9" ht="16.5" thickBot="1">
-      <c r="A50" s="283"/>
-      <c r="B50" s="278"/>
+      <c r="A50" s="268"/>
+      <c r="B50" s="271"/>
       <c r="C50" s="122">
         <v>43258</v>
       </c>
@@ -15316,8 +15322,8 @@
       <c r="I50" s="126"/>
     </row>
     <row r="51" spans="1:9" ht="27" thickBot="1">
-      <c r="A51" s="283"/>
-      <c r="B51" s="288"/>
+      <c r="A51" s="268"/>
+      <c r="B51" s="272"/>
       <c r="C51" s="122">
         <v>43259</v>
       </c>
@@ -15335,8 +15341,8 @@
       <c r="I51" s="126"/>
     </row>
     <row r="52" spans="1:9" ht="17.25" thickTop="1" thickBot="1">
-      <c r="A52" s="283"/>
-      <c r="B52" s="267">
+      <c r="A52" s="268"/>
+      <c r="B52" s="273">
         <v>11</v>
       </c>
       <c r="C52" s="110">
@@ -15354,8 +15360,8 @@
       <c r="I52" s="115"/>
     </row>
     <row r="53" spans="1:9" ht="16.5" thickBot="1">
-      <c r="A53" s="283"/>
-      <c r="B53" s="268"/>
+      <c r="A53" s="268"/>
+      <c r="B53" s="274"/>
       <c r="C53" s="110">
         <v>43263</v>
       </c>
@@ -15371,8 +15377,8 @@
       <c r="I53" s="115"/>
     </row>
     <row r="54" spans="1:9" ht="16.5" thickBot="1">
-      <c r="A54" s="283"/>
-      <c r="B54" s="268"/>
+      <c r="A54" s="268"/>
+      <c r="B54" s="274"/>
       <c r="C54" s="110">
         <v>43264</v>
       </c>
@@ -15388,8 +15394,8 @@
       <c r="I54" s="115"/>
     </row>
     <row r="55" spans="1:9" ht="16.5" thickBot="1">
-      <c r="A55" s="283"/>
-      <c r="B55" s="268"/>
+      <c r="A55" s="268"/>
+      <c r="B55" s="274"/>
       <c r="C55" s="110">
         <v>43265</v>
       </c>
@@ -15405,8 +15411,8 @@
       <c r="I55" s="115"/>
     </row>
     <row r="56" spans="1:9" ht="16.5" thickBot="1">
-      <c r="A56" s="283"/>
-      <c r="B56" s="280"/>
+      <c r="A56" s="268"/>
+      <c r="B56" s="275"/>
       <c r="C56" s="110">
         <v>43266</v>
       </c>
@@ -15422,8 +15428,8 @@
       <c r="I56" s="115"/>
     </row>
     <row r="57" spans="1:9" ht="16.5" thickBot="1">
-      <c r="A57" s="283"/>
-      <c r="B57" s="277">
+      <c r="A57" s="268"/>
+      <c r="B57" s="276">
         <v>12</v>
       </c>
       <c r="C57" s="122">
@@ -15445,8 +15451,8 @@
       <c r="I57" s="126"/>
     </row>
     <row r="58" spans="1:9" ht="16.5" thickBot="1">
-      <c r="A58" s="283"/>
-      <c r="B58" s="278"/>
+      <c r="A58" s="268"/>
+      <c r="B58" s="271"/>
       <c r="C58" s="122">
         <v>43270</v>
       </c>
@@ -15462,8 +15468,8 @@
       <c r="I58" s="126"/>
     </row>
     <row r="59" spans="1:9" ht="16.5" thickBot="1">
-      <c r="A59" s="283"/>
-      <c r="B59" s="278"/>
+      <c r="A59" s="268"/>
+      <c r="B59" s="271"/>
       <c r="C59" s="122">
         <v>43271</v>
       </c>
@@ -15479,8 +15485,8 @@
       <c r="I59" s="126"/>
     </row>
     <row r="60" spans="1:9" ht="16.5" thickBot="1">
-      <c r="A60" s="283"/>
-      <c r="B60" s="278"/>
+      <c r="A60" s="268"/>
+      <c r="B60" s="271"/>
       <c r="C60" s="122">
         <v>43272</v>
       </c>
@@ -15496,8 +15502,8 @@
       <c r="I60" s="126"/>
     </row>
     <row r="61" spans="1:9" ht="27" thickBot="1">
-      <c r="A61" s="284"/>
-      <c r="B61" s="288"/>
+      <c r="A61" s="269"/>
+      <c r="B61" s="272"/>
       <c r="C61" s="140">
         <v>43273</v>
       </c>
@@ -15515,10 +15521,10 @@
       <c r="I61" s="138"/>
     </row>
     <row r="62" spans="1:9" ht="15.75" customHeight="1" thickTop="1" thickBot="1">
-      <c r="A62" s="274" t="s">
+      <c r="A62" s="278" t="s">
         <v>632</v>
       </c>
-      <c r="B62" s="267">
+      <c r="B62" s="273">
         <v>13</v>
       </c>
       <c r="C62" s="110">
@@ -15536,8 +15542,8 @@
       <c r="I62" s="115"/>
     </row>
     <row r="63" spans="1:9" ht="16.5" thickBot="1">
-      <c r="A63" s="275"/>
-      <c r="B63" s="268"/>
+      <c r="A63" s="279"/>
+      <c r="B63" s="274"/>
       <c r="C63" s="110">
         <v>43277</v>
       </c>
@@ -15553,8 +15559,8 @@
       <c r="I63" s="115"/>
     </row>
     <row r="64" spans="1:9" ht="16.5" thickBot="1">
-      <c r="A64" s="275"/>
-      <c r="B64" s="268"/>
+      <c r="A64" s="279"/>
+      <c r="B64" s="274"/>
       <c r="C64" s="110">
         <v>43278</v>
       </c>
@@ -15570,8 +15576,8 @@
       <c r="I64" s="115"/>
     </row>
     <row r="65" spans="1:9" ht="16.5" thickBot="1">
-      <c r="A65" s="275"/>
-      <c r="B65" s="268"/>
+      <c r="A65" s="279"/>
+      <c r="B65" s="274"/>
       <c r="C65" s="110">
         <v>43279</v>
       </c>
@@ -15587,8 +15593,8 @@
       <c r="I65" s="115"/>
     </row>
     <row r="66" spans="1:9" ht="16.5" thickBot="1">
-      <c r="A66" s="275"/>
-      <c r="B66" s="269"/>
+      <c r="A66" s="279"/>
+      <c r="B66" s="277"/>
       <c r="C66" s="110">
         <v>43280</v>
       </c>
@@ -15604,8 +15610,8 @@
       <c r="I66" s="115"/>
     </row>
     <row r="67" spans="1:9" ht="17.25" thickTop="1" thickBot="1">
-      <c r="A67" s="275"/>
-      <c r="B67" s="270">
+      <c r="A67" s="279"/>
+      <c r="B67" s="283">
         <v>14</v>
       </c>
       <c r="C67" s="130">
@@ -15627,8 +15633,8 @@
       <c r="I67" s="126"/>
     </row>
     <row r="68" spans="1:9" ht="16.5" thickBot="1">
-      <c r="A68" s="275"/>
-      <c r="B68" s="271"/>
+      <c r="A68" s="279"/>
+      <c r="B68" s="284"/>
       <c r="C68" s="130">
         <v>43284</v>
       </c>
@@ -15644,8 +15650,8 @@
       <c r="I68" s="126"/>
     </row>
     <row r="69" spans="1:9" ht="16.5" thickBot="1">
-      <c r="A69" s="275"/>
-      <c r="B69" s="271"/>
+      <c r="A69" s="279"/>
+      <c r="B69" s="284"/>
       <c r="C69" s="130">
         <v>43285</v>
       </c>
@@ -15661,8 +15667,8 @@
       <c r="I69" s="126"/>
     </row>
     <row r="70" spans="1:9" ht="16.5" thickBot="1">
-      <c r="A70" s="275"/>
-      <c r="B70" s="271"/>
+      <c r="A70" s="279"/>
+      <c r="B70" s="284"/>
       <c r="C70" s="130">
         <v>43286</v>
       </c>
@@ -15678,8 +15684,8 @@
       <c r="I70" s="126"/>
     </row>
     <row r="71" spans="1:9" ht="16.5" thickBot="1">
-      <c r="A71" s="275"/>
-      <c r="B71" s="272"/>
+      <c r="A71" s="279"/>
+      <c r="B71" s="285"/>
       <c r="C71" s="130">
         <v>43287</v>
       </c>
@@ -15697,8 +15703,8 @@
       <c r="I71" s="126"/>
     </row>
     <row r="72" spans="1:9" ht="16.5" thickBot="1">
-      <c r="A72" s="275"/>
-      <c r="B72" s="273">
+      <c r="A72" s="279"/>
+      <c r="B72" s="282">
         <v>15</v>
       </c>
       <c r="C72" s="110">
@@ -15716,8 +15722,8 @@
       <c r="I72" s="115"/>
     </row>
     <row r="73" spans="1:9" ht="16.5" thickBot="1">
-      <c r="A73" s="275"/>
-      <c r="B73" s="268"/>
+      <c r="A73" s="279"/>
+      <c r="B73" s="274"/>
       <c r="C73" s="110">
         <v>43291</v>
       </c>
@@ -15733,8 +15739,8 @@
       <c r="I73" s="115"/>
     </row>
     <row r="74" spans="1:9" ht="16.5" thickBot="1">
-      <c r="A74" s="275"/>
-      <c r="B74" s="268"/>
+      <c r="A74" s="279"/>
+      <c r="B74" s="274"/>
       <c r="C74" s="110">
         <v>43292</v>
       </c>
@@ -15750,8 +15756,8 @@
       <c r="I74" s="115"/>
     </row>
     <row r="75" spans="1:9" ht="16.5" thickBot="1">
-      <c r="A75" s="275"/>
-      <c r="B75" s="268"/>
+      <c r="A75" s="279"/>
+      <c r="B75" s="274"/>
       <c r="C75" s="110">
         <v>43293</v>
       </c>
@@ -15767,8 +15773,8 @@
       <c r="I75" s="115"/>
     </row>
     <row r="76" spans="1:9" ht="16.5" thickBot="1">
-      <c r="A76" s="275"/>
-      <c r="B76" s="280"/>
+      <c r="A76" s="279"/>
+      <c r="B76" s="275"/>
       <c r="C76" s="110">
         <v>43294</v>
       </c>
@@ -15784,8 +15790,8 @@
       <c r="I76" s="115"/>
     </row>
     <row r="77" spans="1:9" ht="16.5" thickBot="1">
-      <c r="A77" s="275"/>
-      <c r="B77" s="285">
+      <c r="A77" s="279"/>
+      <c r="B77" s="286">
         <v>16</v>
       </c>
       <c r="C77" s="130">
@@ -15807,8 +15813,8 @@
       <c r="I77" s="126"/>
     </row>
     <row r="78" spans="1:9" ht="16.5" thickBot="1">
-      <c r="A78" s="275"/>
-      <c r="B78" s="271"/>
+      <c r="A78" s="279"/>
+      <c r="B78" s="284"/>
       <c r="C78" s="130">
         <v>43298</v>
       </c>
@@ -15824,8 +15830,8 @@
       <c r="I78" s="126"/>
     </row>
     <row r="79" spans="1:9" ht="16.5" thickBot="1">
-      <c r="A79" s="275"/>
-      <c r="B79" s="271"/>
+      <c r="A79" s="279"/>
+      <c r="B79" s="284"/>
       <c r="C79" s="130">
         <v>43299</v>
       </c>
@@ -15841,8 +15847,8 @@
       <c r="I79" s="126"/>
     </row>
     <row r="80" spans="1:9" ht="16.5" thickBot="1">
-      <c r="A80" s="275"/>
-      <c r="B80" s="271"/>
+      <c r="A80" s="279"/>
+      <c r="B80" s="284"/>
       <c r="C80" s="130">
         <v>43300</v>
       </c>
@@ -15858,8 +15864,8 @@
       <c r="I80" s="126"/>
     </row>
     <row r="81" spans="1:9" ht="16.5" thickBot="1">
-      <c r="A81" s="276"/>
-      <c r="B81" s="286"/>
+      <c r="A81" s="280"/>
+      <c r="B81" s="287"/>
       <c r="C81" s="134">
         <v>43301</v>
       </c>
@@ -15877,10 +15883,10 @@
       <c r="I81" s="138"/>
     </row>
     <row r="82" spans="1:9" ht="15.75" customHeight="1" thickTop="1" thickBot="1">
-      <c r="A82" s="274" t="s">
+      <c r="A82" s="278" t="s">
         <v>76</v>
       </c>
-      <c r="B82" s="267">
+      <c r="B82" s="273">
         <v>17</v>
       </c>
       <c r="C82" s="110">
@@ -15898,8 +15904,8 @@
       <c r="I82" s="115"/>
     </row>
     <row r="83" spans="1:9" ht="16.5" thickBot="1">
-      <c r="A83" s="275"/>
-      <c r="B83" s="268"/>
+      <c r="A83" s="279"/>
+      <c r="B83" s="274"/>
       <c r="C83" s="110">
         <v>43305</v>
       </c>
@@ -15915,8 +15921,8 @@
       <c r="I83" s="115"/>
     </row>
     <row r="84" spans="1:9" ht="16.5" thickBot="1">
-      <c r="A84" s="275"/>
-      <c r="B84" s="268"/>
+      <c r="A84" s="279"/>
+      <c r="B84" s="274"/>
       <c r="C84" s="110">
         <v>43306</v>
       </c>
@@ -15932,8 +15938,8 @@
       <c r="I84" s="115"/>
     </row>
     <row r="85" spans="1:9" ht="16.5" thickBot="1">
-      <c r="A85" s="275"/>
-      <c r="B85" s="268"/>
+      <c r="A85" s="279"/>
+      <c r="B85" s="274"/>
       <c r="C85" s="110">
         <v>43307</v>
       </c>
@@ -15949,8 +15955,8 @@
       <c r="I85" s="115"/>
     </row>
     <row r="86" spans="1:9" ht="16.5" thickBot="1">
-      <c r="A86" s="276"/>
-      <c r="B86" s="269"/>
+      <c r="A86" s="280"/>
+      <c r="B86" s="277"/>
       <c r="C86" s="117">
         <v>43308</v>
       </c>
@@ -15966,10 +15972,10 @@
       <c r="I86" s="121"/>
     </row>
     <row r="87" spans="1:9" ht="17.25" thickTop="1" thickBot="1">
-      <c r="A87" s="274" t="s">
+      <c r="A87" s="278" t="s">
         <v>637</v>
       </c>
-      <c r="B87" s="287">
+      <c r="B87" s="270">
         <v>18</v>
       </c>
       <c r="C87" s="122">
@@ -15991,8 +15997,8 @@
       <c r="I87" s="126"/>
     </row>
     <row r="88" spans="1:9" ht="16.5" thickBot="1">
-      <c r="A88" s="275"/>
-      <c r="B88" s="278"/>
+      <c r="A88" s="279"/>
+      <c r="B88" s="271"/>
       <c r="C88" s="122">
         <v>43312</v>
       </c>
@@ -16008,8 +16014,8 @@
       <c r="I88" s="126"/>
     </row>
     <row r="89" spans="1:9" ht="16.5" thickBot="1">
-      <c r="A89" s="275"/>
-      <c r="B89" s="278"/>
+      <c r="A89" s="279"/>
+      <c r="B89" s="271"/>
       <c r="C89" s="122">
         <v>43313</v>
       </c>
@@ -16025,8 +16031,8 @@
       <c r="I89" s="126"/>
     </row>
     <row r="90" spans="1:9" ht="16.5" thickBot="1">
-      <c r="A90" s="275"/>
-      <c r="B90" s="278"/>
+      <c r="A90" s="279"/>
+      <c r="B90" s="271"/>
       <c r="C90" s="122">
         <v>43314</v>
       </c>
@@ -16042,8 +16048,8 @@
       <c r="I90" s="126"/>
     </row>
     <row r="91" spans="1:9" ht="27" thickBot="1">
-      <c r="A91" s="275"/>
-      <c r="B91" s="279"/>
+      <c r="A91" s="279"/>
+      <c r="B91" s="281"/>
       <c r="C91" s="122">
         <v>43315</v>
       </c>
@@ -16061,8 +16067,8 @@
       <c r="I91" s="126"/>
     </row>
     <row r="92" spans="1:9" ht="16.5" thickBot="1">
-      <c r="A92" s="275"/>
-      <c r="B92" s="273">
+      <c r="A92" s="279"/>
+      <c r="B92" s="282">
         <v>19</v>
       </c>
       <c r="C92" s="110">
@@ -16080,8 +16086,8 @@
       <c r="I92" s="115"/>
     </row>
     <row r="93" spans="1:9" ht="16.5" thickBot="1">
-      <c r="A93" s="275"/>
-      <c r="B93" s="268"/>
+      <c r="A93" s="279"/>
+      <c r="B93" s="274"/>
       <c r="C93" s="110">
         <v>43319</v>
       </c>
@@ -16097,8 +16103,8 @@
       <c r="I93" s="115"/>
     </row>
     <row r="94" spans="1:9" ht="16.5" thickBot="1">
-      <c r="A94" s="275"/>
-      <c r="B94" s="268"/>
+      <c r="A94" s="279"/>
+      <c r="B94" s="274"/>
       <c r="C94" s="110">
         <v>43320</v>
       </c>
@@ -16114,8 +16120,8 @@
       <c r="I94" s="115"/>
     </row>
     <row r="95" spans="1:9" ht="16.5" thickBot="1">
-      <c r="A95" s="275"/>
-      <c r="B95" s="268"/>
+      <c r="A95" s="279"/>
+      <c r="B95" s="274"/>
       <c r="C95" s="110">
         <v>43321</v>
       </c>
@@ -16131,8 +16137,8 @@
       <c r="I95" s="115"/>
     </row>
     <row r="96" spans="1:9" ht="16.5" thickBot="1">
-      <c r="A96" s="275"/>
-      <c r="B96" s="280"/>
+      <c r="A96" s="279"/>
+      <c r="B96" s="275"/>
       <c r="C96" s="110">
         <v>43322</v>
       </c>
@@ -16148,8 +16154,8 @@
       <c r="I96" s="115"/>
     </row>
     <row r="97" spans="1:9" ht="16.5" thickBot="1">
-      <c r="A97" s="275"/>
-      <c r="B97" s="277">
+      <c r="A97" s="279"/>
+      <c r="B97" s="276">
         <v>20</v>
       </c>
       <c r="C97" s="122">
@@ -16169,8 +16175,8 @@
       <c r="I97" s="126"/>
     </row>
     <row r="98" spans="1:9" ht="16.5" thickBot="1">
-      <c r="A98" s="275"/>
-      <c r="B98" s="278"/>
+      <c r="A98" s="279"/>
+      <c r="B98" s="271"/>
       <c r="C98" s="122">
         <v>43326</v>
       </c>
@@ -16186,8 +16192,8 @@
       <c r="I98" s="126"/>
     </row>
     <row r="99" spans="1:9" ht="16.5" thickBot="1">
-      <c r="A99" s="275"/>
-      <c r="B99" s="278"/>
+      <c r="A99" s="279"/>
+      <c r="B99" s="271"/>
       <c r="C99" s="122">
         <v>43327</v>
       </c>
@@ -16203,8 +16209,8 @@
       <c r="I99" s="126"/>
     </row>
     <row r="100" spans="1:9" ht="16.5" thickBot="1">
-      <c r="A100" s="275"/>
-      <c r="B100" s="278"/>
+      <c r="A100" s="279"/>
+      <c r="B100" s="271"/>
       <c r="C100" s="122">
         <v>43328</v>
       </c>
@@ -16222,8 +16228,8 @@
       <c r="I100" s="126"/>
     </row>
     <row r="101" spans="1:9" ht="16.5" thickBot="1">
-      <c r="A101" s="276"/>
-      <c r="B101" s="288"/>
+      <c r="A101" s="280"/>
+      <c r="B101" s="272"/>
       <c r="C101" s="140">
         <v>43329</v>
       </c>
@@ -22533,21 +22539,6 @@
     </row>
   </sheetData>
   <mergeCells count="27">
-    <mergeCell ref="A47:A61"/>
-    <mergeCell ref="B47:B51"/>
-    <mergeCell ref="B52:B56"/>
-    <mergeCell ref="B57:B61"/>
-    <mergeCell ref="B62:B66"/>
-    <mergeCell ref="A82:A86"/>
-    <mergeCell ref="A87:A101"/>
-    <mergeCell ref="A62:A81"/>
-    <mergeCell ref="B87:B91"/>
-    <mergeCell ref="B92:B96"/>
-    <mergeCell ref="B97:B101"/>
-    <mergeCell ref="B67:B71"/>
-    <mergeCell ref="B72:B76"/>
-    <mergeCell ref="B77:B81"/>
-    <mergeCell ref="B82:B86"/>
     <mergeCell ref="B32:B36"/>
     <mergeCell ref="B37:B41"/>
     <mergeCell ref="B42:B46"/>
@@ -22560,6 +22551,21 @@
     <mergeCell ref="B22:B26"/>
     <mergeCell ref="B27:B31"/>
     <mergeCell ref="A32:A46"/>
+    <mergeCell ref="A82:A86"/>
+    <mergeCell ref="A87:A101"/>
+    <mergeCell ref="A62:A81"/>
+    <mergeCell ref="B87:B91"/>
+    <mergeCell ref="B92:B96"/>
+    <mergeCell ref="B97:B101"/>
+    <mergeCell ref="B67:B71"/>
+    <mergeCell ref="B72:B76"/>
+    <mergeCell ref="B77:B81"/>
+    <mergeCell ref="B82:B86"/>
+    <mergeCell ref="A47:A61"/>
+    <mergeCell ref="B47:B51"/>
+    <mergeCell ref="B52:B56"/>
+    <mergeCell ref="B57:B61"/>
+    <mergeCell ref="B62:B66"/>
   </mergeCells>
   <hyperlinks>
     <hyperlink ref="I2" r:id="rId1" display="https://drive.google.com/open?id=12f1t9Kg0CD9OW5iG5jB3Ozx_iRGw-cbyozVUPhhG6ME"/>
@@ -28838,10 +28844,10 @@
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:I16"/>
+  <dimension ref="A1:I18"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="M20" sqref="M20"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C27" sqref="C27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -28936,12 +28942,22 @@
       </c>
     </row>
     <row r="14" spans="1:9">
-      <c r="A14" s="22" t="s">
-        <v>607</v>
+      <c r="A14" t="s">
+        <v>960</v>
+      </c>
+    </row>
+    <row r="15" spans="1:9">
+      <c r="A15" t="s">
+        <v>961</v>
       </c>
     </row>
     <row r="16" spans="1:9">
       <c r="A16" s="22" t="s">
+        <v>607</v>
+      </c>
+    </row>
+    <row r="18" spans="1:1">
+      <c r="A18" s="22" t="s">
         <v>958</v>
       </c>
     </row>

--- a/General/Curriculum (Personalized).xlsx
+++ b/General/Curriculum (Personalized).xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="13485" windowHeight="11415" firstSheet="5" activeTab="7"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="13485" windowHeight="11415" firstSheet="5" activeTab="5"/>
   </bookViews>
   <sheets>
     <sheet name="Curriculum" sheetId="1" r:id="rId1"/>
@@ -18,9 +18,10 @@
     <sheet name="Basics" sheetId="4" r:id="rId4"/>
     <sheet name="HTML" sheetId="2" r:id="rId5"/>
     <sheet name="JavaScript" sheetId="3" r:id="rId6"/>
-    <sheet name="Questions" sheetId="8" r:id="rId7"/>
-    <sheet name="Resources" sheetId="6" r:id="rId8"/>
-    <sheet name="Professional" sheetId="9" r:id="rId9"/>
+    <sheet name="Angular" sheetId="10" r:id="rId7"/>
+    <sheet name="Questions" sheetId="8" r:id="rId8"/>
+    <sheet name="Resources" sheetId="6" r:id="rId9"/>
+    <sheet name="Professional" sheetId="9" r:id="rId10"/>
   </sheets>
   <calcPr calcId="152511"/>
   <extLst>
@@ -32,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1381" uniqueCount="963">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1390" uniqueCount="972">
   <si>
     <t>Week</t>
   </si>
@@ -9879,6 +9880,33 @@
   </si>
   <si>
     <t>http://codingbat.com/doc/java-string-indexof-parsing.html</t>
+  </si>
+  <si>
+    <t>Angular</t>
+  </si>
+  <si>
+    <t>Allows us to use a single-page application</t>
+  </si>
+  <si>
+    <t>Makes things more dynamic, allows us to navigate with one page, rather than many</t>
+  </si>
+  <si>
+    <t>MEAN Stack:</t>
+  </si>
+  <si>
+    <t>*Mongol DB</t>
+  </si>
+  <si>
+    <t>*Express JS</t>
+  </si>
+  <si>
+    <t>*Angular</t>
+  </si>
+  <si>
+    <t>*Node JS</t>
+  </si>
+  <si>
+    <t>Look up IIFE</t>
   </si>
 </sst>
 </file>
@@ -11195,7 +11223,7 @@
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="25" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="297">
+  <cellXfs count="298">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -11671,115 +11699,67 @@
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="1"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="35" xfId="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="5" borderId="35" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="5" borderId="38" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="33" xfId="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="35" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="38" xfId="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="5" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="4" borderId="52" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="4" borderId="53" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="33" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="35" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="38" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="33" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="6" xfId="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="33" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="35" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="5" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="5" borderId="34" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="5" borderId="36" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="23" xfId="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="5" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="14" fillId="5" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="5" borderId="23" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="5" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="5" borderId="37" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="32" xfId="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="23" xfId="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="37" xfId="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="34" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="5" borderId="31" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="32" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="5" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="34" xfId="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="36" xfId="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="37" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="5" borderId="23" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="5" borderId="37" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="5" borderId="32" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="31" xfId="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="32" xfId="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="5" xfId="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="32" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="32" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="23" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="5" borderId="32" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="32" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -11787,6 +11767,21 @@
     </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -11797,55 +11792,25 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="23" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="5" borderId="32" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="5" borderId="1" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="23" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="37" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="32" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="23" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="5" borderId="31" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -11866,71 +11831,116 @@
     <xf numFmtId="0" fontId="1" fillId="3" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="23" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="5" borderId="1" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="37" xfId="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="35" xfId="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="38" xfId="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="37" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="4" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="5" borderId="32" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="32" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="23" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="36" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="5" borderId="36" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="5" borderId="37" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="5" borderId="37" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="37" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="35" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="38" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="35" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="32" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="33" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="33" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="5" borderId="35" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="5" borderId="38" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="5" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="5" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="5" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="52" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="4" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="53" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="4" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="5" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="33" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="6" xfId="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="5" xfId="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="33" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="32" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="35" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="35" fillId="0" borderId="63" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="35" fillId="0" borderId="55" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="35" fillId="0" borderId="56" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="64" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="57" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="58" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="14" fillId="5" borderId="64" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center" wrapText="1"/>
@@ -11938,13 +11948,19 @@
     <xf numFmtId="0" fontId="14" fillId="5" borderId="57" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="5" borderId="62" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="14" fillId="5" borderId="58" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="14" fillId="2" borderId="64" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="5" borderId="58" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="14" fillId="2" borderId="57" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="2" borderId="62" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="5" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="35" fillId="2" borderId="63" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -11956,20 +11972,29 @@
     <xf numFmtId="0" fontId="35" fillId="2" borderId="56" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="57" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="14" fillId="0" borderId="62" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="5" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="14" fillId="5" borderId="62" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="2" borderId="64" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="35" fillId="0" borderId="65" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="2" borderId="57" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="35" fillId="0" borderId="66" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="2" borderId="62" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="35" fillId="0" borderId="55" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="35" fillId="0" borderId="56" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="14" fillId="2" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center" wrapText="1"/>
@@ -11977,10 +12002,13 @@
     <xf numFmtId="0" fontId="14" fillId="2" borderId="58" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="35" fillId="0" borderId="65" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="64" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="35" fillId="0" borderId="66" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="58" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="35" fillId="0" borderId="63" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="24" xfId="0" applyBorder="1" applyAlignment="1">
@@ -12001,6 +12029,7 @@
     <xf numFmtId="0" fontId="8" fillId="0" borderId="44" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="3">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -13019,21 +13048,21 @@
       <c r="H1" s="35" t="s">
         <v>193</v>
       </c>
-      <c r="I1" s="260" t="s">
+      <c r="I1" s="187" t="s">
         <v>7</v>
       </c>
-      <c r="J1" s="261"/>
-      <c r="K1" s="262"/>
-      <c r="L1" s="194" t="s">
+      <c r="J1" s="188"/>
+      <c r="K1" s="189"/>
+      <c r="L1" s="262" t="s">
         <v>8</v>
       </c>
-      <c r="M1" s="195"/>
+      <c r="M1" s="263"/>
     </row>
     <row r="2" spans="1:13" ht="15.75" customHeight="1">
-      <c r="A2" s="223">
+      <c r="A2" s="220">
         <v>1</v>
       </c>
-      <c r="B2" s="226" t="s">
+      <c r="B2" s="215" t="s">
         <v>9</v>
       </c>
       <c r="C2" s="8" t="s">
@@ -13042,145 +13071,145 @@
       <c r="D2" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="E2" s="217" t="s">
+      <c r="E2" s="202" t="s">
         <v>12</v>
       </c>
-      <c r="F2" s="266"/>
-      <c r="G2" s="218"/>
-      <c r="H2" s="218"/>
-      <c r="I2" s="218" t="s">
+      <c r="F2" s="204"/>
+      <c r="G2" s="195"/>
+      <c r="H2" s="195"/>
+      <c r="I2" s="195" t="s">
         <v>10</v>
       </c>
-      <c r="J2" s="218" t="s">
+      <c r="J2" s="195" t="s">
         <v>14</v>
       </c>
-      <c r="K2" s="218" t="s">
+      <c r="K2" s="195" t="s">
         <v>15</v>
       </c>
-      <c r="L2" s="190" t="s">
+      <c r="L2" s="256" t="s">
         <v>16</v>
       </c>
-      <c r="M2" s="190" t="s">
+      <c r="M2" s="256" t="s">
         <v>327</v>
       </c>
     </row>
     <row r="3" spans="1:13" ht="15.75" customHeight="1">
-      <c r="A3" s="224"/>
-      <c r="B3" s="227"/>
+      <c r="A3" s="208"/>
+      <c r="B3" s="216"/>
       <c r="C3" s="32" t="s">
         <v>17</v>
       </c>
       <c r="D3" s="4" t="s">
         <v>18</v>
       </c>
-      <c r="E3" s="212"/>
-      <c r="F3" s="239"/>
-      <c r="G3" s="209"/>
-      <c r="H3" s="209"/>
-      <c r="I3" s="209"/>
-      <c r="J3" s="209"/>
-      <c r="K3" s="209"/>
-      <c r="L3" s="187"/>
-      <c r="M3" s="187"/>
+      <c r="E3" s="197"/>
+      <c r="F3" s="205"/>
+      <c r="G3" s="191"/>
+      <c r="H3" s="191"/>
+      <c r="I3" s="191"/>
+      <c r="J3" s="191"/>
+      <c r="K3" s="191"/>
+      <c r="L3" s="239"/>
+      <c r="M3" s="239"/>
     </row>
     <row r="4" spans="1:13" ht="15.75" customHeight="1">
-      <c r="A4" s="224"/>
-      <c r="B4" s="227"/>
+      <c r="A4" s="208"/>
+      <c r="B4" s="216"/>
       <c r="C4" s="32" t="s">
         <v>19</v>
       </c>
       <c r="D4" s="4" t="s">
         <v>20</v>
       </c>
-      <c r="E4" s="212"/>
-      <c r="F4" s="239"/>
-      <c r="G4" s="209"/>
-      <c r="H4" s="209"/>
-      <c r="I4" s="209"/>
-      <c r="J4" s="209"/>
-      <c r="K4" s="209"/>
-      <c r="L4" s="187"/>
-      <c r="M4" s="187"/>
+      <c r="E4" s="197"/>
+      <c r="F4" s="205"/>
+      <c r="G4" s="191"/>
+      <c r="H4" s="191"/>
+      <c r="I4" s="191"/>
+      <c r="J4" s="191"/>
+      <c r="K4" s="191"/>
+      <c r="L4" s="239"/>
+      <c r="M4" s="239"/>
     </row>
     <row r="5" spans="1:13" ht="15.75" customHeight="1">
-      <c r="A5" s="224"/>
-      <c r="B5" s="227"/>
+      <c r="A5" s="208"/>
+      <c r="B5" s="216"/>
       <c r="C5" s="32" t="s">
         <v>21</v>
       </c>
       <c r="D5" s="4"/>
-      <c r="E5" s="212"/>
-      <c r="F5" s="239"/>
-      <c r="G5" s="209"/>
-      <c r="H5" s="209"/>
-      <c r="I5" s="209"/>
-      <c r="J5" s="209"/>
-      <c r="K5" s="209"/>
-      <c r="L5" s="187"/>
-      <c r="M5" s="187"/>
+      <c r="E5" s="197"/>
+      <c r="F5" s="205"/>
+      <c r="G5" s="191"/>
+      <c r="H5" s="191"/>
+      <c r="I5" s="191"/>
+      <c r="J5" s="191"/>
+      <c r="K5" s="191"/>
+      <c r="L5" s="239"/>
+      <c r="M5" s="239"/>
     </row>
     <row r="6" spans="1:13" ht="15.75" customHeight="1">
-      <c r="A6" s="224"/>
-      <c r="B6" s="227"/>
+      <c r="A6" s="208"/>
+      <c r="B6" s="216"/>
       <c r="C6" s="32" t="s">
         <v>14</v>
       </c>
       <c r="D6" s="4" t="s">
         <v>22</v>
       </c>
-      <c r="E6" s="212"/>
-      <c r="F6" s="239"/>
-      <c r="G6" s="209"/>
-      <c r="H6" s="209"/>
-      <c r="I6" s="209"/>
-      <c r="J6" s="209"/>
-      <c r="K6" s="209"/>
-      <c r="L6" s="187"/>
-      <c r="M6" s="187"/>
+      <c r="E6" s="197"/>
+      <c r="F6" s="205"/>
+      <c r="G6" s="191"/>
+      <c r="H6" s="191"/>
+      <c r="I6" s="191"/>
+      <c r="J6" s="191"/>
+      <c r="K6" s="191"/>
+      <c r="L6" s="239"/>
+      <c r="M6" s="239"/>
     </row>
     <row r="7" spans="1:13" ht="15.75" customHeight="1">
-      <c r="A7" s="224"/>
-      <c r="B7" s="227"/>
+      <c r="A7" s="208"/>
+      <c r="B7" s="216"/>
       <c r="C7" s="32" t="s">
         <v>15</v>
       </c>
       <c r="D7" s="4" t="s">
         <v>20</v>
       </c>
-      <c r="E7" s="212"/>
-      <c r="F7" s="239"/>
-      <c r="G7" s="209"/>
-      <c r="H7" s="209"/>
-      <c r="I7" s="209"/>
-      <c r="J7" s="209"/>
-      <c r="K7" s="209"/>
-      <c r="L7" s="187"/>
-      <c r="M7" s="187"/>
+      <c r="E7" s="197"/>
+      <c r="F7" s="205"/>
+      <c r="G7" s="191"/>
+      <c r="H7" s="191"/>
+      <c r="I7" s="191"/>
+      <c r="J7" s="191"/>
+      <c r="K7" s="191"/>
+      <c r="L7" s="239"/>
+      <c r="M7" s="239"/>
     </row>
     <row r="8" spans="1:13" ht="15.75" customHeight="1" thickBot="1">
-      <c r="A8" s="225"/>
-      <c r="B8" s="228"/>
+      <c r="A8" s="209"/>
+      <c r="B8" s="217"/>
       <c r="C8" s="9" t="s">
         <v>23</v>
       </c>
       <c r="D8" s="5" t="s">
         <v>24</v>
       </c>
-      <c r="E8" s="265"/>
-      <c r="F8" s="267"/>
-      <c r="G8" s="264"/>
-      <c r="H8" s="264"/>
-      <c r="I8" s="264"/>
-      <c r="J8" s="264"/>
-      <c r="K8" s="264"/>
-      <c r="L8" s="200"/>
-      <c r="M8" s="200"/>
+      <c r="E8" s="203"/>
+      <c r="F8" s="206"/>
+      <c r="G8" s="196"/>
+      <c r="H8" s="196"/>
+      <c r="I8" s="196"/>
+      <c r="J8" s="196"/>
+      <c r="K8" s="196"/>
+      <c r="L8" s="265"/>
+      <c r="M8" s="265"/>
     </row>
     <row r="9" spans="1:13" ht="15.75" customHeight="1">
-      <c r="A9" s="230">
+      <c r="A9" s="233">
         <v>2</v>
       </c>
-      <c r="B9" s="226" t="s">
+      <c r="B9" s="215" t="s">
         <v>25</v>
       </c>
       <c r="C9" s="10" t="s">
@@ -13189,864 +13218,864 @@
       <c r="D9" s="3" t="s">
         <v>286</v>
       </c>
-      <c r="E9" s="243"/>
-      <c r="F9" s="222" t="s">
+      <c r="E9" s="198"/>
+      <c r="F9" s="199" t="s">
         <v>192</v>
       </c>
-      <c r="G9" s="237" t="s">
+      <c r="G9" s="201" t="s">
         <v>13</v>
       </c>
-      <c r="H9" s="221"/>
-      <c r="I9" s="241" t="s">
+      <c r="H9" s="242"/>
+      <c r="I9" s="243" t="s">
         <v>184</v>
       </c>
-      <c r="J9" s="222" t="s">
+      <c r="J9" s="199" t="s">
         <v>194</v>
       </c>
-      <c r="K9" s="222" t="s">
+      <c r="K9" s="199" t="s">
         <v>195</v>
       </c>
-      <c r="L9" s="237" t="s">
+      <c r="L9" s="201" t="s">
         <v>328</v>
       </c>
-      <c r="M9" s="201"/>
+      <c r="M9" s="266"/>
     </row>
     <row r="10" spans="1:13" ht="15.75" customHeight="1">
       <c r="A10" s="231"/>
-      <c r="B10" s="227"/>
+      <c r="B10" s="216"/>
       <c r="C10" s="11" t="s">
         <v>26</v>
       </c>
       <c r="D10" s="4"/>
-      <c r="E10" s="204"/>
-      <c r="F10" s="211"/>
-      <c r="G10" s="215"/>
-      <c r="H10" s="207"/>
-      <c r="I10" s="242"/>
-      <c r="J10" s="211"/>
-      <c r="K10" s="211"/>
-      <c r="L10" s="238"/>
-      <c r="M10" s="202"/>
+      <c r="E10" s="190"/>
+      <c r="F10" s="200"/>
+      <c r="G10" s="193"/>
+      <c r="H10" s="194"/>
+      <c r="I10" s="244"/>
+      <c r="J10" s="200"/>
+      <c r="K10" s="200"/>
+      <c r="L10" s="237"/>
+      <c r="M10" s="267"/>
     </row>
     <row r="11" spans="1:13" ht="15.75" customHeight="1" thickBot="1">
-      <c r="A11" s="249">
+      <c r="A11" s="228">
         <v>3</v>
       </c>
-      <c r="B11" s="227"/>
+      <c r="B11" s="216"/>
       <c r="C11" s="11" t="s">
         <v>263</v>
       </c>
       <c r="D11" s="4"/>
-      <c r="E11" s="212"/>
-      <c r="F11" s="239"/>
-      <c r="G11" s="209"/>
-      <c r="H11" s="209" t="s">
+      <c r="E11" s="197"/>
+      <c r="F11" s="205"/>
+      <c r="G11" s="191"/>
+      <c r="H11" s="191" t="s">
         <v>198</v>
       </c>
-      <c r="I11" s="209" t="s">
+      <c r="I11" s="191" t="s">
         <v>196</v>
       </c>
-      <c r="J11" s="209"/>
-      <c r="K11" s="209"/>
+      <c r="J11" s="191"/>
+      <c r="K11" s="191"/>
       <c r="L11" s="236" t="s">
         <v>329</v>
       </c>
-      <c r="M11" s="187"/>
+      <c r="M11" s="239"/>
     </row>
     <row r="12" spans="1:13" ht="15.75" customHeight="1">
-      <c r="A12" s="250"/>
-      <c r="B12" s="227"/>
+      <c r="A12" s="229"/>
+      <c r="B12" s="216"/>
       <c r="C12" s="11" t="s">
         <v>28</v>
       </c>
       <c r="D12" s="10"/>
-      <c r="E12" s="212"/>
-      <c r="F12" s="239"/>
-      <c r="G12" s="209"/>
-      <c r="H12" s="209"/>
-      <c r="I12" s="209"/>
-      <c r="J12" s="209"/>
-      <c r="K12" s="209"/>
+      <c r="E12" s="197"/>
+      <c r="F12" s="205"/>
+      <c r="G12" s="191"/>
+      <c r="H12" s="191"/>
+      <c r="I12" s="191"/>
+      <c r="J12" s="191"/>
+      <c r="K12" s="191"/>
       <c r="L12" s="236"/>
-      <c r="M12" s="187"/>
+      <c r="M12" s="239"/>
     </row>
     <row r="13" spans="1:13" ht="15.75" customHeight="1">
-      <c r="A13" s="251">
+      <c r="A13" s="230">
         <v>4</v>
       </c>
-      <c r="B13" s="227"/>
+      <c r="B13" s="216"/>
       <c r="C13" s="11" t="s">
         <v>29</v>
       </c>
       <c r="D13" s="11"/>
-      <c r="E13" s="204"/>
-      <c r="F13" s="263" t="s">
+      <c r="E13" s="190"/>
+      <c r="F13" s="192" t="s">
         <v>36</v>
       </c>
-      <c r="G13" s="215" t="s">
+      <c r="G13" s="193" t="s">
         <v>33</v>
       </c>
-      <c r="H13" s="207"/>
-      <c r="I13" s="215" t="s">
+      <c r="H13" s="194"/>
+      <c r="I13" s="193" t="s">
         <v>330</v>
       </c>
-      <c r="J13" s="207"/>
-      <c r="K13" s="207"/>
-      <c r="L13" s="188"/>
-      <c r="M13" s="188"/>
+      <c r="J13" s="194"/>
+      <c r="K13" s="194"/>
+      <c r="L13" s="257"/>
+      <c r="M13" s="257"/>
     </row>
     <row r="14" spans="1:13" ht="15.75" customHeight="1">
       <c r="A14" s="231"/>
-      <c r="B14" s="227"/>
+      <c r="B14" s="216"/>
       <c r="C14" s="32" t="s">
         <v>30</v>
       </c>
       <c r="D14" s="4"/>
-      <c r="E14" s="204"/>
-      <c r="F14" s="263"/>
-      <c r="G14" s="215"/>
-      <c r="H14" s="207"/>
-      <c r="I14" s="215"/>
-      <c r="J14" s="207"/>
-      <c r="K14" s="207"/>
-      <c r="L14" s="188"/>
-      <c r="M14" s="188"/>
+      <c r="E14" s="190"/>
+      <c r="F14" s="192"/>
+      <c r="G14" s="193"/>
+      <c r="H14" s="194"/>
+      <c r="I14" s="193"/>
+      <c r="J14" s="194"/>
+      <c r="K14" s="194"/>
+      <c r="L14" s="257"/>
+      <c r="M14" s="257"/>
     </row>
     <row r="15" spans="1:13" ht="15.75" customHeight="1">
-      <c r="A15" s="249">
+      <c r="A15" s="228">
         <v>5</v>
       </c>
-      <c r="B15" s="227"/>
+      <c r="B15" s="216"/>
       <c r="C15" s="234" t="s">
         <v>31</v>
       </c>
       <c r="D15" s="4"/>
-      <c r="E15" s="212" t="s">
+      <c r="E15" s="197" t="s">
         <v>27</v>
       </c>
-      <c r="F15" s="239"/>
-      <c r="G15" s="209"/>
-      <c r="H15" s="209"/>
-      <c r="I15" s="209"/>
-      <c r="J15" s="209"/>
-      <c r="K15" s="209"/>
-      <c r="L15" s="187"/>
-      <c r="M15" s="187"/>
+      <c r="F15" s="205"/>
+      <c r="G15" s="191"/>
+      <c r="H15" s="191"/>
+      <c r="I15" s="191"/>
+      <c r="J15" s="191"/>
+      <c r="K15" s="191"/>
+      <c r="L15" s="239"/>
+      <c r="M15" s="239"/>
     </row>
     <row r="16" spans="1:13" ht="15.75" customHeight="1" thickBot="1">
-      <c r="A16" s="252"/>
-      <c r="B16" s="229"/>
+      <c r="A16" s="232"/>
+      <c r="B16" s="221"/>
       <c r="C16" s="235"/>
       <c r="D16" s="5"/>
-      <c r="E16" s="213"/>
-      <c r="F16" s="240"/>
-      <c r="G16" s="210"/>
-      <c r="H16" s="210"/>
-      <c r="I16" s="210"/>
-      <c r="J16" s="210"/>
-      <c r="K16" s="210"/>
-      <c r="L16" s="192"/>
-      <c r="M16" s="192"/>
+      <c r="E16" s="245"/>
+      <c r="F16" s="241"/>
+      <c r="G16" s="238"/>
+      <c r="H16" s="238"/>
+      <c r="I16" s="238"/>
+      <c r="J16" s="238"/>
+      <c r="K16" s="238"/>
+      <c r="L16" s="240"/>
+      <c r="M16" s="240"/>
     </row>
     <row r="17" spans="1:13" ht="15.75" customHeight="1">
-      <c r="A17" s="253">
+      <c r="A17" s="218">
         <v>6</v>
       </c>
-      <c r="B17" s="226" t="s">
+      <c r="B17" s="215" t="s">
         <v>34</v>
       </c>
       <c r="C17" s="10" t="s">
         <v>35</v>
       </c>
       <c r="D17" s="3"/>
-      <c r="E17" s="243"/>
-      <c r="F17" s="221"/>
-      <c r="G17" s="221"/>
-      <c r="H17" s="222" t="s">
+      <c r="E17" s="198"/>
+      <c r="F17" s="242"/>
+      <c r="G17" s="242"/>
+      <c r="H17" s="199" t="s">
         <v>27</v>
       </c>
-      <c r="I17" s="222"/>
-      <c r="J17" s="222"/>
-      <c r="K17" s="222"/>
-      <c r="L17" s="196"/>
-      <c r="M17" s="196"/>
+      <c r="I17" s="199"/>
+      <c r="J17" s="199"/>
+      <c r="K17" s="199"/>
+      <c r="L17" s="264"/>
+      <c r="M17" s="264"/>
     </row>
     <row r="18" spans="1:13" ht="15.75" customHeight="1">
-      <c r="A18" s="232"/>
-      <c r="B18" s="227"/>
+      <c r="A18" s="207"/>
+      <c r="B18" s="216"/>
       <c r="C18" s="11" t="s">
         <v>37</v>
       </c>
       <c r="D18" s="4"/>
-      <c r="E18" s="204"/>
-      <c r="F18" s="207"/>
-      <c r="G18" s="207"/>
-      <c r="H18" s="211"/>
-      <c r="I18" s="211"/>
-      <c r="J18" s="211"/>
-      <c r="K18" s="211"/>
-      <c r="L18" s="191"/>
-      <c r="M18" s="191"/>
+      <c r="E18" s="190"/>
+      <c r="F18" s="194"/>
+      <c r="G18" s="194"/>
+      <c r="H18" s="200"/>
+      <c r="I18" s="200"/>
+      <c r="J18" s="200"/>
+      <c r="K18" s="200"/>
+      <c r="L18" s="250"/>
+      <c r="M18" s="250"/>
     </row>
     <row r="19" spans="1:13" ht="15.75" customHeight="1">
-      <c r="A19" s="232"/>
-      <c r="B19" s="227"/>
+      <c r="A19" s="207"/>
+      <c r="B19" s="216"/>
       <c r="C19" s="11" t="s">
         <v>38</v>
       </c>
       <c r="D19" s="4"/>
-      <c r="E19" s="204"/>
-      <c r="F19" s="207"/>
-      <c r="G19" s="207"/>
-      <c r="H19" s="211"/>
-      <c r="I19" s="211"/>
-      <c r="J19" s="211"/>
-      <c r="K19" s="211"/>
-      <c r="L19" s="191"/>
-      <c r="M19" s="191"/>
+      <c r="E19" s="190"/>
+      <c r="F19" s="194"/>
+      <c r="G19" s="194"/>
+      <c r="H19" s="200"/>
+      <c r="I19" s="200"/>
+      <c r="J19" s="200"/>
+      <c r="K19" s="200"/>
+      <c r="L19" s="250"/>
+      <c r="M19" s="250"/>
     </row>
     <row r="20" spans="1:13" ht="15.75" customHeight="1">
-      <c r="A20" s="224">
+      <c r="A20" s="208">
         <v>7</v>
       </c>
-      <c r="B20" s="227"/>
+      <c r="B20" s="216"/>
       <c r="C20" s="11" t="s">
         <v>39</v>
       </c>
       <c r="D20" s="4"/>
-      <c r="E20" s="212" t="s">
+      <c r="E20" s="197" t="s">
         <v>32</v>
       </c>
-      <c r="F20" s="220" t="s">
+      <c r="F20" s="252" t="s">
         <v>44</v>
       </c>
-      <c r="G20" s="220"/>
-      <c r="H20" s="220"/>
-      <c r="I20" s="220"/>
-      <c r="J20" s="220"/>
-      <c r="K20" s="220"/>
-      <c r="L20" s="197"/>
-      <c r="M20" s="197"/>
+      <c r="G20" s="252"/>
+      <c r="H20" s="252"/>
+      <c r="I20" s="252"/>
+      <c r="J20" s="252"/>
+      <c r="K20" s="252"/>
+      <c r="L20" s="253"/>
+      <c r="M20" s="253"/>
     </row>
     <row r="21" spans="1:13" ht="15.75" customHeight="1">
-      <c r="A21" s="224"/>
-      <c r="B21" s="227"/>
+      <c r="A21" s="208"/>
+      <c r="B21" s="216"/>
       <c r="C21" s="11" t="s">
         <v>41</v>
       </c>
       <c r="D21" s="4"/>
-      <c r="E21" s="212"/>
-      <c r="F21" s="220"/>
-      <c r="G21" s="220"/>
-      <c r="H21" s="220"/>
-      <c r="I21" s="220"/>
-      <c r="J21" s="220"/>
-      <c r="K21" s="220"/>
-      <c r="L21" s="197"/>
-      <c r="M21" s="197"/>
+      <c r="E21" s="197"/>
+      <c r="F21" s="252"/>
+      <c r="G21" s="252"/>
+      <c r="H21" s="252"/>
+      <c r="I21" s="252"/>
+      <c r="J21" s="252"/>
+      <c r="K21" s="252"/>
+      <c r="L21" s="253"/>
+      <c r="M21" s="253"/>
     </row>
     <row r="22" spans="1:13" ht="15.75" customHeight="1">
-      <c r="A22" s="224"/>
-      <c r="B22" s="227"/>
+      <c r="A22" s="208"/>
+      <c r="B22" s="216"/>
       <c r="C22" s="32" t="s">
         <v>42</v>
       </c>
       <c r="D22" s="4"/>
-      <c r="E22" s="212"/>
-      <c r="F22" s="220"/>
-      <c r="G22" s="220"/>
-      <c r="H22" s="220"/>
-      <c r="I22" s="220"/>
-      <c r="J22" s="220"/>
-      <c r="K22" s="220"/>
-      <c r="L22" s="197"/>
-      <c r="M22" s="197"/>
+      <c r="E22" s="197"/>
+      <c r="F22" s="252"/>
+      <c r="G22" s="252"/>
+      <c r="H22" s="252"/>
+      <c r="I22" s="252"/>
+      <c r="J22" s="252"/>
+      <c r="K22" s="252"/>
+      <c r="L22" s="253"/>
+      <c r="M22" s="253"/>
     </row>
     <row r="23" spans="1:13" ht="15.75" customHeight="1">
-      <c r="A23" s="232">
+      <c r="A23" s="207">
         <v>8</v>
       </c>
-      <c r="B23" s="227"/>
+      <c r="B23" s="216"/>
       <c r="C23" s="32" t="s">
         <v>43</v>
       </c>
       <c r="D23" s="4"/>
-      <c r="E23" s="204"/>
-      <c r="F23" s="207"/>
-      <c r="G23" s="215" t="s">
+      <c r="E23" s="190"/>
+      <c r="F23" s="194"/>
+      <c r="G23" s="193" t="s">
         <v>50</v>
       </c>
-      <c r="H23" s="211" t="s">
+      <c r="H23" s="200" t="s">
         <v>32</v>
       </c>
-      <c r="I23" s="211"/>
-      <c r="J23" s="211"/>
-      <c r="K23" s="211"/>
-      <c r="L23" s="191"/>
-      <c r="M23" s="191"/>
+      <c r="I23" s="200"/>
+      <c r="J23" s="200"/>
+      <c r="K23" s="200"/>
+      <c r="L23" s="250"/>
+      <c r="M23" s="250"/>
     </row>
     <row r="24" spans="1:13" ht="15.75" customHeight="1">
-      <c r="A24" s="232"/>
-      <c r="B24" s="227"/>
+      <c r="A24" s="207"/>
+      <c r="B24" s="216"/>
       <c r="C24" s="32" t="s">
         <v>45</v>
       </c>
       <c r="D24" s="4"/>
-      <c r="E24" s="204"/>
-      <c r="F24" s="207"/>
-      <c r="G24" s="215"/>
-      <c r="H24" s="211"/>
-      <c r="I24" s="211"/>
-      <c r="J24" s="211"/>
-      <c r="K24" s="211"/>
-      <c r="L24" s="191"/>
-      <c r="M24" s="191"/>
+      <c r="E24" s="190"/>
+      <c r="F24" s="194"/>
+      <c r="G24" s="193"/>
+      <c r="H24" s="200"/>
+      <c r="I24" s="200"/>
+      <c r="J24" s="200"/>
+      <c r="K24" s="200"/>
+      <c r="L24" s="250"/>
+      <c r="M24" s="250"/>
     </row>
     <row r="25" spans="1:13" ht="15.75" customHeight="1" thickBot="1">
-      <c r="A25" s="233"/>
-      <c r="B25" s="229"/>
+      <c r="A25" s="224"/>
+      <c r="B25" s="221"/>
       <c r="C25" s="33" t="s">
         <v>46</v>
       </c>
       <c r="D25" s="5"/>
-      <c r="E25" s="205"/>
-      <c r="F25" s="208"/>
-      <c r="G25" s="216"/>
-      <c r="H25" s="214"/>
-      <c r="I25" s="214"/>
-      <c r="J25" s="214"/>
-      <c r="K25" s="214"/>
-      <c r="L25" s="198"/>
-      <c r="M25" s="198"/>
+      <c r="E25" s="246"/>
+      <c r="F25" s="247"/>
+      <c r="G25" s="248"/>
+      <c r="H25" s="249"/>
+      <c r="I25" s="249"/>
+      <c r="J25" s="249"/>
+      <c r="K25" s="249"/>
+      <c r="L25" s="251"/>
+      <c r="M25" s="251"/>
     </row>
     <row r="26" spans="1:13" ht="15.75" customHeight="1">
-      <c r="A26" s="244">
+      <c r="A26" s="222">
         <v>9</v>
       </c>
-      <c r="B26" s="226" t="s">
+      <c r="B26" s="215" t="s">
         <v>47</v>
       </c>
       <c r="C26" s="12" t="s">
         <v>48</v>
       </c>
       <c r="D26" s="3"/>
-      <c r="E26" s="217" t="s">
+      <c r="E26" s="202" t="s">
         <v>40</v>
       </c>
-      <c r="F26" s="219" t="s">
+      <c r="F26" s="254" t="s">
         <v>53</v>
       </c>
-      <c r="G26" s="219"/>
-      <c r="H26" s="219"/>
-      <c r="I26" s="219"/>
-      <c r="J26" s="219"/>
-      <c r="K26" s="219"/>
-      <c r="L26" s="199"/>
-      <c r="M26" s="199"/>
+      <c r="G26" s="254"/>
+      <c r="H26" s="254"/>
+      <c r="I26" s="254"/>
+      <c r="J26" s="254"/>
+      <c r="K26" s="254"/>
+      <c r="L26" s="255"/>
+      <c r="M26" s="255"/>
     </row>
     <row r="27" spans="1:13" ht="15.75" customHeight="1">
-      <c r="A27" s="245"/>
-      <c r="B27" s="227"/>
+      <c r="A27" s="223"/>
+      <c r="B27" s="216"/>
       <c r="C27" s="13" t="s">
         <v>51</v>
       </c>
       <c r="D27" s="4"/>
-      <c r="E27" s="212"/>
-      <c r="F27" s="220"/>
-      <c r="G27" s="220"/>
-      <c r="H27" s="220"/>
-      <c r="I27" s="220"/>
-      <c r="J27" s="220"/>
-      <c r="K27" s="220"/>
-      <c r="L27" s="197"/>
-      <c r="M27" s="197"/>
+      <c r="E27" s="197"/>
+      <c r="F27" s="252"/>
+      <c r="G27" s="252"/>
+      <c r="H27" s="252"/>
+      <c r="I27" s="252"/>
+      <c r="J27" s="252"/>
+      <c r="K27" s="252"/>
+      <c r="L27" s="253"/>
+      <c r="M27" s="253"/>
     </row>
     <row r="28" spans="1:13" ht="15.75" customHeight="1">
-      <c r="A28" s="233">
+      <c r="A28" s="224">
         <v>10</v>
       </c>
-      <c r="B28" s="227"/>
+      <c r="B28" s="216"/>
       <c r="C28" s="13" t="s">
         <v>52</v>
       </c>
       <c r="D28" s="4"/>
-      <c r="E28" s="204"/>
-      <c r="F28" s="211" t="s">
+      <c r="E28" s="190"/>
+      <c r="F28" s="200" t="s">
         <v>59</v>
       </c>
-      <c r="G28" s="211"/>
-      <c r="H28" s="211" t="s">
+      <c r="G28" s="200"/>
+      <c r="H28" s="200" t="s">
         <v>40</v>
       </c>
-      <c r="I28" s="211"/>
-      <c r="J28" s="211"/>
-      <c r="K28" s="211"/>
-      <c r="L28" s="191"/>
-      <c r="M28" s="191"/>
+      <c r="I28" s="200"/>
+      <c r="J28" s="200"/>
+      <c r="K28" s="200"/>
+      <c r="L28" s="250"/>
+      <c r="M28" s="250"/>
     </row>
     <row r="29" spans="1:13" ht="15.75" customHeight="1">
-      <c r="A29" s="246"/>
-      <c r="B29" s="227"/>
+      <c r="A29" s="225"/>
+      <c r="B29" s="216"/>
       <c r="C29" s="13" t="s">
         <v>54</v>
       </c>
       <c r="D29" s="4"/>
-      <c r="E29" s="204"/>
-      <c r="F29" s="211"/>
-      <c r="G29" s="211"/>
-      <c r="H29" s="211"/>
-      <c r="I29" s="211"/>
-      <c r="J29" s="211"/>
-      <c r="K29" s="211"/>
-      <c r="L29" s="191"/>
-      <c r="M29" s="191"/>
+      <c r="E29" s="190"/>
+      <c r="F29" s="200"/>
+      <c r="G29" s="200"/>
+      <c r="H29" s="200"/>
+      <c r="I29" s="200"/>
+      <c r="J29" s="200"/>
+      <c r="K29" s="200"/>
+      <c r="L29" s="250"/>
+      <c r="M29" s="250"/>
     </row>
     <row r="30" spans="1:13" ht="15.75" customHeight="1">
-      <c r="A30" s="247">
+      <c r="A30" s="226">
         <v>11</v>
       </c>
-      <c r="B30" s="227"/>
+      <c r="B30" s="216"/>
       <c r="C30" s="13" t="s">
         <v>55</v>
       </c>
       <c r="D30" s="4"/>
-      <c r="E30" s="212" t="s">
+      <c r="E30" s="197" t="s">
         <v>49</v>
       </c>
-      <c r="F30" s="209"/>
-      <c r="G30" s="209"/>
-      <c r="H30" s="209"/>
-      <c r="I30" s="209"/>
-      <c r="J30" s="209"/>
-      <c r="K30" s="209"/>
-      <c r="L30" s="187"/>
-      <c r="M30" s="187"/>
+      <c r="F30" s="191"/>
+      <c r="G30" s="191"/>
+      <c r="H30" s="191"/>
+      <c r="I30" s="191"/>
+      <c r="J30" s="191"/>
+      <c r="K30" s="191"/>
+      <c r="L30" s="239"/>
+      <c r="M30" s="239"/>
     </row>
     <row r="31" spans="1:13" ht="15.75" customHeight="1">
-      <c r="A31" s="245"/>
-      <c r="B31" s="227"/>
+      <c r="A31" s="223"/>
+      <c r="B31" s="216"/>
       <c r="C31" s="14" t="s">
         <v>57</v>
       </c>
       <c r="D31" s="4"/>
-      <c r="E31" s="212"/>
-      <c r="F31" s="209"/>
-      <c r="G31" s="209"/>
-      <c r="H31" s="209"/>
-      <c r="I31" s="209"/>
-      <c r="J31" s="209"/>
-      <c r="K31" s="209"/>
-      <c r="L31" s="187"/>
-      <c r="M31" s="187"/>
+      <c r="E31" s="197"/>
+      <c r="F31" s="191"/>
+      <c r="G31" s="191"/>
+      <c r="H31" s="191"/>
+      <c r="I31" s="191"/>
+      <c r="J31" s="191"/>
+      <c r="K31" s="191"/>
+      <c r="L31" s="239"/>
+      <c r="M31" s="239"/>
     </row>
     <row r="32" spans="1:13" ht="15.75" customHeight="1">
-      <c r="A32" s="233">
+      <c r="A32" s="224">
         <v>12</v>
       </c>
-      <c r="B32" s="227"/>
+      <c r="B32" s="216"/>
       <c r="C32" s="14" t="s">
         <v>58</v>
       </c>
       <c r="D32" s="4"/>
-      <c r="E32" s="204"/>
-      <c r="F32" s="211" t="s">
+      <c r="E32" s="190"/>
+      <c r="F32" s="200" t="s">
         <v>67</v>
       </c>
-      <c r="G32" s="215" t="s">
+      <c r="G32" s="193" t="s">
         <v>64</v>
       </c>
-      <c r="H32" s="211" t="s">
+      <c r="H32" s="200" t="s">
         <v>49</v>
       </c>
-      <c r="I32" s="211"/>
-      <c r="J32" s="211"/>
-      <c r="K32" s="211"/>
-      <c r="L32" s="191"/>
-      <c r="M32" s="191"/>
+      <c r="I32" s="200"/>
+      <c r="J32" s="200"/>
+      <c r="K32" s="200"/>
+      <c r="L32" s="250"/>
+      <c r="M32" s="250"/>
     </row>
     <row r="33" spans="1:13" ht="15.75" customHeight="1" thickBot="1">
-      <c r="A33" s="248"/>
-      <c r="B33" s="229"/>
+      <c r="A33" s="227"/>
+      <c r="B33" s="221"/>
       <c r="C33" s="15" t="s">
         <v>60</v>
       </c>
       <c r="D33" s="5"/>
-      <c r="E33" s="205"/>
-      <c r="F33" s="214"/>
-      <c r="G33" s="216"/>
-      <c r="H33" s="214"/>
-      <c r="I33" s="214"/>
-      <c r="J33" s="214"/>
-      <c r="K33" s="214"/>
-      <c r="L33" s="198"/>
-      <c r="M33" s="198"/>
+      <c r="E33" s="246"/>
+      <c r="F33" s="249"/>
+      <c r="G33" s="248"/>
+      <c r="H33" s="249"/>
+      <c r="I33" s="249"/>
+      <c r="J33" s="249"/>
+      <c r="K33" s="249"/>
+      <c r="L33" s="251"/>
+      <c r="M33" s="251"/>
     </row>
     <row r="34" spans="1:13" ht="15.75" customHeight="1">
-      <c r="A34" s="223">
+      <c r="A34" s="220">
         <v>13</v>
       </c>
-      <c r="B34" s="226" t="s">
+      <c r="B34" s="215" t="s">
         <v>61</v>
       </c>
       <c r="C34" s="16" t="s">
         <v>62</v>
       </c>
       <c r="D34" s="3"/>
-      <c r="E34" s="217" t="s">
+      <c r="E34" s="202" t="s">
         <v>56</v>
       </c>
-      <c r="F34" s="218"/>
-      <c r="G34" s="218"/>
-      <c r="H34" s="218"/>
-      <c r="I34" s="218"/>
-      <c r="J34" s="218"/>
-      <c r="K34" s="218"/>
-      <c r="L34" s="190"/>
-      <c r="M34" s="190"/>
+      <c r="F34" s="195"/>
+      <c r="G34" s="195"/>
+      <c r="H34" s="195"/>
+      <c r="I34" s="195"/>
+      <c r="J34" s="195"/>
+      <c r="K34" s="195"/>
+      <c r="L34" s="256"/>
+      <c r="M34" s="256"/>
     </row>
     <row r="35" spans="1:13" ht="15.75" customHeight="1">
-      <c r="A35" s="224"/>
-      <c r="B35" s="227"/>
+      <c r="A35" s="208"/>
+      <c r="B35" s="216"/>
       <c r="C35" s="17" t="s">
         <v>65</v>
       </c>
       <c r="D35" s="4"/>
-      <c r="E35" s="212"/>
-      <c r="F35" s="209"/>
-      <c r="G35" s="209"/>
-      <c r="H35" s="209"/>
-      <c r="I35" s="209"/>
-      <c r="J35" s="209"/>
-      <c r="K35" s="209"/>
-      <c r="L35" s="187"/>
-      <c r="M35" s="187"/>
+      <c r="E35" s="197"/>
+      <c r="F35" s="191"/>
+      <c r="G35" s="191"/>
+      <c r="H35" s="191"/>
+      <c r="I35" s="191"/>
+      <c r="J35" s="191"/>
+      <c r="K35" s="191"/>
+      <c r="L35" s="239"/>
+      <c r="M35" s="239"/>
     </row>
     <row r="36" spans="1:13" ht="15.75" customHeight="1">
-      <c r="A36" s="232">
+      <c r="A36" s="207">
         <v>14</v>
       </c>
-      <c r="B36" s="227"/>
+      <c r="B36" s="216"/>
       <c r="C36" s="17" t="s">
         <v>66</v>
       </c>
       <c r="D36" s="4"/>
-      <c r="E36" s="204"/>
-      <c r="F36" s="207" t="s">
+      <c r="E36" s="190"/>
+      <c r="F36" s="194" t="s">
         <v>73</v>
       </c>
-      <c r="G36" s="207"/>
-      <c r="H36" s="207" t="s">
+      <c r="G36" s="194"/>
+      <c r="H36" s="194" t="s">
         <v>56</v>
       </c>
-      <c r="I36" s="207"/>
-      <c r="J36" s="207"/>
-      <c r="K36" s="207"/>
-      <c r="L36" s="188"/>
-      <c r="M36" s="188"/>
+      <c r="I36" s="194"/>
+      <c r="J36" s="194"/>
+      <c r="K36" s="194"/>
+      <c r="L36" s="257"/>
+      <c r="M36" s="257"/>
     </row>
     <row r="37" spans="1:13" ht="15.75" customHeight="1">
-      <c r="A37" s="232"/>
-      <c r="B37" s="227"/>
+      <c r="A37" s="207"/>
+      <c r="B37" s="216"/>
       <c r="C37" s="17" t="s">
         <v>68</v>
       </c>
       <c r="D37" s="4"/>
-      <c r="E37" s="204"/>
-      <c r="F37" s="207"/>
-      <c r="G37" s="207"/>
-      <c r="H37" s="207"/>
-      <c r="I37" s="207"/>
-      <c r="J37" s="207"/>
-      <c r="K37" s="207"/>
-      <c r="L37" s="188"/>
-      <c r="M37" s="188"/>
+      <c r="E37" s="190"/>
+      <c r="F37" s="194"/>
+      <c r="G37" s="194"/>
+      <c r="H37" s="194"/>
+      <c r="I37" s="194"/>
+      <c r="J37" s="194"/>
+      <c r="K37" s="194"/>
+      <c r="L37" s="257"/>
+      <c r="M37" s="257"/>
     </row>
     <row r="38" spans="1:13" ht="15.75" customHeight="1">
-      <c r="A38" s="224">
+      <c r="A38" s="208">
         <v>15</v>
       </c>
-      <c r="B38" s="227"/>
+      <c r="B38" s="216"/>
       <c r="C38" s="17" t="s">
         <v>69</v>
       </c>
       <c r="D38" s="4"/>
-      <c r="E38" s="212" t="s">
+      <c r="E38" s="197" t="s">
         <v>63</v>
       </c>
-      <c r="F38" s="209"/>
-      <c r="G38" s="209"/>
-      <c r="H38" s="209"/>
-      <c r="I38" s="209"/>
-      <c r="J38" s="209"/>
-      <c r="K38" s="209"/>
-      <c r="L38" s="187"/>
-      <c r="M38" s="187"/>
+      <c r="F38" s="191"/>
+      <c r="G38" s="191"/>
+      <c r="H38" s="191"/>
+      <c r="I38" s="191"/>
+      <c r="J38" s="191"/>
+      <c r="K38" s="191"/>
+      <c r="L38" s="239"/>
+      <c r="M38" s="239"/>
     </row>
     <row r="39" spans="1:13" ht="15.75" customHeight="1">
-      <c r="A39" s="224"/>
-      <c r="B39" s="227"/>
+      <c r="A39" s="208"/>
+      <c r="B39" s="216"/>
       <c r="C39" s="32" t="s">
         <v>71</v>
       </c>
       <c r="D39" s="4"/>
-      <c r="E39" s="212"/>
-      <c r="F39" s="209"/>
-      <c r="G39" s="209"/>
-      <c r="H39" s="209"/>
-      <c r="I39" s="209"/>
-      <c r="J39" s="209"/>
-      <c r="K39" s="209"/>
-      <c r="L39" s="187"/>
-      <c r="M39" s="187"/>
+      <c r="E39" s="197"/>
+      <c r="F39" s="191"/>
+      <c r="G39" s="191"/>
+      <c r="H39" s="191"/>
+      <c r="I39" s="191"/>
+      <c r="J39" s="191"/>
+      <c r="K39" s="191"/>
+      <c r="L39" s="239"/>
+      <c r="M39" s="239"/>
     </row>
     <row r="40" spans="1:13" ht="15.75" customHeight="1">
-      <c r="A40" s="232">
+      <c r="A40" s="207">
         <v>16</v>
       </c>
-      <c r="B40" s="227"/>
+      <c r="B40" s="216"/>
       <c r="C40" s="32" t="s">
         <v>72</v>
       </c>
       <c r="D40" s="4"/>
-      <c r="E40" s="204"/>
-      <c r="F40" s="211" t="s">
+      <c r="E40" s="190"/>
+      <c r="F40" s="200" t="s">
         <v>82</v>
       </c>
-      <c r="G40" s="215" t="s">
+      <c r="G40" s="193" t="s">
         <v>79</v>
       </c>
-      <c r="H40" s="207" t="s">
+      <c r="H40" s="194" t="s">
         <v>63</v>
       </c>
-      <c r="I40" s="207"/>
-      <c r="J40" s="207"/>
-      <c r="K40" s="207"/>
-      <c r="L40" s="188"/>
-      <c r="M40" s="188"/>
+      <c r="I40" s="194"/>
+      <c r="J40" s="194"/>
+      <c r="K40" s="194"/>
+      <c r="L40" s="257"/>
+      <c r="M40" s="257"/>
     </row>
     <row r="41" spans="1:13" ht="15.75" customHeight="1">
-      <c r="A41" s="232"/>
-      <c r="B41" s="227"/>
+      <c r="A41" s="207"/>
+      <c r="B41" s="216"/>
       <c r="C41" s="32" t="s">
         <v>74</v>
       </c>
       <c r="D41" s="4"/>
-      <c r="E41" s="204"/>
-      <c r="F41" s="211"/>
-      <c r="G41" s="215"/>
-      <c r="H41" s="207"/>
-      <c r="I41" s="207"/>
-      <c r="J41" s="207"/>
-      <c r="K41" s="207"/>
-      <c r="L41" s="188"/>
-      <c r="M41" s="188"/>
+      <c r="E41" s="190"/>
+      <c r="F41" s="200"/>
+      <c r="G41" s="193"/>
+      <c r="H41" s="194"/>
+      <c r="I41" s="194"/>
+      <c r="J41" s="194"/>
+      <c r="K41" s="194"/>
+      <c r="L41" s="257"/>
+      <c r="M41" s="257"/>
     </row>
     <row r="42" spans="1:13" ht="15.75" customHeight="1" thickBot="1">
-      <c r="A42" s="259"/>
-      <c r="B42" s="228"/>
+      <c r="A42" s="219"/>
+      <c r="B42" s="217"/>
       <c r="C42" s="9" t="s">
         <v>75</v>
       </c>
       <c r="D42" s="5"/>
-      <c r="E42" s="205"/>
-      <c r="F42" s="214"/>
-      <c r="G42" s="216"/>
-      <c r="H42" s="208"/>
-      <c r="I42" s="208"/>
-      <c r="J42" s="208"/>
-      <c r="K42" s="208"/>
-      <c r="L42" s="189"/>
-      <c r="M42" s="189"/>
+      <c r="E42" s="246"/>
+      <c r="F42" s="249"/>
+      <c r="G42" s="248"/>
+      <c r="H42" s="247"/>
+      <c r="I42" s="247"/>
+      <c r="J42" s="247"/>
+      <c r="K42" s="247"/>
+      <c r="L42" s="258"/>
+      <c r="M42" s="258"/>
     </row>
     <row r="43" spans="1:13" ht="15.75" customHeight="1">
-      <c r="A43" s="223">
+      <c r="A43" s="220">
         <v>17</v>
       </c>
-      <c r="B43" s="254" t="s">
+      <c r="B43" s="210" t="s">
         <v>76</v>
       </c>
       <c r="C43" s="10" t="s">
         <v>77</v>
       </c>
       <c r="D43" s="3"/>
-      <c r="E43" s="217" t="s">
+      <c r="E43" s="202" t="s">
         <v>70</v>
       </c>
-      <c r="F43" s="218"/>
-      <c r="G43" s="218"/>
-      <c r="H43" s="218"/>
-      <c r="I43" s="218"/>
-      <c r="J43" s="218"/>
-      <c r="K43" s="218"/>
-      <c r="L43" s="190"/>
-      <c r="M43" s="190"/>
+      <c r="F43" s="195"/>
+      <c r="G43" s="195"/>
+      <c r="H43" s="195"/>
+      <c r="I43" s="195"/>
+      <c r="J43" s="195"/>
+      <c r="K43" s="195"/>
+      <c r="L43" s="256"/>
+      <c r="M43" s="256"/>
     </row>
     <row r="44" spans="1:13" ht="15.75" customHeight="1">
-      <c r="A44" s="224"/>
-      <c r="B44" s="255"/>
+      <c r="A44" s="208"/>
+      <c r="B44" s="211"/>
       <c r="C44" s="11" t="s">
         <v>80</v>
       </c>
       <c r="D44" s="4"/>
-      <c r="E44" s="212"/>
-      <c r="F44" s="209"/>
-      <c r="G44" s="209"/>
-      <c r="H44" s="209"/>
-      <c r="I44" s="209"/>
-      <c r="J44" s="209"/>
-      <c r="K44" s="209"/>
-      <c r="L44" s="187"/>
-      <c r="M44" s="187"/>
+      <c r="E44" s="197"/>
+      <c r="F44" s="191"/>
+      <c r="G44" s="191"/>
+      <c r="H44" s="191"/>
+      <c r="I44" s="191"/>
+      <c r="J44" s="191"/>
+      <c r="K44" s="191"/>
+      <c r="L44" s="239"/>
+      <c r="M44" s="239"/>
     </row>
     <row r="45" spans="1:13" ht="15.75" customHeight="1">
-      <c r="A45" s="232">
+      <c r="A45" s="207">
         <v>18</v>
       </c>
-      <c r="B45" s="255"/>
+      <c r="B45" s="211"/>
       <c r="C45" s="11" t="s">
         <v>81</v>
       </c>
       <c r="D45" s="4"/>
-      <c r="E45" s="204"/>
-      <c r="F45" s="211" t="s">
+      <c r="E45" s="190"/>
+      <c r="F45" s="200" t="s">
         <v>197</v>
       </c>
-      <c r="G45" s="207"/>
-      <c r="H45" s="211" t="s">
+      <c r="G45" s="194"/>
+      <c r="H45" s="200" t="s">
         <v>70</v>
       </c>
-      <c r="I45" s="211"/>
-      <c r="J45" s="211"/>
-      <c r="K45" s="211"/>
-      <c r="L45" s="191"/>
-      <c r="M45" s="191"/>
+      <c r="I45" s="200"/>
+      <c r="J45" s="200"/>
+      <c r="K45" s="200"/>
+      <c r="L45" s="250"/>
+      <c r="M45" s="250"/>
     </row>
     <row r="46" spans="1:13" ht="15.75" customHeight="1">
-      <c r="A46" s="232"/>
-      <c r="B46" s="255"/>
+      <c r="A46" s="207"/>
+      <c r="B46" s="211"/>
       <c r="C46" s="11" t="s">
         <v>83</v>
       </c>
       <c r="D46" s="4"/>
-      <c r="E46" s="204"/>
-      <c r="F46" s="211"/>
-      <c r="G46" s="207"/>
-      <c r="H46" s="211"/>
-      <c r="I46" s="211"/>
-      <c r="J46" s="211"/>
-      <c r="K46" s="211"/>
-      <c r="L46" s="191"/>
-      <c r="M46" s="191"/>
+      <c r="E46" s="190"/>
+      <c r="F46" s="200"/>
+      <c r="G46" s="194"/>
+      <c r="H46" s="200"/>
+      <c r="I46" s="200"/>
+      <c r="J46" s="200"/>
+      <c r="K46" s="200"/>
+      <c r="L46" s="250"/>
+      <c r="M46" s="250"/>
     </row>
     <row r="47" spans="1:13" ht="15.75" customHeight="1">
-      <c r="A47" s="224">
+      <c r="A47" s="208">
         <v>19</v>
       </c>
-      <c r="B47" s="255"/>
-      <c r="C47" s="257" t="s">
+      <c r="B47" s="211"/>
+      <c r="C47" s="213" t="s">
         <v>84</v>
       </c>
       <c r="D47" s="4"/>
-      <c r="E47" s="212" t="s">
+      <c r="E47" s="197" t="s">
         <v>78</v>
       </c>
-      <c r="F47" s="209"/>
-      <c r="G47" s="209"/>
-      <c r="H47" s="209"/>
-      <c r="I47" s="209"/>
-      <c r="J47" s="209"/>
-      <c r="K47" s="209"/>
-      <c r="L47" s="187"/>
-      <c r="M47" s="187"/>
+      <c r="F47" s="191"/>
+      <c r="G47" s="191"/>
+      <c r="H47" s="191"/>
+      <c r="I47" s="191"/>
+      <c r="J47" s="191"/>
+      <c r="K47" s="191"/>
+      <c r="L47" s="239"/>
+      <c r="M47" s="239"/>
     </row>
     <row r="48" spans="1:13" ht="15.75" customHeight="1" thickBot="1">
-      <c r="A48" s="225"/>
-      <c r="B48" s="256"/>
-      <c r="C48" s="258"/>
+      <c r="A48" s="209"/>
+      <c r="B48" s="212"/>
+      <c r="C48" s="214"/>
       <c r="D48" s="5"/>
-      <c r="E48" s="213"/>
-      <c r="F48" s="210"/>
-      <c r="G48" s="210"/>
-      <c r="H48" s="210"/>
-      <c r="I48" s="210"/>
-      <c r="J48" s="210"/>
-      <c r="K48" s="210"/>
-      <c r="L48" s="192"/>
-      <c r="M48" s="192"/>
+      <c r="E48" s="245"/>
+      <c r="F48" s="238"/>
+      <c r="G48" s="238"/>
+      <c r="H48" s="238"/>
+      <c r="I48" s="238"/>
+      <c r="J48" s="238"/>
+      <c r="K48" s="238"/>
+      <c r="L48" s="240"/>
+      <c r="M48" s="240"/>
     </row>
     <row r="49" spans="1:13" ht="15.75" customHeight="1">
-      <c r="A49" s="253">
+      <c r="A49" s="218">
         <v>20</v>
       </c>
-      <c r="B49" s="226" t="s">
+      <c r="B49" s="215" t="s">
         <v>85</v>
       </c>
       <c r="C49" s="10" t="s">
         <v>86</v>
       </c>
       <c r="D49" s="6"/>
-      <c r="E49" s="203"/>
-      <c r="F49" s="206"/>
-      <c r="G49" s="206"/>
-      <c r="H49" s="206" t="s">
+      <c r="E49" s="259"/>
+      <c r="F49" s="260"/>
+      <c r="G49" s="260"/>
+      <c r="H49" s="260" t="s">
         <v>78</v>
       </c>
-      <c r="I49" s="206"/>
-      <c r="J49" s="206"/>
-      <c r="K49" s="206"/>
-      <c r="L49" s="193"/>
-      <c r="M49" s="193"/>
+      <c r="I49" s="260"/>
+      <c r="J49" s="260"/>
+      <c r="K49" s="260"/>
+      <c r="L49" s="261"/>
+      <c r="M49" s="261"/>
     </row>
     <row r="50" spans="1:13" ht="15.75" customHeight="1">
-      <c r="A50" s="232"/>
-      <c r="B50" s="227"/>
+      <c r="A50" s="207"/>
+      <c r="B50" s="216"/>
       <c r="C50" s="11" t="s">
         <v>87</v>
       </c>
       <c r="D50" s="4"/>
-      <c r="E50" s="204"/>
-      <c r="F50" s="207"/>
-      <c r="G50" s="207"/>
-      <c r="H50" s="207"/>
-      <c r="I50" s="207"/>
-      <c r="J50" s="207"/>
-      <c r="K50" s="207"/>
-      <c r="L50" s="188"/>
-      <c r="M50" s="188"/>
+      <c r="E50" s="190"/>
+      <c r="F50" s="194"/>
+      <c r="G50" s="194"/>
+      <c r="H50" s="194"/>
+      <c r="I50" s="194"/>
+      <c r="J50" s="194"/>
+      <c r="K50" s="194"/>
+      <c r="L50" s="257"/>
+      <c r="M50" s="257"/>
     </row>
     <row r="51" spans="1:13" ht="15.75" customHeight="1">
-      <c r="A51" s="232"/>
-      <c r="B51" s="227"/>
+      <c r="A51" s="207"/>
+      <c r="B51" s="216"/>
       <c r="C51" s="11" t="s">
         <v>88</v>
       </c>
       <c r="D51" s="4"/>
-      <c r="E51" s="204"/>
-      <c r="F51" s="207"/>
-      <c r="G51" s="207"/>
-      <c r="H51" s="207"/>
-      <c r="I51" s="207"/>
-      <c r="J51" s="207"/>
-      <c r="K51" s="207"/>
-      <c r="L51" s="188"/>
-      <c r="M51" s="188"/>
+      <c r="E51" s="190"/>
+      <c r="F51" s="194"/>
+      <c r="G51" s="194"/>
+      <c r="H51" s="194"/>
+      <c r="I51" s="194"/>
+      <c r="J51" s="194"/>
+      <c r="K51" s="194"/>
+      <c r="L51" s="257"/>
+      <c r="M51" s="257"/>
     </row>
     <row r="52" spans="1:13" ht="15.75" customHeight="1" thickBot="1">
-      <c r="A52" s="259"/>
-      <c r="B52" s="228"/>
+      <c r="A52" s="219"/>
+      <c r="B52" s="217"/>
       <c r="C52" s="18" t="s">
         <v>89</v>
       </c>
       <c r="D52" s="5"/>
-      <c r="E52" s="205"/>
-      <c r="F52" s="208"/>
-      <c r="G52" s="208"/>
-      <c r="H52" s="208"/>
-      <c r="I52" s="208"/>
-      <c r="J52" s="208"/>
-      <c r="K52" s="208"/>
-      <c r="L52" s="189"/>
-      <c r="M52" s="189"/>
+      <c r="E52" s="246"/>
+      <c r="F52" s="247"/>
+      <c r="G52" s="247"/>
+      <c r="H52" s="247"/>
+      <c r="I52" s="247"/>
+      <c r="J52" s="247"/>
+      <c r="K52" s="247"/>
+      <c r="L52" s="258"/>
+      <c r="M52" s="258"/>
     </row>
     <row r="55" spans="1:13" ht="15.75" thickBot="1"/>
     <row r="56" spans="1:13" ht="15.75" thickBot="1">
@@ -14117,49 +14146,150 @@
     </row>
   </sheetData>
   <mergeCells count="211">
-    <mergeCell ref="I1:K1"/>
-    <mergeCell ref="E13:E14"/>
-    <mergeCell ref="H11:H12"/>
-    <mergeCell ref="F13:F14"/>
-    <mergeCell ref="G13:G14"/>
-    <mergeCell ref="H13:H14"/>
-    <mergeCell ref="I13:I14"/>
-    <mergeCell ref="J13:J14"/>
-    <mergeCell ref="K13:K14"/>
-    <mergeCell ref="J2:J8"/>
-    <mergeCell ref="K2:K8"/>
-    <mergeCell ref="E11:E12"/>
-    <mergeCell ref="E9:E10"/>
-    <mergeCell ref="F9:F10"/>
-    <mergeCell ref="G9:G10"/>
-    <mergeCell ref="E2:E8"/>
-    <mergeCell ref="F2:F8"/>
-    <mergeCell ref="G2:G8"/>
-    <mergeCell ref="H2:H8"/>
-    <mergeCell ref="I2:I8"/>
-    <mergeCell ref="I11:I12"/>
-    <mergeCell ref="A45:A46"/>
-    <mergeCell ref="A47:A48"/>
-    <mergeCell ref="B43:B48"/>
-    <mergeCell ref="C47:C48"/>
-    <mergeCell ref="B49:B52"/>
-    <mergeCell ref="A49:A52"/>
-    <mergeCell ref="A34:A35"/>
-    <mergeCell ref="A36:A37"/>
-    <mergeCell ref="A38:A39"/>
-    <mergeCell ref="A40:A42"/>
-    <mergeCell ref="B34:B42"/>
-    <mergeCell ref="A43:A44"/>
-    <mergeCell ref="B26:B33"/>
-    <mergeCell ref="A26:A27"/>
-    <mergeCell ref="A28:A29"/>
-    <mergeCell ref="A30:A31"/>
-    <mergeCell ref="A32:A33"/>
-    <mergeCell ref="A11:A12"/>
-    <mergeCell ref="A13:A14"/>
-    <mergeCell ref="A15:A16"/>
-    <mergeCell ref="A17:A19"/>
-    <mergeCell ref="A20:A22"/>
+    <mergeCell ref="M38:M39"/>
+    <mergeCell ref="M40:M42"/>
+    <mergeCell ref="M43:M44"/>
+    <mergeCell ref="M45:M46"/>
+    <mergeCell ref="M47:M48"/>
+    <mergeCell ref="M49:M52"/>
+    <mergeCell ref="L1:M1"/>
+    <mergeCell ref="M17:M19"/>
+    <mergeCell ref="M20:M22"/>
+    <mergeCell ref="M23:M25"/>
+    <mergeCell ref="M26:M27"/>
+    <mergeCell ref="M28:M29"/>
+    <mergeCell ref="M30:M31"/>
+    <mergeCell ref="M32:M33"/>
+    <mergeCell ref="M34:M35"/>
+    <mergeCell ref="M36:M37"/>
+    <mergeCell ref="M2:M8"/>
+    <mergeCell ref="M9:M10"/>
+    <mergeCell ref="M11:M12"/>
+    <mergeCell ref="M13:M14"/>
+    <mergeCell ref="M15:M16"/>
+    <mergeCell ref="L17:L19"/>
+    <mergeCell ref="L13:L14"/>
+    <mergeCell ref="L2:L8"/>
+    <mergeCell ref="E49:E52"/>
+    <mergeCell ref="F49:F52"/>
+    <mergeCell ref="G49:G52"/>
+    <mergeCell ref="H49:H52"/>
+    <mergeCell ref="I49:I52"/>
+    <mergeCell ref="J49:J52"/>
+    <mergeCell ref="K49:K52"/>
+    <mergeCell ref="L49:L52"/>
+    <mergeCell ref="F47:F48"/>
+    <mergeCell ref="G47:G48"/>
+    <mergeCell ref="H47:H48"/>
+    <mergeCell ref="I47:I48"/>
+    <mergeCell ref="J47:J48"/>
+    <mergeCell ref="E45:E46"/>
+    <mergeCell ref="F45:F46"/>
+    <mergeCell ref="G45:G46"/>
+    <mergeCell ref="H45:H46"/>
+    <mergeCell ref="I45:I46"/>
+    <mergeCell ref="J45:J46"/>
+    <mergeCell ref="K45:K46"/>
+    <mergeCell ref="L45:L46"/>
+    <mergeCell ref="E47:E48"/>
+    <mergeCell ref="K47:K48"/>
+    <mergeCell ref="L47:L48"/>
+    <mergeCell ref="E40:E42"/>
+    <mergeCell ref="F40:F42"/>
+    <mergeCell ref="G40:G42"/>
+    <mergeCell ref="H40:H42"/>
+    <mergeCell ref="I40:I42"/>
+    <mergeCell ref="J40:J42"/>
+    <mergeCell ref="K40:K42"/>
+    <mergeCell ref="L40:L42"/>
+    <mergeCell ref="E43:E44"/>
+    <mergeCell ref="K43:K44"/>
+    <mergeCell ref="L43:L44"/>
+    <mergeCell ref="F43:F44"/>
+    <mergeCell ref="G43:G44"/>
+    <mergeCell ref="H43:H44"/>
+    <mergeCell ref="I43:I44"/>
+    <mergeCell ref="J43:J44"/>
+    <mergeCell ref="E38:E39"/>
+    <mergeCell ref="F34:F35"/>
+    <mergeCell ref="G34:G35"/>
+    <mergeCell ref="H34:H35"/>
+    <mergeCell ref="I34:I35"/>
+    <mergeCell ref="J34:J35"/>
+    <mergeCell ref="E34:E35"/>
+    <mergeCell ref="K38:K39"/>
+    <mergeCell ref="L38:L39"/>
+    <mergeCell ref="F38:F39"/>
+    <mergeCell ref="G38:G39"/>
+    <mergeCell ref="H38:H39"/>
+    <mergeCell ref="I38:I39"/>
+    <mergeCell ref="J38:J39"/>
+    <mergeCell ref="K34:K35"/>
+    <mergeCell ref="L34:L35"/>
+    <mergeCell ref="E36:E37"/>
+    <mergeCell ref="F36:F37"/>
+    <mergeCell ref="G36:G37"/>
+    <mergeCell ref="H36:H37"/>
+    <mergeCell ref="I36:I37"/>
+    <mergeCell ref="J36:J37"/>
+    <mergeCell ref="K36:K37"/>
+    <mergeCell ref="L36:L37"/>
+    <mergeCell ref="E32:E33"/>
+    <mergeCell ref="F32:F33"/>
+    <mergeCell ref="G32:G33"/>
+    <mergeCell ref="H32:H33"/>
+    <mergeCell ref="I32:I33"/>
+    <mergeCell ref="J32:J33"/>
+    <mergeCell ref="K32:K33"/>
+    <mergeCell ref="L32:L33"/>
+    <mergeCell ref="F30:F31"/>
+    <mergeCell ref="G30:G31"/>
+    <mergeCell ref="H30:H31"/>
+    <mergeCell ref="I30:I31"/>
+    <mergeCell ref="J30:J31"/>
+    <mergeCell ref="E30:E31"/>
+    <mergeCell ref="F26:F27"/>
+    <mergeCell ref="G26:G27"/>
+    <mergeCell ref="H26:H27"/>
+    <mergeCell ref="I26:I27"/>
+    <mergeCell ref="J26:J27"/>
+    <mergeCell ref="E26:E27"/>
+    <mergeCell ref="K30:K31"/>
+    <mergeCell ref="L30:L31"/>
+    <mergeCell ref="K26:K27"/>
+    <mergeCell ref="L26:L27"/>
+    <mergeCell ref="E28:E29"/>
+    <mergeCell ref="F28:F29"/>
+    <mergeCell ref="G28:G29"/>
+    <mergeCell ref="H28:H29"/>
+    <mergeCell ref="I28:I29"/>
+    <mergeCell ref="J28:J29"/>
+    <mergeCell ref="K28:K29"/>
+    <mergeCell ref="L28:L29"/>
+    <mergeCell ref="L23:L25"/>
+    <mergeCell ref="H20:H22"/>
+    <mergeCell ref="F20:F22"/>
+    <mergeCell ref="G20:G22"/>
+    <mergeCell ref="I20:I22"/>
+    <mergeCell ref="J20:J22"/>
+    <mergeCell ref="K20:K22"/>
+    <mergeCell ref="L20:L22"/>
+    <mergeCell ref="E20:E22"/>
+    <mergeCell ref="F17:F19"/>
+    <mergeCell ref="G17:G19"/>
+    <mergeCell ref="H17:H19"/>
+    <mergeCell ref="I17:I19"/>
+    <mergeCell ref="J17:J19"/>
+    <mergeCell ref="K17:K19"/>
+    <mergeCell ref="J11:J12"/>
+    <mergeCell ref="K11:K12"/>
+    <mergeCell ref="E23:E25"/>
+    <mergeCell ref="F23:F25"/>
+    <mergeCell ref="G23:G25"/>
+    <mergeCell ref="H23:H25"/>
+    <mergeCell ref="I23:I25"/>
+    <mergeCell ref="J23:J25"/>
+    <mergeCell ref="K23:K25"/>
     <mergeCell ref="A2:A8"/>
     <mergeCell ref="B2:B8"/>
     <mergeCell ref="B9:B16"/>
@@ -14184,150 +14314,49 @@
     <mergeCell ref="G11:G12"/>
     <mergeCell ref="E15:E16"/>
     <mergeCell ref="E17:E19"/>
-    <mergeCell ref="F17:F19"/>
-    <mergeCell ref="G17:G19"/>
-    <mergeCell ref="H17:H19"/>
-    <mergeCell ref="I17:I19"/>
-    <mergeCell ref="J17:J19"/>
-    <mergeCell ref="K17:K19"/>
-    <mergeCell ref="J11:J12"/>
-    <mergeCell ref="K11:K12"/>
-    <mergeCell ref="E23:E25"/>
-    <mergeCell ref="F23:F25"/>
-    <mergeCell ref="G23:G25"/>
-    <mergeCell ref="H23:H25"/>
-    <mergeCell ref="I23:I25"/>
-    <mergeCell ref="J23:J25"/>
-    <mergeCell ref="K23:K25"/>
-    <mergeCell ref="L23:L25"/>
-    <mergeCell ref="H20:H22"/>
-    <mergeCell ref="F20:F22"/>
-    <mergeCell ref="G20:G22"/>
-    <mergeCell ref="I20:I22"/>
-    <mergeCell ref="J20:J22"/>
-    <mergeCell ref="K20:K22"/>
-    <mergeCell ref="L20:L22"/>
-    <mergeCell ref="E20:E22"/>
-    <mergeCell ref="F26:F27"/>
-    <mergeCell ref="G26:G27"/>
-    <mergeCell ref="H26:H27"/>
-    <mergeCell ref="I26:I27"/>
-    <mergeCell ref="J26:J27"/>
-    <mergeCell ref="E26:E27"/>
-    <mergeCell ref="K30:K31"/>
-    <mergeCell ref="L30:L31"/>
-    <mergeCell ref="K26:K27"/>
-    <mergeCell ref="L26:L27"/>
-    <mergeCell ref="E28:E29"/>
-    <mergeCell ref="F28:F29"/>
-    <mergeCell ref="G28:G29"/>
-    <mergeCell ref="H28:H29"/>
-    <mergeCell ref="I28:I29"/>
-    <mergeCell ref="J28:J29"/>
-    <mergeCell ref="K28:K29"/>
-    <mergeCell ref="L28:L29"/>
-    <mergeCell ref="E32:E33"/>
-    <mergeCell ref="F32:F33"/>
-    <mergeCell ref="G32:G33"/>
-    <mergeCell ref="H32:H33"/>
-    <mergeCell ref="I32:I33"/>
-    <mergeCell ref="J32:J33"/>
-    <mergeCell ref="K32:K33"/>
-    <mergeCell ref="L32:L33"/>
-    <mergeCell ref="F30:F31"/>
-    <mergeCell ref="G30:G31"/>
-    <mergeCell ref="H30:H31"/>
-    <mergeCell ref="I30:I31"/>
-    <mergeCell ref="J30:J31"/>
-    <mergeCell ref="E30:E31"/>
-    <mergeCell ref="E38:E39"/>
-    <mergeCell ref="F34:F35"/>
-    <mergeCell ref="G34:G35"/>
-    <mergeCell ref="H34:H35"/>
-    <mergeCell ref="I34:I35"/>
-    <mergeCell ref="J34:J35"/>
-    <mergeCell ref="E34:E35"/>
-    <mergeCell ref="K38:K39"/>
-    <mergeCell ref="L38:L39"/>
-    <mergeCell ref="F38:F39"/>
-    <mergeCell ref="G38:G39"/>
-    <mergeCell ref="H38:H39"/>
-    <mergeCell ref="I38:I39"/>
-    <mergeCell ref="J38:J39"/>
-    <mergeCell ref="K34:K35"/>
-    <mergeCell ref="L34:L35"/>
-    <mergeCell ref="E36:E37"/>
-    <mergeCell ref="F36:F37"/>
-    <mergeCell ref="G36:G37"/>
-    <mergeCell ref="H36:H37"/>
-    <mergeCell ref="I36:I37"/>
-    <mergeCell ref="J36:J37"/>
-    <mergeCell ref="K36:K37"/>
-    <mergeCell ref="L36:L37"/>
-    <mergeCell ref="E40:E42"/>
-    <mergeCell ref="F40:F42"/>
-    <mergeCell ref="G40:G42"/>
-    <mergeCell ref="H40:H42"/>
-    <mergeCell ref="I40:I42"/>
-    <mergeCell ref="J40:J42"/>
-    <mergeCell ref="K40:K42"/>
-    <mergeCell ref="L40:L42"/>
-    <mergeCell ref="E43:E44"/>
-    <mergeCell ref="K43:K44"/>
-    <mergeCell ref="L43:L44"/>
-    <mergeCell ref="F43:F44"/>
-    <mergeCell ref="G43:G44"/>
-    <mergeCell ref="H43:H44"/>
-    <mergeCell ref="I43:I44"/>
-    <mergeCell ref="J43:J44"/>
-    <mergeCell ref="E45:E46"/>
-    <mergeCell ref="F45:F46"/>
-    <mergeCell ref="G45:G46"/>
-    <mergeCell ref="H45:H46"/>
-    <mergeCell ref="I45:I46"/>
-    <mergeCell ref="J45:J46"/>
-    <mergeCell ref="K45:K46"/>
-    <mergeCell ref="L45:L46"/>
-    <mergeCell ref="E47:E48"/>
-    <mergeCell ref="K47:K48"/>
-    <mergeCell ref="L47:L48"/>
-    <mergeCell ref="E49:E52"/>
-    <mergeCell ref="F49:F52"/>
-    <mergeCell ref="G49:G52"/>
-    <mergeCell ref="H49:H52"/>
-    <mergeCell ref="I49:I52"/>
-    <mergeCell ref="J49:J52"/>
-    <mergeCell ref="K49:K52"/>
-    <mergeCell ref="L49:L52"/>
-    <mergeCell ref="F47:F48"/>
-    <mergeCell ref="G47:G48"/>
-    <mergeCell ref="H47:H48"/>
-    <mergeCell ref="I47:I48"/>
-    <mergeCell ref="J47:J48"/>
-    <mergeCell ref="M38:M39"/>
-    <mergeCell ref="M40:M42"/>
-    <mergeCell ref="M43:M44"/>
-    <mergeCell ref="M45:M46"/>
-    <mergeCell ref="M47:M48"/>
-    <mergeCell ref="M49:M52"/>
-    <mergeCell ref="L1:M1"/>
-    <mergeCell ref="M17:M19"/>
-    <mergeCell ref="M20:M22"/>
-    <mergeCell ref="M23:M25"/>
-    <mergeCell ref="M26:M27"/>
-    <mergeCell ref="M28:M29"/>
-    <mergeCell ref="M30:M31"/>
-    <mergeCell ref="M32:M33"/>
-    <mergeCell ref="M34:M35"/>
-    <mergeCell ref="M36:M37"/>
-    <mergeCell ref="M2:M8"/>
-    <mergeCell ref="M9:M10"/>
-    <mergeCell ref="M11:M12"/>
-    <mergeCell ref="M13:M14"/>
-    <mergeCell ref="M15:M16"/>
-    <mergeCell ref="L17:L19"/>
-    <mergeCell ref="L13:L14"/>
-    <mergeCell ref="L2:L8"/>
+    <mergeCell ref="B26:B33"/>
+    <mergeCell ref="A26:A27"/>
+    <mergeCell ref="A28:A29"/>
+    <mergeCell ref="A30:A31"/>
+    <mergeCell ref="A32:A33"/>
+    <mergeCell ref="A11:A12"/>
+    <mergeCell ref="A13:A14"/>
+    <mergeCell ref="A15:A16"/>
+    <mergeCell ref="A17:A19"/>
+    <mergeCell ref="A20:A22"/>
+    <mergeCell ref="A45:A46"/>
+    <mergeCell ref="A47:A48"/>
+    <mergeCell ref="B43:B48"/>
+    <mergeCell ref="C47:C48"/>
+    <mergeCell ref="B49:B52"/>
+    <mergeCell ref="A49:A52"/>
+    <mergeCell ref="A34:A35"/>
+    <mergeCell ref="A36:A37"/>
+    <mergeCell ref="A38:A39"/>
+    <mergeCell ref="A40:A42"/>
+    <mergeCell ref="B34:B42"/>
+    <mergeCell ref="A43:A44"/>
+    <mergeCell ref="I1:K1"/>
+    <mergeCell ref="E13:E14"/>
+    <mergeCell ref="H11:H12"/>
+    <mergeCell ref="F13:F14"/>
+    <mergeCell ref="G13:G14"/>
+    <mergeCell ref="H13:H14"/>
+    <mergeCell ref="I13:I14"/>
+    <mergeCell ref="J13:J14"/>
+    <mergeCell ref="K13:K14"/>
+    <mergeCell ref="J2:J8"/>
+    <mergeCell ref="K2:K8"/>
+    <mergeCell ref="E11:E12"/>
+    <mergeCell ref="E9:E10"/>
+    <mergeCell ref="F9:F10"/>
+    <mergeCell ref="G9:G10"/>
+    <mergeCell ref="E2:E8"/>
+    <mergeCell ref="F2:F8"/>
+    <mergeCell ref="G2:G8"/>
+    <mergeCell ref="H2:H8"/>
+    <mergeCell ref="I2:I8"/>
+    <mergeCell ref="I11:I12"/>
   </mergeCells>
   <hyperlinks>
     <hyperlink ref="E2" r:id="rId1" display="https://drive.google.com/open?id=1RYgFxmL-dmZYtjF2ca5a0yQUWnMVjo3mVexJabJL1c4"/>
@@ -14361,6 +14390,81 @@
 </worksheet>
 </file>
 
+<file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:A12"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A16" sqref="A16"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1" spans="1:1">
+      <c r="A1" s="23" t="s">
+        <v>603</v>
+      </c>
+    </row>
+    <row r="2" spans="1:1">
+      <c r="A2" s="22" t="s">
+        <v>604</v>
+      </c>
+    </row>
+    <row r="3" spans="1:1">
+      <c r="A3" t="s">
+        <v>605</v>
+      </c>
+    </row>
+    <row r="4" spans="1:1">
+      <c r="A4" t="s">
+        <v>613</v>
+      </c>
+    </row>
+    <row r="5" spans="1:1">
+      <c r="A5" t="s">
+        <v>612</v>
+      </c>
+    </row>
+    <row r="6" spans="1:1">
+      <c r="A6" t="s">
+        <v>614</v>
+      </c>
+    </row>
+    <row r="7" spans="1:1">
+      <c r="A7" t="s">
+        <v>611</v>
+      </c>
+    </row>
+    <row r="8" spans="1:1">
+      <c r="A8" t="s">
+        <v>610</v>
+      </c>
+    </row>
+    <row r="9" spans="1:1">
+      <c r="A9" t="s">
+        <v>609</v>
+      </c>
+    </row>
+    <row r="10" spans="1:1">
+      <c r="A10" t="s">
+        <v>608</v>
+      </c>
+    </row>
+    <row r="11" spans="1:1">
+      <c r="A11" t="s">
+        <v>607</v>
+      </c>
+    </row>
+    <row r="12" spans="1:1">
+      <c r="A12" t="s">
+        <v>606</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr>
@@ -14413,10 +14517,10 @@
       </c>
     </row>
     <row r="2" spans="1:9" ht="15.75" customHeight="1" thickTop="1" thickBot="1">
-      <c r="A2" s="279" t="s">
+      <c r="A2" s="275" t="s">
         <v>305</v>
       </c>
-      <c r="B2" s="274">
+      <c r="B2" s="268">
         <v>1</v>
       </c>
       <c r="C2" s="110">
@@ -14436,8 +14540,8 @@
       </c>
     </row>
     <row r="3" spans="1:9" ht="16.5" thickBot="1">
-      <c r="A3" s="280"/>
-      <c r="B3" s="275"/>
+      <c r="A3" s="276"/>
+      <c r="B3" s="269"/>
       <c r="C3" s="110">
         <v>43193</v>
       </c>
@@ -14453,8 +14557,8 @@
       <c r="I3" s="115"/>
     </row>
     <row r="4" spans="1:9" ht="16.5" thickBot="1">
-      <c r="A4" s="280"/>
-      <c r="B4" s="275"/>
+      <c r="A4" s="276"/>
+      <c r="B4" s="269"/>
       <c r="C4" s="110">
         <v>43194</v>
       </c>
@@ -14470,8 +14574,8 @@
       <c r="I4" s="115"/>
     </row>
     <row r="5" spans="1:9" ht="16.5" thickBot="1">
-      <c r="A5" s="280"/>
-      <c r="B5" s="275"/>
+      <c r="A5" s="276"/>
+      <c r="B5" s="269"/>
       <c r="C5" s="110">
         <v>43195</v>
       </c>
@@ -14489,8 +14593,8 @@
       <c r="I5" s="115"/>
     </row>
     <row r="6" spans="1:9" ht="16.5" thickBot="1">
-      <c r="A6" s="281"/>
-      <c r="B6" s="278"/>
+      <c r="A6" s="277"/>
+      <c r="B6" s="270"/>
       <c r="C6" s="117">
         <v>43196</v>
       </c>
@@ -14506,10 +14610,10 @@
       <c r="I6" s="121"/>
     </row>
     <row r="7" spans="1:9" ht="17.25" thickTop="1" thickBot="1">
-      <c r="A7" s="289" t="s">
+      <c r="A7" s="282" t="s">
         <v>184</v>
       </c>
-      <c r="B7" s="277">
+      <c r="B7" s="278">
         <v>2</v>
       </c>
       <c r="C7" s="143">
@@ -14527,8 +14631,8 @@
       <c r="I7" s="126"/>
     </row>
     <row r="8" spans="1:9" ht="16.5" thickBot="1">
-      <c r="A8" s="290"/>
-      <c r="B8" s="272"/>
+      <c r="A8" s="283"/>
+      <c r="B8" s="279"/>
       <c r="C8" s="143">
         <v>43200</v>
       </c>
@@ -14544,8 +14648,8 @@
       <c r="I8" s="126"/>
     </row>
     <row r="9" spans="1:9" ht="16.5" thickBot="1">
-      <c r="A9" s="290"/>
-      <c r="B9" s="272"/>
+      <c r="A9" s="283"/>
+      <c r="B9" s="279"/>
       <c r="C9" s="143">
         <v>43201</v>
       </c>
@@ -14561,8 +14665,8 @@
       <c r="I9" s="126"/>
     </row>
     <row r="10" spans="1:9" ht="15.75" customHeight="1" thickBot="1">
-      <c r="A10" s="290"/>
-      <c r="B10" s="272"/>
+      <c r="A10" s="283"/>
+      <c r="B10" s="279"/>
       <c r="C10" s="143">
         <v>43202</v>
       </c>
@@ -14578,8 +14682,8 @@
       <c r="I10" s="126"/>
     </row>
     <row r="11" spans="1:9" ht="16.5" thickBot="1">
-      <c r="A11" s="290"/>
-      <c r="B11" s="282"/>
+      <c r="A11" s="283"/>
+      <c r="B11" s="280"/>
       <c r="C11" s="143">
         <v>43203</v>
       </c>
@@ -14597,8 +14701,8 @@
       <c r="I11" s="126"/>
     </row>
     <row r="12" spans="1:9" ht="16.5" thickBot="1">
-      <c r="A12" s="269"/>
-      <c r="B12" s="283">
+      <c r="A12" s="284"/>
+      <c r="B12" s="274">
         <v>3</v>
       </c>
       <c r="C12" s="110">
@@ -14616,8 +14720,8 @@
       <c r="I12" s="115"/>
     </row>
     <row r="13" spans="1:9" ht="16.5" thickBot="1">
-      <c r="A13" s="269"/>
-      <c r="B13" s="275"/>
+      <c r="A13" s="284"/>
+      <c r="B13" s="269"/>
       <c r="C13" s="110">
         <v>43207</v>
       </c>
@@ -14633,8 +14737,8 @@
       <c r="I13" s="115"/>
     </row>
     <row r="14" spans="1:9" ht="16.5" thickBot="1">
-      <c r="A14" s="269"/>
-      <c r="B14" s="275"/>
+      <c r="A14" s="284"/>
+      <c r="B14" s="269"/>
       <c r="C14" s="110">
         <v>43208</v>
       </c>
@@ -14650,8 +14754,8 @@
       <c r="I14" s="115"/>
     </row>
     <row r="15" spans="1:9" ht="16.5" thickBot="1">
-      <c r="A15" s="269"/>
-      <c r="B15" s="275"/>
+      <c r="A15" s="284"/>
+      <c r="B15" s="269"/>
       <c r="C15" s="110">
         <v>43209</v>
       </c>
@@ -14667,8 +14771,8 @@
       <c r="I15" s="115"/>
     </row>
     <row r="16" spans="1:9" ht="16.5" thickBot="1">
-      <c r="A16" s="269"/>
-      <c r="B16" s="276"/>
+      <c r="A16" s="284"/>
+      <c r="B16" s="281"/>
       <c r="C16" s="110">
         <v>43210</v>
       </c>
@@ -14684,8 +14788,8 @@
       <c r="I16" s="115"/>
     </row>
     <row r="17" spans="1:9" ht="16.5" thickBot="1">
-      <c r="A17" s="269"/>
-      <c r="B17" s="277">
+      <c r="A17" s="284"/>
+      <c r="B17" s="278">
         <v>4</v>
       </c>
       <c r="C17" s="122">
@@ -14707,8 +14811,8 @@
       <c r="I17" s="126"/>
     </row>
     <row r="18" spans="1:9" ht="16.5" thickBot="1">
-      <c r="A18" s="269"/>
-      <c r="B18" s="272"/>
+      <c r="A18" s="284"/>
+      <c r="B18" s="279"/>
       <c r="C18" s="122">
         <v>43214</v>
       </c>
@@ -14724,8 +14828,8 @@
       <c r="I18" s="126"/>
     </row>
     <row r="19" spans="1:9" ht="16.5" thickBot="1">
-      <c r="A19" s="269"/>
-      <c r="B19" s="272"/>
+      <c r="A19" s="284"/>
+      <c r="B19" s="279"/>
       <c r="C19" s="122">
         <v>43215</v>
       </c>
@@ -14741,8 +14845,8 @@
       <c r="I19" s="126"/>
     </row>
     <row r="20" spans="1:9" ht="16.5" thickBot="1">
-      <c r="A20" s="269"/>
-      <c r="B20" s="272"/>
+      <c r="A20" s="284"/>
+      <c r="B20" s="279"/>
       <c r="C20" s="122">
         <v>43216</v>
       </c>
@@ -14758,8 +14862,8 @@
       <c r="I20" s="126"/>
     </row>
     <row r="21" spans="1:9" ht="16.5" thickBot="1">
-      <c r="A21" s="269"/>
-      <c r="B21" s="282"/>
+      <c r="A21" s="284"/>
+      <c r="B21" s="280"/>
       <c r="C21" s="122">
         <v>43217</v>
       </c>
@@ -14777,8 +14881,8 @@
       <c r="I21" s="126"/>
     </row>
     <row r="22" spans="1:9" ht="16.5" thickBot="1">
-      <c r="A22" s="269"/>
-      <c r="B22" s="283">
+      <c r="A22" s="284"/>
+      <c r="B22" s="274">
         <v>5</v>
       </c>
       <c r="C22" s="110">
@@ -14796,8 +14900,8 @@
       <c r="I22" s="115"/>
     </row>
     <row r="23" spans="1:9" ht="16.5" thickBot="1">
-      <c r="A23" s="269"/>
-      <c r="B23" s="275"/>
+      <c r="A23" s="284"/>
+      <c r="B23" s="269"/>
       <c r="C23" s="110">
         <v>43221</v>
       </c>
@@ -14813,8 +14917,8 @@
       <c r="I23" s="115"/>
     </row>
     <row r="24" spans="1:9" ht="16.5" thickBot="1">
-      <c r="A24" s="269"/>
-      <c r="B24" s="275"/>
+      <c r="A24" s="284"/>
+      <c r="B24" s="269"/>
       <c r="C24" s="110">
         <v>43222</v>
       </c>
@@ -14830,8 +14934,8 @@
       <c r="I24" s="115"/>
     </row>
     <row r="25" spans="1:9" ht="16.5" thickBot="1">
-      <c r="A25" s="269"/>
-      <c r="B25" s="275"/>
+      <c r="A25" s="284"/>
+      <c r="B25" s="269"/>
       <c r="C25" s="110">
         <v>43223</v>
       </c>
@@ -14847,8 +14951,8 @@
       <c r="I25" s="115"/>
     </row>
     <row r="26" spans="1:9" ht="16.5" thickBot="1">
-      <c r="A26" s="269"/>
-      <c r="B26" s="276"/>
+      <c r="A26" s="284"/>
+      <c r="B26" s="281"/>
       <c r="C26" s="110">
         <v>43224</v>
       </c>
@@ -14864,8 +14968,8 @@
       <c r="I26" s="115"/>
     </row>
     <row r="27" spans="1:9" ht="15.75" customHeight="1" thickBot="1">
-      <c r="A27" s="269"/>
-      <c r="B27" s="287">
+      <c r="A27" s="284"/>
+      <c r="B27" s="286">
         <v>6</v>
       </c>
       <c r="C27" s="130">
@@ -14887,8 +14991,8 @@
       <c r="I27" s="126"/>
     </row>
     <row r="28" spans="1:9" ht="16.5" thickBot="1">
-      <c r="A28" s="269"/>
-      <c r="B28" s="285"/>
+      <c r="A28" s="284"/>
+      <c r="B28" s="272"/>
       <c r="C28" s="130">
         <v>43228</v>
       </c>
@@ -14904,8 +15008,8 @@
       <c r="I28" s="126"/>
     </row>
     <row r="29" spans="1:9" ht="16.5" thickBot="1">
-      <c r="A29" s="269"/>
-      <c r="B29" s="285"/>
+      <c r="A29" s="284"/>
+      <c r="B29" s="272"/>
       <c r="C29" s="130">
         <v>43229</v>
       </c>
@@ -14921,8 +15025,8 @@
       <c r="I29" s="126"/>
     </row>
     <row r="30" spans="1:9" ht="16.5" thickBot="1">
-      <c r="A30" s="269"/>
-      <c r="B30" s="285"/>
+      <c r="A30" s="284"/>
+      <c r="B30" s="272"/>
       <c r="C30" s="130">
         <v>43230</v>
       </c>
@@ -14938,8 +15042,8 @@
       <c r="I30" s="126"/>
     </row>
     <row r="31" spans="1:9" ht="27" thickBot="1">
-      <c r="A31" s="270"/>
-      <c r="B31" s="288"/>
+      <c r="A31" s="285"/>
+      <c r="B31" s="287"/>
       <c r="C31" s="134">
         <v>43231</v>
       </c>
@@ -14957,10 +15061,10 @@
       <c r="I31" s="138"/>
     </row>
     <row r="32" spans="1:9" ht="17.25" thickTop="1" thickBot="1">
-      <c r="A32" s="279" t="s">
+      <c r="A32" s="275" t="s">
         <v>34</v>
       </c>
-      <c r="B32" s="274">
+      <c r="B32" s="268">
         <v>7</v>
       </c>
       <c r="C32" s="110">
@@ -14978,8 +15082,8 @@
       <c r="I32" s="115"/>
     </row>
     <row r="33" spans="1:9" ht="16.5" thickBot="1">
-      <c r="A33" s="280"/>
-      <c r="B33" s="275"/>
+      <c r="A33" s="276"/>
+      <c r="B33" s="269"/>
       <c r="C33" s="110">
         <v>43235</v>
       </c>
@@ -14995,8 +15099,8 @@
       <c r="I33" s="115"/>
     </row>
     <row r="34" spans="1:9" ht="16.5" thickBot="1">
-      <c r="A34" s="280"/>
-      <c r="B34" s="275"/>
+      <c r="A34" s="276"/>
+      <c r="B34" s="269"/>
       <c r="C34" s="110">
         <v>43236</v>
       </c>
@@ -15012,8 +15116,8 @@
       <c r="I34" s="115"/>
     </row>
     <row r="35" spans="1:9" ht="16.5" thickBot="1">
-      <c r="A35" s="280"/>
-      <c r="B35" s="275"/>
+      <c r="A35" s="276"/>
+      <c r="B35" s="269"/>
       <c r="C35" s="110">
         <v>43237</v>
       </c>
@@ -15029,8 +15133,8 @@
       <c r="I35" s="115"/>
     </row>
     <row r="36" spans="1:9" ht="16.5" thickBot="1">
-      <c r="A36" s="280"/>
-      <c r="B36" s="278"/>
+      <c r="A36" s="276"/>
+      <c r="B36" s="270"/>
       <c r="C36" s="110">
         <v>43238</v>
       </c>
@@ -15046,8 +15150,8 @@
       <c r="I36" s="115"/>
     </row>
     <row r="37" spans="1:9" ht="17.25" thickTop="1" thickBot="1">
-      <c r="A37" s="280"/>
-      <c r="B37" s="284">
+      <c r="A37" s="276"/>
+      <c r="B37" s="271">
         <v>8</v>
       </c>
       <c r="C37" s="130">
@@ -15069,8 +15173,8 @@
       <c r="I37" s="126"/>
     </row>
     <row r="38" spans="1:9" ht="16.5" thickBot="1">
-      <c r="A38" s="280"/>
-      <c r="B38" s="285"/>
+      <c r="A38" s="276"/>
+      <c r="B38" s="272"/>
       <c r="C38" s="130">
         <v>43242</v>
       </c>
@@ -15086,8 +15190,8 @@
       <c r="I38" s="126"/>
     </row>
     <row r="39" spans="1:9" ht="16.5" thickBot="1">
-      <c r="A39" s="280"/>
-      <c r="B39" s="285"/>
+      <c r="A39" s="276"/>
+      <c r="B39" s="272"/>
       <c r="C39" s="130">
         <v>43243</v>
       </c>
@@ -15103,8 +15207,8 @@
       <c r="I39" s="126"/>
     </row>
     <row r="40" spans="1:9" ht="16.5" thickBot="1">
-      <c r="A40" s="280"/>
-      <c r="B40" s="285"/>
+      <c r="A40" s="276"/>
+      <c r="B40" s="272"/>
       <c r="C40" s="130">
         <v>43244</v>
       </c>
@@ -15120,8 +15224,8 @@
       <c r="I40" s="126"/>
     </row>
     <row r="41" spans="1:9" ht="27" thickBot="1">
-      <c r="A41" s="280"/>
-      <c r="B41" s="286"/>
+      <c r="A41" s="276"/>
+      <c r="B41" s="273"/>
       <c r="C41" s="130">
         <v>43245</v>
       </c>
@@ -15139,8 +15243,8 @@
       <c r="I41" s="126"/>
     </row>
     <row r="42" spans="1:9" ht="16.5" thickBot="1">
-      <c r="A42" s="280"/>
-      <c r="B42" s="283">
+      <c r="A42" s="276"/>
+      <c r="B42" s="274">
         <v>9</v>
       </c>
       <c r="C42" s="110">
@@ -15158,8 +15262,8 @@
       <c r="I42" s="115"/>
     </row>
     <row r="43" spans="1:9" ht="16.5" thickBot="1">
-      <c r="A43" s="280"/>
-      <c r="B43" s="275"/>
+      <c r="A43" s="276"/>
+      <c r="B43" s="269"/>
       <c r="C43" s="110">
         <v>43249</v>
       </c>
@@ -15175,8 +15279,8 @@
       <c r="I43" s="115"/>
     </row>
     <row r="44" spans="1:9" ht="16.5" thickBot="1">
-      <c r="A44" s="280"/>
-      <c r="B44" s="275"/>
+      <c r="A44" s="276"/>
+      <c r="B44" s="269"/>
       <c r="C44" s="110">
         <v>43250</v>
       </c>
@@ -15192,8 +15296,8 @@
       <c r="I44" s="115"/>
     </row>
     <row r="45" spans="1:9" ht="16.5" thickBot="1">
-      <c r="A45" s="280"/>
-      <c r="B45" s="275"/>
+      <c r="A45" s="276"/>
+      <c r="B45" s="269"/>
       <c r="C45" s="110">
         <v>43251</v>
       </c>
@@ -15209,8 +15313,8 @@
       <c r="I45" s="115"/>
     </row>
     <row r="46" spans="1:9" ht="16.5" thickBot="1">
-      <c r="A46" s="281"/>
-      <c r="B46" s="278"/>
+      <c r="A46" s="277"/>
+      <c r="B46" s="270"/>
       <c r="C46" s="117">
         <v>43252</v>
       </c>
@@ -15226,10 +15330,10 @@
       <c r="I46" s="121"/>
     </row>
     <row r="47" spans="1:9" ht="15.75" customHeight="1" thickTop="1" thickBot="1">
-      <c r="A47" s="268" t="s">
+      <c r="A47" s="290" t="s">
         <v>47</v>
       </c>
-      <c r="B47" s="271">
+      <c r="B47" s="288">
         <v>10</v>
       </c>
       <c r="C47" s="122">
@@ -15251,8 +15355,8 @@
       <c r="I47" s="126"/>
     </row>
     <row r="48" spans="1:9" ht="16.5" thickBot="1">
-      <c r="A48" s="269"/>
-      <c r="B48" s="272"/>
+      <c r="A48" s="284"/>
+      <c r="B48" s="279"/>
       <c r="C48" s="122">
         <v>43256</v>
       </c>
@@ -15268,8 +15372,8 @@
       <c r="I48" s="126"/>
     </row>
     <row r="49" spans="1:9" ht="16.5" thickBot="1">
-      <c r="A49" s="269"/>
-      <c r="B49" s="272"/>
+      <c r="A49" s="284"/>
+      <c r="B49" s="279"/>
       <c r="C49" s="122">
         <v>43257</v>
       </c>
@@ -15285,8 +15389,8 @@
       <c r="I49" s="126"/>
     </row>
     <row r="50" spans="1:9" ht="16.5" thickBot="1">
-      <c r="A50" s="269"/>
-      <c r="B50" s="272"/>
+      <c r="A50" s="284"/>
+      <c r="B50" s="279"/>
       <c r="C50" s="122">
         <v>43258</v>
       </c>
@@ -15302,8 +15406,8 @@
       <c r="I50" s="126"/>
     </row>
     <row r="51" spans="1:9" ht="27" thickBot="1">
-      <c r="A51" s="269"/>
-      <c r="B51" s="273"/>
+      <c r="A51" s="284"/>
+      <c r="B51" s="289"/>
       <c r="C51" s="122">
         <v>43259</v>
       </c>
@@ -15321,8 +15425,8 @@
       <c r="I51" s="126"/>
     </row>
     <row r="52" spans="1:9" ht="17.25" thickTop="1" thickBot="1">
-      <c r="A52" s="269"/>
-      <c r="B52" s="274">
+      <c r="A52" s="284"/>
+      <c r="B52" s="268">
         <v>11</v>
       </c>
       <c r="C52" s="110">
@@ -15340,8 +15444,8 @@
       <c r="I52" s="115"/>
     </row>
     <row r="53" spans="1:9" ht="16.5" thickBot="1">
-      <c r="A53" s="269"/>
-      <c r="B53" s="275"/>
+      <c r="A53" s="284"/>
+      <c r="B53" s="269"/>
       <c r="C53" s="110">
         <v>43263</v>
       </c>
@@ -15357,8 +15461,8 @@
       <c r="I53" s="115"/>
     </row>
     <row r="54" spans="1:9" ht="16.5" thickBot="1">
-      <c r="A54" s="269"/>
-      <c r="B54" s="275"/>
+      <c r="A54" s="284"/>
+      <c r="B54" s="269"/>
       <c r="C54" s="110">
         <v>43264</v>
       </c>
@@ -15374,8 +15478,8 @@
       <c r="I54" s="115"/>
     </row>
     <row r="55" spans="1:9" ht="16.5" thickBot="1">
-      <c r="A55" s="269"/>
-      <c r="B55" s="275"/>
+      <c r="A55" s="284"/>
+      <c r="B55" s="269"/>
       <c r="C55" s="110">
         <v>43265</v>
       </c>
@@ -15391,8 +15495,8 @@
       <c r="I55" s="115"/>
     </row>
     <row r="56" spans="1:9" ht="16.5" thickBot="1">
-      <c r="A56" s="269"/>
-      <c r="B56" s="276"/>
+      <c r="A56" s="284"/>
+      <c r="B56" s="281"/>
       <c r="C56" s="110">
         <v>43266</v>
       </c>
@@ -15408,8 +15512,8 @@
       <c r="I56" s="115"/>
     </row>
     <row r="57" spans="1:9" ht="16.5" thickBot="1">
-      <c r="A57" s="269"/>
-      <c r="B57" s="277">
+      <c r="A57" s="284"/>
+      <c r="B57" s="278">
         <v>12</v>
       </c>
       <c r="C57" s="122">
@@ -15431,8 +15535,8 @@
       <c r="I57" s="126"/>
     </row>
     <row r="58" spans="1:9" ht="16.5" thickBot="1">
-      <c r="A58" s="269"/>
-      <c r="B58" s="272"/>
+      <c r="A58" s="284"/>
+      <c r="B58" s="279"/>
       <c r="C58" s="122">
         <v>43270</v>
       </c>
@@ -15448,8 +15552,8 @@
       <c r="I58" s="126"/>
     </row>
     <row r="59" spans="1:9" ht="16.5" thickBot="1">
-      <c r="A59" s="269"/>
-      <c r="B59" s="272"/>
+      <c r="A59" s="284"/>
+      <c r="B59" s="279"/>
       <c r="C59" s="122">
         <v>43271</v>
       </c>
@@ -15465,8 +15569,8 @@
       <c r="I59" s="126"/>
     </row>
     <row r="60" spans="1:9" ht="16.5" thickBot="1">
-      <c r="A60" s="269"/>
-      <c r="B60" s="272"/>
+      <c r="A60" s="284"/>
+      <c r="B60" s="279"/>
       <c r="C60" s="122">
         <v>43272</v>
       </c>
@@ -15482,8 +15586,8 @@
       <c r="I60" s="126"/>
     </row>
     <row r="61" spans="1:9" ht="27" thickBot="1">
-      <c r="A61" s="270"/>
-      <c r="B61" s="273"/>
+      <c r="A61" s="285"/>
+      <c r="B61" s="289"/>
       <c r="C61" s="140">
         <v>43273</v>
       </c>
@@ -15501,10 +15605,10 @@
       <c r="I61" s="138"/>
     </row>
     <row r="62" spans="1:9" ht="15.75" customHeight="1" thickTop="1" thickBot="1">
-      <c r="A62" s="279" t="s">
+      <c r="A62" s="275" t="s">
         <v>627</v>
       </c>
-      <c r="B62" s="274">
+      <c r="B62" s="268">
         <v>13</v>
       </c>
       <c r="C62" s="110">
@@ -15522,8 +15626,8 @@
       <c r="I62" s="115"/>
     </row>
     <row r="63" spans="1:9" ht="16.5" thickBot="1">
-      <c r="A63" s="280"/>
-      <c r="B63" s="275"/>
+      <c r="A63" s="276"/>
+      <c r="B63" s="269"/>
       <c r="C63" s="110">
         <v>43277</v>
       </c>
@@ -15539,8 +15643,8 @@
       <c r="I63" s="115"/>
     </row>
     <row r="64" spans="1:9" ht="16.5" thickBot="1">
-      <c r="A64" s="280"/>
-      <c r="B64" s="275"/>
+      <c r="A64" s="276"/>
+      <c r="B64" s="269"/>
       <c r="C64" s="110">
         <v>43278</v>
       </c>
@@ -15556,8 +15660,8 @@
       <c r="I64" s="115"/>
     </row>
     <row r="65" spans="1:9" ht="16.5" thickBot="1">
-      <c r="A65" s="280"/>
-      <c r="B65" s="275"/>
+      <c r="A65" s="276"/>
+      <c r="B65" s="269"/>
       <c r="C65" s="110">
         <v>43279</v>
       </c>
@@ -15573,8 +15677,8 @@
       <c r="I65" s="115"/>
     </row>
     <row r="66" spans="1:9" ht="16.5" thickBot="1">
-      <c r="A66" s="280"/>
-      <c r="B66" s="278"/>
+      <c r="A66" s="276"/>
+      <c r="B66" s="270"/>
       <c r="C66" s="110">
         <v>43280</v>
       </c>
@@ -15590,8 +15694,8 @@
       <c r="I66" s="115"/>
     </row>
     <row r="67" spans="1:9" ht="17.25" thickTop="1" thickBot="1">
-      <c r="A67" s="280"/>
-      <c r="B67" s="284">
+      <c r="A67" s="276"/>
+      <c r="B67" s="271">
         <v>14</v>
       </c>
       <c r="C67" s="130">
@@ -15613,8 +15717,8 @@
       <c r="I67" s="126"/>
     </row>
     <row r="68" spans="1:9" ht="16.5" thickBot="1">
-      <c r="A68" s="280"/>
-      <c r="B68" s="285"/>
+      <c r="A68" s="276"/>
+      <c r="B68" s="272"/>
       <c r="C68" s="130">
         <v>43284</v>
       </c>
@@ -15630,8 +15734,8 @@
       <c r="I68" s="126"/>
     </row>
     <row r="69" spans="1:9" ht="16.5" thickBot="1">
-      <c r="A69" s="280"/>
-      <c r="B69" s="285"/>
+      <c r="A69" s="276"/>
+      <c r="B69" s="272"/>
       <c r="C69" s="130">
         <v>43285</v>
       </c>
@@ -15647,8 +15751,8 @@
       <c r="I69" s="126"/>
     </row>
     <row r="70" spans="1:9" ht="16.5" thickBot="1">
-      <c r="A70" s="280"/>
-      <c r="B70" s="285"/>
+      <c r="A70" s="276"/>
+      <c r="B70" s="272"/>
       <c r="C70" s="130">
         <v>43286</v>
       </c>
@@ -15664,8 +15768,8 @@
       <c r="I70" s="126"/>
     </row>
     <row r="71" spans="1:9" ht="16.5" thickBot="1">
-      <c r="A71" s="280"/>
-      <c r="B71" s="286"/>
+      <c r="A71" s="276"/>
+      <c r="B71" s="273"/>
       <c r="C71" s="130">
         <v>43287</v>
       </c>
@@ -15683,8 +15787,8 @@
       <c r="I71" s="126"/>
     </row>
     <row r="72" spans="1:9" ht="16.5" thickBot="1">
-      <c r="A72" s="280"/>
-      <c r="B72" s="283">
+      <c r="A72" s="276"/>
+      <c r="B72" s="274">
         <v>15</v>
       </c>
       <c r="C72" s="110">
@@ -15702,8 +15806,8 @@
       <c r="I72" s="115"/>
     </row>
     <row r="73" spans="1:9" ht="16.5" thickBot="1">
-      <c r="A73" s="280"/>
-      <c r="B73" s="275"/>
+      <c r="A73" s="276"/>
+      <c r="B73" s="269"/>
       <c r="C73" s="110">
         <v>43291</v>
       </c>
@@ -15719,8 +15823,8 @@
       <c r="I73" s="115"/>
     </row>
     <row r="74" spans="1:9" ht="16.5" thickBot="1">
-      <c r="A74" s="280"/>
-      <c r="B74" s="275"/>
+      <c r="A74" s="276"/>
+      <c r="B74" s="269"/>
       <c r="C74" s="110">
         <v>43292</v>
       </c>
@@ -15736,8 +15840,8 @@
       <c r="I74" s="115"/>
     </row>
     <row r="75" spans="1:9" ht="16.5" thickBot="1">
-      <c r="A75" s="280"/>
-      <c r="B75" s="275"/>
+      <c r="A75" s="276"/>
+      <c r="B75" s="269"/>
       <c r="C75" s="110">
         <v>43293</v>
       </c>
@@ -15753,8 +15857,8 @@
       <c r="I75" s="115"/>
     </row>
     <row r="76" spans="1:9" ht="16.5" thickBot="1">
-      <c r="A76" s="280"/>
-      <c r="B76" s="276"/>
+      <c r="A76" s="276"/>
+      <c r="B76" s="281"/>
       <c r="C76" s="110">
         <v>43294</v>
       </c>
@@ -15770,8 +15874,8 @@
       <c r="I76" s="115"/>
     </row>
     <row r="77" spans="1:9" ht="16.5" thickBot="1">
-      <c r="A77" s="280"/>
-      <c r="B77" s="287">
+      <c r="A77" s="276"/>
+      <c r="B77" s="286">
         <v>16</v>
       </c>
       <c r="C77" s="130">
@@ -15793,8 +15897,8 @@
       <c r="I77" s="126"/>
     </row>
     <row r="78" spans="1:9" ht="16.5" thickBot="1">
-      <c r="A78" s="280"/>
-      <c r="B78" s="285"/>
+      <c r="A78" s="276"/>
+      <c r="B78" s="272"/>
       <c r="C78" s="130">
         <v>43298</v>
       </c>
@@ -15810,8 +15914,8 @@
       <c r="I78" s="126"/>
     </row>
     <row r="79" spans="1:9" ht="16.5" thickBot="1">
-      <c r="A79" s="280"/>
-      <c r="B79" s="285"/>
+      <c r="A79" s="276"/>
+      <c r="B79" s="272"/>
       <c r="C79" s="130">
         <v>43299</v>
       </c>
@@ -15827,8 +15931,8 @@
       <c r="I79" s="126"/>
     </row>
     <row r="80" spans="1:9" ht="16.5" thickBot="1">
-      <c r="A80" s="280"/>
-      <c r="B80" s="285"/>
+      <c r="A80" s="276"/>
+      <c r="B80" s="272"/>
       <c r="C80" s="130">
         <v>43300</v>
       </c>
@@ -15844,8 +15948,8 @@
       <c r="I80" s="126"/>
     </row>
     <row r="81" spans="1:9" ht="16.5" thickBot="1">
-      <c r="A81" s="281"/>
-      <c r="B81" s="288"/>
+      <c r="A81" s="277"/>
+      <c r="B81" s="287"/>
       <c r="C81" s="134">
         <v>43301</v>
       </c>
@@ -15863,10 +15967,10 @@
       <c r="I81" s="138"/>
     </row>
     <row r="82" spans="1:9" ht="15.75" customHeight="1" thickTop="1" thickBot="1">
-      <c r="A82" s="279" t="s">
+      <c r="A82" s="275" t="s">
         <v>76</v>
       </c>
-      <c r="B82" s="274">
+      <c r="B82" s="268">
         <v>17</v>
       </c>
       <c r="C82" s="110">
@@ -15884,8 +15988,8 @@
       <c r="I82" s="115"/>
     </row>
     <row r="83" spans="1:9" ht="16.5" thickBot="1">
-      <c r="A83" s="280"/>
-      <c r="B83" s="275"/>
+      <c r="A83" s="276"/>
+      <c r="B83" s="269"/>
       <c r="C83" s="110">
         <v>43305</v>
       </c>
@@ -15901,8 +16005,8 @@
       <c r="I83" s="115"/>
     </row>
     <row r="84" spans="1:9" ht="16.5" thickBot="1">
-      <c r="A84" s="280"/>
-      <c r="B84" s="275"/>
+      <c r="A84" s="276"/>
+      <c r="B84" s="269"/>
       <c r="C84" s="110">
         <v>43306</v>
       </c>
@@ -15918,8 +16022,8 @@
       <c r="I84" s="115"/>
     </row>
     <row r="85" spans="1:9" ht="16.5" thickBot="1">
-      <c r="A85" s="280"/>
-      <c r="B85" s="275"/>
+      <c r="A85" s="276"/>
+      <c r="B85" s="269"/>
       <c r="C85" s="110">
         <v>43307</v>
       </c>
@@ -15935,8 +16039,8 @@
       <c r="I85" s="115"/>
     </row>
     <row r="86" spans="1:9" ht="16.5" thickBot="1">
-      <c r="A86" s="281"/>
-      <c r="B86" s="278"/>
+      <c r="A86" s="277"/>
+      <c r="B86" s="270"/>
       <c r="C86" s="117">
         <v>43308</v>
       </c>
@@ -15952,10 +16056,10 @@
       <c r="I86" s="121"/>
     </row>
     <row r="87" spans="1:9" ht="17.25" thickTop="1" thickBot="1">
-      <c r="A87" s="279" t="s">
+      <c r="A87" s="275" t="s">
         <v>632</v>
       </c>
-      <c r="B87" s="271">
+      <c r="B87" s="288">
         <v>18</v>
       </c>
       <c r="C87" s="122">
@@ -15977,8 +16081,8 @@
       <c r="I87" s="126"/>
     </row>
     <row r="88" spans="1:9" ht="16.5" thickBot="1">
-      <c r="A88" s="280"/>
-      <c r="B88" s="272"/>
+      <c r="A88" s="276"/>
+      <c r="B88" s="279"/>
       <c r="C88" s="122">
         <v>43312</v>
       </c>
@@ -15994,8 +16098,8 @@
       <c r="I88" s="126"/>
     </row>
     <row r="89" spans="1:9" ht="16.5" thickBot="1">
-      <c r="A89" s="280"/>
-      <c r="B89" s="272"/>
+      <c r="A89" s="276"/>
+      <c r="B89" s="279"/>
       <c r="C89" s="122">
         <v>43313</v>
       </c>
@@ -16011,8 +16115,8 @@
       <c r="I89" s="126"/>
     </row>
     <row r="90" spans="1:9" ht="16.5" thickBot="1">
-      <c r="A90" s="280"/>
-      <c r="B90" s="272"/>
+      <c r="A90" s="276"/>
+      <c r="B90" s="279"/>
       <c r="C90" s="122">
         <v>43314</v>
       </c>
@@ -16028,8 +16132,8 @@
       <c r="I90" s="126"/>
     </row>
     <row r="91" spans="1:9" ht="27" thickBot="1">
-      <c r="A91" s="280"/>
-      <c r="B91" s="282"/>
+      <c r="A91" s="276"/>
+      <c r="B91" s="280"/>
       <c r="C91" s="122">
         <v>43315</v>
       </c>
@@ -16047,8 +16151,8 @@
       <c r="I91" s="126"/>
     </row>
     <row r="92" spans="1:9" ht="16.5" thickBot="1">
-      <c r="A92" s="280"/>
-      <c r="B92" s="283">
+      <c r="A92" s="276"/>
+      <c r="B92" s="274">
         <v>19</v>
       </c>
       <c r="C92" s="110">
@@ -16066,8 +16170,8 @@
       <c r="I92" s="115"/>
     </row>
     <row r="93" spans="1:9" ht="16.5" thickBot="1">
-      <c r="A93" s="280"/>
-      <c r="B93" s="275"/>
+      <c r="A93" s="276"/>
+      <c r="B93" s="269"/>
       <c r="C93" s="110">
         <v>43319</v>
       </c>
@@ -16083,8 +16187,8 @@
       <c r="I93" s="115"/>
     </row>
     <row r="94" spans="1:9" ht="16.5" thickBot="1">
-      <c r="A94" s="280"/>
-      <c r="B94" s="275"/>
+      <c r="A94" s="276"/>
+      <c r="B94" s="269"/>
       <c r="C94" s="110">
         <v>43320</v>
       </c>
@@ -16100,8 +16204,8 @@
       <c r="I94" s="115"/>
     </row>
     <row r="95" spans="1:9" ht="16.5" thickBot="1">
-      <c r="A95" s="280"/>
-      <c r="B95" s="275"/>
+      <c r="A95" s="276"/>
+      <c r="B95" s="269"/>
       <c r="C95" s="110">
         <v>43321</v>
       </c>
@@ -16117,8 +16221,8 @@
       <c r="I95" s="115"/>
     </row>
     <row r="96" spans="1:9" ht="16.5" thickBot="1">
-      <c r="A96" s="280"/>
-      <c r="B96" s="276"/>
+      <c r="A96" s="276"/>
+      <c r="B96" s="281"/>
       <c r="C96" s="110">
         <v>43322</v>
       </c>
@@ -16134,8 +16238,8 @@
       <c r="I96" s="115"/>
     </row>
     <row r="97" spans="1:9" ht="16.5" thickBot="1">
-      <c r="A97" s="280"/>
-      <c r="B97" s="277">
+      <c r="A97" s="276"/>
+      <c r="B97" s="278">
         <v>20</v>
       </c>
       <c r="C97" s="122">
@@ -16155,8 +16259,8 @@
       <c r="I97" s="126"/>
     </row>
     <row r="98" spans="1:9" ht="16.5" thickBot="1">
-      <c r="A98" s="280"/>
-      <c r="B98" s="272"/>
+      <c r="A98" s="276"/>
+      <c r="B98" s="279"/>
       <c r="C98" s="122">
         <v>43326</v>
       </c>
@@ -16172,8 +16276,8 @@
       <c r="I98" s="126"/>
     </row>
     <row r="99" spans="1:9" ht="16.5" thickBot="1">
-      <c r="A99" s="280"/>
-      <c r="B99" s="272"/>
+      <c r="A99" s="276"/>
+      <c r="B99" s="279"/>
       <c r="C99" s="122">
         <v>43327</v>
       </c>
@@ -16189,8 +16293,8 @@
       <c r="I99" s="126"/>
     </row>
     <row r="100" spans="1:9" ht="16.5" thickBot="1">
-      <c r="A100" s="280"/>
-      <c r="B100" s="272"/>
+      <c r="A100" s="276"/>
+      <c r="B100" s="279"/>
       <c r="C100" s="122">
         <v>43328</v>
       </c>
@@ -16208,8 +16312,8 @@
       <c r="I100" s="126"/>
     </row>
     <row r="101" spans="1:9" ht="16.5" thickBot="1">
-      <c r="A101" s="281"/>
-      <c r="B101" s="273"/>
+      <c r="A101" s="277"/>
+      <c r="B101" s="289"/>
       <c r="C101" s="140">
         <v>43329</v>
       </c>
@@ -22519,6 +22623,21 @@
     </row>
   </sheetData>
   <mergeCells count="27">
+    <mergeCell ref="A47:A61"/>
+    <mergeCell ref="B47:B51"/>
+    <mergeCell ref="B52:B56"/>
+    <mergeCell ref="B57:B61"/>
+    <mergeCell ref="B62:B66"/>
+    <mergeCell ref="A82:A86"/>
+    <mergeCell ref="A87:A101"/>
+    <mergeCell ref="A62:A81"/>
+    <mergeCell ref="B87:B91"/>
+    <mergeCell ref="B92:B96"/>
+    <mergeCell ref="B97:B101"/>
+    <mergeCell ref="B67:B71"/>
+    <mergeCell ref="B72:B76"/>
+    <mergeCell ref="B77:B81"/>
+    <mergeCell ref="B82:B86"/>
     <mergeCell ref="B32:B36"/>
     <mergeCell ref="B37:B41"/>
     <mergeCell ref="B42:B46"/>
@@ -22531,21 +22650,6 @@
     <mergeCell ref="B22:B26"/>
     <mergeCell ref="B27:B31"/>
     <mergeCell ref="A32:A46"/>
-    <mergeCell ref="A82:A86"/>
-    <mergeCell ref="A87:A101"/>
-    <mergeCell ref="A62:A81"/>
-    <mergeCell ref="B87:B91"/>
-    <mergeCell ref="B92:B96"/>
-    <mergeCell ref="B97:B101"/>
-    <mergeCell ref="B67:B71"/>
-    <mergeCell ref="B72:B76"/>
-    <mergeCell ref="B77:B81"/>
-    <mergeCell ref="B82:B86"/>
-    <mergeCell ref="A47:A61"/>
-    <mergeCell ref="B47:B51"/>
-    <mergeCell ref="B52:B56"/>
-    <mergeCell ref="B57:B61"/>
-    <mergeCell ref="B62:B66"/>
   </mergeCells>
   <hyperlinks>
     <hyperlink ref="I2" r:id="rId1" display="https://drive.google.com/open?id=12f1t9Kg0CD9OW5iG5jB3Ozx_iRGw-cbyozVUPhhG6ME"/>
@@ -24030,8 +24134,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:V1103"/>
   <sheetViews>
-    <sheetView topLeftCell="A650" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="A668" sqref="A668"/>
+    <sheetView tabSelected="1" topLeftCell="A830" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="A860" sqref="A860"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15"/>
@@ -28150,7 +28254,9 @@
       <c r="C859" s="26"/>
     </row>
     <row r="860" spans="1:3">
-      <c r="A860" s="26"/>
+      <c r="A860" s="297" t="s">
+        <v>971</v>
+      </c>
       <c r="B860" s="26"/>
       <c r="C860" s="26"/>
     </row>
@@ -28600,6 +28706,62 @@
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:A8"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A9" sqref="A9"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1" spans="1:1">
+      <c r="A1" s="23" t="s">
+        <v>963</v>
+      </c>
+    </row>
+    <row r="2" spans="1:1">
+      <c r="A2" s="26" t="s">
+        <v>964</v>
+      </c>
+    </row>
+    <row r="3" spans="1:1">
+      <c r="A3" t="s">
+        <v>965</v>
+      </c>
+    </row>
+    <row r="4" spans="1:1">
+      <c r="A4" t="s">
+        <v>966</v>
+      </c>
+    </row>
+    <row r="5" spans="1:1">
+      <c r="A5" t="s">
+        <v>967</v>
+      </c>
+    </row>
+    <row r="6" spans="1:1">
+      <c r="A6" t="s">
+        <v>968</v>
+      </c>
+    </row>
+    <row r="7" spans="1:1">
+      <c r="A7" t="s">
+        <v>969</v>
+      </c>
+    </row>
+    <row r="8" spans="1:1">
+      <c r="A8" t="s">
+        <v>970</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:B53"/>
   <sheetViews>
     <sheetView topLeftCell="A32" workbookViewId="0">
@@ -28822,12 +28984,12 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:J31"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J2" sqref="J2"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="Q10" sqref="Q10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -28986,79 +29148,4 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId20"/>
 </worksheet>
-</file>
-
-<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:A12"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A16" sqref="A16"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
-  <sheetData>
-    <row r="1" spans="1:1">
-      <c r="A1" s="23" t="s">
-        <v>603</v>
-      </c>
-    </row>
-    <row r="2" spans="1:1">
-      <c r="A2" s="22" t="s">
-        <v>604</v>
-      </c>
-    </row>
-    <row r="3" spans="1:1">
-      <c r="A3" t="s">
-        <v>605</v>
-      </c>
-    </row>
-    <row r="4" spans="1:1">
-      <c r="A4" t="s">
-        <v>613</v>
-      </c>
-    </row>
-    <row r="5" spans="1:1">
-      <c r="A5" t="s">
-        <v>612</v>
-      </c>
-    </row>
-    <row r="6" spans="1:1">
-      <c r="A6" t="s">
-        <v>614</v>
-      </c>
-    </row>
-    <row r="7" spans="1:1">
-      <c r="A7" t="s">
-        <v>611</v>
-      </c>
-    </row>
-    <row r="8" spans="1:1">
-      <c r="A8" t="s">
-        <v>610</v>
-      </c>
-    </row>
-    <row r="9" spans="1:1">
-      <c r="A9" t="s">
-        <v>609</v>
-      </c>
-    </row>
-    <row r="10" spans="1:1">
-      <c r="A10" t="s">
-        <v>608</v>
-      </c>
-    </row>
-    <row r="11" spans="1:1">
-      <c r="A11" t="s">
-        <v>607</v>
-      </c>
-    </row>
-    <row r="12" spans="1:1">
-      <c r="A12" t="s">
-        <v>606</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
 </file>
--- a/General/Curriculum (Personalized).xlsx
+++ b/General/Curriculum (Personalized).xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="13485" windowHeight="11415" firstSheet="5" activeTab="5"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="13485" windowHeight="11415" firstSheet="5" activeTab="8"/>
   </bookViews>
   <sheets>
     <sheet name="Curriculum" sheetId="1" r:id="rId1"/>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1390" uniqueCount="972">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1395" uniqueCount="977">
   <si>
     <t>Week</t>
   </si>
@@ -9907,6 +9907,21 @@
   </si>
   <si>
     <t>Look up IIFE</t>
+  </si>
+  <si>
+    <t>MockFlow</t>
+  </si>
+  <si>
+    <t>Udemy</t>
+  </si>
+  <si>
+    <t>For Class Project</t>
+  </si>
+  <si>
+    <t>https://startbootstrap.com/template-overviews/modern-business/</t>
+  </si>
+  <si>
+    <t>https://mockflow.com/</t>
   </si>
 </sst>
 </file>
@@ -11699,6 +11714,7 @@
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="1"/>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="5" fillId="4" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
@@ -12029,7 +12045,6 @@
     <xf numFmtId="0" fontId="8" fillId="0" borderId="44" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="3">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -13048,21 +13063,21 @@
       <c r="H1" s="35" t="s">
         <v>193</v>
       </c>
-      <c r="I1" s="187" t="s">
+      <c r="I1" s="188" t="s">
         <v>7</v>
       </c>
-      <c r="J1" s="188"/>
-      <c r="K1" s="189"/>
-      <c r="L1" s="262" t="s">
+      <c r="J1" s="189"/>
+      <c r="K1" s="190"/>
+      <c r="L1" s="263" t="s">
         <v>8</v>
       </c>
-      <c r="M1" s="263"/>
+      <c r="M1" s="264"/>
     </row>
     <row r="2" spans="1:13" ht="15.75" customHeight="1">
-      <c r="A2" s="220">
+      <c r="A2" s="221">
         <v>1</v>
       </c>
-      <c r="B2" s="215" t="s">
+      <c r="B2" s="216" t="s">
         <v>9</v>
       </c>
       <c r="C2" s="8" t="s">
@@ -13071,145 +13086,145 @@
       <c r="D2" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="E2" s="202" t="s">
+      <c r="E2" s="203" t="s">
         <v>12</v>
       </c>
-      <c r="F2" s="204"/>
-      <c r="G2" s="195"/>
-      <c r="H2" s="195"/>
-      <c r="I2" s="195" t="s">
+      <c r="F2" s="205"/>
+      <c r="G2" s="196"/>
+      <c r="H2" s="196"/>
+      <c r="I2" s="196" t="s">
         <v>10</v>
       </c>
-      <c r="J2" s="195" t="s">
+      <c r="J2" s="196" t="s">
         <v>14</v>
       </c>
-      <c r="K2" s="195" t="s">
+      <c r="K2" s="196" t="s">
         <v>15</v>
       </c>
-      <c r="L2" s="256" t="s">
+      <c r="L2" s="257" t="s">
         <v>16</v>
       </c>
-      <c r="M2" s="256" t="s">
+      <c r="M2" s="257" t="s">
         <v>327</v>
       </c>
     </row>
     <row r="3" spans="1:13" ht="15.75" customHeight="1">
-      <c r="A3" s="208"/>
-      <c r="B3" s="216"/>
+      <c r="A3" s="209"/>
+      <c r="B3" s="217"/>
       <c r="C3" s="32" t="s">
         <v>17</v>
       </c>
       <c r="D3" s="4" t="s">
         <v>18</v>
       </c>
-      <c r="E3" s="197"/>
-      <c r="F3" s="205"/>
-      <c r="G3" s="191"/>
-      <c r="H3" s="191"/>
-      <c r="I3" s="191"/>
-      <c r="J3" s="191"/>
-      <c r="K3" s="191"/>
-      <c r="L3" s="239"/>
-      <c r="M3" s="239"/>
+      <c r="E3" s="198"/>
+      <c r="F3" s="206"/>
+      <c r="G3" s="192"/>
+      <c r="H3" s="192"/>
+      <c r="I3" s="192"/>
+      <c r="J3" s="192"/>
+      <c r="K3" s="192"/>
+      <c r="L3" s="240"/>
+      <c r="M3" s="240"/>
     </row>
     <row r="4" spans="1:13" ht="15.75" customHeight="1">
-      <c r="A4" s="208"/>
-      <c r="B4" s="216"/>
+      <c r="A4" s="209"/>
+      <c r="B4" s="217"/>
       <c r="C4" s="32" t="s">
         <v>19</v>
       </c>
       <c r="D4" s="4" t="s">
         <v>20</v>
       </c>
-      <c r="E4" s="197"/>
-      <c r="F4" s="205"/>
-      <c r="G4" s="191"/>
-      <c r="H4" s="191"/>
-      <c r="I4" s="191"/>
-      <c r="J4" s="191"/>
-      <c r="K4" s="191"/>
-      <c r="L4" s="239"/>
-      <c r="M4" s="239"/>
+      <c r="E4" s="198"/>
+      <c r="F4" s="206"/>
+      <c r="G4" s="192"/>
+      <c r="H4" s="192"/>
+      <c r="I4" s="192"/>
+      <c r="J4" s="192"/>
+      <c r="K4" s="192"/>
+      <c r="L4" s="240"/>
+      <c r="M4" s="240"/>
     </row>
     <row r="5" spans="1:13" ht="15.75" customHeight="1">
-      <c r="A5" s="208"/>
-      <c r="B5" s="216"/>
+      <c r="A5" s="209"/>
+      <c r="B5" s="217"/>
       <c r="C5" s="32" t="s">
         <v>21</v>
       </c>
       <c r="D5" s="4"/>
-      <c r="E5" s="197"/>
-      <c r="F5" s="205"/>
-      <c r="G5" s="191"/>
-      <c r="H5" s="191"/>
-      <c r="I5" s="191"/>
-      <c r="J5" s="191"/>
-      <c r="K5" s="191"/>
-      <c r="L5" s="239"/>
-      <c r="M5" s="239"/>
+      <c r="E5" s="198"/>
+      <c r="F5" s="206"/>
+      <c r="G5" s="192"/>
+      <c r="H5" s="192"/>
+      <c r="I5" s="192"/>
+      <c r="J5" s="192"/>
+      <c r="K5" s="192"/>
+      <c r="L5" s="240"/>
+      <c r="M5" s="240"/>
     </row>
     <row r="6" spans="1:13" ht="15.75" customHeight="1">
-      <c r="A6" s="208"/>
-      <c r="B6" s="216"/>
+      <c r="A6" s="209"/>
+      <c r="B6" s="217"/>
       <c r="C6" s="32" t="s">
         <v>14</v>
       </c>
       <c r="D6" s="4" t="s">
         <v>22</v>
       </c>
-      <c r="E6" s="197"/>
-      <c r="F6" s="205"/>
-      <c r="G6" s="191"/>
-      <c r="H6" s="191"/>
-      <c r="I6" s="191"/>
-      <c r="J6" s="191"/>
-      <c r="K6" s="191"/>
-      <c r="L6" s="239"/>
-      <c r="M6" s="239"/>
+      <c r="E6" s="198"/>
+      <c r="F6" s="206"/>
+      <c r="G6" s="192"/>
+      <c r="H6" s="192"/>
+      <c r="I6" s="192"/>
+      <c r="J6" s="192"/>
+      <c r="K6" s="192"/>
+      <c r="L6" s="240"/>
+      <c r="M6" s="240"/>
     </row>
     <row r="7" spans="1:13" ht="15.75" customHeight="1">
-      <c r="A7" s="208"/>
-      <c r="B7" s="216"/>
+      <c r="A7" s="209"/>
+      <c r="B7" s="217"/>
       <c r="C7" s="32" t="s">
         <v>15</v>
       </c>
       <c r="D7" s="4" t="s">
         <v>20</v>
       </c>
-      <c r="E7" s="197"/>
-      <c r="F7" s="205"/>
-      <c r="G7" s="191"/>
-      <c r="H7" s="191"/>
-      <c r="I7" s="191"/>
-      <c r="J7" s="191"/>
-      <c r="K7" s="191"/>
-      <c r="L7" s="239"/>
-      <c r="M7" s="239"/>
+      <c r="E7" s="198"/>
+      <c r="F7" s="206"/>
+      <c r="G7" s="192"/>
+      <c r="H7" s="192"/>
+      <c r="I7" s="192"/>
+      <c r="J7" s="192"/>
+      <c r="K7" s="192"/>
+      <c r="L7" s="240"/>
+      <c r="M7" s="240"/>
     </row>
     <row r="8" spans="1:13" ht="15.75" customHeight="1" thickBot="1">
-      <c r="A8" s="209"/>
-      <c r="B8" s="217"/>
+      <c r="A8" s="210"/>
+      <c r="B8" s="218"/>
       <c r="C8" s="9" t="s">
         <v>23</v>
       </c>
       <c r="D8" s="5" t="s">
         <v>24</v>
       </c>
-      <c r="E8" s="203"/>
-      <c r="F8" s="206"/>
-      <c r="G8" s="196"/>
-      <c r="H8" s="196"/>
-      <c r="I8" s="196"/>
-      <c r="J8" s="196"/>
-      <c r="K8" s="196"/>
-      <c r="L8" s="265"/>
-      <c r="M8" s="265"/>
+      <c r="E8" s="204"/>
+      <c r="F8" s="207"/>
+      <c r="G8" s="197"/>
+      <c r="H8" s="197"/>
+      <c r="I8" s="197"/>
+      <c r="J8" s="197"/>
+      <c r="K8" s="197"/>
+      <c r="L8" s="266"/>
+      <c r="M8" s="266"/>
     </row>
     <row r="9" spans="1:13" ht="15.75" customHeight="1">
-      <c r="A9" s="233">
+      <c r="A9" s="234">
         <v>2</v>
       </c>
-      <c r="B9" s="215" t="s">
+      <c r="B9" s="216" t="s">
         <v>25</v>
       </c>
       <c r="C9" s="10" t="s">
@@ -13218,864 +13233,864 @@
       <c r="D9" s="3" t="s">
         <v>286</v>
       </c>
-      <c r="E9" s="198"/>
-      <c r="F9" s="199" t="s">
+      <c r="E9" s="199"/>
+      <c r="F9" s="200" t="s">
         <v>192</v>
       </c>
-      <c r="G9" s="201" t="s">
+      <c r="G9" s="202" t="s">
         <v>13</v>
       </c>
-      <c r="H9" s="242"/>
-      <c r="I9" s="243" t="s">
+      <c r="H9" s="243"/>
+      <c r="I9" s="244" t="s">
         <v>184</v>
       </c>
-      <c r="J9" s="199" t="s">
+      <c r="J9" s="200" t="s">
         <v>194</v>
       </c>
-      <c r="K9" s="199" t="s">
+      <c r="K9" s="200" t="s">
         <v>195</v>
       </c>
-      <c r="L9" s="201" t="s">
+      <c r="L9" s="202" t="s">
         <v>328</v>
       </c>
-      <c r="M9" s="266"/>
+      <c r="M9" s="267"/>
     </row>
     <row r="10" spans="1:13" ht="15.75" customHeight="1">
-      <c r="A10" s="231"/>
-      <c r="B10" s="216"/>
+      <c r="A10" s="232"/>
+      <c r="B10" s="217"/>
       <c r="C10" s="11" t="s">
         <v>26</v>
       </c>
       <c r="D10" s="4"/>
-      <c r="E10" s="190"/>
-      <c r="F10" s="200"/>
-      <c r="G10" s="193"/>
-      <c r="H10" s="194"/>
-      <c r="I10" s="244"/>
-      <c r="J10" s="200"/>
-      <c r="K10" s="200"/>
-      <c r="L10" s="237"/>
-      <c r="M10" s="267"/>
+      <c r="E10" s="191"/>
+      <c r="F10" s="201"/>
+      <c r="G10" s="194"/>
+      <c r="H10" s="195"/>
+      <c r="I10" s="245"/>
+      <c r="J10" s="201"/>
+      <c r="K10" s="201"/>
+      <c r="L10" s="238"/>
+      <c r="M10" s="268"/>
     </row>
     <row r="11" spans="1:13" ht="15.75" customHeight="1" thickBot="1">
-      <c r="A11" s="228">
+      <c r="A11" s="229">
         <v>3</v>
       </c>
-      <c r="B11" s="216"/>
+      <c r="B11" s="217"/>
       <c r="C11" s="11" t="s">
         <v>263</v>
       </c>
       <c r="D11" s="4"/>
-      <c r="E11" s="197"/>
-      <c r="F11" s="205"/>
-      <c r="G11" s="191"/>
-      <c r="H11" s="191" t="s">
+      <c r="E11" s="198"/>
+      <c r="F11" s="206"/>
+      <c r="G11" s="192"/>
+      <c r="H11" s="192" t="s">
         <v>198</v>
       </c>
-      <c r="I11" s="191" t="s">
+      <c r="I11" s="192" t="s">
         <v>196</v>
       </c>
-      <c r="J11" s="191"/>
-      <c r="K11" s="191"/>
-      <c r="L11" s="236" t="s">
+      <c r="J11" s="192"/>
+      <c r="K11" s="192"/>
+      <c r="L11" s="237" t="s">
         <v>329</v>
       </c>
-      <c r="M11" s="239"/>
+      <c r="M11" s="240"/>
     </row>
     <row r="12" spans="1:13" ht="15.75" customHeight="1">
-      <c r="A12" s="229"/>
-      <c r="B12" s="216"/>
+      <c r="A12" s="230"/>
+      <c r="B12" s="217"/>
       <c r="C12" s="11" t="s">
         <v>28</v>
       </c>
       <c r="D12" s="10"/>
-      <c r="E12" s="197"/>
-      <c r="F12" s="205"/>
-      <c r="G12" s="191"/>
-      <c r="H12" s="191"/>
-      <c r="I12" s="191"/>
-      <c r="J12" s="191"/>
-      <c r="K12" s="191"/>
-      <c r="L12" s="236"/>
-      <c r="M12" s="239"/>
+      <c r="E12" s="198"/>
+      <c r="F12" s="206"/>
+      <c r="G12" s="192"/>
+      <c r="H12" s="192"/>
+      <c r="I12" s="192"/>
+      <c r="J12" s="192"/>
+      <c r="K12" s="192"/>
+      <c r="L12" s="237"/>
+      <c r="M12" s="240"/>
     </row>
     <row r="13" spans="1:13" ht="15.75" customHeight="1">
-      <c r="A13" s="230">
+      <c r="A13" s="231">
         <v>4</v>
       </c>
-      <c r="B13" s="216"/>
+      <c r="B13" s="217"/>
       <c r="C13" s="11" t="s">
         <v>29</v>
       </c>
       <c r="D13" s="11"/>
-      <c r="E13" s="190"/>
-      <c r="F13" s="192" t="s">
+      <c r="E13" s="191"/>
+      <c r="F13" s="193" t="s">
         <v>36</v>
       </c>
-      <c r="G13" s="193" t="s">
+      <c r="G13" s="194" t="s">
         <v>33</v>
       </c>
-      <c r="H13" s="194"/>
-      <c r="I13" s="193" t="s">
+      <c r="H13" s="195"/>
+      <c r="I13" s="194" t="s">
         <v>330</v>
       </c>
-      <c r="J13" s="194"/>
-      <c r="K13" s="194"/>
-      <c r="L13" s="257"/>
-      <c r="M13" s="257"/>
+      <c r="J13" s="195"/>
+      <c r="K13" s="195"/>
+      <c r="L13" s="258"/>
+      <c r="M13" s="258"/>
     </row>
     <row r="14" spans="1:13" ht="15.75" customHeight="1">
-      <c r="A14" s="231"/>
-      <c r="B14" s="216"/>
+      <c r="A14" s="232"/>
+      <c r="B14" s="217"/>
       <c r="C14" s="32" t="s">
         <v>30</v>
       </c>
       <c r="D14" s="4"/>
-      <c r="E14" s="190"/>
-      <c r="F14" s="192"/>
-      <c r="G14" s="193"/>
-      <c r="H14" s="194"/>
-      <c r="I14" s="193"/>
-      <c r="J14" s="194"/>
-      <c r="K14" s="194"/>
-      <c r="L14" s="257"/>
-      <c r="M14" s="257"/>
+      <c r="E14" s="191"/>
+      <c r="F14" s="193"/>
+      <c r="G14" s="194"/>
+      <c r="H14" s="195"/>
+      <c r="I14" s="194"/>
+      <c r="J14" s="195"/>
+      <c r="K14" s="195"/>
+      <c r="L14" s="258"/>
+      <c r="M14" s="258"/>
     </row>
     <row r="15" spans="1:13" ht="15.75" customHeight="1">
-      <c r="A15" s="228">
+      <c r="A15" s="229">
         <v>5</v>
       </c>
-      <c r="B15" s="216"/>
-      <c r="C15" s="234" t="s">
+      <c r="B15" s="217"/>
+      <c r="C15" s="235" t="s">
         <v>31</v>
       </c>
       <c r="D15" s="4"/>
-      <c r="E15" s="197" t="s">
+      <c r="E15" s="198" t="s">
         <v>27</v>
       </c>
-      <c r="F15" s="205"/>
-      <c r="G15" s="191"/>
-      <c r="H15" s="191"/>
-      <c r="I15" s="191"/>
-      <c r="J15" s="191"/>
-      <c r="K15" s="191"/>
-      <c r="L15" s="239"/>
-      <c r="M15" s="239"/>
+      <c r="F15" s="206"/>
+      <c r="G15" s="192"/>
+      <c r="H15" s="192"/>
+      <c r="I15" s="192"/>
+      <c r="J15" s="192"/>
+      <c r="K15" s="192"/>
+      <c r="L15" s="240"/>
+      <c r="M15" s="240"/>
     </row>
     <row r="16" spans="1:13" ht="15.75" customHeight="1" thickBot="1">
-      <c r="A16" s="232"/>
-      <c r="B16" s="221"/>
-      <c r="C16" s="235"/>
+      <c r="A16" s="233"/>
+      <c r="B16" s="222"/>
+      <c r="C16" s="236"/>
       <c r="D16" s="5"/>
-      <c r="E16" s="245"/>
-      <c r="F16" s="241"/>
-      <c r="G16" s="238"/>
-      <c r="H16" s="238"/>
-      <c r="I16" s="238"/>
-      <c r="J16" s="238"/>
-      <c r="K16" s="238"/>
-      <c r="L16" s="240"/>
-      <c r="M16" s="240"/>
+      <c r="E16" s="246"/>
+      <c r="F16" s="242"/>
+      <c r="G16" s="239"/>
+      <c r="H16" s="239"/>
+      <c r="I16" s="239"/>
+      <c r="J16" s="239"/>
+      <c r="K16" s="239"/>
+      <c r="L16" s="241"/>
+      <c r="M16" s="241"/>
     </row>
     <row r="17" spans="1:13" ht="15.75" customHeight="1">
-      <c r="A17" s="218">
+      <c r="A17" s="219">
         <v>6</v>
       </c>
-      <c r="B17" s="215" t="s">
+      <c r="B17" s="216" t="s">
         <v>34</v>
       </c>
       <c r="C17" s="10" t="s">
         <v>35</v>
       </c>
       <c r="D17" s="3"/>
-      <c r="E17" s="198"/>
-      <c r="F17" s="242"/>
-      <c r="G17" s="242"/>
-      <c r="H17" s="199" t="s">
+      <c r="E17" s="199"/>
+      <c r="F17" s="243"/>
+      <c r="G17" s="243"/>
+      <c r="H17" s="200" t="s">
         <v>27</v>
       </c>
-      <c r="I17" s="199"/>
-      <c r="J17" s="199"/>
-      <c r="K17" s="199"/>
-      <c r="L17" s="264"/>
-      <c r="M17" s="264"/>
+      <c r="I17" s="200"/>
+      <c r="J17" s="200"/>
+      <c r="K17" s="200"/>
+      <c r="L17" s="265"/>
+      <c r="M17" s="265"/>
     </row>
     <row r="18" spans="1:13" ht="15.75" customHeight="1">
-      <c r="A18" s="207"/>
-      <c r="B18" s="216"/>
+      <c r="A18" s="208"/>
+      <c r="B18" s="217"/>
       <c r="C18" s="11" t="s">
         <v>37</v>
       </c>
       <c r="D18" s="4"/>
-      <c r="E18" s="190"/>
-      <c r="F18" s="194"/>
-      <c r="G18" s="194"/>
-      <c r="H18" s="200"/>
-      <c r="I18" s="200"/>
-      <c r="J18" s="200"/>
-      <c r="K18" s="200"/>
-      <c r="L18" s="250"/>
-      <c r="M18" s="250"/>
+      <c r="E18" s="191"/>
+      <c r="F18" s="195"/>
+      <c r="G18" s="195"/>
+      <c r="H18" s="201"/>
+      <c r="I18" s="201"/>
+      <c r="J18" s="201"/>
+      <c r="K18" s="201"/>
+      <c r="L18" s="251"/>
+      <c r="M18" s="251"/>
     </row>
     <row r="19" spans="1:13" ht="15.75" customHeight="1">
-      <c r="A19" s="207"/>
-      <c r="B19" s="216"/>
+      <c r="A19" s="208"/>
+      <c r="B19" s="217"/>
       <c r="C19" s="11" t="s">
         <v>38</v>
       </c>
       <c r="D19" s="4"/>
-      <c r="E19" s="190"/>
-      <c r="F19" s="194"/>
-      <c r="G19" s="194"/>
-      <c r="H19" s="200"/>
-      <c r="I19" s="200"/>
-      <c r="J19" s="200"/>
-      <c r="K19" s="200"/>
-      <c r="L19" s="250"/>
-      <c r="M19" s="250"/>
+      <c r="E19" s="191"/>
+      <c r="F19" s="195"/>
+      <c r="G19" s="195"/>
+      <c r="H19" s="201"/>
+      <c r="I19" s="201"/>
+      <c r="J19" s="201"/>
+      <c r="K19" s="201"/>
+      <c r="L19" s="251"/>
+      <c r="M19" s="251"/>
     </row>
     <row r="20" spans="1:13" ht="15.75" customHeight="1">
-      <c r="A20" s="208">
+      <c r="A20" s="209">
         <v>7</v>
       </c>
-      <c r="B20" s="216"/>
+      <c r="B20" s="217"/>
       <c r="C20" s="11" t="s">
         <v>39</v>
       </c>
       <c r="D20" s="4"/>
-      <c r="E20" s="197" t="s">
+      <c r="E20" s="198" t="s">
         <v>32</v>
       </c>
-      <c r="F20" s="252" t="s">
+      <c r="F20" s="253" t="s">
         <v>44</v>
       </c>
-      <c r="G20" s="252"/>
-      <c r="H20" s="252"/>
-      <c r="I20" s="252"/>
-      <c r="J20" s="252"/>
-      <c r="K20" s="252"/>
-      <c r="L20" s="253"/>
-      <c r="M20" s="253"/>
+      <c r="G20" s="253"/>
+      <c r="H20" s="253"/>
+      <c r="I20" s="253"/>
+      <c r="J20" s="253"/>
+      <c r="K20" s="253"/>
+      <c r="L20" s="254"/>
+      <c r="M20" s="254"/>
     </row>
     <row r="21" spans="1:13" ht="15.75" customHeight="1">
-      <c r="A21" s="208"/>
-      <c r="B21" s="216"/>
+      <c r="A21" s="209"/>
+      <c r="B21" s="217"/>
       <c r="C21" s="11" t="s">
         <v>41</v>
       </c>
       <c r="D21" s="4"/>
-      <c r="E21" s="197"/>
-      <c r="F21" s="252"/>
-      <c r="G21" s="252"/>
-      <c r="H21" s="252"/>
-      <c r="I21" s="252"/>
-      <c r="J21" s="252"/>
-      <c r="K21" s="252"/>
-      <c r="L21" s="253"/>
-      <c r="M21" s="253"/>
+      <c r="E21" s="198"/>
+      <c r="F21" s="253"/>
+      <c r="G21" s="253"/>
+      <c r="H21" s="253"/>
+      <c r="I21" s="253"/>
+      <c r="J21" s="253"/>
+      <c r="K21" s="253"/>
+      <c r="L21" s="254"/>
+      <c r="M21" s="254"/>
     </row>
     <row r="22" spans="1:13" ht="15.75" customHeight="1">
-      <c r="A22" s="208"/>
-      <c r="B22" s="216"/>
+      <c r="A22" s="209"/>
+      <c r="B22" s="217"/>
       <c r="C22" s="32" t="s">
         <v>42</v>
       </c>
       <c r="D22" s="4"/>
-      <c r="E22" s="197"/>
-      <c r="F22" s="252"/>
-      <c r="G22" s="252"/>
-      <c r="H22" s="252"/>
-      <c r="I22" s="252"/>
-      <c r="J22" s="252"/>
-      <c r="K22" s="252"/>
-      <c r="L22" s="253"/>
-      <c r="M22" s="253"/>
+      <c r="E22" s="198"/>
+      <c r="F22" s="253"/>
+      <c r="G22" s="253"/>
+      <c r="H22" s="253"/>
+      <c r="I22" s="253"/>
+      <c r="J22" s="253"/>
+      <c r="K22" s="253"/>
+      <c r="L22" s="254"/>
+      <c r="M22" s="254"/>
     </row>
     <row r="23" spans="1:13" ht="15.75" customHeight="1">
-      <c r="A23" s="207">
+      <c r="A23" s="208">
         <v>8</v>
       </c>
-      <c r="B23" s="216"/>
+      <c r="B23" s="217"/>
       <c r="C23" s="32" t="s">
         <v>43</v>
       </c>
       <c r="D23" s="4"/>
-      <c r="E23" s="190"/>
-      <c r="F23" s="194"/>
-      <c r="G23" s="193" t="s">
+      <c r="E23" s="191"/>
+      <c r="F23" s="195"/>
+      <c r="G23" s="194" t="s">
         <v>50</v>
       </c>
-      <c r="H23" s="200" t="s">
+      <c r="H23" s="201" t="s">
         <v>32</v>
       </c>
-      <c r="I23" s="200"/>
-      <c r="J23" s="200"/>
-      <c r="K23" s="200"/>
-      <c r="L23" s="250"/>
-      <c r="M23" s="250"/>
+      <c r="I23" s="201"/>
+      <c r="J23" s="201"/>
+      <c r="K23" s="201"/>
+      <c r="L23" s="251"/>
+      <c r="M23" s="251"/>
     </row>
     <row r="24" spans="1:13" ht="15.75" customHeight="1">
-      <c r="A24" s="207"/>
-      <c r="B24" s="216"/>
+      <c r="A24" s="208"/>
+      <c r="B24" s="217"/>
       <c r="C24" s="32" t="s">
         <v>45</v>
       </c>
       <c r="D24" s="4"/>
-      <c r="E24" s="190"/>
-      <c r="F24" s="194"/>
-      <c r="G24" s="193"/>
-      <c r="H24" s="200"/>
-      <c r="I24" s="200"/>
-      <c r="J24" s="200"/>
-      <c r="K24" s="200"/>
-      <c r="L24" s="250"/>
-      <c r="M24" s="250"/>
+      <c r="E24" s="191"/>
+      <c r="F24" s="195"/>
+      <c r="G24" s="194"/>
+      <c r="H24" s="201"/>
+      <c r="I24" s="201"/>
+      <c r="J24" s="201"/>
+      <c r="K24" s="201"/>
+      <c r="L24" s="251"/>
+      <c r="M24" s="251"/>
     </row>
     <row r="25" spans="1:13" ht="15.75" customHeight="1" thickBot="1">
-      <c r="A25" s="224"/>
-      <c r="B25" s="221"/>
+      <c r="A25" s="225"/>
+      <c r="B25" s="222"/>
       <c r="C25" s="33" t="s">
         <v>46</v>
       </c>
       <c r="D25" s="5"/>
-      <c r="E25" s="246"/>
-      <c r="F25" s="247"/>
-      <c r="G25" s="248"/>
-      <c r="H25" s="249"/>
-      <c r="I25" s="249"/>
-      <c r="J25" s="249"/>
-      <c r="K25" s="249"/>
-      <c r="L25" s="251"/>
-      <c r="M25" s="251"/>
+      <c r="E25" s="247"/>
+      <c r="F25" s="248"/>
+      <c r="G25" s="249"/>
+      <c r="H25" s="250"/>
+      <c r="I25" s="250"/>
+      <c r="J25" s="250"/>
+      <c r="K25" s="250"/>
+      <c r="L25" s="252"/>
+      <c r="M25" s="252"/>
     </row>
     <row r="26" spans="1:13" ht="15.75" customHeight="1">
-      <c r="A26" s="222">
+      <c r="A26" s="223">
         <v>9</v>
       </c>
-      <c r="B26" s="215" t="s">
+      <c r="B26" s="216" t="s">
         <v>47</v>
       </c>
       <c r="C26" s="12" t="s">
         <v>48</v>
       </c>
       <c r="D26" s="3"/>
-      <c r="E26" s="202" t="s">
+      <c r="E26" s="203" t="s">
         <v>40</v>
       </c>
-      <c r="F26" s="254" t="s">
+      <c r="F26" s="255" t="s">
         <v>53</v>
       </c>
-      <c r="G26" s="254"/>
-      <c r="H26" s="254"/>
-      <c r="I26" s="254"/>
-      <c r="J26" s="254"/>
-      <c r="K26" s="254"/>
-      <c r="L26" s="255"/>
-      <c r="M26" s="255"/>
+      <c r="G26" s="255"/>
+      <c r="H26" s="255"/>
+      <c r="I26" s="255"/>
+      <c r="J26" s="255"/>
+      <c r="K26" s="255"/>
+      <c r="L26" s="256"/>
+      <c r="M26" s="256"/>
     </row>
     <row r="27" spans="1:13" ht="15.75" customHeight="1">
-      <c r="A27" s="223"/>
-      <c r="B27" s="216"/>
+      <c r="A27" s="224"/>
+      <c r="B27" s="217"/>
       <c r="C27" s="13" t="s">
         <v>51</v>
       </c>
       <c r="D27" s="4"/>
-      <c r="E27" s="197"/>
-      <c r="F27" s="252"/>
-      <c r="G27" s="252"/>
-      <c r="H27" s="252"/>
-      <c r="I27" s="252"/>
-      <c r="J27" s="252"/>
-      <c r="K27" s="252"/>
-      <c r="L27" s="253"/>
-      <c r="M27" s="253"/>
+      <c r="E27" s="198"/>
+      <c r="F27" s="253"/>
+      <c r="G27" s="253"/>
+      <c r="H27" s="253"/>
+      <c r="I27" s="253"/>
+      <c r="J27" s="253"/>
+      <c r="K27" s="253"/>
+      <c r="L27" s="254"/>
+      <c r="M27" s="254"/>
     </row>
     <row r="28" spans="1:13" ht="15.75" customHeight="1">
-      <c r="A28" s="224">
+      <c r="A28" s="225">
         <v>10</v>
       </c>
-      <c r="B28" s="216"/>
+      <c r="B28" s="217"/>
       <c r="C28" s="13" t="s">
         <v>52</v>
       </c>
       <c r="D28" s="4"/>
-      <c r="E28" s="190"/>
-      <c r="F28" s="200" t="s">
+      <c r="E28" s="191"/>
+      <c r="F28" s="201" t="s">
         <v>59</v>
       </c>
-      <c r="G28" s="200"/>
-      <c r="H28" s="200" t="s">
+      <c r="G28" s="201"/>
+      <c r="H28" s="201" t="s">
         <v>40</v>
       </c>
-      <c r="I28" s="200"/>
-      <c r="J28" s="200"/>
-      <c r="K28" s="200"/>
-      <c r="L28" s="250"/>
-      <c r="M28" s="250"/>
+      <c r="I28" s="201"/>
+      <c r="J28" s="201"/>
+      <c r="K28" s="201"/>
+      <c r="L28" s="251"/>
+      <c r="M28" s="251"/>
     </row>
     <row r="29" spans="1:13" ht="15.75" customHeight="1">
-      <c r="A29" s="225"/>
-      <c r="B29" s="216"/>
+      <c r="A29" s="226"/>
+      <c r="B29" s="217"/>
       <c r="C29" s="13" t="s">
         <v>54</v>
       </c>
       <c r="D29" s="4"/>
-      <c r="E29" s="190"/>
-      <c r="F29" s="200"/>
-      <c r="G29" s="200"/>
-      <c r="H29" s="200"/>
-      <c r="I29" s="200"/>
-      <c r="J29" s="200"/>
-      <c r="K29" s="200"/>
-      <c r="L29" s="250"/>
-      <c r="M29" s="250"/>
+      <c r="E29" s="191"/>
+      <c r="F29" s="201"/>
+      <c r="G29" s="201"/>
+      <c r="H29" s="201"/>
+      <c r="I29" s="201"/>
+      <c r="J29" s="201"/>
+      <c r="K29" s="201"/>
+      <c r="L29" s="251"/>
+      <c r="M29" s="251"/>
     </row>
     <row r="30" spans="1:13" ht="15.75" customHeight="1">
-      <c r="A30" s="226">
+      <c r="A30" s="227">
         <v>11</v>
       </c>
-      <c r="B30" s="216"/>
+      <c r="B30" s="217"/>
       <c r="C30" s="13" t="s">
         <v>55</v>
       </c>
       <c r="D30" s="4"/>
-      <c r="E30" s="197" t="s">
+      <c r="E30" s="198" t="s">
         <v>49</v>
       </c>
-      <c r="F30" s="191"/>
-      <c r="G30" s="191"/>
-      <c r="H30" s="191"/>
-      <c r="I30" s="191"/>
-      <c r="J30" s="191"/>
-      <c r="K30" s="191"/>
-      <c r="L30" s="239"/>
-      <c r="M30" s="239"/>
+      <c r="F30" s="192"/>
+      <c r="G30" s="192"/>
+      <c r="H30" s="192"/>
+      <c r="I30" s="192"/>
+      <c r="J30" s="192"/>
+      <c r="K30" s="192"/>
+      <c r="L30" s="240"/>
+      <c r="M30" s="240"/>
     </row>
     <row r="31" spans="1:13" ht="15.75" customHeight="1">
-      <c r="A31" s="223"/>
-      <c r="B31" s="216"/>
+      <c r="A31" s="224"/>
+      <c r="B31" s="217"/>
       <c r="C31" s="14" t="s">
         <v>57</v>
       </c>
       <c r="D31" s="4"/>
-      <c r="E31" s="197"/>
-      <c r="F31" s="191"/>
-      <c r="G31" s="191"/>
-      <c r="H31" s="191"/>
-      <c r="I31" s="191"/>
-      <c r="J31" s="191"/>
-      <c r="K31" s="191"/>
-      <c r="L31" s="239"/>
-      <c r="M31" s="239"/>
+      <c r="E31" s="198"/>
+      <c r="F31" s="192"/>
+      <c r="G31" s="192"/>
+      <c r="H31" s="192"/>
+      <c r="I31" s="192"/>
+      <c r="J31" s="192"/>
+      <c r="K31" s="192"/>
+      <c r="L31" s="240"/>
+      <c r="M31" s="240"/>
     </row>
     <row r="32" spans="1:13" ht="15.75" customHeight="1">
-      <c r="A32" s="224">
+      <c r="A32" s="225">
         <v>12</v>
       </c>
-      <c r="B32" s="216"/>
+      <c r="B32" s="217"/>
       <c r="C32" s="14" t="s">
         <v>58</v>
       </c>
       <c r="D32" s="4"/>
-      <c r="E32" s="190"/>
-      <c r="F32" s="200" t="s">
+      <c r="E32" s="191"/>
+      <c r="F32" s="201" t="s">
         <v>67</v>
       </c>
-      <c r="G32" s="193" t="s">
+      <c r="G32" s="194" t="s">
         <v>64</v>
       </c>
-      <c r="H32" s="200" t="s">
+      <c r="H32" s="201" t="s">
         <v>49</v>
       </c>
-      <c r="I32" s="200"/>
-      <c r="J32" s="200"/>
-      <c r="K32" s="200"/>
-      <c r="L32" s="250"/>
-      <c r="M32" s="250"/>
+      <c r="I32" s="201"/>
+      <c r="J32" s="201"/>
+      <c r="K32" s="201"/>
+      <c r="L32" s="251"/>
+      <c r="M32" s="251"/>
     </row>
     <row r="33" spans="1:13" ht="15.75" customHeight="1" thickBot="1">
-      <c r="A33" s="227"/>
-      <c r="B33" s="221"/>
+      <c r="A33" s="228"/>
+      <c r="B33" s="222"/>
       <c r="C33" s="15" t="s">
         <v>60</v>
       </c>
       <c r="D33" s="5"/>
-      <c r="E33" s="246"/>
-      <c r="F33" s="249"/>
-      <c r="G33" s="248"/>
-      <c r="H33" s="249"/>
-      <c r="I33" s="249"/>
-      <c r="J33" s="249"/>
-      <c r="K33" s="249"/>
-      <c r="L33" s="251"/>
-      <c r="M33" s="251"/>
+      <c r="E33" s="247"/>
+      <c r="F33" s="250"/>
+      <c r="G33" s="249"/>
+      <c r="H33" s="250"/>
+      <c r="I33" s="250"/>
+      <c r="J33" s="250"/>
+      <c r="K33" s="250"/>
+      <c r="L33" s="252"/>
+      <c r="M33" s="252"/>
     </row>
     <row r="34" spans="1:13" ht="15.75" customHeight="1">
-      <c r="A34" s="220">
+      <c r="A34" s="221">
         <v>13</v>
       </c>
-      <c r="B34" s="215" t="s">
+      <c r="B34" s="216" t="s">
         <v>61</v>
       </c>
       <c r="C34" s="16" t="s">
         <v>62</v>
       </c>
       <c r="D34" s="3"/>
-      <c r="E34" s="202" t="s">
+      <c r="E34" s="203" t="s">
         <v>56</v>
       </c>
-      <c r="F34" s="195"/>
-      <c r="G34" s="195"/>
-      <c r="H34" s="195"/>
-      <c r="I34" s="195"/>
-      <c r="J34" s="195"/>
-      <c r="K34" s="195"/>
-      <c r="L34" s="256"/>
-      <c r="M34" s="256"/>
+      <c r="F34" s="196"/>
+      <c r="G34" s="196"/>
+      <c r="H34" s="196"/>
+      <c r="I34" s="196"/>
+      <c r="J34" s="196"/>
+      <c r="K34" s="196"/>
+      <c r="L34" s="257"/>
+      <c r="M34" s="257"/>
     </row>
     <row r="35" spans="1:13" ht="15.75" customHeight="1">
-      <c r="A35" s="208"/>
-      <c r="B35" s="216"/>
+      <c r="A35" s="209"/>
+      <c r="B35" s="217"/>
       <c r="C35" s="17" t="s">
         <v>65</v>
       </c>
       <c r="D35" s="4"/>
-      <c r="E35" s="197"/>
-      <c r="F35" s="191"/>
-      <c r="G35" s="191"/>
-      <c r="H35" s="191"/>
-      <c r="I35" s="191"/>
-      <c r="J35" s="191"/>
-      <c r="K35" s="191"/>
-      <c r="L35" s="239"/>
-      <c r="M35" s="239"/>
+      <c r="E35" s="198"/>
+      <c r="F35" s="192"/>
+      <c r="G35" s="192"/>
+      <c r="H35" s="192"/>
+      <c r="I35" s="192"/>
+      <c r="J35" s="192"/>
+      <c r="K35" s="192"/>
+      <c r="L35" s="240"/>
+      <c r="M35" s="240"/>
     </row>
     <row r="36" spans="1:13" ht="15.75" customHeight="1">
-      <c r="A36" s="207">
+      <c r="A36" s="208">
         <v>14</v>
       </c>
-      <c r="B36" s="216"/>
+      <c r="B36" s="217"/>
       <c r="C36" s="17" t="s">
         <v>66</v>
       </c>
       <c r="D36" s="4"/>
-      <c r="E36" s="190"/>
-      <c r="F36" s="194" t="s">
+      <c r="E36" s="191"/>
+      <c r="F36" s="195" t="s">
         <v>73</v>
       </c>
-      <c r="G36" s="194"/>
-      <c r="H36" s="194" t="s">
+      <c r="G36" s="195"/>
+      <c r="H36" s="195" t="s">
         <v>56</v>
       </c>
-      <c r="I36" s="194"/>
-      <c r="J36" s="194"/>
-      <c r="K36" s="194"/>
-      <c r="L36" s="257"/>
-      <c r="M36" s="257"/>
+      <c r="I36" s="195"/>
+      <c r="J36" s="195"/>
+      <c r="K36" s="195"/>
+      <c r="L36" s="258"/>
+      <c r="M36" s="258"/>
     </row>
     <row r="37" spans="1:13" ht="15.75" customHeight="1">
-      <c r="A37" s="207"/>
-      <c r="B37" s="216"/>
+      <c r="A37" s="208"/>
+      <c r="B37" s="217"/>
       <c r="C37" s="17" t="s">
         <v>68</v>
       </c>
       <c r="D37" s="4"/>
-      <c r="E37" s="190"/>
-      <c r="F37" s="194"/>
-      <c r="G37" s="194"/>
-      <c r="H37" s="194"/>
-      <c r="I37" s="194"/>
-      <c r="J37" s="194"/>
-      <c r="K37" s="194"/>
-      <c r="L37" s="257"/>
-      <c r="M37" s="257"/>
+      <c r="E37" s="191"/>
+      <c r="F37" s="195"/>
+      <c r="G37" s="195"/>
+      <c r="H37" s="195"/>
+      <c r="I37" s="195"/>
+      <c r="J37" s="195"/>
+      <c r="K37" s="195"/>
+      <c r="L37" s="258"/>
+      <c r="M37" s="258"/>
     </row>
     <row r="38" spans="1:13" ht="15.75" customHeight="1">
-      <c r="A38" s="208">
+      <c r="A38" s="209">
         <v>15</v>
       </c>
-      <c r="B38" s="216"/>
+      <c r="B38" s="217"/>
       <c r="C38" s="17" t="s">
         <v>69</v>
       </c>
       <c r="D38" s="4"/>
-      <c r="E38" s="197" t="s">
+      <c r="E38" s="198" t="s">
         <v>63</v>
       </c>
-      <c r="F38" s="191"/>
-      <c r="G38" s="191"/>
-      <c r="H38" s="191"/>
-      <c r="I38" s="191"/>
-      <c r="J38" s="191"/>
-      <c r="K38" s="191"/>
-      <c r="L38" s="239"/>
-      <c r="M38" s="239"/>
+      <c r="F38" s="192"/>
+      <c r="G38" s="192"/>
+      <c r="H38" s="192"/>
+      <c r="I38" s="192"/>
+      <c r="J38" s="192"/>
+      <c r="K38" s="192"/>
+      <c r="L38" s="240"/>
+      <c r="M38" s="240"/>
     </row>
     <row r="39" spans="1:13" ht="15.75" customHeight="1">
-      <c r="A39" s="208"/>
-      <c r="B39" s="216"/>
+      <c r="A39" s="209"/>
+      <c r="B39" s="217"/>
       <c r="C39" s="32" t="s">
         <v>71</v>
       </c>
       <c r="D39" s="4"/>
-      <c r="E39" s="197"/>
-      <c r="F39" s="191"/>
-      <c r="G39" s="191"/>
-      <c r="H39" s="191"/>
-      <c r="I39" s="191"/>
-      <c r="J39" s="191"/>
-      <c r="K39" s="191"/>
-      <c r="L39" s="239"/>
-      <c r="M39" s="239"/>
+      <c r="E39" s="198"/>
+      <c r="F39" s="192"/>
+      <c r="G39" s="192"/>
+      <c r="H39" s="192"/>
+      <c r="I39" s="192"/>
+      <c r="J39" s="192"/>
+      <c r="K39" s="192"/>
+      <c r="L39" s="240"/>
+      <c r="M39" s="240"/>
     </row>
     <row r="40" spans="1:13" ht="15.75" customHeight="1">
-      <c r="A40" s="207">
+      <c r="A40" s="208">
         <v>16</v>
       </c>
-      <c r="B40" s="216"/>
+      <c r="B40" s="217"/>
       <c r="C40" s="32" t="s">
         <v>72</v>
       </c>
       <c r="D40" s="4"/>
-      <c r="E40" s="190"/>
-      <c r="F40" s="200" t="s">
+      <c r="E40" s="191"/>
+      <c r="F40" s="201" t="s">
         <v>82</v>
       </c>
-      <c r="G40" s="193" t="s">
+      <c r="G40" s="194" t="s">
         <v>79</v>
       </c>
-      <c r="H40" s="194" t="s">
+      <c r="H40" s="195" t="s">
         <v>63</v>
       </c>
-      <c r="I40" s="194"/>
-      <c r="J40" s="194"/>
-      <c r="K40" s="194"/>
-      <c r="L40" s="257"/>
-      <c r="M40" s="257"/>
+      <c r="I40" s="195"/>
+      <c r="J40" s="195"/>
+      <c r="K40" s="195"/>
+      <c r="L40" s="258"/>
+      <c r="M40" s="258"/>
     </row>
     <row r="41" spans="1:13" ht="15.75" customHeight="1">
-      <c r="A41" s="207"/>
-      <c r="B41" s="216"/>
+      <c r="A41" s="208"/>
+      <c r="B41" s="217"/>
       <c r="C41" s="32" t="s">
         <v>74</v>
       </c>
       <c r="D41" s="4"/>
-      <c r="E41" s="190"/>
-      <c r="F41" s="200"/>
-      <c r="G41" s="193"/>
-      <c r="H41" s="194"/>
-      <c r="I41" s="194"/>
-      <c r="J41" s="194"/>
-      <c r="K41" s="194"/>
-      <c r="L41" s="257"/>
-      <c r="M41" s="257"/>
+      <c r="E41" s="191"/>
+      <c r="F41" s="201"/>
+      <c r="G41" s="194"/>
+      <c r="H41" s="195"/>
+      <c r="I41" s="195"/>
+      <c r="J41" s="195"/>
+      <c r="K41" s="195"/>
+      <c r="L41" s="258"/>
+      <c r="M41" s="258"/>
     </row>
     <row r="42" spans="1:13" ht="15.75" customHeight="1" thickBot="1">
-      <c r="A42" s="219"/>
-      <c r="B42" s="217"/>
+      <c r="A42" s="220"/>
+      <c r="B42" s="218"/>
       <c r="C42" s="9" t="s">
         <v>75</v>
       </c>
       <c r="D42" s="5"/>
-      <c r="E42" s="246"/>
-      <c r="F42" s="249"/>
-      <c r="G42" s="248"/>
-      <c r="H42" s="247"/>
-      <c r="I42" s="247"/>
-      <c r="J42" s="247"/>
-      <c r="K42" s="247"/>
-      <c r="L42" s="258"/>
-      <c r="M42" s="258"/>
+      <c r="E42" s="247"/>
+      <c r="F42" s="250"/>
+      <c r="G42" s="249"/>
+      <c r="H42" s="248"/>
+      <c r="I42" s="248"/>
+      <c r="J42" s="248"/>
+      <c r="K42" s="248"/>
+      <c r="L42" s="259"/>
+      <c r="M42" s="259"/>
     </row>
     <row r="43" spans="1:13" ht="15.75" customHeight="1">
-      <c r="A43" s="220">
+      <c r="A43" s="221">
         <v>17</v>
       </c>
-      <c r="B43" s="210" t="s">
+      <c r="B43" s="211" t="s">
         <v>76</v>
       </c>
       <c r="C43" s="10" t="s">
         <v>77</v>
       </c>
       <c r="D43" s="3"/>
-      <c r="E43" s="202" t="s">
+      <c r="E43" s="203" t="s">
         <v>70</v>
       </c>
-      <c r="F43" s="195"/>
-      <c r="G43" s="195"/>
-      <c r="H43" s="195"/>
-      <c r="I43" s="195"/>
-      <c r="J43" s="195"/>
-      <c r="K43" s="195"/>
-      <c r="L43" s="256"/>
-      <c r="M43" s="256"/>
+      <c r="F43" s="196"/>
+      <c r="G43" s="196"/>
+      <c r="H43" s="196"/>
+      <c r="I43" s="196"/>
+      <c r="J43" s="196"/>
+      <c r="K43" s="196"/>
+      <c r="L43" s="257"/>
+      <c r="M43" s="257"/>
     </row>
     <row r="44" spans="1:13" ht="15.75" customHeight="1">
-      <c r="A44" s="208"/>
-      <c r="B44" s="211"/>
+      <c r="A44" s="209"/>
+      <c r="B44" s="212"/>
       <c r="C44" s="11" t="s">
         <v>80</v>
       </c>
       <c r="D44" s="4"/>
-      <c r="E44" s="197"/>
-      <c r="F44" s="191"/>
-      <c r="G44" s="191"/>
-      <c r="H44" s="191"/>
-      <c r="I44" s="191"/>
-      <c r="J44" s="191"/>
-      <c r="K44" s="191"/>
-      <c r="L44" s="239"/>
-      <c r="M44" s="239"/>
+      <c r="E44" s="198"/>
+      <c r="F44" s="192"/>
+      <c r="G44" s="192"/>
+      <c r="H44" s="192"/>
+      <c r="I44" s="192"/>
+      <c r="J44" s="192"/>
+      <c r="K44" s="192"/>
+      <c r="L44" s="240"/>
+      <c r="M44" s="240"/>
     </row>
     <row r="45" spans="1:13" ht="15.75" customHeight="1">
-      <c r="A45" s="207">
+      <c r="A45" s="208">
         <v>18</v>
       </c>
-      <c r="B45" s="211"/>
+      <c r="B45" s="212"/>
       <c r="C45" s="11" t="s">
         <v>81</v>
       </c>
       <c r="D45" s="4"/>
-      <c r="E45" s="190"/>
-      <c r="F45" s="200" t="s">
+      <c r="E45" s="191"/>
+      <c r="F45" s="201" t="s">
         <v>197</v>
       </c>
-      <c r="G45" s="194"/>
-      <c r="H45" s="200" t="s">
+      <c r="G45" s="195"/>
+      <c r="H45" s="201" t="s">
         <v>70</v>
       </c>
-      <c r="I45" s="200"/>
-      <c r="J45" s="200"/>
-      <c r="K45" s="200"/>
-      <c r="L45" s="250"/>
-      <c r="M45" s="250"/>
+      <c r="I45" s="201"/>
+      <c r="J45" s="201"/>
+      <c r="K45" s="201"/>
+      <c r="L45" s="251"/>
+      <c r="M45" s="251"/>
     </row>
     <row r="46" spans="1:13" ht="15.75" customHeight="1">
-      <c r="A46" s="207"/>
-      <c r="B46" s="211"/>
+      <c r="A46" s="208"/>
+      <c r="B46" s="212"/>
       <c r="C46" s="11" t="s">
         <v>83</v>
       </c>
       <c r="D46" s="4"/>
-      <c r="E46" s="190"/>
-      <c r="F46" s="200"/>
-      <c r="G46" s="194"/>
-      <c r="H46" s="200"/>
-      <c r="I46" s="200"/>
-      <c r="J46" s="200"/>
-      <c r="K46" s="200"/>
-      <c r="L46" s="250"/>
-      <c r="M46" s="250"/>
+      <c r="E46" s="191"/>
+      <c r="F46" s="201"/>
+      <c r="G46" s="195"/>
+      <c r="H46" s="201"/>
+      <c r="I46" s="201"/>
+      <c r="J46" s="201"/>
+      <c r="K46" s="201"/>
+      <c r="L46" s="251"/>
+      <c r="M46" s="251"/>
     </row>
     <row r="47" spans="1:13" ht="15.75" customHeight="1">
-      <c r="A47" s="208">
+      <c r="A47" s="209">
         <v>19</v>
       </c>
-      <c r="B47" s="211"/>
-      <c r="C47" s="213" t="s">
+      <c r="B47" s="212"/>
+      <c r="C47" s="214" t="s">
         <v>84</v>
       </c>
       <c r="D47" s="4"/>
-      <c r="E47" s="197" t="s">
+      <c r="E47" s="198" t="s">
         <v>78</v>
       </c>
-      <c r="F47" s="191"/>
-      <c r="G47" s="191"/>
-      <c r="H47" s="191"/>
-      <c r="I47" s="191"/>
-      <c r="J47" s="191"/>
-      <c r="K47" s="191"/>
-      <c r="L47" s="239"/>
-      <c r="M47" s="239"/>
+      <c r="F47" s="192"/>
+      <c r="G47" s="192"/>
+      <c r="H47" s="192"/>
+      <c r="I47" s="192"/>
+      <c r="J47" s="192"/>
+      <c r="K47" s="192"/>
+      <c r="L47" s="240"/>
+      <c r="M47" s="240"/>
     </row>
     <row r="48" spans="1:13" ht="15.75" customHeight="1" thickBot="1">
-      <c r="A48" s="209"/>
-      <c r="B48" s="212"/>
-      <c r="C48" s="214"/>
+      <c r="A48" s="210"/>
+      <c r="B48" s="213"/>
+      <c r="C48" s="215"/>
       <c r="D48" s="5"/>
-      <c r="E48" s="245"/>
-      <c r="F48" s="238"/>
-      <c r="G48" s="238"/>
-      <c r="H48" s="238"/>
-      <c r="I48" s="238"/>
-      <c r="J48" s="238"/>
-      <c r="K48" s="238"/>
-      <c r="L48" s="240"/>
-      <c r="M48" s="240"/>
+      <c r="E48" s="246"/>
+      <c r="F48" s="239"/>
+      <c r="G48" s="239"/>
+      <c r="H48" s="239"/>
+      <c r="I48" s="239"/>
+      <c r="J48" s="239"/>
+      <c r="K48" s="239"/>
+      <c r="L48" s="241"/>
+      <c r="M48" s="241"/>
     </row>
     <row r="49" spans="1:13" ht="15.75" customHeight="1">
-      <c r="A49" s="218">
+      <c r="A49" s="219">
         <v>20</v>
       </c>
-      <c r="B49" s="215" t="s">
+      <c r="B49" s="216" t="s">
         <v>85</v>
       </c>
       <c r="C49" s="10" t="s">
         <v>86</v>
       </c>
       <c r="D49" s="6"/>
-      <c r="E49" s="259"/>
-      <c r="F49" s="260"/>
-      <c r="G49" s="260"/>
-      <c r="H49" s="260" t="s">
+      <c r="E49" s="260"/>
+      <c r="F49" s="261"/>
+      <c r="G49" s="261"/>
+      <c r="H49" s="261" t="s">
         <v>78</v>
       </c>
-      <c r="I49" s="260"/>
-      <c r="J49" s="260"/>
-      <c r="K49" s="260"/>
-      <c r="L49" s="261"/>
-      <c r="M49" s="261"/>
+      <c r="I49" s="261"/>
+      <c r="J49" s="261"/>
+      <c r="K49" s="261"/>
+      <c r="L49" s="262"/>
+      <c r="M49" s="262"/>
     </row>
     <row r="50" spans="1:13" ht="15.75" customHeight="1">
-      <c r="A50" s="207"/>
-      <c r="B50" s="216"/>
+      <c r="A50" s="208"/>
+      <c r="B50" s="217"/>
       <c r="C50" s="11" t="s">
         <v>87</v>
       </c>
       <c r="D50" s="4"/>
-      <c r="E50" s="190"/>
-      <c r="F50" s="194"/>
-      <c r="G50" s="194"/>
-      <c r="H50" s="194"/>
-      <c r="I50" s="194"/>
-      <c r="J50" s="194"/>
-      <c r="K50" s="194"/>
-      <c r="L50" s="257"/>
-      <c r="M50" s="257"/>
+      <c r="E50" s="191"/>
+      <c r="F50" s="195"/>
+      <c r="G50" s="195"/>
+      <c r="H50" s="195"/>
+      <c r="I50" s="195"/>
+      <c r="J50" s="195"/>
+      <c r="K50" s="195"/>
+      <c r="L50" s="258"/>
+      <c r="M50" s="258"/>
     </row>
     <row r="51" spans="1:13" ht="15.75" customHeight="1">
-      <c r="A51" s="207"/>
-      <c r="B51" s="216"/>
+      <c r="A51" s="208"/>
+      <c r="B51" s="217"/>
       <c r="C51" s="11" t="s">
         <v>88</v>
       </c>
       <c r="D51" s="4"/>
-      <c r="E51" s="190"/>
-      <c r="F51" s="194"/>
-      <c r="G51" s="194"/>
-      <c r="H51" s="194"/>
-      <c r="I51" s="194"/>
-      <c r="J51" s="194"/>
-      <c r="K51" s="194"/>
-      <c r="L51" s="257"/>
-      <c r="M51" s="257"/>
+      <c r="E51" s="191"/>
+      <c r="F51" s="195"/>
+      <c r="G51" s="195"/>
+      <c r="H51" s="195"/>
+      <c r="I51" s="195"/>
+      <c r="J51" s="195"/>
+      <c r="K51" s="195"/>
+      <c r="L51" s="258"/>
+      <c r="M51" s="258"/>
     </row>
     <row r="52" spans="1:13" ht="15.75" customHeight="1" thickBot="1">
-      <c r="A52" s="219"/>
-      <c r="B52" s="217"/>
+      <c r="A52" s="220"/>
+      <c r="B52" s="218"/>
       <c r="C52" s="18" t="s">
         <v>89</v>
       </c>
       <c r="D52" s="5"/>
-      <c r="E52" s="246"/>
-      <c r="F52" s="247"/>
-      <c r="G52" s="247"/>
-      <c r="H52" s="247"/>
-      <c r="I52" s="247"/>
-      <c r="J52" s="247"/>
-      <c r="K52" s="247"/>
-      <c r="L52" s="258"/>
-      <c r="M52" s="258"/>
+      <c r="E52" s="247"/>
+      <c r="F52" s="248"/>
+      <c r="G52" s="248"/>
+      <c r="H52" s="248"/>
+      <c r="I52" s="248"/>
+      <c r="J52" s="248"/>
+      <c r="K52" s="248"/>
+      <c r="L52" s="259"/>
+      <c r="M52" s="259"/>
     </row>
     <row r="55" spans="1:13" ht="15.75" thickBot="1"/>
     <row r="56" spans="1:13" ht="15.75" thickBot="1">
@@ -14517,10 +14532,10 @@
       </c>
     </row>
     <row r="2" spans="1:9" ht="15.75" customHeight="1" thickTop="1" thickBot="1">
-      <c r="A2" s="275" t="s">
+      <c r="A2" s="276" t="s">
         <v>305</v>
       </c>
-      <c r="B2" s="268">
+      <c r="B2" s="269">
         <v>1</v>
       </c>
       <c r="C2" s="110">
@@ -14540,8 +14555,8 @@
       </c>
     </row>
     <row r="3" spans="1:9" ht="16.5" thickBot="1">
-      <c r="A3" s="276"/>
-      <c r="B3" s="269"/>
+      <c r="A3" s="277"/>
+      <c r="B3" s="270"/>
       <c r="C3" s="110">
         <v>43193</v>
       </c>
@@ -14557,8 +14572,8 @@
       <c r="I3" s="115"/>
     </row>
     <row r="4" spans="1:9" ht="16.5" thickBot="1">
-      <c r="A4" s="276"/>
-      <c r="B4" s="269"/>
+      <c r="A4" s="277"/>
+      <c r="B4" s="270"/>
       <c r="C4" s="110">
         <v>43194</v>
       </c>
@@ -14574,8 +14589,8 @@
       <c r="I4" s="115"/>
     </row>
     <row r="5" spans="1:9" ht="16.5" thickBot="1">
-      <c r="A5" s="276"/>
-      <c r="B5" s="269"/>
+      <c r="A5" s="277"/>
+      <c r="B5" s="270"/>
       <c r="C5" s="110">
         <v>43195</v>
       </c>
@@ -14593,8 +14608,8 @@
       <c r="I5" s="115"/>
     </row>
     <row r="6" spans="1:9" ht="16.5" thickBot="1">
-      <c r="A6" s="277"/>
-      <c r="B6" s="270"/>
+      <c r="A6" s="278"/>
+      <c r="B6" s="271"/>
       <c r="C6" s="117">
         <v>43196</v>
       </c>
@@ -14610,10 +14625,10 @@
       <c r="I6" s="121"/>
     </row>
     <row r="7" spans="1:9" ht="17.25" thickTop="1" thickBot="1">
-      <c r="A7" s="282" t="s">
+      <c r="A7" s="283" t="s">
         <v>184</v>
       </c>
-      <c r="B7" s="278">
+      <c r="B7" s="279">
         <v>2</v>
       </c>
       <c r="C7" s="143">
@@ -14631,8 +14646,8 @@
       <c r="I7" s="126"/>
     </row>
     <row r="8" spans="1:9" ht="16.5" thickBot="1">
-      <c r="A8" s="283"/>
-      <c r="B8" s="279"/>
+      <c r="A8" s="284"/>
+      <c r="B8" s="280"/>
       <c r="C8" s="143">
         <v>43200</v>
       </c>
@@ -14648,8 +14663,8 @@
       <c r="I8" s="126"/>
     </row>
     <row r="9" spans="1:9" ht="16.5" thickBot="1">
-      <c r="A9" s="283"/>
-      <c r="B9" s="279"/>
+      <c r="A9" s="284"/>
+      <c r="B9" s="280"/>
       <c r="C9" s="143">
         <v>43201</v>
       </c>
@@ -14665,8 +14680,8 @@
       <c r="I9" s="126"/>
     </row>
     <row r="10" spans="1:9" ht="15.75" customHeight="1" thickBot="1">
-      <c r="A10" s="283"/>
-      <c r="B10" s="279"/>
+      <c r="A10" s="284"/>
+      <c r="B10" s="280"/>
       <c r="C10" s="143">
         <v>43202</v>
       </c>
@@ -14682,8 +14697,8 @@
       <c r="I10" s="126"/>
     </row>
     <row r="11" spans="1:9" ht="16.5" thickBot="1">
-      <c r="A11" s="283"/>
-      <c r="B11" s="280"/>
+      <c r="A11" s="284"/>
+      <c r="B11" s="281"/>
       <c r="C11" s="143">
         <v>43203</v>
       </c>
@@ -14701,8 +14716,8 @@
       <c r="I11" s="126"/>
     </row>
     <row r="12" spans="1:9" ht="16.5" thickBot="1">
-      <c r="A12" s="284"/>
-      <c r="B12" s="274">
+      <c r="A12" s="285"/>
+      <c r="B12" s="275">
         <v>3</v>
       </c>
       <c r="C12" s="110">
@@ -14720,8 +14735,8 @@
       <c r="I12" s="115"/>
     </row>
     <row r="13" spans="1:9" ht="16.5" thickBot="1">
-      <c r="A13" s="284"/>
-      <c r="B13" s="269"/>
+      <c r="A13" s="285"/>
+      <c r="B13" s="270"/>
       <c r="C13" s="110">
         <v>43207</v>
       </c>
@@ -14737,8 +14752,8 @@
       <c r="I13" s="115"/>
     </row>
     <row r="14" spans="1:9" ht="16.5" thickBot="1">
-      <c r="A14" s="284"/>
-      <c r="B14" s="269"/>
+      <c r="A14" s="285"/>
+      <c r="B14" s="270"/>
       <c r="C14" s="110">
         <v>43208</v>
       </c>
@@ -14754,8 +14769,8 @@
       <c r="I14" s="115"/>
     </row>
     <row r="15" spans="1:9" ht="16.5" thickBot="1">
-      <c r="A15" s="284"/>
-      <c r="B15" s="269"/>
+      <c r="A15" s="285"/>
+      <c r="B15" s="270"/>
       <c r="C15" s="110">
         <v>43209</v>
       </c>
@@ -14771,8 +14786,8 @@
       <c r="I15" s="115"/>
     </row>
     <row r="16" spans="1:9" ht="16.5" thickBot="1">
-      <c r="A16" s="284"/>
-      <c r="B16" s="281"/>
+      <c r="A16" s="285"/>
+      <c r="B16" s="282"/>
       <c r="C16" s="110">
         <v>43210</v>
       </c>
@@ -14788,8 +14803,8 @@
       <c r="I16" s="115"/>
     </row>
     <row r="17" spans="1:9" ht="16.5" thickBot="1">
-      <c r="A17" s="284"/>
-      <c r="B17" s="278">
+      <c r="A17" s="285"/>
+      <c r="B17" s="279">
         <v>4</v>
       </c>
       <c r="C17" s="122">
@@ -14811,8 +14826,8 @@
       <c r="I17" s="126"/>
     </row>
     <row r="18" spans="1:9" ht="16.5" thickBot="1">
-      <c r="A18" s="284"/>
-      <c r="B18" s="279"/>
+      <c r="A18" s="285"/>
+      <c r="B18" s="280"/>
       <c r="C18" s="122">
         <v>43214</v>
       </c>
@@ -14828,8 +14843,8 @@
       <c r="I18" s="126"/>
     </row>
     <row r="19" spans="1:9" ht="16.5" thickBot="1">
-      <c r="A19" s="284"/>
-      <c r="B19" s="279"/>
+      <c r="A19" s="285"/>
+      <c r="B19" s="280"/>
       <c r="C19" s="122">
         <v>43215</v>
       </c>
@@ -14845,8 +14860,8 @@
       <c r="I19" s="126"/>
     </row>
     <row r="20" spans="1:9" ht="16.5" thickBot="1">
-      <c r="A20" s="284"/>
-      <c r="B20" s="279"/>
+      <c r="A20" s="285"/>
+      <c r="B20" s="280"/>
       <c r="C20" s="122">
         <v>43216</v>
       </c>
@@ -14862,8 +14877,8 @@
       <c r="I20" s="126"/>
     </row>
     <row r="21" spans="1:9" ht="16.5" thickBot="1">
-      <c r="A21" s="284"/>
-      <c r="B21" s="280"/>
+      <c r="A21" s="285"/>
+      <c r="B21" s="281"/>
       <c r="C21" s="122">
         <v>43217</v>
       </c>
@@ -14881,8 +14896,8 @@
       <c r="I21" s="126"/>
     </row>
     <row r="22" spans="1:9" ht="16.5" thickBot="1">
-      <c r="A22" s="284"/>
-      <c r="B22" s="274">
+      <c r="A22" s="285"/>
+      <c r="B22" s="275">
         <v>5</v>
       </c>
       <c r="C22" s="110">
@@ -14900,8 +14915,8 @@
       <c r="I22" s="115"/>
     </row>
     <row r="23" spans="1:9" ht="16.5" thickBot="1">
-      <c r="A23" s="284"/>
-      <c r="B23" s="269"/>
+      <c r="A23" s="285"/>
+      <c r="B23" s="270"/>
       <c r="C23" s="110">
         <v>43221</v>
       </c>
@@ -14917,8 +14932,8 @@
       <c r="I23" s="115"/>
     </row>
     <row r="24" spans="1:9" ht="16.5" thickBot="1">
-      <c r="A24" s="284"/>
-      <c r="B24" s="269"/>
+      <c r="A24" s="285"/>
+      <c r="B24" s="270"/>
       <c r="C24" s="110">
         <v>43222</v>
       </c>
@@ -14934,8 +14949,8 @@
       <c r="I24" s="115"/>
     </row>
     <row r="25" spans="1:9" ht="16.5" thickBot="1">
-      <c r="A25" s="284"/>
-      <c r="B25" s="269"/>
+      <c r="A25" s="285"/>
+      <c r="B25" s="270"/>
       <c r="C25" s="110">
         <v>43223</v>
       </c>
@@ -14951,8 +14966,8 @@
       <c r="I25" s="115"/>
     </row>
     <row r="26" spans="1:9" ht="16.5" thickBot="1">
-      <c r="A26" s="284"/>
-      <c r="B26" s="281"/>
+      <c r="A26" s="285"/>
+      <c r="B26" s="282"/>
       <c r="C26" s="110">
         <v>43224</v>
       </c>
@@ -14968,8 +14983,8 @@
       <c r="I26" s="115"/>
     </row>
     <row r="27" spans="1:9" ht="15.75" customHeight="1" thickBot="1">
-      <c r="A27" s="284"/>
-      <c r="B27" s="286">
+      <c r="A27" s="285"/>
+      <c r="B27" s="287">
         <v>6</v>
       </c>
       <c r="C27" s="130">
@@ -14991,8 +15006,8 @@
       <c r="I27" s="126"/>
     </row>
     <row r="28" spans="1:9" ht="16.5" thickBot="1">
-      <c r="A28" s="284"/>
-      <c r="B28" s="272"/>
+      <c r="A28" s="285"/>
+      <c r="B28" s="273"/>
       <c r="C28" s="130">
         <v>43228</v>
       </c>
@@ -15008,8 +15023,8 @@
       <c r="I28" s="126"/>
     </row>
     <row r="29" spans="1:9" ht="16.5" thickBot="1">
-      <c r="A29" s="284"/>
-      <c r="B29" s="272"/>
+      <c r="A29" s="285"/>
+      <c r="B29" s="273"/>
       <c r="C29" s="130">
         <v>43229</v>
       </c>
@@ -15025,8 +15040,8 @@
       <c r="I29" s="126"/>
     </row>
     <row r="30" spans="1:9" ht="16.5" thickBot="1">
-      <c r="A30" s="284"/>
-      <c r="B30" s="272"/>
+      <c r="A30" s="285"/>
+      <c r="B30" s="273"/>
       <c r="C30" s="130">
         <v>43230</v>
       </c>
@@ -15042,8 +15057,8 @@
       <c r="I30" s="126"/>
     </row>
     <row r="31" spans="1:9" ht="27" thickBot="1">
-      <c r="A31" s="285"/>
-      <c r="B31" s="287"/>
+      <c r="A31" s="286"/>
+      <c r="B31" s="288"/>
       <c r="C31" s="134">
         <v>43231</v>
       </c>
@@ -15061,10 +15076,10 @@
       <c r="I31" s="138"/>
     </row>
     <row r="32" spans="1:9" ht="17.25" thickTop="1" thickBot="1">
-      <c r="A32" s="275" t="s">
+      <c r="A32" s="276" t="s">
         <v>34</v>
       </c>
-      <c r="B32" s="268">
+      <c r="B32" s="269">
         <v>7</v>
       </c>
       <c r="C32" s="110">
@@ -15082,8 +15097,8 @@
       <c r="I32" s="115"/>
     </row>
     <row r="33" spans="1:9" ht="16.5" thickBot="1">
-      <c r="A33" s="276"/>
-      <c r="B33" s="269"/>
+      <c r="A33" s="277"/>
+      <c r="B33" s="270"/>
       <c r="C33" s="110">
         <v>43235</v>
       </c>
@@ -15099,8 +15114,8 @@
       <c r="I33" s="115"/>
     </row>
     <row r="34" spans="1:9" ht="16.5" thickBot="1">
-      <c r="A34" s="276"/>
-      <c r="B34" s="269"/>
+      <c r="A34" s="277"/>
+      <c r="B34" s="270"/>
       <c r="C34" s="110">
         <v>43236</v>
       </c>
@@ -15116,8 +15131,8 @@
       <c r="I34" s="115"/>
     </row>
     <row r="35" spans="1:9" ht="16.5" thickBot="1">
-      <c r="A35" s="276"/>
-      <c r="B35" s="269"/>
+      <c r="A35" s="277"/>
+      <c r="B35" s="270"/>
       <c r="C35" s="110">
         <v>43237</v>
       </c>
@@ -15133,8 +15148,8 @@
       <c r="I35" s="115"/>
     </row>
     <row r="36" spans="1:9" ht="16.5" thickBot="1">
-      <c r="A36" s="276"/>
-      <c r="B36" s="270"/>
+      <c r="A36" s="277"/>
+      <c r="B36" s="271"/>
       <c r="C36" s="110">
         <v>43238</v>
       </c>
@@ -15150,8 +15165,8 @@
       <c r="I36" s="115"/>
     </row>
     <row r="37" spans="1:9" ht="17.25" thickTop="1" thickBot="1">
-      <c r="A37" s="276"/>
-      <c r="B37" s="271">
+      <c r="A37" s="277"/>
+      <c r="B37" s="272">
         <v>8</v>
       </c>
       <c r="C37" s="130">
@@ -15173,8 +15188,8 @@
       <c r="I37" s="126"/>
     </row>
     <row r="38" spans="1:9" ht="16.5" thickBot="1">
-      <c r="A38" s="276"/>
-      <c r="B38" s="272"/>
+      <c r="A38" s="277"/>
+      <c r="B38" s="273"/>
       <c r="C38" s="130">
         <v>43242</v>
       </c>
@@ -15190,8 +15205,8 @@
       <c r="I38" s="126"/>
     </row>
     <row r="39" spans="1:9" ht="16.5" thickBot="1">
-      <c r="A39" s="276"/>
-      <c r="B39" s="272"/>
+      <c r="A39" s="277"/>
+      <c r="B39" s="273"/>
       <c r="C39" s="130">
         <v>43243</v>
       </c>
@@ -15207,8 +15222,8 @@
       <c r="I39" s="126"/>
     </row>
     <row r="40" spans="1:9" ht="16.5" thickBot="1">
-      <c r="A40" s="276"/>
-      <c r="B40" s="272"/>
+      <c r="A40" s="277"/>
+      <c r="B40" s="273"/>
       <c r="C40" s="130">
         <v>43244</v>
       </c>
@@ -15224,8 +15239,8 @@
       <c r="I40" s="126"/>
     </row>
     <row r="41" spans="1:9" ht="27" thickBot="1">
-      <c r="A41" s="276"/>
-      <c r="B41" s="273"/>
+      <c r="A41" s="277"/>
+      <c r="B41" s="274"/>
       <c r="C41" s="130">
         <v>43245</v>
       </c>
@@ -15243,8 +15258,8 @@
       <c r="I41" s="126"/>
     </row>
     <row r="42" spans="1:9" ht="16.5" thickBot="1">
-      <c r="A42" s="276"/>
-      <c r="B42" s="274">
+      <c r="A42" s="277"/>
+      <c r="B42" s="275">
         <v>9</v>
       </c>
       <c r="C42" s="110">
@@ -15262,8 +15277,8 @@
       <c r="I42" s="115"/>
     </row>
     <row r="43" spans="1:9" ht="16.5" thickBot="1">
-      <c r="A43" s="276"/>
-      <c r="B43" s="269"/>
+      <c r="A43" s="277"/>
+      <c r="B43" s="270"/>
       <c r="C43" s="110">
         <v>43249</v>
       </c>
@@ -15279,8 +15294,8 @@
       <c r="I43" s="115"/>
     </row>
     <row r="44" spans="1:9" ht="16.5" thickBot="1">
-      <c r="A44" s="276"/>
-      <c r="B44" s="269"/>
+      <c r="A44" s="277"/>
+      <c r="B44" s="270"/>
       <c r="C44" s="110">
         <v>43250</v>
       </c>
@@ -15296,8 +15311,8 @@
       <c r="I44" s="115"/>
     </row>
     <row r="45" spans="1:9" ht="16.5" thickBot="1">
-      <c r="A45" s="276"/>
-      <c r="B45" s="269"/>
+      <c r="A45" s="277"/>
+      <c r="B45" s="270"/>
       <c r="C45" s="110">
         <v>43251</v>
       </c>
@@ -15313,8 +15328,8 @@
       <c r="I45" s="115"/>
     </row>
     <row r="46" spans="1:9" ht="16.5" thickBot="1">
-      <c r="A46" s="277"/>
-      <c r="B46" s="270"/>
+      <c r="A46" s="278"/>
+      <c r="B46" s="271"/>
       <c r="C46" s="117">
         <v>43252</v>
       </c>
@@ -15330,10 +15345,10 @@
       <c r="I46" s="121"/>
     </row>
     <row r="47" spans="1:9" ht="15.75" customHeight="1" thickTop="1" thickBot="1">
-      <c r="A47" s="290" t="s">
+      <c r="A47" s="291" t="s">
         <v>47</v>
       </c>
-      <c r="B47" s="288">
+      <c r="B47" s="289">
         <v>10</v>
       </c>
       <c r="C47" s="122">
@@ -15355,8 +15370,8 @@
       <c r="I47" s="126"/>
     </row>
     <row r="48" spans="1:9" ht="16.5" thickBot="1">
-      <c r="A48" s="284"/>
-      <c r="B48" s="279"/>
+      <c r="A48" s="285"/>
+      <c r="B48" s="280"/>
       <c r="C48" s="122">
         <v>43256</v>
       </c>
@@ -15372,8 +15387,8 @@
       <c r="I48" s="126"/>
     </row>
     <row r="49" spans="1:9" ht="16.5" thickBot="1">
-      <c r="A49" s="284"/>
-      <c r="B49" s="279"/>
+      <c r="A49" s="285"/>
+      <c r="B49" s="280"/>
       <c r="C49" s="122">
         <v>43257</v>
       </c>
@@ -15389,8 +15404,8 @@
       <c r="I49" s="126"/>
     </row>
     <row r="50" spans="1:9" ht="16.5" thickBot="1">
-      <c r="A50" s="284"/>
-      <c r="B50" s="279"/>
+      <c r="A50" s="285"/>
+      <c r="B50" s="280"/>
       <c r="C50" s="122">
         <v>43258</v>
       </c>
@@ -15406,8 +15421,8 @@
       <c r="I50" s="126"/>
     </row>
     <row r="51" spans="1:9" ht="27" thickBot="1">
-      <c r="A51" s="284"/>
-      <c r="B51" s="289"/>
+      <c r="A51" s="285"/>
+      <c r="B51" s="290"/>
       <c r="C51" s="122">
         <v>43259</v>
       </c>
@@ -15425,8 +15440,8 @@
       <c r="I51" s="126"/>
     </row>
     <row r="52" spans="1:9" ht="17.25" thickTop="1" thickBot="1">
-      <c r="A52" s="284"/>
-      <c r="B52" s="268">
+      <c r="A52" s="285"/>
+      <c r="B52" s="269">
         <v>11</v>
       </c>
       <c r="C52" s="110">
@@ -15444,8 +15459,8 @@
       <c r="I52" s="115"/>
     </row>
     <row r="53" spans="1:9" ht="16.5" thickBot="1">
-      <c r="A53" s="284"/>
-      <c r="B53" s="269"/>
+      <c r="A53" s="285"/>
+      <c r="B53" s="270"/>
       <c r="C53" s="110">
         <v>43263</v>
       </c>
@@ -15461,8 +15476,8 @@
       <c r="I53" s="115"/>
     </row>
     <row r="54" spans="1:9" ht="16.5" thickBot="1">
-      <c r="A54" s="284"/>
-      <c r="B54" s="269"/>
+      <c r="A54" s="285"/>
+      <c r="B54" s="270"/>
       <c r="C54" s="110">
         <v>43264</v>
       </c>
@@ -15478,8 +15493,8 @@
       <c r="I54" s="115"/>
     </row>
     <row r="55" spans="1:9" ht="16.5" thickBot="1">
-      <c r="A55" s="284"/>
-      <c r="B55" s="269"/>
+      <c r="A55" s="285"/>
+      <c r="B55" s="270"/>
       <c r="C55" s="110">
         <v>43265</v>
       </c>
@@ -15495,8 +15510,8 @@
       <c r="I55" s="115"/>
     </row>
     <row r="56" spans="1:9" ht="16.5" thickBot="1">
-      <c r="A56" s="284"/>
-      <c r="B56" s="281"/>
+      <c r="A56" s="285"/>
+      <c r="B56" s="282"/>
       <c r="C56" s="110">
         <v>43266</v>
       </c>
@@ -15512,8 +15527,8 @@
       <c r="I56" s="115"/>
     </row>
     <row r="57" spans="1:9" ht="16.5" thickBot="1">
-      <c r="A57" s="284"/>
-      <c r="B57" s="278">
+      <c r="A57" s="285"/>
+      <c r="B57" s="279">
         <v>12</v>
       </c>
       <c r="C57" s="122">
@@ -15535,8 +15550,8 @@
       <c r="I57" s="126"/>
     </row>
     <row r="58" spans="1:9" ht="16.5" thickBot="1">
-      <c r="A58" s="284"/>
-      <c r="B58" s="279"/>
+      <c r="A58" s="285"/>
+      <c r="B58" s="280"/>
       <c r="C58" s="122">
         <v>43270</v>
       </c>
@@ -15552,8 +15567,8 @@
       <c r="I58" s="126"/>
     </row>
     <row r="59" spans="1:9" ht="16.5" thickBot="1">
-      <c r="A59" s="284"/>
-      <c r="B59" s="279"/>
+      <c r="A59" s="285"/>
+      <c r="B59" s="280"/>
       <c r="C59" s="122">
         <v>43271</v>
       </c>
@@ -15569,8 +15584,8 @@
       <c r="I59" s="126"/>
     </row>
     <row r="60" spans="1:9" ht="16.5" thickBot="1">
-      <c r="A60" s="284"/>
-      <c r="B60" s="279"/>
+      <c r="A60" s="285"/>
+      <c r="B60" s="280"/>
       <c r="C60" s="122">
         <v>43272</v>
       </c>
@@ -15586,8 +15601,8 @@
       <c r="I60" s="126"/>
     </row>
     <row r="61" spans="1:9" ht="27" thickBot="1">
-      <c r="A61" s="285"/>
-      <c r="B61" s="289"/>
+      <c r="A61" s="286"/>
+      <c r="B61" s="290"/>
       <c r="C61" s="140">
         <v>43273</v>
       </c>
@@ -15605,10 +15620,10 @@
       <c r="I61" s="138"/>
     </row>
     <row r="62" spans="1:9" ht="15.75" customHeight="1" thickTop="1" thickBot="1">
-      <c r="A62" s="275" t="s">
+      <c r="A62" s="276" t="s">
         <v>627</v>
       </c>
-      <c r="B62" s="268">
+      <c r="B62" s="269">
         <v>13</v>
       </c>
       <c r="C62" s="110">
@@ -15626,8 +15641,8 @@
       <c r="I62" s="115"/>
     </row>
     <row r="63" spans="1:9" ht="16.5" thickBot="1">
-      <c r="A63" s="276"/>
-      <c r="B63" s="269"/>
+      <c r="A63" s="277"/>
+      <c r="B63" s="270"/>
       <c r="C63" s="110">
         <v>43277</v>
       </c>
@@ -15643,8 +15658,8 @@
       <c r="I63" s="115"/>
     </row>
     <row r="64" spans="1:9" ht="16.5" thickBot="1">
-      <c r="A64" s="276"/>
-      <c r="B64" s="269"/>
+      <c r="A64" s="277"/>
+      <c r="B64" s="270"/>
       <c r="C64" s="110">
         <v>43278</v>
       </c>
@@ -15660,8 +15675,8 @@
       <c r="I64" s="115"/>
     </row>
     <row r="65" spans="1:9" ht="16.5" thickBot="1">
-      <c r="A65" s="276"/>
-      <c r="B65" s="269"/>
+      <c r="A65" s="277"/>
+      <c r="B65" s="270"/>
       <c r="C65" s="110">
         <v>43279</v>
       </c>
@@ -15677,8 +15692,8 @@
       <c r="I65" s="115"/>
     </row>
     <row r="66" spans="1:9" ht="16.5" thickBot="1">
-      <c r="A66" s="276"/>
-      <c r="B66" s="270"/>
+      <c r="A66" s="277"/>
+      <c r="B66" s="271"/>
       <c r="C66" s="110">
         <v>43280</v>
       </c>
@@ -15694,8 +15709,8 @@
       <c r="I66" s="115"/>
     </row>
     <row r="67" spans="1:9" ht="17.25" thickTop="1" thickBot="1">
-      <c r="A67" s="276"/>
-      <c r="B67" s="271">
+      <c r="A67" s="277"/>
+      <c r="B67" s="272">
         <v>14</v>
       </c>
       <c r="C67" s="130">
@@ -15717,8 +15732,8 @@
       <c r="I67" s="126"/>
     </row>
     <row r="68" spans="1:9" ht="16.5" thickBot="1">
-      <c r="A68" s="276"/>
-      <c r="B68" s="272"/>
+      <c r="A68" s="277"/>
+      <c r="B68" s="273"/>
       <c r="C68" s="130">
         <v>43284</v>
       </c>
@@ -15734,8 +15749,8 @@
       <c r="I68" s="126"/>
     </row>
     <row r="69" spans="1:9" ht="16.5" thickBot="1">
-      <c r="A69" s="276"/>
-      <c r="B69" s="272"/>
+      <c r="A69" s="277"/>
+      <c r="B69" s="273"/>
       <c r="C69" s="130">
         <v>43285</v>
       </c>
@@ -15751,8 +15766,8 @@
       <c r="I69" s="126"/>
     </row>
     <row r="70" spans="1:9" ht="16.5" thickBot="1">
-      <c r="A70" s="276"/>
-      <c r="B70" s="272"/>
+      <c r="A70" s="277"/>
+      <c r="B70" s="273"/>
       <c r="C70" s="130">
         <v>43286</v>
       </c>
@@ -15768,8 +15783,8 @@
       <c r="I70" s="126"/>
     </row>
     <row r="71" spans="1:9" ht="16.5" thickBot="1">
-      <c r="A71" s="276"/>
-      <c r="B71" s="273"/>
+      <c r="A71" s="277"/>
+      <c r="B71" s="274"/>
       <c r="C71" s="130">
         <v>43287</v>
       </c>
@@ -15787,8 +15802,8 @@
       <c r="I71" s="126"/>
     </row>
     <row r="72" spans="1:9" ht="16.5" thickBot="1">
-      <c r="A72" s="276"/>
-      <c r="B72" s="274">
+      <c r="A72" s="277"/>
+      <c r="B72" s="275">
         <v>15</v>
       </c>
       <c r="C72" s="110">
@@ -15806,8 +15821,8 @@
       <c r="I72" s="115"/>
     </row>
     <row r="73" spans="1:9" ht="16.5" thickBot="1">
-      <c r="A73" s="276"/>
-      <c r="B73" s="269"/>
+      <c r="A73" s="277"/>
+      <c r="B73" s="270"/>
       <c r="C73" s="110">
         <v>43291</v>
       </c>
@@ -15823,8 +15838,8 @@
       <c r="I73" s="115"/>
     </row>
     <row r="74" spans="1:9" ht="16.5" thickBot="1">
-      <c r="A74" s="276"/>
-      <c r="B74" s="269"/>
+      <c r="A74" s="277"/>
+      <c r="B74" s="270"/>
       <c r="C74" s="110">
         <v>43292</v>
       </c>
@@ -15840,8 +15855,8 @@
       <c r="I74" s="115"/>
     </row>
     <row r="75" spans="1:9" ht="16.5" thickBot="1">
-      <c r="A75" s="276"/>
-      <c r="B75" s="269"/>
+      <c r="A75" s="277"/>
+      <c r="B75" s="270"/>
       <c r="C75" s="110">
         <v>43293</v>
       </c>
@@ -15857,8 +15872,8 @@
       <c r="I75" s="115"/>
     </row>
     <row r="76" spans="1:9" ht="16.5" thickBot="1">
-      <c r="A76" s="276"/>
-      <c r="B76" s="281"/>
+      <c r="A76" s="277"/>
+      <c r="B76" s="282"/>
       <c r="C76" s="110">
         <v>43294</v>
       </c>
@@ -15874,8 +15889,8 @@
       <c r="I76" s="115"/>
     </row>
     <row r="77" spans="1:9" ht="16.5" thickBot="1">
-      <c r="A77" s="276"/>
-      <c r="B77" s="286">
+      <c r="A77" s="277"/>
+      <c r="B77" s="287">
         <v>16</v>
       </c>
       <c r="C77" s="130">
@@ -15897,8 +15912,8 @@
       <c r="I77" s="126"/>
     </row>
     <row r="78" spans="1:9" ht="16.5" thickBot="1">
-      <c r="A78" s="276"/>
-      <c r="B78" s="272"/>
+      <c r="A78" s="277"/>
+      <c r="B78" s="273"/>
       <c r="C78" s="130">
         <v>43298</v>
       </c>
@@ -15914,8 +15929,8 @@
       <c r="I78" s="126"/>
     </row>
     <row r="79" spans="1:9" ht="16.5" thickBot="1">
-      <c r="A79" s="276"/>
-      <c r="B79" s="272"/>
+      <c r="A79" s="277"/>
+      <c r="B79" s="273"/>
       <c r="C79" s="130">
         <v>43299</v>
       </c>
@@ -15931,8 +15946,8 @@
       <c r="I79" s="126"/>
     </row>
     <row r="80" spans="1:9" ht="16.5" thickBot="1">
-      <c r="A80" s="276"/>
-      <c r="B80" s="272"/>
+      <c r="A80" s="277"/>
+      <c r="B80" s="273"/>
       <c r="C80" s="130">
         <v>43300</v>
       </c>
@@ -15948,8 +15963,8 @@
       <c r="I80" s="126"/>
     </row>
     <row r="81" spans="1:9" ht="16.5" thickBot="1">
-      <c r="A81" s="277"/>
-      <c r="B81" s="287"/>
+      <c r="A81" s="278"/>
+      <c r="B81" s="288"/>
       <c r="C81" s="134">
         <v>43301</v>
       </c>
@@ -15967,10 +15982,10 @@
       <c r="I81" s="138"/>
     </row>
     <row r="82" spans="1:9" ht="15.75" customHeight="1" thickTop="1" thickBot="1">
-      <c r="A82" s="275" t="s">
+      <c r="A82" s="276" t="s">
         <v>76</v>
       </c>
-      <c r="B82" s="268">
+      <c r="B82" s="269">
         <v>17</v>
       </c>
       <c r="C82" s="110">
@@ -15988,8 +16003,8 @@
       <c r="I82" s="115"/>
     </row>
     <row r="83" spans="1:9" ht="16.5" thickBot="1">
-      <c r="A83" s="276"/>
-      <c r="B83" s="269"/>
+      <c r="A83" s="277"/>
+      <c r="B83" s="270"/>
       <c r="C83" s="110">
         <v>43305</v>
       </c>
@@ -16005,8 +16020,8 @@
       <c r="I83" s="115"/>
     </row>
     <row r="84" spans="1:9" ht="16.5" thickBot="1">
-      <c r="A84" s="276"/>
-      <c r="B84" s="269"/>
+      <c r="A84" s="277"/>
+      <c r="B84" s="270"/>
       <c r="C84" s="110">
         <v>43306</v>
       </c>
@@ -16022,8 +16037,8 @@
       <c r="I84" s="115"/>
     </row>
     <row r="85" spans="1:9" ht="16.5" thickBot="1">
-      <c r="A85" s="276"/>
-      <c r="B85" s="269"/>
+      <c r="A85" s="277"/>
+      <c r="B85" s="270"/>
       <c r="C85" s="110">
         <v>43307</v>
       </c>
@@ -16039,8 +16054,8 @@
       <c r="I85" s="115"/>
     </row>
     <row r="86" spans="1:9" ht="16.5" thickBot="1">
-      <c r="A86" s="277"/>
-      <c r="B86" s="270"/>
+      <c r="A86" s="278"/>
+      <c r="B86" s="271"/>
       <c r="C86" s="117">
         <v>43308</v>
       </c>
@@ -16056,10 +16071,10 @@
       <c r="I86" s="121"/>
     </row>
     <row r="87" spans="1:9" ht="17.25" thickTop="1" thickBot="1">
-      <c r="A87" s="275" t="s">
+      <c r="A87" s="276" t="s">
         <v>632</v>
       </c>
-      <c r="B87" s="288">
+      <c r="B87" s="289">
         <v>18</v>
       </c>
       <c r="C87" s="122">
@@ -16081,8 +16096,8 @@
       <c r="I87" s="126"/>
     </row>
     <row r="88" spans="1:9" ht="16.5" thickBot="1">
-      <c r="A88" s="276"/>
-      <c r="B88" s="279"/>
+      <c r="A88" s="277"/>
+      <c r="B88" s="280"/>
       <c r="C88" s="122">
         <v>43312</v>
       </c>
@@ -16098,8 +16113,8 @@
       <c r="I88" s="126"/>
     </row>
     <row r="89" spans="1:9" ht="16.5" thickBot="1">
-      <c r="A89" s="276"/>
-      <c r="B89" s="279"/>
+      <c r="A89" s="277"/>
+      <c r="B89" s="280"/>
       <c r="C89" s="122">
         <v>43313</v>
       </c>
@@ -16115,8 +16130,8 @@
       <c r="I89" s="126"/>
     </row>
     <row r="90" spans="1:9" ht="16.5" thickBot="1">
-      <c r="A90" s="276"/>
-      <c r="B90" s="279"/>
+      <c r="A90" s="277"/>
+      <c r="B90" s="280"/>
       <c r="C90" s="122">
         <v>43314</v>
       </c>
@@ -16132,8 +16147,8 @@
       <c r="I90" s="126"/>
     </row>
     <row r="91" spans="1:9" ht="27" thickBot="1">
-      <c r="A91" s="276"/>
-      <c r="B91" s="280"/>
+      <c r="A91" s="277"/>
+      <c r="B91" s="281"/>
       <c r="C91" s="122">
         <v>43315</v>
       </c>
@@ -16151,8 +16166,8 @@
       <c r="I91" s="126"/>
     </row>
     <row r="92" spans="1:9" ht="16.5" thickBot="1">
-      <c r="A92" s="276"/>
-      <c r="B92" s="274">
+      <c r="A92" s="277"/>
+      <c r="B92" s="275">
         <v>19</v>
       </c>
       <c r="C92" s="110">
@@ -16170,8 +16185,8 @@
       <c r="I92" s="115"/>
     </row>
     <row r="93" spans="1:9" ht="16.5" thickBot="1">
-      <c r="A93" s="276"/>
-      <c r="B93" s="269"/>
+      <c r="A93" s="277"/>
+      <c r="B93" s="270"/>
       <c r="C93" s="110">
         <v>43319</v>
       </c>
@@ -16187,8 +16202,8 @@
       <c r="I93" s="115"/>
     </row>
     <row r="94" spans="1:9" ht="16.5" thickBot="1">
-      <c r="A94" s="276"/>
-      <c r="B94" s="269"/>
+      <c r="A94" s="277"/>
+      <c r="B94" s="270"/>
       <c r="C94" s="110">
         <v>43320</v>
       </c>
@@ -16204,8 +16219,8 @@
       <c r="I94" s="115"/>
     </row>
     <row r="95" spans="1:9" ht="16.5" thickBot="1">
-      <c r="A95" s="276"/>
-      <c r="B95" s="269"/>
+      <c r="A95" s="277"/>
+      <c r="B95" s="270"/>
       <c r="C95" s="110">
         <v>43321</v>
       </c>
@@ -16221,8 +16236,8 @@
       <c r="I95" s="115"/>
     </row>
     <row r="96" spans="1:9" ht="16.5" thickBot="1">
-      <c r="A96" s="276"/>
-      <c r="B96" s="281"/>
+      <c r="A96" s="277"/>
+      <c r="B96" s="282"/>
       <c r="C96" s="110">
         <v>43322</v>
       </c>
@@ -16238,8 +16253,8 @@
       <c r="I96" s="115"/>
     </row>
     <row r="97" spans="1:9" ht="16.5" thickBot="1">
-      <c r="A97" s="276"/>
-      <c r="B97" s="278">
+      <c r="A97" s="277"/>
+      <c r="B97" s="279">
         <v>20</v>
       </c>
       <c r="C97" s="122">
@@ -16259,8 +16274,8 @@
       <c r="I97" s="126"/>
     </row>
     <row r="98" spans="1:9" ht="16.5" thickBot="1">
-      <c r="A98" s="276"/>
-      <c r="B98" s="279"/>
+      <c r="A98" s="277"/>
+      <c r="B98" s="280"/>
       <c r="C98" s="122">
         <v>43326</v>
       </c>
@@ -16276,8 +16291,8 @@
       <c r="I98" s="126"/>
     </row>
     <row r="99" spans="1:9" ht="16.5" thickBot="1">
-      <c r="A99" s="276"/>
-      <c r="B99" s="279"/>
+      <c r="A99" s="277"/>
+      <c r="B99" s="280"/>
       <c r="C99" s="122">
         <v>43327</v>
       </c>
@@ -16293,8 +16308,8 @@
       <c r="I99" s="126"/>
     </row>
     <row r="100" spans="1:9" ht="16.5" thickBot="1">
-      <c r="A100" s="276"/>
-      <c r="B100" s="279"/>
+      <c r="A100" s="277"/>
+      <c r="B100" s="280"/>
       <c r="C100" s="122">
         <v>43328</v>
       </c>
@@ -16312,8 +16327,8 @@
       <c r="I100" s="126"/>
     </row>
     <row r="101" spans="1:9" ht="16.5" thickBot="1">
-      <c r="A101" s="277"/>
-      <c r="B101" s="289"/>
+      <c r="A101" s="278"/>
+      <c r="B101" s="290"/>
       <c r="C101" s="140">
         <v>43329</v>
       </c>
@@ -23106,11 +23121,11 @@
       </c>
     </row>
     <row r="13" spans="1:10">
-      <c r="C13" s="291" t="s">
+      <c r="C13" s="292" t="s">
         <v>168</v>
       </c>
-      <c r="D13" s="292"/>
-      <c r="E13" s="293"/>
+      <c r="D13" s="293"/>
+      <c r="E13" s="294"/>
     </row>
     <row r="14" spans="1:10">
       <c r="C14" t="s">
@@ -23126,16 +23141,16 @@
       </c>
     </row>
     <row r="16" spans="1:10">
-      <c r="A16" s="291" t="s">
+      <c r="A16" s="292" t="s">
         <v>171</v>
       </c>
-      <c r="B16" s="292"/>
-      <c r="C16" s="293"/>
-      <c r="E16" s="291" t="s">
+      <c r="B16" s="293"/>
+      <c r="C16" s="294"/>
+      <c r="E16" s="292" t="s">
         <v>167</v>
       </c>
-      <c r="F16" s="292"/>
-      <c r="G16" s="293"/>
+      <c r="F16" s="293"/>
+      <c r="G16" s="294"/>
     </row>
     <row r="18" spans="1:6">
       <c r="B18" t="s">
@@ -23146,11 +23161,11 @@
       </c>
     </row>
     <row r="19" spans="1:6">
-      <c r="C19" s="291" t="s">
+      <c r="C19" s="292" t="s">
         <v>166</v>
       </c>
-      <c r="D19" s="292"/>
-      <c r="E19" s="293"/>
+      <c r="D19" s="293"/>
+      <c r="E19" s="294"/>
     </row>
     <row r="25" spans="1:6">
       <c r="A25" t="s">
@@ -24134,8 +24149,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:V1103"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A830" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="A860" sqref="A860"/>
+    <sheetView topLeftCell="A830" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="H854" sqref="H854"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15"/>
@@ -25307,21 +25322,21 @@
     </row>
     <row r="319" spans="1:11" ht="15.75" thickBot="1"/>
     <row r="320" spans="1:11" ht="15.75" thickBot="1">
-      <c r="A320" s="294" t="s">
+      <c r="A320" s="295" t="s">
         <v>243</v>
       </c>
-      <c r="B320" s="295"/>
-      <c r="C320" s="296"/>
-      <c r="E320" s="294" t="s">
+      <c r="B320" s="296"/>
+      <c r="C320" s="297"/>
+      <c r="E320" s="295" t="s">
         <v>249</v>
       </c>
-      <c r="F320" s="295"/>
-      <c r="G320" s="296"/>
-      <c r="I320" s="294" t="s">
+      <c r="F320" s="296"/>
+      <c r="G320" s="297"/>
+      <c r="I320" s="295" t="s">
         <v>946</v>
       </c>
-      <c r="J320" s="295"/>
-      <c r="K320" s="296"/>
+      <c r="J320" s="296"/>
+      <c r="K320" s="297"/>
     </row>
     <row r="321" spans="1:11" ht="15.75" thickBot="1">
       <c r="A321" s="155" t="s">
@@ -28254,7 +28269,7 @@
       <c r="C859" s="26"/>
     </row>
     <row r="860" spans="1:3">
-      <c r="A860" s="297" t="s">
+      <c r="A860" s="187" t="s">
         <v>971</v>
       </c>
       <c r="B860" s="26"/>
@@ -28988,8 +29003,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:J31"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="Q10" sqref="Q10"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="J6" sqref="J6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -29019,16 +29034,25 @@
       <c r="A4" s="186" t="s">
         <v>289</v>
       </c>
+      <c r="J4" s="23" t="s">
+        <v>974</v>
+      </c>
     </row>
     <row r="5" spans="1:10">
       <c r="A5" s="186" t="s">
         <v>290</v>
       </c>
+      <c r="J5" t="s">
+        <v>975</v>
+      </c>
     </row>
     <row r="6" spans="1:10">
       <c r="A6" s="186" t="s">
         <v>291</v>
       </c>
+      <c r="J6" t="s">
+        <v>976</v>
+      </c>
     </row>
     <row r="7" spans="1:10">
       <c r="A7" s="186" t="s">
@@ -29052,31 +29076,36 @@
     </row>
     <row r="11" spans="1:10">
       <c r="A11" s="186" t="s">
-        <v>953</v>
+        <v>973</v>
       </c>
     </row>
     <row r="12" spans="1:10">
       <c r="A12" s="186" t="s">
-        <v>954</v>
+        <v>953</v>
       </c>
     </row>
     <row r="13" spans="1:10">
       <c r="A13" s="186" t="s">
-        <v>955</v>
+        <v>954</v>
       </c>
     </row>
     <row r="14" spans="1:10">
       <c r="A14" s="186" t="s">
-        <v>956</v>
+        <v>955</v>
       </c>
     </row>
     <row r="15" spans="1:10">
       <c r="A15" s="186" t="s">
-        <v>957</v>
+        <v>956</v>
       </c>
     </row>
     <row r="16" spans="1:10">
       <c r="A16" s="186" t="s">
+        <v>957</v>
+      </c>
+    </row>
+    <row r="17" spans="1:1">
+      <c r="A17" s="186" t="s">
         <v>958</v>
       </c>
     </row>
@@ -29111,6 +29140,11 @@
     <row r="27" spans="1:1">
       <c r="A27" s="186" t="s">
         <v>292</v>
+      </c>
+    </row>
+    <row r="28" spans="1:1">
+      <c r="A28" s="186" t="s">
+        <v>972</v>
       </c>
     </row>
     <row r="30" spans="1:1">
@@ -29133,19 +29167,21 @@
     <hyperlink ref="A8" r:id="rId6"/>
     <hyperlink ref="A9" r:id="rId7"/>
     <hyperlink ref="A10" r:id="rId8"/>
-    <hyperlink ref="A11" r:id="rId9"/>
-    <hyperlink ref="A12" r:id="rId10"/>
-    <hyperlink ref="A13" r:id="rId11"/>
-    <hyperlink ref="A14" r:id="rId12" location="javascript"/>
-    <hyperlink ref="A15" r:id="rId13" location="javascript"/>
-    <hyperlink ref="A16" r:id="rId14"/>
+    <hyperlink ref="A12" r:id="rId9"/>
+    <hyperlink ref="A13" r:id="rId10"/>
+    <hyperlink ref="A14" r:id="rId11"/>
+    <hyperlink ref="A15" r:id="rId12" location="javascript"/>
+    <hyperlink ref="A16" r:id="rId13" location="javascript"/>
+    <hyperlink ref="A17" r:id="rId14"/>
     <hyperlink ref="A22" r:id="rId15"/>
     <hyperlink ref="A21" r:id="rId16"/>
     <hyperlink ref="A26" r:id="rId17"/>
     <hyperlink ref="A27" r:id="rId18"/>
     <hyperlink ref="A31" r:id="rId19"/>
+    <hyperlink ref="A28" r:id="rId20"/>
+    <hyperlink ref="A11" r:id="rId21"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId20"/>
+  <pageSetup orientation="portrait" r:id="rId22"/>
 </worksheet>
 </file>
--- a/General/Curriculum (Personalized).xlsx
+++ b/General/Curriculum (Personalized).xlsx
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1395" uniqueCount="977">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1397" uniqueCount="979">
   <si>
     <t>Week</t>
   </si>
@@ -9922,6 +9922,12 @@
   </si>
   <si>
     <t>https://mockflow.com/</t>
+  </si>
+  <si>
+    <t>https://www.templatemonster.com/free-website-templates/</t>
+  </si>
+  <si>
+    <t>https://colorlib.com/wp/cat/travel/</t>
   </si>
 </sst>
 </file>
@@ -29004,7 +29010,7 @@
   <dimension ref="A1:J31"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J6" sqref="J6"/>
+      <selection activeCell="J9" sqref="J9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -29058,10 +29064,16 @@
       <c r="A7" s="186" t="s">
         <v>300</v>
       </c>
+      <c r="J7" t="s">
+        <v>977</v>
+      </c>
     </row>
     <row r="8" spans="1:10">
       <c r="A8" s="186" t="s">
         <v>950</v>
+      </c>
+      <c r="J8" t="s">
+        <v>978</v>
       </c>
     </row>
     <row r="9" spans="1:10">

--- a/General/Curriculum (Personalized).xlsx
+++ b/General/Curriculum (Personalized).xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="13485" windowHeight="11415" firstSheet="1" activeTab="3"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="13485" windowHeight="11415" firstSheet="1" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="Curriculum" sheetId="1" r:id="rId1"/>
@@ -11877,6 +11877,12 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="1"/>
     <xf numFmtId="0" fontId="21" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="50" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="51" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
+    </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="35" xfId="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -12206,12 +12212,6 @@
     </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="44" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="50" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="51" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="3">
@@ -13231,21 +13231,21 @@
       <c r="H1" s="35" t="s">
         <v>193</v>
       </c>
-      <c r="I1" s="261" t="s">
+      <c r="I1" s="263" t="s">
         <v>7</v>
       </c>
-      <c r="J1" s="262"/>
-      <c r="K1" s="263"/>
-      <c r="L1" s="195" t="s">
+      <c r="J1" s="264"/>
+      <c r="K1" s="265"/>
+      <c r="L1" s="197" t="s">
         <v>8</v>
       </c>
-      <c r="M1" s="196"/>
+      <c r="M1" s="198"/>
     </row>
     <row r="2" spans="1:13" ht="15.75" customHeight="1">
-      <c r="A2" s="224">
+      <c r="A2" s="226">
         <v>1</v>
       </c>
-      <c r="B2" s="227" t="s">
+      <c r="B2" s="229" t="s">
         <v>9</v>
       </c>
       <c r="C2" s="8" t="s">
@@ -13254,145 +13254,145 @@
       <c r="D2" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="E2" s="218" t="s">
+      <c r="E2" s="220" t="s">
         <v>12</v>
       </c>
-      <c r="F2" s="267"/>
-      <c r="G2" s="219"/>
-      <c r="H2" s="219"/>
-      <c r="I2" s="219" t="s">
+      <c r="F2" s="269"/>
+      <c r="G2" s="221"/>
+      <c r="H2" s="221"/>
+      <c r="I2" s="221" t="s">
         <v>10</v>
       </c>
-      <c r="J2" s="219" t="s">
+      <c r="J2" s="221" t="s">
         <v>14</v>
       </c>
-      <c r="K2" s="219" t="s">
+      <c r="K2" s="221" t="s">
         <v>15</v>
       </c>
-      <c r="L2" s="191" t="s">
+      <c r="L2" s="193" t="s">
         <v>16</v>
       </c>
-      <c r="M2" s="191" t="s">
+      <c r="M2" s="193" t="s">
         <v>327</v>
       </c>
     </row>
     <row r="3" spans="1:13" ht="15.75" customHeight="1">
-      <c r="A3" s="225"/>
-      <c r="B3" s="228"/>
+      <c r="A3" s="227"/>
+      <c r="B3" s="230"/>
       <c r="C3" s="32" t="s">
         <v>17</v>
       </c>
       <c r="D3" s="4" t="s">
         <v>18</v>
       </c>
-      <c r="E3" s="213"/>
-      <c r="F3" s="240"/>
-      <c r="G3" s="210"/>
-      <c r="H3" s="210"/>
-      <c r="I3" s="210"/>
-      <c r="J3" s="210"/>
-      <c r="K3" s="210"/>
-      <c r="L3" s="188"/>
-      <c r="M3" s="188"/>
+      <c r="E3" s="215"/>
+      <c r="F3" s="242"/>
+      <c r="G3" s="212"/>
+      <c r="H3" s="212"/>
+      <c r="I3" s="212"/>
+      <c r="J3" s="212"/>
+      <c r="K3" s="212"/>
+      <c r="L3" s="190"/>
+      <c r="M3" s="190"/>
     </row>
     <row r="4" spans="1:13" ht="15.75" customHeight="1">
-      <c r="A4" s="225"/>
-      <c r="B4" s="228"/>
+      <c r="A4" s="227"/>
+      <c r="B4" s="230"/>
       <c r="C4" s="32" t="s">
         <v>19</v>
       </c>
       <c r="D4" s="4" t="s">
         <v>20</v>
       </c>
-      <c r="E4" s="213"/>
-      <c r="F4" s="240"/>
-      <c r="G4" s="210"/>
-      <c r="H4" s="210"/>
-      <c r="I4" s="210"/>
-      <c r="J4" s="210"/>
-      <c r="K4" s="210"/>
-      <c r="L4" s="188"/>
-      <c r="M4" s="188"/>
+      <c r="E4" s="215"/>
+      <c r="F4" s="242"/>
+      <c r="G4" s="212"/>
+      <c r="H4" s="212"/>
+      <c r="I4" s="212"/>
+      <c r="J4" s="212"/>
+      <c r="K4" s="212"/>
+      <c r="L4" s="190"/>
+      <c r="M4" s="190"/>
     </row>
     <row r="5" spans="1:13" ht="15.75" customHeight="1">
-      <c r="A5" s="225"/>
-      <c r="B5" s="228"/>
+      <c r="A5" s="227"/>
+      <c r="B5" s="230"/>
       <c r="C5" s="32" t="s">
         <v>21</v>
       </c>
       <c r="D5" s="4"/>
-      <c r="E5" s="213"/>
-      <c r="F5" s="240"/>
-      <c r="G5" s="210"/>
-      <c r="H5" s="210"/>
-      <c r="I5" s="210"/>
-      <c r="J5" s="210"/>
-      <c r="K5" s="210"/>
-      <c r="L5" s="188"/>
-      <c r="M5" s="188"/>
+      <c r="E5" s="215"/>
+      <c r="F5" s="242"/>
+      <c r="G5" s="212"/>
+      <c r="H5" s="212"/>
+      <c r="I5" s="212"/>
+      <c r="J5" s="212"/>
+      <c r="K5" s="212"/>
+      <c r="L5" s="190"/>
+      <c r="M5" s="190"/>
     </row>
     <row r="6" spans="1:13" ht="15.75" customHeight="1">
-      <c r="A6" s="225"/>
-      <c r="B6" s="228"/>
+      <c r="A6" s="227"/>
+      <c r="B6" s="230"/>
       <c r="C6" s="32" t="s">
         <v>14</v>
       </c>
       <c r="D6" s="4" t="s">
         <v>22</v>
       </c>
-      <c r="E6" s="213"/>
-      <c r="F6" s="240"/>
-      <c r="G6" s="210"/>
-      <c r="H6" s="210"/>
-      <c r="I6" s="210"/>
-      <c r="J6" s="210"/>
-      <c r="K6" s="210"/>
-      <c r="L6" s="188"/>
-      <c r="M6" s="188"/>
+      <c r="E6" s="215"/>
+      <c r="F6" s="242"/>
+      <c r="G6" s="212"/>
+      <c r="H6" s="212"/>
+      <c r="I6" s="212"/>
+      <c r="J6" s="212"/>
+      <c r="K6" s="212"/>
+      <c r="L6" s="190"/>
+      <c r="M6" s="190"/>
     </row>
     <row r="7" spans="1:13" ht="15.75" customHeight="1">
-      <c r="A7" s="225"/>
-      <c r="B7" s="228"/>
+      <c r="A7" s="227"/>
+      <c r="B7" s="230"/>
       <c r="C7" s="32" t="s">
         <v>15</v>
       </c>
       <c r="D7" s="4" t="s">
         <v>20</v>
       </c>
-      <c r="E7" s="213"/>
-      <c r="F7" s="240"/>
-      <c r="G7" s="210"/>
-      <c r="H7" s="210"/>
-      <c r="I7" s="210"/>
-      <c r="J7" s="210"/>
-      <c r="K7" s="210"/>
-      <c r="L7" s="188"/>
-      <c r="M7" s="188"/>
+      <c r="E7" s="215"/>
+      <c r="F7" s="242"/>
+      <c r="G7" s="212"/>
+      <c r="H7" s="212"/>
+      <c r="I7" s="212"/>
+      <c r="J7" s="212"/>
+      <c r="K7" s="212"/>
+      <c r="L7" s="190"/>
+      <c r="M7" s="190"/>
     </row>
     <row r="8" spans="1:13" ht="15.75" customHeight="1" thickBot="1">
-      <c r="A8" s="226"/>
-      <c r="B8" s="229"/>
+      <c r="A8" s="228"/>
+      <c r="B8" s="231"/>
       <c r="C8" s="9" t="s">
         <v>23</v>
       </c>
       <c r="D8" s="5" t="s">
         <v>24</v>
       </c>
-      <c r="E8" s="266"/>
-      <c r="F8" s="268"/>
-      <c r="G8" s="265"/>
-      <c r="H8" s="265"/>
-      <c r="I8" s="265"/>
-      <c r="J8" s="265"/>
-      <c r="K8" s="265"/>
-      <c r="L8" s="201"/>
-      <c r="M8" s="201"/>
+      <c r="E8" s="268"/>
+      <c r="F8" s="270"/>
+      <c r="G8" s="267"/>
+      <c r="H8" s="267"/>
+      <c r="I8" s="267"/>
+      <c r="J8" s="267"/>
+      <c r="K8" s="267"/>
+      <c r="L8" s="203"/>
+      <c r="M8" s="203"/>
     </row>
     <row r="9" spans="1:13" ht="15.75" customHeight="1">
-      <c r="A9" s="231">
+      <c r="A9" s="233">
         <v>2</v>
       </c>
-      <c r="B9" s="227" t="s">
+      <c r="B9" s="229" t="s">
         <v>25</v>
       </c>
       <c r="C9" s="10" t="s">
@@ -13401,864 +13401,864 @@
       <c r="D9" s="3" t="s">
         <v>286</v>
       </c>
-      <c r="E9" s="244"/>
-      <c r="F9" s="223" t="s">
+      <c r="E9" s="246"/>
+      <c r="F9" s="225" t="s">
         <v>192</v>
       </c>
-      <c r="G9" s="238" t="s">
+      <c r="G9" s="240" t="s">
         <v>13</v>
       </c>
-      <c r="H9" s="222"/>
-      <c r="I9" s="242" t="s">
+      <c r="H9" s="224"/>
+      <c r="I9" s="244" t="s">
         <v>184</v>
       </c>
-      <c r="J9" s="223" t="s">
+      <c r="J9" s="225" t="s">
         <v>194</v>
       </c>
-      <c r="K9" s="223" t="s">
+      <c r="K9" s="225" t="s">
         <v>195</v>
       </c>
-      <c r="L9" s="238" t="s">
+      <c r="L9" s="240" t="s">
         <v>328</v>
       </c>
-      <c r="M9" s="202"/>
+      <c r="M9" s="204"/>
     </row>
     <row r="10" spans="1:13" ht="15.75" customHeight="1">
-      <c r="A10" s="232"/>
-      <c r="B10" s="228"/>
+      <c r="A10" s="234"/>
+      <c r="B10" s="230"/>
       <c r="C10" s="11" t="s">
         <v>26</v>
       </c>
       <c r="D10" s="4"/>
-      <c r="E10" s="205"/>
-      <c r="F10" s="212"/>
-      <c r="G10" s="216"/>
-      <c r="H10" s="208"/>
-      <c r="I10" s="243"/>
-      <c r="J10" s="212"/>
-      <c r="K10" s="212"/>
-      <c r="L10" s="239"/>
-      <c r="M10" s="203"/>
+      <c r="E10" s="207"/>
+      <c r="F10" s="214"/>
+      <c r="G10" s="218"/>
+      <c r="H10" s="210"/>
+      <c r="I10" s="245"/>
+      <c r="J10" s="214"/>
+      <c r="K10" s="214"/>
+      <c r="L10" s="241"/>
+      <c r="M10" s="205"/>
     </row>
     <row r="11" spans="1:13" ht="15.75" customHeight="1" thickBot="1">
-      <c r="A11" s="250">
+      <c r="A11" s="252">
         <v>3</v>
       </c>
-      <c r="B11" s="228"/>
+      <c r="B11" s="230"/>
       <c r="C11" s="11" t="s">
         <v>263</v>
       </c>
       <c r="D11" s="4"/>
-      <c r="E11" s="213"/>
-      <c r="F11" s="240"/>
-      <c r="G11" s="210"/>
-      <c r="H11" s="210" t="s">
+      <c r="E11" s="215"/>
+      <c r="F11" s="242"/>
+      <c r="G11" s="212"/>
+      <c r="H11" s="212" t="s">
         <v>198</v>
       </c>
-      <c r="I11" s="210" t="s">
+      <c r="I11" s="212" t="s">
         <v>196</v>
       </c>
-      <c r="J11" s="210"/>
-      <c r="K11" s="210"/>
-      <c r="L11" s="237" t="s">
+      <c r="J11" s="212"/>
+      <c r="K11" s="212"/>
+      <c r="L11" s="239" t="s">
         <v>329</v>
       </c>
-      <c r="M11" s="188"/>
+      <c r="M11" s="190"/>
     </row>
     <row r="12" spans="1:13" ht="15.75" customHeight="1">
-      <c r="A12" s="251"/>
-      <c r="B12" s="228"/>
+      <c r="A12" s="253"/>
+      <c r="B12" s="230"/>
       <c r="C12" s="11" t="s">
         <v>28</v>
       </c>
       <c r="D12" s="10"/>
-      <c r="E12" s="213"/>
-      <c r="F12" s="240"/>
-      <c r="G12" s="210"/>
-      <c r="H12" s="210"/>
-      <c r="I12" s="210"/>
-      <c r="J12" s="210"/>
-      <c r="K12" s="210"/>
-      <c r="L12" s="237"/>
-      <c r="M12" s="188"/>
+      <c r="E12" s="215"/>
+      <c r="F12" s="242"/>
+      <c r="G12" s="212"/>
+      <c r="H12" s="212"/>
+      <c r="I12" s="212"/>
+      <c r="J12" s="212"/>
+      <c r="K12" s="212"/>
+      <c r="L12" s="239"/>
+      <c r="M12" s="190"/>
     </row>
     <row r="13" spans="1:13" ht="15.75" customHeight="1">
-      <c r="A13" s="252">
+      <c r="A13" s="254">
         <v>4</v>
       </c>
-      <c r="B13" s="228"/>
+      <c r="B13" s="230"/>
       <c r="C13" s="11" t="s">
         <v>29</v>
       </c>
       <c r="D13" s="11"/>
-      <c r="E13" s="205"/>
-      <c r="F13" s="264" t="s">
+      <c r="E13" s="207"/>
+      <c r="F13" s="266" t="s">
         <v>36</v>
       </c>
-      <c r="G13" s="216" t="s">
+      <c r="G13" s="218" t="s">
         <v>33</v>
       </c>
-      <c r="H13" s="208"/>
-      <c r="I13" s="216" t="s">
+      <c r="H13" s="210"/>
+      <c r="I13" s="218" t="s">
         <v>330</v>
       </c>
-      <c r="J13" s="208"/>
-      <c r="K13" s="208"/>
-      <c r="L13" s="189"/>
-      <c r="M13" s="189"/>
+      <c r="J13" s="210"/>
+      <c r="K13" s="210"/>
+      <c r="L13" s="191"/>
+      <c r="M13" s="191"/>
     </row>
     <row r="14" spans="1:13" ht="15.75" customHeight="1">
-      <c r="A14" s="232"/>
-      <c r="B14" s="228"/>
+      <c r="A14" s="234"/>
+      <c r="B14" s="230"/>
       <c r="C14" s="32" t="s">
         <v>30</v>
       </c>
       <c r="D14" s="4"/>
-      <c r="E14" s="205"/>
-      <c r="F14" s="264"/>
-      <c r="G14" s="216"/>
-      <c r="H14" s="208"/>
-      <c r="I14" s="216"/>
-      <c r="J14" s="208"/>
-      <c r="K14" s="208"/>
-      <c r="L14" s="189"/>
-      <c r="M14" s="189"/>
+      <c r="E14" s="207"/>
+      <c r="F14" s="266"/>
+      <c r="G14" s="218"/>
+      <c r="H14" s="210"/>
+      <c r="I14" s="218"/>
+      <c r="J14" s="210"/>
+      <c r="K14" s="210"/>
+      <c r="L14" s="191"/>
+      <c r="M14" s="191"/>
     </row>
     <row r="15" spans="1:13" ht="15.75" customHeight="1">
-      <c r="A15" s="250">
+      <c r="A15" s="252">
         <v>5</v>
       </c>
-      <c r="B15" s="228"/>
-      <c r="C15" s="235" t="s">
+      <c r="B15" s="230"/>
+      <c r="C15" s="237" t="s">
         <v>31</v>
       </c>
       <c r="D15" s="4"/>
-      <c r="E15" s="213" t="s">
+      <c r="E15" s="215" t="s">
         <v>27</v>
       </c>
-      <c r="F15" s="240"/>
-      <c r="G15" s="210"/>
-      <c r="H15" s="210"/>
-      <c r="I15" s="210"/>
-      <c r="J15" s="210"/>
-      <c r="K15" s="210"/>
-      <c r="L15" s="188"/>
-      <c r="M15" s="188"/>
+      <c r="F15" s="242"/>
+      <c r="G15" s="212"/>
+      <c r="H15" s="212"/>
+      <c r="I15" s="212"/>
+      <c r="J15" s="212"/>
+      <c r="K15" s="212"/>
+      <c r="L15" s="190"/>
+      <c r="M15" s="190"/>
     </row>
     <row r="16" spans="1:13" ht="15.75" customHeight="1" thickBot="1">
-      <c r="A16" s="253"/>
-      <c r="B16" s="230"/>
-      <c r="C16" s="236"/>
+      <c r="A16" s="255"/>
+      <c r="B16" s="232"/>
+      <c r="C16" s="238"/>
       <c r="D16" s="5"/>
-      <c r="E16" s="214"/>
-      <c r="F16" s="241"/>
-      <c r="G16" s="211"/>
-      <c r="H16" s="211"/>
-      <c r="I16" s="211"/>
-      <c r="J16" s="211"/>
-      <c r="K16" s="211"/>
-      <c r="L16" s="193"/>
-      <c r="M16" s="193"/>
+      <c r="E16" s="216"/>
+      <c r="F16" s="243"/>
+      <c r="G16" s="213"/>
+      <c r="H16" s="213"/>
+      <c r="I16" s="213"/>
+      <c r="J16" s="213"/>
+      <c r="K16" s="213"/>
+      <c r="L16" s="195"/>
+      <c r="M16" s="195"/>
     </row>
     <row r="17" spans="1:13" ht="15.75" customHeight="1">
-      <c r="A17" s="254">
+      <c r="A17" s="256">
         <v>6</v>
       </c>
-      <c r="B17" s="227" t="s">
+      <c r="B17" s="229" t="s">
         <v>34</v>
       </c>
       <c r="C17" s="10" t="s">
         <v>35</v>
       </c>
       <c r="D17" s="3"/>
-      <c r="E17" s="244"/>
-      <c r="F17" s="222"/>
-      <c r="G17" s="222"/>
-      <c r="H17" s="223" t="s">
+      <c r="E17" s="246"/>
+      <c r="F17" s="224"/>
+      <c r="G17" s="224"/>
+      <c r="H17" s="225" t="s">
         <v>27</v>
       </c>
-      <c r="I17" s="223"/>
-      <c r="J17" s="223"/>
-      <c r="K17" s="223"/>
-      <c r="L17" s="197"/>
-      <c r="M17" s="197"/>
+      <c r="I17" s="225"/>
+      <c r="J17" s="225"/>
+      <c r="K17" s="225"/>
+      <c r="L17" s="199"/>
+      <c r="M17" s="199"/>
     </row>
     <row r="18" spans="1:13" ht="15.75" customHeight="1">
-      <c r="A18" s="233"/>
-      <c r="B18" s="228"/>
+      <c r="A18" s="235"/>
+      <c r="B18" s="230"/>
       <c r="C18" s="11" t="s">
         <v>37</v>
       </c>
       <c r="D18" s="4"/>
-      <c r="E18" s="205"/>
-      <c r="F18" s="208"/>
-      <c r="G18" s="208"/>
-      <c r="H18" s="212"/>
-      <c r="I18" s="212"/>
-      <c r="J18" s="212"/>
-      <c r="K18" s="212"/>
-      <c r="L18" s="192"/>
-      <c r="M18" s="192"/>
+      <c r="E18" s="207"/>
+      <c r="F18" s="210"/>
+      <c r="G18" s="210"/>
+      <c r="H18" s="214"/>
+      <c r="I18" s="214"/>
+      <c r="J18" s="214"/>
+      <c r="K18" s="214"/>
+      <c r="L18" s="194"/>
+      <c r="M18" s="194"/>
     </row>
     <row r="19" spans="1:13" ht="15.75" customHeight="1">
-      <c r="A19" s="233"/>
-      <c r="B19" s="228"/>
+      <c r="A19" s="235"/>
+      <c r="B19" s="230"/>
       <c r="C19" s="11" t="s">
         <v>38</v>
       </c>
       <c r="D19" s="4"/>
-      <c r="E19" s="205"/>
-      <c r="F19" s="208"/>
-      <c r="G19" s="208"/>
-      <c r="H19" s="212"/>
-      <c r="I19" s="212"/>
-      <c r="J19" s="212"/>
-      <c r="K19" s="212"/>
-      <c r="L19" s="192"/>
-      <c r="M19" s="192"/>
+      <c r="E19" s="207"/>
+      <c r="F19" s="210"/>
+      <c r="G19" s="210"/>
+      <c r="H19" s="214"/>
+      <c r="I19" s="214"/>
+      <c r="J19" s="214"/>
+      <c r="K19" s="214"/>
+      <c r="L19" s="194"/>
+      <c r="M19" s="194"/>
     </row>
     <row r="20" spans="1:13" ht="15.75" customHeight="1">
-      <c r="A20" s="225">
+      <c r="A20" s="227">
         <v>7</v>
       </c>
-      <c r="B20" s="228"/>
+      <c r="B20" s="230"/>
       <c r="C20" s="11" t="s">
         <v>39</v>
       </c>
       <c r="D20" s="4"/>
-      <c r="E20" s="213" t="s">
+      <c r="E20" s="215" t="s">
         <v>32</v>
       </c>
-      <c r="F20" s="221" t="s">
+      <c r="F20" s="223" t="s">
         <v>44</v>
       </c>
-      <c r="G20" s="221"/>
-      <c r="H20" s="221"/>
-      <c r="I20" s="221"/>
-      <c r="J20" s="221"/>
-      <c r="K20" s="221"/>
-      <c r="L20" s="198"/>
-      <c r="M20" s="198"/>
+      <c r="G20" s="223"/>
+      <c r="H20" s="223"/>
+      <c r="I20" s="223"/>
+      <c r="J20" s="223"/>
+      <c r="K20" s="223"/>
+      <c r="L20" s="200"/>
+      <c r="M20" s="200"/>
     </row>
     <row r="21" spans="1:13" ht="15.75" customHeight="1">
-      <c r="A21" s="225"/>
-      <c r="B21" s="228"/>
+      <c r="A21" s="227"/>
+      <c r="B21" s="230"/>
       <c r="C21" s="11" t="s">
         <v>41</v>
       </c>
       <c r="D21" s="4"/>
-      <c r="E21" s="213"/>
-      <c r="F21" s="221"/>
-      <c r="G21" s="221"/>
-      <c r="H21" s="221"/>
-      <c r="I21" s="221"/>
-      <c r="J21" s="221"/>
-      <c r="K21" s="221"/>
-      <c r="L21" s="198"/>
-      <c r="M21" s="198"/>
+      <c r="E21" s="215"/>
+      <c r="F21" s="223"/>
+      <c r="G21" s="223"/>
+      <c r="H21" s="223"/>
+      <c r="I21" s="223"/>
+      <c r="J21" s="223"/>
+      <c r="K21" s="223"/>
+      <c r="L21" s="200"/>
+      <c r="M21" s="200"/>
     </row>
     <row r="22" spans="1:13" ht="15.75" customHeight="1">
-      <c r="A22" s="225"/>
-      <c r="B22" s="228"/>
+      <c r="A22" s="227"/>
+      <c r="B22" s="230"/>
       <c r="C22" s="32" t="s">
         <v>42</v>
       </c>
       <c r="D22" s="4"/>
-      <c r="E22" s="213"/>
-      <c r="F22" s="221"/>
-      <c r="G22" s="221"/>
-      <c r="H22" s="221"/>
-      <c r="I22" s="221"/>
-      <c r="J22" s="221"/>
-      <c r="K22" s="221"/>
-      <c r="L22" s="198"/>
-      <c r="M22" s="198"/>
+      <c r="E22" s="215"/>
+      <c r="F22" s="223"/>
+      <c r="G22" s="223"/>
+      <c r="H22" s="223"/>
+      <c r="I22" s="223"/>
+      <c r="J22" s="223"/>
+      <c r="K22" s="223"/>
+      <c r="L22" s="200"/>
+      <c r="M22" s="200"/>
     </row>
     <row r="23" spans="1:13" ht="15.75" customHeight="1">
-      <c r="A23" s="233">
+      <c r="A23" s="235">
         <v>8</v>
       </c>
-      <c r="B23" s="228"/>
+      <c r="B23" s="230"/>
       <c r="C23" s="32" t="s">
         <v>43</v>
       </c>
       <c r="D23" s="4"/>
-      <c r="E23" s="205"/>
-      <c r="F23" s="208"/>
-      <c r="G23" s="216" t="s">
+      <c r="E23" s="207"/>
+      <c r="F23" s="210"/>
+      <c r="G23" s="218" t="s">
         <v>50</v>
       </c>
-      <c r="H23" s="212" t="s">
+      <c r="H23" s="214" t="s">
         <v>32</v>
       </c>
-      <c r="I23" s="212"/>
-      <c r="J23" s="212"/>
-      <c r="K23" s="212"/>
-      <c r="L23" s="192"/>
-      <c r="M23" s="192"/>
+      <c r="I23" s="214"/>
+      <c r="J23" s="214"/>
+      <c r="K23" s="214"/>
+      <c r="L23" s="194"/>
+      <c r="M23" s="194"/>
     </row>
     <row r="24" spans="1:13" ht="15.75" customHeight="1">
-      <c r="A24" s="233"/>
-      <c r="B24" s="228"/>
+      <c r="A24" s="235"/>
+      <c r="B24" s="230"/>
       <c r="C24" s="32" t="s">
         <v>45</v>
       </c>
       <c r="D24" s="4"/>
-      <c r="E24" s="205"/>
-      <c r="F24" s="208"/>
-      <c r="G24" s="216"/>
-      <c r="H24" s="212"/>
-      <c r="I24" s="212"/>
-      <c r="J24" s="212"/>
-      <c r="K24" s="212"/>
-      <c r="L24" s="192"/>
-      <c r="M24" s="192"/>
+      <c r="E24" s="207"/>
+      <c r="F24" s="210"/>
+      <c r="G24" s="218"/>
+      <c r="H24" s="214"/>
+      <c r="I24" s="214"/>
+      <c r="J24" s="214"/>
+      <c r="K24" s="214"/>
+      <c r="L24" s="194"/>
+      <c r="M24" s="194"/>
     </row>
     <row r="25" spans="1:13" ht="15.75" customHeight="1" thickBot="1">
-      <c r="A25" s="234"/>
-      <c r="B25" s="230"/>
+      <c r="A25" s="236"/>
+      <c r="B25" s="232"/>
       <c r="C25" s="33" t="s">
         <v>46</v>
       </c>
       <c r="D25" s="5"/>
-      <c r="E25" s="206"/>
-      <c r="F25" s="209"/>
-      <c r="G25" s="217"/>
-      <c r="H25" s="215"/>
-      <c r="I25" s="215"/>
-      <c r="J25" s="215"/>
-      <c r="K25" s="215"/>
-      <c r="L25" s="199"/>
-      <c r="M25" s="199"/>
+      <c r="E25" s="208"/>
+      <c r="F25" s="211"/>
+      <c r="G25" s="219"/>
+      <c r="H25" s="217"/>
+      <c r="I25" s="217"/>
+      <c r="J25" s="217"/>
+      <c r="K25" s="217"/>
+      <c r="L25" s="201"/>
+      <c r="M25" s="201"/>
     </row>
     <row r="26" spans="1:13" ht="15.75" customHeight="1">
-      <c r="A26" s="245">
+      <c r="A26" s="247">
         <v>9</v>
       </c>
-      <c r="B26" s="227" t="s">
+      <c r="B26" s="229" t="s">
         <v>47</v>
       </c>
       <c r="C26" s="12" t="s">
         <v>48</v>
       </c>
       <c r="D26" s="3"/>
-      <c r="E26" s="218" t="s">
+      <c r="E26" s="220" t="s">
         <v>40</v>
       </c>
-      <c r="F26" s="220" t="s">
+      <c r="F26" s="222" t="s">
         <v>53</v>
       </c>
-      <c r="G26" s="220"/>
-      <c r="H26" s="220"/>
-      <c r="I26" s="220"/>
-      <c r="J26" s="220"/>
-      <c r="K26" s="220"/>
-      <c r="L26" s="200"/>
-      <c r="M26" s="200"/>
+      <c r="G26" s="222"/>
+      <c r="H26" s="222"/>
+      <c r="I26" s="222"/>
+      <c r="J26" s="222"/>
+      <c r="K26" s="222"/>
+      <c r="L26" s="202"/>
+      <c r="M26" s="202"/>
     </row>
     <row r="27" spans="1:13" ht="15.75" customHeight="1">
-      <c r="A27" s="246"/>
-      <c r="B27" s="228"/>
+      <c r="A27" s="248"/>
+      <c r="B27" s="230"/>
       <c r="C27" s="13" t="s">
         <v>51</v>
       </c>
       <c r="D27" s="4"/>
-      <c r="E27" s="213"/>
-      <c r="F27" s="221"/>
-      <c r="G27" s="221"/>
-      <c r="H27" s="221"/>
-      <c r="I27" s="221"/>
-      <c r="J27" s="221"/>
-      <c r="K27" s="221"/>
-      <c r="L27" s="198"/>
-      <c r="M27" s="198"/>
+      <c r="E27" s="215"/>
+      <c r="F27" s="223"/>
+      <c r="G27" s="223"/>
+      <c r="H27" s="223"/>
+      <c r="I27" s="223"/>
+      <c r="J27" s="223"/>
+      <c r="K27" s="223"/>
+      <c r="L27" s="200"/>
+      <c r="M27" s="200"/>
     </row>
     <row r="28" spans="1:13" ht="15.75" customHeight="1">
-      <c r="A28" s="234">
+      <c r="A28" s="236">
         <v>10</v>
       </c>
-      <c r="B28" s="228"/>
+      <c r="B28" s="230"/>
       <c r="C28" s="13" t="s">
         <v>52</v>
       </c>
       <c r="D28" s="4"/>
-      <c r="E28" s="205"/>
-      <c r="F28" s="212" t="s">
+      <c r="E28" s="207"/>
+      <c r="F28" s="214" t="s">
         <v>59</v>
       </c>
-      <c r="G28" s="212"/>
-      <c r="H28" s="212" t="s">
+      <c r="G28" s="214"/>
+      <c r="H28" s="214" t="s">
         <v>40</v>
       </c>
-      <c r="I28" s="212"/>
-      <c r="J28" s="212"/>
-      <c r="K28" s="212"/>
-      <c r="L28" s="192"/>
-      <c r="M28" s="192"/>
+      <c r="I28" s="214"/>
+      <c r="J28" s="214"/>
+      <c r="K28" s="214"/>
+      <c r="L28" s="194"/>
+      <c r="M28" s="194"/>
     </row>
     <row r="29" spans="1:13" ht="15.75" customHeight="1">
-      <c r="A29" s="247"/>
-      <c r="B29" s="228"/>
+      <c r="A29" s="249"/>
+      <c r="B29" s="230"/>
       <c r="C29" s="13" t="s">
         <v>54</v>
       </c>
       <c r="D29" s="4"/>
-      <c r="E29" s="205"/>
-      <c r="F29" s="212"/>
-      <c r="G29" s="212"/>
-      <c r="H29" s="212"/>
-      <c r="I29" s="212"/>
-      <c r="J29" s="212"/>
-      <c r="K29" s="212"/>
-      <c r="L29" s="192"/>
-      <c r="M29" s="192"/>
+      <c r="E29" s="207"/>
+      <c r="F29" s="214"/>
+      <c r="G29" s="214"/>
+      <c r="H29" s="214"/>
+      <c r="I29" s="214"/>
+      <c r="J29" s="214"/>
+      <c r="K29" s="214"/>
+      <c r="L29" s="194"/>
+      <c r="M29" s="194"/>
     </row>
     <row r="30" spans="1:13" ht="15.75" customHeight="1">
-      <c r="A30" s="248">
+      <c r="A30" s="250">
         <v>11</v>
       </c>
-      <c r="B30" s="228"/>
+      <c r="B30" s="230"/>
       <c r="C30" s="13" t="s">
         <v>55</v>
       </c>
       <c r="D30" s="4"/>
-      <c r="E30" s="213" t="s">
+      <c r="E30" s="215" t="s">
         <v>49</v>
       </c>
-      <c r="F30" s="210"/>
-      <c r="G30" s="210"/>
-      <c r="H30" s="210"/>
-      <c r="I30" s="210"/>
-      <c r="J30" s="210"/>
-      <c r="K30" s="210"/>
-      <c r="L30" s="188"/>
-      <c r="M30" s="188"/>
+      <c r="F30" s="212"/>
+      <c r="G30" s="212"/>
+      <c r="H30" s="212"/>
+      <c r="I30" s="212"/>
+      <c r="J30" s="212"/>
+      <c r="K30" s="212"/>
+      <c r="L30" s="190"/>
+      <c r="M30" s="190"/>
     </row>
     <row r="31" spans="1:13" ht="15.75" customHeight="1">
-      <c r="A31" s="246"/>
-      <c r="B31" s="228"/>
+      <c r="A31" s="248"/>
+      <c r="B31" s="230"/>
       <c r="C31" s="14" t="s">
         <v>57</v>
       </c>
       <c r="D31" s="4"/>
-      <c r="E31" s="213"/>
-      <c r="F31" s="210"/>
-      <c r="G31" s="210"/>
-      <c r="H31" s="210"/>
-      <c r="I31" s="210"/>
-      <c r="J31" s="210"/>
-      <c r="K31" s="210"/>
-      <c r="L31" s="188"/>
-      <c r="M31" s="188"/>
+      <c r="E31" s="215"/>
+      <c r="F31" s="212"/>
+      <c r="G31" s="212"/>
+      <c r="H31" s="212"/>
+      <c r="I31" s="212"/>
+      <c r="J31" s="212"/>
+      <c r="K31" s="212"/>
+      <c r="L31" s="190"/>
+      <c r="M31" s="190"/>
     </row>
     <row r="32" spans="1:13" ht="15.75" customHeight="1">
-      <c r="A32" s="234">
+      <c r="A32" s="236">
         <v>12</v>
       </c>
-      <c r="B32" s="228"/>
+      <c r="B32" s="230"/>
       <c r="C32" s="14" t="s">
         <v>58</v>
       </c>
       <c r="D32" s="4"/>
-      <c r="E32" s="205"/>
-      <c r="F32" s="212" t="s">
+      <c r="E32" s="207"/>
+      <c r="F32" s="214" t="s">
         <v>67</v>
       </c>
-      <c r="G32" s="216" t="s">
+      <c r="G32" s="218" t="s">
         <v>64</v>
       </c>
-      <c r="H32" s="212" t="s">
+      <c r="H32" s="214" t="s">
         <v>49</v>
       </c>
-      <c r="I32" s="212"/>
-      <c r="J32" s="212"/>
-      <c r="K32" s="212"/>
-      <c r="L32" s="192"/>
-      <c r="M32" s="192"/>
+      <c r="I32" s="214"/>
+      <c r="J32" s="214"/>
+      <c r="K32" s="214"/>
+      <c r="L32" s="194"/>
+      <c r="M32" s="194"/>
     </row>
     <row r="33" spans="1:13" ht="15.75" customHeight="1" thickBot="1">
-      <c r="A33" s="249"/>
-      <c r="B33" s="230"/>
+      <c r="A33" s="251"/>
+      <c r="B33" s="232"/>
       <c r="C33" s="15" t="s">
         <v>60</v>
       </c>
       <c r="D33" s="5"/>
-      <c r="E33" s="206"/>
-      <c r="F33" s="215"/>
-      <c r="G33" s="217"/>
-      <c r="H33" s="215"/>
-      <c r="I33" s="215"/>
-      <c r="J33" s="215"/>
-      <c r="K33" s="215"/>
-      <c r="L33" s="199"/>
-      <c r="M33" s="199"/>
+      <c r="E33" s="208"/>
+      <c r="F33" s="217"/>
+      <c r="G33" s="219"/>
+      <c r="H33" s="217"/>
+      <c r="I33" s="217"/>
+      <c r="J33" s="217"/>
+      <c r="K33" s="217"/>
+      <c r="L33" s="201"/>
+      <c r="M33" s="201"/>
     </row>
     <row r="34" spans="1:13" ht="15.75" customHeight="1">
-      <c r="A34" s="224">
+      <c r="A34" s="226">
         <v>13</v>
       </c>
-      <c r="B34" s="227" t="s">
+      <c r="B34" s="229" t="s">
         <v>61</v>
       </c>
       <c r="C34" s="16" t="s">
         <v>62</v>
       </c>
       <c r="D34" s="3"/>
-      <c r="E34" s="218" t="s">
+      <c r="E34" s="220" t="s">
         <v>56</v>
       </c>
-      <c r="F34" s="219"/>
-      <c r="G34" s="219"/>
-      <c r="H34" s="219"/>
-      <c r="I34" s="219"/>
-      <c r="J34" s="219"/>
-      <c r="K34" s="219"/>
-      <c r="L34" s="191"/>
-      <c r="M34" s="191"/>
+      <c r="F34" s="221"/>
+      <c r="G34" s="221"/>
+      <c r="H34" s="221"/>
+      <c r="I34" s="221"/>
+      <c r="J34" s="221"/>
+      <c r="K34" s="221"/>
+      <c r="L34" s="193"/>
+      <c r="M34" s="193"/>
     </row>
     <row r="35" spans="1:13" ht="15.75" customHeight="1">
-      <c r="A35" s="225"/>
-      <c r="B35" s="228"/>
+      <c r="A35" s="227"/>
+      <c r="B35" s="230"/>
       <c r="C35" s="17" t="s">
         <v>65</v>
       </c>
       <c r="D35" s="4"/>
-      <c r="E35" s="213"/>
-      <c r="F35" s="210"/>
-      <c r="G35" s="210"/>
-      <c r="H35" s="210"/>
-      <c r="I35" s="210"/>
-      <c r="J35" s="210"/>
-      <c r="K35" s="210"/>
-      <c r="L35" s="188"/>
-      <c r="M35" s="188"/>
+      <c r="E35" s="215"/>
+      <c r="F35" s="212"/>
+      <c r="G35" s="212"/>
+      <c r="H35" s="212"/>
+      <c r="I35" s="212"/>
+      <c r="J35" s="212"/>
+      <c r="K35" s="212"/>
+      <c r="L35" s="190"/>
+      <c r="M35" s="190"/>
     </row>
     <row r="36" spans="1:13" ht="15.75" customHeight="1">
-      <c r="A36" s="233">
+      <c r="A36" s="235">
         <v>14</v>
       </c>
-      <c r="B36" s="228"/>
+      <c r="B36" s="230"/>
       <c r="C36" s="17" t="s">
         <v>66</v>
       </c>
       <c r="D36" s="4"/>
-      <c r="E36" s="205"/>
-      <c r="F36" s="208" t="s">
+      <c r="E36" s="207"/>
+      <c r="F36" s="210" t="s">
         <v>73</v>
       </c>
-      <c r="G36" s="208"/>
-      <c r="H36" s="208" t="s">
+      <c r="G36" s="210"/>
+      <c r="H36" s="210" t="s">
         <v>56</v>
       </c>
-      <c r="I36" s="208"/>
-      <c r="J36" s="208"/>
-      <c r="K36" s="208"/>
-      <c r="L36" s="189"/>
-      <c r="M36" s="189"/>
+      <c r="I36" s="210"/>
+      <c r="J36" s="210"/>
+      <c r="K36" s="210"/>
+      <c r="L36" s="191"/>
+      <c r="M36" s="191"/>
     </row>
     <row r="37" spans="1:13" ht="15.75" customHeight="1">
-      <c r="A37" s="233"/>
-      <c r="B37" s="228"/>
+      <c r="A37" s="235"/>
+      <c r="B37" s="230"/>
       <c r="C37" s="17" t="s">
         <v>68</v>
       </c>
       <c r="D37" s="4"/>
-      <c r="E37" s="205"/>
-      <c r="F37" s="208"/>
-      <c r="G37" s="208"/>
-      <c r="H37" s="208"/>
-      <c r="I37" s="208"/>
-      <c r="J37" s="208"/>
-      <c r="K37" s="208"/>
-      <c r="L37" s="189"/>
-      <c r="M37" s="189"/>
+      <c r="E37" s="207"/>
+      <c r="F37" s="210"/>
+      <c r="G37" s="210"/>
+      <c r="H37" s="210"/>
+      <c r="I37" s="210"/>
+      <c r="J37" s="210"/>
+      <c r="K37" s="210"/>
+      <c r="L37" s="191"/>
+      <c r="M37" s="191"/>
     </row>
     <row r="38" spans="1:13" ht="15.75" customHeight="1">
-      <c r="A38" s="225">
+      <c r="A38" s="227">
         <v>15</v>
       </c>
-      <c r="B38" s="228"/>
+      <c r="B38" s="230"/>
       <c r="C38" s="17" t="s">
         <v>69</v>
       </c>
       <c r="D38" s="4"/>
-      <c r="E38" s="213" t="s">
+      <c r="E38" s="215" t="s">
         <v>63</v>
       </c>
-      <c r="F38" s="210"/>
-      <c r="G38" s="210"/>
-      <c r="H38" s="210"/>
-      <c r="I38" s="210"/>
-      <c r="J38" s="210"/>
-      <c r="K38" s="210"/>
-      <c r="L38" s="188"/>
-      <c r="M38" s="188"/>
+      <c r="F38" s="212"/>
+      <c r="G38" s="212"/>
+      <c r="H38" s="212"/>
+      <c r="I38" s="212"/>
+      <c r="J38" s="212"/>
+      <c r="K38" s="212"/>
+      <c r="L38" s="190"/>
+      <c r="M38" s="190"/>
     </row>
     <row r="39" spans="1:13" ht="15.75" customHeight="1">
-      <c r="A39" s="225"/>
-      <c r="B39" s="228"/>
+      <c r="A39" s="227"/>
+      <c r="B39" s="230"/>
       <c r="C39" s="32" t="s">
         <v>71</v>
       </c>
       <c r="D39" s="4"/>
-      <c r="E39" s="213"/>
-      <c r="F39" s="210"/>
-      <c r="G39" s="210"/>
-      <c r="H39" s="210"/>
-      <c r="I39" s="210"/>
-      <c r="J39" s="210"/>
-      <c r="K39" s="210"/>
-      <c r="L39" s="188"/>
-      <c r="M39" s="188"/>
+      <c r="E39" s="215"/>
+      <c r="F39" s="212"/>
+      <c r="G39" s="212"/>
+      <c r="H39" s="212"/>
+      <c r="I39" s="212"/>
+      <c r="J39" s="212"/>
+      <c r="K39" s="212"/>
+      <c r="L39" s="190"/>
+      <c r="M39" s="190"/>
     </row>
     <row r="40" spans="1:13" ht="15.75" customHeight="1">
-      <c r="A40" s="233">
+      <c r="A40" s="235">
         <v>16</v>
       </c>
-      <c r="B40" s="228"/>
+      <c r="B40" s="230"/>
       <c r="C40" s="32" t="s">
         <v>72</v>
       </c>
       <c r="D40" s="4"/>
-      <c r="E40" s="205"/>
-      <c r="F40" s="212" t="s">
+      <c r="E40" s="207"/>
+      <c r="F40" s="214" t="s">
         <v>82</v>
       </c>
-      <c r="G40" s="216" t="s">
+      <c r="G40" s="218" t="s">
         <v>79</v>
       </c>
-      <c r="H40" s="208" t="s">
+      <c r="H40" s="210" t="s">
         <v>63</v>
       </c>
-      <c r="I40" s="208"/>
-      <c r="J40" s="208"/>
-      <c r="K40" s="208"/>
-      <c r="L40" s="189"/>
-      <c r="M40" s="189"/>
+      <c r="I40" s="210"/>
+      <c r="J40" s="210"/>
+      <c r="K40" s="210"/>
+      <c r="L40" s="191"/>
+      <c r="M40" s="191"/>
     </row>
     <row r="41" spans="1:13" ht="15.75" customHeight="1">
-      <c r="A41" s="233"/>
-      <c r="B41" s="228"/>
+      <c r="A41" s="235"/>
+      <c r="B41" s="230"/>
       <c r="C41" s="32" t="s">
         <v>74</v>
       </c>
       <c r="D41" s="4"/>
-      <c r="E41" s="205"/>
-      <c r="F41" s="212"/>
-      <c r="G41" s="216"/>
-      <c r="H41" s="208"/>
-      <c r="I41" s="208"/>
-      <c r="J41" s="208"/>
-      <c r="K41" s="208"/>
-      <c r="L41" s="189"/>
-      <c r="M41" s="189"/>
+      <c r="E41" s="207"/>
+      <c r="F41" s="214"/>
+      <c r="G41" s="218"/>
+      <c r="H41" s="210"/>
+      <c r="I41" s="210"/>
+      <c r="J41" s="210"/>
+      <c r="K41" s="210"/>
+      <c r="L41" s="191"/>
+      <c r="M41" s="191"/>
     </row>
     <row r="42" spans="1:13" ht="15.75" customHeight="1" thickBot="1">
-      <c r="A42" s="260"/>
-      <c r="B42" s="229"/>
+      <c r="A42" s="262"/>
+      <c r="B42" s="231"/>
       <c r="C42" s="9" t="s">
         <v>75</v>
       </c>
       <c r="D42" s="5"/>
-      <c r="E42" s="206"/>
-      <c r="F42" s="215"/>
-      <c r="G42" s="217"/>
-      <c r="H42" s="209"/>
-      <c r="I42" s="209"/>
-      <c r="J42" s="209"/>
-      <c r="K42" s="209"/>
-      <c r="L42" s="190"/>
-      <c r="M42" s="190"/>
+      <c r="E42" s="208"/>
+      <c r="F42" s="217"/>
+      <c r="G42" s="219"/>
+      <c r="H42" s="211"/>
+      <c r="I42" s="211"/>
+      <c r="J42" s="211"/>
+      <c r="K42" s="211"/>
+      <c r="L42" s="192"/>
+      <c r="M42" s="192"/>
     </row>
     <row r="43" spans="1:13" ht="15.75" customHeight="1">
-      <c r="A43" s="224">
+      <c r="A43" s="226">
         <v>17</v>
       </c>
-      <c r="B43" s="255" t="s">
+      <c r="B43" s="257" t="s">
         <v>76</v>
       </c>
       <c r="C43" s="10" t="s">
         <v>77</v>
       </c>
       <c r="D43" s="3"/>
-      <c r="E43" s="218" t="s">
+      <c r="E43" s="220" t="s">
         <v>70</v>
       </c>
-      <c r="F43" s="219"/>
-      <c r="G43" s="219"/>
-      <c r="H43" s="219"/>
-      <c r="I43" s="219"/>
-      <c r="J43" s="219"/>
-      <c r="K43" s="219"/>
-      <c r="L43" s="191"/>
-      <c r="M43" s="191"/>
+      <c r="F43" s="221"/>
+      <c r="G43" s="221"/>
+      <c r="H43" s="221"/>
+      <c r="I43" s="221"/>
+      <c r="J43" s="221"/>
+      <c r="K43" s="221"/>
+      <c r="L43" s="193"/>
+      <c r="M43" s="193"/>
     </row>
     <row r="44" spans="1:13" ht="15.75" customHeight="1">
-      <c r="A44" s="225"/>
-      <c r="B44" s="256"/>
+      <c r="A44" s="227"/>
+      <c r="B44" s="258"/>
       <c r="C44" s="11" t="s">
         <v>80</v>
       </c>
       <c r="D44" s="4"/>
-      <c r="E44" s="213"/>
-      <c r="F44" s="210"/>
-      <c r="G44" s="210"/>
-      <c r="H44" s="210"/>
-      <c r="I44" s="210"/>
-      <c r="J44" s="210"/>
-      <c r="K44" s="210"/>
-      <c r="L44" s="188"/>
-      <c r="M44" s="188"/>
+      <c r="E44" s="215"/>
+      <c r="F44" s="212"/>
+      <c r="G44" s="212"/>
+      <c r="H44" s="212"/>
+      <c r="I44" s="212"/>
+      <c r="J44" s="212"/>
+      <c r="K44" s="212"/>
+      <c r="L44" s="190"/>
+      <c r="M44" s="190"/>
     </row>
     <row r="45" spans="1:13" ht="15.75" customHeight="1">
-      <c r="A45" s="233">
+      <c r="A45" s="235">
         <v>18</v>
       </c>
-      <c r="B45" s="256"/>
+      <c r="B45" s="258"/>
       <c r="C45" s="11" t="s">
         <v>81</v>
       </c>
       <c r="D45" s="4"/>
-      <c r="E45" s="205"/>
-      <c r="F45" s="212" t="s">
+      <c r="E45" s="207"/>
+      <c r="F45" s="214" t="s">
         <v>197</v>
       </c>
-      <c r="G45" s="208"/>
-      <c r="H45" s="212" t="s">
+      <c r="G45" s="210"/>
+      <c r="H45" s="214" t="s">
         <v>70</v>
       </c>
-      <c r="I45" s="212"/>
-      <c r="J45" s="212"/>
-      <c r="K45" s="212"/>
-      <c r="L45" s="192"/>
-      <c r="M45" s="192"/>
+      <c r="I45" s="214"/>
+      <c r="J45" s="214"/>
+      <c r="K45" s="214"/>
+      <c r="L45" s="194"/>
+      <c r="M45" s="194"/>
     </row>
     <row r="46" spans="1:13" ht="15.75" customHeight="1">
-      <c r="A46" s="233"/>
-      <c r="B46" s="256"/>
+      <c r="A46" s="235"/>
+      <c r="B46" s="258"/>
       <c r="C46" s="11" t="s">
         <v>83</v>
       </c>
       <c r="D46" s="4"/>
-      <c r="E46" s="205"/>
-      <c r="F46" s="212"/>
-      <c r="G46" s="208"/>
-      <c r="H46" s="212"/>
-      <c r="I46" s="212"/>
-      <c r="J46" s="212"/>
-      <c r="K46" s="212"/>
-      <c r="L46" s="192"/>
-      <c r="M46" s="192"/>
+      <c r="E46" s="207"/>
+      <c r="F46" s="214"/>
+      <c r="G46" s="210"/>
+      <c r="H46" s="214"/>
+      <c r="I46" s="214"/>
+      <c r="J46" s="214"/>
+      <c r="K46" s="214"/>
+      <c r="L46" s="194"/>
+      <c r="M46" s="194"/>
     </row>
     <row r="47" spans="1:13" ht="15.75" customHeight="1">
-      <c r="A47" s="225">
+      <c r="A47" s="227">
         <v>19</v>
       </c>
-      <c r="B47" s="256"/>
-      <c r="C47" s="258" t="s">
+      <c r="B47" s="258"/>
+      <c r="C47" s="260" t="s">
         <v>84</v>
       </c>
       <c r="D47" s="4"/>
-      <c r="E47" s="213" t="s">
+      <c r="E47" s="215" t="s">
         <v>78</v>
       </c>
-      <c r="F47" s="210"/>
-      <c r="G47" s="210"/>
-      <c r="H47" s="210"/>
-      <c r="I47" s="210"/>
-      <c r="J47" s="210"/>
-      <c r="K47" s="210"/>
-      <c r="L47" s="188"/>
-      <c r="M47" s="188"/>
+      <c r="F47" s="212"/>
+      <c r="G47" s="212"/>
+      <c r="H47" s="212"/>
+      <c r="I47" s="212"/>
+      <c r="J47" s="212"/>
+      <c r="K47" s="212"/>
+      <c r="L47" s="190"/>
+      <c r="M47" s="190"/>
     </row>
     <row r="48" spans="1:13" ht="15.75" customHeight="1" thickBot="1">
-      <c r="A48" s="226"/>
-      <c r="B48" s="257"/>
-      <c r="C48" s="259"/>
+      <c r="A48" s="228"/>
+      <c r="B48" s="259"/>
+      <c r="C48" s="261"/>
       <c r="D48" s="5"/>
-      <c r="E48" s="214"/>
-      <c r="F48" s="211"/>
-      <c r="G48" s="211"/>
-      <c r="H48" s="211"/>
-      <c r="I48" s="211"/>
-      <c r="J48" s="211"/>
-      <c r="K48" s="211"/>
-      <c r="L48" s="193"/>
-      <c r="M48" s="193"/>
+      <c r="E48" s="216"/>
+      <c r="F48" s="213"/>
+      <c r="G48" s="213"/>
+      <c r="H48" s="213"/>
+      <c r="I48" s="213"/>
+      <c r="J48" s="213"/>
+      <c r="K48" s="213"/>
+      <c r="L48" s="195"/>
+      <c r="M48" s="195"/>
     </row>
     <row r="49" spans="1:13" ht="15.75" customHeight="1">
-      <c r="A49" s="254">
+      <c r="A49" s="256">
         <v>20</v>
       </c>
-      <c r="B49" s="227" t="s">
+      <c r="B49" s="229" t="s">
         <v>85</v>
       </c>
       <c r="C49" s="10" t="s">
         <v>86</v>
       </c>
       <c r="D49" s="6"/>
-      <c r="E49" s="204"/>
-      <c r="F49" s="207"/>
-      <c r="G49" s="207"/>
-      <c r="H49" s="207" t="s">
+      <c r="E49" s="206"/>
+      <c r="F49" s="209"/>
+      <c r="G49" s="209"/>
+      <c r="H49" s="209" t="s">
         <v>78</v>
       </c>
-      <c r="I49" s="207"/>
-      <c r="J49" s="207"/>
-      <c r="K49" s="207"/>
-      <c r="L49" s="194"/>
-      <c r="M49" s="194"/>
+      <c r="I49" s="209"/>
+      <c r="J49" s="209"/>
+      <c r="K49" s="209"/>
+      <c r="L49" s="196"/>
+      <c r="M49" s="196"/>
     </row>
     <row r="50" spans="1:13" ht="15.75" customHeight="1">
-      <c r="A50" s="233"/>
-      <c r="B50" s="228"/>
+      <c r="A50" s="235"/>
+      <c r="B50" s="230"/>
       <c r="C50" s="11" t="s">
         <v>87</v>
       </c>
       <c r="D50" s="4"/>
-      <c r="E50" s="205"/>
-      <c r="F50" s="208"/>
-      <c r="G50" s="208"/>
-      <c r="H50" s="208"/>
-      <c r="I50" s="208"/>
-      <c r="J50" s="208"/>
-      <c r="K50" s="208"/>
-      <c r="L50" s="189"/>
-      <c r="M50" s="189"/>
+      <c r="E50" s="207"/>
+      <c r="F50" s="210"/>
+      <c r="G50" s="210"/>
+      <c r="H50" s="210"/>
+      <c r="I50" s="210"/>
+      <c r="J50" s="210"/>
+      <c r="K50" s="210"/>
+      <c r="L50" s="191"/>
+      <c r="M50" s="191"/>
     </row>
     <row r="51" spans="1:13" ht="15.75" customHeight="1">
-      <c r="A51" s="233"/>
-      <c r="B51" s="228"/>
+      <c r="A51" s="235"/>
+      <c r="B51" s="230"/>
       <c r="C51" s="11" t="s">
         <v>88</v>
       </c>
       <c r="D51" s="4"/>
-      <c r="E51" s="205"/>
-      <c r="F51" s="208"/>
-      <c r="G51" s="208"/>
-      <c r="H51" s="208"/>
-      <c r="I51" s="208"/>
-      <c r="J51" s="208"/>
-      <c r="K51" s="208"/>
-      <c r="L51" s="189"/>
-      <c r="M51" s="189"/>
+      <c r="E51" s="207"/>
+      <c r="F51" s="210"/>
+      <c r="G51" s="210"/>
+      <c r="H51" s="210"/>
+      <c r="I51" s="210"/>
+      <c r="J51" s="210"/>
+      <c r="K51" s="210"/>
+      <c r="L51" s="191"/>
+      <c r="M51" s="191"/>
     </row>
     <row r="52" spans="1:13" ht="15.75" customHeight="1" thickBot="1">
-      <c r="A52" s="260"/>
-      <c r="B52" s="229"/>
+      <c r="A52" s="262"/>
+      <c r="B52" s="231"/>
       <c r="C52" s="18" t="s">
         <v>89</v>
       </c>
       <c r="D52" s="5"/>
-      <c r="E52" s="206"/>
-      <c r="F52" s="209"/>
-      <c r="G52" s="209"/>
-      <c r="H52" s="209"/>
-      <c r="I52" s="209"/>
-      <c r="J52" s="209"/>
-      <c r="K52" s="209"/>
-      <c r="L52" s="190"/>
-      <c r="M52" s="190"/>
+      <c r="E52" s="208"/>
+      <c r="F52" s="211"/>
+      <c r="G52" s="211"/>
+      <c r="H52" s="211"/>
+      <c r="I52" s="211"/>
+      <c r="J52" s="211"/>
+      <c r="K52" s="211"/>
+      <c r="L52" s="192"/>
+      <c r="M52" s="192"/>
     </row>
     <row r="55" spans="1:13" ht="15.75" thickBot="1"/>
     <row r="56" spans="1:13" ht="15.75" thickBot="1">
@@ -14700,10 +14700,10 @@
       </c>
     </row>
     <row r="2" spans="1:9" ht="15.75" customHeight="1" thickTop="1" thickBot="1">
-      <c r="A2" s="280" t="s">
+      <c r="A2" s="282" t="s">
         <v>305</v>
       </c>
-      <c r="B2" s="275">
+      <c r="B2" s="277">
         <v>1</v>
       </c>
       <c r="C2" s="110">
@@ -14723,8 +14723,8 @@
       </c>
     </row>
     <row r="3" spans="1:9" ht="16.5" thickBot="1">
-      <c r="A3" s="281"/>
-      <c r="B3" s="276"/>
+      <c r="A3" s="283"/>
+      <c r="B3" s="278"/>
       <c r="C3" s="110">
         <v>43193</v>
       </c>
@@ -14740,8 +14740,8 @@
       <c r="I3" s="115"/>
     </row>
     <row r="4" spans="1:9" ht="16.5" thickBot="1">
-      <c r="A4" s="281"/>
-      <c r="B4" s="276"/>
+      <c r="A4" s="283"/>
+      <c r="B4" s="278"/>
       <c r="C4" s="110">
         <v>43194</v>
       </c>
@@ -14757,8 +14757,8 @@
       <c r="I4" s="115"/>
     </row>
     <row r="5" spans="1:9" ht="16.5" thickBot="1">
-      <c r="A5" s="281"/>
-      <c r="B5" s="276"/>
+      <c r="A5" s="283"/>
+      <c r="B5" s="278"/>
       <c r="C5" s="110">
         <v>43195</v>
       </c>
@@ -14776,8 +14776,8 @@
       <c r="I5" s="115"/>
     </row>
     <row r="6" spans="1:9" ht="16.5" thickBot="1">
-      <c r="A6" s="282"/>
-      <c r="B6" s="279"/>
+      <c r="A6" s="284"/>
+      <c r="B6" s="281"/>
       <c r="C6" s="117">
         <v>43196</v>
       </c>
@@ -14793,10 +14793,10 @@
       <c r="I6" s="121"/>
     </row>
     <row r="7" spans="1:9" ht="17.25" thickTop="1" thickBot="1">
-      <c r="A7" s="290" t="s">
+      <c r="A7" s="292" t="s">
         <v>184</v>
       </c>
-      <c r="B7" s="278">
+      <c r="B7" s="280">
         <v>2</v>
       </c>
       <c r="C7" s="143">
@@ -14814,8 +14814,8 @@
       <c r="I7" s="126"/>
     </row>
     <row r="8" spans="1:9" ht="16.5" thickBot="1">
-      <c r="A8" s="291"/>
-      <c r="B8" s="273"/>
+      <c r="A8" s="293"/>
+      <c r="B8" s="275"/>
       <c r="C8" s="143">
         <v>43200</v>
       </c>
@@ -14831,8 +14831,8 @@
       <c r="I8" s="126"/>
     </row>
     <row r="9" spans="1:9" ht="16.5" thickBot="1">
-      <c r="A9" s="291"/>
-      <c r="B9" s="273"/>
+      <c r="A9" s="293"/>
+      <c r="B9" s="275"/>
       <c r="C9" s="143">
         <v>43201</v>
       </c>
@@ -14848,8 +14848,8 @@
       <c r="I9" s="126"/>
     </row>
     <row r="10" spans="1:9" ht="15.75" customHeight="1" thickBot="1">
-      <c r="A10" s="291"/>
-      <c r="B10" s="273"/>
+      <c r="A10" s="293"/>
+      <c r="B10" s="275"/>
       <c r="C10" s="143">
         <v>43202</v>
       </c>
@@ -14865,8 +14865,8 @@
       <c r="I10" s="126"/>
     </row>
     <row r="11" spans="1:9" ht="16.5" thickBot="1">
-      <c r="A11" s="291"/>
-      <c r="B11" s="283"/>
+      <c r="A11" s="293"/>
+      <c r="B11" s="285"/>
       <c r="C11" s="143">
         <v>43203</v>
       </c>
@@ -14884,8 +14884,8 @@
       <c r="I11" s="126"/>
     </row>
     <row r="12" spans="1:9" ht="16.5" thickBot="1">
-      <c r="A12" s="270"/>
-      <c r="B12" s="284">
+      <c r="A12" s="272"/>
+      <c r="B12" s="286">
         <v>3</v>
       </c>
       <c r="C12" s="110">
@@ -14903,8 +14903,8 @@
       <c r="I12" s="115"/>
     </row>
     <row r="13" spans="1:9" ht="16.5" thickBot="1">
-      <c r="A13" s="270"/>
-      <c r="B13" s="276"/>
+      <c r="A13" s="272"/>
+      <c r="B13" s="278"/>
       <c r="C13" s="110">
         <v>43207</v>
       </c>
@@ -14920,8 +14920,8 @@
       <c r="I13" s="115"/>
     </row>
     <row r="14" spans="1:9" ht="16.5" thickBot="1">
-      <c r="A14" s="270"/>
-      <c r="B14" s="276"/>
+      <c r="A14" s="272"/>
+      <c r="B14" s="278"/>
       <c r="C14" s="110">
         <v>43208</v>
       </c>
@@ -14937,8 +14937,8 @@
       <c r="I14" s="115"/>
     </row>
     <row r="15" spans="1:9" ht="16.5" thickBot="1">
-      <c r="A15" s="270"/>
-      <c r="B15" s="276"/>
+      <c r="A15" s="272"/>
+      <c r="B15" s="278"/>
       <c r="C15" s="110">
         <v>43209</v>
       </c>
@@ -14954,8 +14954,8 @@
       <c r="I15" s="115"/>
     </row>
     <row r="16" spans="1:9" ht="16.5" thickBot="1">
-      <c r="A16" s="270"/>
-      <c r="B16" s="277"/>
+      <c r="A16" s="272"/>
+      <c r="B16" s="279"/>
       <c r="C16" s="110">
         <v>43210</v>
       </c>
@@ -14971,8 +14971,8 @@
       <c r="I16" s="115"/>
     </row>
     <row r="17" spans="1:9" ht="16.5" thickBot="1">
-      <c r="A17" s="270"/>
-      <c r="B17" s="278">
+      <c r="A17" s="272"/>
+      <c r="B17" s="280">
         <v>4</v>
       </c>
       <c r="C17" s="122">
@@ -14994,8 +14994,8 @@
       <c r="I17" s="126"/>
     </row>
     <row r="18" spans="1:9" ht="16.5" thickBot="1">
-      <c r="A18" s="270"/>
-      <c r="B18" s="273"/>
+      <c r="A18" s="272"/>
+      <c r="B18" s="275"/>
       <c r="C18" s="122">
         <v>43214</v>
       </c>
@@ -15011,8 +15011,8 @@
       <c r="I18" s="126"/>
     </row>
     <row r="19" spans="1:9" ht="16.5" thickBot="1">
-      <c r="A19" s="270"/>
-      <c r="B19" s="273"/>
+      <c r="A19" s="272"/>
+      <c r="B19" s="275"/>
       <c r="C19" s="122">
         <v>43215</v>
       </c>
@@ -15028,8 +15028,8 @@
       <c r="I19" s="126"/>
     </row>
     <row r="20" spans="1:9" ht="16.5" thickBot="1">
-      <c r="A20" s="270"/>
-      <c r="B20" s="273"/>
+      <c r="A20" s="272"/>
+      <c r="B20" s="275"/>
       <c r="C20" s="122">
         <v>43216</v>
       </c>
@@ -15045,8 +15045,8 @@
       <c r="I20" s="126"/>
     </row>
     <row r="21" spans="1:9" ht="16.5" thickBot="1">
-      <c r="A21" s="270"/>
-      <c r="B21" s="283"/>
+      <c r="A21" s="272"/>
+      <c r="B21" s="285"/>
       <c r="C21" s="122">
         <v>43217</v>
       </c>
@@ -15064,8 +15064,8 @@
       <c r="I21" s="126"/>
     </row>
     <row r="22" spans="1:9" ht="16.5" thickBot="1">
-      <c r="A22" s="270"/>
-      <c r="B22" s="284">
+      <c r="A22" s="272"/>
+      <c r="B22" s="286">
         <v>5</v>
       </c>
       <c r="C22" s="110">
@@ -15083,8 +15083,8 @@
       <c r="I22" s="115"/>
     </row>
     <row r="23" spans="1:9" ht="16.5" thickBot="1">
-      <c r="A23" s="270"/>
-      <c r="B23" s="276"/>
+      <c r="A23" s="272"/>
+      <c r="B23" s="278"/>
       <c r="C23" s="110">
         <v>43221</v>
       </c>
@@ -15100,8 +15100,8 @@
       <c r="I23" s="115"/>
     </row>
     <row r="24" spans="1:9" ht="16.5" thickBot="1">
-      <c r="A24" s="270"/>
-      <c r="B24" s="276"/>
+      <c r="A24" s="272"/>
+      <c r="B24" s="278"/>
       <c r="C24" s="110">
         <v>43222</v>
       </c>
@@ -15117,8 +15117,8 @@
       <c r="I24" s="115"/>
     </row>
     <row r="25" spans="1:9" ht="16.5" thickBot="1">
-      <c r="A25" s="270"/>
-      <c r="B25" s="276"/>
+      <c r="A25" s="272"/>
+      <c r="B25" s="278"/>
       <c r="C25" s="110">
         <v>43223</v>
       </c>
@@ -15134,8 +15134,8 @@
       <c r="I25" s="115"/>
     </row>
     <row r="26" spans="1:9" ht="16.5" thickBot="1">
-      <c r="A26" s="270"/>
-      <c r="B26" s="277"/>
+      <c r="A26" s="272"/>
+      <c r="B26" s="279"/>
       <c r="C26" s="110">
         <v>43224</v>
       </c>
@@ -15151,8 +15151,8 @@
       <c r="I26" s="115"/>
     </row>
     <row r="27" spans="1:9" ht="15.75" customHeight="1" thickBot="1">
-      <c r="A27" s="270"/>
-      <c r="B27" s="288">
+      <c r="A27" s="272"/>
+      <c r="B27" s="290">
         <v>6</v>
       </c>
       <c r="C27" s="130">
@@ -15174,8 +15174,8 @@
       <c r="I27" s="126"/>
     </row>
     <row r="28" spans="1:9" ht="16.5" thickBot="1">
-      <c r="A28" s="270"/>
-      <c r="B28" s="286"/>
+      <c r="A28" s="272"/>
+      <c r="B28" s="288"/>
       <c r="C28" s="130">
         <v>43228</v>
       </c>
@@ -15191,8 +15191,8 @@
       <c r="I28" s="126"/>
     </row>
     <row r="29" spans="1:9" ht="16.5" thickBot="1">
-      <c r="A29" s="270"/>
-      <c r="B29" s="286"/>
+      <c r="A29" s="272"/>
+      <c r="B29" s="288"/>
       <c r="C29" s="130">
         <v>43229</v>
       </c>
@@ -15208,8 +15208,8 @@
       <c r="I29" s="126"/>
     </row>
     <row r="30" spans="1:9" ht="16.5" thickBot="1">
-      <c r="A30" s="270"/>
-      <c r="B30" s="286"/>
+      <c r="A30" s="272"/>
+      <c r="B30" s="288"/>
       <c r="C30" s="130">
         <v>43230</v>
       </c>
@@ -15225,8 +15225,8 @@
       <c r="I30" s="126"/>
     </row>
     <row r="31" spans="1:9" ht="27" thickBot="1">
-      <c r="A31" s="271"/>
-      <c r="B31" s="289"/>
+      <c r="A31" s="273"/>
+      <c r="B31" s="291"/>
       <c r="C31" s="134">
         <v>43231</v>
       </c>
@@ -15244,10 +15244,10 @@
       <c r="I31" s="138"/>
     </row>
     <row r="32" spans="1:9" ht="17.25" thickTop="1" thickBot="1">
-      <c r="A32" s="280" t="s">
+      <c r="A32" s="282" t="s">
         <v>34</v>
       </c>
-      <c r="B32" s="275">
+      <c r="B32" s="277">
         <v>7</v>
       </c>
       <c r="C32" s="110">
@@ -15265,8 +15265,8 @@
       <c r="I32" s="115"/>
     </row>
     <row r="33" spans="1:9" ht="16.5" thickBot="1">
-      <c r="A33" s="281"/>
-      <c r="B33" s="276"/>
+      <c r="A33" s="283"/>
+      <c r="B33" s="278"/>
       <c r="C33" s="110">
         <v>43235</v>
       </c>
@@ -15282,8 +15282,8 @@
       <c r="I33" s="115"/>
     </row>
     <row r="34" spans="1:9" ht="16.5" thickBot="1">
-      <c r="A34" s="281"/>
-      <c r="B34" s="276"/>
+      <c r="A34" s="283"/>
+      <c r="B34" s="278"/>
       <c r="C34" s="110">
         <v>43236</v>
       </c>
@@ -15299,8 +15299,8 @@
       <c r="I34" s="115"/>
     </row>
     <row r="35" spans="1:9" ht="16.5" thickBot="1">
-      <c r="A35" s="281"/>
-      <c r="B35" s="276"/>
+      <c r="A35" s="283"/>
+      <c r="B35" s="278"/>
       <c r="C35" s="110">
         <v>43237</v>
       </c>
@@ -15316,8 +15316,8 @@
       <c r="I35" s="115"/>
     </row>
     <row r="36" spans="1:9" ht="16.5" thickBot="1">
-      <c r="A36" s="281"/>
-      <c r="B36" s="279"/>
+      <c r="A36" s="283"/>
+      <c r="B36" s="281"/>
       <c r="C36" s="110">
         <v>43238</v>
       </c>
@@ -15333,8 +15333,8 @@
       <c r="I36" s="115"/>
     </row>
     <row r="37" spans="1:9" ht="17.25" thickTop="1" thickBot="1">
-      <c r="A37" s="281"/>
-      <c r="B37" s="285">
+      <c r="A37" s="283"/>
+      <c r="B37" s="287">
         <v>8</v>
       </c>
       <c r="C37" s="130">
@@ -15356,8 +15356,8 @@
       <c r="I37" s="126"/>
     </row>
     <row r="38" spans="1:9" ht="16.5" thickBot="1">
-      <c r="A38" s="281"/>
-      <c r="B38" s="286"/>
+      <c r="A38" s="283"/>
+      <c r="B38" s="288"/>
       <c r="C38" s="130">
         <v>43242</v>
       </c>
@@ -15373,8 +15373,8 @@
       <c r="I38" s="126"/>
     </row>
     <row r="39" spans="1:9" ht="16.5" thickBot="1">
-      <c r="A39" s="281"/>
-      <c r="B39" s="286"/>
+      <c r="A39" s="283"/>
+      <c r="B39" s="288"/>
       <c r="C39" s="130">
         <v>43243</v>
       </c>
@@ -15390,8 +15390,8 @@
       <c r="I39" s="126"/>
     </row>
     <row r="40" spans="1:9" ht="16.5" thickBot="1">
-      <c r="A40" s="281"/>
-      <c r="B40" s="286"/>
+      <c r="A40" s="283"/>
+      <c r="B40" s="288"/>
       <c r="C40" s="130">
         <v>43244</v>
       </c>
@@ -15407,8 +15407,8 @@
       <c r="I40" s="126"/>
     </row>
     <row r="41" spans="1:9" ht="27" thickBot="1">
-      <c r="A41" s="281"/>
-      <c r="B41" s="287"/>
+      <c r="A41" s="283"/>
+      <c r="B41" s="289"/>
       <c r="C41" s="130">
         <v>43245</v>
       </c>
@@ -15426,8 +15426,8 @@
       <c r="I41" s="126"/>
     </row>
     <row r="42" spans="1:9" ht="16.5" thickBot="1">
-      <c r="A42" s="281"/>
-      <c r="B42" s="284">
+      <c r="A42" s="283"/>
+      <c r="B42" s="286">
         <v>9</v>
       </c>
       <c r="C42" s="110">
@@ -15445,8 +15445,8 @@
       <c r="I42" s="115"/>
     </row>
     <row r="43" spans="1:9" ht="16.5" thickBot="1">
-      <c r="A43" s="281"/>
-      <c r="B43" s="276"/>
+      <c r="A43" s="283"/>
+      <c r="B43" s="278"/>
       <c r="C43" s="110">
         <v>43249</v>
       </c>
@@ -15462,8 +15462,8 @@
       <c r="I43" s="115"/>
     </row>
     <row r="44" spans="1:9" ht="16.5" thickBot="1">
-      <c r="A44" s="281"/>
-      <c r="B44" s="276"/>
+      <c r="A44" s="283"/>
+      <c r="B44" s="278"/>
       <c r="C44" s="110">
         <v>43250</v>
       </c>
@@ -15479,8 +15479,8 @@
       <c r="I44" s="115"/>
     </row>
     <row r="45" spans="1:9" ht="16.5" thickBot="1">
-      <c r="A45" s="281"/>
-      <c r="B45" s="276"/>
+      <c r="A45" s="283"/>
+      <c r="B45" s="278"/>
       <c r="C45" s="110">
         <v>43251</v>
       </c>
@@ -15496,8 +15496,8 @@
       <c r="I45" s="115"/>
     </row>
     <row r="46" spans="1:9" ht="16.5" thickBot="1">
-      <c r="A46" s="282"/>
-      <c r="B46" s="279"/>
+      <c r="A46" s="284"/>
+      <c r="B46" s="281"/>
       <c r="C46" s="117">
         <v>43252</v>
       </c>
@@ -15513,10 +15513,10 @@
       <c r="I46" s="121"/>
     </row>
     <row r="47" spans="1:9" ht="15.75" customHeight="1" thickTop="1" thickBot="1">
-      <c r="A47" s="269" t="s">
+      <c r="A47" s="271" t="s">
         <v>47</v>
       </c>
-      <c r="B47" s="272">
+      <c r="B47" s="274">
         <v>10</v>
       </c>
       <c r="C47" s="122">
@@ -15538,8 +15538,8 @@
       <c r="I47" s="126"/>
     </row>
     <row r="48" spans="1:9" ht="16.5" thickBot="1">
-      <c r="A48" s="270"/>
-      <c r="B48" s="273"/>
+      <c r="A48" s="272"/>
+      <c r="B48" s="275"/>
       <c r="C48" s="122">
         <v>43256</v>
       </c>
@@ -15555,8 +15555,8 @@
       <c r="I48" s="126"/>
     </row>
     <row r="49" spans="1:9" ht="16.5" thickBot="1">
-      <c r="A49" s="270"/>
-      <c r="B49" s="273"/>
+      <c r="A49" s="272"/>
+      <c r="B49" s="275"/>
       <c r="C49" s="122">
         <v>43257</v>
       </c>
@@ -15572,8 +15572,8 @@
       <c r="I49" s="126"/>
     </row>
     <row r="50" spans="1:9" ht="16.5" thickBot="1">
-      <c r="A50" s="270"/>
-      <c r="B50" s="273"/>
+      <c r="A50" s="272"/>
+      <c r="B50" s="275"/>
       <c r="C50" s="122">
         <v>43258</v>
       </c>
@@ -15589,8 +15589,8 @@
       <c r="I50" s="126"/>
     </row>
     <row r="51" spans="1:9" ht="27" thickBot="1">
-      <c r="A51" s="270"/>
-      <c r="B51" s="274"/>
+      <c r="A51" s="272"/>
+      <c r="B51" s="276"/>
       <c r="C51" s="122">
         <v>43259</v>
       </c>
@@ -15608,8 +15608,8 @@
       <c r="I51" s="126"/>
     </row>
     <row r="52" spans="1:9" ht="17.25" thickTop="1" thickBot="1">
-      <c r="A52" s="270"/>
-      <c r="B52" s="275">
+      <c r="A52" s="272"/>
+      <c r="B52" s="277">
         <v>11</v>
       </c>
       <c r="C52" s="110">
@@ -15627,8 +15627,8 @@
       <c r="I52" s="115"/>
     </row>
     <row r="53" spans="1:9" ht="16.5" thickBot="1">
-      <c r="A53" s="270"/>
-      <c r="B53" s="276"/>
+      <c r="A53" s="272"/>
+      <c r="B53" s="278"/>
       <c r="C53" s="110">
         <v>43263</v>
       </c>
@@ -15644,8 +15644,8 @@
       <c r="I53" s="115"/>
     </row>
     <row r="54" spans="1:9" ht="16.5" thickBot="1">
-      <c r="A54" s="270"/>
-      <c r="B54" s="276"/>
+      <c r="A54" s="272"/>
+      <c r="B54" s="278"/>
       <c r="C54" s="110">
         <v>43264</v>
       </c>
@@ -15661,8 +15661,8 @@
       <c r="I54" s="115"/>
     </row>
     <row r="55" spans="1:9" ht="16.5" thickBot="1">
-      <c r="A55" s="270"/>
-      <c r="B55" s="276"/>
+      <c r="A55" s="272"/>
+      <c r="B55" s="278"/>
       <c r="C55" s="110">
         <v>43265</v>
       </c>
@@ -15678,8 +15678,8 @@
       <c r="I55" s="115"/>
     </row>
     <row r="56" spans="1:9" ht="16.5" thickBot="1">
-      <c r="A56" s="270"/>
-      <c r="B56" s="277"/>
+      <c r="A56" s="272"/>
+      <c r="B56" s="279"/>
       <c r="C56" s="110">
         <v>43266</v>
       </c>
@@ -15695,8 +15695,8 @@
       <c r="I56" s="115"/>
     </row>
     <row r="57" spans="1:9" ht="16.5" thickBot="1">
-      <c r="A57" s="270"/>
-      <c r="B57" s="278">
+      <c r="A57" s="272"/>
+      <c r="B57" s="280">
         <v>12</v>
       </c>
       <c r="C57" s="122">
@@ -15718,8 +15718,8 @@
       <c r="I57" s="126"/>
     </row>
     <row r="58" spans="1:9" ht="16.5" thickBot="1">
-      <c r="A58" s="270"/>
-      <c r="B58" s="273"/>
+      <c r="A58" s="272"/>
+      <c r="B58" s="275"/>
       <c r="C58" s="122">
         <v>43270</v>
       </c>
@@ -15735,8 +15735,8 @@
       <c r="I58" s="126"/>
     </row>
     <row r="59" spans="1:9" ht="16.5" thickBot="1">
-      <c r="A59" s="270"/>
-      <c r="B59" s="273"/>
+      <c r="A59" s="272"/>
+      <c r="B59" s="275"/>
       <c r="C59" s="122">
         <v>43271</v>
       </c>
@@ -15752,8 +15752,8 @@
       <c r="I59" s="126"/>
     </row>
     <row r="60" spans="1:9" ht="16.5" thickBot="1">
-      <c r="A60" s="270"/>
-      <c r="B60" s="273"/>
+      <c r="A60" s="272"/>
+      <c r="B60" s="275"/>
       <c r="C60" s="122">
         <v>43272</v>
       </c>
@@ -15769,8 +15769,8 @@
       <c r="I60" s="126"/>
     </row>
     <row r="61" spans="1:9" ht="27" thickBot="1">
-      <c r="A61" s="271"/>
-      <c r="B61" s="274"/>
+      <c r="A61" s="273"/>
+      <c r="B61" s="276"/>
       <c r="C61" s="140">
         <v>43273</v>
       </c>
@@ -15788,10 +15788,10 @@
       <c r="I61" s="138"/>
     </row>
     <row r="62" spans="1:9" ht="15.75" customHeight="1" thickTop="1" thickBot="1">
-      <c r="A62" s="280" t="s">
+      <c r="A62" s="282" t="s">
         <v>627</v>
       </c>
-      <c r="B62" s="275">
+      <c r="B62" s="277">
         <v>13</v>
       </c>
       <c r="C62" s="110">
@@ -15809,8 +15809,8 @@
       <c r="I62" s="115"/>
     </row>
     <row r="63" spans="1:9" ht="16.5" thickBot="1">
-      <c r="A63" s="281"/>
-      <c r="B63" s="276"/>
+      <c r="A63" s="283"/>
+      <c r="B63" s="278"/>
       <c r="C63" s="110">
         <v>43277</v>
       </c>
@@ -15826,8 +15826,8 @@
       <c r="I63" s="115"/>
     </row>
     <row r="64" spans="1:9" ht="16.5" thickBot="1">
-      <c r="A64" s="281"/>
-      <c r="B64" s="276"/>
+      <c r="A64" s="283"/>
+      <c r="B64" s="278"/>
       <c r="C64" s="110">
         <v>43278</v>
       </c>
@@ -15843,8 +15843,8 @@
       <c r="I64" s="115"/>
     </row>
     <row r="65" spans="1:9" ht="16.5" thickBot="1">
-      <c r="A65" s="281"/>
-      <c r="B65" s="276"/>
+      <c r="A65" s="283"/>
+      <c r="B65" s="278"/>
       <c r="C65" s="110">
         <v>43279</v>
       </c>
@@ -15860,8 +15860,8 @@
       <c r="I65" s="115"/>
     </row>
     <row r="66" spans="1:9" ht="16.5" thickBot="1">
-      <c r="A66" s="281"/>
-      <c r="B66" s="279"/>
+      <c r="A66" s="283"/>
+      <c r="B66" s="281"/>
       <c r="C66" s="110">
         <v>43280</v>
       </c>
@@ -15877,8 +15877,8 @@
       <c r="I66" s="115"/>
     </row>
     <row r="67" spans="1:9" ht="17.25" thickTop="1" thickBot="1">
-      <c r="A67" s="281"/>
-      <c r="B67" s="285">
+      <c r="A67" s="283"/>
+      <c r="B67" s="287">
         <v>14</v>
       </c>
       <c r="C67" s="130">
@@ -15900,8 +15900,8 @@
       <c r="I67" s="126"/>
     </row>
     <row r="68" spans="1:9" ht="16.5" thickBot="1">
-      <c r="A68" s="281"/>
-      <c r="B68" s="286"/>
+      <c r="A68" s="283"/>
+      <c r="B68" s="288"/>
       <c r="C68" s="130">
         <v>43284</v>
       </c>
@@ -15917,8 +15917,8 @@
       <c r="I68" s="126"/>
     </row>
     <row r="69" spans="1:9" ht="16.5" thickBot="1">
-      <c r="A69" s="281"/>
-      <c r="B69" s="286"/>
+      <c r="A69" s="283"/>
+      <c r="B69" s="288"/>
       <c r="C69" s="130">
         <v>43285</v>
       </c>
@@ -15934,8 +15934,8 @@
       <c r="I69" s="126"/>
     </row>
     <row r="70" spans="1:9" ht="16.5" thickBot="1">
-      <c r="A70" s="281"/>
-      <c r="B70" s="286"/>
+      <c r="A70" s="283"/>
+      <c r="B70" s="288"/>
       <c r="C70" s="130">
         <v>43286</v>
       </c>
@@ -15951,8 +15951,8 @@
       <c r="I70" s="126"/>
     </row>
     <row r="71" spans="1:9" ht="16.5" thickBot="1">
-      <c r="A71" s="281"/>
-      <c r="B71" s="287"/>
+      <c r="A71" s="283"/>
+      <c r="B71" s="289"/>
       <c r="C71" s="130">
         <v>43287</v>
       </c>
@@ -15970,8 +15970,8 @@
       <c r="I71" s="126"/>
     </row>
     <row r="72" spans="1:9" ht="16.5" thickBot="1">
-      <c r="A72" s="281"/>
-      <c r="B72" s="284">
+      <c r="A72" s="283"/>
+      <c r="B72" s="286">
         <v>15</v>
       </c>
       <c r="C72" s="110">
@@ -15989,8 +15989,8 @@
       <c r="I72" s="115"/>
     </row>
     <row r="73" spans="1:9" ht="16.5" thickBot="1">
-      <c r="A73" s="281"/>
-      <c r="B73" s="276"/>
+      <c r="A73" s="283"/>
+      <c r="B73" s="278"/>
       <c r="C73" s="110">
         <v>43291</v>
       </c>
@@ -16006,8 +16006,8 @@
       <c r="I73" s="115"/>
     </row>
     <row r="74" spans="1:9" ht="16.5" thickBot="1">
-      <c r="A74" s="281"/>
-      <c r="B74" s="276"/>
+      <c r="A74" s="283"/>
+      <c r="B74" s="278"/>
       <c r="C74" s="110">
         <v>43292</v>
       </c>
@@ -16023,8 +16023,8 @@
       <c r="I74" s="115"/>
     </row>
     <row r="75" spans="1:9" ht="16.5" thickBot="1">
-      <c r="A75" s="281"/>
-      <c r="B75" s="276"/>
+      <c r="A75" s="283"/>
+      <c r="B75" s="278"/>
       <c r="C75" s="110">
         <v>43293</v>
       </c>
@@ -16040,8 +16040,8 @@
       <c r="I75" s="115"/>
     </row>
     <row r="76" spans="1:9" ht="16.5" thickBot="1">
-      <c r="A76" s="281"/>
-      <c r="B76" s="277"/>
+      <c r="A76" s="283"/>
+      <c r="B76" s="279"/>
       <c r="C76" s="110">
         <v>43294</v>
       </c>
@@ -16057,8 +16057,8 @@
       <c r="I76" s="115"/>
     </row>
     <row r="77" spans="1:9" ht="16.5" thickBot="1">
-      <c r="A77" s="281"/>
-      <c r="B77" s="288">
+      <c r="A77" s="283"/>
+      <c r="B77" s="290">
         <v>16</v>
       </c>
       <c r="C77" s="130">
@@ -16080,8 +16080,8 @@
       <c r="I77" s="126"/>
     </row>
     <row r="78" spans="1:9" ht="16.5" thickBot="1">
-      <c r="A78" s="281"/>
-      <c r="B78" s="286"/>
+      <c r="A78" s="283"/>
+      <c r="B78" s="288"/>
       <c r="C78" s="130">
         <v>43298</v>
       </c>
@@ -16097,8 +16097,8 @@
       <c r="I78" s="126"/>
     </row>
     <row r="79" spans="1:9" ht="16.5" thickBot="1">
-      <c r="A79" s="281"/>
-      <c r="B79" s="286"/>
+      <c r="A79" s="283"/>
+      <c r="B79" s="288"/>
       <c r="C79" s="130">
         <v>43299</v>
       </c>
@@ -16114,8 +16114,8 @@
       <c r="I79" s="126"/>
     </row>
     <row r="80" spans="1:9" ht="16.5" thickBot="1">
-      <c r="A80" s="281"/>
-      <c r="B80" s="286"/>
+      <c r="A80" s="283"/>
+      <c r="B80" s="288"/>
       <c r="C80" s="130">
         <v>43300</v>
       </c>
@@ -16131,8 +16131,8 @@
       <c r="I80" s="126"/>
     </row>
     <row r="81" spans="1:9" ht="16.5" thickBot="1">
-      <c r="A81" s="282"/>
-      <c r="B81" s="289"/>
+      <c r="A81" s="284"/>
+      <c r="B81" s="291"/>
       <c r="C81" s="134">
         <v>43301</v>
       </c>
@@ -16150,10 +16150,10 @@
       <c r="I81" s="138"/>
     </row>
     <row r="82" spans="1:9" ht="15.75" customHeight="1" thickTop="1" thickBot="1">
-      <c r="A82" s="280" t="s">
+      <c r="A82" s="282" t="s">
         <v>76</v>
       </c>
-      <c r="B82" s="275">
+      <c r="B82" s="277">
         <v>17</v>
       </c>
       <c r="C82" s="110">
@@ -16171,8 +16171,8 @@
       <c r="I82" s="115"/>
     </row>
     <row r="83" spans="1:9" ht="16.5" thickBot="1">
-      <c r="A83" s="281"/>
-      <c r="B83" s="276"/>
+      <c r="A83" s="283"/>
+      <c r="B83" s="278"/>
       <c r="C83" s="110">
         <v>43305</v>
       </c>
@@ -16188,8 +16188,8 @@
       <c r="I83" s="115"/>
     </row>
     <row r="84" spans="1:9" ht="16.5" thickBot="1">
-      <c r="A84" s="281"/>
-      <c r="B84" s="276"/>
+      <c r="A84" s="283"/>
+      <c r="B84" s="278"/>
       <c r="C84" s="110">
         <v>43306</v>
       </c>
@@ -16205,8 +16205,8 @@
       <c r="I84" s="115"/>
     </row>
     <row r="85" spans="1:9" ht="16.5" thickBot="1">
-      <c r="A85" s="281"/>
-      <c r="B85" s="276"/>
+      <c r="A85" s="283"/>
+      <c r="B85" s="278"/>
       <c r="C85" s="110">
         <v>43307</v>
       </c>
@@ -16222,8 +16222,8 @@
       <c r="I85" s="115"/>
     </row>
     <row r="86" spans="1:9" ht="16.5" thickBot="1">
-      <c r="A86" s="282"/>
-      <c r="B86" s="279"/>
+      <c r="A86" s="284"/>
+      <c r="B86" s="281"/>
       <c r="C86" s="117">
         <v>43308</v>
       </c>
@@ -16239,10 +16239,10 @@
       <c r="I86" s="121"/>
     </row>
     <row r="87" spans="1:9" ht="17.25" thickTop="1" thickBot="1">
-      <c r="A87" s="280" t="s">
+      <c r="A87" s="282" t="s">
         <v>632</v>
       </c>
-      <c r="B87" s="272">
+      <c r="B87" s="274">
         <v>18</v>
       </c>
       <c r="C87" s="122">
@@ -16264,8 +16264,8 @@
       <c r="I87" s="126"/>
     </row>
     <row r="88" spans="1:9" ht="16.5" thickBot="1">
-      <c r="A88" s="281"/>
-      <c r="B88" s="273"/>
+      <c r="A88" s="283"/>
+      <c r="B88" s="275"/>
       <c r="C88" s="122">
         <v>43312</v>
       </c>
@@ -16281,8 +16281,8 @@
       <c r="I88" s="126"/>
     </row>
     <row r="89" spans="1:9" ht="16.5" thickBot="1">
-      <c r="A89" s="281"/>
-      <c r="B89" s="273"/>
+      <c r="A89" s="283"/>
+      <c r="B89" s="275"/>
       <c r="C89" s="122">
         <v>43313</v>
       </c>
@@ -16298,8 +16298,8 @@
       <c r="I89" s="126"/>
     </row>
     <row r="90" spans="1:9" ht="16.5" thickBot="1">
-      <c r="A90" s="281"/>
-      <c r="B90" s="273"/>
+      <c r="A90" s="283"/>
+      <c r="B90" s="275"/>
       <c r="C90" s="122">
         <v>43314</v>
       </c>
@@ -16315,8 +16315,8 @@
       <c r="I90" s="126"/>
     </row>
     <row r="91" spans="1:9" ht="27" thickBot="1">
-      <c r="A91" s="281"/>
-      <c r="B91" s="283"/>
+      <c r="A91" s="283"/>
+      <c r="B91" s="285"/>
       <c r="C91" s="122">
         <v>43315</v>
       </c>
@@ -16334,8 +16334,8 @@
       <c r="I91" s="126"/>
     </row>
     <row r="92" spans="1:9" ht="16.5" thickBot="1">
-      <c r="A92" s="281"/>
-      <c r="B92" s="284">
+      <c r="A92" s="283"/>
+      <c r="B92" s="286">
         <v>19</v>
       </c>
       <c r="C92" s="110">
@@ -16353,8 +16353,8 @@
       <c r="I92" s="115"/>
     </row>
     <row r="93" spans="1:9" ht="16.5" thickBot="1">
-      <c r="A93" s="281"/>
-      <c r="B93" s="276"/>
+      <c r="A93" s="283"/>
+      <c r="B93" s="278"/>
       <c r="C93" s="110">
         <v>43319</v>
       </c>
@@ -16370,8 +16370,8 @@
       <c r="I93" s="115"/>
     </row>
     <row r="94" spans="1:9" ht="16.5" thickBot="1">
-      <c r="A94" s="281"/>
-      <c r="B94" s="276"/>
+      <c r="A94" s="283"/>
+      <c r="B94" s="278"/>
       <c r="C94" s="110">
         <v>43320</v>
       </c>
@@ -16387,8 +16387,8 @@
       <c r="I94" s="115"/>
     </row>
     <row r="95" spans="1:9" ht="16.5" thickBot="1">
-      <c r="A95" s="281"/>
-      <c r="B95" s="276"/>
+      <c r="A95" s="283"/>
+      <c r="B95" s="278"/>
       <c r="C95" s="110">
         <v>43321</v>
       </c>
@@ -16404,8 +16404,8 @@
       <c r="I95" s="115"/>
     </row>
     <row r="96" spans="1:9" ht="16.5" thickBot="1">
-      <c r="A96" s="281"/>
-      <c r="B96" s="277"/>
+      <c r="A96" s="283"/>
+      <c r="B96" s="279"/>
       <c r="C96" s="110">
         <v>43322</v>
       </c>
@@ -16421,8 +16421,8 @@
       <c r="I96" s="115"/>
     </row>
     <row r="97" spans="1:9" ht="16.5" thickBot="1">
-      <c r="A97" s="281"/>
-      <c r="B97" s="278">
+      <c r="A97" s="283"/>
+      <c r="B97" s="280">
         <v>20</v>
       </c>
       <c r="C97" s="122">
@@ -16442,8 +16442,8 @@
       <c r="I97" s="126"/>
     </row>
     <row r="98" spans="1:9" ht="16.5" thickBot="1">
-      <c r="A98" s="281"/>
-      <c r="B98" s="273"/>
+      <c r="A98" s="283"/>
+      <c r="B98" s="275"/>
       <c r="C98" s="122">
         <v>43326</v>
       </c>
@@ -16459,8 +16459,8 @@
       <c r="I98" s="126"/>
     </row>
     <row r="99" spans="1:9" ht="16.5" thickBot="1">
-      <c r="A99" s="281"/>
-      <c r="B99" s="273"/>
+      <c r="A99" s="283"/>
+      <c r="B99" s="275"/>
       <c r="C99" s="122">
         <v>43327</v>
       </c>
@@ -16476,8 +16476,8 @@
       <c r="I99" s="126"/>
     </row>
     <row r="100" spans="1:9" ht="16.5" thickBot="1">
-      <c r="A100" s="281"/>
-      <c r="B100" s="273"/>
+      <c r="A100" s="283"/>
+      <c r="B100" s="275"/>
       <c r="C100" s="122">
         <v>43328</v>
       </c>
@@ -16495,8 +16495,8 @@
       <c r="I100" s="126"/>
     </row>
     <row r="101" spans="1:9" ht="16.5" thickBot="1">
-      <c r="A101" s="282"/>
-      <c r="B101" s="274"/>
+      <c r="A101" s="284"/>
+      <c r="B101" s="276"/>
       <c r="C101" s="140">
         <v>43329</v>
       </c>
@@ -22847,8 +22847,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D31"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D15" sqref="D15"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="J29" sqref="J29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -22880,7 +22880,7 @@
       </c>
       <c r="D2" s="150">
         <f>SUM(D3:D11)</f>
-        <v>4.0800000000000003E-2</v>
+        <v>8.0399999999999999E-2</v>
       </c>
     </row>
     <row r="3" spans="1:4" ht="15.75">
@@ -22908,7 +22908,10 @@
       <c r="C4" s="61">
         <v>0.04</v>
       </c>
-      <c r="D4" s="57"/>
+      <c r="D4" s="57">
+        <f>C4*0.99</f>
+        <v>3.9600000000000003E-2</v>
+      </c>
     </row>
     <row r="5" spans="1:4" ht="15.75">
       <c r="A5" s="56" t="s">
@@ -23004,7 +23007,7 @@
       </c>
       <c r="D12" s="150">
         <f>SUM(D13:D20)</f>
-        <v>7.6399999999999996E-2</v>
+        <v>0.1196</v>
       </c>
     </row>
     <row r="13" spans="1:4" ht="15.75">
@@ -23047,7 +23050,10 @@
       <c r="C15" s="61">
         <v>0.04</v>
       </c>
-      <c r="D15" s="57"/>
+      <c r="D15" s="57">
+        <f>(0.98+0.1)*C15</f>
+        <v>4.3200000000000002E-2</v>
+      </c>
     </row>
     <row r="16" spans="1:4" ht="15.75">
       <c r="A16" s="56" t="s">
@@ -23228,7 +23234,7 @@
       </c>
       <c r="D31" s="67">
         <f>SUM(D2,D12,D21,D26,D27)</f>
-        <v>0.12720000000000001</v>
+        <v>0.21000000000000002</v>
       </c>
     </row>
   </sheetData>
@@ -23241,7 +23247,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:J82"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A57" workbookViewId="0">
+    <sheetView topLeftCell="A51" workbookViewId="0">
       <selection activeCell="B67" sqref="B67"/>
     </sheetView>
   </sheetViews>
@@ -23289,11 +23295,11 @@
       </c>
     </row>
     <row r="13" spans="1:10">
-      <c r="C13" s="292" t="s">
+      <c r="C13" s="294" t="s">
         <v>168</v>
       </c>
-      <c r="D13" s="293"/>
-      <c r="E13" s="294"/>
+      <c r="D13" s="295"/>
+      <c r="E13" s="296"/>
     </row>
     <row r="14" spans="1:10">
       <c r="C14" t="s">
@@ -23309,16 +23315,16 @@
       </c>
     </row>
     <row r="16" spans="1:10">
-      <c r="A16" s="292" t="s">
+      <c r="A16" s="294" t="s">
         <v>171</v>
       </c>
-      <c r="B16" s="293"/>
-      <c r="C16" s="294"/>
-      <c r="E16" s="292" t="s">
+      <c r="B16" s="295"/>
+      <c r="C16" s="296"/>
+      <c r="E16" s="294" t="s">
         <v>167</v>
       </c>
-      <c r="F16" s="293"/>
-      <c r="G16" s="294"/>
+      <c r="F16" s="295"/>
+      <c r="G16" s="296"/>
     </row>
     <row r="18" spans="1:6">
       <c r="B18" t="s">
@@ -23329,11 +23335,11 @@
       </c>
     </row>
     <row r="19" spans="1:6">
-      <c r="C19" s="292" t="s">
+      <c r="C19" s="294" t="s">
         <v>166</v>
       </c>
-      <c r="D19" s="293"/>
-      <c r="E19" s="294"/>
+      <c r="D19" s="295"/>
+      <c r="E19" s="296"/>
     </row>
     <row r="25" spans="1:6">
       <c r="A25" t="s">
@@ -23430,34 +23436,34 @@
       </c>
     </row>
     <row r="73" spans="1:2" ht="23.25">
-      <c r="A73" s="298"/>
+      <c r="A73" s="188"/>
     </row>
     <row r="74" spans="1:2">
-      <c r="A74" s="299"/>
+      <c r="A74" s="189"/>
     </row>
     <row r="75" spans="1:2">
-      <c r="A75" s="299"/>
+      <c r="A75" s="189"/>
     </row>
     <row r="76" spans="1:2">
-      <c r="A76" s="299"/>
+      <c r="A76" s="189"/>
     </row>
     <row r="77" spans="1:2">
-      <c r="A77" s="299"/>
+      <c r="A77" s="189"/>
     </row>
     <row r="78" spans="1:2">
-      <c r="A78" s="299"/>
+      <c r="A78" s="189"/>
     </row>
     <row r="79" spans="1:2">
-      <c r="A79" s="299"/>
+      <c r="A79" s="189"/>
     </row>
     <row r="80" spans="1:2">
-      <c r="A80" s="299"/>
+      <c r="A80" s="189"/>
     </row>
     <row r="81" spans="1:1">
-      <c r="A81" s="299"/>
+      <c r="A81" s="189"/>
     </row>
     <row r="82" spans="1:1">
-      <c r="A82" s="299"/>
+      <c r="A82" s="189"/>
     </row>
   </sheetData>
   <mergeCells count="4">
@@ -25574,21 +25580,21 @@
     </row>
     <row r="319" spans="1:11" ht="15.75" thickBot="1"/>
     <row r="320" spans="1:11" ht="15.75" thickBot="1">
-      <c r="A320" s="295" t="s">
+      <c r="A320" s="297" t="s">
         <v>243</v>
       </c>
-      <c r="B320" s="296"/>
-      <c r="C320" s="297"/>
-      <c r="E320" s="295" t="s">
+      <c r="B320" s="298"/>
+      <c r="C320" s="299"/>
+      <c r="E320" s="297" t="s">
         <v>249</v>
       </c>
-      <c r="F320" s="296"/>
-      <c r="G320" s="297"/>
-      <c r="I320" s="295" t="s">
+      <c r="F320" s="298"/>
+      <c r="G320" s="299"/>
+      <c r="I320" s="297" t="s">
         <v>946</v>
       </c>
-      <c r="J320" s="296"/>
-      <c r="K320" s="297"/>
+      <c r="J320" s="298"/>
+      <c r="K320" s="299"/>
     </row>
     <row r="321" spans="1:11" ht="15.75" thickBot="1">
       <c r="A321" s="155" t="s">

--- a/General/Curriculum (Personalized).xlsx
+++ b/General/Curriculum (Personalized).xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="13485" windowHeight="11415" firstSheet="1" activeTab="2"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="13485" windowHeight="11415" firstSheet="6" activeTab="7"/>
   </bookViews>
   <sheets>
     <sheet name="Curriculum" sheetId="1" r:id="rId1"/>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1409" uniqueCount="991">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1420" uniqueCount="1001">
   <si>
     <t>Week</t>
   </si>
@@ -10071,6 +10071,100 @@
   </si>
   <si>
     <t>No-SQL, SQL</t>
+  </si>
+  <si>
+    <t>https://angular.io/tutorial/toh-pt0</t>
+  </si>
+  <si>
+    <r>
+      <t>Components</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t> are the fundamental building blocks of Angular applications. They display data on the screen, listen for user input, and take action based on that input.</t>
+    </r>
+  </si>
+  <si>
+    <t>Angular Components</t>
+  </si>
+  <si>
+    <r>
+      <t>You'll find the implementation of the shell </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color rgb="FF333333"/>
+        <rFont val="Droid Sans Mono"/>
+        <family val="3"/>
+      </rPr>
+      <t>AppComponent</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t> distributed over three files:</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>1. app.component.ts</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>— the component class code, written in TypeScript.</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>2. app.component.html</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>— the component template, written in HTML.</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>3. app.component.css</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>— the component's private CSS styles.</t>
+    </r>
+  </si>
+  <si>
+    <t>Angular CLI</t>
+  </si>
+  <si>
+    <t>Angular now has its own CLI, or command line interface, which will do most of the routine operations for you.</t>
+  </si>
+  <si>
+    <t>https://www.toptal.com/angular/angular-5-tutorial</t>
   </si>
 </sst>
 </file>
@@ -10080,7 +10174,7 @@
   <numFmts count="1">
     <numFmt numFmtId="6" formatCode="&quot;$&quot;#,##0_);[Red]\(&quot;$&quot;#,##0\)"/>
   </numFmts>
-  <fonts count="52">
+  <fonts count="55">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -10442,6 +10536,25 @@
       <color rgb="FF333333"/>
       <name val="Arial"/>
       <family val="2"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="9"/>
+      <color rgb="FF333333"/>
+      <name val="Droid Sans Mono"/>
+      <family val="3"/>
     </font>
   </fonts>
   <fills count="9">
@@ -11400,7 +11513,7 @@
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="25" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="300">
+  <cellXfs count="303">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -11883,115 +11996,67 @@
     <xf numFmtId="0" fontId="51" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="35" xfId="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="5" borderId="35" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="5" borderId="38" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="33" xfId="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="35" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="38" xfId="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="5" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="4" borderId="52" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="4" borderId="53" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="33" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="35" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="38" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="33" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="6" xfId="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="33" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="35" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="5" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="5" borderId="34" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="5" borderId="36" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="23" xfId="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="5" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="14" fillId="5" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="5" borderId="23" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="5" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="5" borderId="37" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="32" xfId="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="23" xfId="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="37" xfId="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="34" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="5" borderId="31" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="32" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="5" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="34" xfId="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="36" xfId="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="37" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="5" borderId="23" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="5" borderId="37" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="5" borderId="32" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="31" xfId="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="32" xfId="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="5" xfId="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="32" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="32" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="23" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="5" borderId="32" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="32" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -11999,6 +12064,21 @@
     </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -12009,55 +12089,25 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="23" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="5" borderId="32" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="5" borderId="1" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="23" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="37" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="32" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="23" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="5" borderId="31" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -12078,71 +12128,116 @@
     <xf numFmtId="0" fontId="1" fillId="3" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="23" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="5" borderId="1" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="37" xfId="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="35" xfId="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="38" xfId="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="37" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="4" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="5" borderId="32" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="32" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="23" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="36" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="5" borderId="36" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="5" borderId="37" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="5" borderId="37" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="37" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="35" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="38" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="35" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="32" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="33" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="33" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="5" borderId="35" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="5" borderId="38" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="5" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="5" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="5" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="52" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="4" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="53" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="4" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="5" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="33" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="6" xfId="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="5" xfId="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="33" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="32" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="35" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="35" fillId="0" borderId="63" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="35" fillId="0" borderId="55" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="35" fillId="0" borderId="56" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="64" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="57" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="58" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="14" fillId="5" borderId="64" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center" wrapText="1"/>
@@ -12150,13 +12245,19 @@
     <xf numFmtId="0" fontId="14" fillId="5" borderId="57" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="5" borderId="62" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="14" fillId="5" borderId="58" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="14" fillId="2" borderId="64" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="5" borderId="58" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="14" fillId="2" borderId="57" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="2" borderId="62" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="5" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="35" fillId="2" borderId="63" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -12168,20 +12269,29 @@
     <xf numFmtId="0" fontId="35" fillId="2" borderId="56" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="57" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="14" fillId="0" borderId="62" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="5" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="14" fillId="5" borderId="62" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="2" borderId="64" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="35" fillId="0" borderId="65" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="2" borderId="57" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="35" fillId="0" borderId="66" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="2" borderId="62" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="35" fillId="0" borderId="55" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="35" fillId="0" borderId="56" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="14" fillId="2" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center" wrapText="1"/>
@@ -12189,10 +12299,13 @@
     <xf numFmtId="0" fontId="14" fillId="2" borderId="58" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="35" fillId="0" borderId="65" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="64" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="35" fillId="0" borderId="66" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="58" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="35" fillId="0" borderId="63" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="24" xfId="0" applyBorder="1" applyAlignment="1">
@@ -12212,6 +12325,15 @@
     </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="44" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="52" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="53" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="54" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="3">
@@ -13231,21 +13353,21 @@
       <c r="H1" s="35" t="s">
         <v>193</v>
       </c>
-      <c r="I1" s="263" t="s">
+      <c r="I1" s="190" t="s">
         <v>7</v>
       </c>
-      <c r="J1" s="264"/>
-      <c r="K1" s="265"/>
-      <c r="L1" s="197" t="s">
+      <c r="J1" s="191"/>
+      <c r="K1" s="192"/>
+      <c r="L1" s="265" t="s">
         <v>8</v>
       </c>
-      <c r="M1" s="198"/>
+      <c r="M1" s="266"/>
     </row>
     <row r="2" spans="1:13" ht="15.75" customHeight="1">
-      <c r="A2" s="226">
+      <c r="A2" s="223">
         <v>1</v>
       </c>
-      <c r="B2" s="229" t="s">
+      <c r="B2" s="218" t="s">
         <v>9</v>
       </c>
       <c r="C2" s="8" t="s">
@@ -13254,145 +13376,145 @@
       <c r="D2" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="E2" s="220" t="s">
+      <c r="E2" s="205" t="s">
         <v>12</v>
       </c>
-      <c r="F2" s="269"/>
-      <c r="G2" s="221"/>
-      <c r="H2" s="221"/>
-      <c r="I2" s="221" t="s">
+      <c r="F2" s="207"/>
+      <c r="G2" s="198"/>
+      <c r="H2" s="198"/>
+      <c r="I2" s="198" t="s">
         <v>10</v>
       </c>
-      <c r="J2" s="221" t="s">
+      <c r="J2" s="198" t="s">
         <v>14</v>
       </c>
-      <c r="K2" s="221" t="s">
+      <c r="K2" s="198" t="s">
         <v>15</v>
       </c>
-      <c r="L2" s="193" t="s">
+      <c r="L2" s="259" t="s">
         <v>16</v>
       </c>
-      <c r="M2" s="193" t="s">
+      <c r="M2" s="259" t="s">
         <v>327</v>
       </c>
     </row>
     <row r="3" spans="1:13" ht="15.75" customHeight="1">
-      <c r="A3" s="227"/>
-      <c r="B3" s="230"/>
+      <c r="A3" s="211"/>
+      <c r="B3" s="219"/>
       <c r="C3" s="32" t="s">
         <v>17</v>
       </c>
       <c r="D3" s="4" t="s">
         <v>18</v>
       </c>
-      <c r="E3" s="215"/>
-      <c r="F3" s="242"/>
-      <c r="G3" s="212"/>
-      <c r="H3" s="212"/>
-      <c r="I3" s="212"/>
-      <c r="J3" s="212"/>
-      <c r="K3" s="212"/>
-      <c r="L3" s="190"/>
-      <c r="M3" s="190"/>
+      <c r="E3" s="200"/>
+      <c r="F3" s="208"/>
+      <c r="G3" s="194"/>
+      <c r="H3" s="194"/>
+      <c r="I3" s="194"/>
+      <c r="J3" s="194"/>
+      <c r="K3" s="194"/>
+      <c r="L3" s="242"/>
+      <c r="M3" s="242"/>
     </row>
     <row r="4" spans="1:13" ht="15.75" customHeight="1">
-      <c r="A4" s="227"/>
-      <c r="B4" s="230"/>
+      <c r="A4" s="211"/>
+      <c r="B4" s="219"/>
       <c r="C4" s="32" t="s">
         <v>19</v>
       </c>
       <c r="D4" s="4" t="s">
         <v>20</v>
       </c>
-      <c r="E4" s="215"/>
-      <c r="F4" s="242"/>
-      <c r="G4" s="212"/>
-      <c r="H4" s="212"/>
-      <c r="I4" s="212"/>
-      <c r="J4" s="212"/>
-      <c r="K4" s="212"/>
-      <c r="L4" s="190"/>
-      <c r="M4" s="190"/>
+      <c r="E4" s="200"/>
+      <c r="F4" s="208"/>
+      <c r="G4" s="194"/>
+      <c r="H4" s="194"/>
+      <c r="I4" s="194"/>
+      <c r="J4" s="194"/>
+      <c r="K4" s="194"/>
+      <c r="L4" s="242"/>
+      <c r="M4" s="242"/>
     </row>
     <row r="5" spans="1:13" ht="15.75" customHeight="1">
-      <c r="A5" s="227"/>
-      <c r="B5" s="230"/>
+      <c r="A5" s="211"/>
+      <c r="B5" s="219"/>
       <c r="C5" s="32" t="s">
         <v>21</v>
       </c>
       <c r="D5" s="4"/>
-      <c r="E5" s="215"/>
-      <c r="F5" s="242"/>
-      <c r="G5" s="212"/>
-      <c r="H5" s="212"/>
-      <c r="I5" s="212"/>
-      <c r="J5" s="212"/>
-      <c r="K5" s="212"/>
-      <c r="L5" s="190"/>
-      <c r="M5" s="190"/>
+      <c r="E5" s="200"/>
+      <c r="F5" s="208"/>
+      <c r="G5" s="194"/>
+      <c r="H5" s="194"/>
+      <c r="I5" s="194"/>
+      <c r="J5" s="194"/>
+      <c r="K5" s="194"/>
+      <c r="L5" s="242"/>
+      <c r="M5" s="242"/>
     </row>
     <row r="6" spans="1:13" ht="15.75" customHeight="1">
-      <c r="A6" s="227"/>
-      <c r="B6" s="230"/>
+      <c r="A6" s="211"/>
+      <c r="B6" s="219"/>
       <c r="C6" s="32" t="s">
         <v>14</v>
       </c>
       <c r="D6" s="4" t="s">
         <v>22</v>
       </c>
-      <c r="E6" s="215"/>
-      <c r="F6" s="242"/>
-      <c r="G6" s="212"/>
-      <c r="H6" s="212"/>
-      <c r="I6" s="212"/>
-      <c r="J6" s="212"/>
-      <c r="K6" s="212"/>
-      <c r="L6" s="190"/>
-      <c r="M6" s="190"/>
+      <c r="E6" s="200"/>
+      <c r="F6" s="208"/>
+      <c r="G6" s="194"/>
+      <c r="H6" s="194"/>
+      <c r="I6" s="194"/>
+      <c r="J6" s="194"/>
+      <c r="K6" s="194"/>
+      <c r="L6" s="242"/>
+      <c r="M6" s="242"/>
     </row>
     <row r="7" spans="1:13" ht="15.75" customHeight="1">
-      <c r="A7" s="227"/>
-      <c r="B7" s="230"/>
+      <c r="A7" s="211"/>
+      <c r="B7" s="219"/>
       <c r="C7" s="32" t="s">
         <v>15</v>
       </c>
       <c r="D7" s="4" t="s">
         <v>20</v>
       </c>
-      <c r="E7" s="215"/>
-      <c r="F7" s="242"/>
-      <c r="G7" s="212"/>
-      <c r="H7" s="212"/>
-      <c r="I7" s="212"/>
-      <c r="J7" s="212"/>
-      <c r="K7" s="212"/>
-      <c r="L7" s="190"/>
-      <c r="M7" s="190"/>
+      <c r="E7" s="200"/>
+      <c r="F7" s="208"/>
+      <c r="G7" s="194"/>
+      <c r="H7" s="194"/>
+      <c r="I7" s="194"/>
+      <c r="J7" s="194"/>
+      <c r="K7" s="194"/>
+      <c r="L7" s="242"/>
+      <c r="M7" s="242"/>
     </row>
     <row r="8" spans="1:13" ht="15.75" customHeight="1" thickBot="1">
-      <c r="A8" s="228"/>
-      <c r="B8" s="231"/>
+      <c r="A8" s="212"/>
+      <c r="B8" s="220"/>
       <c r="C8" s="9" t="s">
         <v>23</v>
       </c>
       <c r="D8" s="5" t="s">
         <v>24</v>
       </c>
-      <c r="E8" s="268"/>
-      <c r="F8" s="270"/>
-      <c r="G8" s="267"/>
-      <c r="H8" s="267"/>
-      <c r="I8" s="267"/>
-      <c r="J8" s="267"/>
-      <c r="K8" s="267"/>
-      <c r="L8" s="203"/>
-      <c r="M8" s="203"/>
+      <c r="E8" s="206"/>
+      <c r="F8" s="209"/>
+      <c r="G8" s="199"/>
+      <c r="H8" s="199"/>
+      <c r="I8" s="199"/>
+      <c r="J8" s="199"/>
+      <c r="K8" s="199"/>
+      <c r="L8" s="268"/>
+      <c r="M8" s="268"/>
     </row>
     <row r="9" spans="1:13" ht="15.75" customHeight="1">
-      <c r="A9" s="233">
+      <c r="A9" s="236">
         <v>2</v>
       </c>
-      <c r="B9" s="229" t="s">
+      <c r="B9" s="218" t="s">
         <v>25</v>
       </c>
       <c r="C9" s="10" t="s">
@@ -13401,864 +13523,864 @@
       <c r="D9" s="3" t="s">
         <v>286</v>
       </c>
-      <c r="E9" s="246"/>
-      <c r="F9" s="225" t="s">
+      <c r="E9" s="201"/>
+      <c r="F9" s="202" t="s">
         <v>192</v>
       </c>
-      <c r="G9" s="240" t="s">
+      <c r="G9" s="204" t="s">
         <v>13</v>
       </c>
-      <c r="H9" s="224"/>
-      <c r="I9" s="244" t="s">
+      <c r="H9" s="245"/>
+      <c r="I9" s="246" t="s">
         <v>184</v>
       </c>
-      <c r="J9" s="225" t="s">
+      <c r="J9" s="202" t="s">
         <v>194</v>
       </c>
-      <c r="K9" s="225" t="s">
+      <c r="K9" s="202" t="s">
         <v>195</v>
       </c>
-      <c r="L9" s="240" t="s">
+      <c r="L9" s="204" t="s">
         <v>328</v>
       </c>
-      <c r="M9" s="204"/>
+      <c r="M9" s="269"/>
     </row>
     <row r="10" spans="1:13" ht="15.75" customHeight="1">
       <c r="A10" s="234"/>
-      <c r="B10" s="230"/>
+      <c r="B10" s="219"/>
       <c r="C10" s="11" t="s">
         <v>26</v>
       </c>
       <c r="D10" s="4"/>
-      <c r="E10" s="207"/>
-      <c r="F10" s="214"/>
-      <c r="G10" s="218"/>
-      <c r="H10" s="210"/>
-      <c r="I10" s="245"/>
-      <c r="J10" s="214"/>
-      <c r="K10" s="214"/>
-      <c r="L10" s="241"/>
-      <c r="M10" s="205"/>
+      <c r="E10" s="193"/>
+      <c r="F10" s="203"/>
+      <c r="G10" s="196"/>
+      <c r="H10" s="197"/>
+      <c r="I10" s="247"/>
+      <c r="J10" s="203"/>
+      <c r="K10" s="203"/>
+      <c r="L10" s="240"/>
+      <c r="M10" s="270"/>
     </row>
     <row r="11" spans="1:13" ht="15.75" customHeight="1" thickBot="1">
-      <c r="A11" s="252">
+      <c r="A11" s="231">
         <v>3</v>
       </c>
-      <c r="B11" s="230"/>
+      <c r="B11" s="219"/>
       <c r="C11" s="11" t="s">
         <v>263</v>
       </c>
       <c r="D11" s="4"/>
-      <c r="E11" s="215"/>
-      <c r="F11" s="242"/>
-      <c r="G11" s="212"/>
-      <c r="H11" s="212" t="s">
+      <c r="E11" s="200"/>
+      <c r="F11" s="208"/>
+      <c r="G11" s="194"/>
+      <c r="H11" s="194" t="s">
         <v>198</v>
       </c>
-      <c r="I11" s="212" t="s">
+      <c r="I11" s="194" t="s">
         <v>196</v>
       </c>
-      <c r="J11" s="212"/>
-      <c r="K11" s="212"/>
+      <c r="J11" s="194"/>
+      <c r="K11" s="194"/>
       <c r="L11" s="239" t="s">
         <v>329</v>
       </c>
-      <c r="M11" s="190"/>
+      <c r="M11" s="242"/>
     </row>
     <row r="12" spans="1:13" ht="15.75" customHeight="1">
-      <c r="A12" s="253"/>
-      <c r="B12" s="230"/>
+      <c r="A12" s="232"/>
+      <c r="B12" s="219"/>
       <c r="C12" s="11" t="s">
         <v>28</v>
       </c>
       <c r="D12" s="10"/>
-      <c r="E12" s="215"/>
-      <c r="F12" s="242"/>
-      <c r="G12" s="212"/>
-      <c r="H12" s="212"/>
-      <c r="I12" s="212"/>
-      <c r="J12" s="212"/>
-      <c r="K12" s="212"/>
+      <c r="E12" s="200"/>
+      <c r="F12" s="208"/>
+      <c r="G12" s="194"/>
+      <c r="H12" s="194"/>
+      <c r="I12" s="194"/>
+      <c r="J12" s="194"/>
+      <c r="K12" s="194"/>
       <c r="L12" s="239"/>
-      <c r="M12" s="190"/>
+      <c r="M12" s="242"/>
     </row>
     <row r="13" spans="1:13" ht="15.75" customHeight="1">
-      <c r="A13" s="254">
+      <c r="A13" s="233">
         <v>4</v>
       </c>
-      <c r="B13" s="230"/>
+      <c r="B13" s="219"/>
       <c r="C13" s="11" t="s">
         <v>29</v>
       </c>
       <c r="D13" s="11"/>
-      <c r="E13" s="207"/>
-      <c r="F13" s="266" t="s">
+      <c r="E13" s="193"/>
+      <c r="F13" s="195" t="s">
         <v>36</v>
       </c>
-      <c r="G13" s="218" t="s">
+      <c r="G13" s="196" t="s">
         <v>33</v>
       </c>
-      <c r="H13" s="210"/>
-      <c r="I13" s="218" t="s">
+      <c r="H13" s="197"/>
+      <c r="I13" s="196" t="s">
         <v>330</v>
       </c>
-      <c r="J13" s="210"/>
-      <c r="K13" s="210"/>
-      <c r="L13" s="191"/>
-      <c r="M13" s="191"/>
+      <c r="J13" s="197"/>
+      <c r="K13" s="197"/>
+      <c r="L13" s="260"/>
+      <c r="M13" s="260"/>
     </row>
     <row r="14" spans="1:13" ht="15.75" customHeight="1">
       <c r="A14" s="234"/>
-      <c r="B14" s="230"/>
+      <c r="B14" s="219"/>
       <c r="C14" s="32" t="s">
         <v>30</v>
       </c>
       <c r="D14" s="4"/>
-      <c r="E14" s="207"/>
-      <c r="F14" s="266"/>
-      <c r="G14" s="218"/>
-      <c r="H14" s="210"/>
-      <c r="I14" s="218"/>
-      <c r="J14" s="210"/>
-      <c r="K14" s="210"/>
-      <c r="L14" s="191"/>
-      <c r="M14" s="191"/>
+      <c r="E14" s="193"/>
+      <c r="F14" s="195"/>
+      <c r="G14" s="196"/>
+      <c r="H14" s="197"/>
+      <c r="I14" s="196"/>
+      <c r="J14" s="197"/>
+      <c r="K14" s="197"/>
+      <c r="L14" s="260"/>
+      <c r="M14" s="260"/>
     </row>
     <row r="15" spans="1:13" ht="15.75" customHeight="1">
-      <c r="A15" s="252">
+      <c r="A15" s="231">
         <v>5</v>
       </c>
-      <c r="B15" s="230"/>
+      <c r="B15" s="219"/>
       <c r="C15" s="237" t="s">
         <v>31</v>
       </c>
       <c r="D15" s="4"/>
-      <c r="E15" s="215" t="s">
+      <c r="E15" s="200" t="s">
         <v>27</v>
       </c>
-      <c r="F15" s="242"/>
-      <c r="G15" s="212"/>
-      <c r="H15" s="212"/>
-      <c r="I15" s="212"/>
-      <c r="J15" s="212"/>
-      <c r="K15" s="212"/>
-      <c r="L15" s="190"/>
-      <c r="M15" s="190"/>
+      <c r="F15" s="208"/>
+      <c r="G15" s="194"/>
+      <c r="H15" s="194"/>
+      <c r="I15" s="194"/>
+      <c r="J15" s="194"/>
+      <c r="K15" s="194"/>
+      <c r="L15" s="242"/>
+      <c r="M15" s="242"/>
     </row>
     <row r="16" spans="1:13" ht="15.75" customHeight="1" thickBot="1">
-      <c r="A16" s="255"/>
-      <c r="B16" s="232"/>
+      <c r="A16" s="235"/>
+      <c r="B16" s="224"/>
       <c r="C16" s="238"/>
       <c r="D16" s="5"/>
-      <c r="E16" s="216"/>
-      <c r="F16" s="243"/>
-      <c r="G16" s="213"/>
-      <c r="H16" s="213"/>
-      <c r="I16" s="213"/>
-      <c r="J16" s="213"/>
-      <c r="K16" s="213"/>
-      <c r="L16" s="195"/>
-      <c r="M16" s="195"/>
+      <c r="E16" s="248"/>
+      <c r="F16" s="244"/>
+      <c r="G16" s="241"/>
+      <c r="H16" s="241"/>
+      <c r="I16" s="241"/>
+      <c r="J16" s="241"/>
+      <c r="K16" s="241"/>
+      <c r="L16" s="243"/>
+      <c r="M16" s="243"/>
     </row>
     <row r="17" spans="1:13" ht="15.75" customHeight="1">
-      <c r="A17" s="256">
+      <c r="A17" s="221">
         <v>6</v>
       </c>
-      <c r="B17" s="229" t="s">
+      <c r="B17" s="218" t="s">
         <v>34</v>
       </c>
       <c r="C17" s="10" t="s">
         <v>35</v>
       </c>
       <c r="D17" s="3"/>
-      <c r="E17" s="246"/>
-      <c r="F17" s="224"/>
-      <c r="G17" s="224"/>
-      <c r="H17" s="225" t="s">
+      <c r="E17" s="201"/>
+      <c r="F17" s="245"/>
+      <c r="G17" s="245"/>
+      <c r="H17" s="202" t="s">
         <v>27</v>
       </c>
-      <c r="I17" s="225"/>
-      <c r="J17" s="225"/>
-      <c r="K17" s="225"/>
-      <c r="L17" s="199"/>
-      <c r="M17" s="199"/>
+      <c r="I17" s="202"/>
+      <c r="J17" s="202"/>
+      <c r="K17" s="202"/>
+      <c r="L17" s="267"/>
+      <c r="M17" s="267"/>
     </row>
     <row r="18" spans="1:13" ht="15.75" customHeight="1">
-      <c r="A18" s="235"/>
-      <c r="B18" s="230"/>
+      <c r="A18" s="210"/>
+      <c r="B18" s="219"/>
       <c r="C18" s="11" t="s">
         <v>37</v>
       </c>
       <c r="D18" s="4"/>
-      <c r="E18" s="207"/>
-      <c r="F18" s="210"/>
-      <c r="G18" s="210"/>
-      <c r="H18" s="214"/>
-      <c r="I18" s="214"/>
-      <c r="J18" s="214"/>
-      <c r="K18" s="214"/>
-      <c r="L18" s="194"/>
-      <c r="M18" s="194"/>
+      <c r="E18" s="193"/>
+      <c r="F18" s="197"/>
+      <c r="G18" s="197"/>
+      <c r="H18" s="203"/>
+      <c r="I18" s="203"/>
+      <c r="J18" s="203"/>
+      <c r="K18" s="203"/>
+      <c r="L18" s="253"/>
+      <c r="M18" s="253"/>
     </row>
     <row r="19" spans="1:13" ht="15.75" customHeight="1">
-      <c r="A19" s="235"/>
-      <c r="B19" s="230"/>
+      <c r="A19" s="210"/>
+      <c r="B19" s="219"/>
       <c r="C19" s="11" t="s">
         <v>38</v>
       </c>
       <c r="D19" s="4"/>
-      <c r="E19" s="207"/>
-      <c r="F19" s="210"/>
-      <c r="G19" s="210"/>
-      <c r="H19" s="214"/>
-      <c r="I19" s="214"/>
-      <c r="J19" s="214"/>
-      <c r="K19" s="214"/>
-      <c r="L19" s="194"/>
-      <c r="M19" s="194"/>
+      <c r="E19" s="193"/>
+      <c r="F19" s="197"/>
+      <c r="G19" s="197"/>
+      <c r="H19" s="203"/>
+      <c r="I19" s="203"/>
+      <c r="J19" s="203"/>
+      <c r="K19" s="203"/>
+      <c r="L19" s="253"/>
+      <c r="M19" s="253"/>
     </row>
     <row r="20" spans="1:13" ht="15.75" customHeight="1">
-      <c r="A20" s="227">
+      <c r="A20" s="211">
         <v>7</v>
       </c>
-      <c r="B20" s="230"/>
+      <c r="B20" s="219"/>
       <c r="C20" s="11" t="s">
         <v>39</v>
       </c>
       <c r="D20" s="4"/>
-      <c r="E20" s="215" t="s">
+      <c r="E20" s="200" t="s">
         <v>32</v>
       </c>
-      <c r="F20" s="223" t="s">
+      <c r="F20" s="255" t="s">
         <v>44</v>
       </c>
-      <c r="G20" s="223"/>
-      <c r="H20" s="223"/>
-      <c r="I20" s="223"/>
-      <c r="J20" s="223"/>
-      <c r="K20" s="223"/>
-      <c r="L20" s="200"/>
-      <c r="M20" s="200"/>
+      <c r="G20" s="255"/>
+      <c r="H20" s="255"/>
+      <c r="I20" s="255"/>
+      <c r="J20" s="255"/>
+      <c r="K20" s="255"/>
+      <c r="L20" s="256"/>
+      <c r="M20" s="256"/>
     </row>
     <row r="21" spans="1:13" ht="15.75" customHeight="1">
-      <c r="A21" s="227"/>
-      <c r="B21" s="230"/>
+      <c r="A21" s="211"/>
+      <c r="B21" s="219"/>
       <c r="C21" s="11" t="s">
         <v>41</v>
       </c>
       <c r="D21" s="4"/>
-      <c r="E21" s="215"/>
-      <c r="F21" s="223"/>
-      <c r="G21" s="223"/>
-      <c r="H21" s="223"/>
-      <c r="I21" s="223"/>
-      <c r="J21" s="223"/>
-      <c r="K21" s="223"/>
-      <c r="L21" s="200"/>
-      <c r="M21" s="200"/>
+      <c r="E21" s="200"/>
+      <c r="F21" s="255"/>
+      <c r="G21" s="255"/>
+      <c r="H21" s="255"/>
+      <c r="I21" s="255"/>
+      <c r="J21" s="255"/>
+      <c r="K21" s="255"/>
+      <c r="L21" s="256"/>
+      <c r="M21" s="256"/>
     </row>
     <row r="22" spans="1:13" ht="15.75" customHeight="1">
-      <c r="A22" s="227"/>
-      <c r="B22" s="230"/>
+      <c r="A22" s="211"/>
+      <c r="B22" s="219"/>
       <c r="C22" s="32" t="s">
         <v>42</v>
       </c>
       <c r="D22" s="4"/>
-      <c r="E22" s="215"/>
-      <c r="F22" s="223"/>
-      <c r="G22" s="223"/>
-      <c r="H22" s="223"/>
-      <c r="I22" s="223"/>
-      <c r="J22" s="223"/>
-      <c r="K22" s="223"/>
-      <c r="L22" s="200"/>
-      <c r="M22" s="200"/>
+      <c r="E22" s="200"/>
+      <c r="F22" s="255"/>
+      <c r="G22" s="255"/>
+      <c r="H22" s="255"/>
+      <c r="I22" s="255"/>
+      <c r="J22" s="255"/>
+      <c r="K22" s="255"/>
+      <c r="L22" s="256"/>
+      <c r="M22" s="256"/>
     </row>
     <row r="23" spans="1:13" ht="15.75" customHeight="1">
-      <c r="A23" s="235">
+      <c r="A23" s="210">
         <v>8</v>
       </c>
-      <c r="B23" s="230"/>
+      <c r="B23" s="219"/>
       <c r="C23" s="32" t="s">
         <v>43</v>
       </c>
       <c r="D23" s="4"/>
-      <c r="E23" s="207"/>
-      <c r="F23" s="210"/>
-      <c r="G23" s="218" t="s">
+      <c r="E23" s="193"/>
+      <c r="F23" s="197"/>
+      <c r="G23" s="196" t="s">
         <v>50</v>
       </c>
-      <c r="H23" s="214" t="s">
+      <c r="H23" s="203" t="s">
         <v>32</v>
       </c>
-      <c r="I23" s="214"/>
-      <c r="J23" s="214"/>
-      <c r="K23" s="214"/>
-      <c r="L23" s="194"/>
-      <c r="M23" s="194"/>
+      <c r="I23" s="203"/>
+      <c r="J23" s="203"/>
+      <c r="K23" s="203"/>
+      <c r="L23" s="253"/>
+      <c r="M23" s="253"/>
     </row>
     <row r="24" spans="1:13" ht="15.75" customHeight="1">
-      <c r="A24" s="235"/>
-      <c r="B24" s="230"/>
+      <c r="A24" s="210"/>
+      <c r="B24" s="219"/>
       <c r="C24" s="32" t="s">
         <v>45</v>
       </c>
       <c r="D24" s="4"/>
-      <c r="E24" s="207"/>
-      <c r="F24" s="210"/>
-      <c r="G24" s="218"/>
-      <c r="H24" s="214"/>
-      <c r="I24" s="214"/>
-      <c r="J24" s="214"/>
-      <c r="K24" s="214"/>
-      <c r="L24" s="194"/>
-      <c r="M24" s="194"/>
+      <c r="E24" s="193"/>
+      <c r="F24" s="197"/>
+      <c r="G24" s="196"/>
+      <c r="H24" s="203"/>
+      <c r="I24" s="203"/>
+      <c r="J24" s="203"/>
+      <c r="K24" s="203"/>
+      <c r="L24" s="253"/>
+      <c r="M24" s="253"/>
     </row>
     <row r="25" spans="1:13" ht="15.75" customHeight="1" thickBot="1">
-      <c r="A25" s="236"/>
-      <c r="B25" s="232"/>
+      <c r="A25" s="227"/>
+      <c r="B25" s="224"/>
       <c r="C25" s="33" t="s">
         <v>46</v>
       </c>
       <c r="D25" s="5"/>
-      <c r="E25" s="208"/>
-      <c r="F25" s="211"/>
-      <c r="G25" s="219"/>
-      <c r="H25" s="217"/>
-      <c r="I25" s="217"/>
-      <c r="J25" s="217"/>
-      <c r="K25" s="217"/>
-      <c r="L25" s="201"/>
-      <c r="M25" s="201"/>
+      <c r="E25" s="249"/>
+      <c r="F25" s="250"/>
+      <c r="G25" s="251"/>
+      <c r="H25" s="252"/>
+      <c r="I25" s="252"/>
+      <c r="J25" s="252"/>
+      <c r="K25" s="252"/>
+      <c r="L25" s="254"/>
+      <c r="M25" s="254"/>
     </row>
     <row r="26" spans="1:13" ht="15.75" customHeight="1">
-      <c r="A26" s="247">
+      <c r="A26" s="225">
         <v>9</v>
       </c>
-      <c r="B26" s="229" t="s">
+      <c r="B26" s="218" t="s">
         <v>47</v>
       </c>
       <c r="C26" s="12" t="s">
         <v>48</v>
       </c>
       <c r="D26" s="3"/>
-      <c r="E26" s="220" t="s">
+      <c r="E26" s="205" t="s">
         <v>40</v>
       </c>
-      <c r="F26" s="222" t="s">
+      <c r="F26" s="257" t="s">
         <v>53</v>
       </c>
-      <c r="G26" s="222"/>
-      <c r="H26" s="222"/>
-      <c r="I26" s="222"/>
-      <c r="J26" s="222"/>
-      <c r="K26" s="222"/>
-      <c r="L26" s="202"/>
-      <c r="M26" s="202"/>
+      <c r="G26" s="257"/>
+      <c r="H26" s="257"/>
+      <c r="I26" s="257"/>
+      <c r="J26" s="257"/>
+      <c r="K26" s="257"/>
+      <c r="L26" s="258"/>
+      <c r="M26" s="258"/>
     </row>
     <row r="27" spans="1:13" ht="15.75" customHeight="1">
-      <c r="A27" s="248"/>
-      <c r="B27" s="230"/>
+      <c r="A27" s="226"/>
+      <c r="B27" s="219"/>
       <c r="C27" s="13" t="s">
         <v>51</v>
       </c>
       <c r="D27" s="4"/>
-      <c r="E27" s="215"/>
-      <c r="F27" s="223"/>
-      <c r="G27" s="223"/>
-      <c r="H27" s="223"/>
-      <c r="I27" s="223"/>
-      <c r="J27" s="223"/>
-      <c r="K27" s="223"/>
-      <c r="L27" s="200"/>
-      <c r="M27" s="200"/>
+      <c r="E27" s="200"/>
+      <c r="F27" s="255"/>
+      <c r="G27" s="255"/>
+      <c r="H27" s="255"/>
+      <c r="I27" s="255"/>
+      <c r="J27" s="255"/>
+      <c r="K27" s="255"/>
+      <c r="L27" s="256"/>
+      <c r="M27" s="256"/>
     </row>
     <row r="28" spans="1:13" ht="15.75" customHeight="1">
-      <c r="A28" s="236">
+      <c r="A28" s="227">
         <v>10</v>
       </c>
-      <c r="B28" s="230"/>
+      <c r="B28" s="219"/>
       <c r="C28" s="13" t="s">
         <v>52</v>
       </c>
       <c r="D28" s="4"/>
-      <c r="E28" s="207"/>
-      <c r="F28" s="214" t="s">
+      <c r="E28" s="193"/>
+      <c r="F28" s="203" t="s">
         <v>59</v>
       </c>
-      <c r="G28" s="214"/>
-      <c r="H28" s="214" t="s">
+      <c r="G28" s="203"/>
+      <c r="H28" s="203" t="s">
         <v>40</v>
       </c>
-      <c r="I28" s="214"/>
-      <c r="J28" s="214"/>
-      <c r="K28" s="214"/>
-      <c r="L28" s="194"/>
-      <c r="M28" s="194"/>
+      <c r="I28" s="203"/>
+      <c r="J28" s="203"/>
+      <c r="K28" s="203"/>
+      <c r="L28" s="253"/>
+      <c r="M28" s="253"/>
     </row>
     <row r="29" spans="1:13" ht="15.75" customHeight="1">
-      <c r="A29" s="249"/>
-      <c r="B29" s="230"/>
+      <c r="A29" s="228"/>
+      <c r="B29" s="219"/>
       <c r="C29" s="13" t="s">
         <v>54</v>
       </c>
       <c r="D29" s="4"/>
-      <c r="E29" s="207"/>
-      <c r="F29" s="214"/>
-      <c r="G29" s="214"/>
-      <c r="H29" s="214"/>
-      <c r="I29" s="214"/>
-      <c r="J29" s="214"/>
-      <c r="K29" s="214"/>
-      <c r="L29" s="194"/>
-      <c r="M29" s="194"/>
+      <c r="E29" s="193"/>
+      <c r="F29" s="203"/>
+      <c r="G29" s="203"/>
+      <c r="H29" s="203"/>
+      <c r="I29" s="203"/>
+      <c r="J29" s="203"/>
+      <c r="K29" s="203"/>
+      <c r="L29" s="253"/>
+      <c r="M29" s="253"/>
     </row>
     <row r="30" spans="1:13" ht="15.75" customHeight="1">
-      <c r="A30" s="250">
+      <c r="A30" s="229">
         <v>11</v>
       </c>
-      <c r="B30" s="230"/>
+      <c r="B30" s="219"/>
       <c r="C30" s="13" t="s">
         <v>55</v>
       </c>
       <c r="D30" s="4"/>
-      <c r="E30" s="215" t="s">
+      <c r="E30" s="200" t="s">
         <v>49</v>
       </c>
-      <c r="F30" s="212"/>
-      <c r="G30" s="212"/>
-      <c r="H30" s="212"/>
-      <c r="I30" s="212"/>
-      <c r="J30" s="212"/>
-      <c r="K30" s="212"/>
-      <c r="L30" s="190"/>
-      <c r="M30" s="190"/>
+      <c r="F30" s="194"/>
+      <c r="G30" s="194"/>
+      <c r="H30" s="194"/>
+      <c r="I30" s="194"/>
+      <c r="J30" s="194"/>
+      <c r="K30" s="194"/>
+      <c r="L30" s="242"/>
+      <c r="M30" s="242"/>
     </row>
     <row r="31" spans="1:13" ht="15.75" customHeight="1">
-      <c r="A31" s="248"/>
-      <c r="B31" s="230"/>
+      <c r="A31" s="226"/>
+      <c r="B31" s="219"/>
       <c r="C31" s="14" t="s">
         <v>57</v>
       </c>
       <c r="D31" s="4"/>
-      <c r="E31" s="215"/>
-      <c r="F31" s="212"/>
-      <c r="G31" s="212"/>
-      <c r="H31" s="212"/>
-      <c r="I31" s="212"/>
-      <c r="J31" s="212"/>
-      <c r="K31" s="212"/>
-      <c r="L31" s="190"/>
-      <c r="M31" s="190"/>
+      <c r="E31" s="200"/>
+      <c r="F31" s="194"/>
+      <c r="G31" s="194"/>
+      <c r="H31" s="194"/>
+      <c r="I31" s="194"/>
+      <c r="J31" s="194"/>
+      <c r="K31" s="194"/>
+      <c r="L31" s="242"/>
+      <c r="M31" s="242"/>
     </row>
     <row r="32" spans="1:13" ht="15.75" customHeight="1">
-      <c r="A32" s="236">
+      <c r="A32" s="227">
         <v>12</v>
       </c>
-      <c r="B32" s="230"/>
+      <c r="B32" s="219"/>
       <c r="C32" s="14" t="s">
         <v>58</v>
       </c>
       <c r="D32" s="4"/>
-      <c r="E32" s="207"/>
-      <c r="F32" s="214" t="s">
+      <c r="E32" s="193"/>
+      <c r="F32" s="203" t="s">
         <v>67</v>
       </c>
-      <c r="G32" s="218" t="s">
+      <c r="G32" s="196" t="s">
         <v>64</v>
       </c>
-      <c r="H32" s="214" t="s">
+      <c r="H32" s="203" t="s">
         <v>49</v>
       </c>
-      <c r="I32" s="214"/>
-      <c r="J32" s="214"/>
-      <c r="K32" s="214"/>
-      <c r="L32" s="194"/>
-      <c r="M32" s="194"/>
+      <c r="I32" s="203"/>
+      <c r="J32" s="203"/>
+      <c r="K32" s="203"/>
+      <c r="L32" s="253"/>
+      <c r="M32" s="253"/>
     </row>
     <row r="33" spans="1:13" ht="15.75" customHeight="1" thickBot="1">
-      <c r="A33" s="251"/>
-      <c r="B33" s="232"/>
+      <c r="A33" s="230"/>
+      <c r="B33" s="224"/>
       <c r="C33" s="15" t="s">
         <v>60</v>
       </c>
       <c r="D33" s="5"/>
-      <c r="E33" s="208"/>
-      <c r="F33" s="217"/>
-      <c r="G33" s="219"/>
-      <c r="H33" s="217"/>
-      <c r="I33" s="217"/>
-      <c r="J33" s="217"/>
-      <c r="K33" s="217"/>
-      <c r="L33" s="201"/>
-      <c r="M33" s="201"/>
+      <c r="E33" s="249"/>
+      <c r="F33" s="252"/>
+      <c r="G33" s="251"/>
+      <c r="H33" s="252"/>
+      <c r="I33" s="252"/>
+      <c r="J33" s="252"/>
+      <c r="K33" s="252"/>
+      <c r="L33" s="254"/>
+      <c r="M33" s="254"/>
     </row>
     <row r="34" spans="1:13" ht="15.75" customHeight="1">
-      <c r="A34" s="226">
+      <c r="A34" s="223">
         <v>13</v>
       </c>
-      <c r="B34" s="229" t="s">
+      <c r="B34" s="218" t="s">
         <v>61</v>
       </c>
       <c r="C34" s="16" t="s">
         <v>62</v>
       </c>
       <c r="D34" s="3"/>
-      <c r="E34" s="220" t="s">
+      <c r="E34" s="205" t="s">
         <v>56</v>
       </c>
-      <c r="F34" s="221"/>
-      <c r="G34" s="221"/>
-      <c r="H34" s="221"/>
-      <c r="I34" s="221"/>
-      <c r="J34" s="221"/>
-      <c r="K34" s="221"/>
-      <c r="L34" s="193"/>
-      <c r="M34" s="193"/>
+      <c r="F34" s="198"/>
+      <c r="G34" s="198"/>
+      <c r="H34" s="198"/>
+      <c r="I34" s="198"/>
+      <c r="J34" s="198"/>
+      <c r="K34" s="198"/>
+      <c r="L34" s="259"/>
+      <c r="M34" s="259"/>
     </row>
     <row r="35" spans="1:13" ht="15.75" customHeight="1">
-      <c r="A35" s="227"/>
-      <c r="B35" s="230"/>
+      <c r="A35" s="211"/>
+      <c r="B35" s="219"/>
       <c r="C35" s="17" t="s">
         <v>65</v>
       </c>
       <c r="D35" s="4"/>
-      <c r="E35" s="215"/>
-      <c r="F35" s="212"/>
-      <c r="G35" s="212"/>
-      <c r="H35" s="212"/>
-      <c r="I35" s="212"/>
-      <c r="J35" s="212"/>
-      <c r="K35" s="212"/>
-      <c r="L35" s="190"/>
-      <c r="M35" s="190"/>
+      <c r="E35" s="200"/>
+      <c r="F35" s="194"/>
+      <c r="G35" s="194"/>
+      <c r="H35" s="194"/>
+      <c r="I35" s="194"/>
+      <c r="J35" s="194"/>
+      <c r="K35" s="194"/>
+      <c r="L35" s="242"/>
+      <c r="M35" s="242"/>
     </row>
     <row r="36" spans="1:13" ht="15.75" customHeight="1">
-      <c r="A36" s="235">
+      <c r="A36" s="210">
         <v>14</v>
       </c>
-      <c r="B36" s="230"/>
+      <c r="B36" s="219"/>
       <c r="C36" s="17" t="s">
         <v>66</v>
       </c>
       <c r="D36" s="4"/>
-      <c r="E36" s="207"/>
-      <c r="F36" s="210" t="s">
+      <c r="E36" s="193"/>
+      <c r="F36" s="197" t="s">
         <v>73</v>
       </c>
-      <c r="G36" s="210"/>
-      <c r="H36" s="210" t="s">
+      <c r="G36" s="197"/>
+      <c r="H36" s="197" t="s">
         <v>56</v>
       </c>
-      <c r="I36" s="210"/>
-      <c r="J36" s="210"/>
-      <c r="K36" s="210"/>
-      <c r="L36" s="191"/>
-      <c r="M36" s="191"/>
+      <c r="I36" s="197"/>
+      <c r="J36" s="197"/>
+      <c r="K36" s="197"/>
+      <c r="L36" s="260"/>
+      <c r="M36" s="260"/>
     </row>
     <row r="37" spans="1:13" ht="15.75" customHeight="1">
-      <c r="A37" s="235"/>
-      <c r="B37" s="230"/>
+      <c r="A37" s="210"/>
+      <c r="B37" s="219"/>
       <c r="C37" s="17" t="s">
         <v>68</v>
       </c>
       <c r="D37" s="4"/>
-      <c r="E37" s="207"/>
-      <c r="F37" s="210"/>
-      <c r="G37" s="210"/>
-      <c r="H37" s="210"/>
-      <c r="I37" s="210"/>
-      <c r="J37" s="210"/>
-      <c r="K37" s="210"/>
-      <c r="L37" s="191"/>
-      <c r="M37" s="191"/>
+      <c r="E37" s="193"/>
+      <c r="F37" s="197"/>
+      <c r="G37" s="197"/>
+      <c r="H37" s="197"/>
+      <c r="I37" s="197"/>
+      <c r="J37" s="197"/>
+      <c r="K37" s="197"/>
+      <c r="L37" s="260"/>
+      <c r="M37" s="260"/>
     </row>
     <row r="38" spans="1:13" ht="15.75" customHeight="1">
-      <c r="A38" s="227">
+      <c r="A38" s="211">
         <v>15</v>
       </c>
-      <c r="B38" s="230"/>
+      <c r="B38" s="219"/>
       <c r="C38" s="17" t="s">
         <v>69</v>
       </c>
       <c r="D38" s="4"/>
-      <c r="E38" s="215" t="s">
+      <c r="E38" s="200" t="s">
         <v>63</v>
       </c>
-      <c r="F38" s="212"/>
-      <c r="G38" s="212"/>
-      <c r="H38" s="212"/>
-      <c r="I38" s="212"/>
-      <c r="J38" s="212"/>
-      <c r="K38" s="212"/>
-      <c r="L38" s="190"/>
-      <c r="M38" s="190"/>
+      <c r="F38" s="194"/>
+      <c r="G38" s="194"/>
+      <c r="H38" s="194"/>
+      <c r="I38" s="194"/>
+      <c r="J38" s="194"/>
+      <c r="K38" s="194"/>
+      <c r="L38" s="242"/>
+      <c r="M38" s="242"/>
     </row>
     <row r="39" spans="1:13" ht="15.75" customHeight="1">
-      <c r="A39" s="227"/>
-      <c r="B39" s="230"/>
+      <c r="A39" s="211"/>
+      <c r="B39" s="219"/>
       <c r="C39" s="32" t="s">
         <v>71</v>
       </c>
       <c r="D39" s="4"/>
-      <c r="E39" s="215"/>
-      <c r="F39" s="212"/>
-      <c r="G39" s="212"/>
-      <c r="H39" s="212"/>
-      <c r="I39" s="212"/>
-      <c r="J39" s="212"/>
-      <c r="K39" s="212"/>
-      <c r="L39" s="190"/>
-      <c r="M39" s="190"/>
+      <c r="E39" s="200"/>
+      <c r="F39" s="194"/>
+      <c r="G39" s="194"/>
+      <c r="H39" s="194"/>
+      <c r="I39" s="194"/>
+      <c r="J39" s="194"/>
+      <c r="K39" s="194"/>
+      <c r="L39" s="242"/>
+      <c r="M39" s="242"/>
     </row>
     <row r="40" spans="1:13" ht="15.75" customHeight="1">
-      <c r="A40" s="235">
+      <c r="A40" s="210">
         <v>16</v>
       </c>
-      <c r="B40" s="230"/>
+      <c r="B40" s="219"/>
       <c r="C40" s="32" t="s">
         <v>72</v>
       </c>
       <c r="D40" s="4"/>
-      <c r="E40" s="207"/>
-      <c r="F40" s="214" t="s">
+      <c r="E40" s="193"/>
+      <c r="F40" s="203" t="s">
         <v>82</v>
       </c>
-      <c r="G40" s="218" t="s">
+      <c r="G40" s="196" t="s">
         <v>79</v>
       </c>
-      <c r="H40" s="210" t="s">
+      <c r="H40" s="197" t="s">
         <v>63</v>
       </c>
-      <c r="I40" s="210"/>
-      <c r="J40" s="210"/>
-      <c r="K40" s="210"/>
-      <c r="L40" s="191"/>
-      <c r="M40" s="191"/>
+      <c r="I40" s="197"/>
+      <c r="J40" s="197"/>
+      <c r="K40" s="197"/>
+      <c r="L40" s="260"/>
+      <c r="M40" s="260"/>
     </row>
     <row r="41" spans="1:13" ht="15.75" customHeight="1">
-      <c r="A41" s="235"/>
-      <c r="B41" s="230"/>
+      <c r="A41" s="210"/>
+      <c r="B41" s="219"/>
       <c r="C41" s="32" t="s">
         <v>74</v>
       </c>
       <c r="D41" s="4"/>
-      <c r="E41" s="207"/>
-      <c r="F41" s="214"/>
-      <c r="G41" s="218"/>
-      <c r="H41" s="210"/>
-      <c r="I41" s="210"/>
-      <c r="J41" s="210"/>
-      <c r="K41" s="210"/>
-      <c r="L41" s="191"/>
-      <c r="M41" s="191"/>
+      <c r="E41" s="193"/>
+      <c r="F41" s="203"/>
+      <c r="G41" s="196"/>
+      <c r="H41" s="197"/>
+      <c r="I41" s="197"/>
+      <c r="J41" s="197"/>
+      <c r="K41" s="197"/>
+      <c r="L41" s="260"/>
+      <c r="M41" s="260"/>
     </row>
     <row r="42" spans="1:13" ht="15.75" customHeight="1" thickBot="1">
-      <c r="A42" s="262"/>
-      <c r="B42" s="231"/>
+      <c r="A42" s="222"/>
+      <c r="B42" s="220"/>
       <c r="C42" s="9" t="s">
         <v>75</v>
       </c>
       <c r="D42" s="5"/>
-      <c r="E42" s="208"/>
-      <c r="F42" s="217"/>
-      <c r="G42" s="219"/>
-      <c r="H42" s="211"/>
-      <c r="I42" s="211"/>
-      <c r="J42" s="211"/>
-      <c r="K42" s="211"/>
-      <c r="L42" s="192"/>
-      <c r="M42" s="192"/>
+      <c r="E42" s="249"/>
+      <c r="F42" s="252"/>
+      <c r="G42" s="251"/>
+      <c r="H42" s="250"/>
+      <c r="I42" s="250"/>
+      <c r="J42" s="250"/>
+      <c r="K42" s="250"/>
+      <c r="L42" s="261"/>
+      <c r="M42" s="261"/>
     </row>
     <row r="43" spans="1:13" ht="15.75" customHeight="1">
-      <c r="A43" s="226">
+      <c r="A43" s="223">
         <v>17</v>
       </c>
-      <c r="B43" s="257" t="s">
+      <c r="B43" s="213" t="s">
         <v>76</v>
       </c>
       <c r="C43" s="10" t="s">
         <v>77</v>
       </c>
       <c r="D43" s="3"/>
-      <c r="E43" s="220" t="s">
+      <c r="E43" s="205" t="s">
         <v>70</v>
       </c>
-      <c r="F43" s="221"/>
-      <c r="G43" s="221"/>
-      <c r="H43" s="221"/>
-      <c r="I43" s="221"/>
-      <c r="J43" s="221"/>
-      <c r="K43" s="221"/>
-      <c r="L43" s="193"/>
-      <c r="M43" s="193"/>
+      <c r="F43" s="198"/>
+      <c r="G43" s="198"/>
+      <c r="H43" s="198"/>
+      <c r="I43" s="198"/>
+      <c r="J43" s="198"/>
+      <c r="K43" s="198"/>
+      <c r="L43" s="259"/>
+      <c r="M43" s="259"/>
     </row>
     <row r="44" spans="1:13" ht="15.75" customHeight="1">
-      <c r="A44" s="227"/>
-      <c r="B44" s="258"/>
+      <c r="A44" s="211"/>
+      <c r="B44" s="214"/>
       <c r="C44" s="11" t="s">
         <v>80</v>
       </c>
       <c r="D44" s="4"/>
-      <c r="E44" s="215"/>
-      <c r="F44" s="212"/>
-      <c r="G44" s="212"/>
-      <c r="H44" s="212"/>
-      <c r="I44" s="212"/>
-      <c r="J44" s="212"/>
-      <c r="K44" s="212"/>
-      <c r="L44" s="190"/>
-      <c r="M44" s="190"/>
+      <c r="E44" s="200"/>
+      <c r="F44" s="194"/>
+      <c r="G44" s="194"/>
+      <c r="H44" s="194"/>
+      <c r="I44" s="194"/>
+      <c r="J44" s="194"/>
+      <c r="K44" s="194"/>
+      <c r="L44" s="242"/>
+      <c r="M44" s="242"/>
     </row>
     <row r="45" spans="1:13" ht="15.75" customHeight="1">
-      <c r="A45" s="235">
+      <c r="A45" s="210">
         <v>18</v>
       </c>
-      <c r="B45" s="258"/>
+      <c r="B45" s="214"/>
       <c r="C45" s="11" t="s">
         <v>81</v>
       </c>
       <c r="D45" s="4"/>
-      <c r="E45" s="207"/>
-      <c r="F45" s="214" t="s">
+      <c r="E45" s="193"/>
+      <c r="F45" s="203" t="s">
         <v>197</v>
       </c>
-      <c r="G45" s="210"/>
-      <c r="H45" s="214" t="s">
+      <c r="G45" s="197"/>
+      <c r="H45" s="203" t="s">
         <v>70</v>
       </c>
-      <c r="I45" s="214"/>
-      <c r="J45" s="214"/>
-      <c r="K45" s="214"/>
-      <c r="L45" s="194"/>
-      <c r="M45" s="194"/>
+      <c r="I45" s="203"/>
+      <c r="J45" s="203"/>
+      <c r="K45" s="203"/>
+      <c r="L45" s="253"/>
+      <c r="M45" s="253"/>
     </row>
     <row r="46" spans="1:13" ht="15.75" customHeight="1">
-      <c r="A46" s="235"/>
-      <c r="B46" s="258"/>
+      <c r="A46" s="210"/>
+      <c r="B46" s="214"/>
       <c r="C46" s="11" t="s">
         <v>83</v>
       </c>
       <c r="D46" s="4"/>
-      <c r="E46" s="207"/>
-      <c r="F46" s="214"/>
-      <c r="G46" s="210"/>
-      <c r="H46" s="214"/>
-      <c r="I46" s="214"/>
-      <c r="J46" s="214"/>
-      <c r="K46" s="214"/>
-      <c r="L46" s="194"/>
-      <c r="M46" s="194"/>
+      <c r="E46" s="193"/>
+      <c r="F46" s="203"/>
+      <c r="G46" s="197"/>
+      <c r="H46" s="203"/>
+      <c r="I46" s="203"/>
+      <c r="J46" s="203"/>
+      <c r="K46" s="203"/>
+      <c r="L46" s="253"/>
+      <c r="M46" s="253"/>
     </row>
     <row r="47" spans="1:13" ht="15.75" customHeight="1">
-      <c r="A47" s="227">
+      <c r="A47" s="211">
         <v>19</v>
       </c>
-      <c r="B47" s="258"/>
-      <c r="C47" s="260" t="s">
+      <c r="B47" s="214"/>
+      <c r="C47" s="216" t="s">
         <v>84</v>
       </c>
       <c r="D47" s="4"/>
-      <c r="E47" s="215" t="s">
+      <c r="E47" s="200" t="s">
         <v>78</v>
       </c>
-      <c r="F47" s="212"/>
-      <c r="G47" s="212"/>
-      <c r="H47" s="212"/>
-      <c r="I47" s="212"/>
-      <c r="J47" s="212"/>
-      <c r="K47" s="212"/>
-      <c r="L47" s="190"/>
-      <c r="M47" s="190"/>
+      <c r="F47" s="194"/>
+      <c r="G47" s="194"/>
+      <c r="H47" s="194"/>
+      <c r="I47" s="194"/>
+      <c r="J47" s="194"/>
+      <c r="K47" s="194"/>
+      <c r="L47" s="242"/>
+      <c r="M47" s="242"/>
     </row>
     <row r="48" spans="1:13" ht="15.75" customHeight="1" thickBot="1">
-      <c r="A48" s="228"/>
-      <c r="B48" s="259"/>
-      <c r="C48" s="261"/>
+      <c r="A48" s="212"/>
+      <c r="B48" s="215"/>
+      <c r="C48" s="217"/>
       <c r="D48" s="5"/>
-      <c r="E48" s="216"/>
-      <c r="F48" s="213"/>
-      <c r="G48" s="213"/>
-      <c r="H48" s="213"/>
-      <c r="I48" s="213"/>
-      <c r="J48" s="213"/>
-      <c r="K48" s="213"/>
-      <c r="L48" s="195"/>
-      <c r="M48" s="195"/>
+      <c r="E48" s="248"/>
+      <c r="F48" s="241"/>
+      <c r="G48" s="241"/>
+      <c r="H48" s="241"/>
+      <c r="I48" s="241"/>
+      <c r="J48" s="241"/>
+      <c r="K48" s="241"/>
+      <c r="L48" s="243"/>
+      <c r="M48" s="243"/>
     </row>
     <row r="49" spans="1:13" ht="15.75" customHeight="1">
-      <c r="A49" s="256">
+      <c r="A49" s="221">
         <v>20</v>
       </c>
-      <c r="B49" s="229" t="s">
+      <c r="B49" s="218" t="s">
         <v>85</v>
       </c>
       <c r="C49" s="10" t="s">
         <v>86</v>
       </c>
       <c r="D49" s="6"/>
-      <c r="E49" s="206"/>
-      <c r="F49" s="209"/>
-      <c r="G49" s="209"/>
-      <c r="H49" s="209" t="s">
+      <c r="E49" s="262"/>
+      <c r="F49" s="263"/>
+      <c r="G49" s="263"/>
+      <c r="H49" s="263" t="s">
         <v>78</v>
       </c>
-      <c r="I49" s="209"/>
-      <c r="J49" s="209"/>
-      <c r="K49" s="209"/>
-      <c r="L49" s="196"/>
-      <c r="M49" s="196"/>
+      <c r="I49" s="263"/>
+      <c r="J49" s="263"/>
+      <c r="K49" s="263"/>
+      <c r="L49" s="264"/>
+      <c r="M49" s="264"/>
     </row>
     <row r="50" spans="1:13" ht="15.75" customHeight="1">
-      <c r="A50" s="235"/>
-      <c r="B50" s="230"/>
+      <c r="A50" s="210"/>
+      <c r="B50" s="219"/>
       <c r="C50" s="11" t="s">
         <v>87</v>
       </c>
       <c r="D50" s="4"/>
-      <c r="E50" s="207"/>
-      <c r="F50" s="210"/>
-      <c r="G50" s="210"/>
-      <c r="H50" s="210"/>
-      <c r="I50" s="210"/>
-      <c r="J50" s="210"/>
-      <c r="K50" s="210"/>
-      <c r="L50" s="191"/>
-      <c r="M50" s="191"/>
+      <c r="E50" s="193"/>
+      <c r="F50" s="197"/>
+      <c r="G50" s="197"/>
+      <c r="H50" s="197"/>
+      <c r="I50" s="197"/>
+      <c r="J50" s="197"/>
+      <c r="K50" s="197"/>
+      <c r="L50" s="260"/>
+      <c r="M50" s="260"/>
     </row>
     <row r="51" spans="1:13" ht="15.75" customHeight="1">
-      <c r="A51" s="235"/>
-      <c r="B51" s="230"/>
+      <c r="A51" s="210"/>
+      <c r="B51" s="219"/>
       <c r="C51" s="11" t="s">
         <v>88</v>
       </c>
       <c r="D51" s="4"/>
-      <c r="E51" s="207"/>
-      <c r="F51" s="210"/>
-      <c r="G51" s="210"/>
-      <c r="H51" s="210"/>
-      <c r="I51" s="210"/>
-      <c r="J51" s="210"/>
-      <c r="K51" s="210"/>
-      <c r="L51" s="191"/>
-      <c r="M51" s="191"/>
+      <c r="E51" s="193"/>
+      <c r="F51" s="197"/>
+      <c r="G51" s="197"/>
+      <c r="H51" s="197"/>
+      <c r="I51" s="197"/>
+      <c r="J51" s="197"/>
+      <c r="K51" s="197"/>
+      <c r="L51" s="260"/>
+      <c r="M51" s="260"/>
     </row>
     <row r="52" spans="1:13" ht="15.75" customHeight="1" thickBot="1">
-      <c r="A52" s="262"/>
-      <c r="B52" s="231"/>
+      <c r="A52" s="222"/>
+      <c r="B52" s="220"/>
       <c r="C52" s="18" t="s">
         <v>89</v>
       </c>
       <c r="D52" s="5"/>
-      <c r="E52" s="208"/>
-      <c r="F52" s="211"/>
-      <c r="G52" s="211"/>
-      <c r="H52" s="211"/>
-      <c r="I52" s="211"/>
-      <c r="J52" s="211"/>
-      <c r="K52" s="211"/>
-      <c r="L52" s="192"/>
-      <c r="M52" s="192"/>
+      <c r="E52" s="249"/>
+      <c r="F52" s="250"/>
+      <c r="G52" s="250"/>
+      <c r="H52" s="250"/>
+      <c r="I52" s="250"/>
+      <c r="J52" s="250"/>
+      <c r="K52" s="250"/>
+      <c r="L52" s="261"/>
+      <c r="M52" s="261"/>
     </row>
     <row r="55" spans="1:13" ht="15.75" thickBot="1"/>
     <row r="56" spans="1:13" ht="15.75" thickBot="1">
@@ -14329,49 +14451,150 @@
     </row>
   </sheetData>
   <mergeCells count="211">
-    <mergeCell ref="I1:K1"/>
-    <mergeCell ref="E13:E14"/>
-    <mergeCell ref="H11:H12"/>
-    <mergeCell ref="F13:F14"/>
-    <mergeCell ref="G13:G14"/>
-    <mergeCell ref="H13:H14"/>
-    <mergeCell ref="I13:I14"/>
-    <mergeCell ref="J13:J14"/>
-    <mergeCell ref="K13:K14"/>
-    <mergeCell ref="J2:J8"/>
-    <mergeCell ref="K2:K8"/>
-    <mergeCell ref="E11:E12"/>
-    <mergeCell ref="E9:E10"/>
-    <mergeCell ref="F9:F10"/>
-    <mergeCell ref="G9:G10"/>
-    <mergeCell ref="E2:E8"/>
-    <mergeCell ref="F2:F8"/>
-    <mergeCell ref="G2:G8"/>
-    <mergeCell ref="H2:H8"/>
-    <mergeCell ref="I2:I8"/>
-    <mergeCell ref="I11:I12"/>
-    <mergeCell ref="A45:A46"/>
-    <mergeCell ref="A47:A48"/>
-    <mergeCell ref="B43:B48"/>
-    <mergeCell ref="C47:C48"/>
-    <mergeCell ref="B49:B52"/>
-    <mergeCell ref="A49:A52"/>
-    <mergeCell ref="A34:A35"/>
-    <mergeCell ref="A36:A37"/>
-    <mergeCell ref="A38:A39"/>
-    <mergeCell ref="A40:A42"/>
-    <mergeCell ref="B34:B42"/>
-    <mergeCell ref="A43:A44"/>
-    <mergeCell ref="B26:B33"/>
-    <mergeCell ref="A26:A27"/>
-    <mergeCell ref="A28:A29"/>
-    <mergeCell ref="A30:A31"/>
-    <mergeCell ref="A32:A33"/>
-    <mergeCell ref="A11:A12"/>
-    <mergeCell ref="A13:A14"/>
-    <mergeCell ref="A15:A16"/>
-    <mergeCell ref="A17:A19"/>
-    <mergeCell ref="A20:A22"/>
+    <mergeCell ref="M38:M39"/>
+    <mergeCell ref="M40:M42"/>
+    <mergeCell ref="M43:M44"/>
+    <mergeCell ref="M45:M46"/>
+    <mergeCell ref="M47:M48"/>
+    <mergeCell ref="M49:M52"/>
+    <mergeCell ref="L1:M1"/>
+    <mergeCell ref="M17:M19"/>
+    <mergeCell ref="M20:M22"/>
+    <mergeCell ref="M23:M25"/>
+    <mergeCell ref="M26:M27"/>
+    <mergeCell ref="M28:M29"/>
+    <mergeCell ref="M30:M31"/>
+    <mergeCell ref="M32:M33"/>
+    <mergeCell ref="M34:M35"/>
+    <mergeCell ref="M36:M37"/>
+    <mergeCell ref="M2:M8"/>
+    <mergeCell ref="M9:M10"/>
+    <mergeCell ref="M11:M12"/>
+    <mergeCell ref="M13:M14"/>
+    <mergeCell ref="M15:M16"/>
+    <mergeCell ref="L17:L19"/>
+    <mergeCell ref="L13:L14"/>
+    <mergeCell ref="L2:L8"/>
+    <mergeCell ref="E49:E52"/>
+    <mergeCell ref="F49:F52"/>
+    <mergeCell ref="G49:G52"/>
+    <mergeCell ref="H49:H52"/>
+    <mergeCell ref="I49:I52"/>
+    <mergeCell ref="J49:J52"/>
+    <mergeCell ref="K49:K52"/>
+    <mergeCell ref="L49:L52"/>
+    <mergeCell ref="F47:F48"/>
+    <mergeCell ref="G47:G48"/>
+    <mergeCell ref="H47:H48"/>
+    <mergeCell ref="I47:I48"/>
+    <mergeCell ref="J47:J48"/>
+    <mergeCell ref="E45:E46"/>
+    <mergeCell ref="F45:F46"/>
+    <mergeCell ref="G45:G46"/>
+    <mergeCell ref="H45:H46"/>
+    <mergeCell ref="I45:I46"/>
+    <mergeCell ref="J45:J46"/>
+    <mergeCell ref="K45:K46"/>
+    <mergeCell ref="L45:L46"/>
+    <mergeCell ref="E47:E48"/>
+    <mergeCell ref="K47:K48"/>
+    <mergeCell ref="L47:L48"/>
+    <mergeCell ref="E40:E42"/>
+    <mergeCell ref="F40:F42"/>
+    <mergeCell ref="G40:G42"/>
+    <mergeCell ref="H40:H42"/>
+    <mergeCell ref="I40:I42"/>
+    <mergeCell ref="J40:J42"/>
+    <mergeCell ref="K40:K42"/>
+    <mergeCell ref="L40:L42"/>
+    <mergeCell ref="E43:E44"/>
+    <mergeCell ref="K43:K44"/>
+    <mergeCell ref="L43:L44"/>
+    <mergeCell ref="F43:F44"/>
+    <mergeCell ref="G43:G44"/>
+    <mergeCell ref="H43:H44"/>
+    <mergeCell ref="I43:I44"/>
+    <mergeCell ref="J43:J44"/>
+    <mergeCell ref="E38:E39"/>
+    <mergeCell ref="F34:F35"/>
+    <mergeCell ref="G34:G35"/>
+    <mergeCell ref="H34:H35"/>
+    <mergeCell ref="I34:I35"/>
+    <mergeCell ref="J34:J35"/>
+    <mergeCell ref="E34:E35"/>
+    <mergeCell ref="K38:K39"/>
+    <mergeCell ref="L38:L39"/>
+    <mergeCell ref="F38:F39"/>
+    <mergeCell ref="G38:G39"/>
+    <mergeCell ref="H38:H39"/>
+    <mergeCell ref="I38:I39"/>
+    <mergeCell ref="J38:J39"/>
+    <mergeCell ref="K34:K35"/>
+    <mergeCell ref="L34:L35"/>
+    <mergeCell ref="E36:E37"/>
+    <mergeCell ref="F36:F37"/>
+    <mergeCell ref="G36:G37"/>
+    <mergeCell ref="H36:H37"/>
+    <mergeCell ref="I36:I37"/>
+    <mergeCell ref="J36:J37"/>
+    <mergeCell ref="K36:K37"/>
+    <mergeCell ref="L36:L37"/>
+    <mergeCell ref="E32:E33"/>
+    <mergeCell ref="F32:F33"/>
+    <mergeCell ref="G32:G33"/>
+    <mergeCell ref="H32:H33"/>
+    <mergeCell ref="I32:I33"/>
+    <mergeCell ref="J32:J33"/>
+    <mergeCell ref="K32:K33"/>
+    <mergeCell ref="L32:L33"/>
+    <mergeCell ref="F30:F31"/>
+    <mergeCell ref="G30:G31"/>
+    <mergeCell ref="H30:H31"/>
+    <mergeCell ref="I30:I31"/>
+    <mergeCell ref="J30:J31"/>
+    <mergeCell ref="E30:E31"/>
+    <mergeCell ref="F26:F27"/>
+    <mergeCell ref="G26:G27"/>
+    <mergeCell ref="H26:H27"/>
+    <mergeCell ref="I26:I27"/>
+    <mergeCell ref="J26:J27"/>
+    <mergeCell ref="E26:E27"/>
+    <mergeCell ref="K30:K31"/>
+    <mergeCell ref="L30:L31"/>
+    <mergeCell ref="K26:K27"/>
+    <mergeCell ref="L26:L27"/>
+    <mergeCell ref="E28:E29"/>
+    <mergeCell ref="F28:F29"/>
+    <mergeCell ref="G28:G29"/>
+    <mergeCell ref="H28:H29"/>
+    <mergeCell ref="I28:I29"/>
+    <mergeCell ref="J28:J29"/>
+    <mergeCell ref="K28:K29"/>
+    <mergeCell ref="L28:L29"/>
+    <mergeCell ref="L23:L25"/>
+    <mergeCell ref="H20:H22"/>
+    <mergeCell ref="F20:F22"/>
+    <mergeCell ref="G20:G22"/>
+    <mergeCell ref="I20:I22"/>
+    <mergeCell ref="J20:J22"/>
+    <mergeCell ref="K20:K22"/>
+    <mergeCell ref="L20:L22"/>
+    <mergeCell ref="E20:E22"/>
+    <mergeCell ref="F17:F19"/>
+    <mergeCell ref="G17:G19"/>
+    <mergeCell ref="H17:H19"/>
+    <mergeCell ref="I17:I19"/>
+    <mergeCell ref="J17:J19"/>
+    <mergeCell ref="K17:K19"/>
+    <mergeCell ref="J11:J12"/>
+    <mergeCell ref="K11:K12"/>
+    <mergeCell ref="E23:E25"/>
+    <mergeCell ref="F23:F25"/>
+    <mergeCell ref="G23:G25"/>
+    <mergeCell ref="H23:H25"/>
+    <mergeCell ref="I23:I25"/>
+    <mergeCell ref="J23:J25"/>
+    <mergeCell ref="K23:K25"/>
     <mergeCell ref="A2:A8"/>
     <mergeCell ref="B2:B8"/>
     <mergeCell ref="B9:B16"/>
@@ -14396,150 +14619,49 @@
     <mergeCell ref="G11:G12"/>
     <mergeCell ref="E15:E16"/>
     <mergeCell ref="E17:E19"/>
-    <mergeCell ref="F17:F19"/>
-    <mergeCell ref="G17:G19"/>
-    <mergeCell ref="H17:H19"/>
-    <mergeCell ref="I17:I19"/>
-    <mergeCell ref="J17:J19"/>
-    <mergeCell ref="K17:K19"/>
-    <mergeCell ref="J11:J12"/>
-    <mergeCell ref="K11:K12"/>
-    <mergeCell ref="E23:E25"/>
-    <mergeCell ref="F23:F25"/>
-    <mergeCell ref="G23:G25"/>
-    <mergeCell ref="H23:H25"/>
-    <mergeCell ref="I23:I25"/>
-    <mergeCell ref="J23:J25"/>
-    <mergeCell ref="K23:K25"/>
-    <mergeCell ref="L23:L25"/>
-    <mergeCell ref="H20:H22"/>
-    <mergeCell ref="F20:F22"/>
-    <mergeCell ref="G20:G22"/>
-    <mergeCell ref="I20:I22"/>
-    <mergeCell ref="J20:J22"/>
-    <mergeCell ref="K20:K22"/>
-    <mergeCell ref="L20:L22"/>
-    <mergeCell ref="E20:E22"/>
-    <mergeCell ref="F26:F27"/>
-    <mergeCell ref="G26:G27"/>
-    <mergeCell ref="H26:H27"/>
-    <mergeCell ref="I26:I27"/>
-    <mergeCell ref="J26:J27"/>
-    <mergeCell ref="E26:E27"/>
-    <mergeCell ref="K30:K31"/>
-    <mergeCell ref="L30:L31"/>
-    <mergeCell ref="K26:K27"/>
-    <mergeCell ref="L26:L27"/>
-    <mergeCell ref="E28:E29"/>
-    <mergeCell ref="F28:F29"/>
-    <mergeCell ref="G28:G29"/>
-    <mergeCell ref="H28:H29"/>
-    <mergeCell ref="I28:I29"/>
-    <mergeCell ref="J28:J29"/>
-    <mergeCell ref="K28:K29"/>
-    <mergeCell ref="L28:L29"/>
-    <mergeCell ref="E32:E33"/>
-    <mergeCell ref="F32:F33"/>
-    <mergeCell ref="G32:G33"/>
-    <mergeCell ref="H32:H33"/>
-    <mergeCell ref="I32:I33"/>
-    <mergeCell ref="J32:J33"/>
-    <mergeCell ref="K32:K33"/>
-    <mergeCell ref="L32:L33"/>
-    <mergeCell ref="F30:F31"/>
-    <mergeCell ref="G30:G31"/>
-    <mergeCell ref="H30:H31"/>
-    <mergeCell ref="I30:I31"/>
-    <mergeCell ref="J30:J31"/>
-    <mergeCell ref="E30:E31"/>
-    <mergeCell ref="E38:E39"/>
-    <mergeCell ref="F34:F35"/>
-    <mergeCell ref="G34:G35"/>
-    <mergeCell ref="H34:H35"/>
-    <mergeCell ref="I34:I35"/>
-    <mergeCell ref="J34:J35"/>
-    <mergeCell ref="E34:E35"/>
-    <mergeCell ref="K38:K39"/>
-    <mergeCell ref="L38:L39"/>
-    <mergeCell ref="F38:F39"/>
-    <mergeCell ref="G38:G39"/>
-    <mergeCell ref="H38:H39"/>
-    <mergeCell ref="I38:I39"/>
-    <mergeCell ref="J38:J39"/>
-    <mergeCell ref="K34:K35"/>
-    <mergeCell ref="L34:L35"/>
-    <mergeCell ref="E36:E37"/>
-    <mergeCell ref="F36:F37"/>
-    <mergeCell ref="G36:G37"/>
-    <mergeCell ref="H36:H37"/>
-    <mergeCell ref="I36:I37"/>
-    <mergeCell ref="J36:J37"/>
-    <mergeCell ref="K36:K37"/>
-    <mergeCell ref="L36:L37"/>
-    <mergeCell ref="E40:E42"/>
-    <mergeCell ref="F40:F42"/>
-    <mergeCell ref="G40:G42"/>
-    <mergeCell ref="H40:H42"/>
-    <mergeCell ref="I40:I42"/>
-    <mergeCell ref="J40:J42"/>
-    <mergeCell ref="K40:K42"/>
-    <mergeCell ref="L40:L42"/>
-    <mergeCell ref="E43:E44"/>
-    <mergeCell ref="K43:K44"/>
-    <mergeCell ref="L43:L44"/>
-    <mergeCell ref="F43:F44"/>
-    <mergeCell ref="G43:G44"/>
-    <mergeCell ref="H43:H44"/>
-    <mergeCell ref="I43:I44"/>
-    <mergeCell ref="J43:J44"/>
-    <mergeCell ref="E45:E46"/>
-    <mergeCell ref="F45:F46"/>
-    <mergeCell ref="G45:G46"/>
-    <mergeCell ref="H45:H46"/>
-    <mergeCell ref="I45:I46"/>
-    <mergeCell ref="J45:J46"/>
-    <mergeCell ref="K45:K46"/>
-    <mergeCell ref="L45:L46"/>
-    <mergeCell ref="E47:E48"/>
-    <mergeCell ref="K47:K48"/>
-    <mergeCell ref="L47:L48"/>
-    <mergeCell ref="E49:E52"/>
-    <mergeCell ref="F49:F52"/>
-    <mergeCell ref="G49:G52"/>
-    <mergeCell ref="H49:H52"/>
-    <mergeCell ref="I49:I52"/>
-    <mergeCell ref="J49:J52"/>
-    <mergeCell ref="K49:K52"/>
-    <mergeCell ref="L49:L52"/>
-    <mergeCell ref="F47:F48"/>
-    <mergeCell ref="G47:G48"/>
-    <mergeCell ref="H47:H48"/>
-    <mergeCell ref="I47:I48"/>
-    <mergeCell ref="J47:J48"/>
-    <mergeCell ref="M38:M39"/>
-    <mergeCell ref="M40:M42"/>
-    <mergeCell ref="M43:M44"/>
-    <mergeCell ref="M45:M46"/>
-    <mergeCell ref="M47:M48"/>
-    <mergeCell ref="M49:M52"/>
-    <mergeCell ref="L1:M1"/>
-    <mergeCell ref="M17:M19"/>
-    <mergeCell ref="M20:M22"/>
-    <mergeCell ref="M23:M25"/>
-    <mergeCell ref="M26:M27"/>
-    <mergeCell ref="M28:M29"/>
-    <mergeCell ref="M30:M31"/>
-    <mergeCell ref="M32:M33"/>
-    <mergeCell ref="M34:M35"/>
-    <mergeCell ref="M36:M37"/>
-    <mergeCell ref="M2:M8"/>
-    <mergeCell ref="M9:M10"/>
-    <mergeCell ref="M11:M12"/>
-    <mergeCell ref="M13:M14"/>
-    <mergeCell ref="M15:M16"/>
-    <mergeCell ref="L17:L19"/>
-    <mergeCell ref="L13:L14"/>
-    <mergeCell ref="L2:L8"/>
+    <mergeCell ref="B26:B33"/>
+    <mergeCell ref="A26:A27"/>
+    <mergeCell ref="A28:A29"/>
+    <mergeCell ref="A30:A31"/>
+    <mergeCell ref="A32:A33"/>
+    <mergeCell ref="A11:A12"/>
+    <mergeCell ref="A13:A14"/>
+    <mergeCell ref="A15:A16"/>
+    <mergeCell ref="A17:A19"/>
+    <mergeCell ref="A20:A22"/>
+    <mergeCell ref="A45:A46"/>
+    <mergeCell ref="A47:A48"/>
+    <mergeCell ref="B43:B48"/>
+    <mergeCell ref="C47:C48"/>
+    <mergeCell ref="B49:B52"/>
+    <mergeCell ref="A49:A52"/>
+    <mergeCell ref="A34:A35"/>
+    <mergeCell ref="A36:A37"/>
+    <mergeCell ref="A38:A39"/>
+    <mergeCell ref="A40:A42"/>
+    <mergeCell ref="B34:B42"/>
+    <mergeCell ref="A43:A44"/>
+    <mergeCell ref="I1:K1"/>
+    <mergeCell ref="E13:E14"/>
+    <mergeCell ref="H11:H12"/>
+    <mergeCell ref="F13:F14"/>
+    <mergeCell ref="G13:G14"/>
+    <mergeCell ref="H13:H14"/>
+    <mergeCell ref="I13:I14"/>
+    <mergeCell ref="J13:J14"/>
+    <mergeCell ref="K13:K14"/>
+    <mergeCell ref="J2:J8"/>
+    <mergeCell ref="K2:K8"/>
+    <mergeCell ref="E11:E12"/>
+    <mergeCell ref="E9:E10"/>
+    <mergeCell ref="F9:F10"/>
+    <mergeCell ref="G9:G10"/>
+    <mergeCell ref="E2:E8"/>
+    <mergeCell ref="F2:F8"/>
+    <mergeCell ref="G2:G8"/>
+    <mergeCell ref="H2:H8"/>
+    <mergeCell ref="I2:I8"/>
+    <mergeCell ref="I11:I12"/>
   </mergeCells>
   <hyperlinks>
     <hyperlink ref="E2" r:id="rId1" display="https://drive.google.com/open?id=1RYgFxmL-dmZYtjF2ca5a0yQUWnMVjo3mVexJabJL1c4"/>
@@ -14655,8 +14777,8 @@
   </sheetPr>
   <dimension ref="A1:I1000"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="E30" sqref="E30"/>
+    <sheetView topLeftCell="A25" workbookViewId="0">
+      <selection activeCell="G47" sqref="G47"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15" customHeight="1"/>
@@ -14700,10 +14822,10 @@
       </c>
     </row>
     <row r="2" spans="1:9" ht="15.75" customHeight="1" thickTop="1" thickBot="1">
-      <c r="A2" s="282" t="s">
+      <c r="A2" s="278" t="s">
         <v>305</v>
       </c>
-      <c r="B2" s="277">
+      <c r="B2" s="271">
         <v>1</v>
       </c>
       <c r="C2" s="110">
@@ -14723,8 +14845,8 @@
       </c>
     </row>
     <row r="3" spans="1:9" ht="16.5" thickBot="1">
-      <c r="A3" s="283"/>
-      <c r="B3" s="278"/>
+      <c r="A3" s="279"/>
+      <c r="B3" s="272"/>
       <c r="C3" s="110">
         <v>43193</v>
       </c>
@@ -14740,8 +14862,8 @@
       <c r="I3" s="115"/>
     </row>
     <row r="4" spans="1:9" ht="16.5" thickBot="1">
-      <c r="A4" s="283"/>
-      <c r="B4" s="278"/>
+      <c r="A4" s="279"/>
+      <c r="B4" s="272"/>
       <c r="C4" s="110">
         <v>43194</v>
       </c>
@@ -14757,8 +14879,8 @@
       <c r="I4" s="115"/>
     </row>
     <row r="5" spans="1:9" ht="16.5" thickBot="1">
-      <c r="A5" s="283"/>
-      <c r="B5" s="278"/>
+      <c r="A5" s="279"/>
+      <c r="B5" s="272"/>
       <c r="C5" s="110">
         <v>43195</v>
       </c>
@@ -14776,8 +14898,8 @@
       <c r="I5" s="115"/>
     </row>
     <row r="6" spans="1:9" ht="16.5" thickBot="1">
-      <c r="A6" s="284"/>
-      <c r="B6" s="281"/>
+      <c r="A6" s="280"/>
+      <c r="B6" s="273"/>
       <c r="C6" s="117">
         <v>43196</v>
       </c>
@@ -14793,10 +14915,10 @@
       <c r="I6" s="121"/>
     </row>
     <row r="7" spans="1:9" ht="17.25" thickTop="1" thickBot="1">
-      <c r="A7" s="292" t="s">
+      <c r="A7" s="285" t="s">
         <v>184</v>
       </c>
-      <c r="B7" s="280">
+      <c r="B7" s="281">
         <v>2</v>
       </c>
       <c r="C7" s="143">
@@ -14814,8 +14936,8 @@
       <c r="I7" s="126"/>
     </row>
     <row r="8" spans="1:9" ht="16.5" thickBot="1">
-      <c r="A8" s="293"/>
-      <c r="B8" s="275"/>
+      <c r="A8" s="286"/>
+      <c r="B8" s="282"/>
       <c r="C8" s="143">
         <v>43200</v>
       </c>
@@ -14831,8 +14953,8 @@
       <c r="I8" s="126"/>
     </row>
     <row r="9" spans="1:9" ht="16.5" thickBot="1">
-      <c r="A9" s="293"/>
-      <c r="B9" s="275"/>
+      <c r="A9" s="286"/>
+      <c r="B9" s="282"/>
       <c r="C9" s="143">
         <v>43201</v>
       </c>
@@ -14848,8 +14970,8 @@
       <c r="I9" s="126"/>
     </row>
     <row r="10" spans="1:9" ht="15.75" customHeight="1" thickBot="1">
-      <c r="A10" s="293"/>
-      <c r="B10" s="275"/>
+      <c r="A10" s="286"/>
+      <c r="B10" s="282"/>
       <c r="C10" s="143">
         <v>43202</v>
       </c>
@@ -14865,8 +14987,8 @@
       <c r="I10" s="126"/>
     </row>
     <row r="11" spans="1:9" ht="16.5" thickBot="1">
-      <c r="A11" s="293"/>
-      <c r="B11" s="285"/>
+      <c r="A11" s="286"/>
+      <c r="B11" s="283"/>
       <c r="C11" s="143">
         <v>43203</v>
       </c>
@@ -14884,8 +15006,8 @@
       <c r="I11" s="126"/>
     </row>
     <row r="12" spans="1:9" ht="16.5" thickBot="1">
-      <c r="A12" s="272"/>
-      <c r="B12" s="286">
+      <c r="A12" s="287"/>
+      <c r="B12" s="277">
         <v>3</v>
       </c>
       <c r="C12" s="110">
@@ -14903,8 +15025,8 @@
       <c r="I12" s="115"/>
     </row>
     <row r="13" spans="1:9" ht="16.5" thickBot="1">
-      <c r="A13" s="272"/>
-      <c r="B13" s="278"/>
+      <c r="A13" s="287"/>
+      <c r="B13" s="272"/>
       <c r="C13" s="110">
         <v>43207</v>
       </c>
@@ -14920,8 +15042,8 @@
       <c r="I13" s="115"/>
     </row>
     <row r="14" spans="1:9" ht="16.5" thickBot="1">
-      <c r="A14" s="272"/>
-      <c r="B14" s="278"/>
+      <c r="A14" s="287"/>
+      <c r="B14" s="272"/>
       <c r="C14" s="110">
         <v>43208</v>
       </c>
@@ -14937,8 +15059,8 @@
       <c r="I14" s="115"/>
     </row>
     <row r="15" spans="1:9" ht="16.5" thickBot="1">
-      <c r="A15" s="272"/>
-      <c r="B15" s="278"/>
+      <c r="A15" s="287"/>
+      <c r="B15" s="272"/>
       <c r="C15" s="110">
         <v>43209</v>
       </c>
@@ -14954,8 +15076,8 @@
       <c r="I15" s="115"/>
     </row>
     <row r="16" spans="1:9" ht="16.5" thickBot="1">
-      <c r="A16" s="272"/>
-      <c r="B16" s="279"/>
+      <c r="A16" s="287"/>
+      <c r="B16" s="284"/>
       <c r="C16" s="110">
         <v>43210</v>
       </c>
@@ -14971,8 +15093,8 @@
       <c r="I16" s="115"/>
     </row>
     <row r="17" spans="1:9" ht="16.5" thickBot="1">
-      <c r="A17" s="272"/>
-      <c r="B17" s="280">
+      <c r="A17" s="287"/>
+      <c r="B17" s="281">
         <v>4</v>
       </c>
       <c r="C17" s="122">
@@ -14994,8 +15116,8 @@
       <c r="I17" s="126"/>
     </row>
     <row r="18" spans="1:9" ht="16.5" thickBot="1">
-      <c r="A18" s="272"/>
-      <c r="B18" s="275"/>
+      <c r="A18" s="287"/>
+      <c r="B18" s="282"/>
       <c r="C18" s="122">
         <v>43214</v>
       </c>
@@ -15011,8 +15133,8 @@
       <c r="I18" s="126"/>
     </row>
     <row r="19" spans="1:9" ht="16.5" thickBot="1">
-      <c r="A19" s="272"/>
-      <c r="B19" s="275"/>
+      <c r="A19" s="287"/>
+      <c r="B19" s="282"/>
       <c r="C19" s="122">
         <v>43215</v>
       </c>
@@ -15028,8 +15150,8 @@
       <c r="I19" s="126"/>
     </row>
     <row r="20" spans="1:9" ht="16.5" thickBot="1">
-      <c r="A20" s="272"/>
-      <c r="B20" s="275"/>
+      <c r="A20" s="287"/>
+      <c r="B20" s="282"/>
       <c r="C20" s="122">
         <v>43216</v>
       </c>
@@ -15045,8 +15167,8 @@
       <c r="I20" s="126"/>
     </row>
     <row r="21" spans="1:9" ht="16.5" thickBot="1">
-      <c r="A21" s="272"/>
-      <c r="B21" s="285"/>
+      <c r="A21" s="287"/>
+      <c r="B21" s="283"/>
       <c r="C21" s="122">
         <v>43217</v>
       </c>
@@ -15064,8 +15186,8 @@
       <c r="I21" s="126"/>
     </row>
     <row r="22" spans="1:9" ht="16.5" thickBot="1">
-      <c r="A22" s="272"/>
-      <c r="B22" s="286">
+      <c r="A22" s="287"/>
+      <c r="B22" s="277">
         <v>5</v>
       </c>
       <c r="C22" s="110">
@@ -15083,8 +15205,8 @@
       <c r="I22" s="115"/>
     </row>
     <row r="23" spans="1:9" ht="16.5" thickBot="1">
-      <c r="A23" s="272"/>
-      <c r="B23" s="278"/>
+      <c r="A23" s="287"/>
+      <c r="B23" s="272"/>
       <c r="C23" s="110">
         <v>43221</v>
       </c>
@@ -15100,8 +15222,8 @@
       <c r="I23" s="115"/>
     </row>
     <row r="24" spans="1:9" ht="16.5" thickBot="1">
-      <c r="A24" s="272"/>
-      <c r="B24" s="278"/>
+      <c r="A24" s="287"/>
+      <c r="B24" s="272"/>
       <c r="C24" s="110">
         <v>43222</v>
       </c>
@@ -15117,8 +15239,8 @@
       <c r="I24" s="115"/>
     </row>
     <row r="25" spans="1:9" ht="16.5" thickBot="1">
-      <c r="A25" s="272"/>
-      <c r="B25" s="278"/>
+      <c r="A25" s="287"/>
+      <c r="B25" s="272"/>
       <c r="C25" s="110">
         <v>43223</v>
       </c>
@@ -15134,8 +15256,8 @@
       <c r="I25" s="115"/>
     </row>
     <row r="26" spans="1:9" ht="16.5" thickBot="1">
-      <c r="A26" s="272"/>
-      <c r="B26" s="279"/>
+      <c r="A26" s="287"/>
+      <c r="B26" s="284"/>
       <c r="C26" s="110">
         <v>43224</v>
       </c>
@@ -15151,8 +15273,8 @@
       <c r="I26" s="115"/>
     </row>
     <row r="27" spans="1:9" ht="15.75" customHeight="1" thickBot="1">
-      <c r="A27" s="272"/>
-      <c r="B27" s="290">
+      <c r="A27" s="287"/>
+      <c r="B27" s="289">
         <v>6</v>
       </c>
       <c r="C27" s="130">
@@ -15174,8 +15296,8 @@
       <c r="I27" s="126"/>
     </row>
     <row r="28" spans="1:9" ht="16.5" thickBot="1">
-      <c r="A28" s="272"/>
-      <c r="B28" s="288"/>
+      <c r="A28" s="287"/>
+      <c r="B28" s="275"/>
       <c r="C28" s="130">
         <v>43228</v>
       </c>
@@ -15191,8 +15313,8 @@
       <c r="I28" s="126"/>
     </row>
     <row r="29" spans="1:9" ht="16.5" thickBot="1">
-      <c r="A29" s="272"/>
-      <c r="B29" s="288"/>
+      <c r="A29" s="287"/>
+      <c r="B29" s="275"/>
       <c r="C29" s="130">
         <v>43229</v>
       </c>
@@ -15208,8 +15330,8 @@
       <c r="I29" s="126"/>
     </row>
     <row r="30" spans="1:9" ht="16.5" thickBot="1">
-      <c r="A30" s="272"/>
-      <c r="B30" s="288"/>
+      <c r="A30" s="287"/>
+      <c r="B30" s="275"/>
       <c r="C30" s="130">
         <v>43230</v>
       </c>
@@ -15225,8 +15347,8 @@
       <c r="I30" s="126"/>
     </row>
     <row r="31" spans="1:9" ht="27" thickBot="1">
-      <c r="A31" s="273"/>
-      <c r="B31" s="291"/>
+      <c r="A31" s="288"/>
+      <c r="B31" s="290"/>
       <c r="C31" s="134">
         <v>43231</v>
       </c>
@@ -15244,10 +15366,10 @@
       <c r="I31" s="138"/>
     </row>
     <row r="32" spans="1:9" ht="17.25" thickTop="1" thickBot="1">
-      <c r="A32" s="282" t="s">
+      <c r="A32" s="278" t="s">
         <v>34</v>
       </c>
-      <c r="B32" s="277">
+      <c r="B32" s="271">
         <v>7</v>
       </c>
       <c r="C32" s="110">
@@ -15265,8 +15387,8 @@
       <c r="I32" s="115"/>
     </row>
     <row r="33" spans="1:9" ht="16.5" thickBot="1">
-      <c r="A33" s="283"/>
-      <c r="B33" s="278"/>
+      <c r="A33" s="279"/>
+      <c r="B33" s="272"/>
       <c r="C33" s="110">
         <v>43235</v>
       </c>
@@ -15282,8 +15404,8 @@
       <c r="I33" s="115"/>
     </row>
     <row r="34" spans="1:9" ht="16.5" thickBot="1">
-      <c r="A34" s="283"/>
-      <c r="B34" s="278"/>
+      <c r="A34" s="279"/>
+      <c r="B34" s="272"/>
       <c r="C34" s="110">
         <v>43236</v>
       </c>
@@ -15299,8 +15421,8 @@
       <c r="I34" s="115"/>
     </row>
     <row r="35" spans="1:9" ht="16.5" thickBot="1">
-      <c r="A35" s="283"/>
-      <c r="B35" s="278"/>
+      <c r="A35" s="279"/>
+      <c r="B35" s="272"/>
       <c r="C35" s="110">
         <v>43237</v>
       </c>
@@ -15316,8 +15438,8 @@
       <c r="I35" s="115"/>
     </row>
     <row r="36" spans="1:9" ht="16.5" thickBot="1">
-      <c r="A36" s="283"/>
-      <c r="B36" s="281"/>
+      <c r="A36" s="279"/>
+      <c r="B36" s="273"/>
       <c r="C36" s="110">
         <v>43238</v>
       </c>
@@ -15333,8 +15455,8 @@
       <c r="I36" s="115"/>
     </row>
     <row r="37" spans="1:9" ht="17.25" thickTop="1" thickBot="1">
-      <c r="A37" s="283"/>
-      <c r="B37" s="287">
+      <c r="A37" s="279"/>
+      <c r="B37" s="274">
         <v>8</v>
       </c>
       <c r="C37" s="130">
@@ -15356,8 +15478,8 @@
       <c r="I37" s="126"/>
     </row>
     <row r="38" spans="1:9" ht="16.5" thickBot="1">
-      <c r="A38" s="283"/>
-      <c r="B38" s="288"/>
+      <c r="A38" s="279"/>
+      <c r="B38" s="275"/>
       <c r="C38" s="130">
         <v>43242</v>
       </c>
@@ -15373,8 +15495,8 @@
       <c r="I38" s="126"/>
     </row>
     <row r="39" spans="1:9" ht="16.5" thickBot="1">
-      <c r="A39" s="283"/>
-      <c r="B39" s="288"/>
+      <c r="A39" s="279"/>
+      <c r="B39" s="275"/>
       <c r="C39" s="130">
         <v>43243</v>
       </c>
@@ -15390,8 +15512,8 @@
       <c r="I39" s="126"/>
     </row>
     <row r="40" spans="1:9" ht="16.5" thickBot="1">
-      <c r="A40" s="283"/>
-      <c r="B40" s="288"/>
+      <c r="A40" s="279"/>
+      <c r="B40" s="275"/>
       <c r="C40" s="130">
         <v>43244</v>
       </c>
@@ -15407,8 +15529,8 @@
       <c r="I40" s="126"/>
     </row>
     <row r="41" spans="1:9" ht="27" thickBot="1">
-      <c r="A41" s="283"/>
-      <c r="B41" s="289"/>
+      <c r="A41" s="279"/>
+      <c r="B41" s="276"/>
       <c r="C41" s="130">
         <v>43245</v>
       </c>
@@ -15426,8 +15548,8 @@
       <c r="I41" s="126"/>
     </row>
     <row r="42" spans="1:9" ht="16.5" thickBot="1">
-      <c r="A42" s="283"/>
-      <c r="B42" s="286">
+      <c r="A42" s="279"/>
+      <c r="B42" s="277">
         <v>9</v>
       </c>
       <c r="C42" s="110">
@@ -15445,8 +15567,8 @@
       <c r="I42" s="115"/>
     </row>
     <row r="43" spans="1:9" ht="16.5" thickBot="1">
-      <c r="A43" s="283"/>
-      <c r="B43" s="278"/>
+      <c r="A43" s="279"/>
+      <c r="B43" s="272"/>
       <c r="C43" s="110">
         <v>43249</v>
       </c>
@@ -15462,8 +15584,8 @@
       <c r="I43" s="115"/>
     </row>
     <row r="44" spans="1:9" ht="16.5" thickBot="1">
-      <c r="A44" s="283"/>
-      <c r="B44" s="278"/>
+      <c r="A44" s="279"/>
+      <c r="B44" s="272"/>
       <c r="C44" s="110">
         <v>43250</v>
       </c>
@@ -15479,8 +15601,8 @@
       <c r="I44" s="115"/>
     </row>
     <row r="45" spans="1:9" ht="16.5" thickBot="1">
-      <c r="A45" s="283"/>
-      <c r="B45" s="278"/>
+      <c r="A45" s="279"/>
+      <c r="B45" s="272"/>
       <c r="C45" s="110">
         <v>43251</v>
       </c>
@@ -15496,8 +15618,8 @@
       <c r="I45" s="115"/>
     </row>
     <row r="46" spans="1:9" ht="16.5" thickBot="1">
-      <c r="A46" s="284"/>
-      <c r="B46" s="281"/>
+      <c r="A46" s="280"/>
+      <c r="B46" s="273"/>
       <c r="C46" s="117">
         <v>43252</v>
       </c>
@@ -15513,10 +15635,10 @@
       <c r="I46" s="121"/>
     </row>
     <row r="47" spans="1:9" ht="15.75" customHeight="1" thickTop="1" thickBot="1">
-      <c r="A47" s="271" t="s">
+      <c r="A47" s="293" t="s">
         <v>47</v>
       </c>
-      <c r="B47" s="274">
+      <c r="B47" s="291">
         <v>10</v>
       </c>
       <c r="C47" s="122">
@@ -15538,8 +15660,8 @@
       <c r="I47" s="126"/>
     </row>
     <row r="48" spans="1:9" ht="16.5" thickBot="1">
-      <c r="A48" s="272"/>
-      <c r="B48" s="275"/>
+      <c r="A48" s="287"/>
+      <c r="B48" s="282"/>
       <c r="C48" s="122">
         <v>43256</v>
       </c>
@@ -15555,8 +15677,8 @@
       <c r="I48" s="126"/>
     </row>
     <row r="49" spans="1:9" ht="16.5" thickBot="1">
-      <c r="A49" s="272"/>
-      <c r="B49" s="275"/>
+      <c r="A49" s="287"/>
+      <c r="B49" s="282"/>
       <c r="C49" s="122">
         <v>43257</v>
       </c>
@@ -15572,8 +15694,8 @@
       <c r="I49" s="126"/>
     </row>
     <row r="50" spans="1:9" ht="16.5" thickBot="1">
-      <c r="A50" s="272"/>
-      <c r="B50" s="275"/>
+      <c r="A50" s="287"/>
+      <c r="B50" s="282"/>
       <c r="C50" s="122">
         <v>43258</v>
       </c>
@@ -15589,8 +15711,8 @@
       <c r="I50" s="126"/>
     </row>
     <row r="51" spans="1:9" ht="27" thickBot="1">
-      <c r="A51" s="272"/>
-      <c r="B51" s="276"/>
+      <c r="A51" s="287"/>
+      <c r="B51" s="292"/>
       <c r="C51" s="122">
         <v>43259</v>
       </c>
@@ -15608,8 +15730,8 @@
       <c r="I51" s="126"/>
     </row>
     <row r="52" spans="1:9" ht="17.25" thickTop="1" thickBot="1">
-      <c r="A52" s="272"/>
-      <c r="B52" s="277">
+      <c r="A52" s="287"/>
+      <c r="B52" s="271">
         <v>11</v>
       </c>
       <c r="C52" s="110">
@@ -15627,8 +15749,8 @@
       <c r="I52" s="115"/>
     </row>
     <row r="53" spans="1:9" ht="16.5" thickBot="1">
-      <c r="A53" s="272"/>
-      <c r="B53" s="278"/>
+      <c r="A53" s="287"/>
+      <c r="B53" s="272"/>
       <c r="C53" s="110">
         <v>43263</v>
       </c>
@@ -15644,8 +15766,8 @@
       <c r="I53" s="115"/>
     </row>
     <row r="54" spans="1:9" ht="16.5" thickBot="1">
-      <c r="A54" s="272"/>
-      <c r="B54" s="278"/>
+      <c r="A54" s="287"/>
+      <c r="B54" s="272"/>
       <c r="C54" s="110">
         <v>43264</v>
       </c>
@@ -15661,8 +15783,8 @@
       <c r="I54" s="115"/>
     </row>
     <row r="55" spans="1:9" ht="16.5" thickBot="1">
-      <c r="A55" s="272"/>
-      <c r="B55" s="278"/>
+      <c r="A55" s="287"/>
+      <c r="B55" s="272"/>
       <c r="C55" s="110">
         <v>43265</v>
       </c>
@@ -15678,8 +15800,8 @@
       <c r="I55" s="115"/>
     </row>
     <row r="56" spans="1:9" ht="16.5" thickBot="1">
-      <c r="A56" s="272"/>
-      <c r="B56" s="279"/>
+      <c r="A56" s="287"/>
+      <c r="B56" s="284"/>
       <c r="C56" s="110">
         <v>43266</v>
       </c>
@@ -15695,8 +15817,8 @@
       <c r="I56" s="115"/>
     </row>
     <row r="57" spans="1:9" ht="16.5" thickBot="1">
-      <c r="A57" s="272"/>
-      <c r="B57" s="280">
+      <c r="A57" s="287"/>
+      <c r="B57" s="281">
         <v>12</v>
       </c>
       <c r="C57" s="122">
@@ -15718,8 +15840,8 @@
       <c r="I57" s="126"/>
     </row>
     <row r="58" spans="1:9" ht="16.5" thickBot="1">
-      <c r="A58" s="272"/>
-      <c r="B58" s="275"/>
+      <c r="A58" s="287"/>
+      <c r="B58" s="282"/>
       <c r="C58" s="122">
         <v>43270</v>
       </c>
@@ -15735,8 +15857,8 @@
       <c r="I58" s="126"/>
     </row>
     <row r="59" spans="1:9" ht="16.5" thickBot="1">
-      <c r="A59" s="272"/>
-      <c r="B59" s="275"/>
+      <c r="A59" s="287"/>
+      <c r="B59" s="282"/>
       <c r="C59" s="122">
         <v>43271</v>
       </c>
@@ -15752,8 +15874,8 @@
       <c r="I59" s="126"/>
     </row>
     <row r="60" spans="1:9" ht="16.5" thickBot="1">
-      <c r="A60" s="272"/>
-      <c r="B60" s="275"/>
+      <c r="A60" s="287"/>
+      <c r="B60" s="282"/>
       <c r="C60" s="122">
         <v>43272</v>
       </c>
@@ -15769,8 +15891,8 @@
       <c r="I60" s="126"/>
     </row>
     <row r="61" spans="1:9" ht="27" thickBot="1">
-      <c r="A61" s="273"/>
-      <c r="B61" s="276"/>
+      <c r="A61" s="288"/>
+      <c r="B61" s="292"/>
       <c r="C61" s="140">
         <v>43273</v>
       </c>
@@ -15788,10 +15910,10 @@
       <c r="I61" s="138"/>
     </row>
     <row r="62" spans="1:9" ht="15.75" customHeight="1" thickTop="1" thickBot="1">
-      <c r="A62" s="282" t="s">
+      <c r="A62" s="278" t="s">
         <v>627</v>
       </c>
-      <c r="B62" s="277">
+      <c r="B62" s="271">
         <v>13</v>
       </c>
       <c r="C62" s="110">
@@ -15809,8 +15931,8 @@
       <c r="I62" s="115"/>
     </row>
     <row r="63" spans="1:9" ht="16.5" thickBot="1">
-      <c r="A63" s="283"/>
-      <c r="B63" s="278"/>
+      <c r="A63" s="279"/>
+      <c r="B63" s="272"/>
       <c r="C63" s="110">
         <v>43277</v>
       </c>
@@ -15826,8 +15948,8 @@
       <c r="I63" s="115"/>
     </row>
     <row r="64" spans="1:9" ht="16.5" thickBot="1">
-      <c r="A64" s="283"/>
-      <c r="B64" s="278"/>
+      <c r="A64" s="279"/>
+      <c r="B64" s="272"/>
       <c r="C64" s="110">
         <v>43278</v>
       </c>
@@ -15843,8 +15965,8 @@
       <c r="I64" s="115"/>
     </row>
     <row r="65" spans="1:9" ht="16.5" thickBot="1">
-      <c r="A65" s="283"/>
-      <c r="B65" s="278"/>
+      <c r="A65" s="279"/>
+      <c r="B65" s="272"/>
       <c r="C65" s="110">
         <v>43279</v>
       </c>
@@ -15860,8 +15982,8 @@
       <c r="I65" s="115"/>
     </row>
     <row r="66" spans="1:9" ht="16.5" thickBot="1">
-      <c r="A66" s="283"/>
-      <c r="B66" s="281"/>
+      <c r="A66" s="279"/>
+      <c r="B66" s="273"/>
       <c r="C66" s="110">
         <v>43280</v>
       </c>
@@ -15877,8 +15999,8 @@
       <c r="I66" s="115"/>
     </row>
     <row r="67" spans="1:9" ht="17.25" thickTop="1" thickBot="1">
-      <c r="A67" s="283"/>
-      <c r="B67" s="287">
+      <c r="A67" s="279"/>
+      <c r="B67" s="274">
         <v>14</v>
       </c>
       <c r="C67" s="130">
@@ -15900,8 +16022,8 @@
       <c r="I67" s="126"/>
     </row>
     <row r="68" spans="1:9" ht="16.5" thickBot="1">
-      <c r="A68" s="283"/>
-      <c r="B68" s="288"/>
+      <c r="A68" s="279"/>
+      <c r="B68" s="275"/>
       <c r="C68" s="130">
         <v>43284</v>
       </c>
@@ -15917,8 +16039,8 @@
       <c r="I68" s="126"/>
     </row>
     <row r="69" spans="1:9" ht="16.5" thickBot="1">
-      <c r="A69" s="283"/>
-      <c r="B69" s="288"/>
+      <c r="A69" s="279"/>
+      <c r="B69" s="275"/>
       <c r="C69" s="130">
         <v>43285</v>
       </c>
@@ -15934,8 +16056,8 @@
       <c r="I69" s="126"/>
     </row>
     <row r="70" spans="1:9" ht="16.5" thickBot="1">
-      <c r="A70" s="283"/>
-      <c r="B70" s="288"/>
+      <c r="A70" s="279"/>
+      <c r="B70" s="275"/>
       <c r="C70" s="130">
         <v>43286</v>
       </c>
@@ -15951,8 +16073,8 @@
       <c r="I70" s="126"/>
     </row>
     <row r="71" spans="1:9" ht="16.5" thickBot="1">
-      <c r="A71" s="283"/>
-      <c r="B71" s="289"/>
+      <c r="A71" s="279"/>
+      <c r="B71" s="276"/>
       <c r="C71" s="130">
         <v>43287</v>
       </c>
@@ -15970,8 +16092,8 @@
       <c r="I71" s="126"/>
     </row>
     <row r="72" spans="1:9" ht="16.5" thickBot="1">
-      <c r="A72" s="283"/>
-      <c r="B72" s="286">
+      <c r="A72" s="279"/>
+      <c r="B72" s="277">
         <v>15</v>
       </c>
       <c r="C72" s="110">
@@ -15989,8 +16111,8 @@
       <c r="I72" s="115"/>
     </row>
     <row r="73" spans="1:9" ht="16.5" thickBot="1">
-      <c r="A73" s="283"/>
-      <c r="B73" s="278"/>
+      <c r="A73" s="279"/>
+      <c r="B73" s="272"/>
       <c r="C73" s="110">
         <v>43291</v>
       </c>
@@ -16006,8 +16128,8 @@
       <c r="I73" s="115"/>
     </row>
     <row r="74" spans="1:9" ht="16.5" thickBot="1">
-      <c r="A74" s="283"/>
-      <c r="B74" s="278"/>
+      <c r="A74" s="279"/>
+      <c r="B74" s="272"/>
       <c r="C74" s="110">
         <v>43292</v>
       </c>
@@ -16023,8 +16145,8 @@
       <c r="I74" s="115"/>
     </row>
     <row r="75" spans="1:9" ht="16.5" thickBot="1">
-      <c r="A75" s="283"/>
-      <c r="B75" s="278"/>
+      <c r="A75" s="279"/>
+      <c r="B75" s="272"/>
       <c r="C75" s="110">
         <v>43293</v>
       </c>
@@ -16040,8 +16162,8 @@
       <c r="I75" s="115"/>
     </row>
     <row r="76" spans="1:9" ht="16.5" thickBot="1">
-      <c r="A76" s="283"/>
-      <c r="B76" s="279"/>
+      <c r="A76" s="279"/>
+      <c r="B76" s="284"/>
       <c r="C76" s="110">
         <v>43294</v>
       </c>
@@ -16057,8 +16179,8 @@
       <c r="I76" s="115"/>
     </row>
     <row r="77" spans="1:9" ht="16.5" thickBot="1">
-      <c r="A77" s="283"/>
-      <c r="B77" s="290">
+      <c r="A77" s="279"/>
+      <c r="B77" s="289">
         <v>16</v>
       </c>
       <c r="C77" s="130">
@@ -16080,8 +16202,8 @@
       <c r="I77" s="126"/>
     </row>
     <row r="78" spans="1:9" ht="16.5" thickBot="1">
-      <c r="A78" s="283"/>
-      <c r="B78" s="288"/>
+      <c r="A78" s="279"/>
+      <c r="B78" s="275"/>
       <c r="C78" s="130">
         <v>43298</v>
       </c>
@@ -16097,8 +16219,8 @@
       <c r="I78" s="126"/>
     </row>
     <row r="79" spans="1:9" ht="16.5" thickBot="1">
-      <c r="A79" s="283"/>
-      <c r="B79" s="288"/>
+      <c r="A79" s="279"/>
+      <c r="B79" s="275"/>
       <c r="C79" s="130">
         <v>43299</v>
       </c>
@@ -16114,8 +16236,8 @@
       <c r="I79" s="126"/>
     </row>
     <row r="80" spans="1:9" ht="16.5" thickBot="1">
-      <c r="A80" s="283"/>
-      <c r="B80" s="288"/>
+      <c r="A80" s="279"/>
+      <c r="B80" s="275"/>
       <c r="C80" s="130">
         <v>43300</v>
       </c>
@@ -16131,8 +16253,8 @@
       <c r="I80" s="126"/>
     </row>
     <row r="81" spans="1:9" ht="16.5" thickBot="1">
-      <c r="A81" s="284"/>
-      <c r="B81" s="291"/>
+      <c r="A81" s="280"/>
+      <c r="B81" s="290"/>
       <c r="C81" s="134">
         <v>43301</v>
       </c>
@@ -16150,10 +16272,10 @@
       <c r="I81" s="138"/>
     </row>
     <row r="82" spans="1:9" ht="15.75" customHeight="1" thickTop="1" thickBot="1">
-      <c r="A82" s="282" t="s">
+      <c r="A82" s="278" t="s">
         <v>76</v>
       </c>
-      <c r="B82" s="277">
+      <c r="B82" s="271">
         <v>17</v>
       </c>
       <c r="C82" s="110">
@@ -16171,8 +16293,8 @@
       <c r="I82" s="115"/>
     </row>
     <row r="83" spans="1:9" ht="16.5" thickBot="1">
-      <c r="A83" s="283"/>
-      <c r="B83" s="278"/>
+      <c r="A83" s="279"/>
+      <c r="B83" s="272"/>
       <c r="C83" s="110">
         <v>43305</v>
       </c>
@@ -16188,8 +16310,8 @@
       <c r="I83" s="115"/>
     </row>
     <row r="84" spans="1:9" ht="16.5" thickBot="1">
-      <c r="A84" s="283"/>
-      <c r="B84" s="278"/>
+      <c r="A84" s="279"/>
+      <c r="B84" s="272"/>
       <c r="C84" s="110">
         <v>43306</v>
       </c>
@@ -16205,8 +16327,8 @@
       <c r="I84" s="115"/>
     </row>
     <row r="85" spans="1:9" ht="16.5" thickBot="1">
-      <c r="A85" s="283"/>
-      <c r="B85" s="278"/>
+      <c r="A85" s="279"/>
+      <c r="B85" s="272"/>
       <c r="C85" s="110">
         <v>43307</v>
       </c>
@@ -16222,8 +16344,8 @@
       <c r="I85" s="115"/>
     </row>
     <row r="86" spans="1:9" ht="16.5" thickBot="1">
-      <c r="A86" s="284"/>
-      <c r="B86" s="281"/>
+      <c r="A86" s="280"/>
+      <c r="B86" s="273"/>
       <c r="C86" s="117">
         <v>43308</v>
       </c>
@@ -16239,10 +16361,10 @@
       <c r="I86" s="121"/>
     </row>
     <row r="87" spans="1:9" ht="17.25" thickTop="1" thickBot="1">
-      <c r="A87" s="282" t="s">
+      <c r="A87" s="278" t="s">
         <v>632</v>
       </c>
-      <c r="B87" s="274">
+      <c r="B87" s="291">
         <v>18</v>
       </c>
       <c r="C87" s="122">
@@ -16264,8 +16386,8 @@
       <c r="I87" s="126"/>
     </row>
     <row r="88" spans="1:9" ht="16.5" thickBot="1">
-      <c r="A88" s="283"/>
-      <c r="B88" s="275"/>
+      <c r="A88" s="279"/>
+      <c r="B88" s="282"/>
       <c r="C88" s="122">
         <v>43312</v>
       </c>
@@ -16281,8 +16403,8 @@
       <c r="I88" s="126"/>
     </row>
     <row r="89" spans="1:9" ht="16.5" thickBot="1">
-      <c r="A89" s="283"/>
-      <c r="B89" s="275"/>
+      <c r="A89" s="279"/>
+      <c r="B89" s="282"/>
       <c r="C89" s="122">
         <v>43313</v>
       </c>
@@ -16298,8 +16420,8 @@
       <c r="I89" s="126"/>
     </row>
     <row r="90" spans="1:9" ht="16.5" thickBot="1">
-      <c r="A90" s="283"/>
-      <c r="B90" s="275"/>
+      <c r="A90" s="279"/>
+      <c r="B90" s="282"/>
       <c r="C90" s="122">
         <v>43314</v>
       </c>
@@ -16315,8 +16437,8 @@
       <c r="I90" s="126"/>
     </row>
     <row r="91" spans="1:9" ht="27" thickBot="1">
-      <c r="A91" s="283"/>
-      <c r="B91" s="285"/>
+      <c r="A91" s="279"/>
+      <c r="B91" s="283"/>
       <c r="C91" s="122">
         <v>43315</v>
       </c>
@@ -16334,8 +16456,8 @@
       <c r="I91" s="126"/>
     </row>
     <row r="92" spans="1:9" ht="16.5" thickBot="1">
-      <c r="A92" s="283"/>
-      <c r="B92" s="286">
+      <c r="A92" s="279"/>
+      <c r="B92" s="277">
         <v>19</v>
       </c>
       <c r="C92" s="110">
@@ -16353,8 +16475,8 @@
       <c r="I92" s="115"/>
     </row>
     <row r="93" spans="1:9" ht="16.5" thickBot="1">
-      <c r="A93" s="283"/>
-      <c r="B93" s="278"/>
+      <c r="A93" s="279"/>
+      <c r="B93" s="272"/>
       <c r="C93" s="110">
         <v>43319</v>
       </c>
@@ -16370,8 +16492,8 @@
       <c r="I93" s="115"/>
     </row>
     <row r="94" spans="1:9" ht="16.5" thickBot="1">
-      <c r="A94" s="283"/>
-      <c r="B94" s="278"/>
+      <c r="A94" s="279"/>
+      <c r="B94" s="272"/>
       <c r="C94" s="110">
         <v>43320</v>
       </c>
@@ -16387,8 +16509,8 @@
       <c r="I94" s="115"/>
     </row>
     <row r="95" spans="1:9" ht="16.5" thickBot="1">
-      <c r="A95" s="283"/>
-      <c r="B95" s="278"/>
+      <c r="A95" s="279"/>
+      <c r="B95" s="272"/>
       <c r="C95" s="110">
         <v>43321</v>
       </c>
@@ -16404,8 +16526,8 @@
       <c r="I95" s="115"/>
     </row>
     <row r="96" spans="1:9" ht="16.5" thickBot="1">
-      <c r="A96" s="283"/>
-      <c r="B96" s="279"/>
+      <c r="A96" s="279"/>
+      <c r="B96" s="284"/>
       <c r="C96" s="110">
         <v>43322</v>
       </c>
@@ -16421,8 +16543,8 @@
       <c r="I96" s="115"/>
     </row>
     <row r="97" spans="1:9" ht="16.5" thickBot="1">
-      <c r="A97" s="283"/>
-      <c r="B97" s="280">
+      <c r="A97" s="279"/>
+      <c r="B97" s="281">
         <v>20</v>
       </c>
       <c r="C97" s="122">
@@ -16442,8 +16564,8 @@
       <c r="I97" s="126"/>
     </row>
     <row r="98" spans="1:9" ht="16.5" thickBot="1">
-      <c r="A98" s="283"/>
-      <c r="B98" s="275"/>
+      <c r="A98" s="279"/>
+      <c r="B98" s="282"/>
       <c r="C98" s="122">
         <v>43326</v>
       </c>
@@ -16459,8 +16581,8 @@
       <c r="I98" s="126"/>
     </row>
     <row r="99" spans="1:9" ht="16.5" thickBot="1">
-      <c r="A99" s="283"/>
-      <c r="B99" s="275"/>
+      <c r="A99" s="279"/>
+      <c r="B99" s="282"/>
       <c r="C99" s="122">
         <v>43327</v>
       </c>
@@ -16476,8 +16598,8 @@
       <c r="I99" s="126"/>
     </row>
     <row r="100" spans="1:9" ht="16.5" thickBot="1">
-      <c r="A100" s="283"/>
-      <c r="B100" s="275"/>
+      <c r="A100" s="279"/>
+      <c r="B100" s="282"/>
       <c r="C100" s="122">
         <v>43328</v>
       </c>
@@ -16495,8 +16617,8 @@
       <c r="I100" s="126"/>
     </row>
     <row r="101" spans="1:9" ht="16.5" thickBot="1">
-      <c r="A101" s="284"/>
-      <c r="B101" s="276"/>
+      <c r="A101" s="280"/>
+      <c r="B101" s="292"/>
       <c r="C101" s="140">
         <v>43329</v>
       </c>
@@ -22806,6 +22928,21 @@
     </row>
   </sheetData>
   <mergeCells count="27">
+    <mergeCell ref="A47:A61"/>
+    <mergeCell ref="B47:B51"/>
+    <mergeCell ref="B52:B56"/>
+    <mergeCell ref="B57:B61"/>
+    <mergeCell ref="B62:B66"/>
+    <mergeCell ref="A82:A86"/>
+    <mergeCell ref="A87:A101"/>
+    <mergeCell ref="A62:A81"/>
+    <mergeCell ref="B87:B91"/>
+    <mergeCell ref="B92:B96"/>
+    <mergeCell ref="B97:B101"/>
+    <mergeCell ref="B67:B71"/>
+    <mergeCell ref="B72:B76"/>
+    <mergeCell ref="B77:B81"/>
+    <mergeCell ref="B82:B86"/>
     <mergeCell ref="B32:B36"/>
     <mergeCell ref="B37:B41"/>
     <mergeCell ref="B42:B46"/>
@@ -22818,21 +22955,6 @@
     <mergeCell ref="B22:B26"/>
     <mergeCell ref="B27:B31"/>
     <mergeCell ref="A32:A46"/>
-    <mergeCell ref="A82:A86"/>
-    <mergeCell ref="A87:A101"/>
-    <mergeCell ref="A62:A81"/>
-    <mergeCell ref="B87:B91"/>
-    <mergeCell ref="B92:B96"/>
-    <mergeCell ref="B97:B101"/>
-    <mergeCell ref="B67:B71"/>
-    <mergeCell ref="B72:B76"/>
-    <mergeCell ref="B77:B81"/>
-    <mergeCell ref="B82:B86"/>
-    <mergeCell ref="A47:A61"/>
-    <mergeCell ref="B47:B51"/>
-    <mergeCell ref="B52:B56"/>
-    <mergeCell ref="B57:B61"/>
-    <mergeCell ref="B62:B66"/>
   </mergeCells>
   <hyperlinks>
     <hyperlink ref="I2" r:id="rId1" display="https://drive.google.com/open?id=12f1t9Kg0CD9OW5iG5jB3Ozx_iRGw-cbyozVUPhhG6ME"/>
@@ -22847,8 +22969,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D31"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J29" sqref="J29"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D16" sqref="D16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -28979,10 +29101,10 @@
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:A8"/>
+  <dimension ref="A1:A22"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A9" sqref="A9"/>
+      <selection activeCell="A24" sqref="A24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -29025,6 +29147,56 @@
     <row r="8" spans="1:1">
       <c r="A8" t="s">
         <v>970</v>
+      </c>
+    </row>
+    <row r="11" spans="1:1">
+      <c r="A11" t="s">
+        <v>991</v>
+      </c>
+    </row>
+    <row r="12" spans="1:1">
+      <c r="A12" s="24" t="s">
+        <v>993</v>
+      </c>
+    </row>
+    <row r="13" spans="1:1">
+      <c r="A13" s="301" t="s">
+        <v>992</v>
+      </c>
+    </row>
+    <row r="14" spans="1:1">
+      <c r="A14" s="300" t="s">
+        <v>994</v>
+      </c>
+    </row>
+    <row r="15" spans="1:1">
+      <c r="A15" s="302" t="s">
+        <v>995</v>
+      </c>
+    </row>
+    <row r="16" spans="1:1">
+      <c r="A16" s="302" t="s">
+        <v>996</v>
+      </c>
+    </row>
+    <row r="17" spans="1:1">
+      <c r="A17" s="302" t="s">
+        <v>997</v>
+      </c>
+    </row>
+    <row r="20" spans="1:1">
+      <c r="A20" s="300" t="s">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="21" spans="1:1">
+      <c r="A21" s="300" t="s">
+        <v>998</v>
+      </c>
+    </row>
+    <row r="22" spans="1:1">
+      <c r="A22" s="300" t="s">
+        <v>999</v>
       </c>
     </row>
   </sheetData>
@@ -29035,10 +29207,10 @@
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:B53"/>
+  <dimension ref="A1:B56"/>
   <sheetViews>
-    <sheetView topLeftCell="A32" workbookViewId="0">
-      <selection activeCell="A47" sqref="A47:A53"/>
+    <sheetView tabSelected="1" topLeftCell="A32" workbookViewId="0">
+      <selection activeCell="A57" sqref="A57"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -29249,11 +29421,17 @@
         <v>887</v>
       </c>
     </row>
+    <row r="56" spans="1:1">
+      <c r="A56" s="22" t="s">
+        <v>963</v>
+      </c>
+    </row>
   </sheetData>
   <hyperlinks>
     <hyperlink ref="A20" r:id="rId1" location="js" display="https://code.sololearn.com/658/ - js"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId2"/>
 </worksheet>
 </file>
 

--- a/General/Curriculum (Personalized).xlsx
+++ b/General/Curriculum (Personalized).xlsx
@@ -12036,115 +12036,76 @@
     <xf numFmtId="0" fontId="54" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="35" xfId="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="69" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="5" borderId="35" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    <xf numFmtId="14" fontId="14" fillId="0" borderId="70" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="5" borderId="38" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    <xf numFmtId="9" fontId="14" fillId="0" borderId="71" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="33" xfId="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="35" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="38" xfId="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="5" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="4" borderId="52" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="4" borderId="53" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="33" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="35" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="38" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="33" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="6" xfId="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="33" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="35" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="5" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="5" borderId="34" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="5" borderId="36" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="23" xfId="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="5" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="14" fillId="5" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="5" borderId="23" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="5" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="5" borderId="37" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="32" xfId="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="23" xfId="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="37" xfId="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="34" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="5" borderId="31" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="32" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="5" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="34" xfId="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="36" xfId="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="37" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="5" borderId="23" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="5" borderId="37" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="5" borderId="32" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="31" xfId="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="32" xfId="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="5" xfId="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="32" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="32" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="23" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="5" borderId="32" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="32" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -12152,6 +12113,21 @@
     </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -12162,55 +12138,25 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="23" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="5" borderId="32" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="5" borderId="1" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="23" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="37" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="32" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="23" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="5" borderId="31" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -12231,71 +12177,116 @@
     <xf numFmtId="0" fontId="1" fillId="3" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="23" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="5" borderId="1" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="37" xfId="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="35" xfId="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="38" xfId="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="37" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="4" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="5" borderId="32" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="32" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="23" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="36" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="5" borderId="36" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="5" borderId="37" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="5" borderId="37" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="37" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="35" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="38" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="35" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="32" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="33" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="33" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="5" borderId="35" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="5" borderId="38" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="5" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="5" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="5" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="52" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="4" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="53" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="4" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="5" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="33" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="6" xfId="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="5" xfId="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="33" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="32" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="35" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="35" fillId="0" borderId="63" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="35" fillId="0" borderId="55" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="35" fillId="0" borderId="56" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="64" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="57" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="58" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="14" fillId="5" borderId="64" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center" wrapText="1"/>
@@ -12303,13 +12294,19 @@
     <xf numFmtId="0" fontId="14" fillId="5" borderId="57" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="5" borderId="62" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="14" fillId="5" borderId="58" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="14" fillId="2" borderId="64" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="5" borderId="58" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="14" fillId="2" borderId="57" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="2" borderId="62" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="5" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="35" fillId="2" borderId="63" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -12321,20 +12318,29 @@
     <xf numFmtId="0" fontId="35" fillId="2" borderId="56" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="57" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="14" fillId="0" borderId="62" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="5" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="14" fillId="5" borderId="62" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="2" borderId="64" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="35" fillId="0" borderId="65" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="2" borderId="57" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="35" fillId="0" borderId="66" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="2" borderId="62" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="35" fillId="0" borderId="55" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="35" fillId="0" borderId="56" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="14" fillId="2" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center" wrapText="1"/>
@@ -12342,10 +12348,13 @@
     <xf numFmtId="0" fontId="14" fillId="2" borderId="58" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="35" fillId="0" borderId="65" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="64" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="35" fillId="0" borderId="66" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="58" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="35" fillId="0" borderId="63" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="24" xfId="0" applyBorder="1" applyAlignment="1">
@@ -12365,15 +12374,6 @@
     </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="44" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="69" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="14" fontId="14" fillId="0" borderId="70" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="9" fontId="14" fillId="0" borderId="71" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
     </xf>
   </cellXfs>
   <cellStyles count="3">
@@ -13393,21 +13393,21 @@
       <c r="H1" s="35" t="s">
         <v>193</v>
       </c>
-      <c r="I1" s="263" t="s">
+      <c r="I1" s="193" t="s">
         <v>7</v>
       </c>
-      <c r="J1" s="264"/>
-      <c r="K1" s="265"/>
-      <c r="L1" s="197" t="s">
+      <c r="J1" s="194"/>
+      <c r="K1" s="195"/>
+      <c r="L1" s="268" t="s">
         <v>8</v>
       </c>
-      <c r="M1" s="198"/>
+      <c r="M1" s="269"/>
     </row>
     <row r="2" spans="1:13" ht="15.75" customHeight="1">
       <c r="A2" s="226">
         <v>1</v>
       </c>
-      <c r="B2" s="229" t="s">
+      <c r="B2" s="221" t="s">
         <v>9</v>
       </c>
       <c r="C2" s="8" t="s">
@@ -13416,145 +13416,145 @@
       <c r="D2" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="E2" s="220" t="s">
+      <c r="E2" s="208" t="s">
         <v>12</v>
       </c>
-      <c r="F2" s="269"/>
-      <c r="G2" s="221"/>
-      <c r="H2" s="221"/>
-      <c r="I2" s="221" t="s">
+      <c r="F2" s="210"/>
+      <c r="G2" s="201"/>
+      <c r="H2" s="201"/>
+      <c r="I2" s="201" t="s">
         <v>10</v>
       </c>
-      <c r="J2" s="221" t="s">
+      <c r="J2" s="201" t="s">
         <v>14</v>
       </c>
-      <c r="K2" s="221" t="s">
+      <c r="K2" s="201" t="s">
         <v>15</v>
       </c>
-      <c r="L2" s="193" t="s">
+      <c r="L2" s="262" t="s">
         <v>16</v>
       </c>
-      <c r="M2" s="193" t="s">
+      <c r="M2" s="262" t="s">
         <v>327</v>
       </c>
     </row>
     <row r="3" spans="1:13" ht="15.75" customHeight="1">
-      <c r="A3" s="227"/>
-      <c r="B3" s="230"/>
+      <c r="A3" s="214"/>
+      <c r="B3" s="222"/>
       <c r="C3" s="32" t="s">
         <v>17</v>
       </c>
       <c r="D3" s="4" t="s">
         <v>18</v>
       </c>
-      <c r="E3" s="215"/>
-      <c r="F3" s="242"/>
-      <c r="G3" s="212"/>
-      <c r="H3" s="212"/>
-      <c r="I3" s="212"/>
-      <c r="J3" s="212"/>
-      <c r="K3" s="212"/>
-      <c r="L3" s="190"/>
-      <c r="M3" s="190"/>
+      <c r="E3" s="203"/>
+      <c r="F3" s="211"/>
+      <c r="G3" s="197"/>
+      <c r="H3" s="197"/>
+      <c r="I3" s="197"/>
+      <c r="J3" s="197"/>
+      <c r="K3" s="197"/>
+      <c r="L3" s="245"/>
+      <c r="M3" s="245"/>
     </row>
     <row r="4" spans="1:13" ht="15.75" customHeight="1">
-      <c r="A4" s="227"/>
-      <c r="B4" s="230"/>
+      <c r="A4" s="214"/>
+      <c r="B4" s="222"/>
       <c r="C4" s="32" t="s">
         <v>19</v>
       </c>
       <c r="D4" s="4" t="s">
         <v>20</v>
       </c>
-      <c r="E4" s="215"/>
-      <c r="F4" s="242"/>
-      <c r="G4" s="212"/>
-      <c r="H4" s="212"/>
-      <c r="I4" s="212"/>
-      <c r="J4" s="212"/>
-      <c r="K4" s="212"/>
-      <c r="L4" s="190"/>
-      <c r="M4" s="190"/>
+      <c r="E4" s="203"/>
+      <c r="F4" s="211"/>
+      <c r="G4" s="197"/>
+      <c r="H4" s="197"/>
+      <c r="I4" s="197"/>
+      <c r="J4" s="197"/>
+      <c r="K4" s="197"/>
+      <c r="L4" s="245"/>
+      <c r="M4" s="245"/>
     </row>
     <row r="5" spans="1:13" ht="15.75" customHeight="1">
-      <c r="A5" s="227"/>
-      <c r="B5" s="230"/>
+      <c r="A5" s="214"/>
+      <c r="B5" s="222"/>
       <c r="C5" s="32" t="s">
         <v>21</v>
       </c>
       <c r="D5" s="4"/>
-      <c r="E5" s="215"/>
-      <c r="F5" s="242"/>
-      <c r="G5" s="212"/>
-      <c r="H5" s="212"/>
-      <c r="I5" s="212"/>
-      <c r="J5" s="212"/>
-      <c r="K5" s="212"/>
-      <c r="L5" s="190"/>
-      <c r="M5" s="190"/>
+      <c r="E5" s="203"/>
+      <c r="F5" s="211"/>
+      <c r="G5" s="197"/>
+      <c r="H5" s="197"/>
+      <c r="I5" s="197"/>
+      <c r="J5" s="197"/>
+      <c r="K5" s="197"/>
+      <c r="L5" s="245"/>
+      <c r="M5" s="245"/>
     </row>
     <row r="6" spans="1:13" ht="15.75" customHeight="1">
-      <c r="A6" s="227"/>
-      <c r="B6" s="230"/>
+      <c r="A6" s="214"/>
+      <c r="B6" s="222"/>
       <c r="C6" s="32" t="s">
         <v>14</v>
       </c>
       <c r="D6" s="4" t="s">
         <v>22</v>
       </c>
-      <c r="E6" s="215"/>
-      <c r="F6" s="242"/>
-      <c r="G6" s="212"/>
-      <c r="H6" s="212"/>
-      <c r="I6" s="212"/>
-      <c r="J6" s="212"/>
-      <c r="K6" s="212"/>
-      <c r="L6" s="190"/>
-      <c r="M6" s="190"/>
+      <c r="E6" s="203"/>
+      <c r="F6" s="211"/>
+      <c r="G6" s="197"/>
+      <c r="H6" s="197"/>
+      <c r="I6" s="197"/>
+      <c r="J6" s="197"/>
+      <c r="K6" s="197"/>
+      <c r="L6" s="245"/>
+      <c r="M6" s="245"/>
     </row>
     <row r="7" spans="1:13" ht="15.75" customHeight="1">
-      <c r="A7" s="227"/>
-      <c r="B7" s="230"/>
+      <c r="A7" s="214"/>
+      <c r="B7" s="222"/>
       <c r="C7" s="32" t="s">
         <v>15</v>
       </c>
       <c r="D7" s="4" t="s">
         <v>20</v>
       </c>
-      <c r="E7" s="215"/>
-      <c r="F7" s="242"/>
-      <c r="G7" s="212"/>
-      <c r="H7" s="212"/>
-      <c r="I7" s="212"/>
-      <c r="J7" s="212"/>
-      <c r="K7" s="212"/>
-      <c r="L7" s="190"/>
-      <c r="M7" s="190"/>
+      <c r="E7" s="203"/>
+      <c r="F7" s="211"/>
+      <c r="G7" s="197"/>
+      <c r="H7" s="197"/>
+      <c r="I7" s="197"/>
+      <c r="J7" s="197"/>
+      <c r="K7" s="197"/>
+      <c r="L7" s="245"/>
+      <c r="M7" s="245"/>
     </row>
     <row r="8" spans="1:13" ht="15.75" customHeight="1" thickBot="1">
-      <c r="A8" s="228"/>
-      <c r="B8" s="231"/>
+      <c r="A8" s="215"/>
+      <c r="B8" s="223"/>
       <c r="C8" s="9" t="s">
         <v>23</v>
       </c>
       <c r="D8" s="5" t="s">
         <v>24</v>
       </c>
-      <c r="E8" s="268"/>
-      <c r="F8" s="270"/>
-      <c r="G8" s="267"/>
-      <c r="H8" s="267"/>
-      <c r="I8" s="267"/>
-      <c r="J8" s="267"/>
-      <c r="K8" s="267"/>
-      <c r="L8" s="203"/>
-      <c r="M8" s="203"/>
+      <c r="E8" s="209"/>
+      <c r="F8" s="212"/>
+      <c r="G8" s="202"/>
+      <c r="H8" s="202"/>
+      <c r="I8" s="202"/>
+      <c r="J8" s="202"/>
+      <c r="K8" s="202"/>
+      <c r="L8" s="271"/>
+      <c r="M8" s="271"/>
     </row>
     <row r="9" spans="1:13" ht="15.75" customHeight="1">
-      <c r="A9" s="233">
+      <c r="A9" s="239">
         <v>2</v>
       </c>
-      <c r="B9" s="229" t="s">
+      <c r="B9" s="221" t="s">
         <v>25</v>
       </c>
       <c r="C9" s="10" t="s">
@@ -13563,864 +13563,864 @@
       <c r="D9" s="3" t="s">
         <v>286</v>
       </c>
-      <c r="E9" s="246"/>
-      <c r="F9" s="225" t="s">
+      <c r="E9" s="204"/>
+      <c r="F9" s="205" t="s">
         <v>192</v>
       </c>
-      <c r="G9" s="240" t="s">
+      <c r="G9" s="207" t="s">
         <v>13</v>
       </c>
-      <c r="H9" s="224"/>
-      <c r="I9" s="244" t="s">
+      <c r="H9" s="248"/>
+      <c r="I9" s="249" t="s">
         <v>184</v>
       </c>
-      <c r="J9" s="225" t="s">
+      <c r="J9" s="205" t="s">
         <v>194</v>
       </c>
-      <c r="K9" s="225" t="s">
+      <c r="K9" s="205" t="s">
         <v>195</v>
       </c>
-      <c r="L9" s="240" t="s">
+      <c r="L9" s="207" t="s">
         <v>328</v>
       </c>
-      <c r="M9" s="204"/>
+      <c r="M9" s="272"/>
     </row>
     <row r="10" spans="1:13" ht="15.75" customHeight="1">
-      <c r="A10" s="234"/>
-      <c r="B10" s="230"/>
+      <c r="A10" s="237"/>
+      <c r="B10" s="222"/>
       <c r="C10" s="11" t="s">
         <v>26</v>
       </c>
       <c r="D10" s="4"/>
-      <c r="E10" s="207"/>
-      <c r="F10" s="214"/>
-      <c r="G10" s="218"/>
-      <c r="H10" s="210"/>
-      <c r="I10" s="245"/>
-      <c r="J10" s="214"/>
-      <c r="K10" s="214"/>
-      <c r="L10" s="241"/>
-      <c r="M10" s="205"/>
+      <c r="E10" s="196"/>
+      <c r="F10" s="206"/>
+      <c r="G10" s="199"/>
+      <c r="H10" s="200"/>
+      <c r="I10" s="250"/>
+      <c r="J10" s="206"/>
+      <c r="K10" s="206"/>
+      <c r="L10" s="243"/>
+      <c r="M10" s="273"/>
     </row>
     <row r="11" spans="1:13" ht="15.75" customHeight="1" thickBot="1">
-      <c r="A11" s="252">
+      <c r="A11" s="234">
         <v>3</v>
       </c>
-      <c r="B11" s="230"/>
+      <c r="B11" s="222"/>
       <c r="C11" s="11" t="s">
         <v>263</v>
       </c>
       <c r="D11" s="4"/>
-      <c r="E11" s="215"/>
-      <c r="F11" s="242"/>
-      <c r="G11" s="212"/>
-      <c r="H11" s="212" t="s">
+      <c r="E11" s="203"/>
+      <c r="F11" s="211"/>
+      <c r="G11" s="197"/>
+      <c r="H11" s="197" t="s">
         <v>198</v>
       </c>
-      <c r="I11" s="212" t="s">
+      <c r="I11" s="197" t="s">
         <v>196</v>
       </c>
-      <c r="J11" s="212"/>
-      <c r="K11" s="212"/>
-      <c r="L11" s="239" t="s">
+      <c r="J11" s="197"/>
+      <c r="K11" s="197"/>
+      <c r="L11" s="242" t="s">
         <v>329</v>
       </c>
-      <c r="M11" s="190"/>
+      <c r="M11" s="245"/>
     </row>
     <row r="12" spans="1:13" ht="15.75" customHeight="1">
-      <c r="A12" s="253"/>
-      <c r="B12" s="230"/>
+      <c r="A12" s="235"/>
+      <c r="B12" s="222"/>
       <c r="C12" s="11" t="s">
         <v>28</v>
       </c>
       <c r="D12" s="10"/>
-      <c r="E12" s="215"/>
-      <c r="F12" s="242"/>
-      <c r="G12" s="212"/>
-      <c r="H12" s="212"/>
-      <c r="I12" s="212"/>
-      <c r="J12" s="212"/>
-      <c r="K12" s="212"/>
-      <c r="L12" s="239"/>
-      <c r="M12" s="190"/>
+      <c r="E12" s="203"/>
+      <c r="F12" s="211"/>
+      <c r="G12" s="197"/>
+      <c r="H12" s="197"/>
+      <c r="I12" s="197"/>
+      <c r="J12" s="197"/>
+      <c r="K12" s="197"/>
+      <c r="L12" s="242"/>
+      <c r="M12" s="245"/>
     </row>
     <row r="13" spans="1:13" ht="15.75" customHeight="1">
-      <c r="A13" s="254">
+      <c r="A13" s="236">
         <v>4</v>
       </c>
-      <c r="B13" s="230"/>
+      <c r="B13" s="222"/>
       <c r="C13" s="11" t="s">
         <v>29</v>
       </c>
       <c r="D13" s="11"/>
-      <c r="E13" s="207"/>
-      <c r="F13" s="266" t="s">
+      <c r="E13" s="196"/>
+      <c r="F13" s="198" t="s">
         <v>36</v>
       </c>
-      <c r="G13" s="218" t="s">
+      <c r="G13" s="199" t="s">
         <v>33</v>
       </c>
-      <c r="H13" s="210"/>
-      <c r="I13" s="218" t="s">
+      <c r="H13" s="200"/>
+      <c r="I13" s="199" t="s">
         <v>330</v>
       </c>
-      <c r="J13" s="210"/>
-      <c r="K13" s="210"/>
-      <c r="L13" s="191"/>
-      <c r="M13" s="191"/>
+      <c r="J13" s="200"/>
+      <c r="K13" s="200"/>
+      <c r="L13" s="263"/>
+      <c r="M13" s="263"/>
     </row>
     <row r="14" spans="1:13" ht="15.75" customHeight="1">
-      <c r="A14" s="234"/>
-      <c r="B14" s="230"/>
+      <c r="A14" s="237"/>
+      <c r="B14" s="222"/>
       <c r="C14" s="32" t="s">
         <v>30</v>
       </c>
       <c r="D14" s="4"/>
-      <c r="E14" s="207"/>
-      <c r="F14" s="266"/>
-      <c r="G14" s="218"/>
-      <c r="H14" s="210"/>
-      <c r="I14" s="218"/>
-      <c r="J14" s="210"/>
-      <c r="K14" s="210"/>
-      <c r="L14" s="191"/>
-      <c r="M14" s="191"/>
+      <c r="E14" s="196"/>
+      <c r="F14" s="198"/>
+      <c r="G14" s="199"/>
+      <c r="H14" s="200"/>
+      <c r="I14" s="199"/>
+      <c r="J14" s="200"/>
+      <c r="K14" s="200"/>
+      <c r="L14" s="263"/>
+      <c r="M14" s="263"/>
     </row>
     <row r="15" spans="1:13" ht="15.75" customHeight="1">
-      <c r="A15" s="252">
+      <c r="A15" s="234">
         <v>5</v>
       </c>
-      <c r="B15" s="230"/>
-      <c r="C15" s="237" t="s">
+      <c r="B15" s="222"/>
+      <c r="C15" s="240" t="s">
         <v>31</v>
       </c>
       <c r="D15" s="4"/>
-      <c r="E15" s="215" t="s">
+      <c r="E15" s="203" t="s">
         <v>27</v>
       </c>
-      <c r="F15" s="242"/>
-      <c r="G15" s="212"/>
-      <c r="H15" s="212"/>
-      <c r="I15" s="212"/>
-      <c r="J15" s="212"/>
-      <c r="K15" s="212"/>
-      <c r="L15" s="190"/>
-      <c r="M15" s="190"/>
+      <c r="F15" s="211"/>
+      <c r="G15" s="197"/>
+      <c r="H15" s="197"/>
+      <c r="I15" s="197"/>
+      <c r="J15" s="197"/>
+      <c r="K15" s="197"/>
+      <c r="L15" s="245"/>
+      <c r="M15" s="245"/>
     </row>
     <row r="16" spans="1:13" ht="15.75" customHeight="1" thickBot="1">
-      <c r="A16" s="255"/>
-      <c r="B16" s="232"/>
-      <c r="C16" s="238"/>
+      <c r="A16" s="238"/>
+      <c r="B16" s="227"/>
+      <c r="C16" s="241"/>
       <c r="D16" s="5"/>
-      <c r="E16" s="216"/>
-      <c r="F16" s="243"/>
-      <c r="G16" s="213"/>
-      <c r="H16" s="213"/>
-      <c r="I16" s="213"/>
-      <c r="J16" s="213"/>
-      <c r="K16" s="213"/>
-      <c r="L16" s="195"/>
-      <c r="M16" s="195"/>
+      <c r="E16" s="251"/>
+      <c r="F16" s="247"/>
+      <c r="G16" s="244"/>
+      <c r="H16" s="244"/>
+      <c r="I16" s="244"/>
+      <c r="J16" s="244"/>
+      <c r="K16" s="244"/>
+      <c r="L16" s="246"/>
+      <c r="M16" s="246"/>
     </row>
     <row r="17" spans="1:13" ht="15.75" customHeight="1">
-      <c r="A17" s="256">
+      <c r="A17" s="224">
         <v>6</v>
       </c>
-      <c r="B17" s="229" t="s">
+      <c r="B17" s="221" t="s">
         <v>34</v>
       </c>
       <c r="C17" s="10" t="s">
         <v>35</v>
       </c>
       <c r="D17" s="3"/>
-      <c r="E17" s="246"/>
-      <c r="F17" s="224"/>
-      <c r="G17" s="224"/>
-      <c r="H17" s="225" t="s">
+      <c r="E17" s="204"/>
+      <c r="F17" s="248"/>
+      <c r="G17" s="248"/>
+      <c r="H17" s="205" t="s">
         <v>27</v>
       </c>
-      <c r="I17" s="225"/>
-      <c r="J17" s="225"/>
-      <c r="K17" s="225"/>
-      <c r="L17" s="199"/>
-      <c r="M17" s="199"/>
+      <c r="I17" s="205"/>
+      <c r="J17" s="205"/>
+      <c r="K17" s="205"/>
+      <c r="L17" s="270"/>
+      <c r="M17" s="270"/>
     </row>
     <row r="18" spans="1:13" ht="15.75" customHeight="1">
-      <c r="A18" s="235"/>
-      <c r="B18" s="230"/>
+      <c r="A18" s="213"/>
+      <c r="B18" s="222"/>
       <c r="C18" s="11" t="s">
         <v>37</v>
       </c>
       <c r="D18" s="4"/>
-      <c r="E18" s="207"/>
-      <c r="F18" s="210"/>
-      <c r="G18" s="210"/>
-      <c r="H18" s="214"/>
-      <c r="I18" s="214"/>
-      <c r="J18" s="214"/>
-      <c r="K18" s="214"/>
-      <c r="L18" s="194"/>
-      <c r="M18" s="194"/>
+      <c r="E18" s="196"/>
+      <c r="F18" s="200"/>
+      <c r="G18" s="200"/>
+      <c r="H18" s="206"/>
+      <c r="I18" s="206"/>
+      <c r="J18" s="206"/>
+      <c r="K18" s="206"/>
+      <c r="L18" s="256"/>
+      <c r="M18" s="256"/>
     </row>
     <row r="19" spans="1:13" ht="15.75" customHeight="1">
-      <c r="A19" s="235"/>
-      <c r="B19" s="230"/>
+      <c r="A19" s="213"/>
+      <c r="B19" s="222"/>
       <c r="C19" s="11" t="s">
         <v>38</v>
       </c>
       <c r="D19" s="4"/>
-      <c r="E19" s="207"/>
-      <c r="F19" s="210"/>
-      <c r="G19" s="210"/>
-      <c r="H19" s="214"/>
-      <c r="I19" s="214"/>
-      <c r="J19" s="214"/>
-      <c r="K19" s="214"/>
-      <c r="L19" s="194"/>
-      <c r="M19" s="194"/>
+      <c r="E19" s="196"/>
+      <c r="F19" s="200"/>
+      <c r="G19" s="200"/>
+      <c r="H19" s="206"/>
+      <c r="I19" s="206"/>
+      <c r="J19" s="206"/>
+      <c r="K19" s="206"/>
+      <c r="L19" s="256"/>
+      <c r="M19" s="256"/>
     </row>
     <row r="20" spans="1:13" ht="15.75" customHeight="1">
-      <c r="A20" s="227">
+      <c r="A20" s="214">
         <v>7</v>
       </c>
-      <c r="B20" s="230"/>
+      <c r="B20" s="222"/>
       <c r="C20" s="11" t="s">
         <v>39</v>
       </c>
       <c r="D20" s="4"/>
-      <c r="E20" s="215" t="s">
+      <c r="E20" s="203" t="s">
         <v>32</v>
       </c>
-      <c r="F20" s="223" t="s">
+      <c r="F20" s="258" t="s">
         <v>44</v>
       </c>
-      <c r="G20" s="223"/>
-      <c r="H20" s="223"/>
-      <c r="I20" s="223"/>
-      <c r="J20" s="223"/>
-      <c r="K20" s="223"/>
-      <c r="L20" s="200"/>
-      <c r="M20" s="200"/>
+      <c r="G20" s="258"/>
+      <c r="H20" s="258"/>
+      <c r="I20" s="258"/>
+      <c r="J20" s="258"/>
+      <c r="K20" s="258"/>
+      <c r="L20" s="259"/>
+      <c r="M20" s="259"/>
     </row>
     <row r="21" spans="1:13" ht="15.75" customHeight="1">
-      <c r="A21" s="227"/>
-      <c r="B21" s="230"/>
+      <c r="A21" s="214"/>
+      <c r="B21" s="222"/>
       <c r="C21" s="11" t="s">
         <v>41</v>
       </c>
       <c r="D21" s="4"/>
-      <c r="E21" s="215"/>
-      <c r="F21" s="223"/>
-      <c r="G21" s="223"/>
-      <c r="H21" s="223"/>
-      <c r="I21" s="223"/>
-      <c r="J21" s="223"/>
-      <c r="K21" s="223"/>
-      <c r="L21" s="200"/>
-      <c r="M21" s="200"/>
+      <c r="E21" s="203"/>
+      <c r="F21" s="258"/>
+      <c r="G21" s="258"/>
+      <c r="H21" s="258"/>
+      <c r="I21" s="258"/>
+      <c r="J21" s="258"/>
+      <c r="K21" s="258"/>
+      <c r="L21" s="259"/>
+      <c r="M21" s="259"/>
     </row>
     <row r="22" spans="1:13" ht="15.75" customHeight="1">
-      <c r="A22" s="227"/>
-      <c r="B22" s="230"/>
+      <c r="A22" s="214"/>
+      <c r="B22" s="222"/>
       <c r="C22" s="32" t="s">
         <v>42</v>
       </c>
       <c r="D22" s="4"/>
-      <c r="E22" s="215"/>
-      <c r="F22" s="223"/>
-      <c r="G22" s="223"/>
-      <c r="H22" s="223"/>
-      <c r="I22" s="223"/>
-      <c r="J22" s="223"/>
-      <c r="K22" s="223"/>
-      <c r="L22" s="200"/>
-      <c r="M22" s="200"/>
+      <c r="E22" s="203"/>
+      <c r="F22" s="258"/>
+      <c r="G22" s="258"/>
+      <c r="H22" s="258"/>
+      <c r="I22" s="258"/>
+      <c r="J22" s="258"/>
+      <c r="K22" s="258"/>
+      <c r="L22" s="259"/>
+      <c r="M22" s="259"/>
     </row>
     <row r="23" spans="1:13" ht="15.75" customHeight="1">
-      <c r="A23" s="235">
+      <c r="A23" s="213">
         <v>8</v>
       </c>
-      <c r="B23" s="230"/>
+      <c r="B23" s="222"/>
       <c r="C23" s="32" t="s">
         <v>43</v>
       </c>
       <c r="D23" s="4"/>
-      <c r="E23" s="207"/>
-      <c r="F23" s="210"/>
-      <c r="G23" s="218" t="s">
+      <c r="E23" s="196"/>
+      <c r="F23" s="200"/>
+      <c r="G23" s="199" t="s">
         <v>50</v>
       </c>
-      <c r="H23" s="214" t="s">
+      <c r="H23" s="206" t="s">
         <v>32</v>
       </c>
-      <c r="I23" s="214"/>
-      <c r="J23" s="214"/>
-      <c r="K23" s="214"/>
-      <c r="L23" s="194"/>
-      <c r="M23" s="194"/>
+      <c r="I23" s="206"/>
+      <c r="J23" s="206"/>
+      <c r="K23" s="206"/>
+      <c r="L23" s="256"/>
+      <c r="M23" s="256"/>
     </row>
     <row r="24" spans="1:13" ht="15.75" customHeight="1">
-      <c r="A24" s="235"/>
-      <c r="B24" s="230"/>
+      <c r="A24" s="213"/>
+      <c r="B24" s="222"/>
       <c r="C24" s="32" t="s">
         <v>45</v>
       </c>
       <c r="D24" s="4"/>
-      <c r="E24" s="207"/>
-      <c r="F24" s="210"/>
-      <c r="G24" s="218"/>
-      <c r="H24" s="214"/>
-      <c r="I24" s="214"/>
-      <c r="J24" s="214"/>
-      <c r="K24" s="214"/>
-      <c r="L24" s="194"/>
-      <c r="M24" s="194"/>
+      <c r="E24" s="196"/>
+      <c r="F24" s="200"/>
+      <c r="G24" s="199"/>
+      <c r="H24" s="206"/>
+      <c r="I24" s="206"/>
+      <c r="J24" s="206"/>
+      <c r="K24" s="206"/>
+      <c r="L24" s="256"/>
+      <c r="M24" s="256"/>
     </row>
     <row r="25" spans="1:13" ht="15.75" customHeight="1" thickBot="1">
-      <c r="A25" s="236"/>
-      <c r="B25" s="232"/>
+      <c r="A25" s="230"/>
+      <c r="B25" s="227"/>
       <c r="C25" s="33" t="s">
         <v>46</v>
       </c>
       <c r="D25" s="5"/>
-      <c r="E25" s="208"/>
-      <c r="F25" s="211"/>
-      <c r="G25" s="219"/>
-      <c r="H25" s="217"/>
-      <c r="I25" s="217"/>
-      <c r="J25" s="217"/>
-      <c r="K25" s="217"/>
-      <c r="L25" s="201"/>
-      <c r="M25" s="201"/>
+      <c r="E25" s="252"/>
+      <c r="F25" s="253"/>
+      <c r="G25" s="254"/>
+      <c r="H25" s="255"/>
+      <c r="I25" s="255"/>
+      <c r="J25" s="255"/>
+      <c r="K25" s="255"/>
+      <c r="L25" s="257"/>
+      <c r="M25" s="257"/>
     </row>
     <row r="26" spans="1:13" ht="15.75" customHeight="1">
-      <c r="A26" s="247">
+      <c r="A26" s="228">
         <v>9</v>
       </c>
-      <c r="B26" s="229" t="s">
+      <c r="B26" s="221" t="s">
         <v>47</v>
       </c>
       <c r="C26" s="12" t="s">
         <v>48</v>
       </c>
       <c r="D26" s="3"/>
-      <c r="E26" s="220" t="s">
+      <c r="E26" s="208" t="s">
         <v>40</v>
       </c>
-      <c r="F26" s="222" t="s">
+      <c r="F26" s="260" t="s">
         <v>53</v>
       </c>
-      <c r="G26" s="222"/>
-      <c r="H26" s="222"/>
-      <c r="I26" s="222"/>
-      <c r="J26" s="222"/>
-      <c r="K26" s="222"/>
-      <c r="L26" s="202"/>
-      <c r="M26" s="202"/>
+      <c r="G26" s="260"/>
+      <c r="H26" s="260"/>
+      <c r="I26" s="260"/>
+      <c r="J26" s="260"/>
+      <c r="K26" s="260"/>
+      <c r="L26" s="261"/>
+      <c r="M26" s="261"/>
     </row>
     <row r="27" spans="1:13" ht="15.75" customHeight="1">
-      <c r="A27" s="248"/>
-      <c r="B27" s="230"/>
+      <c r="A27" s="229"/>
+      <c r="B27" s="222"/>
       <c r="C27" s="13" t="s">
         <v>51</v>
       </c>
       <c r="D27" s="4"/>
-      <c r="E27" s="215"/>
-      <c r="F27" s="223"/>
-      <c r="G27" s="223"/>
-      <c r="H27" s="223"/>
-      <c r="I27" s="223"/>
-      <c r="J27" s="223"/>
-      <c r="K27" s="223"/>
-      <c r="L27" s="200"/>
-      <c r="M27" s="200"/>
+      <c r="E27" s="203"/>
+      <c r="F27" s="258"/>
+      <c r="G27" s="258"/>
+      <c r="H27" s="258"/>
+      <c r="I27" s="258"/>
+      <c r="J27" s="258"/>
+      <c r="K27" s="258"/>
+      <c r="L27" s="259"/>
+      <c r="M27" s="259"/>
     </row>
     <row r="28" spans="1:13" ht="15.75" customHeight="1">
-      <c r="A28" s="236">
+      <c r="A28" s="230">
         <v>10</v>
       </c>
-      <c r="B28" s="230"/>
+      <c r="B28" s="222"/>
       <c r="C28" s="13" t="s">
         <v>52</v>
       </c>
       <c r="D28" s="4"/>
-      <c r="E28" s="207"/>
-      <c r="F28" s="214" t="s">
+      <c r="E28" s="196"/>
+      <c r="F28" s="206" t="s">
         <v>59</v>
       </c>
-      <c r="G28" s="214"/>
-      <c r="H28" s="214" t="s">
+      <c r="G28" s="206"/>
+      <c r="H28" s="206" t="s">
         <v>40</v>
       </c>
-      <c r="I28" s="214"/>
-      <c r="J28" s="214"/>
-      <c r="K28" s="214"/>
-      <c r="L28" s="194"/>
-      <c r="M28" s="194"/>
+      <c r="I28" s="206"/>
+      <c r="J28" s="206"/>
+      <c r="K28" s="206"/>
+      <c r="L28" s="256"/>
+      <c r="M28" s="256"/>
     </row>
     <row r="29" spans="1:13" ht="15.75" customHeight="1">
-      <c r="A29" s="249"/>
-      <c r="B29" s="230"/>
+      <c r="A29" s="231"/>
+      <c r="B29" s="222"/>
       <c r="C29" s="13" t="s">
         <v>54</v>
       </c>
       <c r="D29" s="4"/>
-      <c r="E29" s="207"/>
-      <c r="F29" s="214"/>
-      <c r="G29" s="214"/>
-      <c r="H29" s="214"/>
-      <c r="I29" s="214"/>
-      <c r="J29" s="214"/>
-      <c r="K29" s="214"/>
-      <c r="L29" s="194"/>
-      <c r="M29" s="194"/>
+      <c r="E29" s="196"/>
+      <c r="F29" s="206"/>
+      <c r="G29" s="206"/>
+      <c r="H29" s="206"/>
+      <c r="I29" s="206"/>
+      <c r="J29" s="206"/>
+      <c r="K29" s="206"/>
+      <c r="L29" s="256"/>
+      <c r="M29" s="256"/>
     </row>
     <row r="30" spans="1:13" ht="15.75" customHeight="1">
-      <c r="A30" s="250">
+      <c r="A30" s="232">
         <v>11</v>
       </c>
-      <c r="B30" s="230"/>
+      <c r="B30" s="222"/>
       <c r="C30" s="13" t="s">
         <v>55</v>
       </c>
       <c r="D30" s="4"/>
-      <c r="E30" s="215" t="s">
+      <c r="E30" s="203" t="s">
         <v>49</v>
       </c>
-      <c r="F30" s="212"/>
-      <c r="G30" s="212"/>
-      <c r="H30" s="212"/>
-      <c r="I30" s="212"/>
-      <c r="J30" s="212"/>
-      <c r="K30" s="212"/>
-      <c r="L30" s="190"/>
-      <c r="M30" s="190"/>
+      <c r="F30" s="197"/>
+      <c r="G30" s="197"/>
+      <c r="H30" s="197"/>
+      <c r="I30" s="197"/>
+      <c r="J30" s="197"/>
+      <c r="K30" s="197"/>
+      <c r="L30" s="245"/>
+      <c r="M30" s="245"/>
     </row>
     <row r="31" spans="1:13" ht="15.75" customHeight="1">
-      <c r="A31" s="248"/>
-      <c r="B31" s="230"/>
+      <c r="A31" s="229"/>
+      <c r="B31" s="222"/>
       <c r="C31" s="14" t="s">
         <v>57</v>
       </c>
       <c r="D31" s="4"/>
-      <c r="E31" s="215"/>
-      <c r="F31" s="212"/>
-      <c r="G31" s="212"/>
-      <c r="H31" s="212"/>
-      <c r="I31" s="212"/>
-      <c r="J31" s="212"/>
-      <c r="K31" s="212"/>
-      <c r="L31" s="190"/>
-      <c r="M31" s="190"/>
+      <c r="E31" s="203"/>
+      <c r="F31" s="197"/>
+      <c r="G31" s="197"/>
+      <c r="H31" s="197"/>
+      <c r="I31" s="197"/>
+      <c r="J31" s="197"/>
+      <c r="K31" s="197"/>
+      <c r="L31" s="245"/>
+      <c r="M31" s="245"/>
     </row>
     <row r="32" spans="1:13" ht="15.75" customHeight="1">
-      <c r="A32" s="236">
+      <c r="A32" s="230">
         <v>12</v>
       </c>
-      <c r="B32" s="230"/>
+      <c r="B32" s="222"/>
       <c r="C32" s="14" t="s">
         <v>58</v>
       </c>
       <c r="D32" s="4"/>
-      <c r="E32" s="207"/>
-      <c r="F32" s="214" t="s">
+      <c r="E32" s="196"/>
+      <c r="F32" s="206" t="s">
         <v>67</v>
       </c>
-      <c r="G32" s="218" t="s">
+      <c r="G32" s="199" t="s">
         <v>64</v>
       </c>
-      <c r="H32" s="214" t="s">
+      <c r="H32" s="206" t="s">
         <v>49</v>
       </c>
-      <c r="I32" s="214"/>
-      <c r="J32" s="214"/>
-      <c r="K32" s="214"/>
-      <c r="L32" s="194"/>
-      <c r="M32" s="194"/>
+      <c r="I32" s="206"/>
+      <c r="J32" s="206"/>
+      <c r="K32" s="206"/>
+      <c r="L32" s="256"/>
+      <c r="M32" s="256"/>
     </row>
     <row r="33" spans="1:13" ht="15.75" customHeight="1" thickBot="1">
-      <c r="A33" s="251"/>
-      <c r="B33" s="232"/>
+      <c r="A33" s="233"/>
+      <c r="B33" s="227"/>
       <c r="C33" s="15" t="s">
         <v>60</v>
       </c>
       <c r="D33" s="5"/>
-      <c r="E33" s="208"/>
-      <c r="F33" s="217"/>
-      <c r="G33" s="219"/>
-      <c r="H33" s="217"/>
-      <c r="I33" s="217"/>
-      <c r="J33" s="217"/>
-      <c r="K33" s="217"/>
-      <c r="L33" s="201"/>
-      <c r="M33" s="201"/>
+      <c r="E33" s="252"/>
+      <c r="F33" s="255"/>
+      <c r="G33" s="254"/>
+      <c r="H33" s="255"/>
+      <c r="I33" s="255"/>
+      <c r="J33" s="255"/>
+      <c r="K33" s="255"/>
+      <c r="L33" s="257"/>
+      <c r="M33" s="257"/>
     </row>
     <row r="34" spans="1:13" ht="15.75" customHeight="1">
       <c r="A34" s="226">
         <v>13</v>
       </c>
-      <c r="B34" s="229" t="s">
+      <c r="B34" s="221" t="s">
         <v>61</v>
       </c>
       <c r="C34" s="16" t="s">
         <v>62</v>
       </c>
       <c r="D34" s="3"/>
-      <c r="E34" s="220" t="s">
+      <c r="E34" s="208" t="s">
         <v>56</v>
       </c>
-      <c r="F34" s="221"/>
-      <c r="G34" s="221"/>
-      <c r="H34" s="221"/>
-      <c r="I34" s="221"/>
-      <c r="J34" s="221"/>
-      <c r="K34" s="221"/>
-      <c r="L34" s="193"/>
-      <c r="M34" s="193"/>
+      <c r="F34" s="201"/>
+      <c r="G34" s="201"/>
+      <c r="H34" s="201"/>
+      <c r="I34" s="201"/>
+      <c r="J34" s="201"/>
+      <c r="K34" s="201"/>
+      <c r="L34" s="262"/>
+      <c r="M34" s="262"/>
     </row>
     <row r="35" spans="1:13" ht="15.75" customHeight="1">
-      <c r="A35" s="227"/>
-      <c r="B35" s="230"/>
+      <c r="A35" s="214"/>
+      <c r="B35" s="222"/>
       <c r="C35" s="17" t="s">
         <v>65</v>
       </c>
       <c r="D35" s="4"/>
-      <c r="E35" s="215"/>
-      <c r="F35" s="212"/>
-      <c r="G35" s="212"/>
-      <c r="H35" s="212"/>
-      <c r="I35" s="212"/>
-      <c r="J35" s="212"/>
-      <c r="K35" s="212"/>
-      <c r="L35" s="190"/>
-      <c r="M35" s="190"/>
+      <c r="E35" s="203"/>
+      <c r="F35" s="197"/>
+      <c r="G35" s="197"/>
+      <c r="H35" s="197"/>
+      <c r="I35" s="197"/>
+      <c r="J35" s="197"/>
+      <c r="K35" s="197"/>
+      <c r="L35" s="245"/>
+      <c r="M35" s="245"/>
     </row>
     <row r="36" spans="1:13" ht="15.75" customHeight="1">
-      <c r="A36" s="235">
+      <c r="A36" s="213">
         <v>14</v>
       </c>
-      <c r="B36" s="230"/>
+      <c r="B36" s="222"/>
       <c r="C36" s="17" t="s">
         <v>66</v>
       </c>
       <c r="D36" s="4"/>
-      <c r="E36" s="207"/>
-      <c r="F36" s="210" t="s">
+      <c r="E36" s="196"/>
+      <c r="F36" s="200" t="s">
         <v>73</v>
       </c>
-      <c r="G36" s="210"/>
-      <c r="H36" s="210" t="s">
+      <c r="G36" s="200"/>
+      <c r="H36" s="200" t="s">
         <v>56</v>
       </c>
-      <c r="I36" s="210"/>
-      <c r="J36" s="210"/>
-      <c r="K36" s="210"/>
-      <c r="L36" s="191"/>
-      <c r="M36" s="191"/>
+      <c r="I36" s="200"/>
+      <c r="J36" s="200"/>
+      <c r="K36" s="200"/>
+      <c r="L36" s="263"/>
+      <c r="M36" s="263"/>
     </row>
     <row r="37" spans="1:13" ht="15.75" customHeight="1">
-      <c r="A37" s="235"/>
-      <c r="B37" s="230"/>
+      <c r="A37" s="213"/>
+      <c r="B37" s="222"/>
       <c r="C37" s="17" t="s">
         <v>68</v>
       </c>
       <c r="D37" s="4"/>
-      <c r="E37" s="207"/>
-      <c r="F37" s="210"/>
-      <c r="G37" s="210"/>
-      <c r="H37" s="210"/>
-      <c r="I37" s="210"/>
-      <c r="J37" s="210"/>
-      <c r="K37" s="210"/>
-      <c r="L37" s="191"/>
-      <c r="M37" s="191"/>
+      <c r="E37" s="196"/>
+      <c r="F37" s="200"/>
+      <c r="G37" s="200"/>
+      <c r="H37" s="200"/>
+      <c r="I37" s="200"/>
+      <c r="J37" s="200"/>
+      <c r="K37" s="200"/>
+      <c r="L37" s="263"/>
+      <c r="M37" s="263"/>
     </row>
     <row r="38" spans="1:13" ht="15.75" customHeight="1">
-      <c r="A38" s="227">
+      <c r="A38" s="214">
         <v>15</v>
       </c>
-      <c r="B38" s="230"/>
+      <c r="B38" s="222"/>
       <c r="C38" s="17" t="s">
         <v>69</v>
       </c>
       <c r="D38" s="4"/>
-      <c r="E38" s="215" t="s">
+      <c r="E38" s="203" t="s">
         <v>63</v>
       </c>
-      <c r="F38" s="212"/>
-      <c r="G38" s="212"/>
-      <c r="H38" s="212"/>
-      <c r="I38" s="212"/>
-      <c r="J38" s="212"/>
-      <c r="K38" s="212"/>
-      <c r="L38" s="190"/>
-      <c r="M38" s="190"/>
+      <c r="F38" s="197"/>
+      <c r="G38" s="197"/>
+      <c r="H38" s="197"/>
+      <c r="I38" s="197"/>
+      <c r="J38" s="197"/>
+      <c r="K38" s="197"/>
+      <c r="L38" s="245"/>
+      <c r="M38" s="245"/>
     </row>
     <row r="39" spans="1:13" ht="15.75" customHeight="1">
-      <c r="A39" s="227"/>
-      <c r="B39" s="230"/>
+      <c r="A39" s="214"/>
+      <c r="B39" s="222"/>
       <c r="C39" s="32" t="s">
         <v>71</v>
       </c>
       <c r="D39" s="4"/>
-      <c r="E39" s="215"/>
-      <c r="F39" s="212"/>
-      <c r="G39" s="212"/>
-      <c r="H39" s="212"/>
-      <c r="I39" s="212"/>
-      <c r="J39" s="212"/>
-      <c r="K39" s="212"/>
-      <c r="L39" s="190"/>
-      <c r="M39" s="190"/>
+      <c r="E39" s="203"/>
+      <c r="F39" s="197"/>
+      <c r="G39" s="197"/>
+      <c r="H39" s="197"/>
+      <c r="I39" s="197"/>
+      <c r="J39" s="197"/>
+      <c r="K39" s="197"/>
+      <c r="L39" s="245"/>
+      <c r="M39" s="245"/>
     </row>
     <row r="40" spans="1:13" ht="15.75" customHeight="1">
-      <c r="A40" s="235">
+      <c r="A40" s="213">
         <v>16</v>
       </c>
-      <c r="B40" s="230"/>
+      <c r="B40" s="222"/>
       <c r="C40" s="32" t="s">
         <v>72</v>
       </c>
       <c r="D40" s="4"/>
-      <c r="E40" s="207"/>
-      <c r="F40" s="214" t="s">
+      <c r="E40" s="196"/>
+      <c r="F40" s="206" t="s">
         <v>82</v>
       </c>
-      <c r="G40" s="218" t="s">
+      <c r="G40" s="199" t="s">
         <v>79</v>
       </c>
-      <c r="H40" s="210" t="s">
+      <c r="H40" s="200" t="s">
         <v>63</v>
       </c>
-      <c r="I40" s="210"/>
-      <c r="J40" s="210"/>
-      <c r="K40" s="210"/>
-      <c r="L40" s="191"/>
-      <c r="M40" s="191"/>
+      <c r="I40" s="200"/>
+      <c r="J40" s="200"/>
+      <c r="K40" s="200"/>
+      <c r="L40" s="263"/>
+      <c r="M40" s="263"/>
     </row>
     <row r="41" spans="1:13" ht="15.75" customHeight="1">
-      <c r="A41" s="235"/>
-      <c r="B41" s="230"/>
+      <c r="A41" s="213"/>
+      <c r="B41" s="222"/>
       <c r="C41" s="32" t="s">
         <v>74</v>
       </c>
       <c r="D41" s="4"/>
-      <c r="E41" s="207"/>
-      <c r="F41" s="214"/>
-      <c r="G41" s="218"/>
-      <c r="H41" s="210"/>
-      <c r="I41" s="210"/>
-      <c r="J41" s="210"/>
-      <c r="K41" s="210"/>
-      <c r="L41" s="191"/>
-      <c r="M41" s="191"/>
+      <c r="E41" s="196"/>
+      <c r="F41" s="206"/>
+      <c r="G41" s="199"/>
+      <c r="H41" s="200"/>
+      <c r="I41" s="200"/>
+      <c r="J41" s="200"/>
+      <c r="K41" s="200"/>
+      <c r="L41" s="263"/>
+      <c r="M41" s="263"/>
     </row>
     <row r="42" spans="1:13" ht="15.75" customHeight="1" thickBot="1">
-      <c r="A42" s="262"/>
-      <c r="B42" s="231"/>
+      <c r="A42" s="225"/>
+      <c r="B42" s="223"/>
       <c r="C42" s="9" t="s">
         <v>75</v>
       </c>
       <c r="D42" s="5"/>
-      <c r="E42" s="208"/>
-      <c r="F42" s="217"/>
-      <c r="G42" s="219"/>
-      <c r="H42" s="211"/>
-      <c r="I42" s="211"/>
-      <c r="J42" s="211"/>
-      <c r="K42" s="211"/>
-      <c r="L42" s="192"/>
-      <c r="M42" s="192"/>
+      <c r="E42" s="252"/>
+      <c r="F42" s="255"/>
+      <c r="G42" s="254"/>
+      <c r="H42" s="253"/>
+      <c r="I42" s="253"/>
+      <c r="J42" s="253"/>
+      <c r="K42" s="253"/>
+      <c r="L42" s="264"/>
+      <c r="M42" s="264"/>
     </row>
     <row r="43" spans="1:13" ht="15.75" customHeight="1">
       <c r="A43" s="226">
         <v>17</v>
       </c>
-      <c r="B43" s="257" t="s">
+      <c r="B43" s="216" t="s">
         <v>76</v>
       </c>
       <c r="C43" s="10" t="s">
         <v>77</v>
       </c>
       <c r="D43" s="3"/>
-      <c r="E43" s="220" t="s">
+      <c r="E43" s="208" t="s">
         <v>70</v>
       </c>
-      <c r="F43" s="221"/>
-      <c r="G43" s="221"/>
-      <c r="H43" s="221"/>
-      <c r="I43" s="221"/>
-      <c r="J43" s="221"/>
-      <c r="K43" s="221"/>
-      <c r="L43" s="193"/>
-      <c r="M43" s="193"/>
+      <c r="F43" s="201"/>
+      <c r="G43" s="201"/>
+      <c r="H43" s="201"/>
+      <c r="I43" s="201"/>
+      <c r="J43" s="201"/>
+      <c r="K43" s="201"/>
+      <c r="L43" s="262"/>
+      <c r="M43" s="262"/>
     </row>
     <row r="44" spans="1:13" ht="15.75" customHeight="1">
-      <c r="A44" s="227"/>
-      <c r="B44" s="258"/>
+      <c r="A44" s="214"/>
+      <c r="B44" s="217"/>
       <c r="C44" s="11" t="s">
         <v>80</v>
       </c>
       <c r="D44" s="4"/>
-      <c r="E44" s="215"/>
-      <c r="F44" s="212"/>
-      <c r="G44" s="212"/>
-      <c r="H44" s="212"/>
-      <c r="I44" s="212"/>
-      <c r="J44" s="212"/>
-      <c r="K44" s="212"/>
-      <c r="L44" s="190"/>
-      <c r="M44" s="190"/>
+      <c r="E44" s="203"/>
+      <c r="F44" s="197"/>
+      <c r="G44" s="197"/>
+      <c r="H44" s="197"/>
+      <c r="I44" s="197"/>
+      <c r="J44" s="197"/>
+      <c r="K44" s="197"/>
+      <c r="L44" s="245"/>
+      <c r="M44" s="245"/>
     </row>
     <row r="45" spans="1:13" ht="15.75" customHeight="1">
-      <c r="A45" s="235">
+      <c r="A45" s="213">
         <v>18</v>
       </c>
-      <c r="B45" s="258"/>
+      <c r="B45" s="217"/>
       <c r="C45" s="11" t="s">
         <v>81</v>
       </c>
       <c r="D45" s="4"/>
-      <c r="E45" s="207"/>
-      <c r="F45" s="214" t="s">
+      <c r="E45" s="196"/>
+      <c r="F45" s="206" t="s">
         <v>197</v>
       </c>
-      <c r="G45" s="210"/>
-      <c r="H45" s="214" t="s">
+      <c r="G45" s="200"/>
+      <c r="H45" s="206" t="s">
         <v>70</v>
       </c>
-      <c r="I45" s="214"/>
-      <c r="J45" s="214"/>
-      <c r="K45" s="214"/>
-      <c r="L45" s="194"/>
-      <c r="M45" s="194"/>
+      <c r="I45" s="206"/>
+      <c r="J45" s="206"/>
+      <c r="K45" s="206"/>
+      <c r="L45" s="256"/>
+      <c r="M45" s="256"/>
     </row>
     <row r="46" spans="1:13" ht="15.75" customHeight="1">
-      <c r="A46" s="235"/>
-      <c r="B46" s="258"/>
+      <c r="A46" s="213"/>
+      <c r="B46" s="217"/>
       <c r="C46" s="11" t="s">
         <v>83</v>
       </c>
       <c r="D46" s="4"/>
-      <c r="E46" s="207"/>
-      <c r="F46" s="214"/>
-      <c r="G46" s="210"/>
-      <c r="H46" s="214"/>
-      <c r="I46" s="214"/>
-      <c r="J46" s="214"/>
-      <c r="K46" s="214"/>
-      <c r="L46" s="194"/>
-      <c r="M46" s="194"/>
+      <c r="E46" s="196"/>
+      <c r="F46" s="206"/>
+      <c r="G46" s="200"/>
+      <c r="H46" s="206"/>
+      <c r="I46" s="206"/>
+      <c r="J46" s="206"/>
+      <c r="K46" s="206"/>
+      <c r="L46" s="256"/>
+      <c r="M46" s="256"/>
     </row>
     <row r="47" spans="1:13" ht="15.75" customHeight="1">
-      <c r="A47" s="227">
+      <c r="A47" s="214">
         <v>19</v>
       </c>
-      <c r="B47" s="258"/>
-      <c r="C47" s="260" t="s">
+      <c r="B47" s="217"/>
+      <c r="C47" s="219" t="s">
         <v>84</v>
       </c>
       <c r="D47" s="4"/>
-      <c r="E47" s="215" t="s">
+      <c r="E47" s="203" t="s">
         <v>78</v>
       </c>
-      <c r="F47" s="212"/>
-      <c r="G47" s="212"/>
-      <c r="H47" s="212"/>
-      <c r="I47" s="212"/>
-      <c r="J47" s="212"/>
-      <c r="K47" s="212"/>
-      <c r="L47" s="190"/>
-      <c r="M47" s="190"/>
+      <c r="F47" s="197"/>
+      <c r="G47" s="197"/>
+      <c r="H47" s="197"/>
+      <c r="I47" s="197"/>
+      <c r="J47" s="197"/>
+      <c r="K47" s="197"/>
+      <c r="L47" s="245"/>
+      <c r="M47" s="245"/>
     </row>
     <row r="48" spans="1:13" ht="15.75" customHeight="1" thickBot="1">
-      <c r="A48" s="228"/>
-      <c r="B48" s="259"/>
-      <c r="C48" s="261"/>
+      <c r="A48" s="215"/>
+      <c r="B48" s="218"/>
+      <c r="C48" s="220"/>
       <c r="D48" s="5"/>
-      <c r="E48" s="216"/>
-      <c r="F48" s="213"/>
-      <c r="G48" s="213"/>
-      <c r="H48" s="213"/>
-      <c r="I48" s="213"/>
-      <c r="J48" s="213"/>
-      <c r="K48" s="213"/>
-      <c r="L48" s="195"/>
-      <c r="M48" s="195"/>
+      <c r="E48" s="251"/>
+      <c r="F48" s="244"/>
+      <c r="G48" s="244"/>
+      <c r="H48" s="244"/>
+      <c r="I48" s="244"/>
+      <c r="J48" s="244"/>
+      <c r="K48" s="244"/>
+      <c r="L48" s="246"/>
+      <c r="M48" s="246"/>
     </row>
     <row r="49" spans="1:13" ht="15.75" customHeight="1">
-      <c r="A49" s="256">
+      <c r="A49" s="224">
         <v>20</v>
       </c>
-      <c r="B49" s="229" t="s">
+      <c r="B49" s="221" t="s">
         <v>85</v>
       </c>
       <c r="C49" s="10" t="s">
         <v>86</v>
       </c>
       <c r="D49" s="6"/>
-      <c r="E49" s="206"/>
-      <c r="F49" s="209"/>
-      <c r="G49" s="209"/>
-      <c r="H49" s="209" t="s">
+      <c r="E49" s="265"/>
+      <c r="F49" s="266"/>
+      <c r="G49" s="266"/>
+      <c r="H49" s="266" t="s">
         <v>78</v>
       </c>
-      <c r="I49" s="209"/>
-      <c r="J49" s="209"/>
-      <c r="K49" s="209"/>
-      <c r="L49" s="196"/>
-      <c r="M49" s="196"/>
+      <c r="I49" s="266"/>
+      <c r="J49" s="266"/>
+      <c r="K49" s="266"/>
+      <c r="L49" s="267"/>
+      <c r="M49" s="267"/>
     </row>
     <row r="50" spans="1:13" ht="15.75" customHeight="1">
-      <c r="A50" s="235"/>
-      <c r="B50" s="230"/>
+      <c r="A50" s="213"/>
+      <c r="B50" s="222"/>
       <c r="C50" s="11" t="s">
         <v>87</v>
       </c>
       <c r="D50" s="4"/>
-      <c r="E50" s="207"/>
-      <c r="F50" s="210"/>
-      <c r="G50" s="210"/>
-      <c r="H50" s="210"/>
-      <c r="I50" s="210"/>
-      <c r="J50" s="210"/>
-      <c r="K50" s="210"/>
-      <c r="L50" s="191"/>
-      <c r="M50" s="191"/>
+      <c r="E50" s="196"/>
+      <c r="F50" s="200"/>
+      <c r="G50" s="200"/>
+      <c r="H50" s="200"/>
+      <c r="I50" s="200"/>
+      <c r="J50" s="200"/>
+      <c r="K50" s="200"/>
+      <c r="L50" s="263"/>
+      <c r="M50" s="263"/>
     </row>
     <row r="51" spans="1:13" ht="15.75" customHeight="1">
-      <c r="A51" s="235"/>
-      <c r="B51" s="230"/>
+      <c r="A51" s="213"/>
+      <c r="B51" s="222"/>
       <c r="C51" s="11" t="s">
         <v>88</v>
       </c>
       <c r="D51" s="4"/>
-      <c r="E51" s="207"/>
-      <c r="F51" s="210"/>
-      <c r="G51" s="210"/>
-      <c r="H51" s="210"/>
-      <c r="I51" s="210"/>
-      <c r="J51" s="210"/>
-      <c r="K51" s="210"/>
-      <c r="L51" s="191"/>
-      <c r="M51" s="191"/>
+      <c r="E51" s="196"/>
+      <c r="F51" s="200"/>
+      <c r="G51" s="200"/>
+      <c r="H51" s="200"/>
+      <c r="I51" s="200"/>
+      <c r="J51" s="200"/>
+      <c r="K51" s="200"/>
+      <c r="L51" s="263"/>
+      <c r="M51" s="263"/>
     </row>
     <row r="52" spans="1:13" ht="15.75" customHeight="1" thickBot="1">
-      <c r="A52" s="262"/>
-      <c r="B52" s="231"/>
+      <c r="A52" s="225"/>
+      <c r="B52" s="223"/>
       <c r="C52" s="18" t="s">
         <v>89</v>
       </c>
       <c r="D52" s="5"/>
-      <c r="E52" s="208"/>
-      <c r="F52" s="211"/>
-      <c r="G52" s="211"/>
-      <c r="H52" s="211"/>
-      <c r="I52" s="211"/>
-      <c r="J52" s="211"/>
-      <c r="K52" s="211"/>
-      <c r="L52" s="192"/>
-      <c r="M52" s="192"/>
+      <c r="E52" s="252"/>
+      <c r="F52" s="253"/>
+      <c r="G52" s="253"/>
+      <c r="H52" s="253"/>
+      <c r="I52" s="253"/>
+      <c r="J52" s="253"/>
+      <c r="K52" s="253"/>
+      <c r="L52" s="264"/>
+      <c r="M52" s="264"/>
     </row>
     <row r="55" spans="1:13" ht="15.75" thickBot="1"/>
     <row r="56" spans="1:13" ht="15.75" thickBot="1">
@@ -14491,49 +14491,150 @@
     </row>
   </sheetData>
   <mergeCells count="211">
-    <mergeCell ref="I1:K1"/>
-    <mergeCell ref="E13:E14"/>
-    <mergeCell ref="H11:H12"/>
-    <mergeCell ref="F13:F14"/>
-    <mergeCell ref="G13:G14"/>
-    <mergeCell ref="H13:H14"/>
-    <mergeCell ref="I13:I14"/>
-    <mergeCell ref="J13:J14"/>
-    <mergeCell ref="K13:K14"/>
-    <mergeCell ref="J2:J8"/>
-    <mergeCell ref="K2:K8"/>
-    <mergeCell ref="E11:E12"/>
-    <mergeCell ref="E9:E10"/>
-    <mergeCell ref="F9:F10"/>
-    <mergeCell ref="G9:G10"/>
-    <mergeCell ref="E2:E8"/>
-    <mergeCell ref="F2:F8"/>
-    <mergeCell ref="G2:G8"/>
-    <mergeCell ref="H2:H8"/>
-    <mergeCell ref="I2:I8"/>
-    <mergeCell ref="I11:I12"/>
-    <mergeCell ref="A45:A46"/>
-    <mergeCell ref="A47:A48"/>
-    <mergeCell ref="B43:B48"/>
-    <mergeCell ref="C47:C48"/>
-    <mergeCell ref="B49:B52"/>
-    <mergeCell ref="A49:A52"/>
-    <mergeCell ref="A34:A35"/>
-    <mergeCell ref="A36:A37"/>
-    <mergeCell ref="A38:A39"/>
-    <mergeCell ref="A40:A42"/>
-    <mergeCell ref="B34:B42"/>
-    <mergeCell ref="A43:A44"/>
-    <mergeCell ref="B26:B33"/>
-    <mergeCell ref="A26:A27"/>
-    <mergeCell ref="A28:A29"/>
-    <mergeCell ref="A30:A31"/>
-    <mergeCell ref="A32:A33"/>
-    <mergeCell ref="A11:A12"/>
-    <mergeCell ref="A13:A14"/>
-    <mergeCell ref="A15:A16"/>
-    <mergeCell ref="A17:A19"/>
-    <mergeCell ref="A20:A22"/>
+    <mergeCell ref="M38:M39"/>
+    <mergeCell ref="M40:M42"/>
+    <mergeCell ref="M43:M44"/>
+    <mergeCell ref="M45:M46"/>
+    <mergeCell ref="M47:M48"/>
+    <mergeCell ref="M49:M52"/>
+    <mergeCell ref="L1:M1"/>
+    <mergeCell ref="M17:M19"/>
+    <mergeCell ref="M20:M22"/>
+    <mergeCell ref="M23:M25"/>
+    <mergeCell ref="M26:M27"/>
+    <mergeCell ref="M28:M29"/>
+    <mergeCell ref="M30:M31"/>
+    <mergeCell ref="M32:M33"/>
+    <mergeCell ref="M34:M35"/>
+    <mergeCell ref="M36:M37"/>
+    <mergeCell ref="M2:M8"/>
+    <mergeCell ref="M9:M10"/>
+    <mergeCell ref="M11:M12"/>
+    <mergeCell ref="M13:M14"/>
+    <mergeCell ref="M15:M16"/>
+    <mergeCell ref="L17:L19"/>
+    <mergeCell ref="L13:L14"/>
+    <mergeCell ref="L2:L8"/>
+    <mergeCell ref="E49:E52"/>
+    <mergeCell ref="F49:F52"/>
+    <mergeCell ref="G49:G52"/>
+    <mergeCell ref="H49:H52"/>
+    <mergeCell ref="I49:I52"/>
+    <mergeCell ref="J49:J52"/>
+    <mergeCell ref="K49:K52"/>
+    <mergeCell ref="L49:L52"/>
+    <mergeCell ref="F47:F48"/>
+    <mergeCell ref="G47:G48"/>
+    <mergeCell ref="H47:H48"/>
+    <mergeCell ref="I47:I48"/>
+    <mergeCell ref="J47:J48"/>
+    <mergeCell ref="E45:E46"/>
+    <mergeCell ref="F45:F46"/>
+    <mergeCell ref="G45:G46"/>
+    <mergeCell ref="H45:H46"/>
+    <mergeCell ref="I45:I46"/>
+    <mergeCell ref="J45:J46"/>
+    <mergeCell ref="K45:K46"/>
+    <mergeCell ref="L45:L46"/>
+    <mergeCell ref="E47:E48"/>
+    <mergeCell ref="K47:K48"/>
+    <mergeCell ref="L47:L48"/>
+    <mergeCell ref="E40:E42"/>
+    <mergeCell ref="F40:F42"/>
+    <mergeCell ref="G40:G42"/>
+    <mergeCell ref="H40:H42"/>
+    <mergeCell ref="I40:I42"/>
+    <mergeCell ref="J40:J42"/>
+    <mergeCell ref="K40:K42"/>
+    <mergeCell ref="L40:L42"/>
+    <mergeCell ref="E43:E44"/>
+    <mergeCell ref="K43:K44"/>
+    <mergeCell ref="L43:L44"/>
+    <mergeCell ref="F43:F44"/>
+    <mergeCell ref="G43:G44"/>
+    <mergeCell ref="H43:H44"/>
+    <mergeCell ref="I43:I44"/>
+    <mergeCell ref="J43:J44"/>
+    <mergeCell ref="E38:E39"/>
+    <mergeCell ref="F34:F35"/>
+    <mergeCell ref="G34:G35"/>
+    <mergeCell ref="H34:H35"/>
+    <mergeCell ref="I34:I35"/>
+    <mergeCell ref="J34:J35"/>
+    <mergeCell ref="E34:E35"/>
+    <mergeCell ref="K38:K39"/>
+    <mergeCell ref="L38:L39"/>
+    <mergeCell ref="F38:F39"/>
+    <mergeCell ref="G38:G39"/>
+    <mergeCell ref="H38:H39"/>
+    <mergeCell ref="I38:I39"/>
+    <mergeCell ref="J38:J39"/>
+    <mergeCell ref="K34:K35"/>
+    <mergeCell ref="L34:L35"/>
+    <mergeCell ref="E36:E37"/>
+    <mergeCell ref="F36:F37"/>
+    <mergeCell ref="G36:G37"/>
+    <mergeCell ref="H36:H37"/>
+    <mergeCell ref="I36:I37"/>
+    <mergeCell ref="J36:J37"/>
+    <mergeCell ref="K36:K37"/>
+    <mergeCell ref="L36:L37"/>
+    <mergeCell ref="E32:E33"/>
+    <mergeCell ref="F32:F33"/>
+    <mergeCell ref="G32:G33"/>
+    <mergeCell ref="H32:H33"/>
+    <mergeCell ref="I32:I33"/>
+    <mergeCell ref="J32:J33"/>
+    <mergeCell ref="K32:K33"/>
+    <mergeCell ref="L32:L33"/>
+    <mergeCell ref="F30:F31"/>
+    <mergeCell ref="G30:G31"/>
+    <mergeCell ref="H30:H31"/>
+    <mergeCell ref="I30:I31"/>
+    <mergeCell ref="J30:J31"/>
+    <mergeCell ref="E30:E31"/>
+    <mergeCell ref="F26:F27"/>
+    <mergeCell ref="G26:G27"/>
+    <mergeCell ref="H26:H27"/>
+    <mergeCell ref="I26:I27"/>
+    <mergeCell ref="J26:J27"/>
+    <mergeCell ref="E26:E27"/>
+    <mergeCell ref="K30:K31"/>
+    <mergeCell ref="L30:L31"/>
+    <mergeCell ref="K26:K27"/>
+    <mergeCell ref="L26:L27"/>
+    <mergeCell ref="E28:E29"/>
+    <mergeCell ref="F28:F29"/>
+    <mergeCell ref="G28:G29"/>
+    <mergeCell ref="H28:H29"/>
+    <mergeCell ref="I28:I29"/>
+    <mergeCell ref="J28:J29"/>
+    <mergeCell ref="K28:K29"/>
+    <mergeCell ref="L28:L29"/>
+    <mergeCell ref="L23:L25"/>
+    <mergeCell ref="H20:H22"/>
+    <mergeCell ref="F20:F22"/>
+    <mergeCell ref="G20:G22"/>
+    <mergeCell ref="I20:I22"/>
+    <mergeCell ref="J20:J22"/>
+    <mergeCell ref="K20:K22"/>
+    <mergeCell ref="L20:L22"/>
+    <mergeCell ref="E20:E22"/>
+    <mergeCell ref="F17:F19"/>
+    <mergeCell ref="G17:G19"/>
+    <mergeCell ref="H17:H19"/>
+    <mergeCell ref="I17:I19"/>
+    <mergeCell ref="J17:J19"/>
+    <mergeCell ref="K17:K19"/>
+    <mergeCell ref="J11:J12"/>
+    <mergeCell ref="K11:K12"/>
+    <mergeCell ref="E23:E25"/>
+    <mergeCell ref="F23:F25"/>
+    <mergeCell ref="G23:G25"/>
+    <mergeCell ref="H23:H25"/>
+    <mergeCell ref="I23:I25"/>
+    <mergeCell ref="J23:J25"/>
+    <mergeCell ref="K23:K25"/>
     <mergeCell ref="A2:A8"/>
     <mergeCell ref="B2:B8"/>
     <mergeCell ref="B9:B16"/>
@@ -14558,150 +14659,49 @@
     <mergeCell ref="G11:G12"/>
     <mergeCell ref="E15:E16"/>
     <mergeCell ref="E17:E19"/>
-    <mergeCell ref="F17:F19"/>
-    <mergeCell ref="G17:G19"/>
-    <mergeCell ref="H17:H19"/>
-    <mergeCell ref="I17:I19"/>
-    <mergeCell ref="J17:J19"/>
-    <mergeCell ref="K17:K19"/>
-    <mergeCell ref="J11:J12"/>
-    <mergeCell ref="K11:K12"/>
-    <mergeCell ref="E23:E25"/>
-    <mergeCell ref="F23:F25"/>
-    <mergeCell ref="G23:G25"/>
-    <mergeCell ref="H23:H25"/>
-    <mergeCell ref="I23:I25"/>
-    <mergeCell ref="J23:J25"/>
-    <mergeCell ref="K23:K25"/>
-    <mergeCell ref="L23:L25"/>
-    <mergeCell ref="H20:H22"/>
-    <mergeCell ref="F20:F22"/>
-    <mergeCell ref="G20:G22"/>
-    <mergeCell ref="I20:I22"/>
-    <mergeCell ref="J20:J22"/>
-    <mergeCell ref="K20:K22"/>
-    <mergeCell ref="L20:L22"/>
-    <mergeCell ref="E20:E22"/>
-    <mergeCell ref="F26:F27"/>
-    <mergeCell ref="G26:G27"/>
-    <mergeCell ref="H26:H27"/>
-    <mergeCell ref="I26:I27"/>
-    <mergeCell ref="J26:J27"/>
-    <mergeCell ref="E26:E27"/>
-    <mergeCell ref="K30:K31"/>
-    <mergeCell ref="L30:L31"/>
-    <mergeCell ref="K26:K27"/>
-    <mergeCell ref="L26:L27"/>
-    <mergeCell ref="E28:E29"/>
-    <mergeCell ref="F28:F29"/>
-    <mergeCell ref="G28:G29"/>
-    <mergeCell ref="H28:H29"/>
-    <mergeCell ref="I28:I29"/>
-    <mergeCell ref="J28:J29"/>
-    <mergeCell ref="K28:K29"/>
-    <mergeCell ref="L28:L29"/>
-    <mergeCell ref="E32:E33"/>
-    <mergeCell ref="F32:F33"/>
-    <mergeCell ref="G32:G33"/>
-    <mergeCell ref="H32:H33"/>
-    <mergeCell ref="I32:I33"/>
-    <mergeCell ref="J32:J33"/>
-    <mergeCell ref="K32:K33"/>
-    <mergeCell ref="L32:L33"/>
-    <mergeCell ref="F30:F31"/>
-    <mergeCell ref="G30:G31"/>
-    <mergeCell ref="H30:H31"/>
-    <mergeCell ref="I30:I31"/>
-    <mergeCell ref="J30:J31"/>
-    <mergeCell ref="E30:E31"/>
-    <mergeCell ref="E38:E39"/>
-    <mergeCell ref="F34:F35"/>
-    <mergeCell ref="G34:G35"/>
-    <mergeCell ref="H34:H35"/>
-    <mergeCell ref="I34:I35"/>
-    <mergeCell ref="J34:J35"/>
-    <mergeCell ref="E34:E35"/>
-    <mergeCell ref="K38:K39"/>
-    <mergeCell ref="L38:L39"/>
-    <mergeCell ref="F38:F39"/>
-    <mergeCell ref="G38:G39"/>
-    <mergeCell ref="H38:H39"/>
-    <mergeCell ref="I38:I39"/>
-    <mergeCell ref="J38:J39"/>
-    <mergeCell ref="K34:K35"/>
-    <mergeCell ref="L34:L35"/>
-    <mergeCell ref="E36:E37"/>
-    <mergeCell ref="F36:F37"/>
-    <mergeCell ref="G36:G37"/>
-    <mergeCell ref="H36:H37"/>
-    <mergeCell ref="I36:I37"/>
-    <mergeCell ref="J36:J37"/>
-    <mergeCell ref="K36:K37"/>
-    <mergeCell ref="L36:L37"/>
-    <mergeCell ref="E40:E42"/>
-    <mergeCell ref="F40:F42"/>
-    <mergeCell ref="G40:G42"/>
-    <mergeCell ref="H40:H42"/>
-    <mergeCell ref="I40:I42"/>
-    <mergeCell ref="J40:J42"/>
-    <mergeCell ref="K40:K42"/>
-    <mergeCell ref="L40:L42"/>
-    <mergeCell ref="E43:E44"/>
-    <mergeCell ref="K43:K44"/>
-    <mergeCell ref="L43:L44"/>
-    <mergeCell ref="F43:F44"/>
-    <mergeCell ref="G43:G44"/>
-    <mergeCell ref="H43:H44"/>
-    <mergeCell ref="I43:I44"/>
-    <mergeCell ref="J43:J44"/>
-    <mergeCell ref="E45:E46"/>
-    <mergeCell ref="F45:F46"/>
-    <mergeCell ref="G45:G46"/>
-    <mergeCell ref="H45:H46"/>
-    <mergeCell ref="I45:I46"/>
-    <mergeCell ref="J45:J46"/>
-    <mergeCell ref="K45:K46"/>
-    <mergeCell ref="L45:L46"/>
-    <mergeCell ref="E47:E48"/>
-    <mergeCell ref="K47:K48"/>
-    <mergeCell ref="L47:L48"/>
-    <mergeCell ref="E49:E52"/>
-    <mergeCell ref="F49:F52"/>
-    <mergeCell ref="G49:G52"/>
-    <mergeCell ref="H49:H52"/>
-    <mergeCell ref="I49:I52"/>
-    <mergeCell ref="J49:J52"/>
-    <mergeCell ref="K49:K52"/>
-    <mergeCell ref="L49:L52"/>
-    <mergeCell ref="F47:F48"/>
-    <mergeCell ref="G47:G48"/>
-    <mergeCell ref="H47:H48"/>
-    <mergeCell ref="I47:I48"/>
-    <mergeCell ref="J47:J48"/>
-    <mergeCell ref="M38:M39"/>
-    <mergeCell ref="M40:M42"/>
-    <mergeCell ref="M43:M44"/>
-    <mergeCell ref="M45:M46"/>
-    <mergeCell ref="M47:M48"/>
-    <mergeCell ref="M49:M52"/>
-    <mergeCell ref="L1:M1"/>
-    <mergeCell ref="M17:M19"/>
-    <mergeCell ref="M20:M22"/>
-    <mergeCell ref="M23:M25"/>
-    <mergeCell ref="M26:M27"/>
-    <mergeCell ref="M28:M29"/>
-    <mergeCell ref="M30:M31"/>
-    <mergeCell ref="M32:M33"/>
-    <mergeCell ref="M34:M35"/>
-    <mergeCell ref="M36:M37"/>
-    <mergeCell ref="M2:M8"/>
-    <mergeCell ref="M9:M10"/>
-    <mergeCell ref="M11:M12"/>
-    <mergeCell ref="M13:M14"/>
-    <mergeCell ref="M15:M16"/>
-    <mergeCell ref="L17:L19"/>
-    <mergeCell ref="L13:L14"/>
-    <mergeCell ref="L2:L8"/>
+    <mergeCell ref="B26:B33"/>
+    <mergeCell ref="A26:A27"/>
+    <mergeCell ref="A28:A29"/>
+    <mergeCell ref="A30:A31"/>
+    <mergeCell ref="A32:A33"/>
+    <mergeCell ref="A11:A12"/>
+    <mergeCell ref="A13:A14"/>
+    <mergeCell ref="A15:A16"/>
+    <mergeCell ref="A17:A19"/>
+    <mergeCell ref="A20:A22"/>
+    <mergeCell ref="A45:A46"/>
+    <mergeCell ref="A47:A48"/>
+    <mergeCell ref="B43:B48"/>
+    <mergeCell ref="C47:C48"/>
+    <mergeCell ref="B49:B52"/>
+    <mergeCell ref="A49:A52"/>
+    <mergeCell ref="A34:A35"/>
+    <mergeCell ref="A36:A37"/>
+    <mergeCell ref="A38:A39"/>
+    <mergeCell ref="A40:A42"/>
+    <mergeCell ref="B34:B42"/>
+    <mergeCell ref="A43:A44"/>
+    <mergeCell ref="I1:K1"/>
+    <mergeCell ref="E13:E14"/>
+    <mergeCell ref="H11:H12"/>
+    <mergeCell ref="F13:F14"/>
+    <mergeCell ref="G13:G14"/>
+    <mergeCell ref="H13:H14"/>
+    <mergeCell ref="I13:I14"/>
+    <mergeCell ref="J13:J14"/>
+    <mergeCell ref="K13:K14"/>
+    <mergeCell ref="J2:J8"/>
+    <mergeCell ref="K2:K8"/>
+    <mergeCell ref="E11:E12"/>
+    <mergeCell ref="E9:E10"/>
+    <mergeCell ref="F9:F10"/>
+    <mergeCell ref="G9:G10"/>
+    <mergeCell ref="E2:E8"/>
+    <mergeCell ref="F2:F8"/>
+    <mergeCell ref="G2:G8"/>
+    <mergeCell ref="H2:H8"/>
+    <mergeCell ref="I2:I8"/>
+    <mergeCell ref="I11:I12"/>
   </mergeCells>
   <hyperlinks>
     <hyperlink ref="E2" r:id="rId1" display="https://drive.google.com/open?id=1RYgFxmL-dmZYtjF2ca5a0yQUWnMVjo3mVexJabJL1c4"/>
@@ -14862,10 +14862,10 @@
       </c>
     </row>
     <row r="2" spans="1:9" ht="15.75" customHeight="1" thickTop="1" thickBot="1">
-      <c r="A2" s="282" t="s">
+      <c r="A2" s="281" t="s">
         <v>305</v>
       </c>
-      <c r="B2" s="277">
+      <c r="B2" s="274">
         <v>1</v>
       </c>
       <c r="C2" s="107">
@@ -14885,8 +14885,8 @@
       </c>
     </row>
     <row r="3" spans="1:9" ht="16.5" thickBot="1">
-      <c r="A3" s="283"/>
-      <c r="B3" s="278"/>
+      <c r="A3" s="282"/>
+      <c r="B3" s="275"/>
       <c r="C3" s="107">
         <v>43193</v>
       </c>
@@ -14902,8 +14902,8 @@
       <c r="I3" s="112"/>
     </row>
     <row r="4" spans="1:9" ht="16.5" thickBot="1">
-      <c r="A4" s="283"/>
-      <c r="B4" s="278"/>
+      <c r="A4" s="282"/>
+      <c r="B4" s="275"/>
       <c r="C4" s="107">
         <v>43194</v>
       </c>
@@ -14919,8 +14919,8 @@
       <c r="I4" s="112"/>
     </row>
     <row r="5" spans="1:9" ht="16.5" thickBot="1">
-      <c r="A5" s="283"/>
-      <c r="B5" s="278"/>
+      <c r="A5" s="282"/>
+      <c r="B5" s="275"/>
       <c r="C5" s="107">
         <v>43195</v>
       </c>
@@ -14938,8 +14938,8 @@
       <c r="I5" s="112"/>
     </row>
     <row r="6" spans="1:9" ht="16.5" thickBot="1">
-      <c r="A6" s="284"/>
-      <c r="B6" s="281"/>
+      <c r="A6" s="283"/>
+      <c r="B6" s="276"/>
       <c r="C6" s="114">
         <v>43196</v>
       </c>
@@ -14955,10 +14955,10 @@
       <c r="I6" s="118"/>
     </row>
     <row r="7" spans="1:9" ht="17.25" thickTop="1" thickBot="1">
-      <c r="A7" s="292" t="s">
+      <c r="A7" s="288" t="s">
         <v>184</v>
       </c>
-      <c r="B7" s="280">
+      <c r="B7" s="284">
         <v>2</v>
       </c>
       <c r="C7" s="140">
@@ -14976,8 +14976,8 @@
       <c r="I7" s="123"/>
     </row>
     <row r="8" spans="1:9" ht="16.5" thickBot="1">
-      <c r="A8" s="293"/>
-      <c r="B8" s="275"/>
+      <c r="A8" s="289"/>
+      <c r="B8" s="285"/>
       <c r="C8" s="140">
         <v>43200</v>
       </c>
@@ -14993,8 +14993,8 @@
       <c r="I8" s="123"/>
     </row>
     <row r="9" spans="1:9" ht="16.5" thickBot="1">
-      <c r="A9" s="293"/>
-      <c r="B9" s="275"/>
+      <c r="A9" s="289"/>
+      <c r="B9" s="285"/>
       <c r="C9" s="140">
         <v>43201</v>
       </c>
@@ -15010,8 +15010,8 @@
       <c r="I9" s="123"/>
     </row>
     <row r="10" spans="1:9" ht="15.75" customHeight="1" thickBot="1">
-      <c r="A10" s="293"/>
-      <c r="B10" s="275"/>
+      <c r="A10" s="289"/>
+      <c r="B10" s="285"/>
       <c r="C10" s="140">
         <v>43202</v>
       </c>
@@ -15027,8 +15027,8 @@
       <c r="I10" s="123"/>
     </row>
     <row r="11" spans="1:9" ht="16.5" thickBot="1">
-      <c r="A11" s="293"/>
-      <c r="B11" s="285"/>
+      <c r="A11" s="289"/>
+      <c r="B11" s="286"/>
       <c r="C11" s="140">
         <v>43203</v>
       </c>
@@ -15046,8 +15046,8 @@
       <c r="I11" s="123"/>
     </row>
     <row r="12" spans="1:9" ht="16.5" thickBot="1">
-      <c r="A12" s="272"/>
-      <c r="B12" s="286">
+      <c r="A12" s="290"/>
+      <c r="B12" s="280">
         <v>3</v>
       </c>
       <c r="C12" s="107">
@@ -15065,8 +15065,8 @@
       <c r="I12" s="112"/>
     </row>
     <row r="13" spans="1:9" ht="16.5" thickBot="1">
-      <c r="A13" s="272"/>
-      <c r="B13" s="278"/>
+      <c r="A13" s="290"/>
+      <c r="B13" s="275"/>
       <c r="C13" s="107">
         <v>43207</v>
       </c>
@@ -15082,8 +15082,8 @@
       <c r="I13" s="112"/>
     </row>
     <row r="14" spans="1:9" ht="16.5" thickBot="1">
-      <c r="A14" s="272"/>
-      <c r="B14" s="278"/>
+      <c r="A14" s="290"/>
+      <c r="B14" s="275"/>
       <c r="C14" s="107">
         <v>43208</v>
       </c>
@@ -15099,8 +15099,8 @@
       <c r="I14" s="112"/>
     </row>
     <row r="15" spans="1:9" ht="16.5" thickBot="1">
-      <c r="A15" s="272"/>
-      <c r="B15" s="278"/>
+      <c r="A15" s="290"/>
+      <c r="B15" s="275"/>
       <c r="C15" s="107">
         <v>43209</v>
       </c>
@@ -15116,8 +15116,8 @@
       <c r="I15" s="112"/>
     </row>
     <row r="16" spans="1:9" ht="16.5" thickBot="1">
-      <c r="A16" s="272"/>
-      <c r="B16" s="279"/>
+      <c r="A16" s="290"/>
+      <c r="B16" s="287"/>
       <c r="C16" s="107">
         <v>43210</v>
       </c>
@@ -15133,8 +15133,8 @@
       <c r="I16" s="112"/>
     </row>
     <row r="17" spans="1:9" ht="16.5" thickBot="1">
-      <c r="A17" s="272"/>
-      <c r="B17" s="280">
+      <c r="A17" s="290"/>
+      <c r="B17" s="284">
         <v>4</v>
       </c>
       <c r="C17" s="119">
@@ -15156,8 +15156,8 @@
       <c r="I17" s="123"/>
     </row>
     <row r="18" spans="1:9" ht="16.5" thickBot="1">
-      <c r="A18" s="272"/>
-      <c r="B18" s="275"/>
+      <c r="A18" s="290"/>
+      <c r="B18" s="285"/>
       <c r="C18" s="119">
         <v>43214</v>
       </c>
@@ -15173,8 +15173,8 @@
       <c r="I18" s="123"/>
     </row>
     <row r="19" spans="1:9" ht="16.5" thickBot="1">
-      <c r="A19" s="272"/>
-      <c r="B19" s="275"/>
+      <c r="A19" s="290"/>
+      <c r="B19" s="285"/>
       <c r="C19" s="119">
         <v>43215</v>
       </c>
@@ -15190,8 +15190,8 @@
       <c r="I19" s="123"/>
     </row>
     <row r="20" spans="1:9" ht="16.5" thickBot="1">
-      <c r="A20" s="272"/>
-      <c r="B20" s="275"/>
+      <c r="A20" s="290"/>
+      <c r="B20" s="285"/>
       <c r="C20" s="119">
         <v>43216</v>
       </c>
@@ -15207,8 +15207,8 @@
       <c r="I20" s="123"/>
     </row>
     <row r="21" spans="1:9" ht="16.5" thickBot="1">
-      <c r="A21" s="272"/>
-      <c r="B21" s="285"/>
+      <c r="A21" s="290"/>
+      <c r="B21" s="286"/>
       <c r="C21" s="119">
         <v>43217</v>
       </c>
@@ -15226,8 +15226,8 @@
       <c r="I21" s="123"/>
     </row>
     <row r="22" spans="1:9" ht="16.5" thickBot="1">
-      <c r="A22" s="272"/>
-      <c r="B22" s="286">
+      <c r="A22" s="290"/>
+      <c r="B22" s="280">
         <v>5</v>
       </c>
       <c r="C22" s="107">
@@ -15245,8 +15245,8 @@
       <c r="I22" s="112"/>
     </row>
     <row r="23" spans="1:9" ht="16.5" thickBot="1">
-      <c r="A23" s="272"/>
-      <c r="B23" s="278"/>
+      <c r="A23" s="290"/>
+      <c r="B23" s="275"/>
       <c r="C23" s="107">
         <v>43221</v>
       </c>
@@ -15262,8 +15262,8 @@
       <c r="I23" s="112"/>
     </row>
     <row r="24" spans="1:9" ht="16.5" thickBot="1">
-      <c r="A24" s="272"/>
-      <c r="B24" s="278"/>
+      <c r="A24" s="290"/>
+      <c r="B24" s="275"/>
       <c r="C24" s="107">
         <v>43222</v>
       </c>
@@ -15279,8 +15279,8 @@
       <c r="I24" s="112"/>
     </row>
     <row r="25" spans="1:9" ht="16.5" thickBot="1">
-      <c r="A25" s="272"/>
-      <c r="B25" s="278"/>
+      <c r="A25" s="290"/>
+      <c r="B25" s="275"/>
       <c r="C25" s="107">
         <v>43223</v>
       </c>
@@ -15296,8 +15296,8 @@
       <c r="I25" s="112"/>
     </row>
     <row r="26" spans="1:9" ht="16.5" thickBot="1">
-      <c r="A26" s="272"/>
-      <c r="B26" s="279"/>
+      <c r="A26" s="290"/>
+      <c r="B26" s="287"/>
       <c r="C26" s="107">
         <v>43224</v>
       </c>
@@ -15313,8 +15313,8 @@
       <c r="I26" s="112"/>
     </row>
     <row r="27" spans="1:9" ht="15.75" customHeight="1" thickBot="1">
-      <c r="A27" s="272"/>
-      <c r="B27" s="290">
+      <c r="A27" s="290"/>
+      <c r="B27" s="292">
         <v>6</v>
       </c>
       <c r="C27" s="127">
@@ -15336,8 +15336,8 @@
       <c r="I27" s="123"/>
     </row>
     <row r="28" spans="1:9" ht="16.5" thickBot="1">
-      <c r="A28" s="272"/>
-      <c r="B28" s="288"/>
+      <c r="A28" s="290"/>
+      <c r="B28" s="278"/>
       <c r="C28" s="127">
         <v>43228</v>
       </c>
@@ -15353,8 +15353,8 @@
       <c r="I28" s="123"/>
     </row>
     <row r="29" spans="1:9" ht="16.5" thickBot="1">
-      <c r="A29" s="272"/>
-      <c r="B29" s="288"/>
+      <c r="A29" s="290"/>
+      <c r="B29" s="278"/>
       <c r="C29" s="127">
         <v>43229</v>
       </c>
@@ -15370,8 +15370,8 @@
       <c r="I29" s="123"/>
     </row>
     <row r="30" spans="1:9" ht="16.5" thickBot="1">
-      <c r="A30" s="272"/>
-      <c r="B30" s="288"/>
+      <c r="A30" s="290"/>
+      <c r="B30" s="278"/>
       <c r="C30" s="127">
         <v>43230</v>
       </c>
@@ -15387,8 +15387,8 @@
       <c r="I30" s="123"/>
     </row>
     <row r="31" spans="1:9" ht="27" thickBot="1">
-      <c r="A31" s="273"/>
-      <c r="B31" s="291"/>
+      <c r="A31" s="291"/>
+      <c r="B31" s="293"/>
       <c r="C31" s="131">
         <v>43231</v>
       </c>
@@ -15406,10 +15406,10 @@
       <c r="I31" s="135"/>
     </row>
     <row r="32" spans="1:9" ht="17.25" thickTop="1" thickBot="1">
-      <c r="A32" s="282" t="s">
+      <c r="A32" s="281" t="s">
         <v>34</v>
       </c>
-      <c r="B32" s="277">
+      <c r="B32" s="274">
         <v>7</v>
       </c>
       <c r="C32" s="107">
@@ -15427,8 +15427,8 @@
       <c r="I32" s="112"/>
     </row>
     <row r="33" spans="1:9" ht="16.5" thickBot="1">
-      <c r="A33" s="283"/>
-      <c r="B33" s="278"/>
+      <c r="A33" s="282"/>
+      <c r="B33" s="275"/>
       <c r="C33" s="107">
         <v>43235</v>
       </c>
@@ -15444,8 +15444,8 @@
       <c r="I33" s="112"/>
     </row>
     <row r="34" spans="1:9" ht="16.5" thickBot="1">
-      <c r="A34" s="283"/>
-      <c r="B34" s="278"/>
+      <c r="A34" s="282"/>
+      <c r="B34" s="275"/>
       <c r="C34" s="107">
         <v>43236</v>
       </c>
@@ -15461,8 +15461,8 @@
       <c r="I34" s="112"/>
     </row>
     <row r="35" spans="1:9" ht="16.5" thickBot="1">
-      <c r="A35" s="283"/>
-      <c r="B35" s="278"/>
+      <c r="A35" s="282"/>
+      <c r="B35" s="275"/>
       <c r="C35" s="107">
         <v>43237</v>
       </c>
@@ -15478,8 +15478,8 @@
       <c r="I35" s="112"/>
     </row>
     <row r="36" spans="1:9" ht="16.5" thickBot="1">
-      <c r="A36" s="283"/>
-      <c r="B36" s="281"/>
+      <c r="A36" s="282"/>
+      <c r="B36" s="276"/>
       <c r="C36" s="107">
         <v>43238</v>
       </c>
@@ -15495,8 +15495,8 @@
       <c r="I36" s="112"/>
     </row>
     <row r="37" spans="1:9" ht="17.25" thickTop="1" thickBot="1">
-      <c r="A37" s="283"/>
-      <c r="B37" s="287">
+      <c r="A37" s="282"/>
+      <c r="B37" s="277">
         <v>8</v>
       </c>
       <c r="C37" s="127">
@@ -15518,8 +15518,8 @@
       <c r="I37" s="123"/>
     </row>
     <row r="38" spans="1:9" ht="16.5" thickBot="1">
-      <c r="A38" s="283"/>
-      <c r="B38" s="288"/>
+      <c r="A38" s="282"/>
+      <c r="B38" s="278"/>
       <c r="C38" s="127">
         <v>43242</v>
       </c>
@@ -15535,8 +15535,8 @@
       <c r="I38" s="123"/>
     </row>
     <row r="39" spans="1:9" ht="16.5" thickBot="1">
-      <c r="A39" s="283"/>
-      <c r="B39" s="288"/>
+      <c r="A39" s="282"/>
+      <c r="B39" s="278"/>
       <c r="C39" s="127">
         <v>43243</v>
       </c>
@@ -15552,8 +15552,8 @@
       <c r="I39" s="123"/>
     </row>
     <row r="40" spans="1:9" ht="16.5" thickBot="1">
-      <c r="A40" s="283"/>
-      <c r="B40" s="288"/>
+      <c r="A40" s="282"/>
+      <c r="B40" s="278"/>
       <c r="C40" s="127">
         <v>43244</v>
       </c>
@@ -15569,8 +15569,8 @@
       <c r="I40" s="123"/>
     </row>
     <row r="41" spans="1:9" ht="27" thickBot="1">
-      <c r="A41" s="283"/>
-      <c r="B41" s="289"/>
+      <c r="A41" s="282"/>
+      <c r="B41" s="279"/>
       <c r="C41" s="127">
         <v>43245</v>
       </c>
@@ -15588,8 +15588,8 @@
       <c r="I41" s="123"/>
     </row>
     <row r="42" spans="1:9" ht="16.5" thickBot="1">
-      <c r="A42" s="283"/>
-      <c r="B42" s="286">
+      <c r="A42" s="282"/>
+      <c r="B42" s="280">
         <v>9</v>
       </c>
       <c r="C42" s="107">
@@ -15607,8 +15607,8 @@
       <c r="I42" s="112"/>
     </row>
     <row r="43" spans="1:9" ht="16.5" thickBot="1">
-      <c r="A43" s="283"/>
-      <c r="B43" s="278"/>
+      <c r="A43" s="282"/>
+      <c r="B43" s="275"/>
       <c r="C43" s="107">
         <v>43249</v>
       </c>
@@ -15624,8 +15624,8 @@
       <c r="I43" s="112"/>
     </row>
     <row r="44" spans="1:9" ht="16.5" thickBot="1">
-      <c r="A44" s="283"/>
-      <c r="B44" s="278"/>
+      <c r="A44" s="282"/>
+      <c r="B44" s="275"/>
       <c r="C44" s="107">
         <v>43250</v>
       </c>
@@ -15641,8 +15641,8 @@
       <c r="I44" s="112"/>
     </row>
     <row r="45" spans="1:9" ht="16.5" thickBot="1">
-      <c r="A45" s="283"/>
-      <c r="B45" s="278"/>
+      <c r="A45" s="282"/>
+      <c r="B45" s="275"/>
       <c r="C45" s="107">
         <v>43251</v>
       </c>
@@ -15658,8 +15658,8 @@
       <c r="I45" s="112"/>
     </row>
     <row r="46" spans="1:9" ht="16.5" thickBot="1">
-      <c r="A46" s="284"/>
-      <c r="B46" s="281"/>
+      <c r="A46" s="283"/>
+      <c r="B46" s="276"/>
       <c r="C46" s="114">
         <v>43252</v>
       </c>
@@ -15675,10 +15675,10 @@
       <c r="I46" s="118"/>
     </row>
     <row r="47" spans="1:9" ht="15.75" customHeight="1" thickTop="1" thickBot="1">
-      <c r="A47" s="271" t="s">
+      <c r="A47" s="296" t="s">
         <v>47</v>
       </c>
-      <c r="B47" s="274">
+      <c r="B47" s="294">
         <v>10</v>
       </c>
       <c r="C47" s="119">
@@ -15700,8 +15700,8 @@
       <c r="I47" s="123"/>
     </row>
     <row r="48" spans="1:9" ht="16.5" thickBot="1">
-      <c r="A48" s="272"/>
-      <c r="B48" s="275"/>
+      <c r="A48" s="290"/>
+      <c r="B48" s="285"/>
       <c r="C48" s="119">
         <v>43256</v>
       </c>
@@ -15717,8 +15717,8 @@
       <c r="I48" s="123"/>
     </row>
     <row r="49" spans="1:9" ht="16.5" thickBot="1">
-      <c r="A49" s="272"/>
-      <c r="B49" s="275"/>
+      <c r="A49" s="290"/>
+      <c r="B49" s="285"/>
       <c r="C49" s="119">
         <v>43257</v>
       </c>
@@ -15734,8 +15734,8 @@
       <c r="I49" s="123"/>
     </row>
     <row r="50" spans="1:9" ht="16.5" thickBot="1">
-      <c r="A50" s="272"/>
-      <c r="B50" s="275"/>
+      <c r="A50" s="290"/>
+      <c r="B50" s="285"/>
       <c r="C50" s="119">
         <v>43258</v>
       </c>
@@ -15751,8 +15751,8 @@
       <c r="I50" s="123"/>
     </row>
     <row r="51" spans="1:9" ht="27" thickBot="1">
-      <c r="A51" s="272"/>
-      <c r="B51" s="276"/>
+      <c r="A51" s="290"/>
+      <c r="B51" s="295"/>
       <c r="C51" s="119">
         <v>43259</v>
       </c>
@@ -15770,8 +15770,8 @@
       <c r="I51" s="123"/>
     </row>
     <row r="52" spans="1:9" ht="17.25" thickTop="1" thickBot="1">
-      <c r="A52" s="272"/>
-      <c r="B52" s="277">
+      <c r="A52" s="290"/>
+      <c r="B52" s="274">
         <v>11</v>
       </c>
       <c r="C52" s="107">
@@ -15789,8 +15789,8 @@
       <c r="I52" s="112"/>
     </row>
     <row r="53" spans="1:9" ht="16.5" thickBot="1">
-      <c r="A53" s="272"/>
-      <c r="B53" s="278"/>
+      <c r="A53" s="290"/>
+      <c r="B53" s="275"/>
       <c r="C53" s="107">
         <v>43263</v>
       </c>
@@ -15806,8 +15806,8 @@
       <c r="I53" s="112"/>
     </row>
     <row r="54" spans="1:9" ht="16.5" thickBot="1">
-      <c r="A54" s="272"/>
-      <c r="B54" s="278"/>
+      <c r="A54" s="290"/>
+      <c r="B54" s="275"/>
       <c r="C54" s="107">
         <v>43264</v>
       </c>
@@ -15823,8 +15823,8 @@
       <c r="I54" s="112"/>
     </row>
     <row r="55" spans="1:9" ht="16.5" thickBot="1">
-      <c r="A55" s="272"/>
-      <c r="B55" s="278"/>
+      <c r="A55" s="290"/>
+      <c r="B55" s="275"/>
       <c r="C55" s="107">
         <v>43265</v>
       </c>
@@ -15840,8 +15840,8 @@
       <c r="I55" s="112"/>
     </row>
     <row r="56" spans="1:9" ht="16.5" thickBot="1">
-      <c r="A56" s="272"/>
-      <c r="B56" s="279"/>
+      <c r="A56" s="290"/>
+      <c r="B56" s="287"/>
       <c r="C56" s="107">
         <v>43266</v>
       </c>
@@ -15857,8 +15857,8 @@
       <c r="I56" s="112"/>
     </row>
     <row r="57" spans="1:9" ht="16.5" thickBot="1">
-      <c r="A57" s="272"/>
-      <c r="B57" s="280">
+      <c r="A57" s="290"/>
+      <c r="B57" s="284">
         <v>12</v>
       </c>
       <c r="C57" s="119">
@@ -15880,8 +15880,8 @@
       <c r="I57" s="123"/>
     </row>
     <row r="58" spans="1:9" ht="16.5" thickBot="1">
-      <c r="A58" s="272"/>
-      <c r="B58" s="275"/>
+      <c r="A58" s="290"/>
+      <c r="B58" s="285"/>
       <c r="C58" s="119">
         <v>43270</v>
       </c>
@@ -15897,8 +15897,8 @@
       <c r="I58" s="123"/>
     </row>
     <row r="59" spans="1:9" ht="16.5" thickBot="1">
-      <c r="A59" s="272"/>
-      <c r="B59" s="275"/>
+      <c r="A59" s="290"/>
+      <c r="B59" s="285"/>
       <c r="C59" s="119">
         <v>43271</v>
       </c>
@@ -15914,8 +15914,8 @@
       <c r="I59" s="123"/>
     </row>
     <row r="60" spans="1:9" ht="16.5" thickBot="1">
-      <c r="A60" s="272"/>
-      <c r="B60" s="275"/>
+      <c r="A60" s="290"/>
+      <c r="B60" s="285"/>
       <c r="C60" s="119">
         <v>43272</v>
       </c>
@@ -15931,8 +15931,8 @@
       <c r="I60" s="123"/>
     </row>
     <row r="61" spans="1:9" ht="27" thickBot="1">
-      <c r="A61" s="273"/>
-      <c r="B61" s="276"/>
+      <c r="A61" s="291"/>
+      <c r="B61" s="295"/>
       <c r="C61" s="137">
         <v>43273</v>
       </c>
@@ -15950,10 +15950,10 @@
       <c r="I61" s="135"/>
     </row>
     <row r="62" spans="1:9" ht="15.75" customHeight="1" thickTop="1" thickBot="1">
-      <c r="A62" s="282" t="s">
+      <c r="A62" s="281" t="s">
         <v>627</v>
       </c>
-      <c r="B62" s="277">
+      <c r="B62" s="274">
         <v>13</v>
       </c>
       <c r="C62" s="107">
@@ -15971,8 +15971,8 @@
       <c r="I62" s="112"/>
     </row>
     <row r="63" spans="1:9" ht="16.5" thickBot="1">
-      <c r="A63" s="283"/>
-      <c r="B63" s="278"/>
+      <c r="A63" s="282"/>
+      <c r="B63" s="275"/>
       <c r="C63" s="107">
         <v>43277</v>
       </c>
@@ -15988,8 +15988,8 @@
       <c r="I63" s="112"/>
     </row>
     <row r="64" spans="1:9" ht="16.5" thickBot="1">
-      <c r="A64" s="283"/>
-      <c r="B64" s="278"/>
+      <c r="A64" s="282"/>
+      <c r="B64" s="275"/>
       <c r="C64" s="107">
         <v>43278</v>
       </c>
@@ -16005,8 +16005,8 @@
       <c r="I64" s="112"/>
     </row>
     <row r="65" spans="1:9" ht="16.5" thickBot="1">
-      <c r="A65" s="283"/>
-      <c r="B65" s="278"/>
+      <c r="A65" s="282"/>
+      <c r="B65" s="275"/>
       <c r="C65" s="107">
         <v>43279</v>
       </c>
@@ -16022,8 +16022,8 @@
       <c r="I65" s="112"/>
     </row>
     <row r="66" spans="1:9" ht="16.5" thickBot="1">
-      <c r="A66" s="283"/>
-      <c r="B66" s="281"/>
+      <c r="A66" s="282"/>
+      <c r="B66" s="276"/>
       <c r="C66" s="107">
         <v>43280</v>
       </c>
@@ -16039,8 +16039,8 @@
       <c r="I66" s="112"/>
     </row>
     <row r="67" spans="1:9" ht="17.25" thickTop="1" thickBot="1">
-      <c r="A67" s="283"/>
-      <c r="B67" s="287">
+      <c r="A67" s="282"/>
+      <c r="B67" s="277">
         <v>14</v>
       </c>
       <c r="C67" s="127">
@@ -16062,8 +16062,8 @@
       <c r="I67" s="123"/>
     </row>
     <row r="68" spans="1:9" ht="16.5" thickBot="1">
-      <c r="A68" s="283"/>
-      <c r="B68" s="288"/>
+      <c r="A68" s="282"/>
+      <c r="B68" s="278"/>
       <c r="C68" s="127">
         <v>43284</v>
       </c>
@@ -16079,8 +16079,8 @@
       <c r="I68" s="123"/>
     </row>
     <row r="69" spans="1:9" ht="16.5" thickBot="1">
-      <c r="A69" s="283"/>
-      <c r="B69" s="288"/>
+      <c r="A69" s="282"/>
+      <c r="B69" s="278"/>
       <c r="C69" s="127">
         <v>43285</v>
       </c>
@@ -16096,8 +16096,8 @@
       <c r="I69" s="123"/>
     </row>
     <row r="70" spans="1:9" ht="16.5" thickBot="1">
-      <c r="A70" s="283"/>
-      <c r="B70" s="288"/>
+      <c r="A70" s="282"/>
+      <c r="B70" s="278"/>
       <c r="C70" s="127">
         <v>43286</v>
       </c>
@@ -16113,8 +16113,8 @@
       <c r="I70" s="123"/>
     </row>
     <row r="71" spans="1:9" ht="16.5" thickBot="1">
-      <c r="A71" s="283"/>
-      <c r="B71" s="289"/>
+      <c r="A71" s="282"/>
+      <c r="B71" s="279"/>
       <c r="C71" s="127">
         <v>43287</v>
       </c>
@@ -16132,8 +16132,8 @@
       <c r="I71" s="123"/>
     </row>
     <row r="72" spans="1:9" ht="16.5" thickBot="1">
-      <c r="A72" s="283"/>
-      <c r="B72" s="286">
+      <c r="A72" s="282"/>
+      <c r="B72" s="280">
         <v>15</v>
       </c>
       <c r="C72" s="107">
@@ -16151,8 +16151,8 @@
       <c r="I72" s="112"/>
     </row>
     <row r="73" spans="1:9" ht="16.5" thickBot="1">
-      <c r="A73" s="283"/>
-      <c r="B73" s="278"/>
+      <c r="A73" s="282"/>
+      <c r="B73" s="275"/>
       <c r="C73" s="107">
         <v>43291</v>
       </c>
@@ -16168,8 +16168,8 @@
       <c r="I73" s="112"/>
     </row>
     <row r="74" spans="1:9" ht="16.5" thickBot="1">
-      <c r="A74" s="283"/>
-      <c r="B74" s="278"/>
+      <c r="A74" s="282"/>
+      <c r="B74" s="275"/>
       <c r="C74" s="107">
         <v>43292</v>
       </c>
@@ -16185,8 +16185,8 @@
       <c r="I74" s="112"/>
     </row>
     <row r="75" spans="1:9" ht="16.5" thickBot="1">
-      <c r="A75" s="283"/>
-      <c r="B75" s="278"/>
+      <c r="A75" s="282"/>
+      <c r="B75" s="275"/>
       <c r="C75" s="107">
         <v>43293</v>
       </c>
@@ -16202,8 +16202,8 @@
       <c r="I75" s="112"/>
     </row>
     <row r="76" spans="1:9" ht="16.5" thickBot="1">
-      <c r="A76" s="283"/>
-      <c r="B76" s="279"/>
+      <c r="A76" s="282"/>
+      <c r="B76" s="287"/>
       <c r="C76" s="107">
         <v>43294</v>
       </c>
@@ -16219,8 +16219,8 @@
       <c r="I76" s="112"/>
     </row>
     <row r="77" spans="1:9" ht="16.5" thickBot="1">
-      <c r="A77" s="283"/>
-      <c r="B77" s="290">
+      <c r="A77" s="282"/>
+      <c r="B77" s="292">
         <v>16</v>
       </c>
       <c r="C77" s="127">
@@ -16242,8 +16242,8 @@
       <c r="I77" s="123"/>
     </row>
     <row r="78" spans="1:9" ht="16.5" thickBot="1">
-      <c r="A78" s="283"/>
-      <c r="B78" s="288"/>
+      <c r="A78" s="282"/>
+      <c r="B78" s="278"/>
       <c r="C78" s="127">
         <v>43298</v>
       </c>
@@ -16259,8 +16259,8 @@
       <c r="I78" s="123"/>
     </row>
     <row r="79" spans="1:9" ht="16.5" thickBot="1">
-      <c r="A79" s="283"/>
-      <c r="B79" s="288"/>
+      <c r="A79" s="282"/>
+      <c r="B79" s="278"/>
       <c r="C79" s="127">
         <v>43299</v>
       </c>
@@ -16276,8 +16276,8 @@
       <c r="I79" s="123"/>
     </row>
     <row r="80" spans="1:9" ht="16.5" thickBot="1">
-      <c r="A80" s="283"/>
-      <c r="B80" s="288"/>
+      <c r="A80" s="282"/>
+      <c r="B80" s="278"/>
       <c r="C80" s="127">
         <v>43300</v>
       </c>
@@ -16293,8 +16293,8 @@
       <c r="I80" s="123"/>
     </row>
     <row r="81" spans="1:9" ht="16.5" thickBot="1">
-      <c r="A81" s="284"/>
-      <c r="B81" s="291"/>
+      <c r="A81" s="283"/>
+      <c r="B81" s="293"/>
       <c r="C81" s="131">
         <v>43301</v>
       </c>
@@ -16312,10 +16312,10 @@
       <c r="I81" s="135"/>
     </row>
     <row r="82" spans="1:9" ht="15.75" customHeight="1" thickTop="1" thickBot="1">
-      <c r="A82" s="282" t="s">
+      <c r="A82" s="281" t="s">
         <v>76</v>
       </c>
-      <c r="B82" s="277">
+      <c r="B82" s="274">
         <v>17</v>
       </c>
       <c r="C82" s="107">
@@ -16333,8 +16333,8 @@
       <c r="I82" s="112"/>
     </row>
     <row r="83" spans="1:9" ht="16.5" thickBot="1">
-      <c r="A83" s="283"/>
-      <c r="B83" s="278"/>
+      <c r="A83" s="282"/>
+      <c r="B83" s="275"/>
       <c r="C83" s="107">
         <v>43305</v>
       </c>
@@ -16350,8 +16350,8 @@
       <c r="I83" s="112"/>
     </row>
     <row r="84" spans="1:9" ht="16.5" thickBot="1">
-      <c r="A84" s="283"/>
-      <c r="B84" s="278"/>
+      <c r="A84" s="282"/>
+      <c r="B84" s="275"/>
       <c r="C84" s="107">
         <v>43306</v>
       </c>
@@ -16367,8 +16367,8 @@
       <c r="I84" s="112"/>
     </row>
     <row r="85" spans="1:9" ht="16.5" thickBot="1">
-      <c r="A85" s="283"/>
-      <c r="B85" s="278"/>
+      <c r="A85" s="282"/>
+      <c r="B85" s="275"/>
       <c r="C85" s="107">
         <v>43307</v>
       </c>
@@ -16384,8 +16384,8 @@
       <c r="I85" s="112"/>
     </row>
     <row r="86" spans="1:9" ht="16.5" thickBot="1">
-      <c r="A86" s="284"/>
-      <c r="B86" s="281"/>
+      <c r="A86" s="283"/>
+      <c r="B86" s="276"/>
       <c r="C86" s="114">
         <v>43308</v>
       </c>
@@ -16401,10 +16401,10 @@
       <c r="I86" s="118"/>
     </row>
     <row r="87" spans="1:9" ht="17.25" thickTop="1" thickBot="1">
-      <c r="A87" s="282" t="s">
+      <c r="A87" s="281" t="s">
         <v>632</v>
       </c>
-      <c r="B87" s="274">
+      <c r="B87" s="294">
         <v>18</v>
       </c>
       <c r="C87" s="119">
@@ -16426,8 +16426,8 @@
       <c r="I87" s="123"/>
     </row>
     <row r="88" spans="1:9" ht="16.5" thickBot="1">
-      <c r="A88" s="283"/>
-      <c r="B88" s="275"/>
+      <c r="A88" s="282"/>
+      <c r="B88" s="285"/>
       <c r="C88" s="119">
         <v>43312</v>
       </c>
@@ -16443,8 +16443,8 @@
       <c r="I88" s="123"/>
     </row>
     <row r="89" spans="1:9" ht="16.5" thickBot="1">
-      <c r="A89" s="283"/>
-      <c r="B89" s="275"/>
+      <c r="A89" s="282"/>
+      <c r="B89" s="285"/>
       <c r="C89" s="119">
         <v>43313</v>
       </c>
@@ -16460,8 +16460,8 @@
       <c r="I89" s="123"/>
     </row>
     <row r="90" spans="1:9" ht="16.5" thickBot="1">
-      <c r="A90" s="283"/>
-      <c r="B90" s="275"/>
+      <c r="A90" s="282"/>
+      <c r="B90" s="285"/>
       <c r="C90" s="119">
         <v>43314</v>
       </c>
@@ -16477,8 +16477,8 @@
       <c r="I90" s="123"/>
     </row>
     <row r="91" spans="1:9" ht="27" thickBot="1">
-      <c r="A91" s="283"/>
-      <c r="B91" s="285"/>
+      <c r="A91" s="282"/>
+      <c r="B91" s="286"/>
       <c r="C91" s="119">
         <v>43315</v>
       </c>
@@ -16496,8 +16496,8 @@
       <c r="I91" s="123"/>
     </row>
     <row r="92" spans="1:9" ht="16.5" thickBot="1">
-      <c r="A92" s="283"/>
-      <c r="B92" s="286">
+      <c r="A92" s="282"/>
+      <c r="B92" s="280">
         <v>19</v>
       </c>
       <c r="C92" s="107">
@@ -16515,8 +16515,8 @@
       <c r="I92" s="112"/>
     </row>
     <row r="93" spans="1:9" ht="16.5" thickBot="1">
-      <c r="A93" s="283"/>
-      <c r="B93" s="278"/>
+      <c r="A93" s="282"/>
+      <c r="B93" s="275"/>
       <c r="C93" s="107">
         <v>43319</v>
       </c>
@@ -16532,8 +16532,8 @@
       <c r="I93" s="112"/>
     </row>
     <row r="94" spans="1:9" ht="16.5" thickBot="1">
-      <c r="A94" s="283"/>
-      <c r="B94" s="278"/>
+      <c r="A94" s="282"/>
+      <c r="B94" s="275"/>
       <c r="C94" s="107">
         <v>43320</v>
       </c>
@@ -16549,8 +16549,8 @@
       <c r="I94" s="112"/>
     </row>
     <row r="95" spans="1:9" ht="16.5" thickBot="1">
-      <c r="A95" s="283"/>
-      <c r="B95" s="278"/>
+      <c r="A95" s="282"/>
+      <c r="B95" s="275"/>
       <c r="C95" s="107">
         <v>43321</v>
       </c>
@@ -16566,8 +16566,8 @@
       <c r="I95" s="112"/>
     </row>
     <row r="96" spans="1:9" ht="16.5" thickBot="1">
-      <c r="A96" s="283"/>
-      <c r="B96" s="279"/>
+      <c r="A96" s="282"/>
+      <c r="B96" s="287"/>
       <c r="C96" s="107">
         <v>43322</v>
       </c>
@@ -16583,8 +16583,8 @@
       <c r="I96" s="112"/>
     </row>
     <row r="97" spans="1:9" ht="16.5" thickBot="1">
-      <c r="A97" s="283"/>
-      <c r="B97" s="280">
+      <c r="A97" s="282"/>
+      <c r="B97" s="284">
         <v>20</v>
       </c>
       <c r="C97" s="119">
@@ -16604,8 +16604,8 @@
       <c r="I97" s="123"/>
     </row>
     <row r="98" spans="1:9" ht="16.5" thickBot="1">
-      <c r="A98" s="283"/>
-      <c r="B98" s="275"/>
+      <c r="A98" s="282"/>
+      <c r="B98" s="285"/>
       <c r="C98" s="119">
         <v>43326</v>
       </c>
@@ -16621,8 +16621,8 @@
       <c r="I98" s="123"/>
     </row>
     <row r="99" spans="1:9" ht="16.5" thickBot="1">
-      <c r="A99" s="283"/>
-      <c r="B99" s="275"/>
+      <c r="A99" s="282"/>
+      <c r="B99" s="285"/>
       <c r="C99" s="119">
         <v>43327</v>
       </c>
@@ -16638,8 +16638,8 @@
       <c r="I99" s="123"/>
     </row>
     <row r="100" spans="1:9" ht="16.5" thickBot="1">
-      <c r="A100" s="283"/>
-      <c r="B100" s="275"/>
+      <c r="A100" s="282"/>
+      <c r="B100" s="285"/>
       <c r="C100" s="119">
         <v>43328</v>
       </c>
@@ -16657,8 +16657,8 @@
       <c r="I100" s="123"/>
     </row>
     <row r="101" spans="1:9" ht="16.5" thickBot="1">
-      <c r="A101" s="284"/>
-      <c r="B101" s="276"/>
+      <c r="A101" s="283"/>
+      <c r="B101" s="295"/>
       <c r="C101" s="137">
         <v>43329</v>
       </c>
@@ -22968,6 +22968,21 @@
     </row>
   </sheetData>
   <mergeCells count="27">
+    <mergeCell ref="A47:A61"/>
+    <mergeCell ref="B47:B51"/>
+    <mergeCell ref="B52:B56"/>
+    <mergeCell ref="B57:B61"/>
+    <mergeCell ref="B62:B66"/>
+    <mergeCell ref="A82:A86"/>
+    <mergeCell ref="A87:A101"/>
+    <mergeCell ref="A62:A81"/>
+    <mergeCell ref="B87:B91"/>
+    <mergeCell ref="B92:B96"/>
+    <mergeCell ref="B97:B101"/>
+    <mergeCell ref="B67:B71"/>
+    <mergeCell ref="B72:B76"/>
+    <mergeCell ref="B77:B81"/>
+    <mergeCell ref="B82:B86"/>
     <mergeCell ref="B32:B36"/>
     <mergeCell ref="B37:B41"/>
     <mergeCell ref="B42:B46"/>
@@ -22980,21 +22995,6 @@
     <mergeCell ref="B22:B26"/>
     <mergeCell ref="B27:B31"/>
     <mergeCell ref="A32:A46"/>
-    <mergeCell ref="A82:A86"/>
-    <mergeCell ref="A87:A101"/>
-    <mergeCell ref="A62:A81"/>
-    <mergeCell ref="B87:B91"/>
-    <mergeCell ref="B92:B96"/>
-    <mergeCell ref="B97:B101"/>
-    <mergeCell ref="B67:B71"/>
-    <mergeCell ref="B72:B76"/>
-    <mergeCell ref="B77:B81"/>
-    <mergeCell ref="B82:B86"/>
-    <mergeCell ref="A47:A61"/>
-    <mergeCell ref="B47:B51"/>
-    <mergeCell ref="B52:B56"/>
-    <mergeCell ref="B57:B61"/>
-    <mergeCell ref="B62:B66"/>
   </mergeCells>
   <hyperlinks>
     <hyperlink ref="I2" r:id="rId1" display="https://drive.google.com/open?id=12f1t9Kg0CD9OW5iG5jB3Ozx_iRGw-cbyozVUPhhG6ME"/>
@@ -23010,7 +23010,7 @@
   <dimension ref="A1:D32"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F12" sqref="F12"/>
+      <selection activeCell="D17" sqref="D17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -23172,7 +23172,7 @@
       </c>
       <c r="D12" s="147">
         <f>SUM(D13:D20)</f>
-        <v>8.9700000000000002E-2</v>
+        <v>0.1173</v>
       </c>
     </row>
     <row r="13" spans="1:4" ht="15.75">
@@ -23230,7 +23230,10 @@
       <c r="C16" s="80">
         <v>0.03</v>
       </c>
-      <c r="D16" s="57"/>
+      <c r="D16" s="57">
+        <f>C16*(0.82+0.1)</f>
+        <v>2.7599999999999996E-2</v>
+      </c>
     </row>
     <row r="17" spans="1:4" ht="15.75">
       <c r="A17" s="56" t="s">
@@ -23281,16 +23284,16 @@
       <c r="D20" s="57"/>
     </row>
     <row r="21" spans="1:4" ht="16.5" thickBot="1">
-      <c r="A21" s="300" t="s">
+      <c r="A21" s="190" t="s">
         <v>1002</v>
       </c>
-      <c r="B21" s="301">
+      <c r="B21" s="191">
         <v>43315</v>
       </c>
       <c r="C21" s="80">
         <v>0.03</v>
       </c>
-      <c r="D21" s="302"/>
+      <c r="D21" s="192"/>
     </row>
     <row r="22" spans="1:4" ht="16.5" thickBot="1">
       <c r="A22" s="62" t="s">
@@ -23414,7 +23417,7 @@
       </c>
       <c r="D32" s="67">
         <f>SUM(D2,D12,D22,D27,D28)</f>
-        <v>0.21970000000000001</v>
+        <v>0.24730000000000002</v>
       </c>
     </row>
   </sheetData>
@@ -23475,11 +23478,11 @@
       </c>
     </row>
     <row r="13" spans="1:10">
-      <c r="C13" s="294" t="s">
+      <c r="C13" s="297" t="s">
         <v>168</v>
       </c>
-      <c r="D13" s="295"/>
-      <c r="E13" s="296"/>
+      <c r="D13" s="298"/>
+      <c r="E13" s="299"/>
     </row>
     <row r="14" spans="1:10">
       <c r="C14" t="s">
@@ -23495,16 +23498,16 @@
       </c>
     </row>
     <row r="16" spans="1:10">
-      <c r="A16" s="294" t="s">
+      <c r="A16" s="297" t="s">
         <v>171</v>
       </c>
-      <c r="B16" s="295"/>
-      <c r="C16" s="296"/>
-      <c r="E16" s="294" t="s">
+      <c r="B16" s="298"/>
+      <c r="C16" s="299"/>
+      <c r="E16" s="297" t="s">
         <v>167</v>
       </c>
-      <c r="F16" s="295"/>
-      <c r="G16" s="296"/>
+      <c r="F16" s="298"/>
+      <c r="G16" s="299"/>
     </row>
     <row r="18" spans="1:6">
       <c r="B18" t="s">
@@ -23515,11 +23518,11 @@
       </c>
     </row>
     <row r="19" spans="1:6">
-      <c r="C19" s="294" t="s">
+      <c r="C19" s="297" t="s">
         <v>166</v>
       </c>
-      <c r="D19" s="295"/>
-      <c r="E19" s="296"/>
+      <c r="D19" s="298"/>
+      <c r="E19" s="299"/>
     </row>
     <row r="25" spans="1:6">
       <c r="A25" t="s">
@@ -25760,21 +25763,21 @@
     </row>
     <row r="319" spans="1:11" ht="15.75" thickBot="1"/>
     <row r="320" spans="1:11" ht="15.75" thickBot="1">
-      <c r="A320" s="297" t="s">
+      <c r="A320" s="300" t="s">
         <v>243</v>
       </c>
-      <c r="B320" s="298"/>
-      <c r="C320" s="299"/>
-      <c r="E320" s="297" t="s">
+      <c r="B320" s="301"/>
+      <c r="C320" s="302"/>
+      <c r="E320" s="300" t="s">
         <v>249</v>
       </c>
-      <c r="F320" s="298"/>
-      <c r="G320" s="299"/>
-      <c r="I320" s="297" t="s">
+      <c r="F320" s="301"/>
+      <c r="G320" s="302"/>
+      <c r="I320" s="300" t="s">
         <v>946</v>
       </c>
-      <c r="J320" s="298"/>
-      <c r="K320" s="299"/>
+      <c r="J320" s="301"/>
+      <c r="K320" s="302"/>
     </row>
     <row r="321" spans="1:11" ht="15.75" thickBot="1">
       <c r="A321" s="152" t="s">

--- a/General/Curriculum (Personalized).xlsx
+++ b/General/Curriculum (Personalized).xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="13485" windowHeight="11415" activeTab="10"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="13485" windowHeight="11415" firstSheet="2" activeTab="11"/>
   </bookViews>
   <sheets>
     <sheet name="Curriculum" sheetId="1" r:id="rId1"/>
@@ -23,6 +23,7 @@
     <sheet name="Resources" sheetId="6" r:id="rId9"/>
     <sheet name="Professional" sheetId="9" r:id="rId10"/>
     <sheet name="Amazon (AWS)" sheetId="11" r:id="rId11"/>
+    <sheet name="AWS Application Dev. Training" sheetId="12" r:id="rId12"/>
   </sheets>
   <calcPr calcId="152511"/>
   <extLst>
@@ -468,7 +469,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1492" uniqueCount="1046">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1554" uniqueCount="1107">
   <si>
     <t>Week</t>
   </si>
@@ -10955,6 +10956,190 @@
       </rPr>
       <t xml:space="preserve"> that you can earn. Can you earn them in the modules themselves, or are they different and seperate?</t>
     </r>
+  </si>
+  <si>
+    <t>Module 1.1: AWS Cloud Computing Introduction</t>
+  </si>
+  <si>
+    <t>Cloud computing is the on-demand delivery of compute power, database storage, applications, and other IT resources through a cloud services platform via the internet with pay-as-you-go pricing.
+Welcome to Module 1 AWS Cloud Computing. This module will introduce you to many of the AWS Cloud Computing services. The pace at which AWS is releasing features and services can be overwhelming. We will be introducing many, but not all, of the core AWS services in this Module.</t>
+  </si>
+  <si>
+    <t>Module 1.2: AWS Overview</t>
+  </si>
+  <si>
+    <t>Cloud computing is the on-demand delivery of compute power, database storage, applications, and other IT resources through a cloud services platform via the internet with pay-as-you-go pricing.</t>
+  </si>
+  <si>
+    <t>Cloud Computing Basics</t>
+  </si>
+  <si>
+    <t>Whether you are running applications that share photos to millions of mobile users or you’re supporting the critical operations of your business, a cloud services platform provides rapid access to flexible and low cost IT resources. With cloud computing, you don’t need to make large upfront investments in hardware and spend a lot of time on the heavy lifting of managing that hardware. Instead, you can provision exactly the right type and size of computing resources you need to power your newest bright idea or operate your IT department. You can access as many resources as you need, almost instantly, and only pay for what you use.</t>
+  </si>
+  <si>
+    <t>How Does Cloud Computing Work?</t>
+  </si>
+  <si>
+    <t>Cloud computing provides a simple way to access servers, storage, databases and a broad set of application services over the Internet. A Cloud services platform such as Amazon Web Services owns and maintains the network-connected hardware required for these application services, while you provision and use what you need via a web application.</t>
+  </si>
+  <si>
+    <t>Storage</t>
+  </si>
+  <si>
+    <t>Resource Management Tools</t>
+  </si>
+  <si>
+    <t>What is AWS? (https://www.youtube.com/watch?v=mZ5H8sn_2ZI&amp;feature=youtu.be)</t>
+  </si>
+  <si>
+    <t>Compute - Power applications</t>
+  </si>
+  <si>
+    <t>AWS in 10 Minutes (https://www.youtube.com/watch?v=r4YIdn2eTm4&amp;feature=youtu.be)</t>
+  </si>
+  <si>
+    <t>AWS = Amazon Web Services</t>
+  </si>
+  <si>
+    <t>Infrastructure Service - physical servers, so companies don't have to buy or manage their own</t>
+  </si>
+  <si>
+    <t>AWS is a global cloud platform that allows you to host and manage services on the internet</t>
+  </si>
+  <si>
+    <t>Platform Service - Java, Ruby, PHP</t>
+  </si>
+  <si>
+    <t>Software Service - E-mail, queueing services</t>
+  </si>
+  <si>
+    <t>Cloud Storage Platform - hosting and running data and applications</t>
+  </si>
+  <si>
+    <t>Popular Features:</t>
+  </si>
+  <si>
+    <t>Micro-billing (Per Hour)</t>
+  </si>
+  <si>
+    <t>Easy Sign-Up</t>
+  </si>
+  <si>
+    <t>Simplified Billing</t>
+  </si>
+  <si>
+    <t>Stable and Reliable Services</t>
+  </si>
+  <si>
+    <t>Trusted/Widely Used Vendor (Fortune 500 Companies)</t>
+  </si>
+  <si>
+    <t>Service Overview:</t>
+  </si>
+  <si>
+    <t>EC2 (Elastic Comput Cloud) - Most commonly used, bare servers, infrastructure service, choice of server size</t>
+  </si>
+  <si>
+    <t>VPC (Virtual Private Cloud) - provides access to use of Amazon's cloud, giving clients a network to use within the cloud where servers can be run</t>
+  </si>
+  <si>
+    <t>S3 (Simple Storage Service) - file storage and sharing service</t>
+  </si>
+  <si>
+    <t>Relational Database Service - run and manage databases on the cloud (i.e. SQL Server, Oracle, MySQL, Aurora, etc.)</t>
+  </si>
+  <si>
+    <t>Route 53 - global DNS service, manage DNS service where you can point your DNS to Amazon, and they take care of the rest</t>
+  </si>
+  <si>
+    <t>ELB (Elastic Load Balancing) - gives the opportunity to load balance to multiple machines</t>
+  </si>
+  <si>
+    <t>Autoscaling - adds capacity on the fly to ELB so that your website is not down due to the load</t>
+  </si>
+  <si>
+    <t>Convenient Pricing:</t>
+  </si>
+  <si>
+    <t>Per hour billing</t>
+  </si>
+  <si>
+    <t>Region specific billing</t>
+  </si>
+  <si>
+    <t>Term specific pricing</t>
+  </si>
+  <si>
+    <t>Spot resources - as needed services</t>
+  </si>
+  <si>
+    <t>AWS Reach:</t>
+  </si>
+  <si>
+    <t>US East (Ohio)</t>
+  </si>
+  <si>
+    <t>US East (N. Virginia)</t>
+  </si>
+  <si>
+    <t>US West (N. California)</t>
+  </si>
+  <si>
+    <t>US West (Oregon)</t>
+  </si>
+  <si>
+    <t>Asia Pacific (Tokyo)</t>
+  </si>
+  <si>
+    <t>Asia Pacific (Seoul)</t>
+  </si>
+  <si>
+    <t>Asia Pacific (Osaka-Local)</t>
+  </si>
+  <si>
+    <t>Asia Pacific (Mumbai)</t>
+  </si>
+  <si>
+    <t>Asia Pacific (Singapore)</t>
+  </si>
+  <si>
+    <t>Asia Pacific (Sydney)</t>
+  </si>
+  <si>
+    <t>Canada (Central)</t>
+  </si>
+  <si>
+    <t>China (Beijing)</t>
+  </si>
+  <si>
+    <t>China (Ningxia)</t>
+  </si>
+  <si>
+    <t>EU (Frankfurt)</t>
+  </si>
+  <si>
+    <t>EU (Ireland)</t>
+  </si>
+  <si>
+    <t>EU (London)</t>
+  </si>
+  <si>
+    <t>EU (Paris)</t>
+  </si>
+  <si>
+    <t>South America (São Paulo)</t>
+  </si>
+  <si>
+    <t>15 Regions (Global):</t>
+  </si>
+  <si>
+    <t>If you are anywhere in the world, you have a region within 1,000 miles.</t>
+  </si>
+  <si>
+    <t>Multiple data centers - each region has multiple availability zones, MAZ is a big data center with anywhere between 300K-500K servers</t>
+  </si>
+  <si>
+    <t>64 Services Across Four Focuses:</t>
   </si>
 </sst>
 </file>
@@ -11416,7 +11601,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="74">
+  <borders count="75">
     <border>
       <left/>
       <right/>
@@ -12371,13 +12556,22 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="25" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="337">
+  <cellXfs count="341">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -12869,336 +13063,6 @@
     <xf numFmtId="9" fontId="14" fillId="0" borderId="71" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="4" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="4" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="4" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="5" borderId="34" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="23" xfId="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="5" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="5" borderId="23" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="5" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="32" xfId="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="34" xfId="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="5" borderId="31" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="32" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="5" borderId="32" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="31" xfId="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="5" xfId="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="32" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="23" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="23" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="5" borderId="1" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="37" xfId="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="35" xfId="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="38" xfId="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="37" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="5" borderId="32" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="32" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="23" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="36" xfId="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="5" borderId="36" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="5" borderId="37" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="5" borderId="37" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="37" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="35" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="38" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="35" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="32" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="33" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="33" xfId="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="5" borderId="35" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="5" borderId="38" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="5" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="5" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="5" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="4" borderId="52" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="4" borderId="53" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="33" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="6" xfId="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="33" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="35" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="5" borderId="64" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="5" borderId="57" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="5" borderId="58" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="2" borderId="64" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="2" borderId="57" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="2" borderId="62" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="5" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="35" fillId="2" borderId="63" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="35" fillId="2" borderId="55" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="35" fillId="2" borderId="56" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="57" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="62" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="5" borderId="62" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="35" fillId="0" borderId="65" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="35" fillId="0" borderId="66" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="35" fillId="0" borderId="55" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="35" fillId="0" borderId="56" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="2" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="2" borderId="58" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="64" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="58" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="35" fillId="0" borderId="63" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="24" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="26" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="25" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="42" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="43" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="44" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="23" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="9" borderId="23" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="34" xfId="0" applyBorder="1"/>
@@ -13210,9 +13074,6 @@
     <xf numFmtId="0" fontId="0" fillId="9" borderId="38" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="42" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -13237,9 +13098,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="33" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="9" borderId="31" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="9" borderId="33" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="9" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="9" borderId="6" xfId="0" applyFill="1" applyBorder="1"/>
@@ -13250,6 +13108,336 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="9" borderId="5" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="35" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="5" borderId="35" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="5" borderId="38" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="33" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="35" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="38" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="5" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="52" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="53" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="33" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="35" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="38" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="33" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="6" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="33" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="35" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="5" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="5" borderId="34" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="5" borderId="36" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="5" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="5" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="5" borderId="37" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="23" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="37" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="34" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="36" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="37" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="5" borderId="23" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="5" borderId="37" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="31" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="32" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="32" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="5" borderId="32" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="32" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="23" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="5" borderId="32" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="5" borderId="1" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="23" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="37" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="32" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="23" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="5" borderId="31" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="5" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="5" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="32" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="35" fillId="0" borderId="63" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="35" fillId="0" borderId="55" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="35" fillId="0" borderId="56" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="64" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="57" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="58" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="5" borderId="64" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="5" borderId="57" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="5" borderId="62" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="5" borderId="58" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="35" fillId="2" borderId="63" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="35" fillId="2" borderId="55" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="35" fillId="2" borderId="56" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="62" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="5" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="2" borderId="64" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="2" borderId="57" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="2" borderId="62" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="2" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="2" borderId="58" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="35" fillId="0" borderId="65" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="35" fillId="0" borderId="66" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="24" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="26" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="25" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="42" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="43" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="44" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -13259,6 +13447,20 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="73" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="74" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="74" xfId="0" applyFont="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="3">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -14277,21 +14479,21 @@
       <c r="H1" s="35" t="s">
         <v>193</v>
       </c>
-      <c r="I1" s="193" t="s">
+      <c r="I1" s="295" t="s">
         <v>7</v>
       </c>
-      <c r="J1" s="194"/>
-      <c r="K1" s="195"/>
-      <c r="L1" s="268" t="s">
+      <c r="J1" s="296"/>
+      <c r="K1" s="297"/>
+      <c r="L1" s="229" t="s">
         <v>8</v>
       </c>
-      <c r="M1" s="269"/>
+      <c r="M1" s="230"/>
     </row>
     <row r="2" spans="1:13" ht="15.75" customHeight="1">
-      <c r="A2" s="226">
+      <c r="A2" s="258">
         <v>1</v>
       </c>
-      <c r="B2" s="221" t="s">
+      <c r="B2" s="261" t="s">
         <v>9</v>
       </c>
       <c r="C2" s="8" t="s">
@@ -14300,145 +14502,145 @@
       <c r="D2" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="E2" s="208" t="s">
+      <c r="E2" s="252" t="s">
         <v>12</v>
       </c>
-      <c r="F2" s="210"/>
-      <c r="G2" s="201"/>
-      <c r="H2" s="201"/>
-      <c r="I2" s="201" t="s">
+      <c r="F2" s="301"/>
+      <c r="G2" s="253"/>
+      <c r="H2" s="253"/>
+      <c r="I2" s="253" t="s">
         <v>10</v>
       </c>
-      <c r="J2" s="201" t="s">
+      <c r="J2" s="253" t="s">
         <v>14</v>
       </c>
-      <c r="K2" s="201" t="s">
+      <c r="K2" s="253" t="s">
         <v>15</v>
       </c>
-      <c r="L2" s="262" t="s">
+      <c r="L2" s="225" t="s">
         <v>16</v>
       </c>
-      <c r="M2" s="262" t="s">
+      <c r="M2" s="225" t="s">
         <v>327</v>
       </c>
     </row>
     <row r="3" spans="1:13" ht="15.75" customHeight="1">
-      <c r="A3" s="214"/>
-      <c r="B3" s="222"/>
+      <c r="A3" s="259"/>
+      <c r="B3" s="262"/>
       <c r="C3" s="32" t="s">
         <v>17</v>
       </c>
       <c r="D3" s="4" t="s">
         <v>18</v>
       </c>
-      <c r="E3" s="203"/>
-      <c r="F3" s="211"/>
-      <c r="G3" s="197"/>
-      <c r="H3" s="197"/>
-      <c r="I3" s="197"/>
-      <c r="J3" s="197"/>
-      <c r="K3" s="197"/>
-      <c r="L3" s="245"/>
-      <c r="M3" s="245"/>
+      <c r="E3" s="247"/>
+      <c r="F3" s="274"/>
+      <c r="G3" s="244"/>
+      <c r="H3" s="244"/>
+      <c r="I3" s="244"/>
+      <c r="J3" s="244"/>
+      <c r="K3" s="244"/>
+      <c r="L3" s="222"/>
+      <c r="M3" s="222"/>
     </row>
     <row r="4" spans="1:13" ht="15.75" customHeight="1">
-      <c r="A4" s="214"/>
-      <c r="B4" s="222"/>
+      <c r="A4" s="259"/>
+      <c r="B4" s="262"/>
       <c r="C4" s="32" t="s">
         <v>19</v>
       </c>
       <c r="D4" s="4" t="s">
         <v>20</v>
       </c>
-      <c r="E4" s="203"/>
-      <c r="F4" s="211"/>
-      <c r="G4" s="197"/>
-      <c r="H4" s="197"/>
-      <c r="I4" s="197"/>
-      <c r="J4" s="197"/>
-      <c r="K4" s="197"/>
-      <c r="L4" s="245"/>
-      <c r="M4" s="245"/>
+      <c r="E4" s="247"/>
+      <c r="F4" s="274"/>
+      <c r="G4" s="244"/>
+      <c r="H4" s="244"/>
+      <c r="I4" s="244"/>
+      <c r="J4" s="244"/>
+      <c r="K4" s="244"/>
+      <c r="L4" s="222"/>
+      <c r="M4" s="222"/>
     </row>
     <row r="5" spans="1:13" ht="15.75" customHeight="1">
-      <c r="A5" s="214"/>
-      <c r="B5" s="222"/>
+      <c r="A5" s="259"/>
+      <c r="B5" s="262"/>
       <c r="C5" s="32" t="s">
         <v>21</v>
       </c>
       <c r="D5" s="4"/>
-      <c r="E5" s="203"/>
-      <c r="F5" s="211"/>
-      <c r="G5" s="197"/>
-      <c r="H5" s="197"/>
-      <c r="I5" s="197"/>
-      <c r="J5" s="197"/>
-      <c r="K5" s="197"/>
-      <c r="L5" s="245"/>
-      <c r="M5" s="245"/>
+      <c r="E5" s="247"/>
+      <c r="F5" s="274"/>
+      <c r="G5" s="244"/>
+      <c r="H5" s="244"/>
+      <c r="I5" s="244"/>
+      <c r="J5" s="244"/>
+      <c r="K5" s="244"/>
+      <c r="L5" s="222"/>
+      <c r="M5" s="222"/>
     </row>
     <row r="6" spans="1:13" ht="15.75" customHeight="1">
-      <c r="A6" s="214"/>
-      <c r="B6" s="222"/>
+      <c r="A6" s="259"/>
+      <c r="B6" s="262"/>
       <c r="C6" s="32" t="s">
         <v>14</v>
       </c>
       <c r="D6" s="4" t="s">
         <v>22</v>
       </c>
-      <c r="E6" s="203"/>
-      <c r="F6" s="211"/>
-      <c r="G6" s="197"/>
-      <c r="H6" s="197"/>
-      <c r="I6" s="197"/>
-      <c r="J6" s="197"/>
-      <c r="K6" s="197"/>
-      <c r="L6" s="245"/>
-      <c r="M6" s="245"/>
+      <c r="E6" s="247"/>
+      <c r="F6" s="274"/>
+      <c r="G6" s="244"/>
+      <c r="H6" s="244"/>
+      <c r="I6" s="244"/>
+      <c r="J6" s="244"/>
+      <c r="K6" s="244"/>
+      <c r="L6" s="222"/>
+      <c r="M6" s="222"/>
     </row>
     <row r="7" spans="1:13" ht="15.75" customHeight="1">
-      <c r="A7" s="214"/>
-      <c r="B7" s="222"/>
+      <c r="A7" s="259"/>
+      <c r="B7" s="262"/>
       <c r="C7" s="32" t="s">
         <v>15</v>
       </c>
       <c r="D7" s="4" t="s">
         <v>20</v>
       </c>
-      <c r="E7" s="203"/>
-      <c r="F7" s="211"/>
-      <c r="G7" s="197"/>
-      <c r="H7" s="197"/>
-      <c r="I7" s="197"/>
-      <c r="J7" s="197"/>
-      <c r="K7" s="197"/>
-      <c r="L7" s="245"/>
-      <c r="M7" s="245"/>
+      <c r="E7" s="247"/>
+      <c r="F7" s="274"/>
+      <c r="G7" s="244"/>
+      <c r="H7" s="244"/>
+      <c r="I7" s="244"/>
+      <c r="J7" s="244"/>
+      <c r="K7" s="244"/>
+      <c r="L7" s="222"/>
+      <c r="M7" s="222"/>
     </row>
     <row r="8" spans="1:13" ht="15.75" customHeight="1" thickBot="1">
-      <c r="A8" s="215"/>
-      <c r="B8" s="223"/>
+      <c r="A8" s="260"/>
+      <c r="B8" s="263"/>
       <c r="C8" s="9" t="s">
         <v>23</v>
       </c>
       <c r="D8" s="5" t="s">
         <v>24</v>
       </c>
-      <c r="E8" s="209"/>
-      <c r="F8" s="212"/>
-      <c r="G8" s="202"/>
-      <c r="H8" s="202"/>
-      <c r="I8" s="202"/>
-      <c r="J8" s="202"/>
-      <c r="K8" s="202"/>
-      <c r="L8" s="271"/>
-      <c r="M8" s="271"/>
+      <c r="E8" s="300"/>
+      <c r="F8" s="302"/>
+      <c r="G8" s="299"/>
+      <c r="H8" s="299"/>
+      <c r="I8" s="299"/>
+      <c r="J8" s="299"/>
+      <c r="K8" s="299"/>
+      <c r="L8" s="235"/>
+      <c r="M8" s="235"/>
     </row>
     <row r="9" spans="1:13" ht="15.75" customHeight="1">
-      <c r="A9" s="239">
+      <c r="A9" s="265">
         <v>2</v>
       </c>
-      <c r="B9" s="221" t="s">
+      <c r="B9" s="261" t="s">
         <v>25</v>
       </c>
       <c r="C9" s="10" t="s">
@@ -14447,864 +14649,864 @@
       <c r="D9" s="3" t="s">
         <v>286</v>
       </c>
-      <c r="E9" s="204"/>
-      <c r="F9" s="205" t="s">
+      <c r="E9" s="278"/>
+      <c r="F9" s="257" t="s">
         <v>192</v>
       </c>
-      <c r="G9" s="207" t="s">
+      <c r="G9" s="272" t="s">
         <v>13</v>
       </c>
-      <c r="H9" s="248"/>
-      <c r="I9" s="249" t="s">
+      <c r="H9" s="256"/>
+      <c r="I9" s="276" t="s">
         <v>184</v>
       </c>
-      <c r="J9" s="205" t="s">
+      <c r="J9" s="257" t="s">
         <v>194</v>
       </c>
-      <c r="K9" s="205" t="s">
+      <c r="K9" s="257" t="s">
         <v>195</v>
       </c>
-      <c r="L9" s="207" t="s">
+      <c r="L9" s="272" t="s">
         <v>328</v>
       </c>
-      <c r="M9" s="272"/>
+      <c r="M9" s="236"/>
     </row>
     <row r="10" spans="1:13" ht="15.75" customHeight="1">
-      <c r="A10" s="237"/>
-      <c r="B10" s="222"/>
+      <c r="A10" s="266"/>
+      <c r="B10" s="262"/>
       <c r="C10" s="11" t="s">
         <v>26</v>
       </c>
       <c r="D10" s="4"/>
-      <c r="E10" s="196"/>
-      <c r="F10" s="206"/>
-      <c r="G10" s="199"/>
-      <c r="H10" s="200"/>
-      <c r="I10" s="250"/>
-      <c r="J10" s="206"/>
-      <c r="K10" s="206"/>
-      <c r="L10" s="243"/>
-      <c r="M10" s="273"/>
+      <c r="E10" s="239"/>
+      <c r="F10" s="246"/>
+      <c r="G10" s="250"/>
+      <c r="H10" s="242"/>
+      <c r="I10" s="277"/>
+      <c r="J10" s="246"/>
+      <c r="K10" s="246"/>
+      <c r="L10" s="273"/>
+      <c r="M10" s="237"/>
     </row>
     <row r="11" spans="1:13" ht="15.75" customHeight="1" thickBot="1">
-      <c r="A11" s="234">
+      <c r="A11" s="284">
         <v>3</v>
       </c>
-      <c r="B11" s="222"/>
+      <c r="B11" s="262"/>
       <c r="C11" s="11" t="s">
         <v>263</v>
       </c>
       <c r="D11" s="4"/>
-      <c r="E11" s="203"/>
-      <c r="F11" s="211"/>
-      <c r="G11" s="197"/>
-      <c r="H11" s="197" t="s">
+      <c r="E11" s="247"/>
+      <c r="F11" s="274"/>
+      <c r="G11" s="244"/>
+      <c r="H11" s="244" t="s">
         <v>198</v>
       </c>
-      <c r="I11" s="197" t="s">
+      <c r="I11" s="244" t="s">
         <v>196</v>
       </c>
-      <c r="J11" s="197"/>
-      <c r="K11" s="197"/>
-      <c r="L11" s="242" t="s">
+      <c r="J11" s="244"/>
+      <c r="K11" s="244"/>
+      <c r="L11" s="271" t="s">
         <v>329</v>
       </c>
-      <c r="M11" s="245"/>
+      <c r="M11" s="222"/>
     </row>
     <row r="12" spans="1:13" ht="15.75" customHeight="1">
-      <c r="A12" s="235"/>
-      <c r="B12" s="222"/>
+      <c r="A12" s="285"/>
+      <c r="B12" s="262"/>
       <c r="C12" s="11" t="s">
         <v>28</v>
       </c>
       <c r="D12" s="10"/>
-      <c r="E12" s="203"/>
-      <c r="F12" s="211"/>
-      <c r="G12" s="197"/>
-      <c r="H12" s="197"/>
-      <c r="I12" s="197"/>
-      <c r="J12" s="197"/>
-      <c r="K12" s="197"/>
-      <c r="L12" s="242"/>
-      <c r="M12" s="245"/>
+      <c r="E12" s="247"/>
+      <c r="F12" s="274"/>
+      <c r="G12" s="244"/>
+      <c r="H12" s="244"/>
+      <c r="I12" s="244"/>
+      <c r="J12" s="244"/>
+      <c r="K12" s="244"/>
+      <c r="L12" s="271"/>
+      <c r="M12" s="222"/>
     </row>
     <row r="13" spans="1:13" ht="15.75" customHeight="1">
-      <c r="A13" s="236">
+      <c r="A13" s="286">
         <v>4</v>
       </c>
-      <c r="B13" s="222"/>
+      <c r="B13" s="262"/>
       <c r="C13" s="11" t="s">
         <v>29</v>
       </c>
       <c r="D13" s="11"/>
-      <c r="E13" s="196"/>
-      <c r="F13" s="198" t="s">
+      <c r="E13" s="239"/>
+      <c r="F13" s="298" t="s">
         <v>36</v>
       </c>
-      <c r="G13" s="199" t="s">
+      <c r="G13" s="250" t="s">
         <v>33</v>
       </c>
-      <c r="H13" s="200"/>
-      <c r="I13" s="199" t="s">
+      <c r="H13" s="242"/>
+      <c r="I13" s="250" t="s">
         <v>330</v>
       </c>
-      <c r="J13" s="200"/>
-      <c r="K13" s="200"/>
-      <c r="L13" s="263"/>
-      <c r="M13" s="263"/>
+      <c r="J13" s="242"/>
+      <c r="K13" s="242"/>
+      <c r="L13" s="223"/>
+      <c r="M13" s="223"/>
     </row>
     <row r="14" spans="1:13" ht="15.75" customHeight="1">
-      <c r="A14" s="237"/>
-      <c r="B14" s="222"/>
+      <c r="A14" s="266"/>
+      <c r="B14" s="262"/>
       <c r="C14" s="32" t="s">
         <v>30</v>
       </c>
       <c r="D14" s="4"/>
-      <c r="E14" s="196"/>
-      <c r="F14" s="198"/>
-      <c r="G14" s="199"/>
-      <c r="H14" s="200"/>
-      <c r="I14" s="199"/>
-      <c r="J14" s="200"/>
-      <c r="K14" s="200"/>
-      <c r="L14" s="263"/>
-      <c r="M14" s="263"/>
+      <c r="E14" s="239"/>
+      <c r="F14" s="298"/>
+      <c r="G14" s="250"/>
+      <c r="H14" s="242"/>
+      <c r="I14" s="250"/>
+      <c r="J14" s="242"/>
+      <c r="K14" s="242"/>
+      <c r="L14" s="223"/>
+      <c r="M14" s="223"/>
     </row>
     <row r="15" spans="1:13" ht="15.75" customHeight="1">
-      <c r="A15" s="234">
+      <c r="A15" s="284">
         <v>5</v>
       </c>
-      <c r="B15" s="222"/>
-      <c r="C15" s="240" t="s">
+      <c r="B15" s="262"/>
+      <c r="C15" s="269" t="s">
         <v>31</v>
       </c>
       <c r="D15" s="4"/>
-      <c r="E15" s="203" t="s">
+      <c r="E15" s="247" t="s">
         <v>27</v>
       </c>
-      <c r="F15" s="211"/>
-      <c r="G15" s="197"/>
-      <c r="H15" s="197"/>
-      <c r="I15" s="197"/>
-      <c r="J15" s="197"/>
-      <c r="K15" s="197"/>
-      <c r="L15" s="245"/>
-      <c r="M15" s="245"/>
+      <c r="F15" s="274"/>
+      <c r="G15" s="244"/>
+      <c r="H15" s="244"/>
+      <c r="I15" s="244"/>
+      <c r="J15" s="244"/>
+      <c r="K15" s="244"/>
+      <c r="L15" s="222"/>
+      <c r="M15" s="222"/>
     </row>
     <row r="16" spans="1:13" ht="15.75" customHeight="1" thickBot="1">
-      <c r="A16" s="238"/>
-      <c r="B16" s="227"/>
-      <c r="C16" s="241"/>
+      <c r="A16" s="287"/>
+      <c r="B16" s="264"/>
+      <c r="C16" s="270"/>
       <c r="D16" s="5"/>
-      <c r="E16" s="251"/>
-      <c r="F16" s="247"/>
-      <c r="G16" s="244"/>
-      <c r="H16" s="244"/>
-      <c r="I16" s="244"/>
-      <c r="J16" s="244"/>
-      <c r="K16" s="244"/>
-      <c r="L16" s="246"/>
-      <c r="M16" s="246"/>
+      <c r="E16" s="248"/>
+      <c r="F16" s="275"/>
+      <c r="G16" s="245"/>
+      <c r="H16" s="245"/>
+      <c r="I16" s="245"/>
+      <c r="J16" s="245"/>
+      <c r="K16" s="245"/>
+      <c r="L16" s="227"/>
+      <c r="M16" s="227"/>
     </row>
     <row r="17" spans="1:13" ht="15.75" customHeight="1">
-      <c r="A17" s="224">
+      <c r="A17" s="288">
         <v>6</v>
       </c>
-      <c r="B17" s="221" t="s">
+      <c r="B17" s="261" t="s">
         <v>34</v>
       </c>
       <c r="C17" s="10" t="s">
         <v>35</v>
       </c>
       <c r="D17" s="3"/>
-      <c r="E17" s="204"/>
-      <c r="F17" s="248"/>
-      <c r="G17" s="248"/>
-      <c r="H17" s="205" t="s">
+      <c r="E17" s="278"/>
+      <c r="F17" s="256"/>
+      <c r="G17" s="256"/>
+      <c r="H17" s="257" t="s">
         <v>27</v>
       </c>
-      <c r="I17" s="205"/>
-      <c r="J17" s="205"/>
-      <c r="K17" s="205"/>
-      <c r="L17" s="270"/>
-      <c r="M17" s="270"/>
+      <c r="I17" s="257"/>
+      <c r="J17" s="257"/>
+      <c r="K17" s="257"/>
+      <c r="L17" s="231"/>
+      <c r="M17" s="231"/>
     </row>
     <row r="18" spans="1:13" ht="15.75" customHeight="1">
-      <c r="A18" s="213"/>
-      <c r="B18" s="222"/>
+      <c r="A18" s="267"/>
+      <c r="B18" s="262"/>
       <c r="C18" s="11" t="s">
         <v>37</v>
       </c>
       <c r="D18" s="4"/>
-      <c r="E18" s="196"/>
-      <c r="F18" s="200"/>
-      <c r="G18" s="200"/>
-      <c r="H18" s="206"/>
-      <c r="I18" s="206"/>
-      <c r="J18" s="206"/>
-      <c r="K18" s="206"/>
-      <c r="L18" s="256"/>
-      <c r="M18" s="256"/>
+      <c r="E18" s="239"/>
+      <c r="F18" s="242"/>
+      <c r="G18" s="242"/>
+      <c r="H18" s="246"/>
+      <c r="I18" s="246"/>
+      <c r="J18" s="246"/>
+      <c r="K18" s="246"/>
+      <c r="L18" s="226"/>
+      <c r="M18" s="226"/>
     </row>
     <row r="19" spans="1:13" ht="15.75" customHeight="1">
-      <c r="A19" s="213"/>
-      <c r="B19" s="222"/>
+      <c r="A19" s="267"/>
+      <c r="B19" s="262"/>
       <c r="C19" s="11" t="s">
         <v>38</v>
       </c>
       <c r="D19" s="4"/>
-      <c r="E19" s="196"/>
-      <c r="F19" s="200"/>
-      <c r="G19" s="200"/>
-      <c r="H19" s="206"/>
-      <c r="I19" s="206"/>
-      <c r="J19" s="206"/>
-      <c r="K19" s="206"/>
-      <c r="L19" s="256"/>
-      <c r="M19" s="256"/>
+      <c r="E19" s="239"/>
+      <c r="F19" s="242"/>
+      <c r="G19" s="242"/>
+      <c r="H19" s="246"/>
+      <c r="I19" s="246"/>
+      <c r="J19" s="246"/>
+      <c r="K19" s="246"/>
+      <c r="L19" s="226"/>
+      <c r="M19" s="226"/>
     </row>
     <row r="20" spans="1:13" ht="15.75" customHeight="1">
-      <c r="A20" s="214">
+      <c r="A20" s="259">
         <v>7</v>
       </c>
-      <c r="B20" s="222"/>
+      <c r="B20" s="262"/>
       <c r="C20" s="11" t="s">
         <v>39</v>
       </c>
       <c r="D20" s="4"/>
-      <c r="E20" s="203" t="s">
+      <c r="E20" s="247" t="s">
         <v>32</v>
       </c>
-      <c r="F20" s="258" t="s">
+      <c r="F20" s="255" t="s">
         <v>44</v>
       </c>
-      <c r="G20" s="258"/>
-      <c r="H20" s="258"/>
-      <c r="I20" s="258"/>
-      <c r="J20" s="258"/>
-      <c r="K20" s="258"/>
-      <c r="L20" s="259"/>
-      <c r="M20" s="259"/>
+      <c r="G20" s="255"/>
+      <c r="H20" s="255"/>
+      <c r="I20" s="255"/>
+      <c r="J20" s="255"/>
+      <c r="K20" s="255"/>
+      <c r="L20" s="232"/>
+      <c r="M20" s="232"/>
     </row>
     <row r="21" spans="1:13" ht="15.75" customHeight="1">
-      <c r="A21" s="214"/>
-      <c r="B21" s="222"/>
+      <c r="A21" s="259"/>
+      <c r="B21" s="262"/>
       <c r="C21" s="11" t="s">
         <v>41</v>
       </c>
       <c r="D21" s="4"/>
-      <c r="E21" s="203"/>
-      <c r="F21" s="258"/>
-      <c r="G21" s="258"/>
-      <c r="H21" s="258"/>
-      <c r="I21" s="258"/>
-      <c r="J21" s="258"/>
-      <c r="K21" s="258"/>
-      <c r="L21" s="259"/>
-      <c r="M21" s="259"/>
+      <c r="E21" s="247"/>
+      <c r="F21" s="255"/>
+      <c r="G21" s="255"/>
+      <c r="H21" s="255"/>
+      <c r="I21" s="255"/>
+      <c r="J21" s="255"/>
+      <c r="K21" s="255"/>
+      <c r="L21" s="232"/>
+      <c r="M21" s="232"/>
     </row>
     <row r="22" spans="1:13" ht="15.75" customHeight="1">
-      <c r="A22" s="214"/>
-      <c r="B22" s="222"/>
+      <c r="A22" s="259"/>
+      <c r="B22" s="262"/>
       <c r="C22" s="32" t="s">
         <v>42</v>
       </c>
       <c r="D22" s="4"/>
-      <c r="E22" s="203"/>
-      <c r="F22" s="258"/>
-      <c r="G22" s="258"/>
-      <c r="H22" s="258"/>
-      <c r="I22" s="258"/>
-      <c r="J22" s="258"/>
-      <c r="K22" s="258"/>
-      <c r="L22" s="259"/>
-      <c r="M22" s="259"/>
+      <c r="E22" s="247"/>
+      <c r="F22" s="255"/>
+      <c r="G22" s="255"/>
+      <c r="H22" s="255"/>
+      <c r="I22" s="255"/>
+      <c r="J22" s="255"/>
+      <c r="K22" s="255"/>
+      <c r="L22" s="232"/>
+      <c r="M22" s="232"/>
     </row>
     <row r="23" spans="1:13" ht="15.75" customHeight="1">
-      <c r="A23" s="213">
+      <c r="A23" s="267">
         <v>8</v>
       </c>
-      <c r="B23" s="222"/>
+      <c r="B23" s="262"/>
       <c r="C23" s="32" t="s">
         <v>43</v>
       </c>
       <c r="D23" s="4"/>
-      <c r="E23" s="196"/>
-      <c r="F23" s="200"/>
-      <c r="G23" s="199" t="s">
+      <c r="E23" s="239"/>
+      <c r="F23" s="242"/>
+      <c r="G23" s="250" t="s">
         <v>50</v>
       </c>
-      <c r="H23" s="206" t="s">
+      <c r="H23" s="246" t="s">
         <v>32</v>
       </c>
-      <c r="I23" s="206"/>
-      <c r="J23" s="206"/>
-      <c r="K23" s="206"/>
-      <c r="L23" s="256"/>
-      <c r="M23" s="256"/>
+      <c r="I23" s="246"/>
+      <c r="J23" s="246"/>
+      <c r="K23" s="246"/>
+      <c r="L23" s="226"/>
+      <c r="M23" s="226"/>
     </row>
     <row r="24" spans="1:13" ht="15.75" customHeight="1">
-      <c r="A24" s="213"/>
-      <c r="B24" s="222"/>
+      <c r="A24" s="267"/>
+      <c r="B24" s="262"/>
       <c r="C24" s="32" t="s">
         <v>45</v>
       </c>
       <c r="D24" s="4"/>
-      <c r="E24" s="196"/>
-      <c r="F24" s="200"/>
-      <c r="G24" s="199"/>
-      <c r="H24" s="206"/>
-      <c r="I24" s="206"/>
-      <c r="J24" s="206"/>
-      <c r="K24" s="206"/>
-      <c r="L24" s="256"/>
-      <c r="M24" s="256"/>
+      <c r="E24" s="239"/>
+      <c r="F24" s="242"/>
+      <c r="G24" s="250"/>
+      <c r="H24" s="246"/>
+      <c r="I24" s="246"/>
+      <c r="J24" s="246"/>
+      <c r="K24" s="246"/>
+      <c r="L24" s="226"/>
+      <c r="M24" s="226"/>
     </row>
     <row r="25" spans="1:13" ht="15.75" customHeight="1" thickBot="1">
-      <c r="A25" s="230"/>
-      <c r="B25" s="227"/>
+      <c r="A25" s="268"/>
+      <c r="B25" s="264"/>
       <c r="C25" s="33" t="s">
         <v>46</v>
       </c>
       <c r="D25" s="5"/>
-      <c r="E25" s="252"/>
-      <c r="F25" s="253"/>
-      <c r="G25" s="254"/>
-      <c r="H25" s="255"/>
-      <c r="I25" s="255"/>
-      <c r="J25" s="255"/>
-      <c r="K25" s="255"/>
-      <c r="L25" s="257"/>
-      <c r="M25" s="257"/>
+      <c r="E25" s="240"/>
+      <c r="F25" s="243"/>
+      <c r="G25" s="251"/>
+      <c r="H25" s="249"/>
+      <c r="I25" s="249"/>
+      <c r="J25" s="249"/>
+      <c r="K25" s="249"/>
+      <c r="L25" s="233"/>
+      <c r="M25" s="233"/>
     </row>
     <row r="26" spans="1:13" ht="15.75" customHeight="1">
-      <c r="A26" s="228">
+      <c r="A26" s="279">
         <v>9</v>
       </c>
-      <c r="B26" s="221" t="s">
+      <c r="B26" s="261" t="s">
         <v>47</v>
       </c>
       <c r="C26" s="12" t="s">
         <v>48</v>
       </c>
       <c r="D26" s="3"/>
-      <c r="E26" s="208" t="s">
+      <c r="E26" s="252" t="s">
         <v>40</v>
       </c>
-      <c r="F26" s="260" t="s">
+      <c r="F26" s="254" t="s">
         <v>53</v>
       </c>
-      <c r="G26" s="260"/>
-      <c r="H26" s="260"/>
-      <c r="I26" s="260"/>
-      <c r="J26" s="260"/>
-      <c r="K26" s="260"/>
-      <c r="L26" s="261"/>
-      <c r="M26" s="261"/>
+      <c r="G26" s="254"/>
+      <c r="H26" s="254"/>
+      <c r="I26" s="254"/>
+      <c r="J26" s="254"/>
+      <c r="K26" s="254"/>
+      <c r="L26" s="234"/>
+      <c r="M26" s="234"/>
     </row>
     <row r="27" spans="1:13" ht="15.75" customHeight="1">
-      <c r="A27" s="229"/>
-      <c r="B27" s="222"/>
+      <c r="A27" s="280"/>
+      <c r="B27" s="262"/>
       <c r="C27" s="13" t="s">
         <v>51</v>
       </c>
       <c r="D27" s="4"/>
-      <c r="E27" s="203"/>
-      <c r="F27" s="258"/>
-      <c r="G27" s="258"/>
-      <c r="H27" s="258"/>
-      <c r="I27" s="258"/>
-      <c r="J27" s="258"/>
-      <c r="K27" s="258"/>
-      <c r="L27" s="259"/>
-      <c r="M27" s="259"/>
+      <c r="E27" s="247"/>
+      <c r="F27" s="255"/>
+      <c r="G27" s="255"/>
+      <c r="H27" s="255"/>
+      <c r="I27" s="255"/>
+      <c r="J27" s="255"/>
+      <c r="K27" s="255"/>
+      <c r="L27" s="232"/>
+      <c r="M27" s="232"/>
     </row>
     <row r="28" spans="1:13" ht="15.75" customHeight="1">
-      <c r="A28" s="230">
+      <c r="A28" s="268">
         <v>10</v>
       </c>
-      <c r="B28" s="222"/>
+      <c r="B28" s="262"/>
       <c r="C28" s="13" t="s">
         <v>52</v>
       </c>
       <c r="D28" s="4"/>
-      <c r="E28" s="196"/>
-      <c r="F28" s="206" t="s">
+      <c r="E28" s="239"/>
+      <c r="F28" s="246" t="s">
         <v>59</v>
       </c>
-      <c r="G28" s="206"/>
-      <c r="H28" s="206" t="s">
+      <c r="G28" s="246"/>
+      <c r="H28" s="246" t="s">
         <v>40</v>
       </c>
-      <c r="I28" s="206"/>
-      <c r="J28" s="206"/>
-      <c r="K28" s="206"/>
-      <c r="L28" s="256"/>
-      <c r="M28" s="256"/>
+      <c r="I28" s="246"/>
+      <c r="J28" s="246"/>
+      <c r="K28" s="246"/>
+      <c r="L28" s="226"/>
+      <c r="M28" s="226"/>
     </row>
     <row r="29" spans="1:13" ht="15.75" customHeight="1">
-      <c r="A29" s="231"/>
-      <c r="B29" s="222"/>
+      <c r="A29" s="281"/>
+      <c r="B29" s="262"/>
       <c r="C29" s="13" t="s">
         <v>54</v>
       </c>
       <c r="D29" s="4"/>
-      <c r="E29" s="196"/>
-      <c r="F29" s="206"/>
-      <c r="G29" s="206"/>
-      <c r="H29" s="206"/>
-      <c r="I29" s="206"/>
-      <c r="J29" s="206"/>
-      <c r="K29" s="206"/>
-      <c r="L29" s="256"/>
-      <c r="M29" s="256"/>
+      <c r="E29" s="239"/>
+      <c r="F29" s="246"/>
+      <c r="G29" s="246"/>
+      <c r="H29" s="246"/>
+      <c r="I29" s="246"/>
+      <c r="J29" s="246"/>
+      <c r="K29" s="246"/>
+      <c r="L29" s="226"/>
+      <c r="M29" s="226"/>
     </row>
     <row r="30" spans="1:13" ht="15.75" customHeight="1">
-      <c r="A30" s="232">
+      <c r="A30" s="282">
         <v>11</v>
       </c>
-      <c r="B30" s="222"/>
+      <c r="B30" s="262"/>
       <c r="C30" s="13" t="s">
         <v>55</v>
       </c>
       <c r="D30" s="4"/>
-      <c r="E30" s="203" t="s">
+      <c r="E30" s="247" t="s">
         <v>49</v>
       </c>
-      <c r="F30" s="197"/>
-      <c r="G30" s="197"/>
-      <c r="H30" s="197"/>
-      <c r="I30" s="197"/>
-      <c r="J30" s="197"/>
-      <c r="K30" s="197"/>
-      <c r="L30" s="245"/>
-      <c r="M30" s="245"/>
+      <c r="F30" s="244"/>
+      <c r="G30" s="244"/>
+      <c r="H30" s="244"/>
+      <c r="I30" s="244"/>
+      <c r="J30" s="244"/>
+      <c r="K30" s="244"/>
+      <c r="L30" s="222"/>
+      <c r="M30" s="222"/>
     </row>
     <row r="31" spans="1:13" ht="15.75" customHeight="1">
-      <c r="A31" s="229"/>
-      <c r="B31" s="222"/>
+      <c r="A31" s="280"/>
+      <c r="B31" s="262"/>
       <c r="C31" s="14" t="s">
         <v>57</v>
       </c>
       <c r="D31" s="4"/>
-      <c r="E31" s="203"/>
-      <c r="F31" s="197"/>
-      <c r="G31" s="197"/>
-      <c r="H31" s="197"/>
-      <c r="I31" s="197"/>
-      <c r="J31" s="197"/>
-      <c r="K31" s="197"/>
-      <c r="L31" s="245"/>
-      <c r="M31" s="245"/>
+      <c r="E31" s="247"/>
+      <c r="F31" s="244"/>
+      <c r="G31" s="244"/>
+      <c r="H31" s="244"/>
+      <c r="I31" s="244"/>
+      <c r="J31" s="244"/>
+      <c r="K31" s="244"/>
+      <c r="L31" s="222"/>
+      <c r="M31" s="222"/>
     </row>
     <row r="32" spans="1:13" ht="15.75" customHeight="1">
-      <c r="A32" s="230">
+      <c r="A32" s="268">
         <v>12</v>
       </c>
-      <c r="B32" s="222"/>
+      <c r="B32" s="262"/>
       <c r="C32" s="14" t="s">
         <v>58</v>
       </c>
       <c r="D32" s="4"/>
-      <c r="E32" s="196"/>
-      <c r="F32" s="206" t="s">
+      <c r="E32" s="239"/>
+      <c r="F32" s="246" t="s">
         <v>67</v>
       </c>
-      <c r="G32" s="199" t="s">
+      <c r="G32" s="250" t="s">
         <v>64</v>
       </c>
-      <c r="H32" s="206" t="s">
+      <c r="H32" s="246" t="s">
         <v>49</v>
       </c>
-      <c r="I32" s="206"/>
-      <c r="J32" s="206"/>
-      <c r="K32" s="206"/>
-      <c r="L32" s="256"/>
-      <c r="M32" s="256"/>
+      <c r="I32" s="246"/>
+      <c r="J32" s="246"/>
+      <c r="K32" s="246"/>
+      <c r="L32" s="226"/>
+      <c r="M32" s="226"/>
     </row>
     <row r="33" spans="1:13" ht="15.75" customHeight="1" thickBot="1">
-      <c r="A33" s="233"/>
-      <c r="B33" s="227"/>
+      <c r="A33" s="283"/>
+      <c r="B33" s="264"/>
       <c r="C33" s="15" t="s">
         <v>60</v>
       </c>
       <c r="D33" s="5"/>
-      <c r="E33" s="252"/>
-      <c r="F33" s="255"/>
-      <c r="G33" s="254"/>
-      <c r="H33" s="255"/>
-      <c r="I33" s="255"/>
-      <c r="J33" s="255"/>
-      <c r="K33" s="255"/>
-      <c r="L33" s="257"/>
-      <c r="M33" s="257"/>
+      <c r="E33" s="240"/>
+      <c r="F33" s="249"/>
+      <c r="G33" s="251"/>
+      <c r="H33" s="249"/>
+      <c r="I33" s="249"/>
+      <c r="J33" s="249"/>
+      <c r="K33" s="249"/>
+      <c r="L33" s="233"/>
+      <c r="M33" s="233"/>
     </row>
     <row r="34" spans="1:13" ht="15.75" customHeight="1">
-      <c r="A34" s="226">
+      <c r="A34" s="258">
         <v>13</v>
       </c>
-      <c r="B34" s="221" t="s">
+      <c r="B34" s="261" t="s">
         <v>61</v>
       </c>
       <c r="C34" s="16" t="s">
         <v>62</v>
       </c>
       <c r="D34" s="3"/>
-      <c r="E34" s="208" t="s">
+      <c r="E34" s="252" t="s">
         <v>56</v>
       </c>
-      <c r="F34" s="201"/>
-      <c r="G34" s="201"/>
-      <c r="H34" s="201"/>
-      <c r="I34" s="201"/>
-      <c r="J34" s="201"/>
-      <c r="K34" s="201"/>
-      <c r="L34" s="262"/>
-      <c r="M34" s="262"/>
+      <c r="F34" s="253"/>
+      <c r="G34" s="253"/>
+      <c r="H34" s="253"/>
+      <c r="I34" s="253"/>
+      <c r="J34" s="253"/>
+      <c r="K34" s="253"/>
+      <c r="L34" s="225"/>
+      <c r="M34" s="225"/>
     </row>
     <row r="35" spans="1:13" ht="15.75" customHeight="1">
-      <c r="A35" s="214"/>
-      <c r="B35" s="222"/>
+      <c r="A35" s="259"/>
+      <c r="B35" s="262"/>
       <c r="C35" s="17" t="s">
         <v>65</v>
       </c>
       <c r="D35" s="4"/>
-      <c r="E35" s="203"/>
-      <c r="F35" s="197"/>
-      <c r="G35" s="197"/>
-      <c r="H35" s="197"/>
-      <c r="I35" s="197"/>
-      <c r="J35" s="197"/>
-      <c r="K35" s="197"/>
-      <c r="L35" s="245"/>
-      <c r="M35" s="245"/>
+      <c r="E35" s="247"/>
+      <c r="F35" s="244"/>
+      <c r="G35" s="244"/>
+      <c r="H35" s="244"/>
+      <c r="I35" s="244"/>
+      <c r="J35" s="244"/>
+      <c r="K35" s="244"/>
+      <c r="L35" s="222"/>
+      <c r="M35" s="222"/>
     </row>
     <row r="36" spans="1:13" ht="15.75" customHeight="1">
-      <c r="A36" s="213">
+      <c r="A36" s="267">
         <v>14</v>
       </c>
-      <c r="B36" s="222"/>
+      <c r="B36" s="262"/>
       <c r="C36" s="17" t="s">
         <v>66</v>
       </c>
       <c r="D36" s="4"/>
-      <c r="E36" s="196"/>
-      <c r="F36" s="200" t="s">
+      <c r="E36" s="239"/>
+      <c r="F36" s="242" t="s">
         <v>73</v>
       </c>
-      <c r="G36" s="200"/>
-      <c r="H36" s="200" t="s">
+      <c r="G36" s="242"/>
+      <c r="H36" s="242" t="s">
         <v>56</v>
       </c>
-      <c r="I36" s="200"/>
-      <c r="J36" s="200"/>
-      <c r="K36" s="200"/>
-      <c r="L36" s="263"/>
-      <c r="M36" s="263"/>
+      <c r="I36" s="242"/>
+      <c r="J36" s="242"/>
+      <c r="K36" s="242"/>
+      <c r="L36" s="223"/>
+      <c r="M36" s="223"/>
     </row>
     <row r="37" spans="1:13" ht="15.75" customHeight="1">
-      <c r="A37" s="213"/>
-      <c r="B37" s="222"/>
+      <c r="A37" s="267"/>
+      <c r="B37" s="262"/>
       <c r="C37" s="17" t="s">
         <v>68</v>
       </c>
       <c r="D37" s="4"/>
-      <c r="E37" s="196"/>
-      <c r="F37" s="200"/>
-      <c r="G37" s="200"/>
-      <c r="H37" s="200"/>
-      <c r="I37" s="200"/>
-      <c r="J37" s="200"/>
-      <c r="K37" s="200"/>
-      <c r="L37" s="263"/>
-      <c r="M37" s="263"/>
+      <c r="E37" s="239"/>
+      <c r="F37" s="242"/>
+      <c r="G37" s="242"/>
+      <c r="H37" s="242"/>
+      <c r="I37" s="242"/>
+      <c r="J37" s="242"/>
+      <c r="K37" s="242"/>
+      <c r="L37" s="223"/>
+      <c r="M37" s="223"/>
     </row>
     <row r="38" spans="1:13" ht="15.75" customHeight="1">
-      <c r="A38" s="214">
+      <c r="A38" s="259">
         <v>15</v>
       </c>
-      <c r="B38" s="222"/>
+      <c r="B38" s="262"/>
       <c r="C38" s="17" t="s">
         <v>69</v>
       </c>
       <c r="D38" s="4"/>
-      <c r="E38" s="203" t="s">
+      <c r="E38" s="247" t="s">
         <v>63</v>
       </c>
-      <c r="F38" s="197"/>
-      <c r="G38" s="197"/>
-      <c r="H38" s="197"/>
-      <c r="I38" s="197"/>
-      <c r="J38" s="197"/>
-      <c r="K38" s="197"/>
-      <c r="L38" s="245"/>
-      <c r="M38" s="245"/>
+      <c r="F38" s="244"/>
+      <c r="G38" s="244"/>
+      <c r="H38" s="244"/>
+      <c r="I38" s="244"/>
+      <c r="J38" s="244"/>
+      <c r="K38" s="244"/>
+      <c r="L38" s="222"/>
+      <c r="M38" s="222"/>
     </row>
     <row r="39" spans="1:13" ht="15.75" customHeight="1">
-      <c r="A39" s="214"/>
-      <c r="B39" s="222"/>
+      <c r="A39" s="259"/>
+      <c r="B39" s="262"/>
       <c r="C39" s="32" t="s">
         <v>71</v>
       </c>
       <c r="D39" s="4"/>
-      <c r="E39" s="203"/>
-      <c r="F39" s="197"/>
-      <c r="G39" s="197"/>
-      <c r="H39" s="197"/>
-      <c r="I39" s="197"/>
-      <c r="J39" s="197"/>
-      <c r="K39" s="197"/>
-      <c r="L39" s="245"/>
-      <c r="M39" s="245"/>
+      <c r="E39" s="247"/>
+      <c r="F39" s="244"/>
+      <c r="G39" s="244"/>
+      <c r="H39" s="244"/>
+      <c r="I39" s="244"/>
+      <c r="J39" s="244"/>
+      <c r="K39" s="244"/>
+      <c r="L39" s="222"/>
+      <c r="M39" s="222"/>
     </row>
     <row r="40" spans="1:13" ht="15.75" customHeight="1">
-      <c r="A40" s="213">
+      <c r="A40" s="267">
         <v>16</v>
       </c>
-      <c r="B40" s="222"/>
+      <c r="B40" s="262"/>
       <c r="C40" s="32" t="s">
         <v>72</v>
       </c>
       <c r="D40" s="4"/>
-      <c r="E40" s="196"/>
-      <c r="F40" s="206" t="s">
+      <c r="E40" s="239"/>
+      <c r="F40" s="246" t="s">
         <v>82</v>
       </c>
-      <c r="G40" s="199" t="s">
+      <c r="G40" s="250" t="s">
         <v>79</v>
       </c>
-      <c r="H40" s="200" t="s">
+      <c r="H40" s="242" t="s">
         <v>63</v>
       </c>
-      <c r="I40" s="200"/>
-      <c r="J40" s="200"/>
-      <c r="K40" s="200"/>
-      <c r="L40" s="263"/>
-      <c r="M40" s="263"/>
+      <c r="I40" s="242"/>
+      <c r="J40" s="242"/>
+      <c r="K40" s="242"/>
+      <c r="L40" s="223"/>
+      <c r="M40" s="223"/>
     </row>
     <row r="41" spans="1:13" ht="15.75" customHeight="1">
-      <c r="A41" s="213"/>
-      <c r="B41" s="222"/>
+      <c r="A41" s="267"/>
+      <c r="B41" s="262"/>
       <c r="C41" s="32" t="s">
         <v>74</v>
       </c>
       <c r="D41" s="4"/>
-      <c r="E41" s="196"/>
-      <c r="F41" s="206"/>
-      <c r="G41" s="199"/>
-      <c r="H41" s="200"/>
-      <c r="I41" s="200"/>
-      <c r="J41" s="200"/>
-      <c r="K41" s="200"/>
-      <c r="L41" s="263"/>
-      <c r="M41" s="263"/>
+      <c r="E41" s="239"/>
+      <c r="F41" s="246"/>
+      <c r="G41" s="250"/>
+      <c r="H41" s="242"/>
+      <c r="I41" s="242"/>
+      <c r="J41" s="242"/>
+      <c r="K41" s="242"/>
+      <c r="L41" s="223"/>
+      <c r="M41" s="223"/>
     </row>
     <row r="42" spans="1:13" ht="15.75" customHeight="1" thickBot="1">
-      <c r="A42" s="225"/>
-      <c r="B42" s="223"/>
+      <c r="A42" s="294"/>
+      <c r="B42" s="263"/>
       <c r="C42" s="9" t="s">
         <v>75</v>
       </c>
       <c r="D42" s="5"/>
-      <c r="E42" s="252"/>
-      <c r="F42" s="255"/>
-      <c r="G42" s="254"/>
-      <c r="H42" s="253"/>
-      <c r="I42" s="253"/>
-      <c r="J42" s="253"/>
-      <c r="K42" s="253"/>
-      <c r="L42" s="264"/>
-      <c r="M42" s="264"/>
+      <c r="E42" s="240"/>
+      <c r="F42" s="249"/>
+      <c r="G42" s="251"/>
+      <c r="H42" s="243"/>
+      <c r="I42" s="243"/>
+      <c r="J42" s="243"/>
+      <c r="K42" s="243"/>
+      <c r="L42" s="224"/>
+      <c r="M42" s="224"/>
     </row>
     <row r="43" spans="1:13" ht="15.75" customHeight="1">
-      <c r="A43" s="226">
+      <c r="A43" s="258">
         <v>17</v>
       </c>
-      <c r="B43" s="216" t="s">
+      <c r="B43" s="289" t="s">
         <v>76</v>
       </c>
       <c r="C43" s="10" t="s">
         <v>77</v>
       </c>
       <c r="D43" s="3"/>
-      <c r="E43" s="208" t="s">
+      <c r="E43" s="252" t="s">
         <v>70</v>
       </c>
-      <c r="F43" s="201"/>
-      <c r="G43" s="201"/>
-      <c r="H43" s="201"/>
-      <c r="I43" s="201"/>
-      <c r="J43" s="201"/>
-      <c r="K43" s="201"/>
-      <c r="L43" s="262"/>
-      <c r="M43" s="262"/>
+      <c r="F43" s="253"/>
+      <c r="G43" s="253"/>
+      <c r="H43" s="253"/>
+      <c r="I43" s="253"/>
+      <c r="J43" s="253"/>
+      <c r="K43" s="253"/>
+      <c r="L43" s="225"/>
+      <c r="M43" s="225"/>
     </row>
     <row r="44" spans="1:13" ht="15.75" customHeight="1">
-      <c r="A44" s="214"/>
-      <c r="B44" s="217"/>
+      <c r="A44" s="259"/>
+      <c r="B44" s="290"/>
       <c r="C44" s="11" t="s">
         <v>80</v>
       </c>
       <c r="D44" s="4"/>
-      <c r="E44" s="203"/>
-      <c r="F44" s="197"/>
-      <c r="G44" s="197"/>
-      <c r="H44" s="197"/>
-      <c r="I44" s="197"/>
-      <c r="J44" s="197"/>
-      <c r="K44" s="197"/>
-      <c r="L44" s="245"/>
-      <c r="M44" s="245"/>
+      <c r="E44" s="247"/>
+      <c r="F44" s="244"/>
+      <c r="G44" s="244"/>
+      <c r="H44" s="244"/>
+      <c r="I44" s="244"/>
+      <c r="J44" s="244"/>
+      <c r="K44" s="244"/>
+      <c r="L44" s="222"/>
+      <c r="M44" s="222"/>
     </row>
     <row r="45" spans="1:13" ht="15.75" customHeight="1">
-      <c r="A45" s="213">
+      <c r="A45" s="267">
         <v>18</v>
       </c>
-      <c r="B45" s="217"/>
+      <c r="B45" s="290"/>
       <c r="C45" s="11" t="s">
         <v>81</v>
       </c>
       <c r="D45" s="4"/>
-      <c r="E45" s="196"/>
-      <c r="F45" s="206" t="s">
+      <c r="E45" s="239"/>
+      <c r="F45" s="246" t="s">
         <v>197</v>
       </c>
-      <c r="G45" s="200"/>
-      <c r="H45" s="206" t="s">
+      <c r="G45" s="242"/>
+      <c r="H45" s="246" t="s">
         <v>70</v>
       </c>
-      <c r="I45" s="206"/>
-      <c r="J45" s="206"/>
-      <c r="K45" s="206"/>
-      <c r="L45" s="256"/>
-      <c r="M45" s="256"/>
+      <c r="I45" s="246"/>
+      <c r="J45" s="246"/>
+      <c r="K45" s="246"/>
+      <c r="L45" s="226"/>
+      <c r="M45" s="226"/>
     </row>
     <row r="46" spans="1:13" ht="15.75" customHeight="1">
-      <c r="A46" s="213"/>
-      <c r="B46" s="217"/>
+      <c r="A46" s="267"/>
+      <c r="B46" s="290"/>
       <c r="C46" s="11" t="s">
         <v>83</v>
       </c>
       <c r="D46" s="4"/>
-      <c r="E46" s="196"/>
-      <c r="F46" s="206"/>
-      <c r="G46" s="200"/>
-      <c r="H46" s="206"/>
-      <c r="I46" s="206"/>
-      <c r="J46" s="206"/>
-      <c r="K46" s="206"/>
-      <c r="L46" s="256"/>
-      <c r="M46" s="256"/>
+      <c r="E46" s="239"/>
+      <c r="F46" s="246"/>
+      <c r="G46" s="242"/>
+      <c r="H46" s="246"/>
+      <c r="I46" s="246"/>
+      <c r="J46" s="246"/>
+      <c r="K46" s="246"/>
+      <c r="L46" s="226"/>
+      <c r="M46" s="226"/>
     </row>
     <row r="47" spans="1:13" ht="15.75" customHeight="1">
-      <c r="A47" s="214">
+      <c r="A47" s="259">
         <v>19</v>
       </c>
-      <c r="B47" s="217"/>
-      <c r="C47" s="219" t="s">
+      <c r="B47" s="290"/>
+      <c r="C47" s="292" t="s">
         <v>84</v>
       </c>
       <c r="D47" s="4"/>
-      <c r="E47" s="203" t="s">
+      <c r="E47" s="247" t="s">
         <v>78</v>
       </c>
-      <c r="F47" s="197"/>
-      <c r="G47" s="197"/>
-      <c r="H47" s="197"/>
-      <c r="I47" s="197"/>
-      <c r="J47" s="197"/>
-      <c r="K47" s="197"/>
-      <c r="L47" s="245"/>
-      <c r="M47" s="245"/>
+      <c r="F47" s="244"/>
+      <c r="G47" s="244"/>
+      <c r="H47" s="244"/>
+      <c r="I47" s="244"/>
+      <c r="J47" s="244"/>
+      <c r="K47" s="244"/>
+      <c r="L47" s="222"/>
+      <c r="M47" s="222"/>
     </row>
     <row r="48" spans="1:13" ht="15.75" customHeight="1" thickBot="1">
-      <c r="A48" s="215"/>
-      <c r="B48" s="218"/>
-      <c r="C48" s="220"/>
+      <c r="A48" s="260"/>
+      <c r="B48" s="291"/>
+      <c r="C48" s="293"/>
       <c r="D48" s="5"/>
-      <c r="E48" s="251"/>
-      <c r="F48" s="244"/>
-      <c r="G48" s="244"/>
-      <c r="H48" s="244"/>
-      <c r="I48" s="244"/>
-      <c r="J48" s="244"/>
-      <c r="K48" s="244"/>
-      <c r="L48" s="246"/>
-      <c r="M48" s="246"/>
+      <c r="E48" s="248"/>
+      <c r="F48" s="245"/>
+      <c r="G48" s="245"/>
+      <c r="H48" s="245"/>
+      <c r="I48" s="245"/>
+      <c r="J48" s="245"/>
+      <c r="K48" s="245"/>
+      <c r="L48" s="227"/>
+      <c r="M48" s="227"/>
     </row>
     <row r="49" spans="1:13" ht="15.75" customHeight="1">
-      <c r="A49" s="224">
+      <c r="A49" s="288">
         <v>20</v>
       </c>
-      <c r="B49" s="221" t="s">
+      <c r="B49" s="261" t="s">
         <v>85</v>
       </c>
       <c r="C49" s="10" t="s">
         <v>86</v>
       </c>
       <c r="D49" s="6"/>
-      <c r="E49" s="265"/>
-      <c r="F49" s="266"/>
-      <c r="G49" s="266"/>
-      <c r="H49" s="266" t="s">
+      <c r="E49" s="238"/>
+      <c r="F49" s="241"/>
+      <c r="G49" s="241"/>
+      <c r="H49" s="241" t="s">
         <v>78</v>
       </c>
-      <c r="I49" s="266"/>
-      <c r="J49" s="266"/>
-      <c r="K49" s="266"/>
-      <c r="L49" s="267"/>
-      <c r="M49" s="267"/>
+      <c r="I49" s="241"/>
+      <c r="J49" s="241"/>
+      <c r="K49" s="241"/>
+      <c r="L49" s="228"/>
+      <c r="M49" s="228"/>
     </row>
     <row r="50" spans="1:13" ht="15.75" customHeight="1">
-      <c r="A50" s="213"/>
-      <c r="B50" s="222"/>
+      <c r="A50" s="267"/>
+      <c r="B50" s="262"/>
       <c r="C50" s="11" t="s">
         <v>87</v>
       </c>
       <c r="D50" s="4"/>
-      <c r="E50" s="196"/>
-      <c r="F50" s="200"/>
-      <c r="G50" s="200"/>
-      <c r="H50" s="200"/>
-      <c r="I50" s="200"/>
-      <c r="J50" s="200"/>
-      <c r="K50" s="200"/>
-      <c r="L50" s="263"/>
-      <c r="M50" s="263"/>
+      <c r="E50" s="239"/>
+      <c r="F50" s="242"/>
+      <c r="G50" s="242"/>
+      <c r="H50" s="242"/>
+      <c r="I50" s="242"/>
+      <c r="J50" s="242"/>
+      <c r="K50" s="242"/>
+      <c r="L50" s="223"/>
+      <c r="M50" s="223"/>
     </row>
     <row r="51" spans="1:13" ht="15.75" customHeight="1">
-      <c r="A51" s="213"/>
-      <c r="B51" s="222"/>
+      <c r="A51" s="267"/>
+      <c r="B51" s="262"/>
       <c r="C51" s="11" t="s">
         <v>88</v>
       </c>
       <c r="D51" s="4"/>
-      <c r="E51" s="196"/>
-      <c r="F51" s="200"/>
-      <c r="G51" s="200"/>
-      <c r="H51" s="200"/>
-      <c r="I51" s="200"/>
-      <c r="J51" s="200"/>
-      <c r="K51" s="200"/>
-      <c r="L51" s="263"/>
-      <c r="M51" s="263"/>
+      <c r="E51" s="239"/>
+      <c r="F51" s="242"/>
+      <c r="G51" s="242"/>
+      <c r="H51" s="242"/>
+      <c r="I51" s="242"/>
+      <c r="J51" s="242"/>
+      <c r="K51" s="242"/>
+      <c r="L51" s="223"/>
+      <c r="M51" s="223"/>
     </row>
     <row r="52" spans="1:13" ht="15.75" customHeight="1" thickBot="1">
-      <c r="A52" s="225"/>
-      <c r="B52" s="223"/>
+      <c r="A52" s="294"/>
+      <c r="B52" s="263"/>
       <c r="C52" s="18" t="s">
         <v>89</v>
       </c>
       <c r="D52" s="5"/>
-      <c r="E52" s="252"/>
-      <c r="F52" s="253"/>
-      <c r="G52" s="253"/>
-      <c r="H52" s="253"/>
-      <c r="I52" s="253"/>
-      <c r="J52" s="253"/>
-      <c r="K52" s="253"/>
-      <c r="L52" s="264"/>
-      <c r="M52" s="264"/>
+      <c r="E52" s="240"/>
+      <c r="F52" s="243"/>
+      <c r="G52" s="243"/>
+      <c r="H52" s="243"/>
+      <c r="I52" s="243"/>
+      <c r="J52" s="243"/>
+      <c r="K52" s="243"/>
+      <c r="L52" s="224"/>
+      <c r="M52" s="224"/>
     </row>
     <row r="55" spans="1:13" ht="15.75" thickBot="1"/>
     <row r="56" spans="1:13" ht="15.75" thickBot="1">
@@ -15375,6 +15577,193 @@
     </row>
   </sheetData>
   <mergeCells count="211">
+    <mergeCell ref="I1:K1"/>
+    <mergeCell ref="E13:E14"/>
+    <mergeCell ref="H11:H12"/>
+    <mergeCell ref="F13:F14"/>
+    <mergeCell ref="G13:G14"/>
+    <mergeCell ref="H13:H14"/>
+    <mergeCell ref="I13:I14"/>
+    <mergeCell ref="J13:J14"/>
+    <mergeCell ref="K13:K14"/>
+    <mergeCell ref="J2:J8"/>
+    <mergeCell ref="K2:K8"/>
+    <mergeCell ref="E11:E12"/>
+    <mergeCell ref="E9:E10"/>
+    <mergeCell ref="F9:F10"/>
+    <mergeCell ref="G9:G10"/>
+    <mergeCell ref="E2:E8"/>
+    <mergeCell ref="F2:F8"/>
+    <mergeCell ref="G2:G8"/>
+    <mergeCell ref="H2:H8"/>
+    <mergeCell ref="I2:I8"/>
+    <mergeCell ref="I11:I12"/>
+    <mergeCell ref="A45:A46"/>
+    <mergeCell ref="A47:A48"/>
+    <mergeCell ref="B43:B48"/>
+    <mergeCell ref="C47:C48"/>
+    <mergeCell ref="B49:B52"/>
+    <mergeCell ref="A49:A52"/>
+    <mergeCell ref="A34:A35"/>
+    <mergeCell ref="A36:A37"/>
+    <mergeCell ref="A38:A39"/>
+    <mergeCell ref="A40:A42"/>
+    <mergeCell ref="B34:B42"/>
+    <mergeCell ref="A43:A44"/>
+    <mergeCell ref="B26:B33"/>
+    <mergeCell ref="A26:A27"/>
+    <mergeCell ref="A28:A29"/>
+    <mergeCell ref="A30:A31"/>
+    <mergeCell ref="A32:A33"/>
+    <mergeCell ref="A11:A12"/>
+    <mergeCell ref="A13:A14"/>
+    <mergeCell ref="A15:A16"/>
+    <mergeCell ref="A17:A19"/>
+    <mergeCell ref="A20:A22"/>
+    <mergeCell ref="A2:A8"/>
+    <mergeCell ref="B2:B8"/>
+    <mergeCell ref="B9:B16"/>
+    <mergeCell ref="A9:A10"/>
+    <mergeCell ref="A23:A25"/>
+    <mergeCell ref="B17:B25"/>
+    <mergeCell ref="C15:C16"/>
+    <mergeCell ref="L11:L12"/>
+    <mergeCell ref="J9:J10"/>
+    <mergeCell ref="K9:K10"/>
+    <mergeCell ref="L9:L10"/>
+    <mergeCell ref="K15:K16"/>
+    <mergeCell ref="L15:L16"/>
+    <mergeCell ref="F15:F16"/>
+    <mergeCell ref="G15:G16"/>
+    <mergeCell ref="H15:H16"/>
+    <mergeCell ref="I15:I16"/>
+    <mergeCell ref="J15:J16"/>
+    <mergeCell ref="H9:H10"/>
+    <mergeCell ref="I9:I10"/>
+    <mergeCell ref="F11:F12"/>
+    <mergeCell ref="G11:G12"/>
+    <mergeCell ref="E15:E16"/>
+    <mergeCell ref="E17:E19"/>
+    <mergeCell ref="F17:F19"/>
+    <mergeCell ref="G17:G19"/>
+    <mergeCell ref="H17:H19"/>
+    <mergeCell ref="I17:I19"/>
+    <mergeCell ref="J17:J19"/>
+    <mergeCell ref="K17:K19"/>
+    <mergeCell ref="J11:J12"/>
+    <mergeCell ref="K11:K12"/>
+    <mergeCell ref="E23:E25"/>
+    <mergeCell ref="F23:F25"/>
+    <mergeCell ref="G23:G25"/>
+    <mergeCell ref="H23:H25"/>
+    <mergeCell ref="I23:I25"/>
+    <mergeCell ref="J23:J25"/>
+    <mergeCell ref="K23:K25"/>
+    <mergeCell ref="L23:L25"/>
+    <mergeCell ref="H20:H22"/>
+    <mergeCell ref="F20:F22"/>
+    <mergeCell ref="G20:G22"/>
+    <mergeCell ref="I20:I22"/>
+    <mergeCell ref="J20:J22"/>
+    <mergeCell ref="K20:K22"/>
+    <mergeCell ref="L20:L22"/>
+    <mergeCell ref="E20:E22"/>
+    <mergeCell ref="F26:F27"/>
+    <mergeCell ref="G26:G27"/>
+    <mergeCell ref="H26:H27"/>
+    <mergeCell ref="I26:I27"/>
+    <mergeCell ref="J26:J27"/>
+    <mergeCell ref="E26:E27"/>
+    <mergeCell ref="K30:K31"/>
+    <mergeCell ref="L30:L31"/>
+    <mergeCell ref="K26:K27"/>
+    <mergeCell ref="L26:L27"/>
+    <mergeCell ref="E28:E29"/>
+    <mergeCell ref="F28:F29"/>
+    <mergeCell ref="G28:G29"/>
+    <mergeCell ref="H28:H29"/>
+    <mergeCell ref="I28:I29"/>
+    <mergeCell ref="J28:J29"/>
+    <mergeCell ref="K28:K29"/>
+    <mergeCell ref="L28:L29"/>
+    <mergeCell ref="E32:E33"/>
+    <mergeCell ref="F32:F33"/>
+    <mergeCell ref="G32:G33"/>
+    <mergeCell ref="H32:H33"/>
+    <mergeCell ref="I32:I33"/>
+    <mergeCell ref="J32:J33"/>
+    <mergeCell ref="K32:K33"/>
+    <mergeCell ref="L32:L33"/>
+    <mergeCell ref="F30:F31"/>
+    <mergeCell ref="G30:G31"/>
+    <mergeCell ref="H30:H31"/>
+    <mergeCell ref="I30:I31"/>
+    <mergeCell ref="J30:J31"/>
+    <mergeCell ref="E30:E31"/>
+    <mergeCell ref="E38:E39"/>
+    <mergeCell ref="F34:F35"/>
+    <mergeCell ref="G34:G35"/>
+    <mergeCell ref="H34:H35"/>
+    <mergeCell ref="I34:I35"/>
+    <mergeCell ref="J34:J35"/>
+    <mergeCell ref="E34:E35"/>
+    <mergeCell ref="K38:K39"/>
+    <mergeCell ref="L38:L39"/>
+    <mergeCell ref="F38:F39"/>
+    <mergeCell ref="G38:G39"/>
+    <mergeCell ref="H38:H39"/>
+    <mergeCell ref="I38:I39"/>
+    <mergeCell ref="J38:J39"/>
+    <mergeCell ref="K34:K35"/>
+    <mergeCell ref="L34:L35"/>
+    <mergeCell ref="E36:E37"/>
+    <mergeCell ref="F36:F37"/>
+    <mergeCell ref="G36:G37"/>
+    <mergeCell ref="H36:H37"/>
+    <mergeCell ref="I36:I37"/>
+    <mergeCell ref="J36:J37"/>
+    <mergeCell ref="K36:K37"/>
+    <mergeCell ref="L36:L37"/>
+    <mergeCell ref="E40:E42"/>
+    <mergeCell ref="F40:F42"/>
+    <mergeCell ref="G40:G42"/>
+    <mergeCell ref="H40:H42"/>
+    <mergeCell ref="I40:I42"/>
+    <mergeCell ref="J40:J42"/>
+    <mergeCell ref="K40:K42"/>
+    <mergeCell ref="L40:L42"/>
+    <mergeCell ref="E43:E44"/>
+    <mergeCell ref="K43:K44"/>
+    <mergeCell ref="L43:L44"/>
+    <mergeCell ref="F43:F44"/>
+    <mergeCell ref="G43:G44"/>
+    <mergeCell ref="H43:H44"/>
+    <mergeCell ref="I43:I44"/>
+    <mergeCell ref="J43:J44"/>
+    <mergeCell ref="E45:E46"/>
+    <mergeCell ref="F45:F46"/>
+    <mergeCell ref="G45:G46"/>
+    <mergeCell ref="H45:H46"/>
+    <mergeCell ref="I45:I46"/>
+    <mergeCell ref="J45:J46"/>
+    <mergeCell ref="K45:K46"/>
+    <mergeCell ref="L45:L46"/>
+    <mergeCell ref="E47:E48"/>
+    <mergeCell ref="K47:K48"/>
+    <mergeCell ref="L47:L48"/>
+    <mergeCell ref="E49:E52"/>
+    <mergeCell ref="F49:F52"/>
+    <mergeCell ref="G49:G52"/>
+    <mergeCell ref="H49:H52"/>
+    <mergeCell ref="I49:I52"/>
+    <mergeCell ref="J49:J52"/>
+    <mergeCell ref="K49:K52"/>
+    <mergeCell ref="L49:L52"/>
+    <mergeCell ref="F47:F48"/>
+    <mergeCell ref="G47:G48"/>
+    <mergeCell ref="H47:H48"/>
+    <mergeCell ref="I47:I48"/>
+    <mergeCell ref="J47:J48"/>
     <mergeCell ref="M38:M39"/>
     <mergeCell ref="M40:M42"/>
     <mergeCell ref="M43:M44"/>
@@ -15399,193 +15788,6 @@
     <mergeCell ref="L17:L19"/>
     <mergeCell ref="L13:L14"/>
     <mergeCell ref="L2:L8"/>
-    <mergeCell ref="E49:E52"/>
-    <mergeCell ref="F49:F52"/>
-    <mergeCell ref="G49:G52"/>
-    <mergeCell ref="H49:H52"/>
-    <mergeCell ref="I49:I52"/>
-    <mergeCell ref="J49:J52"/>
-    <mergeCell ref="K49:K52"/>
-    <mergeCell ref="L49:L52"/>
-    <mergeCell ref="F47:F48"/>
-    <mergeCell ref="G47:G48"/>
-    <mergeCell ref="H47:H48"/>
-    <mergeCell ref="I47:I48"/>
-    <mergeCell ref="J47:J48"/>
-    <mergeCell ref="E45:E46"/>
-    <mergeCell ref="F45:F46"/>
-    <mergeCell ref="G45:G46"/>
-    <mergeCell ref="H45:H46"/>
-    <mergeCell ref="I45:I46"/>
-    <mergeCell ref="J45:J46"/>
-    <mergeCell ref="K45:K46"/>
-    <mergeCell ref="L45:L46"/>
-    <mergeCell ref="E47:E48"/>
-    <mergeCell ref="K47:K48"/>
-    <mergeCell ref="L47:L48"/>
-    <mergeCell ref="E40:E42"/>
-    <mergeCell ref="F40:F42"/>
-    <mergeCell ref="G40:G42"/>
-    <mergeCell ref="H40:H42"/>
-    <mergeCell ref="I40:I42"/>
-    <mergeCell ref="J40:J42"/>
-    <mergeCell ref="K40:K42"/>
-    <mergeCell ref="L40:L42"/>
-    <mergeCell ref="E43:E44"/>
-    <mergeCell ref="K43:K44"/>
-    <mergeCell ref="L43:L44"/>
-    <mergeCell ref="F43:F44"/>
-    <mergeCell ref="G43:G44"/>
-    <mergeCell ref="H43:H44"/>
-    <mergeCell ref="I43:I44"/>
-    <mergeCell ref="J43:J44"/>
-    <mergeCell ref="E38:E39"/>
-    <mergeCell ref="F34:F35"/>
-    <mergeCell ref="G34:G35"/>
-    <mergeCell ref="H34:H35"/>
-    <mergeCell ref="I34:I35"/>
-    <mergeCell ref="J34:J35"/>
-    <mergeCell ref="E34:E35"/>
-    <mergeCell ref="K38:K39"/>
-    <mergeCell ref="L38:L39"/>
-    <mergeCell ref="F38:F39"/>
-    <mergeCell ref="G38:G39"/>
-    <mergeCell ref="H38:H39"/>
-    <mergeCell ref="I38:I39"/>
-    <mergeCell ref="J38:J39"/>
-    <mergeCell ref="K34:K35"/>
-    <mergeCell ref="L34:L35"/>
-    <mergeCell ref="E36:E37"/>
-    <mergeCell ref="F36:F37"/>
-    <mergeCell ref="G36:G37"/>
-    <mergeCell ref="H36:H37"/>
-    <mergeCell ref="I36:I37"/>
-    <mergeCell ref="J36:J37"/>
-    <mergeCell ref="K36:K37"/>
-    <mergeCell ref="L36:L37"/>
-    <mergeCell ref="E32:E33"/>
-    <mergeCell ref="F32:F33"/>
-    <mergeCell ref="G32:G33"/>
-    <mergeCell ref="H32:H33"/>
-    <mergeCell ref="I32:I33"/>
-    <mergeCell ref="J32:J33"/>
-    <mergeCell ref="K32:K33"/>
-    <mergeCell ref="L32:L33"/>
-    <mergeCell ref="F30:F31"/>
-    <mergeCell ref="G30:G31"/>
-    <mergeCell ref="H30:H31"/>
-    <mergeCell ref="I30:I31"/>
-    <mergeCell ref="J30:J31"/>
-    <mergeCell ref="E30:E31"/>
-    <mergeCell ref="F26:F27"/>
-    <mergeCell ref="G26:G27"/>
-    <mergeCell ref="H26:H27"/>
-    <mergeCell ref="I26:I27"/>
-    <mergeCell ref="J26:J27"/>
-    <mergeCell ref="E26:E27"/>
-    <mergeCell ref="K30:K31"/>
-    <mergeCell ref="L30:L31"/>
-    <mergeCell ref="K26:K27"/>
-    <mergeCell ref="L26:L27"/>
-    <mergeCell ref="E28:E29"/>
-    <mergeCell ref="F28:F29"/>
-    <mergeCell ref="G28:G29"/>
-    <mergeCell ref="H28:H29"/>
-    <mergeCell ref="I28:I29"/>
-    <mergeCell ref="J28:J29"/>
-    <mergeCell ref="K28:K29"/>
-    <mergeCell ref="L28:L29"/>
-    <mergeCell ref="L23:L25"/>
-    <mergeCell ref="H20:H22"/>
-    <mergeCell ref="F20:F22"/>
-    <mergeCell ref="G20:G22"/>
-    <mergeCell ref="I20:I22"/>
-    <mergeCell ref="J20:J22"/>
-    <mergeCell ref="K20:K22"/>
-    <mergeCell ref="L20:L22"/>
-    <mergeCell ref="E20:E22"/>
-    <mergeCell ref="F17:F19"/>
-    <mergeCell ref="G17:G19"/>
-    <mergeCell ref="H17:H19"/>
-    <mergeCell ref="I17:I19"/>
-    <mergeCell ref="J17:J19"/>
-    <mergeCell ref="K17:K19"/>
-    <mergeCell ref="J11:J12"/>
-    <mergeCell ref="K11:K12"/>
-    <mergeCell ref="E23:E25"/>
-    <mergeCell ref="F23:F25"/>
-    <mergeCell ref="G23:G25"/>
-    <mergeCell ref="H23:H25"/>
-    <mergeCell ref="I23:I25"/>
-    <mergeCell ref="J23:J25"/>
-    <mergeCell ref="K23:K25"/>
-    <mergeCell ref="A2:A8"/>
-    <mergeCell ref="B2:B8"/>
-    <mergeCell ref="B9:B16"/>
-    <mergeCell ref="A9:A10"/>
-    <mergeCell ref="A23:A25"/>
-    <mergeCell ref="B17:B25"/>
-    <mergeCell ref="C15:C16"/>
-    <mergeCell ref="L11:L12"/>
-    <mergeCell ref="J9:J10"/>
-    <mergeCell ref="K9:K10"/>
-    <mergeCell ref="L9:L10"/>
-    <mergeCell ref="K15:K16"/>
-    <mergeCell ref="L15:L16"/>
-    <mergeCell ref="F15:F16"/>
-    <mergeCell ref="G15:G16"/>
-    <mergeCell ref="H15:H16"/>
-    <mergeCell ref="I15:I16"/>
-    <mergeCell ref="J15:J16"/>
-    <mergeCell ref="H9:H10"/>
-    <mergeCell ref="I9:I10"/>
-    <mergeCell ref="F11:F12"/>
-    <mergeCell ref="G11:G12"/>
-    <mergeCell ref="E15:E16"/>
-    <mergeCell ref="E17:E19"/>
-    <mergeCell ref="B26:B33"/>
-    <mergeCell ref="A26:A27"/>
-    <mergeCell ref="A28:A29"/>
-    <mergeCell ref="A30:A31"/>
-    <mergeCell ref="A32:A33"/>
-    <mergeCell ref="A11:A12"/>
-    <mergeCell ref="A13:A14"/>
-    <mergeCell ref="A15:A16"/>
-    <mergeCell ref="A17:A19"/>
-    <mergeCell ref="A20:A22"/>
-    <mergeCell ref="A45:A46"/>
-    <mergeCell ref="A47:A48"/>
-    <mergeCell ref="B43:B48"/>
-    <mergeCell ref="C47:C48"/>
-    <mergeCell ref="B49:B52"/>
-    <mergeCell ref="A49:A52"/>
-    <mergeCell ref="A34:A35"/>
-    <mergeCell ref="A36:A37"/>
-    <mergeCell ref="A38:A39"/>
-    <mergeCell ref="A40:A42"/>
-    <mergeCell ref="B34:B42"/>
-    <mergeCell ref="A43:A44"/>
-    <mergeCell ref="I1:K1"/>
-    <mergeCell ref="E13:E14"/>
-    <mergeCell ref="H11:H12"/>
-    <mergeCell ref="F13:F14"/>
-    <mergeCell ref="G13:G14"/>
-    <mergeCell ref="H13:H14"/>
-    <mergeCell ref="I13:I14"/>
-    <mergeCell ref="J13:J14"/>
-    <mergeCell ref="K13:K14"/>
-    <mergeCell ref="J2:J8"/>
-    <mergeCell ref="K2:K8"/>
-    <mergeCell ref="E11:E12"/>
-    <mergeCell ref="E9:E10"/>
-    <mergeCell ref="F9:F10"/>
-    <mergeCell ref="G9:G10"/>
-    <mergeCell ref="E2:E8"/>
-    <mergeCell ref="F2:F8"/>
-    <mergeCell ref="G2:G8"/>
-    <mergeCell ref="H2:H8"/>
-    <mergeCell ref="I2:I8"/>
-    <mergeCell ref="I11:I12"/>
   </mergeCells>
   <hyperlinks>
     <hyperlink ref="E2" r:id="rId1" display="https://drive.google.com/open?id=1RYgFxmL-dmZYtjF2ca5a0yQUWnMVjo3mVexJabJL1c4"/>
@@ -15698,7 +15900,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E25"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
+    <sheetView topLeftCell="A16" workbookViewId="0">
       <selection activeCell="C20" sqref="C20"/>
     </sheetView>
   </sheetViews>
@@ -15709,318 +15911,318 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:5" ht="15.75" thickBot="1">
-      <c r="B1" s="314" t="s">
+      <c r="B1" s="203" t="s">
         <v>1004</v>
       </c>
-      <c r="C1" s="315" t="s">
+      <c r="C1" s="204" t="s">
         <v>1005</v>
       </c>
-      <c r="D1" s="315" t="s">
+      <c r="D1" s="204" t="s">
         <v>1006</v>
       </c>
-      <c r="E1" s="316" t="s">
+      <c r="E1" s="205" t="s">
         <v>1007</v>
       </c>
     </row>
     <row r="2" spans="1:5" ht="240" customHeight="1" thickBot="1">
-      <c r="A2" s="312" t="s">
+      <c r="A2" s="202" t="s">
         <v>13</v>
       </c>
-      <c r="B2" s="317" t="s">
+      <c r="B2" s="206" t="s">
         <v>1008</v>
       </c>
-      <c r="C2" s="318" t="s">
+      <c r="C2" s="207" t="s">
         <v>1009</v>
       </c>
-      <c r="D2" s="318" t="s">
+      <c r="D2" s="207" t="s">
         <v>1010</v>
       </c>
-      <c r="E2" s="319" t="s">
+      <c r="E2" s="208" t="s">
         <v>1011</v>
       </c>
     </row>
     <row r="3" spans="1:5" ht="15" customHeight="1">
-      <c r="A3" s="313" t="s">
+      <c r="A3" s="335" t="s">
         <v>1012</v>
       </c>
-      <c r="B3" s="320" t="s">
+      <c r="B3" s="209" t="s">
         <v>1013</v>
       </c>
-      <c r="C3" s="321" t="s">
+      <c r="C3" s="210" t="s">
         <v>1013</v>
       </c>
-      <c r="D3" s="321" t="s">
+      <c r="D3" s="210" t="s">
         <v>1013</v>
       </c>
-      <c r="E3" s="322" t="s">
+      <c r="E3" s="211" t="s">
         <v>1013</v>
       </c>
     </row>
     <row r="4" spans="1:5">
-      <c r="A4" s="313"/>
-      <c r="B4" s="305" t="s">
+      <c r="A4" s="335"/>
+      <c r="B4" s="195" t="s">
         <v>1014</v>
       </c>
-      <c r="C4" s="303" t="s">
+      <c r="C4" s="193" t="s">
         <v>1014</v>
       </c>
-      <c r="D4" s="303" t="s">
+      <c r="D4" s="193" t="s">
         <v>1014</v>
       </c>
-      <c r="E4" s="306" t="s">
+      <c r="E4" s="196" t="s">
         <v>1014</v>
       </c>
     </row>
     <row r="5" spans="1:5">
-      <c r="A5" s="313"/>
-      <c r="B5" s="305" t="s">
+      <c r="A5" s="335"/>
+      <c r="B5" s="195" t="s">
         <v>1016</v>
       </c>
-      <c r="C5" s="303" t="s">
+      <c r="C5" s="193" t="s">
         <v>1016</v>
       </c>
-      <c r="D5" s="303" t="s">
+      <c r="D5" s="193" t="s">
         <v>1016</v>
       </c>
-      <c r="E5" s="306" t="s">
+      <c r="E5" s="196" t="s">
         <v>1016</v>
       </c>
     </row>
     <row r="6" spans="1:5">
-      <c r="A6" s="313"/>
-      <c r="B6" s="305" t="s">
+      <c r="A6" s="335"/>
+      <c r="B6" s="195" t="s">
         <v>1017</v>
       </c>
-      <c r="C6" s="303" t="s">
+      <c r="C6" s="193" t="s">
         <v>1017</v>
       </c>
-      <c r="D6" s="303" t="s">
+      <c r="D6" s="193" t="s">
         <v>1017</v>
       </c>
-      <c r="E6" s="306" t="s">
+      <c r="E6" s="196" t="s">
         <v>1017</v>
       </c>
     </row>
     <row r="7" spans="1:5">
-      <c r="A7" s="313"/>
-      <c r="B7" s="305" t="s">
+      <c r="A7" s="335"/>
+      <c r="B7" s="195" t="s">
         <v>1015</v>
       </c>
-      <c r="C7" s="303" t="s">
+      <c r="C7" s="193" t="s">
         <v>1015</v>
       </c>
-      <c r="D7" s="303" t="s">
+      <c r="D7" s="193" t="s">
         <v>1015</v>
       </c>
-      <c r="E7" s="308"/>
+      <c r="E7" s="198"/>
     </row>
     <row r="8" spans="1:5">
-      <c r="A8" s="313"/>
-      <c r="B8" s="333"/>
-      <c r="C8" s="331" t="s">
+      <c r="A8" s="335"/>
+      <c r="B8" s="221"/>
+      <c r="C8" s="219" t="s">
         <v>1019</v>
       </c>
-      <c r="D8" s="331" t="s">
+      <c r="D8" s="219" t="s">
         <v>1019</v>
       </c>
-      <c r="E8" s="306" t="s">
+      <c r="E8" s="196" t="s">
         <v>1019</v>
       </c>
     </row>
     <row r="9" spans="1:5">
-      <c r="A9" s="313"/>
-      <c r="B9" s="333"/>
-      <c r="C9" s="327"/>
-      <c r="D9" s="327"/>
-      <c r="E9" s="332" t="s">
+      <c r="A9" s="335"/>
+      <c r="B9" s="221"/>
+      <c r="C9" s="215"/>
+      <c r="D9" s="215"/>
+      <c r="E9" s="220" t="s">
         <v>1020</v>
       </c>
     </row>
     <row r="10" spans="1:5" ht="15.75" thickBot="1">
-      <c r="A10" s="313"/>
-      <c r="B10" s="309" t="s">
+      <c r="A10" s="335"/>
+      <c r="B10" s="199" t="s">
         <v>1018</v>
       </c>
-      <c r="C10" s="310"/>
-      <c r="D10" s="310"/>
-      <c r="E10" s="311"/>
+      <c r="C10" s="200"/>
+      <c r="D10" s="200"/>
+      <c r="E10" s="201"/>
     </row>
     <row r="11" spans="1:5">
-      <c r="A11" s="313" t="s">
+      <c r="A11" s="335" t="s">
         <v>1033</v>
       </c>
-      <c r="B11" s="323"/>
-      <c r="C11" s="321" t="s">
+      <c r="B11" s="212"/>
+      <c r="C11" s="210" t="s">
         <v>1027</v>
       </c>
-      <c r="D11" s="321" t="s">
+      <c r="D11" s="210" t="s">
         <v>1027</v>
       </c>
-      <c r="E11" s="324"/>
+      <c r="E11" s="213"/>
     </row>
     <row r="12" spans="1:5">
-      <c r="A12" s="313"/>
-      <c r="B12" s="305" t="s">
+      <c r="A12" s="335"/>
+      <c r="B12" s="195" t="s">
         <v>1022</v>
       </c>
-      <c r="C12" s="303" t="s">
+      <c r="C12" s="193" t="s">
         <v>1022</v>
       </c>
-      <c r="D12" s="304"/>
-      <c r="E12" s="308"/>
+      <c r="D12" s="194"/>
+      <c r="E12" s="198"/>
     </row>
     <row r="13" spans="1:5">
-      <c r="A13" s="313"/>
-      <c r="B13" s="307"/>
-      <c r="C13" s="303" t="s">
+      <c r="A13" s="335"/>
+      <c r="B13" s="197"/>
+      <c r="C13" s="193" t="s">
         <v>1029</v>
       </c>
-      <c r="D13" s="303" t="s">
+      <c r="D13" s="193" t="s">
         <v>1029</v>
       </c>
-      <c r="E13" s="308"/>
+      <c r="E13" s="198"/>
     </row>
     <row r="14" spans="1:5">
-      <c r="A14" s="313"/>
-      <c r="B14" s="307"/>
-      <c r="C14" s="303" t="s">
+      <c r="A14" s="335"/>
+      <c r="B14" s="197"/>
+      <c r="C14" s="193" t="s">
         <v>1030</v>
       </c>
-      <c r="D14" s="303" t="s">
+      <c r="D14" s="193" t="s">
         <v>1030</v>
       </c>
-      <c r="E14" s="308"/>
+      <c r="E14" s="198"/>
     </row>
     <row r="15" spans="1:5">
-      <c r="A15" s="313"/>
-      <c r="B15" s="305" t="s">
+      <c r="A15" s="335"/>
+      <c r="B15" s="195" t="s">
         <v>1023</v>
       </c>
-      <c r="C15" s="303" t="s">
+      <c r="C15" s="193" t="s">
         <v>1023</v>
       </c>
-      <c r="D15" s="304"/>
-      <c r="E15" s="306" t="s">
+      <c r="D15" s="194"/>
+      <c r="E15" s="196" t="s">
         <v>1023</v>
       </c>
     </row>
     <row r="16" spans="1:5">
-      <c r="A16" s="313"/>
-      <c r="B16" s="305" t="s">
+      <c r="A16" s="335"/>
+      <c r="B16" s="195" t="s">
         <v>1025</v>
       </c>
-      <c r="C16" s="304"/>
-      <c r="D16" s="304"/>
-      <c r="E16" s="306" t="s">
+      <c r="C16" s="194"/>
+      <c r="D16" s="194"/>
+      <c r="E16" s="196" t="s">
         <v>1025</v>
       </c>
     </row>
     <row r="17" spans="1:5">
-      <c r="A17" s="313"/>
-      <c r="B17" s="307"/>
-      <c r="C17" s="303" t="s">
+      <c r="A17" s="335"/>
+      <c r="B17" s="197"/>
+      <c r="C17" s="193" t="s">
         <v>1032</v>
       </c>
-      <c r="D17" s="303" t="s">
+      <c r="D17" s="193" t="s">
         <v>1032</v>
       </c>
-      <c r="E17" s="308"/>
+      <c r="E17" s="198"/>
     </row>
     <row r="18" spans="1:5">
-      <c r="A18" s="313"/>
-      <c r="B18" s="329"/>
-      <c r="C18" s="303" t="s">
+      <c r="A18" s="335"/>
+      <c r="B18" s="217"/>
+      <c r="C18" s="193" t="s">
         <v>1031</v>
       </c>
-      <c r="D18" s="303" t="s">
+      <c r="D18" s="193" t="s">
         <v>1031</v>
       </c>
-      <c r="E18" s="306" t="s">
+      <c r="E18" s="196" t="s">
         <v>1031</v>
       </c>
     </row>
     <row r="19" spans="1:5">
-      <c r="A19" s="313"/>
-      <c r="B19" s="305" t="s">
+      <c r="A19" s="335"/>
+      <c r="B19" s="195" t="s">
         <v>1024</v>
       </c>
-      <c r="C19" s="329"/>
-      <c r="D19" s="303" t="s">
+      <c r="C19" s="217"/>
+      <c r="D19" s="193" t="s">
         <v>1024</v>
       </c>
-      <c r="E19" s="308"/>
+      <c r="E19" s="198"/>
     </row>
     <row r="20" spans="1:5">
-      <c r="A20" s="313"/>
-      <c r="B20" s="307"/>
-      <c r="C20" s="303" t="s">
+      <c r="A20" s="335"/>
+      <c r="B20" s="197"/>
+      <c r="C20" s="193" t="s">
         <v>1028</v>
       </c>
-      <c r="D20" s="304"/>
-      <c r="E20" s="308"/>
+      <c r="D20" s="194"/>
+      <c r="E20" s="198"/>
     </row>
     <row r="21" spans="1:5">
-      <c r="A21" s="313"/>
-      <c r="B21" s="305" t="s">
+      <c r="A21" s="335"/>
+      <c r="B21" s="195" t="s">
         <v>1021</v>
       </c>
-      <c r="C21" s="329"/>
-      <c r="D21" s="304"/>
-      <c r="E21" s="308"/>
+      <c r="C21" s="217"/>
+      <c r="D21" s="194"/>
+      <c r="E21" s="198"/>
     </row>
     <row r="22" spans="1:5" ht="15.75" thickBot="1">
-      <c r="A22" s="325"/>
-      <c r="B22" s="326" t="s">
+      <c r="A22" s="336"/>
+      <c r="B22" s="214" t="s">
         <v>1026</v>
       </c>
-      <c r="C22" s="327"/>
-      <c r="D22" s="327"/>
-      <c r="E22" s="328"/>
+      <c r="C22" s="215"/>
+      <c r="D22" s="215"/>
+      <c r="E22" s="216"/>
     </row>
     <row r="23" spans="1:5" ht="150" customHeight="1" thickBot="1">
-      <c r="A23" s="330" t="s">
+      <c r="A23" s="218" t="s">
         <v>1034</v>
       </c>
-      <c r="B23" s="317" t="s">
+      <c r="B23" s="206" t="s">
         <v>1036</v>
       </c>
-      <c r="C23" s="318" t="s">
+      <c r="C23" s="207" t="s">
         <v>1038</v>
       </c>
-      <c r="D23" s="318" t="s">
+      <c r="D23" s="207" t="s">
         <v>1037</v>
       </c>
-      <c r="E23" s="319" t="s">
+      <c r="E23" s="208" t="s">
         <v>1035</v>
       </c>
     </row>
     <row r="24" spans="1:5" ht="150" customHeight="1" thickBot="1">
-      <c r="A24" s="330" t="s">
+      <c r="A24" s="218" t="s">
         <v>1043</v>
       </c>
-      <c r="B24" s="317" t="s">
+      <c r="B24" s="206" t="s">
         <v>1041</v>
       </c>
-      <c r="C24" s="318" t="s">
+      <c r="C24" s="207" t="s">
         <v>1040</v>
       </c>
-      <c r="D24" s="318" t="s">
+      <c r="D24" s="207" t="s">
         <v>1039</v>
       </c>
-      <c r="E24" s="319" t="s">
+      <c r="E24" s="208" t="s">
         <v>1042</v>
       </c>
     </row>
     <row r="25" spans="1:5" ht="150" customHeight="1" thickBot="1">
-      <c r="A25" s="330" t="s">
+      <c r="A25" s="218" t="s">
         <v>1044</v>
       </c>
-      <c r="B25" s="334" t="s">
+      <c r="B25" s="332" t="s">
         <v>1045</v>
       </c>
-      <c r="C25" s="335"/>
-      <c r="D25" s="335"/>
-      <c r="E25" s="336"/>
+      <c r="C25" s="333"/>
+      <c r="D25" s="333"/>
+      <c r="E25" s="334"/>
     </row>
   </sheetData>
   <sortState ref="B26:B38">
@@ -16034,6 +16236,569 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
   <legacyDrawing r:id="rId2"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:J97"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F11" sqref="F11"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1" spans="1:6">
+      <c r="A1" s="340" t="s">
+        <v>1046</v>
+      </c>
+      <c r="B1" s="339"/>
+      <c r="C1" s="339"/>
+      <c r="D1" s="339"/>
+      <c r="E1" s="339"/>
+    </row>
+    <row r="2" spans="1:6">
+      <c r="A2" s="337" t="s">
+        <v>1047</v>
+      </c>
+      <c r="B2" s="337"/>
+      <c r="C2" s="337"/>
+      <c r="D2" s="337"/>
+      <c r="E2" s="337"/>
+      <c r="F2" s="337"/>
+    </row>
+    <row r="3" spans="1:6">
+      <c r="A3" s="337"/>
+      <c r="B3" s="337"/>
+      <c r="C3" s="337"/>
+      <c r="D3" s="337"/>
+      <c r="E3" s="337"/>
+      <c r="F3" s="337"/>
+    </row>
+    <row r="4" spans="1:6">
+      <c r="A4" s="337"/>
+      <c r="B4" s="337"/>
+      <c r="C4" s="337"/>
+      <c r="D4" s="337"/>
+      <c r="E4" s="337"/>
+      <c r="F4" s="337"/>
+    </row>
+    <row r="5" spans="1:6">
+      <c r="A5" s="337"/>
+      <c r="B5" s="337"/>
+      <c r="C5" s="337"/>
+      <c r="D5" s="337"/>
+      <c r="E5" s="337"/>
+      <c r="F5" s="337"/>
+    </row>
+    <row r="6" spans="1:6">
+      <c r="A6" s="337"/>
+      <c r="B6" s="337"/>
+      <c r="C6" s="337"/>
+      <c r="D6" s="337"/>
+      <c r="E6" s="337"/>
+      <c r="F6" s="337"/>
+    </row>
+    <row r="8" spans="1:6">
+      <c r="A8" s="94" t="s">
+        <v>1056</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6">
+      <c r="A9" t="s">
+        <v>1054</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6">
+      <c r="A10" t="s">
+        <v>1057</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6">
+      <c r="A11" t="s">
+        <v>1022</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6">
+      <c r="A12" t="s">
+        <v>1055</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6">
+      <c r="A14" s="94" t="s">
+        <v>1058</v>
+      </c>
+    </row>
+    <row r="15" spans="1:6">
+      <c r="A15" t="s">
+        <v>1059</v>
+      </c>
+    </row>
+    <row r="16" spans="1:6">
+      <c r="A16" t="s">
+        <v>1061</v>
+      </c>
+    </row>
+    <row r="17" spans="1:1">
+      <c r="A17" t="s">
+        <v>1106</v>
+      </c>
+    </row>
+    <row r="18" spans="1:1">
+      <c r="A18" t="s">
+        <v>1060</v>
+      </c>
+    </row>
+    <row r="19" spans="1:1">
+      <c r="A19" t="s">
+        <v>1062</v>
+      </c>
+    </row>
+    <row r="20" spans="1:1">
+      <c r="A20" t="s">
+        <v>1063</v>
+      </c>
+    </row>
+    <row r="21" spans="1:1">
+      <c r="A21" t="s">
+        <v>1064</v>
+      </c>
+    </row>
+    <row r="23" spans="1:1">
+      <c r="A23" t="s">
+        <v>1065</v>
+      </c>
+    </row>
+    <row r="24" spans="1:1">
+      <c r="A24" t="s">
+        <v>1066</v>
+      </c>
+    </row>
+    <row r="25" spans="1:1">
+      <c r="A25" t="s">
+        <v>1067</v>
+      </c>
+    </row>
+    <row r="26" spans="1:1">
+      <c r="A26" t="s">
+        <v>1068</v>
+      </c>
+    </row>
+    <row r="27" spans="1:1">
+      <c r="A27" t="s">
+        <v>1069</v>
+      </c>
+    </row>
+    <row r="28" spans="1:1">
+      <c r="A28" t="s">
+        <v>1070</v>
+      </c>
+    </row>
+    <row r="30" spans="1:1">
+      <c r="A30" t="s">
+        <v>1071</v>
+      </c>
+    </row>
+    <row r="31" spans="1:1">
+      <c r="A31" t="s">
+        <v>1072</v>
+      </c>
+    </row>
+    <row r="32" spans="1:1">
+      <c r="A32" t="s">
+        <v>1073</v>
+      </c>
+    </row>
+    <row r="33" spans="1:1">
+      <c r="A33" t="s">
+        <v>1074</v>
+      </c>
+    </row>
+    <row r="34" spans="1:1">
+      <c r="A34" t="s">
+        <v>1075</v>
+      </c>
+    </row>
+    <row r="35" spans="1:1">
+      <c r="A35" t="s">
+        <v>1076</v>
+      </c>
+    </row>
+    <row r="36" spans="1:1">
+      <c r="A36" t="s">
+        <v>1077</v>
+      </c>
+    </row>
+    <row r="37" spans="1:1">
+      <c r="A37" t="s">
+        <v>1078</v>
+      </c>
+    </row>
+    <row r="39" spans="1:1">
+      <c r="A39" t="s">
+        <v>1079</v>
+      </c>
+    </row>
+    <row r="40" spans="1:1">
+      <c r="A40" t="s">
+        <v>1080</v>
+      </c>
+    </row>
+    <row r="41" spans="1:1">
+      <c r="A41" t="s">
+        <v>1081</v>
+      </c>
+    </row>
+    <row r="42" spans="1:1">
+      <c r="A42" t="s">
+        <v>1082</v>
+      </c>
+    </row>
+    <row r="43" spans="1:1">
+      <c r="A43" t="s">
+        <v>1083</v>
+      </c>
+    </row>
+    <row r="45" spans="1:1">
+      <c r="A45" t="s">
+        <v>1084</v>
+      </c>
+    </row>
+    <row r="46" spans="1:1">
+      <c r="A46" t="s">
+        <v>1104</v>
+      </c>
+    </row>
+    <row r="47" spans="1:1">
+      <c r="A47" t="s">
+        <v>1105</v>
+      </c>
+    </row>
+    <row r="48" spans="1:1">
+      <c r="A48" t="s">
+        <v>1103</v>
+      </c>
+    </row>
+    <row r="49" spans="1:1">
+      <c r="A49" t="s">
+        <v>1085</v>
+      </c>
+    </row>
+    <row r="50" spans="1:1">
+      <c r="A50" t="s">
+        <v>1086</v>
+      </c>
+    </row>
+    <row r="51" spans="1:1">
+      <c r="A51" t="s">
+        <v>1087</v>
+      </c>
+    </row>
+    <row r="52" spans="1:1">
+      <c r="A52" t="s">
+        <v>1088</v>
+      </c>
+    </row>
+    <row r="53" spans="1:1">
+      <c r="A53" t="s">
+        <v>1089</v>
+      </c>
+    </row>
+    <row r="54" spans="1:1">
+      <c r="A54" t="s">
+        <v>1090</v>
+      </c>
+    </row>
+    <row r="55" spans="1:1">
+      <c r="A55" t="s">
+        <v>1091</v>
+      </c>
+    </row>
+    <row r="56" spans="1:1">
+      <c r="A56" t="s">
+        <v>1092</v>
+      </c>
+    </row>
+    <row r="57" spans="1:1">
+      <c r="A57" t="s">
+        <v>1093</v>
+      </c>
+    </row>
+    <row r="58" spans="1:1">
+      <c r="A58" t="s">
+        <v>1094</v>
+      </c>
+    </row>
+    <row r="59" spans="1:1">
+      <c r="A59" t="s">
+        <v>1095</v>
+      </c>
+    </row>
+    <row r="60" spans="1:1">
+      <c r="A60" t="s">
+        <v>1096</v>
+      </c>
+    </row>
+    <row r="61" spans="1:1">
+      <c r="A61" t="s">
+        <v>1097</v>
+      </c>
+    </row>
+    <row r="62" spans="1:1">
+      <c r="A62" t="s">
+        <v>1098</v>
+      </c>
+    </row>
+    <row r="63" spans="1:1">
+      <c r="A63" t="s">
+        <v>1099</v>
+      </c>
+    </row>
+    <row r="64" spans="1:1">
+      <c r="A64" t="s">
+        <v>1100</v>
+      </c>
+    </row>
+    <row r="65" spans="1:5">
+      <c r="A65" t="s">
+        <v>1101</v>
+      </c>
+    </row>
+    <row r="66" spans="1:5">
+      <c r="A66" t="s">
+        <v>1102</v>
+      </c>
+    </row>
+    <row r="72" spans="1:5">
+      <c r="A72" s="340" t="s">
+        <v>1048</v>
+      </c>
+      <c r="B72" s="339"/>
+      <c r="C72" s="339"/>
+    </row>
+    <row r="73" spans="1:5">
+      <c r="A73" s="338" t="s">
+        <v>1049</v>
+      </c>
+      <c r="B73" s="338"/>
+      <c r="C73" s="338"/>
+      <c r="D73" s="338"/>
+      <c r="E73" s="338"/>
+    </row>
+    <row r="74" spans="1:5">
+      <c r="A74" s="338"/>
+      <c r="B74" s="338"/>
+      <c r="C74" s="338"/>
+      <c r="D74" s="338"/>
+      <c r="E74" s="338"/>
+    </row>
+    <row r="75" spans="1:5">
+      <c r="A75" s="338"/>
+      <c r="B75" s="338"/>
+      <c r="C75" s="338"/>
+      <c r="D75" s="338"/>
+      <c r="E75" s="338"/>
+    </row>
+    <row r="76" spans="1:5">
+      <c r="A76" s="338"/>
+      <c r="B76" s="338"/>
+      <c r="C76" s="338"/>
+      <c r="D76" s="338"/>
+      <c r="E76" s="338"/>
+    </row>
+    <row r="77" spans="1:5">
+      <c r="A77" s="338"/>
+      <c r="B77" s="338"/>
+      <c r="C77" s="338"/>
+      <c r="D77" s="338"/>
+      <c r="E77" s="338"/>
+    </row>
+    <row r="80" spans="1:5">
+      <c r="A80" s="94" t="s">
+        <v>1050</v>
+      </c>
+    </row>
+    <row r="81" spans="1:10" ht="15" customHeight="1">
+      <c r="A81" s="337" t="s">
+        <v>1051</v>
+      </c>
+      <c r="B81" s="337"/>
+      <c r="C81" s="337"/>
+      <c r="D81" s="337"/>
+      <c r="E81" s="337"/>
+      <c r="F81" s="337"/>
+      <c r="G81" s="337"/>
+      <c r="H81" s="337"/>
+      <c r="I81" s="337"/>
+      <c r="J81" s="337"/>
+    </row>
+    <row r="82" spans="1:10">
+      <c r="A82" s="337"/>
+      <c r="B82" s="337"/>
+      <c r="C82" s="337"/>
+      <c r="D82" s="337"/>
+      <c r="E82" s="337"/>
+      <c r="F82" s="337"/>
+      <c r="G82" s="337"/>
+      <c r="H82" s="337"/>
+      <c r="I82" s="337"/>
+      <c r="J82" s="337"/>
+    </row>
+    <row r="83" spans="1:10">
+      <c r="A83" s="337"/>
+      <c r="B83" s="337"/>
+      <c r="C83" s="337"/>
+      <c r="D83" s="337"/>
+      <c r="E83" s="337"/>
+      <c r="F83" s="337"/>
+      <c r="G83" s="337"/>
+      <c r="H83" s="337"/>
+      <c r="I83" s="337"/>
+      <c r="J83" s="337"/>
+    </row>
+    <row r="84" spans="1:10">
+      <c r="A84" s="337"/>
+      <c r="B84" s="337"/>
+      <c r="C84" s="337"/>
+      <c r="D84" s="337"/>
+      <c r="E84" s="337"/>
+      <c r="F84" s="337"/>
+      <c r="G84" s="337"/>
+      <c r="H84" s="337"/>
+      <c r="I84" s="337"/>
+      <c r="J84" s="337"/>
+    </row>
+    <row r="85" spans="1:10">
+      <c r="A85" s="337"/>
+      <c r="B85" s="337"/>
+      <c r="C85" s="337"/>
+      <c r="D85" s="337"/>
+      <c r="E85" s="337"/>
+      <c r="F85" s="337"/>
+      <c r="G85" s="337"/>
+      <c r="H85" s="337"/>
+      <c r="I85" s="337"/>
+      <c r="J85" s="337"/>
+    </row>
+    <row r="86" spans="1:10">
+      <c r="A86" s="337"/>
+      <c r="B86" s="337"/>
+      <c r="C86" s="337"/>
+      <c r="D86" s="337"/>
+      <c r="E86" s="337"/>
+      <c r="F86" s="337"/>
+      <c r="G86" s="337"/>
+      <c r="H86" s="337"/>
+      <c r="I86" s="337"/>
+      <c r="J86" s="337"/>
+    </row>
+    <row r="87" spans="1:10">
+      <c r="A87" s="337"/>
+      <c r="B87" s="337"/>
+      <c r="C87" s="337"/>
+      <c r="D87" s="337"/>
+      <c r="E87" s="337"/>
+      <c r="F87" s="337"/>
+      <c r="G87" s="337"/>
+      <c r="H87" s="337"/>
+      <c r="I87" s="337"/>
+      <c r="J87" s="337"/>
+    </row>
+    <row r="88" spans="1:10">
+      <c r="A88" s="337"/>
+      <c r="B88" s="337"/>
+      <c r="C88" s="337"/>
+      <c r="D88" s="337"/>
+      <c r="E88" s="337"/>
+      <c r="F88" s="337"/>
+      <c r="G88" s="337"/>
+      <c r="H88" s="337"/>
+      <c r="I88" s="337"/>
+      <c r="J88" s="337"/>
+    </row>
+    <row r="89" spans="1:10">
+      <c r="A89" s="337"/>
+      <c r="B89" s="337"/>
+      <c r="C89" s="337"/>
+      <c r="D89" s="337"/>
+      <c r="E89" s="337"/>
+      <c r="F89" s="337"/>
+      <c r="G89" s="337"/>
+      <c r="H89" s="337"/>
+      <c r="I89" s="337"/>
+      <c r="J89" s="337"/>
+    </row>
+    <row r="91" spans="1:10">
+      <c r="A91" s="94" t="s">
+        <v>1052</v>
+      </c>
+    </row>
+    <row r="92" spans="1:10">
+      <c r="A92" s="338" t="s">
+        <v>1053</v>
+      </c>
+      <c r="B92" s="338"/>
+      <c r="C92" s="338"/>
+      <c r="D92" s="338"/>
+      <c r="E92" s="338"/>
+      <c r="F92" s="338"/>
+      <c r="G92" s="338"/>
+    </row>
+    <row r="93" spans="1:10">
+      <c r="A93" s="338"/>
+      <c r="B93" s="338"/>
+      <c r="C93" s="338"/>
+      <c r="D93" s="338"/>
+      <c r="E93" s="338"/>
+      <c r="F93" s="338"/>
+      <c r="G93" s="338"/>
+    </row>
+    <row r="94" spans="1:10">
+      <c r="A94" s="338"/>
+      <c r="B94" s="338"/>
+      <c r="C94" s="338"/>
+      <c r="D94" s="338"/>
+      <c r="E94" s="338"/>
+      <c r="F94" s="338"/>
+      <c r="G94" s="338"/>
+    </row>
+    <row r="95" spans="1:10">
+      <c r="A95" s="338"/>
+      <c r="B95" s="338"/>
+      <c r="C95" s="338"/>
+      <c r="D95" s="338"/>
+      <c r="E95" s="338"/>
+      <c r="F95" s="338"/>
+      <c r="G95" s="338"/>
+    </row>
+    <row r="96" spans="1:10">
+      <c r="A96" s="338"/>
+      <c r="B96" s="338"/>
+      <c r="C96" s="338"/>
+      <c r="D96" s="338"/>
+      <c r="E96" s="338"/>
+      <c r="F96" s="338"/>
+      <c r="G96" s="338"/>
+    </row>
+    <row r="97" spans="1:7">
+      <c r="A97" s="338"/>
+      <c r="B97" s="338"/>
+      <c r="C97" s="338"/>
+      <c r="D97" s="338"/>
+      <c r="E97" s="338"/>
+      <c r="F97" s="338"/>
+      <c r="G97" s="338"/>
+    </row>
+  </sheetData>
+  <mergeCells count="4">
+    <mergeCell ref="A2:F6"/>
+    <mergeCell ref="A81:J89"/>
+    <mergeCell ref="A92:G97"/>
+    <mergeCell ref="A73:E77"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 
@@ -16089,10 +16854,10 @@
       </c>
     </row>
     <row r="2" spans="1:9" ht="15.75" customHeight="1" thickTop="1" thickBot="1">
-      <c r="A2" s="281" t="s">
+      <c r="A2" s="314" t="s">
         <v>305</v>
       </c>
-      <c r="B2" s="274">
+      <c r="B2" s="309">
         <v>1</v>
       </c>
       <c r="C2" s="107">
@@ -16112,8 +16877,8 @@
       </c>
     </row>
     <row r="3" spans="1:9" ht="16.5" thickBot="1">
-      <c r="A3" s="282"/>
-      <c r="B3" s="275"/>
+      <c r="A3" s="315"/>
+      <c r="B3" s="310"/>
       <c r="C3" s="107">
         <v>43193</v>
       </c>
@@ -16129,8 +16894,8 @@
       <c r="I3" s="112"/>
     </row>
     <row r="4" spans="1:9" ht="16.5" thickBot="1">
-      <c r="A4" s="282"/>
-      <c r="B4" s="275"/>
+      <c r="A4" s="315"/>
+      <c r="B4" s="310"/>
       <c r="C4" s="107">
         <v>43194</v>
       </c>
@@ -16146,8 +16911,8 @@
       <c r="I4" s="112"/>
     </row>
     <row r="5" spans="1:9" ht="16.5" thickBot="1">
-      <c r="A5" s="282"/>
-      <c r="B5" s="275"/>
+      <c r="A5" s="315"/>
+      <c r="B5" s="310"/>
       <c r="C5" s="107">
         <v>43195</v>
       </c>
@@ -16165,8 +16930,8 @@
       <c r="I5" s="112"/>
     </row>
     <row r="6" spans="1:9" ht="16.5" thickBot="1">
-      <c r="A6" s="283"/>
-      <c r="B6" s="276"/>
+      <c r="A6" s="316"/>
+      <c r="B6" s="313"/>
       <c r="C6" s="114">
         <v>43196</v>
       </c>
@@ -16182,10 +16947,10 @@
       <c r="I6" s="118"/>
     </row>
     <row r="7" spans="1:9" ht="17.25" thickTop="1" thickBot="1">
-      <c r="A7" s="288" t="s">
+      <c r="A7" s="324" t="s">
         <v>184</v>
       </c>
-      <c r="B7" s="284">
+      <c r="B7" s="312">
         <v>2</v>
       </c>
       <c r="C7" s="140">
@@ -16203,8 +16968,8 @@
       <c r="I7" s="123"/>
     </row>
     <row r="8" spans="1:9" ht="16.5" thickBot="1">
-      <c r="A8" s="289"/>
-      <c r="B8" s="285"/>
+      <c r="A8" s="325"/>
+      <c r="B8" s="307"/>
       <c r="C8" s="140">
         <v>43200</v>
       </c>
@@ -16220,8 +16985,8 @@
       <c r="I8" s="123"/>
     </row>
     <row r="9" spans="1:9" ht="16.5" thickBot="1">
-      <c r="A9" s="289"/>
-      <c r="B9" s="285"/>
+      <c r="A9" s="325"/>
+      <c r="B9" s="307"/>
       <c r="C9" s="140">
         <v>43201</v>
       </c>
@@ -16237,8 +17002,8 @@
       <c r="I9" s="123"/>
     </row>
     <row r="10" spans="1:9" ht="15.75" customHeight="1" thickBot="1">
-      <c r="A10" s="289"/>
-      <c r="B10" s="285"/>
+      <c r="A10" s="325"/>
+      <c r="B10" s="307"/>
       <c r="C10" s="140">
         <v>43202</v>
       </c>
@@ -16254,8 +17019,8 @@
       <c r="I10" s="123"/>
     </row>
     <row r="11" spans="1:9" ht="16.5" thickBot="1">
-      <c r="A11" s="289"/>
-      <c r="B11" s="286"/>
+      <c r="A11" s="325"/>
+      <c r="B11" s="317"/>
       <c r="C11" s="140">
         <v>43203</v>
       </c>
@@ -16273,8 +17038,8 @@
       <c r="I11" s="123"/>
     </row>
     <row r="12" spans="1:9" ht="16.5" thickBot="1">
-      <c r="A12" s="290"/>
-      <c r="B12" s="280">
+      <c r="A12" s="304"/>
+      <c r="B12" s="318">
         <v>3</v>
       </c>
       <c r="C12" s="107">
@@ -16292,8 +17057,8 @@
       <c r="I12" s="112"/>
     </row>
     <row r="13" spans="1:9" ht="16.5" thickBot="1">
-      <c r="A13" s="290"/>
-      <c r="B13" s="275"/>
+      <c r="A13" s="304"/>
+      <c r="B13" s="310"/>
       <c r="C13" s="107">
         <v>43207</v>
       </c>
@@ -16309,8 +17074,8 @@
       <c r="I13" s="112"/>
     </row>
     <row r="14" spans="1:9" ht="16.5" thickBot="1">
-      <c r="A14" s="290"/>
-      <c r="B14" s="275"/>
+      <c r="A14" s="304"/>
+      <c r="B14" s="310"/>
       <c r="C14" s="107">
         <v>43208</v>
       </c>
@@ -16326,8 +17091,8 @@
       <c r="I14" s="112"/>
     </row>
     <row r="15" spans="1:9" ht="16.5" thickBot="1">
-      <c r="A15" s="290"/>
-      <c r="B15" s="275"/>
+      <c r="A15" s="304"/>
+      <c r="B15" s="310"/>
       <c r="C15" s="107">
         <v>43209</v>
       </c>
@@ -16343,8 +17108,8 @@
       <c r="I15" s="112"/>
     </row>
     <row r="16" spans="1:9" ht="16.5" thickBot="1">
-      <c r="A16" s="290"/>
-      <c r="B16" s="287"/>
+      <c r="A16" s="304"/>
+      <c r="B16" s="311"/>
       <c r="C16" s="107">
         <v>43210</v>
       </c>
@@ -16360,8 +17125,8 @@
       <c r="I16" s="112"/>
     </row>
     <row r="17" spans="1:9" ht="16.5" thickBot="1">
-      <c r="A17" s="290"/>
-      <c r="B17" s="284">
+      <c r="A17" s="304"/>
+      <c r="B17" s="312">
         <v>4</v>
       </c>
       <c r="C17" s="119">
@@ -16383,8 +17148,8 @@
       <c r="I17" s="123"/>
     </row>
     <row r="18" spans="1:9" ht="16.5" thickBot="1">
-      <c r="A18" s="290"/>
-      <c r="B18" s="285"/>
+      <c r="A18" s="304"/>
+      <c r="B18" s="307"/>
       <c r="C18" s="119">
         <v>43214</v>
       </c>
@@ -16400,8 +17165,8 @@
       <c r="I18" s="123"/>
     </row>
     <row r="19" spans="1:9" ht="16.5" thickBot="1">
-      <c r="A19" s="290"/>
-      <c r="B19" s="285"/>
+      <c r="A19" s="304"/>
+      <c r="B19" s="307"/>
       <c r="C19" s="119">
         <v>43215</v>
       </c>
@@ -16417,8 +17182,8 @@
       <c r="I19" s="123"/>
     </row>
     <row r="20" spans="1:9" ht="16.5" thickBot="1">
-      <c r="A20" s="290"/>
-      <c r="B20" s="285"/>
+      <c r="A20" s="304"/>
+      <c r="B20" s="307"/>
       <c r="C20" s="119">
         <v>43216</v>
       </c>
@@ -16434,8 +17199,8 @@
       <c r="I20" s="123"/>
     </row>
     <row r="21" spans="1:9" ht="16.5" thickBot="1">
-      <c r="A21" s="290"/>
-      <c r="B21" s="286"/>
+      <c r="A21" s="304"/>
+      <c r="B21" s="317"/>
       <c r="C21" s="119">
         <v>43217</v>
       </c>
@@ -16453,8 +17218,8 @@
       <c r="I21" s="123"/>
     </row>
     <row r="22" spans="1:9" ht="16.5" thickBot="1">
-      <c r="A22" s="290"/>
-      <c r="B22" s="280">
+      <c r="A22" s="304"/>
+      <c r="B22" s="318">
         <v>5</v>
       </c>
       <c r="C22" s="107">
@@ -16472,8 +17237,8 @@
       <c r="I22" s="112"/>
     </row>
     <row r="23" spans="1:9" ht="16.5" thickBot="1">
-      <c r="A23" s="290"/>
-      <c r="B23" s="275"/>
+      <c r="A23" s="304"/>
+      <c r="B23" s="310"/>
       <c r="C23" s="107">
         <v>43221</v>
       </c>
@@ -16489,8 +17254,8 @@
       <c r="I23" s="112"/>
     </row>
     <row r="24" spans="1:9" ht="16.5" thickBot="1">
-      <c r="A24" s="290"/>
-      <c r="B24" s="275"/>
+      <c r="A24" s="304"/>
+      <c r="B24" s="310"/>
       <c r="C24" s="107">
         <v>43222</v>
       </c>
@@ -16506,8 +17271,8 @@
       <c r="I24" s="112"/>
     </row>
     <row r="25" spans="1:9" ht="16.5" thickBot="1">
-      <c r="A25" s="290"/>
-      <c r="B25" s="275"/>
+      <c r="A25" s="304"/>
+      <c r="B25" s="310"/>
       <c r="C25" s="107">
         <v>43223</v>
       </c>
@@ -16523,8 +17288,8 @@
       <c r="I25" s="112"/>
     </row>
     <row r="26" spans="1:9" ht="16.5" thickBot="1">
-      <c r="A26" s="290"/>
-      <c r="B26" s="287"/>
+      <c r="A26" s="304"/>
+      <c r="B26" s="311"/>
       <c r="C26" s="107">
         <v>43224</v>
       </c>
@@ -16540,8 +17305,8 @@
       <c r="I26" s="112"/>
     </row>
     <row r="27" spans="1:9" ht="15.75" customHeight="1" thickBot="1">
-      <c r="A27" s="290"/>
-      <c r="B27" s="292">
+      <c r="A27" s="304"/>
+      <c r="B27" s="322">
         <v>6</v>
       </c>
       <c r="C27" s="127">
@@ -16563,8 +17328,8 @@
       <c r="I27" s="123"/>
     </row>
     <row r="28" spans="1:9" ht="16.5" thickBot="1">
-      <c r="A28" s="290"/>
-      <c r="B28" s="278"/>
+      <c r="A28" s="304"/>
+      <c r="B28" s="320"/>
       <c r="C28" s="127">
         <v>43228</v>
       </c>
@@ -16580,8 +17345,8 @@
       <c r="I28" s="123"/>
     </row>
     <row r="29" spans="1:9" ht="16.5" thickBot="1">
-      <c r="A29" s="290"/>
-      <c r="B29" s="278"/>
+      <c r="A29" s="304"/>
+      <c r="B29" s="320"/>
       <c r="C29" s="127">
         <v>43229</v>
       </c>
@@ -16597,8 +17362,8 @@
       <c r="I29" s="123"/>
     </row>
     <row r="30" spans="1:9" ht="16.5" thickBot="1">
-      <c r="A30" s="290"/>
-      <c r="B30" s="278"/>
+      <c r="A30" s="304"/>
+      <c r="B30" s="320"/>
       <c r="C30" s="127">
         <v>43230</v>
       </c>
@@ -16614,8 +17379,8 @@
       <c r="I30" s="123"/>
     </row>
     <row r="31" spans="1:9" ht="27" thickBot="1">
-      <c r="A31" s="291"/>
-      <c r="B31" s="293"/>
+      <c r="A31" s="305"/>
+      <c r="B31" s="323"/>
       <c r="C31" s="131">
         <v>43231</v>
       </c>
@@ -16633,10 +17398,10 @@
       <c r="I31" s="135"/>
     </row>
     <row r="32" spans="1:9" ht="17.25" thickTop="1" thickBot="1">
-      <c r="A32" s="281" t="s">
+      <c r="A32" s="314" t="s">
         <v>34</v>
       </c>
-      <c r="B32" s="274">
+      <c r="B32" s="309">
         <v>7</v>
       </c>
       <c r="C32" s="107">
@@ -16654,8 +17419,8 @@
       <c r="I32" s="112"/>
     </row>
     <row r="33" spans="1:9" ht="16.5" thickBot="1">
-      <c r="A33" s="282"/>
-      <c r="B33" s="275"/>
+      <c r="A33" s="315"/>
+      <c r="B33" s="310"/>
       <c r="C33" s="107">
         <v>43235</v>
       </c>
@@ -16671,8 +17436,8 @@
       <c r="I33" s="112"/>
     </row>
     <row r="34" spans="1:9" ht="16.5" thickBot="1">
-      <c r="A34" s="282"/>
-      <c r="B34" s="275"/>
+      <c r="A34" s="315"/>
+      <c r="B34" s="310"/>
       <c r="C34" s="107">
         <v>43236</v>
       </c>
@@ -16688,8 +17453,8 @@
       <c r="I34" s="112"/>
     </row>
     <row r="35" spans="1:9" ht="16.5" thickBot="1">
-      <c r="A35" s="282"/>
-      <c r="B35" s="275"/>
+      <c r="A35" s="315"/>
+      <c r="B35" s="310"/>
       <c r="C35" s="107">
         <v>43237</v>
       </c>
@@ -16705,8 +17470,8 @@
       <c r="I35" s="112"/>
     </row>
     <row r="36" spans="1:9" ht="16.5" thickBot="1">
-      <c r="A36" s="282"/>
-      <c r="B36" s="276"/>
+      <c r="A36" s="315"/>
+      <c r="B36" s="313"/>
       <c r="C36" s="107">
         <v>43238</v>
       </c>
@@ -16722,8 +17487,8 @@
       <c r="I36" s="112"/>
     </row>
     <row r="37" spans="1:9" ht="17.25" thickTop="1" thickBot="1">
-      <c r="A37" s="282"/>
-      <c r="B37" s="277">
+      <c r="A37" s="315"/>
+      <c r="B37" s="319">
         <v>8</v>
       </c>
       <c r="C37" s="127">
@@ -16745,8 +17510,8 @@
       <c r="I37" s="123"/>
     </row>
     <row r="38" spans="1:9" ht="16.5" thickBot="1">
-      <c r="A38" s="282"/>
-      <c r="B38" s="278"/>
+      <c r="A38" s="315"/>
+      <c r="B38" s="320"/>
       <c r="C38" s="127">
         <v>43242</v>
       </c>
@@ -16762,8 +17527,8 @@
       <c r="I38" s="123"/>
     </row>
     <row r="39" spans="1:9" ht="16.5" thickBot="1">
-      <c r="A39" s="282"/>
-      <c r="B39" s="278"/>
+      <c r="A39" s="315"/>
+      <c r="B39" s="320"/>
       <c r="C39" s="127">
         <v>43243</v>
       </c>
@@ -16779,8 +17544,8 @@
       <c r="I39" s="123"/>
     </row>
     <row r="40" spans="1:9" ht="16.5" thickBot="1">
-      <c r="A40" s="282"/>
-      <c r="B40" s="278"/>
+      <c r="A40" s="315"/>
+      <c r="B40" s="320"/>
       <c r="C40" s="127">
         <v>43244</v>
       </c>
@@ -16796,8 +17561,8 @@
       <c r="I40" s="123"/>
     </row>
     <row r="41" spans="1:9" ht="27" thickBot="1">
-      <c r="A41" s="282"/>
-      <c r="B41" s="279"/>
+      <c r="A41" s="315"/>
+      <c r="B41" s="321"/>
       <c r="C41" s="127">
         <v>43245</v>
       </c>
@@ -16815,8 +17580,8 @@
       <c r="I41" s="123"/>
     </row>
     <row r="42" spans="1:9" ht="16.5" thickBot="1">
-      <c r="A42" s="282"/>
-      <c r="B42" s="280">
+      <c r="A42" s="315"/>
+      <c r="B42" s="318">
         <v>9</v>
       </c>
       <c r="C42" s="107">
@@ -16834,8 +17599,8 @@
       <c r="I42" s="112"/>
     </row>
     <row r="43" spans="1:9" ht="16.5" thickBot="1">
-      <c r="A43" s="282"/>
-      <c r="B43" s="275"/>
+      <c r="A43" s="315"/>
+      <c r="B43" s="310"/>
       <c r="C43" s="107">
         <v>43249</v>
       </c>
@@ -16851,8 +17616,8 @@
       <c r="I43" s="112"/>
     </row>
     <row r="44" spans="1:9" ht="16.5" thickBot="1">
-      <c r="A44" s="282"/>
-      <c r="B44" s="275"/>
+      <c r="A44" s="315"/>
+      <c r="B44" s="310"/>
       <c r="C44" s="107">
         <v>43250</v>
       </c>
@@ -16868,8 +17633,8 @@
       <c r="I44" s="112"/>
     </row>
     <row r="45" spans="1:9" ht="16.5" thickBot="1">
-      <c r="A45" s="282"/>
-      <c r="B45" s="275"/>
+      <c r="A45" s="315"/>
+      <c r="B45" s="310"/>
       <c r="C45" s="107">
         <v>43251</v>
       </c>
@@ -16885,8 +17650,8 @@
       <c r="I45" s="112"/>
     </row>
     <row r="46" spans="1:9" ht="16.5" thickBot="1">
-      <c r="A46" s="283"/>
-      <c r="B46" s="276"/>
+      <c r="A46" s="316"/>
+      <c r="B46" s="313"/>
       <c r="C46" s="114">
         <v>43252</v>
       </c>
@@ -16902,10 +17667,10 @@
       <c r="I46" s="118"/>
     </row>
     <row r="47" spans="1:9" ht="15.75" customHeight="1" thickTop="1" thickBot="1">
-      <c r="A47" s="296" t="s">
+      <c r="A47" s="303" t="s">
         <v>47</v>
       </c>
-      <c r="B47" s="294">
+      <c r="B47" s="306">
         <v>10</v>
       </c>
       <c r="C47" s="119">
@@ -16927,8 +17692,8 @@
       <c r="I47" s="123"/>
     </row>
     <row r="48" spans="1:9" ht="16.5" thickBot="1">
-      <c r="A48" s="290"/>
-      <c r="B48" s="285"/>
+      <c r="A48" s="304"/>
+      <c r="B48" s="307"/>
       <c r="C48" s="119">
         <v>43256</v>
       </c>
@@ -16944,8 +17709,8 @@
       <c r="I48" s="123"/>
     </row>
     <row r="49" spans="1:9" ht="16.5" thickBot="1">
-      <c r="A49" s="290"/>
-      <c r="B49" s="285"/>
+      <c r="A49" s="304"/>
+      <c r="B49" s="307"/>
       <c r="C49" s="119">
         <v>43257</v>
       </c>
@@ -16961,8 +17726,8 @@
       <c r="I49" s="123"/>
     </row>
     <row r="50" spans="1:9" ht="16.5" thickBot="1">
-      <c r="A50" s="290"/>
-      <c r="B50" s="285"/>
+      <c r="A50" s="304"/>
+      <c r="B50" s="307"/>
       <c r="C50" s="119">
         <v>43258</v>
       </c>
@@ -16978,8 +17743,8 @@
       <c r="I50" s="123"/>
     </row>
     <row r="51" spans="1:9" ht="27" thickBot="1">
-      <c r="A51" s="290"/>
-      <c r="B51" s="295"/>
+      <c r="A51" s="304"/>
+      <c r="B51" s="308"/>
       <c r="C51" s="119">
         <v>43259</v>
       </c>
@@ -16997,8 +17762,8 @@
       <c r="I51" s="123"/>
     </row>
     <row r="52" spans="1:9" ht="17.25" thickTop="1" thickBot="1">
-      <c r="A52" s="290"/>
-      <c r="B52" s="274">
+      <c r="A52" s="304"/>
+      <c r="B52" s="309">
         <v>11</v>
       </c>
       <c r="C52" s="107">
@@ -17016,8 +17781,8 @@
       <c r="I52" s="112"/>
     </row>
     <row r="53" spans="1:9" ht="16.5" thickBot="1">
-      <c r="A53" s="290"/>
-      <c r="B53" s="275"/>
+      <c r="A53" s="304"/>
+      <c r="B53" s="310"/>
       <c r="C53" s="107">
         <v>43263</v>
       </c>
@@ -17033,8 +17798,8 @@
       <c r="I53" s="112"/>
     </row>
     <row r="54" spans="1:9" ht="16.5" thickBot="1">
-      <c r="A54" s="290"/>
-      <c r="B54" s="275"/>
+      <c r="A54" s="304"/>
+      <c r="B54" s="310"/>
       <c r="C54" s="107">
         <v>43264</v>
       </c>
@@ -17050,8 +17815,8 @@
       <c r="I54" s="112"/>
     </row>
     <row r="55" spans="1:9" ht="16.5" thickBot="1">
-      <c r="A55" s="290"/>
-      <c r="B55" s="275"/>
+      <c r="A55" s="304"/>
+      <c r="B55" s="310"/>
       <c r="C55" s="107">
         <v>43265</v>
       </c>
@@ -17067,8 +17832,8 @@
       <c r="I55" s="112"/>
     </row>
     <row r="56" spans="1:9" ht="16.5" thickBot="1">
-      <c r="A56" s="290"/>
-      <c r="B56" s="287"/>
+      <c r="A56" s="304"/>
+      <c r="B56" s="311"/>
       <c r="C56" s="107">
         <v>43266</v>
       </c>
@@ -17084,8 +17849,8 @@
       <c r="I56" s="112"/>
     </row>
     <row r="57" spans="1:9" ht="16.5" thickBot="1">
-      <c r="A57" s="290"/>
-      <c r="B57" s="284">
+      <c r="A57" s="304"/>
+      <c r="B57" s="312">
         <v>12</v>
       </c>
       <c r="C57" s="119">
@@ -17107,8 +17872,8 @@
       <c r="I57" s="123"/>
     </row>
     <row r="58" spans="1:9" ht="16.5" thickBot="1">
-      <c r="A58" s="290"/>
-      <c r="B58" s="285"/>
+      <c r="A58" s="304"/>
+      <c r="B58" s="307"/>
       <c r="C58" s="119">
         <v>43270</v>
       </c>
@@ -17124,8 +17889,8 @@
       <c r="I58" s="123"/>
     </row>
     <row r="59" spans="1:9" ht="16.5" thickBot="1">
-      <c r="A59" s="290"/>
-      <c r="B59" s="285"/>
+      <c r="A59" s="304"/>
+      <c r="B59" s="307"/>
       <c r="C59" s="119">
         <v>43271</v>
       </c>
@@ -17141,8 +17906,8 @@
       <c r="I59" s="123"/>
     </row>
     <row r="60" spans="1:9" ht="16.5" thickBot="1">
-      <c r="A60" s="290"/>
-      <c r="B60" s="285"/>
+      <c r="A60" s="304"/>
+      <c r="B60" s="307"/>
       <c r="C60" s="119">
         <v>43272</v>
       </c>
@@ -17158,8 +17923,8 @@
       <c r="I60" s="123"/>
     </row>
     <row r="61" spans="1:9" ht="27" thickBot="1">
-      <c r="A61" s="291"/>
-      <c r="B61" s="295"/>
+      <c r="A61" s="305"/>
+      <c r="B61" s="308"/>
       <c r="C61" s="137">
         <v>43273</v>
       </c>
@@ -17177,10 +17942,10 @@
       <c r="I61" s="135"/>
     </row>
     <row r="62" spans="1:9" ht="15.75" customHeight="1" thickTop="1" thickBot="1">
-      <c r="A62" s="281" t="s">
+      <c r="A62" s="314" t="s">
         <v>627</v>
       </c>
-      <c r="B62" s="274">
+      <c r="B62" s="309">
         <v>13</v>
       </c>
       <c r="C62" s="107">
@@ -17198,8 +17963,8 @@
       <c r="I62" s="112"/>
     </row>
     <row r="63" spans="1:9" ht="16.5" thickBot="1">
-      <c r="A63" s="282"/>
-      <c r="B63" s="275"/>
+      <c r="A63" s="315"/>
+      <c r="B63" s="310"/>
       <c r="C63" s="107">
         <v>43277</v>
       </c>
@@ -17215,8 +17980,8 @@
       <c r="I63" s="112"/>
     </row>
     <row r="64" spans="1:9" ht="16.5" thickBot="1">
-      <c r="A64" s="282"/>
-      <c r="B64" s="275"/>
+      <c r="A64" s="315"/>
+      <c r="B64" s="310"/>
       <c r="C64" s="107">
         <v>43278</v>
       </c>
@@ -17232,8 +17997,8 @@
       <c r="I64" s="112"/>
     </row>
     <row r="65" spans="1:9" ht="16.5" thickBot="1">
-      <c r="A65" s="282"/>
-      <c r="B65" s="275"/>
+      <c r="A65" s="315"/>
+      <c r="B65" s="310"/>
       <c r="C65" s="107">
         <v>43279</v>
       </c>
@@ -17249,8 +18014,8 @@
       <c r="I65" s="112"/>
     </row>
     <row r="66" spans="1:9" ht="16.5" thickBot="1">
-      <c r="A66" s="282"/>
-      <c r="B66" s="276"/>
+      <c r="A66" s="315"/>
+      <c r="B66" s="313"/>
       <c r="C66" s="107">
         <v>43280</v>
       </c>
@@ -17266,8 +18031,8 @@
       <c r="I66" s="112"/>
     </row>
     <row r="67" spans="1:9" ht="17.25" thickTop="1" thickBot="1">
-      <c r="A67" s="282"/>
-      <c r="B67" s="277">
+      <c r="A67" s="315"/>
+      <c r="B67" s="319">
         <v>14</v>
       </c>
       <c r="C67" s="127">
@@ -17289,8 +18054,8 @@
       <c r="I67" s="123"/>
     </row>
     <row r="68" spans="1:9" ht="16.5" thickBot="1">
-      <c r="A68" s="282"/>
-      <c r="B68" s="278"/>
+      <c r="A68" s="315"/>
+      <c r="B68" s="320"/>
       <c r="C68" s="127">
         <v>43284</v>
       </c>
@@ -17306,8 +18071,8 @@
       <c r="I68" s="123"/>
     </row>
     <row r="69" spans="1:9" ht="16.5" thickBot="1">
-      <c r="A69" s="282"/>
-      <c r="B69" s="278"/>
+      <c r="A69" s="315"/>
+      <c r="B69" s="320"/>
       <c r="C69" s="127">
         <v>43285</v>
       </c>
@@ -17323,8 +18088,8 @@
       <c r="I69" s="123"/>
     </row>
     <row r="70" spans="1:9" ht="16.5" thickBot="1">
-      <c r="A70" s="282"/>
-      <c r="B70" s="278"/>
+      <c r="A70" s="315"/>
+      <c r="B70" s="320"/>
       <c r="C70" s="127">
         <v>43286</v>
       </c>
@@ -17340,8 +18105,8 @@
       <c r="I70" s="123"/>
     </row>
     <row r="71" spans="1:9" ht="16.5" thickBot="1">
-      <c r="A71" s="282"/>
-      <c r="B71" s="279"/>
+      <c r="A71" s="315"/>
+      <c r="B71" s="321"/>
       <c r="C71" s="127">
         <v>43287</v>
       </c>
@@ -17359,8 +18124,8 @@
       <c r="I71" s="123"/>
     </row>
     <row r="72" spans="1:9" ht="16.5" thickBot="1">
-      <c r="A72" s="282"/>
-      <c r="B72" s="280">
+      <c r="A72" s="315"/>
+      <c r="B72" s="318">
         <v>15</v>
       </c>
       <c r="C72" s="107">
@@ -17378,8 +18143,8 @@
       <c r="I72" s="112"/>
     </row>
     <row r="73" spans="1:9" ht="16.5" thickBot="1">
-      <c r="A73" s="282"/>
-      <c r="B73" s="275"/>
+      <c r="A73" s="315"/>
+      <c r="B73" s="310"/>
       <c r="C73" s="107">
         <v>43291</v>
       </c>
@@ -17395,8 +18160,8 @@
       <c r="I73" s="112"/>
     </row>
     <row r="74" spans="1:9" ht="16.5" thickBot="1">
-      <c r="A74" s="282"/>
-      <c r="B74" s="275"/>
+      <c r="A74" s="315"/>
+      <c r="B74" s="310"/>
       <c r="C74" s="107">
         <v>43292</v>
       </c>
@@ -17412,8 +18177,8 @@
       <c r="I74" s="112"/>
     </row>
     <row r="75" spans="1:9" ht="16.5" thickBot="1">
-      <c r="A75" s="282"/>
-      <c r="B75" s="275"/>
+      <c r="A75" s="315"/>
+      <c r="B75" s="310"/>
       <c r="C75" s="107">
         <v>43293</v>
       </c>
@@ -17429,8 +18194,8 @@
       <c r="I75" s="112"/>
     </row>
     <row r="76" spans="1:9" ht="16.5" thickBot="1">
-      <c r="A76" s="282"/>
-      <c r="B76" s="287"/>
+      <c r="A76" s="315"/>
+      <c r="B76" s="311"/>
       <c r="C76" s="107">
         <v>43294</v>
       </c>
@@ -17446,8 +18211,8 @@
       <c r="I76" s="112"/>
     </row>
     <row r="77" spans="1:9" ht="16.5" thickBot="1">
-      <c r="A77" s="282"/>
-      <c r="B77" s="292">
+      <c r="A77" s="315"/>
+      <c r="B77" s="322">
         <v>16</v>
       </c>
       <c r="C77" s="127">
@@ -17469,8 +18234,8 @@
       <c r="I77" s="123"/>
     </row>
     <row r="78" spans="1:9" ht="16.5" thickBot="1">
-      <c r="A78" s="282"/>
-      <c r="B78" s="278"/>
+      <c r="A78" s="315"/>
+      <c r="B78" s="320"/>
       <c r="C78" s="127">
         <v>43298</v>
       </c>
@@ -17486,8 +18251,8 @@
       <c r="I78" s="123"/>
     </row>
     <row r="79" spans="1:9" ht="16.5" thickBot="1">
-      <c r="A79" s="282"/>
-      <c r="B79" s="278"/>
+      <c r="A79" s="315"/>
+      <c r="B79" s="320"/>
       <c r="C79" s="127">
         <v>43299</v>
       </c>
@@ -17503,8 +18268,8 @@
       <c r="I79" s="123"/>
     </row>
     <row r="80" spans="1:9" ht="16.5" thickBot="1">
-      <c r="A80" s="282"/>
-      <c r="B80" s="278"/>
+      <c r="A80" s="315"/>
+      <c r="B80" s="320"/>
       <c r="C80" s="127">
         <v>43300</v>
       </c>
@@ -17520,8 +18285,8 @@
       <c r="I80" s="123"/>
     </row>
     <row r="81" spans="1:9" ht="16.5" thickBot="1">
-      <c r="A81" s="283"/>
-      <c r="B81" s="293"/>
+      <c r="A81" s="316"/>
+      <c r="B81" s="323"/>
       <c r="C81" s="131">
         <v>43301</v>
       </c>
@@ -17539,10 +18304,10 @@
       <c r="I81" s="135"/>
     </row>
     <row r="82" spans="1:9" ht="15.75" customHeight="1" thickTop="1" thickBot="1">
-      <c r="A82" s="281" t="s">
+      <c r="A82" s="314" t="s">
         <v>76</v>
       </c>
-      <c r="B82" s="274">
+      <c r="B82" s="309">
         <v>17</v>
       </c>
       <c r="C82" s="107">
@@ -17560,8 +18325,8 @@
       <c r="I82" s="112"/>
     </row>
     <row r="83" spans="1:9" ht="16.5" thickBot="1">
-      <c r="A83" s="282"/>
-      <c r="B83" s="275"/>
+      <c r="A83" s="315"/>
+      <c r="B83" s="310"/>
       <c r="C83" s="107">
         <v>43305</v>
       </c>
@@ -17577,8 +18342,8 @@
       <c r="I83" s="112"/>
     </row>
     <row r="84" spans="1:9" ht="16.5" thickBot="1">
-      <c r="A84" s="282"/>
-      <c r="B84" s="275"/>
+      <c r="A84" s="315"/>
+      <c r="B84" s="310"/>
       <c r="C84" s="107">
         <v>43306</v>
       </c>
@@ -17594,8 +18359,8 @@
       <c r="I84" s="112"/>
     </row>
     <row r="85" spans="1:9" ht="16.5" thickBot="1">
-      <c r="A85" s="282"/>
-      <c r="B85" s="275"/>
+      <c r="A85" s="315"/>
+      <c r="B85" s="310"/>
       <c r="C85" s="107">
         <v>43307</v>
       </c>
@@ -17611,8 +18376,8 @@
       <c r="I85" s="112"/>
     </row>
     <row r="86" spans="1:9" ht="16.5" thickBot="1">
-      <c r="A86" s="283"/>
-      <c r="B86" s="276"/>
+      <c r="A86" s="316"/>
+      <c r="B86" s="313"/>
       <c r="C86" s="114">
         <v>43308</v>
       </c>
@@ -17628,10 +18393,10 @@
       <c r="I86" s="118"/>
     </row>
     <row r="87" spans="1:9" ht="17.25" thickTop="1" thickBot="1">
-      <c r="A87" s="281" t="s">
+      <c r="A87" s="314" t="s">
         <v>632</v>
       </c>
-      <c r="B87" s="294">
+      <c r="B87" s="306">
         <v>18</v>
       </c>
       <c r="C87" s="119">
@@ -17653,8 +18418,8 @@
       <c r="I87" s="123"/>
     </row>
     <row r="88" spans="1:9" ht="16.5" thickBot="1">
-      <c r="A88" s="282"/>
-      <c r="B88" s="285"/>
+      <c r="A88" s="315"/>
+      <c r="B88" s="307"/>
       <c r="C88" s="119">
         <v>43312</v>
       </c>
@@ -17670,8 +18435,8 @@
       <c r="I88" s="123"/>
     </row>
     <row r="89" spans="1:9" ht="16.5" thickBot="1">
-      <c r="A89" s="282"/>
-      <c r="B89" s="285"/>
+      <c r="A89" s="315"/>
+      <c r="B89" s="307"/>
       <c r="C89" s="119">
         <v>43313</v>
       </c>
@@ -17687,8 +18452,8 @@
       <c r="I89" s="123"/>
     </row>
     <row r="90" spans="1:9" ht="16.5" thickBot="1">
-      <c r="A90" s="282"/>
-      <c r="B90" s="285"/>
+      <c r="A90" s="315"/>
+      <c r="B90" s="307"/>
       <c r="C90" s="119">
         <v>43314</v>
       </c>
@@ -17704,8 +18469,8 @@
       <c r="I90" s="123"/>
     </row>
     <row r="91" spans="1:9" ht="27" thickBot="1">
-      <c r="A91" s="282"/>
-      <c r="B91" s="286"/>
+      <c r="A91" s="315"/>
+      <c r="B91" s="317"/>
       <c r="C91" s="119">
         <v>43315</v>
       </c>
@@ -17723,8 +18488,8 @@
       <c r="I91" s="123"/>
     </row>
     <row r="92" spans="1:9" ht="16.5" thickBot="1">
-      <c r="A92" s="282"/>
-      <c r="B92" s="280">
+      <c r="A92" s="315"/>
+      <c r="B92" s="318">
         <v>19</v>
       </c>
       <c r="C92" s="107">
@@ -17742,8 +18507,8 @@
       <c r="I92" s="112"/>
     </row>
     <row r="93" spans="1:9" ht="16.5" thickBot="1">
-      <c r="A93" s="282"/>
-      <c r="B93" s="275"/>
+      <c r="A93" s="315"/>
+      <c r="B93" s="310"/>
       <c r="C93" s="107">
         <v>43319</v>
       </c>
@@ -17759,8 +18524,8 @@
       <c r="I93" s="112"/>
     </row>
     <row r="94" spans="1:9" ht="16.5" thickBot="1">
-      <c r="A94" s="282"/>
-      <c r="B94" s="275"/>
+      <c r="A94" s="315"/>
+      <c r="B94" s="310"/>
       <c r="C94" s="107">
         <v>43320</v>
       </c>
@@ -17776,8 +18541,8 @@
       <c r="I94" s="112"/>
     </row>
     <row r="95" spans="1:9" ht="16.5" thickBot="1">
-      <c r="A95" s="282"/>
-      <c r="B95" s="275"/>
+      <c r="A95" s="315"/>
+      <c r="B95" s="310"/>
       <c r="C95" s="107">
         <v>43321</v>
       </c>
@@ -17793,8 +18558,8 @@
       <c r="I95" s="112"/>
     </row>
     <row r="96" spans="1:9" ht="16.5" thickBot="1">
-      <c r="A96" s="282"/>
-      <c r="B96" s="287"/>
+      <c r="A96" s="315"/>
+      <c r="B96" s="311"/>
       <c r="C96" s="107">
         <v>43322</v>
       </c>
@@ -17810,8 +18575,8 @@
       <c r="I96" s="112"/>
     </row>
     <row r="97" spans="1:9" ht="16.5" thickBot="1">
-      <c r="A97" s="282"/>
-      <c r="B97" s="284">
+      <c r="A97" s="315"/>
+      <c r="B97" s="312">
         <v>20</v>
       </c>
       <c r="C97" s="119">
@@ -17831,8 +18596,8 @@
       <c r="I97" s="123"/>
     </row>
     <row r="98" spans="1:9" ht="16.5" thickBot="1">
-      <c r="A98" s="282"/>
-      <c r="B98" s="285"/>
+      <c r="A98" s="315"/>
+      <c r="B98" s="307"/>
       <c r="C98" s="119">
         <v>43326</v>
       </c>
@@ -17848,8 +18613,8 @@
       <c r="I98" s="123"/>
     </row>
     <row r="99" spans="1:9" ht="16.5" thickBot="1">
-      <c r="A99" s="282"/>
-      <c r="B99" s="285"/>
+      <c r="A99" s="315"/>
+      <c r="B99" s="307"/>
       <c r="C99" s="119">
         <v>43327</v>
       </c>
@@ -17865,8 +18630,8 @@
       <c r="I99" s="123"/>
     </row>
     <row r="100" spans="1:9" ht="16.5" thickBot="1">
-      <c r="A100" s="282"/>
-      <c r="B100" s="285"/>
+      <c r="A100" s="315"/>
+      <c r="B100" s="307"/>
       <c r="C100" s="119">
         <v>43328</v>
       </c>
@@ -17884,8 +18649,8 @@
       <c r="I100" s="123"/>
     </row>
     <row r="101" spans="1:9" ht="16.5" thickBot="1">
-      <c r="A101" s="283"/>
-      <c r="B101" s="295"/>
+      <c r="A101" s="316"/>
+      <c r="B101" s="308"/>
       <c r="C101" s="137">
         <v>43329</v>
       </c>
@@ -24195,21 +24960,6 @@
     </row>
   </sheetData>
   <mergeCells count="27">
-    <mergeCell ref="A47:A61"/>
-    <mergeCell ref="B47:B51"/>
-    <mergeCell ref="B52:B56"/>
-    <mergeCell ref="B57:B61"/>
-    <mergeCell ref="B62:B66"/>
-    <mergeCell ref="A82:A86"/>
-    <mergeCell ref="A87:A101"/>
-    <mergeCell ref="A62:A81"/>
-    <mergeCell ref="B87:B91"/>
-    <mergeCell ref="B92:B96"/>
-    <mergeCell ref="B97:B101"/>
-    <mergeCell ref="B67:B71"/>
-    <mergeCell ref="B72:B76"/>
-    <mergeCell ref="B77:B81"/>
-    <mergeCell ref="B82:B86"/>
     <mergeCell ref="B32:B36"/>
     <mergeCell ref="B37:B41"/>
     <mergeCell ref="B42:B46"/>
@@ -24222,6 +24972,21 @@
     <mergeCell ref="B22:B26"/>
     <mergeCell ref="B27:B31"/>
     <mergeCell ref="A32:A46"/>
+    <mergeCell ref="A82:A86"/>
+    <mergeCell ref="A87:A101"/>
+    <mergeCell ref="A62:A81"/>
+    <mergeCell ref="B87:B91"/>
+    <mergeCell ref="B92:B96"/>
+    <mergeCell ref="B97:B101"/>
+    <mergeCell ref="B67:B71"/>
+    <mergeCell ref="B72:B76"/>
+    <mergeCell ref="B77:B81"/>
+    <mergeCell ref="B82:B86"/>
+    <mergeCell ref="A47:A61"/>
+    <mergeCell ref="B47:B51"/>
+    <mergeCell ref="B52:B56"/>
+    <mergeCell ref="B57:B61"/>
+    <mergeCell ref="B62:B66"/>
   </mergeCells>
   <hyperlinks>
     <hyperlink ref="I2" r:id="rId1" display="https://drive.google.com/open?id=12f1t9Kg0CD9OW5iG5jB3Ozx_iRGw-cbyozVUPhhG6ME"/>
@@ -24709,11 +25474,11 @@
       </c>
     </row>
     <row r="13" spans="1:10">
-      <c r="C13" s="297" t="s">
+      <c r="C13" s="326" t="s">
         <v>168</v>
       </c>
-      <c r="D13" s="298"/>
-      <c r="E13" s="299"/>
+      <c r="D13" s="327"/>
+      <c r="E13" s="328"/>
     </row>
     <row r="14" spans="1:10">
       <c r="C14" t="s">
@@ -24729,16 +25494,16 @@
       </c>
     </row>
     <row r="16" spans="1:10">
-      <c r="A16" s="297" t="s">
+      <c r="A16" s="326" t="s">
         <v>171</v>
       </c>
-      <c r="B16" s="298"/>
-      <c r="C16" s="299"/>
-      <c r="E16" s="297" t="s">
+      <c r="B16" s="327"/>
+      <c r="C16" s="328"/>
+      <c r="E16" s="326" t="s">
         <v>167</v>
       </c>
-      <c r="F16" s="298"/>
-      <c r="G16" s="299"/>
+      <c r="F16" s="327"/>
+      <c r="G16" s="328"/>
     </row>
     <row r="18" spans="1:6">
       <c r="B18" t="s">
@@ -24749,11 +25514,11 @@
       </c>
     </row>
     <row r="19" spans="1:6">
-      <c r="C19" s="297" t="s">
+      <c r="C19" s="326" t="s">
         <v>166</v>
       </c>
-      <c r="D19" s="298"/>
-      <c r="E19" s="299"/>
+      <c r="D19" s="327"/>
+      <c r="E19" s="328"/>
     </row>
     <row r="25" spans="1:6">
       <c r="A25" t="s">
@@ -26994,21 +27759,21 @@
     </row>
     <row r="319" spans="1:11" ht="15.75" thickBot="1"/>
     <row r="320" spans="1:11" ht="15.75" thickBot="1">
-      <c r="A320" s="300" t="s">
+      <c r="A320" s="329" t="s">
         <v>243</v>
       </c>
-      <c r="B320" s="301"/>
-      <c r="C320" s="302"/>
-      <c r="E320" s="300" t="s">
+      <c r="B320" s="330"/>
+      <c r="C320" s="331"/>
+      <c r="E320" s="329" t="s">
         <v>249</v>
       </c>
-      <c r="F320" s="301"/>
-      <c r="G320" s="302"/>
-      <c r="I320" s="300" t="s">
+      <c r="F320" s="330"/>
+      <c r="G320" s="331"/>
+      <c r="I320" s="329" t="s">
         <v>946</v>
       </c>
-      <c r="J320" s="301"/>
-      <c r="K320" s="302"/>
+      <c r="J320" s="330"/>
+      <c r="K320" s="331"/>
     </row>
     <row r="321" spans="1:11" ht="15.75" thickBot="1">
       <c r="A321" s="152" t="s">

--- a/General/Curriculum (Personalized).xlsx
+++ b/General/Curriculum (Personalized).xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="13488" windowHeight="11412" activeTab="10"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="13488" windowHeight="11412" firstSheet="7" activeTab="11"/>
   </bookViews>
   <sheets>
     <sheet name="Curriculum" sheetId="1" r:id="rId1"/>
@@ -23,6 +23,7 @@
     <sheet name="Resources" sheetId="6" r:id="rId9"/>
     <sheet name="Professional" sheetId="9" r:id="rId10"/>
     <sheet name="Amazon (AWS)" sheetId="11" r:id="rId11"/>
+    <sheet name="AWS Application Dev. Training" sheetId="12" r:id="rId12"/>
   </sheets>
   <calcPr calcId="152511"/>
   <extLst>
@@ -732,7 +733,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1492" uniqueCount="1046">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1554" uniqueCount="1107">
   <si>
     <t>Week</t>
   </si>
@@ -11219,6 +11220,190 @@
       </rPr>
       <t xml:space="preserve"> vs Mobile. Maybe add Networking in to whatever it is you decide to do. Might make this an add-on in addition to the Application Developer trac.</t>
     </r>
+  </si>
+  <si>
+    <t>Cloud computing provides a simple way to access servers, storage, databases and a broad set of application services over the Internet. A Cloud services platform such as Amazon Web Services owns and maintains the network-connected hardware required for these application services, while you provision and use what you need via a web application.</t>
+  </si>
+  <si>
+    <t>How Does Cloud Computing Work?</t>
+  </si>
+  <si>
+    <t>Whether you are running applications that share photos to millions of mobile users or you’re supporting the critical operations of your business, a cloud services platform provides rapid access to flexible and low cost IT resources. With cloud computing, you don’t need to make large upfront investments in hardware and spend a lot of time on the heavy lifting of managing that hardware. Instead, you can provision exactly the right type and size of computing resources you need to power your newest bright idea or operate your IT department. You can access as many resources as you need, almost instantly, and only pay for what you use.</t>
+  </si>
+  <si>
+    <t>Cloud Computing Basics</t>
+  </si>
+  <si>
+    <t>Cloud computing is the on-demand delivery of compute power, database storage, applications, and other IT resources through a cloud services platform via the internet with pay-as-you-go pricing.</t>
+  </si>
+  <si>
+    <t>Module 1.2: AWS Overview</t>
+  </si>
+  <si>
+    <t>South America (São Paulo)</t>
+  </si>
+  <si>
+    <t>EU (Paris)</t>
+  </si>
+  <si>
+    <t>EU (London)</t>
+  </si>
+  <si>
+    <t>EU (Ireland)</t>
+  </si>
+  <si>
+    <t>EU (Frankfurt)</t>
+  </si>
+  <si>
+    <t>China (Ningxia)</t>
+  </si>
+  <si>
+    <t>China (Beijing)</t>
+  </si>
+  <si>
+    <t>Canada (Central)</t>
+  </si>
+  <si>
+    <t>Asia Pacific (Sydney)</t>
+  </si>
+  <si>
+    <t>Asia Pacific (Singapore)</t>
+  </si>
+  <si>
+    <t>Asia Pacific (Mumbai)</t>
+  </si>
+  <si>
+    <t>Asia Pacific (Osaka-Local)</t>
+  </si>
+  <si>
+    <t>Asia Pacific (Seoul)</t>
+  </si>
+  <si>
+    <t>Asia Pacific (Tokyo)</t>
+  </si>
+  <si>
+    <t>US West (Oregon)</t>
+  </si>
+  <si>
+    <t>US West (N. California)</t>
+  </si>
+  <si>
+    <t>US East (N. Virginia)</t>
+  </si>
+  <si>
+    <t>US East (Ohio)</t>
+  </si>
+  <si>
+    <t>15 Regions (Global):</t>
+  </si>
+  <si>
+    <t>Multiple data centers - each region has multiple availability zones, MAZ is a big data center with anywhere between 300K-500K servers</t>
+  </si>
+  <si>
+    <t>If you are anywhere in the world, you have a region within 1,000 miles.</t>
+  </si>
+  <si>
+    <t>AWS Reach:</t>
+  </si>
+  <si>
+    <t>Spot resources - as needed services</t>
+  </si>
+  <si>
+    <t>Term specific pricing</t>
+  </si>
+  <si>
+    <t>Region specific billing</t>
+  </si>
+  <si>
+    <t>Per hour billing</t>
+  </si>
+  <si>
+    <t>Convenient Pricing:</t>
+  </si>
+  <si>
+    <t>Autoscaling - adds capacity on the fly to ELB so that your website is not down due to the load</t>
+  </si>
+  <si>
+    <t>ELB (Elastic Load Balancing) - gives the opportunity to load balance to multiple machines</t>
+  </si>
+  <si>
+    <t>Route 53 - global DNS service, manage DNS service where you can point your DNS to Amazon, and they take care of the rest</t>
+  </si>
+  <si>
+    <t>Relational Database Service - run and manage databases on the cloud (i.e. SQL Server, Oracle, MySQL, Aurora, etc.)</t>
+  </si>
+  <si>
+    <t>S3 (Simple Storage Service) - file storage and sharing service</t>
+  </si>
+  <si>
+    <t>VPC (Virtual Private Cloud) - provides access to use of Amazon's cloud, giving clients a network to use within the cloud where servers can be run</t>
+  </si>
+  <si>
+    <t>Service Overview:</t>
+  </si>
+  <si>
+    <t>Trusted/Widely Used Vendor (Fortune 500 Companies)</t>
+  </si>
+  <si>
+    <t>Stable and Reliable Services</t>
+  </si>
+  <si>
+    <t>Simplified Billing</t>
+  </si>
+  <si>
+    <t>Easy Sign-Up</t>
+  </si>
+  <si>
+    <t>Micro-billing (Per Hour)</t>
+  </si>
+  <si>
+    <t>Popular Features:</t>
+  </si>
+  <si>
+    <t>Cloud Storage Platform - hosting and running data and applications</t>
+  </si>
+  <si>
+    <t>Software Service - E-mail, queueing services</t>
+  </si>
+  <si>
+    <t>Platform Service - Java, Ruby, PHP</t>
+  </si>
+  <si>
+    <t>Infrastructure Service - physical servers, so companies don't have to buy or manage their own</t>
+  </si>
+  <si>
+    <t>64 Services Across Four Focuses:</t>
+  </si>
+  <si>
+    <t>AWS is a global cloud platform that allows you to host and manage services on the internet</t>
+  </si>
+  <si>
+    <t>AWS = Amazon Web Services</t>
+  </si>
+  <si>
+    <t>AWS in 10 Minutes (https://www.youtube.com/watch?v=r4YIdn2eTm4&amp;feature=youtu.be)</t>
+  </si>
+  <si>
+    <t>Resource Management Tools</t>
+  </si>
+  <si>
+    <t>Compute - Power applications</t>
+  </si>
+  <si>
+    <t>Storage</t>
+  </si>
+  <si>
+    <t>What is AWS? (https://www.youtube.com/watch?v=mZ5H8sn_2ZI&amp;feature=youtu.be)</t>
+  </si>
+  <si>
+    <t>Cloud computing is the on-demand delivery of compute power, database storage, applications, and other IT resources through a cloud services platform via the internet with pay-as-you-go pricing.
+Welcome to Module 1 AWS Cloud Computing. This module will introduce you to many of the AWS Cloud Computing services. The pace at which AWS is releasing features and services can be overwhelming. We will be introducing many, but not all, of the core AWS services in this Module.</t>
+  </si>
+  <si>
+    <t>Module 1.1: AWS Cloud Computing Introduction</t>
+  </si>
+  <si>
+    <t>EC2 (Elastic Compute Cloud) - Most commonly used, bare servers, infrastructure service, choice of server size</t>
   </si>
 </sst>
 </file>
@@ -11693,7 +11878,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="74">
+  <borders count="75">
     <border>
       <left/>
       <right/>
@@ -12648,13 +12833,22 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="25" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="337">
+  <cellXfs count="341">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -13191,115 +13385,67 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="9" borderId="5" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="35" xfId="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="5" borderId="35" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="5" borderId="38" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="33" xfId="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="35" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="38" xfId="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="5" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="4" borderId="52" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="4" borderId="53" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="33" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="35" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="38" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="33" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="6" xfId="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="33" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="35" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="5" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="5" borderId="34" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="5" borderId="36" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="23" xfId="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="5" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="14" fillId="5" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="5" borderId="23" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="5" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="5" borderId="37" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="32" xfId="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="23" xfId="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="37" xfId="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="34" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="5" borderId="31" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="32" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="5" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="34" xfId="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="36" xfId="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="37" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="5" borderId="23" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="5" borderId="37" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="5" borderId="32" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="31" xfId="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="32" xfId="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="5" xfId="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="32" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="32" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="23" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="5" borderId="32" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="32" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -13307,6 +13453,21 @@
     </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -13317,55 +13478,25 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="23" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="5" borderId="32" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="5" borderId="1" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="23" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="37" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="32" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="23" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="5" borderId="31" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -13386,71 +13517,116 @@
     <xf numFmtId="0" fontId="1" fillId="3" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="23" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="5" borderId="1" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="37" xfId="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="35" xfId="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="38" xfId="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="37" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="4" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="5" borderId="32" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="32" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="23" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="36" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="5" borderId="36" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="5" borderId="37" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="5" borderId="37" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="37" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="35" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="38" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="35" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="32" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="33" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="33" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="5" borderId="35" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="5" borderId="38" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="5" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="5" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="5" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="52" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="4" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="53" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="4" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="5" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="33" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="6" xfId="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="5" xfId="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="33" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="32" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="35" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="35" fillId="0" borderId="63" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="35" fillId="0" borderId="55" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="35" fillId="0" borderId="56" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="64" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="57" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="58" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="14" fillId="5" borderId="64" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center" wrapText="1"/>
@@ -13458,13 +13634,19 @@
     <xf numFmtId="0" fontId="14" fillId="5" borderId="57" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="5" borderId="62" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="14" fillId="5" borderId="58" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="14" fillId="2" borderId="64" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="5" borderId="58" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="14" fillId="2" borderId="57" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="2" borderId="62" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="5" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="35" fillId="2" borderId="63" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -13476,20 +13658,29 @@
     <xf numFmtId="0" fontId="35" fillId="2" borderId="56" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="57" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="14" fillId="0" borderId="62" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="5" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="14" fillId="5" borderId="62" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="2" borderId="64" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="35" fillId="0" borderId="65" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="2" borderId="57" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="35" fillId="0" borderId="66" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="2" borderId="62" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="35" fillId="0" borderId="55" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="35" fillId="0" borderId="56" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="14" fillId="2" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center" wrapText="1"/>
@@ -13497,10 +13688,13 @@
     <xf numFmtId="0" fontId="14" fillId="2" borderId="58" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="35" fillId="0" borderId="65" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="64" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="35" fillId="0" borderId="66" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="58" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="35" fillId="0" borderId="63" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="24" xfId="0" applyBorder="1" applyAlignment="1">
@@ -13536,6 +13730,14 @@
     <xf numFmtId="0" fontId="8" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="74" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="74" xfId="0" applyFont="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="3">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -14554,21 +14756,21 @@
       <c r="H1" s="35" t="s">
         <v>193</v>
       </c>
-      <c r="I1" s="295" t="s">
+      <c r="I1" s="222" t="s">
         <v>7</v>
       </c>
-      <c r="J1" s="296"/>
-      <c r="K1" s="297"/>
-      <c r="L1" s="229" t="s">
+      <c r="J1" s="223"/>
+      <c r="K1" s="224"/>
+      <c r="L1" s="297" t="s">
         <v>8</v>
       </c>
-      <c r="M1" s="230"/>
+      <c r="M1" s="298"/>
     </row>
     <row r="2" spans="1:13" ht="15.75" customHeight="1">
-      <c r="A2" s="258">
+      <c r="A2" s="255">
         <v>1</v>
       </c>
-      <c r="B2" s="261" t="s">
+      <c r="B2" s="250" t="s">
         <v>9</v>
       </c>
       <c r="C2" s="8" t="s">
@@ -14577,145 +14779,145 @@
       <c r="D2" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="E2" s="252" t="s">
+      <c r="E2" s="237" t="s">
         <v>12</v>
       </c>
-      <c r="F2" s="301"/>
-      <c r="G2" s="253"/>
-      <c r="H2" s="253"/>
-      <c r="I2" s="253" t="s">
+      <c r="F2" s="239"/>
+      <c r="G2" s="230"/>
+      <c r="H2" s="230"/>
+      <c r="I2" s="230" t="s">
         <v>10</v>
       </c>
-      <c r="J2" s="253" t="s">
+      <c r="J2" s="230" t="s">
         <v>14</v>
       </c>
-      <c r="K2" s="253" t="s">
+      <c r="K2" s="230" t="s">
         <v>15</v>
       </c>
-      <c r="L2" s="225" t="s">
+      <c r="L2" s="291" t="s">
         <v>16</v>
       </c>
-      <c r="M2" s="225" t="s">
+      <c r="M2" s="291" t="s">
         <v>327</v>
       </c>
     </row>
     <row r="3" spans="1:13" ht="15.75" customHeight="1">
-      <c r="A3" s="259"/>
-      <c r="B3" s="262"/>
+      <c r="A3" s="243"/>
+      <c r="B3" s="251"/>
       <c r="C3" s="32" t="s">
         <v>17</v>
       </c>
       <c r="D3" s="4" t="s">
         <v>18</v>
       </c>
-      <c r="E3" s="247"/>
-      <c r="F3" s="274"/>
-      <c r="G3" s="244"/>
-      <c r="H3" s="244"/>
-      <c r="I3" s="244"/>
-      <c r="J3" s="244"/>
-      <c r="K3" s="244"/>
-      <c r="L3" s="222"/>
-      <c r="M3" s="222"/>
+      <c r="E3" s="232"/>
+      <c r="F3" s="240"/>
+      <c r="G3" s="226"/>
+      <c r="H3" s="226"/>
+      <c r="I3" s="226"/>
+      <c r="J3" s="226"/>
+      <c r="K3" s="226"/>
+      <c r="L3" s="274"/>
+      <c r="M3" s="274"/>
     </row>
     <row r="4" spans="1:13" ht="15.75" customHeight="1">
-      <c r="A4" s="259"/>
-      <c r="B4" s="262"/>
+      <c r="A4" s="243"/>
+      <c r="B4" s="251"/>
       <c r="C4" s="32" t="s">
         <v>19</v>
       </c>
       <c r="D4" s="4" t="s">
         <v>20</v>
       </c>
-      <c r="E4" s="247"/>
-      <c r="F4" s="274"/>
-      <c r="G4" s="244"/>
-      <c r="H4" s="244"/>
-      <c r="I4" s="244"/>
-      <c r="J4" s="244"/>
-      <c r="K4" s="244"/>
-      <c r="L4" s="222"/>
-      <c r="M4" s="222"/>
+      <c r="E4" s="232"/>
+      <c r="F4" s="240"/>
+      <c r="G4" s="226"/>
+      <c r="H4" s="226"/>
+      <c r="I4" s="226"/>
+      <c r="J4" s="226"/>
+      <c r="K4" s="226"/>
+      <c r="L4" s="274"/>
+      <c r="M4" s="274"/>
     </row>
     <row r="5" spans="1:13" ht="15.75" customHeight="1">
-      <c r="A5" s="259"/>
-      <c r="B5" s="262"/>
+      <c r="A5" s="243"/>
+      <c r="B5" s="251"/>
       <c r="C5" s="32" t="s">
         <v>21</v>
       </c>
       <c r="D5" s="4"/>
-      <c r="E5" s="247"/>
-      <c r="F5" s="274"/>
-      <c r="G5" s="244"/>
-      <c r="H5" s="244"/>
-      <c r="I5" s="244"/>
-      <c r="J5" s="244"/>
-      <c r="K5" s="244"/>
-      <c r="L5" s="222"/>
-      <c r="M5" s="222"/>
+      <c r="E5" s="232"/>
+      <c r="F5" s="240"/>
+      <c r="G5" s="226"/>
+      <c r="H5" s="226"/>
+      <c r="I5" s="226"/>
+      <c r="J5" s="226"/>
+      <c r="K5" s="226"/>
+      <c r="L5" s="274"/>
+      <c r="M5" s="274"/>
     </row>
     <row r="6" spans="1:13" ht="15.75" customHeight="1">
-      <c r="A6" s="259"/>
-      <c r="B6" s="262"/>
+      <c r="A6" s="243"/>
+      <c r="B6" s="251"/>
       <c r="C6" s="32" t="s">
         <v>14</v>
       </c>
       <c r="D6" s="4" t="s">
         <v>22</v>
       </c>
-      <c r="E6" s="247"/>
-      <c r="F6" s="274"/>
-      <c r="G6" s="244"/>
-      <c r="H6" s="244"/>
-      <c r="I6" s="244"/>
-      <c r="J6" s="244"/>
-      <c r="K6" s="244"/>
-      <c r="L6" s="222"/>
-      <c r="M6" s="222"/>
+      <c r="E6" s="232"/>
+      <c r="F6" s="240"/>
+      <c r="G6" s="226"/>
+      <c r="H6" s="226"/>
+      <c r="I6" s="226"/>
+      <c r="J6" s="226"/>
+      <c r="K6" s="226"/>
+      <c r="L6" s="274"/>
+      <c r="M6" s="274"/>
     </row>
     <row r="7" spans="1:13" ht="15.75" customHeight="1">
-      <c r="A7" s="259"/>
-      <c r="B7" s="262"/>
+      <c r="A7" s="243"/>
+      <c r="B7" s="251"/>
       <c r="C7" s="32" t="s">
         <v>15</v>
       </c>
       <c r="D7" s="4" t="s">
         <v>20</v>
       </c>
-      <c r="E7" s="247"/>
-      <c r="F7" s="274"/>
-      <c r="G7" s="244"/>
-      <c r="H7" s="244"/>
-      <c r="I7" s="244"/>
-      <c r="J7" s="244"/>
-      <c r="K7" s="244"/>
-      <c r="L7" s="222"/>
-      <c r="M7" s="222"/>
+      <c r="E7" s="232"/>
+      <c r="F7" s="240"/>
+      <c r="G7" s="226"/>
+      <c r="H7" s="226"/>
+      <c r="I7" s="226"/>
+      <c r="J7" s="226"/>
+      <c r="K7" s="226"/>
+      <c r="L7" s="274"/>
+      <c r="M7" s="274"/>
     </row>
     <row r="8" spans="1:13" ht="15.75" customHeight="1" thickBot="1">
-      <c r="A8" s="260"/>
-      <c r="B8" s="263"/>
+      <c r="A8" s="244"/>
+      <c r="B8" s="252"/>
       <c r="C8" s="9" t="s">
         <v>23</v>
       </c>
       <c r="D8" s="5" t="s">
         <v>24</v>
       </c>
-      <c r="E8" s="300"/>
-      <c r="F8" s="302"/>
-      <c r="G8" s="299"/>
-      <c r="H8" s="299"/>
-      <c r="I8" s="299"/>
-      <c r="J8" s="299"/>
-      <c r="K8" s="299"/>
-      <c r="L8" s="235"/>
-      <c r="M8" s="235"/>
+      <c r="E8" s="238"/>
+      <c r="F8" s="241"/>
+      <c r="G8" s="231"/>
+      <c r="H8" s="231"/>
+      <c r="I8" s="231"/>
+      <c r="J8" s="231"/>
+      <c r="K8" s="231"/>
+      <c r="L8" s="300"/>
+      <c r="M8" s="300"/>
     </row>
     <row r="9" spans="1:13" ht="15.75" customHeight="1">
-      <c r="A9" s="265">
+      <c r="A9" s="268">
         <v>2</v>
       </c>
-      <c r="B9" s="261" t="s">
+      <c r="B9" s="250" t="s">
         <v>25</v>
       </c>
       <c r="C9" s="10" t="s">
@@ -14724,864 +14926,864 @@
       <c r="D9" s="3" t="s">
         <v>286</v>
       </c>
-      <c r="E9" s="278"/>
-      <c r="F9" s="257" t="s">
+      <c r="E9" s="233"/>
+      <c r="F9" s="234" t="s">
         <v>192</v>
       </c>
-      <c r="G9" s="272" t="s">
+      <c r="G9" s="236" t="s">
         <v>13</v>
       </c>
-      <c r="H9" s="256"/>
-      <c r="I9" s="276" t="s">
+      <c r="H9" s="277"/>
+      <c r="I9" s="278" t="s">
         <v>184</v>
       </c>
-      <c r="J9" s="257" t="s">
+      <c r="J9" s="234" t="s">
         <v>194</v>
       </c>
-      <c r="K9" s="257" t="s">
+      <c r="K9" s="234" t="s">
         <v>195</v>
       </c>
-      <c r="L9" s="272" t="s">
+      <c r="L9" s="236" t="s">
         <v>328</v>
       </c>
-      <c r="M9" s="236"/>
+      <c r="M9" s="301"/>
     </row>
     <row r="10" spans="1:13" ht="15.75" customHeight="1">
       <c r="A10" s="266"/>
-      <c r="B10" s="262"/>
+      <c r="B10" s="251"/>
       <c r="C10" s="11" t="s">
         <v>26</v>
       </c>
       <c r="D10" s="4"/>
-      <c r="E10" s="239"/>
-      <c r="F10" s="246"/>
-      <c r="G10" s="250"/>
-      <c r="H10" s="242"/>
-      <c r="I10" s="277"/>
-      <c r="J10" s="246"/>
-      <c r="K10" s="246"/>
-      <c r="L10" s="273"/>
-      <c r="M10" s="237"/>
+      <c r="E10" s="225"/>
+      <c r="F10" s="235"/>
+      <c r="G10" s="228"/>
+      <c r="H10" s="229"/>
+      <c r="I10" s="279"/>
+      <c r="J10" s="235"/>
+      <c r="K10" s="235"/>
+      <c r="L10" s="272"/>
+      <c r="M10" s="302"/>
     </row>
     <row r="11" spans="1:13" ht="15.75" customHeight="1" thickBot="1">
-      <c r="A11" s="284">
+      <c r="A11" s="263">
         <v>3</v>
       </c>
-      <c r="B11" s="262"/>
+      <c r="B11" s="251"/>
       <c r="C11" s="11" t="s">
         <v>263</v>
       </c>
       <c r="D11" s="4"/>
-      <c r="E11" s="247"/>
-      <c r="F11" s="274"/>
-      <c r="G11" s="244"/>
-      <c r="H11" s="244" t="s">
+      <c r="E11" s="232"/>
+      <c r="F11" s="240"/>
+      <c r="G11" s="226"/>
+      <c r="H11" s="226" t="s">
         <v>198</v>
       </c>
-      <c r="I11" s="244" t="s">
+      <c r="I11" s="226" t="s">
         <v>196</v>
       </c>
-      <c r="J11" s="244"/>
-      <c r="K11" s="244"/>
+      <c r="J11" s="226"/>
+      <c r="K11" s="226"/>
       <c r="L11" s="271" t="s">
         <v>329</v>
       </c>
-      <c r="M11" s="222"/>
+      <c r="M11" s="274"/>
     </row>
     <row r="12" spans="1:13" ht="15.75" customHeight="1">
-      <c r="A12" s="285"/>
-      <c r="B12" s="262"/>
+      <c r="A12" s="264"/>
+      <c r="B12" s="251"/>
       <c r="C12" s="11" t="s">
         <v>28</v>
       </c>
       <c r="D12" s="10"/>
-      <c r="E12" s="247"/>
-      <c r="F12" s="274"/>
-      <c r="G12" s="244"/>
-      <c r="H12" s="244"/>
-      <c r="I12" s="244"/>
-      <c r="J12" s="244"/>
-      <c r="K12" s="244"/>
+      <c r="E12" s="232"/>
+      <c r="F12" s="240"/>
+      <c r="G12" s="226"/>
+      <c r="H12" s="226"/>
+      <c r="I12" s="226"/>
+      <c r="J12" s="226"/>
+      <c r="K12" s="226"/>
       <c r="L12" s="271"/>
-      <c r="M12" s="222"/>
+      <c r="M12" s="274"/>
     </row>
     <row r="13" spans="1:13" ht="15.75" customHeight="1">
-      <c r="A13" s="286">
+      <c r="A13" s="265">
         <v>4</v>
       </c>
-      <c r="B13" s="262"/>
+      <c r="B13" s="251"/>
       <c r="C13" s="11" t="s">
         <v>29</v>
       </c>
       <c r="D13" s="11"/>
-      <c r="E13" s="239"/>
-      <c r="F13" s="298" t="s">
+      <c r="E13" s="225"/>
+      <c r="F13" s="227" t="s">
         <v>36</v>
       </c>
-      <c r="G13" s="250" t="s">
+      <c r="G13" s="228" t="s">
         <v>33</v>
       </c>
-      <c r="H13" s="242"/>
-      <c r="I13" s="250" t="s">
+      <c r="H13" s="229"/>
+      <c r="I13" s="228" t="s">
         <v>330</v>
       </c>
-      <c r="J13" s="242"/>
-      <c r="K13" s="242"/>
-      <c r="L13" s="223"/>
-      <c r="M13" s="223"/>
+      <c r="J13" s="229"/>
+      <c r="K13" s="229"/>
+      <c r="L13" s="292"/>
+      <c r="M13" s="292"/>
     </row>
     <row r="14" spans="1:13" ht="15.75" customHeight="1">
       <c r="A14" s="266"/>
-      <c r="B14" s="262"/>
+      <c r="B14" s="251"/>
       <c r="C14" s="32" t="s">
         <v>30</v>
       </c>
       <c r="D14" s="4"/>
-      <c r="E14" s="239"/>
-      <c r="F14" s="298"/>
-      <c r="G14" s="250"/>
-      <c r="H14" s="242"/>
-      <c r="I14" s="250"/>
-      <c r="J14" s="242"/>
-      <c r="K14" s="242"/>
-      <c r="L14" s="223"/>
-      <c r="M14" s="223"/>
+      <c r="E14" s="225"/>
+      <c r="F14" s="227"/>
+      <c r="G14" s="228"/>
+      <c r="H14" s="229"/>
+      <c r="I14" s="228"/>
+      <c r="J14" s="229"/>
+      <c r="K14" s="229"/>
+      <c r="L14" s="292"/>
+      <c r="M14" s="292"/>
     </row>
     <row r="15" spans="1:13" ht="15.75" customHeight="1">
-      <c r="A15" s="284">
+      <c r="A15" s="263">
         <v>5</v>
       </c>
-      <c r="B15" s="262"/>
+      <c r="B15" s="251"/>
       <c r="C15" s="269" t="s">
         <v>31</v>
       </c>
       <c r="D15" s="4"/>
-      <c r="E15" s="247" t="s">
+      <c r="E15" s="232" t="s">
         <v>27</v>
       </c>
-      <c r="F15" s="274"/>
-      <c r="G15" s="244"/>
-      <c r="H15" s="244"/>
-      <c r="I15" s="244"/>
-      <c r="J15" s="244"/>
-      <c r="K15" s="244"/>
-      <c r="L15" s="222"/>
-      <c r="M15" s="222"/>
+      <c r="F15" s="240"/>
+      <c r="G15" s="226"/>
+      <c r="H15" s="226"/>
+      <c r="I15" s="226"/>
+      <c r="J15" s="226"/>
+      <c r="K15" s="226"/>
+      <c r="L15" s="274"/>
+      <c r="M15" s="274"/>
     </row>
     <row r="16" spans="1:13" ht="15.75" customHeight="1" thickBot="1">
-      <c r="A16" s="287"/>
-      <c r="B16" s="264"/>
+      <c r="A16" s="267"/>
+      <c r="B16" s="256"/>
       <c r="C16" s="270"/>
       <c r="D16" s="5"/>
-      <c r="E16" s="248"/>
-      <c r="F16" s="275"/>
-      <c r="G16" s="245"/>
-      <c r="H16" s="245"/>
-      <c r="I16" s="245"/>
-      <c r="J16" s="245"/>
-      <c r="K16" s="245"/>
-      <c r="L16" s="227"/>
-      <c r="M16" s="227"/>
+      <c r="E16" s="280"/>
+      <c r="F16" s="276"/>
+      <c r="G16" s="273"/>
+      <c r="H16" s="273"/>
+      <c r="I16" s="273"/>
+      <c r="J16" s="273"/>
+      <c r="K16" s="273"/>
+      <c r="L16" s="275"/>
+      <c r="M16" s="275"/>
     </row>
     <row r="17" spans="1:13" ht="15.75" customHeight="1">
-      <c r="A17" s="288">
+      <c r="A17" s="253">
         <v>6</v>
       </c>
-      <c r="B17" s="261" t="s">
+      <c r="B17" s="250" t="s">
         <v>34</v>
       </c>
       <c r="C17" s="10" t="s">
         <v>35</v>
       </c>
       <c r="D17" s="3"/>
-      <c r="E17" s="278"/>
-      <c r="F17" s="256"/>
-      <c r="G17" s="256"/>
-      <c r="H17" s="257" t="s">
+      <c r="E17" s="233"/>
+      <c r="F17" s="277"/>
+      <c r="G17" s="277"/>
+      <c r="H17" s="234" t="s">
         <v>27</v>
       </c>
-      <c r="I17" s="257"/>
-      <c r="J17" s="257"/>
-      <c r="K17" s="257"/>
-      <c r="L17" s="231"/>
-      <c r="M17" s="231"/>
+      <c r="I17" s="234"/>
+      <c r="J17" s="234"/>
+      <c r="K17" s="234"/>
+      <c r="L17" s="299"/>
+      <c r="M17" s="299"/>
     </row>
     <row r="18" spans="1:13" ht="15.75" customHeight="1">
-      <c r="A18" s="267"/>
-      <c r="B18" s="262"/>
+      <c r="A18" s="242"/>
+      <c r="B18" s="251"/>
       <c r="C18" s="11" t="s">
         <v>37</v>
       </c>
       <c r="D18" s="4"/>
-      <c r="E18" s="239"/>
-      <c r="F18" s="242"/>
-      <c r="G18" s="242"/>
-      <c r="H18" s="246"/>
-      <c r="I18" s="246"/>
-      <c r="J18" s="246"/>
-      <c r="K18" s="246"/>
-      <c r="L18" s="226"/>
-      <c r="M18" s="226"/>
+      <c r="E18" s="225"/>
+      <c r="F18" s="229"/>
+      <c r="G18" s="229"/>
+      <c r="H18" s="235"/>
+      <c r="I18" s="235"/>
+      <c r="J18" s="235"/>
+      <c r="K18" s="235"/>
+      <c r="L18" s="285"/>
+      <c r="M18" s="285"/>
     </row>
     <row r="19" spans="1:13" ht="15.75" customHeight="1">
-      <c r="A19" s="267"/>
-      <c r="B19" s="262"/>
+      <c r="A19" s="242"/>
+      <c r="B19" s="251"/>
       <c r="C19" s="11" t="s">
         <v>38</v>
       </c>
       <c r="D19" s="4"/>
-      <c r="E19" s="239"/>
-      <c r="F19" s="242"/>
-      <c r="G19" s="242"/>
-      <c r="H19" s="246"/>
-      <c r="I19" s="246"/>
-      <c r="J19" s="246"/>
-      <c r="K19" s="246"/>
-      <c r="L19" s="226"/>
-      <c r="M19" s="226"/>
+      <c r="E19" s="225"/>
+      <c r="F19" s="229"/>
+      <c r="G19" s="229"/>
+      <c r="H19" s="235"/>
+      <c r="I19" s="235"/>
+      <c r="J19" s="235"/>
+      <c r="K19" s="235"/>
+      <c r="L19" s="285"/>
+      <c r="M19" s="285"/>
     </row>
     <row r="20" spans="1:13" ht="15.75" customHeight="1">
-      <c r="A20" s="259">
+      <c r="A20" s="243">
         <v>7</v>
       </c>
-      <c r="B20" s="262"/>
+      <c r="B20" s="251"/>
       <c r="C20" s="11" t="s">
         <v>39</v>
       </c>
       <c r="D20" s="4"/>
-      <c r="E20" s="247" t="s">
+      <c r="E20" s="232" t="s">
         <v>32</v>
       </c>
-      <c r="F20" s="255" t="s">
+      <c r="F20" s="287" t="s">
         <v>44</v>
       </c>
-      <c r="G20" s="255"/>
-      <c r="H20" s="255"/>
-      <c r="I20" s="255"/>
-      <c r="J20" s="255"/>
-      <c r="K20" s="255"/>
-      <c r="L20" s="232"/>
-      <c r="M20" s="232"/>
+      <c r="G20" s="287"/>
+      <c r="H20" s="287"/>
+      <c r="I20" s="287"/>
+      <c r="J20" s="287"/>
+      <c r="K20" s="287"/>
+      <c r="L20" s="288"/>
+      <c r="M20" s="288"/>
     </row>
     <row r="21" spans="1:13" ht="15.75" customHeight="1">
-      <c r="A21" s="259"/>
-      <c r="B21" s="262"/>
+      <c r="A21" s="243"/>
+      <c r="B21" s="251"/>
       <c r="C21" s="11" t="s">
         <v>41</v>
       </c>
       <c r="D21" s="4"/>
-      <c r="E21" s="247"/>
-      <c r="F21" s="255"/>
-      <c r="G21" s="255"/>
-      <c r="H21" s="255"/>
-      <c r="I21" s="255"/>
-      <c r="J21" s="255"/>
-      <c r="K21" s="255"/>
-      <c r="L21" s="232"/>
-      <c r="M21" s="232"/>
+      <c r="E21" s="232"/>
+      <c r="F21" s="287"/>
+      <c r="G21" s="287"/>
+      <c r="H21" s="287"/>
+      <c r="I21" s="287"/>
+      <c r="J21" s="287"/>
+      <c r="K21" s="287"/>
+      <c r="L21" s="288"/>
+      <c r="M21" s="288"/>
     </row>
     <row r="22" spans="1:13" ht="15.75" customHeight="1">
-      <c r="A22" s="259"/>
-      <c r="B22" s="262"/>
+      <c r="A22" s="243"/>
+      <c r="B22" s="251"/>
       <c r="C22" s="32" t="s">
         <v>42</v>
       </c>
       <c r="D22" s="4"/>
-      <c r="E22" s="247"/>
-      <c r="F22" s="255"/>
-      <c r="G22" s="255"/>
-      <c r="H22" s="255"/>
-      <c r="I22" s="255"/>
-      <c r="J22" s="255"/>
-      <c r="K22" s="255"/>
-      <c r="L22" s="232"/>
-      <c r="M22" s="232"/>
+      <c r="E22" s="232"/>
+      <c r="F22" s="287"/>
+      <c r="G22" s="287"/>
+      <c r="H22" s="287"/>
+      <c r="I22" s="287"/>
+      <c r="J22" s="287"/>
+      <c r="K22" s="287"/>
+      <c r="L22" s="288"/>
+      <c r="M22" s="288"/>
     </row>
     <row r="23" spans="1:13" ht="15.75" customHeight="1">
-      <c r="A23" s="267">
+      <c r="A23" s="242">
         <v>8</v>
       </c>
-      <c r="B23" s="262"/>
+      <c r="B23" s="251"/>
       <c r="C23" s="32" t="s">
         <v>43</v>
       </c>
       <c r="D23" s="4"/>
-      <c r="E23" s="239"/>
-      <c r="F23" s="242"/>
-      <c r="G23" s="250" t="s">
+      <c r="E23" s="225"/>
+      <c r="F23" s="229"/>
+      <c r="G23" s="228" t="s">
         <v>50</v>
       </c>
-      <c r="H23" s="246" t="s">
+      <c r="H23" s="235" t="s">
         <v>32</v>
       </c>
-      <c r="I23" s="246"/>
-      <c r="J23" s="246"/>
-      <c r="K23" s="246"/>
-      <c r="L23" s="226"/>
-      <c r="M23" s="226"/>
+      <c r="I23" s="235"/>
+      <c r="J23" s="235"/>
+      <c r="K23" s="235"/>
+      <c r="L23" s="285"/>
+      <c r="M23" s="285"/>
     </row>
     <row r="24" spans="1:13" ht="15.75" customHeight="1">
-      <c r="A24" s="267"/>
-      <c r="B24" s="262"/>
+      <c r="A24" s="242"/>
+      <c r="B24" s="251"/>
       <c r="C24" s="32" t="s">
         <v>45</v>
       </c>
       <c r="D24" s="4"/>
-      <c r="E24" s="239"/>
-      <c r="F24" s="242"/>
-      <c r="G24" s="250"/>
-      <c r="H24" s="246"/>
-      <c r="I24" s="246"/>
-      <c r="J24" s="246"/>
-      <c r="K24" s="246"/>
-      <c r="L24" s="226"/>
-      <c r="M24" s="226"/>
+      <c r="E24" s="225"/>
+      <c r="F24" s="229"/>
+      <c r="G24" s="228"/>
+      <c r="H24" s="235"/>
+      <c r="I24" s="235"/>
+      <c r="J24" s="235"/>
+      <c r="K24" s="235"/>
+      <c r="L24" s="285"/>
+      <c r="M24" s="285"/>
     </row>
     <row r="25" spans="1:13" ht="15.75" customHeight="1" thickBot="1">
-      <c r="A25" s="268"/>
-      <c r="B25" s="264"/>
+      <c r="A25" s="259"/>
+      <c r="B25" s="256"/>
       <c r="C25" s="33" t="s">
         <v>46</v>
       </c>
       <c r="D25" s="5"/>
-      <c r="E25" s="240"/>
-      <c r="F25" s="243"/>
-      <c r="G25" s="251"/>
-      <c r="H25" s="249"/>
-      <c r="I25" s="249"/>
-      <c r="J25" s="249"/>
-      <c r="K25" s="249"/>
-      <c r="L25" s="233"/>
-      <c r="M25" s="233"/>
+      <c r="E25" s="281"/>
+      <c r="F25" s="282"/>
+      <c r="G25" s="283"/>
+      <c r="H25" s="284"/>
+      <c r="I25" s="284"/>
+      <c r="J25" s="284"/>
+      <c r="K25" s="284"/>
+      <c r="L25" s="286"/>
+      <c r="M25" s="286"/>
     </row>
     <row r="26" spans="1:13" ht="15.75" customHeight="1">
-      <c r="A26" s="279">
+      <c r="A26" s="257">
         <v>9</v>
       </c>
-      <c r="B26" s="261" t="s">
+      <c r="B26" s="250" t="s">
         <v>47</v>
       </c>
       <c r="C26" s="12" t="s">
         <v>48</v>
       </c>
       <c r="D26" s="3"/>
-      <c r="E26" s="252" t="s">
+      <c r="E26" s="237" t="s">
         <v>40</v>
       </c>
-      <c r="F26" s="254" t="s">
+      <c r="F26" s="289" t="s">
         <v>53</v>
       </c>
-      <c r="G26" s="254"/>
-      <c r="H26" s="254"/>
-      <c r="I26" s="254"/>
-      <c r="J26" s="254"/>
-      <c r="K26" s="254"/>
-      <c r="L26" s="234"/>
-      <c r="M26" s="234"/>
+      <c r="G26" s="289"/>
+      <c r="H26" s="289"/>
+      <c r="I26" s="289"/>
+      <c r="J26" s="289"/>
+      <c r="K26" s="289"/>
+      <c r="L26" s="290"/>
+      <c r="M26" s="290"/>
     </row>
     <row r="27" spans="1:13" ht="15.75" customHeight="1">
-      <c r="A27" s="280"/>
-      <c r="B27" s="262"/>
+      <c r="A27" s="258"/>
+      <c r="B27" s="251"/>
       <c r="C27" s="13" t="s">
         <v>51</v>
       </c>
       <c r="D27" s="4"/>
-      <c r="E27" s="247"/>
-      <c r="F27" s="255"/>
-      <c r="G27" s="255"/>
-      <c r="H27" s="255"/>
-      <c r="I27" s="255"/>
-      <c r="J27" s="255"/>
-      <c r="K27" s="255"/>
-      <c r="L27" s="232"/>
-      <c r="M27" s="232"/>
+      <c r="E27" s="232"/>
+      <c r="F27" s="287"/>
+      <c r="G27" s="287"/>
+      <c r="H27" s="287"/>
+      <c r="I27" s="287"/>
+      <c r="J27" s="287"/>
+      <c r="K27" s="287"/>
+      <c r="L27" s="288"/>
+      <c r="M27" s="288"/>
     </row>
     <row r="28" spans="1:13" ht="15.75" customHeight="1">
-      <c r="A28" s="268">
+      <c r="A28" s="259">
         <v>10</v>
       </c>
-      <c r="B28" s="262"/>
+      <c r="B28" s="251"/>
       <c r="C28" s="13" t="s">
         <v>52</v>
       </c>
       <c r="D28" s="4"/>
-      <c r="E28" s="239"/>
-      <c r="F28" s="246" t="s">
+      <c r="E28" s="225"/>
+      <c r="F28" s="235" t="s">
         <v>59</v>
       </c>
-      <c r="G28" s="246"/>
-      <c r="H28" s="246" t="s">
+      <c r="G28" s="235"/>
+      <c r="H28" s="235" t="s">
         <v>40</v>
       </c>
-      <c r="I28" s="246"/>
-      <c r="J28" s="246"/>
-      <c r="K28" s="246"/>
-      <c r="L28" s="226"/>
-      <c r="M28" s="226"/>
+      <c r="I28" s="235"/>
+      <c r="J28" s="235"/>
+      <c r="K28" s="235"/>
+      <c r="L28" s="285"/>
+      <c r="M28" s="285"/>
     </row>
     <row r="29" spans="1:13" ht="15.75" customHeight="1">
-      <c r="A29" s="281"/>
-      <c r="B29" s="262"/>
+      <c r="A29" s="260"/>
+      <c r="B29" s="251"/>
       <c r="C29" s="13" t="s">
         <v>54</v>
       </c>
       <c r="D29" s="4"/>
-      <c r="E29" s="239"/>
-      <c r="F29" s="246"/>
-      <c r="G29" s="246"/>
-      <c r="H29" s="246"/>
-      <c r="I29" s="246"/>
-      <c r="J29" s="246"/>
-      <c r="K29" s="246"/>
-      <c r="L29" s="226"/>
-      <c r="M29" s="226"/>
+      <c r="E29" s="225"/>
+      <c r="F29" s="235"/>
+      <c r="G29" s="235"/>
+      <c r="H29" s="235"/>
+      <c r="I29" s="235"/>
+      <c r="J29" s="235"/>
+      <c r="K29" s="235"/>
+      <c r="L29" s="285"/>
+      <c r="M29" s="285"/>
     </row>
     <row r="30" spans="1:13" ht="15.75" customHeight="1">
-      <c r="A30" s="282">
+      <c r="A30" s="261">
         <v>11</v>
       </c>
-      <c r="B30" s="262"/>
+      <c r="B30" s="251"/>
       <c r="C30" s="13" t="s">
         <v>55</v>
       </c>
       <c r="D30" s="4"/>
-      <c r="E30" s="247" t="s">
+      <c r="E30" s="232" t="s">
         <v>49</v>
       </c>
-      <c r="F30" s="244"/>
-      <c r="G30" s="244"/>
-      <c r="H30" s="244"/>
-      <c r="I30" s="244"/>
-      <c r="J30" s="244"/>
-      <c r="K30" s="244"/>
-      <c r="L30" s="222"/>
-      <c r="M30" s="222"/>
+      <c r="F30" s="226"/>
+      <c r="G30" s="226"/>
+      <c r="H30" s="226"/>
+      <c r="I30" s="226"/>
+      <c r="J30" s="226"/>
+      <c r="K30" s="226"/>
+      <c r="L30" s="274"/>
+      <c r="M30" s="274"/>
     </row>
     <row r="31" spans="1:13" ht="15.75" customHeight="1">
-      <c r="A31" s="280"/>
-      <c r="B31" s="262"/>
+      <c r="A31" s="258"/>
+      <c r="B31" s="251"/>
       <c r="C31" s="14" t="s">
         <v>57</v>
       </c>
       <c r="D31" s="4"/>
-      <c r="E31" s="247"/>
-      <c r="F31" s="244"/>
-      <c r="G31" s="244"/>
-      <c r="H31" s="244"/>
-      <c r="I31" s="244"/>
-      <c r="J31" s="244"/>
-      <c r="K31" s="244"/>
-      <c r="L31" s="222"/>
-      <c r="M31" s="222"/>
+      <c r="E31" s="232"/>
+      <c r="F31" s="226"/>
+      <c r="G31" s="226"/>
+      <c r="H31" s="226"/>
+      <c r="I31" s="226"/>
+      <c r="J31" s="226"/>
+      <c r="K31" s="226"/>
+      <c r="L31" s="274"/>
+      <c r="M31" s="274"/>
     </row>
     <row r="32" spans="1:13" ht="15.75" customHeight="1">
-      <c r="A32" s="268">
+      <c r="A32" s="259">
         <v>12</v>
       </c>
-      <c r="B32" s="262"/>
+      <c r="B32" s="251"/>
       <c r="C32" s="14" t="s">
         <v>58</v>
       </c>
       <c r="D32" s="4"/>
-      <c r="E32" s="239"/>
-      <c r="F32" s="246" t="s">
+      <c r="E32" s="225"/>
+      <c r="F32" s="235" t="s">
         <v>67</v>
       </c>
-      <c r="G32" s="250" t="s">
+      <c r="G32" s="228" t="s">
         <v>64</v>
       </c>
-      <c r="H32" s="246" t="s">
+      <c r="H32" s="235" t="s">
         <v>49</v>
       </c>
-      <c r="I32" s="246"/>
-      <c r="J32" s="246"/>
-      <c r="K32" s="246"/>
-      <c r="L32" s="226"/>
-      <c r="M32" s="226"/>
+      <c r="I32" s="235"/>
+      <c r="J32" s="235"/>
+      <c r="K32" s="235"/>
+      <c r="L32" s="285"/>
+      <c r="M32" s="285"/>
     </row>
     <row r="33" spans="1:13" ht="15.75" customHeight="1" thickBot="1">
-      <c r="A33" s="283"/>
-      <c r="B33" s="264"/>
+      <c r="A33" s="262"/>
+      <c r="B33" s="256"/>
       <c r="C33" s="15" t="s">
         <v>60</v>
       </c>
       <c r="D33" s="5"/>
-      <c r="E33" s="240"/>
-      <c r="F33" s="249"/>
-      <c r="G33" s="251"/>
-      <c r="H33" s="249"/>
-      <c r="I33" s="249"/>
-      <c r="J33" s="249"/>
-      <c r="K33" s="249"/>
-      <c r="L33" s="233"/>
-      <c r="M33" s="233"/>
+      <c r="E33" s="281"/>
+      <c r="F33" s="284"/>
+      <c r="G33" s="283"/>
+      <c r="H33" s="284"/>
+      <c r="I33" s="284"/>
+      <c r="J33" s="284"/>
+      <c r="K33" s="284"/>
+      <c r="L33" s="286"/>
+      <c r="M33" s="286"/>
     </row>
     <row r="34" spans="1:13" ht="15.75" customHeight="1">
-      <c r="A34" s="258">
+      <c r="A34" s="255">
         <v>13</v>
       </c>
-      <c r="B34" s="261" t="s">
+      <c r="B34" s="250" t="s">
         <v>61</v>
       </c>
       <c r="C34" s="16" t="s">
         <v>62</v>
       </c>
       <c r="D34" s="3"/>
-      <c r="E34" s="252" t="s">
+      <c r="E34" s="237" t="s">
         <v>56</v>
       </c>
-      <c r="F34" s="253"/>
-      <c r="G34" s="253"/>
-      <c r="H34" s="253"/>
-      <c r="I34" s="253"/>
-      <c r="J34" s="253"/>
-      <c r="K34" s="253"/>
-      <c r="L34" s="225"/>
-      <c r="M34" s="225"/>
+      <c r="F34" s="230"/>
+      <c r="G34" s="230"/>
+      <c r="H34" s="230"/>
+      <c r="I34" s="230"/>
+      <c r="J34" s="230"/>
+      <c r="K34" s="230"/>
+      <c r="L34" s="291"/>
+      <c r="M34" s="291"/>
     </row>
     <row r="35" spans="1:13" ht="15.75" customHeight="1">
-      <c r="A35" s="259"/>
-      <c r="B35" s="262"/>
+      <c r="A35" s="243"/>
+      <c r="B35" s="251"/>
       <c r="C35" s="17" t="s">
         <v>65</v>
       </c>
       <c r="D35" s="4"/>
-      <c r="E35" s="247"/>
-      <c r="F35" s="244"/>
-      <c r="G35" s="244"/>
-      <c r="H35" s="244"/>
-      <c r="I35" s="244"/>
-      <c r="J35" s="244"/>
-      <c r="K35" s="244"/>
-      <c r="L35" s="222"/>
-      <c r="M35" s="222"/>
+      <c r="E35" s="232"/>
+      <c r="F35" s="226"/>
+      <c r="G35" s="226"/>
+      <c r="H35" s="226"/>
+      <c r="I35" s="226"/>
+      <c r="J35" s="226"/>
+      <c r="K35" s="226"/>
+      <c r="L35" s="274"/>
+      <c r="M35" s="274"/>
     </row>
     <row r="36" spans="1:13" ht="15.75" customHeight="1">
-      <c r="A36" s="267">
+      <c r="A36" s="242">
         <v>14</v>
       </c>
-      <c r="B36" s="262"/>
+      <c r="B36" s="251"/>
       <c r="C36" s="17" t="s">
         <v>66</v>
       </c>
       <c r="D36" s="4"/>
-      <c r="E36" s="239"/>
-      <c r="F36" s="242" t="s">
+      <c r="E36" s="225"/>
+      <c r="F36" s="229" t="s">
         <v>73</v>
       </c>
-      <c r="G36" s="242"/>
-      <c r="H36" s="242" t="s">
+      <c r="G36" s="229"/>
+      <c r="H36" s="229" t="s">
         <v>56</v>
       </c>
-      <c r="I36" s="242"/>
-      <c r="J36" s="242"/>
-      <c r="K36" s="242"/>
-      <c r="L36" s="223"/>
-      <c r="M36" s="223"/>
+      <c r="I36" s="229"/>
+      <c r="J36" s="229"/>
+      <c r="K36" s="229"/>
+      <c r="L36" s="292"/>
+      <c r="M36" s="292"/>
     </row>
     <row r="37" spans="1:13" ht="15.75" customHeight="1">
-      <c r="A37" s="267"/>
-      <c r="B37" s="262"/>
+      <c r="A37" s="242"/>
+      <c r="B37" s="251"/>
       <c r="C37" s="17" t="s">
         <v>68</v>
       </c>
       <c r="D37" s="4"/>
-      <c r="E37" s="239"/>
-      <c r="F37" s="242"/>
-      <c r="G37" s="242"/>
-      <c r="H37" s="242"/>
-      <c r="I37" s="242"/>
-      <c r="J37" s="242"/>
-      <c r="K37" s="242"/>
-      <c r="L37" s="223"/>
-      <c r="M37" s="223"/>
+      <c r="E37" s="225"/>
+      <c r="F37" s="229"/>
+      <c r="G37" s="229"/>
+      <c r="H37" s="229"/>
+      <c r="I37" s="229"/>
+      <c r="J37" s="229"/>
+      <c r="K37" s="229"/>
+      <c r="L37" s="292"/>
+      <c r="M37" s="292"/>
     </row>
     <row r="38" spans="1:13" ht="15.75" customHeight="1">
-      <c r="A38" s="259">
+      <c r="A38" s="243">
         <v>15</v>
       </c>
-      <c r="B38" s="262"/>
+      <c r="B38" s="251"/>
       <c r="C38" s="17" t="s">
         <v>69</v>
       </c>
       <c r="D38" s="4"/>
-      <c r="E38" s="247" t="s">
+      <c r="E38" s="232" t="s">
         <v>63</v>
       </c>
-      <c r="F38" s="244"/>
-      <c r="G38" s="244"/>
-      <c r="H38" s="244"/>
-      <c r="I38" s="244"/>
-      <c r="J38" s="244"/>
-      <c r="K38" s="244"/>
-      <c r="L38" s="222"/>
-      <c r="M38" s="222"/>
+      <c r="F38" s="226"/>
+      <c r="G38" s="226"/>
+      <c r="H38" s="226"/>
+      <c r="I38" s="226"/>
+      <c r="J38" s="226"/>
+      <c r="K38" s="226"/>
+      <c r="L38" s="274"/>
+      <c r="M38" s="274"/>
     </row>
     <row r="39" spans="1:13" ht="15.75" customHeight="1">
-      <c r="A39" s="259"/>
-      <c r="B39" s="262"/>
+      <c r="A39" s="243"/>
+      <c r="B39" s="251"/>
       <c r="C39" s="32" t="s">
         <v>71</v>
       </c>
       <c r="D39" s="4"/>
-      <c r="E39" s="247"/>
-      <c r="F39" s="244"/>
-      <c r="G39" s="244"/>
-      <c r="H39" s="244"/>
-      <c r="I39" s="244"/>
-      <c r="J39" s="244"/>
-      <c r="K39" s="244"/>
-      <c r="L39" s="222"/>
-      <c r="M39" s="222"/>
+      <c r="E39" s="232"/>
+      <c r="F39" s="226"/>
+      <c r="G39" s="226"/>
+      <c r="H39" s="226"/>
+      <c r="I39" s="226"/>
+      <c r="J39" s="226"/>
+      <c r="K39" s="226"/>
+      <c r="L39" s="274"/>
+      <c r="M39" s="274"/>
     </row>
     <row r="40" spans="1:13" ht="15.75" customHeight="1">
-      <c r="A40" s="267">
+      <c r="A40" s="242">
         <v>16</v>
       </c>
-      <c r="B40" s="262"/>
+      <c r="B40" s="251"/>
       <c r="C40" s="32" t="s">
         <v>72</v>
       </c>
       <c r="D40" s="4"/>
-      <c r="E40" s="239"/>
-      <c r="F40" s="246" t="s">
+      <c r="E40" s="225"/>
+      <c r="F40" s="235" t="s">
         <v>82</v>
       </c>
-      <c r="G40" s="250" t="s">
+      <c r="G40" s="228" t="s">
         <v>79</v>
       </c>
-      <c r="H40" s="242" t="s">
+      <c r="H40" s="229" t="s">
         <v>63</v>
       </c>
-      <c r="I40" s="242"/>
-      <c r="J40" s="242"/>
-      <c r="K40" s="242"/>
-      <c r="L40" s="223"/>
-      <c r="M40" s="223"/>
+      <c r="I40" s="229"/>
+      <c r="J40" s="229"/>
+      <c r="K40" s="229"/>
+      <c r="L40" s="292"/>
+      <c r="M40" s="292"/>
     </row>
     <row r="41" spans="1:13" ht="15.75" customHeight="1">
-      <c r="A41" s="267"/>
-      <c r="B41" s="262"/>
+      <c r="A41" s="242"/>
+      <c r="B41" s="251"/>
       <c r="C41" s="32" t="s">
         <v>74</v>
       </c>
       <c r="D41" s="4"/>
-      <c r="E41" s="239"/>
-      <c r="F41" s="246"/>
-      <c r="G41" s="250"/>
-      <c r="H41" s="242"/>
-      <c r="I41" s="242"/>
-      <c r="J41" s="242"/>
-      <c r="K41" s="242"/>
-      <c r="L41" s="223"/>
-      <c r="M41" s="223"/>
+      <c r="E41" s="225"/>
+      <c r="F41" s="235"/>
+      <c r="G41" s="228"/>
+      <c r="H41" s="229"/>
+      <c r="I41" s="229"/>
+      <c r="J41" s="229"/>
+      <c r="K41" s="229"/>
+      <c r="L41" s="292"/>
+      <c r="M41" s="292"/>
     </row>
     <row r="42" spans="1:13" ht="15.75" customHeight="1" thickBot="1">
-      <c r="A42" s="294"/>
-      <c r="B42" s="263"/>
+      <c r="A42" s="254"/>
+      <c r="B42" s="252"/>
       <c r="C42" s="9" t="s">
         <v>75</v>
       </c>
       <c r="D42" s="5"/>
-      <c r="E42" s="240"/>
-      <c r="F42" s="249"/>
-      <c r="G42" s="251"/>
-      <c r="H42" s="243"/>
-      <c r="I42" s="243"/>
-      <c r="J42" s="243"/>
-      <c r="K42" s="243"/>
-      <c r="L42" s="224"/>
-      <c r="M42" s="224"/>
+      <c r="E42" s="281"/>
+      <c r="F42" s="284"/>
+      <c r="G42" s="283"/>
+      <c r="H42" s="282"/>
+      <c r="I42" s="282"/>
+      <c r="J42" s="282"/>
+      <c r="K42" s="282"/>
+      <c r="L42" s="293"/>
+      <c r="M42" s="293"/>
     </row>
     <row r="43" spans="1:13" ht="15.75" customHeight="1">
-      <c r="A43" s="258">
+      <c r="A43" s="255">
         <v>17</v>
       </c>
-      <c r="B43" s="289" t="s">
+      <c r="B43" s="245" t="s">
         <v>76</v>
       </c>
       <c r="C43" s="10" t="s">
         <v>77</v>
       </c>
       <c r="D43" s="3"/>
-      <c r="E43" s="252" t="s">
+      <c r="E43" s="237" t="s">
         <v>70</v>
       </c>
-      <c r="F43" s="253"/>
-      <c r="G43" s="253"/>
-      <c r="H43" s="253"/>
-      <c r="I43" s="253"/>
-      <c r="J43" s="253"/>
-      <c r="K43" s="253"/>
-      <c r="L43" s="225"/>
-      <c r="M43" s="225"/>
+      <c r="F43" s="230"/>
+      <c r="G43" s="230"/>
+      <c r="H43" s="230"/>
+      <c r="I43" s="230"/>
+      <c r="J43" s="230"/>
+      <c r="K43" s="230"/>
+      <c r="L43" s="291"/>
+      <c r="M43" s="291"/>
     </row>
     <row r="44" spans="1:13" ht="15.75" customHeight="1">
-      <c r="A44" s="259"/>
-      <c r="B44" s="290"/>
+      <c r="A44" s="243"/>
+      <c r="B44" s="246"/>
       <c r="C44" s="11" t="s">
         <v>80</v>
       </c>
       <c r="D44" s="4"/>
-      <c r="E44" s="247"/>
-      <c r="F44" s="244"/>
-      <c r="G44" s="244"/>
-      <c r="H44" s="244"/>
-      <c r="I44" s="244"/>
-      <c r="J44" s="244"/>
-      <c r="K44" s="244"/>
-      <c r="L44" s="222"/>
-      <c r="M44" s="222"/>
+      <c r="E44" s="232"/>
+      <c r="F44" s="226"/>
+      <c r="G44" s="226"/>
+      <c r="H44" s="226"/>
+      <c r="I44" s="226"/>
+      <c r="J44" s="226"/>
+      <c r="K44" s="226"/>
+      <c r="L44" s="274"/>
+      <c r="M44" s="274"/>
     </row>
     <row r="45" spans="1:13" ht="15.75" customHeight="1">
-      <c r="A45" s="267">
+      <c r="A45" s="242">
         <v>18</v>
       </c>
-      <c r="B45" s="290"/>
+      <c r="B45" s="246"/>
       <c r="C45" s="11" t="s">
         <v>81</v>
       </c>
       <c r="D45" s="4"/>
-      <c r="E45" s="239"/>
-      <c r="F45" s="246" t="s">
+      <c r="E45" s="225"/>
+      <c r="F45" s="235" t="s">
         <v>197</v>
       </c>
-      <c r="G45" s="242"/>
-      <c r="H45" s="246" t="s">
+      <c r="G45" s="229"/>
+      <c r="H45" s="235" t="s">
         <v>70</v>
       </c>
-      <c r="I45" s="246"/>
-      <c r="J45" s="246"/>
-      <c r="K45" s="246"/>
-      <c r="L45" s="226"/>
-      <c r="M45" s="226"/>
+      <c r="I45" s="235"/>
+      <c r="J45" s="235"/>
+      <c r="K45" s="235"/>
+      <c r="L45" s="285"/>
+      <c r="M45" s="285"/>
     </row>
     <row r="46" spans="1:13" ht="15.75" customHeight="1">
-      <c r="A46" s="267"/>
-      <c r="B46" s="290"/>
+      <c r="A46" s="242"/>
+      <c r="B46" s="246"/>
       <c r="C46" s="11" t="s">
         <v>83</v>
       </c>
       <c r="D46" s="4"/>
-      <c r="E46" s="239"/>
-      <c r="F46" s="246"/>
-      <c r="G46" s="242"/>
-      <c r="H46" s="246"/>
-      <c r="I46" s="246"/>
-      <c r="J46" s="246"/>
-      <c r="K46" s="246"/>
-      <c r="L46" s="226"/>
-      <c r="M46" s="226"/>
+      <c r="E46" s="225"/>
+      <c r="F46" s="235"/>
+      <c r="G46" s="229"/>
+      <c r="H46" s="235"/>
+      <c r="I46" s="235"/>
+      <c r="J46" s="235"/>
+      <c r="K46" s="235"/>
+      <c r="L46" s="285"/>
+      <c r="M46" s="285"/>
     </row>
     <row r="47" spans="1:13" ht="15.75" customHeight="1">
-      <c r="A47" s="259">
+      <c r="A47" s="243">
         <v>19</v>
       </c>
-      <c r="B47" s="290"/>
-      <c r="C47" s="292" t="s">
+      <c r="B47" s="246"/>
+      <c r="C47" s="248" t="s">
         <v>84</v>
       </c>
       <c r="D47" s="4"/>
-      <c r="E47" s="247" t="s">
+      <c r="E47" s="232" t="s">
         <v>78</v>
       </c>
-      <c r="F47" s="244"/>
-      <c r="G47" s="244"/>
-      <c r="H47" s="244"/>
-      <c r="I47" s="244"/>
-      <c r="J47" s="244"/>
-      <c r="K47" s="244"/>
-      <c r="L47" s="222"/>
-      <c r="M47" s="222"/>
+      <c r="F47" s="226"/>
+      <c r="G47" s="226"/>
+      <c r="H47" s="226"/>
+      <c r="I47" s="226"/>
+      <c r="J47" s="226"/>
+      <c r="K47" s="226"/>
+      <c r="L47" s="274"/>
+      <c r="M47" s="274"/>
     </row>
     <row r="48" spans="1:13" ht="15.75" customHeight="1" thickBot="1">
-      <c r="A48" s="260"/>
-      <c r="B48" s="291"/>
-      <c r="C48" s="293"/>
+      <c r="A48" s="244"/>
+      <c r="B48" s="247"/>
+      <c r="C48" s="249"/>
       <c r="D48" s="5"/>
-      <c r="E48" s="248"/>
-      <c r="F48" s="245"/>
-      <c r="G48" s="245"/>
-      <c r="H48" s="245"/>
-      <c r="I48" s="245"/>
-      <c r="J48" s="245"/>
-      <c r="K48" s="245"/>
-      <c r="L48" s="227"/>
-      <c r="M48" s="227"/>
+      <c r="E48" s="280"/>
+      <c r="F48" s="273"/>
+      <c r="G48" s="273"/>
+      <c r="H48" s="273"/>
+      <c r="I48" s="273"/>
+      <c r="J48" s="273"/>
+      <c r="K48" s="273"/>
+      <c r="L48" s="275"/>
+      <c r="M48" s="275"/>
     </row>
     <row r="49" spans="1:13" ht="15.75" customHeight="1">
-      <c r="A49" s="288">
+      <c r="A49" s="253">
         <v>20</v>
       </c>
-      <c r="B49" s="261" t="s">
+      <c r="B49" s="250" t="s">
         <v>85</v>
       </c>
       <c r="C49" s="10" t="s">
         <v>86</v>
       </c>
       <c r="D49" s="6"/>
-      <c r="E49" s="238"/>
-      <c r="F49" s="241"/>
-      <c r="G49" s="241"/>
-      <c r="H49" s="241" t="s">
+      <c r="E49" s="294"/>
+      <c r="F49" s="295"/>
+      <c r="G49" s="295"/>
+      <c r="H49" s="295" t="s">
         <v>78</v>
       </c>
-      <c r="I49" s="241"/>
-      <c r="J49" s="241"/>
-      <c r="K49" s="241"/>
-      <c r="L49" s="228"/>
-      <c r="M49" s="228"/>
+      <c r="I49" s="295"/>
+      <c r="J49" s="295"/>
+      <c r="K49" s="295"/>
+      <c r="L49" s="296"/>
+      <c r="M49" s="296"/>
     </row>
     <row r="50" spans="1:13" ht="15.75" customHeight="1">
-      <c r="A50" s="267"/>
-      <c r="B50" s="262"/>
+      <c r="A50" s="242"/>
+      <c r="B50" s="251"/>
       <c r="C50" s="11" t="s">
         <v>87</v>
       </c>
       <c r="D50" s="4"/>
-      <c r="E50" s="239"/>
-      <c r="F50" s="242"/>
-      <c r="G50" s="242"/>
-      <c r="H50" s="242"/>
-      <c r="I50" s="242"/>
-      <c r="J50" s="242"/>
-      <c r="K50" s="242"/>
-      <c r="L50" s="223"/>
-      <c r="M50" s="223"/>
+      <c r="E50" s="225"/>
+      <c r="F50" s="229"/>
+      <c r="G50" s="229"/>
+      <c r="H50" s="229"/>
+      <c r="I50" s="229"/>
+      <c r="J50" s="229"/>
+      <c r="K50" s="229"/>
+      <c r="L50" s="292"/>
+      <c r="M50" s="292"/>
     </row>
     <row r="51" spans="1:13" ht="15.75" customHeight="1">
-      <c r="A51" s="267"/>
-      <c r="B51" s="262"/>
+      <c r="A51" s="242"/>
+      <c r="B51" s="251"/>
       <c r="C51" s="11" t="s">
         <v>88</v>
       </c>
       <c r="D51" s="4"/>
-      <c r="E51" s="239"/>
-      <c r="F51" s="242"/>
-      <c r="G51" s="242"/>
-      <c r="H51" s="242"/>
-      <c r="I51" s="242"/>
-      <c r="J51" s="242"/>
-      <c r="K51" s="242"/>
-      <c r="L51" s="223"/>
-      <c r="M51" s="223"/>
+      <c r="E51" s="225"/>
+      <c r="F51" s="229"/>
+      <c r="G51" s="229"/>
+      <c r="H51" s="229"/>
+      <c r="I51" s="229"/>
+      <c r="J51" s="229"/>
+      <c r="K51" s="229"/>
+      <c r="L51" s="292"/>
+      <c r="M51" s="292"/>
     </row>
     <row r="52" spans="1:13" ht="15.75" customHeight="1" thickBot="1">
-      <c r="A52" s="294"/>
-      <c r="B52" s="263"/>
+      <c r="A52" s="254"/>
+      <c r="B52" s="252"/>
       <c r="C52" s="18" t="s">
         <v>89</v>
       </c>
       <c r="D52" s="5"/>
-      <c r="E52" s="240"/>
-      <c r="F52" s="243"/>
-      <c r="G52" s="243"/>
-      <c r="H52" s="243"/>
-      <c r="I52" s="243"/>
-      <c r="J52" s="243"/>
-      <c r="K52" s="243"/>
-      <c r="L52" s="224"/>
-      <c r="M52" s="224"/>
+      <c r="E52" s="281"/>
+      <c r="F52" s="282"/>
+      <c r="G52" s="282"/>
+      <c r="H52" s="282"/>
+      <c r="I52" s="282"/>
+      <c r="J52" s="282"/>
+      <c r="K52" s="282"/>
+      <c r="L52" s="293"/>
+      <c r="M52" s="293"/>
     </row>
     <row r="55" spans="1:13" ht="15" thickBot="1"/>
     <row r="56" spans="1:13" ht="15" thickBot="1">
@@ -15652,49 +15854,150 @@
     </row>
   </sheetData>
   <mergeCells count="211">
-    <mergeCell ref="I1:K1"/>
-    <mergeCell ref="E13:E14"/>
-    <mergeCell ref="H11:H12"/>
-    <mergeCell ref="F13:F14"/>
-    <mergeCell ref="G13:G14"/>
-    <mergeCell ref="H13:H14"/>
-    <mergeCell ref="I13:I14"/>
-    <mergeCell ref="J13:J14"/>
-    <mergeCell ref="K13:K14"/>
-    <mergeCell ref="J2:J8"/>
-    <mergeCell ref="K2:K8"/>
-    <mergeCell ref="E11:E12"/>
-    <mergeCell ref="E9:E10"/>
-    <mergeCell ref="F9:F10"/>
-    <mergeCell ref="G9:G10"/>
-    <mergeCell ref="E2:E8"/>
-    <mergeCell ref="F2:F8"/>
-    <mergeCell ref="G2:G8"/>
-    <mergeCell ref="H2:H8"/>
-    <mergeCell ref="I2:I8"/>
-    <mergeCell ref="I11:I12"/>
-    <mergeCell ref="A45:A46"/>
-    <mergeCell ref="A47:A48"/>
-    <mergeCell ref="B43:B48"/>
-    <mergeCell ref="C47:C48"/>
-    <mergeCell ref="B49:B52"/>
-    <mergeCell ref="A49:A52"/>
-    <mergeCell ref="A34:A35"/>
-    <mergeCell ref="A36:A37"/>
-    <mergeCell ref="A38:A39"/>
-    <mergeCell ref="A40:A42"/>
-    <mergeCell ref="B34:B42"/>
-    <mergeCell ref="A43:A44"/>
-    <mergeCell ref="B26:B33"/>
-    <mergeCell ref="A26:A27"/>
-    <mergeCell ref="A28:A29"/>
-    <mergeCell ref="A30:A31"/>
-    <mergeCell ref="A32:A33"/>
-    <mergeCell ref="A11:A12"/>
-    <mergeCell ref="A13:A14"/>
-    <mergeCell ref="A15:A16"/>
-    <mergeCell ref="A17:A19"/>
-    <mergeCell ref="A20:A22"/>
+    <mergeCell ref="M38:M39"/>
+    <mergeCell ref="M40:M42"/>
+    <mergeCell ref="M43:M44"/>
+    <mergeCell ref="M45:M46"/>
+    <mergeCell ref="M47:M48"/>
+    <mergeCell ref="M49:M52"/>
+    <mergeCell ref="L1:M1"/>
+    <mergeCell ref="M17:M19"/>
+    <mergeCell ref="M20:M22"/>
+    <mergeCell ref="M23:M25"/>
+    <mergeCell ref="M26:M27"/>
+    <mergeCell ref="M28:M29"/>
+    <mergeCell ref="M30:M31"/>
+    <mergeCell ref="M32:M33"/>
+    <mergeCell ref="M34:M35"/>
+    <mergeCell ref="M36:M37"/>
+    <mergeCell ref="M2:M8"/>
+    <mergeCell ref="M9:M10"/>
+    <mergeCell ref="M11:M12"/>
+    <mergeCell ref="M13:M14"/>
+    <mergeCell ref="M15:M16"/>
+    <mergeCell ref="L17:L19"/>
+    <mergeCell ref="L13:L14"/>
+    <mergeCell ref="L2:L8"/>
+    <mergeCell ref="E49:E52"/>
+    <mergeCell ref="F49:F52"/>
+    <mergeCell ref="G49:G52"/>
+    <mergeCell ref="H49:H52"/>
+    <mergeCell ref="I49:I52"/>
+    <mergeCell ref="J49:J52"/>
+    <mergeCell ref="K49:K52"/>
+    <mergeCell ref="L49:L52"/>
+    <mergeCell ref="F47:F48"/>
+    <mergeCell ref="G47:G48"/>
+    <mergeCell ref="H47:H48"/>
+    <mergeCell ref="I47:I48"/>
+    <mergeCell ref="J47:J48"/>
+    <mergeCell ref="E45:E46"/>
+    <mergeCell ref="F45:F46"/>
+    <mergeCell ref="G45:G46"/>
+    <mergeCell ref="H45:H46"/>
+    <mergeCell ref="I45:I46"/>
+    <mergeCell ref="J45:J46"/>
+    <mergeCell ref="K45:K46"/>
+    <mergeCell ref="L45:L46"/>
+    <mergeCell ref="E47:E48"/>
+    <mergeCell ref="K47:K48"/>
+    <mergeCell ref="L47:L48"/>
+    <mergeCell ref="E40:E42"/>
+    <mergeCell ref="F40:F42"/>
+    <mergeCell ref="G40:G42"/>
+    <mergeCell ref="H40:H42"/>
+    <mergeCell ref="I40:I42"/>
+    <mergeCell ref="J40:J42"/>
+    <mergeCell ref="K40:K42"/>
+    <mergeCell ref="L40:L42"/>
+    <mergeCell ref="E43:E44"/>
+    <mergeCell ref="K43:K44"/>
+    <mergeCell ref="L43:L44"/>
+    <mergeCell ref="F43:F44"/>
+    <mergeCell ref="G43:G44"/>
+    <mergeCell ref="H43:H44"/>
+    <mergeCell ref="I43:I44"/>
+    <mergeCell ref="J43:J44"/>
+    <mergeCell ref="E38:E39"/>
+    <mergeCell ref="F34:F35"/>
+    <mergeCell ref="G34:G35"/>
+    <mergeCell ref="H34:H35"/>
+    <mergeCell ref="I34:I35"/>
+    <mergeCell ref="J34:J35"/>
+    <mergeCell ref="E34:E35"/>
+    <mergeCell ref="K38:K39"/>
+    <mergeCell ref="L38:L39"/>
+    <mergeCell ref="F38:F39"/>
+    <mergeCell ref="G38:G39"/>
+    <mergeCell ref="H38:H39"/>
+    <mergeCell ref="I38:I39"/>
+    <mergeCell ref="J38:J39"/>
+    <mergeCell ref="K34:K35"/>
+    <mergeCell ref="L34:L35"/>
+    <mergeCell ref="E36:E37"/>
+    <mergeCell ref="F36:F37"/>
+    <mergeCell ref="G36:G37"/>
+    <mergeCell ref="H36:H37"/>
+    <mergeCell ref="I36:I37"/>
+    <mergeCell ref="J36:J37"/>
+    <mergeCell ref="K36:K37"/>
+    <mergeCell ref="L36:L37"/>
+    <mergeCell ref="E32:E33"/>
+    <mergeCell ref="F32:F33"/>
+    <mergeCell ref="G32:G33"/>
+    <mergeCell ref="H32:H33"/>
+    <mergeCell ref="I32:I33"/>
+    <mergeCell ref="J32:J33"/>
+    <mergeCell ref="K32:K33"/>
+    <mergeCell ref="L32:L33"/>
+    <mergeCell ref="F30:F31"/>
+    <mergeCell ref="G30:G31"/>
+    <mergeCell ref="H30:H31"/>
+    <mergeCell ref="I30:I31"/>
+    <mergeCell ref="J30:J31"/>
+    <mergeCell ref="E30:E31"/>
+    <mergeCell ref="F26:F27"/>
+    <mergeCell ref="G26:G27"/>
+    <mergeCell ref="H26:H27"/>
+    <mergeCell ref="I26:I27"/>
+    <mergeCell ref="J26:J27"/>
+    <mergeCell ref="E26:E27"/>
+    <mergeCell ref="K30:K31"/>
+    <mergeCell ref="L30:L31"/>
+    <mergeCell ref="K26:K27"/>
+    <mergeCell ref="L26:L27"/>
+    <mergeCell ref="E28:E29"/>
+    <mergeCell ref="F28:F29"/>
+    <mergeCell ref="G28:G29"/>
+    <mergeCell ref="H28:H29"/>
+    <mergeCell ref="I28:I29"/>
+    <mergeCell ref="J28:J29"/>
+    <mergeCell ref="K28:K29"/>
+    <mergeCell ref="L28:L29"/>
+    <mergeCell ref="L23:L25"/>
+    <mergeCell ref="H20:H22"/>
+    <mergeCell ref="F20:F22"/>
+    <mergeCell ref="G20:G22"/>
+    <mergeCell ref="I20:I22"/>
+    <mergeCell ref="J20:J22"/>
+    <mergeCell ref="K20:K22"/>
+    <mergeCell ref="L20:L22"/>
+    <mergeCell ref="E20:E22"/>
+    <mergeCell ref="F17:F19"/>
+    <mergeCell ref="G17:G19"/>
+    <mergeCell ref="H17:H19"/>
+    <mergeCell ref="I17:I19"/>
+    <mergeCell ref="J17:J19"/>
+    <mergeCell ref="K17:K19"/>
+    <mergeCell ref="J11:J12"/>
+    <mergeCell ref="K11:K12"/>
+    <mergeCell ref="E23:E25"/>
+    <mergeCell ref="F23:F25"/>
+    <mergeCell ref="G23:G25"/>
+    <mergeCell ref="H23:H25"/>
+    <mergeCell ref="I23:I25"/>
+    <mergeCell ref="J23:J25"/>
+    <mergeCell ref="K23:K25"/>
     <mergeCell ref="A2:A8"/>
     <mergeCell ref="B2:B8"/>
     <mergeCell ref="B9:B16"/>
@@ -15719,150 +16022,49 @@
     <mergeCell ref="G11:G12"/>
     <mergeCell ref="E15:E16"/>
     <mergeCell ref="E17:E19"/>
-    <mergeCell ref="F17:F19"/>
-    <mergeCell ref="G17:G19"/>
-    <mergeCell ref="H17:H19"/>
-    <mergeCell ref="I17:I19"/>
-    <mergeCell ref="J17:J19"/>
-    <mergeCell ref="K17:K19"/>
-    <mergeCell ref="J11:J12"/>
-    <mergeCell ref="K11:K12"/>
-    <mergeCell ref="E23:E25"/>
-    <mergeCell ref="F23:F25"/>
-    <mergeCell ref="G23:G25"/>
-    <mergeCell ref="H23:H25"/>
-    <mergeCell ref="I23:I25"/>
-    <mergeCell ref="J23:J25"/>
-    <mergeCell ref="K23:K25"/>
-    <mergeCell ref="L23:L25"/>
-    <mergeCell ref="H20:H22"/>
-    <mergeCell ref="F20:F22"/>
-    <mergeCell ref="G20:G22"/>
-    <mergeCell ref="I20:I22"/>
-    <mergeCell ref="J20:J22"/>
-    <mergeCell ref="K20:K22"/>
-    <mergeCell ref="L20:L22"/>
-    <mergeCell ref="E20:E22"/>
-    <mergeCell ref="F26:F27"/>
-    <mergeCell ref="G26:G27"/>
-    <mergeCell ref="H26:H27"/>
-    <mergeCell ref="I26:I27"/>
-    <mergeCell ref="J26:J27"/>
-    <mergeCell ref="E26:E27"/>
-    <mergeCell ref="K30:K31"/>
-    <mergeCell ref="L30:L31"/>
-    <mergeCell ref="K26:K27"/>
-    <mergeCell ref="L26:L27"/>
-    <mergeCell ref="E28:E29"/>
-    <mergeCell ref="F28:F29"/>
-    <mergeCell ref="G28:G29"/>
-    <mergeCell ref="H28:H29"/>
-    <mergeCell ref="I28:I29"/>
-    <mergeCell ref="J28:J29"/>
-    <mergeCell ref="K28:K29"/>
-    <mergeCell ref="L28:L29"/>
-    <mergeCell ref="E32:E33"/>
-    <mergeCell ref="F32:F33"/>
-    <mergeCell ref="G32:G33"/>
-    <mergeCell ref="H32:H33"/>
-    <mergeCell ref="I32:I33"/>
-    <mergeCell ref="J32:J33"/>
-    <mergeCell ref="K32:K33"/>
-    <mergeCell ref="L32:L33"/>
-    <mergeCell ref="F30:F31"/>
-    <mergeCell ref="G30:G31"/>
-    <mergeCell ref="H30:H31"/>
-    <mergeCell ref="I30:I31"/>
-    <mergeCell ref="J30:J31"/>
-    <mergeCell ref="E30:E31"/>
-    <mergeCell ref="E38:E39"/>
-    <mergeCell ref="F34:F35"/>
-    <mergeCell ref="G34:G35"/>
-    <mergeCell ref="H34:H35"/>
-    <mergeCell ref="I34:I35"/>
-    <mergeCell ref="J34:J35"/>
-    <mergeCell ref="E34:E35"/>
-    <mergeCell ref="K38:K39"/>
-    <mergeCell ref="L38:L39"/>
-    <mergeCell ref="F38:F39"/>
-    <mergeCell ref="G38:G39"/>
-    <mergeCell ref="H38:H39"/>
-    <mergeCell ref="I38:I39"/>
-    <mergeCell ref="J38:J39"/>
-    <mergeCell ref="K34:K35"/>
-    <mergeCell ref="L34:L35"/>
-    <mergeCell ref="E36:E37"/>
-    <mergeCell ref="F36:F37"/>
-    <mergeCell ref="G36:G37"/>
-    <mergeCell ref="H36:H37"/>
-    <mergeCell ref="I36:I37"/>
-    <mergeCell ref="J36:J37"/>
-    <mergeCell ref="K36:K37"/>
-    <mergeCell ref="L36:L37"/>
-    <mergeCell ref="E40:E42"/>
-    <mergeCell ref="F40:F42"/>
-    <mergeCell ref="G40:G42"/>
-    <mergeCell ref="H40:H42"/>
-    <mergeCell ref="I40:I42"/>
-    <mergeCell ref="J40:J42"/>
-    <mergeCell ref="K40:K42"/>
-    <mergeCell ref="L40:L42"/>
-    <mergeCell ref="E43:E44"/>
-    <mergeCell ref="K43:K44"/>
-    <mergeCell ref="L43:L44"/>
-    <mergeCell ref="F43:F44"/>
-    <mergeCell ref="G43:G44"/>
-    <mergeCell ref="H43:H44"/>
-    <mergeCell ref="I43:I44"/>
-    <mergeCell ref="J43:J44"/>
-    <mergeCell ref="E45:E46"/>
-    <mergeCell ref="F45:F46"/>
-    <mergeCell ref="G45:G46"/>
-    <mergeCell ref="H45:H46"/>
-    <mergeCell ref="I45:I46"/>
-    <mergeCell ref="J45:J46"/>
-    <mergeCell ref="K45:K46"/>
-    <mergeCell ref="L45:L46"/>
-    <mergeCell ref="E47:E48"/>
-    <mergeCell ref="K47:K48"/>
-    <mergeCell ref="L47:L48"/>
-    <mergeCell ref="E49:E52"/>
-    <mergeCell ref="F49:F52"/>
-    <mergeCell ref="G49:G52"/>
-    <mergeCell ref="H49:H52"/>
-    <mergeCell ref="I49:I52"/>
-    <mergeCell ref="J49:J52"/>
-    <mergeCell ref="K49:K52"/>
-    <mergeCell ref="L49:L52"/>
-    <mergeCell ref="F47:F48"/>
-    <mergeCell ref="G47:G48"/>
-    <mergeCell ref="H47:H48"/>
-    <mergeCell ref="I47:I48"/>
-    <mergeCell ref="J47:J48"/>
-    <mergeCell ref="M38:M39"/>
-    <mergeCell ref="M40:M42"/>
-    <mergeCell ref="M43:M44"/>
-    <mergeCell ref="M45:M46"/>
-    <mergeCell ref="M47:M48"/>
-    <mergeCell ref="M49:M52"/>
-    <mergeCell ref="L1:M1"/>
-    <mergeCell ref="M17:M19"/>
-    <mergeCell ref="M20:M22"/>
-    <mergeCell ref="M23:M25"/>
-    <mergeCell ref="M26:M27"/>
-    <mergeCell ref="M28:M29"/>
-    <mergeCell ref="M30:M31"/>
-    <mergeCell ref="M32:M33"/>
-    <mergeCell ref="M34:M35"/>
-    <mergeCell ref="M36:M37"/>
-    <mergeCell ref="M2:M8"/>
-    <mergeCell ref="M9:M10"/>
-    <mergeCell ref="M11:M12"/>
-    <mergeCell ref="M13:M14"/>
-    <mergeCell ref="M15:M16"/>
-    <mergeCell ref="L17:L19"/>
-    <mergeCell ref="L13:L14"/>
-    <mergeCell ref="L2:L8"/>
+    <mergeCell ref="B26:B33"/>
+    <mergeCell ref="A26:A27"/>
+    <mergeCell ref="A28:A29"/>
+    <mergeCell ref="A30:A31"/>
+    <mergeCell ref="A32:A33"/>
+    <mergeCell ref="A11:A12"/>
+    <mergeCell ref="A13:A14"/>
+    <mergeCell ref="A15:A16"/>
+    <mergeCell ref="A17:A19"/>
+    <mergeCell ref="A20:A22"/>
+    <mergeCell ref="A45:A46"/>
+    <mergeCell ref="A47:A48"/>
+    <mergeCell ref="B43:B48"/>
+    <mergeCell ref="C47:C48"/>
+    <mergeCell ref="B49:B52"/>
+    <mergeCell ref="A49:A52"/>
+    <mergeCell ref="A34:A35"/>
+    <mergeCell ref="A36:A37"/>
+    <mergeCell ref="A38:A39"/>
+    <mergeCell ref="A40:A42"/>
+    <mergeCell ref="B34:B42"/>
+    <mergeCell ref="A43:A44"/>
+    <mergeCell ref="I1:K1"/>
+    <mergeCell ref="E13:E14"/>
+    <mergeCell ref="H11:H12"/>
+    <mergeCell ref="F13:F14"/>
+    <mergeCell ref="G13:G14"/>
+    <mergeCell ref="H13:H14"/>
+    <mergeCell ref="I13:I14"/>
+    <mergeCell ref="J13:J14"/>
+    <mergeCell ref="K13:K14"/>
+    <mergeCell ref="J2:J8"/>
+    <mergeCell ref="K2:K8"/>
+    <mergeCell ref="E11:E12"/>
+    <mergeCell ref="E9:E10"/>
+    <mergeCell ref="F9:F10"/>
+    <mergeCell ref="G9:G10"/>
+    <mergeCell ref="E2:E8"/>
+    <mergeCell ref="F2:F8"/>
+    <mergeCell ref="G2:G8"/>
+    <mergeCell ref="H2:H8"/>
+    <mergeCell ref="I2:I8"/>
+    <mergeCell ref="I11:I12"/>
   </mergeCells>
   <hyperlinks>
     <hyperlink ref="E2" r:id="rId1" display="https://drive.google.com/open?id=1RYgFxmL-dmZYtjF2ca5a0yQUWnMVjo3mVexJabJL1c4"/>
@@ -15975,7 +16177,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E25"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B3" workbookViewId="0">
+    <sheetView topLeftCell="B3" workbookViewId="0">
       <selection activeCell="G17" sqref="G17"/>
     </sheetView>
   </sheetViews>
@@ -16311,6 +16513,569 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
   <legacyDrawing r:id="rId2"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:J97"/>
+  <sheetViews>
+    <sheetView tabSelected="1" topLeftCell="A18" workbookViewId="0">
+      <selection activeCell="P32" sqref="P32"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4"/>
+  <sheetData>
+    <row r="1" spans="1:6">
+      <c r="A1" s="340" t="s">
+        <v>1105</v>
+      </c>
+      <c r="B1" s="339"/>
+      <c r="C1" s="339"/>
+      <c r="D1" s="339"/>
+      <c r="E1" s="339"/>
+    </row>
+    <row r="2" spans="1:6">
+      <c r="A2" s="338" t="s">
+        <v>1104</v>
+      </c>
+      <c r="B2" s="338"/>
+      <c r="C2" s="338"/>
+      <c r="D2" s="338"/>
+      <c r="E2" s="338"/>
+      <c r="F2" s="338"/>
+    </row>
+    <row r="3" spans="1:6">
+      <c r="A3" s="338"/>
+      <c r="B3" s="338"/>
+      <c r="C3" s="338"/>
+      <c r="D3" s="338"/>
+      <c r="E3" s="338"/>
+      <c r="F3" s="338"/>
+    </row>
+    <row r="4" spans="1:6">
+      <c r="A4" s="338"/>
+      <c r="B4" s="338"/>
+      <c r="C4" s="338"/>
+      <c r="D4" s="338"/>
+      <c r="E4" s="338"/>
+      <c r="F4" s="338"/>
+    </row>
+    <row r="5" spans="1:6">
+      <c r="A5" s="338"/>
+      <c r="B5" s="338"/>
+      <c r="C5" s="338"/>
+      <c r="D5" s="338"/>
+      <c r="E5" s="338"/>
+      <c r="F5" s="338"/>
+    </row>
+    <row r="6" spans="1:6">
+      <c r="A6" s="338"/>
+      <c r="B6" s="338"/>
+      <c r="C6" s="338"/>
+      <c r="D6" s="338"/>
+      <c r="E6" s="338"/>
+      <c r="F6" s="338"/>
+    </row>
+    <row r="8" spans="1:6">
+      <c r="A8" s="94" t="s">
+        <v>1103</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6">
+      <c r="A9" t="s">
+        <v>1102</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6">
+      <c r="A10" t="s">
+        <v>1101</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6">
+      <c r="A11" t="s">
+        <v>1022</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6">
+      <c r="A12" t="s">
+        <v>1100</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6">
+      <c r="A14" s="94" t="s">
+        <v>1099</v>
+      </c>
+    </row>
+    <row r="15" spans="1:6">
+      <c r="A15" t="s">
+        <v>1098</v>
+      </c>
+    </row>
+    <row r="16" spans="1:6">
+      <c r="A16" t="s">
+        <v>1097</v>
+      </c>
+    </row>
+    <row r="17" spans="1:1">
+      <c r="A17" t="s">
+        <v>1096</v>
+      </c>
+    </row>
+    <row r="18" spans="1:1">
+      <c r="A18" t="s">
+        <v>1095</v>
+      </c>
+    </row>
+    <row r="19" spans="1:1">
+      <c r="A19" t="s">
+        <v>1094</v>
+      </c>
+    </row>
+    <row r="20" spans="1:1">
+      <c r="A20" t="s">
+        <v>1093</v>
+      </c>
+    </row>
+    <row r="21" spans="1:1">
+      <c r="A21" t="s">
+        <v>1092</v>
+      </c>
+    </row>
+    <row r="23" spans="1:1">
+      <c r="A23" t="s">
+        <v>1091</v>
+      </c>
+    </row>
+    <row r="24" spans="1:1">
+      <c r="A24" t="s">
+        <v>1090</v>
+      </c>
+    </row>
+    <row r="25" spans="1:1">
+      <c r="A25" t="s">
+        <v>1089</v>
+      </c>
+    </row>
+    <row r="26" spans="1:1">
+      <c r="A26" t="s">
+        <v>1088</v>
+      </c>
+    </row>
+    <row r="27" spans="1:1">
+      <c r="A27" t="s">
+        <v>1087</v>
+      </c>
+    </row>
+    <row r="28" spans="1:1">
+      <c r="A28" t="s">
+        <v>1086</v>
+      </c>
+    </row>
+    <row r="30" spans="1:1">
+      <c r="A30" t="s">
+        <v>1085</v>
+      </c>
+    </row>
+    <row r="31" spans="1:1">
+      <c r="A31" t="s">
+        <v>1106</v>
+      </c>
+    </row>
+    <row r="32" spans="1:1">
+      <c r="A32" t="s">
+        <v>1084</v>
+      </c>
+    </row>
+    <row r="33" spans="1:1">
+      <c r="A33" t="s">
+        <v>1083</v>
+      </c>
+    </row>
+    <row r="34" spans="1:1">
+      <c r="A34" t="s">
+        <v>1082</v>
+      </c>
+    </row>
+    <row r="35" spans="1:1">
+      <c r="A35" t="s">
+        <v>1081</v>
+      </c>
+    </row>
+    <row r="36" spans="1:1">
+      <c r="A36" t="s">
+        <v>1080</v>
+      </c>
+    </row>
+    <row r="37" spans="1:1">
+      <c r="A37" t="s">
+        <v>1079</v>
+      </c>
+    </row>
+    <row r="39" spans="1:1">
+      <c r="A39" t="s">
+        <v>1078</v>
+      </c>
+    </row>
+    <row r="40" spans="1:1">
+      <c r="A40" t="s">
+        <v>1077</v>
+      </c>
+    </row>
+    <row r="41" spans="1:1">
+      <c r="A41" t="s">
+        <v>1076</v>
+      </c>
+    </row>
+    <row r="42" spans="1:1">
+      <c r="A42" t="s">
+        <v>1075</v>
+      </c>
+    </row>
+    <row r="43" spans="1:1">
+      <c r="A43" t="s">
+        <v>1074</v>
+      </c>
+    </row>
+    <row r="45" spans="1:1">
+      <c r="A45" t="s">
+        <v>1073</v>
+      </c>
+    </row>
+    <row r="46" spans="1:1">
+      <c r="A46" t="s">
+        <v>1072</v>
+      </c>
+    </row>
+    <row r="47" spans="1:1">
+      <c r="A47" t="s">
+        <v>1071</v>
+      </c>
+    </row>
+    <row r="48" spans="1:1">
+      <c r="A48" t="s">
+        <v>1070</v>
+      </c>
+    </row>
+    <row r="49" spans="1:1">
+      <c r="A49" t="s">
+        <v>1069</v>
+      </c>
+    </row>
+    <row r="50" spans="1:1">
+      <c r="A50" t="s">
+        <v>1068</v>
+      </c>
+    </row>
+    <row r="51" spans="1:1">
+      <c r="A51" t="s">
+        <v>1067</v>
+      </c>
+    </row>
+    <row r="52" spans="1:1">
+      <c r="A52" t="s">
+        <v>1066</v>
+      </c>
+    </row>
+    <row r="53" spans="1:1">
+      <c r="A53" t="s">
+        <v>1065</v>
+      </c>
+    </row>
+    <row r="54" spans="1:1">
+      <c r="A54" t="s">
+        <v>1064</v>
+      </c>
+    </row>
+    <row r="55" spans="1:1">
+      <c r="A55" t="s">
+        <v>1063</v>
+      </c>
+    </row>
+    <row r="56" spans="1:1">
+      <c r="A56" t="s">
+        <v>1062</v>
+      </c>
+    </row>
+    <row r="57" spans="1:1">
+      <c r="A57" t="s">
+        <v>1061</v>
+      </c>
+    </row>
+    <row r="58" spans="1:1">
+      <c r="A58" t="s">
+        <v>1060</v>
+      </c>
+    </row>
+    <row r="59" spans="1:1">
+      <c r="A59" t="s">
+        <v>1059</v>
+      </c>
+    </row>
+    <row r="60" spans="1:1">
+      <c r="A60" t="s">
+        <v>1058</v>
+      </c>
+    </row>
+    <row r="61" spans="1:1">
+      <c r="A61" t="s">
+        <v>1057</v>
+      </c>
+    </row>
+    <row r="62" spans="1:1">
+      <c r="A62" t="s">
+        <v>1056</v>
+      </c>
+    </row>
+    <row r="63" spans="1:1">
+      <c r="A63" t="s">
+        <v>1055</v>
+      </c>
+    </row>
+    <row r="64" spans="1:1">
+      <c r="A64" t="s">
+        <v>1054</v>
+      </c>
+    </row>
+    <row r="65" spans="1:5">
+      <c r="A65" t="s">
+        <v>1053</v>
+      </c>
+    </row>
+    <row r="66" spans="1:5">
+      <c r="A66" t="s">
+        <v>1052</v>
+      </c>
+    </row>
+    <row r="72" spans="1:5">
+      <c r="A72" s="340" t="s">
+        <v>1051</v>
+      </c>
+      <c r="B72" s="339"/>
+      <c r="C72" s="339"/>
+    </row>
+    <row r="73" spans="1:5">
+      <c r="A73" s="337" t="s">
+        <v>1050</v>
+      </c>
+      <c r="B73" s="337"/>
+      <c r="C73" s="337"/>
+      <c r="D73" s="337"/>
+      <c r="E73" s="337"/>
+    </row>
+    <row r="74" spans="1:5">
+      <c r="A74" s="337"/>
+      <c r="B74" s="337"/>
+      <c r="C74" s="337"/>
+      <c r="D74" s="337"/>
+      <c r="E74" s="337"/>
+    </row>
+    <row r="75" spans="1:5">
+      <c r="A75" s="337"/>
+      <c r="B75" s="337"/>
+      <c r="C75" s="337"/>
+      <c r="D75" s="337"/>
+      <c r="E75" s="337"/>
+    </row>
+    <row r="76" spans="1:5">
+      <c r="A76" s="337"/>
+      <c r="B76" s="337"/>
+      <c r="C76" s="337"/>
+      <c r="D76" s="337"/>
+      <c r="E76" s="337"/>
+    </row>
+    <row r="77" spans="1:5">
+      <c r="A77" s="337"/>
+      <c r="B77" s="337"/>
+      <c r="C77" s="337"/>
+      <c r="D77" s="337"/>
+      <c r="E77" s="337"/>
+    </row>
+    <row r="80" spans="1:5">
+      <c r="A80" s="94" t="s">
+        <v>1049</v>
+      </c>
+    </row>
+    <row r="81" spans="1:10" ht="15" customHeight="1">
+      <c r="A81" s="338" t="s">
+        <v>1048</v>
+      </c>
+      <c r="B81" s="338"/>
+      <c r="C81" s="338"/>
+      <c r="D81" s="338"/>
+      <c r="E81" s="338"/>
+      <c r="F81" s="338"/>
+      <c r="G81" s="338"/>
+      <c r="H81" s="338"/>
+      <c r="I81" s="338"/>
+      <c r="J81" s="338"/>
+    </row>
+    <row r="82" spans="1:10">
+      <c r="A82" s="338"/>
+      <c r="B82" s="338"/>
+      <c r="C82" s="338"/>
+      <c r="D82" s="338"/>
+      <c r="E82" s="338"/>
+      <c r="F82" s="338"/>
+      <c r="G82" s="338"/>
+      <c r="H82" s="338"/>
+      <c r="I82" s="338"/>
+      <c r="J82" s="338"/>
+    </row>
+    <row r="83" spans="1:10">
+      <c r="A83" s="338"/>
+      <c r="B83" s="338"/>
+      <c r="C83" s="338"/>
+      <c r="D83" s="338"/>
+      <c r="E83" s="338"/>
+      <c r="F83" s="338"/>
+      <c r="G83" s="338"/>
+      <c r="H83" s="338"/>
+      <c r="I83" s="338"/>
+      <c r="J83" s="338"/>
+    </row>
+    <row r="84" spans="1:10">
+      <c r="A84" s="338"/>
+      <c r="B84" s="338"/>
+      <c r="C84" s="338"/>
+      <c r="D84" s="338"/>
+      <c r="E84" s="338"/>
+      <c r="F84" s="338"/>
+      <c r="G84" s="338"/>
+      <c r="H84" s="338"/>
+      <c r="I84" s="338"/>
+      <c r="J84" s="338"/>
+    </row>
+    <row r="85" spans="1:10">
+      <c r="A85" s="338"/>
+      <c r="B85" s="338"/>
+      <c r="C85" s="338"/>
+      <c r="D85" s="338"/>
+      <c r="E85" s="338"/>
+      <c r="F85" s="338"/>
+      <c r="G85" s="338"/>
+      <c r="H85" s="338"/>
+      <c r="I85" s="338"/>
+      <c r="J85" s="338"/>
+    </row>
+    <row r="86" spans="1:10">
+      <c r="A86" s="338"/>
+      <c r="B86" s="338"/>
+      <c r="C86" s="338"/>
+      <c r="D86" s="338"/>
+      <c r="E86" s="338"/>
+      <c r="F86" s="338"/>
+      <c r="G86" s="338"/>
+      <c r="H86" s="338"/>
+      <c r="I86" s="338"/>
+      <c r="J86" s="338"/>
+    </row>
+    <row r="87" spans="1:10">
+      <c r="A87" s="338"/>
+      <c r="B87" s="338"/>
+      <c r="C87" s="338"/>
+      <c r="D87" s="338"/>
+      <c r="E87" s="338"/>
+      <c r="F87" s="338"/>
+      <c r="G87" s="338"/>
+      <c r="H87" s="338"/>
+      <c r="I87" s="338"/>
+      <c r="J87" s="338"/>
+    </row>
+    <row r="88" spans="1:10">
+      <c r="A88" s="338"/>
+      <c r="B88" s="338"/>
+      <c r="C88" s="338"/>
+      <c r="D88" s="338"/>
+      <c r="E88" s="338"/>
+      <c r="F88" s="338"/>
+      <c r="G88" s="338"/>
+      <c r="H88" s="338"/>
+      <c r="I88" s="338"/>
+      <c r="J88" s="338"/>
+    </row>
+    <row r="89" spans="1:10">
+      <c r="A89" s="338"/>
+      <c r="B89" s="338"/>
+      <c r="C89" s="338"/>
+      <c r="D89" s="338"/>
+      <c r="E89" s="338"/>
+      <c r="F89" s="338"/>
+      <c r="G89" s="338"/>
+      <c r="H89" s="338"/>
+      <c r="I89" s="338"/>
+      <c r="J89" s="338"/>
+    </row>
+    <row r="91" spans="1:10">
+      <c r="A91" s="94" t="s">
+        <v>1047</v>
+      </c>
+    </row>
+    <row r="92" spans="1:10">
+      <c r="A92" s="337" t="s">
+        <v>1046</v>
+      </c>
+      <c r="B92" s="337"/>
+      <c r="C92" s="337"/>
+      <c r="D92" s="337"/>
+      <c r="E92" s="337"/>
+      <c r="F92" s="337"/>
+      <c r="G92" s="337"/>
+    </row>
+    <row r="93" spans="1:10">
+      <c r="A93" s="337"/>
+      <c r="B93" s="337"/>
+      <c r="C93" s="337"/>
+      <c r="D93" s="337"/>
+      <c r="E93" s="337"/>
+      <c r="F93" s="337"/>
+      <c r="G93" s="337"/>
+    </row>
+    <row r="94" spans="1:10">
+      <c r="A94" s="337"/>
+      <c r="B94" s="337"/>
+      <c r="C94" s="337"/>
+      <c r="D94" s="337"/>
+      <c r="E94" s="337"/>
+      <c r="F94" s="337"/>
+      <c r="G94" s="337"/>
+    </row>
+    <row r="95" spans="1:10">
+      <c r="A95" s="337"/>
+      <c r="B95" s="337"/>
+      <c r="C95" s="337"/>
+      <c r="D95" s="337"/>
+      <c r="E95" s="337"/>
+      <c r="F95" s="337"/>
+      <c r="G95" s="337"/>
+    </row>
+    <row r="96" spans="1:10">
+      <c r="A96" s="337"/>
+      <c r="B96" s="337"/>
+      <c r="C96" s="337"/>
+      <c r="D96" s="337"/>
+      <c r="E96" s="337"/>
+      <c r="F96" s="337"/>
+      <c r="G96" s="337"/>
+    </row>
+    <row r="97" spans="1:7">
+      <c r="A97" s="337"/>
+      <c r="B97" s="337"/>
+      <c r="C97" s="337"/>
+      <c r="D97" s="337"/>
+      <c r="E97" s="337"/>
+      <c r="F97" s="337"/>
+      <c r="G97" s="337"/>
+    </row>
+  </sheetData>
+  <mergeCells count="4">
+    <mergeCell ref="A2:F6"/>
+    <mergeCell ref="A81:J89"/>
+    <mergeCell ref="A92:G97"/>
+    <mergeCell ref="A73:E77"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 
@@ -16366,10 +17131,10 @@
       </c>
     </row>
     <row r="2" spans="1:9" ht="15.75" customHeight="1" thickTop="1" thickBot="1">
-      <c r="A2" s="314" t="s">
+      <c r="A2" s="310" t="s">
         <v>305</v>
       </c>
-      <c r="B2" s="309">
+      <c r="B2" s="303">
         <v>1</v>
       </c>
       <c r="C2" s="107">
@@ -16389,8 +17154,8 @@
       </c>
     </row>
     <row r="3" spans="1:9" ht="16.2" thickBot="1">
-      <c r="A3" s="315"/>
-      <c r="B3" s="310"/>
+      <c r="A3" s="311"/>
+      <c r="B3" s="304"/>
       <c r="C3" s="107">
         <v>43193</v>
       </c>
@@ -16406,8 +17171,8 @@
       <c r="I3" s="112"/>
     </row>
     <row r="4" spans="1:9" ht="16.2" thickBot="1">
-      <c r="A4" s="315"/>
-      <c r="B4" s="310"/>
+      <c r="A4" s="311"/>
+      <c r="B4" s="304"/>
       <c r="C4" s="107">
         <v>43194</v>
       </c>
@@ -16423,8 +17188,8 @@
       <c r="I4" s="112"/>
     </row>
     <row r="5" spans="1:9" ht="16.2" thickBot="1">
-      <c r="A5" s="315"/>
-      <c r="B5" s="310"/>
+      <c r="A5" s="311"/>
+      <c r="B5" s="304"/>
       <c r="C5" s="107">
         <v>43195</v>
       </c>
@@ -16442,8 +17207,8 @@
       <c r="I5" s="112"/>
     </row>
     <row r="6" spans="1:9" ht="16.2" thickBot="1">
-      <c r="A6" s="316"/>
-      <c r="B6" s="313"/>
+      <c r="A6" s="312"/>
+      <c r="B6" s="305"/>
       <c r="C6" s="114">
         <v>43196</v>
       </c>
@@ -16459,10 +17224,10 @@
       <c r="I6" s="118"/>
     </row>
     <row r="7" spans="1:9" ht="16.8" thickTop="1" thickBot="1">
-      <c r="A7" s="324" t="s">
+      <c r="A7" s="317" t="s">
         <v>184</v>
       </c>
-      <c r="B7" s="312">
+      <c r="B7" s="313">
         <v>2</v>
       </c>
       <c r="C7" s="140">
@@ -16480,8 +17245,8 @@
       <c r="I7" s="123"/>
     </row>
     <row r="8" spans="1:9" ht="16.2" thickBot="1">
-      <c r="A8" s="325"/>
-      <c r="B8" s="307"/>
+      <c r="A8" s="318"/>
+      <c r="B8" s="314"/>
       <c r="C8" s="140">
         <v>43200</v>
       </c>
@@ -16497,8 +17262,8 @@
       <c r="I8" s="123"/>
     </row>
     <row r="9" spans="1:9" ht="16.2" thickBot="1">
-      <c r="A9" s="325"/>
-      <c r="B9" s="307"/>
+      <c r="A9" s="318"/>
+      <c r="B9" s="314"/>
       <c r="C9" s="140">
         <v>43201</v>
       </c>
@@ -16514,8 +17279,8 @@
       <c r="I9" s="123"/>
     </row>
     <row r="10" spans="1:9" ht="15.75" customHeight="1" thickBot="1">
-      <c r="A10" s="325"/>
-      <c r="B10" s="307"/>
+      <c r="A10" s="318"/>
+      <c r="B10" s="314"/>
       <c r="C10" s="140">
         <v>43202</v>
       </c>
@@ -16531,8 +17296,8 @@
       <c r="I10" s="123"/>
     </row>
     <row r="11" spans="1:9" ht="16.2" thickBot="1">
-      <c r="A11" s="325"/>
-      <c r="B11" s="317"/>
+      <c r="A11" s="318"/>
+      <c r="B11" s="315"/>
       <c r="C11" s="140">
         <v>43203</v>
       </c>
@@ -16550,8 +17315,8 @@
       <c r="I11" s="123"/>
     </row>
     <row r="12" spans="1:9" ht="16.2" thickBot="1">
-      <c r="A12" s="304"/>
-      <c r="B12" s="318">
+      <c r="A12" s="319"/>
+      <c r="B12" s="309">
         <v>3</v>
       </c>
       <c r="C12" s="107">
@@ -16569,8 +17334,8 @@
       <c r="I12" s="112"/>
     </row>
     <row r="13" spans="1:9" ht="16.2" thickBot="1">
-      <c r="A13" s="304"/>
-      <c r="B13" s="310"/>
+      <c r="A13" s="319"/>
+      <c r="B13" s="304"/>
       <c r="C13" s="107">
         <v>43207</v>
       </c>
@@ -16586,8 +17351,8 @@
       <c r="I13" s="112"/>
     </row>
     <row r="14" spans="1:9" ht="16.2" thickBot="1">
-      <c r="A14" s="304"/>
-      <c r="B14" s="310"/>
+      <c r="A14" s="319"/>
+      <c r="B14" s="304"/>
       <c r="C14" s="107">
         <v>43208</v>
       </c>
@@ -16603,8 +17368,8 @@
       <c r="I14" s="112"/>
     </row>
     <row r="15" spans="1:9" ht="16.2" thickBot="1">
-      <c r="A15" s="304"/>
-      <c r="B15" s="310"/>
+      <c r="A15" s="319"/>
+      <c r="B15" s="304"/>
       <c r="C15" s="107">
         <v>43209</v>
       </c>
@@ -16620,8 +17385,8 @@
       <c r="I15" s="112"/>
     </row>
     <row r="16" spans="1:9" ht="16.2" thickBot="1">
-      <c r="A16" s="304"/>
-      <c r="B16" s="311"/>
+      <c r="A16" s="319"/>
+      <c r="B16" s="316"/>
       <c r="C16" s="107">
         <v>43210</v>
       </c>
@@ -16637,8 +17402,8 @@
       <c r="I16" s="112"/>
     </row>
     <row r="17" spans="1:9" ht="16.2" thickBot="1">
-      <c r="A17" s="304"/>
-      <c r="B17" s="312">
+      <c r="A17" s="319"/>
+      <c r="B17" s="313">
         <v>4</v>
       </c>
       <c r="C17" s="119">
@@ -16660,8 +17425,8 @@
       <c r="I17" s="123"/>
     </row>
     <row r="18" spans="1:9" ht="16.2" thickBot="1">
-      <c r="A18" s="304"/>
-      <c r="B18" s="307"/>
+      <c r="A18" s="319"/>
+      <c r="B18" s="314"/>
       <c r="C18" s="119">
         <v>43214</v>
       </c>
@@ -16677,8 +17442,8 @@
       <c r="I18" s="123"/>
     </row>
     <row r="19" spans="1:9" ht="16.2" thickBot="1">
-      <c r="A19" s="304"/>
-      <c r="B19" s="307"/>
+      <c r="A19" s="319"/>
+      <c r="B19" s="314"/>
       <c r="C19" s="119">
         <v>43215</v>
       </c>
@@ -16694,8 +17459,8 @@
       <c r="I19" s="123"/>
     </row>
     <row r="20" spans="1:9" ht="16.2" thickBot="1">
-      <c r="A20" s="304"/>
-      <c r="B20" s="307"/>
+      <c r="A20" s="319"/>
+      <c r="B20" s="314"/>
       <c r="C20" s="119">
         <v>43216</v>
       </c>
@@ -16711,8 +17476,8 @@
       <c r="I20" s="123"/>
     </row>
     <row r="21" spans="1:9" ht="16.2" thickBot="1">
-      <c r="A21" s="304"/>
-      <c r="B21" s="317"/>
+      <c r="A21" s="319"/>
+      <c r="B21" s="315"/>
       <c r="C21" s="119">
         <v>43217</v>
       </c>
@@ -16730,8 +17495,8 @@
       <c r="I21" s="123"/>
     </row>
     <row r="22" spans="1:9" ht="16.2" thickBot="1">
-      <c r="A22" s="304"/>
-      <c r="B22" s="318">
+      <c r="A22" s="319"/>
+      <c r="B22" s="309">
         <v>5</v>
       </c>
       <c r="C22" s="107">
@@ -16749,8 +17514,8 @@
       <c r="I22" s="112"/>
     </row>
     <row r="23" spans="1:9" ht="16.2" thickBot="1">
-      <c r="A23" s="304"/>
-      <c r="B23" s="310"/>
+      <c r="A23" s="319"/>
+      <c r="B23" s="304"/>
       <c r="C23" s="107">
         <v>43221</v>
       </c>
@@ -16766,8 +17531,8 @@
       <c r="I23" s="112"/>
     </row>
     <row r="24" spans="1:9" ht="16.2" thickBot="1">
-      <c r="A24" s="304"/>
-      <c r="B24" s="310"/>
+      <c r="A24" s="319"/>
+      <c r="B24" s="304"/>
       <c r="C24" s="107">
         <v>43222</v>
       </c>
@@ -16783,8 +17548,8 @@
       <c r="I24" s="112"/>
     </row>
     <row r="25" spans="1:9" ht="16.2" thickBot="1">
-      <c r="A25" s="304"/>
-      <c r="B25" s="310"/>
+      <c r="A25" s="319"/>
+      <c r="B25" s="304"/>
       <c r="C25" s="107">
         <v>43223</v>
       </c>
@@ -16800,8 +17565,8 @@
       <c r="I25" s="112"/>
     </row>
     <row r="26" spans="1:9" ht="16.2" thickBot="1">
-      <c r="A26" s="304"/>
-      <c r="B26" s="311"/>
+      <c r="A26" s="319"/>
+      <c r="B26" s="316"/>
       <c r="C26" s="107">
         <v>43224</v>
       </c>
@@ -16817,8 +17582,8 @@
       <c r="I26" s="112"/>
     </row>
     <row r="27" spans="1:9" ht="15.75" customHeight="1" thickBot="1">
-      <c r="A27" s="304"/>
-      <c r="B27" s="322">
+      <c r="A27" s="319"/>
+      <c r="B27" s="321">
         <v>6</v>
       </c>
       <c r="C27" s="127">
@@ -16840,8 +17605,8 @@
       <c r="I27" s="123"/>
     </row>
     <row r="28" spans="1:9" ht="16.2" thickBot="1">
-      <c r="A28" s="304"/>
-      <c r="B28" s="320"/>
+      <c r="A28" s="319"/>
+      <c r="B28" s="307"/>
       <c r="C28" s="127">
         <v>43228</v>
       </c>
@@ -16857,8 +17622,8 @@
       <c r="I28" s="123"/>
     </row>
     <row r="29" spans="1:9" ht="16.2" thickBot="1">
-      <c r="A29" s="304"/>
-      <c r="B29" s="320"/>
+      <c r="A29" s="319"/>
+      <c r="B29" s="307"/>
       <c r="C29" s="127">
         <v>43229</v>
       </c>
@@ -16874,8 +17639,8 @@
       <c r="I29" s="123"/>
     </row>
     <row r="30" spans="1:9" ht="16.2" thickBot="1">
-      <c r="A30" s="304"/>
-      <c r="B30" s="320"/>
+      <c r="A30" s="319"/>
+      <c r="B30" s="307"/>
       <c r="C30" s="127">
         <v>43230</v>
       </c>
@@ -16891,8 +17656,8 @@
       <c r="I30" s="123"/>
     </row>
     <row r="31" spans="1:9" ht="27.6" thickBot="1">
-      <c r="A31" s="305"/>
-      <c r="B31" s="323"/>
+      <c r="A31" s="320"/>
+      <c r="B31" s="322"/>
       <c r="C31" s="131">
         <v>43231</v>
       </c>
@@ -16910,10 +17675,10 @@
       <c r="I31" s="135"/>
     </row>
     <row r="32" spans="1:9" ht="16.8" thickTop="1" thickBot="1">
-      <c r="A32" s="314" t="s">
+      <c r="A32" s="310" t="s">
         <v>34</v>
       </c>
-      <c r="B32" s="309">
+      <c r="B32" s="303">
         <v>7</v>
       </c>
       <c r="C32" s="107">
@@ -16931,8 +17696,8 @@
       <c r="I32" s="112"/>
     </row>
     <row r="33" spans="1:9" ht="16.2" thickBot="1">
-      <c r="A33" s="315"/>
-      <c r="B33" s="310"/>
+      <c r="A33" s="311"/>
+      <c r="B33" s="304"/>
       <c r="C33" s="107">
         <v>43235</v>
       </c>
@@ -16948,8 +17713,8 @@
       <c r="I33" s="112"/>
     </row>
     <row r="34" spans="1:9" ht="16.2" thickBot="1">
-      <c r="A34" s="315"/>
-      <c r="B34" s="310"/>
+      <c r="A34" s="311"/>
+      <c r="B34" s="304"/>
       <c r="C34" s="107">
         <v>43236</v>
       </c>
@@ -16965,8 +17730,8 @@
       <c r="I34" s="112"/>
     </row>
     <row r="35" spans="1:9" ht="16.2" thickBot="1">
-      <c r="A35" s="315"/>
-      <c r="B35" s="310"/>
+      <c r="A35" s="311"/>
+      <c r="B35" s="304"/>
       <c r="C35" s="107">
         <v>43237</v>
       </c>
@@ -16982,8 +17747,8 @@
       <c r="I35" s="112"/>
     </row>
     <row r="36" spans="1:9" ht="16.2" thickBot="1">
-      <c r="A36" s="315"/>
-      <c r="B36" s="313"/>
+      <c r="A36" s="311"/>
+      <c r="B36" s="305"/>
       <c r="C36" s="107">
         <v>43238</v>
       </c>
@@ -16999,8 +17764,8 @@
       <c r="I36" s="112"/>
     </row>
     <row r="37" spans="1:9" ht="16.8" thickTop="1" thickBot="1">
-      <c r="A37" s="315"/>
-      <c r="B37" s="319">
+      <c r="A37" s="311"/>
+      <c r="B37" s="306">
         <v>8</v>
       </c>
       <c r="C37" s="127">
@@ -17022,8 +17787,8 @@
       <c r="I37" s="123"/>
     </row>
     <row r="38" spans="1:9" ht="16.2" thickBot="1">
-      <c r="A38" s="315"/>
-      <c r="B38" s="320"/>
+      <c r="A38" s="311"/>
+      <c r="B38" s="307"/>
       <c r="C38" s="127">
         <v>43242</v>
       </c>
@@ -17039,8 +17804,8 @@
       <c r="I38" s="123"/>
     </row>
     <row r="39" spans="1:9" ht="16.2" thickBot="1">
-      <c r="A39" s="315"/>
-      <c r="B39" s="320"/>
+      <c r="A39" s="311"/>
+      <c r="B39" s="307"/>
       <c r="C39" s="127">
         <v>43243</v>
       </c>
@@ -17056,8 +17821,8 @@
       <c r="I39" s="123"/>
     </row>
     <row r="40" spans="1:9" ht="16.2" thickBot="1">
-      <c r="A40" s="315"/>
-      <c r="B40" s="320"/>
+      <c r="A40" s="311"/>
+      <c r="B40" s="307"/>
       <c r="C40" s="127">
         <v>43244</v>
       </c>
@@ -17073,8 +17838,8 @@
       <c r="I40" s="123"/>
     </row>
     <row r="41" spans="1:9" ht="27.6" thickBot="1">
-      <c r="A41" s="315"/>
-      <c r="B41" s="321"/>
+      <c r="A41" s="311"/>
+      <c r="B41" s="308"/>
       <c r="C41" s="127">
         <v>43245</v>
       </c>
@@ -17092,8 +17857,8 @@
       <c r="I41" s="123"/>
     </row>
     <row r="42" spans="1:9" ht="16.2" thickBot="1">
-      <c r="A42" s="315"/>
-      <c r="B42" s="318">
+      <c r="A42" s="311"/>
+      <c r="B42" s="309">
         <v>9</v>
       </c>
       <c r="C42" s="107">
@@ -17111,8 +17876,8 @@
       <c r="I42" s="112"/>
     </row>
     <row r="43" spans="1:9" ht="16.2" thickBot="1">
-      <c r="A43" s="315"/>
-      <c r="B43" s="310"/>
+      <c r="A43" s="311"/>
+      <c r="B43" s="304"/>
       <c r="C43" s="107">
         <v>43249</v>
       </c>
@@ -17128,8 +17893,8 @@
       <c r="I43" s="112"/>
     </row>
     <row r="44" spans="1:9" ht="16.2" thickBot="1">
-      <c r="A44" s="315"/>
-      <c r="B44" s="310"/>
+      <c r="A44" s="311"/>
+      <c r="B44" s="304"/>
       <c r="C44" s="107">
         <v>43250</v>
       </c>
@@ -17145,8 +17910,8 @@
       <c r="I44" s="112"/>
     </row>
     <row r="45" spans="1:9" ht="16.2" thickBot="1">
-      <c r="A45" s="315"/>
-      <c r="B45" s="310"/>
+      <c r="A45" s="311"/>
+      <c r="B45" s="304"/>
       <c r="C45" s="107">
         <v>43251</v>
       </c>
@@ -17162,8 +17927,8 @@
       <c r="I45" s="112"/>
     </row>
     <row r="46" spans="1:9" ht="16.2" thickBot="1">
-      <c r="A46" s="316"/>
-      <c r="B46" s="313"/>
+      <c r="A46" s="312"/>
+      <c r="B46" s="305"/>
       <c r="C46" s="114">
         <v>43252</v>
       </c>
@@ -17179,10 +17944,10 @@
       <c r="I46" s="118"/>
     </row>
     <row r="47" spans="1:9" ht="15.75" customHeight="1" thickTop="1" thickBot="1">
-      <c r="A47" s="303" t="s">
+      <c r="A47" s="325" t="s">
         <v>47</v>
       </c>
-      <c r="B47" s="306">
+      <c r="B47" s="323">
         <v>10</v>
       </c>
       <c r="C47" s="119">
@@ -17204,8 +17969,8 @@
       <c r="I47" s="123"/>
     </row>
     <row r="48" spans="1:9" ht="16.2" thickBot="1">
-      <c r="A48" s="304"/>
-      <c r="B48" s="307"/>
+      <c r="A48" s="319"/>
+      <c r="B48" s="314"/>
       <c r="C48" s="119">
         <v>43256</v>
       </c>
@@ -17221,8 +17986,8 @@
       <c r="I48" s="123"/>
     </row>
     <row r="49" spans="1:9" ht="16.2" thickBot="1">
-      <c r="A49" s="304"/>
-      <c r="B49" s="307"/>
+      <c r="A49" s="319"/>
+      <c r="B49" s="314"/>
       <c r="C49" s="119">
         <v>43257</v>
       </c>
@@ -17238,8 +18003,8 @@
       <c r="I49" s="123"/>
     </row>
     <row r="50" spans="1:9" ht="16.2" thickBot="1">
-      <c r="A50" s="304"/>
-      <c r="B50" s="307"/>
+      <c r="A50" s="319"/>
+      <c r="B50" s="314"/>
       <c r="C50" s="119">
         <v>43258</v>
       </c>
@@ -17255,8 +18020,8 @@
       <c r="I50" s="123"/>
     </row>
     <row r="51" spans="1:9" ht="27.6" thickBot="1">
-      <c r="A51" s="304"/>
-      <c r="B51" s="308"/>
+      <c r="A51" s="319"/>
+      <c r="B51" s="324"/>
       <c r="C51" s="119">
         <v>43259</v>
       </c>
@@ -17274,8 +18039,8 @@
       <c r="I51" s="123"/>
     </row>
     <row r="52" spans="1:9" ht="16.8" thickTop="1" thickBot="1">
-      <c r="A52" s="304"/>
-      <c r="B52" s="309">
+      <c r="A52" s="319"/>
+      <c r="B52" s="303">
         <v>11</v>
       </c>
       <c r="C52" s="107">
@@ -17293,8 +18058,8 @@
       <c r="I52" s="112"/>
     </row>
     <row r="53" spans="1:9" ht="16.2" thickBot="1">
-      <c r="A53" s="304"/>
-      <c r="B53" s="310"/>
+      <c r="A53" s="319"/>
+      <c r="B53" s="304"/>
       <c r="C53" s="107">
         <v>43263</v>
       </c>
@@ -17310,8 +18075,8 @@
       <c r="I53" s="112"/>
     </row>
     <row r="54" spans="1:9" ht="16.2" thickBot="1">
-      <c r="A54" s="304"/>
-      <c r="B54" s="310"/>
+      <c r="A54" s="319"/>
+      <c r="B54" s="304"/>
       <c r="C54" s="107">
         <v>43264</v>
       </c>
@@ -17327,8 +18092,8 @@
       <c r="I54" s="112"/>
     </row>
     <row r="55" spans="1:9" ht="16.2" thickBot="1">
-      <c r="A55" s="304"/>
-      <c r="B55" s="310"/>
+      <c r="A55" s="319"/>
+      <c r="B55" s="304"/>
       <c r="C55" s="107">
         <v>43265</v>
       </c>
@@ -17344,8 +18109,8 @@
       <c r="I55" s="112"/>
     </row>
     <row r="56" spans="1:9" ht="16.2" thickBot="1">
-      <c r="A56" s="304"/>
-      <c r="B56" s="311"/>
+      <c r="A56" s="319"/>
+      <c r="B56" s="316"/>
       <c r="C56" s="107">
         <v>43266</v>
       </c>
@@ -17361,8 +18126,8 @@
       <c r="I56" s="112"/>
     </row>
     <row r="57" spans="1:9" ht="16.2" thickBot="1">
-      <c r="A57" s="304"/>
-      <c r="B57" s="312">
+      <c r="A57" s="319"/>
+      <c r="B57" s="313">
         <v>12</v>
       </c>
       <c r="C57" s="119">
@@ -17384,8 +18149,8 @@
       <c r="I57" s="123"/>
     </row>
     <row r="58" spans="1:9" ht="16.2" thickBot="1">
-      <c r="A58" s="304"/>
-      <c r="B58" s="307"/>
+      <c r="A58" s="319"/>
+      <c r="B58" s="314"/>
       <c r="C58" s="119">
         <v>43270</v>
       </c>
@@ -17401,8 +18166,8 @@
       <c r="I58" s="123"/>
     </row>
     <row r="59" spans="1:9" ht="16.2" thickBot="1">
-      <c r="A59" s="304"/>
-      <c r="B59" s="307"/>
+      <c r="A59" s="319"/>
+      <c r="B59" s="314"/>
       <c r="C59" s="119">
         <v>43271</v>
       </c>
@@ -17418,8 +18183,8 @@
       <c r="I59" s="123"/>
     </row>
     <row r="60" spans="1:9" ht="16.2" thickBot="1">
-      <c r="A60" s="304"/>
-      <c r="B60" s="307"/>
+      <c r="A60" s="319"/>
+      <c r="B60" s="314"/>
       <c r="C60" s="119">
         <v>43272</v>
       </c>
@@ -17435,8 +18200,8 @@
       <c r="I60" s="123"/>
     </row>
     <row r="61" spans="1:9" ht="27.6" thickBot="1">
-      <c r="A61" s="305"/>
-      <c r="B61" s="308"/>
+      <c r="A61" s="320"/>
+      <c r="B61" s="324"/>
       <c r="C61" s="137">
         <v>43273</v>
       </c>
@@ -17454,10 +18219,10 @@
       <c r="I61" s="135"/>
     </row>
     <row r="62" spans="1:9" ht="15.75" customHeight="1" thickTop="1" thickBot="1">
-      <c r="A62" s="314" t="s">
+      <c r="A62" s="310" t="s">
         <v>627</v>
       </c>
-      <c r="B62" s="309">
+      <c r="B62" s="303">
         <v>13</v>
       </c>
       <c r="C62" s="107">
@@ -17475,8 +18240,8 @@
       <c r="I62" s="112"/>
     </row>
     <row r="63" spans="1:9" ht="16.2" thickBot="1">
-      <c r="A63" s="315"/>
-      <c r="B63" s="310"/>
+      <c r="A63" s="311"/>
+      <c r="B63" s="304"/>
       <c r="C63" s="107">
         <v>43277</v>
       </c>
@@ -17492,8 +18257,8 @@
       <c r="I63" s="112"/>
     </row>
     <row r="64" spans="1:9" ht="16.2" thickBot="1">
-      <c r="A64" s="315"/>
-      <c r="B64" s="310"/>
+      <c r="A64" s="311"/>
+      <c r="B64" s="304"/>
       <c r="C64" s="107">
         <v>43278</v>
       </c>
@@ -17509,8 +18274,8 @@
       <c r="I64" s="112"/>
     </row>
     <row r="65" spans="1:9" ht="16.2" thickBot="1">
-      <c r="A65" s="315"/>
-      <c r="B65" s="310"/>
+      <c r="A65" s="311"/>
+      <c r="B65" s="304"/>
       <c r="C65" s="107">
         <v>43279</v>
       </c>
@@ -17526,8 +18291,8 @@
       <c r="I65" s="112"/>
     </row>
     <row r="66" spans="1:9" ht="16.2" thickBot="1">
-      <c r="A66" s="315"/>
-      <c r="B66" s="313"/>
+      <c r="A66" s="311"/>
+      <c r="B66" s="305"/>
       <c r="C66" s="107">
         <v>43280</v>
       </c>
@@ -17543,8 +18308,8 @@
       <c r="I66" s="112"/>
     </row>
     <row r="67" spans="1:9" ht="16.8" thickTop="1" thickBot="1">
-      <c r="A67" s="315"/>
-      <c r="B67" s="319">
+      <c r="A67" s="311"/>
+      <c r="B67" s="306">
         <v>14</v>
       </c>
       <c r="C67" s="127">
@@ -17566,8 +18331,8 @@
       <c r="I67" s="123"/>
     </row>
     <row r="68" spans="1:9" ht="16.2" thickBot="1">
-      <c r="A68" s="315"/>
-      <c r="B68" s="320"/>
+      <c r="A68" s="311"/>
+      <c r="B68" s="307"/>
       <c r="C68" s="127">
         <v>43284</v>
       </c>
@@ -17583,8 +18348,8 @@
       <c r="I68" s="123"/>
     </row>
     <row r="69" spans="1:9" ht="16.2" thickBot="1">
-      <c r="A69" s="315"/>
-      <c r="B69" s="320"/>
+      <c r="A69" s="311"/>
+      <c r="B69" s="307"/>
       <c r="C69" s="127">
         <v>43285</v>
       </c>
@@ -17600,8 +18365,8 @@
       <c r="I69" s="123"/>
     </row>
     <row r="70" spans="1:9" ht="16.2" thickBot="1">
-      <c r="A70" s="315"/>
-      <c r="B70" s="320"/>
+      <c r="A70" s="311"/>
+      <c r="B70" s="307"/>
       <c r="C70" s="127">
         <v>43286</v>
       </c>
@@ -17617,8 +18382,8 @@
       <c r="I70" s="123"/>
     </row>
     <row r="71" spans="1:9" ht="16.2" thickBot="1">
-      <c r="A71" s="315"/>
-      <c r="B71" s="321"/>
+      <c r="A71" s="311"/>
+      <c r="B71" s="308"/>
       <c r="C71" s="127">
         <v>43287</v>
       </c>
@@ -17636,8 +18401,8 @@
       <c r="I71" s="123"/>
     </row>
     <row r="72" spans="1:9" ht="16.2" thickBot="1">
-      <c r="A72" s="315"/>
-      <c r="B72" s="318">
+      <c r="A72" s="311"/>
+      <c r="B72" s="309">
         <v>15</v>
       </c>
       <c r="C72" s="107">
@@ -17655,8 +18420,8 @@
       <c r="I72" s="112"/>
     </row>
     <row r="73" spans="1:9" ht="16.2" thickBot="1">
-      <c r="A73" s="315"/>
-      <c r="B73" s="310"/>
+      <c r="A73" s="311"/>
+      <c r="B73" s="304"/>
       <c r="C73" s="107">
         <v>43291</v>
       </c>
@@ -17672,8 +18437,8 @@
       <c r="I73" s="112"/>
     </row>
     <row r="74" spans="1:9" ht="16.2" thickBot="1">
-      <c r="A74" s="315"/>
-      <c r="B74" s="310"/>
+      <c r="A74" s="311"/>
+      <c r="B74" s="304"/>
       <c r="C74" s="107">
         <v>43292</v>
       </c>
@@ -17689,8 +18454,8 @@
       <c r="I74" s="112"/>
     </row>
     <row r="75" spans="1:9" ht="16.2" thickBot="1">
-      <c r="A75" s="315"/>
-      <c r="B75" s="310"/>
+      <c r="A75" s="311"/>
+      <c r="B75" s="304"/>
       <c r="C75" s="107">
         <v>43293</v>
       </c>
@@ -17706,8 +18471,8 @@
       <c r="I75" s="112"/>
     </row>
     <row r="76" spans="1:9" ht="16.2" thickBot="1">
-      <c r="A76" s="315"/>
-      <c r="B76" s="311"/>
+      <c r="A76" s="311"/>
+      <c r="B76" s="316"/>
       <c r="C76" s="107">
         <v>43294</v>
       </c>
@@ -17723,8 +18488,8 @@
       <c r="I76" s="112"/>
     </row>
     <row r="77" spans="1:9" ht="16.2" thickBot="1">
-      <c r="A77" s="315"/>
-      <c r="B77" s="322">
+      <c r="A77" s="311"/>
+      <c r="B77" s="321">
         <v>16</v>
       </c>
       <c r="C77" s="127">
@@ -17746,8 +18511,8 @@
       <c r="I77" s="123"/>
     </row>
     <row r="78" spans="1:9" ht="16.2" thickBot="1">
-      <c r="A78" s="315"/>
-      <c r="B78" s="320"/>
+      <c r="A78" s="311"/>
+      <c r="B78" s="307"/>
       <c r="C78" s="127">
         <v>43298</v>
       </c>
@@ -17763,8 +18528,8 @@
       <c r="I78" s="123"/>
     </row>
     <row r="79" spans="1:9" ht="16.2" thickBot="1">
-      <c r="A79" s="315"/>
-      <c r="B79" s="320"/>
+      <c r="A79" s="311"/>
+      <c r="B79" s="307"/>
       <c r="C79" s="127">
         <v>43299</v>
       </c>
@@ -17780,8 +18545,8 @@
       <c r="I79" s="123"/>
     </row>
     <row r="80" spans="1:9" ht="16.2" thickBot="1">
-      <c r="A80" s="315"/>
-      <c r="B80" s="320"/>
+      <c r="A80" s="311"/>
+      <c r="B80" s="307"/>
       <c r="C80" s="127">
         <v>43300</v>
       </c>
@@ -17797,8 +18562,8 @@
       <c r="I80" s="123"/>
     </row>
     <row r="81" spans="1:9" ht="16.2" thickBot="1">
-      <c r="A81" s="316"/>
-      <c r="B81" s="323"/>
+      <c r="A81" s="312"/>
+      <c r="B81" s="322"/>
       <c r="C81" s="131">
         <v>43301</v>
       </c>
@@ -17816,10 +18581,10 @@
       <c r="I81" s="135"/>
     </row>
     <row r="82" spans="1:9" ht="15.75" customHeight="1" thickTop="1" thickBot="1">
-      <c r="A82" s="314" t="s">
+      <c r="A82" s="310" t="s">
         <v>76</v>
       </c>
-      <c r="B82" s="309">
+      <c r="B82" s="303">
         <v>17</v>
       </c>
       <c r="C82" s="107">
@@ -17837,8 +18602,8 @@
       <c r="I82" s="112"/>
     </row>
     <row r="83" spans="1:9" ht="16.2" thickBot="1">
-      <c r="A83" s="315"/>
-      <c r="B83" s="310"/>
+      <c r="A83" s="311"/>
+      <c r="B83" s="304"/>
       <c r="C83" s="107">
         <v>43305</v>
       </c>
@@ -17854,8 +18619,8 @@
       <c r="I83" s="112"/>
     </row>
     <row r="84" spans="1:9" ht="16.2" thickBot="1">
-      <c r="A84" s="315"/>
-      <c r="B84" s="310"/>
+      <c r="A84" s="311"/>
+      <c r="B84" s="304"/>
       <c r="C84" s="107">
         <v>43306</v>
       </c>
@@ -17871,8 +18636,8 @@
       <c r="I84" s="112"/>
     </row>
     <row r="85" spans="1:9" ht="16.2" thickBot="1">
-      <c r="A85" s="315"/>
-      <c r="B85" s="310"/>
+      <c r="A85" s="311"/>
+      <c r="B85" s="304"/>
       <c r="C85" s="107">
         <v>43307</v>
       </c>
@@ -17888,8 +18653,8 @@
       <c r="I85" s="112"/>
     </row>
     <row r="86" spans="1:9" ht="16.2" thickBot="1">
-      <c r="A86" s="316"/>
-      <c r="B86" s="313"/>
+      <c r="A86" s="312"/>
+      <c r="B86" s="305"/>
       <c r="C86" s="114">
         <v>43308</v>
       </c>
@@ -17905,10 +18670,10 @@
       <c r="I86" s="118"/>
     </row>
     <row r="87" spans="1:9" ht="16.8" thickTop="1" thickBot="1">
-      <c r="A87" s="314" t="s">
+      <c r="A87" s="310" t="s">
         <v>632</v>
       </c>
-      <c r="B87" s="306">
+      <c r="B87" s="323">
         <v>18</v>
       </c>
       <c r="C87" s="119">
@@ -17930,8 +18695,8 @@
       <c r="I87" s="123"/>
     </row>
     <row r="88" spans="1:9" ht="16.2" thickBot="1">
-      <c r="A88" s="315"/>
-      <c r="B88" s="307"/>
+      <c r="A88" s="311"/>
+      <c r="B88" s="314"/>
       <c r="C88" s="119">
         <v>43312</v>
       </c>
@@ -17947,8 +18712,8 @@
       <c r="I88" s="123"/>
     </row>
     <row r="89" spans="1:9" ht="16.2" thickBot="1">
-      <c r="A89" s="315"/>
-      <c r="B89" s="307"/>
+      <c r="A89" s="311"/>
+      <c r="B89" s="314"/>
       <c r="C89" s="119">
         <v>43313</v>
       </c>
@@ -17964,8 +18729,8 @@
       <c r="I89" s="123"/>
     </row>
     <row r="90" spans="1:9" ht="16.2" thickBot="1">
-      <c r="A90" s="315"/>
-      <c r="B90" s="307"/>
+      <c r="A90" s="311"/>
+      <c r="B90" s="314"/>
       <c r="C90" s="119">
         <v>43314</v>
       </c>
@@ -17981,8 +18746,8 @@
       <c r="I90" s="123"/>
     </row>
     <row r="91" spans="1:9" ht="27.6" thickBot="1">
-      <c r="A91" s="315"/>
-      <c r="B91" s="317"/>
+      <c r="A91" s="311"/>
+      <c r="B91" s="315"/>
       <c r="C91" s="119">
         <v>43315</v>
       </c>
@@ -18000,8 +18765,8 @@
       <c r="I91" s="123"/>
     </row>
     <row r="92" spans="1:9" ht="16.2" thickBot="1">
-      <c r="A92" s="315"/>
-      <c r="B92" s="318">
+      <c r="A92" s="311"/>
+      <c r="B92" s="309">
         <v>19</v>
       </c>
       <c r="C92" s="107">
@@ -18019,8 +18784,8 @@
       <c r="I92" s="112"/>
     </row>
     <row r="93" spans="1:9" ht="16.2" thickBot="1">
-      <c r="A93" s="315"/>
-      <c r="B93" s="310"/>
+      <c r="A93" s="311"/>
+      <c r="B93" s="304"/>
       <c r="C93" s="107">
         <v>43319</v>
       </c>
@@ -18036,8 +18801,8 @@
       <c r="I93" s="112"/>
     </row>
     <row r="94" spans="1:9" ht="16.2" thickBot="1">
-      <c r="A94" s="315"/>
-      <c r="B94" s="310"/>
+      <c r="A94" s="311"/>
+      <c r="B94" s="304"/>
       <c r="C94" s="107">
         <v>43320</v>
       </c>
@@ -18053,8 +18818,8 @@
       <c r="I94" s="112"/>
     </row>
     <row r="95" spans="1:9" ht="16.2" thickBot="1">
-      <c r="A95" s="315"/>
-      <c r="B95" s="310"/>
+      <c r="A95" s="311"/>
+      <c r="B95" s="304"/>
       <c r="C95" s="107">
         <v>43321</v>
       </c>
@@ -18070,8 +18835,8 @@
       <c r="I95" s="112"/>
     </row>
     <row r="96" spans="1:9" ht="16.2" thickBot="1">
-      <c r="A96" s="315"/>
-      <c r="B96" s="311"/>
+      <c r="A96" s="311"/>
+      <c r="B96" s="316"/>
       <c r="C96" s="107">
         <v>43322</v>
       </c>
@@ -18087,8 +18852,8 @@
       <c r="I96" s="112"/>
     </row>
     <row r="97" spans="1:9" ht="16.2" thickBot="1">
-      <c r="A97" s="315"/>
-      <c r="B97" s="312">
+      <c r="A97" s="311"/>
+      <c r="B97" s="313">
         <v>20</v>
       </c>
       <c r="C97" s="119">
@@ -18108,8 +18873,8 @@
       <c r="I97" s="123"/>
     </row>
     <row r="98" spans="1:9" ht="16.2" thickBot="1">
-      <c r="A98" s="315"/>
-      <c r="B98" s="307"/>
+      <c r="A98" s="311"/>
+      <c r="B98" s="314"/>
       <c r="C98" s="119">
         <v>43326</v>
       </c>
@@ -18125,8 +18890,8 @@
       <c r="I98" s="123"/>
     </row>
     <row r="99" spans="1:9" ht="16.2" thickBot="1">
-      <c r="A99" s="315"/>
-      <c r="B99" s="307"/>
+      <c r="A99" s="311"/>
+      <c r="B99" s="314"/>
       <c r="C99" s="119">
         <v>43327</v>
       </c>
@@ -18142,8 +18907,8 @@
       <c r="I99" s="123"/>
     </row>
     <row r="100" spans="1:9" ht="16.2" thickBot="1">
-      <c r="A100" s="315"/>
-      <c r="B100" s="307"/>
+      <c r="A100" s="311"/>
+      <c r="B100" s="314"/>
       <c r="C100" s="119">
         <v>43328</v>
       </c>
@@ -18161,8 +18926,8 @@
       <c r="I100" s="123"/>
     </row>
     <row r="101" spans="1:9" ht="16.2" thickBot="1">
-      <c r="A101" s="316"/>
-      <c r="B101" s="308"/>
+      <c r="A101" s="312"/>
+      <c r="B101" s="324"/>
       <c r="C101" s="137">
         <v>43329</v>
       </c>
@@ -24472,6 +25237,21 @@
     </row>
   </sheetData>
   <mergeCells count="27">
+    <mergeCell ref="A47:A61"/>
+    <mergeCell ref="B47:B51"/>
+    <mergeCell ref="B52:B56"/>
+    <mergeCell ref="B57:B61"/>
+    <mergeCell ref="B62:B66"/>
+    <mergeCell ref="A82:A86"/>
+    <mergeCell ref="A87:A101"/>
+    <mergeCell ref="A62:A81"/>
+    <mergeCell ref="B87:B91"/>
+    <mergeCell ref="B92:B96"/>
+    <mergeCell ref="B97:B101"/>
+    <mergeCell ref="B67:B71"/>
+    <mergeCell ref="B72:B76"/>
+    <mergeCell ref="B77:B81"/>
+    <mergeCell ref="B82:B86"/>
     <mergeCell ref="B32:B36"/>
     <mergeCell ref="B37:B41"/>
     <mergeCell ref="B42:B46"/>
@@ -24484,21 +25264,6 @@
     <mergeCell ref="B22:B26"/>
     <mergeCell ref="B27:B31"/>
     <mergeCell ref="A32:A46"/>
-    <mergeCell ref="A82:A86"/>
-    <mergeCell ref="A87:A101"/>
-    <mergeCell ref="A62:A81"/>
-    <mergeCell ref="B87:B91"/>
-    <mergeCell ref="B92:B96"/>
-    <mergeCell ref="B97:B101"/>
-    <mergeCell ref="B67:B71"/>
-    <mergeCell ref="B72:B76"/>
-    <mergeCell ref="B77:B81"/>
-    <mergeCell ref="B82:B86"/>
-    <mergeCell ref="A47:A61"/>
-    <mergeCell ref="B47:B51"/>
-    <mergeCell ref="B52:B56"/>
-    <mergeCell ref="B57:B61"/>
-    <mergeCell ref="B62:B66"/>
   </mergeCells>
   <hyperlinks>
     <hyperlink ref="I2" r:id="rId1" display="https://drive.google.com/open?id=12f1t9Kg0CD9OW5iG5jB3Ozx_iRGw-cbyozVUPhhG6ME"/>
